--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -460,7 +460,7 @@
     <definedName name="x0713t6a">#REF!</definedName>
     <definedName name="x0713t8a">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -470,7 +470,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -625,13 +625,13 @@
     <t>2021 - 2021</t>
   </si>
   <si>
-    <t>As of August 2021</t>
+    <t>As of November 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2021</t>
+    <t>Q1 2000 to Q3 2021</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2021</t>
+    <t>Q1 2001 to Q3 2021</t>
   </si>
 </sst>
 </file>
@@ -23647,7 +23647,7 @@
       <selection activeCell="N19" sqref="N19"/>
       <selection pane="topRight" activeCell="N19" sqref="N19"/>
       <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
-      <selection pane="bottomRight" activeCell="BR2" sqref="BR2"/>
+      <selection pane="bottomRight" activeCell="CE8" sqref="CE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7265625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23656,8 +23656,8 @@
     <col min="2" max="77" width="8.81640625" style="1" customWidth="1"/>
     <col min="78" max="78" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="79" max="81" width="8.81640625" style="1" customWidth="1"/>
-    <col min="82" max="87" width="8.81640625" style="26" customWidth="1"/>
-    <col min="88" max="16384" width="7.7265625" style="1"/>
+    <col min="82" max="88" width="10.26953125" style="26" customWidth="1"/>
+    <col min="89" max="16384" width="7.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.25">
@@ -23822,6 +23822,7 @@
         <v>2021</v>
       </c>
       <c r="CI9" s="41"/>
+      <c r="CJ9" s="41"/>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -24084,6 +24085,9 @@
       </c>
       <c r="CI10" s="27" t="s">
         <v>7</v>
+      </c>
+      <c r="CJ10" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:128" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24349,9 +24353,11 @@
         <v>165750.39513884875</v>
       </c>
       <c r="CI12" s="28">
-        <v>423038.21407948848</v>
-      </c>
-      <c r="CJ12" s="9"/>
+        <v>408089.84896397282</v>
+      </c>
+      <c r="CJ12" s="28">
+        <v>205816.56519961392</v>
+      </c>
       <c r="CK12" s="9"/>
       <c r="CL12" s="9"/>
       <c r="CM12" s="9"/>
@@ -24653,9 +24659,11 @@
         <v>184778.94931164093</v>
       </c>
       <c r="CI13" s="28">
-        <v>193194.87097302394</v>
-      </c>
-      <c r="CJ13" s="9"/>
+        <v>202453.3879179135</v>
+      </c>
+      <c r="CJ13" s="28">
+        <v>220143.62672113531</v>
+      </c>
       <c r="CK13" s="9"/>
       <c r="CL13" s="9"/>
       <c r="CM13" s="9"/>
@@ -24957,9 +24965,11 @@
         <v>154954.04483242522</v>
       </c>
       <c r="CI14" s="28">
-        <v>191432.23437103743</v>
-      </c>
-      <c r="CJ14" s="9"/>
+        <v>207082.05694075822</v>
+      </c>
+      <c r="CJ14" s="28">
+        <v>193469.03063316338</v>
+      </c>
       <c r="CK14" s="9"/>
       <c r="CL14" s="9"/>
       <c r="CM14" s="9"/>
@@ -25088,7 +25098,7 @@
       <c r="CG15" s="29"/>
       <c r="CH15" s="29"/>
       <c r="CI15" s="29"/>
-      <c r="CJ15" s="9"/>
+      <c r="CJ15" s="29"/>
       <c r="CK15" s="9"/>
       <c r="CL15" s="9"/>
       <c r="CM15" s="9"/>
@@ -25390,9 +25400,11 @@
         <v>505483.38928291493</v>
       </c>
       <c r="CI16" s="30">
-        <v>807665.31942354981</v>
-      </c>
-      <c r="CJ16" s="9"/>
+        <v>817625.29382264463</v>
+      </c>
+      <c r="CJ16" s="30">
+        <v>619429.22255391267</v>
+      </c>
       <c r="CK16" s="9"/>
       <c r="CL16" s="9"/>
       <c r="CM16" s="9"/>
@@ -25522,6 +25534,7 @@
       <c r="CG17" s="31"/>
       <c r="CH17" s="31"/>
       <c r="CI17" s="31"/>
+      <c r="CJ17" s="31"/>
     </row>
     <row r="18" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
@@ -25611,7 +25624,7 @@
       <c r="CG18" s="30"/>
       <c r="CH18" s="30"/>
       <c r="CI18" s="30"/>
-      <c r="CJ18" s="9"/>
+      <c r="CJ18" s="30"/>
       <c r="CK18" s="9"/>
       <c r="CL18" s="9"/>
       <c r="CM18" s="9"/>
@@ -25913,9 +25926,11 @@
         <v>233748.40275130217</v>
       </c>
       <c r="CI19" s="28">
-        <v>400158.67202661419</v>
-      </c>
-      <c r="CJ19" s="9"/>
+        <v>403919.84952264687</v>
+      </c>
+      <c r="CJ19" s="28">
+        <v>300649.35520503263</v>
+      </c>
       <c r="CK19" s="9"/>
       <c r="CL19" s="9"/>
       <c r="CM19" s="9"/>
@@ -26045,6 +26060,7 @@
       <c r="CG20" s="32"/>
       <c r="CH20" s="32"/>
       <c r="CI20" s="32"/>
+      <c r="CJ20" s="32"/>
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
@@ -26071,6 +26087,7 @@
       <c r="CG23" s="33"/>
       <c r="CH23" s="33"/>
       <c r="CI23" s="33"/>
+      <c r="CJ23" s="33"/>
     </row>
     <row r="24" spans="1:128" s="16" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G24" s="17"/>
@@ -26087,6 +26104,7 @@
       <c r="CG24" s="33"/>
       <c r="CH24" s="33"/>
       <c r="CI24" s="33"/>
+      <c r="CJ24" s="33"/>
     </row>
     <row r="25" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -26252,6 +26270,7 @@
       <c r="CI33" s="41">
         <v>0</v>
       </c>
+      <c r="CJ33" s="41"/>
     </row>
     <row r="34" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -26514,6 +26533,9 @@
       </c>
       <c r="CI34" s="27" t="s">
         <v>7</v>
+      </c>
+      <c r="CJ34" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:128" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26779,9 +26801,11 @@
         <v>149573.86257812005</v>
       </c>
       <c r="CI36" s="28">
-        <v>403518.74894701468</v>
-      </c>
-      <c r="CJ36" s="9"/>
+        <v>389680.74200119474</v>
+      </c>
+      <c r="CJ36" s="28">
+        <v>185056.85624962513</v>
+      </c>
       <c r="CK36" s="9"/>
       <c r="CL36" s="9"/>
       <c r="CM36" s="9"/>
@@ -27083,9 +27107,11 @@
         <v>183196.04093958318</v>
       </c>
       <c r="CI37" s="28">
-        <v>189353.93879472587</v>
-      </c>
-      <c r="CJ37" s="9"/>
+        <v>198602.87311907456</v>
+      </c>
+      <c r="CJ37" s="28">
+        <v>190341.00846097132</v>
+      </c>
       <c r="CK37" s="9"/>
       <c r="CL37" s="9"/>
       <c r="CM37" s="9"/>
@@ -27387,9 +27413,11 @@
         <v>136654.56919980224</v>
       </c>
       <c r="CI38" s="28">
-        <v>177063.73796015565</v>
-      </c>
-      <c r="CJ38" s="9"/>
+        <v>191696.40831007509</v>
+      </c>
+      <c r="CJ38" s="28">
+        <v>170196.22992488113</v>
+      </c>
       <c r="CK38" s="9"/>
       <c r="CL38" s="9"/>
       <c r="CM38" s="9"/>
@@ -27518,7 +27546,7 @@
       <c r="CG39" s="29"/>
       <c r="CH39" s="29"/>
       <c r="CI39" s="29"/>
-      <c r="CJ39" s="9"/>
+      <c r="CJ39" s="29"/>
       <c r="CK39" s="9"/>
       <c r="CL39" s="9"/>
       <c r="CM39" s="9"/>
@@ -27820,9 +27848,11 @@
         <v>469424.47271750547</v>
       </c>
       <c r="CI40" s="30">
-        <v>769936.42570189619</v>
-      </c>
-      <c r="CJ40" s="9"/>
+        <v>779980.02343034442</v>
+      </c>
+      <c r="CJ40" s="30">
+        <v>545594.09463547752</v>
+      </c>
       <c r="CK40" s="9"/>
       <c r="CL40" s="9"/>
       <c r="CM40" s="9"/>
@@ -27952,6 +27982,7 @@
       <c r="CG41" s="31"/>
       <c r="CH41" s="31"/>
       <c r="CI41" s="31"/>
+      <c r="CJ41" s="31"/>
     </row>
     <row r="42" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
@@ -28041,7 +28072,7 @@
       <c r="CG42" s="30"/>
       <c r="CH42" s="30"/>
       <c r="CI42" s="30"/>
-      <c r="CJ42" s="9"/>
+      <c r="CJ42" s="30"/>
       <c r="CK42" s="9"/>
       <c r="CL42" s="9"/>
       <c r="CM42" s="9"/>
@@ -28343,9 +28374,11 @@
         <v>222346.2545348627</v>
       </c>
       <c r="CI43" s="28">
-        <v>341500.34345070051</v>
-      </c>
-      <c r="CJ43" s="9"/>
+        <v>345331.76311942958</v>
+      </c>
+      <c r="CJ43" s="28">
+        <v>274240.13508707017</v>
+      </c>
       <c r="CK43" s="9"/>
       <c r="CL43" s="9"/>
       <c r="CM43" s="9"/>
@@ -28475,6 +28508,7 @@
       <c r="CG44" s="32"/>
       <c r="CH44" s="32"/>
       <c r="CI44" s="32"/>
+      <c r="CJ44" s="32"/>
     </row>
     <row r="45" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
@@ -28573,7 +28607,7 @@
       <c r="CG47" s="29"/>
       <c r="CH47" s="29"/>
       <c r="CI47" s="29"/>
-      <c r="CJ47" s="9"/>
+      <c r="CJ47" s="29"/>
       <c r="CK47" s="9"/>
       <c r="CL47" s="9"/>
       <c r="CM47" s="9"/>
@@ -28702,7 +28736,7 @@
       <c r="CG48" s="29"/>
       <c r="CH48" s="29"/>
       <c r="CI48" s="29"/>
-      <c r="CJ48" s="9"/>
+      <c r="CJ48" s="29"/>
       <c r="CK48" s="9"/>
       <c r="CL48" s="9"/>
       <c r="CM48" s="9"/>
@@ -28905,10 +28939,11 @@
       <c r="CE57" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="CF57" s="34"/>
+      <c r="CF57" s="41"/>
       <c r="CG57" s="34"/>
       <c r="CH57" s="34"/>
       <c r="CI57" s="34"/>
+      <c r="CJ57" s="34"/>
     </row>
     <row r="58" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
@@ -29160,10 +29195,13 @@
       <c r="CE58" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CF58" s="35"/>
+      <c r="CF58" s="27" t="s">
+        <v>9</v>
+      </c>
       <c r="CG58" s="35"/>
       <c r="CH58" s="35"/>
       <c r="CI58" s="35"/>
+      <c r="CJ58" s="35"/>
     </row>
     <row r="59" spans="1:120" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
@@ -29416,13 +29454,15 @@
         <v>25.888440320982852</v>
       </c>
       <c r="CE60" s="39">
-        <v>54.488147998665681</v>
-      </c>
-      <c r="CF60" s="36"/>
+        <v>49.029196146457963</v>
+      </c>
+      <c r="CF60" s="39">
+        <v>60.163915918356935</v>
+      </c>
       <c r="CG60" s="36"/>
       <c r="CH60" s="36"/>
       <c r="CI60" s="36"/>
-      <c r="CJ60" s="9"/>
+      <c r="CJ60" s="36"/>
       <c r="CK60" s="9"/>
       <c r="CL60" s="9"/>
       <c r="CM60" s="9"/>
@@ -29704,13 +29744,15 @@
         <v>-44.093198901055409</v>
       </c>
       <c r="CE61" s="39">
-        <v>-25.431812035405116</v>
-      </c>
-      <c r="CF61" s="36"/>
+        <v>-21.858265655303171</v>
+      </c>
+      <c r="CF61" s="39">
+        <v>-9.4873220756005594</v>
+      </c>
       <c r="CG61" s="36"/>
       <c r="CH61" s="36"/>
       <c r="CI61" s="36"/>
-      <c r="CJ61" s="9"/>
+      <c r="CJ61" s="36"/>
       <c r="CK61" s="9"/>
       <c r="CL61" s="9"/>
       <c r="CM61" s="9"/>
@@ -29992,13 +30034,15 @@
         <v>-23.433711310077712</v>
       </c>
       <c r="CE62" s="39">
-        <v>299.09944521175674</v>
-      </c>
-      <c r="CF62" s="36"/>
+        <v>331.72631981184219</v>
+      </c>
+      <c r="CF62" s="39">
+        <v>68.18833156700822</v>
+      </c>
       <c r="CG62" s="36"/>
       <c r="CH62" s="36"/>
       <c r="CI62" s="36"/>
-      <c r="CJ62" s="9"/>
+      <c r="CJ62" s="36"/>
       <c r="CK62" s="9"/>
       <c r="CL62" s="9"/>
       <c r="CM62" s="9"/>
@@ -30119,7 +30163,7 @@
       <c r="CG63" s="36"/>
       <c r="CH63" s="36"/>
       <c r="CI63" s="36"/>
-      <c r="CJ63" s="9"/>
+      <c r="CJ63" s="36"/>
       <c r="CK63" s="9"/>
       <c r="CL63" s="9"/>
       <c r="CM63" s="9"/>
@@ -30401,13 +30445,15 @@
         <v>-23.936665923350333</v>
       </c>
       <c r="CE64" s="39">
-        <v>39.040954447682708</v>
-      </c>
-      <c r="CF64" s="36"/>
+        <v>40.755580931475578</v>
+      </c>
+      <c r="CF64" s="39">
+        <v>27.25728612625953</v>
+      </c>
       <c r="CG64" s="36"/>
       <c r="CH64" s="36"/>
       <c r="CI64" s="36"/>
-      <c r="CJ64" s="9"/>
+      <c r="CJ64" s="36"/>
       <c r="CK64" s="9"/>
       <c r="CL64" s="9"/>
       <c r="CM64" s="9"/>
@@ -30525,10 +30571,11 @@
       <c r="CC65" s="24"/>
       <c r="CD65" s="40"/>
       <c r="CE65" s="40"/>
-      <c r="CF65" s="37"/>
+      <c r="CF65" s="40"/>
       <c r="CG65" s="37"/>
       <c r="CH65" s="37"/>
       <c r="CI65" s="37"/>
+      <c r="CJ65" s="37"/>
     </row>
     <row r="66" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
@@ -30614,11 +30661,11 @@
       <c r="CC66" s="20"/>
       <c r="CD66" s="39"/>
       <c r="CE66" s="39"/>
-      <c r="CF66" s="36"/>
+      <c r="CF66" s="39"/>
       <c r="CG66" s="36"/>
       <c r="CH66" s="36"/>
       <c r="CI66" s="36"/>
-      <c r="CJ66" s="9"/>
+      <c r="CJ66" s="36"/>
       <c r="CK66" s="9"/>
       <c r="CL66" s="9"/>
       <c r="CM66" s="9"/>
@@ -30900,13 +30947,15 @@
         <v>-23.458067975380033</v>
       </c>
       <c r="CE67" s="39">
-        <v>30.142233864628736</v>
-      </c>
-      <c r="CF67" s="36"/>
+        <v>31.365468734976645</v>
+      </c>
+      <c r="CF67" s="39">
+        <v>24.540100292787542</v>
+      </c>
       <c r="CG67" s="36"/>
       <c r="CH67" s="36"/>
       <c r="CI67" s="36"/>
-      <c r="CJ67" s="9"/>
+      <c r="CJ67" s="36"/>
       <c r="CK67" s="9"/>
       <c r="CL67" s="9"/>
       <c r="CM67" s="9"/>
@@ -31028,6 +31077,7 @@
       <c r="CG68" s="32"/>
       <c r="CH68" s="32"/>
       <c r="CI68" s="32"/>
+      <c r="CJ68" s="32"/>
     </row>
     <row r="69" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
@@ -31126,7 +31176,7 @@
       <c r="CG71" s="29"/>
       <c r="CH71" s="29"/>
       <c r="CI71" s="29"/>
-      <c r="CJ71" s="9"/>
+      <c r="CJ71" s="29"/>
       <c r="CK71" s="9"/>
       <c r="CL71" s="9"/>
       <c r="CM71" s="9"/>
@@ -31247,7 +31297,7 @@
       <c r="CG72" s="29"/>
       <c r="CH72" s="29"/>
       <c r="CI72" s="29"/>
-      <c r="CJ72" s="9"/>
+      <c r="CJ72" s="29"/>
       <c r="CK72" s="9"/>
       <c r="CL72" s="9"/>
       <c r="CM72" s="9"/>
@@ -31439,10 +31489,11 @@
       <c r="CE81" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="CF81" s="34"/>
+      <c r="CF81" s="41"/>
       <c r="CG81" s="34"/>
       <c r="CH81" s="34"/>
       <c r="CI81" s="34"/>
+      <c r="CJ81" s="34"/>
     </row>
     <row r="82" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -31694,10 +31745,13 @@
       <c r="CE82" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CF82" s="35"/>
+      <c r="CF82" s="27" t="s">
+        <v>9</v>
+      </c>
       <c r="CG82" s="35"/>
       <c r="CH82" s="35"/>
       <c r="CI82" s="35"/>
+      <c r="CJ82" s="35"/>
     </row>
     <row r="83" spans="1:128" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
@@ -31950,13 +32004,15 @@
         <v>25.264455008924429</v>
       </c>
       <c r="CE84" s="39">
-        <v>49.654249089940379</v>
-      </c>
-      <c r="CF84" s="36"/>
+        <v>44.522104564358528</v>
+      </c>
+      <c r="CF84" s="39">
+        <v>55.333049832086601</v>
+      </c>
       <c r="CG84" s="36"/>
       <c r="CH84" s="36"/>
       <c r="CI84" s="36"/>
-      <c r="CJ84" s="9"/>
+      <c r="CJ84" s="36"/>
       <c r="CK84" s="9"/>
       <c r="CL84" s="9"/>
       <c r="CM84" s="9"/>
@@ -32238,13 +32294,15 @@
         <v>-44.401394583168511</v>
       </c>
       <c r="CE85" s="39">
-        <v>-27.652794583507216</v>
-      </c>
-      <c r="CF85" s="36"/>
+        <v>-24.11901780702992</v>
+      </c>
+      <c r="CF85" s="39">
+        <v>-12.178619526177627</v>
+      </c>
       <c r="CG85" s="36"/>
       <c r="CH85" s="36"/>
       <c r="CI85" s="36"/>
-      <c r="CJ85" s="9"/>
+      <c r="CJ85" s="36"/>
       <c r="CK85" s="9"/>
       <c r="CL85" s="9"/>
       <c r="CM85" s="9"/>
@@ -32526,13 +32584,15 @@
         <v>-24.002929837757975</v>
       </c>
       <c r="CE86" s="39">
-        <v>286.3283975759386</v>
-      </c>
-      <c r="CF86" s="36"/>
+        <v>318.25484481841926</v>
+      </c>
+      <c r="CF86" s="39">
+        <v>62.603485880576898</v>
+      </c>
       <c r="CG86" s="36"/>
       <c r="CH86" s="36"/>
       <c r="CI86" s="36"/>
-      <c r="CJ86" s="9"/>
+      <c r="CJ86" s="36"/>
       <c r="CK86" s="9"/>
       <c r="CL86" s="9"/>
       <c r="CM86" s="9"/>
@@ -32653,7 +32713,7 @@
       <c r="CG87" s="36"/>
       <c r="CH87" s="36"/>
       <c r="CI87" s="36"/>
-      <c r="CJ87" s="9"/>
+      <c r="CJ87" s="36"/>
       <c r="CK87" s="9"/>
       <c r="CL87" s="9"/>
       <c r="CM87" s="9"/>
@@ -32935,13 +32995,15 @@
         <v>-25.336433112895264</v>
       </c>
       <c r="CE88" s="39">
-        <v>33.392568158350798</v>
-      </c>
-      <c r="CF88" s="36"/>
+        <v>35.132635584470762</v>
+      </c>
+      <c r="CF88" s="39">
+        <v>23.846230734352659</v>
+      </c>
       <c r="CG88" s="36"/>
       <c r="CH88" s="36"/>
       <c r="CI88" s="36"/>
-      <c r="CJ88" s="9"/>
+      <c r="CJ88" s="36"/>
       <c r="CK88" s="9"/>
       <c r="CL88" s="9"/>
       <c r="CM88" s="9"/>
@@ -33059,10 +33121,11 @@
       <c r="CC89" s="24"/>
       <c r="CD89" s="40"/>
       <c r="CE89" s="40"/>
-      <c r="CF89" s="37"/>
+      <c r="CF89" s="40"/>
       <c r="CG89" s="37"/>
       <c r="CH89" s="37"/>
       <c r="CI89" s="37"/>
+      <c r="CJ89" s="37"/>
     </row>
     <row r="90" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
@@ -33148,11 +33211,11 @@
       <c r="CC90" s="20"/>
       <c r="CD90" s="39"/>
       <c r="CE90" s="39"/>
-      <c r="CF90" s="36"/>
+      <c r="CF90" s="39"/>
       <c r="CG90" s="36"/>
       <c r="CH90" s="36"/>
       <c r="CI90" s="36"/>
-      <c r="CJ90" s="9"/>
+      <c r="CJ90" s="36"/>
       <c r="CK90" s="9"/>
       <c r="CL90" s="9"/>
       <c r="CM90" s="9"/>
@@ -33434,13 +33497,15 @@
         <v>-22.630810783961834</v>
       </c>
       <c r="CE91" s="39">
-        <v>25.683764384599542</v>
-      </c>
-      <c r="CF91" s="36"/>
+        <v>27.093857393693639</v>
+      </c>
+      <c r="CF91" s="39">
+        <v>16.810758953452194</v>
+      </c>
       <c r="CG91" s="36"/>
       <c r="CH91" s="36"/>
       <c r="CI91" s="36"/>
-      <c r="CJ91" s="9"/>
+      <c r="CJ91" s="36"/>
       <c r="CK91" s="9"/>
       <c r="CL91" s="9"/>
       <c r="CM91" s="9"/>
@@ -33562,6 +33627,7 @@
       <c r="CG92" s="32"/>
       <c r="CH92" s="32"/>
       <c r="CI92" s="32"/>
+      <c r="CJ92" s="32"/>
     </row>
     <row r="93" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
@@ -33660,7 +33726,7 @@
       <c r="CG95" s="29"/>
       <c r="CH95" s="29"/>
       <c r="CI95" s="29"/>
-      <c r="CJ95" s="9"/>
+      <c r="CJ95" s="29"/>
       <c r="CK95" s="9"/>
       <c r="CL95" s="9"/>
       <c r="CM95" s="9"/>
@@ -33789,7 +33855,7 @@
       <c r="CG96" s="29"/>
       <c r="CH96" s="29"/>
       <c r="CI96" s="29"/>
-      <c r="CJ96" s="9"/>
+      <c r="CJ96" s="29"/>
       <c r="CK96" s="9"/>
       <c r="CL96" s="9"/>
       <c r="CM96" s="9"/>
@@ -33990,6 +34056,7 @@
       <c r="CI104" s="41">
         <v>0</v>
       </c>
+      <c r="CJ104" s="41"/>
     </row>
     <row r="105" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
@@ -34252,6 +34319,9 @@
       </c>
       <c r="CI105" s="27" t="s">
         <v>7</v>
+      </c>
+      <c r="CJ105" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:128" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34517,9 +34587,11 @@
         <v>110.8150797752381</v>
       </c>
       <c r="CI107" s="38">
-        <v>104.83731305754938</v>
-      </c>
-      <c r="CJ107" s="9"/>
+        <v>104.72415107511821</v>
+      </c>
+      <c r="CJ107" s="38">
+        <v>111.2180166521287</v>
+      </c>
       <c r="CK107" s="9"/>
       <c r="CL107" s="9"/>
       <c r="CM107" s="9"/>
@@ -34821,9 +34893,11 @@
         <v>100.864051626847</v>
       </c>
       <c r="CI108" s="38">
-        <v>102.02844060321445</v>
-      </c>
-      <c r="CJ108" s="9"/>
+        <v>101.93880115547489</v>
+      </c>
+      <c r="CJ108" s="38">
+        <v>115.65748679232983</v>
+      </c>
       <c r="CK108" s="9"/>
       <c r="CL108" s="9"/>
       <c r="CM108" s="9"/>
@@ -35125,9 +35199,11 @@
         <v>113.39104556823662</v>
       </c>
       <c r="CI109" s="38">
-        <v>108.11487240493878</v>
-      </c>
-      <c r="CJ109" s="9"/>
+        <v>108.02604950521366</v>
+      </c>
+      <c r="CJ109" s="38">
+        <v>113.67409884376056</v>
+      </c>
       <c r="CK109" s="9"/>
       <c r="CL109" s="9"/>
       <c r="CM109" s="9"/>
@@ -35256,7 +35332,7 @@
       <c r="CG110" s="29"/>
       <c r="CH110" s="29"/>
       <c r="CI110" s="29"/>
-      <c r="CJ110" s="9"/>
+      <c r="CJ110" s="29"/>
       <c r="CK110" s="9"/>
       <c r="CL110" s="9"/>
       <c r="CM110" s="9"/>
@@ -35558,9 +35634,11 @@
         <v>107.6815161247695</v>
       </c>
       <c r="CI111" s="38">
-        <v>104.9002609127447</v>
-      </c>
-      <c r="CJ111" s="9"/>
+        <v>104.82644032686078</v>
+      </c>
+      <c r="CJ111" s="38">
+        <v>113.53297783909591</v>
+      </c>
       <c r="CK111" s="9"/>
       <c r="CL111" s="9"/>
       <c r="CM111" s="9"/>
@@ -35690,6 +35768,7 @@
       <c r="CG112" s="31"/>
       <c r="CH112" s="31"/>
       <c r="CI112" s="31"/>
+      <c r="CJ112" s="31"/>
     </row>
     <row r="113" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
@@ -35779,7 +35858,7 @@
       <c r="CG113" s="30"/>
       <c r="CH113" s="30"/>
       <c r="CI113" s="30"/>
-      <c r="CJ113" s="9"/>
+      <c r="CJ113" s="30"/>
       <c r="CK113" s="9"/>
       <c r="CL113" s="9"/>
       <c r="CM113" s="9"/>
@@ -36081,9 +36160,11 @@
         <v>105.12810446944214</v>
       </c>
       <c r="CI114" s="38">
-        <v>117.17665287923251</v>
-      </c>
-      <c r="CJ114" s="9"/>
+        <v>116.96573922826646</v>
+      </c>
+      <c r="CJ114" s="38">
+        <v>109.62996175216206</v>
+      </c>
       <c r="CK114" s="9"/>
       <c r="CL114" s="9"/>
       <c r="CM114" s="9"/>
@@ -36213,6 +36294,7 @@
       <c r="CG115" s="32"/>
       <c r="CH115" s="32"/>
       <c r="CI115" s="32"/>
+      <c r="CJ115" s="32"/>
     </row>
     <row r="116" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
@@ -36388,6 +36470,7 @@
       <c r="CI128" s="41">
         <v>0</v>
       </c>
+      <c r="CJ128" s="41"/>
     </row>
     <row r="129" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
@@ -36650,6 +36733,9 @@
       </c>
       <c r="CI129" s="27" t="s">
         <v>7</v>
+      </c>
+      <c r="CJ129" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:128" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -36915,9 +37001,11 @@
         <v>32.790473169451587</v>
       </c>
       <c r="CI131" s="38">
-        <v>52.377909996360991</v>
-      </c>
-      <c r="CJ131" s="9"/>
+        <v>49.911597897862208</v>
+      </c>
+      <c r="CJ131" s="38">
+        <v>33.226809085795182</v>
+      </c>
       <c r="CK131" s="9"/>
       <c r="CL131" s="9"/>
       <c r="CM131" s="9"/>
@@ -37219,9 +37307,11 @@
         <v>36.554900364534362</v>
       </c>
       <c r="CI132" s="38">
-        <v>23.920164247105692</v>
-      </c>
-      <c r="CJ132" s="9"/>
+        <v>24.761145410678637</v>
+      </c>
+      <c r="CJ132" s="38">
+        <v>35.539754778355629</v>
+      </c>
       <c r="CK132" s="9"/>
       <c r="CL132" s="9"/>
       <c r="CM132" s="9"/>
@@ -37523,9 +37613,11 @@
         <v>30.65462646601404</v>
       </c>
       <c r="CI133" s="38">
-        <v>23.701925756533313</v>
-      </c>
-      <c r="CJ133" s="9"/>
+        <v>25.327256691459144</v>
+      </c>
+      <c r="CJ133" s="38">
+        <v>31.233436135849175</v>
+      </c>
       <c r="CK133" s="9"/>
       <c r="CL133" s="9"/>
       <c r="CM133" s="9"/>
@@ -37654,7 +37746,7 @@
       <c r="CG134" s="29"/>
       <c r="CH134" s="29"/>
       <c r="CI134" s="29"/>
-      <c r="CJ134" s="9"/>
+      <c r="CJ134" s="29"/>
       <c r="CK134" s="9"/>
       <c r="CL134" s="9"/>
       <c r="CM134" s="9"/>
@@ -37958,7 +38050,9 @@
       <c r="CI135" s="38">
         <v>100</v>
       </c>
-      <c r="CJ135" s="9"/>
+      <c r="CJ135" s="38">
+        <v>100</v>
+      </c>
       <c r="CK135" s="9"/>
       <c r="CL135" s="9"/>
       <c r="CM135" s="9"/>
@@ -38088,6 +38182,7 @@
       <c r="CG136" s="31"/>
       <c r="CH136" s="31"/>
       <c r="CI136" s="31"/>
+      <c r="CJ136" s="31"/>
     </row>
     <row r="137" spans="1:128" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
@@ -38177,7 +38272,7 @@
       <c r="CG137" s="30"/>
       <c r="CH137" s="30"/>
       <c r="CI137" s="30"/>
-      <c r="CJ137" s="9"/>
+      <c r="CJ137" s="30"/>
       <c r="CK137" s="9"/>
       <c r="CL137" s="9"/>
       <c r="CM137" s="9"/>
@@ -38307,7 +38402,7 @@
       <c r="CG138" s="30"/>
       <c r="CH138" s="30"/>
       <c r="CI138" s="30"/>
-      <c r="CJ138" s="9"/>
+      <c r="CJ138" s="30"/>
       <c r="CK138" s="9"/>
       <c r="CL138" s="9"/>
       <c r="CM138" s="9"/>
@@ -38437,6 +38532,7 @@
       <c r="CG139" s="32"/>
       <c r="CH139" s="32"/>
       <c r="CI139" s="32"/>
+      <c r="CJ139" s="32"/>
     </row>
     <row r="140" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
@@ -38535,7 +38631,7 @@
       <c r="CG142" s="29"/>
       <c r="CH142" s="29"/>
       <c r="CI142" s="29"/>
-      <c r="CJ142" s="9"/>
+      <c r="CJ142" s="29"/>
       <c r="CK142" s="9"/>
       <c r="CL142" s="9"/>
       <c r="CM142" s="9"/>
@@ -38664,7 +38760,7 @@
       <c r="CG143" s="29"/>
       <c r="CH143" s="29"/>
       <c r="CI143" s="29"/>
-      <c r="CJ143" s="9"/>
+      <c r="CJ143" s="29"/>
       <c r="CK143" s="9"/>
       <c r="CL143" s="9"/>
       <c r="CM143" s="9"/>
@@ -38870,6 +38966,7 @@
       <c r="CI152" s="41">
         <v>0</v>
       </c>
+      <c r="CJ152" s="41"/>
     </row>
     <row r="153" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
@@ -39132,6 +39229,9 @@
       </c>
       <c r="CI153" s="27" t="s">
         <v>7</v>
+      </c>
+      <c r="CJ153" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:128" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -39397,9 +39497,11 @@
         <v>31.863243454742502</v>
       </c>
       <c r="CI155" s="38">
-        <v>52.409359458367668</v>
-      </c>
-      <c r="CJ155" s="9"/>
+        <v>49.960349021168867</v>
+      </c>
+      <c r="CJ155" s="38">
+        <v>33.918412620148573</v>
+      </c>
       <c r="CK155" s="9"/>
       <c r="CL155" s="9"/>
       <c r="CM155" s="9"/>
@@ -39701,9 +39803,11 @@
         <v>39.025669002525262</v>
       </c>
       <c r="CI156" s="38">
-        <v>24.59345115697122</v>
-      </c>
-      <c r="CJ156" s="9"/>
+        <v>25.462558931396874</v>
+      </c>
+      <c r="CJ156" s="38">
+        <v>34.886926074253424</v>
+      </c>
       <c r="CK156" s="9"/>
       <c r="CL156" s="9"/>
       <c r="CM156" s="9"/>
@@ -40005,9 +40109,11 @@
         <v>29.111087542732239</v>
       </c>
       <c r="CI157" s="38">
-        <v>22.997189384661109</v>
-      </c>
-      <c r="CJ157" s="9"/>
+        <v>24.577092047434267</v>
+      </c>
+      <c r="CJ157" s="38">
+        <v>31.194661305598014</v>
+      </c>
       <c r="CK157" s="9"/>
       <c r="CL157" s="9"/>
       <c r="CM157" s="9"/>
@@ -40136,7 +40242,7 @@
       <c r="CG158" s="29"/>
       <c r="CH158" s="29"/>
       <c r="CI158" s="29"/>
-      <c r="CJ158" s="9"/>
+      <c r="CJ158" s="29"/>
       <c r="CK158" s="9"/>
       <c r="CL158" s="9"/>
       <c r="CM158" s="9"/>
@@ -40440,7 +40546,9 @@
       <c r="CI159" s="38">
         <v>100</v>
       </c>
-      <c r="CJ159" s="9"/>
+      <c r="CJ159" s="38">
+        <v>100</v>
+      </c>
       <c r="CK159" s="9"/>
       <c r="CL159" s="9"/>
       <c r="CM159" s="9"/>
@@ -40570,6 +40678,7 @@
       <c r="CG160" s="31"/>
       <c r="CH160" s="31"/>
       <c r="CI160" s="31"/>
+      <c r="CJ160" s="31"/>
     </row>
     <row r="161" spans="1:128" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
@@ -40659,7 +40768,7 @@
       <c r="CG161" s="30"/>
       <c r="CH161" s="30"/>
       <c r="CI161" s="30"/>
-      <c r="CJ161" s="9"/>
+      <c r="CJ161" s="30"/>
       <c r="CK161" s="9"/>
       <c r="CL161" s="9"/>
       <c r="CM161" s="9"/>
@@ -40789,7 +40898,7 @@
       <c r="CG162" s="30"/>
       <c r="CH162" s="30"/>
       <c r="CI162" s="30"/>
-      <c r="CJ162" s="9"/>
+      <c r="CJ162" s="30"/>
       <c r="CK162" s="9"/>
       <c r="CL162" s="9"/>
       <c r="CM162" s="9"/>
@@ -40919,6 +41028,7 @@
       <c r="CG163" s="32"/>
       <c r="CH163" s="32"/>
       <c r="CI163" s="32"/>
+      <c r="CJ163" s="32"/>
     </row>
     <row r="164" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
@@ -41060,13 +41170,13 @@
     <mergeCell ref="Z152:AC152"/>
     <mergeCell ref="AD152:AG152"/>
     <mergeCell ref="AH152:AK152"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CH33:CI33"/>
-    <mergeCell ref="CD57:CE57"/>
-    <mergeCell ref="CD81:CE81"/>
-    <mergeCell ref="CH104:CI104"/>
-    <mergeCell ref="CH128:CI128"/>
-    <mergeCell ref="CH152:CI152"/>
+    <mergeCell ref="CH9:CJ9"/>
+    <mergeCell ref="CH33:CJ33"/>
+    <mergeCell ref="CD57:CF57"/>
+    <mergeCell ref="CD81:CF81"/>
+    <mergeCell ref="CH104:CJ104"/>
+    <mergeCell ref="CH128:CJ128"/>
+    <mergeCell ref="CH152:CJ152"/>
     <mergeCell ref="BB152:BE152"/>
     <mergeCell ref="BF152:BI152"/>
     <mergeCell ref="BJ152:BM152"/>

--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="CNS" sheetId="6" r:id="rId1"/>
@@ -325,7 +325,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$CI$167</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$CK$167</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -470,7 +470,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -622,16 +622,13 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>2021 - 2021</t>
+    <t>As of January 2022</t>
   </si>
   <si>
-    <t>As of November 2021</t>
+    <t>Q1 2000 to Q4 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2021</t>
-  </si>
-  <si>
-    <t>Q1 2001 to Q3 2021</t>
+    <t>Q1 2001 to Q4 2021</t>
   </si>
 </sst>
 </file>
@@ -731,7 +728,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -787,6 +784,9 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23643,11 +23643,11 @@
   <dimension ref="A1:DX165"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BR3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
       <selection pane="topRight" activeCell="N19" sqref="N19"/>
       <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
-      <selection pane="bottomRight" activeCell="CE8" sqref="CE8"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7265625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23656,8 +23656,8 @@
     <col min="2" max="77" width="8.81640625" style="1" customWidth="1"/>
     <col min="78" max="78" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="79" max="81" width="8.81640625" style="1" customWidth="1"/>
-    <col min="82" max="88" width="10.26953125" style="26" customWidth="1"/>
-    <col min="89" max="16384" width="7.7265625" style="1"/>
+    <col min="82" max="89" width="9.453125" style="26" customWidth="1"/>
+    <col min="90" max="16384" width="7.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.25">
@@ -23672,7 +23672,7 @@
     </row>
     <row r="3" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:128" x14ac:dyDescent="0.25">
@@ -23682,7 +23682,7 @@
     </row>
     <row r="6" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:128" x14ac:dyDescent="0.25">
@@ -23692,137 +23692,138 @@
     </row>
     <row r="9" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="42">
+      <c r="B9" s="43">
         <v>2000</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42">
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43">
         <v>2001</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42">
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43">
         <v>2002</v>
       </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42">
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43">
         <v>2003</v>
       </c>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42">
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43">
         <v>2004</v>
       </c>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42">
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43">
         <v>2005</v>
       </c>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42">
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43">
         <v>2006</v>
       </c>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42">
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43">
         <v>2007</v>
       </c>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="42">
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="43">
         <v>2008</v>
       </c>
-      <c r="AI9" s="42"/>
-      <c r="AJ9" s="42"/>
-      <c r="AK9" s="42"/>
-      <c r="AL9" s="42">
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="43"/>
+      <c r="AK9" s="43"/>
+      <c r="AL9" s="43">
         <v>2009</v>
       </c>
-      <c r="AM9" s="42"/>
-      <c r="AN9" s="42"/>
-      <c r="AO9" s="42"/>
-      <c r="AP9" s="42">
+      <c r="AM9" s="43"/>
+      <c r="AN9" s="43"/>
+      <c r="AO9" s="43"/>
+      <c r="AP9" s="43">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="42"/>
-      <c r="AR9" s="42"/>
-      <c r="AS9" s="42"/>
-      <c r="AT9" s="42">
+      <c r="AQ9" s="43"/>
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="43"/>
+      <c r="AT9" s="43">
         <v>2011</v>
       </c>
-      <c r="AU9" s="42"/>
-      <c r="AV9" s="42"/>
-      <c r="AW9" s="42"/>
-      <c r="AX9" s="42">
+      <c r="AU9" s="43"/>
+      <c r="AV9" s="43"/>
+      <c r="AW9" s="43"/>
+      <c r="AX9" s="43">
         <v>2012</v>
       </c>
-      <c r="AY9" s="42"/>
-      <c r="AZ9" s="42"/>
-      <c r="BA9" s="42"/>
-      <c r="BB9" s="42">
+      <c r="AY9" s="43"/>
+      <c r="AZ9" s="43"/>
+      <c r="BA9" s="43"/>
+      <c r="BB9" s="43">
         <v>2013</v>
       </c>
-      <c r="BC9" s="42"/>
-      <c r="BD9" s="42"/>
-      <c r="BE9" s="42"/>
-      <c r="BF9" s="42">
+      <c r="BC9" s="43"/>
+      <c r="BD9" s="43"/>
+      <c r="BE9" s="43"/>
+      <c r="BF9" s="43">
         <v>2014</v>
       </c>
-      <c r="BG9" s="42"/>
-      <c r="BH9" s="42"/>
-      <c r="BI9" s="42"/>
-      <c r="BJ9" s="42">
+      <c r="BG9" s="43"/>
+      <c r="BH9" s="43"/>
+      <c r="BI9" s="43"/>
+      <c r="BJ9" s="43">
         <v>2015</v>
       </c>
-      <c r="BK9" s="42"/>
-      <c r="BL9" s="42"/>
-      <c r="BM9" s="42"/>
-      <c r="BN9" s="42">
+      <c r="BK9" s="43"/>
+      <c r="BL9" s="43"/>
+      <c r="BM9" s="43"/>
+      <c r="BN9" s="43">
         <v>2016</v>
       </c>
-      <c r="BO9" s="42"/>
-      <c r="BP9" s="42"/>
-      <c r="BQ9" s="42"/>
-      <c r="BR9" s="42">
+      <c r="BO9" s="43"/>
+      <c r="BP9" s="43"/>
+      <c r="BQ9" s="43"/>
+      <c r="BR9" s="43">
         <v>2017</v>
       </c>
-      <c r="BS9" s="42"/>
-      <c r="BT9" s="42"/>
-      <c r="BU9" s="42"/>
-      <c r="BV9" s="42">
+      <c r="BS9" s="43"/>
+      <c r="BT9" s="43"/>
+      <c r="BU9" s="43"/>
+      <c r="BV9" s="43">
         <v>2018</v>
       </c>
-      <c r="BW9" s="42"/>
-      <c r="BX9" s="42"/>
-      <c r="BY9" s="42"/>
-      <c r="BZ9" s="42">
+      <c r="BW9" s="43"/>
+      <c r="BX9" s="43"/>
+      <c r="BY9" s="43"/>
+      <c r="BZ9" s="43">
         <v>2019</v>
       </c>
-      <c r="CA9" s="42"/>
-      <c r="CB9" s="42"/>
-      <c r="CC9" s="42"/>
-      <c r="CD9" s="41">
+      <c r="CA9" s="43"/>
+      <c r="CB9" s="43"/>
+      <c r="CC9" s="43"/>
+      <c r="CD9" s="42">
         <v>2020</v>
       </c>
-      <c r="CE9" s="41"/>
-      <c r="CF9" s="41"/>
-      <c r="CG9" s="41"/>
-      <c r="CH9" s="41">
+      <c r="CE9" s="42"/>
+      <c r="CF9" s="42"/>
+      <c r="CG9" s="42"/>
+      <c r="CH9" s="42">
         <v>2021</v>
       </c>
-      <c r="CI9" s="41"/>
-      <c r="CJ9" s="41"/>
+      <c r="CI9" s="42"/>
+      <c r="CJ9" s="42"/>
+      <c r="CK9" s="42"/>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -24088,6 +24089,9 @@
       </c>
       <c r="CJ10" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="CK10" s="27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:128" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24358,7 +24362,9 @@
       <c r="CJ12" s="28">
         <v>205816.56519961392</v>
       </c>
-      <c r="CK12" s="9"/>
+      <c r="CK12" s="28">
+        <v>274802.13603506237</v>
+      </c>
       <c r="CL12" s="9"/>
       <c r="CM12" s="9"/>
       <c r="CN12" s="9"/>
@@ -24662,9 +24668,11 @@
         <v>202453.3879179135</v>
       </c>
       <c r="CJ13" s="28">
-        <v>220143.62672113531</v>
-      </c>
-      <c r="CK13" s="9"/>
+        <v>223232.38498038476</v>
+      </c>
+      <c r="CK13" s="28">
+        <v>227150.15633129809</v>
+      </c>
       <c r="CL13" s="9"/>
       <c r="CM13" s="9"/>
       <c r="CN13" s="9"/>
@@ -24968,9 +24976,11 @@
         <v>207082.05694075822</v>
       </c>
       <c r="CJ14" s="28">
-        <v>193469.03063316338</v>
-      </c>
-      <c r="CK14" s="9"/>
+        <v>195627.15839337351</v>
+      </c>
+      <c r="CK14" s="28">
+        <v>209404.75573204423</v>
+      </c>
       <c r="CL14" s="9"/>
       <c r="CM14" s="9"/>
       <c r="CN14" s="9"/>
@@ -25099,7 +25109,7 @@
       <c r="CH15" s="29"/>
       <c r="CI15" s="29"/>
       <c r="CJ15" s="29"/>
-      <c r="CK15" s="9"/>
+      <c r="CK15" s="29"/>
       <c r="CL15" s="9"/>
       <c r="CM15" s="9"/>
       <c r="CN15" s="9"/>
@@ -25403,9 +25413,11 @@
         <v>817625.29382264463</v>
       </c>
       <c r="CJ16" s="30">
-        <v>619429.22255391267</v>
-      </c>
-      <c r="CK16" s="9"/>
+        <v>624676.10857337213</v>
+      </c>
+      <c r="CK16" s="30">
+        <v>711357.04809840466</v>
+      </c>
       <c r="CL16" s="9"/>
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
@@ -25535,6 +25547,7 @@
       <c r="CH17" s="31"/>
       <c r="CI17" s="31"/>
       <c r="CJ17" s="31"/>
+      <c r="CK17" s="31"/>
     </row>
     <row r="18" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
@@ -25625,7 +25638,7 @@
       <c r="CH18" s="30"/>
       <c r="CI18" s="30"/>
       <c r="CJ18" s="30"/>
-      <c r="CK18" s="9"/>
+      <c r="CK18" s="30"/>
       <c r="CL18" s="9"/>
       <c r="CM18" s="9"/>
       <c r="CN18" s="9"/>
@@ -25929,9 +25942,11 @@
         <v>403919.84952264687</v>
       </c>
       <c r="CJ19" s="28">
-        <v>300649.35520503263</v>
-      </c>
-      <c r="CK19" s="9"/>
+        <v>302478.6826150291</v>
+      </c>
+      <c r="CK19" s="28">
+        <v>399359.32096630044</v>
+      </c>
       <c r="CL19" s="9"/>
       <c r="CM19" s="9"/>
       <c r="CN19" s="9"/>
@@ -26061,6 +26076,7 @@
       <c r="CH20" s="32"/>
       <c r="CI20" s="32"/>
       <c r="CJ20" s="32"/>
+      <c r="CK20" s="32"/>
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
@@ -26088,6 +26104,7 @@
       <c r="CH23" s="33"/>
       <c r="CI23" s="33"/>
       <c r="CJ23" s="33"/>
+      <c r="CK23" s="33"/>
     </row>
     <row r="24" spans="1:128" s="16" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G24" s="17"/>
@@ -26105,6 +26122,7 @@
       <c r="CH24" s="33"/>
       <c r="CI24" s="33"/>
       <c r="CJ24" s="33"/>
+      <c r="CK24" s="33"/>
     </row>
     <row r="25" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -26118,7 +26136,7 @@
     </row>
     <row r="27" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:128" x14ac:dyDescent="0.25">
@@ -26128,7 +26146,7 @@
     </row>
     <row r="30" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:128" x14ac:dyDescent="0.25">
@@ -26138,139 +26156,138 @@
     </row>
     <row r="33" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="42">
+      <c r="B33" s="43">
         <v>2000</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="42">
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="43">
         <v>2001</v>
       </c>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="42">
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="43">
         <v>2002</v>
       </c>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="42">
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="43">
         <v>2003</v>
       </c>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="42">
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="43">
         <v>2004</v>
       </c>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="42">
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="43">
         <v>2005</v>
       </c>
-      <c r="W33" s="43"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="43"/>
-      <c r="Z33" s="42">
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="43">
         <v>2006</v>
       </c>
-      <c r="AA33" s="43"/>
-      <c r="AB33" s="43"/>
-      <c r="AC33" s="43"/>
-      <c r="AD33" s="42">
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="44"/>
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="43">
         <v>2007</v>
       </c>
-      <c r="AE33" s="43"/>
-      <c r="AF33" s="43"/>
-      <c r="AG33" s="43"/>
-      <c r="AH33" s="42">
+      <c r="AE33" s="44"/>
+      <c r="AF33" s="44"/>
+      <c r="AG33" s="44"/>
+      <c r="AH33" s="43">
         <v>2008</v>
       </c>
-      <c r="AI33" s="43"/>
-      <c r="AJ33" s="43"/>
-      <c r="AK33" s="43"/>
-      <c r="AL33" s="42">
+      <c r="AI33" s="44"/>
+      <c r="AJ33" s="44"/>
+      <c r="AK33" s="44"/>
+      <c r="AL33" s="43">
         <v>2009</v>
       </c>
-      <c r="AM33" s="43"/>
-      <c r="AN33" s="43"/>
-      <c r="AO33" s="43"/>
-      <c r="AP33" s="42">
+      <c r="AM33" s="44"/>
+      <c r="AN33" s="44"/>
+      <c r="AO33" s="44"/>
+      <c r="AP33" s="43">
         <v>2010</v>
       </c>
-      <c r="AQ33" s="43"/>
-      <c r="AR33" s="43"/>
-      <c r="AS33" s="43"/>
-      <c r="AT33" s="42">
+      <c r="AQ33" s="44"/>
+      <c r="AR33" s="44"/>
+      <c r="AS33" s="44"/>
+      <c r="AT33" s="43">
         <v>2011</v>
       </c>
-      <c r="AU33" s="43"/>
-      <c r="AV33" s="43"/>
-      <c r="AW33" s="43"/>
-      <c r="AX33" s="42">
+      <c r="AU33" s="44"/>
+      <c r="AV33" s="44"/>
+      <c r="AW33" s="44"/>
+      <c r="AX33" s="43">
         <v>2012</v>
       </c>
-      <c r="AY33" s="43"/>
-      <c r="AZ33" s="43"/>
-      <c r="BA33" s="43"/>
-      <c r="BB33" s="42">
+      <c r="AY33" s="44"/>
+      <c r="AZ33" s="44"/>
+      <c r="BA33" s="44"/>
+      <c r="BB33" s="43">
         <v>2013</v>
       </c>
-      <c r="BC33" s="43"/>
-      <c r="BD33" s="43"/>
-      <c r="BE33" s="43"/>
-      <c r="BF33" s="42">
+      <c r="BC33" s="44"/>
+      <c r="BD33" s="44"/>
+      <c r="BE33" s="44"/>
+      <c r="BF33" s="43">
         <v>2014</v>
       </c>
-      <c r="BG33" s="43"/>
-      <c r="BH33" s="43"/>
-      <c r="BI33" s="43"/>
-      <c r="BJ33" s="42">
+      <c r="BG33" s="44"/>
+      <c r="BH33" s="44"/>
+      <c r="BI33" s="44"/>
+      <c r="BJ33" s="43">
         <v>2015</v>
       </c>
-      <c r="BK33" s="43"/>
-      <c r="BL33" s="43"/>
-      <c r="BM33" s="43"/>
-      <c r="BN33" s="42">
+      <c r="BK33" s="44"/>
+      <c r="BL33" s="44"/>
+      <c r="BM33" s="44"/>
+      <c r="BN33" s="43">
         <v>2016</v>
       </c>
-      <c r="BO33" s="43"/>
-      <c r="BP33" s="43"/>
-      <c r="BQ33" s="43"/>
-      <c r="BR33" s="42">
+      <c r="BO33" s="44"/>
+      <c r="BP33" s="44"/>
+      <c r="BQ33" s="44"/>
+      <c r="BR33" s="43">
         <v>2017</v>
       </c>
-      <c r="BS33" s="43"/>
-      <c r="BT33" s="43"/>
-      <c r="BU33" s="43"/>
-      <c r="BV33" s="42">
+      <c r="BS33" s="44"/>
+      <c r="BT33" s="44"/>
+      <c r="BU33" s="44"/>
+      <c r="BV33" s="43">
         <v>2018</v>
       </c>
-      <c r="BW33" s="42"/>
-      <c r="BX33" s="42"/>
-      <c r="BY33" s="42"/>
-      <c r="BZ33" s="42">
+      <c r="BW33" s="43"/>
+      <c r="BX33" s="43"/>
+      <c r="BY33" s="43"/>
+      <c r="BZ33" s="43">
         <v>2019</v>
       </c>
-      <c r="CA33" s="42"/>
-      <c r="CB33" s="42"/>
-      <c r="CC33" s="42"/>
-      <c r="CD33" s="41">
+      <c r="CA33" s="43"/>
+      <c r="CB33" s="43"/>
+      <c r="CC33" s="43"/>
+      <c r="CD33" s="42">
         <v>2020</v>
       </c>
-      <c r="CE33" s="41"/>
-      <c r="CF33" s="41"/>
-      <c r="CG33" s="41"/>
-      <c r="CH33" s="41">
+      <c r="CE33" s="42"/>
+      <c r="CF33" s="42"/>
+      <c r="CG33" s="42"/>
+      <c r="CH33" s="42">
         <v>2021</v>
       </c>
-      <c r="CI33" s="41">
-        <v>0</v>
-      </c>
-      <c r="CJ33" s="41"/>
+      <c r="CI33" s="42"/>
+      <c r="CJ33" s="42"/>
+      <c r="CK33" s="42"/>
     </row>
     <row r="34" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -26536,6 +26553,9 @@
       </c>
       <c r="CJ34" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="CK34" s="27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:128" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26804,9 +26824,11 @@
         <v>389680.74200119474</v>
       </c>
       <c r="CJ36" s="28">
-        <v>185056.85624962513</v>
-      </c>
-      <c r="CK36" s="9"/>
+        <v>183217.86405528573</v>
+      </c>
+      <c r="CK36" s="28">
+        <v>257837.33516499356</v>
+      </c>
       <c r="CL36" s="9"/>
       <c r="CM36" s="9"/>
       <c r="CN36" s="9"/>
@@ -27110,9 +27132,11 @@
         <v>198602.87311907456</v>
       </c>
       <c r="CJ37" s="28">
-        <v>190341.00846097132</v>
-      </c>
-      <c r="CK37" s="9"/>
+        <v>191380.17739010594</v>
+      </c>
+      <c r="CK37" s="28">
+        <v>204401.34046175398</v>
+      </c>
       <c r="CL37" s="9"/>
       <c r="CM37" s="9"/>
       <c r="CN37" s="9"/>
@@ -27416,9 +27440,11 @@
         <v>191696.40831007509</v>
       </c>
       <c r="CJ38" s="28">
-        <v>170196.22992488113</v>
-      </c>
-      <c r="CK38" s="9"/>
+        <v>170768.52527521891</v>
+      </c>
+      <c r="CK38" s="28">
+        <v>213236.48460728806</v>
+      </c>
       <c r="CL38" s="9"/>
       <c r="CM38" s="9"/>
       <c r="CN38" s="9"/>
@@ -27547,7 +27573,7 @@
       <c r="CH39" s="29"/>
       <c r="CI39" s="29"/>
       <c r="CJ39" s="29"/>
-      <c r="CK39" s="9"/>
+      <c r="CK39" s="29"/>
       <c r="CL39" s="9"/>
       <c r="CM39" s="9"/>
       <c r="CN39" s="9"/>
@@ -27851,9 +27877,11 @@
         <v>779980.02343034442</v>
       </c>
       <c r="CJ40" s="30">
-        <v>545594.09463547752</v>
-      </c>
-      <c r="CK40" s="9"/>
+        <v>545366.5667206106</v>
+      </c>
+      <c r="CK40" s="30">
+        <v>675475.16023403557</v>
+      </c>
       <c r="CL40" s="9"/>
       <c r="CM40" s="9"/>
       <c r="CN40" s="9"/>
@@ -27983,6 +28011,7 @@
       <c r="CH41" s="31"/>
       <c r="CI41" s="31"/>
       <c r="CJ41" s="31"/>
+      <c r="CK41" s="31"/>
     </row>
     <row r="42" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
@@ -28073,7 +28102,7 @@
       <c r="CH42" s="30"/>
       <c r="CI42" s="30"/>
       <c r="CJ42" s="30"/>
-      <c r="CK42" s="9"/>
+      <c r="CK42" s="30"/>
       <c r="CL42" s="9"/>
       <c r="CM42" s="9"/>
       <c r="CN42" s="9"/>
@@ -28377,9 +28406,11 @@
         <v>345331.76311942958</v>
       </c>
       <c r="CJ43" s="28">
-        <v>274240.13508707017</v>
-      </c>
-      <c r="CK43" s="9"/>
+        <v>275616.29958545603</v>
+      </c>
+      <c r="CK43" s="28">
+        <v>385926.00982711487</v>
+      </c>
       <c r="CL43" s="9"/>
       <c r="CM43" s="9"/>
       <c r="CN43" s="9"/>
@@ -28509,6 +28540,7 @@
       <c r="CH44" s="32"/>
       <c r="CI44" s="32"/>
       <c r="CJ44" s="32"/>
+      <c r="CK44" s="32"/>
     </row>
     <row r="45" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
@@ -28608,7 +28640,7 @@
       <c r="CH47" s="29"/>
       <c r="CI47" s="29"/>
       <c r="CJ47" s="29"/>
-      <c r="CK47" s="9"/>
+      <c r="CK47" s="29"/>
       <c r="CL47" s="9"/>
       <c r="CM47" s="9"/>
       <c r="CN47" s="9"/>
@@ -28737,7 +28769,7 @@
       <c r="CH48" s="29"/>
       <c r="CI48" s="29"/>
       <c r="CJ48" s="29"/>
-      <c r="CK48" s="9"/>
+      <c r="CK48" s="29"/>
       <c r="CL48" s="9"/>
       <c r="CM48" s="9"/>
       <c r="CN48" s="9"/>
@@ -28790,7 +28822,7 @@
     </row>
     <row r="51" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:120" x14ac:dyDescent="0.25">
@@ -28803,7 +28835,7 @@
     </row>
     <row r="54" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:120" x14ac:dyDescent="0.25">
@@ -28813,137 +28845,136 @@
     </row>
     <row r="57" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42" t="s">
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42" t="s">
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="42"/>
-      <c r="N57" s="42" t="s">
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="O57" s="42"/>
-      <c r="P57" s="42"/>
-      <c r="Q57" s="42"/>
-      <c r="R57" s="42" t="s">
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="43"/>
+      <c r="R57" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="S57" s="42"/>
-      <c r="T57" s="42"/>
-      <c r="U57" s="42"/>
-      <c r="V57" s="42" t="s">
+      <c r="S57" s="43"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
+      <c r="V57" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="W57" s="42"/>
-      <c r="X57" s="42"/>
-      <c r="Y57" s="42"/>
-      <c r="Z57" s="42" t="s">
+      <c r="W57" s="43"/>
+      <c r="X57" s="43"/>
+      <c r="Y57" s="43"/>
+      <c r="Z57" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AA57" s="42"/>
-      <c r="AB57" s="42"/>
-      <c r="AC57" s="42"/>
-      <c r="AD57" s="42" t="s">
+      <c r="AA57" s="43"/>
+      <c r="AB57" s="43"/>
+      <c r="AC57" s="43"/>
+      <c r="AD57" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="AE57" s="42"/>
-      <c r="AF57" s="42"/>
-      <c r="AG57" s="42"/>
-      <c r="AH57" s="42" t="s">
+      <c r="AE57" s="43"/>
+      <c r="AF57" s="43"/>
+      <c r="AG57" s="43"/>
+      <c r="AH57" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="AI57" s="42"/>
-      <c r="AJ57" s="42"/>
-      <c r="AK57" s="42"/>
-      <c r="AL57" s="42" t="s">
+      <c r="AI57" s="43"/>
+      <c r="AJ57" s="43"/>
+      <c r="AK57" s="43"/>
+      <c r="AL57" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AM57" s="42"/>
-      <c r="AN57" s="42"/>
-      <c r="AO57" s="42"/>
-      <c r="AP57" s="42" t="s">
+      <c r="AM57" s="43"/>
+      <c r="AN57" s="43"/>
+      <c r="AO57" s="43"/>
+      <c r="AP57" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="AQ57" s="42"/>
-      <c r="AR57" s="42"/>
-      <c r="AS57" s="42"/>
-      <c r="AT57" s="42" t="s">
+      <c r="AQ57" s="43"/>
+      <c r="AR57" s="43"/>
+      <c r="AS57" s="43"/>
+      <c r="AT57" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="AU57" s="42"/>
-      <c r="AV57" s="42"/>
-      <c r="AW57" s="42"/>
-      <c r="AX57" s="42" t="s">
+      <c r="AU57" s="43"/>
+      <c r="AV57" s="43"/>
+      <c r="AW57" s="43"/>
+      <c r="AX57" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="AY57" s="42"/>
-      <c r="AZ57" s="42"/>
-      <c r="BA57" s="42"/>
-      <c r="BB57" s="42" t="s">
+      <c r="AY57" s="43"/>
+      <c r="AZ57" s="43"/>
+      <c r="BA57" s="43"/>
+      <c r="BB57" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="BC57" s="42"/>
-      <c r="BD57" s="42"/>
-      <c r="BE57" s="42"/>
-      <c r="BF57" s="42" t="s">
+      <c r="BC57" s="43"/>
+      <c r="BD57" s="43"/>
+      <c r="BE57" s="43"/>
+      <c r="BF57" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="BG57" s="42"/>
-      <c r="BH57" s="42"/>
-      <c r="BI57" s="42"/>
-      <c r="BJ57" s="42" t="s">
+      <c r="BG57" s="43"/>
+      <c r="BH57" s="43"/>
+      <c r="BI57" s="43"/>
+      <c r="BJ57" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="BK57" s="42"/>
-      <c r="BL57" s="42"/>
-      <c r="BM57" s="42"/>
-      <c r="BN57" s="42" t="s">
+      <c r="BK57" s="43"/>
+      <c r="BL57" s="43"/>
+      <c r="BM57" s="43"/>
+      <c r="BN57" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="BO57" s="42"/>
-      <c r="BP57" s="42"/>
-      <c r="BQ57" s="42"/>
-      <c r="BR57" s="42" t="s">
+      <c r="BO57" s="43"/>
+      <c r="BP57" s="43"/>
+      <c r="BQ57" s="43"/>
+      <c r="BR57" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="BS57" s="42"/>
-      <c r="BT57" s="42"/>
-      <c r="BU57" s="42"/>
-      <c r="BV57" s="42" t="s">
+      <c r="BS57" s="43"/>
+      <c r="BT57" s="43"/>
+      <c r="BU57" s="43"/>
+      <c r="BV57" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="BW57" s="42"/>
-      <c r="BX57" s="42"/>
-      <c r="BY57" s="42"/>
-      <c r="BZ57" s="42" t="s">
+      <c r="BW57" s="43"/>
+      <c r="BX57" s="43"/>
+      <c r="BY57" s="43"/>
+      <c r="BZ57" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="CA57" s="42"/>
-      <c r="CB57" s="42"/>
-      <c r="CC57" s="42"/>
-      <c r="CD57" s="41" t="s">
+      <c r="CA57" s="43"/>
+      <c r="CB57" s="43"/>
+      <c r="CC57" s="43"/>
+      <c r="CD57" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="CE57" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="CF57" s="41"/>
-      <c r="CG57" s="34"/>
+      <c r="CE57" s="42"/>
+      <c r="CF57" s="42"/>
+      <c r="CG57" s="42"/>
       <c r="CH57" s="34"/>
       <c r="CI57" s="34"/>
       <c r="CJ57" s="34"/>
+      <c r="CK57" s="34"/>
     </row>
     <row r="58" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
@@ -29189,19 +29220,22 @@
       <c r="CC58" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CD58" s="27" t="s">
+      <c r="CD58" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="CE58" s="27" t="s">
+      <c r="CE58" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="CF58" s="27" t="s">
+      <c r="CF58" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="CG58" s="35"/>
+      <c r="CG58" s="41" t="s">
+        <v>8</v>
+      </c>
       <c r="CH58" s="35"/>
       <c r="CI58" s="35"/>
       <c r="CJ58" s="35"/>
+      <c r="CK58" s="35"/>
     </row>
     <row r="59" spans="1:120" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
@@ -29459,11 +29493,13 @@
       <c r="CF60" s="39">
         <v>60.163915918356935</v>
       </c>
-      <c r="CG60" s="36"/>
+      <c r="CG60" s="39">
+        <v>31.621485671091136</v>
+      </c>
       <c r="CH60" s="36"/>
       <c r="CI60" s="36"/>
       <c r="CJ60" s="36"/>
-      <c r="CK60" s="9"/>
+      <c r="CK60" s="36"/>
       <c r="CL60" s="9"/>
       <c r="CM60" s="9"/>
       <c r="CN60" s="9"/>
@@ -29747,13 +29783,15 @@
         <v>-21.858265655303171</v>
       </c>
       <c r="CF61" s="39">
-        <v>-9.4873220756005594</v>
-      </c>
-      <c r="CG61" s="36"/>
+        <v>-8.2173703369571456</v>
+      </c>
+      <c r="CG61" s="39">
+        <v>8.3955282027828844</v>
+      </c>
       <c r="CH61" s="36"/>
       <c r="CI61" s="36"/>
       <c r="CJ61" s="36"/>
-      <c r="CK61" s="9"/>
+      <c r="CK61" s="36"/>
       <c r="CL61" s="9"/>
       <c r="CM61" s="9"/>
       <c r="CN61" s="9"/>
@@ -30037,13 +30075,15 @@
         <v>331.72631981184219</v>
       </c>
       <c r="CF62" s="39">
-        <v>68.18833156700822</v>
-      </c>
-      <c r="CG62" s="36"/>
+        <v>70.064455648006032</v>
+      </c>
+      <c r="CG62" s="39">
+        <v>21.460242154125979</v>
+      </c>
       <c r="CH62" s="36"/>
       <c r="CI62" s="36"/>
       <c r="CJ62" s="36"/>
-      <c r="CK62" s="9"/>
+      <c r="CK62" s="36"/>
       <c r="CL62" s="9"/>
       <c r="CM62" s="9"/>
       <c r="CN62" s="9"/>
@@ -30164,7 +30204,7 @@
       <c r="CH63" s="36"/>
       <c r="CI63" s="36"/>
       <c r="CJ63" s="36"/>
-      <c r="CK63" s="9"/>
+      <c r="CK63" s="36"/>
       <c r="CL63" s="9"/>
       <c r="CM63" s="9"/>
       <c r="CN63" s="9"/>
@@ -30448,13 +30488,15 @@
         <v>40.755580931475578</v>
       </c>
       <c r="CF64" s="39">
-        <v>27.25728612625953</v>
-      </c>
-      <c r="CG64" s="36"/>
+        <v>28.335221185082332</v>
+      </c>
+      <c r="CG64" s="39">
+        <v>20.416960864376549</v>
+      </c>
       <c r="CH64" s="36"/>
       <c r="CI64" s="36"/>
       <c r="CJ64" s="36"/>
-      <c r="CK64" s="9"/>
+      <c r="CK64" s="36"/>
       <c r="CL64" s="9"/>
       <c r="CM64" s="9"/>
       <c r="CN64" s="9"/>
@@ -30572,10 +30614,11 @@
       <c r="CD65" s="40"/>
       <c r="CE65" s="40"/>
       <c r="CF65" s="40"/>
-      <c r="CG65" s="37"/>
+      <c r="CG65" s="40"/>
       <c r="CH65" s="37"/>
       <c r="CI65" s="37"/>
       <c r="CJ65" s="37"/>
+      <c r="CK65" s="37"/>
     </row>
     <row r="66" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
@@ -30662,11 +30705,11 @@
       <c r="CD66" s="39"/>
       <c r="CE66" s="39"/>
       <c r="CF66" s="39"/>
-      <c r="CG66" s="36"/>
+      <c r="CG66" s="39"/>
       <c r="CH66" s="36"/>
       <c r="CI66" s="36"/>
       <c r="CJ66" s="36"/>
-      <c r="CK66" s="9"/>
+      <c r="CK66" s="36"/>
       <c r="CL66" s="9"/>
       <c r="CM66" s="9"/>
       <c r="CN66" s="9"/>
@@ -30950,13 +30993,15 @@
         <v>31.365468734976645</v>
       </c>
       <c r="CF67" s="39">
-        <v>24.540100292787542</v>
-      </c>
-      <c r="CG67" s="36"/>
+        <v>25.297875472295047</v>
+      </c>
+      <c r="CG67" s="39">
+        <v>23.701201831896142</v>
+      </c>
       <c r="CH67" s="36"/>
       <c r="CI67" s="36"/>
       <c r="CJ67" s="36"/>
-      <c r="CK67" s="9"/>
+      <c r="CK67" s="36"/>
       <c r="CL67" s="9"/>
       <c r="CM67" s="9"/>
       <c r="CN67" s="9"/>
@@ -31078,6 +31123,7 @@
       <c r="CH68" s="32"/>
       <c r="CI68" s="32"/>
       <c r="CJ68" s="32"/>
+      <c r="CK68" s="32"/>
     </row>
     <row r="69" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
@@ -31177,7 +31223,7 @@
       <c r="CH71" s="29"/>
       <c r="CI71" s="29"/>
       <c r="CJ71" s="29"/>
-      <c r="CK71" s="9"/>
+      <c r="CK71" s="29"/>
       <c r="CL71" s="9"/>
       <c r="CM71" s="9"/>
       <c r="CN71" s="9"/>
@@ -31298,7 +31344,7 @@
       <c r="CH72" s="29"/>
       <c r="CI72" s="29"/>
       <c r="CJ72" s="29"/>
-      <c r="CK72" s="9"/>
+      <c r="CK72" s="29"/>
       <c r="CL72" s="9"/>
       <c r="CM72" s="9"/>
       <c r="CN72" s="9"/>
@@ -31343,7 +31389,7 @@
     </row>
     <row r="75" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:120" x14ac:dyDescent="0.25">
@@ -31353,7 +31399,7 @@
     </row>
     <row r="78" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:120" x14ac:dyDescent="0.25">
@@ -31363,137 +31409,136 @@
     </row>
     <row r="81" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
-      <c r="B81" s="42" t="s">
+      <c r="B81" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="42" t="s">
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="G81" s="43"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="43"/>
-      <c r="J81" s="42" t="s">
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="44"/>
+      <c r="J81" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="K81" s="43"/>
-      <c r="L81" s="43"/>
-      <c r="M81" s="43"/>
-      <c r="N81" s="42" t="s">
+      <c r="K81" s="44"/>
+      <c r="L81" s="44"/>
+      <c r="M81" s="44"/>
+      <c r="N81" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="O81" s="43"/>
-      <c r="P81" s="43"/>
-      <c r="Q81" s="43"/>
-      <c r="R81" s="42" t="s">
+      <c r="O81" s="44"/>
+      <c r="P81" s="44"/>
+      <c r="Q81" s="44"/>
+      <c r="R81" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="S81" s="43"/>
-      <c r="T81" s="43"/>
-      <c r="U81" s="43"/>
-      <c r="V81" s="42" t="s">
+      <c r="S81" s="44"/>
+      <c r="T81" s="44"/>
+      <c r="U81" s="44"/>
+      <c r="V81" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="W81" s="43"/>
-      <c r="X81" s="43"/>
-      <c r="Y81" s="43"/>
-      <c r="Z81" s="42" t="s">
+      <c r="W81" s="44"/>
+      <c r="X81" s="44"/>
+      <c r="Y81" s="44"/>
+      <c r="Z81" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AA81" s="43"/>
-      <c r="AB81" s="43"/>
-      <c r="AC81" s="43"/>
-      <c r="AD81" s="42" t="s">
+      <c r="AA81" s="44"/>
+      <c r="AB81" s="44"/>
+      <c r="AC81" s="44"/>
+      <c r="AD81" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="AE81" s="43"/>
-      <c r="AF81" s="43"/>
-      <c r="AG81" s="43"/>
-      <c r="AH81" s="42" t="s">
+      <c r="AE81" s="44"/>
+      <c r="AF81" s="44"/>
+      <c r="AG81" s="44"/>
+      <c r="AH81" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="AI81" s="43"/>
-      <c r="AJ81" s="43"/>
-      <c r="AK81" s="43"/>
-      <c r="AL81" s="42" t="s">
+      <c r="AI81" s="44"/>
+      <c r="AJ81" s="44"/>
+      <c r="AK81" s="44"/>
+      <c r="AL81" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AM81" s="43"/>
-      <c r="AN81" s="43"/>
-      <c r="AO81" s="43"/>
-      <c r="AP81" s="42" t="s">
+      <c r="AM81" s="44"/>
+      <c r="AN81" s="44"/>
+      <c r="AO81" s="44"/>
+      <c r="AP81" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="AQ81" s="43"/>
-      <c r="AR81" s="43"/>
-      <c r="AS81" s="43"/>
-      <c r="AT81" s="42" t="s">
+      <c r="AQ81" s="44"/>
+      <c r="AR81" s="44"/>
+      <c r="AS81" s="44"/>
+      <c r="AT81" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="AU81" s="43"/>
-      <c r="AV81" s="43"/>
-      <c r="AW81" s="43"/>
-      <c r="AX81" s="42" t="s">
+      <c r="AU81" s="44"/>
+      <c r="AV81" s="44"/>
+      <c r="AW81" s="44"/>
+      <c r="AX81" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="AY81" s="43"/>
-      <c r="AZ81" s="43"/>
-      <c r="BA81" s="43"/>
-      <c r="BB81" s="42" t="s">
+      <c r="AY81" s="44"/>
+      <c r="AZ81" s="44"/>
+      <c r="BA81" s="44"/>
+      <c r="BB81" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="BC81" s="43"/>
-      <c r="BD81" s="43"/>
-      <c r="BE81" s="43"/>
-      <c r="BF81" s="42" t="s">
+      <c r="BC81" s="44"/>
+      <c r="BD81" s="44"/>
+      <c r="BE81" s="44"/>
+      <c r="BF81" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="BG81" s="43"/>
-      <c r="BH81" s="43"/>
-      <c r="BI81" s="43"/>
-      <c r="BJ81" s="42" t="s">
+      <c r="BG81" s="44"/>
+      <c r="BH81" s="44"/>
+      <c r="BI81" s="44"/>
+      <c r="BJ81" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="BK81" s="43"/>
-      <c r="BL81" s="43"/>
-      <c r="BM81" s="43"/>
-      <c r="BN81" s="42" t="s">
+      <c r="BK81" s="44"/>
+      <c r="BL81" s="44"/>
+      <c r="BM81" s="44"/>
+      <c r="BN81" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="BO81" s="43"/>
-      <c r="BP81" s="43"/>
-      <c r="BQ81" s="43"/>
-      <c r="BR81" s="42" t="s">
+      <c r="BO81" s="44"/>
+      <c r="BP81" s="44"/>
+      <c r="BQ81" s="44"/>
+      <c r="BR81" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="BS81" s="43"/>
-      <c r="BT81" s="43"/>
-      <c r="BU81" s="43"/>
-      <c r="BV81" s="42" t="s">
+      <c r="BS81" s="44"/>
+      <c r="BT81" s="44"/>
+      <c r="BU81" s="44"/>
+      <c r="BV81" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="BW81" s="42"/>
-      <c r="BX81" s="42"/>
-      <c r="BY81" s="42"/>
-      <c r="BZ81" s="42" t="s">
+      <c r="BW81" s="43"/>
+      <c r="BX81" s="43"/>
+      <c r="BY81" s="43"/>
+      <c r="BZ81" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="CA81" s="42"/>
-      <c r="CB81" s="42"/>
-      <c r="CC81" s="42"/>
-      <c r="CD81" s="41" t="s">
+      <c r="CA81" s="43"/>
+      <c r="CB81" s="43"/>
+      <c r="CC81" s="43"/>
+      <c r="CD81" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="CE81" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="CF81" s="41"/>
-      <c r="CG81" s="34"/>
+      <c r="CE81" s="42"/>
+      <c r="CF81" s="42"/>
+      <c r="CG81" s="42"/>
       <c r="CH81" s="34"/>
       <c r="CI81" s="34"/>
       <c r="CJ81" s="34"/>
+      <c r="CK81" s="34"/>
     </row>
     <row r="82" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -31748,10 +31793,13 @@
       <c r="CF82" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CG82" s="35"/>
+      <c r="CG82" s="27" t="s">
+        <v>8</v>
+      </c>
       <c r="CH82" s="35"/>
       <c r="CI82" s="35"/>
       <c r="CJ82" s="35"/>
+      <c r="CK82" s="35"/>
     </row>
     <row r="83" spans="1:128" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
@@ -32007,13 +32055,15 @@
         <v>44.522104564358528</v>
       </c>
       <c r="CF84" s="39">
-        <v>55.333049832086601</v>
-      </c>
-      <c r="CG84" s="36"/>
+        <v>53.789436307285257</v>
+      </c>
+      <c r="CG84" s="39">
+        <v>25.59503547665858</v>
+      </c>
       <c r="CH84" s="36"/>
       <c r="CI84" s="36"/>
       <c r="CJ84" s="36"/>
-      <c r="CK84" s="9"/>
+      <c r="CK84" s="36"/>
       <c r="CL84" s="9"/>
       <c r="CM84" s="9"/>
       <c r="CN84" s="9"/>
@@ -32297,13 +32347,15 @@
         <v>-24.11901780702992</v>
       </c>
       <c r="CF85" s="39">
-        <v>-12.178619526177627</v>
-      </c>
-      <c r="CG85" s="36"/>
+        <v>-11.699157687449286</v>
+      </c>
+      <c r="CG85" s="39">
+        <v>3.4853544331898973</v>
+      </c>
       <c r="CH85" s="36"/>
       <c r="CI85" s="36"/>
       <c r="CJ85" s="36"/>
-      <c r="CK85" s="9"/>
+      <c r="CK85" s="36"/>
       <c r="CL85" s="9"/>
       <c r="CM85" s="9"/>
       <c r="CN85" s="9"/>
@@ -32587,13 +32639,15 @@
         <v>318.25484481841926</v>
       </c>
       <c r="CF86" s="39">
-        <v>62.603485880576898</v>
-      </c>
-      <c r="CG86" s="36"/>
+        <v>63.15025015942868</v>
+      </c>
+      <c r="CG86" s="39">
+        <v>15.596907859613168</v>
+      </c>
       <c r="CH86" s="36"/>
       <c r="CI86" s="36"/>
       <c r="CJ86" s="36"/>
-      <c r="CK86" s="9"/>
+      <c r="CK86" s="36"/>
       <c r="CL86" s="9"/>
       <c r="CM86" s="9"/>
       <c r="CN86" s="9"/>
@@ -32714,7 +32768,7 @@
       <c r="CH87" s="36"/>
       <c r="CI87" s="36"/>
       <c r="CJ87" s="36"/>
-      <c r="CK87" s="9"/>
+      <c r="CK87" s="36"/>
       <c r="CL87" s="9"/>
       <c r="CM87" s="9"/>
       <c r="CN87" s="9"/>
@@ -32998,13 +33052,15 @@
         <v>35.132635584470762</v>
       </c>
       <c r="CF88" s="39">
-        <v>23.846230734352659</v>
-      </c>
-      <c r="CG88" s="36"/>
+        <v>23.794583410966695</v>
+      </c>
+      <c r="CG88" s="39">
+        <v>15.018477415833004</v>
+      </c>
       <c r="CH88" s="36"/>
       <c r="CI88" s="36"/>
       <c r="CJ88" s="36"/>
-      <c r="CK88" s="9"/>
+      <c r="CK88" s="36"/>
       <c r="CL88" s="9"/>
       <c r="CM88" s="9"/>
       <c r="CN88" s="9"/>
@@ -33122,10 +33178,11 @@
       <c r="CD89" s="40"/>
       <c r="CE89" s="40"/>
       <c r="CF89" s="40"/>
-      <c r="CG89" s="37"/>
+      <c r="CG89" s="40"/>
       <c r="CH89" s="37"/>
       <c r="CI89" s="37"/>
       <c r="CJ89" s="37"/>
+      <c r="CK89" s="37"/>
     </row>
     <row r="90" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
@@ -33212,11 +33269,11 @@
       <c r="CD90" s="39"/>
       <c r="CE90" s="39"/>
       <c r="CF90" s="39"/>
-      <c r="CG90" s="36"/>
+      <c r="CG90" s="39"/>
       <c r="CH90" s="36"/>
       <c r="CI90" s="36"/>
       <c r="CJ90" s="36"/>
-      <c r="CK90" s="9"/>
+      <c r="CK90" s="36"/>
       <c r="CL90" s="9"/>
       <c r="CM90" s="9"/>
       <c r="CN90" s="9"/>
@@ -33500,13 +33557,15 @@
         <v>27.093857393693639</v>
       </c>
       <c r="CF91" s="39">
-        <v>16.810758953452194</v>
-      </c>
-      <c r="CG91" s="36"/>
+        <v>17.3969270555435</v>
+      </c>
+      <c r="CG91" s="39">
+        <v>18.539479408444024</v>
+      </c>
       <c r="CH91" s="36"/>
       <c r="CI91" s="36"/>
       <c r="CJ91" s="36"/>
-      <c r="CK91" s="9"/>
+      <c r="CK91" s="36"/>
       <c r="CL91" s="9"/>
       <c r="CM91" s="9"/>
       <c r="CN91" s="9"/>
@@ -33628,6 +33687,7 @@
       <c r="CH92" s="32"/>
       <c r="CI92" s="32"/>
       <c r="CJ92" s="32"/>
+      <c r="CK92" s="32"/>
     </row>
     <row r="93" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
@@ -33727,7 +33787,7 @@
       <c r="CH95" s="29"/>
       <c r="CI95" s="29"/>
       <c r="CJ95" s="29"/>
-      <c r="CK95" s="9"/>
+      <c r="CK95" s="29"/>
       <c r="CL95" s="9"/>
       <c r="CM95" s="9"/>
       <c r="CN95" s="9"/>
@@ -33856,7 +33916,7 @@
       <c r="CH96" s="29"/>
       <c r="CI96" s="29"/>
       <c r="CJ96" s="29"/>
-      <c r="CK96" s="9"/>
+      <c r="CK96" s="29"/>
       <c r="CL96" s="9"/>
       <c r="CM96" s="9"/>
       <c r="CN96" s="9"/>
@@ -33904,7 +33964,7 @@
     </row>
     <row r="98" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:128" x14ac:dyDescent="0.25">
@@ -33914,7 +33974,7 @@
     </row>
     <row r="101" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:128" x14ac:dyDescent="0.25">
@@ -33924,139 +33984,138 @@
     </row>
     <row r="104" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
-      <c r="B104" s="42">
+      <c r="B104" s="43">
         <v>2000</v>
       </c>
-      <c r="C104" s="43"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="43"/>
-      <c r="F104" s="42">
+      <c r="C104" s="44"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="44"/>
+      <c r="F104" s="43">
         <v>2001</v>
       </c>
-      <c r="G104" s="43"/>
-      <c r="H104" s="43"/>
-      <c r="I104" s="43"/>
-      <c r="J104" s="42">
+      <c r="G104" s="44"/>
+      <c r="H104" s="44"/>
+      <c r="I104" s="44"/>
+      <c r="J104" s="43">
         <v>2002</v>
       </c>
-      <c r="K104" s="43"/>
-      <c r="L104" s="43"/>
-      <c r="M104" s="43"/>
-      <c r="N104" s="42">
+      <c r="K104" s="44"/>
+      <c r="L104" s="44"/>
+      <c r="M104" s="44"/>
+      <c r="N104" s="43">
         <v>2003</v>
       </c>
-      <c r="O104" s="43"/>
-      <c r="P104" s="43"/>
-      <c r="Q104" s="43"/>
-      <c r="R104" s="42">
+      <c r="O104" s="44"/>
+      <c r="P104" s="44"/>
+      <c r="Q104" s="44"/>
+      <c r="R104" s="43">
         <v>2004</v>
       </c>
-      <c r="S104" s="43"/>
-      <c r="T104" s="43"/>
-      <c r="U104" s="43"/>
-      <c r="V104" s="42">
+      <c r="S104" s="44"/>
+      <c r="T104" s="44"/>
+      <c r="U104" s="44"/>
+      <c r="V104" s="43">
         <v>2005</v>
       </c>
-      <c r="W104" s="43"/>
-      <c r="X104" s="43"/>
-      <c r="Y104" s="43"/>
-      <c r="Z104" s="42">
+      <c r="W104" s="44"/>
+      <c r="X104" s="44"/>
+      <c r="Y104" s="44"/>
+      <c r="Z104" s="43">
         <v>2006</v>
       </c>
-      <c r="AA104" s="43"/>
-      <c r="AB104" s="43"/>
-      <c r="AC104" s="43"/>
-      <c r="AD104" s="42">
+      <c r="AA104" s="44"/>
+      <c r="AB104" s="44"/>
+      <c r="AC104" s="44"/>
+      <c r="AD104" s="43">
         <v>2007</v>
       </c>
-      <c r="AE104" s="43"/>
-      <c r="AF104" s="43"/>
-      <c r="AG104" s="43"/>
-      <c r="AH104" s="42">
+      <c r="AE104" s="44"/>
+      <c r="AF104" s="44"/>
+      <c r="AG104" s="44"/>
+      <c r="AH104" s="43">
         <v>2008</v>
       </c>
-      <c r="AI104" s="43"/>
-      <c r="AJ104" s="43"/>
-      <c r="AK104" s="43"/>
-      <c r="AL104" s="42">
+      <c r="AI104" s="44"/>
+      <c r="AJ104" s="44"/>
+      <c r="AK104" s="44"/>
+      <c r="AL104" s="43">
         <v>2009</v>
       </c>
-      <c r="AM104" s="43"/>
-      <c r="AN104" s="43"/>
-      <c r="AO104" s="43"/>
-      <c r="AP104" s="42">
+      <c r="AM104" s="44"/>
+      <c r="AN104" s="44"/>
+      <c r="AO104" s="44"/>
+      <c r="AP104" s="43">
         <v>2010</v>
       </c>
-      <c r="AQ104" s="43"/>
-      <c r="AR104" s="43"/>
-      <c r="AS104" s="43"/>
-      <c r="AT104" s="42">
+      <c r="AQ104" s="44"/>
+      <c r="AR104" s="44"/>
+      <c r="AS104" s="44"/>
+      <c r="AT104" s="43">
         <v>2011</v>
       </c>
-      <c r="AU104" s="43"/>
-      <c r="AV104" s="43"/>
-      <c r="AW104" s="43"/>
-      <c r="AX104" s="42">
+      <c r="AU104" s="44"/>
+      <c r="AV104" s="44"/>
+      <c r="AW104" s="44"/>
+      <c r="AX104" s="43">
         <v>2012</v>
       </c>
-      <c r="AY104" s="43"/>
-      <c r="AZ104" s="43"/>
-      <c r="BA104" s="43"/>
-      <c r="BB104" s="42">
+      <c r="AY104" s="44"/>
+      <c r="AZ104" s="44"/>
+      <c r="BA104" s="44"/>
+      <c r="BB104" s="43">
         <v>2013</v>
       </c>
-      <c r="BC104" s="43"/>
-      <c r="BD104" s="43"/>
-      <c r="BE104" s="43"/>
-      <c r="BF104" s="42">
+      <c r="BC104" s="44"/>
+      <c r="BD104" s="44"/>
+      <c r="BE104" s="44"/>
+      <c r="BF104" s="43">
         <v>2014</v>
       </c>
-      <c r="BG104" s="43"/>
-      <c r="BH104" s="43"/>
-      <c r="BI104" s="43"/>
-      <c r="BJ104" s="42">
+      <c r="BG104" s="44"/>
+      <c r="BH104" s="44"/>
+      <c r="BI104" s="44"/>
+      <c r="BJ104" s="43">
         <v>2015</v>
       </c>
-      <c r="BK104" s="43"/>
-      <c r="BL104" s="43"/>
-      <c r="BM104" s="43"/>
-      <c r="BN104" s="42">
+      <c r="BK104" s="44"/>
+      <c r="BL104" s="44"/>
+      <c r="BM104" s="44"/>
+      <c r="BN104" s="43">
         <v>2016</v>
       </c>
-      <c r="BO104" s="43"/>
-      <c r="BP104" s="43"/>
-      <c r="BQ104" s="43"/>
-      <c r="BR104" s="42">
+      <c r="BO104" s="44"/>
+      <c r="BP104" s="44"/>
+      <c r="BQ104" s="44"/>
+      <c r="BR104" s="43">
         <v>2017</v>
       </c>
-      <c r="BS104" s="43"/>
-      <c r="BT104" s="43"/>
-      <c r="BU104" s="43"/>
-      <c r="BV104" s="42">
+      <c r="BS104" s="44"/>
+      <c r="BT104" s="44"/>
+      <c r="BU104" s="44"/>
+      <c r="BV104" s="43">
         <v>2018</v>
       </c>
-      <c r="BW104" s="42"/>
-      <c r="BX104" s="42"/>
-      <c r="BY104" s="42"/>
-      <c r="BZ104" s="42">
+      <c r="BW104" s="43"/>
+      <c r="BX104" s="43"/>
+      <c r="BY104" s="43"/>
+      <c r="BZ104" s="43">
         <v>2019</v>
       </c>
-      <c r="CA104" s="42"/>
-      <c r="CB104" s="42"/>
-      <c r="CC104" s="42"/>
-      <c r="CD104" s="41">
+      <c r="CA104" s="43"/>
+      <c r="CB104" s="43"/>
+      <c r="CC104" s="43"/>
+      <c r="CD104" s="42">
         <v>2020</v>
       </c>
-      <c r="CE104" s="41"/>
-      <c r="CF104" s="41"/>
-      <c r="CG104" s="41"/>
-      <c r="CH104" s="41">
+      <c r="CE104" s="42"/>
+      <c r="CF104" s="42"/>
+      <c r="CG104" s="42"/>
+      <c r="CH104" s="42">
         <v>2021</v>
       </c>
-      <c r="CI104" s="41">
-        <v>0</v>
-      </c>
-      <c r="CJ104" s="41"/>
+      <c r="CI104" s="42"/>
+      <c r="CJ104" s="42"/>
+      <c r="CK104" s="42"/>
     </row>
     <row r="105" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
@@ -34322,6 +34381,9 @@
       </c>
       <c r="CJ105" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="CK105" s="27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:128" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34590,9 +34652,11 @@
         <v>104.72415107511821</v>
       </c>
       <c r="CJ107" s="38">
-        <v>111.2180166521287</v>
-      </c>
-      <c r="CK107" s="9"/>
+        <v>112.33433282330432</v>
+      </c>
+      <c r="CK107" s="38">
+        <v>106.57965257793749</v>
+      </c>
       <c r="CL107" s="9"/>
       <c r="CM107" s="9"/>
       <c r="CN107" s="9"/>
@@ -34896,9 +34960,11 @@
         <v>101.93880115547489</v>
       </c>
       <c r="CJ108" s="38">
-        <v>115.65748679232983</v>
-      </c>
-      <c r="CK108" s="9"/>
+        <v>116.64342045485299</v>
+      </c>
+      <c r="CK108" s="38">
+        <v>111.12948467860009</v>
+      </c>
       <c r="CL108" s="9"/>
       <c r="CM108" s="9"/>
       <c r="CN108" s="9"/>
@@ -35202,9 +35268,11 @@
         <v>108.02604950521366</v>
       </c>
       <c r="CJ109" s="38">
-        <v>113.67409884376056</v>
-      </c>
-      <c r="CK109" s="9"/>
+        <v>114.55691736992588</v>
+      </c>
+      <c r="CK109" s="38">
+        <v>98.203061318375873</v>
+      </c>
       <c r="CL109" s="9"/>
       <c r="CM109" s="9"/>
       <c r="CN109" s="9"/>
@@ -35333,7 +35401,7 @@
       <c r="CH110" s="29"/>
       <c r="CI110" s="29"/>
       <c r="CJ110" s="29"/>
-      <c r="CK110" s="9"/>
+      <c r="CK110" s="29"/>
       <c r="CL110" s="9"/>
       <c r="CM110" s="9"/>
       <c r="CN110" s="9"/>
@@ -35637,9 +35705,11 @@
         <v>104.82644032686078</v>
       </c>
       <c r="CJ111" s="38">
-        <v>113.53297783909591</v>
-      </c>
-      <c r="CK111" s="9"/>
+        <v>114.54242828445909</v>
+      </c>
+      <c r="CK111" s="38">
+        <v>105.31209583664585</v>
+      </c>
       <c r="CL111" s="9"/>
       <c r="CM111" s="9"/>
       <c r="CN111" s="9"/>
@@ -35769,6 +35839,7 @@
       <c r="CH112" s="31"/>
       <c r="CI112" s="31"/>
       <c r="CJ112" s="31"/>
+      <c r="CK112" s="31"/>
     </row>
     <row r="113" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
@@ -35859,7 +35930,7 @@
       <c r="CH113" s="30"/>
       <c r="CI113" s="30"/>
       <c r="CJ113" s="30"/>
-      <c r="CK113" s="9"/>
+      <c r="CK113" s="30"/>
       <c r="CL113" s="9"/>
       <c r="CM113" s="9"/>
       <c r="CN113" s="9"/>
@@ -36163,9 +36234,11 @@
         <v>116.96573922826646</v>
       </c>
       <c r="CJ114" s="38">
-        <v>109.62996175216206</v>
-      </c>
-      <c r="CK114" s="9"/>
+        <v>109.74629696065716</v>
+      </c>
+      <c r="CK114" s="38">
+        <v>103.48079963441783</v>
+      </c>
       <c r="CL114" s="9"/>
       <c r="CM114" s="9"/>
       <c r="CN114" s="9"/>
@@ -36295,6 +36368,7 @@
       <c r="CH115" s="32"/>
       <c r="CI115" s="32"/>
       <c r="CJ115" s="32"/>
+      <c r="CK115" s="32"/>
     </row>
     <row r="116" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
@@ -36318,7 +36392,7 @@
     </row>
     <row r="122" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="1:128" x14ac:dyDescent="0.25">
@@ -36328,7 +36402,7 @@
     </row>
     <row r="125" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126" spans="1:128" x14ac:dyDescent="0.25">
@@ -36338,139 +36412,138 @@
     </row>
     <row r="128" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
-      <c r="B128" s="42">
+      <c r="B128" s="43">
         <v>2000</v>
       </c>
-      <c r="C128" s="43"/>
-      <c r="D128" s="43"/>
-      <c r="E128" s="43"/>
-      <c r="F128" s="42">
+      <c r="C128" s="44"/>
+      <c r="D128" s="44"/>
+      <c r="E128" s="44"/>
+      <c r="F128" s="43">
         <v>2001</v>
       </c>
-      <c r="G128" s="43"/>
-      <c r="H128" s="43"/>
-      <c r="I128" s="43"/>
-      <c r="J128" s="42">
+      <c r="G128" s="44"/>
+      <c r="H128" s="44"/>
+      <c r="I128" s="44"/>
+      <c r="J128" s="43">
         <v>2002</v>
       </c>
-      <c r="K128" s="43"/>
-      <c r="L128" s="43"/>
-      <c r="M128" s="43"/>
-      <c r="N128" s="42">
+      <c r="K128" s="44"/>
+      <c r="L128" s="44"/>
+      <c r="M128" s="44"/>
+      <c r="N128" s="43">
         <v>2003</v>
       </c>
-      <c r="O128" s="43"/>
-      <c r="P128" s="43"/>
-      <c r="Q128" s="43"/>
-      <c r="R128" s="42">
+      <c r="O128" s="44"/>
+      <c r="P128" s="44"/>
+      <c r="Q128" s="44"/>
+      <c r="R128" s="43">
         <v>2004</v>
       </c>
-      <c r="S128" s="43"/>
-      <c r="T128" s="43"/>
-      <c r="U128" s="43"/>
-      <c r="V128" s="42">
+      <c r="S128" s="44"/>
+      <c r="T128" s="44"/>
+      <c r="U128" s="44"/>
+      <c r="V128" s="43">
         <v>2005</v>
       </c>
-      <c r="W128" s="43"/>
-      <c r="X128" s="43"/>
-      <c r="Y128" s="43"/>
-      <c r="Z128" s="42">
+      <c r="W128" s="44"/>
+      <c r="X128" s="44"/>
+      <c r="Y128" s="44"/>
+      <c r="Z128" s="43">
         <v>2006</v>
       </c>
-      <c r="AA128" s="43"/>
-      <c r="AB128" s="43"/>
-      <c r="AC128" s="43"/>
-      <c r="AD128" s="42">
+      <c r="AA128" s="44"/>
+      <c r="AB128" s="44"/>
+      <c r="AC128" s="44"/>
+      <c r="AD128" s="43">
         <v>2007</v>
       </c>
-      <c r="AE128" s="43"/>
-      <c r="AF128" s="43"/>
-      <c r="AG128" s="43"/>
-      <c r="AH128" s="42">
+      <c r="AE128" s="44"/>
+      <c r="AF128" s="44"/>
+      <c r="AG128" s="44"/>
+      <c r="AH128" s="43">
         <v>2008</v>
       </c>
-      <c r="AI128" s="43"/>
-      <c r="AJ128" s="43"/>
-      <c r="AK128" s="43"/>
-      <c r="AL128" s="42">
+      <c r="AI128" s="44"/>
+      <c r="AJ128" s="44"/>
+      <c r="AK128" s="44"/>
+      <c r="AL128" s="43">
         <v>2009</v>
       </c>
-      <c r="AM128" s="43"/>
-      <c r="AN128" s="43"/>
-      <c r="AO128" s="43"/>
-      <c r="AP128" s="42">
+      <c r="AM128" s="44"/>
+      <c r="AN128" s="44"/>
+      <c r="AO128" s="44"/>
+      <c r="AP128" s="43">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="43"/>
-      <c r="AR128" s="43"/>
-      <c r="AS128" s="43"/>
-      <c r="AT128" s="42">
+      <c r="AQ128" s="44"/>
+      <c r="AR128" s="44"/>
+      <c r="AS128" s="44"/>
+      <c r="AT128" s="43">
         <v>2011</v>
       </c>
-      <c r="AU128" s="43"/>
-      <c r="AV128" s="43"/>
-      <c r="AW128" s="43"/>
-      <c r="AX128" s="42">
+      <c r="AU128" s="44"/>
+      <c r="AV128" s="44"/>
+      <c r="AW128" s="44"/>
+      <c r="AX128" s="43">
         <v>2012</v>
       </c>
-      <c r="AY128" s="43"/>
-      <c r="AZ128" s="43"/>
-      <c r="BA128" s="43"/>
-      <c r="BB128" s="42">
+      <c r="AY128" s="44"/>
+      <c r="AZ128" s="44"/>
+      <c r="BA128" s="44"/>
+      <c r="BB128" s="43">
         <v>2013</v>
       </c>
-      <c r="BC128" s="43"/>
-      <c r="BD128" s="43"/>
-      <c r="BE128" s="43"/>
-      <c r="BF128" s="42">
+      <c r="BC128" s="44"/>
+      <c r="BD128" s="44"/>
+      <c r="BE128" s="44"/>
+      <c r="BF128" s="43">
         <v>2014</v>
       </c>
-      <c r="BG128" s="43"/>
-      <c r="BH128" s="43"/>
-      <c r="BI128" s="43"/>
-      <c r="BJ128" s="42">
+      <c r="BG128" s="44"/>
+      <c r="BH128" s="44"/>
+      <c r="BI128" s="44"/>
+      <c r="BJ128" s="43">
         <v>2015</v>
       </c>
-      <c r="BK128" s="43"/>
-      <c r="BL128" s="43"/>
-      <c r="BM128" s="43"/>
-      <c r="BN128" s="42">
+      <c r="BK128" s="44"/>
+      <c r="BL128" s="44"/>
+      <c r="BM128" s="44"/>
+      <c r="BN128" s="43">
         <v>2016</v>
       </c>
-      <c r="BO128" s="43"/>
-      <c r="BP128" s="43"/>
-      <c r="BQ128" s="43"/>
-      <c r="BR128" s="42">
+      <c r="BO128" s="44"/>
+      <c r="BP128" s="44"/>
+      <c r="BQ128" s="44"/>
+      <c r="BR128" s="43">
         <v>2017</v>
       </c>
-      <c r="BS128" s="43"/>
-      <c r="BT128" s="43"/>
-      <c r="BU128" s="43"/>
-      <c r="BV128" s="42">
+      <c r="BS128" s="44"/>
+      <c r="BT128" s="44"/>
+      <c r="BU128" s="44"/>
+      <c r="BV128" s="43">
         <v>2018</v>
       </c>
-      <c r="BW128" s="42"/>
-      <c r="BX128" s="42"/>
-      <c r="BY128" s="42"/>
-      <c r="BZ128" s="42">
+      <c r="BW128" s="43"/>
+      <c r="BX128" s="43"/>
+      <c r="BY128" s="43"/>
+      <c r="BZ128" s="43">
         <v>2019</v>
       </c>
-      <c r="CA128" s="42"/>
-      <c r="CB128" s="42"/>
-      <c r="CC128" s="42"/>
-      <c r="CD128" s="41">
+      <c r="CA128" s="43"/>
+      <c r="CB128" s="43"/>
+      <c r="CC128" s="43"/>
+      <c r="CD128" s="42">
         <v>2020</v>
       </c>
-      <c r="CE128" s="41"/>
-      <c r="CF128" s="41"/>
-      <c r="CG128" s="41"/>
-      <c r="CH128" s="41">
+      <c r="CE128" s="42"/>
+      <c r="CF128" s="42"/>
+      <c r="CG128" s="42"/>
+      <c r="CH128" s="42">
         <v>2021</v>
       </c>
-      <c r="CI128" s="41">
-        <v>0</v>
-      </c>
-      <c r="CJ128" s="41"/>
+      <c r="CI128" s="42"/>
+      <c r="CJ128" s="42"/>
+      <c r="CK128" s="42"/>
     </row>
     <row r="129" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
@@ -36736,6 +36809,9 @@
       </c>
       <c r="CJ129" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="CK129" s="27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:128" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -37004,9 +37080,11 @@
         <v>49.911597897862208</v>
       </c>
       <c r="CJ131" s="38">
-        <v>33.226809085795182</v>
-      </c>
-      <c r="CK131" s="9"/>
+        <v>32.947724808886214</v>
+      </c>
+      <c r="CK131" s="38">
+        <v>38.630689998737175</v>
+      </c>
       <c r="CL131" s="9"/>
       <c r="CM131" s="9"/>
       <c r="CN131" s="9"/>
@@ -37310,9 +37388,11 @@
         <v>24.761145410678637</v>
       </c>
       <c r="CJ132" s="38">
-        <v>35.539754778355629</v>
-      </c>
-      <c r="CK132" s="9"/>
+        <v>35.735700776231099</v>
+      </c>
+      <c r="CK132" s="38">
+        <v>31.931947105678439</v>
+      </c>
       <c r="CL132" s="9"/>
       <c r="CM132" s="9"/>
       <c r="CN132" s="9"/>
@@ -37616,9 +37696,11 @@
         <v>25.327256691459144</v>
       </c>
       <c r="CJ133" s="38">
-        <v>31.233436135849175</v>
-      </c>
-      <c r="CK133" s="9"/>
+        <v>31.316574414882698</v>
+      </c>
+      <c r="CK133" s="38">
+        <v>29.437362895584396</v>
+      </c>
       <c r="CL133" s="9"/>
       <c r="CM133" s="9"/>
       <c r="CN133" s="9"/>
@@ -37747,7 +37829,7 @@
       <c r="CH134" s="29"/>
       <c r="CI134" s="29"/>
       <c r="CJ134" s="29"/>
-      <c r="CK134" s="9"/>
+      <c r="CK134" s="29"/>
       <c r="CL134" s="9"/>
       <c r="CM134" s="9"/>
       <c r="CN134" s="9"/>
@@ -38053,7 +38135,9 @@
       <c r="CJ135" s="38">
         <v>100</v>
       </c>
-      <c r="CK135" s="9"/>
+      <c r="CK135" s="38">
+        <v>100</v>
+      </c>
       <c r="CL135" s="9"/>
       <c r="CM135" s="9"/>
       <c r="CN135" s="9"/>
@@ -38183,6 +38267,7 @@
       <c r="CH136" s="31"/>
       <c r="CI136" s="31"/>
       <c r="CJ136" s="31"/>
+      <c r="CK136" s="31"/>
     </row>
     <row r="137" spans="1:128" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
@@ -38273,7 +38358,7 @@
       <c r="CH137" s="30"/>
       <c r="CI137" s="30"/>
       <c r="CJ137" s="30"/>
-      <c r="CK137" s="9"/>
+      <c r="CK137" s="30"/>
       <c r="CL137" s="9"/>
       <c r="CM137" s="9"/>
       <c r="CN137" s="9"/>
@@ -38403,7 +38488,7 @@
       <c r="CH138" s="30"/>
       <c r="CI138" s="30"/>
       <c r="CJ138" s="30"/>
-      <c r="CK138" s="9"/>
+      <c r="CK138" s="30"/>
       <c r="CL138" s="9"/>
       <c r="CM138" s="9"/>
       <c r="CN138" s="9"/>
@@ -38533,6 +38618,7 @@
       <c r="CH139" s="32"/>
       <c r="CI139" s="32"/>
       <c r="CJ139" s="32"/>
+      <c r="CK139" s="32"/>
     </row>
     <row r="140" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
@@ -38632,7 +38718,7 @@
       <c r="CH142" s="29"/>
       <c r="CI142" s="29"/>
       <c r="CJ142" s="29"/>
-      <c r="CK142" s="9"/>
+      <c r="CK142" s="29"/>
       <c r="CL142" s="9"/>
       <c r="CM142" s="9"/>
       <c r="CN142" s="9"/>
@@ -38761,7 +38847,7 @@
       <c r="CH143" s="29"/>
       <c r="CI143" s="29"/>
       <c r="CJ143" s="29"/>
-      <c r="CK143" s="9"/>
+      <c r="CK143" s="29"/>
       <c r="CL143" s="9"/>
       <c r="CM143" s="9"/>
       <c r="CN143" s="9"/>
@@ -38814,7 +38900,7 @@
     </row>
     <row r="146" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:128" x14ac:dyDescent="0.25">
@@ -38824,7 +38910,7 @@
     </row>
     <row r="149" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:128" x14ac:dyDescent="0.25">
@@ -38834,139 +38920,138 @@
     </row>
     <row r="152" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
-      <c r="B152" s="42">
+      <c r="B152" s="43">
         <v>2000</v>
       </c>
-      <c r="C152" s="43"/>
-      <c r="D152" s="43"/>
-      <c r="E152" s="43"/>
-      <c r="F152" s="42">
+      <c r="C152" s="44"/>
+      <c r="D152" s="44"/>
+      <c r="E152" s="44"/>
+      <c r="F152" s="43">
         <v>2001</v>
       </c>
-      <c r="G152" s="43"/>
-      <c r="H152" s="43"/>
-      <c r="I152" s="43"/>
-      <c r="J152" s="42">
+      <c r="G152" s="44"/>
+      <c r="H152" s="44"/>
+      <c r="I152" s="44"/>
+      <c r="J152" s="43">
         <v>2002</v>
       </c>
-      <c r="K152" s="43"/>
-      <c r="L152" s="43"/>
-      <c r="M152" s="43"/>
-      <c r="N152" s="42">
+      <c r="K152" s="44"/>
+      <c r="L152" s="44"/>
+      <c r="M152" s="44"/>
+      <c r="N152" s="43">
         <v>2003</v>
       </c>
-      <c r="O152" s="43"/>
-      <c r="P152" s="43"/>
-      <c r="Q152" s="43"/>
-      <c r="R152" s="42">
+      <c r="O152" s="44"/>
+      <c r="P152" s="44"/>
+      <c r="Q152" s="44"/>
+      <c r="R152" s="43">
         <v>2004</v>
       </c>
-      <c r="S152" s="43"/>
-      <c r="T152" s="43"/>
-      <c r="U152" s="43"/>
-      <c r="V152" s="42">
+      <c r="S152" s="44"/>
+      <c r="T152" s="44"/>
+      <c r="U152" s="44"/>
+      <c r="V152" s="43">
         <v>2005</v>
       </c>
-      <c r="W152" s="43"/>
-      <c r="X152" s="43"/>
-      <c r="Y152" s="43"/>
-      <c r="Z152" s="42">
+      <c r="W152" s="44"/>
+      <c r="X152" s="44"/>
+      <c r="Y152" s="44"/>
+      <c r="Z152" s="43">
         <v>2006</v>
       </c>
-      <c r="AA152" s="43"/>
-      <c r="AB152" s="43"/>
-      <c r="AC152" s="43"/>
-      <c r="AD152" s="42">
+      <c r="AA152" s="44"/>
+      <c r="AB152" s="44"/>
+      <c r="AC152" s="44"/>
+      <c r="AD152" s="43">
         <v>2007</v>
       </c>
-      <c r="AE152" s="43"/>
-      <c r="AF152" s="43"/>
-      <c r="AG152" s="43"/>
-      <c r="AH152" s="42">
+      <c r="AE152" s="44"/>
+      <c r="AF152" s="44"/>
+      <c r="AG152" s="44"/>
+      <c r="AH152" s="43">
         <v>2008</v>
       </c>
-      <c r="AI152" s="43"/>
-      <c r="AJ152" s="43"/>
-      <c r="AK152" s="43"/>
-      <c r="AL152" s="42">
+      <c r="AI152" s="44"/>
+      <c r="AJ152" s="44"/>
+      <c r="AK152" s="44"/>
+      <c r="AL152" s="43">
         <v>2009</v>
       </c>
-      <c r="AM152" s="43"/>
-      <c r="AN152" s="43"/>
-      <c r="AO152" s="43"/>
-      <c r="AP152" s="42">
+      <c r="AM152" s="44"/>
+      <c r="AN152" s="44"/>
+      <c r="AO152" s="44"/>
+      <c r="AP152" s="43">
         <v>2010</v>
       </c>
-      <c r="AQ152" s="43"/>
-      <c r="AR152" s="43"/>
-      <c r="AS152" s="43"/>
-      <c r="AT152" s="42">
+      <c r="AQ152" s="44"/>
+      <c r="AR152" s="44"/>
+      <c r="AS152" s="44"/>
+      <c r="AT152" s="43">
         <v>2011</v>
       </c>
-      <c r="AU152" s="43"/>
-      <c r="AV152" s="43"/>
-      <c r="AW152" s="43"/>
-      <c r="AX152" s="42">
+      <c r="AU152" s="44"/>
+      <c r="AV152" s="44"/>
+      <c r="AW152" s="44"/>
+      <c r="AX152" s="43">
         <v>2012</v>
       </c>
-      <c r="AY152" s="43"/>
-      <c r="AZ152" s="43"/>
-      <c r="BA152" s="43"/>
-      <c r="BB152" s="42">
+      <c r="AY152" s="44"/>
+      <c r="AZ152" s="44"/>
+      <c r="BA152" s="44"/>
+      <c r="BB152" s="43">
         <v>2013</v>
       </c>
-      <c r="BC152" s="43"/>
-      <c r="BD152" s="43"/>
-      <c r="BE152" s="43"/>
-      <c r="BF152" s="42">
+      <c r="BC152" s="44"/>
+      <c r="BD152" s="44"/>
+      <c r="BE152" s="44"/>
+      <c r="BF152" s="43">
         <v>2014</v>
       </c>
-      <c r="BG152" s="43"/>
-      <c r="BH152" s="43"/>
-      <c r="BI152" s="43"/>
-      <c r="BJ152" s="42">
+      <c r="BG152" s="44"/>
+      <c r="BH152" s="44"/>
+      <c r="BI152" s="44"/>
+      <c r="BJ152" s="43">
         <v>2015</v>
       </c>
-      <c r="BK152" s="43"/>
-      <c r="BL152" s="43"/>
-      <c r="BM152" s="43"/>
-      <c r="BN152" s="42">
+      <c r="BK152" s="44"/>
+      <c r="BL152" s="44"/>
+      <c r="BM152" s="44"/>
+      <c r="BN152" s="43">
         <v>2016</v>
       </c>
-      <c r="BO152" s="43"/>
-      <c r="BP152" s="43"/>
-      <c r="BQ152" s="43"/>
-      <c r="BR152" s="42">
+      <c r="BO152" s="44"/>
+      <c r="BP152" s="44"/>
+      <c r="BQ152" s="44"/>
+      <c r="BR152" s="43">
         <v>2017</v>
       </c>
-      <c r="BS152" s="43"/>
-      <c r="BT152" s="43"/>
-      <c r="BU152" s="43"/>
-      <c r="BV152" s="42">
+      <c r="BS152" s="44"/>
+      <c r="BT152" s="44"/>
+      <c r="BU152" s="44"/>
+      <c r="BV152" s="43">
         <v>2018</v>
       </c>
-      <c r="BW152" s="42"/>
-      <c r="BX152" s="42"/>
-      <c r="BY152" s="42"/>
-      <c r="BZ152" s="42">
+      <c r="BW152" s="43"/>
+      <c r="BX152" s="43"/>
+      <c r="BY152" s="43"/>
+      <c r="BZ152" s="43">
         <v>2019</v>
       </c>
-      <c r="CA152" s="42"/>
-      <c r="CB152" s="42"/>
-      <c r="CC152" s="42"/>
-      <c r="CD152" s="41">
+      <c r="CA152" s="43"/>
+      <c r="CB152" s="43"/>
+      <c r="CC152" s="43"/>
+      <c r="CD152" s="42">
         <v>2020</v>
       </c>
-      <c r="CE152" s="41"/>
-      <c r="CF152" s="41"/>
-      <c r="CG152" s="41"/>
-      <c r="CH152" s="41">
+      <c r="CE152" s="42"/>
+      <c r="CF152" s="42"/>
+      <c r="CG152" s="42"/>
+      <c r="CH152" s="42">
         <v>2021</v>
       </c>
-      <c r="CI152" s="41">
-        <v>0</v>
-      </c>
-      <c r="CJ152" s="41"/>
+      <c r="CI152" s="42"/>
+      <c r="CJ152" s="42"/>
+      <c r="CK152" s="42"/>
     </row>
     <row r="153" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
@@ -39232,6 +39317,9 @@
       </c>
       <c r="CJ153" s="27" t="s">
         <v>9</v>
+      </c>
+      <c r="CK153" s="27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:128" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -39500,9 +39588,11 @@
         <v>49.960349021168867</v>
       </c>
       <c r="CJ155" s="38">
-        <v>33.918412620148573</v>
-      </c>
-      <c r="CK155" s="9"/>
+        <v>33.595360485151929</v>
+      </c>
+      <c r="CK155" s="38">
+        <v>38.171253414508868</v>
+      </c>
       <c r="CL155" s="9"/>
       <c r="CM155" s="9"/>
       <c r="CN155" s="9"/>
@@ -39806,9 +39896,11 @@
         <v>25.462558931396874</v>
       </c>
       <c r="CJ156" s="38">
-        <v>34.886926074253424</v>
-      </c>
-      <c r="CK156" s="9"/>
+        <v>35.092026000220386</v>
+      </c>
+      <c r="CK156" s="38">
+        <v>30.260378544628335</v>
+      </c>
       <c r="CL156" s="9"/>
       <c r="CM156" s="9"/>
       <c r="CN156" s="9"/>
@@ -40112,9 +40204,11 @@
         <v>24.577092047434267</v>
       </c>
       <c r="CJ157" s="38">
-        <v>31.194661305598014</v>
-      </c>
-      <c r="CK157" s="9"/>
+        <v>31.312613514627685</v>
+      </c>
+      <c r="CK157" s="38">
+        <v>31.568368040862797</v>
+      </c>
       <c r="CL157" s="9"/>
       <c r="CM157" s="9"/>
       <c r="CN157" s="9"/>
@@ -40243,7 +40337,7 @@
       <c r="CH158" s="29"/>
       <c r="CI158" s="29"/>
       <c r="CJ158" s="29"/>
-      <c r="CK158" s="9"/>
+      <c r="CK158" s="29"/>
       <c r="CL158" s="9"/>
       <c r="CM158" s="9"/>
       <c r="CN158" s="9"/>
@@ -40549,7 +40643,9 @@
       <c r="CJ159" s="38">
         <v>100</v>
       </c>
-      <c r="CK159" s="9"/>
+      <c r="CK159" s="38">
+        <v>100</v>
+      </c>
       <c r="CL159" s="9"/>
       <c r="CM159" s="9"/>
       <c r="CN159" s="9"/>
@@ -40679,6 +40775,7 @@
       <c r="CH160" s="31"/>
       <c r="CI160" s="31"/>
       <c r="CJ160" s="31"/>
+      <c r="CK160" s="31"/>
     </row>
     <row r="161" spans="1:128" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
@@ -40769,7 +40866,7 @@
       <c r="CH161" s="30"/>
       <c r="CI161" s="30"/>
       <c r="CJ161" s="30"/>
-      <c r="CK161" s="9"/>
+      <c r="CK161" s="30"/>
       <c r="CL161" s="9"/>
       <c r="CM161" s="9"/>
       <c r="CN161" s="9"/>
@@ -40899,7 +40996,7 @@
       <c r="CH162" s="30"/>
       <c r="CI162" s="30"/>
       <c r="CJ162" s="30"/>
-      <c r="CK162" s="9"/>
+      <c r="CK162" s="30"/>
       <c r="CL162" s="9"/>
       <c r="CM162" s="9"/>
       <c r="CN162" s="9"/>
@@ -41029,6 +41126,7 @@
       <c r="CH163" s="32"/>
       <c r="CI163" s="32"/>
       <c r="CJ163" s="32"/>
+      <c r="CK163" s="32"/>
     </row>
     <row r="164" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
@@ -41170,13 +41268,13 @@
     <mergeCell ref="Z152:AC152"/>
     <mergeCell ref="AD152:AG152"/>
     <mergeCell ref="AH152:AK152"/>
-    <mergeCell ref="CH9:CJ9"/>
-    <mergeCell ref="CH33:CJ33"/>
-    <mergeCell ref="CD57:CF57"/>
-    <mergeCell ref="CD81:CF81"/>
-    <mergeCell ref="CH104:CJ104"/>
-    <mergeCell ref="CH128:CJ128"/>
-    <mergeCell ref="CH152:CJ152"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH33:CK33"/>
+    <mergeCell ref="CD57:CG57"/>
+    <mergeCell ref="CD81:CG81"/>
+    <mergeCell ref="CH104:CK104"/>
+    <mergeCell ref="CH128:CK128"/>
+    <mergeCell ref="CH152:CK152"/>
     <mergeCell ref="BB152:BE152"/>
     <mergeCell ref="BF152:BI152"/>
     <mergeCell ref="BJ152:BM152"/>
@@ -41200,9 +41298,9 @@
   <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="48" max="86" man="1"/>
-    <brk id="96" max="86" man="1"/>
-    <brk id="119" max="86" man="1"/>
+    <brk id="48" max="88" man="1"/>
+    <brk id="96" max="88" man="1"/>
+    <brk id="119" max="88" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\PSA\NAP\NAP\Q1 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A14A8B-CDE0-41B5-AB91-6C5191B09E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNS" sheetId="6" r:id="rId1"/>
@@ -470,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -622,22 +623,25 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
+    <t>As of May 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2021</t>
+    <t>Q1 2000 to Q1 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2021</t>
+    <t>Q1 2001 to Q1 2022</t>
+  </si>
+  <si>
+    <t>2021 - 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
@@ -724,11 +728,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -775,12 +779,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -788,6 +787,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -799,9 +816,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23383,7 +23400,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -23435,7 +23452,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -23636,196 +23653,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:DX165"/>
+  <dimension ref="A1:DX199"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="BP3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
       <selection pane="topRight" activeCell="N19" sqref="N19"/>
       <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="CI79" sqref="CI79:CM98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.7265625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.26953125" style="1" customWidth="1"/>
-    <col min="2" max="77" width="8.81640625" style="1" customWidth="1"/>
-    <col min="78" max="78" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="81" width="8.81640625" style="1" customWidth="1"/>
-    <col min="82" max="89" width="9.453125" style="26" customWidth="1"/>
-    <col min="90" max="16384" width="7.7265625" style="1"/>
+    <col min="1" max="1" width="38.21875" style="1" customWidth="1"/>
+    <col min="2" max="77" width="8.77734375" style="1" customWidth="1"/>
+    <col min="78" max="78" width="9.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="79" max="90" width="8.77734375" style="26" customWidth="1"/>
+    <col min="91" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="43">
+      <c r="B9" s="52">
         <v>2000</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43">
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52">
         <v>2001</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43">
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52">
         <v>2002</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43">
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52">
         <v>2003</v>
       </c>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43">
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52">
         <v>2004</v>
       </c>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43">
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52">
         <v>2005</v>
       </c>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43">
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52">
         <v>2006</v>
       </c>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="43">
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52">
         <v>2007</v>
       </c>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="43"/>
-      <c r="AH9" s="43">
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="52">
         <v>2008</v>
       </c>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="43"/>
-      <c r="AK9" s="43"/>
-      <c r="AL9" s="43">
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="52"/>
+      <c r="AK9" s="52"/>
+      <c r="AL9" s="52">
         <v>2009</v>
       </c>
-      <c r="AM9" s="43"/>
-      <c r="AN9" s="43"/>
-      <c r="AO9" s="43"/>
-      <c r="AP9" s="43">
+      <c r="AM9" s="52"/>
+      <c r="AN9" s="52"/>
+      <c r="AO9" s="52"/>
+      <c r="AP9" s="52">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="43"/>
-      <c r="AR9" s="43"/>
-      <c r="AS9" s="43"/>
-      <c r="AT9" s="43">
+      <c r="AQ9" s="52"/>
+      <c r="AR9" s="52"/>
+      <c r="AS9" s="52"/>
+      <c r="AT9" s="52">
         <v>2011</v>
       </c>
-      <c r="AU9" s="43"/>
-      <c r="AV9" s="43"/>
-      <c r="AW9" s="43"/>
-      <c r="AX9" s="43">
+      <c r="AU9" s="52"/>
+      <c r="AV9" s="52"/>
+      <c r="AW9" s="52"/>
+      <c r="AX9" s="52">
         <v>2012</v>
       </c>
-      <c r="AY9" s="43"/>
-      <c r="AZ9" s="43"/>
-      <c r="BA9" s="43"/>
-      <c r="BB9" s="43">
+      <c r="AY9" s="52"/>
+      <c r="AZ9" s="52"/>
+      <c r="BA9" s="52"/>
+      <c r="BB9" s="52">
         <v>2013</v>
       </c>
-      <c r="BC9" s="43"/>
-      <c r="BD9" s="43"/>
-      <c r="BE9" s="43"/>
-      <c r="BF9" s="43">
+      <c r="BC9" s="52"/>
+      <c r="BD9" s="52"/>
+      <c r="BE9" s="52"/>
+      <c r="BF9" s="52">
         <v>2014</v>
       </c>
-      <c r="BG9" s="43"/>
-      <c r="BH9" s="43"/>
-      <c r="BI9" s="43"/>
-      <c r="BJ9" s="43">
+      <c r="BG9" s="52"/>
+      <c r="BH9" s="52"/>
+      <c r="BI9" s="52"/>
+      <c r="BJ9" s="52">
         <v>2015</v>
       </c>
-      <c r="BK9" s="43"/>
-      <c r="BL9" s="43"/>
-      <c r="BM9" s="43"/>
-      <c r="BN9" s="43">
+      <c r="BK9" s="52"/>
+      <c r="BL9" s="52"/>
+      <c r="BM9" s="52"/>
+      <c r="BN9" s="52">
         <v>2016</v>
       </c>
-      <c r="BO9" s="43"/>
-      <c r="BP9" s="43"/>
-      <c r="BQ9" s="43"/>
-      <c r="BR9" s="43">
+      <c r="BO9" s="52"/>
+      <c r="BP9" s="52"/>
+      <c r="BQ9" s="52"/>
+      <c r="BR9" s="52">
         <v>2017</v>
       </c>
-      <c r="BS9" s="43"/>
-      <c r="BT9" s="43"/>
-      <c r="BU9" s="43"/>
-      <c r="BV9" s="43">
+      <c r="BS9" s="52"/>
+      <c r="BT9" s="52"/>
+      <c r="BU9" s="52"/>
+      <c r="BV9" s="52">
         <v>2018</v>
       </c>
-      <c r="BW9" s="43"/>
-      <c r="BX9" s="43"/>
-      <c r="BY9" s="43"/>
-      <c r="BZ9" s="43">
+      <c r="BW9" s="52"/>
+      <c r="BX9" s="52"/>
+      <c r="BY9" s="52"/>
+      <c r="BZ9" s="50">
         <v>2019</v>
       </c>
-      <c r="CA9" s="43"/>
-      <c r="CB9" s="43"/>
-      <c r="CC9" s="43"/>
-      <c r="CD9" s="42">
+      <c r="CA9" s="50"/>
+      <c r="CB9" s="50"/>
+      <c r="CC9" s="50"/>
+      <c r="CD9" s="50">
         <v>2020</v>
       </c>
-      <c r="CE9" s="42"/>
-      <c r="CF9" s="42"/>
-      <c r="CG9" s="42"/>
-      <c r="CH9" s="42">
+      <c r="CE9" s="50"/>
+      <c r="CF9" s="50"/>
+      <c r="CG9" s="50"/>
+      <c r="CH9" s="50">
         <v>2021</v>
       </c>
-      <c r="CI9" s="42"/>
-      <c r="CJ9" s="42"/>
-      <c r="CK9" s="42"/>
+      <c r="CI9" s="50"/>
+      <c r="CJ9" s="50"/>
+      <c r="CK9" s="50"/>
+      <c r="CL9" s="39">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="10" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -24057,16 +24076,16 @@
       <c r="BY10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BZ10" s="6" t="s">
+      <c r="BZ10" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CA10" s="6" t="s">
+      <c r="CA10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CB10" s="6" t="s">
+      <c r="CB10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CC10" s="6" t="s">
+      <c r="CC10" s="27" t="s">
         <v>8</v>
       </c>
       <c r="CD10" s="27" t="s">
@@ -24093,11 +24112,14 @@
       <c r="CK10" s="27" t="s">
         <v>8</v>
       </c>
+      <c r="CL10" s="27" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:128" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -24329,43 +24351,45 @@
       <c r="BY12" s="8">
         <v>191752.55327117126</v>
       </c>
-      <c r="BZ12" s="8">
+      <c r="BZ12" s="28">
         <v>128653.77849332681</v>
       </c>
-      <c r="CA12" s="8">
+      <c r="CA12" s="28">
         <v>267642.56740241288</v>
       </c>
-      <c r="CB12" s="8">
+      <c r="CB12" s="28">
         <v>172193.80910431745</v>
       </c>
-      <c r="CC12" s="8">
+      <c r="CC12" s="28">
         <v>248629.84021990074</v>
       </c>
       <c r="CD12" s="28">
-        <v>131664.50765155899</v>
+        <v>132698.19821859145</v>
       </c>
       <c r="CE12" s="28">
-        <v>273832.1480060349</v>
+        <v>276832.39630217513</v>
       </c>
       <c r="CF12" s="28">
-        <v>128503.70448268029</v>
+        <v>130134.4649311664</v>
       </c>
       <c r="CG12" s="28">
-        <v>208782.1259834168</v>
+        <v>210311.28246687539</v>
       </c>
       <c r="CH12" s="28">
-        <v>165750.39513884875</v>
+        <v>167051.69207143103</v>
       </c>
       <c r="CI12" s="28">
-        <v>408089.84896397282</v>
+        <v>412561.09488210839</v>
       </c>
       <c r="CJ12" s="28">
-        <v>205816.56519961392</v>
+        <v>208428.45499315707</v>
       </c>
       <c r="CK12" s="28">
-        <v>274802.13603506237</v>
-      </c>
-      <c r="CL12" s="9"/>
+        <v>264739.63527380844</v>
+      </c>
+      <c r="CL12" s="28">
+        <v>168820.52517025365</v>
+      </c>
       <c r="CM12" s="9"/>
       <c r="CN12" s="9"/>
       <c r="CO12" s="9"/>
@@ -24405,7 +24429,7 @@
       <c r="DW12" s="9"/>
       <c r="DX12" s="9"/>
     </row>
-    <row r="13" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -24637,43 +24661,45 @@
       <c r="BY13" s="8">
         <v>353326.13244938391</v>
       </c>
-      <c r="BZ13" s="8">
+      <c r="BZ13" s="28">
         <v>330419.00456568046</v>
       </c>
-      <c r="CA13" s="8">
+      <c r="CA13" s="28">
         <v>346489.56059323077</v>
       </c>
-      <c r="CB13" s="8">
+      <c r="CB13" s="28">
         <v>425753.34628289839</v>
       </c>
-      <c r="CC13" s="8">
+      <c r="CC13" s="28">
         <v>416586.32323216199</v>
       </c>
       <c r="CD13" s="28">
-        <v>330512.47018160945</v>
+        <v>330868.83377576957</v>
       </c>
       <c r="CE13" s="28">
-        <v>259084.84066255335</v>
+        <v>258688.65473987217</v>
       </c>
       <c r="CF13" s="28">
-        <v>243218.55431678853</v>
+        <v>242366.51672852226</v>
       </c>
       <c r="CG13" s="28">
-        <v>209556.75948767262</v>
+        <v>208922.74558363974</v>
       </c>
       <c r="CH13" s="28">
-        <v>184778.94931164093</v>
+        <v>185633.17430592715</v>
       </c>
       <c r="CI13" s="28">
-        <v>202453.3879179135</v>
+        <v>203761.57588558231</v>
       </c>
       <c r="CJ13" s="28">
-        <v>223232.38498038476</v>
+        <v>223870.56397539313</v>
       </c>
       <c r="CK13" s="28">
-        <v>227150.15633129809</v>
-      </c>
-      <c r="CL13" s="9"/>
+        <v>228630.60632516781</v>
+      </c>
+      <c r="CL13" s="28">
+        <v>249268.01308326708</v>
+      </c>
       <c r="CM13" s="9"/>
       <c r="CN13" s="9"/>
       <c r="CO13" s="9"/>
@@ -24713,7 +24739,7 @@
       <c r="DW13" s="9"/>
       <c r="DX13" s="9"/>
     </row>
-    <row r="14" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -24945,43 +24971,45 @@
       <c r="BY14" s="8">
         <v>253535.51454564542</v>
       </c>
-      <c r="BZ14" s="8">
+      <c r="BZ14" s="28">
         <v>198561.61529182381</v>
       </c>
-      <c r="CA14" s="8">
+      <c r="CA14" s="28">
         <v>234998.35501285098</v>
       </c>
-      <c r="CB14" s="8">
+      <c r="CB14" s="28">
         <v>274766.10427876649</v>
       </c>
-      <c r="CC14" s="8">
+      <c r="CC14" s="28">
         <v>245834.79013304078</v>
       </c>
       <c r="CD14" s="28">
-        <v>202378.94180813336</v>
+        <v>203351.26237879609</v>
       </c>
       <c r="CE14" s="28">
-        <v>47966.048729901413</v>
+        <v>48207.733886664479</v>
       </c>
       <c r="CF14" s="28">
-        <v>115031.18488102907</v>
+        <v>115675.90380930096</v>
       </c>
       <c r="CG14" s="28">
-        <v>172406.00876319822</v>
+        <v>173915.08707395635</v>
       </c>
       <c r="CH14" s="28">
-        <v>154954.04483242522</v>
+        <v>156288.45655926011</v>
       </c>
       <c r="CI14" s="28">
-        <v>207082.05694075822</v>
+        <v>212454.84307461116</v>
       </c>
       <c r="CJ14" s="28">
-        <v>195627.15839337351</v>
+        <v>197258.79265516618</v>
       </c>
       <c r="CK14" s="28">
-        <v>209404.75573204423</v>
-      </c>
-      <c r="CL14" s="9"/>
+        <v>221473.89075327839</v>
+      </c>
+      <c r="CL14" s="28">
+        <v>192153.68161342113</v>
+      </c>
       <c r="CM14" s="9"/>
       <c r="CN14" s="9"/>
       <c r="CO14" s="9"/>
@@ -25021,7 +25049,7 @@
       <c r="DW14" s="9"/>
       <c r="DX14" s="9"/>
     </row>
-    <row r="15" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -25098,10 +25126,10 @@
       <c r="BW15" s="9"/>
       <c r="BX15" s="9"/>
       <c r="BY15" s="9"/>
-      <c r="BZ15" s="9"/>
-      <c r="CA15" s="9"/>
-      <c r="CB15" s="9"/>
-      <c r="CC15" s="9"/>
+      <c r="BZ15" s="29"/>
+      <c r="CA15" s="29"/>
+      <c r="CB15" s="29"/>
+      <c r="CC15" s="29"/>
       <c r="CD15" s="29"/>
       <c r="CE15" s="29"/>
       <c r="CF15" s="29"/>
@@ -25110,7 +25138,7 @@
       <c r="CI15" s="29"/>
       <c r="CJ15" s="29"/>
       <c r="CK15" s="29"/>
-      <c r="CL15" s="9"/>
+      <c r="CL15" s="29"/>
       <c r="CM15" s="9"/>
       <c r="CN15" s="9"/>
       <c r="CO15" s="9"/>
@@ -25150,7 +25178,7 @@
       <c r="DW15" s="9"/>
       <c r="DX15" s="9"/>
     </row>
-    <row r="16" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
@@ -25382,43 +25410,45 @@
       <c r="BY16" s="11">
         <v>798614.20026620058</v>
       </c>
-      <c r="BZ16" s="11">
+      <c r="BZ16" s="30">
         <v>657634.39835083112</v>
       </c>
-      <c r="CA16" s="11">
+      <c r="CA16" s="30">
         <v>849130.4830084946</v>
       </c>
-      <c r="CB16" s="11">
+      <c r="CB16" s="30">
         <v>872713.25966598233</v>
       </c>
-      <c r="CC16" s="11">
+      <c r="CC16" s="30">
         <v>911050.9535851035</v>
       </c>
       <c r="CD16" s="30">
-        <v>664555.91964130185</v>
+        <v>666918.29437315708</v>
       </c>
       <c r="CE16" s="30">
-        <v>580883.03739848966</v>
+        <v>583728.78492871183</v>
       </c>
       <c r="CF16" s="30">
-        <v>486753.44368049788</v>
+        <v>488176.88546898961</v>
       </c>
       <c r="CG16" s="30">
-        <v>590744.89423428755</v>
+        <v>593149.11512447149</v>
       </c>
       <c r="CH16" s="30">
-        <v>505483.38928291493</v>
+        <v>508973.32293661835</v>
       </c>
       <c r="CI16" s="30">
-        <v>817625.29382264463</v>
+        <v>828777.51384230191</v>
       </c>
       <c r="CJ16" s="30">
-        <v>624676.10857337213</v>
+        <v>629557.81162371638</v>
       </c>
       <c r="CK16" s="30">
-        <v>711357.04809840466</v>
-      </c>
-      <c r="CL16" s="9"/>
+        <v>714844.13235225459</v>
+      </c>
+      <c r="CL16" s="30">
+        <v>610242.21986694192</v>
+      </c>
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
@@ -25458,7 +25488,7 @@
       <c r="DW16" s="9"/>
       <c r="DX16" s="9"/>
     </row>
-    <row r="17" spans="1:128" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:128" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -25536,10 +25566,10 @@
       <c r="BW17" s="12"/>
       <c r="BX17" s="12"/>
       <c r="BY17" s="12"/>
-      <c r="BZ17" s="12"/>
-      <c r="CA17" s="12"/>
-      <c r="CB17" s="12"/>
-      <c r="CC17" s="12"/>
+      <c r="BZ17" s="31"/>
+      <c r="CA17" s="31"/>
+      <c r="CB17" s="31"/>
+      <c r="CC17" s="31"/>
       <c r="CD17" s="31"/>
       <c r="CE17" s="31"/>
       <c r="CF17" s="31"/>
@@ -25548,8 +25578,9 @@
       <c r="CI17" s="31"/>
       <c r="CJ17" s="31"/>
       <c r="CK17" s="31"/>
+      <c r="CL17" s="31"/>
     </row>
-    <row r="18" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -25627,10 +25658,10 @@
       <c r="BW18" s="11"/>
       <c r="BX18" s="11"/>
       <c r="BY18" s="11"/>
-      <c r="BZ18" s="11"/>
-      <c r="CA18" s="11"/>
-      <c r="CB18" s="11"/>
-      <c r="CC18" s="11"/>
+      <c r="BZ18" s="30"/>
+      <c r="CA18" s="30"/>
+      <c r="CB18" s="30"/>
+      <c r="CC18" s="30"/>
       <c r="CD18" s="30"/>
       <c r="CE18" s="30"/>
       <c r="CF18" s="30"/>
@@ -25639,7 +25670,7 @@
       <c r="CI18" s="30"/>
       <c r="CJ18" s="30"/>
       <c r="CK18" s="30"/>
-      <c r="CL18" s="9"/>
+      <c r="CL18" s="30"/>
       <c r="CM18" s="9"/>
       <c r="CN18" s="9"/>
       <c r="CO18" s="9"/>
@@ -25679,7 +25710,7 @@
       <c r="DW18" s="9"/>
       <c r="DX18" s="9"/>
     </row>
-    <row r="19" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
@@ -25911,43 +25942,45 @@
       <c r="BY19" s="8">
         <v>375175.45731214993</v>
       </c>
-      <c r="BZ19" s="8">
+      <c r="BZ19" s="28">
         <v>301929.44876851025</v>
       </c>
-      <c r="CA19" s="8">
+      <c r="CA19" s="28">
         <v>402555.55363191088</v>
       </c>
-      <c r="CB19" s="8">
+      <c r="CB19" s="28">
         <v>403901.25380031846</v>
       </c>
-      <c r="CC19" s="8">
+      <c r="CC19" s="28">
         <v>427341.14492701343</v>
       </c>
       <c r="CD19" s="28">
-        <v>305386.07606104878</v>
+        <v>306719.55537231447</v>
       </c>
       <c r="CE19" s="28">
-        <v>307477.94942789362</v>
+        <v>308552.58688590105</v>
       </c>
       <c r="CF19" s="28">
-        <v>241407.67070061853</v>
+        <v>241903.95384276524</v>
       </c>
       <c r="CG19" s="28">
-        <v>322841.908608948</v>
+        <v>323023.33799660718</v>
       </c>
       <c r="CH19" s="28">
-        <v>233748.40275130217</v>
+        <v>235371.21643846924</v>
       </c>
       <c r="CI19" s="28">
-        <v>403919.84952264687</v>
+        <v>408131.25381827954</v>
       </c>
       <c r="CJ19" s="28">
-        <v>302478.6826150291</v>
+        <v>304180.6889411317</v>
       </c>
       <c r="CK19" s="28">
-        <v>399359.32096630044</v>
-      </c>
-      <c r="CL19" s="9"/>
+        <v>399763.10453051195</v>
+      </c>
+      <c r="CL19" s="28">
+        <v>288048.19515437377</v>
+      </c>
       <c r="CM19" s="9"/>
       <c r="CN19" s="9"/>
       <c r="CO19" s="9"/>
@@ -25987,7 +26020,7 @@
       <c r="DW19" s="9"/>
       <c r="DX19" s="9"/>
     </row>
-    <row r="20" spans="1:128" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:128" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -26065,10 +26098,10 @@
       <c r="BW20" s="14"/>
       <c r="BX20" s="14"/>
       <c r="BY20" s="14"/>
-      <c r="BZ20" s="14"/>
-      <c r="CA20" s="14"/>
-      <c r="CB20" s="14"/>
-      <c r="CC20" s="14"/>
+      <c r="BZ20" s="32"/>
+      <c r="CA20" s="32"/>
+      <c r="CB20" s="32"/>
+      <c r="CC20" s="32"/>
       <c r="CD20" s="32"/>
       <c r="CE20" s="32"/>
       <c r="CF20" s="32"/>
@@ -26077,18 +26110,19 @@
       <c r="CI20" s="32"/>
       <c r="CJ20" s="32"/>
       <c r="CK20" s="32"/>
+      <c r="CL20" s="32"/>
     </row>
-    <row r="21" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:128" s="16" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:128" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G23" s="17"/>
       <c r="K23" s="17"/>
       <c r="O23" s="17"/>
@@ -26097,6 +26131,10 @@
       <c r="Y23" s="18"/>
       <c r="Z23" s="18"/>
       <c r="AA23" s="17"/>
+      <c r="BZ23" s="33"/>
+      <c r="CA23" s="33"/>
+      <c r="CB23" s="33"/>
+      <c r="CC23" s="33"/>
       <c r="CD23" s="33"/>
       <c r="CE23" s="33"/>
       <c r="CF23" s="33"/>
@@ -26105,8 +26143,9 @@
       <c r="CI23" s="33"/>
       <c r="CJ23" s="33"/>
       <c r="CK23" s="33"/>
+      <c r="CL23" s="33"/>
     </row>
-    <row r="24" spans="1:128" s="16" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:128" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G24" s="17"/>
       <c r="K24" s="17"/>
       <c r="O24" s="17"/>
@@ -26115,6 +26154,10 @@
       <c r="Y24" s="18"/>
       <c r="Z24" s="18"/>
       <c r="AA24" s="17"/>
+      <c r="BZ24" s="33"/>
+      <c r="CA24" s="33"/>
+      <c r="CB24" s="33"/>
+      <c r="CC24" s="33"/>
       <c r="CD24" s="33"/>
       <c r="CE24" s="33"/>
       <c r="CF24" s="33"/>
@@ -26123,173 +26166,177 @@
       <c r="CI24" s="33"/>
       <c r="CJ24" s="33"/>
       <c r="CK24" s="33"/>
+      <c r="CL24" s="33"/>
     </row>
-    <row r="25" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="43">
+      <c r="B33" s="52">
         <v>2000</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="43">
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="52">
         <v>2001</v>
       </c>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="43">
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="52">
         <v>2002</v>
       </c>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="43">
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="52">
         <v>2003</v>
       </c>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="43">
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="52">
         <v>2004</v>
       </c>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="43">
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="52">
         <v>2005</v>
       </c>
-      <c r="W33" s="44"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="43">
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="52">
         <v>2006</v>
       </c>
-      <c r="AA33" s="44"/>
-      <c r="AB33" s="44"/>
-      <c r="AC33" s="44"/>
-      <c r="AD33" s="43">
+      <c r="AA33" s="53"/>
+      <c r="AB33" s="53"/>
+      <c r="AC33" s="53"/>
+      <c r="AD33" s="52">
         <v>2007</v>
       </c>
-      <c r="AE33" s="44"/>
-      <c r="AF33" s="44"/>
-      <c r="AG33" s="44"/>
-      <c r="AH33" s="43">
+      <c r="AE33" s="53"/>
+      <c r="AF33" s="53"/>
+      <c r="AG33" s="53"/>
+      <c r="AH33" s="52">
         <v>2008</v>
       </c>
-      <c r="AI33" s="44"/>
-      <c r="AJ33" s="44"/>
-      <c r="AK33" s="44"/>
-      <c r="AL33" s="43">
+      <c r="AI33" s="53"/>
+      <c r="AJ33" s="53"/>
+      <c r="AK33" s="53"/>
+      <c r="AL33" s="52">
         <v>2009</v>
       </c>
-      <c r="AM33" s="44"/>
-      <c r="AN33" s="44"/>
-      <c r="AO33" s="44"/>
-      <c r="AP33" s="43">
+      <c r="AM33" s="53"/>
+      <c r="AN33" s="53"/>
+      <c r="AO33" s="53"/>
+      <c r="AP33" s="52">
         <v>2010</v>
       </c>
-      <c r="AQ33" s="44"/>
-      <c r="AR33" s="44"/>
-      <c r="AS33" s="44"/>
-      <c r="AT33" s="43">
+      <c r="AQ33" s="53"/>
+      <c r="AR33" s="53"/>
+      <c r="AS33" s="53"/>
+      <c r="AT33" s="52">
         <v>2011</v>
       </c>
-      <c r="AU33" s="44"/>
-      <c r="AV33" s="44"/>
-      <c r="AW33" s="44"/>
-      <c r="AX33" s="43">
+      <c r="AU33" s="53"/>
+      <c r="AV33" s="53"/>
+      <c r="AW33" s="53"/>
+      <c r="AX33" s="52">
         <v>2012</v>
       </c>
-      <c r="AY33" s="44"/>
-      <c r="AZ33" s="44"/>
-      <c r="BA33" s="44"/>
-      <c r="BB33" s="43">
+      <c r="AY33" s="53"/>
+      <c r="AZ33" s="53"/>
+      <c r="BA33" s="53"/>
+      <c r="BB33" s="52">
         <v>2013</v>
       </c>
-      <c r="BC33" s="44"/>
-      <c r="BD33" s="44"/>
-      <c r="BE33" s="44"/>
-      <c r="BF33" s="43">
+      <c r="BC33" s="53"/>
+      <c r="BD33" s="53"/>
+      <c r="BE33" s="53"/>
+      <c r="BF33" s="52">
         <v>2014</v>
       </c>
-      <c r="BG33" s="44"/>
-      <c r="BH33" s="44"/>
-      <c r="BI33" s="44"/>
-      <c r="BJ33" s="43">
+      <c r="BG33" s="53"/>
+      <c r="BH33" s="53"/>
+      <c r="BI33" s="53"/>
+      <c r="BJ33" s="52">
         <v>2015</v>
       </c>
-      <c r="BK33" s="44"/>
-      <c r="BL33" s="44"/>
-      <c r="BM33" s="44"/>
-      <c r="BN33" s="43">
+      <c r="BK33" s="53"/>
+      <c r="BL33" s="53"/>
+      <c r="BM33" s="53"/>
+      <c r="BN33" s="52">
         <v>2016</v>
       </c>
-      <c r="BO33" s="44"/>
-      <c r="BP33" s="44"/>
-      <c r="BQ33" s="44"/>
-      <c r="BR33" s="43">
+      <c r="BO33" s="53"/>
+      <c r="BP33" s="53"/>
+      <c r="BQ33" s="53"/>
+      <c r="BR33" s="52">
         <v>2017</v>
       </c>
-      <c r="BS33" s="44"/>
-      <c r="BT33" s="44"/>
-      <c r="BU33" s="44"/>
-      <c r="BV33" s="43">
+      <c r="BS33" s="53"/>
+      <c r="BT33" s="53"/>
+      <c r="BU33" s="53"/>
+      <c r="BV33" s="52">
         <v>2018</v>
       </c>
-      <c r="BW33" s="43"/>
-      <c r="BX33" s="43"/>
-      <c r="BY33" s="43"/>
-      <c r="BZ33" s="43">
+      <c r="BW33" s="52"/>
+      <c r="BX33" s="52"/>
+      <c r="BY33" s="52"/>
+      <c r="BZ33" s="50">
         <v>2019</v>
       </c>
-      <c r="CA33" s="43"/>
-      <c r="CB33" s="43"/>
-      <c r="CC33" s="43"/>
-      <c r="CD33" s="42">
+      <c r="CA33" s="51"/>
+      <c r="CB33" s="51"/>
+      <c r="CC33" s="51"/>
+      <c r="CD33" s="50">
         <v>2020</v>
       </c>
-      <c r="CE33" s="42"/>
-      <c r="CF33" s="42"/>
-      <c r="CG33" s="42"/>
-      <c r="CH33" s="42">
+      <c r="CE33" s="50"/>
+      <c r="CF33" s="50"/>
+      <c r="CG33" s="50"/>
+      <c r="CH33" s="50">
         <v>2021</v>
       </c>
-      <c r="CI33" s="42"/>
-      <c r="CJ33" s="42"/>
-      <c r="CK33" s="42"/>
+      <c r="CI33" s="50"/>
+      <c r="CJ33" s="50"/>
+      <c r="CK33" s="50"/>
+      <c r="CL33" s="39">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="34" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>10</v>
       </c>
@@ -26521,16 +26568,16 @@
       <c r="BY34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BZ34" s="6" t="s">
+      <c r="BZ34" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CA34" s="6" t="s">
+      <c r="CA34" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CB34" s="6" t="s">
+      <c r="CB34" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CC34" s="6" t="s">
+      <c r="CC34" s="27" t="s">
         <v>8</v>
       </c>
       <c r="CD34" s="27" t="s">
@@ -26557,11 +26604,14 @@
       <c r="CK34" s="27" t="s">
         <v>8</v>
       </c>
+      <c r="CL34" s="27" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="35" spans="1:128" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>11</v>
       </c>
@@ -26793,43 +26843,45 @@
       <c r="BY36" s="8">
         <v>195250.65079157069</v>
       </c>
-      <c r="BZ36" s="8">
+      <c r="BZ36" s="28">
         <v>120249.40826612261</v>
       </c>
-      <c r="CA36" s="8">
+      <c r="CA36" s="28">
         <v>263263.97421976406</v>
       </c>
-      <c r="CB36" s="8">
+      <c r="CB36" s="28">
         <v>163443.66170974448</v>
       </c>
-      <c r="CC36" s="8">
+      <c r="CC36" s="28">
         <v>249401.3224724553</v>
       </c>
       <c r="CD36" s="28">
-        <v>119406.46895199736</v>
+        <v>120343.92235382819</v>
       </c>
       <c r="CE36" s="28">
-        <v>269634.00732077099</v>
+        <v>272588.25859088765</v>
       </c>
       <c r="CF36" s="28">
-        <v>119135.53261824811</v>
+        <v>120647.40743450564</v>
       </c>
       <c r="CG36" s="28">
-        <v>205292.61701025738</v>
+        <v>206796.21572508392</v>
       </c>
       <c r="CH36" s="28">
-        <v>149573.86257812005</v>
+        <v>150261.77867818158</v>
       </c>
       <c r="CI36" s="28">
-        <v>389680.74200119474</v>
+        <v>390295.45438141492</v>
       </c>
       <c r="CJ36" s="28">
-        <v>183217.86405528573</v>
+        <v>186463.32190444099</v>
       </c>
       <c r="CK36" s="28">
-        <v>257837.33516499356</v>
-      </c>
-      <c r="CL36" s="9"/>
+        <v>249631.47842237909</v>
+      </c>
+      <c r="CL36" s="28">
+        <v>142834.31779093502</v>
+      </c>
       <c r="CM36" s="9"/>
       <c r="CN36" s="9"/>
       <c r="CO36" s="9"/>
@@ -26869,7 +26921,7 @@
       <c r="DW36" s="9"/>
       <c r="DX36" s="9"/>
     </row>
-    <row r="37" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
@@ -27101,43 +27153,45 @@
       <c r="BY37" s="8">
         <v>340931.12849290343</v>
       </c>
-      <c r="BZ37" s="8">
+      <c r="BZ37" s="28">
         <v>339207.45840460027</v>
       </c>
-      <c r="CA37" s="8">
+      <c r="CA37" s="28">
         <v>350801.40541652177</v>
       </c>
-      <c r="CB37" s="8">
+      <c r="CB37" s="28">
         <v>388003.20085145405</v>
       </c>
-      <c r="CC37" s="8">
+      <c r="CC37" s="28">
         <v>400243.7030651588</v>
       </c>
       <c r="CD37" s="28">
-        <v>329497.54686495039</v>
+        <v>329852.81615328684</v>
       </c>
       <c r="CE37" s="28">
-        <v>261729.44442655612</v>
+        <v>261329.21444332827</v>
       </c>
       <c r="CF37" s="28">
-        <v>216736.52524479252</v>
+        <v>215977.2588854577</v>
       </c>
       <c r="CG37" s="28">
-        <v>197517.1671211847</v>
+        <v>196919.57899973172</v>
       </c>
       <c r="CH37" s="28">
-        <v>183196.04093958318</v>
+        <v>183695.58095423726</v>
       </c>
       <c r="CI37" s="28">
-        <v>198602.87311907456</v>
+        <v>198956.47387944686</v>
       </c>
       <c r="CJ37" s="28">
-        <v>191380.17739010594</v>
+        <v>192736.69448870834</v>
       </c>
       <c r="CK37" s="28">
-        <v>204401.34046175398</v>
-      </c>
-      <c r="CL37" s="9"/>
+        <v>206737.10520774993</v>
+      </c>
+      <c r="CL37" s="28">
+        <v>232117.99661175971</v>
+      </c>
       <c r="CM37" s="9"/>
       <c r="CN37" s="9"/>
       <c r="CO37" s="9"/>
@@ -27177,7 +27231,7 @@
       <c r="DW37" s="9"/>
       <c r="DX37" s="9"/>
     </row>
-    <row r="38" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -27409,43 +27463,45 @@
       <c r="BY38" s="8">
         <v>285710.02835349005</v>
       </c>
-      <c r="BZ38" s="8">
+      <c r="BZ38" s="28">
         <v>182004.58882022076</v>
       </c>
-      <c r="CA38" s="8">
+      <c r="CA38" s="28">
         <v>225390.24029347792</v>
       </c>
-      <c r="CB38" s="8">
+      <c r="CB38" s="28">
         <v>255790.8596992672</v>
       </c>
-      <c r="CC38" s="8">
+      <c r="CC38" s="28">
         <v>268190.88920950418</v>
       </c>
       <c r="CD38" s="28">
-        <v>179815.5756637273</v>
+        <v>180679.49155132571</v>
       </c>
       <c r="CE38" s="28">
-        <v>45832.441795933766</v>
+        <v>46063.376408510667</v>
       </c>
       <c r="CF38" s="28">
-        <v>104669.48417691406</v>
+        <v>105256.12855279446</v>
       </c>
       <c r="CG38" s="28">
-        <v>184465.56102197251</v>
+        <v>186080.1971893374</v>
       </c>
       <c r="CH38" s="28">
-        <v>136654.56919980224</v>
+        <v>137746.22508671635</v>
       </c>
       <c r="CI38" s="28">
-        <v>191696.40831007509</v>
+        <v>195591.91518542223</v>
       </c>
       <c r="CJ38" s="28">
-        <v>170768.52527521891</v>
+        <v>172854.54033532893</v>
       </c>
       <c r="CK38" s="28">
-        <v>213236.48460728806</v>
-      </c>
-      <c r="CL38" s="9"/>
+        <v>226457.36345338321</v>
+      </c>
+      <c r="CL38" s="28">
+        <v>158930.83241780332</v>
+      </c>
       <c r="CM38" s="9"/>
       <c r="CN38" s="9"/>
       <c r="CO38" s="9"/>
@@ -27485,7 +27541,7 @@
       <c r="DW38" s="9"/>
       <c r="DX38" s="9"/>
     </row>
-    <row r="39" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -27562,10 +27618,10 @@
       <c r="BW39" s="9"/>
       <c r="BX39" s="9"/>
       <c r="BY39" s="9"/>
-      <c r="BZ39" s="9"/>
-      <c r="CA39" s="9"/>
-      <c r="CB39" s="9"/>
-      <c r="CC39" s="9"/>
+      <c r="BZ39" s="29"/>
+      <c r="CA39" s="29"/>
+      <c r="CB39" s="29"/>
+      <c r="CC39" s="29"/>
       <c r="CD39" s="29"/>
       <c r="CE39" s="29"/>
       <c r="CF39" s="29"/>
@@ -27574,7 +27630,7 @@
       <c r="CI39" s="29"/>
       <c r="CJ39" s="29"/>
       <c r="CK39" s="29"/>
-      <c r="CL39" s="9"/>
+      <c r="CL39" s="29"/>
       <c r="CM39" s="9"/>
       <c r="CN39" s="9"/>
       <c r="CO39" s="9"/>
@@ -27614,7 +27670,7 @@
       <c r="DW39" s="9"/>
       <c r="DX39" s="9"/>
     </row>
-    <row r="40" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>14</v>
       </c>
@@ -27846,43 +27902,45 @@
       <c r="BY40" s="11">
         <v>821891.80763796414</v>
       </c>
-      <c r="BZ40" s="11">
+      <c r="BZ40" s="30">
         <v>641461.45549094363</v>
       </c>
-      <c r="CA40" s="11">
+      <c r="CA40" s="30">
         <v>839455.61992976372</v>
       </c>
-      <c r="CB40" s="11">
+      <c r="CB40" s="30">
         <v>807237.72226046573</v>
       </c>
-      <c r="CC40" s="11">
+      <c r="CC40" s="30">
         <v>917835.91474711825</v>
       </c>
       <c r="CD40" s="30">
-        <v>628719.59148067504</v>
+        <v>630876.23005844071</v>
       </c>
       <c r="CE40" s="30">
-        <v>577195.89354326087</v>
+        <v>579980.84944272647</v>
       </c>
       <c r="CF40" s="30">
-        <v>440541.54203995469</v>
+        <v>441880.7948727578</v>
       </c>
       <c r="CG40" s="30">
-        <v>587275.34515341464</v>
+        <v>589795.9919141531</v>
       </c>
       <c r="CH40" s="30">
-        <v>469424.47271750547</v>
+        <v>471703.58471913519</v>
       </c>
       <c r="CI40" s="30">
-        <v>779980.02343034442</v>
+        <v>784843.84344628407</v>
       </c>
       <c r="CJ40" s="30">
-        <v>545366.5667206106</v>
+        <v>552054.55672847829</v>
       </c>
       <c r="CK40" s="30">
-        <v>675475.16023403557</v>
-      </c>
-      <c r="CL40" s="9"/>
+        <v>682825.9470835122</v>
+      </c>
+      <c r="CL40" s="30">
+        <v>533883.14682049805</v>
+      </c>
       <c r="CM40" s="9"/>
       <c r="CN40" s="9"/>
       <c r="CO40" s="9"/>
@@ -27922,7 +27980,7 @@
       <c r="DW40" s="9"/>
       <c r="DX40" s="9"/>
     </row>
-    <row r="41" spans="1:128" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:128" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -28000,10 +28058,10 @@
       <c r="BW41" s="12"/>
       <c r="BX41" s="12"/>
       <c r="BY41" s="12"/>
-      <c r="BZ41" s="12"/>
-      <c r="CA41" s="12"/>
-      <c r="CB41" s="12"/>
-      <c r="CC41" s="12"/>
+      <c r="BZ41" s="31"/>
+      <c r="CA41" s="31"/>
+      <c r="CB41" s="31"/>
+      <c r="CC41" s="31"/>
       <c r="CD41" s="31"/>
       <c r="CE41" s="31"/>
       <c r="CF41" s="31"/>
@@ -28012,8 +28070,9 @@
       <c r="CI41" s="31"/>
       <c r="CJ41" s="31"/>
       <c r="CK41" s="31"/>
+      <c r="CL41" s="31"/>
     </row>
-    <row r="42" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -28091,10 +28150,10 @@
       <c r="BW42" s="11"/>
       <c r="BX42" s="11"/>
       <c r="BY42" s="11"/>
-      <c r="BZ42" s="11"/>
-      <c r="CA42" s="11"/>
-      <c r="CB42" s="11"/>
-      <c r="CC42" s="11"/>
+      <c r="BZ42" s="30"/>
+      <c r="CA42" s="30"/>
+      <c r="CB42" s="30"/>
+      <c r="CC42" s="30"/>
       <c r="CD42" s="30"/>
       <c r="CE42" s="30"/>
       <c r="CF42" s="30"/>
@@ -28103,7 +28162,7 @@
       <c r="CI42" s="30"/>
       <c r="CJ42" s="30"/>
       <c r="CK42" s="30"/>
-      <c r="CL42" s="9"/>
+      <c r="CL42" s="30"/>
       <c r="CM42" s="9"/>
       <c r="CN42" s="9"/>
       <c r="CO42" s="9"/>
@@ -28143,7 +28202,7 @@
       <c r="DW42" s="9"/>
       <c r="DX42" s="9"/>
     </row>
-    <row r="43" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>15</v>
       </c>
@@ -28375,43 +28434,45 @@
       <c r="BY43" s="8">
         <v>394553.0583540849</v>
       </c>
-      <c r="BZ43" s="8">
+      <c r="BZ43" s="28">
         <v>288139.43849134905</v>
       </c>
-      <c r="CA43" s="8">
+      <c r="CA43" s="28">
         <v>384726.50333633431</v>
       </c>
-      <c r="CB43" s="8">
+      <c r="CB43" s="28">
         <v>389326.56390140369</v>
       </c>
-      <c r="CC43" s="8">
+      <c r="CC43" s="28">
         <v>445051.24202254484</v>
       </c>
       <c r="CD43" s="28">
-        <v>287383.46205749264</v>
+        <v>288638.33230566006</v>
       </c>
       <c r="CE43" s="28">
-        <v>271713.96808715072</v>
+        <v>272663.61019486468</v>
       </c>
       <c r="CF43" s="28">
-        <v>234773.01024672895</v>
+        <v>235255.65392941865</v>
       </c>
       <c r="CG43" s="28">
-        <v>325567.49173611088</v>
+        <v>325750.45283593191</v>
       </c>
       <c r="CH43" s="28">
-        <v>222346.2545348627</v>
+        <v>223502.19562219223</v>
       </c>
       <c r="CI43" s="28">
-        <v>345331.76311942958</v>
+        <v>347357.97028891149</v>
       </c>
       <c r="CJ43" s="28">
-        <v>275616.29958545603</v>
+        <v>277594.86474362016</v>
       </c>
       <c r="CK43" s="28">
-        <v>385926.00982711487</v>
-      </c>
-      <c r="CL43" s="9"/>
+        <v>386355.85839880561</v>
+      </c>
+      <c r="CL43" s="28">
+        <v>253597.58441783913</v>
+      </c>
       <c r="CM43" s="9"/>
       <c r="CN43" s="9"/>
       <c r="CO43" s="9"/>
@@ -28451,7 +28512,7 @@
       <c r="DW43" s="9"/>
       <c r="DX43" s="9"/>
     </row>
-    <row r="44" spans="1:128" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:128" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -28529,10 +28590,10 @@
       <c r="BW44" s="14"/>
       <c r="BX44" s="14"/>
       <c r="BY44" s="14"/>
-      <c r="BZ44" s="14"/>
-      <c r="CA44" s="14"/>
-      <c r="CB44" s="14"/>
-      <c r="CC44" s="14"/>
+      <c r="BZ44" s="32"/>
+      <c r="CA44" s="32"/>
+      <c r="CB44" s="32"/>
+      <c r="CC44" s="32"/>
       <c r="CD44" s="32"/>
       <c r="CE44" s="32"/>
       <c r="CF44" s="32"/>
@@ -28541,18 +28602,19 @@
       <c r="CI44" s="32"/>
       <c r="CJ44" s="32"/>
       <c r="CK44" s="32"/>
+      <c r="CL44" s="32"/>
     </row>
-    <row r="45" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -28629,10 +28691,10 @@
       <c r="BW47" s="9"/>
       <c r="BX47" s="9"/>
       <c r="BY47" s="9"/>
-      <c r="BZ47" s="9"/>
-      <c r="CA47" s="9"/>
-      <c r="CB47" s="9"/>
-      <c r="CC47" s="9"/>
+      <c r="BZ47" s="29"/>
+      <c r="CA47" s="29"/>
+      <c r="CB47" s="29"/>
+      <c r="CC47" s="29"/>
       <c r="CD47" s="29"/>
       <c r="CE47" s="29"/>
       <c r="CF47" s="29"/>
@@ -28641,7 +28703,7 @@
       <c r="CI47" s="29"/>
       <c r="CJ47" s="29"/>
       <c r="CK47" s="29"/>
-      <c r="CL47" s="9"/>
+      <c r="CL47" s="29"/>
       <c r="CM47" s="9"/>
       <c r="CN47" s="9"/>
       <c r="CO47" s="9"/>
@@ -28681,7 +28743,7 @@
       <c r="DW47" s="9"/>
       <c r="DX47" s="9"/>
     </row>
-    <row r="48" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -28758,10 +28820,10 @@
       <c r="BW48" s="9"/>
       <c r="BX48" s="9"/>
       <c r="BY48" s="9"/>
-      <c r="BZ48" s="9"/>
-      <c r="CA48" s="9"/>
-      <c r="CB48" s="9"/>
-      <c r="CC48" s="9"/>
+      <c r="BZ48" s="29"/>
+      <c r="CA48" s="29"/>
+      <c r="CB48" s="29"/>
+      <c r="CC48" s="29"/>
       <c r="CD48" s="29"/>
       <c r="CE48" s="29"/>
       <c r="CF48" s="29"/>
@@ -28770,7 +28832,7 @@
       <c r="CI48" s="29"/>
       <c r="CJ48" s="29"/>
       <c r="CK48" s="29"/>
-      <c r="CL48" s="9"/>
+      <c r="CL48" s="29"/>
       <c r="CM48" s="9"/>
       <c r="CN48" s="9"/>
       <c r="CO48" s="9"/>
@@ -28810,173 +28872,186 @@
       <c r="DW48" s="9"/>
       <c r="DX48" s="9"/>
     </row>
-    <row r="49" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="CI55" s="40"/>
+      <c r="CJ55" s="40"/>
+      <c r="CK55" s="40"/>
+      <c r="CL55" s="40"/>
     </row>
-    <row r="57" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="CI56" s="40"/>
+      <c r="CJ56" s="40"/>
+      <c r="CK56" s="40"/>
+      <c r="CL56" s="40"/>
+    </row>
+    <row r="57" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43" t="s">
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43" t="s">
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="K57" s="43"/>
-      <c r="L57" s="43"/>
-      <c r="M57" s="43"/>
-      <c r="N57" s="43" t="s">
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="O57" s="43"/>
-      <c r="P57" s="43"/>
-      <c r="Q57" s="43"/>
-      <c r="R57" s="43" t="s">
+      <c r="O57" s="52"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="52"/>
+      <c r="R57" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="S57" s="43"/>
-      <c r="T57" s="43"/>
-      <c r="U57" s="43"/>
-      <c r="V57" s="43" t="s">
+      <c r="S57" s="52"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="W57" s="43"/>
-      <c r="X57" s="43"/>
-      <c r="Y57" s="43"/>
-      <c r="Z57" s="43" t="s">
+      <c r="W57" s="52"/>
+      <c r="X57" s="52"/>
+      <c r="Y57" s="52"/>
+      <c r="Z57" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AA57" s="43"/>
-      <c r="AB57" s="43"/>
-      <c r="AC57" s="43"/>
-      <c r="AD57" s="43" t="s">
+      <c r="AA57" s="52"/>
+      <c r="AB57" s="52"/>
+      <c r="AC57" s="52"/>
+      <c r="AD57" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="AE57" s="43"/>
-      <c r="AF57" s="43"/>
-      <c r="AG57" s="43"/>
-      <c r="AH57" s="43" t="s">
+      <c r="AE57" s="52"/>
+      <c r="AF57" s="52"/>
+      <c r="AG57" s="52"/>
+      <c r="AH57" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="AI57" s="43"/>
-      <c r="AJ57" s="43"/>
-      <c r="AK57" s="43"/>
-      <c r="AL57" s="43" t="s">
+      <c r="AI57" s="52"/>
+      <c r="AJ57" s="52"/>
+      <c r="AK57" s="52"/>
+      <c r="AL57" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="AM57" s="43"/>
-      <c r="AN57" s="43"/>
-      <c r="AO57" s="43"/>
-      <c r="AP57" s="43" t="s">
+      <c r="AM57" s="52"/>
+      <c r="AN57" s="52"/>
+      <c r="AO57" s="52"/>
+      <c r="AP57" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="AQ57" s="43"/>
-      <c r="AR57" s="43"/>
-      <c r="AS57" s="43"/>
-      <c r="AT57" s="43" t="s">
+      <c r="AQ57" s="52"/>
+      <c r="AR57" s="52"/>
+      <c r="AS57" s="52"/>
+      <c r="AT57" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AU57" s="43"/>
-      <c r="AV57" s="43"/>
-      <c r="AW57" s="43"/>
-      <c r="AX57" s="43" t="s">
+      <c r="AU57" s="52"/>
+      <c r="AV57" s="52"/>
+      <c r="AW57" s="52"/>
+      <c r="AX57" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AY57" s="43"/>
-      <c r="AZ57" s="43"/>
-      <c r="BA57" s="43"/>
-      <c r="BB57" s="43" t="s">
+      <c r="AY57" s="52"/>
+      <c r="AZ57" s="52"/>
+      <c r="BA57" s="52"/>
+      <c r="BB57" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="BC57" s="43"/>
-      <c r="BD57" s="43"/>
-      <c r="BE57" s="43"/>
-      <c r="BF57" s="43" t="s">
+      <c r="BC57" s="52"/>
+      <c r="BD57" s="52"/>
+      <c r="BE57" s="52"/>
+      <c r="BF57" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="BG57" s="43"/>
-      <c r="BH57" s="43"/>
-      <c r="BI57" s="43"/>
-      <c r="BJ57" s="43" t="s">
+      <c r="BG57" s="52"/>
+      <c r="BH57" s="52"/>
+      <c r="BI57" s="52"/>
+      <c r="BJ57" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="BK57" s="43"/>
-      <c r="BL57" s="43"/>
-      <c r="BM57" s="43"/>
-      <c r="BN57" s="43" t="s">
+      <c r="BK57" s="52"/>
+      <c r="BL57" s="52"/>
+      <c r="BM57" s="52"/>
+      <c r="BN57" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="BO57" s="43"/>
-      <c r="BP57" s="43"/>
-      <c r="BQ57" s="43"/>
-      <c r="BR57" s="43" t="s">
+      <c r="BO57" s="52"/>
+      <c r="BP57" s="52"/>
+      <c r="BQ57" s="52"/>
+      <c r="BR57" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="BS57" s="43"/>
-      <c r="BT57" s="43"/>
-      <c r="BU57" s="43"/>
-      <c r="BV57" s="43" t="s">
+      <c r="BS57" s="52"/>
+      <c r="BT57" s="52"/>
+      <c r="BU57" s="52"/>
+      <c r="BV57" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="BW57" s="43"/>
-      <c r="BX57" s="43"/>
-      <c r="BY57" s="43"/>
-      <c r="BZ57" s="43" t="s">
+      <c r="BW57" s="52"/>
+      <c r="BX57" s="52"/>
+      <c r="BY57" s="52"/>
+      <c r="BZ57" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="CA57" s="43"/>
-      <c r="CB57" s="43"/>
-      <c r="CC57" s="43"/>
-      <c r="CD57" s="42" t="s">
+      <c r="CA57" s="50"/>
+      <c r="CB57" s="50"/>
+      <c r="CC57" s="50"/>
+      <c r="CD57" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="CE57" s="42"/>
-      <c r="CF57" s="42"/>
-      <c r="CG57" s="42"/>
-      <c r="CH57" s="34"/>
-      <c r="CI57" s="34"/>
-      <c r="CJ57" s="34"/>
-      <c r="CK57" s="34"/>
+      <c r="CE57" s="50"/>
+      <c r="CF57" s="50"/>
+      <c r="CG57" s="50"/>
+      <c r="CH57" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="CI57" s="41"/>
+      <c r="CJ57" s="41"/>
+      <c r="CK57" s="41"/>
+      <c r="CL57" s="42"/>
     </row>
-    <row r="58" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>10</v>
       </c>
@@ -29208,39 +29283,46 @@
       <c r="BY58" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BZ58" s="6" t="s">
+      <c r="BZ58" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="CA58" s="6" t="s">
+      <c r="CA58" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="CB58" s="6" t="s">
+      <c r="CB58" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="CC58" s="6" t="s">
+      <c r="CC58" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="CD58" s="41" t="s">
+      <c r="CD58" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="CE58" s="41" t="s">
+      <c r="CE58" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="CF58" s="41" t="s">
+      <c r="CF58" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="CG58" s="41" t="s">
+      <c r="CG58" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="CH58" s="35"/>
-      <c r="CI58" s="35"/>
-      <c r="CJ58" s="35"/>
-      <c r="CK58" s="35"/>
+      <c r="CH58" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI58" s="41"/>
+      <c r="CJ58" s="41"/>
+      <c r="CK58" s="41"/>
+      <c r="CL58" s="41"/>
     </row>
-    <row r="59" spans="1:120" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:120" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
+      <c r="CI59" s="40"/>
+      <c r="CJ59" s="40"/>
+      <c r="CK59" s="40"/>
+      <c r="CL59" s="40"/>
     </row>
-    <row r="60" spans="1:120" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:120" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>11</v>
       </c>
@@ -29472,35 +29554,37 @@
       <c r="BY60" s="20">
         <v>29.661814655628149</v>
       </c>
-      <c r="BZ60" s="20">
-        <v>2.3401793507280075</v>
-      </c>
-      <c r="CA60" s="20">
-        <v>2.3126293637423316</v>
-      </c>
-      <c r="CB60" s="20">
-        <v>-25.37263380657842</v>
-      </c>
-      <c r="CC60" s="20">
-        <v>-16.026923478388838</v>
-      </c>
-      <c r="CD60" s="39">
+      <c r="BZ60" s="36">
+        <v>3.1436462827824556</v>
+      </c>
+      <c r="CA60" s="36">
+        <v>3.4336200661029039</v>
+      </c>
+      <c r="CB60" s="36">
+        <v>-24.425584399303759</v>
+      </c>
+      <c r="CC60" s="36">
+        <v>-15.411890109061119</v>
+      </c>
+      <c r="CD60" s="36">
         <v>25.888440320982852</v>
       </c>
-      <c r="CE60" s="39">
+      <c r="CE60" s="36">
         <v>49.029196146457963</v>
       </c>
-      <c r="CF60" s="39">
+      <c r="CF60" s="36">
         <v>60.163915918356935</v>
       </c>
-      <c r="CG60" s="39">
-        <v>31.621485671091136</v>
-      </c>
-      <c r="CH60" s="36"/>
-      <c r="CI60" s="36"/>
-      <c r="CJ60" s="36"/>
-      <c r="CK60" s="36"/>
-      <c r="CL60" s="9"/>
+      <c r="CG60" s="36">
+        <v>25.879901529061172</v>
+      </c>
+      <c r="CH60" s="36">
+        <v>1.058853745741331</v>
+      </c>
+      <c r="CI60" s="43"/>
+      <c r="CJ60" s="43"/>
+      <c r="CK60" s="43"/>
+      <c r="CL60" s="43"/>
       <c r="CM60" s="9"/>
       <c r="CN60" s="9"/>
       <c r="CO60" s="9"/>
@@ -29532,7 +29616,7 @@
       <c r="DO60" s="9"/>
       <c r="DP60" s="9"/>
     </row>
-    <row r="61" spans="1:120" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:120" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>12</v>
       </c>
@@ -29764,35 +29848,37 @@
       <c r="BY61" s="20">
         <v>17.904192464971572</v>
       </c>
-      <c r="BZ61" s="20">
-        <v>2.8286997611374431E-2</v>
-      </c>
-      <c r="CA61" s="20">
-        <v>-25.225787403531086</v>
-      </c>
-      <c r="CB61" s="20">
-        <v>-42.873366365703625</v>
-      </c>
-      <c r="CC61" s="20">
-        <v>-49.696678022987463</v>
-      </c>
-      <c r="CD61" s="39">
-        <v>-44.093198901055409</v>
-      </c>
-      <c r="CE61" s="39">
-        <v>-21.858265655303171</v>
-      </c>
-      <c r="CF61" s="39">
-        <v>-8.2173703369571456</v>
-      </c>
-      <c r="CG61" s="39">
-        <v>8.3955282027828844</v>
-      </c>
-      <c r="CH61" s="36"/>
-      <c r="CI61" s="36"/>
-      <c r="CJ61" s="36"/>
-      <c r="CK61" s="36"/>
-      <c r="CL61" s="9"/>
+      <c r="BZ61" s="36">
+        <v>0.1361390246545966</v>
+      </c>
+      <c r="CA61" s="36">
+        <v>-25.340130220094693</v>
+      </c>
+      <c r="CB61" s="36">
+        <v>-43.073491061306171</v>
+      </c>
+      <c r="CC61" s="36">
+        <v>-49.848870706394301</v>
+      </c>
+      <c r="CD61" s="36">
+        <v>-43.895237219069386</v>
+      </c>
+      <c r="CE61" s="36">
+        <v>-21.232890522208066</v>
+      </c>
+      <c r="CF61" s="36">
+        <v>-7.6313976875967029</v>
+      </c>
+      <c r="CG61" s="36">
+        <v>9.4330852710521498</v>
+      </c>
+      <c r="CH61" s="36">
+        <v>34.279885055711247</v>
+      </c>
+      <c r="CI61" s="43"/>
+      <c r="CJ61" s="43"/>
+      <c r="CK61" s="43"/>
+      <c r="CL61" s="43"/>
       <c r="CM61" s="9"/>
       <c r="CN61" s="9"/>
       <c r="CO61" s="9"/>
@@ -29824,7 +29910,7 @@
       <c r="DO61" s="9"/>
       <c r="DP61" s="9"/>
     </row>
-    <row r="62" spans="1:120" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:120" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>13</v>
       </c>
@@ -30056,35 +30142,37 @@
       <c r="BY62" s="20">
         <v>-3.0373355884302384</v>
       </c>
-      <c r="BZ62" s="20">
-        <v>1.9224896567744452</v>
-      </c>
-      <c r="CA62" s="20">
-        <v>-79.588772556608589</v>
-      </c>
-      <c r="CB62" s="20">
-        <v>-58.134870681019983</v>
-      </c>
-      <c r="CC62" s="20">
-        <v>-29.869157790931226</v>
-      </c>
-      <c r="CD62" s="39">
-        <v>-23.433711310077712</v>
-      </c>
-      <c r="CE62" s="39">
-        <v>331.72631981184219</v>
-      </c>
-      <c r="CF62" s="39">
-        <v>70.064455648006032</v>
-      </c>
-      <c r="CG62" s="39">
-        <v>21.460242154125979</v>
-      </c>
-      <c r="CH62" s="36"/>
-      <c r="CI62" s="36"/>
-      <c r="CJ62" s="36"/>
-      <c r="CK62" s="36"/>
-      <c r="CL62" s="9"/>
+      <c r="BZ62" s="36">
+        <v>2.4121716979049523</v>
+      </c>
+      <c r="CA62" s="36">
+        <v>-79.485927089137192</v>
+      </c>
+      <c r="CB62" s="36">
+        <v>-57.900227863644744</v>
+      </c>
+      <c r="CC62" s="36">
+        <v>-29.255299064938271</v>
+      </c>
+      <c r="CD62" s="36">
+        <v>-23.143601504606806</v>
+      </c>
+      <c r="CE62" s="36">
+        <v>340.70696949599142</v>
+      </c>
+      <c r="CF62" s="36">
+        <v>70.527124629481847</v>
+      </c>
+      <c r="CG62" s="36">
+        <v>27.34599078175313</v>
+      </c>
+      <c r="CH62" s="36">
+        <v>22.948096003854218</v>
+      </c>
+      <c r="CI62" s="43"/>
+      <c r="CJ62" s="43"/>
+      <c r="CK62" s="43"/>
+      <c r="CL62" s="43"/>
       <c r="CM62" s="9"/>
       <c r="CN62" s="9"/>
       <c r="CO62" s="9"/>
@@ -30116,7 +30204,7 @@
       <c r="DO62" s="9"/>
       <c r="DP62" s="9"/>
     </row>
-    <row r="63" spans="1:120" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:120" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
@@ -30193,19 +30281,19 @@
       <c r="BW63" s="21"/>
       <c r="BX63" s="21"/>
       <c r="BY63" s="21"/>
-      <c r="BZ63" s="21"/>
-      <c r="CA63" s="21"/>
-      <c r="CB63" s="21"/>
-      <c r="CC63" s="21"/>
-      <c r="CD63" s="36"/>
-      <c r="CE63" s="36"/>
-      <c r="CF63" s="36"/>
-      <c r="CG63" s="36"/>
-      <c r="CH63" s="36"/>
-      <c r="CI63" s="36"/>
-      <c r="CJ63" s="36"/>
-      <c r="CK63" s="36"/>
-      <c r="CL63" s="9"/>
+      <c r="BZ63" s="34"/>
+      <c r="CA63" s="34"/>
+      <c r="CB63" s="34"/>
+      <c r="CC63" s="34"/>
+      <c r="CD63" s="34"/>
+      <c r="CE63" s="34"/>
+      <c r="CF63" s="34"/>
+      <c r="CG63" s="34"/>
+      <c r="CH63" s="34"/>
+      <c r="CI63" s="43"/>
+      <c r="CJ63" s="43"/>
+      <c r="CK63" s="43"/>
+      <c r="CL63" s="43"/>
       <c r="CM63" s="9"/>
       <c r="CN63" s="9"/>
       <c r="CO63" s="9"/>
@@ -30237,7 +30325,7 @@
       <c r="DO63" s="9"/>
       <c r="DP63" s="9"/>
     </row>
-    <row r="64" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>14</v>
       </c>
@@ -30469,35 +30557,37 @@
       <c r="BY64" s="20">
         <v>14.07898247757484</v>
       </c>
-      <c r="BZ64" s="20">
-        <v>1.0524877208108308</v>
-      </c>
-      <c r="CA64" s="20">
-        <v>-31.590839214674787</v>
-      </c>
-      <c r="CB64" s="20">
-        <v>-44.225272357292326</v>
-      </c>
-      <c r="CC64" s="20">
-        <v>-35.15786445207813</v>
-      </c>
-      <c r="CD64" s="39">
-        <v>-23.936665923350333</v>
-      </c>
-      <c r="CE64" s="39">
-        <v>40.755580931475578</v>
-      </c>
-      <c r="CF64" s="39">
-        <v>28.335221185082332</v>
-      </c>
-      <c r="CG64" s="39">
-        <v>20.416960864376549</v>
-      </c>
-      <c r="CH64" s="36"/>
-      <c r="CI64" s="36"/>
-      <c r="CJ64" s="36"/>
-      <c r="CK64" s="36"/>
-      <c r="CL64" s="9"/>
+      <c r="BZ64" s="36">
+        <v>1.4117108298482322</v>
+      </c>
+      <c r="CA64" s="36">
+        <v>-31.25570255580233</v>
+      </c>
+      <c r="CB64" s="36">
+        <v>-44.062167033438691</v>
+      </c>
+      <c r="CC64" s="36">
+        <v>-34.893969125398215</v>
+      </c>
+      <c r="CD64" s="36">
+        <v>-23.682806839928233</v>
+      </c>
+      <c r="CE64" s="36">
+        <v>41.979894642940508</v>
+      </c>
+      <c r="CF64" s="36">
+        <v>28.961003759713577</v>
+      </c>
+      <c r="CG64" s="36">
+        <v>20.51676621017053</v>
+      </c>
+      <c r="CH64" s="36">
+        <v>19.896700350822599</v>
+      </c>
+      <c r="CI64" s="43"/>
+      <c r="CJ64" s="43"/>
+      <c r="CK64" s="43"/>
+      <c r="CL64" s="43"/>
       <c r="CM64" s="9"/>
       <c r="CN64" s="9"/>
       <c r="CO64" s="9"/>
@@ -30529,7 +30619,7 @@
       <c r="DO64" s="9"/>
       <c r="DP64" s="9"/>
     </row>
-    <row r="65" spans="1:120" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:120" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23"/>
@@ -30607,20 +30697,21 @@
       <c r="BW65" s="24"/>
       <c r="BX65" s="24"/>
       <c r="BY65" s="24"/>
-      <c r="BZ65" s="24"/>
-      <c r="CA65" s="24"/>
-      <c r="CB65" s="24"/>
-      <c r="CC65" s="24"/>
-      <c r="CD65" s="40"/>
-      <c r="CE65" s="40"/>
-      <c r="CF65" s="40"/>
-      <c r="CG65" s="40"/>
+      <c r="BZ65" s="37"/>
+      <c r="CA65" s="37"/>
+      <c r="CB65" s="37"/>
+      <c r="CC65" s="37"/>
+      <c r="CD65" s="37"/>
+      <c r="CE65" s="37"/>
+      <c r="CF65" s="37"/>
+      <c r="CG65" s="37"/>
       <c r="CH65" s="37"/>
-      <c r="CI65" s="37"/>
-      <c r="CJ65" s="37"/>
-      <c r="CK65" s="37"/>
+      <c r="CI65" s="44"/>
+      <c r="CJ65" s="44"/>
+      <c r="CK65" s="44"/>
+      <c r="CL65" s="44"/>
     </row>
-    <row r="66" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -30698,19 +30789,19 @@
       <c r="BW66" s="20"/>
       <c r="BX66" s="20"/>
       <c r="BY66" s="20"/>
-      <c r="BZ66" s="20"/>
-      <c r="CA66" s="20"/>
-      <c r="CB66" s="20"/>
-      <c r="CC66" s="20"/>
-      <c r="CD66" s="39"/>
-      <c r="CE66" s="39"/>
-      <c r="CF66" s="39"/>
-      <c r="CG66" s="39"/>
+      <c r="BZ66" s="36"/>
+      <c r="CA66" s="36"/>
+      <c r="CB66" s="36"/>
+      <c r="CC66" s="36"/>
+      <c r="CD66" s="36"/>
+      <c r="CE66" s="36"/>
+      <c r="CF66" s="36"/>
+      <c r="CG66" s="36"/>
       <c r="CH66" s="36"/>
-      <c r="CI66" s="36"/>
-      <c r="CJ66" s="36"/>
-      <c r="CK66" s="36"/>
-      <c r="CL66" s="9"/>
+      <c r="CI66" s="43"/>
+      <c r="CJ66" s="43"/>
+      <c r="CK66" s="43"/>
+      <c r="CL66" s="43"/>
       <c r="CM66" s="9"/>
       <c r="CN66" s="9"/>
       <c r="CO66" s="9"/>
@@ -30742,7 +30833,7 @@
       <c r="DO66" s="9"/>
       <c r="DP66" s="9"/>
     </row>
-    <row r="67" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>15</v>
       </c>
@@ -30974,35 +31065,37 @@
       <c r="BY67" s="20">
         <v>13.90434438025116</v>
       </c>
-      <c r="BZ67" s="20">
-        <v>1.1448460250025931</v>
-      </c>
-      <c r="CA67" s="20">
-        <v>-23.61850515940327</v>
-      </c>
-      <c r="CB67" s="20">
-        <v>-40.231017252556946</v>
-      </c>
-      <c r="CC67" s="20">
-        <v>-24.453352446536144</v>
-      </c>
-      <c r="CD67" s="39">
-        <v>-23.458067975380033</v>
-      </c>
-      <c r="CE67" s="39">
-        <v>31.365468734976645</v>
-      </c>
-      <c r="CF67" s="39">
-        <v>25.297875472295047</v>
-      </c>
-      <c r="CG67" s="39">
-        <v>23.701201831896142</v>
-      </c>
-      <c r="CH67" s="36"/>
-      <c r="CI67" s="36"/>
-      <c r="CJ67" s="36"/>
-      <c r="CK67" s="36"/>
-      <c r="CL67" s="9"/>
+      <c r="BZ67" s="36">
+        <v>1.5864986417660703</v>
+      </c>
+      <c r="CA67" s="36">
+        <v>-23.351551331959598</v>
+      </c>
+      <c r="CB67" s="36">
+        <v>-40.108144858010711</v>
+      </c>
+      <c r="CC67" s="36">
+        <v>-24.410897047655666</v>
+      </c>
+      <c r="CD67" s="36">
+        <v>-23.261750900505305</v>
+      </c>
+      <c r="CE67" s="36">
+        <v>32.272834895790879</v>
+      </c>
+      <c r="CF67" s="36">
+        <v>25.744405624244408</v>
+      </c>
+      <c r="CG67" s="36">
+        <v>23.756725136284345</v>
+      </c>
+      <c r="CH67" s="36">
+        <v>22.380382577355348</v>
+      </c>
+      <c r="CI67" s="43"/>
+      <c r="CJ67" s="43"/>
+      <c r="CK67" s="43"/>
+      <c r="CL67" s="43"/>
       <c r="CM67" s="9"/>
       <c r="CN67" s="9"/>
       <c r="CO67" s="9"/>
@@ -31034,7 +31127,7 @@
       <c r="DO67" s="9"/>
       <c r="DP67" s="9"/>
     </row>
-    <row r="68" spans="1:120" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:120" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -31112,30 +31205,39 @@
       <c r="BW68" s="14"/>
       <c r="BX68" s="14"/>
       <c r="BY68" s="14"/>
-      <c r="BZ68" s="14"/>
-      <c r="CA68" s="14"/>
-      <c r="CB68" s="14"/>
-      <c r="CC68" s="14"/>
+      <c r="BZ68" s="32"/>
+      <c r="CA68" s="32"/>
+      <c r="CB68" s="32"/>
+      <c r="CC68" s="32"/>
       <c r="CD68" s="32"/>
       <c r="CE68" s="32"/>
       <c r="CF68" s="32"/>
       <c r="CG68" s="32"/>
       <c r="CH68" s="32"/>
-      <c r="CI68" s="32"/>
-      <c r="CJ68" s="32"/>
-      <c r="CK68" s="32"/>
+      <c r="CI68" s="45"/>
+      <c r="CJ68" s="45"/>
+      <c r="CK68" s="45"/>
+      <c r="CL68" s="45"/>
     </row>
-    <row r="69" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
         <v>28</v>
       </c>
+      <c r="CI69" s="40"/>
+      <c r="CJ69" s="40"/>
+      <c r="CK69" s="40"/>
+      <c r="CL69" s="40"/>
     </row>
-    <row r="70" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="CI70" s="40"/>
+      <c r="CJ70" s="40"/>
+      <c r="CK70" s="40"/>
+      <c r="CL70" s="40"/>
     </row>
-    <row r="71" spans="1:120" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:120" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -31212,10 +31314,10 @@
       <c r="BW71" s="9"/>
       <c r="BX71" s="9"/>
       <c r="BY71" s="9"/>
-      <c r="BZ71" s="9"/>
-      <c r="CA71" s="9"/>
-      <c r="CB71" s="9"/>
-      <c r="CC71" s="9"/>
+      <c r="BZ71" s="29"/>
+      <c r="CA71" s="29"/>
+      <c r="CB71" s="29"/>
+      <c r="CC71" s="29"/>
       <c r="CD71" s="29"/>
       <c r="CE71" s="29"/>
       <c r="CF71" s="29"/>
@@ -31224,7 +31326,7 @@
       <c r="CI71" s="29"/>
       <c r="CJ71" s="29"/>
       <c r="CK71" s="29"/>
-      <c r="CL71" s="9"/>
+      <c r="CL71" s="29"/>
       <c r="CM71" s="9"/>
       <c r="CN71" s="9"/>
       <c r="CO71" s="9"/>
@@ -31256,7 +31358,7 @@
       <c r="DO71" s="9"/>
       <c r="DP71" s="9"/>
     </row>
-    <row r="72" spans="1:120" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:120" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -31333,10 +31435,10 @@
       <c r="BW72" s="9"/>
       <c r="BX72" s="9"/>
       <c r="BY72" s="9"/>
-      <c r="BZ72" s="9"/>
-      <c r="CA72" s="9"/>
-      <c r="CB72" s="9"/>
-      <c r="CC72" s="9"/>
+      <c r="BZ72" s="29"/>
+      <c r="CA72" s="29"/>
+      <c r="CB72" s="29"/>
+      <c r="CC72" s="29"/>
       <c r="CD72" s="29"/>
       <c r="CE72" s="29"/>
       <c r="CF72" s="29"/>
@@ -31345,7 +31447,7 @@
       <c r="CI72" s="29"/>
       <c r="CJ72" s="29"/>
       <c r="CK72" s="29"/>
-      <c r="CL72" s="9"/>
+      <c r="CL72" s="29"/>
       <c r="CM72" s="9"/>
       <c r="CN72" s="9"/>
       <c r="CO72" s="9"/>
@@ -31377,170 +31479,186 @@
       <c r="DO72" s="9"/>
       <c r="DP72" s="9"/>
     </row>
-    <row r="73" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="CI79" s="40"/>
+      <c r="CJ79" s="40"/>
+      <c r="CK79" s="40"/>
+      <c r="CL79" s="40"/>
+      <c r="CM79" s="46"/>
     </row>
-    <row r="81" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="CI80" s="40"/>
+      <c r="CJ80" s="40"/>
+      <c r="CK80" s="40"/>
+      <c r="CL80" s="40"/>
+      <c r="CM80" s="46"/>
+    </row>
+    <row r="81" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
-      <c r="B81" s="43" t="s">
+      <c r="B81" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="43" t="s">
+      <c r="C81" s="53"/>
+      <c r="D81" s="53"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G81" s="44"/>
-      <c r="H81" s="44"/>
-      <c r="I81" s="44"/>
-      <c r="J81" s="43" t="s">
+      <c r="G81" s="53"/>
+      <c r="H81" s="53"/>
+      <c r="I81" s="53"/>
+      <c r="J81" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="K81" s="44"/>
-      <c r="L81" s="44"/>
-      <c r="M81" s="44"/>
-      <c r="N81" s="43" t="s">
+      <c r="K81" s="53"/>
+      <c r="L81" s="53"/>
+      <c r="M81" s="53"/>
+      <c r="N81" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="O81" s="44"/>
-      <c r="P81" s="44"/>
-      <c r="Q81" s="44"/>
-      <c r="R81" s="43" t="s">
+      <c r="O81" s="53"/>
+      <c r="P81" s="53"/>
+      <c r="Q81" s="53"/>
+      <c r="R81" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="S81" s="44"/>
-      <c r="T81" s="44"/>
-      <c r="U81" s="44"/>
-      <c r="V81" s="43" t="s">
+      <c r="S81" s="53"/>
+      <c r="T81" s="53"/>
+      <c r="U81" s="53"/>
+      <c r="V81" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="W81" s="44"/>
-      <c r="X81" s="44"/>
-      <c r="Y81" s="44"/>
-      <c r="Z81" s="43" t="s">
+      <c r="W81" s="53"/>
+      <c r="X81" s="53"/>
+      <c r="Y81" s="53"/>
+      <c r="Z81" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AA81" s="44"/>
-      <c r="AB81" s="44"/>
-      <c r="AC81" s="44"/>
-      <c r="AD81" s="43" t="s">
+      <c r="AA81" s="53"/>
+      <c r="AB81" s="53"/>
+      <c r="AC81" s="53"/>
+      <c r="AD81" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="AE81" s="44"/>
-      <c r="AF81" s="44"/>
-      <c r="AG81" s="44"/>
-      <c r="AH81" s="43" t="s">
+      <c r="AE81" s="53"/>
+      <c r="AF81" s="53"/>
+      <c r="AG81" s="53"/>
+      <c r="AH81" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="AI81" s="44"/>
-      <c r="AJ81" s="44"/>
-      <c r="AK81" s="44"/>
-      <c r="AL81" s="43" t="s">
+      <c r="AI81" s="53"/>
+      <c r="AJ81" s="53"/>
+      <c r="AK81" s="53"/>
+      <c r="AL81" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="AM81" s="44"/>
-      <c r="AN81" s="44"/>
-      <c r="AO81" s="44"/>
-      <c r="AP81" s="43" t="s">
+      <c r="AM81" s="53"/>
+      <c r="AN81" s="53"/>
+      <c r="AO81" s="53"/>
+      <c r="AP81" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="AQ81" s="44"/>
-      <c r="AR81" s="44"/>
-      <c r="AS81" s="44"/>
-      <c r="AT81" s="43" t="s">
+      <c r="AQ81" s="53"/>
+      <c r="AR81" s="53"/>
+      <c r="AS81" s="53"/>
+      <c r="AT81" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AU81" s="44"/>
-      <c r="AV81" s="44"/>
-      <c r="AW81" s="44"/>
-      <c r="AX81" s="43" t="s">
+      <c r="AU81" s="53"/>
+      <c r="AV81" s="53"/>
+      <c r="AW81" s="53"/>
+      <c r="AX81" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="AY81" s="44"/>
-      <c r="AZ81" s="44"/>
-      <c r="BA81" s="44"/>
-      <c r="BB81" s="43" t="s">
+      <c r="AY81" s="53"/>
+      <c r="AZ81" s="53"/>
+      <c r="BA81" s="53"/>
+      <c r="BB81" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="BC81" s="44"/>
-      <c r="BD81" s="44"/>
-      <c r="BE81" s="44"/>
-      <c r="BF81" s="43" t="s">
+      <c r="BC81" s="53"/>
+      <c r="BD81" s="53"/>
+      <c r="BE81" s="53"/>
+      <c r="BF81" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="BG81" s="44"/>
-      <c r="BH81" s="44"/>
-      <c r="BI81" s="44"/>
-      <c r="BJ81" s="43" t="s">
+      <c r="BG81" s="53"/>
+      <c r="BH81" s="53"/>
+      <c r="BI81" s="53"/>
+      <c r="BJ81" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="BK81" s="44"/>
-      <c r="BL81" s="44"/>
-      <c r="BM81" s="44"/>
-      <c r="BN81" s="43" t="s">
+      <c r="BK81" s="53"/>
+      <c r="BL81" s="53"/>
+      <c r="BM81" s="53"/>
+      <c r="BN81" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="BO81" s="44"/>
-      <c r="BP81" s="44"/>
-      <c r="BQ81" s="44"/>
-      <c r="BR81" s="43" t="s">
+      <c r="BO81" s="53"/>
+      <c r="BP81" s="53"/>
+      <c r="BQ81" s="53"/>
+      <c r="BR81" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="BS81" s="44"/>
-      <c r="BT81" s="44"/>
-      <c r="BU81" s="44"/>
-      <c r="BV81" s="43" t="s">
+      <c r="BS81" s="53"/>
+      <c r="BT81" s="53"/>
+      <c r="BU81" s="53"/>
+      <c r="BV81" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="BW81" s="43"/>
-      <c r="BX81" s="43"/>
-      <c r="BY81" s="43"/>
-      <c r="BZ81" s="43" t="s">
+      <c r="BW81" s="52"/>
+      <c r="BX81" s="52"/>
+      <c r="BY81" s="52"/>
+      <c r="BZ81" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="CA81" s="43"/>
-      <c r="CB81" s="43"/>
-      <c r="CC81" s="43"/>
-      <c r="CD81" s="42" t="s">
+      <c r="CA81" s="50"/>
+      <c r="CB81" s="50"/>
+      <c r="CC81" s="50"/>
+      <c r="CD81" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="CE81" s="42"/>
-      <c r="CF81" s="42"/>
-      <c r="CG81" s="42"/>
-      <c r="CH81" s="34"/>
-      <c r="CI81" s="34"/>
-      <c r="CJ81" s="34"/>
-      <c r="CK81" s="34"/>
+      <c r="CE81" s="50"/>
+      <c r="CF81" s="50"/>
+      <c r="CG81" s="50"/>
+      <c r="CH81" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="CI81" s="41"/>
+      <c r="CJ81" s="41"/>
+      <c r="CK81" s="41"/>
+      <c r="CL81" s="42"/>
+      <c r="CM81" s="46"/>
     </row>
-    <row r="82" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>10</v>
       </c>
@@ -31772,16 +31890,16 @@
       <c r="BY82" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BZ82" s="6" t="s">
+      <c r="BZ82" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CA82" s="6" t="s">
+      <c r="CA82" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CB82" s="6" t="s">
+      <c r="CB82" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CC82" s="6" t="s">
+      <c r="CC82" s="27" t="s">
         <v>8</v>
       </c>
       <c r="CD82" s="27" t="s">
@@ -31796,15 +31914,24 @@
       <c r="CG82" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CH82" s="35"/>
-      <c r="CI82" s="35"/>
-      <c r="CJ82" s="35"/>
-      <c r="CK82" s="35"/>
+      <c r="CH82" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI82" s="41"/>
+      <c r="CJ82" s="41"/>
+      <c r="CK82" s="41"/>
+      <c r="CL82" s="41"/>
+      <c r="CM82" s="46"/>
     </row>
-    <row r="83" spans="1:128" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
+      <c r="CI83" s="40"/>
+      <c r="CJ83" s="40"/>
+      <c r="CK83" s="40"/>
+      <c r="CL83" s="40"/>
+      <c r="CM83" s="46"/>
     </row>
-    <row r="84" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>11</v>
       </c>
@@ -32036,36 +32163,38 @@
       <c r="BY84" s="20">
         <v>27.73392634613559</v>
       </c>
-      <c r="BZ84" s="20">
-        <v>-0.70099248410416237</v>
-      </c>
-      <c r="CA84" s="20">
-        <v>2.4196372176959784</v>
-      </c>
-      <c r="CB84" s="20">
-        <v>-27.10911431376401</v>
-      </c>
-      <c r="CC84" s="20">
-        <v>-17.685834631879089</v>
-      </c>
-      <c r="CD84" s="39">
-        <v>25.264455008924429</v>
-      </c>
-      <c r="CE84" s="39">
-        <v>44.522104564358528</v>
-      </c>
-      <c r="CF84" s="39">
-        <v>53.789436307285257</v>
-      </c>
-      <c r="CG84" s="39">
-        <v>25.59503547665858</v>
-      </c>
-      <c r="CH84" s="36"/>
-      <c r="CI84" s="36"/>
-      <c r="CJ84" s="36"/>
-      <c r="CK84" s="36"/>
-      <c r="CL84" s="9"/>
-      <c r="CM84" s="9"/>
+      <c r="BZ84" s="36">
+        <v>7.8598380705898307E-2</v>
+      </c>
+      <c r="CA84" s="36">
+        <v>3.5418003540962957</v>
+      </c>
+      <c r="CB84" s="36">
+        <v>-26.184101498680107</v>
+      </c>
+      <c r="CC84" s="36">
+        <v>-17.08295141541474</v>
+      </c>
+      <c r="CD84" s="36">
+        <v>24.86029683858122</v>
+      </c>
+      <c r="CE84" s="36">
+        <v>43.181315438530078</v>
+      </c>
+      <c r="CF84" s="36">
+        <v>54.552282448061732</v>
+      </c>
+      <c r="CG84" s="36">
+        <v>20.713755591272815</v>
+      </c>
+      <c r="CH84" s="36">
+        <v>-4.9430140868717416</v>
+      </c>
+      <c r="CI84" s="43"/>
+      <c r="CJ84" s="43"/>
+      <c r="CK84" s="43"/>
+      <c r="CL84" s="43"/>
+      <c r="CM84" s="47"/>
       <c r="CN84" s="9"/>
       <c r="CO84" s="9"/>
       <c r="CP84" s="9"/>
@@ -32096,7 +32225,7 @@
       <c r="DO84" s="9"/>
       <c r="DP84" s="9"/>
     </row>
-    <row r="85" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>12</v>
       </c>
@@ -32328,36 +32457,38 @@
       <c r="BY85" s="20">
         <v>17.397230588608451</v>
       </c>
-      <c r="BZ85" s="20">
-        <v>-2.8625289034971786</v>
-      </c>
-      <c r="CA85" s="20">
-        <v>-25.390993198618077</v>
-      </c>
-      <c r="CB85" s="20">
-        <v>-44.140531632426018</v>
-      </c>
-      <c r="CC85" s="20">
-        <v>-50.650774613428624</v>
-      </c>
-      <c r="CD85" s="39">
-        <v>-44.401394583168511</v>
-      </c>
-      <c r="CE85" s="39">
-        <v>-24.11901780702992</v>
-      </c>
-      <c r="CF85" s="39">
-        <v>-11.699157687449286</v>
-      </c>
-      <c r="CG85" s="39">
-        <v>3.4853544331898973</v>
-      </c>
-      <c r="CH85" s="36"/>
-      <c r="CI85" s="36"/>
-      <c r="CJ85" s="36"/>
-      <c r="CK85" s="36"/>
-      <c r="CL85" s="9"/>
-      <c r="CM85" s="9"/>
+      <c r="BZ85" s="36">
+        <v>-2.7577937983177776</v>
+      </c>
+      <c r="CA85" s="36">
+        <v>-25.505083386698317</v>
+      </c>
+      <c r="CB85" s="36">
+        <v>-44.336217224108928</v>
+      </c>
+      <c r="CC85" s="36">
+        <v>-50.800080677927959</v>
+      </c>
+      <c r="CD85" s="36">
+        <v>-44.309833974898808</v>
+      </c>
+      <c r="CE85" s="36">
+        <v>-23.867496290740021</v>
+      </c>
+      <c r="CF85" s="36">
+        <v>-10.760653467259189</v>
+      </c>
+      <c r="CG85" s="36">
+        <v>4.9855510853146683</v>
+      </c>
+      <c r="CH85" s="36">
+        <v>26.360141820496793</v>
+      </c>
+      <c r="CI85" s="43"/>
+      <c r="CJ85" s="43"/>
+      <c r="CK85" s="43"/>
+      <c r="CL85" s="43"/>
+      <c r="CM85" s="47"/>
       <c r="CN85" s="9"/>
       <c r="CO85" s="9"/>
       <c r="CP85" s="9"/>
@@ -32388,7 +32519,7 @@
       <c r="DO85" s="9"/>
       <c r="DP85" s="9"/>
     </row>
-    <row r="86" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>13</v>
       </c>
@@ -32620,36 +32751,38 @@
       <c r="BY86" s="20">
         <v>-6.1317900687443085</v>
       </c>
-      <c r="BZ86" s="20">
-        <v>-1.2027241569473262</v>
-      </c>
-      <c r="CA86" s="20">
-        <v>-79.665294408375502</v>
-      </c>
-      <c r="CB86" s="20">
-        <v>-59.080053016759955</v>
-      </c>
-      <c r="CC86" s="20">
-        <v>-31.218557958591759</v>
-      </c>
-      <c r="CD86" s="39">
-        <v>-24.002929837757975</v>
-      </c>
-      <c r="CE86" s="39">
-        <v>318.25484481841926</v>
-      </c>
-      <c r="CF86" s="39">
-        <v>63.15025015942868</v>
-      </c>
-      <c r="CG86" s="39">
-        <v>15.596907859613168</v>
-      </c>
-      <c r="CH86" s="36"/>
-      <c r="CI86" s="36"/>
-      <c r="CJ86" s="36"/>
-      <c r="CK86" s="36"/>
-      <c r="CL86" s="9"/>
-      <c r="CM86" s="9"/>
+      <c r="BZ86" s="36">
+        <v>-0.72805706575010731</v>
+      </c>
+      <c r="CA86" s="36">
+        <v>-79.562834509368244</v>
+      </c>
+      <c r="CB86" s="36">
+        <v>-58.850707692783125</v>
+      </c>
+      <c r="CC86" s="36">
+        <v>-30.616510598920428</v>
+      </c>
+      <c r="CD86" s="36">
+        <v>-23.762113838145979</v>
+      </c>
+      <c r="CE86" s="36">
+        <v>324.61480341958753</v>
+      </c>
+      <c r="CF86" s="36">
+        <v>64.222779910272294</v>
+      </c>
+      <c r="CG86" s="36">
+        <v>21.698798084871896</v>
+      </c>
+      <c r="CH86" s="36">
+        <v>15.37944674545561</v>
+      </c>
+      <c r="CI86" s="43"/>
+      <c r="CJ86" s="43"/>
+      <c r="CK86" s="43"/>
+      <c r="CL86" s="43"/>
+      <c r="CM86" s="47"/>
       <c r="CN86" s="9"/>
       <c r="CO86" s="9"/>
       <c r="CP86" s="9"/>
@@ -32680,7 +32813,7 @@
       <c r="DO86" s="9"/>
       <c r="DP86" s="9"/>
     </row>
-    <row r="87" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="22"/>
       <c r="C87" s="22"/>
       <c r="D87" s="22"/>
@@ -32757,20 +32890,20 @@
       <c r="BW87" s="21"/>
       <c r="BX87" s="21"/>
       <c r="BY87" s="21"/>
-      <c r="BZ87" s="21"/>
-      <c r="CA87" s="21"/>
-      <c r="CB87" s="21"/>
-      <c r="CC87" s="21"/>
-      <c r="CD87" s="36"/>
-      <c r="CE87" s="36"/>
-      <c r="CF87" s="36"/>
-      <c r="CG87" s="36"/>
-      <c r="CH87" s="36"/>
-      <c r="CI87" s="36"/>
-      <c r="CJ87" s="36"/>
-      <c r="CK87" s="36"/>
-      <c r="CL87" s="9"/>
-      <c r="CM87" s="9"/>
+      <c r="BZ87" s="34"/>
+      <c r="CA87" s="34"/>
+      <c r="CB87" s="34"/>
+      <c r="CC87" s="34"/>
+      <c r="CD87" s="34"/>
+      <c r="CE87" s="34"/>
+      <c r="CF87" s="34"/>
+      <c r="CG87" s="34"/>
+      <c r="CH87" s="34"/>
+      <c r="CI87" s="43"/>
+      <c r="CJ87" s="43"/>
+      <c r="CK87" s="43"/>
+      <c r="CL87" s="43"/>
+      <c r="CM87" s="47"/>
       <c r="CN87" s="9"/>
       <c r="CO87" s="9"/>
       <c r="CP87" s="9"/>
@@ -32801,7 +32934,7 @@
       <c r="DO87" s="9"/>
       <c r="DP87" s="9"/>
     </row>
-    <row r="88" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
         <v>14</v>
       </c>
@@ -33033,36 +33166,38 @@
       <c r="BY88" s="20">
         <v>11.673568980434055</v>
       </c>
-      <c r="BZ88" s="20">
-        <v>-1.986380304100507</v>
-      </c>
-      <c r="CA88" s="20">
-        <v>-31.241642817096846</v>
-      </c>
-      <c r="CB88" s="20">
-        <v>-45.426046145820699</v>
-      </c>
-      <c r="CC88" s="20">
-        <v>-36.015214079390155</v>
-      </c>
-      <c r="CD88" s="39">
-        <v>-25.336433112895264</v>
-      </c>
-      <c r="CE88" s="39">
-        <v>35.132635584470762</v>
-      </c>
-      <c r="CF88" s="39">
-        <v>23.794583410966695</v>
-      </c>
-      <c r="CG88" s="39">
-        <v>15.018477415833004</v>
-      </c>
-      <c r="CH88" s="36"/>
-      <c r="CI88" s="36"/>
-      <c r="CJ88" s="36"/>
-      <c r="CK88" s="36"/>
-      <c r="CL88" s="9"/>
-      <c r="CM88" s="9"/>
+      <c r="BZ88" s="36">
+        <v>-1.6501732632401911</v>
+      </c>
+      <c r="CA88" s="36">
+        <v>-30.909885445611422</v>
+      </c>
+      <c r="CB88" s="36">
+        <v>-45.26014051531412</v>
+      </c>
+      <c r="CC88" s="36">
+        <v>-35.74058473440175</v>
+      </c>
+      <c r="CD88" s="36">
+        <v>-25.230407765491606</v>
+      </c>
+      <c r="CE88" s="36">
+        <v>35.322372143907842</v>
+      </c>
+      <c r="CF88" s="36">
+        <v>24.932914743996875</v>
+      </c>
+      <c r="CG88" s="36">
+        <v>15.773243027209304</v>
+      </c>
+      <c r="CH88" s="36">
+        <v>13.181914260496058</v>
+      </c>
+      <c r="CI88" s="43"/>
+      <c r="CJ88" s="43"/>
+      <c r="CK88" s="43"/>
+      <c r="CL88" s="43"/>
+      <c r="CM88" s="47"/>
       <c r="CN88" s="9"/>
       <c r="CO88" s="9"/>
       <c r="CP88" s="9"/>
@@ -33093,7 +33228,7 @@
       <c r="DO88" s="9"/>
       <c r="DP88" s="9"/>
     </row>
-    <row r="89" spans="1:128" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:128" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="12"/>
       <c r="B89" s="23"/>
       <c r="C89" s="23"/>
@@ -33171,20 +33306,22 @@
       <c r="BW89" s="24"/>
       <c r="BX89" s="24"/>
       <c r="BY89" s="24"/>
-      <c r="BZ89" s="24"/>
-      <c r="CA89" s="24"/>
-      <c r="CB89" s="24"/>
-      <c r="CC89" s="24"/>
-      <c r="CD89" s="40"/>
-      <c r="CE89" s="40"/>
-      <c r="CF89" s="40"/>
-      <c r="CG89" s="40"/>
+      <c r="BZ89" s="37"/>
+      <c r="CA89" s="37"/>
+      <c r="CB89" s="37"/>
+      <c r="CC89" s="37"/>
+      <c r="CD89" s="37"/>
+      <c r="CE89" s="37"/>
+      <c r="CF89" s="37"/>
+      <c r="CG89" s="37"/>
       <c r="CH89" s="37"/>
-      <c r="CI89" s="37"/>
-      <c r="CJ89" s="37"/>
-      <c r="CK89" s="37"/>
+      <c r="CI89" s="44"/>
+      <c r="CJ89" s="44"/>
+      <c r="CK89" s="44"/>
+      <c r="CL89" s="44"/>
+      <c r="CM89" s="48"/>
     </row>
-    <row r="90" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -33262,20 +33399,20 @@
       <c r="BW90" s="20"/>
       <c r="BX90" s="20"/>
       <c r="BY90" s="20"/>
-      <c r="BZ90" s="20"/>
-      <c r="CA90" s="20"/>
-      <c r="CB90" s="20"/>
-      <c r="CC90" s="20"/>
-      <c r="CD90" s="39"/>
-      <c r="CE90" s="39"/>
-      <c r="CF90" s="39"/>
-      <c r="CG90" s="39"/>
+      <c r="BZ90" s="36"/>
+      <c r="CA90" s="36"/>
+      <c r="CB90" s="36"/>
+      <c r="CC90" s="36"/>
+      <c r="CD90" s="36"/>
+      <c r="CE90" s="36"/>
+      <c r="CF90" s="36"/>
+      <c r="CG90" s="36"/>
       <c r="CH90" s="36"/>
-      <c r="CI90" s="36"/>
-      <c r="CJ90" s="36"/>
-      <c r="CK90" s="36"/>
-      <c r="CL90" s="9"/>
-      <c r="CM90" s="9"/>
+      <c r="CI90" s="43"/>
+      <c r="CJ90" s="43"/>
+      <c r="CK90" s="43"/>
+      <c r="CL90" s="43"/>
+      <c r="CM90" s="47"/>
       <c r="CN90" s="9"/>
       <c r="CO90" s="9"/>
       <c r="CP90" s="9"/>
@@ -33306,7 +33443,7 @@
       <c r="DO90" s="9"/>
       <c r="DP90" s="9"/>
     </row>
-    <row r="91" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
         <v>15</v>
       </c>
@@ -33538,36 +33675,38 @@
       <c r="BY91" s="20">
         <v>12.798832146712485</v>
       </c>
-      <c r="BZ91" s="20">
-        <v>-0.26236479039960159</v>
-      </c>
-      <c r="CA91" s="20">
-        <v>-29.374772538190896</v>
-      </c>
-      <c r="CB91" s="20">
-        <v>-39.697664630409136</v>
-      </c>
-      <c r="CC91" s="20">
-        <v>-26.847189492930639</v>
-      </c>
-      <c r="CD91" s="39">
-        <v>-22.630810783961834</v>
-      </c>
-      <c r="CE91" s="39">
-        <v>27.093857393693639</v>
-      </c>
-      <c r="CF91" s="39">
-        <v>17.3969270555435</v>
-      </c>
-      <c r="CG91" s="39">
-        <v>18.539479408444024</v>
-      </c>
-      <c r="CH91" s="36"/>
-      <c r="CI91" s="36"/>
-      <c r="CJ91" s="36"/>
-      <c r="CK91" s="36"/>
-      <c r="CL91" s="9"/>
-      <c r="CM91" s="9"/>
+      <c r="BZ91" s="36">
+        <v>0.1731431896040192</v>
+      </c>
+      <c r="CA91" s="36">
+        <v>-29.127936903141389</v>
+      </c>
+      <c r="CB91" s="36">
+        <v>-39.573695775611974</v>
+      </c>
+      <c r="CC91" s="36">
+        <v>-26.806079372893777</v>
+      </c>
+      <c r="CD91" s="36">
+        <v>-22.566696586401576</v>
+      </c>
+      <c r="CE91" s="36">
+        <v>27.394326672585663</v>
+      </c>
+      <c r="CF91" s="36">
+        <v>17.997106597448294</v>
+      </c>
+      <c r="CG91" s="36">
+        <v>18.604856888226124</v>
+      </c>
+      <c r="CH91" s="36">
+        <v>13.465366061333953</v>
+      </c>
+      <c r="CI91" s="43"/>
+      <c r="CJ91" s="43"/>
+      <c r="CK91" s="43"/>
+      <c r="CL91" s="43"/>
+      <c r="CM91" s="47"/>
       <c r="CN91" s="9"/>
       <c r="CO91" s="9"/>
       <c r="CP91" s="9"/>
@@ -33598,7 +33737,7 @@
       <c r="DO91" s="9"/>
       <c r="DP91" s="9"/>
     </row>
-    <row r="92" spans="1:128" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:128" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -33676,30 +33815,42 @@
       <c r="BW92" s="14"/>
       <c r="BX92" s="14"/>
       <c r="BY92" s="14"/>
-      <c r="BZ92" s="14"/>
-      <c r="CA92" s="14"/>
-      <c r="CB92" s="14"/>
-      <c r="CC92" s="14"/>
+      <c r="BZ92" s="32"/>
+      <c r="CA92" s="32"/>
+      <c r="CB92" s="32"/>
+      <c r="CC92" s="32"/>
       <c r="CD92" s="32"/>
       <c r="CE92" s="32"/>
       <c r="CF92" s="32"/>
       <c r="CG92" s="32"/>
       <c r="CH92" s="32"/>
-      <c r="CI92" s="32"/>
-      <c r="CJ92" s="32"/>
-      <c r="CK92" s="32"/>
+      <c r="CI92" s="45"/>
+      <c r="CJ92" s="45"/>
+      <c r="CK92" s="45"/>
+      <c r="CL92" s="45"/>
+      <c r="CM92" s="46"/>
     </row>
-    <row r="93" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
         <v>28</v>
       </c>
+      <c r="CI93" s="40"/>
+      <c r="CJ93" s="40"/>
+      <c r="CK93" s="40"/>
+      <c r="CL93" s="40"/>
+      <c r="CM93" s="46"/>
     </row>
-    <row r="94" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="CI94" s="40"/>
+      <c r="CJ94" s="40"/>
+      <c r="CK94" s="40"/>
+      <c r="CL94" s="40"/>
+      <c r="CM94" s="46"/>
     </row>
-    <row r="95" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -33776,20 +33927,20 @@
       <c r="BW95" s="9"/>
       <c r="BX95" s="9"/>
       <c r="BY95" s="9"/>
-      <c r="BZ95" s="9"/>
-      <c r="CA95" s="9"/>
-      <c r="CB95" s="9"/>
-      <c r="CC95" s="9"/>
+      <c r="BZ95" s="29"/>
+      <c r="CA95" s="29"/>
+      <c r="CB95" s="29"/>
+      <c r="CC95" s="29"/>
       <c r="CD95" s="29"/>
       <c r="CE95" s="29"/>
       <c r="CF95" s="29"/>
       <c r="CG95" s="29"/>
       <c r="CH95" s="29"/>
-      <c r="CI95" s="29"/>
-      <c r="CJ95" s="29"/>
-      <c r="CK95" s="29"/>
-      <c r="CL95" s="9"/>
-      <c r="CM95" s="9"/>
+      <c r="CI95" s="49"/>
+      <c r="CJ95" s="49"/>
+      <c r="CK95" s="49"/>
+      <c r="CL95" s="49"/>
+      <c r="CM95" s="47"/>
       <c r="CN95" s="9"/>
       <c r="CO95" s="9"/>
       <c r="CP95" s="9"/>
@@ -33828,7 +33979,7 @@
       <c r="DW95" s="9"/>
       <c r="DX95" s="9"/>
     </row>
-    <row r="96" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -33905,20 +34056,20 @@
       <c r="BW96" s="9"/>
       <c r="BX96" s="9"/>
       <c r="BY96" s="9"/>
-      <c r="BZ96" s="9"/>
-      <c r="CA96" s="9"/>
-      <c r="CB96" s="9"/>
-      <c r="CC96" s="9"/>
+      <c r="BZ96" s="29"/>
+      <c r="CA96" s="29"/>
+      <c r="CB96" s="29"/>
+      <c r="CC96" s="29"/>
       <c r="CD96" s="29"/>
       <c r="CE96" s="29"/>
       <c r="CF96" s="29"/>
       <c r="CG96" s="29"/>
       <c r="CH96" s="29"/>
-      <c r="CI96" s="29"/>
-      <c r="CJ96" s="29"/>
-      <c r="CK96" s="29"/>
-      <c r="CL96" s="9"/>
-      <c r="CM96" s="9"/>
+      <c r="CI96" s="49"/>
+      <c r="CJ96" s="49"/>
+      <c r="CK96" s="49"/>
+      <c r="CL96" s="49"/>
+      <c r="CM96" s="47"/>
       <c r="CN96" s="9"/>
       <c r="CO96" s="9"/>
       <c r="CP96" s="9"/>
@@ -33957,167 +34108,180 @@
       <c r="DW96" s="9"/>
       <c r="DX96" s="9"/>
     </row>
-    <row r="97" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CI97" s="40"/>
+      <c r="CJ97" s="40"/>
+      <c r="CK97" s="40"/>
+      <c r="CL97" s="40"/>
+      <c r="CM97" s="46"/>
     </row>
-    <row r="98" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="CI98" s="40"/>
+      <c r="CJ98" s="40"/>
+      <c r="CK98" s="40"/>
+      <c r="CL98" s="40"/>
+      <c r="CM98" s="46"/>
     </row>
-    <row r="100" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="102" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
-      <c r="B104" s="43">
+      <c r="B104" s="52">
         <v>2000</v>
       </c>
-      <c r="C104" s="44"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="44"/>
-      <c r="F104" s="43">
+      <c r="C104" s="53"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="52">
         <v>2001</v>
       </c>
-      <c r="G104" s="44"/>
-      <c r="H104" s="44"/>
-      <c r="I104" s="44"/>
-      <c r="J104" s="43">
+      <c r="G104" s="53"/>
+      <c r="H104" s="53"/>
+      <c r="I104" s="53"/>
+      <c r="J104" s="52">
         <v>2002</v>
       </c>
-      <c r="K104" s="44"/>
-      <c r="L104" s="44"/>
-      <c r="M104" s="44"/>
-      <c r="N104" s="43">
+      <c r="K104" s="53"/>
+      <c r="L104" s="53"/>
+      <c r="M104" s="53"/>
+      <c r="N104" s="52">
         <v>2003</v>
       </c>
-      <c r="O104" s="44"/>
-      <c r="P104" s="44"/>
-      <c r="Q104" s="44"/>
-      <c r="R104" s="43">
+      <c r="O104" s="53"/>
+      <c r="P104" s="53"/>
+      <c r="Q104" s="53"/>
+      <c r="R104" s="52">
         <v>2004</v>
       </c>
-      <c r="S104" s="44"/>
-      <c r="T104" s="44"/>
-      <c r="U104" s="44"/>
-      <c r="V104" s="43">
+      <c r="S104" s="53"/>
+      <c r="T104" s="53"/>
+      <c r="U104" s="53"/>
+      <c r="V104" s="52">
         <v>2005</v>
       </c>
-      <c r="W104" s="44"/>
-      <c r="X104" s="44"/>
-      <c r="Y104" s="44"/>
-      <c r="Z104" s="43">
+      <c r="W104" s="53"/>
+      <c r="X104" s="53"/>
+      <c r="Y104" s="53"/>
+      <c r="Z104" s="52">
         <v>2006</v>
       </c>
-      <c r="AA104" s="44"/>
-      <c r="AB104" s="44"/>
-      <c r="AC104" s="44"/>
-      <c r="AD104" s="43">
+      <c r="AA104" s="53"/>
+      <c r="AB104" s="53"/>
+      <c r="AC104" s="53"/>
+      <c r="AD104" s="52">
         <v>2007</v>
       </c>
-      <c r="AE104" s="44"/>
-      <c r="AF104" s="44"/>
-      <c r="AG104" s="44"/>
-      <c r="AH104" s="43">
+      <c r="AE104" s="53"/>
+      <c r="AF104" s="53"/>
+      <c r="AG104" s="53"/>
+      <c r="AH104" s="52">
         <v>2008</v>
       </c>
-      <c r="AI104" s="44"/>
-      <c r="AJ104" s="44"/>
-      <c r="AK104" s="44"/>
-      <c r="AL104" s="43">
+      <c r="AI104" s="53"/>
+      <c r="AJ104" s="53"/>
+      <c r="AK104" s="53"/>
+      <c r="AL104" s="52">
         <v>2009</v>
       </c>
-      <c r="AM104" s="44"/>
-      <c r="AN104" s="44"/>
-      <c r="AO104" s="44"/>
-      <c r="AP104" s="43">
+      <c r="AM104" s="53"/>
+      <c r="AN104" s="53"/>
+      <c r="AO104" s="53"/>
+      <c r="AP104" s="52">
         <v>2010</v>
       </c>
-      <c r="AQ104" s="44"/>
-      <c r="AR104" s="44"/>
-      <c r="AS104" s="44"/>
-      <c r="AT104" s="43">
+      <c r="AQ104" s="53"/>
+      <c r="AR104" s="53"/>
+      <c r="AS104" s="53"/>
+      <c r="AT104" s="52">
         <v>2011</v>
       </c>
-      <c r="AU104" s="44"/>
-      <c r="AV104" s="44"/>
-      <c r="AW104" s="44"/>
-      <c r="AX104" s="43">
+      <c r="AU104" s="53"/>
+      <c r="AV104" s="53"/>
+      <c r="AW104" s="53"/>
+      <c r="AX104" s="52">
         <v>2012</v>
       </c>
-      <c r="AY104" s="44"/>
-      <c r="AZ104" s="44"/>
-      <c r="BA104" s="44"/>
-      <c r="BB104" s="43">
+      <c r="AY104" s="53"/>
+      <c r="AZ104" s="53"/>
+      <c r="BA104" s="53"/>
+      <c r="BB104" s="52">
         <v>2013</v>
       </c>
-      <c r="BC104" s="44"/>
-      <c r="BD104" s="44"/>
-      <c r="BE104" s="44"/>
-      <c r="BF104" s="43">
+      <c r="BC104" s="53"/>
+      <c r="BD104" s="53"/>
+      <c r="BE104" s="53"/>
+      <c r="BF104" s="52">
         <v>2014</v>
       </c>
-      <c r="BG104" s="44"/>
-      <c r="BH104" s="44"/>
-      <c r="BI104" s="44"/>
-      <c r="BJ104" s="43">
+      <c r="BG104" s="53"/>
+      <c r="BH104" s="53"/>
+      <c r="BI104" s="53"/>
+      <c r="BJ104" s="52">
         <v>2015</v>
       </c>
-      <c r="BK104" s="44"/>
-      <c r="BL104" s="44"/>
-      <c r="BM104" s="44"/>
-      <c r="BN104" s="43">
+      <c r="BK104" s="53"/>
+      <c r="BL104" s="53"/>
+      <c r="BM104" s="53"/>
+      <c r="BN104" s="52">
         <v>2016</v>
       </c>
-      <c r="BO104" s="44"/>
-      <c r="BP104" s="44"/>
-      <c r="BQ104" s="44"/>
-      <c r="BR104" s="43">
+      <c r="BO104" s="53"/>
+      <c r="BP104" s="53"/>
+      <c r="BQ104" s="53"/>
+      <c r="BR104" s="52">
         <v>2017</v>
       </c>
-      <c r="BS104" s="44"/>
-      <c r="BT104" s="44"/>
-      <c r="BU104" s="44"/>
-      <c r="BV104" s="43">
+      <c r="BS104" s="53"/>
+      <c r="BT104" s="53"/>
+      <c r="BU104" s="53"/>
+      <c r="BV104" s="52">
         <v>2018</v>
       </c>
-      <c r="BW104" s="43"/>
-      <c r="BX104" s="43"/>
-      <c r="BY104" s="43"/>
-      <c r="BZ104" s="43">
+      <c r="BW104" s="52"/>
+      <c r="BX104" s="52"/>
+      <c r="BY104" s="52"/>
+      <c r="BZ104" s="50">
         <v>2019</v>
       </c>
-      <c r="CA104" s="43"/>
-      <c r="CB104" s="43"/>
-      <c r="CC104" s="43"/>
-      <c r="CD104" s="42">
+      <c r="CA104" s="51"/>
+      <c r="CB104" s="51"/>
+      <c r="CC104" s="51"/>
+      <c r="CD104" s="50">
         <v>2020</v>
       </c>
-      <c r="CE104" s="42"/>
-      <c r="CF104" s="42"/>
-      <c r="CG104" s="42"/>
-      <c r="CH104" s="42">
+      <c r="CE104" s="50"/>
+      <c r="CF104" s="50"/>
+      <c r="CG104" s="50"/>
+      <c r="CH104" s="50">
         <v>2021</v>
       </c>
-      <c r="CI104" s="42"/>
-      <c r="CJ104" s="42"/>
-      <c r="CK104" s="42"/>
+      <c r="CI104" s="50"/>
+      <c r="CJ104" s="50"/>
+      <c r="CK104" s="50"/>
+      <c r="CL104" s="39">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="105" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>10</v>
       </c>
@@ -34349,16 +34513,16 @@
       <c r="BY105" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BZ105" s="6" t="s">
+      <c r="BZ105" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CA105" s="6" t="s">
+      <c r="CA105" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CB105" s="6" t="s">
+      <c r="CB105" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CC105" s="6" t="s">
+      <c r="CC105" s="27" t="s">
         <v>8</v>
       </c>
       <c r="CD105" s="27" t="s">
@@ -34385,11 +34549,14 @@
       <c r="CK105" s="27" t="s">
         <v>8</v>
       </c>
+      <c r="CL105" s="27" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="106" spans="1:128" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7"/>
     </row>
-    <row r="107" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>11</v>
       </c>
@@ -34621,43 +34788,45 @@
       <c r="BY107" s="25">
         <v>98.208406729392351</v>
       </c>
-      <c r="BZ107" s="25">
+      <c r="BZ107" s="35">
         <v>106.98911566251086</v>
       </c>
-      <c r="CA107" s="25">
+      <c r="CA107" s="35">
         <v>101.66319497212852</v>
       </c>
-      <c r="CB107" s="25">
+      <c r="CB107" s="35">
         <v>105.35361683838933</v>
       </c>
-      <c r="CC107" s="25">
+      <c r="CC107" s="35">
         <v>99.690666334522035</v>
       </c>
-      <c r="CD107" s="38">
+      <c r="CD107" s="35">
         <v>110.26580788055082</v>
       </c>
-      <c r="CE107" s="38">
-        <v>101.55697744768135</v>
-      </c>
-      <c r="CF107" s="38">
+      <c r="CE107" s="35">
+        <v>101.55697744768138</v>
+      </c>
+      <c r="CF107" s="35">
         <v>107.86345740733043</v>
       </c>
-      <c r="CG107" s="38">
+      <c r="CG107" s="35">
         <v>101.69977324269048</v>
       </c>
-      <c r="CH107" s="38">
-        <v>110.8150797752381</v>
-      </c>
-      <c r="CI107" s="38">
-        <v>104.72415107511821</v>
-      </c>
-      <c r="CJ107" s="38">
-        <v>112.33433282330432</v>
-      </c>
-      <c r="CK107" s="38">
-        <v>106.57965257793749</v>
-      </c>
-      <c r="CL107" s="9"/>
+      <c r="CH107" s="35">
+        <v>111.17377522144784</v>
+      </c>
+      <c r="CI107" s="35">
+        <v>105.70481676144105</v>
+      </c>
+      <c r="CJ107" s="35">
+        <v>111.77986794634754</v>
+      </c>
+      <c r="CK107" s="35">
+        <v>106.05218418242357</v>
+      </c>
+      <c r="CL107" s="35">
+        <v>118.19325200079322</v>
+      </c>
       <c r="CM107" s="9"/>
       <c r="CN107" s="9"/>
       <c r="CO107" s="9"/>
@@ -34697,7 +34866,7 @@
       <c r="DW107" s="9"/>
       <c r="DX107" s="9"/>
     </row>
-    <row r="108" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>12</v>
       </c>
@@ -34929,43 +35098,45 @@
       <c r="BY108" s="25">
         <v>103.63563280691703</v>
       </c>
-      <c r="BZ108" s="25">
+      <c r="BZ108" s="35">
         <v>97.409121285170244</v>
       </c>
-      <c r="CA108" s="25">
+      <c r="CA108" s="35">
         <v>98.770858737532322</v>
       </c>
-      <c r="CB108" s="25">
+      <c r="CB108" s="35">
         <v>109.72933866231089</v>
       </c>
-      <c r="CC108" s="25">
+      <c r="CC108" s="35">
         <v>104.08316734075956</v>
       </c>
-      <c r="CD108" s="38">
+      <c r="CD108" s="35">
         <v>100.3080215092087</v>
       </c>
-      <c r="CE108" s="38">
+      <c r="CE108" s="35">
         <v>98.989565820614089</v>
       </c>
-      <c r="CF108" s="38">
+      <c r="CF108" s="35">
         <v>112.21853540472053</v>
       </c>
-      <c r="CG108" s="38">
+      <c r="CG108" s="35">
         <v>106.09546630400037</v>
       </c>
-      <c r="CH108" s="38">
-        <v>100.864051626847</v>
-      </c>
-      <c r="CI108" s="38">
-        <v>101.93880115547489</v>
-      </c>
-      <c r="CJ108" s="38">
-        <v>116.64342045485299</v>
-      </c>
-      <c r="CK108" s="38">
-        <v>111.12948467860009</v>
-      </c>
-      <c r="CL108" s="9"/>
+      <c r="CH108" s="35">
+        <v>101.05478495542721</v>
+      </c>
+      <c r="CI108" s="35">
+        <v>102.41515237601517</v>
+      </c>
+      <c r="CJ108" s="35">
+        <v>116.15357655130316</v>
+      </c>
+      <c r="CK108" s="35">
+        <v>110.59002015889558</v>
+      </c>
+      <c r="CL108" s="35">
+        <v>107.3884906477943</v>
+      </c>
       <c r="CM108" s="9"/>
       <c r="CN108" s="9"/>
       <c r="CO108" s="9"/>
@@ -35005,7 +35176,7 @@
       <c r="DW108" s="9"/>
       <c r="DX108" s="9"/>
     </row>
-    <row r="109" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
@@ -35237,43 +35408,45 @@
       <c r="BY109" s="25">
         <v>88.738752366074721</v>
       </c>
-      <c r="BZ109" s="25">
+      <c r="BZ109" s="35">
         <v>109.09703792576222</v>
       </c>
-      <c r="CA109" s="25">
+      <c r="CA109" s="35">
         <v>104.26287966455976</v>
       </c>
-      <c r="CB109" s="25">
+      <c r="CB109" s="35">
         <v>107.41826529759837</v>
       </c>
-      <c r="CC109" s="25">
+      <c r="CC109" s="35">
         <v>91.664109417602418</v>
       </c>
-      <c r="CD109" s="38">
+      <c r="CD109" s="35">
         <v>112.54805990032908</v>
       </c>
-      <c r="CE109" s="38">
-        <v>104.65523295369556</v>
-      </c>
-      <c r="CF109" s="38">
+      <c r="CE109" s="35">
+        <v>104.65523295369555</v>
+      </c>
+      <c r="CF109" s="35">
         <v>109.89944756640004</v>
       </c>
-      <c r="CG109" s="38">
+      <c r="CG109" s="35">
         <v>93.462437003437287</v>
       </c>
-      <c r="CH109" s="38">
-        <v>113.39104556823662</v>
-      </c>
-      <c r="CI109" s="38">
-        <v>108.02604950521366</v>
-      </c>
-      <c r="CJ109" s="38">
-        <v>114.55691736992588</v>
-      </c>
-      <c r="CK109" s="38">
-        <v>98.203061318375873</v>
-      </c>
-      <c r="CL109" s="9"/>
+      <c r="CH109" s="35">
+        <v>113.46115398869969</v>
+      </c>
+      <c r="CI109" s="35">
+        <v>108.62148513306533</v>
+      </c>
+      <c r="CJ109" s="35">
+        <v>114.11837506408236</v>
+      </c>
+      <c r="CK109" s="35">
+        <v>97.79937705530574</v>
+      </c>
+      <c r="CL109" s="35">
+        <v>120.90396727318482</v>
+      </c>
       <c r="CM109" s="9"/>
       <c r="CN109" s="9"/>
       <c r="CO109" s="9"/>
@@ -35313,7 +35486,7 @@
       <c r="DW109" s="9"/>
       <c r="DX109" s="9"/>
     </row>
-    <row r="110" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
@@ -35390,10 +35563,10 @@
       <c r="BW110" s="9"/>
       <c r="BX110" s="9"/>
       <c r="BY110" s="9"/>
-      <c r="BZ110" s="9"/>
-      <c r="CA110" s="9"/>
-      <c r="CB110" s="9"/>
-      <c r="CC110" s="9"/>
+      <c r="BZ110" s="29"/>
+      <c r="CA110" s="29"/>
+      <c r="CB110" s="29"/>
+      <c r="CC110" s="29"/>
       <c r="CD110" s="29"/>
       <c r="CE110" s="29"/>
       <c r="CF110" s="29"/>
@@ -35402,7 +35575,7 @@
       <c r="CI110" s="29"/>
       <c r="CJ110" s="29"/>
       <c r="CK110" s="29"/>
-      <c r="CL110" s="9"/>
+      <c r="CL110" s="29"/>
       <c r="CM110" s="9"/>
       <c r="CN110" s="9"/>
       <c r="CO110" s="9"/>
@@ -35442,7 +35615,7 @@
       <c r="DW110" s="9"/>
       <c r="DX110" s="9"/>
     </row>
-    <row r="111" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
         <v>14</v>
       </c>
@@ -35674,43 +35847,45 @@
       <c r="BY111" s="25">
         <v>97.167801509220411</v>
       </c>
-      <c r="BZ111" s="25">
+      <c r="BZ111" s="35">
         <v>102.52126495231259</v>
       </c>
-      <c r="CA111" s="25">
+      <c r="CA111" s="35">
         <v>101.15251632713358</v>
       </c>
-      <c r="CB111" s="25">
+      <c r="CB111" s="35">
         <v>108.11106017471145</v>
       </c>
-      <c r="CC111" s="25">
+      <c r="CC111" s="35">
         <v>99.260765344545916</v>
       </c>
-      <c r="CD111" s="38">
-        <v>105.69989048316913</v>
-      </c>
-      <c r="CE111" s="38">
-        <v>100.63880285644346</v>
-      </c>
-      <c r="CF111" s="38">
-        <v>110.48979431691191</v>
-      </c>
-      <c r="CG111" s="38">
-        <v>100.59078745762204</v>
-      </c>
-      <c r="CH111" s="38">
-        <v>107.6815161247695</v>
-      </c>
-      <c r="CI111" s="38">
-        <v>104.82644032686078</v>
-      </c>
-      <c r="CJ111" s="38">
-        <v>114.54242828445909</v>
-      </c>
-      <c r="CK111" s="38">
-        <v>105.31209583664585</v>
-      </c>
-      <c r="CL111" s="9"/>
+      <c r="CD111" s="35">
+        <v>105.71301668972022</v>
+      </c>
+      <c r="CE111" s="35">
+        <v>100.64621711037296</v>
+      </c>
+      <c r="CF111" s="35">
+        <v>110.47705424933957</v>
+      </c>
+      <c r="CG111" s="35">
+        <v>100.56852254954056</v>
+      </c>
+      <c r="CH111" s="35">
+        <v>107.90109285255369</v>
+      </c>
+      <c r="CI111" s="35">
+        <v>105.597759447676</v>
+      </c>
+      <c r="CJ111" s="35">
+        <v>114.0390571820526</v>
+      </c>
+      <c r="CK111" s="35">
+        <v>104.68906979963175</v>
+      </c>
+      <c r="CL111" s="35">
+        <v>114.30258166064891</v>
+      </c>
       <c r="CM111" s="9"/>
       <c r="CN111" s="9"/>
       <c r="CO111" s="9"/>
@@ -35750,7 +35925,7 @@
       <c r="DW111" s="9"/>
       <c r="DX111" s="9"/>
     </row>
-    <row r="112" spans="1:128" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:128" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -35828,10 +36003,10 @@
       <c r="BW112" s="12"/>
       <c r="BX112" s="12"/>
       <c r="BY112" s="12"/>
-      <c r="BZ112" s="12"/>
-      <c r="CA112" s="12"/>
-      <c r="CB112" s="12"/>
-      <c r="CC112" s="12"/>
+      <c r="BZ112" s="31"/>
+      <c r="CA112" s="31"/>
+      <c r="CB112" s="31"/>
+      <c r="CC112" s="31"/>
       <c r="CD112" s="31"/>
       <c r="CE112" s="31"/>
       <c r="CF112" s="31"/>
@@ -35840,8 +36015,9 @@
       <c r="CI112" s="31"/>
       <c r="CJ112" s="31"/>
       <c r="CK112" s="31"/>
+      <c r="CL112" s="31"/>
     </row>
-    <row r="113" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -35919,10 +36095,10 @@
       <c r="BW113" s="11"/>
       <c r="BX113" s="11"/>
       <c r="BY113" s="11"/>
-      <c r="BZ113" s="11"/>
-      <c r="CA113" s="11"/>
-      <c r="CB113" s="11"/>
-      <c r="CC113" s="11"/>
+      <c r="BZ113" s="30"/>
+      <c r="CA113" s="30"/>
+      <c r="CB113" s="30"/>
+      <c r="CC113" s="30"/>
       <c r="CD113" s="30"/>
       <c r="CE113" s="30"/>
       <c r="CF113" s="30"/>
@@ -35931,7 +36107,7 @@
       <c r="CI113" s="30"/>
       <c r="CJ113" s="30"/>
       <c r="CK113" s="30"/>
-      <c r="CL113" s="9"/>
+      <c r="CL113" s="30"/>
       <c r="CM113" s="9"/>
       <c r="CN113" s="9"/>
       <c r="CO113" s="9"/>
@@ -35971,7 +36147,7 @@
       <c r="DW113" s="9"/>
       <c r="DX113" s="9"/>
     </row>
-    <row r="114" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
         <v>15</v>
       </c>
@@ -36203,43 +36379,45 @@
       <c r="BY114" s="25">
         <v>95.088721115793533</v>
       </c>
-      <c r="BZ114" s="25">
+      <c r="BZ114" s="35">
         <v>104.7858808739836</v>
       </c>
-      <c r="CA114" s="25">
+      <c r="CA114" s="35">
         <v>104.63421421216465</v>
       </c>
-      <c r="CB114" s="25">
+      <c r="CB114" s="35">
         <v>103.74356420811959</v>
       </c>
-      <c r="CC114" s="25">
+      <c r="CC114" s="35">
         <v>96.020661123189427</v>
       </c>
-      <c r="CD114" s="38">
-        <v>106.26431802117918</v>
-      </c>
-      <c r="CE114" s="38">
-        <v>113.16236393458867</v>
-      </c>
-      <c r="CF114" s="38">
+      <c r="CD114" s="35">
+        <v>106.26431802117915</v>
+      </c>
+      <c r="CE114" s="35">
+        <v>113.1623639345887</v>
+      </c>
+      <c r="CF114" s="35">
         <v>102.82598942992512</v>
       </c>
-      <c r="CG114" s="38">
-        <v>99.162820860083869</v>
-      </c>
-      <c r="CH114" s="38">
-        <v>105.12810446944214</v>
-      </c>
-      <c r="CI114" s="38">
-        <v>116.96573922826646</v>
-      </c>
-      <c r="CJ114" s="38">
-        <v>109.74629696065716</v>
-      </c>
-      <c r="CK114" s="38">
-        <v>103.48079963441783</v>
-      </c>
-      <c r="CL114" s="9"/>
+      <c r="CG114" s="35">
+        <v>99.162820860083883</v>
+      </c>
+      <c r="CH114" s="35">
+        <v>105.31047168607704</v>
+      </c>
+      <c r="CI114" s="35">
+        <v>117.4958655702705</v>
+      </c>
+      <c r="CJ114" s="35">
+        <v>109.57720317415294</v>
+      </c>
+      <c r="CK114" s="35">
+        <v>103.47018062241133</v>
+      </c>
+      <c r="CL114" s="35">
+        <v>113.58475508180402</v>
+      </c>
       <c r="CM114" s="9"/>
       <c r="CN114" s="9"/>
       <c r="CO114" s="9"/>
@@ -36279,7 +36457,7 @@
       <c r="DW114" s="9"/>
       <c r="DX114" s="9"/>
     </row>
-    <row r="115" spans="1:128" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:128" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -36357,10 +36535,10 @@
       <c r="BW115" s="14"/>
       <c r="BX115" s="14"/>
       <c r="BY115" s="14"/>
-      <c r="BZ115" s="14"/>
-      <c r="CA115" s="14"/>
-      <c r="CB115" s="14"/>
-      <c r="CC115" s="14"/>
+      <c r="BZ115" s="32"/>
+      <c r="CA115" s="32"/>
+      <c r="CB115" s="32"/>
+      <c r="CC115" s="32"/>
       <c r="CD115" s="32"/>
       <c r="CE115" s="32"/>
       <c r="CF115" s="32"/>
@@ -36369,183 +36547,187 @@
       <c r="CI115" s="32"/>
       <c r="CJ115" s="32"/>
       <c r="CK115" s="32"/>
+      <c r="CL115" s="32"/>
     </row>
-    <row r="116" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="126" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="128" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
-      <c r="B128" s="43">
+      <c r="B128" s="52">
         <v>2000</v>
       </c>
-      <c r="C128" s="44"/>
-      <c r="D128" s="44"/>
-      <c r="E128" s="44"/>
-      <c r="F128" s="43">
+      <c r="C128" s="53"/>
+      <c r="D128" s="53"/>
+      <c r="E128" s="53"/>
+      <c r="F128" s="52">
         <v>2001</v>
       </c>
-      <c r="G128" s="44"/>
-      <c r="H128" s="44"/>
-      <c r="I128" s="44"/>
-      <c r="J128" s="43">
+      <c r="G128" s="53"/>
+      <c r="H128" s="53"/>
+      <c r="I128" s="53"/>
+      <c r="J128" s="52">
         <v>2002</v>
       </c>
-      <c r="K128" s="44"/>
-      <c r="L128" s="44"/>
-      <c r="M128" s="44"/>
-      <c r="N128" s="43">
+      <c r="K128" s="53"/>
+      <c r="L128" s="53"/>
+      <c r="M128" s="53"/>
+      <c r="N128" s="52">
         <v>2003</v>
       </c>
-      <c r="O128" s="44"/>
-      <c r="P128" s="44"/>
-      <c r="Q128" s="44"/>
-      <c r="R128" s="43">
+      <c r="O128" s="53"/>
+      <c r="P128" s="53"/>
+      <c r="Q128" s="53"/>
+      <c r="R128" s="52">
         <v>2004</v>
       </c>
-      <c r="S128" s="44"/>
-      <c r="T128" s="44"/>
-      <c r="U128" s="44"/>
-      <c r="V128" s="43">
+      <c r="S128" s="53"/>
+      <c r="T128" s="53"/>
+      <c r="U128" s="53"/>
+      <c r="V128" s="52">
         <v>2005</v>
       </c>
-      <c r="W128" s="44"/>
-      <c r="X128" s="44"/>
-      <c r="Y128" s="44"/>
-      <c r="Z128" s="43">
+      <c r="W128" s="53"/>
+      <c r="X128" s="53"/>
+      <c r="Y128" s="53"/>
+      <c r="Z128" s="52">
         <v>2006</v>
       </c>
-      <c r="AA128" s="44"/>
-      <c r="AB128" s="44"/>
-      <c r="AC128" s="44"/>
-      <c r="AD128" s="43">
+      <c r="AA128" s="53"/>
+      <c r="AB128" s="53"/>
+      <c r="AC128" s="53"/>
+      <c r="AD128" s="52">
         <v>2007</v>
       </c>
-      <c r="AE128" s="44"/>
-      <c r="AF128" s="44"/>
-      <c r="AG128" s="44"/>
-      <c r="AH128" s="43">
+      <c r="AE128" s="53"/>
+      <c r="AF128" s="53"/>
+      <c r="AG128" s="53"/>
+      <c r="AH128" s="52">
         <v>2008</v>
       </c>
-      <c r="AI128" s="44"/>
-      <c r="AJ128" s="44"/>
-      <c r="AK128" s="44"/>
-      <c r="AL128" s="43">
+      <c r="AI128" s="53"/>
+      <c r="AJ128" s="53"/>
+      <c r="AK128" s="53"/>
+      <c r="AL128" s="52">
         <v>2009</v>
       </c>
-      <c r="AM128" s="44"/>
-      <c r="AN128" s="44"/>
-      <c r="AO128" s="44"/>
-      <c r="AP128" s="43">
+      <c r="AM128" s="53"/>
+      <c r="AN128" s="53"/>
+      <c r="AO128" s="53"/>
+      <c r="AP128" s="52">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="44"/>
-      <c r="AR128" s="44"/>
-      <c r="AS128" s="44"/>
-      <c r="AT128" s="43">
+      <c r="AQ128" s="53"/>
+      <c r="AR128" s="53"/>
+      <c r="AS128" s="53"/>
+      <c r="AT128" s="52">
         <v>2011</v>
       </c>
-      <c r="AU128" s="44"/>
-      <c r="AV128" s="44"/>
-      <c r="AW128" s="44"/>
-      <c r="AX128" s="43">
+      <c r="AU128" s="53"/>
+      <c r="AV128" s="53"/>
+      <c r="AW128" s="53"/>
+      <c r="AX128" s="52">
         <v>2012</v>
       </c>
-      <c r="AY128" s="44"/>
-      <c r="AZ128" s="44"/>
-      <c r="BA128" s="44"/>
-      <c r="BB128" s="43">
+      <c r="AY128" s="53"/>
+      <c r="AZ128" s="53"/>
+      <c r="BA128" s="53"/>
+      <c r="BB128" s="52">
         <v>2013</v>
       </c>
-      <c r="BC128" s="44"/>
-      <c r="BD128" s="44"/>
-      <c r="BE128" s="44"/>
-      <c r="BF128" s="43">
+      <c r="BC128" s="53"/>
+      <c r="BD128" s="53"/>
+      <c r="BE128" s="53"/>
+      <c r="BF128" s="52">
         <v>2014</v>
       </c>
-      <c r="BG128" s="44"/>
-      <c r="BH128" s="44"/>
-      <c r="BI128" s="44"/>
-      <c r="BJ128" s="43">
+      <c r="BG128" s="53"/>
+      <c r="BH128" s="53"/>
+      <c r="BI128" s="53"/>
+      <c r="BJ128" s="52">
         <v>2015</v>
       </c>
-      <c r="BK128" s="44"/>
-      <c r="BL128" s="44"/>
-      <c r="BM128" s="44"/>
-      <c r="BN128" s="43">
+      <c r="BK128" s="53"/>
+      <c r="BL128" s="53"/>
+      <c r="BM128" s="53"/>
+      <c r="BN128" s="52">
         <v>2016</v>
       </c>
-      <c r="BO128" s="44"/>
-      <c r="BP128" s="44"/>
-      <c r="BQ128" s="44"/>
-      <c r="BR128" s="43">
+      <c r="BO128" s="53"/>
+      <c r="BP128" s="53"/>
+      <c r="BQ128" s="53"/>
+      <c r="BR128" s="52">
         <v>2017</v>
       </c>
-      <c r="BS128" s="44"/>
-      <c r="BT128" s="44"/>
-      <c r="BU128" s="44"/>
-      <c r="BV128" s="43">
+      <c r="BS128" s="53"/>
+      <c r="BT128" s="53"/>
+      <c r="BU128" s="53"/>
+      <c r="BV128" s="52">
         <v>2018</v>
       </c>
-      <c r="BW128" s="43"/>
-      <c r="BX128" s="43"/>
-      <c r="BY128" s="43"/>
-      <c r="BZ128" s="43">
+      <c r="BW128" s="52"/>
+      <c r="BX128" s="52"/>
+      <c r="BY128" s="52"/>
+      <c r="BZ128" s="50">
         <v>2019</v>
       </c>
-      <c r="CA128" s="43"/>
-      <c r="CB128" s="43"/>
-      <c r="CC128" s="43"/>
-      <c r="CD128" s="42">
+      <c r="CA128" s="51"/>
+      <c r="CB128" s="51"/>
+      <c r="CC128" s="51"/>
+      <c r="CD128" s="50">
         <v>2020</v>
       </c>
-      <c r="CE128" s="42"/>
-      <c r="CF128" s="42"/>
-      <c r="CG128" s="42"/>
-      <c r="CH128" s="42">
+      <c r="CE128" s="50"/>
+      <c r="CF128" s="50"/>
+      <c r="CG128" s="50"/>
+      <c r="CH128" s="50">
         <v>2021</v>
       </c>
-      <c r="CI128" s="42"/>
-      <c r="CJ128" s="42"/>
-      <c r="CK128" s="42"/>
+      <c r="CI128" s="50"/>
+      <c r="CJ128" s="50"/>
+      <c r="CK128" s="50"/>
+      <c r="CL128" s="39">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="129" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>10</v>
       </c>
@@ -36777,16 +36959,16 @@
       <c r="BY129" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BZ129" s="6" t="s">
+      <c r="BZ129" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CA129" s="6" t="s">
+      <c r="CA129" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CB129" s="6" t="s">
+      <c r="CB129" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CC129" s="6" t="s">
+      <c r="CC129" s="27" t="s">
         <v>8</v>
       </c>
       <c r="CD129" s="27" t="s">
@@ -36813,11 +36995,14 @@
       <c r="CK129" s="27" t="s">
         <v>8</v>
       </c>
+      <c r="CL129" s="27" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="130" spans="1:128" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7"/>
     </row>
-    <row r="131" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
@@ -37049,43 +37234,45 @@
       <c r="BY131" s="25">
         <v>24.010661619497217</v>
       </c>
-      <c r="BZ131" s="25">
+      <c r="BZ131" s="35">
         <v>19.563115739680836</v>
       </c>
-      <c r="CA131" s="25">
+      <c r="CA131" s="35">
         <v>31.519604201953427</v>
       </c>
-      <c r="CB131" s="25">
+      <c r="CB131" s="35">
         <v>19.73085743766767</v>
       </c>
-      <c r="CC131" s="25">
+      <c r="CC131" s="35">
         <v>27.290442893617545</v>
       </c>
-      <c r="CD131" s="38">
-        <v>19.812404608874107</v>
-      </c>
-      <c r="CE131" s="38">
-        <v>47.14066866755212</v>
-      </c>
-      <c r="CF131" s="38">
-        <v>26.400163399158071</v>
-      </c>
-      <c r="CG131" s="38">
-        <v>35.342180359262564</v>
-      </c>
-      <c r="CH131" s="38">
-        <v>32.790473169451587</v>
-      </c>
-      <c r="CI131" s="38">
-        <v>49.911597897862208</v>
-      </c>
-      <c r="CJ131" s="38">
-        <v>32.947724808886214</v>
-      </c>
-      <c r="CK131" s="38">
-        <v>38.630689998737175</v>
-      </c>
-      <c r="CL131" s="9"/>
+      <c r="CD131" s="35">
+        <v>19.897219695152575</v>
+      </c>
+      <c r="CE131" s="35">
+        <v>47.42483212233288</v>
+      </c>
+      <c r="CF131" s="35">
+        <v>26.657236097146779</v>
+      </c>
+      <c r="CG131" s="35">
+        <v>35.456730374240195</v>
+      </c>
+      <c r="CH131" s="35">
+        <v>32.821306057377335</v>
+      </c>
+      <c r="CI131" s="35">
+        <v>49.779474948521546</v>
+      </c>
+      <c r="CJ131" s="35">
+        <v>33.107119178712338</v>
+      </c>
+      <c r="CK131" s="35">
+        <v>37.034595835970627</v>
+      </c>
+      <c r="CL131" s="35">
+        <v>27.664510857191022</v>
+      </c>
       <c r="CM131" s="9"/>
       <c r="CN131" s="9"/>
       <c r="CO131" s="9"/>
@@ -37125,7 +37312,7 @@
       <c r="DW131" s="9"/>
       <c r="DX131" s="9"/>
     </row>
-    <row r="132" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>12</v>
       </c>
@@ -37357,43 +37544,45 @@
       <c r="BY132" s="25">
         <v>44.242405448289098</v>
       </c>
-      <c r="BZ132" s="25">
+      <c r="BZ132" s="35">
         <v>50.243570803820759</v>
       </c>
-      <c r="CA132" s="25">
+      <c r="CA132" s="35">
         <v>40.805219872169459</v>
       </c>
-      <c r="CB132" s="25">
+      <c r="CB132" s="35">
         <v>48.785020918078978</v>
       </c>
-      <c r="CC132" s="25">
+      <c r="CC132" s="35">
         <v>45.725908259339491</v>
       </c>
-      <c r="CD132" s="38">
-        <v>49.734335428086411</v>
-      </c>
-      <c r="CE132" s="38">
-        <v>44.601894698608561</v>
-      </c>
-      <c r="CF132" s="38">
-        <v>49.967505617985061</v>
-      </c>
-      <c r="CG132" s="38">
-        <v>35.473308619839386</v>
-      </c>
-      <c r="CH132" s="38">
-        <v>36.554900364534362</v>
-      </c>
-      <c r="CI132" s="38">
-        <v>24.761145410678637</v>
-      </c>
-      <c r="CJ132" s="38">
-        <v>35.735700776231099</v>
-      </c>
-      <c r="CK132" s="38">
-        <v>31.931947105678439</v>
-      </c>
-      <c r="CL132" s="9"/>
+      <c r="CD132" s="35">
+        <v>49.611599586836405</v>
+      </c>
+      <c r="CE132" s="35">
+        <v>44.316583560542533</v>
+      </c>
+      <c r="CF132" s="35">
+        <v>49.647274162864491</v>
+      </c>
+      <c r="CG132" s="35">
+        <v>35.222634621952963</v>
+      </c>
+      <c r="CH132" s="35">
+        <v>36.472083297977434</v>
+      </c>
+      <c r="CI132" s="35">
+        <v>24.58579926244882</v>
+      </c>
+      <c r="CJ132" s="35">
+        <v>35.559969210452664</v>
+      </c>
+      <c r="CK132" s="35">
+        <v>31.983280826946096</v>
+      </c>
+      <c r="CL132" s="35">
+        <v>40.847388949525296</v>
+      </c>
       <c r="CM132" s="9"/>
       <c r="CN132" s="9"/>
       <c r="CO132" s="9"/>
@@ -37433,7 +37622,7 @@
       <c r="DW132" s="9"/>
       <c r="DX132" s="9"/>
     </row>
-    <row r="133" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>13</v>
       </c>
@@ -37665,43 +37854,45 @@
       <c r="BY133" s="25">
         <v>31.746932932213689</v>
       </c>
-      <c r="BZ133" s="25">
+      <c r="BZ133" s="35">
         <v>30.193313456498405</v>
       </c>
-      <c r="CA133" s="25">
+      <c r="CA133" s="35">
         <v>27.675175925877117</v>
       </c>
-      <c r="CB133" s="25">
+      <c r="CB133" s="35">
         <v>31.484121644253349</v>
       </c>
-      <c r="CC133" s="25">
+      <c r="CC133" s="35">
         <v>26.983648847042975</v>
       </c>
-      <c r="CD133" s="38">
-        <v>30.453259963039475</v>
-      </c>
-      <c r="CE133" s="38">
-        <v>8.2574366338393137</v>
-      </c>
-      <c r="CF133" s="38">
-        <v>23.632330982856871</v>
-      </c>
-      <c r="CG133" s="38">
-        <v>29.184511020898057</v>
-      </c>
-      <c r="CH133" s="38">
-        <v>30.65462646601404</v>
-      </c>
-      <c r="CI133" s="38">
-        <v>25.327256691459144</v>
-      </c>
-      <c r="CJ133" s="38">
-        <v>31.316574414882698</v>
-      </c>
-      <c r="CK133" s="38">
-        <v>29.437362895584396</v>
-      </c>
-      <c r="CL133" s="9"/>
+      <c r="CD133" s="35">
+        <v>30.491180718011023</v>
+      </c>
+      <c r="CE133" s="35">
+        <v>8.2585843171245834</v>
+      </c>
+      <c r="CF133" s="35">
+        <v>23.69548973998873</v>
+      </c>
+      <c r="CG133" s="35">
+        <v>29.320635003806846</v>
+      </c>
+      <c r="CH133" s="35">
+        <v>30.706610644645217</v>
+      </c>
+      <c r="CI133" s="35">
+        <v>25.634725789029627</v>
+      </c>
+      <c r="CJ133" s="35">
+        <v>31.332911610835001</v>
+      </c>
+      <c r="CK133" s="35">
+        <v>30.982123337083284</v>
+      </c>
+      <c r="CL133" s="35">
+        <v>31.488100193283675</v>
+      </c>
       <c r="CM133" s="9"/>
       <c r="CN133" s="9"/>
       <c r="CO133" s="9"/>
@@ -37741,7 +37932,7 @@
       <c r="DW133" s="9"/>
       <c r="DX133" s="9"/>
     </row>
-    <row r="134" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
@@ -37818,10 +38009,10 @@
       <c r="BW134" s="9"/>
       <c r="BX134" s="9"/>
       <c r="BY134" s="9"/>
-      <c r="BZ134" s="9"/>
-      <c r="CA134" s="9"/>
-      <c r="CB134" s="9"/>
-      <c r="CC134" s="9"/>
+      <c r="BZ134" s="29"/>
+      <c r="CA134" s="29"/>
+      <c r="CB134" s="29"/>
+      <c r="CC134" s="29"/>
       <c r="CD134" s="29"/>
       <c r="CE134" s="29"/>
       <c r="CF134" s="29"/>
@@ -37830,7 +38021,7 @@
       <c r="CI134" s="29"/>
       <c r="CJ134" s="29"/>
       <c r="CK134" s="29"/>
-      <c r="CL134" s="9"/>
+      <c r="CL134" s="29"/>
       <c r="CM134" s="9"/>
       <c r="CN134" s="9"/>
       <c r="CO134" s="9"/>
@@ -37870,7 +38061,7 @@
       <c r="DW134" s="9"/>
       <c r="DX134" s="9"/>
     </row>
-    <row r="135" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
         <v>14</v>
       </c>
@@ -38102,43 +38293,45 @@
       <c r="BY135" s="25">
         <v>100</v>
       </c>
-      <c r="BZ135" s="25">
+      <c r="BZ135" s="35">
         <v>100</v>
       </c>
-      <c r="CA135" s="25">
+      <c r="CA135" s="35">
         <v>100</v>
       </c>
-      <c r="CB135" s="25">
+      <c r="CB135" s="35">
         <v>100</v>
       </c>
-      <c r="CC135" s="25">
+      <c r="CC135" s="35">
         <v>100</v>
       </c>
-      <c r="CD135" s="38">
+      <c r="CD135" s="35">
         <v>100</v>
       </c>
-      <c r="CE135" s="38">
+      <c r="CE135" s="35">
         <v>100</v>
       </c>
-      <c r="CF135" s="38">
+      <c r="CF135" s="35">
         <v>100</v>
       </c>
-      <c r="CG135" s="38">
+      <c r="CG135" s="35">
         <v>100</v>
       </c>
-      <c r="CH135" s="38">
+      <c r="CH135" s="35">
         <v>100</v>
       </c>
-      <c r="CI135" s="38">
+      <c r="CI135" s="35">
         <v>100</v>
       </c>
-      <c r="CJ135" s="38">
+      <c r="CJ135" s="35">
         <v>100</v>
       </c>
-      <c r="CK135" s="38">
+      <c r="CK135" s="35">
         <v>100</v>
       </c>
-      <c r="CL135" s="9"/>
+      <c r="CL135" s="35">
+        <v>100</v>
+      </c>
       <c r="CM135" s="9"/>
       <c r="CN135" s="9"/>
       <c r="CO135" s="9"/>
@@ -38178,7 +38371,7 @@
       <c r="DW135" s="9"/>
       <c r="DX135" s="9"/>
     </row>
-    <row r="136" spans="1:128" s="13" customFormat="1" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:128" s="13" customFormat="1" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -38256,10 +38449,10 @@
       <c r="BW136" s="12"/>
       <c r="BX136" s="12"/>
       <c r="BY136" s="12"/>
-      <c r="BZ136" s="12"/>
-      <c r="CA136" s="12"/>
-      <c r="CB136" s="12"/>
-      <c r="CC136" s="12"/>
+      <c r="BZ136" s="31"/>
+      <c r="CA136" s="31"/>
+      <c r="CB136" s="31"/>
+      <c r="CC136" s="31"/>
       <c r="CD136" s="31"/>
       <c r="CE136" s="31"/>
       <c r="CF136" s="31"/>
@@ -38268,8 +38461,9 @@
       <c r="CI136" s="31"/>
       <c r="CJ136" s="31"/>
       <c r="CK136" s="31"/>
+      <c r="CL136" s="31"/>
     </row>
-    <row r="137" spans="1:128" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -38347,10 +38541,10 @@
       <c r="BW137" s="11"/>
       <c r="BX137" s="11"/>
       <c r="BY137" s="11"/>
-      <c r="BZ137" s="11"/>
-      <c r="CA137" s="11"/>
-      <c r="CB137" s="11"/>
-      <c r="CC137" s="11"/>
+      <c r="BZ137" s="30"/>
+      <c r="CA137" s="30"/>
+      <c r="CB137" s="30"/>
+      <c r="CC137" s="30"/>
       <c r="CD137" s="30"/>
       <c r="CE137" s="30"/>
       <c r="CF137" s="30"/>
@@ -38359,7 +38553,7 @@
       <c r="CI137" s="30"/>
       <c r="CJ137" s="30"/>
       <c r="CK137" s="30"/>
-      <c r="CL137" s="9"/>
+      <c r="CL137" s="30"/>
       <c r="CM137" s="9"/>
       <c r="CN137" s="9"/>
       <c r="CO137" s="9"/>
@@ -38399,7 +38593,7 @@
       <c r="DW137" s="9"/>
       <c r="DX137" s="9"/>
     </row>
-    <row r="138" spans="1:128" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="10"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -38477,10 +38671,10 @@
       <c r="BW138" s="11"/>
       <c r="BX138" s="11"/>
       <c r="BY138" s="11"/>
-      <c r="BZ138" s="11"/>
-      <c r="CA138" s="11"/>
-      <c r="CB138" s="11"/>
-      <c r="CC138" s="11"/>
+      <c r="BZ138" s="30"/>
+      <c r="CA138" s="30"/>
+      <c r="CB138" s="30"/>
+      <c r="CC138" s="30"/>
       <c r="CD138" s="30"/>
       <c r="CE138" s="30"/>
       <c r="CF138" s="30"/>
@@ -38489,7 +38683,7 @@
       <c r="CI138" s="30"/>
       <c r="CJ138" s="30"/>
       <c r="CK138" s="30"/>
-      <c r="CL138" s="9"/>
+      <c r="CL138" s="30"/>
       <c r="CM138" s="9"/>
       <c r="CN138" s="9"/>
       <c r="CO138" s="9"/>
@@ -38529,7 +38723,7 @@
       <c r="DW138" s="9"/>
       <c r="DX138" s="9"/>
     </row>
-    <row r="139" spans="1:128" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:128" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
@@ -38607,10 +38801,10 @@
       <c r="BW139" s="14"/>
       <c r="BX139" s="14"/>
       <c r="BY139" s="14"/>
-      <c r="BZ139" s="14"/>
-      <c r="CA139" s="14"/>
-      <c r="CB139" s="14"/>
-      <c r="CC139" s="14"/>
+      <c r="BZ139" s="32"/>
+      <c r="CA139" s="32"/>
+      <c r="CB139" s="32"/>
+      <c r="CC139" s="32"/>
       <c r="CD139" s="32"/>
       <c r="CE139" s="32"/>
       <c r="CF139" s="32"/>
@@ -38619,18 +38813,19 @@
       <c r="CI139" s="32"/>
       <c r="CJ139" s="32"/>
       <c r="CK139" s="32"/>
+      <c r="CL139" s="32"/>
     </row>
-    <row r="140" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
@@ -38707,10 +38902,10 @@
       <c r="BW142" s="9"/>
       <c r="BX142" s="9"/>
       <c r="BY142" s="9"/>
-      <c r="BZ142" s="9"/>
-      <c r="CA142" s="9"/>
-      <c r="CB142" s="9"/>
-      <c r="CC142" s="9"/>
+      <c r="BZ142" s="29"/>
+      <c r="CA142" s="29"/>
+      <c r="CB142" s="29"/>
+      <c r="CC142" s="29"/>
       <c r="CD142" s="29"/>
       <c r="CE142" s="29"/>
       <c r="CF142" s="29"/>
@@ -38719,7 +38914,7 @@
       <c r="CI142" s="29"/>
       <c r="CJ142" s="29"/>
       <c r="CK142" s="29"/>
-      <c r="CL142" s="9"/>
+      <c r="CL142" s="29"/>
       <c r="CM142" s="9"/>
       <c r="CN142" s="9"/>
       <c r="CO142" s="9"/>
@@ -38759,7 +38954,7 @@
       <c r="DW142" s="9"/>
       <c r="DX142" s="9"/>
     </row>
-    <row r="143" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
@@ -38836,10 +39031,10 @@
       <c r="BW143" s="9"/>
       <c r="BX143" s="9"/>
       <c r="BY143" s="9"/>
-      <c r="BZ143" s="9"/>
-      <c r="CA143" s="9"/>
-      <c r="CB143" s="9"/>
-      <c r="CC143" s="9"/>
+      <c r="BZ143" s="29"/>
+      <c r="CA143" s="29"/>
+      <c r="CB143" s="29"/>
+      <c r="CC143" s="29"/>
       <c r="CD143" s="29"/>
       <c r="CE143" s="29"/>
       <c r="CF143" s="29"/>
@@ -38848,7 +39043,7 @@
       <c r="CI143" s="29"/>
       <c r="CJ143" s="29"/>
       <c r="CK143" s="29"/>
-      <c r="CL143" s="9"/>
+      <c r="CL143" s="29"/>
       <c r="CM143" s="9"/>
       <c r="CN143" s="9"/>
       <c r="CO143" s="9"/>
@@ -38888,172 +39083,175 @@
       <c r="DW143" s="9"/>
       <c r="DX143" s="9"/>
     </row>
-    <row r="144" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="150" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="152" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
-      <c r="B152" s="43">
+      <c r="B152" s="52">
         <v>2000</v>
       </c>
-      <c r="C152" s="44"/>
-      <c r="D152" s="44"/>
-      <c r="E152" s="44"/>
-      <c r="F152" s="43">
+      <c r="C152" s="53"/>
+      <c r="D152" s="53"/>
+      <c r="E152" s="53"/>
+      <c r="F152" s="52">
         <v>2001</v>
       </c>
-      <c r="G152" s="44"/>
-      <c r="H152" s="44"/>
-      <c r="I152" s="44"/>
-      <c r="J152" s="43">
+      <c r="G152" s="53"/>
+      <c r="H152" s="53"/>
+      <c r="I152" s="53"/>
+      <c r="J152" s="52">
         <v>2002</v>
       </c>
-      <c r="K152" s="44"/>
-      <c r="L152" s="44"/>
-      <c r="M152" s="44"/>
-      <c r="N152" s="43">
+      <c r="K152" s="53"/>
+      <c r="L152" s="53"/>
+      <c r="M152" s="53"/>
+      <c r="N152" s="52">
         <v>2003</v>
       </c>
-      <c r="O152" s="44"/>
-      <c r="P152" s="44"/>
-      <c r="Q152" s="44"/>
-      <c r="R152" s="43">
+      <c r="O152" s="53"/>
+      <c r="P152" s="53"/>
+      <c r="Q152" s="53"/>
+      <c r="R152" s="52">
         <v>2004</v>
       </c>
-      <c r="S152" s="44"/>
-      <c r="T152" s="44"/>
-      <c r="U152" s="44"/>
-      <c r="V152" s="43">
+      <c r="S152" s="53"/>
+      <c r="T152" s="53"/>
+      <c r="U152" s="53"/>
+      <c r="V152" s="52">
         <v>2005</v>
       </c>
-      <c r="W152" s="44"/>
-      <c r="X152" s="44"/>
-      <c r="Y152" s="44"/>
-      <c r="Z152" s="43">
+      <c r="W152" s="53"/>
+      <c r="X152" s="53"/>
+      <c r="Y152" s="53"/>
+      <c r="Z152" s="52">
         <v>2006</v>
       </c>
-      <c r="AA152" s="44"/>
-      <c r="AB152" s="44"/>
-      <c r="AC152" s="44"/>
-      <c r="AD152" s="43">
+      <c r="AA152" s="53"/>
+      <c r="AB152" s="53"/>
+      <c r="AC152" s="53"/>
+      <c r="AD152" s="52">
         <v>2007</v>
       </c>
-      <c r="AE152" s="44"/>
-      <c r="AF152" s="44"/>
-      <c r="AG152" s="44"/>
-      <c r="AH152" s="43">
+      <c r="AE152" s="53"/>
+      <c r="AF152" s="53"/>
+      <c r="AG152" s="53"/>
+      <c r="AH152" s="52">
         <v>2008</v>
       </c>
-      <c r="AI152" s="44"/>
-      <c r="AJ152" s="44"/>
-      <c r="AK152" s="44"/>
-      <c r="AL152" s="43">
+      <c r="AI152" s="53"/>
+      <c r="AJ152" s="53"/>
+      <c r="AK152" s="53"/>
+      <c r="AL152" s="52">
         <v>2009</v>
       </c>
-      <c r="AM152" s="44"/>
-      <c r="AN152" s="44"/>
-      <c r="AO152" s="44"/>
-      <c r="AP152" s="43">
+      <c r="AM152" s="53"/>
+      <c r="AN152" s="53"/>
+      <c r="AO152" s="53"/>
+      <c r="AP152" s="52">
         <v>2010</v>
       </c>
-      <c r="AQ152" s="44"/>
-      <c r="AR152" s="44"/>
-      <c r="AS152" s="44"/>
-      <c r="AT152" s="43">
+      <c r="AQ152" s="53"/>
+      <c r="AR152" s="53"/>
+      <c r="AS152" s="53"/>
+      <c r="AT152" s="52">
         <v>2011</v>
       </c>
-      <c r="AU152" s="44"/>
-      <c r="AV152" s="44"/>
-      <c r="AW152" s="44"/>
-      <c r="AX152" s="43">
+      <c r="AU152" s="53"/>
+      <c r="AV152" s="53"/>
+      <c r="AW152" s="53"/>
+      <c r="AX152" s="52">
         <v>2012</v>
       </c>
-      <c r="AY152" s="44"/>
-      <c r="AZ152" s="44"/>
-      <c r="BA152" s="44"/>
-      <c r="BB152" s="43">
+      <c r="AY152" s="53"/>
+      <c r="AZ152" s="53"/>
+      <c r="BA152" s="53"/>
+      <c r="BB152" s="52">
         <v>2013</v>
       </c>
-      <c r="BC152" s="44"/>
-      <c r="BD152" s="44"/>
-      <c r="BE152" s="44"/>
-      <c r="BF152" s="43">
+      <c r="BC152" s="53"/>
+      <c r="BD152" s="53"/>
+      <c r="BE152" s="53"/>
+      <c r="BF152" s="52">
         <v>2014</v>
       </c>
-      <c r="BG152" s="44"/>
-      <c r="BH152" s="44"/>
-      <c r="BI152" s="44"/>
-      <c r="BJ152" s="43">
+      <c r="BG152" s="53"/>
+      <c r="BH152" s="53"/>
+      <c r="BI152" s="53"/>
+      <c r="BJ152" s="52">
         <v>2015</v>
       </c>
-      <c r="BK152" s="44"/>
-      <c r="BL152" s="44"/>
-      <c r="BM152" s="44"/>
-      <c r="BN152" s="43">
+      <c r="BK152" s="53"/>
+      <c r="BL152" s="53"/>
+      <c r="BM152" s="53"/>
+      <c r="BN152" s="52">
         <v>2016</v>
       </c>
-      <c r="BO152" s="44"/>
-      <c r="BP152" s="44"/>
-      <c r="BQ152" s="44"/>
-      <c r="BR152" s="43">
+      <c r="BO152" s="53"/>
+      <c r="BP152" s="53"/>
+      <c r="BQ152" s="53"/>
+      <c r="BR152" s="52">
         <v>2017</v>
       </c>
-      <c r="BS152" s="44"/>
-      <c r="BT152" s="44"/>
-      <c r="BU152" s="44"/>
-      <c r="BV152" s="43">
+      <c r="BS152" s="53"/>
+      <c r="BT152" s="53"/>
+      <c r="BU152" s="53"/>
+      <c r="BV152" s="52">
         <v>2018</v>
       </c>
-      <c r="BW152" s="43"/>
-      <c r="BX152" s="43"/>
-      <c r="BY152" s="43"/>
-      <c r="BZ152" s="43">
+      <c r="BW152" s="52"/>
+      <c r="BX152" s="52"/>
+      <c r="BY152" s="52"/>
+      <c r="BZ152" s="50">
         <v>2019</v>
       </c>
-      <c r="CA152" s="43"/>
-      <c r="CB152" s="43"/>
-      <c r="CC152" s="43"/>
-      <c r="CD152" s="42">
+      <c r="CA152" s="51"/>
+      <c r="CB152" s="51"/>
+      <c r="CC152" s="51"/>
+      <c r="CD152" s="50">
         <v>2020</v>
       </c>
-      <c r="CE152" s="42"/>
-      <c r="CF152" s="42"/>
-      <c r="CG152" s="42"/>
-      <c r="CH152" s="42">
+      <c r="CE152" s="50"/>
+      <c r="CF152" s="50"/>
+      <c r="CG152" s="50"/>
+      <c r="CH152" s="50">
         <v>2021</v>
       </c>
-      <c r="CI152" s="42"/>
-      <c r="CJ152" s="42"/>
-      <c r="CK152" s="42"/>
+      <c r="CI152" s="50"/>
+      <c r="CJ152" s="50"/>
+      <c r="CK152" s="50"/>
+      <c r="CL152" s="39">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="153" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>10</v>
       </c>
@@ -39285,16 +39483,16 @@
       <c r="BY153" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BZ153" s="6" t="s">
+      <c r="BZ153" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="CA153" s="6" t="s">
+      <c r="CA153" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CB153" s="6" t="s">
+      <c r="CB153" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CC153" s="6" t="s">
+      <c r="CC153" s="27" t="s">
         <v>8</v>
       </c>
       <c r="CD153" s="27" t="s">
@@ -39321,11 +39519,14 @@
       <c r="CK153" s="27" t="s">
         <v>8</v>
       </c>
+      <c r="CL153" s="27" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="154" spans="1:128" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7"/>
     </row>
-    <row r="155" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
@@ -39557,43 +39758,45 @@
       <c r="BY155" s="25">
         <v>23.756247352398095</v>
       </c>
-      <c r="BZ155" s="25">
+      <c r="BZ155" s="35">
         <v>18.746162725255179</v>
       </c>
-      <c r="CA155" s="25">
+      <c r="CA155" s="35">
         <v>31.36127365992154</v>
       </c>
-      <c r="CB155" s="25">
+      <c r="CB155" s="35">
         <v>20.247277499874723</v>
       </c>
-      <c r="CC155" s="25">
+      <c r="CC155" s="35">
         <v>27.172756967259254</v>
       </c>
-      <c r="CD155" s="38">
-        <v>18.992007020297784</v>
-      </c>
-      <c r="CE155" s="38">
-        <v>46.714470829921439</v>
-      </c>
-      <c r="CF155" s="38">
-        <v>27.042973533570457</v>
-      </c>
-      <c r="CG155" s="38">
-        <v>34.956791342335094</v>
-      </c>
-      <c r="CH155" s="38">
-        <v>31.863243454742502</v>
-      </c>
-      <c r="CI155" s="38">
-        <v>49.960349021168867</v>
-      </c>
-      <c r="CJ155" s="38">
-        <v>33.595360485151929</v>
-      </c>
-      <c r="CK155" s="38">
-        <v>38.171253414508868</v>
-      </c>
-      <c r="CL155" s="9"/>
+      <c r="CD155" s="35">
+        <v>19.075678654540564</v>
+      </c>
+      <c r="CE155" s="35">
+        <v>46.999527459019305</v>
+      </c>
+      <c r="CF155" s="35">
+        <v>27.30315705828464</v>
+      </c>
+      <c r="CG155" s="35">
+        <v>35.06232978185173</v>
+      </c>
+      <c r="CH155" s="35">
+        <v>31.855127572891227</v>
+      </c>
+      <c r="CI155" s="35">
+        <v>49.729058543367088</v>
+      </c>
+      <c r="CJ155" s="35">
+        <v>33.776249037674525</v>
+      </c>
+      <c r="CK155" s="35">
+        <v>36.558581215111353</v>
+      </c>
+      <c r="CL155" s="35">
+        <v>26.75385402996411</v>
+      </c>
       <c r="CM155" s="9"/>
       <c r="CN155" s="9"/>
       <c r="CO155" s="9"/>
@@ -39633,7 +39836,7 @@
       <c r="DW155" s="9"/>
       <c r="DX155" s="9"/>
     </row>
-    <row r="156" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>12</v>
       </c>
@@ -39865,43 +40068,45 @@
       <c r="BY156" s="25">
         <v>41.481266186690171</v>
       </c>
-      <c r="BZ156" s="25">
+      <c r="BZ156" s="35">
         <v>52.880411675708125</v>
       </c>
-      <c r="CA156" s="25">
+      <c r="CA156" s="35">
         <v>41.789154433902404</v>
       </c>
-      <c r="CB156" s="25">
+      <c r="CB156" s="35">
         <v>48.065543786153711</v>
       </c>
-      <c r="CC156" s="25">
+      <c r="CC156" s="35">
         <v>43.607326389644903</v>
       </c>
-      <c r="CD156" s="38">
-        <v>52.407711057478345</v>
-      </c>
-      <c r="CE156" s="38">
-        <v>45.3449941959678</v>
-      </c>
-      <c r="CF156" s="38">
-        <v>49.197749715311915</v>
-      </c>
-      <c r="CG156" s="38">
-        <v>33.632804229094113</v>
-      </c>
-      <c r="CH156" s="38">
-        <v>39.025669002525262</v>
-      </c>
-      <c r="CI156" s="38">
-        <v>25.462558931396874</v>
-      </c>
-      <c r="CJ156" s="38">
-        <v>35.092026000220386</v>
-      </c>
-      <c r="CK156" s="38">
-        <v>30.260378544628335</v>
-      </c>
-      <c r="CL156" s="9"/>
+      <c r="CD156" s="35">
+        <v>52.28486990589758</v>
+      </c>
+      <c r="CE156" s="35">
+        <v>45.058248853289889</v>
+      </c>
+      <c r="CF156" s="35">
+        <v>48.876815057701165</v>
+      </c>
+      <c r="CG156" s="35">
+        <v>33.387744525126251</v>
+      </c>
+      <c r="CH156" s="35">
+        <v>38.943011438764977</v>
+      </c>
+      <c r="CI156" s="35">
+        <v>25.34981646869015</v>
+      </c>
+      <c r="CJ156" s="35">
+        <v>34.912617265743116</v>
+      </c>
+      <c r="CK156" s="35">
+        <v>30.276691460066207</v>
+      </c>
+      <c r="CL156" s="35">
+        <v>43.477303599883498</v>
+      </c>
       <c r="CM156" s="9"/>
       <c r="CN156" s="9"/>
       <c r="CO156" s="9"/>
@@ -39941,7 +40146,7 @@
       <c r="DW156" s="9"/>
       <c r="DX156" s="9"/>
     </row>
-    <row r="157" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>13</v>
       </c>
@@ -40173,43 +40378,45 @@
       <c r="BY157" s="25">
         <v>34.762486460911738</v>
       </c>
-      <c r="BZ157" s="25">
+      <c r="BZ157" s="35">
         <v>28.373425599036693</v>
       </c>
-      <c r="CA157" s="25">
+      <c r="CA157" s="35">
         <v>26.849571906176063</v>
       </c>
-      <c r="CB157" s="25">
+      <c r="CB157" s="35">
         <v>31.687178713971566</v>
       </c>
-      <c r="CC157" s="25">
+      <c r="CC157" s="35">
         <v>29.219916643095843</v>
       </c>
-      <c r="CD157" s="38">
-        <v>28.600281922223875</v>
-      </c>
-      <c r="CE157" s="38">
-        <v>7.9405349741107649</v>
-      </c>
-      <c r="CF157" s="38">
-        <v>23.759276751117632</v>
-      </c>
-      <c r="CG157" s="38">
-        <v>31.410404428570782</v>
-      </c>
-      <c r="CH157" s="38">
-        <v>29.111087542732239</v>
-      </c>
-      <c r="CI157" s="38">
-        <v>24.577092047434267</v>
-      </c>
-      <c r="CJ157" s="38">
-        <v>31.312613514627685</v>
-      </c>
-      <c r="CK157" s="38">
-        <v>31.568368040862797</v>
-      </c>
-      <c r="CL157" s="9"/>
+      <c r="CD157" s="35">
+        <v>28.639451439561864</v>
+      </c>
+      <c r="CE157" s="35">
+        <v>7.9422236876908219</v>
+      </c>
+      <c r="CF157" s="35">
+        <v>23.820027884014191</v>
+      </c>
+      <c r="CG157" s="35">
+        <v>31.549925693022008</v>
+      </c>
+      <c r="CH157" s="35">
+        <v>29.201860988343793</v>
+      </c>
+      <c r="CI157" s="35">
+        <v>24.921124987942754</v>
+      </c>
+      <c r="CJ157" s="35">
+        <v>31.311133696582356</v>
+      </c>
+      <c r="CK157" s="35">
+        <v>33.164727324822444</v>
+      </c>
+      <c r="CL157" s="35">
+        <v>29.768842370152392</v>
+      </c>
       <c r="CM157" s="9"/>
       <c r="CN157" s="9"/>
       <c r="CO157" s="9"/>
@@ -40249,7 +40456,7 @@
       <c r="DW157" s="9"/>
       <c r="DX157" s="9"/>
     </row>
-    <row r="158" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
@@ -40326,10 +40533,10 @@
       <c r="BW158" s="9"/>
       <c r="BX158" s="9"/>
       <c r="BY158" s="9"/>
-      <c r="BZ158" s="9"/>
-      <c r="CA158" s="9"/>
-      <c r="CB158" s="9"/>
-      <c r="CC158" s="9"/>
+      <c r="BZ158" s="29"/>
+      <c r="CA158" s="29"/>
+      <c r="CB158" s="29"/>
+      <c r="CC158" s="29"/>
       <c r="CD158" s="29"/>
       <c r="CE158" s="29"/>
       <c r="CF158" s="29"/>
@@ -40338,7 +40545,7 @@
       <c r="CI158" s="29"/>
       <c r="CJ158" s="29"/>
       <c r="CK158" s="29"/>
-      <c r="CL158" s="9"/>
+      <c r="CL158" s="29"/>
       <c r="CM158" s="9"/>
       <c r="CN158" s="9"/>
       <c r="CO158" s="9"/>
@@ -40378,7 +40585,7 @@
       <c r="DW158" s="9"/>
       <c r="DX158" s="9"/>
     </row>
-    <row r="159" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
         <v>14</v>
       </c>
@@ -40610,43 +40817,45 @@
       <c r="BY159" s="25">
         <v>100</v>
       </c>
-      <c r="BZ159" s="25">
+      <c r="BZ159" s="35">
         <v>100</v>
       </c>
-      <c r="CA159" s="25">
+      <c r="CA159" s="35">
         <v>100</v>
       </c>
-      <c r="CB159" s="25">
+      <c r="CB159" s="35">
         <v>100</v>
       </c>
-      <c r="CC159" s="25">
+      <c r="CC159" s="35">
         <v>100</v>
       </c>
-      <c r="CD159" s="38">
+      <c r="CD159" s="35">
         <v>100</v>
       </c>
-      <c r="CE159" s="38">
+      <c r="CE159" s="35">
         <v>100</v>
       </c>
-      <c r="CF159" s="38">
+      <c r="CF159" s="35">
         <v>100</v>
       </c>
-      <c r="CG159" s="38">
+      <c r="CG159" s="35">
         <v>100</v>
       </c>
-      <c r="CH159" s="38">
+      <c r="CH159" s="35">
         <v>100</v>
       </c>
-      <c r="CI159" s="38">
+      <c r="CI159" s="35">
         <v>100</v>
       </c>
-      <c r="CJ159" s="38">
+      <c r="CJ159" s="35">
         <v>100</v>
       </c>
-      <c r="CK159" s="38">
+      <c r="CK159" s="35">
         <v>100</v>
       </c>
-      <c r="CL159" s="9"/>
+      <c r="CL159" s="35">
+        <v>100</v>
+      </c>
       <c r="CM159" s="9"/>
       <c r="CN159" s="9"/>
       <c r="CO159" s="9"/>
@@ -40686,7 +40895,7 @@
       <c r="DW159" s="9"/>
       <c r="DX159" s="9"/>
     </row>
-    <row r="160" spans="1:128" s="13" customFormat="1" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:128" s="13" customFormat="1" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="12"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -40764,10 +40973,10 @@
       <c r="BW160" s="12"/>
       <c r="BX160" s="12"/>
       <c r="BY160" s="12"/>
-      <c r="BZ160" s="12"/>
-      <c r="CA160" s="12"/>
-      <c r="CB160" s="12"/>
-      <c r="CC160" s="12"/>
+      <c r="BZ160" s="31"/>
+      <c r="CA160" s="31"/>
+      <c r="CB160" s="31"/>
+      <c r="CC160" s="31"/>
       <c r="CD160" s="31"/>
       <c r="CE160" s="31"/>
       <c r="CF160" s="31"/>
@@ -40776,8 +40985,9 @@
       <c r="CI160" s="31"/>
       <c r="CJ160" s="31"/>
       <c r="CK160" s="31"/>
+      <c r="CL160" s="31"/>
     </row>
-    <row r="161" spans="1:128" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -40855,10 +41065,10 @@
       <c r="BW161" s="11"/>
       <c r="BX161" s="11"/>
       <c r="BY161" s="11"/>
-      <c r="BZ161" s="11"/>
-      <c r="CA161" s="11"/>
-      <c r="CB161" s="11"/>
-      <c r="CC161" s="11"/>
+      <c r="BZ161" s="30"/>
+      <c r="CA161" s="30"/>
+      <c r="CB161" s="30"/>
+      <c r="CC161" s="30"/>
       <c r="CD161" s="30"/>
       <c r="CE161" s="30"/>
       <c r="CF161" s="30"/>
@@ -40867,7 +41077,7 @@
       <c r="CI161" s="30"/>
       <c r="CJ161" s="30"/>
       <c r="CK161" s="30"/>
-      <c r="CL161" s="9"/>
+      <c r="CL161" s="30"/>
       <c r="CM161" s="9"/>
       <c r="CN161" s="9"/>
       <c r="CO161" s="9"/>
@@ -40907,7 +41117,7 @@
       <c r="DW161" s="9"/>
       <c r="DX161" s="9"/>
     </row>
-    <row r="162" spans="1:128" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="10"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -40985,10 +41195,10 @@
       <c r="BW162" s="11"/>
       <c r="BX162" s="11"/>
       <c r="BY162" s="11"/>
-      <c r="BZ162" s="11"/>
-      <c r="CA162" s="11"/>
-      <c r="CB162" s="11"/>
-      <c r="CC162" s="11"/>
+      <c r="BZ162" s="30"/>
+      <c r="CA162" s="30"/>
+      <c r="CB162" s="30"/>
+      <c r="CC162" s="30"/>
       <c r="CD162" s="30"/>
       <c r="CE162" s="30"/>
       <c r="CF162" s="30"/>
@@ -40997,7 +41207,7 @@
       <c r="CI162" s="30"/>
       <c r="CJ162" s="30"/>
       <c r="CK162" s="30"/>
-      <c r="CL162" s="9"/>
+      <c r="CL162" s="30"/>
       <c r="CM162" s="9"/>
       <c r="CN162" s="9"/>
       <c r="CO162" s="9"/>
@@ -41037,7 +41247,7 @@
       <c r="DW162" s="9"/>
       <c r="DX162" s="9"/>
     </row>
-    <row r="163" spans="1:128" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:128" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
@@ -41115,10 +41325,10 @@
       <c r="BW163" s="14"/>
       <c r="BX163" s="14"/>
       <c r="BY163" s="14"/>
-      <c r="BZ163" s="14"/>
-      <c r="CA163" s="14"/>
-      <c r="CB163" s="14"/>
-      <c r="CC163" s="14"/>
+      <c r="BZ163" s="32"/>
+      <c r="CA163" s="32"/>
+      <c r="CB163" s="32"/>
+      <c r="CC163" s="32"/>
       <c r="CD163" s="32"/>
       <c r="CE163" s="32"/>
       <c r="CF163" s="32"/>
@@ -41127,29 +41337,486 @@
       <c r="CI163" s="32"/>
       <c r="CJ163" s="32"/>
       <c r="CK163" s="32"/>
+      <c r="CL163" s="32"/>
     </row>
-    <row r="164" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="171" spans="1:128" x14ac:dyDescent="0.2">
+      <c r="CC171" s="1"/>
+      <c r="CD171" s="1"/>
+      <c r="CE171" s="1"/>
+      <c r="CF171" s="1"/>
+      <c r="CG171" s="1"/>
+      <c r="CH171" s="1"/>
+      <c r="CI171" s="1"/>
+      <c r="CJ171" s="1"/>
+      <c r="CK171" s="1"/>
+      <c r="CL171" s="1"/>
+    </row>
+    <row r="172" spans="1:128" x14ac:dyDescent="0.2">
+      <c r="CC172" s="1"/>
+      <c r="CD172" s="1"/>
+      <c r="CE172" s="1"/>
+      <c r="CF172" s="1"/>
+      <c r="CG172" s="1"/>
+      <c r="CH172" s="1"/>
+      <c r="CI172" s="1"/>
+      <c r="CJ172" s="1"/>
+      <c r="CK172" s="1"/>
+      <c r="CL172" s="1"/>
+    </row>
+    <row r="173" spans="1:128" x14ac:dyDescent="0.2">
+      <c r="CC173" s="1"/>
+      <c r="CD173" s="1"/>
+      <c r="CE173" s="1"/>
+      <c r="CF173" s="1"/>
+      <c r="CG173" s="1"/>
+      <c r="CH173" s="1"/>
+      <c r="CI173" s="1"/>
+      <c r="CJ173" s="1"/>
+      <c r="CK173" s="1"/>
+      <c r="CL173" s="1"/>
+    </row>
+    <row r="174" spans="1:128" x14ac:dyDescent="0.2">
+      <c r="CC174" s="1"/>
+      <c r="CD174" s="1"/>
+      <c r="CE174" s="1"/>
+      <c r="CF174" s="1"/>
+      <c r="CG174" s="1"/>
+      <c r="CH174" s="1"/>
+      <c r="CI174" s="1"/>
+      <c r="CJ174" s="1"/>
+      <c r="CK174" s="1"/>
+      <c r="CL174" s="1"/>
+    </row>
+    <row r="175" spans="1:128" x14ac:dyDescent="0.2">
+      <c r="CC175" s="1"/>
+      <c r="CD175" s="1"/>
+      <c r="CE175" s="1"/>
+      <c r="CF175" s="1"/>
+      <c r="CG175" s="1"/>
+      <c r="CH175" s="1"/>
+      <c r="CI175" s="1"/>
+      <c r="CJ175" s="1"/>
+      <c r="CK175" s="1"/>
+      <c r="CL175" s="1"/>
+    </row>
+    <row r="176" spans="1:128" x14ac:dyDescent="0.2">
+      <c r="CC176" s="1"/>
+      <c r="CD176" s="1"/>
+      <c r="CE176" s="1"/>
+      <c r="CF176" s="1"/>
+      <c r="CG176" s="1"/>
+      <c r="CH176" s="1"/>
+      <c r="CI176" s="1"/>
+      <c r="CJ176" s="1"/>
+      <c r="CK176" s="1"/>
+      <c r="CL176" s="1"/>
+    </row>
+    <row r="177" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC177" s="1"/>
+      <c r="CD177" s="1"/>
+      <c r="CE177" s="1"/>
+      <c r="CF177" s="1"/>
+      <c r="CG177" s="1"/>
+      <c r="CH177" s="1"/>
+      <c r="CI177" s="1"/>
+      <c r="CJ177" s="1"/>
+      <c r="CK177" s="1"/>
+      <c r="CL177" s="1"/>
+    </row>
+    <row r="178" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC178" s="1"/>
+      <c r="CD178" s="1"/>
+      <c r="CE178" s="1"/>
+      <c r="CF178" s="1"/>
+      <c r="CG178" s="1"/>
+      <c r="CH178" s="1"/>
+      <c r="CI178" s="1"/>
+      <c r="CJ178" s="1"/>
+      <c r="CK178" s="1"/>
+      <c r="CL178" s="1"/>
+    </row>
+    <row r="179" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC179" s="1"/>
+      <c r="CD179" s="1"/>
+      <c r="CE179" s="1"/>
+      <c r="CF179" s="1"/>
+      <c r="CG179" s="1"/>
+      <c r="CH179" s="1"/>
+      <c r="CI179" s="1"/>
+      <c r="CJ179" s="1"/>
+      <c r="CK179" s="1"/>
+      <c r="CL179" s="1"/>
+    </row>
+    <row r="180" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC180" s="1"/>
+      <c r="CD180" s="1"/>
+      <c r="CE180" s="1"/>
+      <c r="CF180" s="1"/>
+      <c r="CG180" s="1"/>
+      <c r="CH180" s="1"/>
+      <c r="CI180" s="1"/>
+      <c r="CJ180" s="1"/>
+      <c r="CK180" s="1"/>
+      <c r="CL180" s="1"/>
+    </row>
+    <row r="181" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC181" s="1"/>
+      <c r="CD181" s="1"/>
+      <c r="CE181" s="1"/>
+      <c r="CF181" s="1"/>
+      <c r="CG181" s="1"/>
+      <c r="CH181" s="1"/>
+      <c r="CI181" s="1"/>
+      <c r="CJ181" s="1"/>
+      <c r="CK181" s="1"/>
+      <c r="CL181" s="1"/>
+    </row>
+    <row r="182" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC182" s="1"/>
+      <c r="CD182" s="1"/>
+      <c r="CE182" s="1"/>
+      <c r="CF182" s="1"/>
+      <c r="CG182" s="1"/>
+      <c r="CH182" s="1"/>
+      <c r="CI182" s="1"/>
+      <c r="CJ182" s="1"/>
+      <c r="CK182" s="1"/>
+      <c r="CL182" s="1"/>
+    </row>
+    <row r="183" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC183" s="1"/>
+      <c r="CD183" s="1"/>
+      <c r="CE183" s="1"/>
+      <c r="CF183" s="1"/>
+      <c r="CG183" s="1"/>
+      <c r="CH183" s="1"/>
+      <c r="CI183" s="1"/>
+      <c r="CJ183" s="1"/>
+      <c r="CK183" s="1"/>
+      <c r="CL183" s="1"/>
+    </row>
+    <row r="184" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC184" s="1"/>
+      <c r="CD184" s="1"/>
+      <c r="CE184" s="1"/>
+      <c r="CF184" s="1"/>
+      <c r="CG184" s="1"/>
+      <c r="CH184" s="1"/>
+      <c r="CI184" s="1"/>
+      <c r="CJ184" s="1"/>
+      <c r="CK184" s="1"/>
+      <c r="CL184" s="1"/>
+    </row>
+    <row r="185" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC185" s="1"/>
+      <c r="CD185" s="1"/>
+      <c r="CE185" s="1"/>
+      <c r="CF185" s="1"/>
+      <c r="CG185" s="1"/>
+      <c r="CH185" s="1"/>
+      <c r="CI185" s="1"/>
+      <c r="CJ185" s="1"/>
+      <c r="CK185" s="1"/>
+      <c r="CL185" s="1"/>
+    </row>
+    <row r="186" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC186" s="1"/>
+      <c r="CD186" s="1"/>
+      <c r="CE186" s="1"/>
+      <c r="CF186" s="1"/>
+      <c r="CG186" s="1"/>
+      <c r="CH186" s="1"/>
+      <c r="CI186" s="1"/>
+      <c r="CJ186" s="1"/>
+      <c r="CK186" s="1"/>
+      <c r="CL186" s="1"/>
+    </row>
+    <row r="187" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC187" s="1"/>
+      <c r="CD187" s="1"/>
+      <c r="CE187" s="1"/>
+      <c r="CF187" s="1"/>
+      <c r="CG187" s="1"/>
+      <c r="CH187" s="1"/>
+      <c r="CI187" s="1"/>
+      <c r="CJ187" s="1"/>
+      <c r="CK187" s="1"/>
+      <c r="CL187" s="1"/>
+    </row>
+    <row r="188" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC188" s="1"/>
+      <c r="CD188" s="1"/>
+      <c r="CE188" s="1"/>
+      <c r="CF188" s="1"/>
+      <c r="CG188" s="1"/>
+      <c r="CH188" s="1"/>
+      <c r="CI188" s="1"/>
+      <c r="CJ188" s="1"/>
+      <c r="CK188" s="1"/>
+      <c r="CL188" s="1"/>
+    </row>
+    <row r="189" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC189" s="1"/>
+      <c r="CD189" s="1"/>
+      <c r="CE189" s="1"/>
+      <c r="CF189" s="1"/>
+      <c r="CG189" s="1"/>
+      <c r="CH189" s="1"/>
+      <c r="CI189" s="1"/>
+      <c r="CJ189" s="1"/>
+      <c r="CK189" s="1"/>
+      <c r="CL189" s="1"/>
+    </row>
+    <row r="190" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC190" s="1"/>
+      <c r="CD190" s="1"/>
+      <c r="CE190" s="1"/>
+      <c r="CF190" s="1"/>
+      <c r="CG190" s="1"/>
+      <c r="CH190" s="1"/>
+      <c r="CI190" s="1"/>
+      <c r="CJ190" s="1"/>
+      <c r="CK190" s="1"/>
+      <c r="CL190" s="1"/>
+    </row>
+    <row r="191" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC191" s="1"/>
+      <c r="CD191" s="1"/>
+      <c r="CE191" s="1"/>
+      <c r="CF191" s="1"/>
+      <c r="CG191" s="1"/>
+      <c r="CH191" s="1"/>
+      <c r="CI191" s="1"/>
+      <c r="CJ191" s="1"/>
+      <c r="CK191" s="1"/>
+      <c r="CL191" s="1"/>
+    </row>
+    <row r="192" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC192" s="1"/>
+      <c r="CD192" s="1"/>
+      <c r="CE192" s="1"/>
+      <c r="CF192" s="1"/>
+      <c r="CG192" s="1"/>
+      <c r="CH192" s="1"/>
+      <c r="CI192" s="1"/>
+      <c r="CJ192" s="1"/>
+      <c r="CK192" s="1"/>
+      <c r="CL192" s="1"/>
+    </row>
+    <row r="193" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC193" s="1"/>
+      <c r="CD193" s="1"/>
+      <c r="CE193" s="1"/>
+      <c r="CF193" s="1"/>
+      <c r="CG193" s="1"/>
+      <c r="CH193" s="1"/>
+      <c r="CI193" s="1"/>
+      <c r="CJ193" s="1"/>
+      <c r="CK193" s="1"/>
+      <c r="CL193" s="1"/>
+    </row>
+    <row r="194" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC194" s="1"/>
+      <c r="CD194" s="1"/>
+      <c r="CE194" s="1"/>
+      <c r="CF194" s="1"/>
+      <c r="CG194" s="1"/>
+      <c r="CH194" s="1"/>
+      <c r="CI194" s="1"/>
+      <c r="CJ194" s="1"/>
+      <c r="CK194" s="1"/>
+      <c r="CL194" s="1"/>
+    </row>
+    <row r="195" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC195" s="1"/>
+      <c r="CD195" s="1"/>
+      <c r="CE195" s="1"/>
+      <c r="CF195" s="1"/>
+      <c r="CG195" s="1"/>
+      <c r="CH195" s="1"/>
+      <c r="CI195" s="1"/>
+      <c r="CJ195" s="1"/>
+      <c r="CK195" s="1"/>
+      <c r="CL195" s="1"/>
+    </row>
+    <row r="196" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC196" s="1"/>
+      <c r="CD196" s="1"/>
+      <c r="CE196" s="1"/>
+      <c r="CF196" s="1"/>
+      <c r="CG196" s="1"/>
+      <c r="CH196" s="1"/>
+      <c r="CI196" s="1"/>
+      <c r="CJ196" s="1"/>
+      <c r="CK196" s="1"/>
+      <c r="CL196" s="1"/>
+    </row>
+    <row r="197" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC197" s="1"/>
+      <c r="CD197" s="1"/>
+      <c r="CE197" s="1"/>
+      <c r="CF197" s="1"/>
+      <c r="CG197" s="1"/>
+      <c r="CH197" s="1"/>
+      <c r="CI197" s="1"/>
+      <c r="CJ197" s="1"/>
+      <c r="CK197" s="1"/>
+      <c r="CL197" s="1"/>
+    </row>
+    <row r="198" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC198" s="1"/>
+      <c r="CD198" s="1"/>
+      <c r="CE198" s="1"/>
+      <c r="CF198" s="1"/>
+      <c r="CG198" s="1"/>
+      <c r="CH198" s="1"/>
+      <c r="CI198" s="1"/>
+      <c r="CJ198" s="1"/>
+      <c r="CK198" s="1"/>
+      <c r="CL198" s="1"/>
+    </row>
+    <row r="199" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC199" s="1"/>
+      <c r="CD199" s="1"/>
+      <c r="CE199" s="1"/>
+      <c r="CF199" s="1"/>
+      <c r="CG199" s="1"/>
+      <c r="CH199" s="1"/>
+      <c r="CI199" s="1"/>
+      <c r="CJ199" s="1"/>
+      <c r="CK199" s="1"/>
+      <c r="CL199" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="BZ128:CC128"/>
-    <mergeCell ref="BZ104:CC104"/>
-    <mergeCell ref="BV152:BY152"/>
-    <mergeCell ref="BZ152:CC152"/>
-    <mergeCell ref="BV128:BY128"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ33:CC33"/>
-    <mergeCell ref="BV57:BY57"/>
-    <mergeCell ref="BZ57:CC57"/>
-    <mergeCell ref="BZ81:CC81"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH33:CK33"/>
+    <mergeCell ref="CD57:CG57"/>
+    <mergeCell ref="CD81:CG81"/>
+    <mergeCell ref="CH104:CK104"/>
+    <mergeCell ref="CH128:CK128"/>
+    <mergeCell ref="CH152:CK152"/>
+    <mergeCell ref="BB152:BE152"/>
+    <mergeCell ref="BF152:BI152"/>
+    <mergeCell ref="BJ152:BM152"/>
+    <mergeCell ref="BN152:BQ152"/>
+    <mergeCell ref="BF128:BI128"/>
+    <mergeCell ref="BJ128:BM128"/>
+    <mergeCell ref="BN128:BQ128"/>
+    <mergeCell ref="BF104:BI104"/>
+    <mergeCell ref="BR152:BU152"/>
+    <mergeCell ref="BR128:BU128"/>
+    <mergeCell ref="BR104:BU104"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD152:CG152"/>
+    <mergeCell ref="CD128:CG128"/>
+    <mergeCell ref="CD104:CG104"/>
+    <mergeCell ref="CD33:CG33"/>
+    <mergeCell ref="BV104:BY104"/>
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="F152:I152"/>
+    <mergeCell ref="J152:M152"/>
+    <mergeCell ref="N152:Q152"/>
+    <mergeCell ref="R152:U152"/>
+    <mergeCell ref="V152:Y152"/>
+    <mergeCell ref="Z152:AC152"/>
+    <mergeCell ref="AD152:AG152"/>
+    <mergeCell ref="AH152:AK152"/>
+    <mergeCell ref="AL152:AO152"/>
+    <mergeCell ref="AP152:AS152"/>
+    <mergeCell ref="AT152:AW152"/>
+    <mergeCell ref="AX152:BA152"/>
+    <mergeCell ref="BJ104:BM104"/>
+    <mergeCell ref="BN104:BQ104"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="N128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:Y128"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AG128"/>
+    <mergeCell ref="AH128:AK128"/>
+    <mergeCell ref="AL128:AO128"/>
+    <mergeCell ref="AP128:AS128"/>
+    <mergeCell ref="AT128:AW128"/>
+    <mergeCell ref="AX128:BA128"/>
+    <mergeCell ref="BB128:BE128"/>
+    <mergeCell ref="AP104:AS104"/>
+    <mergeCell ref="AT104:AW104"/>
+    <mergeCell ref="AX104:BA104"/>
+    <mergeCell ref="BB104:BE104"/>
+    <mergeCell ref="V104:Y104"/>
+    <mergeCell ref="Z104:AC104"/>
+    <mergeCell ref="AD104:AG104"/>
+    <mergeCell ref="AH104:AK104"/>
+    <mergeCell ref="AL104:AO104"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="F104:I104"/>
+    <mergeCell ref="J104:M104"/>
+    <mergeCell ref="N104:Q104"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="AX81:BA81"/>
+    <mergeCell ref="BB81:BE81"/>
+    <mergeCell ref="BF81:BI81"/>
+    <mergeCell ref="BJ81:BM81"/>
+    <mergeCell ref="BN81:BQ81"/>
+    <mergeCell ref="BB57:BE57"/>
+    <mergeCell ref="BF57:BI57"/>
+    <mergeCell ref="BJ57:BM57"/>
+    <mergeCell ref="BN57:BQ57"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="R81:U81"/>
+    <mergeCell ref="V81:Y81"/>
+    <mergeCell ref="Z81:AC81"/>
+    <mergeCell ref="AD81:AG81"/>
+    <mergeCell ref="AH81:AK81"/>
+    <mergeCell ref="AL81:AO81"/>
+    <mergeCell ref="AP81:AS81"/>
+    <mergeCell ref="AT81:AW81"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF33:BI33"/>
+    <mergeCell ref="BJ33:BM33"/>
+    <mergeCell ref="BN33:BQ33"/>
+    <mergeCell ref="AL57:AO57"/>
+    <mergeCell ref="AP57:AS57"/>
+    <mergeCell ref="AT57:AW57"/>
+    <mergeCell ref="AX57:BA57"/>
+    <mergeCell ref="AP33:AS33"/>
+    <mergeCell ref="AT33:AW33"/>
+    <mergeCell ref="AX33:BA33"/>
+    <mergeCell ref="BB33:BE33"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="R57:U57"/>
+    <mergeCell ref="V57:Y57"/>
+    <mergeCell ref="Z57:AC57"/>
+    <mergeCell ref="AD57:AG57"/>
+    <mergeCell ref="AH57:AK57"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -41174,124 +41841,16 @@
     <mergeCell ref="AL33:AO33"/>
     <mergeCell ref="BR33:BU33"/>
     <mergeCell ref="BV33:BY33"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="R57:U57"/>
-    <mergeCell ref="V57:Y57"/>
-    <mergeCell ref="Z57:AC57"/>
-    <mergeCell ref="AD57:AG57"/>
-    <mergeCell ref="AH57:AK57"/>
-    <mergeCell ref="AL81:AO81"/>
-    <mergeCell ref="AP81:AS81"/>
-    <mergeCell ref="AT81:AW81"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF33:BI33"/>
-    <mergeCell ref="BJ33:BM33"/>
-    <mergeCell ref="BN33:BQ33"/>
-    <mergeCell ref="AL57:AO57"/>
-    <mergeCell ref="AP57:AS57"/>
-    <mergeCell ref="AT57:AW57"/>
-    <mergeCell ref="AX57:BA57"/>
-    <mergeCell ref="AP33:AS33"/>
-    <mergeCell ref="AT33:AW33"/>
-    <mergeCell ref="AX33:BA33"/>
-    <mergeCell ref="BB33:BE33"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="N81:Q81"/>
-    <mergeCell ref="R81:U81"/>
-    <mergeCell ref="V81:Y81"/>
-    <mergeCell ref="Z81:AC81"/>
-    <mergeCell ref="AD81:AG81"/>
-    <mergeCell ref="AH81:AK81"/>
-    <mergeCell ref="AX81:BA81"/>
-    <mergeCell ref="BB81:BE81"/>
-    <mergeCell ref="BF81:BI81"/>
-    <mergeCell ref="BJ81:BM81"/>
-    <mergeCell ref="BN81:BQ81"/>
-    <mergeCell ref="BB57:BE57"/>
-    <mergeCell ref="BF57:BI57"/>
-    <mergeCell ref="BJ57:BM57"/>
-    <mergeCell ref="BN57:BQ57"/>
-    <mergeCell ref="V104:Y104"/>
-    <mergeCell ref="Z104:AC104"/>
-    <mergeCell ref="AD104:AG104"/>
-    <mergeCell ref="AH104:AK104"/>
-    <mergeCell ref="AL104:AO104"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="F104:I104"/>
-    <mergeCell ref="J104:M104"/>
-    <mergeCell ref="N104:Q104"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="AL152:AO152"/>
-    <mergeCell ref="AP152:AS152"/>
-    <mergeCell ref="AT152:AW152"/>
-    <mergeCell ref="AX152:BA152"/>
-    <mergeCell ref="BJ104:BM104"/>
-    <mergeCell ref="BN104:BQ104"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="J128:M128"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:Y128"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AG128"/>
-    <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="AL128:AO128"/>
-    <mergeCell ref="AP128:AS128"/>
-    <mergeCell ref="AT128:AW128"/>
-    <mergeCell ref="AX128:BA128"/>
-    <mergeCell ref="BB128:BE128"/>
-    <mergeCell ref="AP104:AS104"/>
-    <mergeCell ref="AT104:AW104"/>
-    <mergeCell ref="AX104:BA104"/>
-    <mergeCell ref="BB104:BE104"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="F152:I152"/>
-    <mergeCell ref="J152:M152"/>
-    <mergeCell ref="N152:Q152"/>
-    <mergeCell ref="R152:U152"/>
-    <mergeCell ref="V152:Y152"/>
-    <mergeCell ref="Z152:AC152"/>
-    <mergeCell ref="AD152:AG152"/>
-    <mergeCell ref="AH152:AK152"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH33:CK33"/>
-    <mergeCell ref="CD57:CG57"/>
-    <mergeCell ref="CD81:CG81"/>
-    <mergeCell ref="CH104:CK104"/>
-    <mergeCell ref="CH128:CK128"/>
-    <mergeCell ref="CH152:CK152"/>
-    <mergeCell ref="BB152:BE152"/>
-    <mergeCell ref="BF152:BI152"/>
-    <mergeCell ref="BJ152:BM152"/>
-    <mergeCell ref="BN152:BQ152"/>
-    <mergeCell ref="BF128:BI128"/>
-    <mergeCell ref="BJ128:BM128"/>
-    <mergeCell ref="BN128:BQ128"/>
-    <mergeCell ref="BF104:BI104"/>
-    <mergeCell ref="BR152:BU152"/>
-    <mergeCell ref="BR128:BU128"/>
-    <mergeCell ref="BR104:BU104"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD152:CG152"/>
-    <mergeCell ref="CD128:CG128"/>
-    <mergeCell ref="CD104:CG104"/>
-    <mergeCell ref="CD33:CG33"/>
-    <mergeCell ref="BV104:BY104"/>
+    <mergeCell ref="BZ128:CC128"/>
+    <mergeCell ref="BZ104:CC104"/>
+    <mergeCell ref="BV152:BY152"/>
+    <mergeCell ref="BZ152:CC152"/>
+    <mergeCell ref="BV128:BY128"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ33:CC33"/>
+    <mergeCell ref="BV57:BY57"/>
+    <mergeCell ref="BZ57:CC57"/>
+    <mergeCell ref="BZ81:CC81"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.11811023622047245" top="0.51181102362204722" bottom="0.15748031496062992" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB40A107-A251-41B8-B403-A7D75FD8F221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14271BC-29A4-42B0-80A8-92DFD6AACD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNS" sheetId="6" r:id="rId1"/>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -626,13 +626,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of August 2022</t>
+    <t>Q1 2000 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2022</t>
+    <t>Q1 2001 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2022</t>
+    <t>As of November 2022</t>
   </si>
 </sst>
 </file>
@@ -640,8 +640,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
@@ -728,12 +728,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -769,17 +769,10 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -23639,186 +23632,187 @@
       <selection activeCell="N19" sqref="N19"/>
       <selection pane="topRight" activeCell="N19" sqref="N19"/>
       <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
-      <selection pane="bottomRight" activeCell="CH1" sqref="CH1:CM1048576"/>
+      <selection pane="bottomRight" activeCell="CH1" sqref="CH1:CN1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.7265625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.26953125" style="1" customWidth="1"/>
-    <col min="2" max="91" width="8.81640625" style="1" customWidth="1"/>
-    <col min="92" max="16384" width="7.7265625" style="1"/>
+    <col min="1" max="1" width="38.21875" style="1" customWidth="1"/>
+    <col min="2" max="92" width="8.77734375" style="1" customWidth="1"/>
+    <col min="93" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="33">
+      <c r="B9" s="30">
         <v>2000</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30">
         <v>2001</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33">
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30">
         <v>2002</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33">
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30">
         <v>2003</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33">
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30">
         <v>2004</v>
       </c>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33">
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30">
         <v>2005</v>
       </c>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33">
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30">
         <v>2006</v>
       </c>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33">
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30">
         <v>2007</v>
       </c>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="33">
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30">
         <v>2008</v>
       </c>
-      <c r="AI9" s="33"/>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="33"/>
-      <c r="AL9" s="33">
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30">
         <v>2009</v>
       </c>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="33"/>
-      <c r="AP9" s="33">
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="33">
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30">
         <v>2011</v>
       </c>
-      <c r="AU9" s="33"/>
-      <c r="AV9" s="33"/>
-      <c r="AW9" s="33"/>
-      <c r="AX9" s="33">
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="30"/>
+      <c r="AX9" s="30">
         <v>2012</v>
       </c>
-      <c r="AY9" s="33"/>
-      <c r="AZ9" s="33"/>
-      <c r="BA9" s="33"/>
-      <c r="BB9" s="33">
+      <c r="AY9" s="30"/>
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="30">
         <v>2013</v>
       </c>
-      <c r="BC9" s="33"/>
-      <c r="BD9" s="33"/>
-      <c r="BE9" s="33"/>
-      <c r="BF9" s="33">
+      <c r="BC9" s="30"/>
+      <c r="BD9" s="30"/>
+      <c r="BE9" s="30"/>
+      <c r="BF9" s="30">
         <v>2014</v>
       </c>
-      <c r="BG9" s="33"/>
-      <c r="BH9" s="33"/>
-      <c r="BI9" s="33"/>
-      <c r="BJ9" s="33">
+      <c r="BG9" s="30"/>
+      <c r="BH9" s="30"/>
+      <c r="BI9" s="30"/>
+      <c r="BJ9" s="30">
         <v>2015</v>
       </c>
-      <c r="BK9" s="33"/>
-      <c r="BL9" s="33"/>
-      <c r="BM9" s="33"/>
-      <c r="BN9" s="33">
+      <c r="BK9" s="30"/>
+      <c r="BL9" s="30"/>
+      <c r="BM9" s="30"/>
+      <c r="BN9" s="30">
         <v>2016</v>
       </c>
-      <c r="BO9" s="33"/>
-      <c r="BP9" s="33"/>
-      <c r="BQ9" s="33"/>
-      <c r="BR9" s="33">
+      <c r="BO9" s="30"/>
+      <c r="BP9" s="30"/>
+      <c r="BQ9" s="30"/>
+      <c r="BR9" s="30">
         <v>2017</v>
       </c>
-      <c r="BS9" s="33"/>
-      <c r="BT9" s="33"/>
-      <c r="BU9" s="33"/>
-      <c r="BV9" s="33">
+      <c r="BS9" s="30"/>
+      <c r="BT9" s="30"/>
+      <c r="BU9" s="30"/>
+      <c r="BV9" s="30">
         <v>2018</v>
       </c>
-      <c r="BW9" s="33"/>
-      <c r="BX9" s="33"/>
-      <c r="BY9" s="33"/>
-      <c r="BZ9" s="33">
+      <c r="BW9" s="30"/>
+      <c r="BX9" s="30"/>
+      <c r="BY9" s="30"/>
+      <c r="BZ9" s="30">
         <v>2019</v>
       </c>
-      <c r="CA9" s="33"/>
-      <c r="CB9" s="33"/>
-      <c r="CC9" s="33"/>
-      <c r="CD9" s="33">
+      <c r="CA9" s="30"/>
+      <c r="CB9" s="30"/>
+      <c r="CC9" s="30"/>
+      <c r="CD9" s="30">
         <v>2020</v>
       </c>
-      <c r="CE9" s="33"/>
-      <c r="CF9" s="33"/>
-      <c r="CG9" s="33"/>
-      <c r="CH9" s="33">
+      <c r="CE9" s="30"/>
+      <c r="CF9" s="30"/>
+      <c r="CG9" s="30"/>
+      <c r="CH9" s="30">
         <v>2021</v>
       </c>
-      <c r="CI9" s="33"/>
-      <c r="CJ9" s="33"/>
-      <c r="CK9" s="33"/>
-      <c r="CL9" s="33">
+      <c r="CI9" s="30"/>
+      <c r="CJ9" s="30"/>
+      <c r="CK9" s="30"/>
+      <c r="CL9" s="30">
         <v>2022</v>
       </c>
-      <c r="CM9" s="33"/>
+      <c r="CM9" s="30"/>
+      <c r="CN9" s="30"/>
     </row>
-    <row r="10" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -24092,11 +24086,14 @@
       <c r="CM10" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CN10" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:128" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -24352,25 +24349,27 @@
       <c r="CG12" s="8">
         <v>210311.28246687539</v>
       </c>
-      <c r="CH12" s="26">
+      <c r="CH12" s="25">
         <v>167051.69207143103</v>
       </c>
-      <c r="CI12" s="26">
+      <c r="CI12" s="25">
         <v>412561.09488210839</v>
       </c>
-      <c r="CJ12" s="26">
+      <c r="CJ12" s="25">
         <v>208428.45499315707</v>
       </c>
-      <c r="CK12" s="26">
+      <c r="CK12" s="25">
         <v>264739.63527380844</v>
       </c>
-      <c r="CL12" s="26">
+      <c r="CL12" s="25">
         <v>167847.45411807633</v>
       </c>
-      <c r="CM12" s="26">
-        <v>544856.79794208077</v>
-      </c>
-      <c r="CN12" s="9"/>
+      <c r="CM12" s="25">
+        <v>546797.64500521345</v>
+      </c>
+      <c r="CN12" s="25">
+        <v>258096.20812578377</v>
+      </c>
       <c r="CO12" s="9"/>
       <c r="CP12" s="9"/>
       <c r="CQ12" s="9"/>
@@ -24408,7 +24407,7 @@
       <c r="DW12" s="9"/>
       <c r="DX12" s="9"/>
     </row>
-    <row r="13" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -24664,25 +24663,27 @@
       <c r="CG13" s="8">
         <v>208922.74558363974</v>
       </c>
-      <c r="CH13" s="26">
+      <c r="CH13" s="25">
         <v>185633.17430592715</v>
       </c>
-      <c r="CI13" s="26">
+      <c r="CI13" s="25">
         <v>203761.57588558231</v>
       </c>
-      <c r="CJ13" s="26">
+      <c r="CJ13" s="25">
         <v>223870.56397539313</v>
       </c>
-      <c r="CK13" s="26">
+      <c r="CK13" s="25">
         <v>228630.60632516781</v>
       </c>
-      <c r="CL13" s="26">
+      <c r="CL13" s="25">
         <v>251790.70505209928</v>
       </c>
-      <c r="CM13" s="26">
-        <v>255059.16165519791</v>
-      </c>
-      <c r="CN13" s="9"/>
+      <c r="CM13" s="25">
+        <v>256904.23707465929</v>
+      </c>
+      <c r="CN13" s="25">
+        <v>284748.6924277466</v>
+      </c>
       <c r="CO13" s="9"/>
       <c r="CP13" s="9"/>
       <c r="CQ13" s="9"/>
@@ -24720,7 +24721,7 @@
       <c r="DW13" s="9"/>
       <c r="DX13" s="9"/>
     </row>
-    <row r="14" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -24976,25 +24977,27 @@
       <c r="CG14" s="8">
         <v>173915.08707395635</v>
       </c>
-      <c r="CH14" s="26">
+      <c r="CH14" s="25">
         <v>156288.45655926011</v>
       </c>
-      <c r="CI14" s="26">
+      <c r="CI14" s="25">
         <v>212454.84307461116</v>
       </c>
-      <c r="CJ14" s="26">
+      <c r="CJ14" s="25">
         <v>197258.79265516618</v>
       </c>
-      <c r="CK14" s="26">
+      <c r="CK14" s="25">
         <v>221473.89075327839</v>
       </c>
-      <c r="CL14" s="26">
+      <c r="CL14" s="25">
         <v>198450.28515159636</v>
       </c>
-      <c r="CM14" s="26">
-        <v>232664.81323665802</v>
-      </c>
-      <c r="CN14" s="9"/>
+      <c r="CM14" s="25">
+        <v>233390.94798759447</v>
+      </c>
+      <c r="CN14" s="25">
+        <v>220930.70891493009</v>
+      </c>
       <c r="CO14" s="9"/>
       <c r="CP14" s="9"/>
       <c r="CQ14" s="9"/>
@@ -25032,7 +25035,7 @@
       <c r="DW14" s="9"/>
       <c r="DX14" s="9"/>
     </row>
-    <row r="15" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -25161,7 +25164,7 @@
       <c r="DW15" s="9"/>
       <c r="DX15" s="9"/>
     </row>
-    <row r="16" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
@@ -25417,25 +25420,27 @@
       <c r="CG16" s="11">
         <v>593149.11512447149</v>
       </c>
-      <c r="CH16" s="27">
+      <c r="CH16" s="26">
         <v>508973.32293661835</v>
       </c>
-      <c r="CI16" s="27">
+      <c r="CI16" s="26">
         <v>828777.51384230191</v>
       </c>
-      <c r="CJ16" s="27">
+      <c r="CJ16" s="26">
         <v>629557.81162371638</v>
       </c>
-      <c r="CK16" s="27">
+      <c r="CK16" s="26">
         <v>714844.13235225459</v>
       </c>
-      <c r="CL16" s="27">
+      <c r="CL16" s="26">
         <v>618088.44432177197</v>
       </c>
-      <c r="CM16" s="27">
-        <v>1032580.7728339366</v>
-      </c>
-      <c r="CN16" s="9"/>
+      <c r="CM16" s="26">
+        <v>1037092.8300674672</v>
+      </c>
+      <c r="CN16" s="26">
+        <v>763775.60946846043</v>
+      </c>
       <c r="CO16" s="9"/>
       <c r="CP16" s="9"/>
       <c r="CQ16" s="9"/>
@@ -25473,7 +25478,7 @@
       <c r="DW16" s="9"/>
       <c r="DX16" s="9"/>
     </row>
-    <row r="17" spans="1:128" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:128" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -25565,8 +25570,9 @@
       <c r="CK17" s="12"/>
       <c r="CL17" s="12"/>
       <c r="CM17" s="12"/>
+      <c r="CN17" s="12"/>
     </row>
-    <row r="18" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -25652,13 +25658,13 @@
       <c r="CE18" s="11"/>
       <c r="CF18" s="11"/>
       <c r="CG18" s="11"/>
-      <c r="CH18" s="27"/>
-      <c r="CI18" s="27"/>
-      <c r="CJ18" s="27"/>
-      <c r="CK18" s="27"/>
-      <c r="CL18" s="27"/>
-      <c r="CM18" s="27"/>
-      <c r="CN18" s="9"/>
+      <c r="CH18" s="26"/>
+      <c r="CI18" s="26"/>
+      <c r="CJ18" s="26"/>
+      <c r="CK18" s="26"/>
+      <c r="CL18" s="26"/>
+      <c r="CM18" s="26"/>
+      <c r="CN18" s="26"/>
       <c r="CO18" s="9"/>
       <c r="CP18" s="9"/>
       <c r="CQ18" s="9"/>
@@ -25696,7 +25702,7 @@
       <c r="DW18" s="9"/>
       <c r="DX18" s="9"/>
     </row>
-    <row r="19" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
@@ -25952,25 +25958,27 @@
       <c r="CG19" s="8">
         <v>323023.33799660718</v>
       </c>
-      <c r="CH19" s="26">
+      <c r="CH19" s="25">
         <v>235371.21643846924</v>
       </c>
-      <c r="CI19" s="26">
+      <c r="CI19" s="25">
         <v>408131.25381827954</v>
       </c>
-      <c r="CJ19" s="26">
+      <c r="CJ19" s="25">
         <v>304180.6889411317</v>
       </c>
-      <c r="CK19" s="26">
+      <c r="CK19" s="25">
         <v>399763.10453051195</v>
       </c>
-      <c r="CL19" s="26">
+      <c r="CL19" s="25">
         <v>290692.20502900099</v>
       </c>
-      <c r="CM19" s="26">
-        <v>517602.24047742027</v>
-      </c>
-      <c r="CN19" s="9"/>
+      <c r="CM19" s="25">
+        <v>519306.12519113091</v>
+      </c>
+      <c r="CN19" s="25">
+        <v>360781.31944854103</v>
+      </c>
       <c r="CO19" s="9"/>
       <c r="CP19" s="9"/>
       <c r="CQ19" s="9"/>
@@ -26008,7 +26016,7 @@
       <c r="DW19" s="9"/>
       <c r="DX19" s="9"/>
     </row>
-    <row r="20" spans="1:128" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:128" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -26100,18 +26108,19 @@
       <c r="CK20" s="14"/>
       <c r="CL20" s="14"/>
       <c r="CM20" s="14"/>
+      <c r="CN20" s="14"/>
     </row>
-    <row r="21" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:128" s="16" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:128" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G23" s="9"/>
       <c r="K23" s="9"/>
       <c r="O23" s="9"/>
@@ -26121,7 +26130,7 @@
       <c r="Z23" s="17"/>
       <c r="AA23" s="9"/>
     </row>
-    <row r="24" spans="1:128" s="16" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:128" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G24" s="9"/>
       <c r="K24" s="9"/>
       <c r="O24" s="9"/>
@@ -26131,176 +26140,177 @@
       <c r="Z24" s="17"/>
       <c r="AA24" s="9"/>
     </row>
-    <row r="25" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="33">
+      <c r="B33" s="30">
         <v>2000</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="33">
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="30">
         <v>2001</v>
       </c>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="33">
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="30">
         <v>2002</v>
       </c>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="33">
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="30">
         <v>2003</v>
       </c>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="33">
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="30">
         <v>2004</v>
       </c>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="33">
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="30">
         <v>2005</v>
       </c>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="33">
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="30">
         <v>2006</v>
       </c>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="34"/>
-      <c r="AD33" s="33">
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="31"/>
+      <c r="AC33" s="31"/>
+      <c r="AD33" s="30">
         <v>2007</v>
       </c>
-      <c r="AE33" s="34"/>
-      <c r="AF33" s="34"/>
-      <c r="AG33" s="34"/>
-      <c r="AH33" s="33">
+      <c r="AE33" s="31"/>
+      <c r="AF33" s="31"/>
+      <c r="AG33" s="31"/>
+      <c r="AH33" s="30">
         <v>2008</v>
       </c>
-      <c r="AI33" s="34"/>
-      <c r="AJ33" s="34"/>
-      <c r="AK33" s="34"/>
-      <c r="AL33" s="33">
+      <c r="AI33" s="31"/>
+      <c r="AJ33" s="31"/>
+      <c r="AK33" s="31"/>
+      <c r="AL33" s="30">
         <v>2009</v>
       </c>
-      <c r="AM33" s="34"/>
-      <c r="AN33" s="34"/>
-      <c r="AO33" s="34"/>
-      <c r="AP33" s="33">
+      <c r="AM33" s="31"/>
+      <c r="AN33" s="31"/>
+      <c r="AO33" s="31"/>
+      <c r="AP33" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ33" s="34"/>
-      <c r="AR33" s="34"/>
-      <c r="AS33" s="34"/>
-      <c r="AT33" s="33">
+      <c r="AQ33" s="31"/>
+      <c r="AR33" s="31"/>
+      <c r="AS33" s="31"/>
+      <c r="AT33" s="30">
         <v>2011</v>
       </c>
-      <c r="AU33" s="34"/>
-      <c r="AV33" s="34"/>
-      <c r="AW33" s="34"/>
-      <c r="AX33" s="33">
+      <c r="AU33" s="31"/>
+      <c r="AV33" s="31"/>
+      <c r="AW33" s="31"/>
+      <c r="AX33" s="30">
         <v>2012</v>
       </c>
-      <c r="AY33" s="34"/>
-      <c r="AZ33" s="34"/>
-      <c r="BA33" s="34"/>
-      <c r="BB33" s="33">
+      <c r="AY33" s="31"/>
+      <c r="AZ33" s="31"/>
+      <c r="BA33" s="31"/>
+      <c r="BB33" s="30">
         <v>2013</v>
       </c>
-      <c r="BC33" s="34"/>
-      <c r="BD33" s="34"/>
-      <c r="BE33" s="34"/>
-      <c r="BF33" s="33">
+      <c r="BC33" s="31"/>
+      <c r="BD33" s="31"/>
+      <c r="BE33" s="31"/>
+      <c r="BF33" s="30">
         <v>2014</v>
       </c>
-      <c r="BG33" s="34"/>
-      <c r="BH33" s="34"/>
-      <c r="BI33" s="34"/>
-      <c r="BJ33" s="33">
+      <c r="BG33" s="31"/>
+      <c r="BH33" s="31"/>
+      <c r="BI33" s="31"/>
+      <c r="BJ33" s="30">
         <v>2015</v>
       </c>
-      <c r="BK33" s="34"/>
-      <c r="BL33" s="34"/>
-      <c r="BM33" s="34"/>
-      <c r="BN33" s="33">
+      <c r="BK33" s="31"/>
+      <c r="BL33" s="31"/>
+      <c r="BM33" s="31"/>
+      <c r="BN33" s="30">
         <v>2016</v>
       </c>
-      <c r="BO33" s="34"/>
-      <c r="BP33" s="34"/>
-      <c r="BQ33" s="34"/>
-      <c r="BR33" s="33">
+      <c r="BO33" s="31"/>
+      <c r="BP33" s="31"/>
+      <c r="BQ33" s="31"/>
+      <c r="BR33" s="30">
         <v>2017</v>
       </c>
-      <c r="BS33" s="34"/>
-      <c r="BT33" s="34"/>
-      <c r="BU33" s="34"/>
-      <c r="BV33" s="33">
+      <c r="BS33" s="31"/>
+      <c r="BT33" s="31"/>
+      <c r="BU33" s="31"/>
+      <c r="BV33" s="30">
         <v>2018</v>
       </c>
-      <c r="BW33" s="33"/>
-      <c r="BX33" s="33"/>
-      <c r="BY33" s="33"/>
-      <c r="BZ33" s="33">
+      <c r="BW33" s="30"/>
+      <c r="BX33" s="30"/>
+      <c r="BY33" s="30"/>
+      <c r="BZ33" s="30">
         <v>2019</v>
       </c>
-      <c r="CA33" s="33"/>
-      <c r="CB33" s="33"/>
-      <c r="CC33" s="33"/>
-      <c r="CD33" s="33">
+      <c r="CA33" s="30"/>
+      <c r="CB33" s="30"/>
+      <c r="CC33" s="30"/>
+      <c r="CD33" s="30">
         <v>2020</v>
       </c>
-      <c r="CE33" s="33"/>
-      <c r="CF33" s="33"/>
-      <c r="CG33" s="33"/>
-      <c r="CH33" s="33">
+      <c r="CE33" s="30"/>
+      <c r="CF33" s="30"/>
+      <c r="CG33" s="30"/>
+      <c r="CH33" s="30">
         <v>2021</v>
       </c>
-      <c r="CI33" s="33"/>
-      <c r="CJ33" s="33"/>
-      <c r="CK33" s="33"/>
-      <c r="CL33" s="33">
+      <c r="CI33" s="30"/>
+      <c r="CJ33" s="30"/>
+      <c r="CK33" s="30"/>
+      <c r="CL33" s="30">
         <v>2022</v>
       </c>
-      <c r="CM33" s="33"/>
+      <c r="CM33" s="30"/>
+      <c r="CN33" s="30"/>
     </row>
-    <row r="34" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>10</v>
       </c>
@@ -26574,11 +26584,14 @@
       <c r="CM34" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CN34" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="35" spans="1:128" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>11</v>
       </c>
@@ -26834,25 +26847,27 @@
       <c r="CG36" s="8">
         <v>206796.21572508392</v>
       </c>
-      <c r="CH36" s="26">
+      <c r="CH36" s="25">
         <v>150261.77867818158</v>
       </c>
-      <c r="CI36" s="26">
+      <c r="CI36" s="25">
         <v>390295.45438141492</v>
       </c>
-      <c r="CJ36" s="26">
+      <c r="CJ36" s="25">
         <v>186463.32190444099</v>
       </c>
-      <c r="CK36" s="26">
+      <c r="CK36" s="25">
         <v>249631.47842237909</v>
       </c>
-      <c r="CL36" s="26">
+      <c r="CL36" s="25">
         <v>142145.81962242493</v>
       </c>
-      <c r="CM36" s="26">
-        <v>478881.71702732</v>
-      </c>
-      <c r="CN36" s="9"/>
+      <c r="CM36" s="25">
+        <v>480768.70473332691</v>
+      </c>
+      <c r="CN36" s="25">
+        <v>211489.94689146234</v>
+      </c>
       <c r="CO36" s="9"/>
       <c r="CP36" s="9"/>
       <c r="CQ36" s="9"/>
@@ -26890,7 +26905,7 @@
       <c r="DW36" s="9"/>
       <c r="DX36" s="9"/>
     </row>
-    <row r="37" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
@@ -27146,25 +27161,27 @@
       <c r="CG37" s="8">
         <v>196919.57899973172</v>
       </c>
-      <c r="CH37" s="26">
+      <c r="CH37" s="25">
         <v>183695.58095423726</v>
       </c>
-      <c r="CI37" s="26">
+      <c r="CI37" s="25">
         <v>198956.47387944686</v>
       </c>
-      <c r="CJ37" s="26">
+      <c r="CJ37" s="25">
         <v>192736.69448870834</v>
       </c>
-      <c r="CK37" s="26">
+      <c r="CK37" s="25">
         <v>206737.10520774993</v>
       </c>
-      <c r="CL37" s="26">
+      <c r="CL37" s="25">
         <v>234648.32332395006</v>
       </c>
-      <c r="CM37" s="26">
-        <v>231152.87822524589</v>
-      </c>
-      <c r="CN37" s="9"/>
+      <c r="CM37" s="25">
+        <v>232896.35547949572</v>
+      </c>
+      <c r="CN37" s="25">
+        <v>224477.37137056133</v>
+      </c>
       <c r="CO37" s="9"/>
       <c r="CP37" s="9"/>
       <c r="CQ37" s="9"/>
@@ -27202,7 +27219,7 @@
       <c r="DW37" s="9"/>
       <c r="DX37" s="9"/>
     </row>
-    <row r="38" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -27458,25 +27475,27 @@
       <c r="CG38" s="8">
         <v>186080.1971893374</v>
       </c>
-      <c r="CH38" s="26">
+      <c r="CH38" s="25">
         <v>137746.22508671635</v>
       </c>
-      <c r="CI38" s="26">
+      <c r="CI38" s="25">
         <v>195591.91518542223</v>
       </c>
-      <c r="CJ38" s="26">
+      <c r="CJ38" s="25">
         <v>172854.54033532893</v>
       </c>
-      <c r="CK38" s="26">
+      <c r="CK38" s="25">
         <v>226457.36345338321</v>
       </c>
-      <c r="CL38" s="26">
+      <c r="CL38" s="25">
         <v>164257.20304861359</v>
       </c>
-      <c r="CM38" s="26">
-        <v>198346.99978685676</v>
-      </c>
-      <c r="CN38" s="9"/>
+      <c r="CM38" s="25">
+        <v>199022.82058010495</v>
+      </c>
+      <c r="CN38" s="25">
+        <v>181117.38584333775</v>
+      </c>
       <c r="CO38" s="9"/>
       <c r="CP38" s="9"/>
       <c r="CQ38" s="9"/>
@@ -27514,7 +27533,7 @@
       <c r="DW38" s="9"/>
       <c r="DX38" s="9"/>
     </row>
-    <row r="39" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -27643,7 +27662,7 @@
       <c r="DW39" s="9"/>
       <c r="DX39" s="9"/>
     </row>
-    <row r="40" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>14</v>
       </c>
@@ -27899,25 +27918,27 @@
       <c r="CG40" s="11">
         <v>589795.9919141531</v>
       </c>
-      <c r="CH40" s="27">
+      <c r="CH40" s="26">
         <v>471703.58471913519</v>
       </c>
-      <c r="CI40" s="27">
+      <c r="CI40" s="26">
         <v>784843.84344628407</v>
       </c>
-      <c r="CJ40" s="27">
+      <c r="CJ40" s="26">
         <v>552054.55672847829</v>
       </c>
-      <c r="CK40" s="27">
+      <c r="CK40" s="26">
         <v>682825.9470835122</v>
       </c>
-      <c r="CL40" s="27">
+      <c r="CL40" s="26">
         <v>541051.34599498857</v>
       </c>
-      <c r="CM40" s="27">
-        <v>908381.59503942262</v>
-      </c>
-      <c r="CN40" s="9"/>
+      <c r="CM40" s="26">
+        <v>912687.88079292758</v>
+      </c>
+      <c r="CN40" s="26">
+        <v>617084.70410536136</v>
+      </c>
       <c r="CO40" s="9"/>
       <c r="CP40" s="9"/>
       <c r="CQ40" s="9"/>
@@ -27955,7 +27976,7 @@
       <c r="DW40" s="9"/>
       <c r="DX40" s="9"/>
     </row>
-    <row r="41" spans="1:128" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:128" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -28047,8 +28068,9 @@
       <c r="CK41" s="12"/>
       <c r="CL41" s="12"/>
       <c r="CM41" s="12"/>
+      <c r="CN41" s="12"/>
     </row>
-    <row r="42" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -28134,13 +28156,13 @@
       <c r="CE42" s="11"/>
       <c r="CF42" s="11"/>
       <c r="CG42" s="11"/>
-      <c r="CH42" s="27"/>
-      <c r="CI42" s="27"/>
-      <c r="CJ42" s="27"/>
-      <c r="CK42" s="27"/>
-      <c r="CL42" s="27"/>
-      <c r="CM42" s="27"/>
-      <c r="CN42" s="9"/>
+      <c r="CH42" s="26"/>
+      <c r="CI42" s="26"/>
+      <c r="CJ42" s="26"/>
+      <c r="CK42" s="26"/>
+      <c r="CL42" s="26"/>
+      <c r="CM42" s="26"/>
+      <c r="CN42" s="26"/>
       <c r="CO42" s="9"/>
       <c r="CP42" s="9"/>
       <c r="CQ42" s="9"/>
@@ -28178,7 +28200,7 @@
       <c r="DW42" s="9"/>
       <c r="DX42" s="9"/>
     </row>
-    <row r="43" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>15</v>
       </c>
@@ -28434,25 +28456,27 @@
       <c r="CG43" s="8">
         <v>325750.45283593191</v>
       </c>
-      <c r="CH43" s="26">
+      <c r="CH43" s="25">
         <v>223502.19562219223</v>
       </c>
-      <c r="CI43" s="26">
+      <c r="CI43" s="25">
         <v>347357.97028891149</v>
       </c>
-      <c r="CJ43" s="26">
+      <c r="CJ43" s="25">
         <v>277594.86474362016</v>
       </c>
-      <c r="CK43" s="26">
+      <c r="CK43" s="25">
         <v>386355.85839880561</v>
       </c>
-      <c r="CL43" s="26">
+      <c r="CL43" s="25">
         <v>256394.00506803056</v>
       </c>
-      <c r="CM43" s="26">
-        <v>413484.66640083038</v>
-      </c>
-      <c r="CN43" s="9"/>
+      <c r="CM43" s="25">
+        <v>415017.8271627705</v>
+      </c>
+      <c r="CN43" s="25">
+        <v>311349.23316456098</v>
+      </c>
       <c r="CO43" s="9"/>
       <c r="CP43" s="9"/>
       <c r="CQ43" s="9"/>
@@ -28490,7 +28514,7 @@
       <c r="DW43" s="9"/>
       <c r="DX43" s="9"/>
     </row>
-    <row r="44" spans="1:128" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:128" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -28582,18 +28606,19 @@
       <c r="CK44" s="14"/>
       <c r="CL44" s="14"/>
       <c r="CM44" s="14"/>
+      <c r="CN44" s="14"/>
     </row>
-    <row r="45" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -28722,7 +28747,7 @@
       <c r="DW47" s="9"/>
       <c r="DX47" s="9"/>
     </row>
-    <row r="48" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -28851,177 +28876,178 @@
       <c r="DW48" s="9"/>
       <c r="DX48" s="9"/>
     </row>
-    <row r="49" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33" t="s">
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33" t="s">
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33" t="s">
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33" t="s">
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="S57" s="33"/>
-      <c r="T57" s="33"/>
-      <c r="U57" s="33"/>
-      <c r="V57" s="33" t="s">
+      <c r="S57" s="30"/>
+      <c r="T57" s="30"/>
+      <c r="U57" s="30"/>
+      <c r="V57" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="W57" s="33"/>
-      <c r="X57" s="33"/>
-      <c r="Y57" s="33"/>
-      <c r="Z57" s="33" t="s">
+      <c r="W57" s="30"/>
+      <c r="X57" s="30"/>
+      <c r="Y57" s="30"/>
+      <c r="Z57" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AA57" s="33"/>
-      <c r="AB57" s="33"/>
-      <c r="AC57" s="33"/>
-      <c r="AD57" s="33" t="s">
+      <c r="AA57" s="30"/>
+      <c r="AB57" s="30"/>
+      <c r="AC57" s="30"/>
+      <c r="AD57" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AE57" s="33"/>
-      <c r="AF57" s="33"/>
-      <c r="AG57" s="33"/>
-      <c r="AH57" s="33" t="s">
+      <c r="AE57" s="30"/>
+      <c r="AF57" s="30"/>
+      <c r="AG57" s="30"/>
+      <c r="AH57" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AI57" s="33"/>
-      <c r="AJ57" s="33"/>
-      <c r="AK57" s="33"/>
-      <c r="AL57" s="33" t="s">
+      <c r="AI57" s="30"/>
+      <c r="AJ57" s="30"/>
+      <c r="AK57" s="30"/>
+      <c r="AL57" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AM57" s="33"/>
-      <c r="AN57" s="33"/>
-      <c r="AO57" s="33"/>
-      <c r="AP57" s="33" t="s">
+      <c r="AM57" s="30"/>
+      <c r="AN57" s="30"/>
+      <c r="AO57" s="30"/>
+      <c r="AP57" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AQ57" s="33"/>
-      <c r="AR57" s="33"/>
-      <c r="AS57" s="33"/>
-      <c r="AT57" s="33" t="s">
+      <c r="AQ57" s="30"/>
+      <c r="AR57" s="30"/>
+      <c r="AS57" s="30"/>
+      <c r="AT57" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AU57" s="33"/>
-      <c r="AV57" s="33"/>
-      <c r="AW57" s="33"/>
-      <c r="AX57" s="33" t="s">
+      <c r="AU57" s="30"/>
+      <c r="AV57" s="30"/>
+      <c r="AW57" s="30"/>
+      <c r="AX57" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AY57" s="33"/>
-      <c r="AZ57" s="33"/>
-      <c r="BA57" s="33"/>
-      <c r="BB57" s="33" t="s">
+      <c r="AY57" s="30"/>
+      <c r="AZ57" s="30"/>
+      <c r="BA57" s="30"/>
+      <c r="BB57" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="BC57" s="33"/>
-      <c r="BD57" s="33"/>
-      <c r="BE57" s="33"/>
-      <c r="BF57" s="33" t="s">
+      <c r="BC57" s="30"/>
+      <c r="BD57" s="30"/>
+      <c r="BE57" s="30"/>
+      <c r="BF57" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="BG57" s="33"/>
-      <c r="BH57" s="33"/>
-      <c r="BI57" s="33"/>
-      <c r="BJ57" s="33" t="s">
+      <c r="BG57" s="30"/>
+      <c r="BH57" s="30"/>
+      <c r="BI57" s="30"/>
+      <c r="BJ57" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="BK57" s="33"/>
-      <c r="BL57" s="33"/>
-      <c r="BM57" s="33"/>
-      <c r="BN57" s="33" t="s">
+      <c r="BK57" s="30"/>
+      <c r="BL57" s="30"/>
+      <c r="BM57" s="30"/>
+      <c r="BN57" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="BO57" s="33"/>
-      <c r="BP57" s="33"/>
-      <c r="BQ57" s="33"/>
-      <c r="BR57" s="33" t="s">
+      <c r="BO57" s="30"/>
+      <c r="BP57" s="30"/>
+      <c r="BQ57" s="30"/>
+      <c r="BR57" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="BS57" s="33"/>
-      <c r="BT57" s="33"/>
-      <c r="BU57" s="33"/>
-      <c r="BV57" s="33" t="s">
+      <c r="BS57" s="30"/>
+      <c r="BT57" s="30"/>
+      <c r="BU57" s="30"/>
+      <c r="BV57" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="BW57" s="33"/>
-      <c r="BX57" s="33"/>
-      <c r="BY57" s="33"/>
-      <c r="BZ57" s="33" t="s">
+      <c r="BW57" s="30"/>
+      <c r="BX57" s="30"/>
+      <c r="BY57" s="30"/>
+      <c r="BZ57" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="CA57" s="33"/>
-      <c r="CB57" s="33"/>
-      <c r="CC57" s="33"/>
-      <c r="CD57" s="33" t="s">
+      <c r="CA57" s="30"/>
+      <c r="CB57" s="30"/>
+      <c r="CC57" s="30"/>
+      <c r="CD57" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="CE57" s="33"/>
-      <c r="CF57" s="33"/>
-      <c r="CG57" s="33"/>
-      <c r="CH57" s="33" t="s">
+      <c r="CE57" s="30"/>
+      <c r="CF57" s="30"/>
+      <c r="CG57" s="30"/>
+      <c r="CH57" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="CI57" s="33"/>
-      <c r="CJ57" s="28"/>
-      <c r="CK57" s="28"/>
-      <c r="CL57" s="25"/>
-      <c r="CM57" s="25"/>
+      <c r="CI57" s="30"/>
+      <c r="CJ57" s="30"/>
+      <c r="CK57" s="27"/>
+      <c r="CL57" s="30"/>
+      <c r="CM57" s="30"/>
+      <c r="CN57" s="27"/>
     </row>
-    <row r="58" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>10</v>
       </c>
@@ -29283,15 +29309,18 @@
       <c r="CI58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CJ58" s="5"/>
+      <c r="CJ58" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="CK58" s="5"/>
       <c r="CL58" s="5"/>
-      <c r="CM58" s="29"/>
+      <c r="CM58" s="5"/>
+      <c r="CN58" s="5"/>
     </row>
-    <row r="59" spans="1:120" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:120" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:120" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:120" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>11</v>
       </c>
@@ -29547,17 +29576,19 @@
       <c r="CG60" s="19">
         <v>25.879901529061172</v>
       </c>
-      <c r="CH60" s="30">
+      <c r="CH60" s="28">
         <v>0.47635677123523124</v>
       </c>
-      <c r="CI60" s="30">
-        <v>32.066936194692971</v>
-      </c>
-      <c r="CJ60" s="30"/>
-      <c r="CK60" s="30"/>
-      <c r="CL60" s="30"/>
-      <c r="CM60" s="20"/>
-      <c r="CN60" s="9"/>
+      <c r="CI60" s="28">
+        <v>32.537374897520067</v>
+      </c>
+      <c r="CJ60" s="28">
+        <v>23.829641271513211</v>
+      </c>
+      <c r="CK60" s="28"/>
+      <c r="CL60" s="28"/>
+      <c r="CM60" s="28"/>
+      <c r="CN60" s="28"/>
       <c r="CO60" s="9"/>
       <c r="CP60" s="9"/>
       <c r="CQ60" s="9"/>
@@ -29587,7 +29618,7 @@
       <c r="DO60" s="9"/>
       <c r="DP60" s="9"/>
     </row>
-    <row r="61" spans="1:120" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:120" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>12</v>
       </c>
@@ -29843,17 +29874,19 @@
       <c r="CG61" s="19">
         <v>9.4330852710521498</v>
       </c>
-      <c r="CH61" s="30">
+      <c r="CH61" s="28">
         <v>35.638851187850292</v>
       </c>
-      <c r="CI61" s="30">
-        <v>25.175298898562005</v>
-      </c>
-      <c r="CJ61" s="30"/>
-      <c r="CK61" s="30"/>
-      <c r="CL61" s="30"/>
-      <c r="CM61" s="20"/>
-      <c r="CN61" s="9"/>
+      <c r="CI61" s="28">
+        <v>26.08080594101709</v>
+      </c>
+      <c r="CJ61" s="28">
+        <v>27.193449362572267</v>
+      </c>
+      <c r="CK61" s="28"/>
+      <c r="CL61" s="28"/>
+      <c r="CM61" s="28"/>
+      <c r="CN61" s="28"/>
       <c r="CO61" s="9"/>
       <c r="CP61" s="9"/>
       <c r="CQ61" s="9"/>
@@ -29883,7 +29916,7 @@
       <c r="DO61" s="9"/>
       <c r="DP61" s="9"/>
     </row>
-    <row r="62" spans="1:120" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:120" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>13</v>
       </c>
@@ -30139,17 +30172,19 @@
       <c r="CG62" s="19">
         <v>27.34599078175313</v>
       </c>
-      <c r="CH62" s="30">
+      <c r="CH62" s="28">
         <v>26.976930683520877</v>
       </c>
-      <c r="CI62" s="30">
-        <v>9.5125956507140756</v>
-      </c>
-      <c r="CJ62" s="30"/>
-      <c r="CK62" s="30"/>
-      <c r="CL62" s="30"/>
-      <c r="CM62" s="20"/>
-      <c r="CN62" s="9"/>
+      <c r="CI62" s="28">
+        <v>9.8543787517382526</v>
+      </c>
+      <c r="CJ62" s="28">
+        <v>12.000436553997091</v>
+      </c>
+      <c r="CK62" s="28"/>
+      <c r="CL62" s="28"/>
+      <c r="CM62" s="28"/>
+      <c r="CN62" s="28"/>
       <c r="CO62" s="9"/>
       <c r="CP62" s="9"/>
       <c r="CQ62" s="9"/>
@@ -30179,7 +30214,7 @@
       <c r="DO62" s="9"/>
       <c r="DP62" s="9"/>
     </row>
-    <row r="63" spans="1:120" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:120" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
       <c r="D63" s="21"/>
@@ -30270,7 +30305,7 @@
       <c r="CK63" s="20"/>
       <c r="CL63" s="20"/>
       <c r="CM63" s="20"/>
-      <c r="CN63" s="9"/>
+      <c r="CN63" s="20"/>
       <c r="CO63" s="9"/>
       <c r="CP63" s="9"/>
       <c r="CQ63" s="9"/>
@@ -30300,7 +30335,7 @@
       <c r="DO63" s="9"/>
       <c r="DP63" s="9"/>
     </row>
-    <row r="64" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>14</v>
       </c>
@@ -30556,17 +30591,19 @@
       <c r="CG64" s="19">
         <v>20.51676621017053</v>
       </c>
-      <c r="CH64" s="30">
+      <c r="CH64" s="28">
         <v>21.438279074351712</v>
       </c>
-      <c r="CI64" s="30">
-        <v>24.590828731197206</v>
-      </c>
-      <c r="CJ64" s="30"/>
-      <c r="CK64" s="30"/>
-      <c r="CL64" s="30"/>
-      <c r="CM64" s="20"/>
-      <c r="CN64" s="9"/>
+      <c r="CI64" s="28">
+        <v>25.135251951925312</v>
+      </c>
+      <c r="CJ64" s="28">
+        <v>21.319376134588481</v>
+      </c>
+      <c r="CK64" s="28"/>
+      <c r="CL64" s="28"/>
+      <c r="CM64" s="28"/>
+      <c r="CN64" s="28"/>
       <c r="CO64" s="9"/>
       <c r="CP64" s="9"/>
       <c r="CQ64" s="9"/>
@@ -30596,7 +30633,7 @@
       <c r="DO64" s="9"/>
       <c r="DP64" s="9"/>
     </row>
-    <row r="65" spans="1:120" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:120" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
@@ -30687,9 +30724,10 @@
       <c r="CJ65" s="23"/>
       <c r="CK65" s="23"/>
       <c r="CL65" s="23"/>
-      <c r="CM65" s="31"/>
+      <c r="CM65" s="23"/>
+      <c r="CN65" s="23"/>
     </row>
-    <row r="66" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
@@ -30775,13 +30813,13 @@
       <c r="CE66" s="19"/>
       <c r="CF66" s="19"/>
       <c r="CG66" s="19"/>
-      <c r="CH66" s="30"/>
-      <c r="CI66" s="30"/>
-      <c r="CJ66" s="30"/>
-      <c r="CK66" s="30"/>
-      <c r="CL66" s="30"/>
-      <c r="CM66" s="20"/>
-      <c r="CN66" s="9"/>
+      <c r="CH66" s="28"/>
+      <c r="CI66" s="28"/>
+      <c r="CJ66" s="28"/>
+      <c r="CK66" s="28"/>
+      <c r="CL66" s="28"/>
+      <c r="CM66" s="28"/>
+      <c r="CN66" s="28"/>
       <c r="CO66" s="9"/>
       <c r="CP66" s="9"/>
       <c r="CQ66" s="9"/>
@@ -30811,7 +30849,7 @@
       <c r="DO66" s="9"/>
       <c r="DP66" s="9"/>
     </row>
-    <row r="67" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>15</v>
       </c>
@@ -31067,17 +31105,19 @@
       <c r="CG67" s="19">
         <v>23.756725136284345</v>
       </c>
-      <c r="CH67" s="30">
+      <c r="CH67" s="28">
         <v>23.503718690681012</v>
       </c>
-      <c r="CI67" s="30">
-        <v>26.822495370051385</v>
-      </c>
-      <c r="CJ67" s="30"/>
-      <c r="CK67" s="30"/>
-      <c r="CL67" s="30"/>
-      <c r="CM67" s="20"/>
-      <c r="CN67" s="9"/>
+      <c r="CI67" s="28">
+        <v>27.239979867445285</v>
+      </c>
+      <c r="CJ67" s="28">
+        <v>18.607568647582127</v>
+      </c>
+      <c r="CK67" s="28"/>
+      <c r="CL67" s="28"/>
+      <c r="CM67" s="28"/>
+      <c r="CN67" s="28"/>
       <c r="CO67" s="9"/>
       <c r="CP67" s="9"/>
       <c r="CQ67" s="9"/>
@@ -31107,7 +31147,7 @@
       <c r="DO67" s="9"/>
       <c r="DP67" s="9"/>
     </row>
-    <row r="68" spans="1:120" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:120" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -31199,18 +31239,19 @@
       <c r="CK68" s="14"/>
       <c r="CL68" s="14"/>
       <c r="CM68" s="14"/>
+      <c r="CN68" s="14"/>
     </row>
-    <row r="69" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:120" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:120" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -31331,7 +31372,7 @@
       <c r="DO71" s="9"/>
       <c r="DP71" s="9"/>
     </row>
-    <row r="72" spans="1:120" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:120" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -31452,174 +31493,175 @@
       <c r="DO72" s="9"/>
       <c r="DP72" s="9"/>
     </row>
-    <row r="73" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
-      <c r="B81" s="33" t="s">
+      <c r="B81" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="33" t="s">
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="33" t="s">
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="K81" s="34"/>
-      <c r="L81" s="34"/>
-      <c r="M81" s="34"/>
-      <c r="N81" s="33" t="s">
+      <c r="K81" s="31"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="O81" s="34"/>
-      <c r="P81" s="34"/>
-      <c r="Q81" s="34"/>
-      <c r="R81" s="33" t="s">
+      <c r="O81" s="31"/>
+      <c r="P81" s="31"/>
+      <c r="Q81" s="31"/>
+      <c r="R81" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="S81" s="34"/>
-      <c r="T81" s="34"/>
-      <c r="U81" s="34"/>
-      <c r="V81" s="33" t="s">
+      <c r="S81" s="31"/>
+      <c r="T81" s="31"/>
+      <c r="U81" s="31"/>
+      <c r="V81" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="W81" s="34"/>
-      <c r="X81" s="34"/>
-      <c r="Y81" s="34"/>
-      <c r="Z81" s="33" t="s">
+      <c r="W81" s="31"/>
+      <c r="X81" s="31"/>
+      <c r="Y81" s="31"/>
+      <c r="Z81" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AA81" s="34"/>
-      <c r="AB81" s="34"/>
-      <c r="AC81" s="34"/>
-      <c r="AD81" s="33" t="s">
+      <c r="AA81" s="31"/>
+      <c r="AB81" s="31"/>
+      <c r="AC81" s="31"/>
+      <c r="AD81" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AE81" s="34"/>
-      <c r="AF81" s="34"/>
-      <c r="AG81" s="34"/>
-      <c r="AH81" s="33" t="s">
+      <c r="AE81" s="31"/>
+      <c r="AF81" s="31"/>
+      <c r="AG81" s="31"/>
+      <c r="AH81" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AI81" s="34"/>
-      <c r="AJ81" s="34"/>
-      <c r="AK81" s="34"/>
-      <c r="AL81" s="33" t="s">
+      <c r="AI81" s="31"/>
+      <c r="AJ81" s="31"/>
+      <c r="AK81" s="31"/>
+      <c r="AL81" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AM81" s="34"/>
-      <c r="AN81" s="34"/>
-      <c r="AO81" s="34"/>
-      <c r="AP81" s="33" t="s">
+      <c r="AM81" s="31"/>
+      <c r="AN81" s="31"/>
+      <c r="AO81" s="31"/>
+      <c r="AP81" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AQ81" s="34"/>
-      <c r="AR81" s="34"/>
-      <c r="AS81" s="34"/>
-      <c r="AT81" s="33" t="s">
+      <c r="AQ81" s="31"/>
+      <c r="AR81" s="31"/>
+      <c r="AS81" s="31"/>
+      <c r="AT81" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AU81" s="34"/>
-      <c r="AV81" s="34"/>
-      <c r="AW81" s="34"/>
-      <c r="AX81" s="33" t="s">
+      <c r="AU81" s="31"/>
+      <c r="AV81" s="31"/>
+      <c r="AW81" s="31"/>
+      <c r="AX81" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AY81" s="34"/>
-      <c r="AZ81" s="34"/>
-      <c r="BA81" s="34"/>
-      <c r="BB81" s="33" t="s">
+      <c r="AY81" s="31"/>
+      <c r="AZ81" s="31"/>
+      <c r="BA81" s="31"/>
+      <c r="BB81" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="BC81" s="34"/>
-      <c r="BD81" s="34"/>
-      <c r="BE81" s="34"/>
-      <c r="BF81" s="33" t="s">
+      <c r="BC81" s="31"/>
+      <c r="BD81" s="31"/>
+      <c r="BE81" s="31"/>
+      <c r="BF81" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="BG81" s="34"/>
-      <c r="BH81" s="34"/>
-      <c r="BI81" s="34"/>
-      <c r="BJ81" s="33" t="s">
+      <c r="BG81" s="31"/>
+      <c r="BH81" s="31"/>
+      <c r="BI81" s="31"/>
+      <c r="BJ81" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="BK81" s="34"/>
-      <c r="BL81" s="34"/>
-      <c r="BM81" s="34"/>
-      <c r="BN81" s="33" t="s">
+      <c r="BK81" s="31"/>
+      <c r="BL81" s="31"/>
+      <c r="BM81" s="31"/>
+      <c r="BN81" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="BO81" s="34"/>
-      <c r="BP81" s="34"/>
-      <c r="BQ81" s="34"/>
-      <c r="BR81" s="33" t="s">
+      <c r="BO81" s="31"/>
+      <c r="BP81" s="31"/>
+      <c r="BQ81" s="31"/>
+      <c r="BR81" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="BS81" s="34"/>
-      <c r="BT81" s="34"/>
-      <c r="BU81" s="34"/>
-      <c r="BV81" s="33" t="s">
+      <c r="BS81" s="31"/>
+      <c r="BT81" s="31"/>
+      <c r="BU81" s="31"/>
+      <c r="BV81" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="BW81" s="33"/>
-      <c r="BX81" s="33"/>
-      <c r="BY81" s="33"/>
-      <c r="BZ81" s="33" t="s">
+      <c r="BW81" s="30"/>
+      <c r="BX81" s="30"/>
+      <c r="BY81" s="30"/>
+      <c r="BZ81" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="CA81" s="33"/>
-      <c r="CB81" s="33"/>
-      <c r="CC81" s="33"/>
-      <c r="CD81" s="33" t="s">
+      <c r="CA81" s="30"/>
+      <c r="CB81" s="30"/>
+      <c r="CC81" s="30"/>
+      <c r="CD81" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="CE81" s="33"/>
-      <c r="CF81" s="33"/>
-      <c r="CG81" s="33"/>
-      <c r="CH81" s="33" t="s">
+      <c r="CE81" s="30"/>
+      <c r="CF81" s="30"/>
+      <c r="CG81" s="30"/>
+      <c r="CH81" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="CI81" s="33"/>
-      <c r="CJ81" s="28"/>
-      <c r="CK81" s="28"/>
-      <c r="CL81" s="25"/>
-      <c r="CM81" s="25"/>
+      <c r="CI81" s="30"/>
+      <c r="CJ81" s="30"/>
+      <c r="CK81" s="27"/>
+      <c r="CL81" s="30"/>
+      <c r="CM81" s="30"/>
+      <c r="CN81" s="27"/>
     </row>
-    <row r="82" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>10</v>
       </c>
@@ -31881,15 +31923,18 @@
       <c r="CI82" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CJ82" s="6"/>
+      <c r="CJ82" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="CK82" s="6"/>
       <c r="CL82" s="6"/>
-      <c r="CM82" s="29"/>
+      <c r="CM82" s="6"/>
+      <c r="CN82" s="6"/>
     </row>
-    <row r="83" spans="1:128" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
     </row>
-    <row r="84" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>11</v>
       </c>
@@ -32145,17 +32190,19 @@
       <c r="CG84" s="19">
         <v>20.713755591272815</v>
       </c>
-      <c r="CH84" s="30">
+      <c r="CH84" s="28">
         <v>-5.4012132207876675</v>
       </c>
-      <c r="CI84" s="30">
-        <v>22.697231456693956</v>
-      </c>
-      <c r="CJ84" s="30"/>
-      <c r="CK84" s="30"/>
-      <c r="CL84" s="30"/>
-      <c r="CM84" s="20"/>
-      <c r="CN84" s="9"/>
+      <c r="CI84" s="28">
+        <v>23.180708188186401</v>
+      </c>
+      <c r="CJ84" s="28">
+        <v>13.421741461758913</v>
+      </c>
+      <c r="CK84" s="28"/>
+      <c r="CL84" s="28"/>
+      <c r="CM84" s="28"/>
+      <c r="CN84" s="28"/>
       <c r="CO84" s="9"/>
       <c r="CP84" s="9"/>
       <c r="CQ84" s="9"/>
@@ -32185,7 +32232,7 @@
       <c r="DO84" s="9"/>
       <c r="DP84" s="9"/>
     </row>
-    <row r="85" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>12</v>
       </c>
@@ -32441,17 +32488,19 @@
       <c r="CG85" s="19">
         <v>4.9855510853146683</v>
       </c>
-      <c r="CH85" s="30">
+      <c r="CH85" s="28">
         <v>27.73759831620896</v>
       </c>
-      <c r="CI85" s="30">
-        <v>16.182637195966649</v>
-      </c>
-      <c r="CJ85" s="30"/>
-      <c r="CK85" s="30"/>
-      <c r="CL85" s="30"/>
-      <c r="CM85" s="20"/>
-      <c r="CN85" s="9"/>
+      <c r="CI85" s="28">
+        <v>17.058948089627862</v>
+      </c>
+      <c r="CJ85" s="28">
+        <v>16.46841405371957</v>
+      </c>
+      <c r="CK85" s="28"/>
+      <c r="CL85" s="28"/>
+      <c r="CM85" s="28"/>
+      <c r="CN85" s="28"/>
       <c r="CO85" s="9"/>
       <c r="CP85" s="9"/>
       <c r="CQ85" s="9"/>
@@ -32481,7 +32530,7 @@
       <c r="DO85" s="9"/>
       <c r="DP85" s="9"/>
     </row>
-    <row r="86" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>13</v>
       </c>
@@ -32737,17 +32786,19 @@
       <c r="CG86" s="19">
         <v>21.698798084871896</v>
       </c>
-      <c r="CH86" s="30">
+      <c r="CH86" s="28">
         <v>19.246246454454635</v>
       </c>
-      <c r="CI86" s="30">
-        <v>1.4085881815834256</v>
-      </c>
-      <c r="CJ86" s="30"/>
-      <c r="CK86" s="30"/>
-      <c r="CL86" s="30"/>
-      <c r="CM86" s="20"/>
-      <c r="CN86" s="9"/>
+      <c r="CI86" s="28">
+        <v>1.754114116337675</v>
+      </c>
+      <c r="CJ86" s="28">
+        <v>4.780230529079148</v>
+      </c>
+      <c r="CK86" s="28"/>
+      <c r="CL86" s="28"/>
+      <c r="CM86" s="28"/>
+      <c r="CN86" s="28"/>
       <c r="CO86" s="9"/>
       <c r="CP86" s="9"/>
       <c r="CQ86" s="9"/>
@@ -32777,7 +32828,7 @@
       <c r="DO86" s="9"/>
       <c r="DP86" s="9"/>
     </row>
-    <row r="87" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
       <c r="D87" s="21"/>
@@ -32868,7 +32919,7 @@
       <c r="CK87" s="20"/>
       <c r="CL87" s="20"/>
       <c r="CM87" s="20"/>
-      <c r="CN87" s="9"/>
+      <c r="CN87" s="20"/>
       <c r="CO87" s="9"/>
       <c r="CP87" s="9"/>
       <c r="CQ87" s="9"/>
@@ -32898,7 +32949,7 @@
       <c r="DO87" s="9"/>
       <c r="DP87" s="9"/>
     </row>
-    <row r="88" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
         <v>14</v>
       </c>
@@ -33154,17 +33205,19 @@
       <c r="CG88" s="19">
         <v>15.773243027209304</v>
       </c>
-      <c r="CH88" s="30">
+      <c r="CH88" s="28">
         <v>14.701554858258035</v>
       </c>
-      <c r="CI88" s="30">
-        <v>15.740424369092182</v>
-      </c>
-      <c r="CJ88" s="30"/>
-      <c r="CK88" s="30"/>
-      <c r="CL88" s="30"/>
-      <c r="CM88" s="20"/>
-      <c r="CN88" s="9"/>
+      <c r="CI88" s="28">
+        <v>16.289104949243736</v>
+      </c>
+      <c r="CJ88" s="28">
+        <v>11.779659561594286</v>
+      </c>
+      <c r="CK88" s="28"/>
+      <c r="CL88" s="28"/>
+      <c r="CM88" s="28"/>
+      <c r="CN88" s="28"/>
       <c r="CO88" s="9"/>
       <c r="CP88" s="9"/>
       <c r="CQ88" s="9"/>
@@ -33194,7 +33247,7 @@
       <c r="DO88" s="9"/>
       <c r="DP88" s="9"/>
     </row>
-    <row r="89" spans="1:128" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:128" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="12"/>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
@@ -33285,9 +33338,10 @@
       <c r="CJ89" s="23"/>
       <c r="CK89" s="23"/>
       <c r="CL89" s="23"/>
-      <c r="CM89" s="31"/>
+      <c r="CM89" s="23"/>
+      <c r="CN89" s="23"/>
     </row>
-    <row r="90" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
@@ -33373,13 +33427,13 @@
       <c r="CE90" s="19"/>
       <c r="CF90" s="19"/>
       <c r="CG90" s="19"/>
-      <c r="CH90" s="30"/>
-      <c r="CI90" s="30"/>
-      <c r="CJ90" s="30"/>
-      <c r="CK90" s="30"/>
-      <c r="CL90" s="30"/>
-      <c r="CM90" s="20"/>
-      <c r="CN90" s="9"/>
+      <c r="CH90" s="28"/>
+      <c r="CI90" s="28"/>
+      <c r="CJ90" s="28"/>
+      <c r="CK90" s="28"/>
+      <c r="CL90" s="28"/>
+      <c r="CM90" s="28"/>
+      <c r="CN90" s="28"/>
       <c r="CO90" s="9"/>
       <c r="CP90" s="9"/>
       <c r="CQ90" s="9"/>
@@ -33409,7 +33463,7 @@
       <c r="DO90" s="9"/>
       <c r="DP90" s="9"/>
     </row>
-    <row r="91" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
         <v>15</v>
       </c>
@@ -33665,17 +33719,19 @@
       <c r="CG91" s="19">
         <v>18.604856888226124</v>
       </c>
-      <c r="CH91" s="30">
+      <c r="CH91" s="28">
         <v>14.71654869173571</v>
       </c>
-      <c r="CI91" s="30">
-        <v>19.037045862779166</v>
-      </c>
-      <c r="CJ91" s="30"/>
-      <c r="CK91" s="30"/>
-      <c r="CL91" s="30"/>
-      <c r="CM91" s="20"/>
-      <c r="CN91" s="9"/>
+      <c r="CI91" s="28">
+        <v>19.478423603633928</v>
+      </c>
+      <c r="CJ91" s="28">
+        <v>12.159579555664891</v>
+      </c>
+      <c r="CK91" s="28"/>
+      <c r="CL91" s="28"/>
+      <c r="CM91" s="28"/>
+      <c r="CN91" s="28"/>
       <c r="CO91" s="9"/>
       <c r="CP91" s="9"/>
       <c r="CQ91" s="9"/>
@@ -33705,7 +33761,7 @@
       <c r="DO91" s="9"/>
       <c r="DP91" s="9"/>
     </row>
-    <row r="92" spans="1:128" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:128" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -33797,18 +33853,19 @@
       <c r="CK92" s="14"/>
       <c r="CL92" s="14"/>
       <c r="CM92" s="14"/>
+      <c r="CN92" s="14"/>
     </row>
-    <row r="93" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -33937,7 +33994,7 @@
       <c r="DW95" s="9"/>
       <c r="DX95" s="9"/>
     </row>
-    <row r="96" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -34066,171 +34123,172 @@
       <c r="DW96" s="9"/>
       <c r="DX96" s="9"/>
     </row>
-    <row r="97" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="102" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
-      <c r="B104" s="33">
+      <c r="B104" s="30">
         <v>2000</v>
       </c>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34"/>
-      <c r="E104" s="34"/>
-      <c r="F104" s="33">
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="30">
         <v>2001</v>
       </c>
-      <c r="G104" s="34"/>
-      <c r="H104" s="34"/>
-      <c r="I104" s="34"/>
-      <c r="J104" s="33">
+      <c r="G104" s="31"/>
+      <c r="H104" s="31"/>
+      <c r="I104" s="31"/>
+      <c r="J104" s="30">
         <v>2002</v>
       </c>
-      <c r="K104" s="34"/>
-      <c r="L104" s="34"/>
-      <c r="M104" s="34"/>
-      <c r="N104" s="33">
+      <c r="K104" s="31"/>
+      <c r="L104" s="31"/>
+      <c r="M104" s="31"/>
+      <c r="N104" s="30">
         <v>2003</v>
       </c>
-      <c r="O104" s="34"/>
-      <c r="P104" s="34"/>
-      <c r="Q104" s="34"/>
-      <c r="R104" s="33">
+      <c r="O104" s="31"/>
+      <c r="P104" s="31"/>
+      <c r="Q104" s="31"/>
+      <c r="R104" s="30">
         <v>2004</v>
       </c>
-      <c r="S104" s="34"/>
-      <c r="T104" s="34"/>
-      <c r="U104" s="34"/>
-      <c r="V104" s="33">
+      <c r="S104" s="31"/>
+      <c r="T104" s="31"/>
+      <c r="U104" s="31"/>
+      <c r="V104" s="30">
         <v>2005</v>
       </c>
-      <c r="W104" s="34"/>
-      <c r="X104" s="34"/>
-      <c r="Y104" s="34"/>
-      <c r="Z104" s="33">
+      <c r="W104" s="31"/>
+      <c r="X104" s="31"/>
+      <c r="Y104" s="31"/>
+      <c r="Z104" s="30">
         <v>2006</v>
       </c>
-      <c r="AA104" s="34"/>
-      <c r="AB104" s="34"/>
-      <c r="AC104" s="34"/>
-      <c r="AD104" s="33">
+      <c r="AA104" s="31"/>
+      <c r="AB104" s="31"/>
+      <c r="AC104" s="31"/>
+      <c r="AD104" s="30">
         <v>2007</v>
       </c>
-      <c r="AE104" s="34"/>
-      <c r="AF104" s="34"/>
-      <c r="AG104" s="34"/>
-      <c r="AH104" s="33">
+      <c r="AE104" s="31"/>
+      <c r="AF104" s="31"/>
+      <c r="AG104" s="31"/>
+      <c r="AH104" s="30">
         <v>2008</v>
       </c>
-      <c r="AI104" s="34"/>
-      <c r="AJ104" s="34"/>
-      <c r="AK104" s="34"/>
-      <c r="AL104" s="33">
+      <c r="AI104" s="31"/>
+      <c r="AJ104" s="31"/>
+      <c r="AK104" s="31"/>
+      <c r="AL104" s="30">
         <v>2009</v>
       </c>
-      <c r="AM104" s="34"/>
-      <c r="AN104" s="34"/>
-      <c r="AO104" s="34"/>
-      <c r="AP104" s="33">
+      <c r="AM104" s="31"/>
+      <c r="AN104" s="31"/>
+      <c r="AO104" s="31"/>
+      <c r="AP104" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ104" s="34"/>
-      <c r="AR104" s="34"/>
-      <c r="AS104" s="34"/>
-      <c r="AT104" s="33">
+      <c r="AQ104" s="31"/>
+      <c r="AR104" s="31"/>
+      <c r="AS104" s="31"/>
+      <c r="AT104" s="30">
         <v>2011</v>
       </c>
-      <c r="AU104" s="34"/>
-      <c r="AV104" s="34"/>
-      <c r="AW104" s="34"/>
-      <c r="AX104" s="33">
+      <c r="AU104" s="31"/>
+      <c r="AV104" s="31"/>
+      <c r="AW104" s="31"/>
+      <c r="AX104" s="30">
         <v>2012</v>
       </c>
-      <c r="AY104" s="34"/>
-      <c r="AZ104" s="34"/>
-      <c r="BA104" s="34"/>
-      <c r="BB104" s="33">
+      <c r="AY104" s="31"/>
+      <c r="AZ104" s="31"/>
+      <c r="BA104" s="31"/>
+      <c r="BB104" s="30">
         <v>2013</v>
       </c>
-      <c r="BC104" s="34"/>
-      <c r="BD104" s="34"/>
-      <c r="BE104" s="34"/>
-      <c r="BF104" s="33">
+      <c r="BC104" s="31"/>
+      <c r="BD104" s="31"/>
+      <c r="BE104" s="31"/>
+      <c r="BF104" s="30">
         <v>2014</v>
       </c>
-      <c r="BG104" s="34"/>
-      <c r="BH104" s="34"/>
-      <c r="BI104" s="34"/>
-      <c r="BJ104" s="33">
+      <c r="BG104" s="31"/>
+      <c r="BH104" s="31"/>
+      <c r="BI104" s="31"/>
+      <c r="BJ104" s="30">
         <v>2015</v>
       </c>
-      <c r="BK104" s="34"/>
-      <c r="BL104" s="34"/>
-      <c r="BM104" s="34"/>
-      <c r="BN104" s="33">
+      <c r="BK104" s="31"/>
+      <c r="BL104" s="31"/>
+      <c r="BM104" s="31"/>
+      <c r="BN104" s="30">
         <v>2016</v>
       </c>
-      <c r="BO104" s="34"/>
-      <c r="BP104" s="34"/>
-      <c r="BQ104" s="34"/>
-      <c r="BR104" s="33">
+      <c r="BO104" s="31"/>
+      <c r="BP104" s="31"/>
+      <c r="BQ104" s="31"/>
+      <c r="BR104" s="30">
         <v>2017</v>
       </c>
-      <c r="BS104" s="34"/>
-      <c r="BT104" s="34"/>
-      <c r="BU104" s="34"/>
-      <c r="BV104" s="33">
+      <c r="BS104" s="31"/>
+      <c r="BT104" s="31"/>
+      <c r="BU104" s="31"/>
+      <c r="BV104" s="30">
         <v>2018</v>
       </c>
-      <c r="BW104" s="33"/>
-      <c r="BX104" s="33"/>
-      <c r="BY104" s="33"/>
-      <c r="BZ104" s="33">
+      <c r="BW104" s="30"/>
+      <c r="BX104" s="30"/>
+      <c r="BY104" s="30"/>
+      <c r="BZ104" s="30">
         <v>2019</v>
       </c>
-      <c r="CA104" s="33"/>
-      <c r="CB104" s="33"/>
-      <c r="CC104" s="33"/>
-      <c r="CD104" s="33">
+      <c r="CA104" s="30"/>
+      <c r="CB104" s="30"/>
+      <c r="CC104" s="30"/>
+      <c r="CD104" s="30">
         <v>2020</v>
       </c>
-      <c r="CE104" s="33"/>
-      <c r="CF104" s="33"/>
-      <c r="CG104" s="33"/>
-      <c r="CH104" s="33">
+      <c r="CE104" s="30"/>
+      <c r="CF104" s="30"/>
+      <c r="CG104" s="30"/>
+      <c r="CH104" s="30">
         <v>2021</v>
       </c>
-      <c r="CI104" s="33"/>
-      <c r="CJ104" s="33"/>
-      <c r="CK104" s="33"/>
-      <c r="CL104" s="33">
+      <c r="CI104" s="30"/>
+      <c r="CJ104" s="30"/>
+      <c r="CK104" s="30"/>
+      <c r="CL104" s="30">
         <v>2022</v>
       </c>
-      <c r="CM104" s="33"/>
+      <c r="CM104" s="30"/>
+      <c r="CN104" s="30"/>
     </row>
-    <row r="105" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>10</v>
       </c>
@@ -34504,11 +34562,14 @@
       <c r="CM105" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CN105" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="106" spans="1:128" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7"/>
     </row>
-    <row r="107" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>11</v>
       </c>
@@ -34764,25 +34825,27 @@
       <c r="CG107" s="24">
         <v>101.69977324269048</v>
       </c>
-      <c r="CH107" s="32">
+      <c r="CH107" s="29">
         <v>111.17377522144784</v>
       </c>
-      <c r="CI107" s="32">
+      <c r="CI107" s="29">
         <v>105.70481676144105</v>
       </c>
-      <c r="CJ107" s="32">
+      <c r="CJ107" s="29">
         <v>111.77986794634754</v>
       </c>
-      <c r="CK107" s="32">
+      <c r="CK107" s="29">
         <v>106.05218418242357</v>
       </c>
-      <c r="CL107" s="32">
+      <c r="CL107" s="29">
         <v>118.08117506650663</v>
       </c>
-      <c r="CM107" s="32">
-        <v>113.77690535447962</v>
-      </c>
-      <c r="CN107" s="9"/>
+      <c r="CM107" s="29">
+        <v>113.73403460371063</v>
+      </c>
+      <c r="CN107" s="29">
+        <v>122.03710479829095</v>
+      </c>
       <c r="CO107" s="9"/>
       <c r="CP107" s="9"/>
       <c r="CQ107" s="9"/>
@@ -34820,7 +34883,7 @@
       <c r="DW107" s="9"/>
       <c r="DX107" s="9"/>
     </row>
-    <row r="108" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>12</v>
       </c>
@@ -35076,25 +35139,27 @@
       <c r="CG108" s="24">
         <v>106.09546630400037</v>
       </c>
-      <c r="CH108" s="32">
+      <c r="CH108" s="29">
         <v>101.05478495542721</v>
       </c>
-      <c r="CI108" s="32">
+      <c r="CI108" s="29">
         <v>102.41515237601517</v>
       </c>
-      <c r="CJ108" s="32">
+      <c r="CJ108" s="29">
         <v>116.15357655130316</v>
       </c>
-      <c r="CK108" s="32">
+      <c r="CK108" s="29">
         <v>110.59002015889558</v>
       </c>
-      <c r="CL108" s="32">
+      <c r="CL108" s="29">
         <v>107.30556327243934</v>
       </c>
-      <c r="CM108" s="32">
-        <v>110.34219587205686</v>
-      </c>
-      <c r="CN108" s="9"/>
+      <c r="CM108" s="29">
+        <v>110.30839728931579</v>
+      </c>
+      <c r="CN108" s="29">
+        <v>126.84961993683139</v>
+      </c>
       <c r="CO108" s="9"/>
       <c r="CP108" s="9"/>
       <c r="CQ108" s="9"/>
@@ -35132,7 +35197,7 @@
       <c r="DW108" s="9"/>
       <c r="DX108" s="9"/>
     </row>
-    <row r="109" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
@@ -35388,25 +35453,27 @@
       <c r="CG109" s="24">
         <v>93.462437003437287</v>
       </c>
-      <c r="CH109" s="32">
+      <c r="CH109" s="29">
         <v>113.46115398869969</v>
       </c>
-      <c r="CI109" s="32">
+      <c r="CI109" s="29">
         <v>108.62148513306533</v>
       </c>
-      <c r="CJ109" s="32">
+      <c r="CJ109" s="29">
         <v>114.11837506408236</v>
       </c>
-      <c r="CK109" s="32">
+      <c r="CK109" s="29">
         <v>97.79937705530574</v>
       </c>
-      <c r="CL109" s="32">
+      <c r="CL109" s="29">
         <v>120.81679309543762</v>
       </c>
-      <c r="CM109" s="32">
-        <v>117.30190700473369</v>
-      </c>
-      <c r="CN109" s="9"/>
+      <c r="CM109" s="29">
+        <v>117.26843550267978</v>
+      </c>
+      <c r="CN109" s="29">
+        <v>121.98205483488478</v>
+      </c>
       <c r="CO109" s="9"/>
       <c r="CP109" s="9"/>
       <c r="CQ109" s="9"/>
@@ -35444,7 +35511,7 @@
       <c r="DW109" s="9"/>
       <c r="DX109" s="9"/>
     </row>
-    <row r="110" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
@@ -35573,7 +35640,7 @@
       <c r="DW110" s="9"/>
       <c r="DX110" s="9"/>
     </row>
-    <row r="111" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
         <v>14</v>
       </c>
@@ -35829,25 +35896,27 @@
       <c r="CG111" s="24">
         <v>100.56852254954056</v>
       </c>
-      <c r="CH111" s="32">
+      <c r="CH111" s="29">
         <v>107.90109285255369</v>
       </c>
-      <c r="CI111" s="32">
+      <c r="CI111" s="29">
         <v>105.597759447676</v>
       </c>
-      <c r="CJ111" s="32">
+      <c r="CJ111" s="29">
         <v>114.0390571820526</v>
       </c>
-      <c r="CK111" s="32">
+      <c r="CK111" s="29">
         <v>104.68906979963175</v>
       </c>
-      <c r="CL111" s="32">
+      <c r="CL111" s="29">
         <v>114.2384080359532</v>
       </c>
-      <c r="CM111" s="32">
-        <v>113.67257752389004</v>
-      </c>
-      <c r="CN111" s="9"/>
+      <c r="CM111" s="29">
+        <v>113.63061259961715</v>
+      </c>
+      <c r="CN111" s="29">
+        <v>123.77159965028935</v>
+      </c>
       <c r="CO111" s="9"/>
       <c r="CP111" s="9"/>
       <c r="CQ111" s="9"/>
@@ -35885,7 +35954,7 @@
       <c r="DW111" s="9"/>
       <c r="DX111" s="9"/>
     </row>
-    <row r="112" spans="1:128" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:128" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -35977,8 +36046,9 @@
       <c r="CK112" s="12"/>
       <c r="CL112" s="12"/>
       <c r="CM112" s="12"/>
+      <c r="CN112" s="12"/>
     </row>
-    <row r="113" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -36064,13 +36134,13 @@
       <c r="CE113" s="11"/>
       <c r="CF113" s="11"/>
       <c r="CG113" s="11"/>
-      <c r="CH113" s="27"/>
-      <c r="CI113" s="27"/>
-      <c r="CJ113" s="27"/>
-      <c r="CK113" s="27"/>
-      <c r="CL113" s="27"/>
-      <c r="CM113" s="27"/>
-      <c r="CN113" s="9"/>
+      <c r="CH113" s="26"/>
+      <c r="CI113" s="26"/>
+      <c r="CJ113" s="26"/>
+      <c r="CK113" s="26"/>
+      <c r="CL113" s="26"/>
+      <c r="CM113" s="26"/>
+      <c r="CN113" s="26"/>
       <c r="CO113" s="9"/>
       <c r="CP113" s="9"/>
       <c r="CQ113" s="9"/>
@@ -36108,7 +36178,7 @@
       <c r="DW113" s="9"/>
       <c r="DX113" s="9"/>
     </row>
-    <row r="114" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
         <v>15</v>
       </c>
@@ -36364,25 +36434,27 @@
       <c r="CG114" s="24">
         <v>99.162820860083883</v>
       </c>
-      <c r="CH114" s="32">
+      <c r="CH114" s="29">
         <v>105.31047168607704</v>
       </c>
-      <c r="CI114" s="32">
+      <c r="CI114" s="29">
         <v>117.4958655702705</v>
       </c>
-      <c r="CJ114" s="32">
+      <c r="CJ114" s="29">
         <v>109.57720317415294</v>
       </c>
-      <c r="CK114" s="32">
+      <c r="CK114" s="29">
         <v>103.47018062241133</v>
       </c>
-      <c r="CL114" s="32">
+      <c r="CL114" s="29">
         <v>113.37714583142062</v>
       </c>
-      <c r="CM114" s="32">
-        <v>125.18051636179869</v>
-      </c>
-      <c r="CN114" s="9"/>
+      <c r="CM114" s="29">
+        <v>125.1286309172108</v>
+      </c>
+      <c r="CN114" s="29">
+        <v>115.87673294761358</v>
+      </c>
       <c r="CO114" s="9"/>
       <c r="CP114" s="9"/>
       <c r="CQ114" s="9"/>
@@ -36420,7 +36492,7 @@
       <c r="DW114" s="9"/>
       <c r="DX114" s="9"/>
     </row>
-    <row r="115" spans="1:128" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:128" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -36512,187 +36584,189 @@
       <c r="CK115" s="14"/>
       <c r="CL115" s="14"/>
       <c r="CM115" s="14"/>
+      <c r="CN115" s="14"/>
     </row>
-    <row r="116" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="124" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="126" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="128" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
-      <c r="B128" s="33">
+      <c r="B128" s="30">
         <v>2000</v>
       </c>
-      <c r="C128" s="34"/>
-      <c r="D128" s="34"/>
-      <c r="E128" s="34"/>
-      <c r="F128" s="33">
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="30">
         <v>2001</v>
       </c>
-      <c r="G128" s="34"/>
-      <c r="H128" s="34"/>
-      <c r="I128" s="34"/>
-      <c r="J128" s="33">
+      <c r="G128" s="31"/>
+      <c r="H128" s="31"/>
+      <c r="I128" s="31"/>
+      <c r="J128" s="30">
         <v>2002</v>
       </c>
-      <c r="K128" s="34"/>
-      <c r="L128" s="34"/>
-      <c r="M128" s="34"/>
-      <c r="N128" s="33">
+      <c r="K128" s="31"/>
+      <c r="L128" s="31"/>
+      <c r="M128" s="31"/>
+      <c r="N128" s="30">
         <v>2003</v>
       </c>
-      <c r="O128" s="34"/>
-      <c r="P128" s="34"/>
-      <c r="Q128" s="34"/>
-      <c r="R128" s="33">
+      <c r="O128" s="31"/>
+      <c r="P128" s="31"/>
+      <c r="Q128" s="31"/>
+      <c r="R128" s="30">
         <v>2004</v>
       </c>
-      <c r="S128" s="34"/>
-      <c r="T128" s="34"/>
-      <c r="U128" s="34"/>
-      <c r="V128" s="33">
+      <c r="S128" s="31"/>
+      <c r="T128" s="31"/>
+      <c r="U128" s="31"/>
+      <c r="V128" s="30">
         <v>2005</v>
       </c>
-      <c r="W128" s="34"/>
-      <c r="X128" s="34"/>
-      <c r="Y128" s="34"/>
-      <c r="Z128" s="33">
+      <c r="W128" s="31"/>
+      <c r="X128" s="31"/>
+      <c r="Y128" s="31"/>
+      <c r="Z128" s="30">
         <v>2006</v>
       </c>
-      <c r="AA128" s="34"/>
-      <c r="AB128" s="34"/>
-      <c r="AC128" s="34"/>
-      <c r="AD128" s="33">
+      <c r="AA128" s="31"/>
+      <c r="AB128" s="31"/>
+      <c r="AC128" s="31"/>
+      <c r="AD128" s="30">
         <v>2007</v>
       </c>
-      <c r="AE128" s="34"/>
-      <c r="AF128" s="34"/>
-      <c r="AG128" s="34"/>
-      <c r="AH128" s="33">
+      <c r="AE128" s="31"/>
+      <c r="AF128" s="31"/>
+      <c r="AG128" s="31"/>
+      <c r="AH128" s="30">
         <v>2008</v>
       </c>
-      <c r="AI128" s="34"/>
-      <c r="AJ128" s="34"/>
-      <c r="AK128" s="34"/>
-      <c r="AL128" s="33">
+      <c r="AI128" s="31"/>
+      <c r="AJ128" s="31"/>
+      <c r="AK128" s="31"/>
+      <c r="AL128" s="30">
         <v>2009</v>
       </c>
-      <c r="AM128" s="34"/>
-      <c r="AN128" s="34"/>
-      <c r="AO128" s="34"/>
-      <c r="AP128" s="33">
+      <c r="AM128" s="31"/>
+      <c r="AN128" s="31"/>
+      <c r="AO128" s="31"/>
+      <c r="AP128" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="34"/>
-      <c r="AR128" s="34"/>
-      <c r="AS128" s="34"/>
-      <c r="AT128" s="33">
+      <c r="AQ128" s="31"/>
+      <c r="AR128" s="31"/>
+      <c r="AS128" s="31"/>
+      <c r="AT128" s="30">
         <v>2011</v>
       </c>
-      <c r="AU128" s="34"/>
-      <c r="AV128" s="34"/>
-      <c r="AW128" s="34"/>
-      <c r="AX128" s="33">
+      <c r="AU128" s="31"/>
+      <c r="AV128" s="31"/>
+      <c r="AW128" s="31"/>
+      <c r="AX128" s="30">
         <v>2012</v>
       </c>
-      <c r="AY128" s="34"/>
-      <c r="AZ128" s="34"/>
-      <c r="BA128" s="34"/>
-      <c r="BB128" s="33">
+      <c r="AY128" s="31"/>
+      <c r="AZ128" s="31"/>
+      <c r="BA128" s="31"/>
+      <c r="BB128" s="30">
         <v>2013</v>
       </c>
-      <c r="BC128" s="34"/>
-      <c r="BD128" s="34"/>
-      <c r="BE128" s="34"/>
-      <c r="BF128" s="33">
+      <c r="BC128" s="31"/>
+      <c r="BD128" s="31"/>
+      <c r="BE128" s="31"/>
+      <c r="BF128" s="30">
         <v>2014</v>
       </c>
-      <c r="BG128" s="34"/>
-      <c r="BH128" s="34"/>
-      <c r="BI128" s="34"/>
-      <c r="BJ128" s="33">
+      <c r="BG128" s="31"/>
+      <c r="BH128" s="31"/>
+      <c r="BI128" s="31"/>
+      <c r="BJ128" s="30">
         <v>2015</v>
       </c>
-      <c r="BK128" s="34"/>
-      <c r="BL128" s="34"/>
-      <c r="BM128" s="34"/>
-      <c r="BN128" s="33">
+      <c r="BK128" s="31"/>
+      <c r="BL128" s="31"/>
+      <c r="BM128" s="31"/>
+      <c r="BN128" s="30">
         <v>2016</v>
       </c>
-      <c r="BO128" s="34"/>
-      <c r="BP128" s="34"/>
-      <c r="BQ128" s="34"/>
-      <c r="BR128" s="33">
+      <c r="BO128" s="31"/>
+      <c r="BP128" s="31"/>
+      <c r="BQ128" s="31"/>
+      <c r="BR128" s="30">
         <v>2017</v>
       </c>
-      <c r="BS128" s="34"/>
-      <c r="BT128" s="34"/>
-      <c r="BU128" s="34"/>
-      <c r="BV128" s="33">
+      <c r="BS128" s="31"/>
+      <c r="BT128" s="31"/>
+      <c r="BU128" s="31"/>
+      <c r="BV128" s="30">
         <v>2018</v>
       </c>
-      <c r="BW128" s="33"/>
-      <c r="BX128" s="33"/>
-      <c r="BY128" s="33"/>
-      <c r="BZ128" s="33">
+      <c r="BW128" s="30"/>
+      <c r="BX128" s="30"/>
+      <c r="BY128" s="30"/>
+      <c r="BZ128" s="30">
         <v>2019</v>
       </c>
-      <c r="CA128" s="33"/>
-      <c r="CB128" s="33"/>
-      <c r="CC128" s="33"/>
-      <c r="CD128" s="33">
+      <c r="CA128" s="30"/>
+      <c r="CB128" s="30"/>
+      <c r="CC128" s="30"/>
+      <c r="CD128" s="30">
         <v>2020</v>
       </c>
-      <c r="CE128" s="33"/>
-      <c r="CF128" s="33"/>
-      <c r="CG128" s="33"/>
-      <c r="CH128" s="33">
+      <c r="CE128" s="30"/>
+      <c r="CF128" s="30"/>
+      <c r="CG128" s="30"/>
+      <c r="CH128" s="30">
         <v>2021</v>
       </c>
-      <c r="CI128" s="33"/>
-      <c r="CJ128" s="33"/>
-      <c r="CK128" s="33"/>
-      <c r="CL128" s="33">
+      <c r="CI128" s="30"/>
+      <c r="CJ128" s="30"/>
+      <c r="CK128" s="30"/>
+      <c r="CL128" s="30">
         <v>2022</v>
       </c>
-      <c r="CM128" s="33"/>
+      <c r="CM128" s="30"/>
+      <c r="CN128" s="30"/>
     </row>
-    <row r="129" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>10</v>
       </c>
@@ -36966,11 +37040,14 @@
       <c r="CM129" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CN129" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="130" spans="1:128" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7"/>
     </row>
-    <row r="131" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
@@ -37226,25 +37303,27 @@
       <c r="CG131" s="24">
         <v>35.456730374240195</v>
       </c>
-      <c r="CH131" s="32">
+      <c r="CH131" s="29">
         <v>32.821306057377335</v>
       </c>
-      <c r="CI131" s="32">
+      <c r="CI131" s="29">
         <v>49.779474948521546</v>
       </c>
-      <c r="CJ131" s="32">
+      <c r="CJ131" s="29">
         <v>33.107119178712338</v>
       </c>
-      <c r="CK131" s="32">
+      <c r="CK131" s="29">
         <v>37.034595835970627</v>
       </c>
-      <c r="CL131" s="32">
+      <c r="CL131" s="29">
         <v>27.155895836599122</v>
       </c>
-      <c r="CM131" s="32">
-        <v>52.76650624112547</v>
-      </c>
-      <c r="CN131" s="9"/>
+      <c r="CM131" s="29">
+        <v>52.724079190639287</v>
+      </c>
+      <c r="CN131" s="29">
+        <v>33.792151114304687</v>
+      </c>
       <c r="CO131" s="9"/>
       <c r="CP131" s="9"/>
       <c r="CQ131" s="9"/>
@@ -37282,7 +37361,7 @@
       <c r="DW131" s="9"/>
       <c r="DX131" s="9"/>
     </row>
-    <row r="132" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>12</v>
       </c>
@@ -37538,25 +37617,27 @@
       <c r="CG132" s="24">
         <v>35.222634621952963</v>
       </c>
-      <c r="CH132" s="32">
+      <c r="CH132" s="29">
         <v>36.472083297977434</v>
       </c>
-      <c r="CI132" s="32">
+      <c r="CI132" s="29">
         <v>24.58579926244882</v>
       </c>
-      <c r="CJ132" s="32">
+      <c r="CJ132" s="29">
         <v>35.559969210452664</v>
       </c>
-      <c r="CK132" s="32">
+      <c r="CK132" s="29">
         <v>31.983280826946096</v>
       </c>
-      <c r="CL132" s="32">
+      <c r="CL132" s="29">
         <v>40.737002505909821</v>
       </c>
-      <c r="CM132" s="32">
-        <v>24.701134125825668</v>
-      </c>
-      <c r="CN132" s="9"/>
+      <c r="CM132" s="29">
+        <v>24.771575853816923</v>
+      </c>
+      <c r="CN132" s="29">
+        <v>37.281721083750462</v>
+      </c>
       <c r="CO132" s="9"/>
       <c r="CP132" s="9"/>
       <c r="CQ132" s="9"/>
@@ -37594,7 +37675,7 @@
       <c r="DW132" s="9"/>
       <c r="DX132" s="9"/>
     </row>
-    <row r="133" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>13</v>
       </c>
@@ -37850,25 +37931,27 @@
       <c r="CG133" s="24">
         <v>29.320635003806846</v>
       </c>
-      <c r="CH133" s="32">
+      <c r="CH133" s="29">
         <v>30.706610644645217</v>
       </c>
-      <c r="CI133" s="32">
+      <c r="CI133" s="29">
         <v>25.634725789029627</v>
       </c>
-      <c r="CJ133" s="32">
+      <c r="CJ133" s="29">
         <v>31.332911610835001</v>
       </c>
-      <c r="CK133" s="32">
+      <c r="CK133" s="29">
         <v>30.982123337083284</v>
       </c>
-      <c r="CL133" s="32">
+      <c r="CL133" s="29">
         <v>32.107101657491057</v>
       </c>
-      <c r="CM133" s="32">
-        <v>22.532359633048873</v>
-      </c>
-      <c r="CN133" s="9"/>
+      <c r="CM133" s="29">
+        <v>22.504344955543797</v>
+      </c>
+      <c r="CN133" s="29">
+        <v>28.926127801944858</v>
+      </c>
       <c r="CO133" s="9"/>
       <c r="CP133" s="9"/>
       <c r="CQ133" s="9"/>
@@ -37906,7 +37989,7 @@
       <c r="DW133" s="9"/>
       <c r="DX133" s="9"/>
     </row>
-    <row r="134" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
@@ -38035,7 +38118,7 @@
       <c r="DW134" s="9"/>
       <c r="DX134" s="9"/>
     </row>
-    <row r="135" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
         <v>14</v>
       </c>
@@ -38291,25 +38374,27 @@
       <c r="CG135" s="24">
         <v>100</v>
       </c>
-      <c r="CH135" s="32">
+      <c r="CH135" s="29">
         <v>100</v>
       </c>
-      <c r="CI135" s="32">
+      <c r="CI135" s="29">
         <v>100</v>
       </c>
-      <c r="CJ135" s="32">
+      <c r="CJ135" s="29">
         <v>100</v>
       </c>
-      <c r="CK135" s="32">
+      <c r="CK135" s="29">
         <v>100</v>
       </c>
-      <c r="CL135" s="32">
+      <c r="CL135" s="29">
         <v>100</v>
       </c>
-      <c r="CM135" s="32">
+      <c r="CM135" s="29">
         <v>100</v>
       </c>
-      <c r="CN135" s="9"/>
+      <c r="CN135" s="29">
+        <v>100</v>
+      </c>
       <c r="CO135" s="9"/>
       <c r="CP135" s="9"/>
       <c r="CQ135" s="9"/>
@@ -38347,7 +38432,7 @@
       <c r="DW135" s="9"/>
       <c r="DX135" s="9"/>
     </row>
-    <row r="136" spans="1:128" s="13" customFormat="1" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:128" s="13" customFormat="1" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -38439,8 +38524,9 @@
       <c r="CK136" s="12"/>
       <c r="CL136" s="12"/>
       <c r="CM136" s="12"/>
+      <c r="CN136" s="12"/>
     </row>
-    <row r="137" spans="1:128" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -38526,13 +38612,13 @@
       <c r="CE137" s="11"/>
       <c r="CF137" s="11"/>
       <c r="CG137" s="11"/>
-      <c r="CH137" s="27"/>
-      <c r="CI137" s="27"/>
-      <c r="CJ137" s="27"/>
-      <c r="CK137" s="27"/>
-      <c r="CL137" s="27"/>
-      <c r="CM137" s="27"/>
-      <c r="CN137" s="9"/>
+      <c r="CH137" s="26"/>
+      <c r="CI137" s="26"/>
+      <c r="CJ137" s="26"/>
+      <c r="CK137" s="26"/>
+      <c r="CL137" s="26"/>
+      <c r="CM137" s="26"/>
+      <c r="CN137" s="26"/>
       <c r="CO137" s="9"/>
       <c r="CP137" s="9"/>
       <c r="CQ137" s="9"/>
@@ -38570,7 +38656,7 @@
       <c r="DW137" s="9"/>
       <c r="DX137" s="9"/>
     </row>
-    <row r="138" spans="1:128" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="10"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -38656,13 +38742,13 @@
       <c r="CE138" s="11"/>
       <c r="CF138" s="11"/>
       <c r="CG138" s="11"/>
-      <c r="CH138" s="27"/>
-      <c r="CI138" s="27"/>
-      <c r="CJ138" s="27"/>
-      <c r="CK138" s="27"/>
-      <c r="CL138" s="27"/>
-      <c r="CM138" s="27"/>
-      <c r="CN138" s="9"/>
+      <c r="CH138" s="26"/>
+      <c r="CI138" s="26"/>
+      <c r="CJ138" s="26"/>
+      <c r="CK138" s="26"/>
+      <c r="CL138" s="26"/>
+      <c r="CM138" s="26"/>
+      <c r="CN138" s="26"/>
       <c r="CO138" s="9"/>
       <c r="CP138" s="9"/>
       <c r="CQ138" s="9"/>
@@ -38700,7 +38786,7 @@
       <c r="DW138" s="9"/>
       <c r="DX138" s="9"/>
     </row>
-    <row r="139" spans="1:128" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:128" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
@@ -38792,18 +38878,19 @@
       <c r="CK139" s="14"/>
       <c r="CL139" s="14"/>
       <c r="CM139" s="14"/>
+      <c r="CN139" s="14"/>
     </row>
-    <row r="140" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
@@ -38932,7 +39019,7 @@
       <c r="DW142" s="9"/>
       <c r="DX142" s="9"/>
     </row>
-    <row r="143" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
@@ -39061,176 +39148,177 @@
       <c r="DW143" s="9"/>
       <c r="DX143" s="9"/>
     </row>
-    <row r="144" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="148" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="150" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="152" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
-      <c r="B152" s="33">
+      <c r="B152" s="30">
         <v>2000</v>
       </c>
-      <c r="C152" s="34"/>
-      <c r="D152" s="34"/>
-      <c r="E152" s="34"/>
-      <c r="F152" s="33">
+      <c r="C152" s="31"/>
+      <c r="D152" s="31"/>
+      <c r="E152" s="31"/>
+      <c r="F152" s="30">
         <v>2001</v>
       </c>
-      <c r="G152" s="34"/>
-      <c r="H152" s="34"/>
-      <c r="I152" s="34"/>
-      <c r="J152" s="33">
+      <c r="G152" s="31"/>
+      <c r="H152" s="31"/>
+      <c r="I152" s="31"/>
+      <c r="J152" s="30">
         <v>2002</v>
       </c>
-      <c r="K152" s="34"/>
-      <c r="L152" s="34"/>
-      <c r="M152" s="34"/>
-      <c r="N152" s="33">
+      <c r="K152" s="31"/>
+      <c r="L152" s="31"/>
+      <c r="M152" s="31"/>
+      <c r="N152" s="30">
         <v>2003</v>
       </c>
-      <c r="O152" s="34"/>
-      <c r="P152" s="34"/>
-      <c r="Q152" s="34"/>
-      <c r="R152" s="33">
+      <c r="O152" s="31"/>
+      <c r="P152" s="31"/>
+      <c r="Q152" s="31"/>
+      <c r="R152" s="30">
         <v>2004</v>
       </c>
-      <c r="S152" s="34"/>
-      <c r="T152" s="34"/>
-      <c r="U152" s="34"/>
-      <c r="V152" s="33">
+      <c r="S152" s="31"/>
+      <c r="T152" s="31"/>
+      <c r="U152" s="31"/>
+      <c r="V152" s="30">
         <v>2005</v>
       </c>
-      <c r="W152" s="34"/>
-      <c r="X152" s="34"/>
-      <c r="Y152" s="34"/>
-      <c r="Z152" s="33">
+      <c r="W152" s="31"/>
+      <c r="X152" s="31"/>
+      <c r="Y152" s="31"/>
+      <c r="Z152" s="30">
         <v>2006</v>
       </c>
-      <c r="AA152" s="34"/>
-      <c r="AB152" s="34"/>
-      <c r="AC152" s="34"/>
-      <c r="AD152" s="33">
+      <c r="AA152" s="31"/>
+      <c r="AB152" s="31"/>
+      <c r="AC152" s="31"/>
+      <c r="AD152" s="30">
         <v>2007</v>
       </c>
-      <c r="AE152" s="34"/>
-      <c r="AF152" s="34"/>
-      <c r="AG152" s="34"/>
-      <c r="AH152" s="33">
+      <c r="AE152" s="31"/>
+      <c r="AF152" s="31"/>
+      <c r="AG152" s="31"/>
+      <c r="AH152" s="30">
         <v>2008</v>
       </c>
-      <c r="AI152" s="34"/>
-      <c r="AJ152" s="34"/>
-      <c r="AK152" s="34"/>
-      <c r="AL152" s="33">
+      <c r="AI152" s="31"/>
+      <c r="AJ152" s="31"/>
+      <c r="AK152" s="31"/>
+      <c r="AL152" s="30">
         <v>2009</v>
       </c>
-      <c r="AM152" s="34"/>
-      <c r="AN152" s="34"/>
-      <c r="AO152" s="34"/>
-      <c r="AP152" s="33">
+      <c r="AM152" s="31"/>
+      <c r="AN152" s="31"/>
+      <c r="AO152" s="31"/>
+      <c r="AP152" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ152" s="34"/>
-      <c r="AR152" s="34"/>
-      <c r="AS152" s="34"/>
-      <c r="AT152" s="33">
+      <c r="AQ152" s="31"/>
+      <c r="AR152" s="31"/>
+      <c r="AS152" s="31"/>
+      <c r="AT152" s="30">
         <v>2011</v>
       </c>
-      <c r="AU152" s="34"/>
-      <c r="AV152" s="34"/>
-      <c r="AW152" s="34"/>
-      <c r="AX152" s="33">
+      <c r="AU152" s="31"/>
+      <c r="AV152" s="31"/>
+      <c r="AW152" s="31"/>
+      <c r="AX152" s="30">
         <v>2012</v>
       </c>
-      <c r="AY152" s="34"/>
-      <c r="AZ152" s="34"/>
-      <c r="BA152" s="34"/>
-      <c r="BB152" s="33">
+      <c r="AY152" s="31"/>
+      <c r="AZ152" s="31"/>
+      <c r="BA152" s="31"/>
+      <c r="BB152" s="30">
         <v>2013</v>
       </c>
-      <c r="BC152" s="34"/>
-      <c r="BD152" s="34"/>
-      <c r="BE152" s="34"/>
-      <c r="BF152" s="33">
+      <c r="BC152" s="31"/>
+      <c r="BD152" s="31"/>
+      <c r="BE152" s="31"/>
+      <c r="BF152" s="30">
         <v>2014</v>
       </c>
-      <c r="BG152" s="34"/>
-      <c r="BH152" s="34"/>
-      <c r="BI152" s="34"/>
-      <c r="BJ152" s="33">
+      <c r="BG152" s="31"/>
+      <c r="BH152" s="31"/>
+      <c r="BI152" s="31"/>
+      <c r="BJ152" s="30">
         <v>2015</v>
       </c>
-      <c r="BK152" s="34"/>
-      <c r="BL152" s="34"/>
-      <c r="BM152" s="34"/>
-      <c r="BN152" s="33">
+      <c r="BK152" s="31"/>
+      <c r="BL152" s="31"/>
+      <c r="BM152" s="31"/>
+      <c r="BN152" s="30">
         <v>2016</v>
       </c>
-      <c r="BO152" s="34"/>
-      <c r="BP152" s="34"/>
-      <c r="BQ152" s="34"/>
-      <c r="BR152" s="33">
+      <c r="BO152" s="31"/>
+      <c r="BP152" s="31"/>
+      <c r="BQ152" s="31"/>
+      <c r="BR152" s="30">
         <v>2017</v>
       </c>
-      <c r="BS152" s="34"/>
-      <c r="BT152" s="34"/>
-      <c r="BU152" s="34"/>
-      <c r="BV152" s="33">
+      <c r="BS152" s="31"/>
+      <c r="BT152" s="31"/>
+      <c r="BU152" s="31"/>
+      <c r="BV152" s="30">
         <v>2018</v>
       </c>
-      <c r="BW152" s="33"/>
-      <c r="BX152" s="33"/>
-      <c r="BY152" s="33"/>
-      <c r="BZ152" s="33">
+      <c r="BW152" s="30"/>
+      <c r="BX152" s="30"/>
+      <c r="BY152" s="30"/>
+      <c r="BZ152" s="30">
         <v>2019</v>
       </c>
-      <c r="CA152" s="33"/>
-      <c r="CB152" s="33"/>
-      <c r="CC152" s="33"/>
-      <c r="CD152" s="33">
+      <c r="CA152" s="30"/>
+      <c r="CB152" s="30"/>
+      <c r="CC152" s="30"/>
+      <c r="CD152" s="30">
         <v>2020</v>
       </c>
-      <c r="CE152" s="33"/>
-      <c r="CF152" s="33"/>
-      <c r="CG152" s="33"/>
-      <c r="CH152" s="33">
+      <c r="CE152" s="30"/>
+      <c r="CF152" s="30"/>
+      <c r="CG152" s="30"/>
+      <c r="CH152" s="30">
         <v>2021</v>
       </c>
-      <c r="CI152" s="33"/>
-      <c r="CJ152" s="33"/>
-      <c r="CK152" s="33"/>
-      <c r="CL152" s="33">
+      <c r="CI152" s="30"/>
+      <c r="CJ152" s="30"/>
+      <c r="CK152" s="30"/>
+      <c r="CL152" s="30">
         <v>2022</v>
       </c>
-      <c r="CM152" s="33"/>
+      <c r="CM152" s="30"/>
+      <c r="CN152" s="30"/>
     </row>
-    <row r="153" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>10</v>
       </c>
@@ -39504,11 +39592,14 @@
       <c r="CM153" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CN153" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="154" spans="1:128" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7"/>
     </row>
-    <row r="155" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
@@ -39764,25 +39855,27 @@
       <c r="CG155" s="24">
         <v>35.06232978185173</v>
       </c>
-      <c r="CH155" s="32">
+      <c r="CH155" s="29">
         <v>31.855127572891227</v>
       </c>
-      <c r="CI155" s="32">
+      <c r="CI155" s="29">
         <v>49.729058543367088</v>
       </c>
-      <c r="CJ155" s="32">
+      <c r="CJ155" s="29">
         <v>33.776249037674525</v>
       </c>
-      <c r="CK155" s="32">
+      <c r="CK155" s="29">
         <v>36.558581215111353</v>
       </c>
-      <c r="CL155" s="32">
+      <c r="CL155" s="29">
         <v>26.272149709011451</v>
       </c>
-      <c r="CM155" s="32">
-        <v>52.718121948137572</v>
-      </c>
-      <c r="CN155" s="9"/>
+      <c r="CM155" s="29">
+        <v>52.676135495043866</v>
+      </c>
+      <c r="CN155" s="29">
+        <v>34.272433830308074</v>
+      </c>
       <c r="CO155" s="9"/>
       <c r="CP155" s="9"/>
       <c r="CQ155" s="9"/>
@@ -39820,7 +39913,7 @@
       <c r="DW155" s="9"/>
       <c r="DX155" s="9"/>
     </row>
-    <row r="156" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>12</v>
       </c>
@@ -40076,25 +40169,27 @@
       <c r="CG156" s="24">
         <v>33.387744525126251</v>
       </c>
-      <c r="CH156" s="32">
+      <c r="CH156" s="29">
         <v>38.943011438764977</v>
       </c>
-      <c r="CI156" s="32">
+      <c r="CI156" s="29">
         <v>25.34981646869015</v>
       </c>
-      <c r="CJ156" s="32">
+      <c r="CJ156" s="29">
         <v>34.912617265743116</v>
       </c>
-      <c r="CK156" s="32">
+      <c r="CK156" s="29">
         <v>30.276691460066207</v>
       </c>
-      <c r="CL156" s="32">
+      <c r="CL156" s="29">
         <v>43.368956580716734</v>
       </c>
-      <c r="CM156" s="32">
-        <v>25.446671254409786</v>
-      </c>
-      <c r="CN156" s="9"/>
+      <c r="CM156" s="29">
+        <v>25.517634273521782</v>
+      </c>
+      <c r="CN156" s="29">
+        <v>36.377075930929884</v>
+      </c>
       <c r="CO156" s="9"/>
       <c r="CP156" s="9"/>
       <c r="CQ156" s="9"/>
@@ -40132,7 +40227,7 @@
       <c r="DW156" s="9"/>
       <c r="DX156" s="9"/>
     </row>
-    <row r="157" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>13</v>
       </c>
@@ -40388,25 +40483,27 @@
       <c r="CG157" s="24">
         <v>31.549925693022008</v>
       </c>
-      <c r="CH157" s="32">
+      <c r="CH157" s="29">
         <v>29.201860988343793</v>
       </c>
-      <c r="CI157" s="32">
+      <c r="CI157" s="29">
         <v>24.921124987942754</v>
       </c>
-      <c r="CJ157" s="32">
+      <c r="CJ157" s="29">
         <v>31.311133696582356</v>
       </c>
-      <c r="CK157" s="32">
+      <c r="CK157" s="29">
         <v>33.164727324822444</v>
       </c>
-      <c r="CL157" s="32">
+      <c r="CL157" s="29">
         <v>30.358893710271818</v>
       </c>
-      <c r="CM157" s="32">
-        <v>21.835206797452646</v>
-      </c>
-      <c r="CN157" s="9"/>
+      <c r="CM157" s="29">
+        <v>21.806230231434359</v>
+      </c>
+      <c r="CN157" s="29">
+        <v>29.350490238762045</v>
+      </c>
       <c r="CO157" s="9"/>
       <c r="CP157" s="9"/>
       <c r="CQ157" s="9"/>
@@ -40444,7 +40541,7 @@
       <c r="DW157" s="9"/>
       <c r="DX157" s="9"/>
     </row>
-    <row r="158" spans="1:128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
@@ -40573,7 +40670,7 @@
       <c r="DW158" s="9"/>
       <c r="DX158" s="9"/>
     </row>
-    <row r="159" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
         <v>14</v>
       </c>
@@ -40829,25 +40926,27 @@
       <c r="CG159" s="24">
         <v>100</v>
       </c>
-      <c r="CH159" s="32">
+      <c r="CH159" s="29">
         <v>100</v>
       </c>
-      <c r="CI159" s="32">
+      <c r="CI159" s="29">
         <v>100</v>
       </c>
-      <c r="CJ159" s="32">
+      <c r="CJ159" s="29">
         <v>100</v>
       </c>
-      <c r="CK159" s="32">
+      <c r="CK159" s="29">
         <v>100</v>
       </c>
-      <c r="CL159" s="32">
+      <c r="CL159" s="29">
         <v>100</v>
       </c>
-      <c r="CM159" s="32">
+      <c r="CM159" s="29">
         <v>100</v>
       </c>
-      <c r="CN159" s="9"/>
+      <c r="CN159" s="29">
+        <v>100</v>
+      </c>
       <c r="CO159" s="9"/>
       <c r="CP159" s="9"/>
       <c r="CQ159" s="9"/>
@@ -40885,7 +40984,7 @@
       <c r="DW159" s="9"/>
       <c r="DX159" s="9"/>
     </row>
-    <row r="160" spans="1:128" s="13" customFormat="1" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:128" s="13" customFormat="1" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="12"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -40977,8 +41076,9 @@
       <c r="CK160" s="12"/>
       <c r="CL160" s="12"/>
       <c r="CM160" s="12"/>
+      <c r="CN160" s="12"/>
     </row>
-    <row r="161" spans="1:128" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -41064,13 +41164,13 @@
       <c r="CE161" s="11"/>
       <c r="CF161" s="11"/>
       <c r="CG161" s="11"/>
-      <c r="CH161" s="27"/>
-      <c r="CI161" s="27"/>
-      <c r="CJ161" s="27"/>
-      <c r="CK161" s="27"/>
-      <c r="CL161" s="27"/>
-      <c r="CM161" s="27"/>
-      <c r="CN161" s="9"/>
+      <c r="CH161" s="26"/>
+      <c r="CI161" s="26"/>
+      <c r="CJ161" s="26"/>
+      <c r="CK161" s="26"/>
+      <c r="CL161" s="26"/>
+      <c r="CM161" s="26"/>
+      <c r="CN161" s="26"/>
       <c r="CO161" s="9"/>
       <c r="CP161" s="9"/>
       <c r="CQ161" s="9"/>
@@ -41108,7 +41208,7 @@
       <c r="DW161" s="9"/>
       <c r="DX161" s="9"/>
     </row>
-    <row r="162" spans="1:128" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="10"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -41194,13 +41294,13 @@
       <c r="CE162" s="11"/>
       <c r="CF162" s="11"/>
       <c r="CG162" s="11"/>
-      <c r="CH162" s="27"/>
-      <c r="CI162" s="27"/>
-      <c r="CJ162" s="27"/>
-      <c r="CK162" s="27"/>
-      <c r="CL162" s="27"/>
-      <c r="CM162" s="27"/>
-      <c r="CN162" s="9"/>
+      <c r="CH162" s="26"/>
+      <c r="CI162" s="26"/>
+      <c r="CJ162" s="26"/>
+      <c r="CK162" s="26"/>
+      <c r="CL162" s="26"/>
+      <c r="CM162" s="26"/>
+      <c r="CN162" s="26"/>
       <c r="CO162" s="9"/>
       <c r="CP162" s="9"/>
       <c r="CQ162" s="9"/>
@@ -41238,7 +41338,7 @@
       <c r="DW162" s="9"/>
       <c r="DX162" s="9"/>
     </row>
-    <row r="163" spans="1:128" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:128" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
@@ -41330,19 +41430,46 @@
       <c r="CK163" s="14"/>
       <c r="CL163" s="14"/>
       <c r="CM163" s="14"/>
+      <c r="CN163" s="14"/>
     </row>
-    <row r="164" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="159">
+  <mergeCells count="161">
+    <mergeCell ref="CL9:CN9"/>
+    <mergeCell ref="CL33:CN33"/>
+    <mergeCell ref="CH57:CJ57"/>
+    <mergeCell ref="CL57:CM57"/>
+    <mergeCell ref="CH81:CJ81"/>
+    <mergeCell ref="CL81:CM81"/>
+    <mergeCell ref="CL104:CN104"/>
+    <mergeCell ref="CL128:CN128"/>
+    <mergeCell ref="CL152:CN152"/>
+    <mergeCell ref="BR152:BU152"/>
+    <mergeCell ref="BR128:BU128"/>
+    <mergeCell ref="BR104:BU104"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH33:CK33"/>
+    <mergeCell ref="CD57:CG57"/>
+    <mergeCell ref="CD81:CG81"/>
+    <mergeCell ref="CH104:CK104"/>
+    <mergeCell ref="CH128:CK128"/>
+    <mergeCell ref="CH152:CK152"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD152:CG152"/>
+    <mergeCell ref="CD128:CG128"/>
+    <mergeCell ref="CD104:CG104"/>
+    <mergeCell ref="CD33:CG33"/>
+    <mergeCell ref="BZ128:CC128"/>
+    <mergeCell ref="BZ104:CC104"/>
     <mergeCell ref="BV152:BY152"/>
     <mergeCell ref="BZ152:CC152"/>
     <mergeCell ref="BV128:BY128"/>
@@ -41350,6 +41477,110 @@
     <mergeCell ref="BZ33:CC33"/>
     <mergeCell ref="BV57:BY57"/>
     <mergeCell ref="BZ57:CC57"/>
+    <mergeCell ref="AP152:AS152"/>
+    <mergeCell ref="AT152:AW152"/>
+    <mergeCell ref="AX152:BA152"/>
+    <mergeCell ref="BJ104:BM104"/>
+    <mergeCell ref="BN104:BQ104"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="N128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:Y128"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AG128"/>
+    <mergeCell ref="BB152:BE152"/>
+    <mergeCell ref="BF152:BI152"/>
+    <mergeCell ref="BJ152:BM152"/>
+    <mergeCell ref="BN152:BQ152"/>
+    <mergeCell ref="BF128:BI128"/>
+    <mergeCell ref="BJ128:BM128"/>
+    <mergeCell ref="BN128:BQ128"/>
+    <mergeCell ref="BF104:BI104"/>
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="F152:I152"/>
+    <mergeCell ref="J152:M152"/>
+    <mergeCell ref="N152:Q152"/>
+    <mergeCell ref="R152:U152"/>
+    <mergeCell ref="V152:Y152"/>
+    <mergeCell ref="Z152:AC152"/>
+    <mergeCell ref="AD152:AG152"/>
+    <mergeCell ref="AH152:AK152"/>
+    <mergeCell ref="AH128:AK128"/>
+    <mergeCell ref="AL128:AO128"/>
+    <mergeCell ref="AL152:AO152"/>
+    <mergeCell ref="BJ81:BM81"/>
+    <mergeCell ref="AP128:AS128"/>
+    <mergeCell ref="AT128:AW128"/>
+    <mergeCell ref="AX128:BA128"/>
+    <mergeCell ref="BB128:BE128"/>
+    <mergeCell ref="AP104:AS104"/>
+    <mergeCell ref="AT104:AW104"/>
+    <mergeCell ref="AX104:BA104"/>
+    <mergeCell ref="BB104:BE104"/>
+    <mergeCell ref="AH57:AK57"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="F104:I104"/>
+    <mergeCell ref="J104:M104"/>
+    <mergeCell ref="N104:Q104"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="AX81:BA81"/>
+    <mergeCell ref="BB81:BE81"/>
+    <mergeCell ref="BF81:BI81"/>
+    <mergeCell ref="V104:Y104"/>
+    <mergeCell ref="Z104:AC104"/>
+    <mergeCell ref="AD104:AG104"/>
+    <mergeCell ref="AH104:AK104"/>
+    <mergeCell ref="AL104:AO104"/>
+    <mergeCell ref="Z57:AC57"/>
+    <mergeCell ref="AD57:AG57"/>
+    <mergeCell ref="BN81:BQ81"/>
+    <mergeCell ref="BB57:BE57"/>
+    <mergeCell ref="BF57:BI57"/>
+    <mergeCell ref="BJ57:BM57"/>
+    <mergeCell ref="BN57:BQ57"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="R81:U81"/>
+    <mergeCell ref="V81:Y81"/>
+    <mergeCell ref="Z81:AC81"/>
+    <mergeCell ref="AD81:AG81"/>
+    <mergeCell ref="AH81:AK81"/>
+    <mergeCell ref="AL81:AO81"/>
+    <mergeCell ref="AP81:AS81"/>
+    <mergeCell ref="AT81:AW81"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="R57:U57"/>
+    <mergeCell ref="BR33:BU33"/>
+    <mergeCell ref="BV33:BY33"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF33:BI33"/>
+    <mergeCell ref="BJ33:BM33"/>
+    <mergeCell ref="BN33:BQ33"/>
+    <mergeCell ref="AL57:AO57"/>
+    <mergeCell ref="AP57:AS57"/>
+    <mergeCell ref="AT57:AW57"/>
+    <mergeCell ref="AX57:BA57"/>
+    <mergeCell ref="AP33:AS33"/>
+    <mergeCell ref="AT33:AW33"/>
+    <mergeCell ref="AX33:BA33"/>
+    <mergeCell ref="BB33:BE33"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="V57:Y57"/>
     <mergeCell ref="BZ81:CC81"/>
     <mergeCell ref="BV104:BY104"/>
     <mergeCell ref="B9:E9"/>
@@ -41374,134 +41605,6 @@
     <mergeCell ref="AD33:AG33"/>
     <mergeCell ref="AH33:AK33"/>
     <mergeCell ref="AL33:AO33"/>
-    <mergeCell ref="BR33:BU33"/>
-    <mergeCell ref="BV33:BY33"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF33:BI33"/>
-    <mergeCell ref="BJ33:BM33"/>
-    <mergeCell ref="BN33:BQ33"/>
-    <mergeCell ref="AL57:AO57"/>
-    <mergeCell ref="AP57:AS57"/>
-    <mergeCell ref="AT57:AW57"/>
-    <mergeCell ref="AX57:BA57"/>
-    <mergeCell ref="AP33:AS33"/>
-    <mergeCell ref="AT33:AW33"/>
-    <mergeCell ref="AX33:BA33"/>
-    <mergeCell ref="BB33:BE33"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="V57:Y57"/>
-    <mergeCell ref="Z57:AC57"/>
-    <mergeCell ref="AD57:AG57"/>
-    <mergeCell ref="BN81:BQ81"/>
-    <mergeCell ref="BB57:BE57"/>
-    <mergeCell ref="BF57:BI57"/>
-    <mergeCell ref="BJ57:BM57"/>
-    <mergeCell ref="BN57:BQ57"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="N81:Q81"/>
-    <mergeCell ref="R81:U81"/>
-    <mergeCell ref="V81:Y81"/>
-    <mergeCell ref="Z81:AC81"/>
-    <mergeCell ref="AD81:AG81"/>
-    <mergeCell ref="AH81:AK81"/>
-    <mergeCell ref="AL81:AO81"/>
-    <mergeCell ref="AP81:AS81"/>
-    <mergeCell ref="AT81:AW81"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="R57:U57"/>
-    <mergeCell ref="AH57:AK57"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="F104:I104"/>
-    <mergeCell ref="J104:M104"/>
-    <mergeCell ref="N104:Q104"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="AX81:BA81"/>
-    <mergeCell ref="BB81:BE81"/>
-    <mergeCell ref="BF81:BI81"/>
-    <mergeCell ref="BJ81:BM81"/>
-    <mergeCell ref="AP128:AS128"/>
-    <mergeCell ref="AT128:AW128"/>
-    <mergeCell ref="AX128:BA128"/>
-    <mergeCell ref="BB128:BE128"/>
-    <mergeCell ref="AP104:AS104"/>
-    <mergeCell ref="AT104:AW104"/>
-    <mergeCell ref="AX104:BA104"/>
-    <mergeCell ref="BB104:BE104"/>
-    <mergeCell ref="V104:Y104"/>
-    <mergeCell ref="Z104:AC104"/>
-    <mergeCell ref="AD104:AG104"/>
-    <mergeCell ref="AH104:AK104"/>
-    <mergeCell ref="AL104:AO104"/>
-    <mergeCell ref="J152:M152"/>
-    <mergeCell ref="N152:Q152"/>
-    <mergeCell ref="R152:U152"/>
-    <mergeCell ref="V152:Y152"/>
-    <mergeCell ref="Z152:AC152"/>
-    <mergeCell ref="AD152:AG152"/>
-    <mergeCell ref="AH152:AK152"/>
-    <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="AL128:AO128"/>
-    <mergeCell ref="AL152:AO152"/>
-    <mergeCell ref="AP152:AS152"/>
-    <mergeCell ref="AT152:AW152"/>
-    <mergeCell ref="AX152:BA152"/>
-    <mergeCell ref="BJ104:BM104"/>
-    <mergeCell ref="BN104:BQ104"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="J128:M128"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:Y128"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AG128"/>
-    <mergeCell ref="BB152:BE152"/>
-    <mergeCell ref="BF152:BI152"/>
-    <mergeCell ref="BJ152:BM152"/>
-    <mergeCell ref="BN152:BQ152"/>
-    <mergeCell ref="BF128:BI128"/>
-    <mergeCell ref="BJ128:BM128"/>
-    <mergeCell ref="BN128:BQ128"/>
-    <mergeCell ref="BF104:BI104"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="F152:I152"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="CL33:CM33"/>
-    <mergeCell ref="CH57:CI57"/>
-    <mergeCell ref="CH81:CI81"/>
-    <mergeCell ref="CL104:CM104"/>
-    <mergeCell ref="CL128:CM128"/>
-    <mergeCell ref="CL152:CM152"/>
-    <mergeCell ref="BR152:BU152"/>
-    <mergeCell ref="BR128:BU128"/>
-    <mergeCell ref="BR104:BU104"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH33:CK33"/>
-    <mergeCell ref="CD57:CG57"/>
-    <mergeCell ref="CD81:CG81"/>
-    <mergeCell ref="CH104:CK104"/>
-    <mergeCell ref="CH128:CK128"/>
-    <mergeCell ref="CH152:CK152"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD152:CG152"/>
-    <mergeCell ref="CD128:CG128"/>
-    <mergeCell ref="CD104:CG104"/>
-    <mergeCell ref="CD33:CG33"/>
-    <mergeCell ref="BZ128:CC128"/>
-    <mergeCell ref="BZ104:CC104"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.11811023622047245" top="0.51181102362204722" bottom="0.15748031496062992" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14271BC-29A4-42B0-80A8-92DFD6AACD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3172BF-FF54-4F2E-8189-037EE2FD183B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="5580" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNS" sheetId="6" r:id="rId1"/>
@@ -326,7 +326,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$CM$167</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$CO$167</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -626,13 +626,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2022</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2022</t>
+    <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
-    <t>As of November 2022</t>
+    <t>Q1 2001 to Q4 2022</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G_Gross Revenue"/>
@@ -15174,7 +15174,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Prod_Lev_Comp"/>
@@ -15197,7 +15197,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15226,7 +15226,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15289,7 +15289,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -15318,7 +15318,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -15349,7 +15349,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RETAILQ203-90days"/>
@@ -17743,7 +17743,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -17831,7 +17831,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="notes-rev"/>
@@ -17852,7 +17852,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="t6a (2)"/>
@@ -17909,7 +17909,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -17926,7 +17926,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -17967,7 +17967,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
@@ -18014,7 +18014,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABL1"/>
@@ -18043,7 +18043,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAB35"/>
@@ -22460,7 +22460,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -22503,7 +22503,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Steps"/>
@@ -22617,7 +22617,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAP93+"/>
@@ -23614,7 +23614,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23632,14 +23632,14 @@
       <selection activeCell="N19" sqref="N19"/>
       <selection pane="topRight" activeCell="N19" sqref="N19"/>
       <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
-      <selection pane="bottomRight" activeCell="CH1" sqref="CH1:CN1048576"/>
+      <selection pane="bottomRight" activeCell="CH1" sqref="CH1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.21875" style="1" customWidth="1"/>
-    <col min="2" max="92" width="8.77734375" style="1" customWidth="1"/>
-    <col min="93" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="93" width="8.77734375" style="1" customWidth="1"/>
+    <col min="94" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.2">
@@ -23654,7 +23654,7 @@
     </row>
     <row r="3" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:128" x14ac:dyDescent="0.2">
@@ -23664,7 +23664,7 @@
     </row>
     <row r="6" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:128" x14ac:dyDescent="0.2">
@@ -23811,6 +23811,7 @@
       </c>
       <c r="CM9" s="30"/>
       <c r="CN9" s="30"/>
+      <c r="CO9" s="30"/>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24088,6 +24089,9 @@
       </c>
       <c r="CN10" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CO10" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24368,9 +24372,11 @@
         <v>546797.64500521345</v>
       </c>
       <c r="CN12" s="25">
-        <v>258096.20812578377</v>
-      </c>
-      <c r="CO12" s="9"/>
+        <v>249730.10662118418</v>
+      </c>
+      <c r="CO12" s="25">
+        <v>300713.06634233205</v>
+      </c>
       <c r="CP12" s="9"/>
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
@@ -24682,9 +24688,11 @@
         <v>256904.23707465929</v>
       </c>
       <c r="CN13" s="25">
-        <v>284748.6924277466</v>
-      </c>
-      <c r="CO13" s="9"/>
+        <v>286132.85807786387</v>
+      </c>
+      <c r="CO13" s="25">
+        <v>274425.67558141809</v>
+      </c>
       <c r="CP13" s="9"/>
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
@@ -24996,9 +25004,11 @@
         <v>233390.94798759447</v>
       </c>
       <c r="CN14" s="25">
-        <v>220930.70891493009</v>
-      </c>
-      <c r="CO14" s="9"/>
+        <v>223773.1690831267</v>
+      </c>
+      <c r="CO14" s="25">
+        <v>254152.95259399325</v>
+      </c>
       <c r="CP14" s="9"/>
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
@@ -25439,9 +25449,11 @@
         <v>1037092.8300674672</v>
       </c>
       <c r="CN16" s="26">
-        <v>763775.60946846043</v>
-      </c>
-      <c r="CO16" s="9"/>
+        <v>759636.13378217479</v>
+      </c>
+      <c r="CO16" s="26">
+        <v>829291.69451774342</v>
+      </c>
       <c r="CP16" s="9"/>
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
@@ -25571,6 +25583,7 @@
       <c r="CL17" s="12"/>
       <c r="CM17" s="12"/>
       <c r="CN17" s="12"/>
+      <c r="CO17" s="12"/>
     </row>
     <row r="18" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
@@ -25665,7 +25678,7 @@
       <c r="CL18" s="26"/>
       <c r="CM18" s="26"/>
       <c r="CN18" s="26"/>
-      <c r="CO18" s="9"/>
+      <c r="CO18" s="26"/>
       <c r="CP18" s="9"/>
       <c r="CQ18" s="9"/>
       <c r="CR18" s="9"/>
@@ -25977,9 +25990,11 @@
         <v>519306.12519113091</v>
       </c>
       <c r="CN19" s="25">
-        <v>360781.31944854103</v>
-      </c>
-      <c r="CO19" s="9"/>
+        <v>359338.09077769669</v>
+      </c>
+      <c r="CO19" s="25">
+        <v>448958.31880256924</v>
+      </c>
       <c r="CP19" s="9"/>
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
@@ -26109,6 +26124,7 @@
       <c r="CL20" s="14"/>
       <c r="CM20" s="14"/>
       <c r="CN20" s="14"/>
+      <c r="CO20" s="14"/>
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
@@ -26152,7 +26168,7 @@
     </row>
     <row r="27" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:128" x14ac:dyDescent="0.2">
@@ -26162,7 +26178,7 @@
     </row>
     <row r="30" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:128" x14ac:dyDescent="0.2">
@@ -26309,6 +26325,7 @@
       </c>
       <c r="CM33" s="30"/>
       <c r="CN33" s="30"/>
+      <c r="CO33" s="30"/>
     </row>
     <row r="34" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
@@ -26586,6 +26603,9 @@
       </c>
       <c r="CN34" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CO34" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26866,9 +26886,11 @@
         <v>480768.70473332691</v>
       </c>
       <c r="CN36" s="25">
-        <v>211489.94689146234</v>
-      </c>
-      <c r="CO36" s="9"/>
+        <v>204637.08211831446</v>
+      </c>
+      <c r="CO36" s="25">
+        <v>265377.9260443144</v>
+      </c>
       <c r="CP36" s="9"/>
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
@@ -27180,9 +27202,11 @@
         <v>232896.35547949572</v>
       </c>
       <c r="CN37" s="25">
-        <v>224477.37137056133</v>
-      </c>
-      <c r="CO37" s="9"/>
+        <v>225570.80887875656</v>
+      </c>
+      <c r="CO37" s="25">
+        <v>232306.04964679721</v>
+      </c>
       <c r="CP37" s="9"/>
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
@@ -27494,9 +27518,11 @@
         <v>199022.82058010495</v>
       </c>
       <c r="CN38" s="25">
-        <v>181117.38584333775</v>
-      </c>
-      <c r="CO38" s="9"/>
+        <v>183410.98980018264</v>
+      </c>
+      <c r="CO38" s="25">
+        <v>242401.59825405595</v>
+      </c>
       <c r="CP38" s="9"/>
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
@@ -27937,9 +27963,11 @@
         <v>912687.88079292758</v>
       </c>
       <c r="CN40" s="26">
-        <v>617084.70410536136</v>
-      </c>
-      <c r="CO40" s="9"/>
+        <v>613618.88079725369</v>
+      </c>
+      <c r="CO40" s="26">
+        <v>740085.57394516759</v>
+      </c>
       <c r="CP40" s="9"/>
       <c r="CQ40" s="9"/>
       <c r="CR40" s="9"/>
@@ -28069,6 +28097,7 @@
       <c r="CL41" s="12"/>
       <c r="CM41" s="12"/>
       <c r="CN41" s="12"/>
+      <c r="CO41" s="12"/>
     </row>
     <row r="42" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
@@ -28163,7 +28192,7 @@
       <c r="CL42" s="26"/>
       <c r="CM42" s="26"/>
       <c r="CN42" s="26"/>
-      <c r="CO42" s="9"/>
+      <c r="CO42" s="26"/>
       <c r="CP42" s="9"/>
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
@@ -28475,9 +28504,11 @@
         <v>415017.8271627705</v>
       </c>
       <c r="CN43" s="25">
-        <v>311349.23316456098</v>
-      </c>
-      <c r="CO43" s="9"/>
+        <v>310042.045471697</v>
+      </c>
+      <c r="CO43" s="25">
+        <v>410703.89506664476</v>
+      </c>
       <c r="CP43" s="9"/>
       <c r="CQ43" s="9"/>
       <c r="CR43" s="9"/>
@@ -28607,6 +28638,7 @@
       <c r="CL44" s="14"/>
       <c r="CM44" s="14"/>
       <c r="CN44" s="14"/>
+      <c r="CO44" s="14"/>
     </row>
     <row r="45" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
@@ -28888,7 +28920,7 @@
     </row>
     <row r="51" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:120" x14ac:dyDescent="0.2">
@@ -28901,7 +28933,7 @@
     </row>
     <row r="54" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:120" x14ac:dyDescent="0.2">
@@ -29042,10 +29074,11 @@
       </c>
       <c r="CI57" s="30"/>
       <c r="CJ57" s="30"/>
-      <c r="CK57" s="27"/>
+      <c r="CK57" s="30"/>
       <c r="CL57" s="30"/>
       <c r="CM57" s="30"/>
       <c r="CN57" s="27"/>
+      <c r="CO57" s="27"/>
     </row>
     <row r="58" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
@@ -29312,10 +29345,13 @@
       <c r="CJ58" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CK58" s="5"/>
+      <c r="CK58" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="CL58" s="5"/>
       <c r="CM58" s="5"/>
       <c r="CN58" s="5"/>
+      <c r="CO58" s="5"/>
     </row>
     <row r="59" spans="1:120" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
@@ -29583,13 +29619,15 @@
         <v>32.537374897520067</v>
       </c>
       <c r="CJ60" s="28">
-        <v>23.829641271513211</v>
-      </c>
-      <c r="CK60" s="28"/>
+        <v>19.815745229883845</v>
+      </c>
+      <c r="CK60" s="28">
+        <v>13.588230198820781</v>
+      </c>
       <c r="CL60" s="28"/>
       <c r="CM60" s="28"/>
       <c r="CN60" s="28"/>
-      <c r="CO60" s="9"/>
+      <c r="CO60" s="28"/>
       <c r="CP60" s="9"/>
       <c r="CQ60" s="9"/>
       <c r="CR60" s="9"/>
@@ -29881,13 +29919,15 @@
         <v>26.08080594101709</v>
       </c>
       <c r="CJ61" s="28">
-        <v>27.193449362572267</v>
-      </c>
-      <c r="CK61" s="28"/>
+        <v>27.811737727749829</v>
+      </c>
+      <c r="CK61" s="28">
+        <v>20.030156938445344</v>
+      </c>
       <c r="CL61" s="28"/>
       <c r="CM61" s="28"/>
       <c r="CN61" s="28"/>
-      <c r="CO61" s="9"/>
+      <c r="CO61" s="28"/>
       <c r="CP61" s="9"/>
       <c r="CQ61" s="9"/>
       <c r="CR61" s="9"/>
@@ -30179,13 +30219,15 @@
         <v>9.8543787517382526</v>
       </c>
       <c r="CJ62" s="28">
-        <v>12.000436553997091</v>
-      </c>
-      <c r="CK62" s="28"/>
+        <v>13.441416765797129</v>
+      </c>
+      <c r="CK62" s="28">
+        <v>14.755266062995801</v>
+      </c>
       <c r="CL62" s="28"/>
       <c r="CM62" s="28"/>
       <c r="CN62" s="28"/>
-      <c r="CO62" s="9"/>
+      <c r="CO62" s="28"/>
       <c r="CP62" s="9"/>
       <c r="CQ62" s="9"/>
       <c r="CR62" s="9"/>
@@ -30306,7 +30348,7 @@
       <c r="CL63" s="20"/>
       <c r="CM63" s="20"/>
       <c r="CN63" s="20"/>
-      <c r="CO63" s="9"/>
+      <c r="CO63" s="20"/>
       <c r="CP63" s="9"/>
       <c r="CQ63" s="9"/>
       <c r="CR63" s="9"/>
@@ -30598,13 +30640,15 @@
         <v>25.135251951925312</v>
       </c>
       <c r="CJ64" s="28">
-        <v>21.319376134588481</v>
-      </c>
-      <c r="CK64" s="28"/>
+        <v>20.661854996758521</v>
+      </c>
+      <c r="CK64" s="28">
+        <v>16.010142209447736</v>
+      </c>
       <c r="CL64" s="28"/>
       <c r="CM64" s="28"/>
       <c r="CN64" s="28"/>
-      <c r="CO64" s="9"/>
+      <c r="CO64" s="28"/>
       <c r="CP64" s="9"/>
       <c r="CQ64" s="9"/>
       <c r="CR64" s="9"/>
@@ -30726,6 +30770,7 @@
       <c r="CL65" s="23"/>
       <c r="CM65" s="23"/>
       <c r="CN65" s="23"/>
+      <c r="CO65" s="23"/>
     </row>
     <row r="66" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
@@ -30820,7 +30865,7 @@
       <c r="CL66" s="28"/>
       <c r="CM66" s="28"/>
       <c r="CN66" s="28"/>
-      <c r="CO66" s="9"/>
+      <c r="CO66" s="28"/>
       <c r="CP66" s="9"/>
       <c r="CQ66" s="9"/>
       <c r="CR66" s="9"/>
@@ -31112,13 +31157,15 @@
         <v>27.239979867445285</v>
       </c>
       <c r="CJ67" s="28">
-        <v>18.607568647582127</v>
-      </c>
-      <c r="CK67" s="28"/>
+        <v>18.133104382323111</v>
+      </c>
+      <c r="CK67" s="28">
+        <v>12.30609171144819</v>
+      </c>
       <c r="CL67" s="28"/>
       <c r="CM67" s="28"/>
       <c r="CN67" s="28"/>
-      <c r="CO67" s="9"/>
+      <c r="CO67" s="28"/>
       <c r="CP67" s="9"/>
       <c r="CQ67" s="9"/>
       <c r="CR67" s="9"/>
@@ -31240,6 +31287,7 @@
       <c r="CL68" s="14"/>
       <c r="CM68" s="14"/>
       <c r="CN68" s="14"/>
+      <c r="CO68" s="14"/>
     </row>
     <row r="69" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
@@ -31505,7 +31553,7 @@
     </row>
     <row r="75" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:120" x14ac:dyDescent="0.2">
@@ -31515,7 +31563,7 @@
     </row>
     <row r="78" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:120" x14ac:dyDescent="0.2">
@@ -31656,10 +31704,11 @@
       </c>
       <c r="CI81" s="30"/>
       <c r="CJ81" s="30"/>
-      <c r="CK81" s="27"/>
+      <c r="CK81" s="30"/>
       <c r="CL81" s="30"/>
       <c r="CM81" s="30"/>
       <c r="CN81" s="27"/>
+      <c r="CO81" s="27"/>
     </row>
     <row r="82" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
@@ -31926,10 +31975,13 @@
       <c r="CJ82" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CK82" s="6"/>
+      <c r="CK82" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="CL82" s="6"/>
       <c r="CM82" s="6"/>
       <c r="CN82" s="6"/>
+      <c r="CO82" s="6"/>
     </row>
     <row r="83" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
@@ -32197,13 +32249,15 @@
         <v>23.180708188186401</v>
       </c>
       <c r="CJ84" s="28">
-        <v>13.421741461758913</v>
-      </c>
-      <c r="CK84" s="28"/>
+        <v>9.7465603574236326</v>
+      </c>
+      <c r="CK84" s="28">
+        <v>6.3078774045043104</v>
+      </c>
       <c r="CL84" s="28"/>
       <c r="CM84" s="28"/>
       <c r="CN84" s="28"/>
-      <c r="CO84" s="9"/>
+      <c r="CO84" s="28"/>
       <c r="CP84" s="9"/>
       <c r="CQ84" s="9"/>
       <c r="CR84" s="9"/>
@@ -32495,13 +32549,15 @@
         <v>17.058948089627862</v>
       </c>
       <c r="CJ85" s="28">
-        <v>16.46841405371957</v>
-      </c>
-      <c r="CK85" s="28"/>
+        <v>17.035735969816514</v>
+      </c>
+      <c r="CK85" s="28">
+        <v>12.367854533588954</v>
+      </c>
       <c r="CL85" s="28"/>
       <c r="CM85" s="28"/>
       <c r="CN85" s="28"/>
-      <c r="CO85" s="9"/>
+      <c r="CO85" s="28"/>
       <c r="CP85" s="9"/>
       <c r="CQ85" s="9"/>
       <c r="CR85" s="9"/>
@@ -32793,13 +32849,15 @@
         <v>1.754114116337675</v>
       </c>
       <c r="CJ86" s="28">
-        <v>4.780230529079148</v>
-      </c>
-      <c r="CK86" s="28"/>
+        <v>6.1071288288839582</v>
+      </c>
+      <c r="CK86" s="28">
+        <v>7.0407226144160688</v>
+      </c>
       <c r="CL86" s="28"/>
       <c r="CM86" s="28"/>
       <c r="CN86" s="28"/>
-      <c r="CO86" s="9"/>
+      <c r="CO86" s="28"/>
       <c r="CP86" s="9"/>
       <c r="CQ86" s="9"/>
       <c r="CR86" s="9"/>
@@ -32920,7 +32978,7 @@
       <c r="CL87" s="20"/>
       <c r="CM87" s="20"/>
       <c r="CN87" s="20"/>
-      <c r="CO87" s="9"/>
+      <c r="CO87" s="20"/>
       <c r="CP87" s="9"/>
       <c r="CQ87" s="9"/>
       <c r="CR87" s="9"/>
@@ -33212,13 +33270,15 @@
         <v>16.289104949243736</v>
       </c>
       <c r="CJ88" s="28">
-        <v>11.779659561594286</v>
-      </c>
-      <c r="CK88" s="28"/>
+        <v>11.151855069109601</v>
+      </c>
+      <c r="CK88" s="28">
+        <v>8.3856840980081131</v>
+      </c>
       <c r="CL88" s="28"/>
       <c r="CM88" s="28"/>
       <c r="CN88" s="28"/>
-      <c r="CO88" s="9"/>
+      <c r="CO88" s="28"/>
       <c r="CP88" s="9"/>
       <c r="CQ88" s="9"/>
       <c r="CR88" s="9"/>
@@ -33340,6 +33400,7 @@
       <c r="CL89" s="23"/>
       <c r="CM89" s="23"/>
       <c r="CN89" s="23"/>
+      <c r="CO89" s="23"/>
     </row>
     <row r="90" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
@@ -33434,7 +33495,7 @@
       <c r="CL90" s="28"/>
       <c r="CM90" s="28"/>
       <c r="CN90" s="28"/>
-      <c r="CO90" s="9"/>
+      <c r="CO90" s="28"/>
       <c r="CP90" s="9"/>
       <c r="CQ90" s="9"/>
       <c r="CR90" s="9"/>
@@ -33726,13 +33787,15 @@
         <v>19.478423603633928</v>
       </c>
       <c r="CJ91" s="28">
-        <v>12.159579555664891</v>
-      </c>
-      <c r="CK91" s="28"/>
+        <v>11.688681906289688</v>
+      </c>
+      <c r="CK91" s="28">
+        <v>6.3019716508883761</v>
+      </c>
       <c r="CL91" s="28"/>
       <c r="CM91" s="28"/>
       <c r="CN91" s="28"/>
-      <c r="CO91" s="9"/>
+      <c r="CO91" s="28"/>
       <c r="CP91" s="9"/>
       <c r="CQ91" s="9"/>
       <c r="CR91" s="9"/>
@@ -33854,6 +33917,7 @@
       <c r="CL92" s="14"/>
       <c r="CM92" s="14"/>
       <c r="CN92" s="14"/>
+      <c r="CO92" s="14"/>
     </row>
     <row r="93" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
@@ -34130,7 +34194,7 @@
     </row>
     <row r="98" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="1:128" x14ac:dyDescent="0.2">
@@ -34140,7 +34204,7 @@
     </row>
     <row r="101" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="102" spans="1:128" x14ac:dyDescent="0.2">
@@ -34287,6 +34351,7 @@
       </c>
       <c r="CM104" s="30"/>
       <c r="CN104" s="30"/>
+      <c r="CO104" s="30"/>
     </row>
     <row r="105" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
@@ -34564,6 +34629,9 @@
       </c>
       <c r="CN105" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CO105" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34844,9 +34912,11 @@
         <v>113.73403460371063</v>
       </c>
       <c r="CN107" s="29">
-        <v>122.03710479829095</v>
-      </c>
-      <c r="CO107" s="9"/>
+        <v>122.03560764065158</v>
+      </c>
+      <c r="CO107" s="29">
+        <v>113.31502616842259</v>
+      </c>
       <c r="CP107" s="9"/>
       <c r="CQ107" s="9"/>
       <c r="CR107" s="9"/>
@@ -35158,9 +35228,11 @@
         <v>110.30839728931579</v>
       </c>
       <c r="CN108" s="29">
-        <v>126.84961993683139</v>
-      </c>
-      <c r="CO108" s="9"/>
+        <v>126.8483539604006</v>
+      </c>
+      <c r="CO108" s="29">
+        <v>118.1310930122829</v>
+      </c>
       <c r="CP108" s="9"/>
       <c r="CQ108" s="9"/>
       <c r="CR108" s="9"/>
@@ -35472,9 +35544,11 @@
         <v>117.26843550267978</v>
       </c>
       <c r="CN109" s="29">
-        <v>121.98205483488478</v>
-      </c>
-      <c r="CO109" s="9"/>
+        <v>122.00641266203117</v>
+      </c>
+      <c r="CO109" s="29">
+        <v>104.84788649273713</v>
+      </c>
       <c r="CP109" s="9"/>
       <c r="CQ109" s="9"/>
       <c r="CR109" s="9"/>
@@ -35915,9 +35989,11 @@
         <v>113.63061259961715</v>
       </c>
       <c r="CN111" s="29">
-        <v>123.77159965028935</v>
-      </c>
-      <c r="CO111" s="9"/>
+        <v>123.79608215366613</v>
+      </c>
+      <c r="CO111" s="29">
+        <v>112.053487287564</v>
+      </c>
       <c r="CP111" s="9"/>
       <c r="CQ111" s="9"/>
       <c r="CR111" s="9"/>
@@ -36047,6 +36123,7 @@
       <c r="CL112" s="12"/>
       <c r="CM112" s="12"/>
       <c r="CN112" s="12"/>
+      <c r="CO112" s="12"/>
     </row>
     <row r="113" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
@@ -36141,7 +36218,7 @@
       <c r="CL113" s="26"/>
       <c r="CM113" s="26"/>
       <c r="CN113" s="26"/>
-      <c r="CO113" s="9"/>
+      <c r="CO113" s="26"/>
       <c r="CP113" s="9"/>
       <c r="CQ113" s="9"/>
       <c r="CR113" s="9"/>
@@ -36453,9 +36530,11 @@
         <v>125.1286309172108</v>
       </c>
       <c r="CN114" s="29">
-        <v>115.87673294761358</v>
-      </c>
-      <c r="CO114" s="9"/>
+        <v>115.89979360089721</v>
+      </c>
+      <c r="CO114" s="29">
+        <v>109.31435620539148</v>
+      </c>
       <c r="CP114" s="9"/>
       <c r="CQ114" s="9"/>
       <c r="CR114" s="9"/>
@@ -36585,6 +36664,7 @@
       <c r="CL115" s="14"/>
       <c r="CM115" s="14"/>
       <c r="CN115" s="14"/>
+      <c r="CO115" s="14"/>
     </row>
     <row r="116" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
@@ -36608,7 +36688,7 @@
     </row>
     <row r="122" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="124" spans="1:128" x14ac:dyDescent="0.2">
@@ -36618,7 +36698,7 @@
     </row>
     <row r="125" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="126" spans="1:128" x14ac:dyDescent="0.2">
@@ -36765,6 +36845,7 @@
       </c>
       <c r="CM128" s="30"/>
       <c r="CN128" s="30"/>
+      <c r="CO128" s="30"/>
     </row>
     <row r="129" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -37042,6 +37123,9 @@
       </c>
       <c r="CN129" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CO129" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37322,9 +37406,11 @@
         <v>52.724079190639287</v>
       </c>
       <c r="CN131" s="29">
-        <v>33.792151114304687</v>
-      </c>
-      <c r="CO131" s="9"/>
+        <v>32.874964146030756</v>
+      </c>
+      <c r="CO131" s="29">
+        <v>36.261434707507256</v>
+      </c>
       <c r="CP131" s="9"/>
       <c r="CQ131" s="9"/>
       <c r="CR131" s="9"/>
@@ -37636,9 +37722,11 @@
         <v>24.771575853816923</v>
       </c>
       <c r="CN132" s="29">
-        <v>37.281721083750462</v>
-      </c>
-      <c r="CO132" s="9"/>
+        <v>37.667094198537995</v>
+      </c>
+      <c r="CO132" s="29">
+        <v>33.091574098183195</v>
+      </c>
       <c r="CP132" s="9"/>
       <c r="CQ132" s="9"/>
       <c r="CR132" s="9"/>
@@ -37950,9 +38038,11 @@
         <v>22.504344955543797</v>
       </c>
       <c r="CN133" s="29">
-        <v>28.926127801944858</v>
-      </c>
-      <c r="CO133" s="9"/>
+        <v>29.457941655431245</v>
+      </c>
+      <c r="CO133" s="29">
+        <v>30.646991194309546</v>
+      </c>
       <c r="CP133" s="9"/>
       <c r="CQ133" s="9"/>
       <c r="CR133" s="9"/>
@@ -38395,7 +38485,9 @@
       <c r="CN135" s="29">
         <v>100</v>
       </c>
-      <c r="CO135" s="9"/>
+      <c r="CO135" s="29">
+        <v>100</v>
+      </c>
       <c r="CP135" s="9"/>
       <c r="CQ135" s="9"/>
       <c r="CR135" s="9"/>
@@ -38525,6 +38617,7 @@
       <c r="CL136" s="12"/>
       <c r="CM136" s="12"/>
       <c r="CN136" s="12"/>
+      <c r="CO136" s="12"/>
     </row>
     <row r="137" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
@@ -38619,7 +38712,7 @@
       <c r="CL137" s="26"/>
       <c r="CM137" s="26"/>
       <c r="CN137" s="26"/>
-      <c r="CO137" s="9"/>
+      <c r="CO137" s="26"/>
       <c r="CP137" s="9"/>
       <c r="CQ137" s="9"/>
       <c r="CR137" s="9"/>
@@ -38749,7 +38842,7 @@
       <c r="CL138" s="26"/>
       <c r="CM138" s="26"/>
       <c r="CN138" s="26"/>
-      <c r="CO138" s="9"/>
+      <c r="CO138" s="26"/>
       <c r="CP138" s="9"/>
       <c r="CQ138" s="9"/>
       <c r="CR138" s="9"/>
@@ -38879,6 +38972,7 @@
       <c r="CL139" s="14"/>
       <c r="CM139" s="14"/>
       <c r="CN139" s="14"/>
+      <c r="CO139" s="14"/>
     </row>
     <row r="140" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
@@ -39160,7 +39254,7 @@
     </row>
     <row r="146" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="148" spans="1:128" x14ac:dyDescent="0.2">
@@ -39170,7 +39264,7 @@
     </row>
     <row r="149" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="150" spans="1:128" x14ac:dyDescent="0.2">
@@ -39317,6 +39411,7 @@
       </c>
       <c r="CM152" s="30"/>
       <c r="CN152" s="30"/>
+      <c r="CO152" s="30"/>
     </row>
     <row r="153" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
@@ -39594,6 +39689,9 @@
       </c>
       <c r="CN153" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CO153" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -39874,9 +39972,11 @@
         <v>52.676135495043866</v>
       </c>
       <c r="CN155" s="29">
-        <v>34.272433830308074</v>
-      </c>
-      <c r="CO155" s="9"/>
+        <v>33.349215371671193</v>
+      </c>
+      <c r="CO155" s="29">
+        <v>35.857735292645501</v>
+      </c>
       <c r="CP155" s="9"/>
       <c r="CQ155" s="9"/>
       <c r="CR155" s="9"/>
@@ -40188,9 +40288,11 @@
         <v>25.517634273521782</v>
       </c>
       <c r="CN156" s="29">
-        <v>36.377075930929884</v>
-      </c>
-      <c r="CO156" s="9"/>
+        <v>36.760734706481038</v>
+      </c>
+      <c r="CO156" s="29">
+        <v>31.389079563927375</v>
+      </c>
       <c r="CP156" s="9"/>
       <c r="CQ156" s="9"/>
       <c r="CR156" s="9"/>
@@ -40502,9 +40604,11 @@
         <v>21.806230231434359</v>
       </c>
       <c r="CN157" s="29">
-        <v>29.350490238762045</v>
-      </c>
-      <c r="CO157" s="9"/>
+        <v>29.890049921847762</v>
+      </c>
+      <c r="CO157" s="29">
+        <v>32.753185143427118</v>
+      </c>
       <c r="CP157" s="9"/>
       <c r="CQ157" s="9"/>
       <c r="CR157" s="9"/>
@@ -40947,7 +41051,9 @@
       <c r="CN159" s="29">
         <v>100</v>
       </c>
-      <c r="CO159" s="9"/>
+      <c r="CO159" s="29">
+        <v>100</v>
+      </c>
       <c r="CP159" s="9"/>
       <c r="CQ159" s="9"/>
       <c r="CR159" s="9"/>
@@ -41077,6 +41183,7 @@
       <c r="CL160" s="12"/>
       <c r="CM160" s="12"/>
       <c r="CN160" s="12"/>
+      <c r="CO160" s="12"/>
     </row>
     <row r="161" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
@@ -41171,7 +41278,7 @@
       <c r="CL161" s="26"/>
       <c r="CM161" s="26"/>
       <c r="CN161" s="26"/>
-      <c r="CO161" s="9"/>
+      <c r="CO161" s="26"/>
       <c r="CP161" s="9"/>
       <c r="CQ161" s="9"/>
       <c r="CR161" s="9"/>
@@ -41301,7 +41408,7 @@
       <c r="CL162" s="26"/>
       <c r="CM162" s="26"/>
       <c r="CN162" s="26"/>
-      <c r="CO162" s="9"/>
+      <c r="CO162" s="26"/>
       <c r="CP162" s="9"/>
       <c r="CQ162" s="9"/>
       <c r="CR162" s="9"/>
@@ -41431,6 +41538,7 @@
       <c r="CL163" s="14"/>
       <c r="CM163" s="14"/>
       <c r="CN163" s="14"/>
+      <c r="CO163" s="14"/>
     </row>
     <row r="164" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
@@ -41444,15 +41552,134 @@
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="CL9:CN9"/>
-    <mergeCell ref="CL33:CN33"/>
-    <mergeCell ref="CH57:CJ57"/>
-    <mergeCell ref="CL57:CM57"/>
-    <mergeCell ref="CH81:CJ81"/>
-    <mergeCell ref="CL81:CM81"/>
-    <mergeCell ref="CL104:CN104"/>
-    <mergeCell ref="CL128:CN128"/>
-    <mergeCell ref="CL152:CN152"/>
+    <mergeCell ref="BZ81:CC81"/>
+    <mergeCell ref="BV104:BY104"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BR81:BU81"/>
+    <mergeCell ref="BV81:BY81"/>
+    <mergeCell ref="BR57:BU57"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="R33:U33"/>
+    <mergeCell ref="V33:Y33"/>
+    <mergeCell ref="Z33:AC33"/>
+    <mergeCell ref="AD33:AG33"/>
+    <mergeCell ref="AH33:AK33"/>
+    <mergeCell ref="AL33:AO33"/>
+    <mergeCell ref="BR33:BU33"/>
+    <mergeCell ref="BV33:BY33"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF33:BI33"/>
+    <mergeCell ref="BJ33:BM33"/>
+    <mergeCell ref="BN33:BQ33"/>
+    <mergeCell ref="AL57:AO57"/>
+    <mergeCell ref="AP57:AS57"/>
+    <mergeCell ref="AT57:AW57"/>
+    <mergeCell ref="AX57:BA57"/>
+    <mergeCell ref="AP33:AS33"/>
+    <mergeCell ref="AT33:AW33"/>
+    <mergeCell ref="AX33:BA33"/>
+    <mergeCell ref="BB33:BE33"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="V57:Y57"/>
+    <mergeCell ref="BN81:BQ81"/>
+    <mergeCell ref="BB57:BE57"/>
+    <mergeCell ref="BF57:BI57"/>
+    <mergeCell ref="BJ57:BM57"/>
+    <mergeCell ref="BN57:BQ57"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="R81:U81"/>
+    <mergeCell ref="V81:Y81"/>
+    <mergeCell ref="Z81:AC81"/>
+    <mergeCell ref="AD81:AG81"/>
+    <mergeCell ref="AH81:AK81"/>
+    <mergeCell ref="AL81:AO81"/>
+    <mergeCell ref="AP81:AS81"/>
+    <mergeCell ref="AT81:AW81"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="R57:U57"/>
+    <mergeCell ref="AH57:AK57"/>
+    <mergeCell ref="Z57:AC57"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="F104:I104"/>
+    <mergeCell ref="J104:M104"/>
+    <mergeCell ref="N104:Q104"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="AX81:BA81"/>
+    <mergeCell ref="BB81:BE81"/>
+    <mergeCell ref="BF81:BI81"/>
+    <mergeCell ref="V104:Y104"/>
+    <mergeCell ref="Z104:AC104"/>
+    <mergeCell ref="AD104:AG104"/>
+    <mergeCell ref="AH104:AK104"/>
+    <mergeCell ref="AL104:AO104"/>
+    <mergeCell ref="AD57:AG57"/>
+    <mergeCell ref="BJ81:BM81"/>
+    <mergeCell ref="AP128:AS128"/>
+    <mergeCell ref="AT128:AW128"/>
+    <mergeCell ref="AX128:BA128"/>
+    <mergeCell ref="BB128:BE128"/>
+    <mergeCell ref="AP104:AS104"/>
+    <mergeCell ref="AT104:AW104"/>
+    <mergeCell ref="AX104:BA104"/>
+    <mergeCell ref="BB104:BE104"/>
+    <mergeCell ref="N152:Q152"/>
+    <mergeCell ref="R152:U152"/>
+    <mergeCell ref="V152:Y152"/>
+    <mergeCell ref="Z152:AC152"/>
+    <mergeCell ref="AD152:AG152"/>
+    <mergeCell ref="AH152:AK152"/>
+    <mergeCell ref="AH128:AK128"/>
+    <mergeCell ref="AL128:AO128"/>
+    <mergeCell ref="AL152:AO152"/>
+    <mergeCell ref="AP152:AS152"/>
+    <mergeCell ref="AT152:AW152"/>
+    <mergeCell ref="AX152:BA152"/>
+    <mergeCell ref="BJ104:BM104"/>
+    <mergeCell ref="BN104:BQ104"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="N128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:Y128"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AG128"/>
+    <mergeCell ref="BB152:BE152"/>
+    <mergeCell ref="BF152:BI152"/>
+    <mergeCell ref="BJ152:BM152"/>
+    <mergeCell ref="BN152:BQ152"/>
+    <mergeCell ref="BF128:BI128"/>
+    <mergeCell ref="BJ128:BM128"/>
+    <mergeCell ref="BN128:BQ128"/>
+    <mergeCell ref="BF104:BI104"/>
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="F152:I152"/>
+    <mergeCell ref="J152:M152"/>
     <mergeCell ref="BR152:BU152"/>
     <mergeCell ref="BR128:BU128"/>
     <mergeCell ref="BR104:BU104"/>
@@ -41477,143 +41704,24 @@
     <mergeCell ref="BZ33:CC33"/>
     <mergeCell ref="BV57:BY57"/>
     <mergeCell ref="BZ57:CC57"/>
-    <mergeCell ref="AP152:AS152"/>
-    <mergeCell ref="AT152:AW152"/>
-    <mergeCell ref="AX152:BA152"/>
-    <mergeCell ref="BJ104:BM104"/>
-    <mergeCell ref="BN104:BQ104"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="J128:M128"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:Y128"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AG128"/>
-    <mergeCell ref="BB152:BE152"/>
-    <mergeCell ref="BF152:BI152"/>
-    <mergeCell ref="BJ152:BM152"/>
-    <mergeCell ref="BN152:BQ152"/>
-    <mergeCell ref="BF128:BI128"/>
-    <mergeCell ref="BJ128:BM128"/>
-    <mergeCell ref="BN128:BQ128"/>
-    <mergeCell ref="BF104:BI104"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="F152:I152"/>
-    <mergeCell ref="J152:M152"/>
-    <mergeCell ref="N152:Q152"/>
-    <mergeCell ref="R152:U152"/>
-    <mergeCell ref="V152:Y152"/>
-    <mergeCell ref="Z152:AC152"/>
-    <mergeCell ref="AD152:AG152"/>
-    <mergeCell ref="AH152:AK152"/>
-    <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="AL128:AO128"/>
-    <mergeCell ref="AL152:AO152"/>
-    <mergeCell ref="BJ81:BM81"/>
-    <mergeCell ref="AP128:AS128"/>
-    <mergeCell ref="AT128:AW128"/>
-    <mergeCell ref="AX128:BA128"/>
-    <mergeCell ref="BB128:BE128"/>
-    <mergeCell ref="AP104:AS104"/>
-    <mergeCell ref="AT104:AW104"/>
-    <mergeCell ref="AX104:BA104"/>
-    <mergeCell ref="BB104:BE104"/>
-    <mergeCell ref="AH57:AK57"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="F104:I104"/>
-    <mergeCell ref="J104:M104"/>
-    <mergeCell ref="N104:Q104"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="AX81:BA81"/>
-    <mergeCell ref="BB81:BE81"/>
-    <mergeCell ref="BF81:BI81"/>
-    <mergeCell ref="V104:Y104"/>
-    <mergeCell ref="Z104:AC104"/>
-    <mergeCell ref="AD104:AG104"/>
-    <mergeCell ref="AH104:AK104"/>
-    <mergeCell ref="AL104:AO104"/>
-    <mergeCell ref="Z57:AC57"/>
-    <mergeCell ref="AD57:AG57"/>
-    <mergeCell ref="BN81:BQ81"/>
-    <mergeCell ref="BB57:BE57"/>
-    <mergeCell ref="BF57:BI57"/>
-    <mergeCell ref="BJ57:BM57"/>
-    <mergeCell ref="BN57:BQ57"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="N81:Q81"/>
-    <mergeCell ref="R81:U81"/>
-    <mergeCell ref="V81:Y81"/>
-    <mergeCell ref="Z81:AC81"/>
-    <mergeCell ref="AD81:AG81"/>
-    <mergeCell ref="AH81:AK81"/>
-    <mergeCell ref="AL81:AO81"/>
-    <mergeCell ref="AP81:AS81"/>
-    <mergeCell ref="AT81:AW81"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="R57:U57"/>
-    <mergeCell ref="BR33:BU33"/>
-    <mergeCell ref="BV33:BY33"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF33:BI33"/>
-    <mergeCell ref="BJ33:BM33"/>
-    <mergeCell ref="BN33:BQ33"/>
-    <mergeCell ref="AL57:AO57"/>
-    <mergeCell ref="AP57:AS57"/>
-    <mergeCell ref="AT57:AW57"/>
-    <mergeCell ref="AX57:BA57"/>
-    <mergeCell ref="AP33:AS33"/>
-    <mergeCell ref="AT33:AW33"/>
-    <mergeCell ref="AX33:BA33"/>
-    <mergeCell ref="BB33:BE33"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="V57:Y57"/>
-    <mergeCell ref="BZ81:CC81"/>
-    <mergeCell ref="BV104:BY104"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BR81:BU81"/>
-    <mergeCell ref="BV81:BY81"/>
-    <mergeCell ref="BR57:BU57"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="R33:U33"/>
-    <mergeCell ref="V33:Y33"/>
-    <mergeCell ref="Z33:AC33"/>
-    <mergeCell ref="AD33:AG33"/>
-    <mergeCell ref="AH33:AK33"/>
-    <mergeCell ref="AL33:AO33"/>
+    <mergeCell ref="CL57:CM57"/>
+    <mergeCell ref="CL81:CM81"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL33:CO33"/>
+    <mergeCell ref="CH57:CK57"/>
+    <mergeCell ref="CH81:CK81"/>
+    <mergeCell ref="CL104:CO104"/>
+    <mergeCell ref="CL128:CO128"/>
+    <mergeCell ref="CL152:CO152"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.11811023622047245" top="0.51181102362204722" bottom="0.15748031496062992" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="48" max="90" man="1"/>
-    <brk id="96" max="90" man="1"/>
-    <brk id="119" max="90" man="1"/>
+    <brk id="48" max="92" man="1"/>
+    <brk id="96" max="92" man="1"/>
+    <brk id="119" max="92" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3172BF-FF54-4F2E-8189-037EE2FD183B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66B66DE-510B-4A22-A1AC-5E0AA5457665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="5580" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNS" sheetId="6" r:id="rId1"/>
@@ -626,13 +626,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
     <t>Q1 2001 to Q4 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -726,14 +726,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -769,11 +770,6 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -781,9 +777,10 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 3" xfId="5" xr:uid="{B054C4B6-2A0C-48D9-A1D4-FB79963C0F78}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 2 2" xfId="4" xr:uid="{DBD576D4-8D8F-4EB8-B48D-CF2D4B0D739E}"/>
@@ -23614,7 +23611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23628,11 +23625,11 @@
   <dimension ref="A1:DX165"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CE3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BX3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
       <selection pane="topRight" activeCell="N19" sqref="N19"/>
       <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
-      <selection pane="bottomRight" activeCell="CH1" sqref="CH1:CO1048576"/>
+      <selection pane="bottomRight" activeCell="CD1" sqref="CD1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23654,7 +23651,7 @@
     </row>
     <row r="3" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:128" x14ac:dyDescent="0.2">
@@ -23664,7 +23661,7 @@
     </row>
     <row r="6" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:128" x14ac:dyDescent="0.2">
@@ -23674,144 +23671,144 @@
     </row>
     <row r="9" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="30">
+      <c r="B9" s="25">
         <v>2000</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25">
         <v>2001</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25">
         <v>2002</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25">
         <v>2003</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30">
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25">
         <v>2004</v>
       </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30">
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25">
         <v>2005</v>
       </c>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30">
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25">
         <v>2006</v>
       </c>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30">
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25">
         <v>2007</v>
       </c>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30">
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25">
         <v>2008</v>
       </c>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30">
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25">
         <v>2009</v>
       </c>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30">
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="30"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="30"/>
-      <c r="AT9" s="30">
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25">
         <v>2011</v>
       </c>
-      <c r="AU9" s="30"/>
-      <c r="AV9" s="30"/>
-      <c r="AW9" s="30"/>
-      <c r="AX9" s="30">
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="25"/>
+      <c r="AW9" s="25"/>
+      <c r="AX9" s="25">
         <v>2012</v>
       </c>
-      <c r="AY9" s="30"/>
-      <c r="AZ9" s="30"/>
-      <c r="BA9" s="30"/>
-      <c r="BB9" s="30">
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="25"/>
+      <c r="BA9" s="25"/>
+      <c r="BB9" s="25">
         <v>2013</v>
       </c>
-      <c r="BC9" s="30"/>
-      <c r="BD9" s="30"/>
-      <c r="BE9" s="30"/>
-      <c r="BF9" s="30">
+      <c r="BC9" s="25"/>
+      <c r="BD9" s="25"/>
+      <c r="BE9" s="25"/>
+      <c r="BF9" s="25">
         <v>2014</v>
       </c>
-      <c r="BG9" s="30"/>
-      <c r="BH9" s="30"/>
-      <c r="BI9" s="30"/>
-      <c r="BJ9" s="30">
+      <c r="BG9" s="25"/>
+      <c r="BH9" s="25"/>
+      <c r="BI9" s="25"/>
+      <c r="BJ9" s="25">
         <v>2015</v>
       </c>
-      <c r="BK9" s="30"/>
-      <c r="BL9" s="30"/>
-      <c r="BM9" s="30"/>
-      <c r="BN9" s="30">
+      <c r="BK9" s="25"/>
+      <c r="BL9" s="25"/>
+      <c r="BM9" s="25"/>
+      <c r="BN9" s="25">
         <v>2016</v>
       </c>
-      <c r="BO9" s="30"/>
-      <c r="BP9" s="30"/>
-      <c r="BQ9" s="30"/>
-      <c r="BR9" s="30">
+      <c r="BO9" s="25"/>
+      <c r="BP9" s="25"/>
+      <c r="BQ9" s="25"/>
+      <c r="BR9" s="25">
         <v>2017</v>
       </c>
-      <c r="BS9" s="30"/>
-      <c r="BT9" s="30"/>
-      <c r="BU9" s="30"/>
-      <c r="BV9" s="30">
+      <c r="BS9" s="25"/>
+      <c r="BT9" s="25"/>
+      <c r="BU9" s="25"/>
+      <c r="BV9" s="25">
         <v>2018</v>
       </c>
-      <c r="BW9" s="30"/>
-      <c r="BX9" s="30"/>
-      <c r="BY9" s="30"/>
-      <c r="BZ9" s="30">
+      <c r="BW9" s="25"/>
+      <c r="BX9" s="25"/>
+      <c r="BY9" s="25"/>
+      <c r="BZ9" s="25">
         <v>2019</v>
       </c>
-      <c r="CA9" s="30"/>
-      <c r="CB9" s="30"/>
-      <c r="CC9" s="30"/>
-      <c r="CD9" s="30">
+      <c r="CA9" s="25"/>
+      <c r="CB9" s="25"/>
+      <c r="CC9" s="25"/>
+      <c r="CD9" s="25">
         <v>2020</v>
       </c>
-      <c r="CE9" s="30"/>
-      <c r="CF9" s="30"/>
-      <c r="CG9" s="30"/>
-      <c r="CH9" s="30">
+      <c r="CE9" s="25"/>
+      <c r="CF9" s="25"/>
+      <c r="CG9" s="25"/>
+      <c r="CH9" s="25">
         <v>2021</v>
       </c>
-      <c r="CI9" s="30"/>
-      <c r="CJ9" s="30"/>
-      <c r="CK9" s="30"/>
-      <c r="CL9" s="30">
+      <c r="CI9" s="25"/>
+      <c r="CJ9" s="25"/>
+      <c r="CK9" s="25"/>
+      <c r="CL9" s="25">
         <v>2022</v>
       </c>
-      <c r="CM9" s="30"/>
-      <c r="CN9" s="30"/>
-      <c r="CO9" s="30"/>
+      <c r="CM9" s="25"/>
+      <c r="CN9" s="25"/>
+      <c r="CO9" s="25"/>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24353,29 +24350,29 @@
       <c r="CG12" s="8">
         <v>210311.28246687539</v>
       </c>
-      <c r="CH12" s="25">
-        <v>167051.69207143103</v>
-      </c>
-      <c r="CI12" s="25">
-        <v>412561.09488210839</v>
-      </c>
-      <c r="CJ12" s="25">
-        <v>208428.45499315707</v>
-      </c>
-      <c r="CK12" s="25">
-        <v>264739.63527380844</v>
-      </c>
-      <c r="CL12" s="25">
-        <v>167847.45411807633</v>
-      </c>
-      <c r="CM12" s="25">
-        <v>546797.64500521345</v>
-      </c>
-      <c r="CN12" s="25">
-        <v>249730.10662118418</v>
-      </c>
-      <c r="CO12" s="25">
-        <v>300713.06634233205</v>
+      <c r="CH12" s="8">
+        <v>167823.36198890334</v>
+      </c>
+      <c r="CI12" s="8">
+        <v>406200.00668774155</v>
+      </c>
+      <c r="CJ12" s="8">
+        <v>208177.27255225484</v>
+      </c>
+      <c r="CK12" s="8">
+        <v>259490.65451354504</v>
+      </c>
+      <c r="CL12" s="8">
+        <v>164307.15015984167</v>
+      </c>
+      <c r="CM12" s="8">
+        <v>546170.86620424606</v>
+      </c>
+      <c r="CN12" s="8">
+        <v>249542.34708000725</v>
+      </c>
+      <c r="CO12" s="8">
+        <v>302775.061641315</v>
       </c>
       <c r="CP12" s="9"/>
       <c r="CQ12" s="9"/>
@@ -24669,29 +24666,29 @@
       <c r="CG13" s="8">
         <v>208922.74558363974</v>
       </c>
-      <c r="CH13" s="25">
-        <v>185633.17430592715</v>
-      </c>
-      <c r="CI13" s="25">
-        <v>203761.57588558231</v>
-      </c>
-      <c r="CJ13" s="25">
-        <v>223870.56397539313</v>
-      </c>
-      <c r="CK13" s="25">
-        <v>228630.60632516781</v>
-      </c>
-      <c r="CL13" s="25">
-        <v>251790.70505209928</v>
-      </c>
-      <c r="CM13" s="25">
-        <v>256904.23707465929</v>
-      </c>
-      <c r="CN13" s="25">
-        <v>286132.85807786387</v>
-      </c>
-      <c r="CO13" s="25">
-        <v>274425.67558141809</v>
+      <c r="CH13" s="8">
+        <v>185257.16326720259</v>
+      </c>
+      <c r="CI13" s="8">
+        <v>207932.4373119412</v>
+      </c>
+      <c r="CJ13" s="8">
+        <v>227365.12211063612</v>
+      </c>
+      <c r="CK13" s="8">
+        <v>229849.15911087734</v>
+      </c>
+      <c r="CL13" s="8">
+        <v>251697.28905062028</v>
+      </c>
+      <c r="CM13" s="8">
+        <v>253942.27823452008</v>
+      </c>
+      <c r="CN13" s="8">
+        <v>285215.15381217585</v>
+      </c>
+      <c r="CO13" s="8">
+        <v>265700.85671616852</v>
       </c>
       <c r="CP13" s="9"/>
       <c r="CQ13" s="9"/>
@@ -24985,29 +24982,29 @@
       <c r="CG14" s="8">
         <v>173915.08707395635</v>
       </c>
-      <c r="CH14" s="25">
-        <v>156288.45655926011</v>
-      </c>
-      <c r="CI14" s="25">
-        <v>212454.84307461116</v>
-      </c>
-      <c r="CJ14" s="25">
-        <v>197258.79265516618</v>
-      </c>
-      <c r="CK14" s="25">
-        <v>221473.89075327839</v>
-      </c>
-      <c r="CL14" s="25">
-        <v>198450.28515159636</v>
-      </c>
-      <c r="CM14" s="25">
-        <v>233390.94798759447</v>
-      </c>
-      <c r="CN14" s="25">
-        <v>223773.1690831267</v>
-      </c>
-      <c r="CO14" s="25">
-        <v>254152.95259399325</v>
+      <c r="CH14" s="8">
+        <v>156281.85859512861</v>
+      </c>
+      <c r="CI14" s="8">
+        <v>214531.10301235743</v>
+      </c>
+      <c r="CJ14" s="8">
+        <v>193832.1957356174</v>
+      </c>
+      <c r="CK14" s="8">
+        <v>225042.65292351373</v>
+      </c>
+      <c r="CL14" s="8">
+        <v>196996.8030961217</v>
+      </c>
+      <c r="CM14" s="8">
+        <v>233014.08350677649</v>
+      </c>
+      <c r="CN14" s="8">
+        <v>224128.73720645937</v>
+      </c>
+      <c r="CO14" s="8">
+        <v>260155.91178712202</v>
       </c>
       <c r="CP14" s="9"/>
       <c r="CQ14" s="9"/>
@@ -25430,29 +25427,29 @@
       <c r="CG16" s="11">
         <v>593149.11512447149</v>
       </c>
-      <c r="CH16" s="26">
-        <v>508973.32293661835</v>
-      </c>
-      <c r="CI16" s="26">
-        <v>828777.51384230191</v>
-      </c>
-      <c r="CJ16" s="26">
-        <v>629557.81162371638</v>
-      </c>
-      <c r="CK16" s="26">
-        <v>714844.13235225459</v>
-      </c>
-      <c r="CL16" s="26">
-        <v>618088.44432177197</v>
-      </c>
-      <c r="CM16" s="26">
-        <v>1037092.8300674672</v>
-      </c>
-      <c r="CN16" s="26">
-        <v>759636.13378217479</v>
-      </c>
-      <c r="CO16" s="26">
-        <v>829291.69451774342</v>
+      <c r="CH16" s="11">
+        <v>509362.38385123457</v>
+      </c>
+      <c r="CI16" s="11">
+        <v>828663.54701204016</v>
+      </c>
+      <c r="CJ16" s="11">
+        <v>629374.59039850836</v>
+      </c>
+      <c r="CK16" s="11">
+        <v>714382.4665479362</v>
+      </c>
+      <c r="CL16" s="11">
+        <v>613001.24230658356</v>
+      </c>
+      <c r="CM16" s="11">
+        <v>1033127.2279455427</v>
+      </c>
+      <c r="CN16" s="11">
+        <v>758886.23809864244</v>
+      </c>
+      <c r="CO16" s="11">
+        <v>828631.8301446056</v>
       </c>
       <c r="CP16" s="9"/>
       <c r="CQ16" s="9"/>
@@ -25671,14 +25668,14 @@
       <c r="CE18" s="11"/>
       <c r="CF18" s="11"/>
       <c r="CG18" s="11"/>
-      <c r="CH18" s="26"/>
-      <c r="CI18" s="26"/>
-      <c r="CJ18" s="26"/>
-      <c r="CK18" s="26"/>
-      <c r="CL18" s="26"/>
-      <c r="CM18" s="26"/>
-      <c r="CN18" s="26"/>
-      <c r="CO18" s="26"/>
+      <c r="CH18" s="11"/>
+      <c r="CI18" s="11"/>
+      <c r="CJ18" s="11"/>
+      <c r="CK18" s="11"/>
+      <c r="CL18" s="11"/>
+      <c r="CM18" s="11"/>
+      <c r="CN18" s="11"/>
+      <c r="CO18" s="11"/>
       <c r="CP18" s="9"/>
       <c r="CQ18" s="9"/>
       <c r="CR18" s="9"/>
@@ -25971,29 +25968,29 @@
       <c r="CG19" s="8">
         <v>323023.33799660718</v>
       </c>
-      <c r="CH19" s="25">
-        <v>235371.21643846924</v>
-      </c>
-      <c r="CI19" s="25">
-        <v>408131.25381827954</v>
-      </c>
-      <c r="CJ19" s="25">
-        <v>304180.6889411317</v>
-      </c>
-      <c r="CK19" s="25">
-        <v>399763.10453051195</v>
-      </c>
-      <c r="CL19" s="25">
-        <v>290692.20502900099</v>
-      </c>
-      <c r="CM19" s="25">
-        <v>519306.12519113091</v>
-      </c>
-      <c r="CN19" s="25">
-        <v>359338.09077769669</v>
-      </c>
-      <c r="CO19" s="25">
-        <v>448958.31880256924</v>
+      <c r="CH19" s="8">
+        <v>235502.32164785988</v>
+      </c>
+      <c r="CI19" s="8">
+        <v>408088.21661154606</v>
+      </c>
+      <c r="CJ19" s="8">
+        <v>304116.808840035</v>
+      </c>
+      <c r="CK19" s="8">
+        <v>399601.70931168634</v>
+      </c>
+      <c r="CL19" s="8">
+        <v>288028.2565183072</v>
+      </c>
+      <c r="CM19" s="8">
+        <v>517808.59790224989</v>
+      </c>
+      <c r="CN19" s="8">
+        <v>359076.63956197811</v>
+      </c>
+      <c r="CO19" s="8">
+        <v>448727.63471485535</v>
       </c>
       <c r="CP19" s="9"/>
       <c r="CQ19" s="9"/>
@@ -26168,7 +26165,7 @@
     </row>
     <row r="27" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:128" x14ac:dyDescent="0.2">
@@ -26178,7 +26175,7 @@
     </row>
     <row r="30" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:128" x14ac:dyDescent="0.2">
@@ -26188,144 +26185,144 @@
     </row>
     <row r="33" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="30">
+      <c r="B33" s="25">
         <v>2000</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="30">
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="25">
         <v>2001</v>
       </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="30">
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="25">
         <v>2002</v>
       </c>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="30">
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="25">
         <v>2003</v>
       </c>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="30">
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="25">
         <v>2004</v>
       </c>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="30">
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="25">
         <v>2005</v>
       </c>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="30">
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="25">
         <v>2006</v>
       </c>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="31"/>
-      <c r="AC33" s="31"/>
-      <c r="AD33" s="30">
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="25">
         <v>2007</v>
       </c>
-      <c r="AE33" s="31"/>
-      <c r="AF33" s="31"/>
-      <c r="AG33" s="31"/>
-      <c r="AH33" s="30">
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="25">
         <v>2008</v>
       </c>
-      <c r="AI33" s="31"/>
-      <c r="AJ33" s="31"/>
-      <c r="AK33" s="31"/>
-      <c r="AL33" s="30">
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="26"/>
+      <c r="AK33" s="26"/>
+      <c r="AL33" s="25">
         <v>2009</v>
       </c>
-      <c r="AM33" s="31"/>
-      <c r="AN33" s="31"/>
-      <c r="AO33" s="31"/>
-      <c r="AP33" s="30">
+      <c r="AM33" s="26"/>
+      <c r="AN33" s="26"/>
+      <c r="AO33" s="26"/>
+      <c r="AP33" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ33" s="31"/>
-      <c r="AR33" s="31"/>
-      <c r="AS33" s="31"/>
-      <c r="AT33" s="30">
+      <c r="AQ33" s="26"/>
+      <c r="AR33" s="26"/>
+      <c r="AS33" s="26"/>
+      <c r="AT33" s="25">
         <v>2011</v>
       </c>
-      <c r="AU33" s="31"/>
-      <c r="AV33" s="31"/>
-      <c r="AW33" s="31"/>
-      <c r="AX33" s="30">
+      <c r="AU33" s="26"/>
+      <c r="AV33" s="26"/>
+      <c r="AW33" s="26"/>
+      <c r="AX33" s="25">
         <v>2012</v>
       </c>
-      <c r="AY33" s="31"/>
-      <c r="AZ33" s="31"/>
-      <c r="BA33" s="31"/>
-      <c r="BB33" s="30">
+      <c r="AY33" s="26"/>
+      <c r="AZ33" s="26"/>
+      <c r="BA33" s="26"/>
+      <c r="BB33" s="25">
         <v>2013</v>
       </c>
-      <c r="BC33" s="31"/>
-      <c r="BD33" s="31"/>
-      <c r="BE33" s="31"/>
-      <c r="BF33" s="30">
+      <c r="BC33" s="26"/>
+      <c r="BD33" s="26"/>
+      <c r="BE33" s="26"/>
+      <c r="BF33" s="25">
         <v>2014</v>
       </c>
-      <c r="BG33" s="31"/>
-      <c r="BH33" s="31"/>
-      <c r="BI33" s="31"/>
-      <c r="BJ33" s="30">
+      <c r="BG33" s="26"/>
+      <c r="BH33" s="26"/>
+      <c r="BI33" s="26"/>
+      <c r="BJ33" s="25">
         <v>2015</v>
       </c>
-      <c r="BK33" s="31"/>
-      <c r="BL33" s="31"/>
-      <c r="BM33" s="31"/>
-      <c r="BN33" s="30">
+      <c r="BK33" s="26"/>
+      <c r="BL33" s="26"/>
+      <c r="BM33" s="26"/>
+      <c r="BN33" s="25">
         <v>2016</v>
       </c>
-      <c r="BO33" s="31"/>
-      <c r="BP33" s="31"/>
-      <c r="BQ33" s="31"/>
-      <c r="BR33" s="30">
+      <c r="BO33" s="26"/>
+      <c r="BP33" s="26"/>
+      <c r="BQ33" s="26"/>
+      <c r="BR33" s="25">
         <v>2017</v>
       </c>
-      <c r="BS33" s="31"/>
-      <c r="BT33" s="31"/>
-      <c r="BU33" s="31"/>
-      <c r="BV33" s="30">
+      <c r="BS33" s="26"/>
+      <c r="BT33" s="26"/>
+      <c r="BU33" s="26"/>
+      <c r="BV33" s="25">
         <v>2018</v>
       </c>
-      <c r="BW33" s="30"/>
-      <c r="BX33" s="30"/>
-      <c r="BY33" s="30"/>
-      <c r="BZ33" s="30">
+      <c r="BW33" s="25"/>
+      <c r="BX33" s="25"/>
+      <c r="BY33" s="25"/>
+      <c r="BZ33" s="25">
         <v>2019</v>
       </c>
-      <c r="CA33" s="30"/>
-      <c r="CB33" s="30"/>
-      <c r="CC33" s="30"/>
-      <c r="CD33" s="30">
+      <c r="CA33" s="25"/>
+      <c r="CB33" s="25"/>
+      <c r="CC33" s="25"/>
+      <c r="CD33" s="25">
         <v>2020</v>
       </c>
-      <c r="CE33" s="30"/>
-      <c r="CF33" s="30"/>
-      <c r="CG33" s="30"/>
-      <c r="CH33" s="30">
+      <c r="CE33" s="25"/>
+      <c r="CF33" s="25"/>
+      <c r="CG33" s="25"/>
+      <c r="CH33" s="25">
         <v>2021</v>
       </c>
-      <c r="CI33" s="30"/>
-      <c r="CJ33" s="30"/>
-      <c r="CK33" s="30"/>
-      <c r="CL33" s="30">
+      <c r="CI33" s="25"/>
+      <c r="CJ33" s="25"/>
+      <c r="CK33" s="25"/>
+      <c r="CL33" s="25">
         <v>2022</v>
       </c>
-      <c r="CM33" s="30"/>
-      <c r="CN33" s="30"/>
-      <c r="CO33" s="30"/>
+      <c r="CM33" s="25"/>
+      <c r="CN33" s="25"/>
+      <c r="CO33" s="25"/>
     </row>
     <row r="34" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
@@ -26867,29 +26864,29 @@
       <c r="CG36" s="8">
         <v>206796.21572508392</v>
       </c>
-      <c r="CH36" s="25">
-        <v>150261.77867818158</v>
-      </c>
-      <c r="CI36" s="25">
-        <v>390295.45438141492</v>
-      </c>
-      <c r="CJ36" s="25">
-        <v>186463.32190444099</v>
-      </c>
-      <c r="CK36" s="25">
-        <v>249631.47842237909</v>
-      </c>
-      <c r="CL36" s="25">
-        <v>142145.81962242493</v>
-      </c>
-      <c r="CM36" s="25">
-        <v>480768.70473332691</v>
-      </c>
-      <c r="CN36" s="25">
-        <v>204637.08211831446</v>
-      </c>
-      <c r="CO36" s="25">
-        <v>265377.9260443144</v>
+      <c r="CH36" s="8">
+        <v>150955.89014101101</v>
+      </c>
+      <c r="CI36" s="8">
+        <v>384277.66977210727</v>
+      </c>
+      <c r="CJ36" s="8">
+        <v>186238.61020499366</v>
+      </c>
+      <c r="CK36" s="8">
+        <v>244301.11990967477</v>
+      </c>
+      <c r="CL36" s="8">
+        <v>138876.45936565803</v>
+      </c>
+      <c r="CM36" s="8">
+        <v>477872.31733643805</v>
+      </c>
+      <c r="CN36" s="8">
+        <v>203931.05585814783</v>
+      </c>
+      <c r="CO36" s="8">
+        <v>267321.23690688016</v>
       </c>
       <c r="CP36" s="9"/>
       <c r="CQ36" s="9"/>
@@ -27183,29 +27180,29 @@
       <c r="CG37" s="8">
         <v>196919.57899973172</v>
       </c>
-      <c r="CH37" s="25">
-        <v>183695.58095423726</v>
-      </c>
-      <c r="CI37" s="25">
-        <v>198956.47387944686</v>
-      </c>
-      <c r="CJ37" s="25">
-        <v>192736.69448870834</v>
-      </c>
-      <c r="CK37" s="25">
-        <v>206737.10520774993</v>
-      </c>
-      <c r="CL37" s="25">
-        <v>234648.32332395006</v>
-      </c>
-      <c r="CM37" s="25">
-        <v>232896.35547949572</v>
-      </c>
-      <c r="CN37" s="25">
-        <v>225570.80887875656</v>
-      </c>
-      <c r="CO37" s="25">
-        <v>232306.04964679721</v>
+      <c r="CH37" s="8">
+        <v>183323.49462612282</v>
+      </c>
+      <c r="CI37" s="8">
+        <v>203028.97812280885</v>
+      </c>
+      <c r="CJ37" s="8">
+        <v>195745.26145582148</v>
+      </c>
+      <c r="CK37" s="8">
+        <v>207575.77707729724</v>
+      </c>
+      <c r="CL37" s="8">
+        <v>233945.22608923679</v>
+      </c>
+      <c r="CM37" s="8">
+        <v>229061.85258321365</v>
+      </c>
+      <c r="CN37" s="8">
+        <v>224132.44939260228</v>
+      </c>
+      <c r="CO37" s="8">
+        <v>224802.9152009926</v>
       </c>
       <c r="CP37" s="9"/>
       <c r="CQ37" s="9"/>
@@ -27499,29 +27496,29 @@
       <c r="CG38" s="8">
         <v>186080.1971893374</v>
       </c>
-      <c r="CH38" s="25">
-        <v>137746.22508671635</v>
-      </c>
-      <c r="CI38" s="25">
-        <v>195591.91518542223</v>
-      </c>
-      <c r="CJ38" s="25">
-        <v>172854.54033532893</v>
-      </c>
-      <c r="CK38" s="25">
-        <v>226457.36345338321</v>
-      </c>
-      <c r="CL38" s="25">
-        <v>164257.20304861359</v>
-      </c>
-      <c r="CM38" s="25">
-        <v>199022.82058010495</v>
-      </c>
-      <c r="CN38" s="25">
-        <v>183410.98980018264</v>
-      </c>
-      <c r="CO38" s="25">
-        <v>242401.59825405595</v>
+      <c r="CH38" s="8">
+        <v>137740.40991218342</v>
+      </c>
+      <c r="CI38" s="8">
+        <v>197503.3785899253</v>
+      </c>
+      <c r="CJ38" s="8">
+        <v>169851.87146835233</v>
+      </c>
+      <c r="CK38" s="8">
+        <v>229834.19557939863</v>
+      </c>
+      <c r="CL38" s="8">
+        <v>162896.04245673135</v>
+      </c>
+      <c r="CM38" s="8">
+        <v>198065.43706122765</v>
+      </c>
+      <c r="CN38" s="8">
+        <v>183408.53384814513</v>
+      </c>
+      <c r="CO38" s="8">
+        <v>248395.60611464089</v>
       </c>
       <c r="CP38" s="9"/>
       <c r="CQ38" s="9"/>
@@ -27944,29 +27941,29 @@
       <c r="CG40" s="11">
         <v>589795.9919141531</v>
       </c>
-      <c r="CH40" s="26">
-        <v>471703.58471913519</v>
-      </c>
-      <c r="CI40" s="26">
-        <v>784843.84344628407</v>
-      </c>
-      <c r="CJ40" s="26">
-        <v>552054.55672847829</v>
-      </c>
-      <c r="CK40" s="26">
-        <v>682825.9470835122</v>
-      </c>
-      <c r="CL40" s="26">
-        <v>541051.34599498857</v>
-      </c>
-      <c r="CM40" s="26">
-        <v>912687.88079292758</v>
-      </c>
-      <c r="CN40" s="26">
-        <v>613618.88079725369</v>
-      </c>
-      <c r="CO40" s="26">
-        <v>740085.57394516759</v>
+      <c r="CH40" s="11">
+        <v>472019.79467931727</v>
+      </c>
+      <c r="CI40" s="11">
+        <v>784810.02648484148</v>
+      </c>
+      <c r="CJ40" s="11">
+        <v>551835.74312916747</v>
+      </c>
+      <c r="CK40" s="11">
+        <v>681711.09256637061</v>
+      </c>
+      <c r="CL40" s="11">
+        <v>535717.72791162611</v>
+      </c>
+      <c r="CM40" s="11">
+        <v>904999.60698087933</v>
+      </c>
+      <c r="CN40" s="11">
+        <v>611472.03909889527</v>
+      </c>
+      <c r="CO40" s="11">
+        <v>740519.7582225136</v>
       </c>
       <c r="CP40" s="9"/>
       <c r="CQ40" s="9"/>
@@ -28185,14 +28182,14 @@
       <c r="CE42" s="11"/>
       <c r="CF42" s="11"/>
       <c r="CG42" s="11"/>
-      <c r="CH42" s="26"/>
-      <c r="CI42" s="26"/>
-      <c r="CJ42" s="26"/>
-      <c r="CK42" s="26"/>
-      <c r="CL42" s="26"/>
-      <c r="CM42" s="26"/>
-      <c r="CN42" s="26"/>
-      <c r="CO42" s="26"/>
+      <c r="CH42" s="11"/>
+      <c r="CI42" s="11"/>
+      <c r="CJ42" s="11"/>
+      <c r="CK42" s="11"/>
+      <c r="CL42" s="11"/>
+      <c r="CM42" s="11"/>
+      <c r="CN42" s="11"/>
+      <c r="CO42" s="11"/>
       <c r="CP42" s="9"/>
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
@@ -28485,29 +28482,29 @@
       <c r="CG43" s="8">
         <v>325750.45283593191</v>
       </c>
-      <c r="CH43" s="25">
-        <v>223502.19562219223</v>
-      </c>
-      <c r="CI43" s="25">
-        <v>347357.97028891149</v>
-      </c>
-      <c r="CJ43" s="25">
-        <v>277594.86474362016</v>
-      </c>
-      <c r="CK43" s="25">
-        <v>386355.85839880561</v>
-      </c>
-      <c r="CL43" s="25">
-        <v>256394.00506803056</v>
-      </c>
-      <c r="CM43" s="25">
-        <v>415017.8271627705</v>
-      </c>
-      <c r="CN43" s="25">
-        <v>310042.045471697</v>
-      </c>
-      <c r="CO43" s="25">
-        <v>410703.89506664476</v>
+      <c r="CH43" s="8">
+        <v>223626.6896134275</v>
+      </c>
+      <c r="CI43" s="8">
+        <v>347321.34159008478</v>
+      </c>
+      <c r="CJ43" s="8">
+        <v>277536.56785407895</v>
+      </c>
+      <c r="CK43" s="8">
+        <v>386621.50166269159</v>
+      </c>
+      <c r="CL43" s="8">
+        <v>253019.28406263766</v>
+      </c>
+      <c r="CM43" s="8">
+        <v>412342.41444169602</v>
+      </c>
+      <c r="CN43" s="8">
+        <v>309043.48487735365</v>
+      </c>
+      <c r="CO43" s="8">
+        <v>410453.91399094043</v>
       </c>
       <c r="CP43" s="9"/>
       <c r="CQ43" s="9"/>
@@ -28920,7 +28917,7 @@
     </row>
     <row r="51" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:120" x14ac:dyDescent="0.2">
@@ -28933,7 +28930,7 @@
     </row>
     <row r="54" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:120" x14ac:dyDescent="0.2">
@@ -28943,142 +28940,142 @@
     </row>
     <row r="57" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30" t="s">
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30" t="s">
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30" t="s">
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30" t="s">
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="30"/>
-      <c r="V57" s="30" t="s">
+      <c r="S57" s="25"/>
+      <c r="T57" s="25"/>
+      <c r="U57" s="25"/>
+      <c r="V57" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="W57" s="30"/>
-      <c r="X57" s="30"/>
-      <c r="Y57" s="30"/>
-      <c r="Z57" s="30" t="s">
+      <c r="W57" s="25"/>
+      <c r="X57" s="25"/>
+      <c r="Y57" s="25"/>
+      <c r="Z57" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AA57" s="30"/>
-      <c r="AB57" s="30"/>
-      <c r="AC57" s="30"/>
-      <c r="AD57" s="30" t="s">
+      <c r="AA57" s="25"/>
+      <c r="AB57" s="25"/>
+      <c r="AC57" s="25"/>
+      <c r="AD57" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AE57" s="30"/>
-      <c r="AF57" s="30"/>
-      <c r="AG57" s="30"/>
-      <c r="AH57" s="30" t="s">
+      <c r="AE57" s="25"/>
+      <c r="AF57" s="25"/>
+      <c r="AG57" s="25"/>
+      <c r="AH57" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AI57" s="30"/>
-      <c r="AJ57" s="30"/>
-      <c r="AK57" s="30"/>
-      <c r="AL57" s="30" t="s">
+      <c r="AI57" s="25"/>
+      <c r="AJ57" s="25"/>
+      <c r="AK57" s="25"/>
+      <c r="AL57" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AM57" s="30"/>
-      <c r="AN57" s="30"/>
-      <c r="AO57" s="30"/>
-      <c r="AP57" s="30" t="s">
+      <c r="AM57" s="25"/>
+      <c r="AN57" s="25"/>
+      <c r="AO57" s="25"/>
+      <c r="AP57" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AQ57" s="30"/>
-      <c r="AR57" s="30"/>
-      <c r="AS57" s="30"/>
-      <c r="AT57" s="30" t="s">
+      <c r="AQ57" s="25"/>
+      <c r="AR57" s="25"/>
+      <c r="AS57" s="25"/>
+      <c r="AT57" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AU57" s="30"/>
-      <c r="AV57" s="30"/>
-      <c r="AW57" s="30"/>
-      <c r="AX57" s="30" t="s">
+      <c r="AU57" s="25"/>
+      <c r="AV57" s="25"/>
+      <c r="AW57" s="25"/>
+      <c r="AX57" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AY57" s="30"/>
-      <c r="AZ57" s="30"/>
-      <c r="BA57" s="30"/>
-      <c r="BB57" s="30" t="s">
+      <c r="AY57" s="25"/>
+      <c r="AZ57" s="25"/>
+      <c r="BA57" s="25"/>
+      <c r="BB57" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="BC57" s="30"/>
-      <c r="BD57" s="30"/>
-      <c r="BE57" s="30"/>
-      <c r="BF57" s="30" t="s">
+      <c r="BC57" s="25"/>
+      <c r="BD57" s="25"/>
+      <c r="BE57" s="25"/>
+      <c r="BF57" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="BG57" s="30"/>
-      <c r="BH57" s="30"/>
-      <c r="BI57" s="30"/>
-      <c r="BJ57" s="30" t="s">
+      <c r="BG57" s="25"/>
+      <c r="BH57" s="25"/>
+      <c r="BI57" s="25"/>
+      <c r="BJ57" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="BK57" s="30"/>
-      <c r="BL57" s="30"/>
-      <c r="BM57" s="30"/>
-      <c r="BN57" s="30" t="s">
+      <c r="BK57" s="25"/>
+      <c r="BL57" s="25"/>
+      <c r="BM57" s="25"/>
+      <c r="BN57" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="BO57" s="30"/>
-      <c r="BP57" s="30"/>
-      <c r="BQ57" s="30"/>
-      <c r="BR57" s="30" t="s">
+      <c r="BO57" s="25"/>
+      <c r="BP57" s="25"/>
+      <c r="BQ57" s="25"/>
+      <c r="BR57" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="BS57" s="30"/>
-      <c r="BT57" s="30"/>
-      <c r="BU57" s="30"/>
-      <c r="BV57" s="30" t="s">
+      <c r="BS57" s="25"/>
+      <c r="BT57" s="25"/>
+      <c r="BU57" s="25"/>
+      <c r="BV57" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="BW57" s="30"/>
-      <c r="BX57" s="30"/>
-      <c r="BY57" s="30"/>
-      <c r="BZ57" s="30" t="s">
+      <c r="BW57" s="25"/>
+      <c r="BX57" s="25"/>
+      <c r="BY57" s="25"/>
+      <c r="BZ57" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="CA57" s="30"/>
-      <c r="CB57" s="30"/>
-      <c r="CC57" s="30"/>
-      <c r="CD57" s="30" t="s">
+      <c r="CA57" s="25"/>
+      <c r="CB57" s="25"/>
+      <c r="CC57" s="25"/>
+      <c r="CD57" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="CE57" s="30"/>
-      <c r="CF57" s="30"/>
-      <c r="CG57" s="30"/>
-      <c r="CH57" s="30" t="s">
+      <c r="CE57" s="25"/>
+      <c r="CF57" s="25"/>
+      <c r="CG57" s="25"/>
+      <c r="CH57" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="CI57" s="30"/>
-      <c r="CJ57" s="30"/>
-      <c r="CK57" s="30"/>
-      <c r="CL57" s="30"/>
-      <c r="CM57" s="30"/>
-      <c r="CN57" s="27"/>
-      <c r="CO57" s="27"/>
+      <c r="CI57" s="25"/>
+      <c r="CJ57" s="25"/>
+      <c r="CK57" s="25"/>
+      <c r="CL57" s="25"/>
+      <c r="CM57" s="25"/>
+      <c r="CN57" s="25"/>
+      <c r="CO57" s="25"/>
     </row>
     <row r="58" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
@@ -29336,22 +29333,22 @@
       <c r="CG58" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CH58" s="5" t="s">
+      <c r="CH58" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CI58" s="5" t="s">
+      <c r="CI58" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CJ58" s="5" t="s">
+      <c r="CJ58" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CK58" s="5" t="s">
+      <c r="CK58" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL58" s="5"/>
-      <c r="CM58" s="5"/>
-      <c r="CN58" s="5"/>
-      <c r="CO58" s="5"/>
+      <c r="CL58" s="6"/>
+      <c r="CM58" s="6"/>
+      <c r="CN58" s="6"/>
+      <c r="CO58" s="6"/>
     </row>
     <row r="59" spans="1:120" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
@@ -29601,33 +29598,33 @@
         <v>-15.411890109061119</v>
       </c>
       <c r="CD60" s="19">
-        <v>25.888440320982852</v>
+        <v>26.469962849420753</v>
       </c>
       <c r="CE60" s="19">
-        <v>49.029196146457963</v>
+        <v>46.731384084236964</v>
       </c>
       <c r="CF60" s="19">
-        <v>60.163915918356935</v>
+        <v>59.970898303050291</v>
       </c>
       <c r="CG60" s="19">
-        <v>25.879901529061172</v>
-      </c>
-      <c r="CH60" s="28">
-        <v>0.47635677123523124</v>
-      </c>
-      <c r="CI60" s="28">
-        <v>32.537374897520067</v>
-      </c>
-      <c r="CJ60" s="28">
-        <v>19.815745229883845</v>
-      </c>
-      <c r="CK60" s="28">
-        <v>13.588230198820781</v>
-      </c>
-      <c r="CL60" s="28"/>
-      <c r="CM60" s="28"/>
-      <c r="CN60" s="28"/>
-      <c r="CO60" s="28"/>
+        <v>23.38408642171423</v>
+      </c>
+      <c r="CH60" s="19">
+        <v>-2.0951861453557257</v>
+      </c>
+      <c r="CI60" s="19">
+        <v>34.458605911374207</v>
+      </c>
+      <c r="CJ60" s="19">
+        <v>19.870120316505393</v>
+      </c>
+      <c r="CK60" s="19">
+        <v>16.680526398499083</v>
+      </c>
+      <c r="CL60" s="19"/>
+      <c r="CM60" s="19"/>
+      <c r="CN60" s="19"/>
+      <c r="CO60" s="19"/>
       <c r="CP60" s="9"/>
       <c r="CQ60" s="9"/>
       <c r="CR60" s="9"/>
@@ -29901,33 +29898,33 @@
         <v>-49.848870706394301</v>
       </c>
       <c r="CD61" s="19">
-        <v>-43.895237219069386</v>
+        <v>-44.0088807540115</v>
       </c>
       <c r="CE61" s="19">
-        <v>-21.232890522208066</v>
+        <v>-19.620581149555846</v>
       </c>
       <c r="CF61" s="19">
-        <v>-7.6313976875967029</v>
+        <v>-6.189549125999676</v>
       </c>
       <c r="CG61" s="19">
-        <v>9.4330852710521498</v>
-      </c>
-      <c r="CH61" s="28">
-        <v>35.638851187850292</v>
-      </c>
-      <c r="CI61" s="28">
-        <v>26.08080594101709</v>
-      </c>
-      <c r="CJ61" s="28">
-        <v>27.811737727749829</v>
-      </c>
-      <c r="CK61" s="28">
-        <v>20.030156938445344</v>
-      </c>
-      <c r="CL61" s="28"/>
-      <c r="CM61" s="28"/>
-      <c r="CN61" s="28"/>
-      <c r="CO61" s="28"/>
+        <v>10.016340474934054</v>
+      </c>
+      <c r="CH61" s="19">
+        <v>35.863728350190087</v>
+      </c>
+      <c r="CI61" s="19">
+        <v>22.127303232421937</v>
+      </c>
+      <c r="CJ61" s="19">
+        <v>25.443670148049293</v>
+      </c>
+      <c r="CK61" s="19">
+        <v>15.59792419688452</v>
+      </c>
+      <c r="CL61" s="19"/>
+      <c r="CM61" s="19"/>
+      <c r="CN61" s="19"/>
+      <c r="CO61" s="19"/>
       <c r="CP61" s="9"/>
       <c r="CQ61" s="9"/>
       <c r="CR61" s="9"/>
@@ -30201,33 +30198,33 @@
         <v>-29.255299064938271</v>
       </c>
       <c r="CD62" s="19">
-        <v>-23.143601504606806</v>
+        <v>-23.146846118903426</v>
       </c>
       <c r="CE62" s="19">
-        <v>340.70696949599142</v>
+        <v>345.01387166780376</v>
       </c>
       <c r="CF62" s="19">
-        <v>70.527124629481847</v>
+        <v>67.564885471015657</v>
       </c>
       <c r="CG62" s="19">
-        <v>27.34599078175313</v>
-      </c>
-      <c r="CH62" s="28">
-        <v>26.976930683520877</v>
-      </c>
-      <c r="CI62" s="28">
-        <v>9.8543787517382526</v>
-      </c>
-      <c r="CJ62" s="28">
-        <v>13.441416765797129</v>
-      </c>
-      <c r="CK62" s="28">
-        <v>14.755266062995801</v>
-      </c>
-      <c r="CL62" s="28"/>
-      <c r="CM62" s="28"/>
-      <c r="CN62" s="28"/>
-      <c r="CO62" s="28"/>
+        <v>29.398004917086723</v>
+      </c>
+      <c r="CH62" s="19">
+        <v>26.052252556370732</v>
+      </c>
+      <c r="CI62" s="19">
+        <v>8.6155248515896545</v>
+      </c>
+      <c r="CJ62" s="19">
+        <v>15.630293695979034</v>
+      </c>
+      <c r="CK62" s="19">
+        <v>15.602935002522571</v>
+      </c>
+      <c r="CL62" s="19"/>
+      <c r="CM62" s="19"/>
+      <c r="CN62" s="19"/>
+      <c r="CO62" s="19"/>
       <c r="CP62" s="9"/>
       <c r="CQ62" s="9"/>
       <c r="CR62" s="9"/>
@@ -30622,33 +30619,33 @@
         <v>-34.893969125398215</v>
       </c>
       <c r="CD64" s="19">
-        <v>-23.682806839928233</v>
+        <v>-23.624469721588738</v>
       </c>
       <c r="CE64" s="19">
-        <v>41.979894642940508</v>
+        <v>41.960370707646547</v>
       </c>
       <c r="CF64" s="19">
-        <v>28.961003759713577</v>
+        <v>28.923472030813315</v>
       </c>
       <c r="CG64" s="19">
-        <v>20.51676621017053</v>
-      </c>
-      <c r="CH64" s="28">
-        <v>21.438279074351712</v>
-      </c>
-      <c r="CI64" s="28">
-        <v>25.135251951925312</v>
-      </c>
-      <c r="CJ64" s="28">
-        <v>20.661854996758521</v>
-      </c>
-      <c r="CK64" s="28">
-        <v>16.010142209447736</v>
-      </c>
-      <c r="CL64" s="28"/>
-      <c r="CM64" s="28"/>
-      <c r="CN64" s="28"/>
-      <c r="CO64" s="28"/>
+        <v>20.438933201143541</v>
+      </c>
+      <c r="CH64" s="19">
+        <v>20.346782907631834</v>
+      </c>
+      <c r="CI64" s="19">
+        <v>24.673907965512541</v>
+      </c>
+      <c r="CJ64" s="19">
+        <v>20.577832291915314</v>
+      </c>
+      <c r="CK64" s="19">
+        <v>15.992744635622032</v>
+      </c>
+      <c r="CL64" s="19"/>
+      <c r="CM64" s="19"/>
+      <c r="CN64" s="19"/>
+      <c r="CO64" s="19"/>
       <c r="CP64" s="9"/>
       <c r="CQ64" s="9"/>
       <c r="CR64" s="9"/>
@@ -30858,14 +30855,14 @@
       <c r="CE66" s="19"/>
       <c r="CF66" s="19"/>
       <c r="CG66" s="19"/>
-      <c r="CH66" s="28"/>
-      <c r="CI66" s="28"/>
-      <c r="CJ66" s="28"/>
-      <c r="CK66" s="28"/>
-      <c r="CL66" s="28"/>
-      <c r="CM66" s="28"/>
-      <c r="CN66" s="28"/>
-      <c r="CO66" s="28"/>
+      <c r="CH66" s="19"/>
+      <c r="CI66" s="19"/>
+      <c r="CJ66" s="19"/>
+      <c r="CK66" s="19"/>
+      <c r="CL66" s="19"/>
+      <c r="CM66" s="19"/>
+      <c r="CN66" s="19"/>
+      <c r="CO66" s="19"/>
       <c r="CP66" s="9"/>
       <c r="CQ66" s="9"/>
       <c r="CR66" s="9"/>
@@ -31139,33 +31136,33 @@
         <v>-24.410897047655666</v>
       </c>
       <c r="CD67" s="19">
-        <v>-23.261750900505305</v>
+        <v>-23.219006573613115</v>
       </c>
       <c r="CE67" s="19">
-        <v>32.272834895790879</v>
+        <v>32.25888680118311</v>
       </c>
       <c r="CF67" s="19">
-        <v>25.744405624244408</v>
+        <v>25.717998407627249</v>
       </c>
       <c r="CG67" s="19">
-        <v>23.756725136284345</v>
-      </c>
-      <c r="CH67" s="28">
-        <v>23.503718690681012</v>
-      </c>
-      <c r="CI67" s="28">
-        <v>27.239979867445285</v>
-      </c>
-      <c r="CJ67" s="28">
-        <v>18.133104382323111</v>
-      </c>
-      <c r="CK67" s="28">
-        <v>12.30609171144819</v>
-      </c>
-      <c r="CL67" s="28"/>
-      <c r="CM67" s="28"/>
-      <c r="CN67" s="28"/>
-      <c r="CO67" s="28"/>
+        <v>23.706761186364659</v>
+      </c>
+      <c r="CH67" s="19">
+        <v>22.303786435272556</v>
+      </c>
+      <c r="CI67" s="19">
+        <v>26.886437006620369</v>
+      </c>
+      <c r="CJ67" s="19">
+        <v>18.071947726786746</v>
+      </c>
+      <c r="CK67" s="19">
+        <v>12.293722538822067</v>
+      </c>
+      <c r="CL67" s="19"/>
+      <c r="CM67" s="19"/>
+      <c r="CN67" s="19"/>
+      <c r="CO67" s="19"/>
       <c r="CP67" s="9"/>
       <c r="CQ67" s="9"/>
       <c r="CR67" s="9"/>
@@ -31553,7 +31550,7 @@
     </row>
     <row r="75" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:120" x14ac:dyDescent="0.2">
@@ -31563,7 +31560,7 @@
     </row>
     <row r="78" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:120" x14ac:dyDescent="0.2">
@@ -31573,142 +31570,142 @@
     </row>
     <row r="81" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="30" t="s">
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="30" t="s">
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K81" s="31"/>
-      <c r="L81" s="31"/>
-      <c r="M81" s="31"/>
-      <c r="N81" s="30" t="s">
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="26"/>
+      <c r="N81" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="O81" s="31"/>
-      <c r="P81" s="31"/>
-      <c r="Q81" s="31"/>
-      <c r="R81" s="30" t="s">
+      <c r="O81" s="26"/>
+      <c r="P81" s="26"/>
+      <c r="Q81" s="26"/>
+      <c r="R81" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="S81" s="31"/>
-      <c r="T81" s="31"/>
-      <c r="U81" s="31"/>
-      <c r="V81" s="30" t="s">
+      <c r="S81" s="26"/>
+      <c r="T81" s="26"/>
+      <c r="U81" s="26"/>
+      <c r="V81" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="W81" s="31"/>
-      <c r="X81" s="31"/>
-      <c r="Y81" s="31"/>
-      <c r="Z81" s="30" t="s">
+      <c r="W81" s="26"/>
+      <c r="X81" s="26"/>
+      <c r="Y81" s="26"/>
+      <c r="Z81" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AA81" s="31"/>
-      <c r="AB81" s="31"/>
-      <c r="AC81" s="31"/>
-      <c r="AD81" s="30" t="s">
+      <c r="AA81" s="26"/>
+      <c r="AB81" s="26"/>
+      <c r="AC81" s="26"/>
+      <c r="AD81" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AE81" s="31"/>
-      <c r="AF81" s="31"/>
-      <c r="AG81" s="31"/>
-      <c r="AH81" s="30" t="s">
+      <c r="AE81" s="26"/>
+      <c r="AF81" s="26"/>
+      <c r="AG81" s="26"/>
+      <c r="AH81" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AI81" s="31"/>
-      <c r="AJ81" s="31"/>
-      <c r="AK81" s="31"/>
-      <c r="AL81" s="30" t="s">
+      <c r="AI81" s="26"/>
+      <c r="AJ81" s="26"/>
+      <c r="AK81" s="26"/>
+      <c r="AL81" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AM81" s="31"/>
-      <c r="AN81" s="31"/>
-      <c r="AO81" s="31"/>
-      <c r="AP81" s="30" t="s">
+      <c r="AM81" s="26"/>
+      <c r="AN81" s="26"/>
+      <c r="AO81" s="26"/>
+      <c r="AP81" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AQ81" s="31"/>
-      <c r="AR81" s="31"/>
-      <c r="AS81" s="31"/>
-      <c r="AT81" s="30" t="s">
+      <c r="AQ81" s="26"/>
+      <c r="AR81" s="26"/>
+      <c r="AS81" s="26"/>
+      <c r="AT81" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AU81" s="31"/>
-      <c r="AV81" s="31"/>
-      <c r="AW81" s="31"/>
-      <c r="AX81" s="30" t="s">
+      <c r="AU81" s="26"/>
+      <c r="AV81" s="26"/>
+      <c r="AW81" s="26"/>
+      <c r="AX81" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AY81" s="31"/>
-      <c r="AZ81" s="31"/>
-      <c r="BA81" s="31"/>
-      <c r="BB81" s="30" t="s">
+      <c r="AY81" s="26"/>
+      <c r="AZ81" s="26"/>
+      <c r="BA81" s="26"/>
+      <c r="BB81" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="BC81" s="31"/>
-      <c r="BD81" s="31"/>
-      <c r="BE81" s="31"/>
-      <c r="BF81" s="30" t="s">
+      <c r="BC81" s="26"/>
+      <c r="BD81" s="26"/>
+      <c r="BE81" s="26"/>
+      <c r="BF81" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="BG81" s="31"/>
-      <c r="BH81" s="31"/>
-      <c r="BI81" s="31"/>
-      <c r="BJ81" s="30" t="s">
+      <c r="BG81" s="26"/>
+      <c r="BH81" s="26"/>
+      <c r="BI81" s="26"/>
+      <c r="BJ81" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="BK81" s="31"/>
-      <c r="BL81" s="31"/>
-      <c r="BM81" s="31"/>
-      <c r="BN81" s="30" t="s">
+      <c r="BK81" s="26"/>
+      <c r="BL81" s="26"/>
+      <c r="BM81" s="26"/>
+      <c r="BN81" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="BO81" s="31"/>
-      <c r="BP81" s="31"/>
-      <c r="BQ81" s="31"/>
-      <c r="BR81" s="30" t="s">
+      <c r="BO81" s="26"/>
+      <c r="BP81" s="26"/>
+      <c r="BQ81" s="26"/>
+      <c r="BR81" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="BS81" s="31"/>
-      <c r="BT81" s="31"/>
-      <c r="BU81" s="31"/>
-      <c r="BV81" s="30" t="s">
+      <c r="BS81" s="26"/>
+      <c r="BT81" s="26"/>
+      <c r="BU81" s="26"/>
+      <c r="BV81" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="BW81" s="30"/>
-      <c r="BX81" s="30"/>
-      <c r="BY81" s="30"/>
-      <c r="BZ81" s="30" t="s">
+      <c r="BW81" s="25"/>
+      <c r="BX81" s="25"/>
+      <c r="BY81" s="25"/>
+      <c r="BZ81" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="CA81" s="30"/>
-      <c r="CB81" s="30"/>
-      <c r="CC81" s="30"/>
-      <c r="CD81" s="30" t="s">
+      <c r="CA81" s="25"/>
+      <c r="CB81" s="25"/>
+      <c r="CC81" s="25"/>
+      <c r="CD81" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="CE81" s="30"/>
-      <c r="CF81" s="30"/>
-      <c r="CG81" s="30"/>
-      <c r="CH81" s="30" t="s">
+      <c r="CE81" s="25"/>
+      <c r="CF81" s="25"/>
+      <c r="CG81" s="25"/>
+      <c r="CH81" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="CI81" s="30"/>
-      <c r="CJ81" s="30"/>
-      <c r="CK81" s="30"/>
-      <c r="CL81" s="30"/>
-      <c r="CM81" s="30"/>
-      <c r="CN81" s="27"/>
-      <c r="CO81" s="27"/>
+      <c r="CI81" s="25"/>
+      <c r="CJ81" s="25"/>
+      <c r="CK81" s="25"/>
+      <c r="CL81" s="25"/>
+      <c r="CM81" s="25"/>
+      <c r="CN81" s="25"/>
+      <c r="CO81" s="25"/>
     </row>
     <row r="82" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
@@ -32231,33 +32228,33 @@
         <v>-17.08295141541474</v>
       </c>
       <c r="CD84" s="19">
-        <v>24.86029683858122</v>
+        <v>25.437070014370391</v>
       </c>
       <c r="CE84" s="19">
-        <v>43.181315438530078</v>
+        <v>40.973669136955721</v>
       </c>
       <c r="CF84" s="19">
-        <v>54.552282448061732</v>
+        <v>54.366027555208518</v>
       </c>
       <c r="CG84" s="19">
-        <v>20.713755591272815</v>
-      </c>
-      <c r="CH84" s="28">
-        <v>-5.4012132207876675</v>
-      </c>
-      <c r="CI84" s="28">
-        <v>23.180708188186401</v>
-      </c>
-      <c r="CJ84" s="28">
-        <v>9.7465603574236326</v>
-      </c>
-      <c r="CK84" s="28">
-        <v>6.3078774045043104</v>
-      </c>
-      <c r="CL84" s="28"/>
-      <c r="CM84" s="28"/>
-      <c r="CN84" s="28"/>
-      <c r="CO84" s="28"/>
+        <v>18.136165622319737</v>
+      </c>
+      <c r="CH84" s="19">
+        <v>-8.001960548918845</v>
+      </c>
+      <c r="CI84" s="19">
+        <v>24.355994356850431</v>
+      </c>
+      <c r="CJ84" s="19">
+        <v>9.4998806282327877</v>
+      </c>
+      <c r="CK84" s="19">
+        <v>9.4228454645302548</v>
+      </c>
+      <c r="CL84" s="19"/>
+      <c r="CM84" s="19"/>
+      <c r="CN84" s="19"/>
+      <c r="CO84" s="19"/>
       <c r="CP84" s="9"/>
       <c r="CQ84" s="9"/>
       <c r="CR84" s="9"/>
@@ -32531,33 +32528,33 @@
         <v>-50.800080677927959</v>
       </c>
       <c r="CD85" s="19">
-        <v>-44.309833974898808</v>
+        <v>-44.422637719445746</v>
       </c>
       <c r="CE85" s="19">
-        <v>-23.867496290740021</v>
+        <v>-22.309115513436922</v>
       </c>
       <c r="CF85" s="19">
-        <v>-10.760653467259189</v>
+        <v>-9.367651730576938</v>
       </c>
       <c r="CG85" s="19">
-        <v>4.9855510853146683</v>
-      </c>
-      <c r="CH85" s="28">
-        <v>27.73759831620896</v>
-      </c>
-      <c r="CI85" s="28">
-        <v>17.058948089627862</v>
-      </c>
-      <c r="CJ85" s="28">
-        <v>17.035735969816514</v>
-      </c>
-      <c r="CK85" s="28">
-        <v>12.367854533588954</v>
-      </c>
-      <c r="CL85" s="28"/>
-      <c r="CM85" s="28"/>
-      <c r="CN85" s="28"/>
-      <c r="CO85" s="28"/>
+        <v>5.4114467092071266</v>
+      </c>
+      <c r="CH85" s="19">
+        <v>27.613335413638012</v>
+      </c>
+      <c r="CI85" s="19">
+        <v>12.82224572132651</v>
+      </c>
+      <c r="CJ85" s="19">
+        <v>14.502107343828399</v>
+      </c>
+      <c r="CK85" s="19">
+        <v>8.2992044477715297</v>
+      </c>
+      <c r="CL85" s="19"/>
+      <c r="CM85" s="19"/>
+      <c r="CN85" s="19"/>
+      <c r="CO85" s="19"/>
       <c r="CP85" s="9"/>
       <c r="CQ85" s="9"/>
       <c r="CR85" s="9"/>
@@ -32831,33 +32828,33 @@
         <v>-30.616510598920428</v>
       </c>
       <c r="CD86" s="19">
-        <v>-23.762113838145979</v>
+        <v>-23.765332340967191</v>
       </c>
       <c r="CE86" s="19">
-        <v>324.61480341958753</v>
+        <v>328.76444149116821</v>
       </c>
       <c r="CF86" s="19">
-        <v>64.222779910272294</v>
+        <v>61.370053985177577</v>
       </c>
       <c r="CG86" s="19">
-        <v>21.698798084871896</v>
-      </c>
-      <c r="CH86" s="28">
-        <v>19.246246454454635</v>
-      </c>
-      <c r="CI86" s="28">
-        <v>1.754114116337675</v>
-      </c>
-      <c r="CJ86" s="28">
-        <v>6.1071288288839582</v>
-      </c>
-      <c r="CK86" s="28">
-        <v>7.0407226144160688</v>
-      </c>
-      <c r="CL86" s="28"/>
-      <c r="CM86" s="28"/>
-      <c r="CN86" s="28"/>
-      <c r="CO86" s="28"/>
+        <v>23.513516779833026</v>
+      </c>
+      <c r="CH86" s="19">
+        <v>18.263073676480232</v>
+      </c>
+      <c r="CI86" s="19">
+        <v>0.28458169947023748</v>
+      </c>
+      <c r="CJ86" s="19">
+        <v>7.9814618835793993</v>
+      </c>
+      <c r="CK86" s="19">
+        <v>8.0760003916954304</v>
+      </c>
+      <c r="CL86" s="19"/>
+      <c r="CM86" s="19"/>
+      <c r="CN86" s="19"/>
+      <c r="CO86" s="19"/>
       <c r="CP86" s="9"/>
       <c r="CQ86" s="9"/>
       <c r="CR86" s="9"/>
@@ -33252,33 +33249,33 @@
         <v>-35.74058473440175</v>
       </c>
       <c r="CD88" s="19">
-        <v>-25.230407765491606</v>
+        <v>-25.180285420550391</v>
       </c>
       <c r="CE88" s="19">
-        <v>35.322372143907842</v>
+        <v>35.316541440794936</v>
       </c>
       <c r="CF88" s="19">
-        <v>24.932914743996875</v>
+        <v>24.883396049849111</v>
       </c>
       <c r="CG88" s="19">
-        <v>15.773243027209304</v>
-      </c>
-      <c r="CH88" s="28">
-        <v>14.701554858258035</v>
-      </c>
-      <c r="CI88" s="28">
-        <v>16.289104949243736</v>
-      </c>
-      <c r="CJ88" s="28">
-        <v>11.151855069109601</v>
-      </c>
-      <c r="CK88" s="28">
-        <v>8.3856840980081131</v>
-      </c>
-      <c r="CL88" s="28"/>
-      <c r="CM88" s="28"/>
-      <c r="CN88" s="28"/>
-      <c r="CO88" s="28"/>
+        <v>15.584219274517565</v>
+      </c>
+      <c r="CH88" s="19">
+        <v>13.49475889577559</v>
+      </c>
+      <c r="CI88" s="19">
+        <v>15.314480758402908</v>
+      </c>
+      <c r="CJ88" s="19">
+        <v>10.806892578498449</v>
+      </c>
+      <c r="CK88" s="19">
+        <v>8.6266258973066954</v>
+      </c>
+      <c r="CL88" s="19"/>
+      <c r="CM88" s="19"/>
+      <c r="CN88" s="19"/>
+      <c r="CO88" s="19"/>
       <c r="CP88" s="9"/>
       <c r="CQ88" s="9"/>
       <c r="CR88" s="9"/>
@@ -33488,14 +33485,14 @@
       <c r="CE90" s="19"/>
       <c r="CF90" s="19"/>
       <c r="CG90" s="19"/>
-      <c r="CH90" s="28"/>
-      <c r="CI90" s="28"/>
-      <c r="CJ90" s="28"/>
-      <c r="CK90" s="28"/>
-      <c r="CL90" s="28"/>
-      <c r="CM90" s="28"/>
-      <c r="CN90" s="28"/>
-      <c r="CO90" s="28"/>
+      <c r="CH90" s="19"/>
+      <c r="CI90" s="19"/>
+      <c r="CJ90" s="19"/>
+      <c r="CK90" s="19"/>
+      <c r="CL90" s="19"/>
+      <c r="CM90" s="19"/>
+      <c r="CN90" s="19"/>
+      <c r="CO90" s="19"/>
       <c r="CP90" s="9"/>
       <c r="CQ90" s="9"/>
       <c r="CR90" s="9"/>
@@ -33769,33 +33766,33 @@
         <v>-26.806079372893777</v>
       </c>
       <c r="CD91" s="19">
-        <v>-22.566696586401576</v>
+        <v>-22.523565104092626</v>
       </c>
       <c r="CE91" s="19">
-        <v>27.394326672585663</v>
+        <v>27.380893013873191</v>
       </c>
       <c r="CF91" s="19">
-        <v>17.997106597448294</v>
+        <v>17.972326368549446</v>
       </c>
       <c r="CG91" s="19">
-        <v>18.604856888226124</v>
-      </c>
-      <c r="CH91" s="28">
-        <v>14.71654869173571</v>
-      </c>
-      <c r="CI91" s="28">
-        <v>19.478423603633928</v>
-      </c>
-      <c r="CJ91" s="28">
-        <v>11.688681906289688</v>
-      </c>
-      <c r="CK91" s="28">
-        <v>6.3019716508883761</v>
-      </c>
-      <c r="CL91" s="28"/>
-      <c r="CM91" s="28"/>
-      <c r="CN91" s="28"/>
-      <c r="CO91" s="28"/>
+        <v>18.686404975595877</v>
+      </c>
+      <c r="CH91" s="19">
+        <v>13.143598601767835</v>
+      </c>
+      <c r="CI91" s="19">
+        <v>18.720724892382322</v>
+      </c>
+      <c r="CJ91" s="19">
+        <v>11.352348004764607</v>
+      </c>
+      <c r="CK91" s="19">
+        <v>6.1642749370523831</v>
+      </c>
+      <c r="CL91" s="19"/>
+      <c r="CM91" s="19"/>
+      <c r="CN91" s="19"/>
+      <c r="CO91" s="19"/>
       <c r="CP91" s="9"/>
       <c r="CQ91" s="9"/>
       <c r="CR91" s="9"/>
@@ -34194,7 +34191,7 @@
     </row>
     <row r="98" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:128" x14ac:dyDescent="0.2">
@@ -34204,7 +34201,7 @@
     </row>
     <row r="101" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:128" x14ac:dyDescent="0.2">
@@ -34214,144 +34211,144 @@
     </row>
     <row r="104" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
-      <c r="B104" s="30">
+      <c r="B104" s="25">
         <v>2000</v>
       </c>
-      <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="30">
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="25">
         <v>2001</v>
       </c>
-      <c r="G104" s="31"/>
-      <c r="H104" s="31"/>
-      <c r="I104" s="31"/>
-      <c r="J104" s="30">
+      <c r="G104" s="26"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="26"/>
+      <c r="J104" s="25">
         <v>2002</v>
       </c>
-      <c r="K104" s="31"/>
-      <c r="L104" s="31"/>
-      <c r="M104" s="31"/>
-      <c r="N104" s="30">
+      <c r="K104" s="26"/>
+      <c r="L104" s="26"/>
+      <c r="M104" s="26"/>
+      <c r="N104" s="25">
         <v>2003</v>
       </c>
-      <c r="O104" s="31"/>
-      <c r="P104" s="31"/>
-      <c r="Q104" s="31"/>
-      <c r="R104" s="30">
+      <c r="O104" s="26"/>
+      <c r="P104" s="26"/>
+      <c r="Q104" s="26"/>
+      <c r="R104" s="25">
         <v>2004</v>
       </c>
-      <c r="S104" s="31"/>
-      <c r="T104" s="31"/>
-      <c r="U104" s="31"/>
-      <c r="V104" s="30">
+      <c r="S104" s="26"/>
+      <c r="T104" s="26"/>
+      <c r="U104" s="26"/>
+      <c r="V104" s="25">
         <v>2005</v>
       </c>
-      <c r="W104" s="31"/>
-      <c r="X104" s="31"/>
-      <c r="Y104" s="31"/>
-      <c r="Z104" s="30">
+      <c r="W104" s="26"/>
+      <c r="X104" s="26"/>
+      <c r="Y104" s="26"/>
+      <c r="Z104" s="25">
         <v>2006</v>
       </c>
-      <c r="AA104" s="31"/>
-      <c r="AB104" s="31"/>
-      <c r="AC104" s="31"/>
-      <c r="AD104" s="30">
+      <c r="AA104" s="26"/>
+      <c r="AB104" s="26"/>
+      <c r="AC104" s="26"/>
+      <c r="AD104" s="25">
         <v>2007</v>
       </c>
-      <c r="AE104" s="31"/>
-      <c r="AF104" s="31"/>
-      <c r="AG104" s="31"/>
-      <c r="AH104" s="30">
+      <c r="AE104" s="26"/>
+      <c r="AF104" s="26"/>
+      <c r="AG104" s="26"/>
+      <c r="AH104" s="25">
         <v>2008</v>
       </c>
-      <c r="AI104" s="31"/>
-      <c r="AJ104" s="31"/>
-      <c r="AK104" s="31"/>
-      <c r="AL104" s="30">
+      <c r="AI104" s="26"/>
+      <c r="AJ104" s="26"/>
+      <c r="AK104" s="26"/>
+      <c r="AL104" s="25">
         <v>2009</v>
       </c>
-      <c r="AM104" s="31"/>
-      <c r="AN104" s="31"/>
-      <c r="AO104" s="31"/>
-      <c r="AP104" s="30">
+      <c r="AM104" s="26"/>
+      <c r="AN104" s="26"/>
+      <c r="AO104" s="26"/>
+      <c r="AP104" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ104" s="31"/>
-      <c r="AR104" s="31"/>
-      <c r="AS104" s="31"/>
-      <c r="AT104" s="30">
+      <c r="AQ104" s="26"/>
+      <c r="AR104" s="26"/>
+      <c r="AS104" s="26"/>
+      <c r="AT104" s="25">
         <v>2011</v>
       </c>
-      <c r="AU104" s="31"/>
-      <c r="AV104" s="31"/>
-      <c r="AW104" s="31"/>
-      <c r="AX104" s="30">
+      <c r="AU104" s="26"/>
+      <c r="AV104" s="26"/>
+      <c r="AW104" s="26"/>
+      <c r="AX104" s="25">
         <v>2012</v>
       </c>
-      <c r="AY104" s="31"/>
-      <c r="AZ104" s="31"/>
-      <c r="BA104" s="31"/>
-      <c r="BB104" s="30">
+      <c r="AY104" s="26"/>
+      <c r="AZ104" s="26"/>
+      <c r="BA104" s="26"/>
+      <c r="BB104" s="25">
         <v>2013</v>
       </c>
-      <c r="BC104" s="31"/>
-      <c r="BD104" s="31"/>
-      <c r="BE104" s="31"/>
-      <c r="BF104" s="30">
+      <c r="BC104" s="26"/>
+      <c r="BD104" s="26"/>
+      <c r="BE104" s="26"/>
+      <c r="BF104" s="25">
         <v>2014</v>
       </c>
-      <c r="BG104" s="31"/>
-      <c r="BH104" s="31"/>
-      <c r="BI104" s="31"/>
-      <c r="BJ104" s="30">
+      <c r="BG104" s="26"/>
+      <c r="BH104" s="26"/>
+      <c r="BI104" s="26"/>
+      <c r="BJ104" s="25">
         <v>2015</v>
       </c>
-      <c r="BK104" s="31"/>
-      <c r="BL104" s="31"/>
-      <c r="BM104" s="31"/>
-      <c r="BN104" s="30">
+      <c r="BK104" s="26"/>
+      <c r="BL104" s="26"/>
+      <c r="BM104" s="26"/>
+      <c r="BN104" s="25">
         <v>2016</v>
       </c>
-      <c r="BO104" s="31"/>
-      <c r="BP104" s="31"/>
-      <c r="BQ104" s="31"/>
-      <c r="BR104" s="30">
+      <c r="BO104" s="26"/>
+      <c r="BP104" s="26"/>
+      <c r="BQ104" s="26"/>
+      <c r="BR104" s="25">
         <v>2017</v>
       </c>
-      <c r="BS104" s="31"/>
-      <c r="BT104" s="31"/>
-      <c r="BU104" s="31"/>
-      <c r="BV104" s="30">
+      <c r="BS104" s="26"/>
+      <c r="BT104" s="26"/>
+      <c r="BU104" s="26"/>
+      <c r="BV104" s="25">
         <v>2018</v>
       </c>
-      <c r="BW104" s="30"/>
-      <c r="BX104" s="30"/>
-      <c r="BY104" s="30"/>
-      <c r="BZ104" s="30">
+      <c r="BW104" s="25"/>
+      <c r="BX104" s="25"/>
+      <c r="BY104" s="25"/>
+      <c r="BZ104" s="25">
         <v>2019</v>
       </c>
-      <c r="CA104" s="30"/>
-      <c r="CB104" s="30"/>
-      <c r="CC104" s="30"/>
-      <c r="CD104" s="30">
+      <c r="CA104" s="25"/>
+      <c r="CB104" s="25"/>
+      <c r="CC104" s="25"/>
+      <c r="CD104" s="25">
         <v>2020</v>
       </c>
-      <c r="CE104" s="30"/>
-      <c r="CF104" s="30"/>
-      <c r="CG104" s="30"/>
-      <c r="CH104" s="30">
+      <c r="CE104" s="25"/>
+      <c r="CF104" s="25"/>
+      <c r="CG104" s="25"/>
+      <c r="CH104" s="25">
         <v>2021</v>
       </c>
-      <c r="CI104" s="30"/>
-      <c r="CJ104" s="30"/>
-      <c r="CK104" s="30"/>
-      <c r="CL104" s="30">
+      <c r="CI104" s="25"/>
+      <c r="CJ104" s="25"/>
+      <c r="CK104" s="25"/>
+      <c r="CL104" s="25">
         <v>2022</v>
       </c>
-      <c r="CM104" s="30"/>
-      <c r="CN104" s="30"/>
-      <c r="CO104" s="30"/>
+      <c r="CM104" s="25"/>
+      <c r="CN104" s="25"/>
+      <c r="CO104" s="25"/>
     </row>
     <row r="105" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
@@ -34893,29 +34890,29 @@
       <c r="CG107" s="24">
         <v>101.69977324269048</v>
       </c>
-      <c r="CH107" s="29">
+      <c r="CH107" s="24">
         <v>111.17377522144784</v>
       </c>
-      <c r="CI107" s="29">
+      <c r="CI107" s="24">
         <v>105.70481676144105</v>
       </c>
-      <c r="CJ107" s="29">
+      <c r="CJ107" s="24">
         <v>111.77986794634754</v>
       </c>
-      <c r="CK107" s="29">
-        <v>106.05218418242357</v>
-      </c>
-      <c r="CL107" s="29">
-        <v>118.08117506650663</v>
-      </c>
-      <c r="CM107" s="29">
-        <v>113.73403460371063</v>
-      </c>
-      <c r="CN107" s="29">
-        <v>122.03560764065158</v>
-      </c>
-      <c r="CO107" s="29">
-        <v>113.31502616842259</v>
+      <c r="CK107" s="24">
+        <v>106.21754603887462</v>
+      </c>
+      <c r="CL107" s="24">
+        <v>118.31173613609008</v>
+      </c>
+      <c r="CM107" s="24">
+        <v>114.2922170609275</v>
+      </c>
+      <c r="CN107" s="24">
+        <v>122.36603494741189</v>
+      </c>
+      <c r="CO107" s="24">
+        <v>113.26262931619794</v>
       </c>
       <c r="CP107" s="9"/>
       <c r="CQ107" s="9"/>
@@ -35209,29 +35206,29 @@
       <c r="CG108" s="24">
         <v>106.09546630400037</v>
       </c>
-      <c r="CH108" s="29">
+      <c r="CH108" s="24">
         <v>101.05478495542721</v>
       </c>
-      <c r="CI108" s="29">
+      <c r="CI108" s="24">
         <v>102.41515237601517</v>
       </c>
-      <c r="CJ108" s="29">
+      <c r="CJ108" s="24">
         <v>116.15357655130316</v>
       </c>
-      <c r="CK108" s="29">
-        <v>110.59002015889558</v>
-      </c>
-      <c r="CL108" s="29">
-        <v>107.30556327243934</v>
-      </c>
-      <c r="CM108" s="29">
-        <v>110.30839728931579</v>
-      </c>
-      <c r="CN108" s="29">
-        <v>126.8483539604006</v>
-      </c>
-      <c r="CO108" s="29">
-        <v>118.1310930122829</v>
+      <c r="CK108" s="24">
+        <v>110.73024143143924</v>
+      </c>
+      <c r="CL108" s="24">
+        <v>107.5881278956349</v>
+      </c>
+      <c r="CM108" s="24">
+        <v>110.861880915884</v>
+      </c>
+      <c r="CN108" s="24">
+        <v>127.25295002357193</v>
+      </c>
+      <c r="CO108" s="24">
+        <v>118.19279855806573</v>
       </c>
       <c r="CP108" s="9"/>
       <c r="CQ108" s="9"/>
@@ -35525,29 +35522,29 @@
       <c r="CG109" s="24">
         <v>93.462437003437287</v>
       </c>
-      <c r="CH109" s="29">
+      <c r="CH109" s="24">
         <v>113.46115398869969</v>
       </c>
-      <c r="CI109" s="29">
+      <c r="CI109" s="24">
         <v>108.62148513306533</v>
       </c>
-      <c r="CJ109" s="29">
+      <c r="CJ109" s="24">
         <v>114.11837506408236</v>
       </c>
-      <c r="CK109" s="29">
-        <v>97.79937705530574</v>
-      </c>
-      <c r="CL109" s="29">
-        <v>120.81679309543762</v>
-      </c>
-      <c r="CM109" s="29">
-        <v>117.26843550267978</v>
-      </c>
-      <c r="CN109" s="29">
-        <v>122.00641266203117</v>
-      </c>
-      <c r="CO109" s="29">
-        <v>104.84788649273713</v>
+      <c r="CK109" s="24">
+        <v>97.915217688209665</v>
+      </c>
+      <c r="CL109" s="24">
+        <v>120.93406329895843</v>
+      </c>
+      <c r="CM109" s="24">
+        <v>117.64500003841923</v>
+      </c>
+      <c r="CN109" s="24">
+        <v>122.2019131301867</v>
+      </c>
+      <c r="CO109" s="24">
+        <v>104.73450632095862</v>
       </c>
       <c r="CP109" s="9"/>
       <c r="CQ109" s="9"/>
@@ -35970,29 +35967,29 @@
       <c r="CG111" s="24">
         <v>100.56852254954056</v>
       </c>
-      <c r="CH111" s="29">
-        <v>107.90109285255369</v>
-      </c>
-      <c r="CI111" s="29">
-        <v>105.597759447676</v>
-      </c>
-      <c r="CJ111" s="29">
-        <v>114.0390571820526</v>
-      </c>
-      <c r="CK111" s="29">
-        <v>104.68906979963175</v>
-      </c>
-      <c r="CL111" s="29">
-        <v>114.2384080359532</v>
-      </c>
-      <c r="CM111" s="29">
-        <v>113.63061259961715</v>
-      </c>
-      <c r="CN111" s="29">
-        <v>123.79608215366613</v>
-      </c>
-      <c r="CO111" s="29">
-        <v>112.053487287564</v>
+      <c r="CH111" s="24">
+        <v>107.91123372215507</v>
+      </c>
+      <c r="CI111" s="24">
+        <v>105.58778800566786</v>
+      </c>
+      <c r="CJ111" s="24">
+        <v>114.05107375424058</v>
+      </c>
+      <c r="CK111" s="24">
+        <v>104.79255425616898</v>
+      </c>
+      <c r="CL111" s="24">
+        <v>114.42616332601681</v>
+      </c>
+      <c r="CM111" s="24">
+        <v>114.15775432125356</v>
+      </c>
+      <c r="CN111" s="24">
+        <v>124.10808501022979</v>
+      </c>
+      <c r="CO111" s="24">
+        <v>111.8986793996678</v>
       </c>
       <c r="CP111" s="9"/>
       <c r="CQ111" s="9"/>
@@ -36211,14 +36208,14 @@
       <c r="CE113" s="11"/>
       <c r="CF113" s="11"/>
       <c r="CG113" s="11"/>
-      <c r="CH113" s="26"/>
-      <c r="CI113" s="26"/>
-      <c r="CJ113" s="26"/>
-      <c r="CK113" s="26"/>
-      <c r="CL113" s="26"/>
-      <c r="CM113" s="26"/>
-      <c r="CN113" s="26"/>
-      <c r="CO113" s="26"/>
+      <c r="CH113" s="11"/>
+      <c r="CI113" s="11"/>
+      <c r="CJ113" s="11"/>
+      <c r="CK113" s="11"/>
+      <c r="CL113" s="11"/>
+      <c r="CM113" s="11"/>
+      <c r="CN113" s="11"/>
+      <c r="CO113" s="11"/>
       <c r="CP113" s="9"/>
       <c r="CQ113" s="9"/>
       <c r="CR113" s="9"/>
@@ -36511,29 +36508,29 @@
       <c r="CG114" s="24">
         <v>99.162820860083883</v>
       </c>
-      <c r="CH114" s="29">
-        <v>105.31047168607704</v>
-      </c>
-      <c r="CI114" s="29">
-        <v>117.4958655702705</v>
-      </c>
-      <c r="CJ114" s="29">
-        <v>109.57720317415294</v>
-      </c>
-      <c r="CK114" s="29">
-        <v>103.47018062241133</v>
-      </c>
-      <c r="CL114" s="29">
-        <v>113.37714583142062</v>
-      </c>
-      <c r="CM114" s="29">
-        <v>125.1286309172108</v>
-      </c>
-      <c r="CN114" s="29">
-        <v>115.89979360089721</v>
-      </c>
-      <c r="CO114" s="29">
-        <v>109.31435620539148</v>
+      <c r="CH114" s="24">
+        <v>105.31047168607701</v>
+      </c>
+      <c r="CI114" s="24">
+        <v>117.49586557027052</v>
+      </c>
+      <c r="CJ114" s="24">
+        <v>109.57720317415296</v>
+      </c>
+      <c r="CK114" s="24">
+        <v>103.35734241193842</v>
+      </c>
+      <c r="CL114" s="24">
+        <v>113.83648388120595</v>
+      </c>
+      <c r="CM114" s="24">
+        <v>125.57733082184939</v>
+      </c>
+      <c r="CN114" s="24">
+        <v>116.18968110733041</v>
+      </c>
+      <c r="CO114" s="24">
+        <v>109.32473035809807</v>
       </c>
       <c r="CP114" s="9"/>
       <c r="CQ114" s="9"/>
@@ -36688,7 +36685,7 @@
     </row>
     <row r="122" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:128" x14ac:dyDescent="0.2">
@@ -36698,7 +36695,7 @@
     </row>
     <row r="125" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126" spans="1:128" x14ac:dyDescent="0.2">
@@ -36708,144 +36705,144 @@
     </row>
     <row r="128" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
-      <c r="B128" s="30">
+      <c r="B128" s="25">
         <v>2000</v>
       </c>
-      <c r="C128" s="31"/>
-      <c r="D128" s="31"/>
-      <c r="E128" s="31"/>
-      <c r="F128" s="30">
+      <c r="C128" s="26"/>
+      <c r="D128" s="26"/>
+      <c r="E128" s="26"/>
+      <c r="F128" s="25">
         <v>2001</v>
       </c>
-      <c r="G128" s="31"/>
-      <c r="H128" s="31"/>
-      <c r="I128" s="31"/>
-      <c r="J128" s="30">
+      <c r="G128" s="26"/>
+      <c r="H128" s="26"/>
+      <c r="I128" s="26"/>
+      <c r="J128" s="25">
         <v>2002</v>
       </c>
-      <c r="K128" s="31"/>
-      <c r="L128" s="31"/>
-      <c r="M128" s="31"/>
-      <c r="N128" s="30">
+      <c r="K128" s="26"/>
+      <c r="L128" s="26"/>
+      <c r="M128" s="26"/>
+      <c r="N128" s="25">
         <v>2003</v>
       </c>
-      <c r="O128" s="31"/>
-      <c r="P128" s="31"/>
-      <c r="Q128" s="31"/>
-      <c r="R128" s="30">
+      <c r="O128" s="26"/>
+      <c r="P128" s="26"/>
+      <c r="Q128" s="26"/>
+      <c r="R128" s="25">
         <v>2004</v>
       </c>
-      <c r="S128" s="31"/>
-      <c r="T128" s="31"/>
-      <c r="U128" s="31"/>
-      <c r="V128" s="30">
+      <c r="S128" s="26"/>
+      <c r="T128" s="26"/>
+      <c r="U128" s="26"/>
+      <c r="V128" s="25">
         <v>2005</v>
       </c>
-      <c r="W128" s="31"/>
-      <c r="X128" s="31"/>
-      <c r="Y128" s="31"/>
-      <c r="Z128" s="30">
+      <c r="W128" s="26"/>
+      <c r="X128" s="26"/>
+      <c r="Y128" s="26"/>
+      <c r="Z128" s="25">
         <v>2006</v>
       </c>
-      <c r="AA128" s="31"/>
-      <c r="AB128" s="31"/>
-      <c r="AC128" s="31"/>
-      <c r="AD128" s="30">
+      <c r="AA128" s="26"/>
+      <c r="AB128" s="26"/>
+      <c r="AC128" s="26"/>
+      <c r="AD128" s="25">
         <v>2007</v>
       </c>
-      <c r="AE128" s="31"/>
-      <c r="AF128" s="31"/>
-      <c r="AG128" s="31"/>
-      <c r="AH128" s="30">
+      <c r="AE128" s="26"/>
+      <c r="AF128" s="26"/>
+      <c r="AG128" s="26"/>
+      <c r="AH128" s="25">
         <v>2008</v>
       </c>
-      <c r="AI128" s="31"/>
-      <c r="AJ128" s="31"/>
-      <c r="AK128" s="31"/>
-      <c r="AL128" s="30">
+      <c r="AI128" s="26"/>
+      <c r="AJ128" s="26"/>
+      <c r="AK128" s="26"/>
+      <c r="AL128" s="25">
         <v>2009</v>
       </c>
-      <c r="AM128" s="31"/>
-      <c r="AN128" s="31"/>
-      <c r="AO128" s="31"/>
-      <c r="AP128" s="30">
+      <c r="AM128" s="26"/>
+      <c r="AN128" s="26"/>
+      <c r="AO128" s="26"/>
+      <c r="AP128" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="31"/>
-      <c r="AR128" s="31"/>
-      <c r="AS128" s="31"/>
-      <c r="AT128" s="30">
+      <c r="AQ128" s="26"/>
+      <c r="AR128" s="26"/>
+      <c r="AS128" s="26"/>
+      <c r="AT128" s="25">
         <v>2011</v>
       </c>
-      <c r="AU128" s="31"/>
-      <c r="AV128" s="31"/>
-      <c r="AW128" s="31"/>
-      <c r="AX128" s="30">
+      <c r="AU128" s="26"/>
+      <c r="AV128" s="26"/>
+      <c r="AW128" s="26"/>
+      <c r="AX128" s="25">
         <v>2012</v>
       </c>
-      <c r="AY128" s="31"/>
-      <c r="AZ128" s="31"/>
-      <c r="BA128" s="31"/>
-      <c r="BB128" s="30">
+      <c r="AY128" s="26"/>
+      <c r="AZ128" s="26"/>
+      <c r="BA128" s="26"/>
+      <c r="BB128" s="25">
         <v>2013</v>
       </c>
-      <c r="BC128" s="31"/>
-      <c r="BD128" s="31"/>
-      <c r="BE128" s="31"/>
-      <c r="BF128" s="30">
+      <c r="BC128" s="26"/>
+      <c r="BD128" s="26"/>
+      <c r="BE128" s="26"/>
+      <c r="BF128" s="25">
         <v>2014</v>
       </c>
-      <c r="BG128" s="31"/>
-      <c r="BH128" s="31"/>
-      <c r="BI128" s="31"/>
-      <c r="BJ128" s="30">
+      <c r="BG128" s="26"/>
+      <c r="BH128" s="26"/>
+      <c r="BI128" s="26"/>
+      <c r="BJ128" s="25">
         <v>2015</v>
       </c>
-      <c r="BK128" s="31"/>
-      <c r="BL128" s="31"/>
-      <c r="BM128" s="31"/>
-      <c r="BN128" s="30">
+      <c r="BK128" s="26"/>
+      <c r="BL128" s="26"/>
+      <c r="BM128" s="26"/>
+      <c r="BN128" s="25">
         <v>2016</v>
       </c>
-      <c r="BO128" s="31"/>
-      <c r="BP128" s="31"/>
-      <c r="BQ128" s="31"/>
-      <c r="BR128" s="30">
+      <c r="BO128" s="26"/>
+      <c r="BP128" s="26"/>
+      <c r="BQ128" s="26"/>
+      <c r="BR128" s="25">
         <v>2017</v>
       </c>
-      <c r="BS128" s="31"/>
-      <c r="BT128" s="31"/>
-      <c r="BU128" s="31"/>
-      <c r="BV128" s="30">
+      <c r="BS128" s="26"/>
+      <c r="BT128" s="26"/>
+      <c r="BU128" s="26"/>
+      <c r="BV128" s="25">
         <v>2018</v>
       </c>
-      <c r="BW128" s="30"/>
-      <c r="BX128" s="30"/>
-      <c r="BY128" s="30"/>
-      <c r="BZ128" s="30">
+      <c r="BW128" s="25"/>
+      <c r="BX128" s="25"/>
+      <c r="BY128" s="25"/>
+      <c r="BZ128" s="25">
         <v>2019</v>
       </c>
-      <c r="CA128" s="30"/>
-      <c r="CB128" s="30"/>
-      <c r="CC128" s="30"/>
-      <c r="CD128" s="30">
+      <c r="CA128" s="25"/>
+      <c r="CB128" s="25"/>
+      <c r="CC128" s="25"/>
+      <c r="CD128" s="25">
         <v>2020</v>
       </c>
-      <c r="CE128" s="30"/>
-      <c r="CF128" s="30"/>
-      <c r="CG128" s="30"/>
-      <c r="CH128" s="30">
+      <c r="CE128" s="25"/>
+      <c r="CF128" s="25"/>
+      <c r="CG128" s="25"/>
+      <c r="CH128" s="25">
         <v>2021</v>
       </c>
-      <c r="CI128" s="30"/>
-      <c r="CJ128" s="30"/>
-      <c r="CK128" s="30"/>
-      <c r="CL128" s="30">
+      <c r="CI128" s="25"/>
+      <c r="CJ128" s="25"/>
+      <c r="CK128" s="25"/>
+      <c r="CL128" s="25">
         <v>2022</v>
       </c>
-      <c r="CM128" s="30"/>
-      <c r="CN128" s="30"/>
-      <c r="CO128" s="30"/>
+      <c r="CM128" s="25"/>
+      <c r="CN128" s="25"/>
+      <c r="CO128" s="25"/>
     </row>
     <row r="129" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -37387,29 +37384,29 @@
       <c r="CG131" s="24">
         <v>35.456730374240195</v>
       </c>
-      <c r="CH131" s="29">
-        <v>32.821306057377335</v>
-      </c>
-      <c r="CI131" s="29">
-        <v>49.779474948521546</v>
-      </c>
-      <c r="CJ131" s="29">
-        <v>33.107119178712338</v>
-      </c>
-      <c r="CK131" s="29">
-        <v>37.034595835970627</v>
-      </c>
-      <c r="CL131" s="29">
-        <v>27.155895836599122</v>
-      </c>
-      <c r="CM131" s="29">
-        <v>52.724079190639287</v>
-      </c>
-      <c r="CN131" s="29">
-        <v>32.874964146030756</v>
-      </c>
-      <c r="CO131" s="29">
-        <v>36.261434707507256</v>
+      <c r="CH131" s="24">
+        <v>32.947733737228262</v>
+      </c>
+      <c r="CI131" s="24">
+        <v>49.018688966396589</v>
+      </c>
+      <c r="CJ131" s="24">
+        <v>33.076847354202975</v>
+      </c>
+      <c r="CK131" s="24">
+        <v>36.32377146201037</v>
+      </c>
+      <c r="CL131" s="24">
+        <v>26.803722214589875</v>
+      </c>
+      <c r="CM131" s="24">
+        <v>52.865789559176669</v>
+      </c>
+      <c r="CN131" s="24">
+        <v>32.882708178399064</v>
+      </c>
+      <c r="CO131" s="24">
+        <v>36.539154136581665</v>
       </c>
       <c r="CP131" s="9"/>
       <c r="CQ131" s="9"/>
@@ -37703,29 +37700,29 @@
       <c r="CG132" s="24">
         <v>35.222634621952963</v>
       </c>
-      <c r="CH132" s="29">
-        <v>36.472083297977434</v>
-      </c>
-      <c r="CI132" s="29">
-        <v>24.58579926244882</v>
-      </c>
-      <c r="CJ132" s="29">
-        <v>35.559969210452664</v>
-      </c>
-      <c r="CK132" s="29">
-        <v>31.983280826946096</v>
-      </c>
-      <c r="CL132" s="29">
-        <v>40.737002505909821</v>
-      </c>
-      <c r="CM132" s="29">
-        <v>24.771575853816923</v>
-      </c>
-      <c r="CN132" s="29">
-        <v>37.667094198537995</v>
-      </c>
-      <c r="CO132" s="29">
-        <v>33.091574098183195</v>
+      <c r="CH132" s="24">
+        <v>36.370405263634304</v>
+      </c>
+      <c r="CI132" s="24">
+        <v>25.092504438224072</v>
+      </c>
+      <c r="CJ132" s="24">
+        <v>36.125564263195429</v>
+      </c>
+      <c r="CK132" s="24">
+        <v>32.17452413432855</v>
+      </c>
+      <c r="CL132" s="24">
+        <v>41.059833435824842</v>
+      </c>
+      <c r="CM132" s="24">
+        <v>24.579961825176643</v>
+      </c>
+      <c r="CN132" s="24">
+        <v>37.583387271163389</v>
+      </c>
+      <c r="CO132" s="24">
+        <v>32.065007286746486</v>
       </c>
       <c r="CP132" s="9"/>
       <c r="CQ132" s="9"/>
@@ -38019,29 +38016,29 @@
       <c r="CG133" s="24">
         <v>29.320635003806846</v>
       </c>
-      <c r="CH133" s="29">
-        <v>30.706610644645217</v>
-      </c>
-      <c r="CI133" s="29">
-        <v>25.634725789029627</v>
-      </c>
-      <c r="CJ133" s="29">
-        <v>31.332911610835001</v>
-      </c>
-      <c r="CK133" s="29">
-        <v>30.982123337083284</v>
-      </c>
-      <c r="CL133" s="29">
-        <v>32.107101657491057</v>
-      </c>
-      <c r="CM133" s="29">
-        <v>22.504344955543797</v>
-      </c>
-      <c r="CN133" s="29">
-        <v>29.457941655431245</v>
-      </c>
-      <c r="CO133" s="29">
-        <v>30.646991194309546</v>
+      <c r="CH133" s="24">
+        <v>30.681860999137427</v>
+      </c>
+      <c r="CI133" s="24">
+        <v>25.888806595379339</v>
+      </c>
+      <c r="CJ133" s="24">
+        <v>30.797588382601599</v>
+      </c>
+      <c r="CK133" s="24">
+        <v>31.501704403661062</v>
+      </c>
+      <c r="CL133" s="24">
+        <v>32.13644434958529</v>
+      </c>
+      <c r="CM133" s="24">
+        <v>22.554248615646681</v>
+      </c>
+      <c r="CN133" s="24">
+        <v>29.533904550437555</v>
+      </c>
+      <c r="CO133" s="24">
+        <v>31.395838576671846</v>
       </c>
       <c r="CP133" s="9"/>
       <c r="CQ133" s="9"/>
@@ -38464,28 +38461,28 @@
       <c r="CG135" s="24">
         <v>100</v>
       </c>
-      <c r="CH135" s="29">
+      <c r="CH135" s="24">
         <v>100</v>
       </c>
-      <c r="CI135" s="29">
+      <c r="CI135" s="24">
         <v>100</v>
       </c>
-      <c r="CJ135" s="29">
+      <c r="CJ135" s="24">
         <v>100</v>
       </c>
-      <c r="CK135" s="29">
+      <c r="CK135" s="24">
         <v>100</v>
       </c>
-      <c r="CL135" s="29">
+      <c r="CL135" s="24">
         <v>100</v>
       </c>
-      <c r="CM135" s="29">
+      <c r="CM135" s="24">
         <v>100</v>
       </c>
-      <c r="CN135" s="29">
+      <c r="CN135" s="24">
         <v>100</v>
       </c>
-      <c r="CO135" s="29">
+      <c r="CO135" s="24">
         <v>100</v>
       </c>
       <c r="CP135" s="9"/>
@@ -38705,14 +38702,14 @@
       <c r="CE137" s="11"/>
       <c r="CF137" s="11"/>
       <c r="CG137" s="11"/>
-      <c r="CH137" s="26"/>
-      <c r="CI137" s="26"/>
-      <c r="CJ137" s="26"/>
-      <c r="CK137" s="26"/>
-      <c r="CL137" s="26"/>
-      <c r="CM137" s="26"/>
-      <c r="CN137" s="26"/>
-      <c r="CO137" s="26"/>
+      <c r="CH137" s="11"/>
+      <c r="CI137" s="11"/>
+      <c r="CJ137" s="11"/>
+      <c r="CK137" s="11"/>
+      <c r="CL137" s="11"/>
+      <c r="CM137" s="11"/>
+      <c r="CN137" s="11"/>
+      <c r="CO137" s="11"/>
       <c r="CP137" s="9"/>
       <c r="CQ137" s="9"/>
       <c r="CR137" s="9"/>
@@ -38835,14 +38832,14 @@
       <c r="CE138" s="11"/>
       <c r="CF138" s="11"/>
       <c r="CG138" s="11"/>
-      <c r="CH138" s="26"/>
-      <c r="CI138" s="26"/>
-      <c r="CJ138" s="26"/>
-      <c r="CK138" s="26"/>
-      <c r="CL138" s="26"/>
-      <c r="CM138" s="26"/>
-      <c r="CN138" s="26"/>
-      <c r="CO138" s="26"/>
+      <c r="CH138" s="11"/>
+      <c r="CI138" s="11"/>
+      <c r="CJ138" s="11"/>
+      <c r="CK138" s="11"/>
+      <c r="CL138" s="11"/>
+      <c r="CM138" s="11"/>
+      <c r="CN138" s="11"/>
+      <c r="CO138" s="11"/>
       <c r="CP138" s="9"/>
       <c r="CQ138" s="9"/>
       <c r="CR138" s="9"/>
@@ -39254,7 +39251,7 @@
     </row>
     <row r="146" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148" spans="1:128" x14ac:dyDescent="0.2">
@@ -39264,7 +39261,7 @@
     </row>
     <row r="149" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:128" x14ac:dyDescent="0.2">
@@ -39274,144 +39271,144 @@
     </row>
     <row r="152" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
-      <c r="B152" s="30">
+      <c r="B152" s="25">
         <v>2000</v>
       </c>
-      <c r="C152" s="31"/>
-      <c r="D152" s="31"/>
-      <c r="E152" s="31"/>
-      <c r="F152" s="30">
+      <c r="C152" s="26"/>
+      <c r="D152" s="26"/>
+      <c r="E152" s="26"/>
+      <c r="F152" s="25">
         <v>2001</v>
       </c>
-      <c r="G152" s="31"/>
-      <c r="H152" s="31"/>
-      <c r="I152" s="31"/>
-      <c r="J152" s="30">
+      <c r="G152" s="26"/>
+      <c r="H152" s="26"/>
+      <c r="I152" s="26"/>
+      <c r="J152" s="25">
         <v>2002</v>
       </c>
-      <c r="K152" s="31"/>
-      <c r="L152" s="31"/>
-      <c r="M152" s="31"/>
-      <c r="N152" s="30">
+      <c r="K152" s="26"/>
+      <c r="L152" s="26"/>
+      <c r="M152" s="26"/>
+      <c r="N152" s="25">
         <v>2003</v>
       </c>
-      <c r="O152" s="31"/>
-      <c r="P152" s="31"/>
-      <c r="Q152" s="31"/>
-      <c r="R152" s="30">
+      <c r="O152" s="26"/>
+      <c r="P152" s="26"/>
+      <c r="Q152" s="26"/>
+      <c r="R152" s="25">
         <v>2004</v>
       </c>
-      <c r="S152" s="31"/>
-      <c r="T152" s="31"/>
-      <c r="U152" s="31"/>
-      <c r="V152" s="30">
+      <c r="S152" s="26"/>
+      <c r="T152" s="26"/>
+      <c r="U152" s="26"/>
+      <c r="V152" s="25">
         <v>2005</v>
       </c>
-      <c r="W152" s="31"/>
-      <c r="X152" s="31"/>
-      <c r="Y152" s="31"/>
-      <c r="Z152" s="30">
+      <c r="W152" s="26"/>
+      <c r="X152" s="26"/>
+      <c r="Y152" s="26"/>
+      <c r="Z152" s="25">
         <v>2006</v>
       </c>
-      <c r="AA152" s="31"/>
-      <c r="AB152" s="31"/>
-      <c r="AC152" s="31"/>
-      <c r="AD152" s="30">
+      <c r="AA152" s="26"/>
+      <c r="AB152" s="26"/>
+      <c r="AC152" s="26"/>
+      <c r="AD152" s="25">
         <v>2007</v>
       </c>
-      <c r="AE152" s="31"/>
-      <c r="AF152" s="31"/>
-      <c r="AG152" s="31"/>
-      <c r="AH152" s="30">
+      <c r="AE152" s="26"/>
+      <c r="AF152" s="26"/>
+      <c r="AG152" s="26"/>
+      <c r="AH152" s="25">
         <v>2008</v>
       </c>
-      <c r="AI152" s="31"/>
-      <c r="AJ152" s="31"/>
-      <c r="AK152" s="31"/>
-      <c r="AL152" s="30">
+      <c r="AI152" s="26"/>
+      <c r="AJ152" s="26"/>
+      <c r="AK152" s="26"/>
+      <c r="AL152" s="25">
         <v>2009</v>
       </c>
-      <c r="AM152" s="31"/>
-      <c r="AN152" s="31"/>
-      <c r="AO152" s="31"/>
-      <c r="AP152" s="30">
+      <c r="AM152" s="26"/>
+      <c r="AN152" s="26"/>
+      <c r="AO152" s="26"/>
+      <c r="AP152" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ152" s="31"/>
-      <c r="AR152" s="31"/>
-      <c r="AS152" s="31"/>
-      <c r="AT152" s="30">
+      <c r="AQ152" s="26"/>
+      <c r="AR152" s="26"/>
+      <c r="AS152" s="26"/>
+      <c r="AT152" s="25">
         <v>2011</v>
       </c>
-      <c r="AU152" s="31"/>
-      <c r="AV152" s="31"/>
-      <c r="AW152" s="31"/>
-      <c r="AX152" s="30">
+      <c r="AU152" s="26"/>
+      <c r="AV152" s="26"/>
+      <c r="AW152" s="26"/>
+      <c r="AX152" s="25">
         <v>2012</v>
       </c>
-      <c r="AY152" s="31"/>
-      <c r="AZ152" s="31"/>
-      <c r="BA152" s="31"/>
-      <c r="BB152" s="30">
+      <c r="AY152" s="26"/>
+      <c r="AZ152" s="26"/>
+      <c r="BA152" s="26"/>
+      <c r="BB152" s="25">
         <v>2013</v>
       </c>
-      <c r="BC152" s="31"/>
-      <c r="BD152" s="31"/>
-      <c r="BE152" s="31"/>
-      <c r="BF152" s="30">
+      <c r="BC152" s="26"/>
+      <c r="BD152" s="26"/>
+      <c r="BE152" s="26"/>
+      <c r="BF152" s="25">
         <v>2014</v>
       </c>
-      <c r="BG152" s="31"/>
-      <c r="BH152" s="31"/>
-      <c r="BI152" s="31"/>
-      <c r="BJ152" s="30">
+      <c r="BG152" s="26"/>
+      <c r="BH152" s="26"/>
+      <c r="BI152" s="26"/>
+      <c r="BJ152" s="25">
         <v>2015</v>
       </c>
-      <c r="BK152" s="31"/>
-      <c r="BL152" s="31"/>
-      <c r="BM152" s="31"/>
-      <c r="BN152" s="30">
+      <c r="BK152" s="26"/>
+      <c r="BL152" s="26"/>
+      <c r="BM152" s="26"/>
+      <c r="BN152" s="25">
         <v>2016</v>
       </c>
-      <c r="BO152" s="31"/>
-      <c r="BP152" s="31"/>
-      <c r="BQ152" s="31"/>
-      <c r="BR152" s="30">
+      <c r="BO152" s="26"/>
+      <c r="BP152" s="26"/>
+      <c r="BQ152" s="26"/>
+      <c r="BR152" s="25">
         <v>2017</v>
       </c>
-      <c r="BS152" s="31"/>
-      <c r="BT152" s="31"/>
-      <c r="BU152" s="31"/>
-      <c r="BV152" s="30">
+      <c r="BS152" s="26"/>
+      <c r="BT152" s="26"/>
+      <c r="BU152" s="26"/>
+      <c r="BV152" s="25">
         <v>2018</v>
       </c>
-      <c r="BW152" s="30"/>
-      <c r="BX152" s="30"/>
-      <c r="BY152" s="30"/>
-      <c r="BZ152" s="30">
+      <c r="BW152" s="25"/>
+      <c r="BX152" s="25"/>
+      <c r="BY152" s="25"/>
+      <c r="BZ152" s="25">
         <v>2019</v>
       </c>
-      <c r="CA152" s="30"/>
-      <c r="CB152" s="30"/>
-      <c r="CC152" s="30"/>
-      <c r="CD152" s="30">
+      <c r="CA152" s="25"/>
+      <c r="CB152" s="25"/>
+      <c r="CC152" s="25"/>
+      <c r="CD152" s="25">
         <v>2020</v>
       </c>
-      <c r="CE152" s="30"/>
-      <c r="CF152" s="30"/>
-      <c r="CG152" s="30"/>
-      <c r="CH152" s="30">
+      <c r="CE152" s="25"/>
+      <c r="CF152" s="25"/>
+      <c r="CG152" s="25"/>
+      <c r="CH152" s="25">
         <v>2021</v>
       </c>
-      <c r="CI152" s="30"/>
-      <c r="CJ152" s="30"/>
-      <c r="CK152" s="30"/>
-      <c r="CL152" s="30">
+      <c r="CI152" s="25"/>
+      <c r="CJ152" s="25"/>
+      <c r="CK152" s="25"/>
+      <c r="CL152" s="25">
         <v>2022</v>
       </c>
-      <c r="CM152" s="30"/>
-      <c r="CN152" s="30"/>
-      <c r="CO152" s="30"/>
+      <c r="CM152" s="25"/>
+      <c r="CN152" s="25"/>
+      <c r="CO152" s="25"/>
     </row>
     <row r="153" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
@@ -39953,29 +39950,29 @@
       <c r="CG155" s="24">
         <v>35.06232978185173</v>
       </c>
-      <c r="CH155" s="29">
-        <v>31.855127572891227</v>
-      </c>
-      <c r="CI155" s="29">
-        <v>49.729058543367088</v>
-      </c>
-      <c r="CJ155" s="29">
-        <v>33.776249037674525</v>
-      </c>
-      <c r="CK155" s="29">
-        <v>36.558581215111353</v>
-      </c>
-      <c r="CL155" s="29">
-        <v>26.272149709011451</v>
-      </c>
-      <c r="CM155" s="29">
-        <v>52.676135495043866</v>
-      </c>
-      <c r="CN155" s="29">
-        <v>33.349215371671193</v>
-      </c>
-      <c r="CO155" s="29">
-        <v>35.857735292645501</v>
+      <c r="CH155" s="24">
+        <v>31.980838906039533</v>
+      </c>
+      <c r="CI155" s="24">
+        <v>48.964419006378421</v>
+      </c>
+      <c r="CJ155" s="24">
+        <v>33.748921218646224</v>
+      </c>
+      <c r="CK155" s="24">
+        <v>35.836459546224845</v>
+      </c>
+      <c r="CL155" s="24">
+        <v>25.923439178881825</v>
+      </c>
+      <c r="CM155" s="24">
+        <v>52.803593907697078</v>
+      </c>
+      <c r="CN155" s="24">
+        <v>33.350839092932823</v>
+      </c>
+      <c r="CO155" s="24">
+        <v>36.099136307792435</v>
       </c>
       <c r="CP155" s="9"/>
       <c r="CQ155" s="9"/>
@@ -40269,29 +40266,29 @@
       <c r="CG156" s="24">
         <v>33.387744525126251</v>
       </c>
-      <c r="CH156" s="29">
-        <v>38.943011438764977</v>
-      </c>
-      <c r="CI156" s="29">
-        <v>25.34981646869015</v>
-      </c>
-      <c r="CJ156" s="29">
-        <v>34.912617265743116</v>
-      </c>
-      <c r="CK156" s="29">
-        <v>30.276691460066207</v>
-      </c>
-      <c r="CL156" s="29">
-        <v>43.368956580716734</v>
-      </c>
-      <c r="CM156" s="29">
-        <v>25.517634273521782</v>
-      </c>
-      <c r="CN156" s="29">
-        <v>36.760734706481038</v>
-      </c>
-      <c r="CO156" s="29">
-        <v>31.389079563927375</v>
+      <c r="CH156" s="24">
+        <v>38.83809465038852</v>
+      </c>
+      <c r="CI156" s="24">
+        <v>25.869824705499013</v>
+      </c>
+      <c r="CJ156" s="24">
+        <v>35.471653276000943</v>
+      </c>
+      <c r="CK156" s="24">
+        <v>30.449229789683656</v>
+      </c>
+      <c r="CL156" s="24">
+        <v>43.66949494115476</v>
+      </c>
+      <c r="CM156" s="24">
+        <v>25.310712934713266</v>
+      </c>
+      <c r="CN156" s="24">
+        <v>36.654570456385606</v>
+      </c>
+      <c r="CO156" s="24">
+        <v>30.357449980888042</v>
       </c>
       <c r="CP156" s="9"/>
       <c r="CQ156" s="9"/>
@@ -40585,29 +40582,29 @@
       <c r="CG157" s="24">
         <v>31.549925693022008</v>
       </c>
-      <c r="CH157" s="29">
-        <v>29.201860988343793</v>
-      </c>
-      <c r="CI157" s="29">
-        <v>24.921124987942754</v>
-      </c>
-      <c r="CJ157" s="29">
-        <v>31.311133696582356</v>
-      </c>
-      <c r="CK157" s="29">
-        <v>33.164727324822444</v>
-      </c>
-      <c r="CL157" s="29">
-        <v>30.358893710271818</v>
-      </c>
-      <c r="CM157" s="29">
-        <v>21.806230231434359</v>
-      </c>
-      <c r="CN157" s="29">
-        <v>29.890049921847762</v>
-      </c>
-      <c r="CO157" s="29">
-        <v>32.753185143427118</v>
+      <c r="CH157" s="24">
+        <v>29.18106644357194</v>
+      </c>
+      <c r="CI157" s="24">
+        <v>25.165756288122559</v>
+      </c>
+      <c r="CJ157" s="24">
+        <v>30.779425505352837</v>
+      </c>
+      <c r="CK157" s="24">
+        <v>33.714310664091506</v>
+      </c>
+      <c r="CL157" s="24">
+        <v>30.407065879963426</v>
+      </c>
+      <c r="CM157" s="24">
+        <v>21.885693157589664</v>
+      </c>
+      <c r="CN157" s="24">
+        <v>29.994590450681574</v>
+      </c>
+      <c r="CO157" s="24">
+        <v>33.543413711319538</v>
       </c>
       <c r="CP157" s="9"/>
       <c r="CQ157" s="9"/>
@@ -41030,28 +41027,28 @@
       <c r="CG159" s="24">
         <v>100</v>
       </c>
-      <c r="CH159" s="29">
+      <c r="CH159" s="24">
         <v>100</v>
       </c>
-      <c r="CI159" s="29">
+      <c r="CI159" s="24">
         <v>100</v>
       </c>
-      <c r="CJ159" s="29">
+      <c r="CJ159" s="24">
         <v>100</v>
       </c>
-      <c r="CK159" s="29">
+      <c r="CK159" s="24">
         <v>100</v>
       </c>
-      <c r="CL159" s="29">
+      <c r="CL159" s="24">
         <v>100</v>
       </c>
-      <c r="CM159" s="29">
+      <c r="CM159" s="24">
         <v>100</v>
       </c>
-      <c r="CN159" s="29">
+      <c r="CN159" s="24">
         <v>100</v>
       </c>
-      <c r="CO159" s="29">
+      <c r="CO159" s="24">
         <v>100</v>
       </c>
       <c r="CP159" s="9"/>
@@ -41271,14 +41268,14 @@
       <c r="CE161" s="11"/>
       <c r="CF161" s="11"/>
       <c r="CG161" s="11"/>
-      <c r="CH161" s="26"/>
-      <c r="CI161" s="26"/>
-      <c r="CJ161" s="26"/>
-      <c r="CK161" s="26"/>
-      <c r="CL161" s="26"/>
-      <c r="CM161" s="26"/>
-      <c r="CN161" s="26"/>
-      <c r="CO161" s="26"/>
+      <c r="CH161" s="11"/>
+      <c r="CI161" s="11"/>
+      <c r="CJ161" s="11"/>
+      <c r="CK161" s="11"/>
+      <c r="CL161" s="11"/>
+      <c r="CM161" s="11"/>
+      <c r="CN161" s="11"/>
+      <c r="CO161" s="11"/>
       <c r="CP161" s="9"/>
       <c r="CQ161" s="9"/>
       <c r="CR161" s="9"/>
@@ -41401,14 +41398,14 @@
       <c r="CE162" s="11"/>
       <c r="CF162" s="11"/>
       <c r="CG162" s="11"/>
-      <c r="CH162" s="26"/>
-      <c r="CI162" s="26"/>
-      <c r="CJ162" s="26"/>
-      <c r="CK162" s="26"/>
-      <c r="CL162" s="26"/>
-      <c r="CM162" s="26"/>
-      <c r="CN162" s="26"/>
-      <c r="CO162" s="26"/>
+      <c r="CH162" s="11"/>
+      <c r="CI162" s="11"/>
+      <c r="CJ162" s="11"/>
+      <c r="CK162" s="11"/>
+      <c r="CL162" s="11"/>
+      <c r="CM162" s="11"/>
+      <c r="CN162" s="11"/>
+      <c r="CO162" s="11"/>
       <c r="CP162" s="9"/>
       <c r="CQ162" s="9"/>
       <c r="CR162" s="9"/>
@@ -41704,8 +41701,6 @@
     <mergeCell ref="BZ33:CC33"/>
     <mergeCell ref="BV57:BY57"/>
     <mergeCell ref="BZ57:CC57"/>
-    <mergeCell ref="CL57:CM57"/>
-    <mergeCell ref="CL81:CM81"/>
     <mergeCell ref="CL9:CO9"/>
     <mergeCell ref="CL33:CO33"/>
     <mergeCell ref="CH57:CK57"/>
@@ -41713,6 +41708,8 @@
     <mergeCell ref="CL104:CO104"/>
     <mergeCell ref="CL128:CO128"/>
     <mergeCell ref="CL152:CO152"/>
+    <mergeCell ref="CL57:CO57"/>
+    <mergeCell ref="CL81:CO81"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.11811023622047245" top="0.51181102362204722" bottom="0.15748031496062992" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66B66DE-510B-4A22-A1AC-5E0AA5457665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C93AAB-C8DC-4CD6-AE16-DFCE2B8C66F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -626,13 +626,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2022</t>
+    <t>As of May 2023</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Q1 2000 to Q1 2023</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2023</t>
   </si>
 </sst>
 </file>
@@ -734,7 +737,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -770,6 +773,13 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23629,14 +23639,14 @@
       <selection activeCell="N19" sqref="N19"/>
       <selection pane="topRight" activeCell="N19" sqref="N19"/>
       <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
-      <selection pane="bottomRight" activeCell="CD1" sqref="CD1:CO1048576"/>
+      <selection pane="bottomRight" activeCell="CD1" sqref="CD1:CP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.21875" style="1" customWidth="1"/>
-    <col min="2" max="93" width="8.77734375" style="1" customWidth="1"/>
-    <col min="94" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="94" width="8.77734375" style="1" customWidth="1"/>
+    <col min="95" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.2">
@@ -23651,7 +23661,7 @@
     </row>
     <row r="3" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:128" x14ac:dyDescent="0.2">
@@ -23661,7 +23671,7 @@
     </row>
     <row r="6" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:128" x14ac:dyDescent="0.2">
@@ -23671,144 +23681,147 @@
     </row>
     <row r="9" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="25">
+      <c r="B9" s="30">
         <v>2000</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30">
         <v>2001</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25">
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30">
         <v>2002</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25">
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30">
         <v>2003</v>
       </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25">
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30">
         <v>2004</v>
       </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25">
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30">
         <v>2005</v>
       </c>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25">
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30">
         <v>2006</v>
       </c>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25">
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30">
         <v>2007</v>
       </c>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25">
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30">
         <v>2008</v>
       </c>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25">
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30">
         <v>2009</v>
       </c>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25">
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25">
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30">
         <v>2011</v>
       </c>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25">
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="30"/>
+      <c r="AX9" s="30">
         <v>2012</v>
       </c>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="25">
+      <c r="AY9" s="30"/>
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="30">
         <v>2013</v>
       </c>
-      <c r="BC9" s="25"/>
-      <c r="BD9" s="25"/>
-      <c r="BE9" s="25"/>
-      <c r="BF9" s="25">
+      <c r="BC9" s="30"/>
+      <c r="BD9" s="30"/>
+      <c r="BE9" s="30"/>
+      <c r="BF9" s="30">
         <v>2014</v>
       </c>
-      <c r="BG9" s="25"/>
-      <c r="BH9" s="25"/>
-      <c r="BI9" s="25"/>
-      <c r="BJ9" s="25">
+      <c r="BG9" s="30"/>
+      <c r="BH9" s="30"/>
+      <c r="BI9" s="30"/>
+      <c r="BJ9" s="30">
         <v>2015</v>
       </c>
-      <c r="BK9" s="25"/>
-      <c r="BL9" s="25"/>
-      <c r="BM9" s="25"/>
-      <c r="BN9" s="25">
+      <c r="BK9" s="30"/>
+      <c r="BL9" s="30"/>
+      <c r="BM9" s="30"/>
+      <c r="BN9" s="30">
         <v>2016</v>
       </c>
-      <c r="BO9" s="25"/>
-      <c r="BP9" s="25"/>
-      <c r="BQ9" s="25"/>
-      <c r="BR9" s="25">
+      <c r="BO9" s="30"/>
+      <c r="BP9" s="30"/>
+      <c r="BQ9" s="30"/>
+      <c r="BR9" s="30">
         <v>2017</v>
       </c>
-      <c r="BS9" s="25"/>
-      <c r="BT9" s="25"/>
-      <c r="BU9" s="25"/>
-      <c r="BV9" s="25">
+      <c r="BS9" s="30"/>
+      <c r="BT9" s="30"/>
+      <c r="BU9" s="30"/>
+      <c r="BV9" s="30">
         <v>2018</v>
       </c>
-      <c r="BW9" s="25"/>
-      <c r="BX9" s="25"/>
-      <c r="BY9" s="25"/>
-      <c r="BZ9" s="25">
+      <c r="BW9" s="30"/>
+      <c r="BX9" s="30"/>
+      <c r="BY9" s="30"/>
+      <c r="BZ9" s="30">
         <v>2019</v>
       </c>
-      <c r="CA9" s="25"/>
-      <c r="CB9" s="25"/>
-      <c r="CC9" s="25"/>
-      <c r="CD9" s="25">
+      <c r="CA9" s="30"/>
+      <c r="CB9" s="30"/>
+      <c r="CC9" s="30"/>
+      <c r="CD9" s="30">
         <v>2020</v>
       </c>
-      <c r="CE9" s="25"/>
-      <c r="CF9" s="25"/>
-      <c r="CG9" s="25"/>
-      <c r="CH9" s="25">
+      <c r="CE9" s="30"/>
+      <c r="CF9" s="30"/>
+      <c r="CG9" s="30"/>
+      <c r="CH9" s="30">
         <v>2021</v>
       </c>
-      <c r="CI9" s="25"/>
-      <c r="CJ9" s="25"/>
-      <c r="CK9" s="25"/>
-      <c r="CL9" s="25">
+      <c r="CI9" s="30"/>
+      <c r="CJ9" s="30"/>
+      <c r="CK9" s="30"/>
+      <c r="CL9" s="30">
         <v>2022</v>
       </c>
-      <c r="CM9" s="25"/>
-      <c r="CN9" s="25"/>
-      <c r="CO9" s="25"/>
+      <c r="CM9" s="30"/>
+      <c r="CN9" s="30"/>
+      <c r="CO9" s="30"/>
+      <c r="CP9" s="25">
+        <v>2023</v>
+      </c>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24089,6 +24102,9 @@
       </c>
       <c r="CO10" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="CP10" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24338,43 +24354,45 @@
       <c r="CC12" s="8">
         <v>248629.84021990074</v>
       </c>
-      <c r="CD12" s="8">
+      <c r="CD12" s="26">
         <v>132698.19821859145</v>
       </c>
-      <c r="CE12" s="8">
+      <c r="CE12" s="26">
         <v>276832.39630217513</v>
       </c>
-      <c r="CF12" s="8">
+      <c r="CF12" s="26">
         <v>130134.4649311664</v>
       </c>
-      <c r="CG12" s="8">
+      <c r="CG12" s="26">
         <v>210311.28246687539</v>
       </c>
-      <c r="CH12" s="8">
+      <c r="CH12" s="26">
         <v>167823.36198890334</v>
       </c>
-      <c r="CI12" s="8">
+      <c r="CI12" s="26">
         <v>406200.00668774155</v>
       </c>
-      <c r="CJ12" s="8">
+      <c r="CJ12" s="26">
         <v>208177.27255225484</v>
       </c>
-      <c r="CK12" s="8">
+      <c r="CK12" s="26">
         <v>259490.65451354504</v>
       </c>
-      <c r="CL12" s="8">
+      <c r="CL12" s="26">
         <v>164307.15015984167</v>
       </c>
-      <c r="CM12" s="8">
+      <c r="CM12" s="26">
         <v>546170.86620424606</v>
       </c>
-      <c r="CN12" s="8">
+      <c r="CN12" s="26">
         <v>249542.34708000725</v>
       </c>
-      <c r="CO12" s="8">
+      <c r="CO12" s="26">
         <v>302775.061641315</v>
       </c>
-      <c r="CP12" s="9"/>
+      <c r="CP12" s="26">
+        <v>180159.79247020729</v>
+      </c>
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
       <c r="CS12" s="9"/>
@@ -24654,43 +24672,45 @@
       <c r="CC13" s="8">
         <v>416586.32323216199</v>
       </c>
-      <c r="CD13" s="8">
+      <c r="CD13" s="26">
         <v>330868.83377576957</v>
       </c>
-      <c r="CE13" s="8">
+      <c r="CE13" s="26">
         <v>258688.65473987217</v>
       </c>
-      <c r="CF13" s="8">
+      <c r="CF13" s="26">
         <v>242366.51672852226</v>
       </c>
-      <c r="CG13" s="8">
+      <c r="CG13" s="26">
         <v>208922.74558363974</v>
       </c>
-      <c r="CH13" s="8">
+      <c r="CH13" s="26">
         <v>185257.16326720259</v>
       </c>
-      <c r="CI13" s="8">
+      <c r="CI13" s="26">
         <v>207932.4373119412</v>
       </c>
-      <c r="CJ13" s="8">
+      <c r="CJ13" s="26">
         <v>227365.12211063612</v>
       </c>
-      <c r="CK13" s="8">
+      <c r="CK13" s="26">
         <v>229849.15911087734</v>
       </c>
-      <c r="CL13" s="8">
+      <c r="CL13" s="26">
         <v>251697.28905062028</v>
       </c>
-      <c r="CM13" s="8">
+      <c r="CM13" s="26">
         <v>253942.27823452008</v>
       </c>
-      <c r="CN13" s="8">
+      <c r="CN13" s="26">
         <v>285215.15381217585</v>
       </c>
-      <c r="CO13" s="8">
+      <c r="CO13" s="26">
         <v>265700.85671616852</v>
       </c>
-      <c r="CP13" s="9"/>
+      <c r="CP13" s="26">
+        <v>318000.39549008146</v>
+      </c>
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
       <c r="CS13" s="9"/>
@@ -24970,43 +24990,45 @@
       <c r="CC14" s="8">
         <v>245834.79013304078</v>
       </c>
-      <c r="CD14" s="8">
+      <c r="CD14" s="26">
         <v>203351.26237879609</v>
       </c>
-      <c r="CE14" s="8">
+      <c r="CE14" s="26">
         <v>48207.733886664479</v>
       </c>
-      <c r="CF14" s="8">
+      <c r="CF14" s="26">
         <v>115675.90380930096</v>
       </c>
-      <c r="CG14" s="8">
+      <c r="CG14" s="26">
         <v>173915.08707395635</v>
       </c>
-      <c r="CH14" s="8">
+      <c r="CH14" s="26">
         <v>156281.85859512861</v>
       </c>
-      <c r="CI14" s="8">
+      <c r="CI14" s="26">
         <v>214531.10301235743</v>
       </c>
-      <c r="CJ14" s="8">
+      <c r="CJ14" s="26">
         <v>193832.1957356174</v>
       </c>
-      <c r="CK14" s="8">
+      <c r="CK14" s="26">
         <v>225042.65292351373</v>
       </c>
-      <c r="CL14" s="8">
+      <c r="CL14" s="26">
         <v>196996.8030961217</v>
       </c>
-      <c r="CM14" s="8">
+      <c r="CM14" s="26">
         <v>233014.08350677649</v>
       </c>
-      <c r="CN14" s="8">
+      <c r="CN14" s="26">
         <v>224128.73720645937</v>
       </c>
-      <c r="CO14" s="8">
+      <c r="CO14" s="26">
         <v>260155.91178712202</v>
       </c>
-      <c r="CP14" s="9"/>
+      <c r="CP14" s="26">
+        <v>234330.64195807211</v>
+      </c>
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
       <c r="CS14" s="9"/>
@@ -25415,43 +25437,45 @@
       <c r="CC16" s="11">
         <v>911050.9535851035</v>
       </c>
-      <c r="CD16" s="11">
+      <c r="CD16" s="27">
         <v>666918.29437315708</v>
       </c>
-      <c r="CE16" s="11">
+      <c r="CE16" s="27">
         <v>583728.78492871183</v>
       </c>
-      <c r="CF16" s="11">
+      <c r="CF16" s="27">
         <v>488176.88546898961</v>
       </c>
-      <c r="CG16" s="11">
+      <c r="CG16" s="27">
         <v>593149.11512447149</v>
       </c>
-      <c r="CH16" s="11">
+      <c r="CH16" s="27">
         <v>509362.38385123457</v>
       </c>
-      <c r="CI16" s="11">
+      <c r="CI16" s="27">
         <v>828663.54701204016</v>
       </c>
-      <c r="CJ16" s="11">
+      <c r="CJ16" s="27">
         <v>629374.59039850836</v>
       </c>
-      <c r="CK16" s="11">
+      <c r="CK16" s="27">
         <v>714382.4665479362</v>
       </c>
-      <c r="CL16" s="11">
+      <c r="CL16" s="27">
         <v>613001.24230658356</v>
       </c>
-      <c r="CM16" s="11">
+      <c r="CM16" s="27">
         <v>1033127.2279455427</v>
       </c>
-      <c r="CN16" s="11">
+      <c r="CN16" s="27">
         <v>758886.23809864244</v>
       </c>
-      <c r="CO16" s="11">
+      <c r="CO16" s="27">
         <v>828631.8301446056</v>
       </c>
-      <c r="CP16" s="9"/>
+      <c r="CP16" s="27">
+        <v>732490.8299183608</v>
+      </c>
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
       <c r="CS16" s="9"/>
@@ -25581,6 +25605,7 @@
       <c r="CM17" s="12"/>
       <c r="CN17" s="12"/>
       <c r="CO17" s="12"/>
+      <c r="CP17" s="12"/>
     </row>
     <row r="18" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
@@ -25664,19 +25689,19 @@
       <c r="CA18" s="11"/>
       <c r="CB18" s="11"/>
       <c r="CC18" s="11"/>
-      <c r="CD18" s="11"/>
-      <c r="CE18" s="11"/>
-      <c r="CF18" s="11"/>
-      <c r="CG18" s="11"/>
-      <c r="CH18" s="11"/>
-      <c r="CI18" s="11"/>
-      <c r="CJ18" s="11"/>
-      <c r="CK18" s="11"/>
-      <c r="CL18" s="11"/>
-      <c r="CM18" s="11"/>
-      <c r="CN18" s="11"/>
-      <c r="CO18" s="11"/>
-      <c r="CP18" s="9"/>
+      <c r="CD18" s="27"/>
+      <c r="CE18" s="27"/>
+      <c r="CF18" s="27"/>
+      <c r="CG18" s="27"/>
+      <c r="CH18" s="27"/>
+      <c r="CI18" s="27"/>
+      <c r="CJ18" s="27"/>
+      <c r="CK18" s="27"/>
+      <c r="CL18" s="27"/>
+      <c r="CM18" s="27"/>
+      <c r="CN18" s="27"/>
+      <c r="CO18" s="27"/>
+      <c r="CP18" s="27"/>
       <c r="CQ18" s="9"/>
       <c r="CR18" s="9"/>
       <c r="CS18" s="9"/>
@@ -25956,43 +25981,45 @@
       <c r="CC19" s="8">
         <v>427341.14492701343</v>
       </c>
-      <c r="CD19" s="8">
+      <c r="CD19" s="26">
         <v>306719.55537231447</v>
       </c>
-      <c r="CE19" s="8">
+      <c r="CE19" s="26">
         <v>308552.58688590105</v>
       </c>
-      <c r="CF19" s="8">
+      <c r="CF19" s="26">
         <v>241903.95384276524</v>
       </c>
-      <c r="CG19" s="8">
+      <c r="CG19" s="26">
         <v>323023.33799660718</v>
       </c>
-      <c r="CH19" s="8">
+      <c r="CH19" s="26">
         <v>235502.32164785988</v>
       </c>
-      <c r="CI19" s="8">
+      <c r="CI19" s="26">
         <v>408088.21661154606</v>
       </c>
-      <c r="CJ19" s="8">
+      <c r="CJ19" s="26">
         <v>304116.808840035</v>
       </c>
-      <c r="CK19" s="8">
+      <c r="CK19" s="26">
         <v>399601.70931168634</v>
       </c>
-      <c r="CL19" s="8">
+      <c r="CL19" s="26">
         <v>288028.2565183072</v>
       </c>
-      <c r="CM19" s="8">
+      <c r="CM19" s="26">
         <v>517808.59790224989</v>
       </c>
-      <c r="CN19" s="8">
+      <c r="CN19" s="26">
         <v>359076.63956197811</v>
       </c>
-      <c r="CO19" s="8">
+      <c r="CO19" s="26">
         <v>448727.63471485535</v>
       </c>
-      <c r="CP19" s="9"/>
+      <c r="CP19" s="26">
+        <v>337796.08637852548</v>
+      </c>
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
       <c r="CS19" s="9"/>
@@ -26122,6 +26149,7 @@
       <c r="CM20" s="14"/>
       <c r="CN20" s="14"/>
       <c r="CO20" s="14"/>
+      <c r="CP20" s="14"/>
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
@@ -26165,7 +26193,7 @@
     </row>
     <row r="27" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:128" x14ac:dyDescent="0.2">
@@ -26175,7 +26203,7 @@
     </row>
     <row r="30" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:128" x14ac:dyDescent="0.2">
@@ -26185,144 +26213,147 @@
     </row>
     <row r="33" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="25">
+      <c r="B33" s="30">
         <v>2000</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="25">
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="30">
         <v>2001</v>
       </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="25">
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="30">
         <v>2002</v>
       </c>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="25">
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="30">
         <v>2003</v>
       </c>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="25">
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="30">
         <v>2004</v>
       </c>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="25">
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="30">
         <v>2005</v>
       </c>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="25">
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="30">
         <v>2006</v>
       </c>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="25">
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="31"/>
+      <c r="AC33" s="31"/>
+      <c r="AD33" s="30">
         <v>2007</v>
       </c>
-      <c r="AE33" s="26"/>
-      <c r="AF33" s="26"/>
-      <c r="AG33" s="26"/>
-      <c r="AH33" s="25">
+      <c r="AE33" s="31"/>
+      <c r="AF33" s="31"/>
+      <c r="AG33" s="31"/>
+      <c r="AH33" s="30">
         <v>2008</v>
       </c>
-      <c r="AI33" s="26"/>
-      <c r="AJ33" s="26"/>
-      <c r="AK33" s="26"/>
-      <c r="AL33" s="25">
+      <c r="AI33" s="31"/>
+      <c r="AJ33" s="31"/>
+      <c r="AK33" s="31"/>
+      <c r="AL33" s="30">
         <v>2009</v>
       </c>
-      <c r="AM33" s="26"/>
-      <c r="AN33" s="26"/>
-      <c r="AO33" s="26"/>
-      <c r="AP33" s="25">
+      <c r="AM33" s="31"/>
+      <c r="AN33" s="31"/>
+      <c r="AO33" s="31"/>
+      <c r="AP33" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ33" s="26"/>
-      <c r="AR33" s="26"/>
-      <c r="AS33" s="26"/>
-      <c r="AT33" s="25">
+      <c r="AQ33" s="31"/>
+      <c r="AR33" s="31"/>
+      <c r="AS33" s="31"/>
+      <c r="AT33" s="30">
         <v>2011</v>
       </c>
-      <c r="AU33" s="26"/>
-      <c r="AV33" s="26"/>
-      <c r="AW33" s="26"/>
-      <c r="AX33" s="25">
+      <c r="AU33" s="31"/>
+      <c r="AV33" s="31"/>
+      <c r="AW33" s="31"/>
+      <c r="AX33" s="30">
         <v>2012</v>
       </c>
-      <c r="AY33" s="26"/>
-      <c r="AZ33" s="26"/>
-      <c r="BA33" s="26"/>
-      <c r="BB33" s="25">
+      <c r="AY33" s="31"/>
+      <c r="AZ33" s="31"/>
+      <c r="BA33" s="31"/>
+      <c r="BB33" s="30">
         <v>2013</v>
       </c>
-      <c r="BC33" s="26"/>
-      <c r="BD33" s="26"/>
-      <c r="BE33" s="26"/>
-      <c r="BF33" s="25">
+      <c r="BC33" s="31"/>
+      <c r="BD33" s="31"/>
+      <c r="BE33" s="31"/>
+      <c r="BF33" s="30">
         <v>2014</v>
       </c>
-      <c r="BG33" s="26"/>
-      <c r="BH33" s="26"/>
-      <c r="BI33" s="26"/>
-      <c r="BJ33" s="25">
+      <c r="BG33" s="31"/>
+      <c r="BH33" s="31"/>
+      <c r="BI33" s="31"/>
+      <c r="BJ33" s="30">
         <v>2015</v>
       </c>
-      <c r="BK33" s="26"/>
-      <c r="BL33" s="26"/>
-      <c r="BM33" s="26"/>
-      <c r="BN33" s="25">
+      <c r="BK33" s="31"/>
+      <c r="BL33" s="31"/>
+      <c r="BM33" s="31"/>
+      <c r="BN33" s="30">
         <v>2016</v>
       </c>
-      <c r="BO33" s="26"/>
-      <c r="BP33" s="26"/>
-      <c r="BQ33" s="26"/>
-      <c r="BR33" s="25">
+      <c r="BO33" s="31"/>
+      <c r="BP33" s="31"/>
+      <c r="BQ33" s="31"/>
+      <c r="BR33" s="30">
         <v>2017</v>
       </c>
-      <c r="BS33" s="26"/>
-      <c r="BT33" s="26"/>
-      <c r="BU33" s="26"/>
-      <c r="BV33" s="25">
+      <c r="BS33" s="31"/>
+      <c r="BT33" s="31"/>
+      <c r="BU33" s="31"/>
+      <c r="BV33" s="30">
         <v>2018</v>
       </c>
-      <c r="BW33" s="25"/>
-      <c r="BX33" s="25"/>
-      <c r="BY33" s="25"/>
-      <c r="BZ33" s="25">
+      <c r="BW33" s="30"/>
+      <c r="BX33" s="30"/>
+      <c r="BY33" s="30"/>
+      <c r="BZ33" s="30">
         <v>2019</v>
       </c>
-      <c r="CA33" s="25"/>
-      <c r="CB33" s="25"/>
-      <c r="CC33" s="25"/>
-      <c r="CD33" s="25">
+      <c r="CA33" s="30"/>
+      <c r="CB33" s="30"/>
+      <c r="CC33" s="30"/>
+      <c r="CD33" s="30">
         <v>2020</v>
       </c>
-      <c r="CE33" s="25"/>
-      <c r="CF33" s="25"/>
-      <c r="CG33" s="25"/>
-      <c r="CH33" s="25">
+      <c r="CE33" s="30"/>
+      <c r="CF33" s="30"/>
+      <c r="CG33" s="30"/>
+      <c r="CH33" s="30">
         <v>2021</v>
       </c>
-      <c r="CI33" s="25"/>
-      <c r="CJ33" s="25"/>
-      <c r="CK33" s="25"/>
-      <c r="CL33" s="25">
+      <c r="CI33" s="30"/>
+      <c r="CJ33" s="30"/>
+      <c r="CK33" s="30"/>
+      <c r="CL33" s="30">
         <v>2022</v>
       </c>
-      <c r="CM33" s="25"/>
-      <c r="CN33" s="25"/>
-      <c r="CO33" s="25"/>
+      <c r="CM33" s="30"/>
+      <c r="CN33" s="30"/>
+      <c r="CO33" s="30"/>
+      <c r="CP33" s="25">
+        <v>2023</v>
+      </c>
     </row>
     <row r="34" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
@@ -26603,6 +26634,9 @@
       </c>
       <c r="CO34" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="CP34" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26852,43 +26886,45 @@
       <c r="CC36" s="8">
         <v>249401.3224724553</v>
       </c>
-      <c r="CD36" s="8">
+      <c r="CD36" s="26">
         <v>120343.92235382819</v>
       </c>
-      <c r="CE36" s="8">
+      <c r="CE36" s="26">
         <v>272588.25859088765</v>
       </c>
-      <c r="CF36" s="8">
+      <c r="CF36" s="26">
         <v>120647.40743450564</v>
       </c>
-      <c r="CG36" s="8">
+      <c r="CG36" s="26">
         <v>206796.21572508392</v>
       </c>
-      <c r="CH36" s="8">
+      <c r="CH36" s="26">
         <v>150955.89014101101</v>
       </c>
-      <c r="CI36" s="8">
+      <c r="CI36" s="26">
         <v>384277.66977210727</v>
       </c>
-      <c r="CJ36" s="8">
+      <c r="CJ36" s="26">
         <v>186238.61020499366</v>
       </c>
-      <c r="CK36" s="8">
+      <c r="CK36" s="26">
         <v>244301.11990967477</v>
       </c>
-      <c r="CL36" s="8">
+      <c r="CL36" s="26">
         <v>138876.45936565803</v>
       </c>
-      <c r="CM36" s="8">
+      <c r="CM36" s="26">
         <v>477872.31733643805</v>
       </c>
-      <c r="CN36" s="8">
+      <c r="CN36" s="26">
         <v>203931.05585814783</v>
       </c>
-      <c r="CO36" s="8">
+      <c r="CO36" s="26">
         <v>267321.23690688016</v>
       </c>
-      <c r="CP36" s="9"/>
+      <c r="CP36" s="26">
+        <v>145419.60681670153</v>
+      </c>
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
       <c r="CS36" s="9"/>
@@ -27168,43 +27204,45 @@
       <c r="CC37" s="8">
         <v>400243.7030651588</v>
       </c>
-      <c r="CD37" s="8">
+      <c r="CD37" s="26">
         <v>329852.81615328684</v>
       </c>
-      <c r="CE37" s="8">
+      <c r="CE37" s="26">
         <v>261329.21444332827</v>
       </c>
-      <c r="CF37" s="8">
+      <c r="CF37" s="26">
         <v>215977.2588854577</v>
       </c>
-      <c r="CG37" s="8">
+      <c r="CG37" s="26">
         <v>196919.57899973172</v>
       </c>
-      <c r="CH37" s="8">
+      <c r="CH37" s="26">
         <v>183323.49462612282</v>
       </c>
-      <c r="CI37" s="8">
+      <c r="CI37" s="26">
         <v>203028.97812280885</v>
       </c>
-      <c r="CJ37" s="8">
+      <c r="CJ37" s="26">
         <v>195745.26145582148</v>
       </c>
-      <c r="CK37" s="8">
+      <c r="CK37" s="26">
         <v>207575.77707729724</v>
       </c>
-      <c r="CL37" s="8">
+      <c r="CL37" s="26">
         <v>233945.22608923679</v>
       </c>
-      <c r="CM37" s="8">
+      <c r="CM37" s="26">
         <v>229061.85258321365</v>
       </c>
-      <c r="CN37" s="8">
+      <c r="CN37" s="26">
         <v>224132.44939260228</v>
       </c>
-      <c r="CO37" s="8">
+      <c r="CO37" s="26">
         <v>224802.9152009926</v>
       </c>
-      <c r="CP37" s="9"/>
+      <c r="CP37" s="26">
+        <v>282188.27083174791</v>
+      </c>
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
       <c r="CS37" s="9"/>
@@ -27484,43 +27522,45 @@
       <c r="CC38" s="8">
         <v>268190.88920950418</v>
       </c>
-      <c r="CD38" s="8">
+      <c r="CD38" s="26">
         <v>180679.49155132571</v>
       </c>
-      <c r="CE38" s="8">
+      <c r="CE38" s="26">
         <v>46063.376408510667</v>
       </c>
-      <c r="CF38" s="8">
+      <c r="CF38" s="26">
         <v>105256.12855279446</v>
       </c>
-      <c r="CG38" s="8">
+      <c r="CG38" s="26">
         <v>186080.1971893374</v>
       </c>
-      <c r="CH38" s="8">
+      <c r="CH38" s="26">
         <v>137740.40991218342</v>
       </c>
-      <c r="CI38" s="8">
+      <c r="CI38" s="26">
         <v>197503.3785899253</v>
       </c>
-      <c r="CJ38" s="8">
+      <c r="CJ38" s="26">
         <v>169851.87146835233</v>
       </c>
-      <c r="CK38" s="8">
+      <c r="CK38" s="26">
         <v>229834.19557939863</v>
       </c>
-      <c r="CL38" s="8">
+      <c r="CL38" s="26">
         <v>162896.04245673135</v>
       </c>
-      <c r="CM38" s="8">
+      <c r="CM38" s="26">
         <v>198065.43706122765</v>
       </c>
-      <c r="CN38" s="8">
+      <c r="CN38" s="26">
         <v>183408.53384814513</v>
       </c>
-      <c r="CO38" s="8">
+      <c r="CO38" s="26">
         <v>248395.60611464089</v>
       </c>
-      <c r="CP38" s="9"/>
+      <c r="CP38" s="26">
+        <v>184497.86837101387</v>
+      </c>
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
       <c r="CS38" s="9"/>
@@ -27929,43 +27969,45 @@
       <c r="CC40" s="11">
         <v>917835.91474711825</v>
       </c>
-      <c r="CD40" s="11">
+      <c r="CD40" s="27">
         <v>630876.23005844071</v>
       </c>
-      <c r="CE40" s="11">
+      <c r="CE40" s="27">
         <v>579980.84944272647</v>
       </c>
-      <c r="CF40" s="11">
+      <c r="CF40" s="27">
         <v>441880.7948727578</v>
       </c>
-      <c r="CG40" s="11">
+      <c r="CG40" s="27">
         <v>589795.9919141531</v>
       </c>
-      <c r="CH40" s="11">
+      <c r="CH40" s="27">
         <v>472019.79467931727</v>
       </c>
-      <c r="CI40" s="11">
+      <c r="CI40" s="27">
         <v>784810.02648484148</v>
       </c>
-      <c r="CJ40" s="11">
+      <c r="CJ40" s="27">
         <v>551835.74312916747</v>
       </c>
-      <c r="CK40" s="11">
+      <c r="CK40" s="27">
         <v>681711.09256637061</v>
       </c>
-      <c r="CL40" s="11">
+      <c r="CL40" s="27">
         <v>535717.72791162611</v>
       </c>
-      <c r="CM40" s="11">
+      <c r="CM40" s="27">
         <v>904999.60698087933</v>
       </c>
-      <c r="CN40" s="11">
+      <c r="CN40" s="27">
         <v>611472.03909889527</v>
       </c>
-      <c r="CO40" s="11">
+      <c r="CO40" s="27">
         <v>740519.7582225136</v>
       </c>
-      <c r="CP40" s="9"/>
+      <c r="CP40" s="27">
+        <v>612105.74601946329</v>
+      </c>
       <c r="CQ40" s="9"/>
       <c r="CR40" s="9"/>
       <c r="CS40" s="9"/>
@@ -28095,6 +28137,7 @@
       <c r="CM41" s="12"/>
       <c r="CN41" s="12"/>
       <c r="CO41" s="12"/>
+      <c r="CP41" s="12"/>
     </row>
     <row r="42" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
@@ -28178,19 +28221,19 @@
       <c r="CA42" s="11"/>
       <c r="CB42" s="11"/>
       <c r="CC42" s="11"/>
-      <c r="CD42" s="11"/>
-      <c r="CE42" s="11"/>
-      <c r="CF42" s="11"/>
-      <c r="CG42" s="11"/>
-      <c r="CH42" s="11"/>
-      <c r="CI42" s="11"/>
-      <c r="CJ42" s="11"/>
-      <c r="CK42" s="11"/>
-      <c r="CL42" s="11"/>
-      <c r="CM42" s="11"/>
-      <c r="CN42" s="11"/>
-      <c r="CO42" s="11"/>
-      <c r="CP42" s="9"/>
+      <c r="CD42" s="27"/>
+      <c r="CE42" s="27"/>
+      <c r="CF42" s="27"/>
+      <c r="CG42" s="27"/>
+      <c r="CH42" s="27"/>
+      <c r="CI42" s="27"/>
+      <c r="CJ42" s="27"/>
+      <c r="CK42" s="27"/>
+      <c r="CL42" s="27"/>
+      <c r="CM42" s="27"/>
+      <c r="CN42" s="27"/>
+      <c r="CO42" s="27"/>
+      <c r="CP42" s="27"/>
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
       <c r="CS42" s="9"/>
@@ -28470,43 +28513,45 @@
       <c r="CC43" s="8">
         <v>445051.24202254484</v>
       </c>
-      <c r="CD43" s="8">
+      <c r="CD43" s="26">
         <v>288638.33230566006</v>
       </c>
-      <c r="CE43" s="8">
+      <c r="CE43" s="26">
         <v>272663.61019486468</v>
       </c>
-      <c r="CF43" s="8">
+      <c r="CF43" s="26">
         <v>235255.65392941865</v>
       </c>
-      <c r="CG43" s="8">
+      <c r="CG43" s="26">
         <v>325750.45283593191</v>
       </c>
-      <c r="CH43" s="8">
+      <c r="CH43" s="26">
         <v>223626.6896134275</v>
       </c>
-      <c r="CI43" s="8">
+      <c r="CI43" s="26">
         <v>347321.34159008478</v>
       </c>
-      <c r="CJ43" s="8">
+      <c r="CJ43" s="26">
         <v>277536.56785407895</v>
       </c>
-      <c r="CK43" s="8">
+      <c r="CK43" s="26">
         <v>386621.50166269159</v>
       </c>
-      <c r="CL43" s="8">
+      <c r="CL43" s="26">
         <v>253019.28406263766</v>
       </c>
-      <c r="CM43" s="8">
+      <c r="CM43" s="26">
         <v>412342.41444169602</v>
       </c>
-      <c r="CN43" s="8">
+      <c r="CN43" s="26">
         <v>309043.48487735365</v>
       </c>
-      <c r="CO43" s="8">
+      <c r="CO43" s="26">
         <v>410453.91399094043</v>
       </c>
-      <c r="CP43" s="9"/>
+      <c r="CP43" s="26">
+        <v>280399.27906312689</v>
+      </c>
       <c r="CQ43" s="9"/>
       <c r="CR43" s="9"/>
       <c r="CS43" s="9"/>
@@ -28636,6 +28681,7 @@
       <c r="CM44" s="14"/>
       <c r="CN44" s="14"/>
       <c r="CO44" s="14"/>
+      <c r="CP44" s="14"/>
     </row>
     <row r="45" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
@@ -28917,7 +28963,7 @@
     </row>
     <row r="51" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:120" x14ac:dyDescent="0.2">
@@ -28930,7 +28976,7 @@
     </row>
     <row r="54" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:120" x14ac:dyDescent="0.2">
@@ -28940,142 +28986,145 @@
     </row>
     <row r="57" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25" t="s">
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25" t="s">
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25" t="s">
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="O57" s="25"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="25"/>
-      <c r="R57" s="25" t="s">
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="S57" s="25"/>
-      <c r="T57" s="25"/>
-      <c r="U57" s="25"/>
-      <c r="V57" s="25" t="s">
+      <c r="S57" s="30"/>
+      <c r="T57" s="30"/>
+      <c r="U57" s="30"/>
+      <c r="V57" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="W57" s="25"/>
-      <c r="X57" s="25"/>
-      <c r="Y57" s="25"/>
-      <c r="Z57" s="25" t="s">
+      <c r="W57" s="30"/>
+      <c r="X57" s="30"/>
+      <c r="Y57" s="30"/>
+      <c r="Z57" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AA57" s="25"/>
-      <c r="AB57" s="25"/>
-      <c r="AC57" s="25"/>
-      <c r="AD57" s="25" t="s">
+      <c r="AA57" s="30"/>
+      <c r="AB57" s="30"/>
+      <c r="AC57" s="30"/>
+      <c r="AD57" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AE57" s="25"/>
-      <c r="AF57" s="25"/>
-      <c r="AG57" s="25"/>
-      <c r="AH57" s="25" t="s">
+      <c r="AE57" s="30"/>
+      <c r="AF57" s="30"/>
+      <c r="AG57" s="30"/>
+      <c r="AH57" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AI57" s="25"/>
-      <c r="AJ57" s="25"/>
-      <c r="AK57" s="25"/>
-      <c r="AL57" s="25" t="s">
+      <c r="AI57" s="30"/>
+      <c r="AJ57" s="30"/>
+      <c r="AK57" s="30"/>
+      <c r="AL57" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AM57" s="25"/>
-      <c r="AN57" s="25"/>
-      <c r="AO57" s="25"/>
-      <c r="AP57" s="25" t="s">
+      <c r="AM57" s="30"/>
+      <c r="AN57" s="30"/>
+      <c r="AO57" s="30"/>
+      <c r="AP57" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AQ57" s="25"/>
-      <c r="AR57" s="25"/>
-      <c r="AS57" s="25"/>
-      <c r="AT57" s="25" t="s">
+      <c r="AQ57" s="30"/>
+      <c r="AR57" s="30"/>
+      <c r="AS57" s="30"/>
+      <c r="AT57" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AU57" s="25"/>
-      <c r="AV57" s="25"/>
-      <c r="AW57" s="25"/>
-      <c r="AX57" s="25" t="s">
+      <c r="AU57" s="30"/>
+      <c r="AV57" s="30"/>
+      <c r="AW57" s="30"/>
+      <c r="AX57" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AY57" s="25"/>
-      <c r="AZ57" s="25"/>
-      <c r="BA57" s="25"/>
-      <c r="BB57" s="25" t="s">
+      <c r="AY57" s="30"/>
+      <c r="AZ57" s="30"/>
+      <c r="BA57" s="30"/>
+      <c r="BB57" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="BC57" s="25"/>
-      <c r="BD57" s="25"/>
-      <c r="BE57" s="25"/>
-      <c r="BF57" s="25" t="s">
+      <c r="BC57" s="30"/>
+      <c r="BD57" s="30"/>
+      <c r="BE57" s="30"/>
+      <c r="BF57" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="BG57" s="25"/>
-      <c r="BH57" s="25"/>
-      <c r="BI57" s="25"/>
-      <c r="BJ57" s="25" t="s">
+      <c r="BG57" s="30"/>
+      <c r="BH57" s="30"/>
+      <c r="BI57" s="30"/>
+      <c r="BJ57" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="BK57" s="25"/>
-      <c r="BL57" s="25"/>
-      <c r="BM57" s="25"/>
-      <c r="BN57" s="25" t="s">
+      <c r="BK57" s="30"/>
+      <c r="BL57" s="30"/>
+      <c r="BM57" s="30"/>
+      <c r="BN57" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="BO57" s="25"/>
-      <c r="BP57" s="25"/>
-      <c r="BQ57" s="25"/>
-      <c r="BR57" s="25" t="s">
+      <c r="BO57" s="30"/>
+      <c r="BP57" s="30"/>
+      <c r="BQ57" s="30"/>
+      <c r="BR57" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="BS57" s="25"/>
-      <c r="BT57" s="25"/>
-      <c r="BU57" s="25"/>
-      <c r="BV57" s="25" t="s">
+      <c r="BS57" s="30"/>
+      <c r="BT57" s="30"/>
+      <c r="BU57" s="30"/>
+      <c r="BV57" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="BW57" s="25"/>
-      <c r="BX57" s="25"/>
-      <c r="BY57" s="25"/>
-      <c r="BZ57" s="25" t="s">
+      <c r="BW57" s="30"/>
+      <c r="BX57" s="30"/>
+      <c r="BY57" s="30"/>
+      <c r="BZ57" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="CA57" s="25"/>
-      <c r="CB57" s="25"/>
-      <c r="CC57" s="25"/>
-      <c r="CD57" s="25" t="s">
+      <c r="CA57" s="30"/>
+      <c r="CB57" s="30"/>
+      <c r="CC57" s="30"/>
+      <c r="CD57" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="CE57" s="25"/>
-      <c r="CF57" s="25"/>
-      <c r="CG57" s="25"/>
-      <c r="CH57" s="25" t="s">
+      <c r="CE57" s="30"/>
+      <c r="CF57" s="30"/>
+      <c r="CG57" s="30"/>
+      <c r="CH57" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="CI57" s="25"/>
-      <c r="CJ57" s="25"/>
-      <c r="CK57" s="25"/>
-      <c r="CL57" s="25"/>
+      <c r="CI57" s="30"/>
+      <c r="CJ57" s="30"/>
+      <c r="CK57" s="30"/>
+      <c r="CL57" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="CM57" s="25"/>
       <c r="CN57" s="25"/>
       <c r="CO57" s="25"/>
+      <c r="CP57" s="25"/>
     </row>
     <row r="58" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
@@ -29321,34 +29370,37 @@
       <c r="CC58" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CD58" s="6" t="s">
+      <c r="CD58" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="CE58" s="6" t="s">
+      <c r="CE58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CF58" s="6" t="s">
+      <c r="CF58" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CG58" s="6" t="s">
+      <c r="CG58" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CH58" s="6" t="s">
+      <c r="CH58" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="CI58" s="6" t="s">
+      <c r="CI58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CJ58" s="6" t="s">
+      <c r="CJ58" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CK58" s="6" t="s">
+      <c r="CK58" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CL58" s="6"/>
-      <c r="CM58" s="6"/>
-      <c r="CN58" s="6"/>
-      <c r="CO58" s="6"/>
+      <c r="CL58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM58" s="5"/>
+      <c r="CN58" s="5"/>
+      <c r="CO58" s="5"/>
+      <c r="CP58" s="5"/>
     </row>
     <row r="59" spans="1:120" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
@@ -29597,35 +29649,37 @@
       <c r="CC60" s="19">
         <v>-15.411890109061119</v>
       </c>
-      <c r="CD60" s="19">
+      <c r="CD60" s="28">
         <v>26.469962849420753</v>
       </c>
-      <c r="CE60" s="19">
+      <c r="CE60" s="28">
         <v>46.731384084236964</v>
       </c>
-      <c r="CF60" s="19">
+      <c r="CF60" s="28">
         <v>59.970898303050291</v>
       </c>
-      <c r="CG60" s="19">
+      <c r="CG60" s="28">
         <v>23.38408642171423</v>
       </c>
-      <c r="CH60" s="19">
+      <c r="CH60" s="28">
         <v>-2.0951861453557257</v>
       </c>
-      <c r="CI60" s="19">
+      <c r="CI60" s="28">
         <v>34.458605911374207</v>
       </c>
-      <c r="CJ60" s="19">
+      <c r="CJ60" s="28">
         <v>19.870120316505393</v>
       </c>
-      <c r="CK60" s="19">
+      <c r="CK60" s="28">
         <v>16.680526398499083</v>
       </c>
-      <c r="CL60" s="19"/>
-      <c r="CM60" s="19"/>
-      <c r="CN60" s="19"/>
-      <c r="CO60" s="19"/>
-      <c r="CP60" s="9"/>
+      <c r="CL60" s="28">
+        <v>9.6481755632325417</v>
+      </c>
+      <c r="CM60" s="28"/>
+      <c r="CN60" s="28"/>
+      <c r="CO60" s="28"/>
+      <c r="CP60" s="28"/>
       <c r="CQ60" s="9"/>
       <c r="CR60" s="9"/>
       <c r="CS60" s="9"/>
@@ -29897,35 +29951,37 @@
       <c r="CC61" s="19">
         <v>-49.848870706394301</v>
       </c>
-      <c r="CD61" s="19">
+      <c r="CD61" s="28">
         <v>-44.0088807540115</v>
       </c>
-      <c r="CE61" s="19">
+      <c r="CE61" s="28">
         <v>-19.620581149555846</v>
       </c>
-      <c r="CF61" s="19">
+      <c r="CF61" s="28">
         <v>-6.189549125999676</v>
       </c>
-      <c r="CG61" s="19">
+      <c r="CG61" s="28">
         <v>10.016340474934054</v>
       </c>
-      <c r="CH61" s="19">
+      <c r="CH61" s="28">
         <v>35.863728350190087</v>
       </c>
-      <c r="CI61" s="19">
+      <c r="CI61" s="28">
         <v>22.127303232421937</v>
       </c>
-      <c r="CJ61" s="19">
+      <c r="CJ61" s="28">
         <v>25.443670148049293</v>
       </c>
-      <c r="CK61" s="19">
+      <c r="CK61" s="28">
         <v>15.59792419688452</v>
       </c>
-      <c r="CL61" s="19"/>
-      <c r="CM61" s="19"/>
-      <c r="CN61" s="19"/>
-      <c r="CO61" s="19"/>
-      <c r="CP61" s="9"/>
+      <c r="CL61" s="28">
+        <v>26.342399908060415</v>
+      </c>
+      <c r="CM61" s="28"/>
+      <c r="CN61" s="28"/>
+      <c r="CO61" s="28"/>
+      <c r="CP61" s="28"/>
       <c r="CQ61" s="9"/>
       <c r="CR61" s="9"/>
       <c r="CS61" s="9"/>
@@ -30197,35 +30253,37 @@
       <c r="CC62" s="19">
         <v>-29.255299064938271</v>
       </c>
-      <c r="CD62" s="19">
+      <c r="CD62" s="28">
         <v>-23.146846118903426</v>
       </c>
-      <c r="CE62" s="19">
+      <c r="CE62" s="28">
         <v>345.01387166780376</v>
       </c>
-      <c r="CF62" s="19">
+      <c r="CF62" s="28">
         <v>67.564885471015657</v>
       </c>
-      <c r="CG62" s="19">
+      <c r="CG62" s="28">
         <v>29.398004917086723</v>
       </c>
-      <c r="CH62" s="19">
+      <c r="CH62" s="28">
         <v>26.052252556370732</v>
       </c>
-      <c r="CI62" s="19">
+      <c r="CI62" s="28">
         <v>8.6155248515896545</v>
       </c>
-      <c r="CJ62" s="19">
+      <c r="CJ62" s="28">
         <v>15.630293695979034</v>
       </c>
-      <c r="CK62" s="19">
+      <c r="CK62" s="28">
         <v>15.602935002522571</v>
       </c>
-      <c r="CL62" s="19"/>
-      <c r="CM62" s="19"/>
-      <c r="CN62" s="19"/>
-      <c r="CO62" s="19"/>
-      <c r="CP62" s="9"/>
+      <c r="CL62" s="28">
+        <v>18.951494783259974</v>
+      </c>
+      <c r="CM62" s="28"/>
+      <c r="CN62" s="28"/>
+      <c r="CO62" s="28"/>
+      <c r="CP62" s="28"/>
       <c r="CQ62" s="9"/>
       <c r="CR62" s="9"/>
       <c r="CS62" s="9"/>
@@ -30346,7 +30404,7 @@
       <c r="CM63" s="20"/>
       <c r="CN63" s="20"/>
       <c r="CO63" s="20"/>
-      <c r="CP63" s="9"/>
+      <c r="CP63" s="20"/>
       <c r="CQ63" s="9"/>
       <c r="CR63" s="9"/>
       <c r="CS63" s="9"/>
@@ -30618,35 +30676,37 @@
       <c r="CC64" s="19">
         <v>-34.893969125398215</v>
       </c>
-      <c r="CD64" s="19">
+      <c r="CD64" s="28">
         <v>-23.624469721588738</v>
       </c>
-      <c r="CE64" s="19">
+      <c r="CE64" s="28">
         <v>41.960370707646547</v>
       </c>
-      <c r="CF64" s="19">
+      <c r="CF64" s="28">
         <v>28.923472030813315</v>
       </c>
-      <c r="CG64" s="19">
+      <c r="CG64" s="28">
         <v>20.438933201143541</v>
       </c>
-      <c r="CH64" s="19">
+      <c r="CH64" s="28">
         <v>20.346782907631834</v>
       </c>
-      <c r="CI64" s="19">
+      <c r="CI64" s="28">
         <v>24.673907965512541</v>
       </c>
-      <c r="CJ64" s="19">
+      <c r="CJ64" s="28">
         <v>20.577832291915314</v>
       </c>
-      <c r="CK64" s="19">
+      <c r="CK64" s="28">
         <v>15.992744635622032</v>
       </c>
-      <c r="CL64" s="19"/>
-      <c r="CM64" s="19"/>
-      <c r="CN64" s="19"/>
-      <c r="CO64" s="19"/>
-      <c r="CP64" s="9"/>
+      <c r="CL64" s="28">
+        <v>19.492552276430189</v>
+      </c>
+      <c r="CM64" s="28"/>
+      <c r="CN64" s="28"/>
+      <c r="CO64" s="28"/>
+      <c r="CP64" s="28"/>
       <c r="CQ64" s="9"/>
       <c r="CR64" s="9"/>
       <c r="CS64" s="9"/>
@@ -30768,6 +30828,7 @@
       <c r="CM65" s="23"/>
       <c r="CN65" s="23"/>
       <c r="CO65" s="23"/>
+      <c r="CP65" s="23"/>
     </row>
     <row r="66" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
@@ -30851,19 +30912,19 @@
       <c r="CA66" s="19"/>
       <c r="CB66" s="19"/>
       <c r="CC66" s="19"/>
-      <c r="CD66" s="19"/>
-      <c r="CE66" s="19"/>
-      <c r="CF66" s="19"/>
-      <c r="CG66" s="19"/>
-      <c r="CH66" s="19"/>
-      <c r="CI66" s="19"/>
-      <c r="CJ66" s="19"/>
-      <c r="CK66" s="19"/>
-      <c r="CL66" s="19"/>
-      <c r="CM66" s="19"/>
-      <c r="CN66" s="19"/>
-      <c r="CO66" s="19"/>
-      <c r="CP66" s="9"/>
+      <c r="CD66" s="28"/>
+      <c r="CE66" s="28"/>
+      <c r="CF66" s="28"/>
+      <c r="CG66" s="28"/>
+      <c r="CH66" s="28"/>
+      <c r="CI66" s="28"/>
+      <c r="CJ66" s="28"/>
+      <c r="CK66" s="28"/>
+      <c r="CL66" s="28"/>
+      <c r="CM66" s="28"/>
+      <c r="CN66" s="28"/>
+      <c r="CO66" s="28"/>
+      <c r="CP66" s="28"/>
       <c r="CQ66" s="9"/>
       <c r="CR66" s="9"/>
       <c r="CS66" s="9"/>
@@ -31135,35 +31196,37 @@
       <c r="CC67" s="19">
         <v>-24.410897047655666</v>
       </c>
-      <c r="CD67" s="19">
+      <c r="CD67" s="28">
         <v>-23.219006573613115</v>
       </c>
-      <c r="CE67" s="19">
+      <c r="CE67" s="28">
         <v>32.25888680118311</v>
       </c>
-      <c r="CF67" s="19">
+      <c r="CF67" s="28">
         <v>25.717998407627249</v>
       </c>
-      <c r="CG67" s="19">
+      <c r="CG67" s="28">
         <v>23.706761186364659</v>
       </c>
-      <c r="CH67" s="19">
+      <c r="CH67" s="28">
         <v>22.303786435272556</v>
       </c>
-      <c r="CI67" s="19">
+      <c r="CI67" s="28">
         <v>26.886437006620369</v>
       </c>
-      <c r="CJ67" s="19">
+      <c r="CJ67" s="28">
         <v>18.071947726786746</v>
       </c>
-      <c r="CK67" s="19">
+      <c r="CK67" s="28">
         <v>12.293722538822067</v>
       </c>
-      <c r="CL67" s="19"/>
-      <c r="CM67" s="19"/>
-      <c r="CN67" s="19"/>
-      <c r="CO67" s="19"/>
-      <c r="CP67" s="9"/>
+      <c r="CL67" s="28">
+        <v>17.278801205761212</v>
+      </c>
+      <c r="CM67" s="28"/>
+      <c r="CN67" s="28"/>
+      <c r="CO67" s="28"/>
+      <c r="CP67" s="28"/>
       <c r="CQ67" s="9"/>
       <c r="CR67" s="9"/>
       <c r="CS67" s="9"/>
@@ -31285,6 +31348,7 @@
       <c r="CM68" s="14"/>
       <c r="CN68" s="14"/>
       <c r="CO68" s="14"/>
+      <c r="CP68" s="14"/>
     </row>
     <row r="69" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
@@ -31550,7 +31614,7 @@
     </row>
     <row r="75" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:120" x14ac:dyDescent="0.2">
@@ -31560,7 +31624,7 @@
     </row>
     <row r="78" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:120" x14ac:dyDescent="0.2">
@@ -31570,142 +31634,145 @@
     </row>
     <row r="81" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="25" t="s">
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="25" t="s">
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="K81" s="26"/>
-      <c r="L81" s="26"/>
-      <c r="M81" s="26"/>
-      <c r="N81" s="25" t="s">
+      <c r="K81" s="31"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="O81" s="26"/>
-      <c r="P81" s="26"/>
-      <c r="Q81" s="26"/>
-      <c r="R81" s="25" t="s">
+      <c r="O81" s="31"/>
+      <c r="P81" s="31"/>
+      <c r="Q81" s="31"/>
+      <c r="R81" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="S81" s="26"/>
-      <c r="T81" s="26"/>
-      <c r="U81" s="26"/>
-      <c r="V81" s="25" t="s">
+      <c r="S81" s="31"/>
+      <c r="T81" s="31"/>
+      <c r="U81" s="31"/>
+      <c r="V81" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="W81" s="26"/>
-      <c r="X81" s="26"/>
-      <c r="Y81" s="26"/>
-      <c r="Z81" s="25" t="s">
+      <c r="W81" s="31"/>
+      <c r="X81" s="31"/>
+      <c r="Y81" s="31"/>
+      <c r="Z81" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AA81" s="26"/>
-      <c r="AB81" s="26"/>
-      <c r="AC81" s="26"/>
-      <c r="AD81" s="25" t="s">
+      <c r="AA81" s="31"/>
+      <c r="AB81" s="31"/>
+      <c r="AC81" s="31"/>
+      <c r="AD81" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AE81" s="26"/>
-      <c r="AF81" s="26"/>
-      <c r="AG81" s="26"/>
-      <c r="AH81" s="25" t="s">
+      <c r="AE81" s="31"/>
+      <c r="AF81" s="31"/>
+      <c r="AG81" s="31"/>
+      <c r="AH81" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AI81" s="26"/>
-      <c r="AJ81" s="26"/>
-      <c r="AK81" s="26"/>
-      <c r="AL81" s="25" t="s">
+      <c r="AI81" s="31"/>
+      <c r="AJ81" s="31"/>
+      <c r="AK81" s="31"/>
+      <c r="AL81" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AM81" s="26"/>
-      <c r="AN81" s="26"/>
-      <c r="AO81" s="26"/>
-      <c r="AP81" s="25" t="s">
+      <c r="AM81" s="31"/>
+      <c r="AN81" s="31"/>
+      <c r="AO81" s="31"/>
+      <c r="AP81" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AQ81" s="26"/>
-      <c r="AR81" s="26"/>
-      <c r="AS81" s="26"/>
-      <c r="AT81" s="25" t="s">
+      <c r="AQ81" s="31"/>
+      <c r="AR81" s="31"/>
+      <c r="AS81" s="31"/>
+      <c r="AT81" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AU81" s="26"/>
-      <c r="AV81" s="26"/>
-      <c r="AW81" s="26"/>
-      <c r="AX81" s="25" t="s">
+      <c r="AU81" s="31"/>
+      <c r="AV81" s="31"/>
+      <c r="AW81" s="31"/>
+      <c r="AX81" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AY81" s="26"/>
-      <c r="AZ81" s="26"/>
-      <c r="BA81" s="26"/>
-      <c r="BB81" s="25" t="s">
+      <c r="AY81" s="31"/>
+      <c r="AZ81" s="31"/>
+      <c r="BA81" s="31"/>
+      <c r="BB81" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="BC81" s="26"/>
-      <c r="BD81" s="26"/>
-      <c r="BE81" s="26"/>
-      <c r="BF81" s="25" t="s">
+      <c r="BC81" s="31"/>
+      <c r="BD81" s="31"/>
+      <c r="BE81" s="31"/>
+      <c r="BF81" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="BG81" s="26"/>
-      <c r="BH81" s="26"/>
-      <c r="BI81" s="26"/>
-      <c r="BJ81" s="25" t="s">
+      <c r="BG81" s="31"/>
+      <c r="BH81" s="31"/>
+      <c r="BI81" s="31"/>
+      <c r="BJ81" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="BK81" s="26"/>
-      <c r="BL81" s="26"/>
-      <c r="BM81" s="26"/>
-      <c r="BN81" s="25" t="s">
+      <c r="BK81" s="31"/>
+      <c r="BL81" s="31"/>
+      <c r="BM81" s="31"/>
+      <c r="BN81" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="BO81" s="26"/>
-      <c r="BP81" s="26"/>
-      <c r="BQ81" s="26"/>
-      <c r="BR81" s="25" t="s">
+      <c r="BO81" s="31"/>
+      <c r="BP81" s="31"/>
+      <c r="BQ81" s="31"/>
+      <c r="BR81" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="BS81" s="26"/>
-      <c r="BT81" s="26"/>
-      <c r="BU81" s="26"/>
-      <c r="BV81" s="25" t="s">
+      <c r="BS81" s="31"/>
+      <c r="BT81" s="31"/>
+      <c r="BU81" s="31"/>
+      <c r="BV81" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="BW81" s="25"/>
-      <c r="BX81" s="25"/>
-      <c r="BY81" s="25"/>
-      <c r="BZ81" s="25" t="s">
+      <c r="BW81" s="30"/>
+      <c r="BX81" s="30"/>
+      <c r="BY81" s="30"/>
+      <c r="BZ81" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="CA81" s="25"/>
-      <c r="CB81" s="25"/>
-      <c r="CC81" s="25"/>
-      <c r="CD81" s="25" t="s">
+      <c r="CA81" s="30"/>
+      <c r="CB81" s="30"/>
+      <c r="CC81" s="30"/>
+      <c r="CD81" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="CE81" s="25"/>
-      <c r="CF81" s="25"/>
-      <c r="CG81" s="25"/>
-      <c r="CH81" s="25" t="s">
+      <c r="CE81" s="30"/>
+      <c r="CF81" s="30"/>
+      <c r="CG81" s="30"/>
+      <c r="CH81" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="CI81" s="25"/>
-      <c r="CJ81" s="25"/>
-      <c r="CK81" s="25"/>
-      <c r="CL81" s="25"/>
+      <c r="CI81" s="30"/>
+      <c r="CJ81" s="30"/>
+      <c r="CK81" s="30"/>
+      <c r="CL81" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="CM81" s="25"/>
       <c r="CN81" s="25"/>
       <c r="CO81" s="25"/>
+      <c r="CP81" s="25"/>
     </row>
     <row r="82" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
@@ -31975,10 +32042,13 @@
       <c r="CK82" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL82" s="6"/>
+      <c r="CL82" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="CM82" s="6"/>
       <c r="CN82" s="6"/>
       <c r="CO82" s="6"/>
+      <c r="CP82" s="6"/>
     </row>
     <row r="83" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
@@ -32227,35 +32297,37 @@
       <c r="CC84" s="19">
         <v>-17.08295141541474</v>
       </c>
-      <c r="CD84" s="19">
+      <c r="CD84" s="28">
         <v>25.437070014370391</v>
       </c>
-      <c r="CE84" s="19">
+      <c r="CE84" s="28">
         <v>40.973669136955721</v>
       </c>
-      <c r="CF84" s="19">
+      <c r="CF84" s="28">
         <v>54.366027555208518</v>
       </c>
-      <c r="CG84" s="19">
+      <c r="CG84" s="28">
         <v>18.136165622319737</v>
       </c>
-      <c r="CH84" s="19">
+      <c r="CH84" s="28">
         <v>-8.001960548918845</v>
       </c>
-      <c r="CI84" s="19">
+      <c r="CI84" s="28">
         <v>24.355994356850431</v>
       </c>
-      <c r="CJ84" s="19">
+      <c r="CJ84" s="28">
         <v>9.4998806282327877</v>
       </c>
-      <c r="CK84" s="19">
+      <c r="CK84" s="28">
         <v>9.4228454645302548</v>
       </c>
-      <c r="CL84" s="19"/>
-      <c r="CM84" s="19"/>
-      <c r="CN84" s="19"/>
-      <c r="CO84" s="19"/>
-      <c r="CP84" s="9"/>
+      <c r="CL84" s="28">
+        <v>4.711487807890876</v>
+      </c>
+      <c r="CM84" s="28"/>
+      <c r="CN84" s="28"/>
+      <c r="CO84" s="28"/>
+      <c r="CP84" s="28"/>
       <c r="CQ84" s="9"/>
       <c r="CR84" s="9"/>
       <c r="CS84" s="9"/>
@@ -32527,35 +32599,37 @@
       <c r="CC85" s="19">
         <v>-50.800080677927959</v>
       </c>
-      <c r="CD85" s="19">
+      <c r="CD85" s="28">
         <v>-44.422637719445746</v>
       </c>
-      <c r="CE85" s="19">
+      <c r="CE85" s="28">
         <v>-22.309115513436922</v>
       </c>
-      <c r="CF85" s="19">
+      <c r="CF85" s="28">
         <v>-9.367651730576938</v>
       </c>
-      <c r="CG85" s="19">
+      <c r="CG85" s="28">
         <v>5.4114467092071266</v>
       </c>
-      <c r="CH85" s="19">
+      <c r="CH85" s="28">
         <v>27.613335413638012</v>
       </c>
-      <c r="CI85" s="19">
+      <c r="CI85" s="28">
         <v>12.82224572132651</v>
       </c>
-      <c r="CJ85" s="19">
+      <c r="CJ85" s="28">
         <v>14.502107343828399</v>
       </c>
-      <c r="CK85" s="19">
+      <c r="CK85" s="28">
         <v>8.2992044477715297</v>
       </c>
-      <c r="CL85" s="19"/>
-      <c r="CM85" s="19"/>
-      <c r="CN85" s="19"/>
-      <c r="CO85" s="19"/>
-      <c r="CP85" s="9"/>
+      <c r="CL85" s="28">
+        <v>20.621512799799177</v>
+      </c>
+      <c r="CM85" s="28"/>
+      <c r="CN85" s="28"/>
+      <c r="CO85" s="28"/>
+      <c r="CP85" s="28"/>
       <c r="CQ85" s="9"/>
       <c r="CR85" s="9"/>
       <c r="CS85" s="9"/>
@@ -32827,35 +32901,37 @@
       <c r="CC86" s="19">
         <v>-30.616510598920428</v>
       </c>
-      <c r="CD86" s="19">
+      <c r="CD86" s="28">
         <v>-23.765332340967191</v>
       </c>
-      <c r="CE86" s="19">
+      <c r="CE86" s="28">
         <v>328.76444149116821</v>
       </c>
-      <c r="CF86" s="19">
+      <c r="CF86" s="28">
         <v>61.370053985177577</v>
       </c>
-      <c r="CG86" s="19">
+      <c r="CG86" s="28">
         <v>23.513516779833026</v>
       </c>
-      <c r="CH86" s="19">
+      <c r="CH86" s="28">
         <v>18.263073676480232</v>
       </c>
-      <c r="CI86" s="19">
+      <c r="CI86" s="28">
         <v>0.28458169947023748</v>
       </c>
-      <c r="CJ86" s="19">
+      <c r="CJ86" s="28">
         <v>7.9814618835793993</v>
       </c>
-      <c r="CK86" s="19">
+      <c r="CK86" s="28">
         <v>8.0760003916954304</v>
       </c>
-      <c r="CL86" s="19"/>
-      <c r="CM86" s="19"/>
-      <c r="CN86" s="19"/>
-      <c r="CO86" s="19"/>
-      <c r="CP86" s="9"/>
+      <c r="CL86" s="28">
+        <v>13.261111558324345</v>
+      </c>
+      <c r="CM86" s="28"/>
+      <c r="CN86" s="28"/>
+      <c r="CO86" s="28"/>
+      <c r="CP86" s="28"/>
       <c r="CQ86" s="9"/>
       <c r="CR86" s="9"/>
       <c r="CS86" s="9"/>
@@ -32976,7 +33052,7 @@
       <c r="CM87" s="20"/>
       <c r="CN87" s="20"/>
       <c r="CO87" s="20"/>
-      <c r="CP87" s="9"/>
+      <c r="CP87" s="20"/>
       <c r="CQ87" s="9"/>
       <c r="CR87" s="9"/>
       <c r="CS87" s="9"/>
@@ -33248,35 +33324,37 @@
       <c r="CC88" s="19">
         <v>-35.74058473440175</v>
       </c>
-      <c r="CD88" s="19">
+      <c r="CD88" s="28">
         <v>-25.180285420550391</v>
       </c>
-      <c r="CE88" s="19">
+      <c r="CE88" s="28">
         <v>35.316541440794936</v>
       </c>
-      <c r="CF88" s="19">
+      <c r="CF88" s="28">
         <v>24.883396049849111</v>
       </c>
-      <c r="CG88" s="19">
+      <c r="CG88" s="28">
         <v>15.584219274517565</v>
       </c>
-      <c r="CH88" s="19">
+      <c r="CH88" s="28">
         <v>13.49475889577559</v>
       </c>
-      <c r="CI88" s="19">
+      <c r="CI88" s="28">
         <v>15.314480758402908</v>
       </c>
-      <c r="CJ88" s="19">
+      <c r="CJ88" s="28">
         <v>10.806892578498449</v>
       </c>
-      <c r="CK88" s="19">
+      <c r="CK88" s="28">
         <v>8.6266258973066954</v>
       </c>
-      <c r="CL88" s="19"/>
-      <c r="CM88" s="19"/>
-      <c r="CN88" s="19"/>
-      <c r="CO88" s="19"/>
-      <c r="CP88" s="9"/>
+      <c r="CL88" s="28">
+        <v>14.259005093152055</v>
+      </c>
+      <c r="CM88" s="28"/>
+      <c r="CN88" s="28"/>
+      <c r="CO88" s="28"/>
+      <c r="CP88" s="28"/>
       <c r="CQ88" s="9"/>
       <c r="CR88" s="9"/>
       <c r="CS88" s="9"/>
@@ -33398,6 +33476,7 @@
       <c r="CM89" s="23"/>
       <c r="CN89" s="23"/>
       <c r="CO89" s="23"/>
+      <c r="CP89" s="23"/>
     </row>
     <row r="90" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
@@ -33481,19 +33560,19 @@
       <c r="CA90" s="19"/>
       <c r="CB90" s="19"/>
       <c r="CC90" s="19"/>
-      <c r="CD90" s="19"/>
-      <c r="CE90" s="19"/>
-      <c r="CF90" s="19"/>
-      <c r="CG90" s="19"/>
-      <c r="CH90" s="19"/>
-      <c r="CI90" s="19"/>
-      <c r="CJ90" s="19"/>
-      <c r="CK90" s="19"/>
-      <c r="CL90" s="19"/>
-      <c r="CM90" s="19"/>
-      <c r="CN90" s="19"/>
-      <c r="CO90" s="19"/>
-      <c r="CP90" s="9"/>
+      <c r="CD90" s="28"/>
+      <c r="CE90" s="28"/>
+      <c r="CF90" s="28"/>
+      <c r="CG90" s="28"/>
+      <c r="CH90" s="28"/>
+      <c r="CI90" s="28"/>
+      <c r="CJ90" s="28"/>
+      <c r="CK90" s="28"/>
+      <c r="CL90" s="28"/>
+      <c r="CM90" s="28"/>
+      <c r="CN90" s="28"/>
+      <c r="CO90" s="28"/>
+      <c r="CP90" s="28"/>
       <c r="CQ90" s="9"/>
       <c r="CR90" s="9"/>
       <c r="CS90" s="9"/>
@@ -33765,35 +33844,37 @@
       <c r="CC91" s="19">
         <v>-26.806079372893777</v>
       </c>
-      <c r="CD91" s="19">
+      <c r="CD91" s="28">
         <v>-22.523565104092626</v>
       </c>
-      <c r="CE91" s="19">
+      <c r="CE91" s="28">
         <v>27.380893013873191</v>
       </c>
-      <c r="CF91" s="19">
+      <c r="CF91" s="28">
         <v>17.972326368549446</v>
       </c>
-      <c r="CG91" s="19">
+      <c r="CG91" s="28">
         <v>18.686404975595877</v>
       </c>
-      <c r="CH91" s="19">
+      <c r="CH91" s="28">
         <v>13.143598601767835</v>
       </c>
-      <c r="CI91" s="19">
+      <c r="CI91" s="28">
         <v>18.720724892382322</v>
       </c>
-      <c r="CJ91" s="19">
+      <c r="CJ91" s="28">
         <v>11.352348004764607</v>
       </c>
-      <c r="CK91" s="19">
+      <c r="CK91" s="28">
         <v>6.1642749370523831</v>
       </c>
-      <c r="CL91" s="19"/>
-      <c r="CM91" s="19"/>
-      <c r="CN91" s="19"/>
-      <c r="CO91" s="19"/>
-      <c r="CP91" s="9"/>
+      <c r="CL91" s="28">
+        <v>10.821307593974154</v>
+      </c>
+      <c r="CM91" s="28"/>
+      <c r="CN91" s="28"/>
+      <c r="CO91" s="28"/>
+      <c r="CP91" s="28"/>
       <c r="CQ91" s="9"/>
       <c r="CR91" s="9"/>
       <c r="CS91" s="9"/>
@@ -33915,6 +33996,7 @@
       <c r="CM92" s="14"/>
       <c r="CN92" s="14"/>
       <c r="CO92" s="14"/>
+      <c r="CP92" s="14"/>
     </row>
     <row r="93" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
@@ -34191,7 +34273,7 @@
     </row>
     <row r="98" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" spans="1:128" x14ac:dyDescent="0.2">
@@ -34201,7 +34283,7 @@
     </row>
     <row r="101" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:128" x14ac:dyDescent="0.2">
@@ -34211,144 +34293,147 @@
     </row>
     <row r="104" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
-      <c r="B104" s="25">
+      <c r="B104" s="30">
         <v>2000</v>
       </c>
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="25">
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="30">
         <v>2001</v>
       </c>
-      <c r="G104" s="26"/>
-      <c r="H104" s="26"/>
-      <c r="I104" s="26"/>
-      <c r="J104" s="25">
+      <c r="G104" s="31"/>
+      <c r="H104" s="31"/>
+      <c r="I104" s="31"/>
+      <c r="J104" s="30">
         <v>2002</v>
       </c>
-      <c r="K104" s="26"/>
-      <c r="L104" s="26"/>
-      <c r="M104" s="26"/>
-      <c r="N104" s="25">
+      <c r="K104" s="31"/>
+      <c r="L104" s="31"/>
+      <c r="M104" s="31"/>
+      <c r="N104" s="30">
         <v>2003</v>
       </c>
-      <c r="O104" s="26"/>
-      <c r="P104" s="26"/>
-      <c r="Q104" s="26"/>
-      <c r="R104" s="25">
+      <c r="O104" s="31"/>
+      <c r="P104" s="31"/>
+      <c r="Q104" s="31"/>
+      <c r="R104" s="30">
         <v>2004</v>
       </c>
-      <c r="S104" s="26"/>
-      <c r="T104" s="26"/>
-      <c r="U104" s="26"/>
-      <c r="V104" s="25">
+      <c r="S104" s="31"/>
+      <c r="T104" s="31"/>
+      <c r="U104" s="31"/>
+      <c r="V104" s="30">
         <v>2005</v>
       </c>
-      <c r="W104" s="26"/>
-      <c r="X104" s="26"/>
-      <c r="Y104" s="26"/>
-      <c r="Z104" s="25">
+      <c r="W104" s="31"/>
+      <c r="X104" s="31"/>
+      <c r="Y104" s="31"/>
+      <c r="Z104" s="30">
         <v>2006</v>
       </c>
-      <c r="AA104" s="26"/>
-      <c r="AB104" s="26"/>
-      <c r="AC104" s="26"/>
-      <c r="AD104" s="25">
+      <c r="AA104" s="31"/>
+      <c r="AB104" s="31"/>
+      <c r="AC104" s="31"/>
+      <c r="AD104" s="30">
         <v>2007</v>
       </c>
-      <c r="AE104" s="26"/>
-      <c r="AF104" s="26"/>
-      <c r="AG104" s="26"/>
-      <c r="AH104" s="25">
+      <c r="AE104" s="31"/>
+      <c r="AF104" s="31"/>
+      <c r="AG104" s="31"/>
+      <c r="AH104" s="30">
         <v>2008</v>
       </c>
-      <c r="AI104" s="26"/>
-      <c r="AJ104" s="26"/>
-      <c r="AK104" s="26"/>
-      <c r="AL104" s="25">
+      <c r="AI104" s="31"/>
+      <c r="AJ104" s="31"/>
+      <c r="AK104" s="31"/>
+      <c r="AL104" s="30">
         <v>2009</v>
       </c>
-      <c r="AM104" s="26"/>
-      <c r="AN104" s="26"/>
-      <c r="AO104" s="26"/>
-      <c r="AP104" s="25">
+      <c r="AM104" s="31"/>
+      <c r="AN104" s="31"/>
+      <c r="AO104" s="31"/>
+      <c r="AP104" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ104" s="26"/>
-      <c r="AR104" s="26"/>
-      <c r="AS104" s="26"/>
-      <c r="AT104" s="25">
+      <c r="AQ104" s="31"/>
+      <c r="AR104" s="31"/>
+      <c r="AS104" s="31"/>
+      <c r="AT104" s="30">
         <v>2011</v>
       </c>
-      <c r="AU104" s="26"/>
-      <c r="AV104" s="26"/>
-      <c r="AW104" s="26"/>
-      <c r="AX104" s="25">
+      <c r="AU104" s="31"/>
+      <c r="AV104" s="31"/>
+      <c r="AW104" s="31"/>
+      <c r="AX104" s="30">
         <v>2012</v>
       </c>
-      <c r="AY104" s="26"/>
-      <c r="AZ104" s="26"/>
-      <c r="BA104" s="26"/>
-      <c r="BB104" s="25">
+      <c r="AY104" s="31"/>
+      <c r="AZ104" s="31"/>
+      <c r="BA104" s="31"/>
+      <c r="BB104" s="30">
         <v>2013</v>
       </c>
-      <c r="BC104" s="26"/>
-      <c r="BD104" s="26"/>
-      <c r="BE104" s="26"/>
-      <c r="BF104" s="25">
+      <c r="BC104" s="31"/>
+      <c r="BD104" s="31"/>
+      <c r="BE104" s="31"/>
+      <c r="BF104" s="30">
         <v>2014</v>
       </c>
-      <c r="BG104" s="26"/>
-      <c r="BH104" s="26"/>
-      <c r="BI104" s="26"/>
-      <c r="BJ104" s="25">
+      <c r="BG104" s="31"/>
+      <c r="BH104" s="31"/>
+      <c r="BI104" s="31"/>
+      <c r="BJ104" s="30">
         <v>2015</v>
       </c>
-      <c r="BK104" s="26"/>
-      <c r="BL104" s="26"/>
-      <c r="BM104" s="26"/>
-      <c r="BN104" s="25">
+      <c r="BK104" s="31"/>
+      <c r="BL104" s="31"/>
+      <c r="BM104" s="31"/>
+      <c r="BN104" s="30">
         <v>2016</v>
       </c>
-      <c r="BO104" s="26"/>
-      <c r="BP104" s="26"/>
-      <c r="BQ104" s="26"/>
-      <c r="BR104" s="25">
+      <c r="BO104" s="31"/>
+      <c r="BP104" s="31"/>
+      <c r="BQ104" s="31"/>
+      <c r="BR104" s="30">
         <v>2017</v>
       </c>
-      <c r="BS104" s="26"/>
-      <c r="BT104" s="26"/>
-      <c r="BU104" s="26"/>
-      <c r="BV104" s="25">
+      <c r="BS104" s="31"/>
+      <c r="BT104" s="31"/>
+      <c r="BU104" s="31"/>
+      <c r="BV104" s="30">
         <v>2018</v>
       </c>
-      <c r="BW104" s="25"/>
-      <c r="BX104" s="25"/>
-      <c r="BY104" s="25"/>
-      <c r="BZ104" s="25">
+      <c r="BW104" s="30"/>
+      <c r="BX104" s="30"/>
+      <c r="BY104" s="30"/>
+      <c r="BZ104" s="30">
         <v>2019</v>
       </c>
-      <c r="CA104" s="25"/>
-      <c r="CB104" s="25"/>
-      <c r="CC104" s="25"/>
-      <c r="CD104" s="25">
+      <c r="CA104" s="30"/>
+      <c r="CB104" s="30"/>
+      <c r="CC104" s="30"/>
+      <c r="CD104" s="30">
         <v>2020</v>
       </c>
-      <c r="CE104" s="25"/>
-      <c r="CF104" s="25"/>
-      <c r="CG104" s="25"/>
-      <c r="CH104" s="25">
+      <c r="CE104" s="30"/>
+      <c r="CF104" s="30"/>
+      <c r="CG104" s="30"/>
+      <c r="CH104" s="30">
         <v>2021</v>
       </c>
-      <c r="CI104" s="25"/>
-      <c r="CJ104" s="25"/>
-      <c r="CK104" s="25"/>
-      <c r="CL104" s="25">
+      <c r="CI104" s="30"/>
+      <c r="CJ104" s="30"/>
+      <c r="CK104" s="30"/>
+      <c r="CL104" s="30">
         <v>2022</v>
       </c>
-      <c r="CM104" s="25"/>
-      <c r="CN104" s="25"/>
-      <c r="CO104" s="25"/>
+      <c r="CM104" s="30"/>
+      <c r="CN104" s="30"/>
+      <c r="CO104" s="30"/>
+      <c r="CP104" s="25">
+        <v>2023</v>
+      </c>
     </row>
     <row r="105" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
@@ -34629,6 +34714,9 @@
       </c>
       <c r="CO105" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="CP105" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34878,43 +34966,45 @@
       <c r="CC107" s="24">
         <v>99.690666334522035</v>
       </c>
-      <c r="CD107" s="24">
+      <c r="CD107" s="29">
         <v>110.26580788055082</v>
       </c>
-      <c r="CE107" s="24">
+      <c r="CE107" s="29">
         <v>101.55697744768138</v>
       </c>
-      <c r="CF107" s="24">
+      <c r="CF107" s="29">
         <v>107.86345740733043</v>
       </c>
-      <c r="CG107" s="24">
+      <c r="CG107" s="29">
         <v>101.69977324269048</v>
       </c>
-      <c r="CH107" s="24">
+      <c r="CH107" s="29">
         <v>111.17377522144784</v>
       </c>
-      <c r="CI107" s="24">
+      <c r="CI107" s="29">
         <v>105.70481676144105</v>
       </c>
-      <c r="CJ107" s="24">
+      <c r="CJ107" s="29">
         <v>111.77986794634754</v>
       </c>
-      <c r="CK107" s="24">
+      <c r="CK107" s="29">
         <v>106.21754603887462</v>
       </c>
-      <c r="CL107" s="24">
+      <c r="CL107" s="29">
         <v>118.31173613609008</v>
       </c>
-      <c r="CM107" s="24">
+      <c r="CM107" s="29">
         <v>114.2922170609275</v>
       </c>
-      <c r="CN107" s="24">
+      <c r="CN107" s="29">
         <v>122.36603494741189</v>
       </c>
-      <c r="CO107" s="24">
+      <c r="CO107" s="29">
         <v>113.26262931619794</v>
       </c>
-      <c r="CP107" s="9"/>
+      <c r="CP107" s="29">
+        <v>123.88961599744597</v>
+      </c>
       <c r="CQ107" s="9"/>
       <c r="CR107" s="9"/>
       <c r="CS107" s="9"/>
@@ -35194,43 +35284,45 @@
       <c r="CC108" s="24">
         <v>104.08316734075956</v>
       </c>
-      <c r="CD108" s="24">
+      <c r="CD108" s="29">
         <v>100.3080215092087</v>
       </c>
-      <c r="CE108" s="24">
+      <c r="CE108" s="29">
         <v>98.989565820614089</v>
       </c>
-      <c r="CF108" s="24">
+      <c r="CF108" s="29">
         <v>112.21853540472053</v>
       </c>
-      <c r="CG108" s="24">
+      <c r="CG108" s="29">
         <v>106.09546630400037</v>
       </c>
-      <c r="CH108" s="24">
+      <c r="CH108" s="29">
         <v>101.05478495542721</v>
       </c>
-      <c r="CI108" s="24">
+      <c r="CI108" s="29">
         <v>102.41515237601517</v>
       </c>
-      <c r="CJ108" s="24">
+      <c r="CJ108" s="29">
         <v>116.15357655130316</v>
       </c>
-      <c r="CK108" s="24">
+      <c r="CK108" s="29">
         <v>110.73024143143924</v>
       </c>
-      <c r="CL108" s="24">
+      <c r="CL108" s="29">
         <v>107.5881278956349</v>
       </c>
-      <c r="CM108" s="24">
+      <c r="CM108" s="29">
         <v>110.861880915884</v>
       </c>
-      <c r="CN108" s="24">
+      <c r="CN108" s="29">
         <v>127.25295002357193</v>
       </c>
-      <c r="CO108" s="24">
+      <c r="CO108" s="29">
         <v>118.19279855806573</v>
       </c>
-      <c r="CP108" s="9"/>
+      <c r="CP108" s="29">
+        <v>112.69086222215317</v>
+      </c>
       <c r="CQ108" s="9"/>
       <c r="CR108" s="9"/>
       <c r="CS108" s="9"/>
@@ -35510,43 +35602,45 @@
       <c r="CC109" s="24">
         <v>91.664109417602418</v>
       </c>
-      <c r="CD109" s="24">
+      <c r="CD109" s="29">
         <v>112.54805990032908</v>
       </c>
-      <c r="CE109" s="24">
+      <c r="CE109" s="29">
         <v>104.65523295369555</v>
       </c>
-      <c r="CF109" s="24">
+      <c r="CF109" s="29">
         <v>109.89944756640004</v>
       </c>
-      <c r="CG109" s="24">
+      <c r="CG109" s="29">
         <v>93.462437003437287</v>
       </c>
-      <c r="CH109" s="24">
+      <c r="CH109" s="29">
         <v>113.46115398869969</v>
       </c>
-      <c r="CI109" s="24">
+      <c r="CI109" s="29">
         <v>108.62148513306533</v>
       </c>
-      <c r="CJ109" s="24">
+      <c r="CJ109" s="29">
         <v>114.11837506408236</v>
       </c>
-      <c r="CK109" s="24">
+      <c r="CK109" s="29">
         <v>97.915217688209665</v>
       </c>
-      <c r="CL109" s="24">
+      <c r="CL109" s="29">
         <v>120.93406329895843</v>
       </c>
-      <c r="CM109" s="24">
+      <c r="CM109" s="29">
         <v>117.64500003841923</v>
       </c>
-      <c r="CN109" s="24">
+      <c r="CN109" s="29">
         <v>122.2019131301867</v>
       </c>
-      <c r="CO109" s="24">
+      <c r="CO109" s="29">
         <v>104.73450632095862</v>
       </c>
-      <c r="CP109" s="9"/>
+      <c r="CP109" s="29">
+        <v>127.00994544112976</v>
+      </c>
       <c r="CQ109" s="9"/>
       <c r="CR109" s="9"/>
       <c r="CS109" s="9"/>
@@ -35955,43 +36049,45 @@
       <c r="CC111" s="24">
         <v>99.260765344545916</v>
       </c>
-      <c r="CD111" s="24">
+      <c r="CD111" s="29">
         <v>105.71301668972022</v>
       </c>
-      <c r="CE111" s="24">
+      <c r="CE111" s="29">
         <v>100.64621711037296</v>
       </c>
-      <c r="CF111" s="24">
+      <c r="CF111" s="29">
         <v>110.47705424933957</v>
       </c>
-      <c r="CG111" s="24">
+      <c r="CG111" s="29">
         <v>100.56852254954056</v>
       </c>
-      <c r="CH111" s="24">
+      <c r="CH111" s="29">
         <v>107.91123372215507</v>
       </c>
-      <c r="CI111" s="24">
+      <c r="CI111" s="29">
         <v>105.58778800566786</v>
       </c>
-      <c r="CJ111" s="24">
+      <c r="CJ111" s="29">
         <v>114.05107375424058</v>
       </c>
-      <c r="CK111" s="24">
+      <c r="CK111" s="29">
         <v>104.79255425616898</v>
       </c>
-      <c r="CL111" s="24">
+      <c r="CL111" s="29">
         <v>114.42616332601681</v>
       </c>
-      <c r="CM111" s="24">
+      <c r="CM111" s="29">
         <v>114.15775432125356</v>
       </c>
-      <c r="CN111" s="24">
+      <c r="CN111" s="29">
         <v>124.10808501022979</v>
       </c>
-      <c r="CO111" s="24">
+      <c r="CO111" s="29">
         <v>111.8986793996678</v>
       </c>
-      <c r="CP111" s="9"/>
+      <c r="CP111" s="29">
+        <v>119.66736706553797</v>
+      </c>
       <c r="CQ111" s="9"/>
       <c r="CR111" s="9"/>
       <c r="CS111" s="9"/>
@@ -36121,6 +36217,7 @@
       <c r="CM112" s="12"/>
       <c r="CN112" s="12"/>
       <c r="CO112" s="12"/>
+      <c r="CP112" s="12"/>
     </row>
     <row r="113" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
@@ -36204,19 +36301,19 @@
       <c r="CA113" s="11"/>
       <c r="CB113" s="11"/>
       <c r="CC113" s="11"/>
-      <c r="CD113" s="11"/>
-      <c r="CE113" s="11"/>
-      <c r="CF113" s="11"/>
-      <c r="CG113" s="11"/>
-      <c r="CH113" s="11"/>
-      <c r="CI113" s="11"/>
-      <c r="CJ113" s="11"/>
-      <c r="CK113" s="11"/>
-      <c r="CL113" s="11"/>
-      <c r="CM113" s="11"/>
-      <c r="CN113" s="11"/>
-      <c r="CO113" s="11"/>
-      <c r="CP113" s="9"/>
+      <c r="CD113" s="27"/>
+      <c r="CE113" s="27"/>
+      <c r="CF113" s="27"/>
+      <c r="CG113" s="27"/>
+      <c r="CH113" s="27"/>
+      <c r="CI113" s="27"/>
+      <c r="CJ113" s="27"/>
+      <c r="CK113" s="27"/>
+      <c r="CL113" s="27"/>
+      <c r="CM113" s="27"/>
+      <c r="CN113" s="27"/>
+      <c r="CO113" s="27"/>
+      <c r="CP113" s="27"/>
       <c r="CQ113" s="9"/>
       <c r="CR113" s="9"/>
       <c r="CS113" s="9"/>
@@ -36496,43 +36593,45 @@
       <c r="CC114" s="24">
         <v>96.020661123189427</v>
       </c>
-      <c r="CD114" s="24">
+      <c r="CD114" s="29">
         <v>106.26431802117915</v>
       </c>
-      <c r="CE114" s="24">
+      <c r="CE114" s="29">
         <v>113.1623639345887</v>
       </c>
-      <c r="CF114" s="24">
+      <c r="CF114" s="29">
         <v>102.82598942992512</v>
       </c>
-      <c r="CG114" s="24">
+      <c r="CG114" s="29">
         <v>99.162820860083883</v>
       </c>
-      <c r="CH114" s="24">
+      <c r="CH114" s="29">
         <v>105.31047168607701</v>
       </c>
-      <c r="CI114" s="24">
+      <c r="CI114" s="29">
         <v>117.49586557027052</v>
       </c>
-      <c r="CJ114" s="24">
+      <c r="CJ114" s="29">
         <v>109.57720317415296</v>
       </c>
-      <c r="CK114" s="24">
+      <c r="CK114" s="29">
         <v>103.35734241193842</v>
       </c>
-      <c r="CL114" s="24">
+      <c r="CL114" s="29">
         <v>113.83648388120595</v>
       </c>
-      <c r="CM114" s="24">
+      <c r="CM114" s="29">
         <v>125.57733082184939</v>
       </c>
-      <c r="CN114" s="24">
+      <c r="CN114" s="29">
         <v>116.18968110733041</v>
       </c>
-      <c r="CO114" s="24">
+      <c r="CO114" s="29">
         <v>109.32473035809807</v>
       </c>
-      <c r="CP114" s="9"/>
+      <c r="CP114" s="29">
+        <v>120.46967007446432</v>
+      </c>
       <c r="CQ114" s="9"/>
       <c r="CR114" s="9"/>
       <c r="CS114" s="9"/>
@@ -36662,6 +36761,7 @@
       <c r="CM115" s="14"/>
       <c r="CN115" s="14"/>
       <c r="CO115" s="14"/>
+      <c r="CP115" s="14"/>
     </row>
     <row r="116" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
@@ -36685,7 +36785,7 @@
     </row>
     <row r="122" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="124" spans="1:128" x14ac:dyDescent="0.2">
@@ -36695,7 +36795,7 @@
     </row>
     <row r="125" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126" spans="1:128" x14ac:dyDescent="0.2">
@@ -36705,144 +36805,147 @@
     </row>
     <row r="128" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
-      <c r="B128" s="25">
+      <c r="B128" s="30">
         <v>2000</v>
       </c>
-      <c r="C128" s="26"/>
-      <c r="D128" s="26"/>
-      <c r="E128" s="26"/>
-      <c r="F128" s="25">
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="30">
         <v>2001</v>
       </c>
-      <c r="G128" s="26"/>
-      <c r="H128" s="26"/>
-      <c r="I128" s="26"/>
-      <c r="J128" s="25">
+      <c r="G128" s="31"/>
+      <c r="H128" s="31"/>
+      <c r="I128" s="31"/>
+      <c r="J128" s="30">
         <v>2002</v>
       </c>
-      <c r="K128" s="26"/>
-      <c r="L128" s="26"/>
-      <c r="M128" s="26"/>
-      <c r="N128" s="25">
+      <c r="K128" s="31"/>
+      <c r="L128" s="31"/>
+      <c r="M128" s="31"/>
+      <c r="N128" s="30">
         <v>2003</v>
       </c>
-      <c r="O128" s="26"/>
-      <c r="P128" s="26"/>
-      <c r="Q128" s="26"/>
-      <c r="R128" s="25">
+      <c r="O128" s="31"/>
+      <c r="P128" s="31"/>
+      <c r="Q128" s="31"/>
+      <c r="R128" s="30">
         <v>2004</v>
       </c>
-      <c r="S128" s="26"/>
-      <c r="T128" s="26"/>
-      <c r="U128" s="26"/>
-      <c r="V128" s="25">
+      <c r="S128" s="31"/>
+      <c r="T128" s="31"/>
+      <c r="U128" s="31"/>
+      <c r="V128" s="30">
         <v>2005</v>
       </c>
-      <c r="W128" s="26"/>
-      <c r="X128" s="26"/>
-      <c r="Y128" s="26"/>
-      <c r="Z128" s="25">
+      <c r="W128" s="31"/>
+      <c r="X128" s="31"/>
+      <c r="Y128" s="31"/>
+      <c r="Z128" s="30">
         <v>2006</v>
       </c>
-      <c r="AA128" s="26"/>
-      <c r="AB128" s="26"/>
-      <c r="AC128" s="26"/>
-      <c r="AD128" s="25">
+      <c r="AA128" s="31"/>
+      <c r="AB128" s="31"/>
+      <c r="AC128" s="31"/>
+      <c r="AD128" s="30">
         <v>2007</v>
       </c>
-      <c r="AE128" s="26"/>
-      <c r="AF128" s="26"/>
-      <c r="AG128" s="26"/>
-      <c r="AH128" s="25">
+      <c r="AE128" s="31"/>
+      <c r="AF128" s="31"/>
+      <c r="AG128" s="31"/>
+      <c r="AH128" s="30">
         <v>2008</v>
       </c>
-      <c r="AI128" s="26"/>
-      <c r="AJ128" s="26"/>
-      <c r="AK128" s="26"/>
-      <c r="AL128" s="25">
+      <c r="AI128" s="31"/>
+      <c r="AJ128" s="31"/>
+      <c r="AK128" s="31"/>
+      <c r="AL128" s="30">
         <v>2009</v>
       </c>
-      <c r="AM128" s="26"/>
-      <c r="AN128" s="26"/>
-      <c r="AO128" s="26"/>
-      <c r="AP128" s="25">
+      <c r="AM128" s="31"/>
+      <c r="AN128" s="31"/>
+      <c r="AO128" s="31"/>
+      <c r="AP128" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="26"/>
-      <c r="AR128" s="26"/>
-      <c r="AS128" s="26"/>
-      <c r="AT128" s="25">
+      <c r="AQ128" s="31"/>
+      <c r="AR128" s="31"/>
+      <c r="AS128" s="31"/>
+      <c r="AT128" s="30">
         <v>2011</v>
       </c>
-      <c r="AU128" s="26"/>
-      <c r="AV128" s="26"/>
-      <c r="AW128" s="26"/>
-      <c r="AX128" s="25">
+      <c r="AU128" s="31"/>
+      <c r="AV128" s="31"/>
+      <c r="AW128" s="31"/>
+      <c r="AX128" s="30">
         <v>2012</v>
       </c>
-      <c r="AY128" s="26"/>
-      <c r="AZ128" s="26"/>
-      <c r="BA128" s="26"/>
-      <c r="BB128" s="25">
+      <c r="AY128" s="31"/>
+      <c r="AZ128" s="31"/>
+      <c r="BA128" s="31"/>
+      <c r="BB128" s="30">
         <v>2013</v>
       </c>
-      <c r="BC128" s="26"/>
-      <c r="BD128" s="26"/>
-      <c r="BE128" s="26"/>
-      <c r="BF128" s="25">
+      <c r="BC128" s="31"/>
+      <c r="BD128" s="31"/>
+      <c r="BE128" s="31"/>
+      <c r="BF128" s="30">
         <v>2014</v>
       </c>
-      <c r="BG128" s="26"/>
-      <c r="BH128" s="26"/>
-      <c r="BI128" s="26"/>
-      <c r="BJ128" s="25">
+      <c r="BG128" s="31"/>
+      <c r="BH128" s="31"/>
+      <c r="BI128" s="31"/>
+      <c r="BJ128" s="30">
         <v>2015</v>
       </c>
-      <c r="BK128" s="26"/>
-      <c r="BL128" s="26"/>
-      <c r="BM128" s="26"/>
-      <c r="BN128" s="25">
+      <c r="BK128" s="31"/>
+      <c r="BL128" s="31"/>
+      <c r="BM128" s="31"/>
+      <c r="BN128" s="30">
         <v>2016</v>
       </c>
-      <c r="BO128" s="26"/>
-      <c r="BP128" s="26"/>
-      <c r="BQ128" s="26"/>
-      <c r="BR128" s="25">
+      <c r="BO128" s="31"/>
+      <c r="BP128" s="31"/>
+      <c r="BQ128" s="31"/>
+      <c r="BR128" s="30">
         <v>2017</v>
       </c>
-      <c r="BS128" s="26"/>
-      <c r="BT128" s="26"/>
-      <c r="BU128" s="26"/>
-      <c r="BV128" s="25">
+      <c r="BS128" s="31"/>
+      <c r="BT128" s="31"/>
+      <c r="BU128" s="31"/>
+      <c r="BV128" s="30">
         <v>2018</v>
       </c>
-      <c r="BW128" s="25"/>
-      <c r="BX128" s="25"/>
-      <c r="BY128" s="25"/>
-      <c r="BZ128" s="25">
+      <c r="BW128" s="30"/>
+      <c r="BX128" s="30"/>
+      <c r="BY128" s="30"/>
+      <c r="BZ128" s="30">
         <v>2019</v>
       </c>
-      <c r="CA128" s="25"/>
-      <c r="CB128" s="25"/>
-      <c r="CC128" s="25"/>
-      <c r="CD128" s="25">
+      <c r="CA128" s="30"/>
+      <c r="CB128" s="30"/>
+      <c r="CC128" s="30"/>
+      <c r="CD128" s="30">
         <v>2020</v>
       </c>
-      <c r="CE128" s="25"/>
-      <c r="CF128" s="25"/>
-      <c r="CG128" s="25"/>
-      <c r="CH128" s="25">
+      <c r="CE128" s="30"/>
+      <c r="CF128" s="30"/>
+      <c r="CG128" s="30"/>
+      <c r="CH128" s="30">
         <v>2021</v>
       </c>
-      <c r="CI128" s="25"/>
-      <c r="CJ128" s="25"/>
-      <c r="CK128" s="25"/>
-      <c r="CL128" s="25">
+      <c r="CI128" s="30"/>
+      <c r="CJ128" s="30"/>
+      <c r="CK128" s="30"/>
+      <c r="CL128" s="30">
         <v>2022</v>
       </c>
-      <c r="CM128" s="25"/>
-      <c r="CN128" s="25"/>
-      <c r="CO128" s="25"/>
+      <c r="CM128" s="30"/>
+      <c r="CN128" s="30"/>
+      <c r="CO128" s="30"/>
+      <c r="CP128" s="25">
+        <v>2023</v>
+      </c>
     </row>
     <row r="129" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -37123,6 +37226,9 @@
       </c>
       <c r="CO129" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="CP129" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37372,43 +37478,45 @@
       <c r="CC131" s="24">
         <v>27.290442893617545</v>
       </c>
-      <c r="CD131" s="24">
+      <c r="CD131" s="29">
         <v>19.897219695152575</v>
       </c>
-      <c r="CE131" s="24">
+      <c r="CE131" s="29">
         <v>47.42483212233288</v>
       </c>
-      <c r="CF131" s="24">
+      <c r="CF131" s="29">
         <v>26.657236097146779</v>
       </c>
-      <c r="CG131" s="24">
+      <c r="CG131" s="29">
         <v>35.456730374240195</v>
       </c>
-      <c r="CH131" s="24">
+      <c r="CH131" s="29">
         <v>32.947733737228262</v>
       </c>
-      <c r="CI131" s="24">
+      <c r="CI131" s="29">
         <v>49.018688966396589</v>
       </c>
-      <c r="CJ131" s="24">
+      <c r="CJ131" s="29">
         <v>33.076847354202975</v>
       </c>
-      <c r="CK131" s="24">
+      <c r="CK131" s="29">
         <v>36.32377146201037</v>
       </c>
-      <c r="CL131" s="24">
+      <c r="CL131" s="29">
         <v>26.803722214589875</v>
       </c>
-      <c r="CM131" s="24">
+      <c r="CM131" s="29">
         <v>52.865789559176669</v>
       </c>
-      <c r="CN131" s="24">
+      <c r="CN131" s="29">
         <v>32.882708178399064</v>
       </c>
-      <c r="CO131" s="24">
+      <c r="CO131" s="29">
         <v>36.539154136581665</v>
       </c>
-      <c r="CP131" s="9"/>
+      <c r="CP131" s="29">
+        <v>24.595501419490379</v>
+      </c>
       <c r="CQ131" s="9"/>
       <c r="CR131" s="9"/>
       <c r="CS131" s="9"/>
@@ -37688,43 +37796,45 @@
       <c r="CC132" s="24">
         <v>45.725908259339491</v>
       </c>
-      <c r="CD132" s="24">
+      <c r="CD132" s="29">
         <v>49.611599586836405</v>
       </c>
-      <c r="CE132" s="24">
+      <c r="CE132" s="29">
         <v>44.316583560542533</v>
       </c>
-      <c r="CF132" s="24">
+      <c r="CF132" s="29">
         <v>49.647274162864491</v>
       </c>
-      <c r="CG132" s="24">
+      <c r="CG132" s="29">
         <v>35.222634621952963</v>
       </c>
-      <c r="CH132" s="24">
+      <c r="CH132" s="29">
         <v>36.370405263634304</v>
       </c>
-      <c r="CI132" s="24">
+      <c r="CI132" s="29">
         <v>25.092504438224072</v>
       </c>
-      <c r="CJ132" s="24">
+      <c r="CJ132" s="29">
         <v>36.125564263195429</v>
       </c>
-      <c r="CK132" s="24">
+      <c r="CK132" s="29">
         <v>32.17452413432855</v>
       </c>
-      <c r="CL132" s="24">
+      <c r="CL132" s="29">
         <v>41.059833435824842</v>
       </c>
-      <c r="CM132" s="24">
+      <c r="CM132" s="29">
         <v>24.579961825176643</v>
       </c>
-      <c r="CN132" s="24">
+      <c r="CN132" s="29">
         <v>37.583387271163389</v>
       </c>
-      <c r="CO132" s="24">
+      <c r="CO132" s="29">
         <v>32.065007286746486</v>
       </c>
-      <c r="CP132" s="9"/>
+      <c r="CP132" s="29">
+        <v>43.413566764450003</v>
+      </c>
       <c r="CQ132" s="9"/>
       <c r="CR132" s="9"/>
       <c r="CS132" s="9"/>
@@ -38004,43 +38114,45 @@
       <c r="CC133" s="24">
         <v>26.983648847042975</v>
       </c>
-      <c r="CD133" s="24">
+      <c r="CD133" s="29">
         <v>30.491180718011023</v>
       </c>
-      <c r="CE133" s="24">
+      <c r="CE133" s="29">
         <v>8.2585843171245834</v>
       </c>
-      <c r="CF133" s="24">
+      <c r="CF133" s="29">
         <v>23.69548973998873</v>
       </c>
-      <c r="CG133" s="24">
+      <c r="CG133" s="29">
         <v>29.320635003806846</v>
       </c>
-      <c r="CH133" s="24">
+      <c r="CH133" s="29">
         <v>30.681860999137427</v>
       </c>
-      <c r="CI133" s="24">
+      <c r="CI133" s="29">
         <v>25.888806595379339</v>
       </c>
-      <c r="CJ133" s="24">
+      <c r="CJ133" s="29">
         <v>30.797588382601599</v>
       </c>
-      <c r="CK133" s="24">
+      <c r="CK133" s="29">
         <v>31.501704403661062</v>
       </c>
-      <c r="CL133" s="24">
+      <c r="CL133" s="29">
         <v>32.13644434958529</v>
       </c>
-      <c r="CM133" s="24">
+      <c r="CM133" s="29">
         <v>22.554248615646681</v>
       </c>
-      <c r="CN133" s="24">
+      <c r="CN133" s="29">
         <v>29.533904550437555</v>
       </c>
-      <c r="CO133" s="24">
+      <c r="CO133" s="29">
         <v>31.395838576671846</v>
       </c>
-      <c r="CP133" s="9"/>
+      <c r="CP133" s="29">
+        <v>31.990931816059632</v>
+      </c>
       <c r="CQ133" s="9"/>
       <c r="CR133" s="9"/>
       <c r="CS133" s="9"/>
@@ -38449,43 +38561,45 @@
       <c r="CC135" s="24">
         <v>100</v>
       </c>
-      <c r="CD135" s="24">
+      <c r="CD135" s="29">
         <v>100</v>
       </c>
-      <c r="CE135" s="24">
+      <c r="CE135" s="29">
         <v>100</v>
       </c>
-      <c r="CF135" s="24">
+      <c r="CF135" s="29">
         <v>100</v>
       </c>
-      <c r="CG135" s="24">
+      <c r="CG135" s="29">
         <v>100</v>
       </c>
-      <c r="CH135" s="24">
+      <c r="CH135" s="29">
         <v>100</v>
       </c>
-      <c r="CI135" s="24">
+      <c r="CI135" s="29">
         <v>100</v>
       </c>
-      <c r="CJ135" s="24">
+      <c r="CJ135" s="29">
         <v>100</v>
       </c>
-      <c r="CK135" s="24">
+      <c r="CK135" s="29">
         <v>100</v>
       </c>
-      <c r="CL135" s="24">
+      <c r="CL135" s="29">
         <v>100</v>
       </c>
-      <c r="CM135" s="24">
+      <c r="CM135" s="29">
         <v>100</v>
       </c>
-      <c r="CN135" s="24">
+      <c r="CN135" s="29">
         <v>100</v>
       </c>
-      <c r="CO135" s="24">
+      <c r="CO135" s="29">
         <v>100</v>
       </c>
-      <c r="CP135" s="9"/>
+      <c r="CP135" s="29">
+        <v>100</v>
+      </c>
       <c r="CQ135" s="9"/>
       <c r="CR135" s="9"/>
       <c r="CS135" s="9"/>
@@ -38615,6 +38729,7 @@
       <c r="CM136" s="12"/>
       <c r="CN136" s="12"/>
       <c r="CO136" s="12"/>
+      <c r="CP136" s="12"/>
     </row>
     <row r="137" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
@@ -38698,19 +38813,19 @@
       <c r="CA137" s="11"/>
       <c r="CB137" s="11"/>
       <c r="CC137" s="11"/>
-      <c r="CD137" s="11"/>
-      <c r="CE137" s="11"/>
-      <c r="CF137" s="11"/>
-      <c r="CG137" s="11"/>
-      <c r="CH137" s="11"/>
-      <c r="CI137" s="11"/>
-      <c r="CJ137" s="11"/>
-      <c r="CK137" s="11"/>
-      <c r="CL137" s="11"/>
-      <c r="CM137" s="11"/>
-      <c r="CN137" s="11"/>
-      <c r="CO137" s="11"/>
-      <c r="CP137" s="9"/>
+      <c r="CD137" s="27"/>
+      <c r="CE137" s="27"/>
+      <c r="CF137" s="27"/>
+      <c r="CG137" s="27"/>
+      <c r="CH137" s="27"/>
+      <c r="CI137" s="27"/>
+      <c r="CJ137" s="27"/>
+      <c r="CK137" s="27"/>
+      <c r="CL137" s="27"/>
+      <c r="CM137" s="27"/>
+      <c r="CN137" s="27"/>
+      <c r="CO137" s="27"/>
+      <c r="CP137" s="27"/>
       <c r="CQ137" s="9"/>
       <c r="CR137" s="9"/>
       <c r="CS137" s="9"/>
@@ -38828,19 +38943,19 @@
       <c r="CA138" s="11"/>
       <c r="CB138" s="11"/>
       <c r="CC138" s="11"/>
-      <c r="CD138" s="11"/>
-      <c r="CE138" s="11"/>
-      <c r="CF138" s="11"/>
-      <c r="CG138" s="11"/>
-      <c r="CH138" s="11"/>
-      <c r="CI138" s="11"/>
-      <c r="CJ138" s="11"/>
-      <c r="CK138" s="11"/>
-      <c r="CL138" s="11"/>
-      <c r="CM138" s="11"/>
-      <c r="CN138" s="11"/>
-      <c r="CO138" s="11"/>
-      <c r="CP138" s="9"/>
+      <c r="CD138" s="27"/>
+      <c r="CE138" s="27"/>
+      <c r="CF138" s="27"/>
+      <c r="CG138" s="27"/>
+      <c r="CH138" s="27"/>
+      <c r="CI138" s="27"/>
+      <c r="CJ138" s="27"/>
+      <c r="CK138" s="27"/>
+      <c r="CL138" s="27"/>
+      <c r="CM138" s="27"/>
+      <c r="CN138" s="27"/>
+      <c r="CO138" s="27"/>
+      <c r="CP138" s="27"/>
       <c r="CQ138" s="9"/>
       <c r="CR138" s="9"/>
       <c r="CS138" s="9"/>
@@ -38970,6 +39085,7 @@
       <c r="CM139" s="14"/>
       <c r="CN139" s="14"/>
       <c r="CO139" s="14"/>
+      <c r="CP139" s="14"/>
     </row>
     <row r="140" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
@@ -39251,7 +39367,7 @@
     </row>
     <row r="146" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="148" spans="1:128" x14ac:dyDescent="0.2">
@@ -39261,7 +39377,7 @@
     </row>
     <row r="149" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="150" spans="1:128" x14ac:dyDescent="0.2">
@@ -39271,144 +39387,147 @@
     </row>
     <row r="152" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
-      <c r="B152" s="25">
+      <c r="B152" s="30">
         <v>2000</v>
       </c>
-      <c r="C152" s="26"/>
-      <c r="D152" s="26"/>
-      <c r="E152" s="26"/>
-      <c r="F152" s="25">
+      <c r="C152" s="31"/>
+      <c r="D152" s="31"/>
+      <c r="E152" s="31"/>
+      <c r="F152" s="30">
         <v>2001</v>
       </c>
-      <c r="G152" s="26"/>
-      <c r="H152" s="26"/>
-      <c r="I152" s="26"/>
-      <c r="J152" s="25">
+      <c r="G152" s="31"/>
+      <c r="H152" s="31"/>
+      <c r="I152" s="31"/>
+      <c r="J152" s="30">
         <v>2002</v>
       </c>
-      <c r="K152" s="26"/>
-      <c r="L152" s="26"/>
-      <c r="M152" s="26"/>
-      <c r="N152" s="25">
+      <c r="K152" s="31"/>
+      <c r="L152" s="31"/>
+      <c r="M152" s="31"/>
+      <c r="N152" s="30">
         <v>2003</v>
       </c>
-      <c r="O152" s="26"/>
-      <c r="P152" s="26"/>
-      <c r="Q152" s="26"/>
-      <c r="R152" s="25">
+      <c r="O152" s="31"/>
+      <c r="P152" s="31"/>
+      <c r="Q152" s="31"/>
+      <c r="R152" s="30">
         <v>2004</v>
       </c>
-      <c r="S152" s="26"/>
-      <c r="T152" s="26"/>
-      <c r="U152" s="26"/>
-      <c r="V152" s="25">
+      <c r="S152" s="31"/>
+      <c r="T152" s="31"/>
+      <c r="U152" s="31"/>
+      <c r="V152" s="30">
         <v>2005</v>
       </c>
-      <c r="W152" s="26"/>
-      <c r="X152" s="26"/>
-      <c r="Y152" s="26"/>
-      <c r="Z152" s="25">
+      <c r="W152" s="31"/>
+      <c r="X152" s="31"/>
+      <c r="Y152" s="31"/>
+      <c r="Z152" s="30">
         <v>2006</v>
       </c>
-      <c r="AA152" s="26"/>
-      <c r="AB152" s="26"/>
-      <c r="AC152" s="26"/>
-      <c r="AD152" s="25">
+      <c r="AA152" s="31"/>
+      <c r="AB152" s="31"/>
+      <c r="AC152" s="31"/>
+      <c r="AD152" s="30">
         <v>2007</v>
       </c>
-      <c r="AE152" s="26"/>
-      <c r="AF152" s="26"/>
-      <c r="AG152" s="26"/>
-      <c r="AH152" s="25">
+      <c r="AE152" s="31"/>
+      <c r="AF152" s="31"/>
+      <c r="AG152" s="31"/>
+      <c r="AH152" s="30">
         <v>2008</v>
       </c>
-      <c r="AI152" s="26"/>
-      <c r="AJ152" s="26"/>
-      <c r="AK152" s="26"/>
-      <c r="AL152" s="25">
+      <c r="AI152" s="31"/>
+      <c r="AJ152" s="31"/>
+      <c r="AK152" s="31"/>
+      <c r="AL152" s="30">
         <v>2009</v>
       </c>
-      <c r="AM152" s="26"/>
-      <c r="AN152" s="26"/>
-      <c r="AO152" s="26"/>
-      <c r="AP152" s="25">
+      <c r="AM152" s="31"/>
+      <c r="AN152" s="31"/>
+      <c r="AO152" s="31"/>
+      <c r="AP152" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ152" s="26"/>
-      <c r="AR152" s="26"/>
-      <c r="AS152" s="26"/>
-      <c r="AT152" s="25">
+      <c r="AQ152" s="31"/>
+      <c r="AR152" s="31"/>
+      <c r="AS152" s="31"/>
+      <c r="AT152" s="30">
         <v>2011</v>
       </c>
-      <c r="AU152" s="26"/>
-      <c r="AV152" s="26"/>
-      <c r="AW152" s="26"/>
-      <c r="AX152" s="25">
+      <c r="AU152" s="31"/>
+      <c r="AV152" s="31"/>
+      <c r="AW152" s="31"/>
+      <c r="AX152" s="30">
         <v>2012</v>
       </c>
-      <c r="AY152" s="26"/>
-      <c r="AZ152" s="26"/>
-      <c r="BA152" s="26"/>
-      <c r="BB152" s="25">
+      <c r="AY152" s="31"/>
+      <c r="AZ152" s="31"/>
+      <c r="BA152" s="31"/>
+      <c r="BB152" s="30">
         <v>2013</v>
       </c>
-      <c r="BC152" s="26"/>
-      <c r="BD152" s="26"/>
-      <c r="BE152" s="26"/>
-      <c r="BF152" s="25">
+      <c r="BC152" s="31"/>
+      <c r="BD152" s="31"/>
+      <c r="BE152" s="31"/>
+      <c r="BF152" s="30">
         <v>2014</v>
       </c>
-      <c r="BG152" s="26"/>
-      <c r="BH152" s="26"/>
-      <c r="BI152" s="26"/>
-      <c r="BJ152" s="25">
+      <c r="BG152" s="31"/>
+      <c r="BH152" s="31"/>
+      <c r="BI152" s="31"/>
+      <c r="BJ152" s="30">
         <v>2015</v>
       </c>
-      <c r="BK152" s="26"/>
-      <c r="BL152" s="26"/>
-      <c r="BM152" s="26"/>
-      <c r="BN152" s="25">
+      <c r="BK152" s="31"/>
+      <c r="BL152" s="31"/>
+      <c r="BM152" s="31"/>
+      <c r="BN152" s="30">
         <v>2016</v>
       </c>
-      <c r="BO152" s="26"/>
-      <c r="BP152" s="26"/>
-      <c r="BQ152" s="26"/>
-      <c r="BR152" s="25">
+      <c r="BO152" s="31"/>
+      <c r="BP152" s="31"/>
+      <c r="BQ152" s="31"/>
+      <c r="BR152" s="30">
         <v>2017</v>
       </c>
-      <c r="BS152" s="26"/>
-      <c r="BT152" s="26"/>
-      <c r="BU152" s="26"/>
-      <c r="BV152" s="25">
+      <c r="BS152" s="31"/>
+      <c r="BT152" s="31"/>
+      <c r="BU152" s="31"/>
+      <c r="BV152" s="30">
         <v>2018</v>
       </c>
-      <c r="BW152" s="25"/>
-      <c r="BX152" s="25"/>
-      <c r="BY152" s="25"/>
-      <c r="BZ152" s="25">
+      <c r="BW152" s="30"/>
+      <c r="BX152" s="30"/>
+      <c r="BY152" s="30"/>
+      <c r="BZ152" s="30">
         <v>2019</v>
       </c>
-      <c r="CA152" s="25"/>
-      <c r="CB152" s="25"/>
-      <c r="CC152" s="25"/>
-      <c r="CD152" s="25">
+      <c r="CA152" s="30"/>
+      <c r="CB152" s="30"/>
+      <c r="CC152" s="30"/>
+      <c r="CD152" s="30">
         <v>2020</v>
       </c>
-      <c r="CE152" s="25"/>
-      <c r="CF152" s="25"/>
-      <c r="CG152" s="25"/>
-      <c r="CH152" s="25">
+      <c r="CE152" s="30"/>
+      <c r="CF152" s="30"/>
+      <c r="CG152" s="30"/>
+      <c r="CH152" s="30">
         <v>2021</v>
       </c>
-      <c r="CI152" s="25"/>
-      <c r="CJ152" s="25"/>
-      <c r="CK152" s="25"/>
-      <c r="CL152" s="25">
+      <c r="CI152" s="30"/>
+      <c r="CJ152" s="30"/>
+      <c r="CK152" s="30"/>
+      <c r="CL152" s="30">
         <v>2022</v>
       </c>
-      <c r="CM152" s="25"/>
-      <c r="CN152" s="25"/>
-      <c r="CO152" s="25"/>
+      <c r="CM152" s="30"/>
+      <c r="CN152" s="30"/>
+      <c r="CO152" s="30"/>
+      <c r="CP152" s="25">
+        <v>2023</v>
+      </c>
     </row>
     <row r="153" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
@@ -39689,6 +39808,9 @@
       </c>
       <c r="CO153" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="CP153" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -39938,43 +40060,45 @@
       <c r="CC155" s="24">
         <v>27.172756967259254</v>
       </c>
-      <c r="CD155" s="24">
+      <c r="CD155" s="29">
         <v>19.075678654540564</v>
       </c>
-      <c r="CE155" s="24">
+      <c r="CE155" s="29">
         <v>46.999527459019305</v>
       </c>
-      <c r="CF155" s="24">
+      <c r="CF155" s="29">
         <v>27.30315705828464</v>
       </c>
-      <c r="CG155" s="24">
+      <c r="CG155" s="29">
         <v>35.06232978185173</v>
       </c>
-      <c r="CH155" s="24">
+      <c r="CH155" s="29">
         <v>31.980838906039533</v>
       </c>
-      <c r="CI155" s="24">
+      <c r="CI155" s="29">
         <v>48.964419006378421</v>
       </c>
-      <c r="CJ155" s="24">
+      <c r="CJ155" s="29">
         <v>33.748921218646224</v>
       </c>
-      <c r="CK155" s="24">
+      <c r="CK155" s="29">
         <v>35.836459546224845</v>
       </c>
-      <c r="CL155" s="24">
+      <c r="CL155" s="29">
         <v>25.923439178881825</v>
       </c>
-      <c r="CM155" s="24">
+      <c r="CM155" s="29">
         <v>52.803593907697078</v>
       </c>
-      <c r="CN155" s="24">
+      <c r="CN155" s="29">
         <v>33.350839092932823</v>
       </c>
-      <c r="CO155" s="24">
+      <c r="CO155" s="29">
         <v>36.099136307792435</v>
       </c>
-      <c r="CP155" s="9"/>
+      <c r="CP155" s="29">
+        <v>23.757268701097537</v>
+      </c>
       <c r="CQ155" s="9"/>
       <c r="CR155" s="9"/>
       <c r="CS155" s="9"/>
@@ -40254,43 +40378,45 @@
       <c r="CC156" s="24">
         <v>43.607326389644903</v>
       </c>
-      <c r="CD156" s="24">
+      <c r="CD156" s="29">
         <v>52.28486990589758</v>
       </c>
-      <c r="CE156" s="24">
+      <c r="CE156" s="29">
         <v>45.058248853289889</v>
       </c>
-      <c r="CF156" s="24">
+      <c r="CF156" s="29">
         <v>48.876815057701165</v>
       </c>
-      <c r="CG156" s="24">
+      <c r="CG156" s="29">
         <v>33.387744525126251</v>
       </c>
-      <c r="CH156" s="24">
+      <c r="CH156" s="29">
         <v>38.83809465038852</v>
       </c>
-      <c r="CI156" s="24">
+      <c r="CI156" s="29">
         <v>25.869824705499013</v>
       </c>
-      <c r="CJ156" s="24">
+      <c r="CJ156" s="29">
         <v>35.471653276000943</v>
       </c>
-      <c r="CK156" s="24">
+      <c r="CK156" s="29">
         <v>30.449229789683656</v>
       </c>
-      <c r="CL156" s="24">
+      <c r="CL156" s="29">
         <v>43.66949494115476</v>
       </c>
-      <c r="CM156" s="24">
+      <c r="CM156" s="29">
         <v>25.310712934713266</v>
       </c>
-      <c r="CN156" s="24">
+      <c r="CN156" s="29">
         <v>36.654570456385606</v>
       </c>
-      <c r="CO156" s="24">
+      <c r="CO156" s="29">
         <v>30.357449980888042</v>
       </c>
-      <c r="CP156" s="9"/>
+      <c r="CP156" s="29">
+        <v>46.101228859036894</v>
+      </c>
       <c r="CQ156" s="9"/>
       <c r="CR156" s="9"/>
       <c r="CS156" s="9"/>
@@ -40570,43 +40696,45 @@
       <c r="CC157" s="24">
         <v>29.219916643095843</v>
       </c>
-      <c r="CD157" s="24">
+      <c r="CD157" s="29">
         <v>28.639451439561864</v>
       </c>
-      <c r="CE157" s="24">
+      <c r="CE157" s="29">
         <v>7.9422236876908219</v>
       </c>
-      <c r="CF157" s="24">
+      <c r="CF157" s="29">
         <v>23.820027884014191</v>
       </c>
-      <c r="CG157" s="24">
+      <c r="CG157" s="29">
         <v>31.549925693022008</v>
       </c>
-      <c r="CH157" s="24">
+      <c r="CH157" s="29">
         <v>29.18106644357194</v>
       </c>
-      <c r="CI157" s="24">
+      <c r="CI157" s="29">
         <v>25.165756288122559</v>
       </c>
-      <c r="CJ157" s="24">
+      <c r="CJ157" s="29">
         <v>30.779425505352837</v>
       </c>
-      <c r="CK157" s="24">
+      <c r="CK157" s="29">
         <v>33.714310664091506</v>
       </c>
-      <c r="CL157" s="24">
+      <c r="CL157" s="29">
         <v>30.407065879963426</v>
       </c>
-      <c r="CM157" s="24">
+      <c r="CM157" s="29">
         <v>21.885693157589664</v>
       </c>
-      <c r="CN157" s="24">
+      <c r="CN157" s="29">
         <v>29.994590450681574</v>
       </c>
-      <c r="CO157" s="24">
+      <c r="CO157" s="29">
         <v>33.543413711319538</v>
       </c>
-      <c r="CP157" s="9"/>
+      <c r="CP157" s="29">
+        <v>30.141502439865569</v>
+      </c>
       <c r="CQ157" s="9"/>
       <c r="CR157" s="9"/>
       <c r="CS157" s="9"/>
@@ -41015,43 +41143,45 @@
       <c r="CC159" s="24">
         <v>100</v>
       </c>
-      <c r="CD159" s="24">
+      <c r="CD159" s="29">
         <v>100</v>
       </c>
-      <c r="CE159" s="24">
+      <c r="CE159" s="29">
         <v>100</v>
       </c>
-      <c r="CF159" s="24">
+      <c r="CF159" s="29">
         <v>100</v>
       </c>
-      <c r="CG159" s="24">
+      <c r="CG159" s="29">
         <v>100</v>
       </c>
-      <c r="CH159" s="24">
+      <c r="CH159" s="29">
         <v>100</v>
       </c>
-      <c r="CI159" s="24">
+      <c r="CI159" s="29">
         <v>100</v>
       </c>
-      <c r="CJ159" s="24">
+      <c r="CJ159" s="29">
         <v>100</v>
       </c>
-      <c r="CK159" s="24">
+      <c r="CK159" s="29">
         <v>100</v>
       </c>
-      <c r="CL159" s="24">
+      <c r="CL159" s="29">
         <v>100</v>
       </c>
-      <c r="CM159" s="24">
+      <c r="CM159" s="29">
         <v>100</v>
       </c>
-      <c r="CN159" s="24">
+      <c r="CN159" s="29">
         <v>100</v>
       </c>
-      <c r="CO159" s="24">
+      <c r="CO159" s="29">
         <v>100</v>
       </c>
-      <c r="CP159" s="9"/>
+      <c r="CP159" s="29">
+        <v>100</v>
+      </c>
       <c r="CQ159" s="9"/>
       <c r="CR159" s="9"/>
       <c r="CS159" s="9"/>
@@ -41181,6 +41311,7 @@
       <c r="CM160" s="12"/>
       <c r="CN160" s="12"/>
       <c r="CO160" s="12"/>
+      <c r="CP160" s="12"/>
     </row>
     <row r="161" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
@@ -41264,19 +41395,19 @@
       <c r="CA161" s="11"/>
       <c r="CB161" s="11"/>
       <c r="CC161" s="11"/>
-      <c r="CD161" s="11"/>
-      <c r="CE161" s="11"/>
-      <c r="CF161" s="11"/>
-      <c r="CG161" s="11"/>
-      <c r="CH161" s="11"/>
-      <c r="CI161" s="11"/>
-      <c r="CJ161" s="11"/>
-      <c r="CK161" s="11"/>
-      <c r="CL161" s="11"/>
-      <c r="CM161" s="11"/>
-      <c r="CN161" s="11"/>
-      <c r="CO161" s="11"/>
-      <c r="CP161" s="9"/>
+      <c r="CD161" s="27"/>
+      <c r="CE161" s="27"/>
+      <c r="CF161" s="27"/>
+      <c r="CG161" s="27"/>
+      <c r="CH161" s="27"/>
+      <c r="CI161" s="27"/>
+      <c r="CJ161" s="27"/>
+      <c r="CK161" s="27"/>
+      <c r="CL161" s="27"/>
+      <c r="CM161" s="27"/>
+      <c r="CN161" s="27"/>
+      <c r="CO161" s="27"/>
+      <c r="CP161" s="27"/>
       <c r="CQ161" s="9"/>
       <c r="CR161" s="9"/>
       <c r="CS161" s="9"/>
@@ -41394,19 +41525,19 @@
       <c r="CA162" s="11"/>
       <c r="CB162" s="11"/>
       <c r="CC162" s="11"/>
-      <c r="CD162" s="11"/>
-      <c r="CE162" s="11"/>
-      <c r="CF162" s="11"/>
-      <c r="CG162" s="11"/>
-      <c r="CH162" s="11"/>
-      <c r="CI162" s="11"/>
-      <c r="CJ162" s="11"/>
-      <c r="CK162" s="11"/>
-      <c r="CL162" s="11"/>
-      <c r="CM162" s="11"/>
-      <c r="CN162" s="11"/>
-      <c r="CO162" s="11"/>
-      <c r="CP162" s="9"/>
+      <c r="CD162" s="27"/>
+      <c r="CE162" s="27"/>
+      <c r="CF162" s="27"/>
+      <c r="CG162" s="27"/>
+      <c r="CH162" s="27"/>
+      <c r="CI162" s="27"/>
+      <c r="CJ162" s="27"/>
+      <c r="CK162" s="27"/>
+      <c r="CL162" s="27"/>
+      <c r="CM162" s="27"/>
+      <c r="CN162" s="27"/>
+      <c r="CO162" s="27"/>
+      <c r="CP162" s="27"/>
       <c r="CQ162" s="9"/>
       <c r="CR162" s="9"/>
       <c r="CS162" s="9"/>
@@ -41536,6 +41667,7 @@
       <c r="CM163" s="14"/>
       <c r="CN163" s="14"/>
       <c r="CO163" s="14"/>
+      <c r="CP163" s="14"/>
     </row>
     <row r="164" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
@@ -41548,9 +41680,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="161">
-    <mergeCell ref="BZ81:CC81"/>
-    <mergeCell ref="BV104:BY104"/>
+  <mergeCells count="159">
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -41573,8 +41703,6 @@
     <mergeCell ref="AD33:AG33"/>
     <mergeCell ref="AH33:AK33"/>
     <mergeCell ref="AL33:AO33"/>
-    <mergeCell ref="BR33:BU33"/>
-    <mergeCell ref="BV33:BY33"/>
     <mergeCell ref="V9:Y9"/>
     <mergeCell ref="Z9:AC9"/>
     <mergeCell ref="AD9:AG9"/>
@@ -41597,23 +41725,6 @@
     <mergeCell ref="AH9:AK9"/>
     <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="V57:Y57"/>
-    <mergeCell ref="BN81:BQ81"/>
-    <mergeCell ref="BB57:BE57"/>
-    <mergeCell ref="BF57:BI57"/>
-    <mergeCell ref="BJ57:BM57"/>
-    <mergeCell ref="BN57:BQ57"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="N81:Q81"/>
-    <mergeCell ref="R81:U81"/>
-    <mergeCell ref="V81:Y81"/>
-    <mergeCell ref="Z81:AC81"/>
-    <mergeCell ref="AD81:AG81"/>
-    <mergeCell ref="AH81:AK81"/>
-    <mergeCell ref="AL81:AO81"/>
-    <mergeCell ref="AP81:AS81"/>
-    <mergeCell ref="AT81:AW81"/>
     <mergeCell ref="B57:E57"/>
     <mergeCell ref="F57:I57"/>
     <mergeCell ref="J57:M57"/>
@@ -41621,6 +41732,8 @@
     <mergeCell ref="R57:U57"/>
     <mergeCell ref="AH57:AK57"/>
     <mergeCell ref="Z57:AC57"/>
+    <mergeCell ref="BR33:BU33"/>
+    <mergeCell ref="BV33:BY33"/>
     <mergeCell ref="B104:E104"/>
     <mergeCell ref="F104:I104"/>
     <mergeCell ref="J104:M104"/>
@@ -41634,6 +41747,17 @@
     <mergeCell ref="AD104:AG104"/>
     <mergeCell ref="AH104:AK104"/>
     <mergeCell ref="AL104:AO104"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="R81:U81"/>
+    <mergeCell ref="V81:Y81"/>
+    <mergeCell ref="Z81:AC81"/>
+    <mergeCell ref="AD81:AG81"/>
+    <mergeCell ref="AH81:AK81"/>
+    <mergeCell ref="AL81:AO81"/>
+    <mergeCell ref="AP81:AS81"/>
     <mergeCell ref="AD57:AG57"/>
     <mergeCell ref="BJ81:BM81"/>
     <mergeCell ref="AP128:AS128"/>
@@ -41644,6 +41768,22 @@
     <mergeCell ref="AT104:AW104"/>
     <mergeCell ref="AX104:BA104"/>
     <mergeCell ref="BB104:BE104"/>
+    <mergeCell ref="BB57:BE57"/>
+    <mergeCell ref="BF57:BI57"/>
+    <mergeCell ref="BJ57:BM57"/>
+    <mergeCell ref="AT81:AW81"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="N128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:Y128"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AG128"/>
+    <mergeCell ref="BB152:BE152"/>
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="F152:I152"/>
+    <mergeCell ref="J152:M152"/>
     <mergeCell ref="N152:Q152"/>
     <mergeCell ref="R152:U152"/>
     <mergeCell ref="V152:Y152"/>
@@ -41653,20 +41793,18 @@
     <mergeCell ref="AH128:AK128"/>
     <mergeCell ref="AL128:AO128"/>
     <mergeCell ref="AL152:AO152"/>
+    <mergeCell ref="BV152:BY152"/>
+    <mergeCell ref="BZ152:CC152"/>
+    <mergeCell ref="BV128:BY128"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ33:CC33"/>
+    <mergeCell ref="BV57:BY57"/>
+    <mergeCell ref="BZ57:CC57"/>
     <mergeCell ref="AP152:AS152"/>
     <mergeCell ref="AT152:AW152"/>
     <mergeCell ref="AX152:BA152"/>
     <mergeCell ref="BJ104:BM104"/>
     <mergeCell ref="BN104:BQ104"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="J128:M128"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:Y128"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AG128"/>
-    <mergeCell ref="BB152:BE152"/>
     <mergeCell ref="BF152:BI152"/>
     <mergeCell ref="BJ152:BM152"/>
     <mergeCell ref="BN152:BQ152"/>
@@ -41674,9 +41812,17 @@
     <mergeCell ref="BJ128:BM128"/>
     <mergeCell ref="BN128:BQ128"/>
     <mergeCell ref="BF104:BI104"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="F152:I152"/>
-    <mergeCell ref="J152:M152"/>
+    <mergeCell ref="BN81:BQ81"/>
+    <mergeCell ref="BN57:BQ57"/>
+    <mergeCell ref="BZ81:CC81"/>
+    <mergeCell ref="BV104:BY104"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL33:CO33"/>
+    <mergeCell ref="CH57:CK57"/>
+    <mergeCell ref="CH81:CK81"/>
+    <mergeCell ref="CL104:CO104"/>
+    <mergeCell ref="CL128:CO128"/>
+    <mergeCell ref="CL152:CO152"/>
     <mergeCell ref="BR152:BU152"/>
     <mergeCell ref="BR128:BU128"/>
     <mergeCell ref="BR104:BU104"/>
@@ -41694,22 +41840,6 @@
     <mergeCell ref="CD33:CG33"/>
     <mergeCell ref="BZ128:CC128"/>
     <mergeCell ref="BZ104:CC104"/>
-    <mergeCell ref="BV152:BY152"/>
-    <mergeCell ref="BZ152:CC152"/>
-    <mergeCell ref="BV128:BY128"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ33:CC33"/>
-    <mergeCell ref="BV57:BY57"/>
-    <mergeCell ref="BZ57:CC57"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL33:CO33"/>
-    <mergeCell ref="CH57:CK57"/>
-    <mergeCell ref="CH81:CK81"/>
-    <mergeCell ref="CL104:CO104"/>
-    <mergeCell ref="CL128:CO128"/>
-    <mergeCell ref="CL152:CO152"/>
-    <mergeCell ref="CL57:CO57"/>
-    <mergeCell ref="CL81:CO81"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.11811023622047245" top="0.51181102362204722" bottom="0.15748031496062992" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C93AAB-C8DC-4CD6-AE16-DFCE2B8C66F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D9969D-3DB6-498D-818C-BA5A8C9649B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="780" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNS" sheetId="6" r:id="rId1"/>
@@ -326,7 +326,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$CO$167</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$CQ$167</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -629,13 +629,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of May 2023</t>
+    <t>As of August 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2023</t>
+    <t>Q1 2000 to Q2 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2023</t>
+    <t>Q1 2001 to Q2 2023</t>
   </si>
 </sst>
 </file>
@@ -773,9 +773,6 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
@@ -784,6 +781,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23634,19 +23634,19 @@
   </sheetPr>
   <dimension ref="A1:DX165"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BX3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="CG3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
       <selection pane="topRight" activeCell="N19" sqref="N19"/>
       <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
-      <selection pane="bottomRight" activeCell="CD1" sqref="CD1:CP1048576"/>
+      <selection pane="bottomRight" activeCell="CQ6" sqref="CQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.21875" style="1" customWidth="1"/>
-    <col min="2" max="94" width="8.77734375" style="1" customWidth="1"/>
-    <col min="95" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="95" width="9.77734375" style="1" customWidth="1"/>
+    <col min="96" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.2">
@@ -23681,147 +23681,148 @@
     </row>
     <row r="9" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="30">
+      <c r="B9" s="29">
         <v>2000</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29">
         <v>2001</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30">
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29">
         <v>2002</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30">
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29">
         <v>2003</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30">
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29">
         <v>2004</v>
       </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30">
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29">
         <v>2005</v>
       </c>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30">
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29">
         <v>2006</v>
       </c>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30">
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29">
         <v>2007</v>
       </c>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30">
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29">
         <v>2008</v>
       </c>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30">
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29">
         <v>2009</v>
       </c>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30">
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29"/>
+      <c r="AP9" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="30"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="30"/>
-      <c r="AT9" s="30">
+      <c r="AQ9" s="29"/>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="29">
         <v>2011</v>
       </c>
-      <c r="AU9" s="30"/>
-      <c r="AV9" s="30"/>
-      <c r="AW9" s="30"/>
-      <c r="AX9" s="30">
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="29"/>
+      <c r="AW9" s="29"/>
+      <c r="AX9" s="29">
         <v>2012</v>
       </c>
-      <c r="AY9" s="30"/>
-      <c r="AZ9" s="30"/>
-      <c r="BA9" s="30"/>
-      <c r="BB9" s="30">
+      <c r="AY9" s="29"/>
+      <c r="AZ9" s="29"/>
+      <c r="BA9" s="29"/>
+      <c r="BB9" s="29">
         <v>2013</v>
       </c>
-      <c r="BC9" s="30"/>
-      <c r="BD9" s="30"/>
-      <c r="BE9" s="30"/>
-      <c r="BF9" s="30">
+      <c r="BC9" s="29"/>
+      <c r="BD9" s="29"/>
+      <c r="BE9" s="29"/>
+      <c r="BF9" s="29">
         <v>2014</v>
       </c>
-      <c r="BG9" s="30"/>
-      <c r="BH9" s="30"/>
-      <c r="BI9" s="30"/>
-      <c r="BJ9" s="30">
+      <c r="BG9" s="29"/>
+      <c r="BH9" s="29"/>
+      <c r="BI9" s="29"/>
+      <c r="BJ9" s="29">
         <v>2015</v>
       </c>
-      <c r="BK9" s="30"/>
-      <c r="BL9" s="30"/>
-      <c r="BM9" s="30"/>
-      <c r="BN9" s="30">
+      <c r="BK9" s="29"/>
+      <c r="BL9" s="29"/>
+      <c r="BM9" s="29"/>
+      <c r="BN9" s="29">
         <v>2016</v>
       </c>
-      <c r="BO9" s="30"/>
-      <c r="BP9" s="30"/>
-      <c r="BQ9" s="30"/>
-      <c r="BR9" s="30">
+      <c r="BO9" s="29"/>
+      <c r="BP9" s="29"/>
+      <c r="BQ9" s="29"/>
+      <c r="BR9" s="29">
         <v>2017</v>
       </c>
-      <c r="BS9" s="30"/>
-      <c r="BT9" s="30"/>
-      <c r="BU9" s="30"/>
-      <c r="BV9" s="30">
+      <c r="BS9" s="29"/>
+      <c r="BT9" s="29"/>
+      <c r="BU9" s="29"/>
+      <c r="BV9" s="29">
         <v>2018</v>
       </c>
-      <c r="BW9" s="30"/>
-      <c r="BX9" s="30"/>
-      <c r="BY9" s="30"/>
-      <c r="BZ9" s="30">
+      <c r="BW9" s="29"/>
+      <c r="BX9" s="29"/>
+      <c r="BY9" s="29"/>
+      <c r="BZ9" s="29">
         <v>2019</v>
       </c>
-      <c r="CA9" s="30"/>
-      <c r="CB9" s="30"/>
-      <c r="CC9" s="30"/>
-      <c r="CD9" s="30">
+      <c r="CA9" s="29"/>
+      <c r="CB9" s="29"/>
+      <c r="CC9" s="29"/>
+      <c r="CD9" s="29">
         <v>2020</v>
       </c>
-      <c r="CE9" s="30"/>
-      <c r="CF9" s="30"/>
-      <c r="CG9" s="30"/>
-      <c r="CH9" s="30">
+      <c r="CE9" s="29"/>
+      <c r="CF9" s="29"/>
+      <c r="CG9" s="29"/>
+      <c r="CH9" s="29">
         <v>2021</v>
       </c>
-      <c r="CI9" s="30"/>
-      <c r="CJ9" s="30"/>
-      <c r="CK9" s="30"/>
-      <c r="CL9" s="30">
+      <c r="CI9" s="29"/>
+      <c r="CJ9" s="29"/>
+      <c r="CK9" s="29"/>
+      <c r="CL9" s="29">
         <v>2022</v>
       </c>
-      <c r="CM9" s="30"/>
-      <c r="CN9" s="30"/>
-      <c r="CO9" s="30"/>
-      <c r="CP9" s="25">
+      <c r="CM9" s="29"/>
+      <c r="CN9" s="29"/>
+      <c r="CO9" s="29"/>
+      <c r="CP9" s="29">
         <v>2023</v>
       </c>
+      <c r="CQ9" s="31"/>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24105,6 +24106,9 @@
       </c>
       <c r="CP10" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="CQ10" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24354,46 +24358,48 @@
       <c r="CC12" s="8">
         <v>248629.84021990074</v>
       </c>
-      <c r="CD12" s="26">
+      <c r="CD12" s="25">
         <v>132698.19821859145</v>
       </c>
-      <c r="CE12" s="26">
+      <c r="CE12" s="25">
         <v>276832.39630217513</v>
       </c>
-      <c r="CF12" s="26">
+      <c r="CF12" s="25">
         <v>130134.4649311664</v>
       </c>
-      <c r="CG12" s="26">
+      <c r="CG12" s="25">
         <v>210311.28246687539</v>
       </c>
-      <c r="CH12" s="26">
+      <c r="CH12" s="25">
         <v>167823.36198890334</v>
       </c>
-      <c r="CI12" s="26">
+      <c r="CI12" s="25">
         <v>406200.00668774155</v>
       </c>
-      <c r="CJ12" s="26">
+      <c r="CJ12" s="25">
         <v>208177.27255225484</v>
       </c>
-      <c r="CK12" s="26">
+      <c r="CK12" s="25">
         <v>259490.65451354504</v>
       </c>
-      <c r="CL12" s="26">
+      <c r="CL12" s="25">
         <v>164307.15015984167</v>
       </c>
-      <c r="CM12" s="26">
+      <c r="CM12" s="25">
         <v>546170.86620424606</v>
       </c>
-      <c r="CN12" s="26">
+      <c r="CN12" s="25">
         <v>249542.34708000725</v>
       </c>
-      <c r="CO12" s="26">
+      <c r="CO12" s="25">
         <v>302775.061641315</v>
       </c>
-      <c r="CP12" s="26">
-        <v>180159.79247020729</v>
-      </c>
-      <c r="CQ12" s="9"/>
+      <c r="CP12" s="25">
+        <v>180848.80571287472</v>
+      </c>
+      <c r="CQ12" s="25">
+        <v>570719.18353323091</v>
+      </c>
       <c r="CR12" s="9"/>
       <c r="CS12" s="9"/>
       <c r="CT12" s="9"/>
@@ -24672,46 +24678,48 @@
       <c r="CC13" s="8">
         <v>416586.32323216199</v>
       </c>
-      <c r="CD13" s="26">
+      <c r="CD13" s="25">
         <v>330868.83377576957</v>
       </c>
-      <c r="CE13" s="26">
+      <c r="CE13" s="25">
         <v>258688.65473987217</v>
       </c>
-      <c r="CF13" s="26">
+      <c r="CF13" s="25">
         <v>242366.51672852226</v>
       </c>
-      <c r="CG13" s="26">
+      <c r="CG13" s="25">
         <v>208922.74558363974</v>
       </c>
-      <c r="CH13" s="26">
+      <c r="CH13" s="25">
         <v>185257.16326720259</v>
       </c>
-      <c r="CI13" s="26">
+      <c r="CI13" s="25">
         <v>207932.4373119412</v>
       </c>
-      <c r="CJ13" s="26">
+      <c r="CJ13" s="25">
         <v>227365.12211063612</v>
       </c>
-      <c r="CK13" s="26">
+      <c r="CK13" s="25">
         <v>229849.15911087734</v>
       </c>
-      <c r="CL13" s="26">
+      <c r="CL13" s="25">
         <v>251697.28905062028</v>
       </c>
-      <c r="CM13" s="26">
+      <c r="CM13" s="25">
         <v>253942.27823452008</v>
       </c>
-      <c r="CN13" s="26">
+      <c r="CN13" s="25">
         <v>285215.15381217585</v>
       </c>
-      <c r="CO13" s="26">
+      <c r="CO13" s="25">
         <v>265700.85671616852</v>
       </c>
-      <c r="CP13" s="26">
-        <v>318000.39549008146</v>
-      </c>
-      <c r="CQ13" s="9"/>
+      <c r="CP13" s="25">
+        <v>318678.11105415632</v>
+      </c>
+      <c r="CQ13" s="25">
+        <v>289848.18436205114</v>
+      </c>
       <c r="CR13" s="9"/>
       <c r="CS13" s="9"/>
       <c r="CT13" s="9"/>
@@ -24990,46 +24998,48 @@
       <c r="CC14" s="8">
         <v>245834.79013304078</v>
       </c>
-      <c r="CD14" s="26">
+      <c r="CD14" s="25">
         <v>203351.26237879609</v>
       </c>
-      <c r="CE14" s="26">
+      <c r="CE14" s="25">
         <v>48207.733886664479</v>
       </c>
-      <c r="CF14" s="26">
+      <c r="CF14" s="25">
         <v>115675.90380930096</v>
       </c>
-      <c r="CG14" s="26">
+      <c r="CG14" s="25">
         <v>173915.08707395635</v>
       </c>
-      <c r="CH14" s="26">
+      <c r="CH14" s="25">
         <v>156281.85859512861</v>
       </c>
-      <c r="CI14" s="26">
+      <c r="CI14" s="25">
         <v>214531.10301235743</v>
       </c>
-      <c r="CJ14" s="26">
+      <c r="CJ14" s="25">
         <v>193832.1957356174</v>
       </c>
-      <c r="CK14" s="26">
+      <c r="CK14" s="25">
         <v>225042.65292351373</v>
       </c>
-      <c r="CL14" s="26">
+      <c r="CL14" s="25">
         <v>196996.8030961217</v>
       </c>
-      <c r="CM14" s="26">
+      <c r="CM14" s="25">
         <v>233014.08350677649</v>
       </c>
-      <c r="CN14" s="26">
+      <c r="CN14" s="25">
         <v>224128.73720645937</v>
       </c>
-      <c r="CO14" s="26">
+      <c r="CO14" s="25">
         <v>260155.91178712202</v>
       </c>
-      <c r="CP14" s="26">
-        <v>234330.64195807211</v>
-      </c>
-      <c r="CQ14" s="9"/>
+      <c r="CP14" s="25">
+        <v>235310.47459070696</v>
+      </c>
+      <c r="CQ14" s="25">
+        <v>231873.07244582486</v>
+      </c>
       <c r="CR14" s="9"/>
       <c r="CS14" s="9"/>
       <c r="CT14" s="9"/>
@@ -25437,46 +25447,48 @@
       <c r="CC16" s="11">
         <v>911050.9535851035</v>
       </c>
-      <c r="CD16" s="27">
+      <c r="CD16" s="26">
         <v>666918.29437315708</v>
       </c>
-      <c r="CE16" s="27">
+      <c r="CE16" s="26">
         <v>583728.78492871183</v>
       </c>
-      <c r="CF16" s="27">
+      <c r="CF16" s="26">
         <v>488176.88546898961</v>
       </c>
-      <c r="CG16" s="27">
+      <c r="CG16" s="26">
         <v>593149.11512447149</v>
       </c>
-      <c r="CH16" s="27">
+      <c r="CH16" s="26">
         <v>509362.38385123457</v>
       </c>
-      <c r="CI16" s="27">
+      <c r="CI16" s="26">
         <v>828663.54701204016</v>
       </c>
-      <c r="CJ16" s="27">
+      <c r="CJ16" s="26">
         <v>629374.59039850836</v>
       </c>
-      <c r="CK16" s="27">
+      <c r="CK16" s="26">
         <v>714382.4665479362</v>
       </c>
-      <c r="CL16" s="27">
+      <c r="CL16" s="26">
         <v>613001.24230658356</v>
       </c>
-      <c r="CM16" s="27">
+      <c r="CM16" s="26">
         <v>1033127.2279455427</v>
       </c>
-      <c r="CN16" s="27">
+      <c r="CN16" s="26">
         <v>758886.23809864244</v>
       </c>
-      <c r="CO16" s="27">
+      <c r="CO16" s="26">
         <v>828631.8301446056</v>
       </c>
-      <c r="CP16" s="27">
-        <v>732490.8299183608</v>
-      </c>
-      <c r="CQ16" s="9"/>
+      <c r="CP16" s="26">
+        <v>734837.39135773806</v>
+      </c>
+      <c r="CQ16" s="26">
+        <v>1092440.4403411071</v>
+      </c>
       <c r="CR16" s="9"/>
       <c r="CS16" s="9"/>
       <c r="CT16" s="9"/>
@@ -25606,6 +25618,7 @@
       <c r="CN17" s="12"/>
       <c r="CO17" s="12"/>
       <c r="CP17" s="12"/>
+      <c r="CQ17" s="12"/>
     </row>
     <row r="18" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
@@ -25689,20 +25702,20 @@
       <c r="CA18" s="11"/>
       <c r="CB18" s="11"/>
       <c r="CC18" s="11"/>
-      <c r="CD18" s="27"/>
-      <c r="CE18" s="27"/>
-      <c r="CF18" s="27"/>
-      <c r="CG18" s="27"/>
-      <c r="CH18" s="27"/>
-      <c r="CI18" s="27"/>
-      <c r="CJ18" s="27"/>
-      <c r="CK18" s="27"/>
-      <c r="CL18" s="27"/>
-      <c r="CM18" s="27"/>
-      <c r="CN18" s="27"/>
-      <c r="CO18" s="27"/>
-      <c r="CP18" s="27"/>
-      <c r="CQ18" s="9"/>
+      <c r="CD18" s="26"/>
+      <c r="CE18" s="26"/>
+      <c r="CF18" s="26"/>
+      <c r="CG18" s="26"/>
+      <c r="CH18" s="26"/>
+      <c r="CI18" s="26"/>
+      <c r="CJ18" s="26"/>
+      <c r="CK18" s="26"/>
+      <c r="CL18" s="26"/>
+      <c r="CM18" s="26"/>
+      <c r="CN18" s="26"/>
+      <c r="CO18" s="26"/>
+      <c r="CP18" s="26"/>
+      <c r="CQ18" s="26"/>
       <c r="CR18" s="9"/>
       <c r="CS18" s="9"/>
       <c r="CT18" s="9"/>
@@ -25981,46 +25994,48 @@
       <c r="CC19" s="8">
         <v>427341.14492701343</v>
       </c>
-      <c r="CD19" s="26">
+      <c r="CD19" s="25">
         <v>306719.55537231447</v>
       </c>
-      <c r="CE19" s="26">
+      <c r="CE19" s="25">
         <v>308552.58688590105</v>
       </c>
-      <c r="CF19" s="26">
+      <c r="CF19" s="25">
         <v>241903.95384276524</v>
       </c>
-      <c r="CG19" s="26">
+      <c r="CG19" s="25">
         <v>323023.33799660718</v>
       </c>
-      <c r="CH19" s="26">
+      <c r="CH19" s="25">
         <v>235502.32164785988</v>
       </c>
-      <c r="CI19" s="26">
+      <c r="CI19" s="25">
         <v>408088.21661154606</v>
       </c>
-      <c r="CJ19" s="26">
+      <c r="CJ19" s="25">
         <v>304116.808840035</v>
       </c>
-      <c r="CK19" s="26">
+      <c r="CK19" s="25">
         <v>399601.70931168634</v>
       </c>
-      <c r="CL19" s="26">
+      <c r="CL19" s="25">
         <v>288028.2565183072</v>
       </c>
-      <c r="CM19" s="26">
+      <c r="CM19" s="25">
         <v>517808.59790224989</v>
       </c>
-      <c r="CN19" s="26">
+      <c r="CN19" s="25">
         <v>359076.63956197811</v>
       </c>
-      <c r="CO19" s="26">
+      <c r="CO19" s="25">
         <v>448727.63471485535</v>
       </c>
-      <c r="CP19" s="26">
-        <v>337796.08637852548</v>
-      </c>
-      <c r="CQ19" s="9"/>
+      <c r="CP19" s="25">
+        <v>338809.94468946068</v>
+      </c>
+      <c r="CQ19" s="25">
+        <v>560127.79312927881</v>
+      </c>
       <c r="CR19" s="9"/>
       <c r="CS19" s="9"/>
       <c r="CT19" s="9"/>
@@ -26150,6 +26165,7 @@
       <c r="CN20" s="14"/>
       <c r="CO20" s="14"/>
       <c r="CP20" s="14"/>
+      <c r="CQ20" s="14"/>
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
@@ -26213,147 +26229,148 @@
     </row>
     <row r="33" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="30">
+      <c r="B33" s="29">
         <v>2000</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="30">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="29">
         <v>2001</v>
       </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="30">
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="29">
         <v>2002</v>
       </c>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="30">
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="29">
         <v>2003</v>
       </c>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="30">
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="29">
         <v>2004</v>
       </c>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="30">
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="29">
         <v>2005</v>
       </c>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="30">
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="29">
         <v>2006</v>
       </c>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="31"/>
-      <c r="AC33" s="31"/>
-      <c r="AD33" s="30">
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="29">
         <v>2007</v>
       </c>
-      <c r="AE33" s="31"/>
-      <c r="AF33" s="31"/>
-      <c r="AG33" s="31"/>
-      <c r="AH33" s="30">
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="30"/>
+      <c r="AG33" s="30"/>
+      <c r="AH33" s="29">
         <v>2008</v>
       </c>
-      <c r="AI33" s="31"/>
-      <c r="AJ33" s="31"/>
-      <c r="AK33" s="31"/>
-      <c r="AL33" s="30">
+      <c r="AI33" s="30"/>
+      <c r="AJ33" s="30"/>
+      <c r="AK33" s="30"/>
+      <c r="AL33" s="29">
         <v>2009</v>
       </c>
-      <c r="AM33" s="31"/>
-      <c r="AN33" s="31"/>
-      <c r="AO33" s="31"/>
-      <c r="AP33" s="30">
+      <c r="AM33" s="30"/>
+      <c r="AN33" s="30"/>
+      <c r="AO33" s="30"/>
+      <c r="AP33" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ33" s="31"/>
-      <c r="AR33" s="31"/>
-      <c r="AS33" s="31"/>
-      <c r="AT33" s="30">
+      <c r="AQ33" s="30"/>
+      <c r="AR33" s="30"/>
+      <c r="AS33" s="30"/>
+      <c r="AT33" s="29">
         <v>2011</v>
       </c>
-      <c r="AU33" s="31"/>
-      <c r="AV33" s="31"/>
-      <c r="AW33" s="31"/>
-      <c r="AX33" s="30">
+      <c r="AU33" s="30"/>
+      <c r="AV33" s="30"/>
+      <c r="AW33" s="30"/>
+      <c r="AX33" s="29">
         <v>2012</v>
       </c>
-      <c r="AY33" s="31"/>
-      <c r="AZ33" s="31"/>
-      <c r="BA33" s="31"/>
-      <c r="BB33" s="30">
+      <c r="AY33" s="30"/>
+      <c r="AZ33" s="30"/>
+      <c r="BA33" s="30"/>
+      <c r="BB33" s="29">
         <v>2013</v>
       </c>
-      <c r="BC33" s="31"/>
-      <c r="BD33" s="31"/>
-      <c r="BE33" s="31"/>
-      <c r="BF33" s="30">
+      <c r="BC33" s="30"/>
+      <c r="BD33" s="30"/>
+      <c r="BE33" s="30"/>
+      <c r="BF33" s="29">
         <v>2014</v>
       </c>
-      <c r="BG33" s="31"/>
-      <c r="BH33" s="31"/>
-      <c r="BI33" s="31"/>
-      <c r="BJ33" s="30">
+      <c r="BG33" s="30"/>
+      <c r="BH33" s="30"/>
+      <c r="BI33" s="30"/>
+      <c r="BJ33" s="29">
         <v>2015</v>
       </c>
-      <c r="BK33" s="31"/>
-      <c r="BL33" s="31"/>
-      <c r="BM33" s="31"/>
-      <c r="BN33" s="30">
+      <c r="BK33" s="30"/>
+      <c r="BL33" s="30"/>
+      <c r="BM33" s="30"/>
+      <c r="BN33" s="29">
         <v>2016</v>
       </c>
-      <c r="BO33" s="31"/>
-      <c r="BP33" s="31"/>
-      <c r="BQ33" s="31"/>
-      <c r="BR33" s="30">
+      <c r="BO33" s="30"/>
+      <c r="BP33" s="30"/>
+      <c r="BQ33" s="30"/>
+      <c r="BR33" s="29">
         <v>2017</v>
       </c>
-      <c r="BS33" s="31"/>
-      <c r="BT33" s="31"/>
-      <c r="BU33" s="31"/>
-      <c r="BV33" s="30">
+      <c r="BS33" s="30"/>
+      <c r="BT33" s="30"/>
+      <c r="BU33" s="30"/>
+      <c r="BV33" s="29">
         <v>2018</v>
       </c>
-      <c r="BW33" s="30"/>
-      <c r="BX33" s="30"/>
-      <c r="BY33" s="30"/>
-      <c r="BZ33" s="30">
+      <c r="BW33" s="29"/>
+      <c r="BX33" s="29"/>
+      <c r="BY33" s="29"/>
+      <c r="BZ33" s="29">
         <v>2019</v>
       </c>
-      <c r="CA33" s="30"/>
-      <c r="CB33" s="30"/>
-      <c r="CC33" s="30"/>
-      <c r="CD33" s="30">
+      <c r="CA33" s="29"/>
+      <c r="CB33" s="29"/>
+      <c r="CC33" s="29"/>
+      <c r="CD33" s="29">
         <v>2020</v>
       </c>
-      <c r="CE33" s="30"/>
-      <c r="CF33" s="30"/>
-      <c r="CG33" s="30"/>
-      <c r="CH33" s="30">
+      <c r="CE33" s="29"/>
+      <c r="CF33" s="29"/>
+      <c r="CG33" s="29"/>
+      <c r="CH33" s="29">
         <v>2021</v>
       </c>
-      <c r="CI33" s="30"/>
-      <c r="CJ33" s="30"/>
-      <c r="CK33" s="30"/>
-      <c r="CL33" s="30">
+      <c r="CI33" s="29"/>
+      <c r="CJ33" s="29"/>
+      <c r="CK33" s="29"/>
+      <c r="CL33" s="29">
         <v>2022</v>
       </c>
-      <c r="CM33" s="30"/>
-      <c r="CN33" s="30"/>
-      <c r="CO33" s="30"/>
-      <c r="CP33" s="25">
+      <c r="CM33" s="29"/>
+      <c r="CN33" s="29"/>
+      <c r="CO33" s="29"/>
+      <c r="CP33" s="29">
         <v>2023</v>
       </c>
+      <c r="CQ33" s="31"/>
     </row>
     <row r="34" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
@@ -26637,6 +26654,9 @@
       </c>
       <c r="CP34" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="CQ34" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26886,46 +26906,48 @@
       <c r="CC36" s="8">
         <v>249401.3224724553</v>
       </c>
-      <c r="CD36" s="26">
+      <c r="CD36" s="25">
         <v>120343.92235382819</v>
       </c>
-      <c r="CE36" s="26">
+      <c r="CE36" s="25">
         <v>272588.25859088765</v>
       </c>
-      <c r="CF36" s="26">
+      <c r="CF36" s="25">
         <v>120647.40743450564</v>
       </c>
-      <c r="CG36" s="26">
+      <c r="CG36" s="25">
         <v>206796.21572508392</v>
       </c>
-      <c r="CH36" s="26">
+      <c r="CH36" s="25">
         <v>150955.89014101101</v>
       </c>
-      <c r="CI36" s="26">
+      <c r="CI36" s="25">
         <v>384277.66977210727</v>
       </c>
-      <c r="CJ36" s="26">
+      <c r="CJ36" s="25">
         <v>186238.61020499366</v>
       </c>
-      <c r="CK36" s="26">
+      <c r="CK36" s="25">
         <v>244301.11990967477</v>
       </c>
-      <c r="CL36" s="26">
+      <c r="CL36" s="25">
         <v>138876.45936565803</v>
       </c>
-      <c r="CM36" s="26">
+      <c r="CM36" s="25">
         <v>477872.31733643805</v>
       </c>
-      <c r="CN36" s="26">
+      <c r="CN36" s="25">
         <v>203931.05585814783</v>
       </c>
-      <c r="CO36" s="26">
+      <c r="CO36" s="25">
         <v>267321.23690688016</v>
       </c>
-      <c r="CP36" s="26">
-        <v>145419.60681670153</v>
-      </c>
-      <c r="CQ36" s="9"/>
+      <c r="CP36" s="25">
+        <v>145971.62645386989</v>
+      </c>
+      <c r="CQ36" s="25">
+        <v>481613.7528801724</v>
+      </c>
       <c r="CR36" s="9"/>
       <c r="CS36" s="9"/>
       <c r="CT36" s="9"/>
@@ -27204,46 +27226,48 @@
       <c r="CC37" s="8">
         <v>400243.7030651588</v>
       </c>
-      <c r="CD37" s="26">
+      <c r="CD37" s="25">
         <v>329852.81615328684</v>
       </c>
-      <c r="CE37" s="26">
+      <c r="CE37" s="25">
         <v>261329.21444332827</v>
       </c>
-      <c r="CF37" s="26">
+      <c r="CF37" s="25">
         <v>215977.2588854577</v>
       </c>
-      <c r="CG37" s="26">
+      <c r="CG37" s="25">
         <v>196919.57899973172</v>
       </c>
-      <c r="CH37" s="26">
+      <c r="CH37" s="25">
         <v>183323.49462612282</v>
       </c>
-      <c r="CI37" s="26">
+      <c r="CI37" s="25">
         <v>203028.97812280885</v>
       </c>
-      <c r="CJ37" s="26">
+      <c r="CJ37" s="25">
         <v>195745.26145582148</v>
       </c>
-      <c r="CK37" s="26">
+      <c r="CK37" s="25">
         <v>207575.77707729724</v>
       </c>
-      <c r="CL37" s="26">
+      <c r="CL37" s="25">
         <v>233945.22608923679</v>
       </c>
-      <c r="CM37" s="26">
+      <c r="CM37" s="25">
         <v>229061.85258321365</v>
       </c>
-      <c r="CN37" s="26">
+      <c r="CN37" s="25">
         <v>224132.44939260228</v>
       </c>
-      <c r="CO37" s="26">
+      <c r="CO37" s="25">
         <v>224802.9152009926</v>
       </c>
-      <c r="CP37" s="26">
-        <v>282188.27083174791</v>
-      </c>
-      <c r="CQ37" s="9"/>
+      <c r="CP37" s="25">
+        <v>282783.15415980428</v>
+      </c>
+      <c r="CQ37" s="25">
+        <v>252437.6011449878</v>
+      </c>
       <c r="CR37" s="9"/>
       <c r="CS37" s="9"/>
       <c r="CT37" s="9"/>
@@ -27522,46 +27546,48 @@
       <c r="CC38" s="8">
         <v>268190.88920950418</v>
       </c>
-      <c r="CD38" s="26">
+      <c r="CD38" s="25">
         <v>180679.49155132571</v>
       </c>
-      <c r="CE38" s="26">
+      <c r="CE38" s="25">
         <v>46063.376408510667</v>
       </c>
-      <c r="CF38" s="26">
+      <c r="CF38" s="25">
         <v>105256.12855279446</v>
       </c>
-      <c r="CG38" s="26">
+      <c r="CG38" s="25">
         <v>186080.1971893374</v>
       </c>
-      <c r="CH38" s="26">
+      <c r="CH38" s="25">
         <v>137740.40991218342</v>
       </c>
-      <c r="CI38" s="26">
+      <c r="CI38" s="25">
         <v>197503.3785899253</v>
       </c>
-      <c r="CJ38" s="26">
+      <c r="CJ38" s="25">
         <v>169851.87146835233</v>
       </c>
-      <c r="CK38" s="26">
+      <c r="CK38" s="25">
         <v>229834.19557939863</v>
       </c>
-      <c r="CL38" s="26">
+      <c r="CL38" s="25">
         <v>162896.04245673135</v>
       </c>
-      <c r="CM38" s="26">
+      <c r="CM38" s="25">
         <v>198065.43706122765</v>
       </c>
-      <c r="CN38" s="26">
+      <c r="CN38" s="25">
         <v>183408.53384814513</v>
       </c>
-      <c r="CO38" s="26">
+      <c r="CO38" s="25">
         <v>248395.60611464089</v>
       </c>
-      <c r="CP38" s="26">
-        <v>184497.86837101387</v>
-      </c>
-      <c r="CQ38" s="9"/>
+      <c r="CP38" s="25">
+        <v>185265.35161465433</v>
+      </c>
+      <c r="CQ38" s="25">
+        <v>190287.86186391805</v>
+      </c>
       <c r="CR38" s="9"/>
       <c r="CS38" s="9"/>
       <c r="CT38" s="9"/>
@@ -27969,46 +27995,48 @@
       <c r="CC40" s="11">
         <v>917835.91474711825</v>
       </c>
-      <c r="CD40" s="27">
+      <c r="CD40" s="26">
         <v>630876.23005844071</v>
       </c>
-      <c r="CE40" s="27">
+      <c r="CE40" s="26">
         <v>579980.84944272647</v>
       </c>
-      <c r="CF40" s="27">
+      <c r="CF40" s="26">
         <v>441880.7948727578</v>
       </c>
-      <c r="CG40" s="27">
+      <c r="CG40" s="26">
         <v>589795.9919141531</v>
       </c>
-      <c r="CH40" s="27">
+      <c r="CH40" s="26">
         <v>472019.79467931727</v>
       </c>
-      <c r="CI40" s="27">
+      <c r="CI40" s="26">
         <v>784810.02648484148</v>
       </c>
-      <c r="CJ40" s="27">
+      <c r="CJ40" s="26">
         <v>551835.74312916747</v>
       </c>
-      <c r="CK40" s="27">
+      <c r="CK40" s="26">
         <v>681711.09256637061</v>
       </c>
-      <c r="CL40" s="27">
+      <c r="CL40" s="26">
         <v>535717.72791162611</v>
       </c>
-      <c r="CM40" s="27">
+      <c r="CM40" s="26">
         <v>904999.60698087933</v>
       </c>
-      <c r="CN40" s="27">
+      <c r="CN40" s="26">
         <v>611472.03909889527</v>
       </c>
-      <c r="CO40" s="27">
+      <c r="CO40" s="26">
         <v>740519.7582225136</v>
       </c>
-      <c r="CP40" s="27">
-        <v>612105.74601946329</v>
-      </c>
-      <c r="CQ40" s="9"/>
+      <c r="CP40" s="26">
+        <v>614020.1322283285</v>
+      </c>
+      <c r="CQ40" s="26">
+        <v>924339.21588907822</v>
+      </c>
       <c r="CR40" s="9"/>
       <c r="CS40" s="9"/>
       <c r="CT40" s="9"/>
@@ -28138,6 +28166,7 @@
       <c r="CN41" s="12"/>
       <c r="CO41" s="12"/>
       <c r="CP41" s="12"/>
+      <c r="CQ41" s="12"/>
     </row>
     <row r="42" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
@@ -28221,20 +28250,20 @@
       <c r="CA42" s="11"/>
       <c r="CB42" s="11"/>
       <c r="CC42" s="11"/>
-      <c r="CD42" s="27"/>
-      <c r="CE42" s="27"/>
-      <c r="CF42" s="27"/>
-      <c r="CG42" s="27"/>
-      <c r="CH42" s="27"/>
-      <c r="CI42" s="27"/>
-      <c r="CJ42" s="27"/>
-      <c r="CK42" s="27"/>
-      <c r="CL42" s="27"/>
-      <c r="CM42" s="27"/>
-      <c r="CN42" s="27"/>
-      <c r="CO42" s="27"/>
-      <c r="CP42" s="27"/>
-      <c r="CQ42" s="9"/>
+      <c r="CD42" s="26"/>
+      <c r="CE42" s="26"/>
+      <c r="CF42" s="26"/>
+      <c r="CG42" s="26"/>
+      <c r="CH42" s="26"/>
+      <c r="CI42" s="26"/>
+      <c r="CJ42" s="26"/>
+      <c r="CK42" s="26"/>
+      <c r="CL42" s="26"/>
+      <c r="CM42" s="26"/>
+      <c r="CN42" s="26"/>
+      <c r="CO42" s="26"/>
+      <c r="CP42" s="26"/>
+      <c r="CQ42" s="26"/>
       <c r="CR42" s="9"/>
       <c r="CS42" s="9"/>
       <c r="CT42" s="9"/>
@@ -28513,46 +28542,48 @@
       <c r="CC43" s="8">
         <v>445051.24202254484</v>
       </c>
-      <c r="CD43" s="26">
+      <c r="CD43" s="25">
         <v>288638.33230566006</v>
       </c>
-      <c r="CE43" s="26">
+      <c r="CE43" s="25">
         <v>272663.61019486468</v>
       </c>
-      <c r="CF43" s="26">
+      <c r="CF43" s="25">
         <v>235255.65392941865</v>
       </c>
-      <c r="CG43" s="26">
+      <c r="CG43" s="25">
         <v>325750.45283593191</v>
       </c>
-      <c r="CH43" s="26">
+      <c r="CH43" s="25">
         <v>223626.6896134275</v>
       </c>
-      <c r="CI43" s="26">
+      <c r="CI43" s="25">
         <v>347321.34159008478</v>
       </c>
-      <c r="CJ43" s="26">
+      <c r="CJ43" s="25">
         <v>277536.56785407895</v>
       </c>
-      <c r="CK43" s="26">
+      <c r="CK43" s="25">
         <v>386621.50166269159</v>
       </c>
-      <c r="CL43" s="26">
+      <c r="CL43" s="25">
         <v>253019.28406263766</v>
       </c>
-      <c r="CM43" s="26">
+      <c r="CM43" s="25">
         <v>412342.41444169602</v>
       </c>
-      <c r="CN43" s="26">
+      <c r="CN43" s="25">
         <v>309043.48487735365</v>
       </c>
-      <c r="CO43" s="26">
+      <c r="CO43" s="25">
         <v>410453.91399094043</v>
       </c>
-      <c r="CP43" s="26">
-        <v>280399.27906312689</v>
-      </c>
-      <c r="CQ43" s="9"/>
+      <c r="CP43" s="25">
+        <v>281127.5444927215</v>
+      </c>
+      <c r="CQ43" s="25">
+        <v>426744.92058515199</v>
+      </c>
       <c r="CR43" s="9"/>
       <c r="CS43" s="9"/>
       <c r="CT43" s="9"/>
@@ -28682,6 +28713,7 @@
       <c r="CN44" s="14"/>
       <c r="CO44" s="14"/>
       <c r="CP44" s="14"/>
+      <c r="CQ44" s="14"/>
     </row>
     <row r="45" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
@@ -28986,145 +29018,146 @@
     </row>
     <row r="57" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30" t="s">
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30" t="s">
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30" t="s">
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30" t="s">
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="30"/>
-      <c r="V57" s="30" t="s">
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="29"/>
+      <c r="V57" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="W57" s="30"/>
-      <c r="X57" s="30"/>
-      <c r="Y57" s="30"/>
-      <c r="Z57" s="30" t="s">
+      <c r="W57" s="29"/>
+      <c r="X57" s="29"/>
+      <c r="Y57" s="29"/>
+      <c r="Z57" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AA57" s="30"/>
-      <c r="AB57" s="30"/>
-      <c r="AC57" s="30"/>
-      <c r="AD57" s="30" t="s">
+      <c r="AA57" s="29"/>
+      <c r="AB57" s="29"/>
+      <c r="AC57" s="29"/>
+      <c r="AD57" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AE57" s="30"/>
-      <c r="AF57" s="30"/>
-      <c r="AG57" s="30"/>
-      <c r="AH57" s="30" t="s">
+      <c r="AE57" s="29"/>
+      <c r="AF57" s="29"/>
+      <c r="AG57" s="29"/>
+      <c r="AH57" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AI57" s="30"/>
-      <c r="AJ57" s="30"/>
-      <c r="AK57" s="30"/>
-      <c r="AL57" s="30" t="s">
+      <c r="AI57" s="29"/>
+      <c r="AJ57" s="29"/>
+      <c r="AK57" s="29"/>
+      <c r="AL57" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AM57" s="30"/>
-      <c r="AN57" s="30"/>
-      <c r="AO57" s="30"/>
-      <c r="AP57" s="30" t="s">
+      <c r="AM57" s="29"/>
+      <c r="AN57" s="29"/>
+      <c r="AO57" s="29"/>
+      <c r="AP57" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AQ57" s="30"/>
-      <c r="AR57" s="30"/>
-      <c r="AS57" s="30"/>
-      <c r="AT57" s="30" t="s">
+      <c r="AQ57" s="29"/>
+      <c r="AR57" s="29"/>
+      <c r="AS57" s="29"/>
+      <c r="AT57" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AU57" s="30"/>
-      <c r="AV57" s="30"/>
-      <c r="AW57" s="30"/>
-      <c r="AX57" s="30" t="s">
+      <c r="AU57" s="29"/>
+      <c r="AV57" s="29"/>
+      <c r="AW57" s="29"/>
+      <c r="AX57" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AY57" s="30"/>
-      <c r="AZ57" s="30"/>
-      <c r="BA57" s="30"/>
-      <c r="BB57" s="30" t="s">
+      <c r="AY57" s="29"/>
+      <c r="AZ57" s="29"/>
+      <c r="BA57" s="29"/>
+      <c r="BB57" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="BC57" s="30"/>
-      <c r="BD57" s="30"/>
-      <c r="BE57" s="30"/>
-      <c r="BF57" s="30" t="s">
+      <c r="BC57" s="29"/>
+      <c r="BD57" s="29"/>
+      <c r="BE57" s="29"/>
+      <c r="BF57" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="BG57" s="30"/>
-      <c r="BH57" s="30"/>
-      <c r="BI57" s="30"/>
-      <c r="BJ57" s="30" t="s">
+      <c r="BG57" s="29"/>
+      <c r="BH57" s="29"/>
+      <c r="BI57" s="29"/>
+      <c r="BJ57" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="BK57" s="30"/>
-      <c r="BL57" s="30"/>
-      <c r="BM57" s="30"/>
-      <c r="BN57" s="30" t="s">
+      <c r="BK57" s="29"/>
+      <c r="BL57" s="29"/>
+      <c r="BM57" s="29"/>
+      <c r="BN57" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="BO57" s="30"/>
-      <c r="BP57" s="30"/>
-      <c r="BQ57" s="30"/>
-      <c r="BR57" s="30" t="s">
+      <c r="BO57" s="29"/>
+      <c r="BP57" s="29"/>
+      <c r="BQ57" s="29"/>
+      <c r="BR57" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BS57" s="30"/>
-      <c r="BT57" s="30"/>
-      <c r="BU57" s="30"/>
-      <c r="BV57" s="30" t="s">
+      <c r="BS57" s="29"/>
+      <c r="BT57" s="29"/>
+      <c r="BU57" s="29"/>
+      <c r="BV57" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="BW57" s="30"/>
-      <c r="BX57" s="30"/>
-      <c r="BY57" s="30"/>
-      <c r="BZ57" s="30" t="s">
+      <c r="BW57" s="29"/>
+      <c r="BX57" s="29"/>
+      <c r="BY57" s="29"/>
+      <c r="BZ57" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="CA57" s="30"/>
-      <c r="CB57" s="30"/>
-      <c r="CC57" s="30"/>
-      <c r="CD57" s="30" t="s">
+      <c r="CA57" s="29"/>
+      <c r="CB57" s="29"/>
+      <c r="CC57" s="29"/>
+      <c r="CD57" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="CE57" s="30"/>
-      <c r="CF57" s="30"/>
-      <c r="CG57" s="30"/>
-      <c r="CH57" s="30" t="s">
+      <c r="CE57" s="29"/>
+      <c r="CF57" s="29"/>
+      <c r="CG57" s="29"/>
+      <c r="CH57" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="CI57" s="30"/>
-      <c r="CJ57" s="30"/>
-      <c r="CK57" s="30"/>
-      <c r="CL57" s="25" t="s">
+      <c r="CI57" s="29"/>
+      <c r="CJ57" s="29"/>
+      <c r="CK57" s="29"/>
+      <c r="CL57" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="CM57" s="25"/>
-      <c r="CN57" s="25"/>
-      <c r="CO57" s="25"/>
-      <c r="CP57" s="25"/>
+      <c r="CM57" s="29"/>
+      <c r="CN57" s="29"/>
+      <c r="CO57" s="29"/>
+      <c r="CP57" s="29"/>
+      <c r="CQ57" s="31"/>
     </row>
     <row r="58" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
@@ -29397,10 +29430,13 @@
       <c r="CL58" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="CM58" s="5"/>
+      <c r="CM58" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="CN58" s="5"/>
       <c r="CO58" s="5"/>
       <c r="CP58" s="5"/>
+      <c r="CQ58" s="5"/>
     </row>
     <row r="59" spans="1:120" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
@@ -29649,38 +29685,40 @@
       <c r="CC60" s="19">
         <v>-15.411890109061119</v>
       </c>
-      <c r="CD60" s="28">
+      <c r="CD60" s="27">
         <v>26.469962849420753</v>
       </c>
-      <c r="CE60" s="28">
+      <c r="CE60" s="27">
         <v>46.731384084236964</v>
       </c>
-      <c r="CF60" s="28">
+      <c r="CF60" s="27">
         <v>59.970898303050291</v>
       </c>
-      <c r="CG60" s="28">
+      <c r="CG60" s="27">
         <v>23.38408642171423</v>
       </c>
-      <c r="CH60" s="28">
+      <c r="CH60" s="27">
         <v>-2.0951861453557257</v>
       </c>
-      <c r="CI60" s="28">
+      <c r="CI60" s="27">
         <v>34.458605911374207</v>
       </c>
-      <c r="CJ60" s="28">
+      <c r="CJ60" s="27">
         <v>19.870120316505393</v>
       </c>
-      <c r="CK60" s="28">
+      <c r="CK60" s="27">
         <v>16.680526398499083</v>
       </c>
-      <c r="CL60" s="28">
-        <v>9.6481755632325417</v>
-      </c>
-      <c r="CM60" s="28"/>
-      <c r="CN60" s="28"/>
-      <c r="CO60" s="28"/>
-      <c r="CP60" s="28"/>
-      <c r="CQ60" s="9"/>
+      <c r="CL60" s="27">
+        <v>10.067520212565896</v>
+      </c>
+      <c r="CM60" s="27">
+        <v>4.4946222598048138</v>
+      </c>
+      <c r="CN60" s="27"/>
+      <c r="CO60" s="27"/>
+      <c r="CP60" s="27"/>
+      <c r="CQ60" s="27"/>
       <c r="CR60" s="9"/>
       <c r="CS60" s="9"/>
       <c r="CT60" s="9"/>
@@ -29951,38 +29989,40 @@
       <c r="CC61" s="19">
         <v>-49.848870706394301</v>
       </c>
-      <c r="CD61" s="28">
+      <c r="CD61" s="27">
         <v>-44.0088807540115</v>
       </c>
-      <c r="CE61" s="28">
+      <c r="CE61" s="27">
         <v>-19.620581149555846</v>
       </c>
-      <c r="CF61" s="28">
+      <c r="CF61" s="27">
         <v>-6.189549125999676</v>
       </c>
-      <c r="CG61" s="28">
+      <c r="CG61" s="27">
         <v>10.016340474934054</v>
       </c>
-      <c r="CH61" s="28">
+      <c r="CH61" s="27">
         <v>35.863728350190087</v>
       </c>
-      <c r="CI61" s="28">
+      <c r="CI61" s="27">
         <v>22.127303232421937</v>
       </c>
-      <c r="CJ61" s="28">
+      <c r="CJ61" s="27">
         <v>25.443670148049293</v>
       </c>
-      <c r="CK61" s="28">
+      <c r="CK61" s="27">
         <v>15.59792419688452</v>
       </c>
-      <c r="CL61" s="28">
-        <v>26.342399908060415</v>
-      </c>
-      <c r="CM61" s="28"/>
-      <c r="CN61" s="28"/>
-      <c r="CO61" s="28"/>
-      <c r="CP61" s="28"/>
-      <c r="CQ61" s="9"/>
+      <c r="CL61" s="27">
+        <v>26.611658097781572</v>
+      </c>
+      <c r="CM61" s="27">
+        <v>14.139396707456228</v>
+      </c>
+      <c r="CN61" s="27"/>
+      <c r="CO61" s="27"/>
+      <c r="CP61" s="27"/>
+      <c r="CQ61" s="27"/>
       <c r="CR61" s="9"/>
       <c r="CS61" s="9"/>
       <c r="CT61" s="9"/>
@@ -30253,38 +30293,40 @@
       <c r="CC62" s="19">
         <v>-29.255299064938271</v>
       </c>
-      <c r="CD62" s="28">
+      <c r="CD62" s="27">
         <v>-23.146846118903426</v>
       </c>
-      <c r="CE62" s="28">
+      <c r="CE62" s="27">
         <v>345.01387166780376</v>
       </c>
-      <c r="CF62" s="28">
+      <c r="CF62" s="27">
         <v>67.564885471015657</v>
       </c>
-      <c r="CG62" s="28">
+      <c r="CG62" s="27">
         <v>29.398004917086723</v>
       </c>
-      <c r="CH62" s="28">
+      <c r="CH62" s="27">
         <v>26.052252556370732</v>
       </c>
-      <c r="CI62" s="28">
+      <c r="CI62" s="27">
         <v>8.6155248515896545</v>
       </c>
-      <c r="CJ62" s="28">
+      <c r="CJ62" s="27">
         <v>15.630293695979034</v>
       </c>
-      <c r="CK62" s="28">
+      <c r="CK62" s="27">
         <v>15.602935002522571</v>
       </c>
-      <c r="CL62" s="28">
-        <v>18.951494783259974</v>
-      </c>
-      <c r="CM62" s="28"/>
-      <c r="CN62" s="28"/>
-      <c r="CO62" s="28"/>
-      <c r="CP62" s="28"/>
-      <c r="CQ62" s="9"/>
+      <c r="CL62" s="27">
+        <v>19.448879825674467</v>
+      </c>
+      <c r="CM62" s="27">
+        <v>-0.48967471999110046</v>
+      </c>
+      <c r="CN62" s="27"/>
+      <c r="CO62" s="27"/>
+      <c r="CP62" s="27"/>
+      <c r="CQ62" s="27"/>
       <c r="CR62" s="9"/>
       <c r="CS62" s="9"/>
       <c r="CT62" s="9"/>
@@ -30405,7 +30447,7 @@
       <c r="CN63" s="20"/>
       <c r="CO63" s="20"/>
       <c r="CP63" s="20"/>
-      <c r="CQ63" s="9"/>
+      <c r="CQ63" s="20"/>
       <c r="CR63" s="9"/>
       <c r="CS63" s="9"/>
       <c r="CT63" s="9"/>
@@ -30676,38 +30718,40 @@
       <c r="CC64" s="19">
         <v>-34.893969125398215</v>
       </c>
-      <c r="CD64" s="28">
+      <c r="CD64" s="27">
         <v>-23.624469721588738</v>
       </c>
-      <c r="CE64" s="28">
+      <c r="CE64" s="27">
         <v>41.960370707646547</v>
       </c>
-      <c r="CF64" s="28">
+      <c r="CF64" s="27">
         <v>28.923472030813315</v>
       </c>
-      <c r="CG64" s="28">
+      <c r="CG64" s="27">
         <v>20.438933201143541</v>
       </c>
-      <c r="CH64" s="28">
+      <c r="CH64" s="27">
         <v>20.346782907631834</v>
       </c>
-      <c r="CI64" s="28">
+      <c r="CI64" s="27">
         <v>24.673907965512541</v>
       </c>
-      <c r="CJ64" s="28">
+      <c r="CJ64" s="27">
         <v>20.577832291915314</v>
       </c>
-      <c r="CK64" s="28">
+      <c r="CK64" s="27">
         <v>15.992744635622032</v>
       </c>
-      <c r="CL64" s="28">
-        <v>19.492552276430189</v>
-      </c>
-      <c r="CM64" s="28"/>
-      <c r="CN64" s="28"/>
-      <c r="CO64" s="28"/>
-      <c r="CP64" s="28"/>
-      <c r="CQ64" s="9"/>
+      <c r="CL64" s="27">
+        <v>19.875351082929768</v>
+      </c>
+      <c r="CM64" s="27">
+        <v>5.74113340459661</v>
+      </c>
+      <c r="CN64" s="27"/>
+      <c r="CO64" s="27"/>
+      <c r="CP64" s="27"/>
+      <c r="CQ64" s="27"/>
       <c r="CR64" s="9"/>
       <c r="CS64" s="9"/>
       <c r="CT64" s="9"/>
@@ -30829,6 +30873,7 @@
       <c r="CN65" s="23"/>
       <c r="CO65" s="23"/>
       <c r="CP65" s="23"/>
+      <c r="CQ65" s="23"/>
     </row>
     <row r="66" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
@@ -30912,20 +30957,20 @@
       <c r="CA66" s="19"/>
       <c r="CB66" s="19"/>
       <c r="CC66" s="19"/>
-      <c r="CD66" s="28"/>
-      <c r="CE66" s="28"/>
-      <c r="CF66" s="28"/>
-      <c r="CG66" s="28"/>
-      <c r="CH66" s="28"/>
-      <c r="CI66" s="28"/>
-      <c r="CJ66" s="28"/>
-      <c r="CK66" s="28"/>
-      <c r="CL66" s="28"/>
-      <c r="CM66" s="28"/>
-      <c r="CN66" s="28"/>
-      <c r="CO66" s="28"/>
-      <c r="CP66" s="28"/>
-      <c r="CQ66" s="9"/>
+      <c r="CD66" s="27"/>
+      <c r="CE66" s="27"/>
+      <c r="CF66" s="27"/>
+      <c r="CG66" s="27"/>
+      <c r="CH66" s="27"/>
+      <c r="CI66" s="27"/>
+      <c r="CJ66" s="27"/>
+      <c r="CK66" s="27"/>
+      <c r="CL66" s="27"/>
+      <c r="CM66" s="27"/>
+      <c r="CN66" s="27"/>
+      <c r="CO66" s="27"/>
+      <c r="CP66" s="27"/>
+      <c r="CQ66" s="27"/>
       <c r="CR66" s="9"/>
       <c r="CS66" s="9"/>
       <c r="CT66" s="9"/>
@@ -31196,38 +31241,40 @@
       <c r="CC67" s="19">
         <v>-24.410897047655666</v>
       </c>
-      <c r="CD67" s="28">
+      <c r="CD67" s="27">
         <v>-23.219006573613115</v>
       </c>
-      <c r="CE67" s="28">
+      <c r="CE67" s="27">
         <v>32.25888680118311</v>
       </c>
-      <c r="CF67" s="28">
+      <c r="CF67" s="27">
         <v>25.717998407627249</v>
       </c>
-      <c r="CG67" s="28">
+      <c r="CG67" s="27">
         <v>23.706761186364659</v>
       </c>
-      <c r="CH67" s="28">
+      <c r="CH67" s="27">
         <v>22.303786435272556</v>
       </c>
-      <c r="CI67" s="28">
+      <c r="CI67" s="27">
         <v>26.886437006620369</v>
       </c>
-      <c r="CJ67" s="28">
+      <c r="CJ67" s="27">
         <v>18.071947726786746</v>
       </c>
-      <c r="CK67" s="28">
+      <c r="CK67" s="27">
         <v>12.293722538822067</v>
       </c>
-      <c r="CL67" s="28">
-        <v>17.278801205761212</v>
-      </c>
-      <c r="CM67" s="28"/>
-      <c r="CN67" s="28"/>
-      <c r="CO67" s="28"/>
-      <c r="CP67" s="28"/>
-      <c r="CQ67" s="9"/>
+      <c r="CL67" s="27">
+        <v>17.630800805797236</v>
+      </c>
+      <c r="CM67" s="27">
+        <v>8.1727486562549956</v>
+      </c>
+      <c r="CN67" s="27"/>
+      <c r="CO67" s="27"/>
+      <c r="CP67" s="27"/>
+      <c r="CQ67" s="27"/>
       <c r="CR67" s="9"/>
       <c r="CS67" s="9"/>
       <c r="CT67" s="9"/>
@@ -31349,6 +31396,7 @@
       <c r="CN68" s="14"/>
       <c r="CO68" s="14"/>
       <c r="CP68" s="14"/>
+      <c r="CQ68" s="14"/>
     </row>
     <row r="69" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
@@ -31634,145 +31682,146 @@
     </row>
     <row r="81" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="30" t="s">
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="30" t="s">
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="K81" s="31"/>
-      <c r="L81" s="31"/>
-      <c r="M81" s="31"/>
-      <c r="N81" s="30" t="s">
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="O81" s="31"/>
-      <c r="P81" s="31"/>
-      <c r="Q81" s="31"/>
-      <c r="R81" s="30" t="s">
+      <c r="O81" s="30"/>
+      <c r="P81" s="30"/>
+      <c r="Q81" s="30"/>
+      <c r="R81" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="S81" s="31"/>
-      <c r="T81" s="31"/>
-      <c r="U81" s="31"/>
-      <c r="V81" s="30" t="s">
+      <c r="S81" s="30"/>
+      <c r="T81" s="30"/>
+      <c r="U81" s="30"/>
+      <c r="V81" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="W81" s="31"/>
-      <c r="X81" s="31"/>
-      <c r="Y81" s="31"/>
-      <c r="Z81" s="30" t="s">
+      <c r="W81" s="30"/>
+      <c r="X81" s="30"/>
+      <c r="Y81" s="30"/>
+      <c r="Z81" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AA81" s="31"/>
-      <c r="AB81" s="31"/>
-      <c r="AC81" s="31"/>
-      <c r="AD81" s="30" t="s">
+      <c r="AA81" s="30"/>
+      <c r="AB81" s="30"/>
+      <c r="AC81" s="30"/>
+      <c r="AD81" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AE81" s="31"/>
-      <c r="AF81" s="31"/>
-      <c r="AG81" s="31"/>
-      <c r="AH81" s="30" t="s">
+      <c r="AE81" s="30"/>
+      <c r="AF81" s="30"/>
+      <c r="AG81" s="30"/>
+      <c r="AH81" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AI81" s="31"/>
-      <c r="AJ81" s="31"/>
-      <c r="AK81" s="31"/>
-      <c r="AL81" s="30" t="s">
+      <c r="AI81" s="30"/>
+      <c r="AJ81" s="30"/>
+      <c r="AK81" s="30"/>
+      <c r="AL81" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AM81" s="31"/>
-      <c r="AN81" s="31"/>
-      <c r="AO81" s="31"/>
-      <c r="AP81" s="30" t="s">
+      <c r="AM81" s="30"/>
+      <c r="AN81" s="30"/>
+      <c r="AO81" s="30"/>
+      <c r="AP81" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AQ81" s="31"/>
-      <c r="AR81" s="31"/>
-      <c r="AS81" s="31"/>
-      <c r="AT81" s="30" t="s">
+      <c r="AQ81" s="30"/>
+      <c r="AR81" s="30"/>
+      <c r="AS81" s="30"/>
+      <c r="AT81" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AU81" s="31"/>
-      <c r="AV81" s="31"/>
-      <c r="AW81" s="31"/>
-      <c r="AX81" s="30" t="s">
+      <c r="AU81" s="30"/>
+      <c r="AV81" s="30"/>
+      <c r="AW81" s="30"/>
+      <c r="AX81" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AY81" s="31"/>
-      <c r="AZ81" s="31"/>
-      <c r="BA81" s="31"/>
-      <c r="BB81" s="30" t="s">
+      <c r="AY81" s="30"/>
+      <c r="AZ81" s="30"/>
+      <c r="BA81" s="30"/>
+      <c r="BB81" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="BC81" s="31"/>
-      <c r="BD81" s="31"/>
-      <c r="BE81" s="31"/>
-      <c r="BF81" s="30" t="s">
+      <c r="BC81" s="30"/>
+      <c r="BD81" s="30"/>
+      <c r="BE81" s="30"/>
+      <c r="BF81" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="BG81" s="31"/>
-      <c r="BH81" s="31"/>
-      <c r="BI81" s="31"/>
-      <c r="BJ81" s="30" t="s">
+      <c r="BG81" s="30"/>
+      <c r="BH81" s="30"/>
+      <c r="BI81" s="30"/>
+      <c r="BJ81" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="BK81" s="31"/>
-      <c r="BL81" s="31"/>
-      <c r="BM81" s="31"/>
-      <c r="BN81" s="30" t="s">
+      <c r="BK81" s="30"/>
+      <c r="BL81" s="30"/>
+      <c r="BM81" s="30"/>
+      <c r="BN81" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="BO81" s="31"/>
-      <c r="BP81" s="31"/>
-      <c r="BQ81" s="31"/>
-      <c r="BR81" s="30" t="s">
+      <c r="BO81" s="30"/>
+      <c r="BP81" s="30"/>
+      <c r="BQ81" s="30"/>
+      <c r="BR81" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BS81" s="31"/>
-      <c r="BT81" s="31"/>
-      <c r="BU81" s="31"/>
-      <c r="BV81" s="30" t="s">
+      <c r="BS81" s="30"/>
+      <c r="BT81" s="30"/>
+      <c r="BU81" s="30"/>
+      <c r="BV81" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="BW81" s="30"/>
-      <c r="BX81" s="30"/>
-      <c r="BY81" s="30"/>
-      <c r="BZ81" s="30" t="s">
+      <c r="BW81" s="29"/>
+      <c r="BX81" s="29"/>
+      <c r="BY81" s="29"/>
+      <c r="BZ81" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="CA81" s="30"/>
-      <c r="CB81" s="30"/>
-      <c r="CC81" s="30"/>
-      <c r="CD81" s="30" t="s">
+      <c r="CA81" s="29"/>
+      <c r="CB81" s="29"/>
+      <c r="CC81" s="29"/>
+      <c r="CD81" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="CE81" s="30"/>
-      <c r="CF81" s="30"/>
-      <c r="CG81" s="30"/>
-      <c r="CH81" s="30" t="s">
+      <c r="CE81" s="29"/>
+      <c r="CF81" s="29"/>
+      <c r="CG81" s="29"/>
+      <c r="CH81" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="CI81" s="30"/>
-      <c r="CJ81" s="30"/>
-      <c r="CK81" s="30"/>
-      <c r="CL81" s="25" t="s">
+      <c r="CI81" s="29"/>
+      <c r="CJ81" s="29"/>
+      <c r="CK81" s="29"/>
+      <c r="CL81" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="CM81" s="25"/>
-      <c r="CN81" s="25"/>
-      <c r="CO81" s="25"/>
-      <c r="CP81" s="25"/>
+      <c r="CM81" s="29"/>
+      <c r="CN81" s="29"/>
+      <c r="CO81" s="29"/>
+      <c r="CP81" s="29"/>
+      <c r="CQ81" s="31"/>
     </row>
     <row r="82" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
@@ -32045,10 +32094,13 @@
       <c r="CL82" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CM82" s="6"/>
+      <c r="CM82" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="CN82" s="6"/>
       <c r="CO82" s="6"/>
       <c r="CP82" s="6"/>
+      <c r="CQ82" s="6"/>
     </row>
     <row r="83" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
@@ -32297,38 +32349,40 @@
       <c r="CC84" s="19">
         <v>-17.08295141541474</v>
       </c>
-      <c r="CD84" s="28">
+      <c r="CD84" s="27">
         <v>25.437070014370391</v>
       </c>
-      <c r="CE84" s="28">
+      <c r="CE84" s="27">
         <v>40.973669136955721</v>
       </c>
-      <c r="CF84" s="28">
+      <c r="CF84" s="27">
         <v>54.366027555208518</v>
       </c>
-      <c r="CG84" s="28">
+      <c r="CG84" s="27">
         <v>18.136165622319737</v>
       </c>
-      <c r="CH84" s="28">
+      <c r="CH84" s="27">
         <v>-8.001960548918845</v>
       </c>
-      <c r="CI84" s="28">
+      <c r="CI84" s="27">
         <v>24.355994356850431</v>
       </c>
-      <c r="CJ84" s="28">
+      <c r="CJ84" s="27">
         <v>9.4998806282327877</v>
       </c>
-      <c r="CK84" s="28">
+      <c r="CK84" s="27">
         <v>9.4228454645302548</v>
       </c>
-      <c r="CL84" s="28">
-        <v>4.711487807890876</v>
-      </c>
-      <c r="CM84" s="28"/>
-      <c r="CN84" s="28"/>
-      <c r="CO84" s="28"/>
-      <c r="CP84" s="28"/>
-      <c r="CQ84" s="9"/>
+      <c r="CL84" s="27">
+        <v>5.1089775190268085</v>
+      </c>
+      <c r="CM84" s="27">
+        <v>0.78293623798681722</v>
+      </c>
+      <c r="CN84" s="27"/>
+      <c r="CO84" s="27"/>
+      <c r="CP84" s="27"/>
+      <c r="CQ84" s="27"/>
       <c r="CR84" s="9"/>
       <c r="CS84" s="9"/>
       <c r="CT84" s="9"/>
@@ -32599,38 +32653,40 @@
       <c r="CC85" s="19">
         <v>-50.800080677927959</v>
       </c>
-      <c r="CD85" s="28">
+      <c r="CD85" s="27">
         <v>-44.422637719445746</v>
       </c>
-      <c r="CE85" s="28">
+      <c r="CE85" s="27">
         <v>-22.309115513436922</v>
       </c>
-      <c r="CF85" s="28">
+      <c r="CF85" s="27">
         <v>-9.367651730576938</v>
       </c>
-      <c r="CG85" s="28">
+      <c r="CG85" s="27">
         <v>5.4114467092071266</v>
       </c>
-      <c r="CH85" s="28">
+      <c r="CH85" s="27">
         <v>27.613335413638012</v>
       </c>
-      <c r="CI85" s="28">
+      <c r="CI85" s="27">
         <v>12.82224572132651</v>
       </c>
-      <c r="CJ85" s="28">
+      <c r="CJ85" s="27">
         <v>14.502107343828399</v>
       </c>
-      <c r="CK85" s="28">
+      <c r="CK85" s="27">
         <v>8.2992044477715297</v>
       </c>
-      <c r="CL85" s="28">
-        <v>20.621512799799177</v>
-      </c>
-      <c r="CM85" s="28"/>
-      <c r="CN85" s="28"/>
-      <c r="CO85" s="28"/>
-      <c r="CP85" s="28"/>
-      <c r="CQ85" s="9"/>
+      <c r="CL85" s="27">
+        <v>20.875795965991898</v>
+      </c>
+      <c r="CM85" s="27">
+        <v>10.204994108865066</v>
+      </c>
+      <c r="CN85" s="27"/>
+      <c r="CO85" s="27"/>
+      <c r="CP85" s="27"/>
+      <c r="CQ85" s="27"/>
       <c r="CR85" s="9"/>
       <c r="CS85" s="9"/>
       <c r="CT85" s="9"/>
@@ -32901,38 +32957,40 @@
       <c r="CC86" s="19">
         <v>-30.616510598920428</v>
       </c>
-      <c r="CD86" s="28">
+      <c r="CD86" s="27">
         <v>-23.765332340967191</v>
       </c>
-      <c r="CE86" s="28">
+      <c r="CE86" s="27">
         <v>328.76444149116821</v>
       </c>
-      <c r="CF86" s="28">
+      <c r="CF86" s="27">
         <v>61.370053985177577</v>
       </c>
-      <c r="CG86" s="28">
+      <c r="CG86" s="27">
         <v>23.513516779833026</v>
       </c>
-      <c r="CH86" s="28">
+      <c r="CH86" s="27">
         <v>18.263073676480232</v>
       </c>
-      <c r="CI86" s="28">
+      <c r="CI86" s="27">
         <v>0.28458169947023748</v>
       </c>
-      <c r="CJ86" s="28">
+      <c r="CJ86" s="27">
         <v>7.9814618835793993</v>
       </c>
-      <c r="CK86" s="28">
+      <c r="CK86" s="27">
         <v>8.0760003916954304</v>
       </c>
-      <c r="CL86" s="28">
-        <v>13.261111558324345</v>
-      </c>
-      <c r="CM86" s="28"/>
-      <c r="CN86" s="28"/>
-      <c r="CO86" s="28"/>
-      <c r="CP86" s="28"/>
-      <c r="CQ86" s="9"/>
+      <c r="CL86" s="27">
+        <v>13.732260661805057</v>
+      </c>
+      <c r="CM86" s="27">
+        <v>-3.9267705222619611</v>
+      </c>
+      <c r="CN86" s="27"/>
+      <c r="CO86" s="27"/>
+      <c r="CP86" s="27"/>
+      <c r="CQ86" s="27"/>
       <c r="CR86" s="9"/>
       <c r="CS86" s="9"/>
       <c r="CT86" s="9"/>
@@ -33053,7 +33111,7 @@
       <c r="CN87" s="20"/>
       <c r="CO87" s="20"/>
       <c r="CP87" s="20"/>
-      <c r="CQ87" s="9"/>
+      <c r="CQ87" s="20"/>
       <c r="CR87" s="9"/>
       <c r="CS87" s="9"/>
       <c r="CT87" s="9"/>
@@ -33324,38 +33382,40 @@
       <c r="CC88" s="19">
         <v>-35.74058473440175</v>
       </c>
-      <c r="CD88" s="28">
+      <c r="CD88" s="27">
         <v>-25.180285420550391</v>
       </c>
-      <c r="CE88" s="28">
+      <c r="CE88" s="27">
         <v>35.316541440794936</v>
       </c>
-      <c r="CF88" s="28">
+      <c r="CF88" s="27">
         <v>24.883396049849111</v>
       </c>
-      <c r="CG88" s="28">
+      <c r="CG88" s="27">
         <v>15.584219274517565</v>
       </c>
-      <c r="CH88" s="28">
+      <c r="CH88" s="27">
         <v>13.49475889577559</v>
       </c>
-      <c r="CI88" s="28">
+      <c r="CI88" s="27">
         <v>15.314480758402908</v>
       </c>
-      <c r="CJ88" s="28">
+      <c r="CJ88" s="27">
         <v>10.806892578498449</v>
       </c>
-      <c r="CK88" s="28">
+      <c r="CK88" s="27">
         <v>8.6266258973066954</v>
       </c>
-      <c r="CL88" s="28">
-        <v>14.259005093152055</v>
-      </c>
-      <c r="CM88" s="28"/>
-      <c r="CN88" s="28"/>
-      <c r="CO88" s="28"/>
-      <c r="CP88" s="28"/>
-      <c r="CQ88" s="9"/>
+      <c r="CL88" s="27">
+        <v>14.616354889345644</v>
+      </c>
+      <c r="CM88" s="27">
+        <v>2.1369742880570612</v>
+      </c>
+      <c r="CN88" s="27"/>
+      <c r="CO88" s="27"/>
+      <c r="CP88" s="27"/>
+      <c r="CQ88" s="27"/>
       <c r="CR88" s="9"/>
       <c r="CS88" s="9"/>
       <c r="CT88" s="9"/>
@@ -33477,6 +33537,7 @@
       <c r="CN89" s="23"/>
       <c r="CO89" s="23"/>
       <c r="CP89" s="23"/>
+      <c r="CQ89" s="23"/>
     </row>
     <row r="90" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
@@ -33560,20 +33621,20 @@
       <c r="CA90" s="19"/>
       <c r="CB90" s="19"/>
       <c r="CC90" s="19"/>
-      <c r="CD90" s="28"/>
-      <c r="CE90" s="28"/>
-      <c r="CF90" s="28"/>
-      <c r="CG90" s="28"/>
-      <c r="CH90" s="28"/>
-      <c r="CI90" s="28"/>
-      <c r="CJ90" s="28"/>
-      <c r="CK90" s="28"/>
-      <c r="CL90" s="28"/>
-      <c r="CM90" s="28"/>
-      <c r="CN90" s="28"/>
-      <c r="CO90" s="28"/>
-      <c r="CP90" s="28"/>
-      <c r="CQ90" s="9"/>
+      <c r="CD90" s="27"/>
+      <c r="CE90" s="27"/>
+      <c r="CF90" s="27"/>
+      <c r="CG90" s="27"/>
+      <c r="CH90" s="27"/>
+      <c r="CI90" s="27"/>
+      <c r="CJ90" s="27"/>
+      <c r="CK90" s="27"/>
+      <c r="CL90" s="27"/>
+      <c r="CM90" s="27"/>
+      <c r="CN90" s="27"/>
+      <c r="CO90" s="27"/>
+      <c r="CP90" s="27"/>
+      <c r="CQ90" s="27"/>
       <c r="CR90" s="9"/>
       <c r="CS90" s="9"/>
       <c r="CT90" s="9"/>
@@ -33844,38 +33905,40 @@
       <c r="CC91" s="19">
         <v>-26.806079372893777</v>
       </c>
-      <c r="CD91" s="28">
+      <c r="CD91" s="27">
         <v>-22.523565104092626</v>
       </c>
-      <c r="CE91" s="28">
+      <c r="CE91" s="27">
         <v>27.380893013873191</v>
       </c>
-      <c r="CF91" s="28">
+      <c r="CF91" s="27">
         <v>17.972326368549446</v>
       </c>
-      <c r="CG91" s="28">
+      <c r="CG91" s="27">
         <v>18.686404975595877</v>
       </c>
-      <c r="CH91" s="28">
+      <c r="CH91" s="27">
         <v>13.143598601767835</v>
       </c>
-      <c r="CI91" s="28">
+      <c r="CI91" s="27">
         <v>18.720724892382322</v>
       </c>
-      <c r="CJ91" s="28">
+      <c r="CJ91" s="27">
         <v>11.352348004764607</v>
       </c>
-      <c r="CK91" s="28">
+      <c r="CK91" s="27">
         <v>6.1642749370523831</v>
       </c>
-      <c r="CL91" s="28">
-        <v>10.821307593974154</v>
-      </c>
-      <c r="CM91" s="28"/>
-      <c r="CN91" s="28"/>
-      <c r="CO91" s="28"/>
-      <c r="CP91" s="28"/>
-      <c r="CQ91" s="9"/>
+      <c r="CL91" s="27">
+        <v>11.10913760356911</v>
+      </c>
+      <c r="CM91" s="27">
+        <v>3.4928509993221724</v>
+      </c>
+      <c r="CN91" s="27"/>
+      <c r="CO91" s="27"/>
+      <c r="CP91" s="27"/>
+      <c r="CQ91" s="27"/>
       <c r="CR91" s="9"/>
       <c r="CS91" s="9"/>
       <c r="CT91" s="9"/>
@@ -33997,6 +34060,7 @@
       <c r="CN92" s="14"/>
       <c r="CO92" s="14"/>
       <c r="CP92" s="14"/>
+      <c r="CQ92" s="14"/>
     </row>
     <row r="93" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
@@ -34293,147 +34357,148 @@
     </row>
     <row r="104" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
-      <c r="B104" s="30">
+      <c r="B104" s="29">
         <v>2000</v>
       </c>
-      <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="30">
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="29">
         <v>2001</v>
       </c>
-      <c r="G104" s="31"/>
-      <c r="H104" s="31"/>
-      <c r="I104" s="31"/>
-      <c r="J104" s="30">
+      <c r="G104" s="30"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="29">
         <v>2002</v>
       </c>
-      <c r="K104" s="31"/>
-      <c r="L104" s="31"/>
-      <c r="M104" s="31"/>
-      <c r="N104" s="30">
+      <c r="K104" s="30"/>
+      <c r="L104" s="30"/>
+      <c r="M104" s="30"/>
+      <c r="N104" s="29">
         <v>2003</v>
       </c>
-      <c r="O104" s="31"/>
-      <c r="P104" s="31"/>
-      <c r="Q104" s="31"/>
-      <c r="R104" s="30">
+      <c r="O104" s="30"/>
+      <c r="P104" s="30"/>
+      <c r="Q104" s="30"/>
+      <c r="R104" s="29">
         <v>2004</v>
       </c>
-      <c r="S104" s="31"/>
-      <c r="T104" s="31"/>
-      <c r="U104" s="31"/>
-      <c r="V104" s="30">
+      <c r="S104" s="30"/>
+      <c r="T104" s="30"/>
+      <c r="U104" s="30"/>
+      <c r="V104" s="29">
         <v>2005</v>
       </c>
-      <c r="W104" s="31"/>
-      <c r="X104" s="31"/>
-      <c r="Y104" s="31"/>
-      <c r="Z104" s="30">
+      <c r="W104" s="30"/>
+      <c r="X104" s="30"/>
+      <c r="Y104" s="30"/>
+      <c r="Z104" s="29">
         <v>2006</v>
       </c>
-      <c r="AA104" s="31"/>
-      <c r="AB104" s="31"/>
-      <c r="AC104" s="31"/>
-      <c r="AD104" s="30">
+      <c r="AA104" s="30"/>
+      <c r="AB104" s="30"/>
+      <c r="AC104" s="30"/>
+      <c r="AD104" s="29">
         <v>2007</v>
       </c>
-      <c r="AE104" s="31"/>
-      <c r="AF104" s="31"/>
-      <c r="AG104" s="31"/>
-      <c r="AH104" s="30">
+      <c r="AE104" s="30"/>
+      <c r="AF104" s="30"/>
+      <c r="AG104" s="30"/>
+      <c r="AH104" s="29">
         <v>2008</v>
       </c>
-      <c r="AI104" s="31"/>
-      <c r="AJ104" s="31"/>
-      <c r="AK104" s="31"/>
-      <c r="AL104" s="30">
+      <c r="AI104" s="30"/>
+      <c r="AJ104" s="30"/>
+      <c r="AK104" s="30"/>
+      <c r="AL104" s="29">
         <v>2009</v>
       </c>
-      <c r="AM104" s="31"/>
-      <c r="AN104" s="31"/>
-      <c r="AO104" s="31"/>
-      <c r="AP104" s="30">
+      <c r="AM104" s="30"/>
+      <c r="AN104" s="30"/>
+      <c r="AO104" s="30"/>
+      <c r="AP104" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ104" s="31"/>
-      <c r="AR104" s="31"/>
-      <c r="AS104" s="31"/>
-      <c r="AT104" s="30">
+      <c r="AQ104" s="30"/>
+      <c r="AR104" s="30"/>
+      <c r="AS104" s="30"/>
+      <c r="AT104" s="29">
         <v>2011</v>
       </c>
-      <c r="AU104" s="31"/>
-      <c r="AV104" s="31"/>
-      <c r="AW104" s="31"/>
-      <c r="AX104" s="30">
+      <c r="AU104" s="30"/>
+      <c r="AV104" s="30"/>
+      <c r="AW104" s="30"/>
+      <c r="AX104" s="29">
         <v>2012</v>
       </c>
-      <c r="AY104" s="31"/>
-      <c r="AZ104" s="31"/>
-      <c r="BA104" s="31"/>
-      <c r="BB104" s="30">
+      <c r="AY104" s="30"/>
+      <c r="AZ104" s="30"/>
+      <c r="BA104" s="30"/>
+      <c r="BB104" s="29">
         <v>2013</v>
       </c>
-      <c r="BC104" s="31"/>
-      <c r="BD104" s="31"/>
-      <c r="BE104" s="31"/>
-      <c r="BF104" s="30">
+      <c r="BC104" s="30"/>
+      <c r="BD104" s="30"/>
+      <c r="BE104" s="30"/>
+      <c r="BF104" s="29">
         <v>2014</v>
       </c>
-      <c r="BG104" s="31"/>
-      <c r="BH104" s="31"/>
-      <c r="BI104" s="31"/>
-      <c r="BJ104" s="30">
+      <c r="BG104" s="30"/>
+      <c r="BH104" s="30"/>
+      <c r="BI104" s="30"/>
+      <c r="BJ104" s="29">
         <v>2015</v>
       </c>
-      <c r="BK104" s="31"/>
-      <c r="BL104" s="31"/>
-      <c r="BM104" s="31"/>
-      <c r="BN104" s="30">
+      <c r="BK104" s="30"/>
+      <c r="BL104" s="30"/>
+      <c r="BM104" s="30"/>
+      <c r="BN104" s="29">
         <v>2016</v>
       </c>
-      <c r="BO104" s="31"/>
-      <c r="BP104" s="31"/>
-      <c r="BQ104" s="31"/>
-      <c r="BR104" s="30">
+      <c r="BO104" s="30"/>
+      <c r="BP104" s="30"/>
+      <c r="BQ104" s="30"/>
+      <c r="BR104" s="29">
         <v>2017</v>
       </c>
-      <c r="BS104" s="31"/>
-      <c r="BT104" s="31"/>
-      <c r="BU104" s="31"/>
-      <c r="BV104" s="30">
+      <c r="BS104" s="30"/>
+      <c r="BT104" s="30"/>
+      <c r="BU104" s="30"/>
+      <c r="BV104" s="29">
         <v>2018</v>
       </c>
-      <c r="BW104" s="30"/>
-      <c r="BX104" s="30"/>
-      <c r="BY104" s="30"/>
-      <c r="BZ104" s="30">
+      <c r="BW104" s="29"/>
+      <c r="BX104" s="29"/>
+      <c r="BY104" s="29"/>
+      <c r="BZ104" s="29">
         <v>2019</v>
       </c>
-      <c r="CA104" s="30"/>
-      <c r="CB104" s="30"/>
-      <c r="CC104" s="30"/>
-      <c r="CD104" s="30">
+      <c r="CA104" s="29"/>
+      <c r="CB104" s="29"/>
+      <c r="CC104" s="29"/>
+      <c r="CD104" s="29">
         <v>2020</v>
       </c>
-      <c r="CE104" s="30"/>
-      <c r="CF104" s="30"/>
-      <c r="CG104" s="30"/>
-      <c r="CH104" s="30">
+      <c r="CE104" s="29"/>
+      <c r="CF104" s="29"/>
+      <c r="CG104" s="29"/>
+      <c r="CH104" s="29">
         <v>2021</v>
       </c>
-      <c r="CI104" s="30"/>
-      <c r="CJ104" s="30"/>
-      <c r="CK104" s="30"/>
-      <c r="CL104" s="30">
+      <c r="CI104" s="29"/>
+      <c r="CJ104" s="29"/>
+      <c r="CK104" s="29"/>
+      <c r="CL104" s="29">
         <v>2022</v>
       </c>
-      <c r="CM104" s="30"/>
-      <c r="CN104" s="30"/>
-      <c r="CO104" s="30"/>
-      <c r="CP104" s="25">
+      <c r="CM104" s="29"/>
+      <c r="CN104" s="29"/>
+      <c r="CO104" s="29"/>
+      <c r="CP104" s="29">
         <v>2023</v>
       </c>
+      <c r="CQ104" s="31"/>
     </row>
     <row r="105" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
@@ -34717,6 +34782,9 @@
       </c>
       <c r="CP105" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="CQ105" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34966,46 +35034,48 @@
       <c r="CC107" s="24">
         <v>99.690666334522035</v>
       </c>
-      <c r="CD107" s="29">
+      <c r="CD107" s="28">
         <v>110.26580788055082</v>
       </c>
-      <c r="CE107" s="29">
+      <c r="CE107" s="28">
         <v>101.55697744768138</v>
       </c>
-      <c r="CF107" s="29">
+      <c r="CF107" s="28">
         <v>107.86345740733043</v>
       </c>
-      <c r="CG107" s="29">
+      <c r="CG107" s="28">
         <v>101.69977324269048</v>
       </c>
-      <c r="CH107" s="29">
+      <c r="CH107" s="28">
         <v>111.17377522144784</v>
       </c>
-      <c r="CI107" s="29">
+      <c r="CI107" s="28">
         <v>105.70481676144105</v>
       </c>
-      <c r="CJ107" s="29">
+      <c r="CJ107" s="28">
         <v>111.77986794634754</v>
       </c>
-      <c r="CK107" s="29">
+      <c r="CK107" s="28">
         <v>106.21754603887462</v>
       </c>
-      <c r="CL107" s="29">
+      <c r="CL107" s="28">
         <v>118.31173613609008</v>
       </c>
-      <c r="CM107" s="29">
+      <c r="CM107" s="28">
         <v>114.2922170609275</v>
       </c>
-      <c r="CN107" s="29">
+      <c r="CN107" s="28">
         <v>122.36603494741189</v>
       </c>
-      <c r="CO107" s="29">
+      <c r="CO107" s="28">
         <v>113.26262931619794</v>
       </c>
-      <c r="CP107" s="29">
-        <v>123.88961599744597</v>
-      </c>
-      <c r="CQ107" s="9"/>
+      <c r="CP107" s="28">
+        <v>123.8931223185533</v>
+      </c>
+      <c r="CQ107" s="28">
+        <v>118.50142985331824</v>
+      </c>
       <c r="CR107" s="9"/>
       <c r="CS107" s="9"/>
       <c r="CT107" s="9"/>
@@ -35284,46 +35354,48 @@
       <c r="CC108" s="24">
         <v>104.08316734075956</v>
       </c>
-      <c r="CD108" s="29">
+      <c r="CD108" s="28">
         <v>100.3080215092087</v>
       </c>
-      <c r="CE108" s="29">
+      <c r="CE108" s="28">
         <v>98.989565820614089</v>
       </c>
-      <c r="CF108" s="29">
+      <c r="CF108" s="28">
         <v>112.21853540472053</v>
       </c>
-      <c r="CG108" s="29">
+      <c r="CG108" s="28">
         <v>106.09546630400037</v>
       </c>
-      <c r="CH108" s="29">
+      <c r="CH108" s="28">
         <v>101.05478495542721</v>
       </c>
-      <c r="CI108" s="29">
+      <c r="CI108" s="28">
         <v>102.41515237601517</v>
       </c>
-      <c r="CJ108" s="29">
+      <c r="CJ108" s="28">
         <v>116.15357655130316</v>
       </c>
-      <c r="CK108" s="29">
+      <c r="CK108" s="28">
         <v>110.73024143143924</v>
       </c>
-      <c r="CL108" s="29">
+      <c r="CL108" s="28">
         <v>107.5881278956349</v>
       </c>
-      <c r="CM108" s="29">
+      <c r="CM108" s="28">
         <v>110.861880915884</v>
       </c>
-      <c r="CN108" s="29">
+      <c r="CN108" s="28">
         <v>127.25295002357193</v>
       </c>
-      <c r="CO108" s="29">
+      <c r="CO108" s="28">
         <v>118.19279855806573</v>
       </c>
-      <c r="CP108" s="29">
-        <v>112.69086222215317</v>
-      </c>
-      <c r="CQ108" s="9"/>
+      <c r="CP108" s="28">
+        <v>112.69345658195303</v>
+      </c>
+      <c r="CQ108" s="28">
+        <v>114.81973487601655</v>
+      </c>
       <c r="CR108" s="9"/>
       <c r="CS108" s="9"/>
       <c r="CT108" s="9"/>
@@ -35602,46 +35674,48 @@
       <c r="CC109" s="24">
         <v>91.664109417602418</v>
       </c>
-      <c r="CD109" s="29">
+      <c r="CD109" s="28">
         <v>112.54805990032908</v>
       </c>
-      <c r="CE109" s="29">
+      <c r="CE109" s="28">
         <v>104.65523295369555</v>
       </c>
-      <c r="CF109" s="29">
+      <c r="CF109" s="28">
         <v>109.89944756640004</v>
       </c>
-      <c r="CG109" s="29">
+      <c r="CG109" s="28">
         <v>93.462437003437287</v>
       </c>
-      <c r="CH109" s="29">
+      <c r="CH109" s="28">
         <v>113.46115398869969</v>
       </c>
-      <c r="CI109" s="29">
+      <c r="CI109" s="28">
         <v>108.62148513306533</v>
       </c>
-      <c r="CJ109" s="29">
+      <c r="CJ109" s="28">
         <v>114.11837506408236</v>
       </c>
-      <c r="CK109" s="29">
+      <c r="CK109" s="28">
         <v>97.915217688209665</v>
       </c>
-      <c r="CL109" s="29">
+      <c r="CL109" s="28">
         <v>120.93406329895843</v>
       </c>
-      <c r="CM109" s="29">
+      <c r="CM109" s="28">
         <v>117.64500003841923</v>
       </c>
-      <c r="CN109" s="29">
+      <c r="CN109" s="28">
         <v>122.2019131301867</v>
       </c>
-      <c r="CO109" s="29">
+      <c r="CO109" s="28">
         <v>104.73450632095862</v>
       </c>
-      <c r="CP109" s="29">
-        <v>127.00994544112976</v>
-      </c>
-      <c r="CQ109" s="9"/>
+      <c r="CP109" s="28">
+        <v>127.01267265567542</v>
+      </c>
+      <c r="CQ109" s="28">
+        <v>121.85384300110846</v>
+      </c>
       <c r="CR109" s="9"/>
       <c r="CS109" s="9"/>
       <c r="CT109" s="9"/>
@@ -36049,46 +36123,48 @@
       <c r="CC111" s="24">
         <v>99.260765344545916</v>
       </c>
-      <c r="CD111" s="29">
+      <c r="CD111" s="28">
         <v>105.71301668972022</v>
       </c>
-      <c r="CE111" s="29">
+      <c r="CE111" s="28">
         <v>100.64621711037296</v>
       </c>
-      <c r="CF111" s="29">
+      <c r="CF111" s="28">
         <v>110.47705424933957</v>
       </c>
-      <c r="CG111" s="29">
+      <c r="CG111" s="28">
         <v>100.56852254954056</v>
       </c>
-      <c r="CH111" s="29">
+      <c r="CH111" s="28">
         <v>107.91123372215507</v>
       </c>
-      <c r="CI111" s="29">
+      <c r="CI111" s="28">
         <v>105.58778800566786</v>
       </c>
-      <c r="CJ111" s="29">
+      <c r="CJ111" s="28">
         <v>114.05107375424058</v>
       </c>
-      <c r="CK111" s="29">
+      <c r="CK111" s="28">
         <v>104.79255425616898</v>
       </c>
-      <c r="CL111" s="29">
+      <c r="CL111" s="28">
         <v>114.42616332601681</v>
       </c>
-      <c r="CM111" s="29">
+      <c r="CM111" s="28">
         <v>114.15775432125356</v>
       </c>
-      <c r="CN111" s="29">
+      <c r="CN111" s="28">
         <v>124.10808501022979</v>
       </c>
-      <c r="CO111" s="29">
+      <c r="CO111" s="28">
         <v>111.8986793996678</v>
       </c>
-      <c r="CP111" s="29">
-        <v>119.66736706553797</v>
-      </c>
-      <c r="CQ111" s="9"/>
+      <c r="CP111" s="28">
+        <v>119.67643287052397</v>
+      </c>
+      <c r="CQ111" s="28">
+        <v>118.18609678810827</v>
+      </c>
       <c r="CR111" s="9"/>
       <c r="CS111" s="9"/>
       <c r="CT111" s="9"/>
@@ -36218,6 +36294,7 @@
       <c r="CN112" s="12"/>
       <c r="CO112" s="12"/>
       <c r="CP112" s="12"/>
+      <c r="CQ112" s="12"/>
     </row>
     <row r="113" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
@@ -36301,20 +36378,20 @@
       <c r="CA113" s="11"/>
       <c r="CB113" s="11"/>
       <c r="CC113" s="11"/>
-      <c r="CD113" s="27"/>
-      <c r="CE113" s="27"/>
-      <c r="CF113" s="27"/>
-      <c r="CG113" s="27"/>
-      <c r="CH113" s="27"/>
-      <c r="CI113" s="27"/>
-      <c r="CJ113" s="27"/>
-      <c r="CK113" s="27"/>
-      <c r="CL113" s="27"/>
-      <c r="CM113" s="27"/>
-      <c r="CN113" s="27"/>
-      <c r="CO113" s="27"/>
-      <c r="CP113" s="27"/>
-      <c r="CQ113" s="9"/>
+      <c r="CD113" s="26"/>
+      <c r="CE113" s="26"/>
+      <c r="CF113" s="26"/>
+      <c r="CG113" s="26"/>
+      <c r="CH113" s="26"/>
+      <c r="CI113" s="26"/>
+      <c r="CJ113" s="26"/>
+      <c r="CK113" s="26"/>
+      <c r="CL113" s="26"/>
+      <c r="CM113" s="26"/>
+      <c r="CN113" s="26"/>
+      <c r="CO113" s="26"/>
+      <c r="CP113" s="26"/>
+      <c r="CQ113" s="26"/>
       <c r="CR113" s="9"/>
       <c r="CS113" s="9"/>
       <c r="CT113" s="9"/>
@@ -36593,46 +36670,48 @@
       <c r="CC114" s="24">
         <v>96.020661123189427</v>
       </c>
-      <c r="CD114" s="29">
+      <c r="CD114" s="28">
         <v>106.26431802117915</v>
       </c>
-      <c r="CE114" s="29">
+      <c r="CE114" s="28">
         <v>113.1623639345887</v>
       </c>
-      <c r="CF114" s="29">
+      <c r="CF114" s="28">
         <v>102.82598942992512</v>
       </c>
-      <c r="CG114" s="29">
+      <c r="CG114" s="28">
         <v>99.162820860083883</v>
       </c>
-      <c r="CH114" s="29">
+      <c r="CH114" s="28">
         <v>105.31047168607701</v>
       </c>
-      <c r="CI114" s="29">
+      <c r="CI114" s="28">
         <v>117.49586557027052</v>
       </c>
-      <c r="CJ114" s="29">
+      <c r="CJ114" s="28">
         <v>109.57720317415296</v>
       </c>
-      <c r="CK114" s="29">
+      <c r="CK114" s="28">
         <v>103.35734241193842</v>
       </c>
-      <c r="CL114" s="29">
+      <c r="CL114" s="28">
         <v>113.83648388120595</v>
       </c>
-      <c r="CM114" s="29">
+      <c r="CM114" s="28">
         <v>125.57733082184939</v>
       </c>
-      <c r="CN114" s="29">
+      <c r="CN114" s="28">
         <v>116.18968110733041</v>
       </c>
-      <c r="CO114" s="29">
+      <c r="CO114" s="28">
         <v>109.32473035809807</v>
       </c>
-      <c r="CP114" s="29">
-        <v>120.46967007446432</v>
-      </c>
-      <c r="CQ114" s="9"/>
+      <c r="CP114" s="28">
+        <v>120.51823143151049</v>
+      </c>
+      <c r="CQ114" s="28">
+        <v>131.25587818625525</v>
+      </c>
       <c r="CR114" s="9"/>
       <c r="CS114" s="9"/>
       <c r="CT114" s="9"/>
@@ -36762,6 +36841,7 @@
       <c r="CN115" s="14"/>
       <c r="CO115" s="14"/>
       <c r="CP115" s="14"/>
+      <c r="CQ115" s="14"/>
     </row>
     <row r="116" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
@@ -36805,147 +36885,148 @@
     </row>
     <row r="128" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
-      <c r="B128" s="30">
+      <c r="B128" s="29">
         <v>2000</v>
       </c>
-      <c r="C128" s="31"/>
-      <c r="D128" s="31"/>
-      <c r="E128" s="31"/>
-      <c r="F128" s="30">
+      <c r="C128" s="30"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="29">
         <v>2001</v>
       </c>
-      <c r="G128" s="31"/>
-      <c r="H128" s="31"/>
-      <c r="I128" s="31"/>
-      <c r="J128" s="30">
+      <c r="G128" s="30"/>
+      <c r="H128" s="30"/>
+      <c r="I128" s="30"/>
+      <c r="J128" s="29">
         <v>2002</v>
       </c>
-      <c r="K128" s="31"/>
-      <c r="L128" s="31"/>
-      <c r="M128" s="31"/>
-      <c r="N128" s="30">
+      <c r="K128" s="30"/>
+      <c r="L128" s="30"/>
+      <c r="M128" s="30"/>
+      <c r="N128" s="29">
         <v>2003</v>
       </c>
-      <c r="O128" s="31"/>
-      <c r="P128" s="31"/>
-      <c r="Q128" s="31"/>
-      <c r="R128" s="30">
+      <c r="O128" s="30"/>
+      <c r="P128" s="30"/>
+      <c r="Q128" s="30"/>
+      <c r="R128" s="29">
         <v>2004</v>
       </c>
-      <c r="S128" s="31"/>
-      <c r="T128" s="31"/>
-      <c r="U128" s="31"/>
-      <c r="V128" s="30">
+      <c r="S128" s="30"/>
+      <c r="T128" s="30"/>
+      <c r="U128" s="30"/>
+      <c r="V128" s="29">
         <v>2005</v>
       </c>
-      <c r="W128" s="31"/>
-      <c r="X128" s="31"/>
-      <c r="Y128" s="31"/>
-      <c r="Z128" s="30">
+      <c r="W128" s="30"/>
+      <c r="X128" s="30"/>
+      <c r="Y128" s="30"/>
+      <c r="Z128" s="29">
         <v>2006</v>
       </c>
-      <c r="AA128" s="31"/>
-      <c r="AB128" s="31"/>
-      <c r="AC128" s="31"/>
-      <c r="AD128" s="30">
+      <c r="AA128" s="30"/>
+      <c r="AB128" s="30"/>
+      <c r="AC128" s="30"/>
+      <c r="AD128" s="29">
         <v>2007</v>
       </c>
-      <c r="AE128" s="31"/>
-      <c r="AF128" s="31"/>
-      <c r="AG128" s="31"/>
-      <c r="AH128" s="30">
+      <c r="AE128" s="30"/>
+      <c r="AF128" s="30"/>
+      <c r="AG128" s="30"/>
+      <c r="AH128" s="29">
         <v>2008</v>
       </c>
-      <c r="AI128" s="31"/>
-      <c r="AJ128" s="31"/>
-      <c r="AK128" s="31"/>
-      <c r="AL128" s="30">
+      <c r="AI128" s="30"/>
+      <c r="AJ128" s="30"/>
+      <c r="AK128" s="30"/>
+      <c r="AL128" s="29">
         <v>2009</v>
       </c>
-      <c r="AM128" s="31"/>
-      <c r="AN128" s="31"/>
-      <c r="AO128" s="31"/>
-      <c r="AP128" s="30">
+      <c r="AM128" s="30"/>
+      <c r="AN128" s="30"/>
+      <c r="AO128" s="30"/>
+      <c r="AP128" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="31"/>
-      <c r="AR128" s="31"/>
-      <c r="AS128" s="31"/>
-      <c r="AT128" s="30">
+      <c r="AQ128" s="30"/>
+      <c r="AR128" s="30"/>
+      <c r="AS128" s="30"/>
+      <c r="AT128" s="29">
         <v>2011</v>
       </c>
-      <c r="AU128" s="31"/>
-      <c r="AV128" s="31"/>
-      <c r="AW128" s="31"/>
-      <c r="AX128" s="30">
+      <c r="AU128" s="30"/>
+      <c r="AV128" s="30"/>
+      <c r="AW128" s="30"/>
+      <c r="AX128" s="29">
         <v>2012</v>
       </c>
-      <c r="AY128" s="31"/>
-      <c r="AZ128" s="31"/>
-      <c r="BA128" s="31"/>
-      <c r="BB128" s="30">
+      <c r="AY128" s="30"/>
+      <c r="AZ128" s="30"/>
+      <c r="BA128" s="30"/>
+      <c r="BB128" s="29">
         <v>2013</v>
       </c>
-      <c r="BC128" s="31"/>
-      <c r="BD128" s="31"/>
-      <c r="BE128" s="31"/>
-      <c r="BF128" s="30">
+      <c r="BC128" s="30"/>
+      <c r="BD128" s="30"/>
+      <c r="BE128" s="30"/>
+      <c r="BF128" s="29">
         <v>2014</v>
       </c>
-      <c r="BG128" s="31"/>
-      <c r="BH128" s="31"/>
-      <c r="BI128" s="31"/>
-      <c r="BJ128" s="30">
+      <c r="BG128" s="30"/>
+      <c r="BH128" s="30"/>
+      <c r="BI128" s="30"/>
+      <c r="BJ128" s="29">
         <v>2015</v>
       </c>
-      <c r="BK128" s="31"/>
-      <c r="BL128" s="31"/>
-      <c r="BM128" s="31"/>
-      <c r="BN128" s="30">
+      <c r="BK128" s="30"/>
+      <c r="BL128" s="30"/>
+      <c r="BM128" s="30"/>
+      <c r="BN128" s="29">
         <v>2016</v>
       </c>
-      <c r="BO128" s="31"/>
-      <c r="BP128" s="31"/>
-      <c r="BQ128" s="31"/>
-      <c r="BR128" s="30">
+      <c r="BO128" s="30"/>
+      <c r="BP128" s="30"/>
+      <c r="BQ128" s="30"/>
+      <c r="BR128" s="29">
         <v>2017</v>
       </c>
-      <c r="BS128" s="31"/>
-      <c r="BT128" s="31"/>
-      <c r="BU128" s="31"/>
-      <c r="BV128" s="30">
+      <c r="BS128" s="30"/>
+      <c r="BT128" s="30"/>
+      <c r="BU128" s="30"/>
+      <c r="BV128" s="29">
         <v>2018</v>
       </c>
-      <c r="BW128" s="30"/>
-      <c r="BX128" s="30"/>
-      <c r="BY128" s="30"/>
-      <c r="BZ128" s="30">
+      <c r="BW128" s="29"/>
+      <c r="BX128" s="29"/>
+      <c r="BY128" s="29"/>
+      <c r="BZ128" s="29">
         <v>2019</v>
       </c>
-      <c r="CA128" s="30"/>
-      <c r="CB128" s="30"/>
-      <c r="CC128" s="30"/>
-      <c r="CD128" s="30">
+      <c r="CA128" s="29"/>
+      <c r="CB128" s="29"/>
+      <c r="CC128" s="29"/>
+      <c r="CD128" s="29">
         <v>2020</v>
       </c>
-      <c r="CE128" s="30"/>
-      <c r="CF128" s="30"/>
-      <c r="CG128" s="30"/>
-      <c r="CH128" s="30">
+      <c r="CE128" s="29"/>
+      <c r="CF128" s="29"/>
+      <c r="CG128" s="29"/>
+      <c r="CH128" s="29">
         <v>2021</v>
       </c>
-      <c r="CI128" s="30"/>
-      <c r="CJ128" s="30"/>
-      <c r="CK128" s="30"/>
-      <c r="CL128" s="30">
+      <c r="CI128" s="29"/>
+      <c r="CJ128" s="29"/>
+      <c r="CK128" s="29"/>
+      <c r="CL128" s="29">
         <v>2022</v>
       </c>
-      <c r="CM128" s="30"/>
-      <c r="CN128" s="30"/>
-      <c r="CO128" s="30"/>
-      <c r="CP128" s="25">
+      <c r="CM128" s="29"/>
+      <c r="CN128" s="29"/>
+      <c r="CO128" s="29"/>
+      <c r="CP128" s="29">
         <v>2023</v>
       </c>
+      <c r="CQ128" s="31"/>
     </row>
     <row r="129" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -37229,6 +37310,9 @@
       </c>
       <c r="CP129" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="CQ129" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37478,46 +37562,48 @@
       <c r="CC131" s="24">
         <v>27.290442893617545</v>
       </c>
-      <c r="CD131" s="29">
+      <c r="CD131" s="28">
         <v>19.897219695152575</v>
       </c>
-      <c r="CE131" s="29">
+      <c r="CE131" s="28">
         <v>47.42483212233288</v>
       </c>
-      <c r="CF131" s="29">
+      <c r="CF131" s="28">
         <v>26.657236097146779</v>
       </c>
-      <c r="CG131" s="29">
+      <c r="CG131" s="28">
         <v>35.456730374240195</v>
       </c>
-      <c r="CH131" s="29">
+      <c r="CH131" s="28">
         <v>32.947733737228262</v>
       </c>
-      <c r="CI131" s="29">
+      <c r="CI131" s="28">
         <v>49.018688966396589</v>
       </c>
-      <c r="CJ131" s="29">
+      <c r="CJ131" s="28">
         <v>33.076847354202975</v>
       </c>
-      <c r="CK131" s="29">
+      <c r="CK131" s="28">
         <v>36.32377146201037</v>
       </c>
-      <c r="CL131" s="29">
+      <c r="CL131" s="28">
         <v>26.803722214589875</v>
       </c>
-      <c r="CM131" s="29">
+      <c r="CM131" s="28">
         <v>52.865789559176669</v>
       </c>
-      <c r="CN131" s="29">
+      <c r="CN131" s="28">
         <v>32.882708178399064</v>
       </c>
-      <c r="CO131" s="29">
+      <c r="CO131" s="28">
         <v>36.539154136581665</v>
       </c>
-      <c r="CP131" s="29">
-        <v>24.595501419490379</v>
-      </c>
-      <c r="CQ131" s="9"/>
+      <c r="CP131" s="28">
+        <v>24.610724473168894</v>
+      </c>
+      <c r="CQ131" s="28">
+        <v>52.242590301309953</v>
+      </c>
       <c r="CR131" s="9"/>
       <c r="CS131" s="9"/>
       <c r="CT131" s="9"/>
@@ -37796,46 +37882,48 @@
       <c r="CC132" s="24">
         <v>45.725908259339491</v>
       </c>
-      <c r="CD132" s="29">
+      <c r="CD132" s="28">
         <v>49.611599586836405</v>
       </c>
-      <c r="CE132" s="29">
+      <c r="CE132" s="28">
         <v>44.316583560542533</v>
       </c>
-      <c r="CF132" s="29">
+      <c r="CF132" s="28">
         <v>49.647274162864491</v>
       </c>
-      <c r="CG132" s="29">
+      <c r="CG132" s="28">
         <v>35.222634621952963</v>
       </c>
-      <c r="CH132" s="29">
+      <c r="CH132" s="28">
         <v>36.370405263634304</v>
       </c>
-      <c r="CI132" s="29">
+      <c r="CI132" s="28">
         <v>25.092504438224072</v>
       </c>
-      <c r="CJ132" s="29">
+      <c r="CJ132" s="28">
         <v>36.125564263195429</v>
       </c>
-      <c r="CK132" s="29">
+      <c r="CK132" s="28">
         <v>32.17452413432855</v>
       </c>
-      <c r="CL132" s="29">
+      <c r="CL132" s="28">
         <v>41.059833435824842</v>
       </c>
-      <c r="CM132" s="29">
+      <c r="CM132" s="28">
         <v>24.579961825176643</v>
       </c>
-      <c r="CN132" s="29">
+      <c r="CN132" s="28">
         <v>37.583387271163389</v>
       </c>
-      <c r="CO132" s="29">
+      <c r="CO132" s="28">
         <v>32.065007286746486</v>
       </c>
-      <c r="CP132" s="29">
-        <v>43.413566764450003</v>
-      </c>
-      <c r="CQ132" s="9"/>
+      <c r="CP132" s="28">
+        <v>43.367160517695467</v>
+      </c>
+      <c r="CQ132" s="28">
+        <v>26.532172707882179</v>
+      </c>
       <c r="CR132" s="9"/>
       <c r="CS132" s="9"/>
       <c r="CT132" s="9"/>
@@ -38114,46 +38202,48 @@
       <c r="CC133" s="24">
         <v>26.983648847042975</v>
       </c>
-      <c r="CD133" s="29">
+      <c r="CD133" s="28">
         <v>30.491180718011023</v>
       </c>
-      <c r="CE133" s="29">
+      <c r="CE133" s="28">
         <v>8.2585843171245834</v>
       </c>
-      <c r="CF133" s="29">
+      <c r="CF133" s="28">
         <v>23.69548973998873</v>
       </c>
-      <c r="CG133" s="29">
+      <c r="CG133" s="28">
         <v>29.320635003806846</v>
       </c>
-      <c r="CH133" s="29">
+      <c r="CH133" s="28">
         <v>30.681860999137427</v>
       </c>
-      <c r="CI133" s="29">
+      <c r="CI133" s="28">
         <v>25.888806595379339</v>
       </c>
-      <c r="CJ133" s="29">
+      <c r="CJ133" s="28">
         <v>30.797588382601599</v>
       </c>
-      <c r="CK133" s="29">
+      <c r="CK133" s="28">
         <v>31.501704403661062</v>
       </c>
-      <c r="CL133" s="29">
+      <c r="CL133" s="28">
         <v>32.13644434958529</v>
       </c>
-      <c r="CM133" s="29">
+      <c r="CM133" s="28">
         <v>22.554248615646681</v>
       </c>
-      <c r="CN133" s="29">
+      <c r="CN133" s="28">
         <v>29.533904550437555</v>
       </c>
-      <c r="CO133" s="29">
+      <c r="CO133" s="28">
         <v>31.395838576671846</v>
       </c>
-      <c r="CP133" s="29">
-        <v>31.990931816059632</v>
-      </c>
-      <c r="CQ133" s="9"/>
+      <c r="CP133" s="28">
+        <v>32.022115009135625</v>
+      </c>
+      <c r="CQ133" s="28">
+        <v>21.225236990807854</v>
+      </c>
       <c r="CR133" s="9"/>
       <c r="CS133" s="9"/>
       <c r="CT133" s="9"/>
@@ -38561,46 +38651,48 @@
       <c r="CC135" s="24">
         <v>100</v>
       </c>
-      <c r="CD135" s="29">
+      <c r="CD135" s="28">
         <v>100</v>
       </c>
-      <c r="CE135" s="29">
+      <c r="CE135" s="28">
         <v>100</v>
       </c>
-      <c r="CF135" s="29">
+      <c r="CF135" s="28">
         <v>100</v>
       </c>
-      <c r="CG135" s="29">
+      <c r="CG135" s="28">
         <v>100</v>
       </c>
-      <c r="CH135" s="29">
+      <c r="CH135" s="28">
         <v>100</v>
       </c>
-      <c r="CI135" s="29">
+      <c r="CI135" s="28">
         <v>100</v>
       </c>
-      <c r="CJ135" s="29">
+      <c r="CJ135" s="28">
         <v>100</v>
       </c>
-      <c r="CK135" s="29">
+      <c r="CK135" s="28">
         <v>100</v>
       </c>
-      <c r="CL135" s="29">
+      <c r="CL135" s="28">
         <v>100</v>
       </c>
-      <c r="CM135" s="29">
+      <c r="CM135" s="28">
         <v>100</v>
       </c>
-      <c r="CN135" s="29">
+      <c r="CN135" s="28">
         <v>100</v>
       </c>
-      <c r="CO135" s="29">
+      <c r="CO135" s="28">
         <v>100</v>
       </c>
-      <c r="CP135" s="29">
+      <c r="CP135" s="28">
         <v>100</v>
       </c>
-      <c r="CQ135" s="9"/>
+      <c r="CQ135" s="28">
+        <v>100</v>
+      </c>
       <c r="CR135" s="9"/>
       <c r="CS135" s="9"/>
       <c r="CT135" s="9"/>
@@ -38730,6 +38822,7 @@
       <c r="CN136" s="12"/>
       <c r="CO136" s="12"/>
       <c r="CP136" s="12"/>
+      <c r="CQ136" s="12"/>
     </row>
     <row r="137" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
@@ -38813,20 +38906,20 @@
       <c r="CA137" s="11"/>
       <c r="CB137" s="11"/>
       <c r="CC137" s="11"/>
-      <c r="CD137" s="27"/>
-      <c r="CE137" s="27"/>
-      <c r="CF137" s="27"/>
-      <c r="CG137" s="27"/>
-      <c r="CH137" s="27"/>
-      <c r="CI137" s="27"/>
-      <c r="CJ137" s="27"/>
-      <c r="CK137" s="27"/>
-      <c r="CL137" s="27"/>
-      <c r="CM137" s="27"/>
-      <c r="CN137" s="27"/>
-      <c r="CO137" s="27"/>
-      <c r="CP137" s="27"/>
-      <c r="CQ137" s="9"/>
+      <c r="CD137" s="26"/>
+      <c r="CE137" s="26"/>
+      <c r="CF137" s="26"/>
+      <c r="CG137" s="26"/>
+      <c r="CH137" s="26"/>
+      <c r="CI137" s="26"/>
+      <c r="CJ137" s="26"/>
+      <c r="CK137" s="26"/>
+      <c r="CL137" s="26"/>
+      <c r="CM137" s="26"/>
+      <c r="CN137" s="26"/>
+      <c r="CO137" s="26"/>
+      <c r="CP137" s="26"/>
+      <c r="CQ137" s="26"/>
       <c r="CR137" s="9"/>
       <c r="CS137" s="9"/>
       <c r="CT137" s="9"/>
@@ -38943,20 +39036,20 @@
       <c r="CA138" s="11"/>
       <c r="CB138" s="11"/>
       <c r="CC138" s="11"/>
-      <c r="CD138" s="27"/>
-      <c r="CE138" s="27"/>
-      <c r="CF138" s="27"/>
-      <c r="CG138" s="27"/>
-      <c r="CH138" s="27"/>
-      <c r="CI138" s="27"/>
-      <c r="CJ138" s="27"/>
-      <c r="CK138" s="27"/>
-      <c r="CL138" s="27"/>
-      <c r="CM138" s="27"/>
-      <c r="CN138" s="27"/>
-      <c r="CO138" s="27"/>
-      <c r="CP138" s="27"/>
-      <c r="CQ138" s="9"/>
+      <c r="CD138" s="26"/>
+      <c r="CE138" s="26"/>
+      <c r="CF138" s="26"/>
+      <c r="CG138" s="26"/>
+      <c r="CH138" s="26"/>
+      <c r="CI138" s="26"/>
+      <c r="CJ138" s="26"/>
+      <c r="CK138" s="26"/>
+      <c r="CL138" s="26"/>
+      <c r="CM138" s="26"/>
+      <c r="CN138" s="26"/>
+      <c r="CO138" s="26"/>
+      <c r="CP138" s="26"/>
+      <c r="CQ138" s="26"/>
       <c r="CR138" s="9"/>
       <c r="CS138" s="9"/>
       <c r="CT138" s="9"/>
@@ -39086,6 +39179,7 @@
       <c r="CN139" s="14"/>
       <c r="CO139" s="14"/>
       <c r="CP139" s="14"/>
+      <c r="CQ139" s="14"/>
     </row>
     <row r="140" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
@@ -39387,147 +39481,148 @@
     </row>
     <row r="152" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
-      <c r="B152" s="30">
+      <c r="B152" s="29">
         <v>2000</v>
       </c>
-      <c r="C152" s="31"/>
-      <c r="D152" s="31"/>
-      <c r="E152" s="31"/>
-      <c r="F152" s="30">
+      <c r="C152" s="30"/>
+      <c r="D152" s="30"/>
+      <c r="E152" s="30"/>
+      <c r="F152" s="29">
         <v>2001</v>
       </c>
-      <c r="G152" s="31"/>
-      <c r="H152" s="31"/>
-      <c r="I152" s="31"/>
-      <c r="J152" s="30">
+      <c r="G152" s="30"/>
+      <c r="H152" s="30"/>
+      <c r="I152" s="30"/>
+      <c r="J152" s="29">
         <v>2002</v>
       </c>
-      <c r="K152" s="31"/>
-      <c r="L152" s="31"/>
-      <c r="M152" s="31"/>
-      <c r="N152" s="30">
+      <c r="K152" s="30"/>
+      <c r="L152" s="30"/>
+      <c r="M152" s="30"/>
+      <c r="N152" s="29">
         <v>2003</v>
       </c>
-      <c r="O152" s="31"/>
-      <c r="P152" s="31"/>
-      <c r="Q152" s="31"/>
-      <c r="R152" s="30">
+      <c r="O152" s="30"/>
+      <c r="P152" s="30"/>
+      <c r="Q152" s="30"/>
+      <c r="R152" s="29">
         <v>2004</v>
       </c>
-      <c r="S152" s="31"/>
-      <c r="T152" s="31"/>
-      <c r="U152" s="31"/>
-      <c r="V152" s="30">
+      <c r="S152" s="30"/>
+      <c r="T152" s="30"/>
+      <c r="U152" s="30"/>
+      <c r="V152" s="29">
         <v>2005</v>
       </c>
-      <c r="W152" s="31"/>
-      <c r="X152" s="31"/>
-      <c r="Y152" s="31"/>
-      <c r="Z152" s="30">
+      <c r="W152" s="30"/>
+      <c r="X152" s="30"/>
+      <c r="Y152" s="30"/>
+      <c r="Z152" s="29">
         <v>2006</v>
       </c>
-      <c r="AA152" s="31"/>
-      <c r="AB152" s="31"/>
-      <c r="AC152" s="31"/>
-      <c r="AD152" s="30">
+      <c r="AA152" s="30"/>
+      <c r="AB152" s="30"/>
+      <c r="AC152" s="30"/>
+      <c r="AD152" s="29">
         <v>2007</v>
       </c>
-      <c r="AE152" s="31"/>
-      <c r="AF152" s="31"/>
-      <c r="AG152" s="31"/>
-      <c r="AH152" s="30">
+      <c r="AE152" s="30"/>
+      <c r="AF152" s="30"/>
+      <c r="AG152" s="30"/>
+      <c r="AH152" s="29">
         <v>2008</v>
       </c>
-      <c r="AI152" s="31"/>
-      <c r="AJ152" s="31"/>
-      <c r="AK152" s="31"/>
-      <c r="AL152" s="30">
+      <c r="AI152" s="30"/>
+      <c r="AJ152" s="30"/>
+      <c r="AK152" s="30"/>
+      <c r="AL152" s="29">
         <v>2009</v>
       </c>
-      <c r="AM152" s="31"/>
-      <c r="AN152" s="31"/>
-      <c r="AO152" s="31"/>
-      <c r="AP152" s="30">
+      <c r="AM152" s="30"/>
+      <c r="AN152" s="30"/>
+      <c r="AO152" s="30"/>
+      <c r="AP152" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ152" s="31"/>
-      <c r="AR152" s="31"/>
-      <c r="AS152" s="31"/>
-      <c r="AT152" s="30">
+      <c r="AQ152" s="30"/>
+      <c r="AR152" s="30"/>
+      <c r="AS152" s="30"/>
+      <c r="AT152" s="29">
         <v>2011</v>
       </c>
-      <c r="AU152" s="31"/>
-      <c r="AV152" s="31"/>
-      <c r="AW152" s="31"/>
-      <c r="AX152" s="30">
+      <c r="AU152" s="30"/>
+      <c r="AV152" s="30"/>
+      <c r="AW152" s="30"/>
+      <c r="AX152" s="29">
         <v>2012</v>
       </c>
-      <c r="AY152" s="31"/>
-      <c r="AZ152" s="31"/>
-      <c r="BA152" s="31"/>
-      <c r="BB152" s="30">
+      <c r="AY152" s="30"/>
+      <c r="AZ152" s="30"/>
+      <c r="BA152" s="30"/>
+      <c r="BB152" s="29">
         <v>2013</v>
       </c>
-      <c r="BC152" s="31"/>
-      <c r="BD152" s="31"/>
-      <c r="BE152" s="31"/>
-      <c r="BF152" s="30">
+      <c r="BC152" s="30"/>
+      <c r="BD152" s="30"/>
+      <c r="BE152" s="30"/>
+      <c r="BF152" s="29">
         <v>2014</v>
       </c>
-      <c r="BG152" s="31"/>
-      <c r="BH152" s="31"/>
-      <c r="BI152" s="31"/>
-      <c r="BJ152" s="30">
+      <c r="BG152" s="30"/>
+      <c r="BH152" s="30"/>
+      <c r="BI152" s="30"/>
+      <c r="BJ152" s="29">
         <v>2015</v>
       </c>
-      <c r="BK152" s="31"/>
-      <c r="BL152" s="31"/>
-      <c r="BM152" s="31"/>
-      <c r="BN152" s="30">
+      <c r="BK152" s="30"/>
+      <c r="BL152" s="30"/>
+      <c r="BM152" s="30"/>
+      <c r="BN152" s="29">
         <v>2016</v>
       </c>
-      <c r="BO152" s="31"/>
-      <c r="BP152" s="31"/>
-      <c r="BQ152" s="31"/>
-      <c r="BR152" s="30">
+      <c r="BO152" s="30"/>
+      <c r="BP152" s="30"/>
+      <c r="BQ152" s="30"/>
+      <c r="BR152" s="29">
         <v>2017</v>
       </c>
-      <c r="BS152" s="31"/>
-      <c r="BT152" s="31"/>
-      <c r="BU152" s="31"/>
-      <c r="BV152" s="30">
+      <c r="BS152" s="30"/>
+      <c r="BT152" s="30"/>
+      <c r="BU152" s="30"/>
+      <c r="BV152" s="29">
         <v>2018</v>
       </c>
-      <c r="BW152" s="30"/>
-      <c r="BX152" s="30"/>
-      <c r="BY152" s="30"/>
-      <c r="BZ152" s="30">
+      <c r="BW152" s="29"/>
+      <c r="BX152" s="29"/>
+      <c r="BY152" s="29"/>
+      <c r="BZ152" s="29">
         <v>2019</v>
       </c>
-      <c r="CA152" s="30"/>
-      <c r="CB152" s="30"/>
-      <c r="CC152" s="30"/>
-      <c r="CD152" s="30">
+      <c r="CA152" s="29"/>
+      <c r="CB152" s="29"/>
+      <c r="CC152" s="29"/>
+      <c r="CD152" s="29">
         <v>2020</v>
       </c>
-      <c r="CE152" s="30"/>
-      <c r="CF152" s="30"/>
-      <c r="CG152" s="30"/>
-      <c r="CH152" s="30">
+      <c r="CE152" s="29"/>
+      <c r="CF152" s="29"/>
+      <c r="CG152" s="29"/>
+      <c r="CH152" s="29">
         <v>2021</v>
       </c>
-      <c r="CI152" s="30"/>
-      <c r="CJ152" s="30"/>
-      <c r="CK152" s="30"/>
-      <c r="CL152" s="30">
+      <c r="CI152" s="29"/>
+      <c r="CJ152" s="29"/>
+      <c r="CK152" s="29"/>
+      <c r="CL152" s="29">
         <v>2022</v>
       </c>
-      <c r="CM152" s="30"/>
-      <c r="CN152" s="30"/>
-      <c r="CO152" s="30"/>
-      <c r="CP152" s="25">
+      <c r="CM152" s="29"/>
+      <c r="CN152" s="29"/>
+      <c r="CO152" s="29"/>
+      <c r="CP152" s="29">
         <v>2023</v>
       </c>
+      <c r="CQ152" s="31"/>
     </row>
     <row r="153" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
@@ -39811,6 +39906,9 @@
       </c>
       <c r="CP153" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="CQ153" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40060,46 +40158,48 @@
       <c r="CC155" s="24">
         <v>27.172756967259254</v>
       </c>
-      <c r="CD155" s="29">
+      <c r="CD155" s="28">
         <v>19.075678654540564</v>
       </c>
-      <c r="CE155" s="29">
+      <c r="CE155" s="28">
         <v>46.999527459019305</v>
       </c>
-      <c r="CF155" s="29">
+      <c r="CF155" s="28">
         <v>27.30315705828464</v>
       </c>
-      <c r="CG155" s="29">
+      <c r="CG155" s="28">
         <v>35.06232978185173</v>
       </c>
-      <c r="CH155" s="29">
+      <c r="CH155" s="28">
         <v>31.980838906039533</v>
       </c>
-      <c r="CI155" s="29">
+      <c r="CI155" s="28">
         <v>48.964419006378421</v>
       </c>
-      <c r="CJ155" s="29">
+      <c r="CJ155" s="28">
         <v>33.748921218646224</v>
       </c>
-      <c r="CK155" s="29">
+      <c r="CK155" s="28">
         <v>35.836459546224845</v>
       </c>
-      <c r="CL155" s="29">
+      <c r="CL155" s="28">
         <v>25.923439178881825</v>
       </c>
-      <c r="CM155" s="29">
+      <c r="CM155" s="28">
         <v>52.803593907697078</v>
       </c>
-      <c r="CN155" s="29">
+      <c r="CN155" s="28">
         <v>33.350839092932823</v>
       </c>
-      <c r="CO155" s="29">
+      <c r="CO155" s="28">
         <v>36.099136307792435</v>
       </c>
-      <c r="CP155" s="29">
-        <v>23.757268701097537</v>
-      </c>
-      <c r="CQ155" s="9"/>
+      <c r="CP155" s="28">
+        <v>23.773101042164058</v>
+      </c>
+      <c r="CQ155" s="28">
+        <v>52.103572433301004</v>
+      </c>
       <c r="CR155" s="9"/>
       <c r="CS155" s="9"/>
       <c r="CT155" s="9"/>
@@ -40378,46 +40478,48 @@
       <c r="CC156" s="24">
         <v>43.607326389644903</v>
       </c>
-      <c r="CD156" s="29">
+      <c r="CD156" s="28">
         <v>52.28486990589758</v>
       </c>
-      <c r="CE156" s="29">
+      <c r="CE156" s="28">
         <v>45.058248853289889</v>
       </c>
-      <c r="CF156" s="29">
+      <c r="CF156" s="28">
         <v>48.876815057701165</v>
       </c>
-      <c r="CG156" s="29">
+      <c r="CG156" s="28">
         <v>33.387744525126251</v>
       </c>
-      <c r="CH156" s="29">
+      <c r="CH156" s="28">
         <v>38.83809465038852</v>
       </c>
-      <c r="CI156" s="29">
+      <c r="CI156" s="28">
         <v>25.869824705499013</v>
       </c>
-      <c r="CJ156" s="29">
+      <c r="CJ156" s="28">
         <v>35.471653276000943</v>
       </c>
-      <c r="CK156" s="29">
+      <c r="CK156" s="28">
         <v>30.449229789683656</v>
       </c>
-      <c r="CL156" s="29">
+      <c r="CL156" s="28">
         <v>43.66949494115476</v>
       </c>
-      <c r="CM156" s="29">
+      <c r="CM156" s="28">
         <v>25.310712934713266</v>
       </c>
-      <c r="CN156" s="29">
+      <c r="CN156" s="28">
         <v>36.654570456385606</v>
       </c>
-      <c r="CO156" s="29">
+      <c r="CO156" s="28">
         <v>30.357449980888042</v>
       </c>
-      <c r="CP156" s="29">
-        <v>46.101228859036894</v>
-      </c>
-      <c r="CQ156" s="9"/>
+      <c r="CP156" s="28">
+        <v>46.054378238961228</v>
+      </c>
+      <c r="CQ156" s="28">
+        <v>27.310060722911121</v>
+      </c>
       <c r="CR156" s="9"/>
       <c r="CS156" s="9"/>
       <c r="CT156" s="9"/>
@@ -40696,46 +40798,48 @@
       <c r="CC157" s="24">
         <v>29.219916643095843</v>
       </c>
-      <c r="CD157" s="29">
+      <c r="CD157" s="28">
         <v>28.639451439561864</v>
       </c>
-      <c r="CE157" s="29">
+      <c r="CE157" s="28">
         <v>7.9422236876908219</v>
       </c>
-      <c r="CF157" s="29">
+      <c r="CF157" s="28">
         <v>23.820027884014191</v>
       </c>
-      <c r="CG157" s="29">
+      <c r="CG157" s="28">
         <v>31.549925693022008</v>
       </c>
-      <c r="CH157" s="29">
+      <c r="CH157" s="28">
         <v>29.18106644357194</v>
       </c>
-      <c r="CI157" s="29">
+      <c r="CI157" s="28">
         <v>25.165756288122559</v>
       </c>
-      <c r="CJ157" s="29">
+      <c r="CJ157" s="28">
         <v>30.779425505352837</v>
       </c>
-      <c r="CK157" s="29">
+      <c r="CK157" s="28">
         <v>33.714310664091506</v>
       </c>
-      <c r="CL157" s="29">
+      <c r="CL157" s="28">
         <v>30.407065879963426</v>
       </c>
-      <c r="CM157" s="29">
+      <c r="CM157" s="28">
         <v>21.885693157589664</v>
       </c>
-      <c r="CN157" s="29">
+      <c r="CN157" s="28">
         <v>29.994590450681574</v>
       </c>
-      <c r="CO157" s="29">
+      <c r="CO157" s="28">
         <v>33.543413711319538</v>
       </c>
-      <c r="CP157" s="29">
-        <v>30.141502439865569</v>
-      </c>
-      <c r="CQ157" s="9"/>
+      <c r="CP157" s="28">
+        <v>30.172520718874711</v>
+      </c>
+      <c r="CQ157" s="28">
+        <v>20.586366843787879</v>
+      </c>
       <c r="CR157" s="9"/>
       <c r="CS157" s="9"/>
       <c r="CT157" s="9"/>
@@ -41143,46 +41247,48 @@
       <c r="CC159" s="24">
         <v>100</v>
       </c>
-      <c r="CD159" s="29">
+      <c r="CD159" s="28">
         <v>100</v>
       </c>
-      <c r="CE159" s="29">
+      <c r="CE159" s="28">
         <v>100</v>
       </c>
-      <c r="CF159" s="29">
+      <c r="CF159" s="28">
         <v>100</v>
       </c>
-      <c r="CG159" s="29">
+      <c r="CG159" s="28">
         <v>100</v>
       </c>
-      <c r="CH159" s="29">
+      <c r="CH159" s="28">
         <v>100</v>
       </c>
-      <c r="CI159" s="29">
+      <c r="CI159" s="28">
         <v>100</v>
       </c>
-      <c r="CJ159" s="29">
+      <c r="CJ159" s="28">
         <v>100</v>
       </c>
-      <c r="CK159" s="29">
+      <c r="CK159" s="28">
         <v>100</v>
       </c>
-      <c r="CL159" s="29">
+      <c r="CL159" s="28">
         <v>100</v>
       </c>
-      <c r="CM159" s="29">
+      <c r="CM159" s="28">
         <v>100</v>
       </c>
-      <c r="CN159" s="29">
+      <c r="CN159" s="28">
         <v>100</v>
       </c>
-      <c r="CO159" s="29">
+      <c r="CO159" s="28">
         <v>100</v>
       </c>
-      <c r="CP159" s="29">
+      <c r="CP159" s="28">
         <v>100</v>
       </c>
-      <c r="CQ159" s="9"/>
+      <c r="CQ159" s="28">
+        <v>100</v>
+      </c>
       <c r="CR159" s="9"/>
       <c r="CS159" s="9"/>
       <c r="CT159" s="9"/>
@@ -41312,6 +41418,7 @@
       <c r="CN160" s="12"/>
       <c r="CO160" s="12"/>
       <c r="CP160" s="12"/>
+      <c r="CQ160" s="12"/>
     </row>
     <row r="161" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
@@ -41395,20 +41502,20 @@
       <c r="CA161" s="11"/>
       <c r="CB161" s="11"/>
       <c r="CC161" s="11"/>
-      <c r="CD161" s="27"/>
-      <c r="CE161" s="27"/>
-      <c r="CF161" s="27"/>
-      <c r="CG161" s="27"/>
-      <c r="CH161" s="27"/>
-      <c r="CI161" s="27"/>
-      <c r="CJ161" s="27"/>
-      <c r="CK161" s="27"/>
-      <c r="CL161" s="27"/>
-      <c r="CM161" s="27"/>
-      <c r="CN161" s="27"/>
-      <c r="CO161" s="27"/>
-      <c r="CP161" s="27"/>
-      <c r="CQ161" s="9"/>
+      <c r="CD161" s="26"/>
+      <c r="CE161" s="26"/>
+      <c r="CF161" s="26"/>
+      <c r="CG161" s="26"/>
+      <c r="CH161" s="26"/>
+      <c r="CI161" s="26"/>
+      <c r="CJ161" s="26"/>
+      <c r="CK161" s="26"/>
+      <c r="CL161" s="26"/>
+      <c r="CM161" s="26"/>
+      <c r="CN161" s="26"/>
+      <c r="CO161" s="26"/>
+      <c r="CP161" s="26"/>
+      <c r="CQ161" s="26"/>
       <c r="CR161" s="9"/>
       <c r="CS161" s="9"/>
       <c r="CT161" s="9"/>
@@ -41525,20 +41632,20 @@
       <c r="CA162" s="11"/>
       <c r="CB162" s="11"/>
       <c r="CC162" s="11"/>
-      <c r="CD162" s="27"/>
-      <c r="CE162" s="27"/>
-      <c r="CF162" s="27"/>
-      <c r="CG162" s="27"/>
-      <c r="CH162" s="27"/>
-      <c r="CI162" s="27"/>
-      <c r="CJ162" s="27"/>
-      <c r="CK162" s="27"/>
-      <c r="CL162" s="27"/>
-      <c r="CM162" s="27"/>
-      <c r="CN162" s="27"/>
-      <c r="CO162" s="27"/>
-      <c r="CP162" s="27"/>
-      <c r="CQ162" s="9"/>
+      <c r="CD162" s="26"/>
+      <c r="CE162" s="26"/>
+      <c r="CF162" s="26"/>
+      <c r="CG162" s="26"/>
+      <c r="CH162" s="26"/>
+      <c r="CI162" s="26"/>
+      <c r="CJ162" s="26"/>
+      <c r="CK162" s="26"/>
+      <c r="CL162" s="26"/>
+      <c r="CM162" s="26"/>
+      <c r="CN162" s="26"/>
+      <c r="CO162" s="26"/>
+      <c r="CP162" s="26"/>
+      <c r="CQ162" s="26"/>
       <c r="CR162" s="9"/>
       <c r="CS162" s="9"/>
       <c r="CT162" s="9"/>
@@ -41668,6 +41775,7 @@
       <c r="CN163" s="14"/>
       <c r="CO163" s="14"/>
       <c r="CP163" s="14"/>
+      <c r="CQ163" s="14"/>
     </row>
     <row r="164" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
@@ -41680,7 +41788,151 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="159">
+  <mergeCells count="168">
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CP33:CQ33"/>
+    <mergeCell ref="CP104:CQ104"/>
+    <mergeCell ref="CP128:CQ128"/>
+    <mergeCell ref="CP152:CQ152"/>
+    <mergeCell ref="CL57:CO57"/>
+    <mergeCell ref="CP57:CQ57"/>
+    <mergeCell ref="CL81:CO81"/>
+    <mergeCell ref="CP81:CQ81"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL33:CO33"/>
+    <mergeCell ref="CH57:CK57"/>
+    <mergeCell ref="CH81:CK81"/>
+    <mergeCell ref="CL104:CO104"/>
+    <mergeCell ref="CL128:CO128"/>
+    <mergeCell ref="CL152:CO152"/>
+    <mergeCell ref="BR152:BU152"/>
+    <mergeCell ref="BR128:BU128"/>
+    <mergeCell ref="BR104:BU104"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH33:CK33"/>
+    <mergeCell ref="CD57:CG57"/>
+    <mergeCell ref="CD81:CG81"/>
+    <mergeCell ref="CH104:CK104"/>
+    <mergeCell ref="CH128:CK128"/>
+    <mergeCell ref="CH152:CK152"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD152:CG152"/>
+    <mergeCell ref="CD128:CG128"/>
+    <mergeCell ref="CD104:CG104"/>
+    <mergeCell ref="CD33:CG33"/>
+    <mergeCell ref="BZ128:CC128"/>
+    <mergeCell ref="BZ104:CC104"/>
+    <mergeCell ref="BV152:BY152"/>
+    <mergeCell ref="BZ152:CC152"/>
+    <mergeCell ref="BV128:BY128"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ33:CC33"/>
+    <mergeCell ref="BV57:BY57"/>
+    <mergeCell ref="BZ57:CC57"/>
+    <mergeCell ref="AP152:AS152"/>
+    <mergeCell ref="AT152:AW152"/>
+    <mergeCell ref="AX152:BA152"/>
+    <mergeCell ref="BJ104:BM104"/>
+    <mergeCell ref="BN104:BQ104"/>
+    <mergeCell ref="BF152:BI152"/>
+    <mergeCell ref="BJ152:BM152"/>
+    <mergeCell ref="BN152:BQ152"/>
+    <mergeCell ref="BF128:BI128"/>
+    <mergeCell ref="BJ128:BM128"/>
+    <mergeCell ref="BN128:BQ128"/>
+    <mergeCell ref="BF104:BI104"/>
+    <mergeCell ref="BN81:BQ81"/>
+    <mergeCell ref="BN57:BQ57"/>
+    <mergeCell ref="BZ81:CC81"/>
+    <mergeCell ref="BV104:BY104"/>
+    <mergeCell ref="AP81:AS81"/>
+    <mergeCell ref="BV33:BY33"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="N128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:Y128"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AG128"/>
+    <mergeCell ref="BB152:BE152"/>
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="F152:I152"/>
+    <mergeCell ref="J152:M152"/>
+    <mergeCell ref="N152:Q152"/>
+    <mergeCell ref="R152:U152"/>
+    <mergeCell ref="V152:Y152"/>
+    <mergeCell ref="Z152:AC152"/>
+    <mergeCell ref="AD152:AG152"/>
+    <mergeCell ref="AH152:AK152"/>
+    <mergeCell ref="AH128:AK128"/>
+    <mergeCell ref="AL128:AO128"/>
+    <mergeCell ref="AL152:AO152"/>
+    <mergeCell ref="BJ81:BM81"/>
+    <mergeCell ref="AP128:AS128"/>
+    <mergeCell ref="AT128:AW128"/>
+    <mergeCell ref="AX128:BA128"/>
+    <mergeCell ref="BB128:BE128"/>
+    <mergeCell ref="AP104:AS104"/>
+    <mergeCell ref="AT104:AW104"/>
+    <mergeCell ref="AX104:BA104"/>
+    <mergeCell ref="BB104:BE104"/>
+    <mergeCell ref="AT81:AW81"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="F104:I104"/>
+    <mergeCell ref="J104:M104"/>
+    <mergeCell ref="N104:Q104"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="AX81:BA81"/>
+    <mergeCell ref="BB81:BE81"/>
+    <mergeCell ref="BF81:BI81"/>
+    <mergeCell ref="V104:Y104"/>
+    <mergeCell ref="Z104:AC104"/>
+    <mergeCell ref="AD104:AG104"/>
+    <mergeCell ref="AH104:AK104"/>
+    <mergeCell ref="AL104:AO104"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="R81:U81"/>
+    <mergeCell ref="V81:Y81"/>
+    <mergeCell ref="Z81:AC81"/>
+    <mergeCell ref="AD81:AG81"/>
+    <mergeCell ref="AH81:AK81"/>
+    <mergeCell ref="AL81:AO81"/>
+    <mergeCell ref="V57:Y57"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="R57:U57"/>
+    <mergeCell ref="AH57:AK57"/>
+    <mergeCell ref="Z57:AC57"/>
+    <mergeCell ref="BR33:BU33"/>
+    <mergeCell ref="AD57:AG57"/>
+    <mergeCell ref="BB57:BE57"/>
+    <mergeCell ref="BF57:BI57"/>
+    <mergeCell ref="BJ57:BM57"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF33:BI33"/>
+    <mergeCell ref="BJ33:BM33"/>
+    <mergeCell ref="BN33:BQ33"/>
+    <mergeCell ref="AL57:AO57"/>
+    <mergeCell ref="AP57:AS57"/>
+    <mergeCell ref="AT57:AW57"/>
+    <mergeCell ref="AX57:BA57"/>
+    <mergeCell ref="AP33:AS33"/>
+    <mergeCell ref="AT33:AW33"/>
+    <mergeCell ref="AX33:BA33"/>
+    <mergeCell ref="BB33:BE33"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -41705,150 +41957,15 @@
     <mergeCell ref="AL33:AO33"/>
     <mergeCell ref="V9:Y9"/>
     <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF33:BI33"/>
-    <mergeCell ref="BJ33:BM33"/>
-    <mergeCell ref="BN33:BQ33"/>
-    <mergeCell ref="AL57:AO57"/>
-    <mergeCell ref="AP57:AS57"/>
-    <mergeCell ref="AT57:AW57"/>
-    <mergeCell ref="AX57:BA57"/>
-    <mergeCell ref="AP33:AS33"/>
-    <mergeCell ref="AT33:AW33"/>
-    <mergeCell ref="AX33:BA33"/>
-    <mergeCell ref="BB33:BE33"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="V57:Y57"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="R57:U57"/>
-    <mergeCell ref="AH57:AK57"/>
-    <mergeCell ref="Z57:AC57"/>
-    <mergeCell ref="BR33:BU33"/>
-    <mergeCell ref="BV33:BY33"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="F104:I104"/>
-    <mergeCell ref="J104:M104"/>
-    <mergeCell ref="N104:Q104"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="AX81:BA81"/>
-    <mergeCell ref="BB81:BE81"/>
-    <mergeCell ref="BF81:BI81"/>
-    <mergeCell ref="V104:Y104"/>
-    <mergeCell ref="Z104:AC104"/>
-    <mergeCell ref="AD104:AG104"/>
-    <mergeCell ref="AH104:AK104"/>
-    <mergeCell ref="AL104:AO104"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="N81:Q81"/>
-    <mergeCell ref="R81:U81"/>
-    <mergeCell ref="V81:Y81"/>
-    <mergeCell ref="Z81:AC81"/>
-    <mergeCell ref="AD81:AG81"/>
-    <mergeCell ref="AH81:AK81"/>
-    <mergeCell ref="AL81:AO81"/>
-    <mergeCell ref="AP81:AS81"/>
-    <mergeCell ref="AD57:AG57"/>
-    <mergeCell ref="BJ81:BM81"/>
-    <mergeCell ref="AP128:AS128"/>
-    <mergeCell ref="AT128:AW128"/>
-    <mergeCell ref="AX128:BA128"/>
-    <mergeCell ref="BB128:BE128"/>
-    <mergeCell ref="AP104:AS104"/>
-    <mergeCell ref="AT104:AW104"/>
-    <mergeCell ref="AX104:BA104"/>
-    <mergeCell ref="BB104:BE104"/>
-    <mergeCell ref="BB57:BE57"/>
-    <mergeCell ref="BF57:BI57"/>
-    <mergeCell ref="BJ57:BM57"/>
-    <mergeCell ref="AT81:AW81"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="J128:M128"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:Y128"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AG128"/>
-    <mergeCell ref="BB152:BE152"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="F152:I152"/>
-    <mergeCell ref="J152:M152"/>
-    <mergeCell ref="N152:Q152"/>
-    <mergeCell ref="R152:U152"/>
-    <mergeCell ref="V152:Y152"/>
-    <mergeCell ref="Z152:AC152"/>
-    <mergeCell ref="AD152:AG152"/>
-    <mergeCell ref="AH152:AK152"/>
-    <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="AL128:AO128"/>
-    <mergeCell ref="AL152:AO152"/>
-    <mergeCell ref="BV152:BY152"/>
-    <mergeCell ref="BZ152:CC152"/>
-    <mergeCell ref="BV128:BY128"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ33:CC33"/>
-    <mergeCell ref="BV57:BY57"/>
-    <mergeCell ref="BZ57:CC57"/>
-    <mergeCell ref="AP152:AS152"/>
-    <mergeCell ref="AT152:AW152"/>
-    <mergeCell ref="AX152:BA152"/>
-    <mergeCell ref="BJ104:BM104"/>
-    <mergeCell ref="BN104:BQ104"/>
-    <mergeCell ref="BF152:BI152"/>
-    <mergeCell ref="BJ152:BM152"/>
-    <mergeCell ref="BN152:BQ152"/>
-    <mergeCell ref="BF128:BI128"/>
-    <mergeCell ref="BJ128:BM128"/>
-    <mergeCell ref="BN128:BQ128"/>
-    <mergeCell ref="BF104:BI104"/>
-    <mergeCell ref="BN81:BQ81"/>
-    <mergeCell ref="BN57:BQ57"/>
-    <mergeCell ref="BZ81:CC81"/>
-    <mergeCell ref="BV104:BY104"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL33:CO33"/>
-    <mergeCell ref="CH57:CK57"/>
-    <mergeCell ref="CH81:CK81"/>
-    <mergeCell ref="CL104:CO104"/>
-    <mergeCell ref="CL128:CO128"/>
-    <mergeCell ref="CL152:CO152"/>
-    <mergeCell ref="BR152:BU152"/>
-    <mergeCell ref="BR128:BU128"/>
-    <mergeCell ref="BR104:BU104"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH33:CK33"/>
-    <mergeCell ref="CD57:CG57"/>
-    <mergeCell ref="CD81:CG81"/>
-    <mergeCell ref="CH104:CK104"/>
-    <mergeCell ref="CH128:CK128"/>
-    <mergeCell ref="CH152:CK152"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD152:CG152"/>
-    <mergeCell ref="CD128:CG128"/>
-    <mergeCell ref="CD104:CG104"/>
-    <mergeCell ref="CD33:CG33"/>
-    <mergeCell ref="BZ128:CC128"/>
-    <mergeCell ref="BZ104:CC104"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.11811023622047245" top="0.51181102362204722" bottom="0.15748031496062992" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="48" max="92" man="1"/>
-    <brk id="96" max="92" man="1"/>
-    <brk id="119" max="92" man="1"/>
+    <brk id="48" max="94" man="1"/>
+    <brk id="96" max="94" man="1"/>
+    <brk id="119" max="94" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D9969D-3DB6-498D-818C-BA5A8C9649B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0415AB-4FE3-4165-9BCB-AC8B3519D140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="780" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNS" sheetId="6" r:id="rId1"/>
@@ -326,7 +326,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$CQ$167</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$CR$167</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -629,13 +629,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of August 2023</t>
+    <t>As of November 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2023</t>
+    <t>Q1 2000 to Q3 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2023</t>
+    <t>Q1 2001 to Q3 2023</t>
   </si>
 </sst>
 </file>
@@ -737,7 +737,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -777,6 +777,27 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23639,14 +23660,15 @@
       <selection activeCell="N19" sqref="N19"/>
       <selection pane="topRight" activeCell="N19" sqref="N19"/>
       <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
-      <selection pane="bottomRight" activeCell="CQ6" sqref="CQ6"/>
+      <selection pane="bottomRight" activeCell="CS6" sqref="CS6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.21875" style="1" customWidth="1"/>
-    <col min="2" max="95" width="9.77734375" style="1" customWidth="1"/>
-    <col min="96" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="89" width="9.77734375" style="1" customWidth="1"/>
+    <col min="90" max="96" width="9.5546875" style="30" customWidth="1"/>
+    <col min="97" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.2">
@@ -23681,148 +23703,149 @@
     </row>
     <row r="9" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="29">
+      <c r="B9" s="44">
         <v>2000</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29">
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44">
         <v>2001</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29">
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44">
         <v>2002</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29">
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44">
         <v>2003</v>
       </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29">
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44">
         <v>2004</v>
       </c>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29">
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44">
         <v>2005</v>
       </c>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29">
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44">
         <v>2006</v>
       </c>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29">
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44">
         <v>2007</v>
       </c>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29">
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="44">
         <v>2008</v>
       </c>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29">
+      <c r="AI9" s="44"/>
+      <c r="AJ9" s="44"/>
+      <c r="AK9" s="44"/>
+      <c r="AL9" s="44">
         <v>2009</v>
       </c>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29">
+      <c r="AM9" s="44"/>
+      <c r="AN9" s="44"/>
+      <c r="AO9" s="44"/>
+      <c r="AP9" s="44">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="29"/>
-      <c r="AS9" s="29"/>
-      <c r="AT9" s="29">
+      <c r="AQ9" s="44"/>
+      <c r="AR9" s="44"/>
+      <c r="AS9" s="44"/>
+      <c r="AT9" s="44">
         <v>2011</v>
       </c>
-      <c r="AU9" s="29"/>
-      <c r="AV9" s="29"/>
-      <c r="AW9" s="29"/>
-      <c r="AX9" s="29">
+      <c r="AU9" s="44"/>
+      <c r="AV9" s="44"/>
+      <c r="AW9" s="44"/>
+      <c r="AX9" s="44">
         <v>2012</v>
       </c>
-      <c r="AY9" s="29"/>
-      <c r="AZ9" s="29"/>
-      <c r="BA9" s="29"/>
-      <c r="BB9" s="29">
+      <c r="AY9" s="44"/>
+      <c r="AZ9" s="44"/>
+      <c r="BA9" s="44"/>
+      <c r="BB9" s="44">
         <v>2013</v>
       </c>
-      <c r="BC9" s="29"/>
-      <c r="BD9" s="29"/>
-      <c r="BE9" s="29"/>
-      <c r="BF9" s="29">
+      <c r="BC9" s="44"/>
+      <c r="BD9" s="44"/>
+      <c r="BE9" s="44"/>
+      <c r="BF9" s="44">
         <v>2014</v>
       </c>
-      <c r="BG9" s="29"/>
-      <c r="BH9" s="29"/>
-      <c r="BI9" s="29"/>
-      <c r="BJ9" s="29">
+      <c r="BG9" s="44"/>
+      <c r="BH9" s="44"/>
+      <c r="BI9" s="44"/>
+      <c r="BJ9" s="44">
         <v>2015</v>
       </c>
-      <c r="BK9" s="29"/>
-      <c r="BL9" s="29"/>
-      <c r="BM9" s="29"/>
-      <c r="BN9" s="29">
+      <c r="BK9" s="44"/>
+      <c r="BL9" s="44"/>
+      <c r="BM9" s="44"/>
+      <c r="BN9" s="44">
         <v>2016</v>
       </c>
-      <c r="BO9" s="29"/>
-      <c r="BP9" s="29"/>
-      <c r="BQ9" s="29"/>
-      <c r="BR9" s="29">
+      <c r="BO9" s="44"/>
+      <c r="BP9" s="44"/>
+      <c r="BQ9" s="44"/>
+      <c r="BR9" s="44">
         <v>2017</v>
       </c>
-      <c r="BS9" s="29"/>
-      <c r="BT9" s="29"/>
-      <c r="BU9" s="29"/>
-      <c r="BV9" s="29">
+      <c r="BS9" s="44"/>
+      <c r="BT9" s="44"/>
+      <c r="BU9" s="44"/>
+      <c r="BV9" s="44">
         <v>2018</v>
       </c>
-      <c r="BW9" s="29"/>
-      <c r="BX9" s="29"/>
-      <c r="BY9" s="29"/>
-      <c r="BZ9" s="29">
+      <c r="BW9" s="44"/>
+      <c r="BX9" s="44"/>
+      <c r="BY9" s="44"/>
+      <c r="BZ9" s="44">
         <v>2019</v>
       </c>
-      <c r="CA9" s="29"/>
-      <c r="CB9" s="29"/>
-      <c r="CC9" s="29"/>
-      <c r="CD9" s="29">
+      <c r="CA9" s="44"/>
+      <c r="CB9" s="44"/>
+      <c r="CC9" s="44"/>
+      <c r="CD9" s="44">
         <v>2020</v>
       </c>
-      <c r="CE9" s="29"/>
-      <c r="CF9" s="29"/>
-      <c r="CG9" s="29"/>
-      <c r="CH9" s="29">
+      <c r="CE9" s="44"/>
+      <c r="CF9" s="44"/>
+      <c r="CG9" s="44"/>
+      <c r="CH9" s="44">
         <v>2021</v>
       </c>
-      <c r="CI9" s="29"/>
-      <c r="CJ9" s="29"/>
-      <c r="CK9" s="29"/>
-      <c r="CL9" s="29">
+      <c r="CI9" s="44"/>
+      <c r="CJ9" s="44"/>
+      <c r="CK9" s="44"/>
+      <c r="CL9" s="46">
         <v>2022</v>
       </c>
-      <c r="CM9" s="29"/>
-      <c r="CN9" s="29"/>
-      <c r="CO9" s="29"/>
-      <c r="CP9" s="29">
+      <c r="CM9" s="46"/>
+      <c r="CN9" s="46"/>
+      <c r="CO9" s="46"/>
+      <c r="CP9" s="46">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="31"/>
+      <c r="CQ9" s="46"/>
+      <c r="CR9" s="46"/>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24092,23 +24115,26 @@
       <c r="CK10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL10" s="6" t="s">
+      <c r="CL10" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CM10" s="6" t="s">
+      <c r="CM10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CN10" s="6" t="s">
+      <c r="CN10" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="CO10" s="6" t="s">
+      <c r="CO10" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="31" t="s">
         <v>7</v>
+      </c>
+      <c r="CR10" s="31" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24382,25 +24408,27 @@
       <c r="CK12" s="25">
         <v>259490.65451354504</v>
       </c>
-      <c r="CL12" s="25">
+      <c r="CL12" s="32">
         <v>164307.15015984167</v>
       </c>
-      <c r="CM12" s="25">
+      <c r="CM12" s="32">
         <v>546170.86620424606</v>
       </c>
-      <c r="CN12" s="25">
+      <c r="CN12" s="32">
         <v>249542.34708000725</v>
       </c>
-      <c r="CO12" s="25">
+      <c r="CO12" s="32">
         <v>302775.061641315</v>
       </c>
-      <c r="CP12" s="25">
+      <c r="CP12" s="32">
         <v>180848.80571287472</v>
       </c>
-      <c r="CQ12" s="25">
-        <v>570719.18353323091</v>
-      </c>
-      <c r="CR12" s="9"/>
+      <c r="CQ12" s="32">
+        <v>570572.97465318709</v>
+      </c>
+      <c r="CR12" s="32">
+        <v>327192.72582830989</v>
+      </c>
       <c r="CS12" s="9"/>
       <c r="CT12" s="9"/>
       <c r="CU12" s="9"/>
@@ -24702,25 +24730,27 @@
       <c r="CK13" s="25">
         <v>229849.15911087734</v>
       </c>
-      <c r="CL13" s="25">
+      <c r="CL13" s="32">
         <v>251697.28905062028</v>
       </c>
-      <c r="CM13" s="25">
+      <c r="CM13" s="32">
         <v>253942.27823452008</v>
       </c>
-      <c r="CN13" s="25">
+      <c r="CN13" s="32">
         <v>285215.15381217585</v>
       </c>
-      <c r="CO13" s="25">
+      <c r="CO13" s="32">
         <v>265700.85671616852</v>
       </c>
-      <c r="CP13" s="25">
+      <c r="CP13" s="32">
         <v>318678.11105415632</v>
       </c>
-      <c r="CQ13" s="25">
-        <v>289848.18436205114</v>
-      </c>
-      <c r="CR13" s="9"/>
+      <c r="CQ13" s="32">
+        <v>291298.81718188844</v>
+      </c>
+      <c r="CR13" s="32">
+        <v>302711.43585777906</v>
+      </c>
       <c r="CS13" s="9"/>
       <c r="CT13" s="9"/>
       <c r="CU13" s="9"/>
@@ -25022,25 +25052,27 @@
       <c r="CK14" s="25">
         <v>225042.65292351373</v>
       </c>
-      <c r="CL14" s="25">
+      <c r="CL14" s="32">
         <v>196996.8030961217</v>
       </c>
-      <c r="CM14" s="25">
+      <c r="CM14" s="32">
         <v>233014.08350677649</v>
       </c>
-      <c r="CN14" s="25">
+      <c r="CN14" s="32">
         <v>224128.73720645937</v>
       </c>
-      <c r="CO14" s="25">
+      <c r="CO14" s="32">
         <v>260155.91178712202</v>
       </c>
-      <c r="CP14" s="25">
+      <c r="CP14" s="32">
         <v>235310.47459070696</v>
       </c>
-      <c r="CQ14" s="25">
-        <v>231873.07244582486</v>
-      </c>
-      <c r="CR14" s="9"/>
+      <c r="CQ14" s="32">
+        <v>233665.95785120793</v>
+      </c>
+      <c r="CR14" s="32">
+        <v>249019.30334018904</v>
+      </c>
       <c r="CS14" s="9"/>
       <c r="CT14" s="9"/>
       <c r="CU14" s="9"/>
@@ -25163,13 +25195,13 @@
       <c r="CI15" s="9"/>
       <c r="CJ15" s="9"/>
       <c r="CK15" s="9"/>
-      <c r="CL15" s="9"/>
-      <c r="CM15" s="9"/>
-      <c r="CN15" s="9"/>
-      <c r="CO15" s="9"/>
-      <c r="CP15" s="9"/>
-      <c r="CQ15" s="9"/>
-      <c r="CR15" s="9"/>
+      <c r="CL15" s="33"/>
+      <c r="CM15" s="33"/>
+      <c r="CN15" s="33"/>
+      <c r="CO15" s="33"/>
+      <c r="CP15" s="33"/>
+      <c r="CQ15" s="33"/>
+      <c r="CR15" s="33"/>
       <c r="CS15" s="9"/>
       <c r="CT15" s="9"/>
       <c r="CU15" s="9"/>
@@ -25471,25 +25503,27 @@
       <c r="CK16" s="26">
         <v>714382.4665479362</v>
       </c>
-      <c r="CL16" s="26">
+      <c r="CL16" s="34">
         <v>613001.24230658356</v>
       </c>
-      <c r="CM16" s="26">
+      <c r="CM16" s="34">
         <v>1033127.2279455427</v>
       </c>
-      <c r="CN16" s="26">
+      <c r="CN16" s="34">
         <v>758886.23809864244</v>
       </c>
-      <c r="CO16" s="26">
+      <c r="CO16" s="34">
         <v>828631.8301446056</v>
       </c>
-      <c r="CP16" s="26">
+      <c r="CP16" s="34">
         <v>734837.39135773806</v>
       </c>
-      <c r="CQ16" s="26">
-        <v>1092440.4403411071</v>
-      </c>
-      <c r="CR16" s="9"/>
+      <c r="CQ16" s="34">
+        <v>1095537.7496862835</v>
+      </c>
+      <c r="CR16" s="34">
+        <v>878923.46502627793</v>
+      </c>
       <c r="CS16" s="9"/>
       <c r="CT16" s="9"/>
       <c r="CU16" s="9"/>
@@ -25613,12 +25647,13 @@
       <c r="CI17" s="12"/>
       <c r="CJ17" s="12"/>
       <c r="CK17" s="12"/>
-      <c r="CL17" s="12"/>
-      <c r="CM17" s="12"/>
-      <c r="CN17" s="12"/>
-      <c r="CO17" s="12"/>
-      <c r="CP17" s="12"/>
-      <c r="CQ17" s="12"/>
+      <c r="CL17" s="35"/>
+      <c r="CM17" s="35"/>
+      <c r="CN17" s="35"/>
+      <c r="CO17" s="35"/>
+      <c r="CP17" s="35"/>
+      <c r="CQ17" s="35"/>
+      <c r="CR17" s="35"/>
     </row>
     <row r="18" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
@@ -25710,13 +25745,13 @@
       <c r="CI18" s="26"/>
       <c r="CJ18" s="26"/>
       <c r="CK18" s="26"/>
-      <c r="CL18" s="26"/>
-      <c r="CM18" s="26"/>
-      <c r="CN18" s="26"/>
-      <c r="CO18" s="26"/>
-      <c r="CP18" s="26"/>
-      <c r="CQ18" s="26"/>
-      <c r="CR18" s="9"/>
+      <c r="CL18" s="34"/>
+      <c r="CM18" s="34"/>
+      <c r="CN18" s="34"/>
+      <c r="CO18" s="34"/>
+      <c r="CP18" s="34"/>
+      <c r="CQ18" s="34"/>
+      <c r="CR18" s="34"/>
       <c r="CS18" s="9"/>
       <c r="CT18" s="9"/>
       <c r="CU18" s="9"/>
@@ -26018,25 +26053,27 @@
       <c r="CK19" s="25">
         <v>399601.70931168634</v>
       </c>
-      <c r="CL19" s="25">
+      <c r="CL19" s="32">
         <v>288028.2565183072</v>
       </c>
-      <c r="CM19" s="25">
+      <c r="CM19" s="32">
         <v>517808.59790224989</v>
       </c>
-      <c r="CN19" s="25">
+      <c r="CN19" s="32">
         <v>359076.63956197811</v>
       </c>
-      <c r="CO19" s="25">
+      <c r="CO19" s="32">
         <v>448727.63471485535</v>
       </c>
-      <c r="CP19" s="25">
+      <c r="CP19" s="32">
         <v>338809.94468946068</v>
       </c>
-      <c r="CQ19" s="25">
-        <v>560127.79312927881</v>
-      </c>
-      <c r="CR19" s="9"/>
+      <c r="CQ19" s="32">
+        <v>561297.42768259568</v>
+      </c>
+      <c r="CR19" s="32">
+        <v>425196.45681330399</v>
+      </c>
       <c r="CS19" s="9"/>
       <c r="CT19" s="9"/>
       <c r="CU19" s="9"/>
@@ -26160,12 +26197,13 @@
       <c r="CI20" s="14"/>
       <c r="CJ20" s="14"/>
       <c r="CK20" s="14"/>
-      <c r="CL20" s="14"/>
-      <c r="CM20" s="14"/>
-      <c r="CN20" s="14"/>
-      <c r="CO20" s="14"/>
-      <c r="CP20" s="14"/>
-      <c r="CQ20" s="14"/>
+      <c r="CL20" s="36"/>
+      <c r="CM20" s="36"/>
+      <c r="CN20" s="36"/>
+      <c r="CO20" s="36"/>
+      <c r="CP20" s="36"/>
+      <c r="CQ20" s="36"/>
+      <c r="CR20" s="36"/>
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
@@ -26186,6 +26224,13 @@
       <c r="Y23" s="17"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="9"/>
+      <c r="CL23" s="37"/>
+      <c r="CM23" s="37"/>
+      <c r="CN23" s="37"/>
+      <c r="CO23" s="37"/>
+      <c r="CP23" s="37"/>
+      <c r="CQ23" s="37"/>
+      <c r="CR23" s="37"/>
     </row>
     <row r="24" spans="1:128" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G24" s="9"/>
@@ -26196,6 +26241,13 @@
       <c r="Y24" s="17"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="9"/>
+      <c r="CL24" s="37"/>
+      <c r="CM24" s="37"/>
+      <c r="CN24" s="37"/>
+      <c r="CO24" s="37"/>
+      <c r="CP24" s="37"/>
+      <c r="CQ24" s="37"/>
+      <c r="CR24" s="37"/>
     </row>
     <row r="25" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -26229,148 +26281,149 @@
     </row>
     <row r="33" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="29">
+      <c r="B33" s="44">
         <v>2000</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="29">
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="44">
         <v>2001</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="29">
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="44">
         <v>2002</v>
       </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="29">
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="44">
         <v>2003</v>
       </c>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="29">
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="44">
         <v>2004</v>
       </c>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="29">
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="44">
         <v>2005</v>
       </c>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="29">
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="44">
         <v>2006</v>
       </c>
-      <c r="AA33" s="30"/>
-      <c r="AB33" s="30"/>
-      <c r="AC33" s="30"/>
-      <c r="AD33" s="29">
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="45"/>
+      <c r="AD33" s="44">
         <v>2007</v>
       </c>
-      <c r="AE33" s="30"/>
-      <c r="AF33" s="30"/>
-      <c r="AG33" s="30"/>
-      <c r="AH33" s="29">
+      <c r="AE33" s="45"/>
+      <c r="AF33" s="45"/>
+      <c r="AG33" s="45"/>
+      <c r="AH33" s="44">
         <v>2008</v>
       </c>
-      <c r="AI33" s="30"/>
-      <c r="AJ33" s="30"/>
-      <c r="AK33" s="30"/>
-      <c r="AL33" s="29">
+      <c r="AI33" s="45"/>
+      <c r="AJ33" s="45"/>
+      <c r="AK33" s="45"/>
+      <c r="AL33" s="44">
         <v>2009</v>
       </c>
-      <c r="AM33" s="30"/>
-      <c r="AN33" s="30"/>
-      <c r="AO33" s="30"/>
-      <c r="AP33" s="29">
+      <c r="AM33" s="45"/>
+      <c r="AN33" s="45"/>
+      <c r="AO33" s="45"/>
+      <c r="AP33" s="44">
         <v>2010</v>
       </c>
-      <c r="AQ33" s="30"/>
-      <c r="AR33" s="30"/>
-      <c r="AS33" s="30"/>
-      <c r="AT33" s="29">
+      <c r="AQ33" s="45"/>
+      <c r="AR33" s="45"/>
+      <c r="AS33" s="45"/>
+      <c r="AT33" s="44">
         <v>2011</v>
       </c>
-      <c r="AU33" s="30"/>
-      <c r="AV33" s="30"/>
-      <c r="AW33" s="30"/>
-      <c r="AX33" s="29">
+      <c r="AU33" s="45"/>
+      <c r="AV33" s="45"/>
+      <c r="AW33" s="45"/>
+      <c r="AX33" s="44">
         <v>2012</v>
       </c>
-      <c r="AY33" s="30"/>
-      <c r="AZ33" s="30"/>
-      <c r="BA33" s="30"/>
-      <c r="BB33" s="29">
+      <c r="AY33" s="45"/>
+      <c r="AZ33" s="45"/>
+      <c r="BA33" s="45"/>
+      <c r="BB33" s="44">
         <v>2013</v>
       </c>
-      <c r="BC33" s="30"/>
-      <c r="BD33" s="30"/>
-      <c r="BE33" s="30"/>
-      <c r="BF33" s="29">
+      <c r="BC33" s="45"/>
+      <c r="BD33" s="45"/>
+      <c r="BE33" s="45"/>
+      <c r="BF33" s="44">
         <v>2014</v>
       </c>
-      <c r="BG33" s="30"/>
-      <c r="BH33" s="30"/>
-      <c r="BI33" s="30"/>
-      <c r="BJ33" s="29">
+      <c r="BG33" s="45"/>
+      <c r="BH33" s="45"/>
+      <c r="BI33" s="45"/>
+      <c r="BJ33" s="44">
         <v>2015</v>
       </c>
-      <c r="BK33" s="30"/>
-      <c r="BL33" s="30"/>
-      <c r="BM33" s="30"/>
-      <c r="BN33" s="29">
+      <c r="BK33" s="45"/>
+      <c r="BL33" s="45"/>
+      <c r="BM33" s="45"/>
+      <c r="BN33" s="44">
         <v>2016</v>
       </c>
-      <c r="BO33" s="30"/>
-      <c r="BP33" s="30"/>
-      <c r="BQ33" s="30"/>
-      <c r="BR33" s="29">
+      <c r="BO33" s="45"/>
+      <c r="BP33" s="45"/>
+      <c r="BQ33" s="45"/>
+      <c r="BR33" s="44">
         <v>2017</v>
       </c>
-      <c r="BS33" s="30"/>
-      <c r="BT33" s="30"/>
-      <c r="BU33" s="30"/>
-      <c r="BV33" s="29">
+      <c r="BS33" s="45"/>
+      <c r="BT33" s="45"/>
+      <c r="BU33" s="45"/>
+      <c r="BV33" s="44">
         <v>2018</v>
       </c>
-      <c r="BW33" s="29"/>
-      <c r="BX33" s="29"/>
-      <c r="BY33" s="29"/>
-      <c r="BZ33" s="29">
+      <c r="BW33" s="44"/>
+      <c r="BX33" s="44"/>
+      <c r="BY33" s="44"/>
+      <c r="BZ33" s="44">
         <v>2019</v>
       </c>
-      <c r="CA33" s="29"/>
-      <c r="CB33" s="29"/>
-      <c r="CC33" s="29"/>
-      <c r="CD33" s="29">
+      <c r="CA33" s="44"/>
+      <c r="CB33" s="44"/>
+      <c r="CC33" s="44"/>
+      <c r="CD33" s="44">
         <v>2020</v>
       </c>
-      <c r="CE33" s="29"/>
-      <c r="CF33" s="29"/>
-      <c r="CG33" s="29"/>
-      <c r="CH33" s="29">
+      <c r="CE33" s="44"/>
+      <c r="CF33" s="44"/>
+      <c r="CG33" s="44"/>
+      <c r="CH33" s="44">
         <v>2021</v>
       </c>
-      <c r="CI33" s="29"/>
-      <c r="CJ33" s="29"/>
-      <c r="CK33" s="29"/>
-      <c r="CL33" s="29">
+      <c r="CI33" s="44"/>
+      <c r="CJ33" s="44"/>
+      <c r="CK33" s="44"/>
+      <c r="CL33" s="46">
         <v>2022</v>
       </c>
-      <c r="CM33" s="29"/>
-      <c r="CN33" s="29"/>
-      <c r="CO33" s="29"/>
-      <c r="CP33" s="29">
+      <c r="CM33" s="46"/>
+      <c r="CN33" s="46"/>
+      <c r="CO33" s="46"/>
+      <c r="CP33" s="46">
         <v>2023</v>
       </c>
-      <c r="CQ33" s="31"/>
+      <c r="CQ33" s="46"/>
+      <c r="CR33" s="46"/>
     </row>
     <row r="34" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
@@ -26640,23 +26693,26 @@
       <c r="CK34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL34" s="6" t="s">
+      <c r="CL34" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CM34" s="6" t="s">
+      <c r="CM34" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CN34" s="6" t="s">
+      <c r="CN34" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="CO34" s="6" t="s">
+      <c r="CO34" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CP34" s="6" t="s">
+      <c r="CP34" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CQ34" s="6" t="s">
+      <c r="CQ34" s="31" t="s">
         <v>7</v>
+      </c>
+      <c r="CR34" s="31" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26930,25 +26986,27 @@
       <c r="CK36" s="25">
         <v>244301.11990967477</v>
       </c>
-      <c r="CL36" s="25">
+      <c r="CL36" s="32">
         <v>138876.45936565803</v>
       </c>
-      <c r="CM36" s="25">
+      <c r="CM36" s="32">
         <v>477872.31733643805</v>
       </c>
-      <c r="CN36" s="25">
+      <c r="CN36" s="32">
         <v>203931.05585814783</v>
       </c>
-      <c r="CO36" s="25">
+      <c r="CO36" s="32">
         <v>267321.23690688016</v>
       </c>
-      <c r="CP36" s="25">
+      <c r="CP36" s="32">
         <v>145971.62645386989</v>
       </c>
-      <c r="CQ36" s="25">
-        <v>481613.7528801724</v>
-      </c>
-      <c r="CR36" s="9"/>
+      <c r="CQ36" s="32">
+        <v>481289.21615361073</v>
+      </c>
+      <c r="CR36" s="32">
+        <v>258810.8934124324</v>
+      </c>
       <c r="CS36" s="9"/>
       <c r="CT36" s="9"/>
       <c r="CU36" s="9"/>
@@ -27250,25 +27308,27 @@
       <c r="CK37" s="25">
         <v>207575.77707729724</v>
       </c>
-      <c r="CL37" s="25">
+      <c r="CL37" s="32">
         <v>233945.22608923679</v>
       </c>
-      <c r="CM37" s="25">
+      <c r="CM37" s="32">
         <v>229061.85258321365</v>
       </c>
-      <c r="CN37" s="25">
+      <c r="CN37" s="32">
         <v>224132.44939260228</v>
       </c>
-      <c r="CO37" s="25">
+      <c r="CO37" s="32">
         <v>224802.9152009926</v>
       </c>
-      <c r="CP37" s="25">
+      <c r="CP37" s="32">
         <v>282783.15415980428</v>
       </c>
-      <c r="CQ37" s="25">
-        <v>252437.6011449878</v>
-      </c>
-      <c r="CR37" s="9"/>
+      <c r="CQ37" s="32">
+        <v>253614.75393411054</v>
+      </c>
+      <c r="CR37" s="32">
+        <v>230497.10899852074</v>
+      </c>
       <c r="CS37" s="9"/>
       <c r="CT37" s="9"/>
       <c r="CU37" s="9"/>
@@ -27570,25 +27630,27 @@
       <c r="CK38" s="25">
         <v>229834.19557939863</v>
       </c>
-      <c r="CL38" s="25">
+      <c r="CL38" s="32">
         <v>162896.04245673135</v>
       </c>
-      <c r="CM38" s="25">
+      <c r="CM38" s="32">
         <v>198065.43706122765</v>
       </c>
-      <c r="CN38" s="25">
+      <c r="CN38" s="32">
         <v>183408.53384814513</v>
       </c>
-      <c r="CO38" s="25">
+      <c r="CO38" s="32">
         <v>248395.60611464089</v>
       </c>
-      <c r="CP38" s="25">
+      <c r="CP38" s="32">
         <v>185265.35161465433</v>
       </c>
-      <c r="CQ38" s="25">
-        <v>190287.86186391805</v>
-      </c>
-      <c r="CR38" s="9"/>
+      <c r="CQ38" s="32">
+        <v>191698.36895685486</v>
+      </c>
+      <c r="CR38" s="32">
+        <v>197743.5849927433</v>
+      </c>
       <c r="CS38" s="9"/>
       <c r="CT38" s="9"/>
       <c r="CU38" s="9"/>
@@ -27711,13 +27773,13 @@
       <c r="CI39" s="9"/>
       <c r="CJ39" s="9"/>
       <c r="CK39" s="9"/>
-      <c r="CL39" s="9"/>
-      <c r="CM39" s="9"/>
-      <c r="CN39" s="9"/>
-      <c r="CO39" s="9"/>
-      <c r="CP39" s="9"/>
-      <c r="CQ39" s="9"/>
-      <c r="CR39" s="9"/>
+      <c r="CL39" s="33"/>
+      <c r="CM39" s="33"/>
+      <c r="CN39" s="33"/>
+      <c r="CO39" s="33"/>
+      <c r="CP39" s="33"/>
+      <c r="CQ39" s="33"/>
+      <c r="CR39" s="33"/>
       <c r="CS39" s="9"/>
       <c r="CT39" s="9"/>
       <c r="CU39" s="9"/>
@@ -28019,25 +28081,27 @@
       <c r="CK40" s="26">
         <v>681711.09256637061</v>
       </c>
-      <c r="CL40" s="26">
+      <c r="CL40" s="34">
         <v>535717.72791162611</v>
       </c>
-      <c r="CM40" s="26">
+      <c r="CM40" s="34">
         <v>904999.60698087933</v>
       </c>
-      <c r="CN40" s="26">
+      <c r="CN40" s="34">
         <v>611472.03909889527</v>
       </c>
-      <c r="CO40" s="26">
+      <c r="CO40" s="34">
         <v>740519.7582225136</v>
       </c>
-      <c r="CP40" s="26">
+      <c r="CP40" s="34">
         <v>614020.1322283285</v>
       </c>
-      <c r="CQ40" s="26">
-        <v>924339.21588907822</v>
-      </c>
-      <c r="CR40" s="9"/>
+      <c r="CQ40" s="34">
+        <v>926602.33904457605</v>
+      </c>
+      <c r="CR40" s="34">
+        <v>687051.5874036965</v>
+      </c>
       <c r="CS40" s="9"/>
       <c r="CT40" s="9"/>
       <c r="CU40" s="9"/>
@@ -28161,12 +28225,13 @@
       <c r="CI41" s="12"/>
       <c r="CJ41" s="12"/>
       <c r="CK41" s="12"/>
-      <c r="CL41" s="12"/>
-      <c r="CM41" s="12"/>
-      <c r="CN41" s="12"/>
-      <c r="CO41" s="12"/>
-      <c r="CP41" s="12"/>
-      <c r="CQ41" s="12"/>
+      <c r="CL41" s="35"/>
+      <c r="CM41" s="35"/>
+      <c r="CN41" s="35"/>
+      <c r="CO41" s="35"/>
+      <c r="CP41" s="35"/>
+      <c r="CQ41" s="35"/>
+      <c r="CR41" s="35"/>
     </row>
     <row r="42" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
@@ -28258,13 +28323,13 @@
       <c r="CI42" s="26"/>
       <c r="CJ42" s="26"/>
       <c r="CK42" s="26"/>
-      <c r="CL42" s="26"/>
-      <c r="CM42" s="26"/>
-      <c r="CN42" s="26"/>
-      <c r="CO42" s="26"/>
-      <c r="CP42" s="26"/>
-      <c r="CQ42" s="26"/>
-      <c r="CR42" s="9"/>
+      <c r="CL42" s="34"/>
+      <c r="CM42" s="34"/>
+      <c r="CN42" s="34"/>
+      <c r="CO42" s="34"/>
+      <c r="CP42" s="34"/>
+      <c r="CQ42" s="34"/>
+      <c r="CR42" s="34"/>
       <c r="CS42" s="9"/>
       <c r="CT42" s="9"/>
       <c r="CU42" s="9"/>
@@ -28566,25 +28631,27 @@
       <c r="CK43" s="25">
         <v>386621.50166269159</v>
       </c>
-      <c r="CL43" s="25">
+      <c r="CL43" s="32">
         <v>253019.28406263766</v>
       </c>
-      <c r="CM43" s="25">
+      <c r="CM43" s="32">
         <v>412342.41444169602</v>
       </c>
-      <c r="CN43" s="25">
+      <c r="CN43" s="32">
         <v>309043.48487735365</v>
       </c>
-      <c r="CO43" s="25">
+      <c r="CO43" s="32">
         <v>410453.91399094043</v>
       </c>
-      <c r="CP43" s="25">
+      <c r="CP43" s="32">
         <v>281127.5444927215</v>
       </c>
-      <c r="CQ43" s="25">
-        <v>426744.92058515199</v>
-      </c>
-      <c r="CR43" s="9"/>
+      <c r="CQ43" s="32">
+        <v>427226.71097891132</v>
+      </c>
+      <c r="CR43" s="32">
+        <v>352379.14497140987</v>
+      </c>
       <c r="CS43" s="9"/>
       <c r="CT43" s="9"/>
       <c r="CU43" s="9"/>
@@ -28708,12 +28775,13 @@
       <c r="CI44" s="14"/>
       <c r="CJ44" s="14"/>
       <c r="CK44" s="14"/>
-      <c r="CL44" s="14"/>
-      <c r="CM44" s="14"/>
-      <c r="CN44" s="14"/>
-      <c r="CO44" s="14"/>
-      <c r="CP44" s="14"/>
-      <c r="CQ44" s="14"/>
+      <c r="CL44" s="36"/>
+      <c r="CM44" s="36"/>
+      <c r="CN44" s="36"/>
+      <c r="CO44" s="36"/>
+      <c r="CP44" s="36"/>
+      <c r="CQ44" s="36"/>
+      <c r="CR44" s="36"/>
     </row>
     <row r="45" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
@@ -28814,13 +28882,13 @@
       <c r="CI47" s="9"/>
       <c r="CJ47" s="9"/>
       <c r="CK47" s="9"/>
-      <c r="CL47" s="9"/>
-      <c r="CM47" s="9"/>
-      <c r="CN47" s="9"/>
-      <c r="CO47" s="9"/>
-      <c r="CP47" s="9"/>
-      <c r="CQ47" s="9"/>
-      <c r="CR47" s="9"/>
+      <c r="CL47" s="33"/>
+      <c r="CM47" s="33"/>
+      <c r="CN47" s="33"/>
+      <c r="CO47" s="33"/>
+      <c r="CP47" s="33"/>
+      <c r="CQ47" s="33"/>
+      <c r="CR47" s="33"/>
       <c r="CS47" s="9"/>
       <c r="CT47" s="9"/>
       <c r="CU47" s="9"/>
@@ -28943,13 +29011,13 @@
       <c r="CI48" s="9"/>
       <c r="CJ48" s="9"/>
       <c r="CK48" s="9"/>
-      <c r="CL48" s="9"/>
-      <c r="CM48" s="9"/>
-      <c r="CN48" s="9"/>
-      <c r="CO48" s="9"/>
-      <c r="CP48" s="9"/>
-      <c r="CQ48" s="9"/>
-      <c r="CR48" s="9"/>
+      <c r="CL48" s="33"/>
+      <c r="CM48" s="33"/>
+      <c r="CN48" s="33"/>
+      <c r="CO48" s="33"/>
+      <c r="CP48" s="33"/>
+      <c r="CQ48" s="33"/>
+      <c r="CR48" s="33"/>
       <c r="CS48" s="9"/>
       <c r="CT48" s="9"/>
       <c r="CU48" s="9"/>
@@ -29018,146 +29086,147 @@
     </row>
     <row r="57" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29" t="s">
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29" t="s">
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29" t="s">
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="29" t="s">
+      <c r="O57" s="44"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="44"/>
+      <c r="R57" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="S57" s="29"/>
-      <c r="T57" s="29"/>
-      <c r="U57" s="29"/>
-      <c r="V57" s="29" t="s">
+      <c r="S57" s="44"/>
+      <c r="T57" s="44"/>
+      <c r="U57" s="44"/>
+      <c r="V57" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="W57" s="29"/>
-      <c r="X57" s="29"/>
-      <c r="Y57" s="29"/>
-      <c r="Z57" s="29" t="s">
+      <c r="W57" s="44"/>
+      <c r="X57" s="44"/>
+      <c r="Y57" s="44"/>
+      <c r="Z57" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AA57" s="29"/>
-      <c r="AB57" s="29"/>
-      <c r="AC57" s="29"/>
-      <c r="AD57" s="29" t="s">
+      <c r="AA57" s="44"/>
+      <c r="AB57" s="44"/>
+      <c r="AC57" s="44"/>
+      <c r="AD57" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="AE57" s="29"/>
-      <c r="AF57" s="29"/>
-      <c r="AG57" s="29"/>
-      <c r="AH57" s="29" t="s">
+      <c r="AE57" s="44"/>
+      <c r="AF57" s="44"/>
+      <c r="AG57" s="44"/>
+      <c r="AH57" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AI57" s="29"/>
-      <c r="AJ57" s="29"/>
-      <c r="AK57" s="29"/>
-      <c r="AL57" s="29" t="s">
+      <c r="AI57" s="44"/>
+      <c r="AJ57" s="44"/>
+      <c r="AK57" s="44"/>
+      <c r="AL57" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="AM57" s="29"/>
-      <c r="AN57" s="29"/>
-      <c r="AO57" s="29"/>
-      <c r="AP57" s="29" t="s">
+      <c r="AM57" s="44"/>
+      <c r="AN57" s="44"/>
+      <c r="AO57" s="44"/>
+      <c r="AP57" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="AQ57" s="29"/>
-      <c r="AR57" s="29"/>
-      <c r="AS57" s="29"/>
-      <c r="AT57" s="29" t="s">
+      <c r="AQ57" s="44"/>
+      <c r="AR57" s="44"/>
+      <c r="AS57" s="44"/>
+      <c r="AT57" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="AU57" s="29"/>
-      <c r="AV57" s="29"/>
-      <c r="AW57" s="29"/>
-      <c r="AX57" s="29" t="s">
+      <c r="AU57" s="44"/>
+      <c r="AV57" s="44"/>
+      <c r="AW57" s="44"/>
+      <c r="AX57" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="AY57" s="29"/>
-      <c r="AZ57" s="29"/>
-      <c r="BA57" s="29"/>
-      <c r="BB57" s="29" t="s">
+      <c r="AY57" s="44"/>
+      <c r="AZ57" s="44"/>
+      <c r="BA57" s="44"/>
+      <c r="BB57" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="BC57" s="29"/>
-      <c r="BD57" s="29"/>
-      <c r="BE57" s="29"/>
-      <c r="BF57" s="29" t="s">
+      <c r="BC57" s="44"/>
+      <c r="BD57" s="44"/>
+      <c r="BE57" s="44"/>
+      <c r="BF57" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="BG57" s="29"/>
-      <c r="BH57" s="29"/>
-      <c r="BI57" s="29"/>
-      <c r="BJ57" s="29" t="s">
+      <c r="BG57" s="44"/>
+      <c r="BH57" s="44"/>
+      <c r="BI57" s="44"/>
+      <c r="BJ57" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="BK57" s="29"/>
-      <c r="BL57" s="29"/>
-      <c r="BM57" s="29"/>
-      <c r="BN57" s="29" t="s">
+      <c r="BK57" s="44"/>
+      <c r="BL57" s="44"/>
+      <c r="BM57" s="44"/>
+      <c r="BN57" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="BO57" s="29"/>
-      <c r="BP57" s="29"/>
-      <c r="BQ57" s="29"/>
-      <c r="BR57" s="29" t="s">
+      <c r="BO57" s="44"/>
+      <c r="BP57" s="44"/>
+      <c r="BQ57" s="44"/>
+      <c r="BR57" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BS57" s="29"/>
-      <c r="BT57" s="29"/>
-      <c r="BU57" s="29"/>
-      <c r="BV57" s="29" t="s">
+      <c r="BS57" s="44"/>
+      <c r="BT57" s="44"/>
+      <c r="BU57" s="44"/>
+      <c r="BV57" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="BW57" s="29"/>
-      <c r="BX57" s="29"/>
-      <c r="BY57" s="29"/>
-      <c r="BZ57" s="29" t="s">
+      <c r="BW57" s="44"/>
+      <c r="BX57" s="44"/>
+      <c r="BY57" s="44"/>
+      <c r="BZ57" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="CA57" s="29"/>
-      <c r="CB57" s="29"/>
-      <c r="CC57" s="29"/>
-      <c r="CD57" s="29" t="s">
+      <c r="CA57" s="44"/>
+      <c r="CB57" s="44"/>
+      <c r="CC57" s="44"/>
+      <c r="CD57" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="CE57" s="29"/>
-      <c r="CF57" s="29"/>
-      <c r="CG57" s="29"/>
-      <c r="CH57" s="29" t="s">
+      <c r="CE57" s="44"/>
+      <c r="CF57" s="44"/>
+      <c r="CG57" s="44"/>
+      <c r="CH57" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="CI57" s="29"/>
-      <c r="CJ57" s="29"/>
-      <c r="CK57" s="29"/>
-      <c r="CL57" s="29" t="s">
+      <c r="CI57" s="44"/>
+      <c r="CJ57" s="44"/>
+      <c r="CK57" s="44"/>
+      <c r="CL57" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="CM57" s="29"/>
-      <c r="CN57" s="29"/>
-      <c r="CO57" s="29"/>
+      <c r="CM57" s="46"/>
+      <c r="CN57" s="46"/>
+      <c r="CO57" s="38"/>
       <c r="CP57" s="29"/>
-      <c r="CQ57" s="31"/>
+      <c r="CQ57" s="29"/>
+      <c r="CR57" s="29"/>
     </row>
     <row r="58" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
@@ -29427,16 +29496,19 @@
       <c r="CK58" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CL58" s="5" t="s">
+      <c r="CL58" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="CM58" s="5" t="s">
+      <c r="CM58" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="CN58" s="5"/>
-      <c r="CO58" s="5"/>
-      <c r="CP58" s="5"/>
-      <c r="CQ58" s="5"/>
+      <c r="CN58" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO58" s="39"/>
+      <c r="CP58" s="39"/>
+      <c r="CQ58" s="39"/>
+      <c r="CR58" s="39"/>
     </row>
     <row r="59" spans="1:120" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
@@ -29709,17 +29781,19 @@
       <c r="CK60" s="27">
         <v>16.680526398499083</v>
       </c>
-      <c r="CL60" s="27">
+      <c r="CL60" s="40">
         <v>10.067520212565896</v>
       </c>
-      <c r="CM60" s="27">
-        <v>4.4946222598048138</v>
-      </c>
-      <c r="CN60" s="27"/>
-      <c r="CO60" s="27"/>
-      <c r="CP60" s="27"/>
-      <c r="CQ60" s="27"/>
-      <c r="CR60" s="9"/>
+      <c r="CM60" s="40">
+        <v>4.4678524540369153</v>
+      </c>
+      <c r="CN60" s="40">
+        <v>31.117114853218339</v>
+      </c>
+      <c r="CO60" s="40"/>
+      <c r="CP60" s="40"/>
+      <c r="CQ60" s="40"/>
+      <c r="CR60" s="40"/>
       <c r="CS60" s="9"/>
       <c r="CT60" s="9"/>
       <c r="CU60" s="9"/>
@@ -30013,17 +30087,19 @@
       <c r="CK61" s="27">
         <v>15.59792419688452</v>
       </c>
-      <c r="CL61" s="27">
+      <c r="CL61" s="40">
         <v>26.611658097781572</v>
       </c>
-      <c r="CM61" s="27">
-        <v>14.139396707456228</v>
-      </c>
-      <c r="CN61" s="27"/>
-      <c r="CO61" s="27"/>
-      <c r="CP61" s="27"/>
-      <c r="CQ61" s="27"/>
-      <c r="CR61" s="9"/>
+      <c r="CM61" s="40">
+        <v>14.710641806902643</v>
+      </c>
+      <c r="CN61" s="40">
+        <v>6.1344153042881828</v>
+      </c>
+      <c r="CO61" s="40"/>
+      <c r="CP61" s="40"/>
+      <c r="CQ61" s="40"/>
+      <c r="CR61" s="40"/>
       <c r="CS61" s="9"/>
       <c r="CT61" s="9"/>
       <c r="CU61" s="9"/>
@@ -30317,17 +30393,19 @@
       <c r="CK62" s="27">
         <v>15.602935002522571</v>
       </c>
-      <c r="CL62" s="27">
+      <c r="CL62" s="40">
         <v>19.448879825674467</v>
       </c>
-      <c r="CM62" s="27">
-        <v>-0.48967471999110046</v>
-      </c>
-      <c r="CN62" s="27"/>
-      <c r="CO62" s="27"/>
-      <c r="CP62" s="27"/>
-      <c r="CQ62" s="27"/>
-      <c r="CR62" s="9"/>
+      <c r="CM62" s="40">
+        <v>0.27975748702438352</v>
+      </c>
+      <c r="CN62" s="40">
+        <v>11.105477344835691</v>
+      </c>
+      <c r="CO62" s="40"/>
+      <c r="CP62" s="40"/>
+      <c r="CQ62" s="40"/>
+      <c r="CR62" s="40"/>
       <c r="CS62" s="9"/>
       <c r="CT62" s="9"/>
       <c r="CU62" s="9"/>
@@ -30442,13 +30520,13 @@
       <c r="CI63" s="20"/>
       <c r="CJ63" s="20"/>
       <c r="CK63" s="20"/>
-      <c r="CL63" s="20"/>
-      <c r="CM63" s="20"/>
-      <c r="CN63" s="20"/>
-      <c r="CO63" s="20"/>
-      <c r="CP63" s="20"/>
-      <c r="CQ63" s="20"/>
-      <c r="CR63" s="9"/>
+      <c r="CL63" s="41"/>
+      <c r="CM63" s="41"/>
+      <c r="CN63" s="41"/>
+      <c r="CO63" s="41"/>
+      <c r="CP63" s="41"/>
+      <c r="CQ63" s="41"/>
+      <c r="CR63" s="41"/>
       <c r="CS63" s="9"/>
       <c r="CT63" s="9"/>
       <c r="CU63" s="9"/>
@@ -30742,17 +30820,19 @@
       <c r="CK64" s="27">
         <v>15.992744635622032</v>
       </c>
-      <c r="CL64" s="27">
+      <c r="CL64" s="40">
         <v>19.875351082929768</v>
       </c>
-      <c r="CM64" s="27">
-        <v>5.74113340459661</v>
-      </c>
-      <c r="CN64" s="27"/>
-      <c r="CO64" s="27"/>
-      <c r="CP64" s="27"/>
-      <c r="CQ64" s="27"/>
-      <c r="CR64" s="9"/>
+      <c r="CM64" s="40">
+        <v>6.0409328156851814</v>
+      </c>
+      <c r="CN64" s="40">
+        <v>15.817552210247456</v>
+      </c>
+      <c r="CO64" s="40"/>
+      <c r="CP64" s="40"/>
+      <c r="CQ64" s="40"/>
+      <c r="CR64" s="40"/>
       <c r="CS64" s="9"/>
       <c r="CT64" s="9"/>
       <c r="CU64" s="9"/>
@@ -30868,12 +30948,13 @@
       <c r="CI65" s="23"/>
       <c r="CJ65" s="23"/>
       <c r="CK65" s="23"/>
-      <c r="CL65" s="23"/>
-      <c r="CM65" s="23"/>
-      <c r="CN65" s="23"/>
-      <c r="CO65" s="23"/>
-      <c r="CP65" s="23"/>
-      <c r="CQ65" s="23"/>
+      <c r="CL65" s="42"/>
+      <c r="CM65" s="42"/>
+      <c r="CN65" s="42"/>
+      <c r="CO65" s="42"/>
+      <c r="CP65" s="42"/>
+      <c r="CQ65" s="42"/>
+      <c r="CR65" s="42"/>
     </row>
     <row r="66" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
@@ -30965,13 +31046,13 @@
       <c r="CI66" s="27"/>
       <c r="CJ66" s="27"/>
       <c r="CK66" s="27"/>
-      <c r="CL66" s="27"/>
-      <c r="CM66" s="27"/>
-      <c r="CN66" s="27"/>
-      <c r="CO66" s="27"/>
-      <c r="CP66" s="27"/>
-      <c r="CQ66" s="27"/>
-      <c r="CR66" s="9"/>
+      <c r="CL66" s="40"/>
+      <c r="CM66" s="40"/>
+      <c r="CN66" s="40"/>
+      <c r="CO66" s="40"/>
+      <c r="CP66" s="40"/>
+      <c r="CQ66" s="40"/>
+      <c r="CR66" s="40"/>
       <c r="CS66" s="9"/>
       <c r="CT66" s="9"/>
       <c r="CU66" s="9"/>
@@ -31265,17 +31346,19 @@
       <c r="CK67" s="27">
         <v>12.293722538822067</v>
       </c>
-      <c r="CL67" s="27">
+      <c r="CL67" s="40">
         <v>17.630800805797236</v>
       </c>
-      <c r="CM67" s="27">
-        <v>8.1727486562549956</v>
-      </c>
-      <c r="CN67" s="27"/>
-      <c r="CO67" s="27"/>
-      <c r="CP67" s="27"/>
-      <c r="CQ67" s="27"/>
-      <c r="CR67" s="9"/>
+      <c r="CM67" s="40">
+        <v>8.3986302963156731</v>
+      </c>
+      <c r="CN67" s="40">
+        <v>18.413845393000926</v>
+      </c>
+      <c r="CO67" s="40"/>
+      <c r="CP67" s="40"/>
+      <c r="CQ67" s="40"/>
+      <c r="CR67" s="40"/>
       <c r="CS67" s="9"/>
       <c r="CT67" s="9"/>
       <c r="CU67" s="9"/>
@@ -31391,12 +31474,13 @@
       <c r="CI68" s="14"/>
       <c r="CJ68" s="14"/>
       <c r="CK68" s="14"/>
-      <c r="CL68" s="14"/>
-      <c r="CM68" s="14"/>
-      <c r="CN68" s="14"/>
-      <c r="CO68" s="14"/>
-      <c r="CP68" s="14"/>
-      <c r="CQ68" s="14"/>
+      <c r="CL68" s="36"/>
+      <c r="CM68" s="36"/>
+      <c r="CN68" s="36"/>
+      <c r="CO68" s="36"/>
+      <c r="CP68" s="36"/>
+      <c r="CQ68" s="36"/>
+      <c r="CR68" s="36"/>
     </row>
     <row r="69" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
@@ -31497,13 +31581,13 @@
       <c r="CI71" s="9"/>
       <c r="CJ71" s="9"/>
       <c r="CK71" s="9"/>
-      <c r="CL71" s="9"/>
-      <c r="CM71" s="9"/>
-      <c r="CN71" s="9"/>
-      <c r="CO71" s="9"/>
-      <c r="CP71" s="9"/>
-      <c r="CQ71" s="9"/>
-      <c r="CR71" s="9"/>
+      <c r="CL71" s="33"/>
+      <c r="CM71" s="33"/>
+      <c r="CN71" s="33"/>
+      <c r="CO71" s="33"/>
+      <c r="CP71" s="33"/>
+      <c r="CQ71" s="33"/>
+      <c r="CR71" s="33"/>
       <c r="CS71" s="9"/>
       <c r="CT71" s="9"/>
       <c r="CU71" s="9"/>
@@ -31618,13 +31702,13 @@
       <c r="CI72" s="9"/>
       <c r="CJ72" s="9"/>
       <c r="CK72" s="9"/>
-      <c r="CL72" s="9"/>
-      <c r="CM72" s="9"/>
-      <c r="CN72" s="9"/>
-      <c r="CO72" s="9"/>
-      <c r="CP72" s="9"/>
-      <c r="CQ72" s="9"/>
-      <c r="CR72" s="9"/>
+      <c r="CL72" s="33"/>
+      <c r="CM72" s="33"/>
+      <c r="CN72" s="33"/>
+      <c r="CO72" s="33"/>
+      <c r="CP72" s="33"/>
+      <c r="CQ72" s="33"/>
+      <c r="CR72" s="33"/>
       <c r="CS72" s="9"/>
       <c r="CT72" s="9"/>
       <c r="CU72" s="9"/>
@@ -31682,146 +31766,147 @@
     </row>
     <row r="81" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="29" t="s">
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="45"/>
+      <c r="F81" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="29" t="s">
+      <c r="G81" s="45"/>
+      <c r="H81" s="45"/>
+      <c r="I81" s="45"/>
+      <c r="J81" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="K81" s="30"/>
-      <c r="L81" s="30"/>
-      <c r="M81" s="30"/>
-      <c r="N81" s="29" t="s">
+      <c r="K81" s="45"/>
+      <c r="L81" s="45"/>
+      <c r="M81" s="45"/>
+      <c r="N81" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="O81" s="30"/>
-      <c r="P81" s="30"/>
-      <c r="Q81" s="30"/>
-      <c r="R81" s="29" t="s">
+      <c r="O81" s="45"/>
+      <c r="P81" s="45"/>
+      <c r="Q81" s="45"/>
+      <c r="R81" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="S81" s="30"/>
-      <c r="T81" s="30"/>
-      <c r="U81" s="30"/>
-      <c r="V81" s="29" t="s">
+      <c r="S81" s="45"/>
+      <c r="T81" s="45"/>
+      <c r="U81" s="45"/>
+      <c r="V81" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="W81" s="30"/>
-      <c r="X81" s="30"/>
-      <c r="Y81" s="30"/>
-      <c r="Z81" s="29" t="s">
+      <c r="W81" s="45"/>
+      <c r="X81" s="45"/>
+      <c r="Y81" s="45"/>
+      <c r="Z81" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AA81" s="30"/>
-      <c r="AB81" s="30"/>
-      <c r="AC81" s="30"/>
-      <c r="AD81" s="29" t="s">
+      <c r="AA81" s="45"/>
+      <c r="AB81" s="45"/>
+      <c r="AC81" s="45"/>
+      <c r="AD81" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="AE81" s="30"/>
-      <c r="AF81" s="30"/>
-      <c r="AG81" s="30"/>
-      <c r="AH81" s="29" t="s">
+      <c r="AE81" s="45"/>
+      <c r="AF81" s="45"/>
+      <c r="AG81" s="45"/>
+      <c r="AH81" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AI81" s="30"/>
-      <c r="AJ81" s="30"/>
-      <c r="AK81" s="30"/>
-      <c r="AL81" s="29" t="s">
+      <c r="AI81" s="45"/>
+      <c r="AJ81" s="45"/>
+      <c r="AK81" s="45"/>
+      <c r="AL81" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="AM81" s="30"/>
-      <c r="AN81" s="30"/>
-      <c r="AO81" s="30"/>
-      <c r="AP81" s="29" t="s">
+      <c r="AM81" s="45"/>
+      <c r="AN81" s="45"/>
+      <c r="AO81" s="45"/>
+      <c r="AP81" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="AQ81" s="30"/>
-      <c r="AR81" s="30"/>
-      <c r="AS81" s="30"/>
-      <c r="AT81" s="29" t="s">
+      <c r="AQ81" s="45"/>
+      <c r="AR81" s="45"/>
+      <c r="AS81" s="45"/>
+      <c r="AT81" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="AU81" s="30"/>
-      <c r="AV81" s="30"/>
-      <c r="AW81" s="30"/>
-      <c r="AX81" s="29" t="s">
+      <c r="AU81" s="45"/>
+      <c r="AV81" s="45"/>
+      <c r="AW81" s="45"/>
+      <c r="AX81" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="AY81" s="30"/>
-      <c r="AZ81" s="30"/>
-      <c r="BA81" s="30"/>
-      <c r="BB81" s="29" t="s">
+      <c r="AY81" s="45"/>
+      <c r="AZ81" s="45"/>
+      <c r="BA81" s="45"/>
+      <c r="BB81" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="BC81" s="30"/>
-      <c r="BD81" s="30"/>
-      <c r="BE81" s="30"/>
-      <c r="BF81" s="29" t="s">
+      <c r="BC81" s="45"/>
+      <c r="BD81" s="45"/>
+      <c r="BE81" s="45"/>
+      <c r="BF81" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="BG81" s="30"/>
-      <c r="BH81" s="30"/>
-      <c r="BI81" s="30"/>
-      <c r="BJ81" s="29" t="s">
+      <c r="BG81" s="45"/>
+      <c r="BH81" s="45"/>
+      <c r="BI81" s="45"/>
+      <c r="BJ81" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="BK81" s="30"/>
-      <c r="BL81" s="30"/>
-      <c r="BM81" s="30"/>
-      <c r="BN81" s="29" t="s">
+      <c r="BK81" s="45"/>
+      <c r="BL81" s="45"/>
+      <c r="BM81" s="45"/>
+      <c r="BN81" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="BO81" s="30"/>
-      <c r="BP81" s="30"/>
-      <c r="BQ81" s="30"/>
-      <c r="BR81" s="29" t="s">
+      <c r="BO81" s="45"/>
+      <c r="BP81" s="45"/>
+      <c r="BQ81" s="45"/>
+      <c r="BR81" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BS81" s="30"/>
-      <c r="BT81" s="30"/>
-      <c r="BU81" s="30"/>
-      <c r="BV81" s="29" t="s">
+      <c r="BS81" s="45"/>
+      <c r="BT81" s="45"/>
+      <c r="BU81" s="45"/>
+      <c r="BV81" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="BW81" s="29"/>
-      <c r="BX81" s="29"/>
-      <c r="BY81" s="29"/>
-      <c r="BZ81" s="29" t="s">
+      <c r="BW81" s="44"/>
+      <c r="BX81" s="44"/>
+      <c r="BY81" s="44"/>
+      <c r="BZ81" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="CA81" s="29"/>
-      <c r="CB81" s="29"/>
-      <c r="CC81" s="29"/>
-      <c r="CD81" s="29" t="s">
+      <c r="CA81" s="44"/>
+      <c r="CB81" s="44"/>
+      <c r="CC81" s="44"/>
+      <c r="CD81" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="CE81" s="29"/>
-      <c r="CF81" s="29"/>
-      <c r="CG81" s="29"/>
-      <c r="CH81" s="29" t="s">
+      <c r="CE81" s="44"/>
+      <c r="CF81" s="44"/>
+      <c r="CG81" s="44"/>
+      <c r="CH81" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="CI81" s="29"/>
-      <c r="CJ81" s="29"/>
-      <c r="CK81" s="29"/>
-      <c r="CL81" s="29" t="s">
+      <c r="CI81" s="44"/>
+      <c r="CJ81" s="44"/>
+      <c r="CK81" s="44"/>
+      <c r="CL81" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="CM81" s="29"/>
-      <c r="CN81" s="29"/>
-      <c r="CO81" s="29"/>
+      <c r="CM81" s="46"/>
+      <c r="CN81" s="46"/>
+      <c r="CO81" s="38"/>
       <c r="CP81" s="29"/>
-      <c r="CQ81" s="31"/>
+      <c r="CQ81" s="29"/>
+      <c r="CR81" s="29"/>
     </row>
     <row r="82" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
@@ -32091,16 +32176,19 @@
       <c r="CK82" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL82" s="6" t="s">
+      <c r="CL82" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CM82" s="6" t="s">
+      <c r="CM82" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CN82" s="6"/>
-      <c r="CO82" s="6"/>
-      <c r="CP82" s="6"/>
-      <c r="CQ82" s="6"/>
+      <c r="CN82" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO82" s="31"/>
+      <c r="CP82" s="31"/>
+      <c r="CQ82" s="31"/>
+      <c r="CR82" s="31"/>
     </row>
     <row r="83" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
@@ -32373,17 +32461,19 @@
       <c r="CK84" s="27">
         <v>9.4228454645302548</v>
       </c>
-      <c r="CL84" s="27">
+      <c r="CL84" s="40">
         <v>5.1089775190268085</v>
       </c>
-      <c r="CM84" s="27">
-        <v>0.78293623798681722</v>
-      </c>
-      <c r="CN84" s="27"/>
-      <c r="CO84" s="27"/>
-      <c r="CP84" s="27"/>
-      <c r="CQ84" s="27"/>
-      <c r="CR84" s="9"/>
+      <c r="CM84" s="40">
+        <v>0.71502338453454684</v>
+      </c>
+      <c r="CN84" s="40">
+        <v>26.910976027338563</v>
+      </c>
+      <c r="CO84" s="40"/>
+      <c r="CP84" s="40"/>
+      <c r="CQ84" s="40"/>
+      <c r="CR84" s="40"/>
       <c r="CS84" s="9"/>
       <c r="CT84" s="9"/>
       <c r="CU84" s="9"/>
@@ -32677,17 +32767,19 @@
       <c r="CK85" s="27">
         <v>8.2992044477715297</v>
       </c>
-      <c r="CL85" s="27">
+      <c r="CL85" s="40">
         <v>20.875795965991898</v>
       </c>
-      <c r="CM85" s="27">
-        <v>10.204994108865066</v>
-      </c>
-      <c r="CN85" s="27"/>
-      <c r="CO85" s="27"/>
-      <c r="CP85" s="27"/>
-      <c r="CQ85" s="27"/>
-      <c r="CR85" s="9"/>
+      <c r="CM85" s="40">
+        <v>10.718895823990309</v>
+      </c>
+      <c r="CN85" s="40">
+        <v>2.839686811600302</v>
+      </c>
+      <c r="CO85" s="40"/>
+      <c r="CP85" s="40"/>
+      <c r="CQ85" s="40"/>
+      <c r="CR85" s="40"/>
       <c r="CS85" s="9"/>
       <c r="CT85" s="9"/>
       <c r="CU85" s="9"/>
@@ -32981,17 +33073,19 @@
       <c r="CK86" s="27">
         <v>8.0760003916954304</v>
       </c>
-      <c r="CL86" s="27">
+      <c r="CL86" s="40">
         <v>13.732260661805057</v>
       </c>
-      <c r="CM86" s="27">
-        <v>-3.9267705222619611</v>
-      </c>
-      <c r="CN86" s="27"/>
-      <c r="CO86" s="27"/>
-      <c r="CP86" s="27"/>
-      <c r="CQ86" s="27"/>
-      <c r="CR86" s="9"/>
+      <c r="CM86" s="40">
+        <v>-3.2146285585427705</v>
+      </c>
+      <c r="CN86" s="40">
+        <v>7.8159128388578694</v>
+      </c>
+      <c r="CO86" s="40"/>
+      <c r="CP86" s="40"/>
+      <c r="CQ86" s="40"/>
+      <c r="CR86" s="40"/>
       <c r="CS86" s="9"/>
       <c r="CT86" s="9"/>
       <c r="CU86" s="9"/>
@@ -33106,13 +33200,13 @@
       <c r="CI87" s="20"/>
       <c r="CJ87" s="20"/>
       <c r="CK87" s="20"/>
-      <c r="CL87" s="20"/>
-      <c r="CM87" s="20"/>
-      <c r="CN87" s="20"/>
-      <c r="CO87" s="20"/>
-      <c r="CP87" s="20"/>
-      <c r="CQ87" s="20"/>
-      <c r="CR87" s="9"/>
+      <c r="CL87" s="41"/>
+      <c r="CM87" s="41"/>
+      <c r="CN87" s="41"/>
+      <c r="CO87" s="41"/>
+      <c r="CP87" s="41"/>
+      <c r="CQ87" s="41"/>
+      <c r="CR87" s="41"/>
       <c r="CS87" s="9"/>
       <c r="CT87" s="9"/>
       <c r="CU87" s="9"/>
@@ -33406,17 +33500,19 @@
       <c r="CK88" s="27">
         <v>8.6266258973066954</v>
       </c>
-      <c r="CL88" s="27">
+      <c r="CL88" s="40">
         <v>14.616354889345644</v>
       </c>
-      <c r="CM88" s="27">
-        <v>2.1369742880570612</v>
-      </c>
-      <c r="CN88" s="27"/>
-      <c r="CO88" s="27"/>
-      <c r="CP88" s="27"/>
-      <c r="CQ88" s="27"/>
-      <c r="CR88" s="9"/>
+      <c r="CM88" s="40">
+        <v>2.3870432536169233</v>
+      </c>
+      <c r="CN88" s="40">
+        <v>12.360262362311801</v>
+      </c>
+      <c r="CO88" s="40"/>
+      <c r="CP88" s="40"/>
+      <c r="CQ88" s="40"/>
+      <c r="CR88" s="40"/>
       <c r="CS88" s="9"/>
       <c r="CT88" s="9"/>
       <c r="CU88" s="9"/>
@@ -33532,12 +33628,13 @@
       <c r="CI89" s="23"/>
       <c r="CJ89" s="23"/>
       <c r="CK89" s="23"/>
-      <c r="CL89" s="23"/>
-      <c r="CM89" s="23"/>
-      <c r="CN89" s="23"/>
-      <c r="CO89" s="23"/>
-      <c r="CP89" s="23"/>
-      <c r="CQ89" s="23"/>
+      <c r="CL89" s="42"/>
+      <c r="CM89" s="42"/>
+      <c r="CN89" s="42"/>
+      <c r="CO89" s="42"/>
+      <c r="CP89" s="42"/>
+      <c r="CQ89" s="42"/>
+      <c r="CR89" s="42"/>
     </row>
     <row r="90" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
@@ -33629,13 +33726,13 @@
       <c r="CI90" s="27"/>
       <c r="CJ90" s="27"/>
       <c r="CK90" s="27"/>
-      <c r="CL90" s="27"/>
-      <c r="CM90" s="27"/>
-      <c r="CN90" s="27"/>
-      <c r="CO90" s="27"/>
-      <c r="CP90" s="27"/>
-      <c r="CQ90" s="27"/>
-      <c r="CR90" s="9"/>
+      <c r="CL90" s="40"/>
+      <c r="CM90" s="40"/>
+      <c r="CN90" s="40"/>
+      <c r="CO90" s="40"/>
+      <c r="CP90" s="40"/>
+      <c r="CQ90" s="40"/>
+      <c r="CR90" s="40"/>
       <c r="CS90" s="9"/>
       <c r="CT90" s="9"/>
       <c r="CU90" s="9"/>
@@ -33929,17 +34026,19 @@
       <c r="CK91" s="27">
         <v>6.1642749370523831</v>
       </c>
-      <c r="CL91" s="27">
+      <c r="CL91" s="40">
         <v>11.10913760356911</v>
       </c>
-      <c r="CM91" s="27">
-        <v>3.4928509993221724</v>
-      </c>
-      <c r="CN91" s="27"/>
-      <c r="CO91" s="27"/>
-      <c r="CP91" s="27"/>
-      <c r="CQ91" s="27"/>
-      <c r="CR91" s="9"/>
+      <c r="CM91" s="40">
+        <v>3.609693307288893</v>
+      </c>
+      <c r="CN91" s="40">
+        <v>14.022512110635276</v>
+      </c>
+      <c r="CO91" s="40"/>
+      <c r="CP91" s="40"/>
+      <c r="CQ91" s="40"/>
+      <c r="CR91" s="40"/>
       <c r="CS91" s="9"/>
       <c r="CT91" s="9"/>
       <c r="CU91" s="9"/>
@@ -34055,12 +34154,13 @@
       <c r="CI92" s="14"/>
       <c r="CJ92" s="14"/>
       <c r="CK92" s="14"/>
-      <c r="CL92" s="14"/>
-      <c r="CM92" s="14"/>
-      <c r="CN92" s="14"/>
-      <c r="CO92" s="14"/>
-      <c r="CP92" s="14"/>
-      <c r="CQ92" s="14"/>
+      <c r="CL92" s="36"/>
+      <c r="CM92" s="36"/>
+      <c r="CN92" s="36"/>
+      <c r="CO92" s="36"/>
+      <c r="CP92" s="36"/>
+      <c r="CQ92" s="36"/>
+      <c r="CR92" s="36"/>
     </row>
     <row r="93" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
@@ -34161,13 +34261,13 @@
       <c r="CI95" s="9"/>
       <c r="CJ95" s="9"/>
       <c r="CK95" s="9"/>
-      <c r="CL95" s="9"/>
-      <c r="CM95" s="9"/>
-      <c r="CN95" s="9"/>
-      <c r="CO95" s="9"/>
-      <c r="CP95" s="9"/>
-      <c r="CQ95" s="9"/>
-      <c r="CR95" s="9"/>
+      <c r="CL95" s="33"/>
+      <c r="CM95" s="33"/>
+      <c r="CN95" s="33"/>
+      <c r="CO95" s="33"/>
+      <c r="CP95" s="33"/>
+      <c r="CQ95" s="33"/>
+      <c r="CR95" s="33"/>
       <c r="CS95" s="9"/>
       <c r="CT95" s="9"/>
       <c r="CU95" s="9"/>
@@ -34290,13 +34390,13 @@
       <c r="CI96" s="9"/>
       <c r="CJ96" s="9"/>
       <c r="CK96" s="9"/>
-      <c r="CL96" s="9"/>
-      <c r="CM96" s="9"/>
-      <c r="CN96" s="9"/>
-      <c r="CO96" s="9"/>
-      <c r="CP96" s="9"/>
-      <c r="CQ96" s="9"/>
-      <c r="CR96" s="9"/>
+      <c r="CL96" s="33"/>
+      <c r="CM96" s="33"/>
+      <c r="CN96" s="33"/>
+      <c r="CO96" s="33"/>
+      <c r="CP96" s="33"/>
+      <c r="CQ96" s="33"/>
+      <c r="CR96" s="33"/>
       <c r="CS96" s="9"/>
       <c r="CT96" s="9"/>
       <c r="CU96" s="9"/>
@@ -34357,148 +34457,149 @@
     </row>
     <row r="104" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
-      <c r="B104" s="29">
+      <c r="B104" s="44">
         <v>2000</v>
       </c>
-      <c r="C104" s="30"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="29">
+      <c r="C104" s="45"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="45"/>
+      <c r="F104" s="44">
         <v>2001</v>
       </c>
-      <c r="G104" s="30"/>
-      <c r="H104" s="30"/>
-      <c r="I104" s="30"/>
-      <c r="J104" s="29">
+      <c r="G104" s="45"/>
+      <c r="H104" s="45"/>
+      <c r="I104" s="45"/>
+      <c r="J104" s="44">
         <v>2002</v>
       </c>
-      <c r="K104" s="30"/>
-      <c r="L104" s="30"/>
-      <c r="M104" s="30"/>
-      <c r="N104" s="29">
+      <c r="K104" s="45"/>
+      <c r="L104" s="45"/>
+      <c r="M104" s="45"/>
+      <c r="N104" s="44">
         <v>2003</v>
       </c>
-      <c r="O104" s="30"/>
-      <c r="P104" s="30"/>
-      <c r="Q104" s="30"/>
-      <c r="R104" s="29">
+      <c r="O104" s="45"/>
+      <c r="P104" s="45"/>
+      <c r="Q104" s="45"/>
+      <c r="R104" s="44">
         <v>2004</v>
       </c>
-      <c r="S104" s="30"/>
-      <c r="T104" s="30"/>
-      <c r="U104" s="30"/>
-      <c r="V104" s="29">
+      <c r="S104" s="45"/>
+      <c r="T104" s="45"/>
+      <c r="U104" s="45"/>
+      <c r="V104" s="44">
         <v>2005</v>
       </c>
-      <c r="W104" s="30"/>
-      <c r="X104" s="30"/>
-      <c r="Y104" s="30"/>
-      <c r="Z104" s="29">
+      <c r="W104" s="45"/>
+      <c r="X104" s="45"/>
+      <c r="Y104" s="45"/>
+      <c r="Z104" s="44">
         <v>2006</v>
       </c>
-      <c r="AA104" s="30"/>
-      <c r="AB104" s="30"/>
-      <c r="AC104" s="30"/>
-      <c r="AD104" s="29">
+      <c r="AA104" s="45"/>
+      <c r="AB104" s="45"/>
+      <c r="AC104" s="45"/>
+      <c r="AD104" s="44">
         <v>2007</v>
       </c>
-      <c r="AE104" s="30"/>
-      <c r="AF104" s="30"/>
-      <c r="AG104" s="30"/>
-      <c r="AH104" s="29">
+      <c r="AE104" s="45"/>
+      <c r="AF104" s="45"/>
+      <c r="AG104" s="45"/>
+      <c r="AH104" s="44">
         <v>2008</v>
       </c>
-      <c r="AI104" s="30"/>
-      <c r="AJ104" s="30"/>
-      <c r="AK104" s="30"/>
-      <c r="AL104" s="29">
+      <c r="AI104" s="45"/>
+      <c r="AJ104" s="45"/>
+      <c r="AK104" s="45"/>
+      <c r="AL104" s="44">
         <v>2009</v>
       </c>
-      <c r="AM104" s="30"/>
-      <c r="AN104" s="30"/>
-      <c r="AO104" s="30"/>
-      <c r="AP104" s="29">
+      <c r="AM104" s="45"/>
+      <c r="AN104" s="45"/>
+      <c r="AO104" s="45"/>
+      <c r="AP104" s="44">
         <v>2010</v>
       </c>
-      <c r="AQ104" s="30"/>
-      <c r="AR104" s="30"/>
-      <c r="AS104" s="30"/>
-      <c r="AT104" s="29">
+      <c r="AQ104" s="45"/>
+      <c r="AR104" s="45"/>
+      <c r="AS104" s="45"/>
+      <c r="AT104" s="44">
         <v>2011</v>
       </c>
-      <c r="AU104" s="30"/>
-      <c r="AV104" s="30"/>
-      <c r="AW104" s="30"/>
-      <c r="AX104" s="29">
+      <c r="AU104" s="45"/>
+      <c r="AV104" s="45"/>
+      <c r="AW104" s="45"/>
+      <c r="AX104" s="44">
         <v>2012</v>
       </c>
-      <c r="AY104" s="30"/>
-      <c r="AZ104" s="30"/>
-      <c r="BA104" s="30"/>
-      <c r="BB104" s="29">
+      <c r="AY104" s="45"/>
+      <c r="AZ104" s="45"/>
+      <c r="BA104" s="45"/>
+      <c r="BB104" s="44">
         <v>2013</v>
       </c>
-      <c r="BC104" s="30"/>
-      <c r="BD104" s="30"/>
-      <c r="BE104" s="30"/>
-      <c r="BF104" s="29">
+      <c r="BC104" s="45"/>
+      <c r="BD104" s="45"/>
+      <c r="BE104" s="45"/>
+      <c r="BF104" s="44">
         <v>2014</v>
       </c>
-      <c r="BG104" s="30"/>
-      <c r="BH104" s="30"/>
-      <c r="BI104" s="30"/>
-      <c r="BJ104" s="29">
+      <c r="BG104" s="45"/>
+      <c r="BH104" s="45"/>
+      <c r="BI104" s="45"/>
+      <c r="BJ104" s="44">
         <v>2015</v>
       </c>
-      <c r="BK104" s="30"/>
-      <c r="BL104" s="30"/>
-      <c r="BM104" s="30"/>
-      <c r="BN104" s="29">
+      <c r="BK104" s="45"/>
+      <c r="BL104" s="45"/>
+      <c r="BM104" s="45"/>
+      <c r="BN104" s="44">
         <v>2016</v>
       </c>
-      <c r="BO104" s="30"/>
-      <c r="BP104" s="30"/>
-      <c r="BQ104" s="30"/>
-      <c r="BR104" s="29">
+      <c r="BO104" s="45"/>
+      <c r="BP104" s="45"/>
+      <c r="BQ104" s="45"/>
+      <c r="BR104" s="44">
         <v>2017</v>
       </c>
-      <c r="BS104" s="30"/>
-      <c r="BT104" s="30"/>
-      <c r="BU104" s="30"/>
-      <c r="BV104" s="29">
+      <c r="BS104" s="45"/>
+      <c r="BT104" s="45"/>
+      <c r="BU104" s="45"/>
+      <c r="BV104" s="44">
         <v>2018</v>
       </c>
-      <c r="BW104" s="29"/>
-      <c r="BX104" s="29"/>
-      <c r="BY104" s="29"/>
-      <c r="BZ104" s="29">
+      <c r="BW104" s="44"/>
+      <c r="BX104" s="44"/>
+      <c r="BY104" s="44"/>
+      <c r="BZ104" s="44">
         <v>2019</v>
       </c>
-      <c r="CA104" s="29"/>
-      <c r="CB104" s="29"/>
-      <c r="CC104" s="29"/>
-      <c r="CD104" s="29">
+      <c r="CA104" s="44"/>
+      <c r="CB104" s="44"/>
+      <c r="CC104" s="44"/>
+      <c r="CD104" s="44">
         <v>2020</v>
       </c>
-      <c r="CE104" s="29"/>
-      <c r="CF104" s="29"/>
-      <c r="CG104" s="29"/>
-      <c r="CH104" s="29">
+      <c r="CE104" s="44"/>
+      <c r="CF104" s="44"/>
+      <c r="CG104" s="44"/>
+      <c r="CH104" s="44">
         <v>2021</v>
       </c>
-      <c r="CI104" s="29"/>
-      <c r="CJ104" s="29"/>
-      <c r="CK104" s="29"/>
-      <c r="CL104" s="29">
+      <c r="CI104" s="44"/>
+      <c r="CJ104" s="44"/>
+      <c r="CK104" s="44"/>
+      <c r="CL104" s="46">
         <v>2022</v>
       </c>
-      <c r="CM104" s="29"/>
-      <c r="CN104" s="29"/>
-      <c r="CO104" s="29"/>
-      <c r="CP104" s="29">
+      <c r="CM104" s="46"/>
+      <c r="CN104" s="46"/>
+      <c r="CO104" s="46"/>
+      <c r="CP104" s="46">
         <v>2023</v>
       </c>
-      <c r="CQ104" s="31"/>
+      <c r="CQ104" s="46"/>
+      <c r="CR104" s="46"/>
     </row>
     <row r="105" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
@@ -34768,23 +34869,26 @@
       <c r="CK105" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL105" s="6" t="s">
+      <c r="CL105" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CM105" s="6" t="s">
+      <c r="CM105" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CN105" s="6" t="s">
+      <c r="CN105" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="CO105" s="6" t="s">
+      <c r="CO105" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CP105" s="6" t="s">
+      <c r="CP105" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CQ105" s="6" t="s">
+      <c r="CQ105" s="31" t="s">
         <v>7</v>
+      </c>
+      <c r="CR105" s="31" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35058,25 +35162,27 @@
       <c r="CK107" s="28">
         <v>106.21754603887462</v>
       </c>
-      <c r="CL107" s="28">
+      <c r="CL107" s="43">
         <v>118.31173613609008</v>
       </c>
-      <c r="CM107" s="28">
+      <c r="CM107" s="43">
         <v>114.2922170609275</v>
       </c>
-      <c r="CN107" s="28">
+      <c r="CN107" s="43">
         <v>122.36603494741189</v>
       </c>
-      <c r="CO107" s="28">
+      <c r="CO107" s="43">
         <v>113.26262931619794</v>
       </c>
-      <c r="CP107" s="28">
+      <c r="CP107" s="43">
         <v>123.8931223185533</v>
       </c>
-      <c r="CQ107" s="28">
-        <v>118.50142985331824</v>
-      </c>
-      <c r="CR107" s="9"/>
+      <c r="CQ107" s="43">
+        <v>118.5509576161125</v>
+      </c>
+      <c r="CR107" s="43">
+        <v>126.42154335710534</v>
+      </c>
       <c r="CS107" s="9"/>
       <c r="CT107" s="9"/>
       <c r="CU107" s="9"/>
@@ -35378,25 +35484,27 @@
       <c r="CK108" s="28">
         <v>110.73024143143924</v>
       </c>
-      <c r="CL108" s="28">
+      <c r="CL108" s="43">
         <v>107.5881278956349</v>
       </c>
-      <c r="CM108" s="28">
+      <c r="CM108" s="43">
         <v>110.861880915884</v>
       </c>
-      <c r="CN108" s="28">
+      <c r="CN108" s="43">
         <v>127.25295002357193</v>
       </c>
-      <c r="CO108" s="28">
+      <c r="CO108" s="43">
         <v>118.19279855806573</v>
       </c>
-      <c r="CP108" s="28">
+      <c r="CP108" s="43">
         <v>112.69345658195303</v>
       </c>
-      <c r="CQ108" s="28">
-        <v>114.81973487601655</v>
-      </c>
-      <c r="CR108" s="9"/>
+      <c r="CQ108" s="43">
+        <v>114.858781937256</v>
+      </c>
+      <c r="CR108" s="43">
+        <v>131.32981891747795</v>
+      </c>
       <c r="CS108" s="9"/>
       <c r="CT108" s="9"/>
       <c r="CU108" s="9"/>
@@ -35698,25 +35806,27 @@
       <c r="CK109" s="28">
         <v>97.915217688209665</v>
       </c>
-      <c r="CL109" s="28">
+      <c r="CL109" s="43">
         <v>120.93406329895843</v>
       </c>
-      <c r="CM109" s="28">
+      <c r="CM109" s="43">
         <v>117.64500003841923</v>
       </c>
-      <c r="CN109" s="28">
+      <c r="CN109" s="43">
         <v>122.2019131301867</v>
       </c>
-      <c r="CO109" s="28">
+      <c r="CO109" s="43">
         <v>104.73450632095862</v>
       </c>
-      <c r="CP109" s="28">
+      <c r="CP109" s="43">
         <v>127.01267265567542</v>
       </c>
-      <c r="CQ109" s="28">
-        <v>121.85384300110846</v>
-      </c>
-      <c r="CR109" s="9"/>
+      <c r="CQ109" s="43">
+        <v>121.8925122434394</v>
+      </c>
+      <c r="CR109" s="43">
+        <v>125.93040798230064</v>
+      </c>
       <c r="CS109" s="9"/>
       <c r="CT109" s="9"/>
       <c r="CU109" s="9"/>
@@ -35839,13 +35949,13 @@
       <c r="CI110" s="9"/>
       <c r="CJ110" s="9"/>
       <c r="CK110" s="9"/>
-      <c r="CL110" s="9"/>
-      <c r="CM110" s="9"/>
-      <c r="CN110" s="9"/>
-      <c r="CO110" s="9"/>
-      <c r="CP110" s="9"/>
-      <c r="CQ110" s="9"/>
-      <c r="CR110" s="9"/>
+      <c r="CL110" s="33"/>
+      <c r="CM110" s="33"/>
+      <c r="CN110" s="33"/>
+      <c r="CO110" s="33"/>
+      <c r="CP110" s="33"/>
+      <c r="CQ110" s="33"/>
+      <c r="CR110" s="33"/>
       <c r="CS110" s="9"/>
       <c r="CT110" s="9"/>
       <c r="CU110" s="9"/>
@@ -36147,25 +36257,27 @@
       <c r="CK111" s="28">
         <v>104.79255425616898</v>
       </c>
-      <c r="CL111" s="28">
+      <c r="CL111" s="43">
         <v>114.42616332601681</v>
       </c>
-      <c r="CM111" s="28">
+      <c r="CM111" s="43">
         <v>114.15775432125356</v>
       </c>
-      <c r="CN111" s="28">
+      <c r="CN111" s="43">
         <v>124.10808501022979</v>
       </c>
-      <c r="CO111" s="28">
+      <c r="CO111" s="43">
         <v>111.8986793996678</v>
       </c>
-      <c r="CP111" s="28">
+      <c r="CP111" s="43">
         <v>119.67643287052397</v>
       </c>
-      <c r="CQ111" s="28">
-        <v>118.18609678810827</v>
-      </c>
-      <c r="CR111" s="9"/>
+      <c r="CQ111" s="43">
+        <v>118.23170561126553</v>
+      </c>
+      <c r="CR111" s="43">
+        <v>127.92685165718738</v>
+      </c>
       <c r="CS111" s="9"/>
       <c r="CT111" s="9"/>
       <c r="CU111" s="9"/>
@@ -36289,12 +36401,13 @@
       <c r="CI112" s="12"/>
       <c r="CJ112" s="12"/>
       <c r="CK112" s="12"/>
-      <c r="CL112" s="12"/>
-      <c r="CM112" s="12"/>
-      <c r="CN112" s="12"/>
-      <c r="CO112" s="12"/>
-      <c r="CP112" s="12"/>
-      <c r="CQ112" s="12"/>
+      <c r="CL112" s="35"/>
+      <c r="CM112" s="35"/>
+      <c r="CN112" s="35"/>
+      <c r="CO112" s="35"/>
+      <c r="CP112" s="35"/>
+      <c r="CQ112" s="35"/>
+      <c r="CR112" s="35"/>
     </row>
     <row r="113" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
@@ -36386,13 +36499,13 @@
       <c r="CI113" s="26"/>
       <c r="CJ113" s="26"/>
       <c r="CK113" s="26"/>
-      <c r="CL113" s="26"/>
-      <c r="CM113" s="26"/>
-      <c r="CN113" s="26"/>
-      <c r="CO113" s="26"/>
-      <c r="CP113" s="26"/>
-      <c r="CQ113" s="26"/>
-      <c r="CR113" s="9"/>
+      <c r="CL113" s="34"/>
+      <c r="CM113" s="34"/>
+      <c r="CN113" s="34"/>
+      <c r="CO113" s="34"/>
+      <c r="CP113" s="34"/>
+      <c r="CQ113" s="34"/>
+      <c r="CR113" s="34"/>
       <c r="CS113" s="9"/>
       <c r="CT113" s="9"/>
       <c r="CU113" s="9"/>
@@ -36694,25 +36807,27 @@
       <c r="CK114" s="28">
         <v>103.35734241193842</v>
       </c>
-      <c r="CL114" s="28">
+      <c r="CL114" s="43">
         <v>113.83648388120595</v>
       </c>
-      <c r="CM114" s="28">
+      <c r="CM114" s="43">
         <v>125.57733082184939</v>
       </c>
-      <c r="CN114" s="28">
+      <c r="CN114" s="43">
         <v>116.18968110733041</v>
       </c>
-      <c r="CO114" s="28">
+      <c r="CO114" s="43">
         <v>109.32473035809807</v>
       </c>
-      <c r="CP114" s="28">
+      <c r="CP114" s="43">
         <v>120.51823143151049</v>
       </c>
-      <c r="CQ114" s="28">
-        <v>131.25587818625525</v>
-      </c>
-      <c r="CR114" s="9"/>
+      <c r="CQ114" s="43">
+        <v>131.38163257547404</v>
+      </c>
+      <c r="CR114" s="43">
+        <v>120.66447827035908</v>
+      </c>
       <c r="CS114" s="9"/>
       <c r="CT114" s="9"/>
       <c r="CU114" s="9"/>
@@ -36836,12 +36951,13 @@
       <c r="CI115" s="14"/>
       <c r="CJ115" s="14"/>
       <c r="CK115" s="14"/>
-      <c r="CL115" s="14"/>
-      <c r="CM115" s="14"/>
-      <c r="CN115" s="14"/>
-      <c r="CO115" s="14"/>
-      <c r="CP115" s="14"/>
-      <c r="CQ115" s="14"/>
+      <c r="CL115" s="36"/>
+      <c r="CM115" s="36"/>
+      <c r="CN115" s="36"/>
+      <c r="CO115" s="36"/>
+      <c r="CP115" s="36"/>
+      <c r="CQ115" s="36"/>
+      <c r="CR115" s="36"/>
     </row>
     <row r="116" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
@@ -36885,148 +37001,149 @@
     </row>
     <row r="128" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
-      <c r="B128" s="29">
+      <c r="B128" s="44">
         <v>2000</v>
       </c>
-      <c r="C128" s="30"/>
-      <c r="D128" s="30"/>
-      <c r="E128" s="30"/>
-      <c r="F128" s="29">
+      <c r="C128" s="45"/>
+      <c r="D128" s="45"/>
+      <c r="E128" s="45"/>
+      <c r="F128" s="44">
         <v>2001</v>
       </c>
-      <c r="G128" s="30"/>
-      <c r="H128" s="30"/>
-      <c r="I128" s="30"/>
-      <c r="J128" s="29">
+      <c r="G128" s="45"/>
+      <c r="H128" s="45"/>
+      <c r="I128" s="45"/>
+      <c r="J128" s="44">
         <v>2002</v>
       </c>
-      <c r="K128" s="30"/>
-      <c r="L128" s="30"/>
-      <c r="M128" s="30"/>
-      <c r="N128" s="29">
+      <c r="K128" s="45"/>
+      <c r="L128" s="45"/>
+      <c r="M128" s="45"/>
+      <c r="N128" s="44">
         <v>2003</v>
       </c>
-      <c r="O128" s="30"/>
-      <c r="P128" s="30"/>
-      <c r="Q128" s="30"/>
-      <c r="R128" s="29">
+      <c r="O128" s="45"/>
+      <c r="P128" s="45"/>
+      <c r="Q128" s="45"/>
+      <c r="R128" s="44">
         <v>2004</v>
       </c>
-      <c r="S128" s="30"/>
-      <c r="T128" s="30"/>
-      <c r="U128" s="30"/>
-      <c r="V128" s="29">
+      <c r="S128" s="45"/>
+      <c r="T128" s="45"/>
+      <c r="U128" s="45"/>
+      <c r="V128" s="44">
         <v>2005</v>
       </c>
-      <c r="W128" s="30"/>
-      <c r="X128" s="30"/>
-      <c r="Y128" s="30"/>
-      <c r="Z128" s="29">
+      <c r="W128" s="45"/>
+      <c r="X128" s="45"/>
+      <c r="Y128" s="45"/>
+      <c r="Z128" s="44">
         <v>2006</v>
       </c>
-      <c r="AA128" s="30"/>
-      <c r="AB128" s="30"/>
-      <c r="AC128" s="30"/>
-      <c r="AD128" s="29">
+      <c r="AA128" s="45"/>
+      <c r="AB128" s="45"/>
+      <c r="AC128" s="45"/>
+      <c r="AD128" s="44">
         <v>2007</v>
       </c>
-      <c r="AE128" s="30"/>
-      <c r="AF128" s="30"/>
-      <c r="AG128" s="30"/>
-      <c r="AH128" s="29">
+      <c r="AE128" s="45"/>
+      <c r="AF128" s="45"/>
+      <c r="AG128" s="45"/>
+      <c r="AH128" s="44">
         <v>2008</v>
       </c>
-      <c r="AI128" s="30"/>
-      <c r="AJ128" s="30"/>
-      <c r="AK128" s="30"/>
-      <c r="AL128" s="29">
+      <c r="AI128" s="45"/>
+      <c r="AJ128" s="45"/>
+      <c r="AK128" s="45"/>
+      <c r="AL128" s="44">
         <v>2009</v>
       </c>
-      <c r="AM128" s="30"/>
-      <c r="AN128" s="30"/>
-      <c r="AO128" s="30"/>
-      <c r="AP128" s="29">
+      <c r="AM128" s="45"/>
+      <c r="AN128" s="45"/>
+      <c r="AO128" s="45"/>
+      <c r="AP128" s="44">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="30"/>
-      <c r="AR128" s="30"/>
-      <c r="AS128" s="30"/>
-      <c r="AT128" s="29">
+      <c r="AQ128" s="45"/>
+      <c r="AR128" s="45"/>
+      <c r="AS128" s="45"/>
+      <c r="AT128" s="44">
         <v>2011</v>
       </c>
-      <c r="AU128" s="30"/>
-      <c r="AV128" s="30"/>
-      <c r="AW128" s="30"/>
-      <c r="AX128" s="29">
+      <c r="AU128" s="45"/>
+      <c r="AV128" s="45"/>
+      <c r="AW128" s="45"/>
+      <c r="AX128" s="44">
         <v>2012</v>
       </c>
-      <c r="AY128" s="30"/>
-      <c r="AZ128" s="30"/>
-      <c r="BA128" s="30"/>
-      <c r="BB128" s="29">
+      <c r="AY128" s="45"/>
+      <c r="AZ128" s="45"/>
+      <c r="BA128" s="45"/>
+      <c r="BB128" s="44">
         <v>2013</v>
       </c>
-      <c r="BC128" s="30"/>
-      <c r="BD128" s="30"/>
-      <c r="BE128" s="30"/>
-      <c r="BF128" s="29">
+      <c r="BC128" s="45"/>
+      <c r="BD128" s="45"/>
+      <c r="BE128" s="45"/>
+      <c r="BF128" s="44">
         <v>2014</v>
       </c>
-      <c r="BG128" s="30"/>
-      <c r="BH128" s="30"/>
-      <c r="BI128" s="30"/>
-      <c r="BJ128" s="29">
+      <c r="BG128" s="45"/>
+      <c r="BH128" s="45"/>
+      <c r="BI128" s="45"/>
+      <c r="BJ128" s="44">
         <v>2015</v>
       </c>
-      <c r="BK128" s="30"/>
-      <c r="BL128" s="30"/>
-      <c r="BM128" s="30"/>
-      <c r="BN128" s="29">
+      <c r="BK128" s="45"/>
+      <c r="BL128" s="45"/>
+      <c r="BM128" s="45"/>
+      <c r="BN128" s="44">
         <v>2016</v>
       </c>
-      <c r="BO128" s="30"/>
-      <c r="BP128" s="30"/>
-      <c r="BQ128" s="30"/>
-      <c r="BR128" s="29">
+      <c r="BO128" s="45"/>
+      <c r="BP128" s="45"/>
+      <c r="BQ128" s="45"/>
+      <c r="BR128" s="44">
         <v>2017</v>
       </c>
-      <c r="BS128" s="30"/>
-      <c r="BT128" s="30"/>
-      <c r="BU128" s="30"/>
-      <c r="BV128" s="29">
+      <c r="BS128" s="45"/>
+      <c r="BT128" s="45"/>
+      <c r="BU128" s="45"/>
+      <c r="BV128" s="44">
         <v>2018</v>
       </c>
-      <c r="BW128" s="29"/>
-      <c r="BX128" s="29"/>
-      <c r="BY128" s="29"/>
-      <c r="BZ128" s="29">
+      <c r="BW128" s="44"/>
+      <c r="BX128" s="44"/>
+      <c r="BY128" s="44"/>
+      <c r="BZ128" s="44">
         <v>2019</v>
       </c>
-      <c r="CA128" s="29"/>
-      <c r="CB128" s="29"/>
-      <c r="CC128" s="29"/>
-      <c r="CD128" s="29">
+      <c r="CA128" s="44"/>
+      <c r="CB128" s="44"/>
+      <c r="CC128" s="44"/>
+      <c r="CD128" s="44">
         <v>2020</v>
       </c>
-      <c r="CE128" s="29"/>
-      <c r="CF128" s="29"/>
-      <c r="CG128" s="29"/>
-      <c r="CH128" s="29">
+      <c r="CE128" s="44"/>
+      <c r="CF128" s="44"/>
+      <c r="CG128" s="44"/>
+      <c r="CH128" s="44">
         <v>2021</v>
       </c>
-      <c r="CI128" s="29"/>
-      <c r="CJ128" s="29"/>
-      <c r="CK128" s="29"/>
-      <c r="CL128" s="29">
+      <c r="CI128" s="44"/>
+      <c r="CJ128" s="44"/>
+      <c r="CK128" s="44"/>
+      <c r="CL128" s="46">
         <v>2022</v>
       </c>
-      <c r="CM128" s="29"/>
-      <c r="CN128" s="29"/>
-      <c r="CO128" s="29"/>
-      <c r="CP128" s="29">
+      <c r="CM128" s="46"/>
+      <c r="CN128" s="46"/>
+      <c r="CO128" s="46"/>
+      <c r="CP128" s="46">
         <v>2023</v>
       </c>
-      <c r="CQ128" s="31"/>
+      <c r="CQ128" s="46"/>
+      <c r="CR128" s="46"/>
     </row>
     <row r="129" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -37296,23 +37413,26 @@
       <c r="CK129" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL129" s="6" t="s">
+      <c r="CL129" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CM129" s="6" t="s">
+      <c r="CM129" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CN129" s="6" t="s">
+      <c r="CN129" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="CO129" s="6" t="s">
+      <c r="CO129" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CP129" s="6" t="s">
+      <c r="CP129" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CQ129" s="6" t="s">
+      <c r="CQ129" s="31" t="s">
         <v>7</v>
+      </c>
+      <c r="CR129" s="31" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37586,25 +37706,27 @@
       <c r="CK131" s="28">
         <v>36.32377146201037</v>
       </c>
-      <c r="CL131" s="28">
+      <c r="CL131" s="43">
         <v>26.803722214589875</v>
       </c>
-      <c r="CM131" s="28">
+      <c r="CM131" s="43">
         <v>52.865789559176669</v>
       </c>
-      <c r="CN131" s="28">
+      <c r="CN131" s="43">
         <v>32.882708178399064</v>
       </c>
-      <c r="CO131" s="28">
+      <c r="CO131" s="43">
         <v>36.539154136581665</v>
       </c>
-      <c r="CP131" s="28">
+      <c r="CP131" s="43">
         <v>24.610724473168894</v>
       </c>
-      <c r="CQ131" s="28">
-        <v>52.242590301309953</v>
-      </c>
-      <c r="CR131" s="9"/>
+      <c r="CQ131" s="43">
+        <v>52.081543955612254</v>
+      </c>
+      <c r="CR131" s="43">
+        <v>37.226532098392383</v>
+      </c>
       <c r="CS131" s="9"/>
       <c r="CT131" s="9"/>
       <c r="CU131" s="9"/>
@@ -37906,25 +38028,27 @@
       <c r="CK132" s="28">
         <v>32.17452413432855</v>
       </c>
-      <c r="CL132" s="28">
+      <c r="CL132" s="43">
         <v>41.059833435824842</v>
       </c>
-      <c r="CM132" s="28">
+      <c r="CM132" s="43">
         <v>24.579961825176643</v>
       </c>
-      <c r="CN132" s="28">
+      <c r="CN132" s="43">
         <v>37.583387271163389</v>
       </c>
-      <c r="CO132" s="28">
+      <c r="CO132" s="43">
         <v>32.065007286746486</v>
       </c>
-      <c r="CP132" s="28">
+      <c r="CP132" s="43">
         <v>43.367160517695467</v>
       </c>
-      <c r="CQ132" s="28">
-        <v>26.532172707882179</v>
-      </c>
-      <c r="CR132" s="9"/>
+      <c r="CQ132" s="43">
+        <v>26.589573683362744</v>
+      </c>
+      <c r="CR132" s="43">
+        <v>34.44115988514752</v>
+      </c>
       <c r="CS132" s="9"/>
       <c r="CT132" s="9"/>
       <c r="CU132" s="9"/>
@@ -38226,25 +38350,27 @@
       <c r="CK133" s="28">
         <v>31.501704403661062</v>
       </c>
-      <c r="CL133" s="28">
+      <c r="CL133" s="43">
         <v>32.13644434958529</v>
       </c>
-      <c r="CM133" s="28">
+      <c r="CM133" s="43">
         <v>22.554248615646681</v>
       </c>
-      <c r="CN133" s="28">
+      <c r="CN133" s="43">
         <v>29.533904550437555</v>
       </c>
-      <c r="CO133" s="28">
+      <c r="CO133" s="43">
         <v>31.395838576671846</v>
       </c>
-      <c r="CP133" s="28">
+      <c r="CP133" s="43">
         <v>32.022115009135625</v>
       </c>
-      <c r="CQ133" s="28">
-        <v>21.225236990807854</v>
-      </c>
-      <c r="CR133" s="9"/>
+      <c r="CQ133" s="43">
+        <v>21.328882361024998</v>
+      </c>
+      <c r="CR133" s="43">
+        <v>28.3323080164601</v>
+      </c>
       <c r="CS133" s="9"/>
       <c r="CT133" s="9"/>
       <c r="CU133" s="9"/>
@@ -38367,13 +38493,13 @@
       <c r="CI134" s="9"/>
       <c r="CJ134" s="9"/>
       <c r="CK134" s="9"/>
-      <c r="CL134" s="9"/>
-      <c r="CM134" s="9"/>
-      <c r="CN134" s="9"/>
-      <c r="CO134" s="9"/>
-      <c r="CP134" s="9"/>
-      <c r="CQ134" s="9"/>
-      <c r="CR134" s="9"/>
+      <c r="CL134" s="33"/>
+      <c r="CM134" s="33"/>
+      <c r="CN134" s="33"/>
+      <c r="CO134" s="33"/>
+      <c r="CP134" s="33"/>
+      <c r="CQ134" s="33"/>
+      <c r="CR134" s="33"/>
       <c r="CS134" s="9"/>
       <c r="CT134" s="9"/>
       <c r="CU134" s="9"/>
@@ -38675,25 +38801,27 @@
       <c r="CK135" s="28">
         <v>100</v>
       </c>
-      <c r="CL135" s="28">
+      <c r="CL135" s="43">
         <v>100</v>
       </c>
-      <c r="CM135" s="28">
+      <c r="CM135" s="43">
         <v>100</v>
       </c>
-      <c r="CN135" s="28">
+      <c r="CN135" s="43">
         <v>100</v>
       </c>
-      <c r="CO135" s="28">
+      <c r="CO135" s="43">
         <v>100</v>
       </c>
-      <c r="CP135" s="28">
+      <c r="CP135" s="43">
         <v>100</v>
       </c>
-      <c r="CQ135" s="28">
+      <c r="CQ135" s="43">
         <v>100</v>
       </c>
-      <c r="CR135" s="9"/>
+      <c r="CR135" s="43">
+        <v>100</v>
+      </c>
       <c r="CS135" s="9"/>
       <c r="CT135" s="9"/>
       <c r="CU135" s="9"/>
@@ -38817,12 +38945,13 @@
       <c r="CI136" s="12"/>
       <c r="CJ136" s="12"/>
       <c r="CK136" s="12"/>
-      <c r="CL136" s="12"/>
-      <c r="CM136" s="12"/>
-      <c r="CN136" s="12"/>
-      <c r="CO136" s="12"/>
-      <c r="CP136" s="12"/>
-      <c r="CQ136" s="12"/>
+      <c r="CL136" s="35"/>
+      <c r="CM136" s="35"/>
+      <c r="CN136" s="35"/>
+      <c r="CO136" s="35"/>
+      <c r="CP136" s="35"/>
+      <c r="CQ136" s="35"/>
+      <c r="CR136" s="35"/>
     </row>
     <row r="137" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
@@ -38914,13 +39043,13 @@
       <c r="CI137" s="26"/>
       <c r="CJ137" s="26"/>
       <c r="CK137" s="26"/>
-      <c r="CL137" s="26"/>
-      <c r="CM137" s="26"/>
-      <c r="CN137" s="26"/>
-      <c r="CO137" s="26"/>
-      <c r="CP137" s="26"/>
-      <c r="CQ137" s="26"/>
-      <c r="CR137" s="9"/>
+      <c r="CL137" s="34"/>
+      <c r="CM137" s="34"/>
+      <c r="CN137" s="34"/>
+      <c r="CO137" s="34"/>
+      <c r="CP137" s="34"/>
+      <c r="CQ137" s="34"/>
+      <c r="CR137" s="34"/>
       <c r="CS137" s="9"/>
       <c r="CT137" s="9"/>
       <c r="CU137" s="9"/>
@@ -39044,13 +39173,13 @@
       <c r="CI138" s="26"/>
       <c r="CJ138" s="26"/>
       <c r="CK138" s="26"/>
-      <c r="CL138" s="26"/>
-      <c r="CM138" s="26"/>
-      <c r="CN138" s="26"/>
-      <c r="CO138" s="26"/>
-      <c r="CP138" s="26"/>
-      <c r="CQ138" s="26"/>
-      <c r="CR138" s="9"/>
+      <c r="CL138" s="34"/>
+      <c r="CM138" s="34"/>
+      <c r="CN138" s="34"/>
+      <c r="CO138" s="34"/>
+      <c r="CP138" s="34"/>
+      <c r="CQ138" s="34"/>
+      <c r="CR138" s="34"/>
       <c r="CS138" s="9"/>
       <c r="CT138" s="9"/>
       <c r="CU138" s="9"/>
@@ -39174,12 +39303,13 @@
       <c r="CI139" s="14"/>
       <c r="CJ139" s="14"/>
       <c r="CK139" s="14"/>
-      <c r="CL139" s="14"/>
-      <c r="CM139" s="14"/>
-      <c r="CN139" s="14"/>
-      <c r="CO139" s="14"/>
-      <c r="CP139" s="14"/>
-      <c r="CQ139" s="14"/>
+      <c r="CL139" s="36"/>
+      <c r="CM139" s="36"/>
+      <c r="CN139" s="36"/>
+      <c r="CO139" s="36"/>
+      <c r="CP139" s="36"/>
+      <c r="CQ139" s="36"/>
+      <c r="CR139" s="36"/>
     </row>
     <row r="140" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
@@ -39280,13 +39410,13 @@
       <c r="CI142" s="9"/>
       <c r="CJ142" s="9"/>
       <c r="CK142" s="9"/>
-      <c r="CL142" s="9"/>
-      <c r="CM142" s="9"/>
-      <c r="CN142" s="9"/>
-      <c r="CO142" s="9"/>
-      <c r="CP142" s="9"/>
-      <c r="CQ142" s="9"/>
-      <c r="CR142" s="9"/>
+      <c r="CL142" s="33"/>
+      <c r="CM142" s="33"/>
+      <c r="CN142" s="33"/>
+      <c r="CO142" s="33"/>
+      <c r="CP142" s="33"/>
+      <c r="CQ142" s="33"/>
+      <c r="CR142" s="33"/>
       <c r="CS142" s="9"/>
       <c r="CT142" s="9"/>
       <c r="CU142" s="9"/>
@@ -39409,13 +39539,13 @@
       <c r="CI143" s="9"/>
       <c r="CJ143" s="9"/>
       <c r="CK143" s="9"/>
-      <c r="CL143" s="9"/>
-      <c r="CM143" s="9"/>
-      <c r="CN143" s="9"/>
-      <c r="CO143" s="9"/>
-      <c r="CP143" s="9"/>
-      <c r="CQ143" s="9"/>
-      <c r="CR143" s="9"/>
+      <c r="CL143" s="33"/>
+      <c r="CM143" s="33"/>
+      <c r="CN143" s="33"/>
+      <c r="CO143" s="33"/>
+      <c r="CP143" s="33"/>
+      <c r="CQ143" s="33"/>
+      <c r="CR143" s="33"/>
       <c r="CS143" s="9"/>
       <c r="CT143" s="9"/>
       <c r="CU143" s="9"/>
@@ -39481,148 +39611,149 @@
     </row>
     <row r="152" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
-      <c r="B152" s="29">
+      <c r="B152" s="44">
         <v>2000</v>
       </c>
-      <c r="C152" s="30"/>
-      <c r="D152" s="30"/>
-      <c r="E152" s="30"/>
-      <c r="F152" s="29">
+      <c r="C152" s="45"/>
+      <c r="D152" s="45"/>
+      <c r="E152" s="45"/>
+      <c r="F152" s="44">
         <v>2001</v>
       </c>
-      <c r="G152" s="30"/>
-      <c r="H152" s="30"/>
-      <c r="I152" s="30"/>
-      <c r="J152" s="29">
+      <c r="G152" s="45"/>
+      <c r="H152" s="45"/>
+      <c r="I152" s="45"/>
+      <c r="J152" s="44">
         <v>2002</v>
       </c>
-      <c r="K152" s="30"/>
-      <c r="L152" s="30"/>
-      <c r="M152" s="30"/>
-      <c r="N152" s="29">
+      <c r="K152" s="45"/>
+      <c r="L152" s="45"/>
+      <c r="M152" s="45"/>
+      <c r="N152" s="44">
         <v>2003</v>
       </c>
-      <c r="O152" s="30"/>
-      <c r="P152" s="30"/>
-      <c r="Q152" s="30"/>
-      <c r="R152" s="29">
+      <c r="O152" s="45"/>
+      <c r="P152" s="45"/>
+      <c r="Q152" s="45"/>
+      <c r="R152" s="44">
         <v>2004</v>
       </c>
-      <c r="S152" s="30"/>
-      <c r="T152" s="30"/>
-      <c r="U152" s="30"/>
-      <c r="V152" s="29">
+      <c r="S152" s="45"/>
+      <c r="T152" s="45"/>
+      <c r="U152" s="45"/>
+      <c r="V152" s="44">
         <v>2005</v>
       </c>
-      <c r="W152" s="30"/>
-      <c r="X152" s="30"/>
-      <c r="Y152" s="30"/>
-      <c r="Z152" s="29">
+      <c r="W152" s="45"/>
+      <c r="X152" s="45"/>
+      <c r="Y152" s="45"/>
+      <c r="Z152" s="44">
         <v>2006</v>
       </c>
-      <c r="AA152" s="30"/>
-      <c r="AB152" s="30"/>
-      <c r="AC152" s="30"/>
-      <c r="AD152" s="29">
+      <c r="AA152" s="45"/>
+      <c r="AB152" s="45"/>
+      <c r="AC152" s="45"/>
+      <c r="AD152" s="44">
         <v>2007</v>
       </c>
-      <c r="AE152" s="30"/>
-      <c r="AF152" s="30"/>
-      <c r="AG152" s="30"/>
-      <c r="AH152" s="29">
+      <c r="AE152" s="45"/>
+      <c r="AF152" s="45"/>
+      <c r="AG152" s="45"/>
+      <c r="AH152" s="44">
         <v>2008</v>
       </c>
-      <c r="AI152" s="30"/>
-      <c r="AJ152" s="30"/>
-      <c r="AK152" s="30"/>
-      <c r="AL152" s="29">
+      <c r="AI152" s="45"/>
+      <c r="AJ152" s="45"/>
+      <c r="AK152" s="45"/>
+      <c r="AL152" s="44">
         <v>2009</v>
       </c>
-      <c r="AM152" s="30"/>
-      <c r="AN152" s="30"/>
-      <c r="AO152" s="30"/>
-      <c r="AP152" s="29">
+      <c r="AM152" s="45"/>
+      <c r="AN152" s="45"/>
+      <c r="AO152" s="45"/>
+      <c r="AP152" s="44">
         <v>2010</v>
       </c>
-      <c r="AQ152" s="30"/>
-      <c r="AR152" s="30"/>
-      <c r="AS152" s="30"/>
-      <c r="AT152" s="29">
+      <c r="AQ152" s="45"/>
+      <c r="AR152" s="45"/>
+      <c r="AS152" s="45"/>
+      <c r="AT152" s="44">
         <v>2011</v>
       </c>
-      <c r="AU152" s="30"/>
-      <c r="AV152" s="30"/>
-      <c r="AW152" s="30"/>
-      <c r="AX152" s="29">
+      <c r="AU152" s="45"/>
+      <c r="AV152" s="45"/>
+      <c r="AW152" s="45"/>
+      <c r="AX152" s="44">
         <v>2012</v>
       </c>
-      <c r="AY152" s="30"/>
-      <c r="AZ152" s="30"/>
-      <c r="BA152" s="30"/>
-      <c r="BB152" s="29">
+      <c r="AY152" s="45"/>
+      <c r="AZ152" s="45"/>
+      <c r="BA152" s="45"/>
+      <c r="BB152" s="44">
         <v>2013</v>
       </c>
-      <c r="BC152" s="30"/>
-      <c r="BD152" s="30"/>
-      <c r="BE152" s="30"/>
-      <c r="BF152" s="29">
+      <c r="BC152" s="45"/>
+      <c r="BD152" s="45"/>
+      <c r="BE152" s="45"/>
+      <c r="BF152" s="44">
         <v>2014</v>
       </c>
-      <c r="BG152" s="30"/>
-      <c r="BH152" s="30"/>
-      <c r="BI152" s="30"/>
-      <c r="BJ152" s="29">
+      <c r="BG152" s="45"/>
+      <c r="BH152" s="45"/>
+      <c r="BI152" s="45"/>
+      <c r="BJ152" s="44">
         <v>2015</v>
       </c>
-      <c r="BK152" s="30"/>
-      <c r="BL152" s="30"/>
-      <c r="BM152" s="30"/>
-      <c r="BN152" s="29">
+      <c r="BK152" s="45"/>
+      <c r="BL152" s="45"/>
+      <c r="BM152" s="45"/>
+      <c r="BN152" s="44">
         <v>2016</v>
       </c>
-      <c r="BO152" s="30"/>
-      <c r="BP152" s="30"/>
-      <c r="BQ152" s="30"/>
-      <c r="BR152" s="29">
+      <c r="BO152" s="45"/>
+      <c r="BP152" s="45"/>
+      <c r="BQ152" s="45"/>
+      <c r="BR152" s="44">
         <v>2017</v>
       </c>
-      <c r="BS152" s="30"/>
-      <c r="BT152" s="30"/>
-      <c r="BU152" s="30"/>
-      <c r="BV152" s="29">
+      <c r="BS152" s="45"/>
+      <c r="BT152" s="45"/>
+      <c r="BU152" s="45"/>
+      <c r="BV152" s="44">
         <v>2018</v>
       </c>
-      <c r="BW152" s="29"/>
-      <c r="BX152" s="29"/>
-      <c r="BY152" s="29"/>
-      <c r="BZ152" s="29">
+      <c r="BW152" s="44"/>
+      <c r="BX152" s="44"/>
+      <c r="BY152" s="44"/>
+      <c r="BZ152" s="44">
         <v>2019</v>
       </c>
-      <c r="CA152" s="29"/>
-      <c r="CB152" s="29"/>
-      <c r="CC152" s="29"/>
-      <c r="CD152" s="29">
+      <c r="CA152" s="44"/>
+      <c r="CB152" s="44"/>
+      <c r="CC152" s="44"/>
+      <c r="CD152" s="44">
         <v>2020</v>
       </c>
-      <c r="CE152" s="29"/>
-      <c r="CF152" s="29"/>
-      <c r="CG152" s="29"/>
-      <c r="CH152" s="29">
+      <c r="CE152" s="44"/>
+      <c r="CF152" s="44"/>
+      <c r="CG152" s="44"/>
+      <c r="CH152" s="44">
         <v>2021</v>
       </c>
-      <c r="CI152" s="29"/>
-      <c r="CJ152" s="29"/>
-      <c r="CK152" s="29"/>
-      <c r="CL152" s="29">
+      <c r="CI152" s="44"/>
+      <c r="CJ152" s="44"/>
+      <c r="CK152" s="44"/>
+      <c r="CL152" s="46">
         <v>2022</v>
       </c>
-      <c r="CM152" s="29"/>
-      <c r="CN152" s="29"/>
-      <c r="CO152" s="29"/>
-      <c r="CP152" s="29">
+      <c r="CM152" s="46"/>
+      <c r="CN152" s="46"/>
+      <c r="CO152" s="46"/>
+      <c r="CP152" s="46">
         <v>2023</v>
       </c>
-      <c r="CQ152" s="31"/>
+      <c r="CQ152" s="46"/>
+      <c r="CR152" s="46"/>
     </row>
     <row r="153" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
@@ -39892,23 +40023,26 @@
       <c r="CK153" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL153" s="6" t="s">
+      <c r="CL153" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CM153" s="6" t="s">
+      <c r="CM153" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CN153" s="6" t="s">
+      <c r="CN153" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="CO153" s="6" t="s">
+      <c r="CO153" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CP153" s="6" t="s">
+      <c r="CP153" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="CQ153" s="6" t="s">
+      <c r="CQ153" s="31" t="s">
         <v>7</v>
+      </c>
+      <c r="CR153" s="31" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40182,25 +40316,27 @@
       <c r="CK155" s="28">
         <v>35.836459546224845</v>
       </c>
-      <c r="CL155" s="28">
+      <c r="CL155" s="43">
         <v>25.923439178881825</v>
       </c>
-      <c r="CM155" s="28">
+      <c r="CM155" s="43">
         <v>52.803593907697078</v>
       </c>
-      <c r="CN155" s="28">
+      <c r="CN155" s="43">
         <v>33.350839092932823</v>
       </c>
-      <c r="CO155" s="28">
+      <c r="CO155" s="43">
         <v>36.099136307792435</v>
       </c>
-      <c r="CP155" s="28">
+      <c r="CP155" s="43">
         <v>23.773101042164058</v>
       </c>
-      <c r="CQ155" s="28">
-        <v>52.103572433301004</v>
-      </c>
-      <c r="CR155" s="9"/>
+      <c r="CQ155" s="43">
+        <v>51.941290872400593</v>
+      </c>
+      <c r="CR155" s="43">
+        <v>37.66979047242355</v>
+      </c>
       <c r="CS155" s="9"/>
       <c r="CT155" s="9"/>
       <c r="CU155" s="9"/>
@@ -40502,25 +40638,27 @@
       <c r="CK156" s="28">
         <v>30.449229789683656</v>
       </c>
-      <c r="CL156" s="28">
+      <c r="CL156" s="43">
         <v>43.66949494115476</v>
       </c>
-      <c r="CM156" s="28">
+      <c r="CM156" s="43">
         <v>25.310712934713266</v>
       </c>
-      <c r="CN156" s="28">
+      <c r="CN156" s="43">
         <v>36.654570456385606</v>
       </c>
-      <c r="CO156" s="28">
+      <c r="CO156" s="43">
         <v>30.357449980888042</v>
       </c>
-      <c r="CP156" s="28">
+      <c r="CP156" s="43">
         <v>46.054378238961228</v>
       </c>
-      <c r="CQ156" s="28">
-        <v>27.310060722911121</v>
-      </c>
-      <c r="CR156" s="9"/>
+      <c r="CQ156" s="43">
+        <v>27.370398632450453</v>
+      </c>
+      <c r="CR156" s="43">
+        <v>33.548733926887166</v>
+      </c>
       <c r="CS156" s="9"/>
       <c r="CT156" s="9"/>
       <c r="CU156" s="9"/>
@@ -40822,25 +40960,27 @@
       <c r="CK157" s="28">
         <v>33.714310664091506</v>
       </c>
-      <c r="CL157" s="28">
+      <c r="CL157" s="43">
         <v>30.407065879963426</v>
       </c>
-      <c r="CM157" s="28">
+      <c r="CM157" s="43">
         <v>21.885693157589664</v>
       </c>
-      <c r="CN157" s="28">
+      <c r="CN157" s="43">
         <v>29.994590450681574</v>
       </c>
-      <c r="CO157" s="28">
+      <c r="CO157" s="43">
         <v>33.543413711319538</v>
       </c>
-      <c r="CP157" s="28">
+      <c r="CP157" s="43">
         <v>30.172520718874711</v>
       </c>
-      <c r="CQ157" s="28">
-        <v>20.586366843787879</v>
-      </c>
-      <c r="CR157" s="9"/>
+      <c r="CQ157" s="43">
+        <v>20.688310495148968</v>
+      </c>
+      <c r="CR157" s="43">
+        <v>28.781475600689284</v>
+      </c>
       <c r="CS157" s="9"/>
       <c r="CT157" s="9"/>
       <c r="CU157" s="9"/>
@@ -40963,13 +41103,13 @@
       <c r="CI158" s="9"/>
       <c r="CJ158" s="9"/>
       <c r="CK158" s="9"/>
-      <c r="CL158" s="9"/>
-      <c r="CM158" s="9"/>
-      <c r="CN158" s="9"/>
-      <c r="CO158" s="9"/>
-      <c r="CP158" s="9"/>
-      <c r="CQ158" s="9"/>
-      <c r="CR158" s="9"/>
+      <c r="CL158" s="33"/>
+      <c r="CM158" s="33"/>
+      <c r="CN158" s="33"/>
+      <c r="CO158" s="33"/>
+      <c r="CP158" s="33"/>
+      <c r="CQ158" s="33"/>
+      <c r="CR158" s="33"/>
       <c r="CS158" s="9"/>
       <c r="CT158" s="9"/>
       <c r="CU158" s="9"/>
@@ -41271,25 +41411,27 @@
       <c r="CK159" s="28">
         <v>100</v>
       </c>
-      <c r="CL159" s="28">
+      <c r="CL159" s="43">
         <v>100</v>
       </c>
-      <c r="CM159" s="28">
+      <c r="CM159" s="43">
         <v>100</v>
       </c>
-      <c r="CN159" s="28">
+      <c r="CN159" s="43">
         <v>100</v>
       </c>
-      <c r="CO159" s="28">
+      <c r="CO159" s="43">
         <v>100</v>
       </c>
-      <c r="CP159" s="28">
+      <c r="CP159" s="43">
         <v>100</v>
       </c>
-      <c r="CQ159" s="28">
+      <c r="CQ159" s="43">
         <v>100</v>
       </c>
-      <c r="CR159" s="9"/>
+      <c r="CR159" s="43">
+        <v>100</v>
+      </c>
       <c r="CS159" s="9"/>
       <c r="CT159" s="9"/>
       <c r="CU159" s="9"/>
@@ -41413,12 +41555,13 @@
       <c r="CI160" s="12"/>
       <c r="CJ160" s="12"/>
       <c r="CK160" s="12"/>
-      <c r="CL160" s="12"/>
-      <c r="CM160" s="12"/>
-      <c r="CN160" s="12"/>
-      <c r="CO160" s="12"/>
-      <c r="CP160" s="12"/>
-      <c r="CQ160" s="12"/>
+      <c r="CL160" s="35"/>
+      <c r="CM160" s="35"/>
+      <c r="CN160" s="35"/>
+      <c r="CO160" s="35"/>
+      <c r="CP160" s="35"/>
+      <c r="CQ160" s="35"/>
+      <c r="CR160" s="35"/>
     </row>
     <row r="161" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
@@ -41510,13 +41653,13 @@
       <c r="CI161" s="26"/>
       <c r="CJ161" s="26"/>
       <c r="CK161" s="26"/>
-      <c r="CL161" s="26"/>
-      <c r="CM161" s="26"/>
-      <c r="CN161" s="26"/>
-      <c r="CO161" s="26"/>
-      <c r="CP161" s="26"/>
-      <c r="CQ161" s="26"/>
-      <c r="CR161" s="9"/>
+      <c r="CL161" s="34"/>
+      <c r="CM161" s="34"/>
+      <c r="CN161" s="34"/>
+      <c r="CO161" s="34"/>
+      <c r="CP161" s="34"/>
+      <c r="CQ161" s="34"/>
+      <c r="CR161" s="34"/>
       <c r="CS161" s="9"/>
       <c r="CT161" s="9"/>
       <c r="CU161" s="9"/>
@@ -41640,13 +41783,13 @@
       <c r="CI162" s="26"/>
       <c r="CJ162" s="26"/>
       <c r="CK162" s="26"/>
-      <c r="CL162" s="26"/>
-      <c r="CM162" s="26"/>
-      <c r="CN162" s="26"/>
-      <c r="CO162" s="26"/>
-      <c r="CP162" s="26"/>
-      <c r="CQ162" s="26"/>
-      <c r="CR162" s="9"/>
+      <c r="CL162" s="34"/>
+      <c r="CM162" s="34"/>
+      <c r="CN162" s="34"/>
+      <c r="CO162" s="34"/>
+      <c r="CP162" s="34"/>
+      <c r="CQ162" s="34"/>
+      <c r="CR162" s="34"/>
       <c r="CS162" s="9"/>
       <c r="CT162" s="9"/>
       <c r="CU162" s="9"/>
@@ -41770,12 +41913,13 @@
       <c r="CI163" s="14"/>
       <c r="CJ163" s="14"/>
       <c r="CK163" s="14"/>
-      <c r="CL163" s="14"/>
-      <c r="CM163" s="14"/>
-      <c r="CN163" s="14"/>
-      <c r="CO163" s="14"/>
-      <c r="CP163" s="14"/>
-      <c r="CQ163" s="14"/>
+      <c r="CL163" s="36"/>
+      <c r="CM163" s="36"/>
+      <c r="CN163" s="36"/>
+      <c r="CO163" s="36"/>
+      <c r="CP163" s="36"/>
+      <c r="CQ163" s="36"/>
+      <c r="CR163" s="36"/>
     </row>
     <row r="164" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
@@ -41788,26 +41932,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="168">
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CP33:CQ33"/>
-    <mergeCell ref="CP104:CQ104"/>
-    <mergeCell ref="CP128:CQ128"/>
-    <mergeCell ref="CP152:CQ152"/>
-    <mergeCell ref="CL57:CO57"/>
-    <mergeCell ref="CP57:CQ57"/>
-    <mergeCell ref="CL81:CO81"/>
-    <mergeCell ref="CP81:CQ81"/>
+  <mergeCells count="166">
     <mergeCell ref="CL9:CO9"/>
     <mergeCell ref="CL33:CO33"/>
-    <mergeCell ref="CH57:CK57"/>
-    <mergeCell ref="CH81:CK81"/>
-    <mergeCell ref="CL104:CO104"/>
-    <mergeCell ref="CL128:CO128"/>
-    <mergeCell ref="CL152:CO152"/>
-    <mergeCell ref="BR152:BU152"/>
-    <mergeCell ref="BR128:BU128"/>
-    <mergeCell ref="BR104:BU104"/>
+    <mergeCell ref="CP9:CR9"/>
+    <mergeCell ref="CP33:CR33"/>
+    <mergeCell ref="CL57:CN57"/>
+    <mergeCell ref="CL81:CN81"/>
+    <mergeCell ref="CP104:CR104"/>
+    <mergeCell ref="CP128:CR128"/>
+    <mergeCell ref="CP152:CR152"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH33:CK33"/>
     <mergeCell ref="CD57:CG57"/>
@@ -41820,10 +41954,22 @@
     <mergeCell ref="CD128:CG128"/>
     <mergeCell ref="CD104:CG104"/>
     <mergeCell ref="CD33:CG33"/>
+    <mergeCell ref="BV33:BY33"/>
+    <mergeCell ref="BJ81:BM81"/>
+    <mergeCell ref="CH57:CK57"/>
+    <mergeCell ref="CH81:CK81"/>
+    <mergeCell ref="CL104:CO104"/>
+    <mergeCell ref="CL128:CO128"/>
+    <mergeCell ref="CL152:CO152"/>
+    <mergeCell ref="BR152:BU152"/>
+    <mergeCell ref="BR128:BU128"/>
+    <mergeCell ref="BR104:BU104"/>
     <mergeCell ref="BZ128:CC128"/>
     <mergeCell ref="BZ104:CC104"/>
     <mergeCell ref="BV152:BY152"/>
     <mergeCell ref="BZ152:CC152"/>
+    <mergeCell ref="AT128:AW128"/>
+    <mergeCell ref="AX128:BA128"/>
     <mergeCell ref="BV128:BY128"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BZ33:CC33"/>
@@ -41846,15 +41992,6 @@
     <mergeCell ref="BZ81:CC81"/>
     <mergeCell ref="BV104:BY104"/>
     <mergeCell ref="AP81:AS81"/>
-    <mergeCell ref="BV33:BY33"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="J128:M128"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:Y128"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AG128"/>
     <mergeCell ref="BB152:BE152"/>
     <mergeCell ref="B152:E152"/>
     <mergeCell ref="F152:I152"/>
@@ -41865,13 +42002,7 @@
     <mergeCell ref="Z152:AC152"/>
     <mergeCell ref="AD152:AG152"/>
     <mergeCell ref="AH152:AK152"/>
-    <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="AL128:AO128"/>
     <mergeCell ref="AL152:AO152"/>
-    <mergeCell ref="BJ81:BM81"/>
-    <mergeCell ref="AP128:AS128"/>
-    <mergeCell ref="AT128:AW128"/>
-    <mergeCell ref="AX128:BA128"/>
     <mergeCell ref="BB128:BE128"/>
     <mergeCell ref="AP104:AS104"/>
     <mergeCell ref="AT104:AW104"/>
@@ -41885,6 +42016,17 @@
     <mergeCell ref="R104:U104"/>
     <mergeCell ref="AX81:BA81"/>
     <mergeCell ref="BB81:BE81"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="N128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:Y128"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AG128"/>
+    <mergeCell ref="AH128:AK128"/>
+    <mergeCell ref="AL128:AO128"/>
+    <mergeCell ref="AP128:AS128"/>
     <mergeCell ref="BF81:BI81"/>
     <mergeCell ref="V104:Y104"/>
     <mergeCell ref="Z104:AC104"/>
@@ -41963,9 +42105,9 @@
   <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="48" max="94" man="1"/>
-    <brk id="96" max="94" man="1"/>
-    <brk id="119" max="94" man="1"/>
+    <brk id="48" max="95" man="1"/>
+    <brk id="96" max="95" man="1"/>
+    <brk id="119" max="95" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0415AB-4FE3-4165-9BCB-AC8B3519D140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD98FC6E-EB94-432D-8669-C04DEC8567A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNS" sheetId="6" r:id="rId1"/>
@@ -326,7 +326,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$CR$167</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$CS$167</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -629,13 +629,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of November 2023</t>
+    <t>Q1 2000 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2023</t>
+    <t>Q1 2001 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2023</t>
+    <t>As of January 2024</t>
   </si>
 </sst>
 </file>
@@ -737,7 +737,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -777,34 +777,16 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23354,9 +23336,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -23394,7 +23376,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -23500,7 +23482,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -23642,7 +23624,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23660,15 +23642,15 @@
       <selection activeCell="N19" sqref="N19"/>
       <selection pane="topRight" activeCell="N19" sqref="N19"/>
       <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
-      <selection pane="bottomRight" activeCell="CS6" sqref="CS6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.21875" style="1" customWidth="1"/>
     <col min="2" max="89" width="9.77734375" style="1" customWidth="1"/>
-    <col min="90" max="96" width="9.5546875" style="30" customWidth="1"/>
-    <col min="97" max="16384" width="7.77734375" style="1"/>
+    <col min="90" max="97" width="8.77734375" style="1" customWidth="1"/>
+    <col min="98" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.2">
@@ -23683,7 +23665,7 @@
     </row>
     <row r="3" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:128" x14ac:dyDescent="0.2">
@@ -23693,7 +23675,7 @@
     </row>
     <row r="6" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:128" x14ac:dyDescent="0.2">
@@ -23703,149 +23685,150 @@
     </row>
     <row r="9" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="44">
+      <c r="B9" s="31">
         <v>2000</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31">
         <v>2001</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44">
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31">
         <v>2002</v>
       </c>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44">
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31">
         <v>2003</v>
       </c>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44">
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31">
         <v>2004</v>
       </c>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44">
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31">
         <v>2005</v>
       </c>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44">
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31">
         <v>2006</v>
       </c>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="44">
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="31">
         <v>2007</v>
       </c>
-      <c r="AE9" s="44"/>
-      <c r="AF9" s="44"/>
-      <c r="AG9" s="44"/>
-      <c r="AH9" s="44">
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="31"/>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="31">
         <v>2008</v>
       </c>
-      <c r="AI9" s="44"/>
-      <c r="AJ9" s="44"/>
-      <c r="AK9" s="44"/>
-      <c r="AL9" s="44">
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="31">
         <v>2009</v>
       </c>
-      <c r="AM9" s="44"/>
-      <c r="AN9" s="44"/>
-      <c r="AO9" s="44"/>
-      <c r="AP9" s="44">
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="44"/>
-      <c r="AR9" s="44"/>
-      <c r="AS9" s="44"/>
-      <c r="AT9" s="44">
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="31"/>
+      <c r="AT9" s="31">
         <v>2011</v>
       </c>
-      <c r="AU9" s="44"/>
-      <c r="AV9" s="44"/>
-      <c r="AW9" s="44"/>
-      <c r="AX9" s="44">
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="31"/>
+      <c r="AW9" s="31"/>
+      <c r="AX9" s="31">
         <v>2012</v>
       </c>
-      <c r="AY9" s="44"/>
-      <c r="AZ9" s="44"/>
-      <c r="BA9" s="44"/>
-      <c r="BB9" s="44">
+      <c r="AY9" s="31"/>
+      <c r="AZ9" s="31"/>
+      <c r="BA9" s="31"/>
+      <c r="BB9" s="31">
         <v>2013</v>
       </c>
-      <c r="BC9" s="44"/>
-      <c r="BD9" s="44"/>
-      <c r="BE9" s="44"/>
-      <c r="BF9" s="44">
+      <c r="BC9" s="31"/>
+      <c r="BD9" s="31"/>
+      <c r="BE9" s="31"/>
+      <c r="BF9" s="31">
         <v>2014</v>
       </c>
-      <c r="BG9" s="44"/>
-      <c r="BH9" s="44"/>
-      <c r="BI9" s="44"/>
-      <c r="BJ9" s="44">
+      <c r="BG9" s="31"/>
+      <c r="BH9" s="31"/>
+      <c r="BI9" s="31"/>
+      <c r="BJ9" s="31">
         <v>2015</v>
       </c>
-      <c r="BK9" s="44"/>
-      <c r="BL9" s="44"/>
-      <c r="BM9" s="44"/>
-      <c r="BN9" s="44">
+      <c r="BK9" s="31"/>
+      <c r="BL9" s="31"/>
+      <c r="BM9" s="31"/>
+      <c r="BN9" s="31">
         <v>2016</v>
       </c>
-      <c r="BO9" s="44"/>
-      <c r="BP9" s="44"/>
-      <c r="BQ9" s="44"/>
-      <c r="BR9" s="44">
+      <c r="BO9" s="31"/>
+      <c r="BP9" s="31"/>
+      <c r="BQ9" s="31"/>
+      <c r="BR9" s="31">
         <v>2017</v>
       </c>
-      <c r="BS9" s="44"/>
-      <c r="BT9" s="44"/>
-      <c r="BU9" s="44"/>
-      <c r="BV9" s="44">
+      <c r="BS9" s="31"/>
+      <c r="BT9" s="31"/>
+      <c r="BU9" s="31"/>
+      <c r="BV9" s="31">
         <v>2018</v>
       </c>
-      <c r="BW9" s="44"/>
-      <c r="BX9" s="44"/>
-      <c r="BY9" s="44"/>
-      <c r="BZ9" s="44">
+      <c r="BW9" s="31"/>
+      <c r="BX9" s="31"/>
+      <c r="BY9" s="31"/>
+      <c r="BZ9" s="31">
         <v>2019</v>
       </c>
-      <c r="CA9" s="44"/>
-      <c r="CB9" s="44"/>
-      <c r="CC9" s="44"/>
-      <c r="CD9" s="44">
+      <c r="CA9" s="31"/>
+      <c r="CB9" s="31"/>
+      <c r="CC9" s="31"/>
+      <c r="CD9" s="31">
         <v>2020</v>
       </c>
-      <c r="CE9" s="44"/>
-      <c r="CF9" s="44"/>
-      <c r="CG9" s="44"/>
-      <c r="CH9" s="44">
+      <c r="CE9" s="31"/>
+      <c r="CF9" s="31"/>
+      <c r="CG9" s="31"/>
+      <c r="CH9" s="31">
         <v>2021</v>
       </c>
-      <c r="CI9" s="44"/>
-      <c r="CJ9" s="44"/>
-      <c r="CK9" s="44"/>
-      <c r="CL9" s="46">
+      <c r="CI9" s="31"/>
+      <c r="CJ9" s="31"/>
+      <c r="CK9" s="31"/>
+      <c r="CL9" s="30">
         <v>2022</v>
       </c>
-      <c r="CM9" s="46"/>
-      <c r="CN9" s="46"/>
-      <c r="CO9" s="46"/>
-      <c r="CP9" s="46">
+      <c r="CM9" s="30"/>
+      <c r="CN9" s="30"/>
+      <c r="CO9" s="30"/>
+      <c r="CP9" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="46"/>
-      <c r="CR9" s="46"/>
+      <c r="CQ9" s="30"/>
+      <c r="CR9" s="30"/>
+      <c r="CS9" s="30"/>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24115,26 +24098,29 @@
       <c r="CK10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL10" s="31" t="s">
+      <c r="CL10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CM10" s="31" t="s">
+      <c r="CM10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CN10" s="31" t="s">
+      <c r="CN10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CO10" s="31" t="s">
+      <c r="CO10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP10" s="31" t="s">
+      <c r="CP10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CQ10" s="31" t="s">
+      <c r="CQ10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CR10" s="31" t="s">
+      <c r="CR10" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CS10" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24408,28 +24394,30 @@
       <c r="CK12" s="25">
         <v>259490.65451354504</v>
       </c>
-      <c r="CL12" s="32">
+      <c r="CL12" s="25">
         <v>164307.15015984167</v>
       </c>
-      <c r="CM12" s="32">
+      <c r="CM12" s="25">
         <v>546170.86620424606</v>
       </c>
-      <c r="CN12" s="32">
+      <c r="CN12" s="25">
         <v>249542.34708000725</v>
       </c>
-      <c r="CO12" s="32">
+      <c r="CO12" s="25">
         <v>302775.061641315</v>
       </c>
-      <c r="CP12" s="32">
+      <c r="CP12" s="25">
         <v>180848.80571287472</v>
       </c>
-      <c r="CQ12" s="32">
+      <c r="CQ12" s="25">
         <v>570572.97465318709</v>
       </c>
-      <c r="CR12" s="32">
-        <v>327192.72582830989</v>
-      </c>
-      <c r="CS12" s="9"/>
+      <c r="CR12" s="25">
+        <v>328083.40635523229</v>
+      </c>
+      <c r="CS12" s="25">
+        <v>355193.73011114</v>
+      </c>
       <c r="CT12" s="9"/>
       <c r="CU12" s="9"/>
       <c r="CV12" s="9"/>
@@ -24730,28 +24718,30 @@
       <c r="CK13" s="25">
         <v>229849.15911087734</v>
       </c>
-      <c r="CL13" s="32">
+      <c r="CL13" s="25">
         <v>251697.28905062028</v>
       </c>
-      <c r="CM13" s="32">
+      <c r="CM13" s="25">
         <v>253942.27823452008</v>
       </c>
-      <c r="CN13" s="32">
+      <c r="CN13" s="25">
         <v>285215.15381217585</v>
       </c>
-      <c r="CO13" s="32">
+      <c r="CO13" s="25">
         <v>265700.85671616852</v>
       </c>
-      <c r="CP13" s="32">
+      <c r="CP13" s="25">
         <v>318678.11105415632</v>
       </c>
-      <c r="CQ13" s="32">
+      <c r="CQ13" s="25">
         <v>291298.81718188844</v>
       </c>
-      <c r="CR13" s="32">
-        <v>302711.43585777906</v>
-      </c>
-      <c r="CS13" s="9"/>
+      <c r="CR13" s="25">
+        <v>303926.79697157384</v>
+      </c>
+      <c r="CS13" s="25">
+        <v>285674.70341689343</v>
+      </c>
       <c r="CT13" s="9"/>
       <c r="CU13" s="9"/>
       <c r="CV13" s="9"/>
@@ -25052,28 +25042,30 @@
       <c r="CK14" s="25">
         <v>225042.65292351373</v>
       </c>
-      <c r="CL14" s="32">
+      <c r="CL14" s="25">
         <v>196996.8030961217</v>
       </c>
-      <c r="CM14" s="32">
+      <c r="CM14" s="25">
         <v>233014.08350677649</v>
       </c>
-      <c r="CN14" s="32">
+      <c r="CN14" s="25">
         <v>224128.73720645937</v>
       </c>
-      <c r="CO14" s="32">
+      <c r="CO14" s="25">
         <v>260155.91178712202</v>
       </c>
-      <c r="CP14" s="32">
+      <c r="CP14" s="25">
         <v>235310.47459070696</v>
       </c>
-      <c r="CQ14" s="32">
+      <c r="CQ14" s="25">
         <v>233665.95785120793</v>
       </c>
-      <c r="CR14" s="32">
-        <v>249019.30334018904</v>
-      </c>
-      <c r="CS14" s="9"/>
+      <c r="CR14" s="25">
+        <v>249397.8109571361</v>
+      </c>
+      <c r="CS14" s="25">
+        <v>291442.67021524668</v>
+      </c>
       <c r="CT14" s="9"/>
       <c r="CU14" s="9"/>
       <c r="CV14" s="9"/>
@@ -25195,13 +25187,13 @@
       <c r="CI15" s="9"/>
       <c r="CJ15" s="9"/>
       <c r="CK15" s="9"/>
-      <c r="CL15" s="33"/>
-      <c r="CM15" s="33"/>
-      <c r="CN15" s="33"/>
-      <c r="CO15" s="33"/>
-      <c r="CP15" s="33"/>
-      <c r="CQ15" s="33"/>
-      <c r="CR15" s="33"/>
+      <c r="CL15" s="9"/>
+      <c r="CM15" s="9"/>
+      <c r="CN15" s="9"/>
+      <c r="CO15" s="9"/>
+      <c r="CP15" s="9"/>
+      <c r="CQ15" s="9"/>
+      <c r="CR15" s="9"/>
       <c r="CS15" s="9"/>
       <c r="CT15" s="9"/>
       <c r="CU15" s="9"/>
@@ -25503,28 +25495,30 @@
       <c r="CK16" s="26">
         <v>714382.4665479362</v>
       </c>
-      <c r="CL16" s="34">
+      <c r="CL16" s="26">
         <v>613001.24230658356</v>
       </c>
-      <c r="CM16" s="34">
+      <c r="CM16" s="26">
         <v>1033127.2279455427</v>
       </c>
-      <c r="CN16" s="34">
+      <c r="CN16" s="26">
         <v>758886.23809864244</v>
       </c>
-      <c r="CO16" s="34">
+      <c r="CO16" s="26">
         <v>828631.8301446056</v>
       </c>
-      <c r="CP16" s="34">
+      <c r="CP16" s="26">
         <v>734837.39135773806</v>
       </c>
-      <c r="CQ16" s="34">
+      <c r="CQ16" s="26">
         <v>1095537.7496862835</v>
       </c>
-      <c r="CR16" s="34">
-        <v>878923.46502627793</v>
-      </c>
-      <c r="CS16" s="9"/>
+      <c r="CR16" s="26">
+        <v>881408.01428394229</v>
+      </c>
+      <c r="CS16" s="26">
+        <v>932311.10374328005</v>
+      </c>
       <c r="CT16" s="9"/>
       <c r="CU16" s="9"/>
       <c r="CV16" s="9"/>
@@ -25647,13 +25641,14 @@
       <c r="CI17" s="12"/>
       <c r="CJ17" s="12"/>
       <c r="CK17" s="12"/>
-      <c r="CL17" s="35"/>
-      <c r="CM17" s="35"/>
-      <c r="CN17" s="35"/>
-      <c r="CO17" s="35"/>
-      <c r="CP17" s="35"/>
-      <c r="CQ17" s="35"/>
-      <c r="CR17" s="35"/>
+      <c r="CL17" s="12"/>
+      <c r="CM17" s="12"/>
+      <c r="CN17" s="12"/>
+      <c r="CO17" s="12"/>
+      <c r="CP17" s="12"/>
+      <c r="CQ17" s="12"/>
+      <c r="CR17" s="12"/>
+      <c r="CS17" s="12"/>
     </row>
     <row r="18" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
@@ -25745,14 +25740,14 @@
       <c r="CI18" s="26"/>
       <c r="CJ18" s="26"/>
       <c r="CK18" s="26"/>
-      <c r="CL18" s="34"/>
-      <c r="CM18" s="34"/>
-      <c r="CN18" s="34"/>
-      <c r="CO18" s="34"/>
-      <c r="CP18" s="34"/>
-      <c r="CQ18" s="34"/>
-      <c r="CR18" s="34"/>
-      <c r="CS18" s="9"/>
+      <c r="CL18" s="26"/>
+      <c r="CM18" s="26"/>
+      <c r="CN18" s="26"/>
+      <c r="CO18" s="26"/>
+      <c r="CP18" s="26"/>
+      <c r="CQ18" s="26"/>
+      <c r="CR18" s="26"/>
+      <c r="CS18" s="26"/>
       <c r="CT18" s="9"/>
       <c r="CU18" s="9"/>
       <c r="CV18" s="9"/>
@@ -26053,28 +26048,30 @@
       <c r="CK19" s="25">
         <v>399601.70931168634</v>
       </c>
-      <c r="CL19" s="32">
+      <c r="CL19" s="25">
         <v>288028.2565183072</v>
       </c>
-      <c r="CM19" s="32">
+      <c r="CM19" s="25">
         <v>517808.59790224989</v>
       </c>
-      <c r="CN19" s="32">
+      <c r="CN19" s="25">
         <v>359076.63956197811</v>
       </c>
-      <c r="CO19" s="32">
+      <c r="CO19" s="25">
         <v>448727.63471485535</v>
       </c>
-      <c r="CP19" s="32">
+      <c r="CP19" s="25">
         <v>338809.94468946068</v>
       </c>
-      <c r="CQ19" s="32">
+      <c r="CQ19" s="25">
         <v>561297.42768259568</v>
       </c>
-      <c r="CR19" s="32">
-        <v>425196.45681330399</v>
-      </c>
-      <c r="CS19" s="9"/>
+      <c r="CR19" s="25">
+        <v>426062.69519578002</v>
+      </c>
+      <c r="CS19" s="25">
+        <v>505658.23936907097</v>
+      </c>
       <c r="CT19" s="9"/>
       <c r="CU19" s="9"/>
       <c r="CV19" s="9"/>
@@ -26197,13 +26194,14 @@
       <c r="CI20" s="14"/>
       <c r="CJ20" s="14"/>
       <c r="CK20" s="14"/>
-      <c r="CL20" s="36"/>
-      <c r="CM20" s="36"/>
-      <c r="CN20" s="36"/>
-      <c r="CO20" s="36"/>
-      <c r="CP20" s="36"/>
-      <c r="CQ20" s="36"/>
-      <c r="CR20" s="36"/>
+      <c r="CL20" s="14"/>
+      <c r="CM20" s="14"/>
+      <c r="CN20" s="14"/>
+      <c r="CO20" s="14"/>
+      <c r="CP20" s="14"/>
+      <c r="CQ20" s="14"/>
+      <c r="CR20" s="14"/>
+      <c r="CS20" s="14"/>
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
@@ -26224,13 +26222,6 @@
       <c r="Y23" s="17"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="9"/>
-      <c r="CL23" s="37"/>
-      <c r="CM23" s="37"/>
-      <c r="CN23" s="37"/>
-      <c r="CO23" s="37"/>
-      <c r="CP23" s="37"/>
-      <c r="CQ23" s="37"/>
-      <c r="CR23" s="37"/>
     </row>
     <row r="24" spans="1:128" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G24" s="9"/>
@@ -26241,13 +26232,6 @@
       <c r="Y24" s="17"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="9"/>
-      <c r="CL24" s="37"/>
-      <c r="CM24" s="37"/>
-      <c r="CN24" s="37"/>
-      <c r="CO24" s="37"/>
-      <c r="CP24" s="37"/>
-      <c r="CQ24" s="37"/>
-      <c r="CR24" s="37"/>
     </row>
     <row r="25" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -26261,7 +26245,7 @@
     </row>
     <row r="27" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:128" x14ac:dyDescent="0.2">
@@ -26271,7 +26255,7 @@
     </row>
     <row r="30" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:128" x14ac:dyDescent="0.2">
@@ -26281,149 +26265,150 @@
     </row>
     <row r="33" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="44">
+      <c r="B33" s="31">
         <v>2000</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="44">
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="31">
         <v>2001</v>
       </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="44">
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="31">
         <v>2002</v>
       </c>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="44">
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="31">
         <v>2003</v>
       </c>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="44">
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="31">
         <v>2004</v>
       </c>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="44">
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="31">
         <v>2005</v>
       </c>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="44">
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="31">
         <v>2006</v>
       </c>
-      <c r="AA33" s="45"/>
-      <c r="AB33" s="45"/>
-      <c r="AC33" s="45"/>
-      <c r="AD33" s="44">
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="32"/>
+      <c r="AC33" s="32"/>
+      <c r="AD33" s="31">
         <v>2007</v>
       </c>
-      <c r="AE33" s="45"/>
-      <c r="AF33" s="45"/>
-      <c r="AG33" s="45"/>
-      <c r="AH33" s="44">
+      <c r="AE33" s="32"/>
+      <c r="AF33" s="32"/>
+      <c r="AG33" s="32"/>
+      <c r="AH33" s="31">
         <v>2008</v>
       </c>
-      <c r="AI33" s="45"/>
-      <c r="AJ33" s="45"/>
-      <c r="AK33" s="45"/>
-      <c r="AL33" s="44">
+      <c r="AI33" s="32"/>
+      <c r="AJ33" s="32"/>
+      <c r="AK33" s="32"/>
+      <c r="AL33" s="31">
         <v>2009</v>
       </c>
-      <c r="AM33" s="45"/>
-      <c r="AN33" s="45"/>
-      <c r="AO33" s="45"/>
-      <c r="AP33" s="44">
+      <c r="AM33" s="32"/>
+      <c r="AN33" s="32"/>
+      <c r="AO33" s="32"/>
+      <c r="AP33" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ33" s="45"/>
-      <c r="AR33" s="45"/>
-      <c r="AS33" s="45"/>
-      <c r="AT33" s="44">
+      <c r="AQ33" s="32"/>
+      <c r="AR33" s="32"/>
+      <c r="AS33" s="32"/>
+      <c r="AT33" s="31">
         <v>2011</v>
       </c>
-      <c r="AU33" s="45"/>
-      <c r="AV33" s="45"/>
-      <c r="AW33" s="45"/>
-      <c r="AX33" s="44">
+      <c r="AU33" s="32"/>
+      <c r="AV33" s="32"/>
+      <c r="AW33" s="32"/>
+      <c r="AX33" s="31">
         <v>2012</v>
       </c>
-      <c r="AY33" s="45"/>
-      <c r="AZ33" s="45"/>
-      <c r="BA33" s="45"/>
-      <c r="BB33" s="44">
+      <c r="AY33" s="32"/>
+      <c r="AZ33" s="32"/>
+      <c r="BA33" s="32"/>
+      <c r="BB33" s="31">
         <v>2013</v>
       </c>
-      <c r="BC33" s="45"/>
-      <c r="BD33" s="45"/>
-      <c r="BE33" s="45"/>
-      <c r="BF33" s="44">
+      <c r="BC33" s="32"/>
+      <c r="BD33" s="32"/>
+      <c r="BE33" s="32"/>
+      <c r="BF33" s="31">
         <v>2014</v>
       </c>
-      <c r="BG33" s="45"/>
-      <c r="BH33" s="45"/>
-      <c r="BI33" s="45"/>
-      <c r="BJ33" s="44">
+      <c r="BG33" s="32"/>
+      <c r="BH33" s="32"/>
+      <c r="BI33" s="32"/>
+      <c r="BJ33" s="31">
         <v>2015</v>
       </c>
-      <c r="BK33" s="45"/>
-      <c r="BL33" s="45"/>
-      <c r="BM33" s="45"/>
-      <c r="BN33" s="44">
+      <c r="BK33" s="32"/>
+      <c r="BL33" s="32"/>
+      <c r="BM33" s="32"/>
+      <c r="BN33" s="31">
         <v>2016</v>
       </c>
-      <c r="BO33" s="45"/>
-      <c r="BP33" s="45"/>
-      <c r="BQ33" s="45"/>
-      <c r="BR33" s="44">
+      <c r="BO33" s="32"/>
+      <c r="BP33" s="32"/>
+      <c r="BQ33" s="32"/>
+      <c r="BR33" s="31">
         <v>2017</v>
       </c>
-      <c r="BS33" s="45"/>
-      <c r="BT33" s="45"/>
-      <c r="BU33" s="45"/>
-      <c r="BV33" s="44">
+      <c r="BS33" s="32"/>
+      <c r="BT33" s="32"/>
+      <c r="BU33" s="32"/>
+      <c r="BV33" s="31">
         <v>2018</v>
       </c>
-      <c r="BW33" s="44"/>
-      <c r="BX33" s="44"/>
-      <c r="BY33" s="44"/>
-      <c r="BZ33" s="44">
+      <c r="BW33" s="31"/>
+      <c r="BX33" s="31"/>
+      <c r="BY33" s="31"/>
+      <c r="BZ33" s="31">
         <v>2019</v>
       </c>
-      <c r="CA33" s="44"/>
-      <c r="CB33" s="44"/>
-      <c r="CC33" s="44"/>
-      <c r="CD33" s="44">
+      <c r="CA33" s="31"/>
+      <c r="CB33" s="31"/>
+      <c r="CC33" s="31"/>
+      <c r="CD33" s="31">
         <v>2020</v>
       </c>
-      <c r="CE33" s="44"/>
-      <c r="CF33" s="44"/>
-      <c r="CG33" s="44"/>
-      <c r="CH33" s="44">
+      <c r="CE33" s="31"/>
+      <c r="CF33" s="31"/>
+      <c r="CG33" s="31"/>
+      <c r="CH33" s="31">
         <v>2021</v>
       </c>
-      <c r="CI33" s="44"/>
-      <c r="CJ33" s="44"/>
-      <c r="CK33" s="44"/>
-      <c r="CL33" s="46">
+      <c r="CI33" s="31"/>
+      <c r="CJ33" s="31"/>
+      <c r="CK33" s="31"/>
+      <c r="CL33" s="30">
         <v>2022</v>
       </c>
-      <c r="CM33" s="46"/>
-      <c r="CN33" s="46"/>
-      <c r="CO33" s="46"/>
-      <c r="CP33" s="46">
+      <c r="CM33" s="30"/>
+      <c r="CN33" s="30"/>
+      <c r="CO33" s="30"/>
+      <c r="CP33" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ33" s="46"/>
-      <c r="CR33" s="46"/>
+      <c r="CQ33" s="30"/>
+      <c r="CR33" s="30"/>
+      <c r="CS33" s="30"/>
     </row>
     <row r="34" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
@@ -26693,26 +26678,29 @@
       <c r="CK34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL34" s="31" t="s">
+      <c r="CL34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CM34" s="31" t="s">
+      <c r="CM34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CN34" s="31" t="s">
+      <c r="CN34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CO34" s="31" t="s">
+      <c r="CO34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP34" s="31" t="s">
+      <c r="CP34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CQ34" s="31" t="s">
+      <c r="CQ34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CR34" s="31" t="s">
+      <c r="CR34" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CS34" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26986,28 +26974,30 @@
       <c r="CK36" s="25">
         <v>244301.11990967477</v>
       </c>
-      <c r="CL36" s="32">
+      <c r="CL36" s="25">
         <v>138876.45936565803</v>
       </c>
-      <c r="CM36" s="32">
+      <c r="CM36" s="25">
         <v>477872.31733643805</v>
       </c>
-      <c r="CN36" s="32">
+      <c r="CN36" s="25">
         <v>203931.05585814783</v>
       </c>
-      <c r="CO36" s="32">
+      <c r="CO36" s="25">
         <v>267321.23690688016</v>
       </c>
-      <c r="CP36" s="32">
+      <c r="CP36" s="25">
         <v>145971.62645386989</v>
       </c>
-      <c r="CQ36" s="32">
+      <c r="CQ36" s="25">
         <v>481289.21615361073</v>
       </c>
-      <c r="CR36" s="32">
-        <v>258810.8934124324</v>
-      </c>
-      <c r="CS36" s="9"/>
+      <c r="CR36" s="25">
+        <v>259418.83846355416</v>
+      </c>
+      <c r="CS36" s="25">
+        <v>306574.64432583906</v>
+      </c>
       <c r="CT36" s="9"/>
       <c r="CU36" s="9"/>
       <c r="CV36" s="9"/>
@@ -27308,28 +27298,30 @@
       <c r="CK37" s="25">
         <v>207575.77707729724</v>
       </c>
-      <c r="CL37" s="32">
+      <c r="CL37" s="25">
         <v>233945.22608923679</v>
       </c>
-      <c r="CM37" s="32">
+      <c r="CM37" s="25">
         <v>229061.85258321365</v>
       </c>
-      <c r="CN37" s="32">
+      <c r="CN37" s="25">
         <v>224132.44939260228</v>
       </c>
-      <c r="CO37" s="32">
+      <c r="CO37" s="25">
         <v>224802.9152009926</v>
       </c>
-      <c r="CP37" s="32">
+      <c r="CP37" s="25">
         <v>282783.15415980428</v>
       </c>
-      <c r="CQ37" s="32">
+      <c r="CQ37" s="25">
         <v>253614.75393411054</v>
       </c>
-      <c r="CR37" s="32">
-        <v>230497.10899852074</v>
-      </c>
-      <c r="CS37" s="9"/>
+      <c r="CR37" s="25">
+        <v>231352.42370432083</v>
+      </c>
+      <c r="CS37" s="25">
+        <v>236437.34305238255</v>
+      </c>
       <c r="CT37" s="9"/>
       <c r="CU37" s="9"/>
       <c r="CV37" s="9"/>
@@ -27630,28 +27622,30 @@
       <c r="CK38" s="25">
         <v>229834.19557939863</v>
       </c>
-      <c r="CL38" s="32">
+      <c r="CL38" s="25">
         <v>162896.04245673135</v>
       </c>
-      <c r="CM38" s="32">
+      <c r="CM38" s="25">
         <v>198065.43706122765</v>
       </c>
-      <c r="CN38" s="32">
+      <c r="CN38" s="25">
         <v>183408.53384814513</v>
       </c>
-      <c r="CO38" s="32">
+      <c r="CO38" s="25">
         <v>248395.60611464089</v>
       </c>
-      <c r="CP38" s="32">
+      <c r="CP38" s="25">
         <v>185265.35161465433</v>
       </c>
-      <c r="CQ38" s="32">
+      <c r="CQ38" s="25">
         <v>191698.36895685486</v>
       </c>
-      <c r="CR38" s="32">
-        <v>197743.5849927433</v>
-      </c>
-      <c r="CS38" s="9"/>
+      <c r="CR38" s="25">
+        <v>197986.71028274929</v>
+      </c>
+      <c r="CS38" s="25">
+        <v>272268.63681521942</v>
+      </c>
       <c r="CT38" s="9"/>
       <c r="CU38" s="9"/>
       <c r="CV38" s="9"/>
@@ -27773,13 +27767,13 @@
       <c r="CI39" s="9"/>
       <c r="CJ39" s="9"/>
       <c r="CK39" s="9"/>
-      <c r="CL39" s="33"/>
-      <c r="CM39" s="33"/>
-      <c r="CN39" s="33"/>
-      <c r="CO39" s="33"/>
-      <c r="CP39" s="33"/>
-      <c r="CQ39" s="33"/>
-      <c r="CR39" s="33"/>
+      <c r="CL39" s="9"/>
+      <c r="CM39" s="9"/>
+      <c r="CN39" s="9"/>
+      <c r="CO39" s="9"/>
+      <c r="CP39" s="9"/>
+      <c r="CQ39" s="9"/>
+      <c r="CR39" s="9"/>
       <c r="CS39" s="9"/>
       <c r="CT39" s="9"/>
       <c r="CU39" s="9"/>
@@ -28081,28 +28075,30 @@
       <c r="CK40" s="26">
         <v>681711.09256637061</v>
       </c>
-      <c r="CL40" s="34">
+      <c r="CL40" s="26">
         <v>535717.72791162611</v>
       </c>
-      <c r="CM40" s="34">
+      <c r="CM40" s="26">
         <v>904999.60698087933</v>
       </c>
-      <c r="CN40" s="34">
+      <c r="CN40" s="26">
         <v>611472.03909889527</v>
       </c>
-      <c r="CO40" s="34">
+      <c r="CO40" s="26">
         <v>740519.7582225136</v>
       </c>
-      <c r="CP40" s="34">
+      <c r="CP40" s="26">
         <v>614020.1322283285</v>
       </c>
-      <c r="CQ40" s="34">
+      <c r="CQ40" s="26">
         <v>926602.33904457605</v>
       </c>
-      <c r="CR40" s="34">
-        <v>687051.5874036965</v>
-      </c>
-      <c r="CS40" s="9"/>
+      <c r="CR40" s="26">
+        <v>688757.97245062422</v>
+      </c>
+      <c r="CS40" s="26">
+        <v>815280.62419344101</v>
+      </c>
       <c r="CT40" s="9"/>
       <c r="CU40" s="9"/>
       <c r="CV40" s="9"/>
@@ -28225,13 +28221,14 @@
       <c r="CI41" s="12"/>
       <c r="CJ41" s="12"/>
       <c r="CK41" s="12"/>
-      <c r="CL41" s="35"/>
-      <c r="CM41" s="35"/>
-      <c r="CN41" s="35"/>
-      <c r="CO41" s="35"/>
-      <c r="CP41" s="35"/>
-      <c r="CQ41" s="35"/>
-      <c r="CR41" s="35"/>
+      <c r="CL41" s="12"/>
+      <c r="CM41" s="12"/>
+      <c r="CN41" s="12"/>
+      <c r="CO41" s="12"/>
+      <c r="CP41" s="12"/>
+      <c r="CQ41" s="12"/>
+      <c r="CR41" s="12"/>
+      <c r="CS41" s="12"/>
     </row>
     <row r="42" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
@@ -28323,14 +28320,14 @@
       <c r="CI42" s="26"/>
       <c r="CJ42" s="26"/>
       <c r="CK42" s="26"/>
-      <c r="CL42" s="34"/>
-      <c r="CM42" s="34"/>
-      <c r="CN42" s="34"/>
-      <c r="CO42" s="34"/>
-      <c r="CP42" s="34"/>
-      <c r="CQ42" s="34"/>
-      <c r="CR42" s="34"/>
-      <c r="CS42" s="9"/>
+      <c r="CL42" s="26"/>
+      <c r="CM42" s="26"/>
+      <c r="CN42" s="26"/>
+      <c r="CO42" s="26"/>
+      <c r="CP42" s="26"/>
+      <c r="CQ42" s="26"/>
+      <c r="CR42" s="26"/>
+      <c r="CS42" s="26"/>
       <c r="CT42" s="9"/>
       <c r="CU42" s="9"/>
       <c r="CV42" s="9"/>
@@ -28631,28 +28628,30 @@
       <c r="CK43" s="25">
         <v>386621.50166269159</v>
       </c>
-      <c r="CL43" s="32">
+      <c r="CL43" s="25">
         <v>253019.28406263766</v>
       </c>
-      <c r="CM43" s="32">
+      <c r="CM43" s="25">
         <v>412342.41444169602</v>
       </c>
-      <c r="CN43" s="32">
+      <c r="CN43" s="25">
         <v>309043.48487735365</v>
       </c>
-      <c r="CO43" s="32">
+      <c r="CO43" s="25">
         <v>410453.91399094043</v>
       </c>
-      <c r="CP43" s="32">
+      <c r="CP43" s="25">
         <v>281127.5444927215</v>
       </c>
-      <c r="CQ43" s="32">
+      <c r="CQ43" s="25">
         <v>427226.71097891132</v>
       </c>
-      <c r="CR43" s="32">
-        <v>352379.14497140987</v>
-      </c>
-      <c r="CS43" s="9"/>
+      <c r="CR43" s="25">
+        <v>352794.94123744679</v>
+      </c>
+      <c r="CS43" s="25">
+        <v>445138.0371732621</v>
+      </c>
       <c r="CT43" s="9"/>
       <c r="CU43" s="9"/>
       <c r="CV43" s="9"/>
@@ -28775,13 +28774,14 @@
       <c r="CI44" s="14"/>
       <c r="CJ44" s="14"/>
       <c r="CK44" s="14"/>
-      <c r="CL44" s="36"/>
-      <c r="CM44" s="36"/>
-      <c r="CN44" s="36"/>
-      <c r="CO44" s="36"/>
-      <c r="CP44" s="36"/>
-      <c r="CQ44" s="36"/>
-      <c r="CR44" s="36"/>
+      <c r="CL44" s="14"/>
+      <c r="CM44" s="14"/>
+      <c r="CN44" s="14"/>
+      <c r="CO44" s="14"/>
+      <c r="CP44" s="14"/>
+      <c r="CQ44" s="14"/>
+      <c r="CR44" s="14"/>
+      <c r="CS44" s="14"/>
     </row>
     <row r="45" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
@@ -28882,13 +28882,13 @@
       <c r="CI47" s="9"/>
       <c r="CJ47" s="9"/>
       <c r="CK47" s="9"/>
-      <c r="CL47" s="33"/>
-      <c r="CM47" s="33"/>
-      <c r="CN47" s="33"/>
-      <c r="CO47" s="33"/>
-      <c r="CP47" s="33"/>
-      <c r="CQ47" s="33"/>
-      <c r="CR47" s="33"/>
+      <c r="CL47" s="9"/>
+      <c r="CM47" s="9"/>
+      <c r="CN47" s="9"/>
+      <c r="CO47" s="9"/>
+      <c r="CP47" s="9"/>
+      <c r="CQ47" s="9"/>
+      <c r="CR47" s="9"/>
       <c r="CS47" s="9"/>
       <c r="CT47" s="9"/>
       <c r="CU47" s="9"/>
@@ -29011,13 +29011,13 @@
       <c r="CI48" s="9"/>
       <c r="CJ48" s="9"/>
       <c r="CK48" s="9"/>
-      <c r="CL48" s="33"/>
-      <c r="CM48" s="33"/>
-      <c r="CN48" s="33"/>
-      <c r="CO48" s="33"/>
-      <c r="CP48" s="33"/>
-      <c r="CQ48" s="33"/>
-      <c r="CR48" s="33"/>
+      <c r="CL48" s="9"/>
+      <c r="CM48" s="9"/>
+      <c r="CN48" s="9"/>
+      <c r="CO48" s="9"/>
+      <c r="CP48" s="9"/>
+      <c r="CQ48" s="9"/>
+      <c r="CR48" s="9"/>
       <c r="CS48" s="9"/>
       <c r="CT48" s="9"/>
       <c r="CU48" s="9"/>
@@ -29063,7 +29063,7 @@
     </row>
     <row r="51" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:120" x14ac:dyDescent="0.2">
@@ -29076,7 +29076,7 @@
     </row>
     <row r="54" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:120" x14ac:dyDescent="0.2">
@@ -29086,147 +29086,148 @@
     </row>
     <row r="57" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="44" t="s">
+      <c r="B57" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44" t="s">
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="44" t="s">
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="K57" s="44"/>
-      <c r="L57" s="44"/>
-      <c r="M57" s="44"/>
-      <c r="N57" s="44" t="s">
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="O57" s="44"/>
-      <c r="P57" s="44"/>
-      <c r="Q57" s="44"/>
-      <c r="R57" s="44" t="s">
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="S57" s="44"/>
-      <c r="T57" s="44"/>
-      <c r="U57" s="44"/>
-      <c r="V57" s="44" t="s">
+      <c r="S57" s="31"/>
+      <c r="T57" s="31"/>
+      <c r="U57" s="31"/>
+      <c r="V57" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="W57" s="44"/>
-      <c r="X57" s="44"/>
-      <c r="Y57" s="44"/>
-      <c r="Z57" s="44" t="s">
+      <c r="W57" s="31"/>
+      <c r="X57" s="31"/>
+      <c r="Y57" s="31"/>
+      <c r="Z57" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AA57" s="44"/>
-      <c r="AB57" s="44"/>
-      <c r="AC57" s="44"/>
-      <c r="AD57" s="44" t="s">
+      <c r="AA57" s="31"/>
+      <c r="AB57" s="31"/>
+      <c r="AC57" s="31"/>
+      <c r="AD57" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="AE57" s="44"/>
-      <c r="AF57" s="44"/>
-      <c r="AG57" s="44"/>
-      <c r="AH57" s="44" t="s">
+      <c r="AE57" s="31"/>
+      <c r="AF57" s="31"/>
+      <c r="AG57" s="31"/>
+      <c r="AH57" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AI57" s="44"/>
-      <c r="AJ57" s="44"/>
-      <c r="AK57" s="44"/>
-      <c r="AL57" s="44" t="s">
+      <c r="AI57" s="31"/>
+      <c r="AJ57" s="31"/>
+      <c r="AK57" s="31"/>
+      <c r="AL57" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AM57" s="44"/>
-      <c r="AN57" s="44"/>
-      <c r="AO57" s="44"/>
-      <c r="AP57" s="44" t="s">
+      <c r="AM57" s="31"/>
+      <c r="AN57" s="31"/>
+      <c r="AO57" s="31"/>
+      <c r="AP57" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AQ57" s="44"/>
-      <c r="AR57" s="44"/>
-      <c r="AS57" s="44"/>
-      <c r="AT57" s="44" t="s">
+      <c r="AQ57" s="31"/>
+      <c r="AR57" s="31"/>
+      <c r="AS57" s="31"/>
+      <c r="AT57" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AU57" s="44"/>
-      <c r="AV57" s="44"/>
-      <c r="AW57" s="44"/>
-      <c r="AX57" s="44" t="s">
+      <c r="AU57" s="31"/>
+      <c r="AV57" s="31"/>
+      <c r="AW57" s="31"/>
+      <c r="AX57" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AY57" s="44"/>
-      <c r="AZ57" s="44"/>
-      <c r="BA57" s="44"/>
-      <c r="BB57" s="44" t="s">
+      <c r="AY57" s="31"/>
+      <c r="AZ57" s="31"/>
+      <c r="BA57" s="31"/>
+      <c r="BB57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="BC57" s="44"/>
-      <c r="BD57" s="44"/>
-      <c r="BE57" s="44"/>
-      <c r="BF57" s="44" t="s">
+      <c r="BC57" s="31"/>
+      <c r="BD57" s="31"/>
+      <c r="BE57" s="31"/>
+      <c r="BF57" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="BG57" s="44"/>
-      <c r="BH57" s="44"/>
-      <c r="BI57" s="44"/>
-      <c r="BJ57" s="44" t="s">
+      <c r="BG57" s="31"/>
+      <c r="BH57" s="31"/>
+      <c r="BI57" s="31"/>
+      <c r="BJ57" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="BK57" s="44"/>
-      <c r="BL57" s="44"/>
-      <c r="BM57" s="44"/>
-      <c r="BN57" s="44" t="s">
+      <c r="BK57" s="31"/>
+      <c r="BL57" s="31"/>
+      <c r="BM57" s="31"/>
+      <c r="BN57" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="BO57" s="44"/>
-      <c r="BP57" s="44"/>
-      <c r="BQ57" s="44"/>
-      <c r="BR57" s="44" t="s">
+      <c r="BO57" s="31"/>
+      <c r="BP57" s="31"/>
+      <c r="BQ57" s="31"/>
+      <c r="BR57" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="BS57" s="44"/>
-      <c r="BT57" s="44"/>
-      <c r="BU57" s="44"/>
-      <c r="BV57" s="44" t="s">
+      <c r="BS57" s="31"/>
+      <c r="BT57" s="31"/>
+      <c r="BU57" s="31"/>
+      <c r="BV57" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="BW57" s="44"/>
-      <c r="BX57" s="44"/>
-      <c r="BY57" s="44"/>
-      <c r="BZ57" s="44" t="s">
+      <c r="BW57" s="31"/>
+      <c r="BX57" s="31"/>
+      <c r="BY57" s="31"/>
+      <c r="BZ57" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="CA57" s="44"/>
-      <c r="CB57" s="44"/>
-      <c r="CC57" s="44"/>
-      <c r="CD57" s="44" t="s">
+      <c r="CA57" s="31"/>
+      <c r="CB57" s="31"/>
+      <c r="CC57" s="31"/>
+      <c r="CD57" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="CE57" s="44"/>
-      <c r="CF57" s="44"/>
-      <c r="CG57" s="44"/>
-      <c r="CH57" s="44" t="s">
+      <c r="CE57" s="31"/>
+      <c r="CF57" s="31"/>
+      <c r="CG57" s="31"/>
+      <c r="CH57" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="CI57" s="44"/>
-      <c r="CJ57" s="44"/>
-      <c r="CK57" s="44"/>
-      <c r="CL57" s="46" t="s">
+      <c r="CI57" s="31"/>
+      <c r="CJ57" s="31"/>
+      <c r="CK57" s="31"/>
+      <c r="CL57" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="CM57" s="46"/>
-      <c r="CN57" s="46"/>
-      <c r="CO57" s="38"/>
+      <c r="CM57" s="30"/>
+      <c r="CN57" s="30"/>
+      <c r="CO57" s="30"/>
       <c r="CP57" s="29"/>
       <c r="CQ57" s="29"/>
       <c r="CR57" s="29"/>
+      <c r="CS57" s="29"/>
     </row>
     <row r="58" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
@@ -29496,19 +29497,22 @@
       <c r="CK58" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CL58" s="39" t="s">
+      <c r="CL58" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="CM58" s="39" t="s">
+      <c r="CM58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CN58" s="39" t="s">
+      <c r="CN58" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CO58" s="39"/>
-      <c r="CP58" s="39"/>
-      <c r="CQ58" s="39"/>
-      <c r="CR58" s="39"/>
+      <c r="CO58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CP58" s="5"/>
+      <c r="CQ58" s="5"/>
+      <c r="CR58" s="5"/>
+      <c r="CS58" s="5"/>
     </row>
     <row r="59" spans="1:120" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
@@ -29781,20 +29785,22 @@
       <c r="CK60" s="27">
         <v>16.680526398499083</v>
       </c>
-      <c r="CL60" s="40">
+      <c r="CL60" s="27">
         <v>10.067520212565896</v>
       </c>
-      <c r="CM60" s="40">
+      <c r="CM60" s="27">
         <v>4.4678524540369153</v>
       </c>
-      <c r="CN60" s="40">
-        <v>31.117114853218339</v>
-      </c>
-      <c r="CO60" s="40"/>
-      <c r="CP60" s="40"/>
-      <c r="CQ60" s="40"/>
-      <c r="CR60" s="40"/>
-      <c r="CS60" s="9"/>
+      <c r="CN60" s="27">
+        <v>31.474040456164943</v>
+      </c>
+      <c r="CO60" s="27">
+        <v>17.312743059374952</v>
+      </c>
+      <c r="CP60" s="27"/>
+      <c r="CQ60" s="27"/>
+      <c r="CR60" s="27"/>
+      <c r="CS60" s="27"/>
       <c r="CT60" s="9"/>
       <c r="CU60" s="9"/>
       <c r="CV60" s="9"/>
@@ -30087,20 +30093,22 @@
       <c r="CK61" s="27">
         <v>15.59792419688452</v>
       </c>
-      <c r="CL61" s="40">
+      <c r="CL61" s="27">
         <v>26.611658097781572</v>
       </c>
-      <c r="CM61" s="40">
+      <c r="CM61" s="27">
         <v>14.710641806902643</v>
       </c>
-      <c r="CN61" s="40">
-        <v>6.1344153042881828</v>
-      </c>
-      <c r="CO61" s="40"/>
-      <c r="CP61" s="40"/>
-      <c r="CQ61" s="40"/>
-      <c r="CR61" s="40"/>
-      <c r="CS61" s="9"/>
+      <c r="CN61" s="27">
+        <v>6.5605361108268028</v>
+      </c>
+      <c r="CO61" s="27">
+        <v>7.5174190055629708</v>
+      </c>
+      <c r="CP61" s="27"/>
+      <c r="CQ61" s="27"/>
+      <c r="CR61" s="27"/>
+      <c r="CS61" s="27"/>
       <c r="CT61" s="9"/>
       <c r="CU61" s="9"/>
       <c r="CV61" s="9"/>
@@ -30393,20 +30401,22 @@
       <c r="CK62" s="27">
         <v>15.602935002522571</v>
       </c>
-      <c r="CL62" s="40">
+      <c r="CL62" s="27">
         <v>19.448879825674467</v>
       </c>
-      <c r="CM62" s="40">
+      <c r="CM62" s="27">
         <v>0.27975748702438352</v>
       </c>
-      <c r="CN62" s="40">
-        <v>11.105477344835691</v>
-      </c>
-      <c r="CO62" s="40"/>
-      <c r="CP62" s="40"/>
-      <c r="CQ62" s="40"/>
-      <c r="CR62" s="40"/>
-      <c r="CS62" s="9"/>
+      <c r="CN62" s="27">
+        <v>11.274356901141047</v>
+      </c>
+      <c r="CO62" s="27">
+        <v>12.026157012232616</v>
+      </c>
+      <c r="CP62" s="27"/>
+      <c r="CQ62" s="27"/>
+      <c r="CR62" s="27"/>
+      <c r="CS62" s="27"/>
       <c r="CT62" s="9"/>
       <c r="CU62" s="9"/>
       <c r="CV62" s="9"/>
@@ -30520,14 +30530,14 @@
       <c r="CI63" s="20"/>
       <c r="CJ63" s="20"/>
       <c r="CK63" s="20"/>
-      <c r="CL63" s="41"/>
-      <c r="CM63" s="41"/>
-      <c r="CN63" s="41"/>
-      <c r="CO63" s="41"/>
-      <c r="CP63" s="41"/>
-      <c r="CQ63" s="41"/>
-      <c r="CR63" s="41"/>
-      <c r="CS63" s="9"/>
+      <c r="CL63" s="20"/>
+      <c r="CM63" s="20"/>
+      <c r="CN63" s="20"/>
+      <c r="CO63" s="20"/>
+      <c r="CP63" s="20"/>
+      <c r="CQ63" s="20"/>
+      <c r="CR63" s="20"/>
+      <c r="CS63" s="20"/>
       <c r="CT63" s="9"/>
       <c r="CU63" s="9"/>
       <c r="CV63" s="9"/>
@@ -30820,20 +30830,22 @@
       <c r="CK64" s="27">
         <v>15.992744635622032</v>
       </c>
-      <c r="CL64" s="40">
+      <c r="CL64" s="27">
         <v>19.875351082929768</v>
       </c>
-      <c r="CM64" s="40">
+      <c r="CM64" s="27">
         <v>6.0409328156851814</v>
       </c>
-      <c r="CN64" s="40">
-        <v>15.817552210247456</v>
-      </c>
-      <c r="CO64" s="40"/>
-      <c r="CP64" s="40"/>
-      <c r="CQ64" s="40"/>
-      <c r="CR64" s="40"/>
-      <c r="CS64" s="9"/>
+      <c r="CN64" s="27">
+        <v>16.144946374607215</v>
+      </c>
+      <c r="CO64" s="27">
+        <v>12.512103666182028</v>
+      </c>
+      <c r="CP64" s="27"/>
+      <c r="CQ64" s="27"/>
+      <c r="CR64" s="27"/>
+      <c r="CS64" s="27"/>
       <c r="CT64" s="9"/>
       <c r="CU64" s="9"/>
       <c r="CV64" s="9"/>
@@ -30948,13 +30960,14 @@
       <c r="CI65" s="23"/>
       <c r="CJ65" s="23"/>
       <c r="CK65" s="23"/>
-      <c r="CL65" s="42"/>
-      <c r="CM65" s="42"/>
-      <c r="CN65" s="42"/>
-      <c r="CO65" s="42"/>
-      <c r="CP65" s="42"/>
-      <c r="CQ65" s="42"/>
-      <c r="CR65" s="42"/>
+      <c r="CL65" s="23"/>
+      <c r="CM65" s="23"/>
+      <c r="CN65" s="23"/>
+      <c r="CO65" s="23"/>
+      <c r="CP65" s="23"/>
+      <c r="CQ65" s="23"/>
+      <c r="CR65" s="23"/>
+      <c r="CS65" s="23"/>
     </row>
     <row r="66" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
@@ -31046,14 +31059,14 @@
       <c r="CI66" s="27"/>
       <c r="CJ66" s="27"/>
       <c r="CK66" s="27"/>
-      <c r="CL66" s="40"/>
-      <c r="CM66" s="40"/>
-      <c r="CN66" s="40"/>
-      <c r="CO66" s="40"/>
-      <c r="CP66" s="40"/>
-      <c r="CQ66" s="40"/>
-      <c r="CR66" s="40"/>
-      <c r="CS66" s="9"/>
+      <c r="CL66" s="27"/>
+      <c r="CM66" s="27"/>
+      <c r="CN66" s="27"/>
+      <c r="CO66" s="27"/>
+      <c r="CP66" s="27"/>
+      <c r="CQ66" s="27"/>
+      <c r="CR66" s="27"/>
+      <c r="CS66" s="27"/>
       <c r="CT66" s="9"/>
       <c r="CU66" s="9"/>
       <c r="CV66" s="9"/>
@@ -31346,20 +31359,22 @@
       <c r="CK67" s="27">
         <v>12.293722538822067</v>
       </c>
-      <c r="CL67" s="40">
+      <c r="CL67" s="27">
         <v>17.630800805797236</v>
       </c>
-      <c r="CM67" s="40">
+      <c r="CM67" s="27">
         <v>8.3986302963156731</v>
       </c>
-      <c r="CN67" s="40">
-        <v>18.413845393000926</v>
-      </c>
-      <c r="CO67" s="40"/>
-      <c r="CP67" s="40"/>
-      <c r="CQ67" s="40"/>
-      <c r="CR67" s="40"/>
-      <c r="CS67" s="9"/>
+      <c r="CN67" s="27">
+        <v>18.65508592135518</v>
+      </c>
+      <c r="CO67" s="27">
+        <v>12.687118031050673</v>
+      </c>
+      <c r="CP67" s="27"/>
+      <c r="CQ67" s="27"/>
+      <c r="CR67" s="27"/>
+      <c r="CS67" s="27"/>
       <c r="CT67" s="9"/>
       <c r="CU67" s="9"/>
       <c r="CV67" s="9"/>
@@ -31474,13 +31489,14 @@
       <c r="CI68" s="14"/>
       <c r="CJ68" s="14"/>
       <c r="CK68" s="14"/>
-      <c r="CL68" s="36"/>
-      <c r="CM68" s="36"/>
-      <c r="CN68" s="36"/>
-      <c r="CO68" s="36"/>
-      <c r="CP68" s="36"/>
-      <c r="CQ68" s="36"/>
-      <c r="CR68" s="36"/>
+      <c r="CL68" s="14"/>
+      <c r="CM68" s="14"/>
+      <c r="CN68" s="14"/>
+      <c r="CO68" s="14"/>
+      <c r="CP68" s="14"/>
+      <c r="CQ68" s="14"/>
+      <c r="CR68" s="14"/>
+      <c r="CS68" s="14"/>
     </row>
     <row r="69" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
@@ -31581,13 +31597,13 @@
       <c r="CI71" s="9"/>
       <c r="CJ71" s="9"/>
       <c r="CK71" s="9"/>
-      <c r="CL71" s="33"/>
-      <c r="CM71" s="33"/>
-      <c r="CN71" s="33"/>
-      <c r="CO71" s="33"/>
-      <c r="CP71" s="33"/>
-      <c r="CQ71" s="33"/>
-      <c r="CR71" s="33"/>
+      <c r="CL71" s="9"/>
+      <c r="CM71" s="9"/>
+      <c r="CN71" s="9"/>
+      <c r="CO71" s="9"/>
+      <c r="CP71" s="9"/>
+      <c r="CQ71" s="9"/>
+      <c r="CR71" s="9"/>
       <c r="CS71" s="9"/>
       <c r="CT71" s="9"/>
       <c r="CU71" s="9"/>
@@ -31702,13 +31718,13 @@
       <c r="CI72" s="9"/>
       <c r="CJ72" s="9"/>
       <c r="CK72" s="9"/>
-      <c r="CL72" s="33"/>
-      <c r="CM72" s="33"/>
-      <c r="CN72" s="33"/>
-      <c r="CO72" s="33"/>
-      <c r="CP72" s="33"/>
-      <c r="CQ72" s="33"/>
-      <c r="CR72" s="33"/>
+      <c r="CL72" s="9"/>
+      <c r="CM72" s="9"/>
+      <c r="CN72" s="9"/>
+      <c r="CO72" s="9"/>
+      <c r="CP72" s="9"/>
+      <c r="CQ72" s="9"/>
+      <c r="CR72" s="9"/>
       <c r="CS72" s="9"/>
       <c r="CT72" s="9"/>
       <c r="CU72" s="9"/>
@@ -31746,7 +31762,7 @@
     </row>
     <row r="75" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:120" x14ac:dyDescent="0.2">
@@ -31756,7 +31772,7 @@
     </row>
     <row r="78" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:120" x14ac:dyDescent="0.2">
@@ -31766,147 +31782,148 @@
     </row>
     <row r="81" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
-      <c r="B81" s="44" t="s">
+      <c r="B81" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="45"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="44" t="s">
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G81" s="45"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="45"/>
-      <c r="J81" s="44" t="s">
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="K81" s="45"/>
-      <c r="L81" s="45"/>
-      <c r="M81" s="45"/>
-      <c r="N81" s="44" t="s">
+      <c r="K81" s="32"/>
+      <c r="L81" s="32"/>
+      <c r="M81" s="32"/>
+      <c r="N81" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="O81" s="45"/>
-      <c r="P81" s="45"/>
-      <c r="Q81" s="45"/>
-      <c r="R81" s="44" t="s">
+      <c r="O81" s="32"/>
+      <c r="P81" s="32"/>
+      <c r="Q81" s="32"/>
+      <c r="R81" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="S81" s="45"/>
-      <c r="T81" s="45"/>
-      <c r="U81" s="45"/>
-      <c r="V81" s="44" t="s">
+      <c r="S81" s="32"/>
+      <c r="T81" s="32"/>
+      <c r="U81" s="32"/>
+      <c r="V81" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="W81" s="45"/>
-      <c r="X81" s="45"/>
-      <c r="Y81" s="45"/>
-      <c r="Z81" s="44" t="s">
+      <c r="W81" s="32"/>
+      <c r="X81" s="32"/>
+      <c r="Y81" s="32"/>
+      <c r="Z81" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AA81" s="45"/>
-      <c r="AB81" s="45"/>
-      <c r="AC81" s="45"/>
-      <c r="AD81" s="44" t="s">
+      <c r="AA81" s="32"/>
+      <c r="AB81" s="32"/>
+      <c r="AC81" s="32"/>
+      <c r="AD81" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="AE81" s="45"/>
-      <c r="AF81" s="45"/>
-      <c r="AG81" s="45"/>
-      <c r="AH81" s="44" t="s">
+      <c r="AE81" s="32"/>
+      <c r="AF81" s="32"/>
+      <c r="AG81" s="32"/>
+      <c r="AH81" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AI81" s="45"/>
-      <c r="AJ81" s="45"/>
-      <c r="AK81" s="45"/>
-      <c r="AL81" s="44" t="s">
+      <c r="AI81" s="32"/>
+      <c r="AJ81" s="32"/>
+      <c r="AK81" s="32"/>
+      <c r="AL81" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AM81" s="45"/>
-      <c r="AN81" s="45"/>
-      <c r="AO81" s="45"/>
-      <c r="AP81" s="44" t="s">
+      <c r="AM81" s="32"/>
+      <c r="AN81" s="32"/>
+      <c r="AO81" s="32"/>
+      <c r="AP81" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AQ81" s="45"/>
-      <c r="AR81" s="45"/>
-      <c r="AS81" s="45"/>
-      <c r="AT81" s="44" t="s">
+      <c r="AQ81" s="32"/>
+      <c r="AR81" s="32"/>
+      <c r="AS81" s="32"/>
+      <c r="AT81" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AU81" s="45"/>
-      <c r="AV81" s="45"/>
-      <c r="AW81" s="45"/>
-      <c r="AX81" s="44" t="s">
+      <c r="AU81" s="32"/>
+      <c r="AV81" s="32"/>
+      <c r="AW81" s="32"/>
+      <c r="AX81" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AY81" s="45"/>
-      <c r="AZ81" s="45"/>
-      <c r="BA81" s="45"/>
-      <c r="BB81" s="44" t="s">
+      <c r="AY81" s="32"/>
+      <c r="AZ81" s="32"/>
+      <c r="BA81" s="32"/>
+      <c r="BB81" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="BC81" s="45"/>
-      <c r="BD81" s="45"/>
-      <c r="BE81" s="45"/>
-      <c r="BF81" s="44" t="s">
+      <c r="BC81" s="32"/>
+      <c r="BD81" s="32"/>
+      <c r="BE81" s="32"/>
+      <c r="BF81" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="BG81" s="45"/>
-      <c r="BH81" s="45"/>
-      <c r="BI81" s="45"/>
-      <c r="BJ81" s="44" t="s">
+      <c r="BG81" s="32"/>
+      <c r="BH81" s="32"/>
+      <c r="BI81" s="32"/>
+      <c r="BJ81" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="BK81" s="45"/>
-      <c r="BL81" s="45"/>
-      <c r="BM81" s="45"/>
-      <c r="BN81" s="44" t="s">
+      <c r="BK81" s="32"/>
+      <c r="BL81" s="32"/>
+      <c r="BM81" s="32"/>
+      <c r="BN81" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="BO81" s="45"/>
-      <c r="BP81" s="45"/>
-      <c r="BQ81" s="45"/>
-      <c r="BR81" s="44" t="s">
+      <c r="BO81" s="32"/>
+      <c r="BP81" s="32"/>
+      <c r="BQ81" s="32"/>
+      <c r="BR81" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="BS81" s="45"/>
-      <c r="BT81" s="45"/>
-      <c r="BU81" s="45"/>
-      <c r="BV81" s="44" t="s">
+      <c r="BS81" s="32"/>
+      <c r="BT81" s="32"/>
+      <c r="BU81" s="32"/>
+      <c r="BV81" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="BW81" s="44"/>
-      <c r="BX81" s="44"/>
-      <c r="BY81" s="44"/>
-      <c r="BZ81" s="44" t="s">
+      <c r="BW81" s="31"/>
+      <c r="BX81" s="31"/>
+      <c r="BY81" s="31"/>
+      <c r="BZ81" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="CA81" s="44"/>
-      <c r="CB81" s="44"/>
-      <c r="CC81" s="44"/>
-      <c r="CD81" s="44" t="s">
+      <c r="CA81" s="31"/>
+      <c r="CB81" s="31"/>
+      <c r="CC81" s="31"/>
+      <c r="CD81" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="CE81" s="44"/>
-      <c r="CF81" s="44"/>
-      <c r="CG81" s="44"/>
-      <c r="CH81" s="44" t="s">
+      <c r="CE81" s="31"/>
+      <c r="CF81" s="31"/>
+      <c r="CG81" s="31"/>
+      <c r="CH81" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="CI81" s="44"/>
-      <c r="CJ81" s="44"/>
-      <c r="CK81" s="44"/>
-      <c r="CL81" s="46" t="s">
+      <c r="CI81" s="31"/>
+      <c r="CJ81" s="31"/>
+      <c r="CK81" s="31"/>
+      <c r="CL81" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="CM81" s="46"/>
-      <c r="CN81" s="46"/>
-      <c r="CO81" s="38"/>
+      <c r="CM81" s="30"/>
+      <c r="CN81" s="30"/>
+      <c r="CO81" s="30"/>
       <c r="CP81" s="29"/>
       <c r="CQ81" s="29"/>
       <c r="CR81" s="29"/>
+      <c r="CS81" s="29"/>
     </row>
     <row r="82" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
@@ -32176,19 +32193,22 @@
       <c r="CK82" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL82" s="31" t="s">
+      <c r="CL82" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CM82" s="31" t="s">
+      <c r="CM82" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CN82" s="31" t="s">
+      <c r="CN82" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CO82" s="31"/>
-      <c r="CP82" s="31"/>
-      <c r="CQ82" s="31"/>
-      <c r="CR82" s="31"/>
+      <c r="CO82" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CP82" s="6"/>
+      <c r="CQ82" s="6"/>
+      <c r="CR82" s="6"/>
+      <c r="CS82" s="6"/>
     </row>
     <row r="83" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
@@ -32461,20 +32481,22 @@
       <c r="CK84" s="27">
         <v>9.4228454645302548</v>
       </c>
-      <c r="CL84" s="40">
+      <c r="CL84" s="27">
         <v>5.1089775190268085</v>
       </c>
-      <c r="CM84" s="40">
+      <c r="CM84" s="27">
         <v>0.71502338453454684</v>
       </c>
-      <c r="CN84" s="40">
-        <v>26.910976027338563</v>
-      </c>
-      <c r="CO84" s="40"/>
-      <c r="CP84" s="40"/>
-      <c r="CQ84" s="40"/>
-      <c r="CR84" s="40"/>
-      <c r="CS84" s="9"/>
+      <c r="CN84" s="27">
+        <v>27.209089058021178</v>
+      </c>
+      <c r="CO84" s="27">
+        <v>14.683983911324106</v>
+      </c>
+      <c r="CP84" s="27"/>
+      <c r="CQ84" s="27"/>
+      <c r="CR84" s="27"/>
+      <c r="CS84" s="27"/>
       <c r="CT84" s="9"/>
       <c r="CU84" s="9"/>
       <c r="CV84" s="9"/>
@@ -32767,20 +32789,22 @@
       <c r="CK85" s="27">
         <v>8.2992044477715297</v>
       </c>
-      <c r="CL85" s="40">
+      <c r="CL85" s="27">
         <v>20.875795965991898</v>
       </c>
-      <c r="CM85" s="40">
+      <c r="CM85" s="27">
         <v>10.718895823990309</v>
       </c>
-      <c r="CN85" s="40">
-        <v>2.839686811600302</v>
-      </c>
-      <c r="CO85" s="40"/>
-      <c r="CP85" s="40"/>
-      <c r="CQ85" s="40"/>
-      <c r="CR85" s="40"/>
-      <c r="CS85" s="9"/>
+      <c r="CN85" s="27">
+        <v>3.2212980901626054</v>
+      </c>
+      <c r="CO85" s="27">
+        <v>5.1753901149314601</v>
+      </c>
+      <c r="CP85" s="27"/>
+      <c r="CQ85" s="27"/>
+      <c r="CR85" s="27"/>
+      <c r="CS85" s="27"/>
       <c r="CT85" s="9"/>
       <c r="CU85" s="9"/>
       <c r="CV85" s="9"/>
@@ -33073,20 +33097,22 @@
       <c r="CK86" s="27">
         <v>8.0760003916954304</v>
       </c>
-      <c r="CL86" s="40">
+      <c r="CL86" s="27">
         <v>13.732260661805057</v>
       </c>
-      <c r="CM86" s="40">
+      <c r="CM86" s="27">
         <v>-3.2146285585427705</v>
       </c>
-      <c r="CN86" s="40">
-        <v>7.8159128388578694</v>
-      </c>
-      <c r="CO86" s="40"/>
-      <c r="CP86" s="40"/>
-      <c r="CQ86" s="40"/>
-      <c r="CR86" s="40"/>
-      <c r="CS86" s="9"/>
+      <c r="CN86" s="27">
+        <v>7.9484722595701669</v>
+      </c>
+      <c r="CO86" s="27">
+        <v>9.6108908985936381</v>
+      </c>
+      <c r="CP86" s="27"/>
+      <c r="CQ86" s="27"/>
+      <c r="CR86" s="27"/>
+      <c r="CS86" s="27"/>
       <c r="CT86" s="9"/>
       <c r="CU86" s="9"/>
       <c r="CV86" s="9"/>
@@ -33200,14 +33226,14 @@
       <c r="CI87" s="20"/>
       <c r="CJ87" s="20"/>
       <c r="CK87" s="20"/>
-      <c r="CL87" s="41"/>
-      <c r="CM87" s="41"/>
-      <c r="CN87" s="41"/>
-      <c r="CO87" s="41"/>
-      <c r="CP87" s="41"/>
-      <c r="CQ87" s="41"/>
-      <c r="CR87" s="41"/>
-      <c r="CS87" s="9"/>
+      <c r="CL87" s="20"/>
+      <c r="CM87" s="20"/>
+      <c r="CN87" s="20"/>
+      <c r="CO87" s="20"/>
+      <c r="CP87" s="20"/>
+      <c r="CQ87" s="20"/>
+      <c r="CR87" s="20"/>
+      <c r="CS87" s="20"/>
       <c r="CT87" s="9"/>
       <c r="CU87" s="9"/>
       <c r="CV87" s="9"/>
@@ -33500,20 +33526,22 @@
       <c r="CK88" s="27">
         <v>8.6266258973066954</v>
       </c>
-      <c r="CL88" s="40">
+      <c r="CL88" s="27">
         <v>14.616354889345644</v>
       </c>
-      <c r="CM88" s="40">
+      <c r="CM88" s="27">
         <v>2.3870432536169233</v>
       </c>
-      <c r="CN88" s="40">
-        <v>12.360262362311801</v>
-      </c>
-      <c r="CO88" s="40"/>
-      <c r="CP88" s="40"/>
-      <c r="CQ88" s="40"/>
-      <c r="CR88" s="40"/>
-      <c r="CS88" s="9"/>
+      <c r="CN88" s="27">
+        <v>12.639324189806374</v>
+      </c>
+      <c r="CO88" s="27">
+        <v>10.095728728478164</v>
+      </c>
+      <c r="CP88" s="27"/>
+      <c r="CQ88" s="27"/>
+      <c r="CR88" s="27"/>
+      <c r="CS88" s="27"/>
       <c r="CT88" s="9"/>
       <c r="CU88" s="9"/>
       <c r="CV88" s="9"/>
@@ -33628,13 +33656,14 @@
       <c r="CI89" s="23"/>
       <c r="CJ89" s="23"/>
       <c r="CK89" s="23"/>
-      <c r="CL89" s="42"/>
-      <c r="CM89" s="42"/>
-      <c r="CN89" s="42"/>
-      <c r="CO89" s="42"/>
-      <c r="CP89" s="42"/>
-      <c r="CQ89" s="42"/>
-      <c r="CR89" s="42"/>
+      <c r="CL89" s="23"/>
+      <c r="CM89" s="23"/>
+      <c r="CN89" s="23"/>
+      <c r="CO89" s="23"/>
+      <c r="CP89" s="23"/>
+      <c r="CQ89" s="23"/>
+      <c r="CR89" s="23"/>
+      <c r="CS89" s="23"/>
     </row>
     <row r="90" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
@@ -33726,14 +33755,14 @@
       <c r="CI90" s="27"/>
       <c r="CJ90" s="27"/>
       <c r="CK90" s="27"/>
-      <c r="CL90" s="40"/>
-      <c r="CM90" s="40"/>
-      <c r="CN90" s="40"/>
-      <c r="CO90" s="40"/>
-      <c r="CP90" s="40"/>
-      <c r="CQ90" s="40"/>
-      <c r="CR90" s="40"/>
-      <c r="CS90" s="9"/>
+      <c r="CL90" s="27"/>
+      <c r="CM90" s="27"/>
+      <c r="CN90" s="27"/>
+      <c r="CO90" s="27"/>
+      <c r="CP90" s="27"/>
+      <c r="CQ90" s="27"/>
+      <c r="CR90" s="27"/>
+      <c r="CS90" s="27"/>
       <c r="CT90" s="9"/>
       <c r="CU90" s="9"/>
       <c r="CV90" s="9"/>
@@ -34026,20 +34055,22 @@
       <c r="CK91" s="27">
         <v>6.1642749370523831</v>
       </c>
-      <c r="CL91" s="40">
+      <c r="CL91" s="27">
         <v>11.10913760356911</v>
       </c>
-      <c r="CM91" s="40">
+      <c r="CM91" s="27">
         <v>3.609693307288893</v>
       </c>
-      <c r="CN91" s="40">
-        <v>14.022512110635276</v>
-      </c>
-      <c r="CO91" s="40"/>
-      <c r="CP91" s="40"/>
-      <c r="CQ91" s="40"/>
-      <c r="CR91" s="40"/>
-      <c r="CS91" s="9"/>
+      <c r="CN91" s="27">
+        <v>14.157055075099294</v>
+      </c>
+      <c r="CO91" s="27">
+        <v>8.4501869759456554</v>
+      </c>
+      <c r="CP91" s="27"/>
+      <c r="CQ91" s="27"/>
+      <c r="CR91" s="27"/>
+      <c r="CS91" s="27"/>
       <c r="CT91" s="9"/>
       <c r="CU91" s="9"/>
       <c r="CV91" s="9"/>
@@ -34154,13 +34185,14 @@
       <c r="CI92" s="14"/>
       <c r="CJ92" s="14"/>
       <c r="CK92" s="14"/>
-      <c r="CL92" s="36"/>
-      <c r="CM92" s="36"/>
-      <c r="CN92" s="36"/>
-      <c r="CO92" s="36"/>
-      <c r="CP92" s="36"/>
-      <c r="CQ92" s="36"/>
-      <c r="CR92" s="36"/>
+      <c r="CL92" s="14"/>
+      <c r="CM92" s="14"/>
+      <c r="CN92" s="14"/>
+      <c r="CO92" s="14"/>
+      <c r="CP92" s="14"/>
+      <c r="CQ92" s="14"/>
+      <c r="CR92" s="14"/>
+      <c r="CS92" s="14"/>
     </row>
     <row r="93" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
@@ -34261,13 +34293,13 @@
       <c r="CI95" s="9"/>
       <c r="CJ95" s="9"/>
       <c r="CK95" s="9"/>
-      <c r="CL95" s="33"/>
-      <c r="CM95" s="33"/>
-      <c r="CN95" s="33"/>
-      <c r="CO95" s="33"/>
-      <c r="CP95" s="33"/>
-      <c r="CQ95" s="33"/>
-      <c r="CR95" s="33"/>
+      <c r="CL95" s="9"/>
+      <c r="CM95" s="9"/>
+      <c r="CN95" s="9"/>
+      <c r="CO95" s="9"/>
+      <c r="CP95" s="9"/>
+      <c r="CQ95" s="9"/>
+      <c r="CR95" s="9"/>
       <c r="CS95" s="9"/>
       <c r="CT95" s="9"/>
       <c r="CU95" s="9"/>
@@ -34390,13 +34422,13 @@
       <c r="CI96" s="9"/>
       <c r="CJ96" s="9"/>
       <c r="CK96" s="9"/>
-      <c r="CL96" s="33"/>
-      <c r="CM96" s="33"/>
-      <c r="CN96" s="33"/>
-      <c r="CO96" s="33"/>
-      <c r="CP96" s="33"/>
-      <c r="CQ96" s="33"/>
-      <c r="CR96" s="33"/>
+      <c r="CL96" s="9"/>
+      <c r="CM96" s="9"/>
+      <c r="CN96" s="9"/>
+      <c r="CO96" s="9"/>
+      <c r="CP96" s="9"/>
+      <c r="CQ96" s="9"/>
+      <c r="CR96" s="9"/>
       <c r="CS96" s="9"/>
       <c r="CT96" s="9"/>
       <c r="CU96" s="9"/>
@@ -34437,7 +34469,7 @@
     </row>
     <row r="98" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:128" x14ac:dyDescent="0.2">
@@ -34447,7 +34479,7 @@
     </row>
     <row r="101" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="102" spans="1:128" x14ac:dyDescent="0.2">
@@ -34457,149 +34489,150 @@
     </row>
     <row r="104" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
-      <c r="B104" s="44">
+      <c r="B104" s="31">
         <v>2000</v>
       </c>
-      <c r="C104" s="45"/>
-      <c r="D104" s="45"/>
-      <c r="E104" s="45"/>
-      <c r="F104" s="44">
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="31">
         <v>2001</v>
       </c>
-      <c r="G104" s="45"/>
-      <c r="H104" s="45"/>
-      <c r="I104" s="45"/>
-      <c r="J104" s="44">
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="31">
         <v>2002</v>
       </c>
-      <c r="K104" s="45"/>
-      <c r="L104" s="45"/>
-      <c r="M104" s="45"/>
-      <c r="N104" s="44">
+      <c r="K104" s="32"/>
+      <c r="L104" s="32"/>
+      <c r="M104" s="32"/>
+      <c r="N104" s="31">
         <v>2003</v>
       </c>
-      <c r="O104" s="45"/>
-      <c r="P104" s="45"/>
-      <c r="Q104" s="45"/>
-      <c r="R104" s="44">
+      <c r="O104" s="32"/>
+      <c r="P104" s="32"/>
+      <c r="Q104" s="32"/>
+      <c r="R104" s="31">
         <v>2004</v>
       </c>
-      <c r="S104" s="45"/>
-      <c r="T104" s="45"/>
-      <c r="U104" s="45"/>
-      <c r="V104" s="44">
+      <c r="S104" s="32"/>
+      <c r="T104" s="32"/>
+      <c r="U104" s="32"/>
+      <c r="V104" s="31">
         <v>2005</v>
       </c>
-      <c r="W104" s="45"/>
-      <c r="X104" s="45"/>
-      <c r="Y104" s="45"/>
-      <c r="Z104" s="44">
+      <c r="W104" s="32"/>
+      <c r="X104" s="32"/>
+      <c r="Y104" s="32"/>
+      <c r="Z104" s="31">
         <v>2006</v>
       </c>
-      <c r="AA104" s="45"/>
-      <c r="AB104" s="45"/>
-      <c r="AC104" s="45"/>
-      <c r="AD104" s="44">
+      <c r="AA104" s="32"/>
+      <c r="AB104" s="32"/>
+      <c r="AC104" s="32"/>
+      <c r="AD104" s="31">
         <v>2007</v>
       </c>
-      <c r="AE104" s="45"/>
-      <c r="AF104" s="45"/>
-      <c r="AG104" s="45"/>
-      <c r="AH104" s="44">
+      <c r="AE104" s="32"/>
+      <c r="AF104" s="32"/>
+      <c r="AG104" s="32"/>
+      <c r="AH104" s="31">
         <v>2008</v>
       </c>
-      <c r="AI104" s="45"/>
-      <c r="AJ104" s="45"/>
-      <c r="AK104" s="45"/>
-      <c r="AL104" s="44">
+      <c r="AI104" s="32"/>
+      <c r="AJ104" s="32"/>
+      <c r="AK104" s="32"/>
+      <c r="AL104" s="31">
         <v>2009</v>
       </c>
-      <c r="AM104" s="45"/>
-      <c r="AN104" s="45"/>
-      <c r="AO104" s="45"/>
-      <c r="AP104" s="44">
+      <c r="AM104" s="32"/>
+      <c r="AN104" s="32"/>
+      <c r="AO104" s="32"/>
+      <c r="AP104" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ104" s="45"/>
-      <c r="AR104" s="45"/>
-      <c r="AS104" s="45"/>
-      <c r="AT104" s="44">
+      <c r="AQ104" s="32"/>
+      <c r="AR104" s="32"/>
+      <c r="AS104" s="32"/>
+      <c r="AT104" s="31">
         <v>2011</v>
       </c>
-      <c r="AU104" s="45"/>
-      <c r="AV104" s="45"/>
-      <c r="AW104" s="45"/>
-      <c r="AX104" s="44">
+      <c r="AU104" s="32"/>
+      <c r="AV104" s="32"/>
+      <c r="AW104" s="32"/>
+      <c r="AX104" s="31">
         <v>2012</v>
       </c>
-      <c r="AY104" s="45"/>
-      <c r="AZ104" s="45"/>
-      <c r="BA104" s="45"/>
-      <c r="BB104" s="44">
+      <c r="AY104" s="32"/>
+      <c r="AZ104" s="32"/>
+      <c r="BA104" s="32"/>
+      <c r="BB104" s="31">
         <v>2013</v>
       </c>
-      <c r="BC104" s="45"/>
-      <c r="BD104" s="45"/>
-      <c r="BE104" s="45"/>
-      <c r="BF104" s="44">
+      <c r="BC104" s="32"/>
+      <c r="BD104" s="32"/>
+      <c r="BE104" s="32"/>
+      <c r="BF104" s="31">
         <v>2014</v>
       </c>
-      <c r="BG104" s="45"/>
-      <c r="BH104" s="45"/>
-      <c r="BI104" s="45"/>
-      <c r="BJ104" s="44">
+      <c r="BG104" s="32"/>
+      <c r="BH104" s="32"/>
+      <c r="BI104" s="32"/>
+      <c r="BJ104" s="31">
         <v>2015</v>
       </c>
-      <c r="BK104" s="45"/>
-      <c r="BL104" s="45"/>
-      <c r="BM104" s="45"/>
-      <c r="BN104" s="44">
+      <c r="BK104" s="32"/>
+      <c r="BL104" s="32"/>
+      <c r="BM104" s="32"/>
+      <c r="BN104" s="31">
         <v>2016</v>
       </c>
-      <c r="BO104" s="45"/>
-      <c r="BP104" s="45"/>
-      <c r="BQ104" s="45"/>
-      <c r="BR104" s="44">
+      <c r="BO104" s="32"/>
+      <c r="BP104" s="32"/>
+      <c r="BQ104" s="32"/>
+      <c r="BR104" s="31">
         <v>2017</v>
       </c>
-      <c r="BS104" s="45"/>
-      <c r="BT104" s="45"/>
-      <c r="BU104" s="45"/>
-      <c r="BV104" s="44">
+      <c r="BS104" s="32"/>
+      <c r="BT104" s="32"/>
+      <c r="BU104" s="32"/>
+      <c r="BV104" s="31">
         <v>2018</v>
       </c>
-      <c r="BW104" s="44"/>
-      <c r="BX104" s="44"/>
-      <c r="BY104" s="44"/>
-      <c r="BZ104" s="44">
+      <c r="BW104" s="31"/>
+      <c r="BX104" s="31"/>
+      <c r="BY104" s="31"/>
+      <c r="BZ104" s="31">
         <v>2019</v>
       </c>
-      <c r="CA104" s="44"/>
-      <c r="CB104" s="44"/>
-      <c r="CC104" s="44"/>
-      <c r="CD104" s="44">
+      <c r="CA104" s="31"/>
+      <c r="CB104" s="31"/>
+      <c r="CC104" s="31"/>
+      <c r="CD104" s="31">
         <v>2020</v>
       </c>
-      <c r="CE104" s="44"/>
-      <c r="CF104" s="44"/>
-      <c r="CG104" s="44"/>
-      <c r="CH104" s="44">
+      <c r="CE104" s="31"/>
+      <c r="CF104" s="31"/>
+      <c r="CG104" s="31"/>
+      <c r="CH104" s="31">
         <v>2021</v>
       </c>
-      <c r="CI104" s="44"/>
-      <c r="CJ104" s="44"/>
-      <c r="CK104" s="44"/>
-      <c r="CL104" s="46">
+      <c r="CI104" s="31"/>
+      <c r="CJ104" s="31"/>
+      <c r="CK104" s="31"/>
+      <c r="CL104" s="30">
         <v>2022</v>
       </c>
-      <c r="CM104" s="46"/>
-      <c r="CN104" s="46"/>
-      <c r="CO104" s="46"/>
-      <c r="CP104" s="46">
+      <c r="CM104" s="30"/>
+      <c r="CN104" s="30"/>
+      <c r="CO104" s="30"/>
+      <c r="CP104" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ104" s="46"/>
-      <c r="CR104" s="46"/>
+      <c r="CQ104" s="30"/>
+      <c r="CR104" s="30"/>
+      <c r="CS104" s="30"/>
     </row>
     <row r="105" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
@@ -34869,26 +34902,29 @@
       <c r="CK105" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL105" s="31" t="s">
+      <c r="CL105" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CM105" s="31" t="s">
+      <c r="CM105" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CN105" s="31" t="s">
+      <c r="CN105" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CO105" s="31" t="s">
+      <c r="CO105" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP105" s="31" t="s">
+      <c r="CP105" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CQ105" s="31" t="s">
+      <c r="CQ105" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CR105" s="31" t="s">
+      <c r="CR105" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CS105" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35162,28 +35198,30 @@
       <c r="CK107" s="28">
         <v>106.21754603887462</v>
       </c>
-      <c r="CL107" s="43">
+      <c r="CL107" s="28">
         <v>118.31173613609008</v>
       </c>
-      <c r="CM107" s="43">
+      <c r="CM107" s="28">
         <v>114.2922170609275</v>
       </c>
-      <c r="CN107" s="43">
+      <c r="CN107" s="28">
         <v>122.36603494741189</v>
       </c>
-      <c r="CO107" s="43">
+      <c r="CO107" s="28">
         <v>113.26262931619794</v>
       </c>
-      <c r="CP107" s="43">
+      <c r="CP107" s="28">
         <v>123.8931223185533</v>
       </c>
-      <c r="CQ107" s="43">
+      <c r="CQ107" s="28">
         <v>118.5509576161125</v>
       </c>
-      <c r="CR107" s="43">
-        <v>126.42154335710534</v>
-      </c>
-      <c r="CS107" s="9"/>
+      <c r="CR107" s="28">
+        <v>126.46861280327752</v>
+      </c>
+      <c r="CS107" s="28">
+        <v>115.85880851047379</v>
+      </c>
       <c r="CT107" s="9"/>
       <c r="CU107" s="9"/>
       <c r="CV107" s="9"/>
@@ -35484,28 +35522,30 @@
       <c r="CK108" s="28">
         <v>110.73024143143924</v>
       </c>
-      <c r="CL108" s="43">
+      <c r="CL108" s="28">
         <v>107.5881278956349</v>
       </c>
-      <c r="CM108" s="43">
+      <c r="CM108" s="28">
         <v>110.861880915884</v>
       </c>
-      <c r="CN108" s="43">
+      <c r="CN108" s="28">
         <v>127.25295002357193</v>
       </c>
-      <c r="CO108" s="43">
+      <c r="CO108" s="28">
         <v>118.19279855806573</v>
       </c>
-      <c r="CP108" s="43">
+      <c r="CP108" s="28">
         <v>112.69345658195303</v>
       </c>
-      <c r="CQ108" s="43">
+      <c r="CQ108" s="28">
         <v>114.858781937256</v>
       </c>
-      <c r="CR108" s="43">
-        <v>131.32981891747795</v>
-      </c>
-      <c r="CS108" s="9"/>
+      <c r="CR108" s="28">
+        <v>131.36961874235925</v>
+      </c>
+      <c r="CS108" s="28">
+        <v>120.82469703341336</v>
+      </c>
       <c r="CT108" s="9"/>
       <c r="CU108" s="9"/>
       <c r="CV108" s="9"/>
@@ -35806,28 +35846,30 @@
       <c r="CK109" s="28">
         <v>97.915217688209665</v>
       </c>
-      <c r="CL109" s="43">
+      <c r="CL109" s="28">
         <v>120.93406329895843</v>
       </c>
-      <c r="CM109" s="43">
+      <c r="CM109" s="28">
         <v>117.64500003841923</v>
       </c>
-      <c r="CN109" s="43">
+      <c r="CN109" s="28">
         <v>122.2019131301867</v>
       </c>
-      <c r="CO109" s="43">
+      <c r="CO109" s="28">
         <v>104.73450632095862</v>
       </c>
-      <c r="CP109" s="43">
+      <c r="CP109" s="28">
         <v>127.01267265567542</v>
       </c>
-      <c r="CQ109" s="43">
+      <c r="CQ109" s="28">
         <v>121.8925122434394</v>
       </c>
-      <c r="CR109" s="43">
-        <v>125.93040798230064</v>
-      </c>
-      <c r="CS109" s="9"/>
+      <c r="CR109" s="28">
+        <v>125.96694525656062</v>
+      </c>
+      <c r="CS109" s="28">
+        <v>107.04232173940773</v>
+      </c>
       <c r="CT109" s="9"/>
       <c r="CU109" s="9"/>
       <c r="CV109" s="9"/>
@@ -35949,13 +35991,13 @@
       <c r="CI110" s="9"/>
       <c r="CJ110" s="9"/>
       <c r="CK110" s="9"/>
-      <c r="CL110" s="33"/>
-      <c r="CM110" s="33"/>
-      <c r="CN110" s="33"/>
-      <c r="CO110" s="33"/>
-      <c r="CP110" s="33"/>
-      <c r="CQ110" s="33"/>
-      <c r="CR110" s="33"/>
+      <c r="CL110" s="9"/>
+      <c r="CM110" s="9"/>
+      <c r="CN110" s="9"/>
+      <c r="CO110" s="9"/>
+      <c r="CP110" s="9"/>
+      <c r="CQ110" s="9"/>
+      <c r="CR110" s="9"/>
       <c r="CS110" s="9"/>
       <c r="CT110" s="9"/>
       <c r="CU110" s="9"/>
@@ -36257,28 +36299,30 @@
       <c r="CK111" s="28">
         <v>104.79255425616898</v>
       </c>
-      <c r="CL111" s="43">
+      <c r="CL111" s="28">
         <v>114.42616332601681</v>
       </c>
-      <c r="CM111" s="43">
+      <c r="CM111" s="28">
         <v>114.15775432125356</v>
       </c>
-      <c r="CN111" s="43">
+      <c r="CN111" s="28">
         <v>124.10808501022979</v>
       </c>
-      <c r="CO111" s="43">
+      <c r="CO111" s="28">
         <v>111.8986793996678</v>
       </c>
-      <c r="CP111" s="43">
+      <c r="CP111" s="28">
         <v>119.67643287052397</v>
       </c>
-      <c r="CQ111" s="43">
+      <c r="CQ111" s="28">
         <v>118.23170561126553</v>
       </c>
-      <c r="CR111" s="43">
-        <v>127.92685165718738</v>
-      </c>
-      <c r="CS111" s="9"/>
+      <c r="CR111" s="28">
+        <v>127.97064419419534</v>
+      </c>
+      <c r="CS111" s="28">
+        <v>114.354625398539</v>
+      </c>
       <c r="CT111" s="9"/>
       <c r="CU111" s="9"/>
       <c r="CV111" s="9"/>
@@ -36401,13 +36445,14 @@
       <c r="CI112" s="12"/>
       <c r="CJ112" s="12"/>
       <c r="CK112" s="12"/>
-      <c r="CL112" s="35"/>
-      <c r="CM112" s="35"/>
-      <c r="CN112" s="35"/>
-      <c r="CO112" s="35"/>
-      <c r="CP112" s="35"/>
-      <c r="CQ112" s="35"/>
-      <c r="CR112" s="35"/>
+      <c r="CL112" s="12"/>
+      <c r="CM112" s="12"/>
+      <c r="CN112" s="12"/>
+      <c r="CO112" s="12"/>
+      <c r="CP112" s="12"/>
+      <c r="CQ112" s="12"/>
+      <c r="CR112" s="12"/>
+      <c r="CS112" s="12"/>
     </row>
     <row r="113" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
@@ -36499,14 +36544,14 @@
       <c r="CI113" s="26"/>
       <c r="CJ113" s="26"/>
       <c r="CK113" s="26"/>
-      <c r="CL113" s="34"/>
-      <c r="CM113" s="34"/>
-      <c r="CN113" s="34"/>
-      <c r="CO113" s="34"/>
-      <c r="CP113" s="34"/>
-      <c r="CQ113" s="34"/>
-      <c r="CR113" s="34"/>
-      <c r="CS113" s="9"/>
+      <c r="CL113" s="26"/>
+      <c r="CM113" s="26"/>
+      <c r="CN113" s="26"/>
+      <c r="CO113" s="26"/>
+      <c r="CP113" s="26"/>
+      <c r="CQ113" s="26"/>
+      <c r="CR113" s="26"/>
+      <c r="CS113" s="26"/>
       <c r="CT113" s="9"/>
       <c r="CU113" s="9"/>
       <c r="CV113" s="9"/>
@@ -36807,28 +36852,30 @@
       <c r="CK114" s="28">
         <v>103.35734241193842</v>
       </c>
-      <c r="CL114" s="43">
+      <c r="CL114" s="28">
         <v>113.83648388120595</v>
       </c>
-      <c r="CM114" s="43">
+      <c r="CM114" s="28">
         <v>125.57733082184939</v>
       </c>
-      <c r="CN114" s="43">
+      <c r="CN114" s="28">
         <v>116.18968110733041</v>
       </c>
-      <c r="CO114" s="43">
+      <c r="CO114" s="28">
         <v>109.32473035809807</v>
       </c>
-      <c r="CP114" s="43">
+      <c r="CP114" s="28">
         <v>120.51823143151049</v>
       </c>
-      <c r="CQ114" s="43">
+      <c r="CQ114" s="28">
         <v>131.38163257547404</v>
       </c>
-      <c r="CR114" s="43">
-        <v>120.66447827035908</v>
-      </c>
-      <c r="CS114" s="9"/>
+      <c r="CR114" s="28">
+        <v>120.76780174379562</v>
+      </c>
+      <c r="CS114" s="28">
+        <v>113.59582806720525</v>
+      </c>
       <c r="CT114" s="9"/>
       <c r="CU114" s="9"/>
       <c r="CV114" s="9"/>
@@ -36951,13 +36998,14 @@
       <c r="CI115" s="14"/>
       <c r="CJ115" s="14"/>
       <c r="CK115" s="14"/>
-      <c r="CL115" s="36"/>
-      <c r="CM115" s="36"/>
-      <c r="CN115" s="36"/>
-      <c r="CO115" s="36"/>
-      <c r="CP115" s="36"/>
-      <c r="CQ115" s="36"/>
-      <c r="CR115" s="36"/>
+      <c r="CL115" s="14"/>
+      <c r="CM115" s="14"/>
+      <c r="CN115" s="14"/>
+      <c r="CO115" s="14"/>
+      <c r="CP115" s="14"/>
+      <c r="CQ115" s="14"/>
+      <c r="CR115" s="14"/>
+      <c r="CS115" s="14"/>
     </row>
     <row r="116" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
@@ -36981,7 +37029,7 @@
     </row>
     <row r="122" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="124" spans="1:128" x14ac:dyDescent="0.2">
@@ -36991,7 +37039,7 @@
     </row>
     <row r="125" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="126" spans="1:128" x14ac:dyDescent="0.2">
@@ -37001,149 +37049,150 @@
     </row>
     <row r="128" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
-      <c r="B128" s="44">
+      <c r="B128" s="31">
         <v>2000</v>
       </c>
-      <c r="C128" s="45"/>
-      <c r="D128" s="45"/>
-      <c r="E128" s="45"/>
-      <c r="F128" s="44">
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="31">
         <v>2001</v>
       </c>
-      <c r="G128" s="45"/>
-      <c r="H128" s="45"/>
-      <c r="I128" s="45"/>
-      <c r="J128" s="44">
+      <c r="G128" s="32"/>
+      <c r="H128" s="32"/>
+      <c r="I128" s="32"/>
+      <c r="J128" s="31">
         <v>2002</v>
       </c>
-      <c r="K128" s="45"/>
-      <c r="L128" s="45"/>
-      <c r="M128" s="45"/>
-      <c r="N128" s="44">
+      <c r="K128" s="32"/>
+      <c r="L128" s="32"/>
+      <c r="M128" s="32"/>
+      <c r="N128" s="31">
         <v>2003</v>
       </c>
-      <c r="O128" s="45"/>
-      <c r="P128" s="45"/>
-      <c r="Q128" s="45"/>
-      <c r="R128" s="44">
+      <c r="O128" s="32"/>
+      <c r="P128" s="32"/>
+      <c r="Q128" s="32"/>
+      <c r="R128" s="31">
         <v>2004</v>
       </c>
-      <c r="S128" s="45"/>
-      <c r="T128" s="45"/>
-      <c r="U128" s="45"/>
-      <c r="V128" s="44">
+      <c r="S128" s="32"/>
+      <c r="T128" s="32"/>
+      <c r="U128" s="32"/>
+      <c r="V128" s="31">
         <v>2005</v>
       </c>
-      <c r="W128" s="45"/>
-      <c r="X128" s="45"/>
-      <c r="Y128" s="45"/>
-      <c r="Z128" s="44">
+      <c r="W128" s="32"/>
+      <c r="X128" s="32"/>
+      <c r="Y128" s="32"/>
+      <c r="Z128" s="31">
         <v>2006</v>
       </c>
-      <c r="AA128" s="45"/>
-      <c r="AB128" s="45"/>
-      <c r="AC128" s="45"/>
-      <c r="AD128" s="44">
+      <c r="AA128" s="32"/>
+      <c r="AB128" s="32"/>
+      <c r="AC128" s="32"/>
+      <c r="AD128" s="31">
         <v>2007</v>
       </c>
-      <c r="AE128" s="45"/>
-      <c r="AF128" s="45"/>
-      <c r="AG128" s="45"/>
-      <c r="AH128" s="44">
+      <c r="AE128" s="32"/>
+      <c r="AF128" s="32"/>
+      <c r="AG128" s="32"/>
+      <c r="AH128" s="31">
         <v>2008</v>
       </c>
-      <c r="AI128" s="45"/>
-      <c r="AJ128" s="45"/>
-      <c r="AK128" s="45"/>
-      <c r="AL128" s="44">
+      <c r="AI128" s="32"/>
+      <c r="AJ128" s="32"/>
+      <c r="AK128" s="32"/>
+      <c r="AL128" s="31">
         <v>2009</v>
       </c>
-      <c r="AM128" s="45"/>
-      <c r="AN128" s="45"/>
-      <c r="AO128" s="45"/>
-      <c r="AP128" s="44">
+      <c r="AM128" s="32"/>
+      <c r="AN128" s="32"/>
+      <c r="AO128" s="32"/>
+      <c r="AP128" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="45"/>
-      <c r="AR128" s="45"/>
-      <c r="AS128" s="45"/>
-      <c r="AT128" s="44">
+      <c r="AQ128" s="32"/>
+      <c r="AR128" s="32"/>
+      <c r="AS128" s="32"/>
+      <c r="AT128" s="31">
         <v>2011</v>
       </c>
-      <c r="AU128" s="45"/>
-      <c r="AV128" s="45"/>
-      <c r="AW128" s="45"/>
-      <c r="AX128" s="44">
+      <c r="AU128" s="32"/>
+      <c r="AV128" s="32"/>
+      <c r="AW128" s="32"/>
+      <c r="AX128" s="31">
         <v>2012</v>
       </c>
-      <c r="AY128" s="45"/>
-      <c r="AZ128" s="45"/>
-      <c r="BA128" s="45"/>
-      <c r="BB128" s="44">
+      <c r="AY128" s="32"/>
+      <c r="AZ128" s="32"/>
+      <c r="BA128" s="32"/>
+      <c r="BB128" s="31">
         <v>2013</v>
       </c>
-      <c r="BC128" s="45"/>
-      <c r="BD128" s="45"/>
-      <c r="BE128" s="45"/>
-      <c r="BF128" s="44">
+      <c r="BC128" s="32"/>
+      <c r="BD128" s="32"/>
+      <c r="BE128" s="32"/>
+      <c r="BF128" s="31">
         <v>2014</v>
       </c>
-      <c r="BG128" s="45"/>
-      <c r="BH128" s="45"/>
-      <c r="BI128" s="45"/>
-      <c r="BJ128" s="44">
+      <c r="BG128" s="32"/>
+      <c r="BH128" s="32"/>
+      <c r="BI128" s="32"/>
+      <c r="BJ128" s="31">
         <v>2015</v>
       </c>
-      <c r="BK128" s="45"/>
-      <c r="BL128" s="45"/>
-      <c r="BM128" s="45"/>
-      <c r="BN128" s="44">
+      <c r="BK128" s="32"/>
+      <c r="BL128" s="32"/>
+      <c r="BM128" s="32"/>
+      <c r="BN128" s="31">
         <v>2016</v>
       </c>
-      <c r="BO128" s="45"/>
-      <c r="BP128" s="45"/>
-      <c r="BQ128" s="45"/>
-      <c r="BR128" s="44">
+      <c r="BO128" s="32"/>
+      <c r="BP128" s="32"/>
+      <c r="BQ128" s="32"/>
+      <c r="BR128" s="31">
         <v>2017</v>
       </c>
-      <c r="BS128" s="45"/>
-      <c r="BT128" s="45"/>
-      <c r="BU128" s="45"/>
-      <c r="BV128" s="44">
+      <c r="BS128" s="32"/>
+      <c r="BT128" s="32"/>
+      <c r="BU128" s="32"/>
+      <c r="BV128" s="31">
         <v>2018</v>
       </c>
-      <c r="BW128" s="44"/>
-      <c r="BX128" s="44"/>
-      <c r="BY128" s="44"/>
-      <c r="BZ128" s="44">
+      <c r="BW128" s="31"/>
+      <c r="BX128" s="31"/>
+      <c r="BY128" s="31"/>
+      <c r="BZ128" s="31">
         <v>2019</v>
       </c>
-      <c r="CA128" s="44"/>
-      <c r="CB128" s="44"/>
-      <c r="CC128" s="44"/>
-      <c r="CD128" s="44">
+      <c r="CA128" s="31"/>
+      <c r="CB128" s="31"/>
+      <c r="CC128" s="31"/>
+      <c r="CD128" s="31">
         <v>2020</v>
       </c>
-      <c r="CE128" s="44"/>
-      <c r="CF128" s="44"/>
-      <c r="CG128" s="44"/>
-      <c r="CH128" s="44">
+      <c r="CE128" s="31"/>
+      <c r="CF128" s="31"/>
+      <c r="CG128" s="31"/>
+      <c r="CH128" s="31">
         <v>2021</v>
       </c>
-      <c r="CI128" s="44"/>
-      <c r="CJ128" s="44"/>
-      <c r="CK128" s="44"/>
-      <c r="CL128" s="46">
+      <c r="CI128" s="31"/>
+      <c r="CJ128" s="31"/>
+      <c r="CK128" s="31"/>
+      <c r="CL128" s="30">
         <v>2022</v>
       </c>
-      <c r="CM128" s="46"/>
-      <c r="CN128" s="46"/>
-      <c r="CO128" s="46"/>
-      <c r="CP128" s="46">
+      <c r="CM128" s="30"/>
+      <c r="CN128" s="30"/>
+      <c r="CO128" s="30"/>
+      <c r="CP128" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ128" s="46"/>
-      <c r="CR128" s="46"/>
+      <c r="CQ128" s="30"/>
+      <c r="CR128" s="30"/>
+      <c r="CS128" s="30"/>
     </row>
     <row r="129" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -37413,26 +37462,29 @@
       <c r="CK129" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL129" s="31" t="s">
+      <c r="CL129" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CM129" s="31" t="s">
+      <c r="CM129" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CN129" s="31" t="s">
+      <c r="CN129" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CO129" s="31" t="s">
+      <c r="CO129" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP129" s="31" t="s">
+      <c r="CP129" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CQ129" s="31" t="s">
+      <c r="CQ129" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CR129" s="31" t="s">
+      <c r="CR129" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CS129" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37706,28 +37758,30 @@
       <c r="CK131" s="28">
         <v>36.32377146201037</v>
       </c>
-      <c r="CL131" s="43">
+      <c r="CL131" s="28">
         <v>26.803722214589875</v>
       </c>
-      <c r="CM131" s="43">
+      <c r="CM131" s="28">
         <v>52.865789559176669</v>
       </c>
-      <c r="CN131" s="43">
+      <c r="CN131" s="28">
         <v>32.882708178399064</v>
       </c>
-      <c r="CO131" s="43">
+      <c r="CO131" s="28">
         <v>36.539154136581665</v>
       </c>
-      <c r="CP131" s="43">
+      <c r="CP131" s="28">
         <v>24.610724473168894</v>
       </c>
-      <c r="CQ131" s="43">
+      <c r="CQ131" s="28">
         <v>52.081543955612254</v>
       </c>
-      <c r="CR131" s="43">
-        <v>37.226532098392383</v>
-      </c>
-      <c r="CS131" s="9"/>
+      <c r="CR131" s="28">
+        <v>37.222648425969659</v>
+      </c>
+      <c r="CS131" s="28">
+        <v>38.09819798187727</v>
+      </c>
       <c r="CT131" s="9"/>
       <c r="CU131" s="9"/>
       <c r="CV131" s="9"/>
@@ -38028,28 +38082,30 @@
       <c r="CK132" s="28">
         <v>32.17452413432855</v>
       </c>
-      <c r="CL132" s="43">
+      <c r="CL132" s="28">
         <v>41.059833435824842</v>
       </c>
-      <c r="CM132" s="43">
+      <c r="CM132" s="28">
         <v>24.579961825176643</v>
       </c>
-      <c r="CN132" s="43">
+      <c r="CN132" s="28">
         <v>37.583387271163389</v>
       </c>
-      <c r="CO132" s="43">
+      <c r="CO132" s="28">
         <v>32.065007286746486</v>
       </c>
-      <c r="CP132" s="43">
+      <c r="CP132" s="28">
         <v>43.367160517695467</v>
       </c>
-      <c r="CQ132" s="43">
+      <c r="CQ132" s="28">
         <v>26.589573683362744</v>
       </c>
-      <c r="CR132" s="43">
-        <v>34.44115988514752</v>
-      </c>
-      <c r="CS132" s="9"/>
+      <c r="CR132" s="28">
+        <v>34.481964316887293</v>
+      </c>
+      <c r="CS132" s="28">
+        <v>30.641563987588892</v>
+      </c>
       <c r="CT132" s="9"/>
       <c r="CU132" s="9"/>
       <c r="CV132" s="9"/>
@@ -38350,28 +38406,30 @@
       <c r="CK133" s="28">
         <v>31.501704403661062</v>
       </c>
-      <c r="CL133" s="43">
+      <c r="CL133" s="28">
         <v>32.13644434958529</v>
       </c>
-      <c r="CM133" s="43">
+      <c r="CM133" s="28">
         <v>22.554248615646681</v>
       </c>
-      <c r="CN133" s="43">
+      <c r="CN133" s="28">
         <v>29.533904550437555</v>
       </c>
-      <c r="CO133" s="43">
+      <c r="CO133" s="28">
         <v>31.395838576671846</v>
       </c>
-      <c r="CP133" s="43">
+      <c r="CP133" s="28">
         <v>32.022115009135625</v>
       </c>
-      <c r="CQ133" s="43">
+      <c r="CQ133" s="28">
         <v>21.328882361024998</v>
       </c>
-      <c r="CR133" s="43">
-        <v>28.3323080164601</v>
-      </c>
-      <c r="CS133" s="9"/>
+      <c r="CR133" s="28">
+        <v>28.295387257143041</v>
+      </c>
+      <c r="CS133" s="28">
+        <v>31.260238030533845</v>
+      </c>
       <c r="CT133" s="9"/>
       <c r="CU133" s="9"/>
       <c r="CV133" s="9"/>
@@ -38493,13 +38551,13 @@
       <c r="CI134" s="9"/>
       <c r="CJ134" s="9"/>
       <c r="CK134" s="9"/>
-      <c r="CL134" s="33"/>
-      <c r="CM134" s="33"/>
-      <c r="CN134" s="33"/>
-      <c r="CO134" s="33"/>
-      <c r="CP134" s="33"/>
-      <c r="CQ134" s="33"/>
-      <c r="CR134" s="33"/>
+      <c r="CL134" s="9"/>
+      <c r="CM134" s="9"/>
+      <c r="CN134" s="9"/>
+      <c r="CO134" s="9"/>
+      <c r="CP134" s="9"/>
+      <c r="CQ134" s="9"/>
+      <c r="CR134" s="9"/>
       <c r="CS134" s="9"/>
       <c r="CT134" s="9"/>
       <c r="CU134" s="9"/>
@@ -38801,28 +38859,30 @@
       <c r="CK135" s="28">
         <v>100</v>
       </c>
-      <c r="CL135" s="43">
+      <c r="CL135" s="28">
         <v>100</v>
       </c>
-      <c r="CM135" s="43">
+      <c r="CM135" s="28">
         <v>100</v>
       </c>
-      <c r="CN135" s="43">
+      <c r="CN135" s="28">
         <v>100</v>
       </c>
-      <c r="CO135" s="43">
+      <c r="CO135" s="28">
         <v>100</v>
       </c>
-      <c r="CP135" s="43">
+      <c r="CP135" s="28">
         <v>100</v>
       </c>
-      <c r="CQ135" s="43">
+      <c r="CQ135" s="28">
         <v>100</v>
       </c>
-      <c r="CR135" s="43">
+      <c r="CR135" s="28">
         <v>100</v>
       </c>
-      <c r="CS135" s="9"/>
+      <c r="CS135" s="28">
+        <v>100</v>
+      </c>
       <c r="CT135" s="9"/>
       <c r="CU135" s="9"/>
       <c r="CV135" s="9"/>
@@ -38945,13 +39005,14 @@
       <c r="CI136" s="12"/>
       <c r="CJ136" s="12"/>
       <c r="CK136" s="12"/>
-      <c r="CL136" s="35"/>
-      <c r="CM136" s="35"/>
-      <c r="CN136" s="35"/>
-      <c r="CO136" s="35"/>
-      <c r="CP136" s="35"/>
-      <c r="CQ136" s="35"/>
-      <c r="CR136" s="35"/>
+      <c r="CL136" s="12"/>
+      <c r="CM136" s="12"/>
+      <c r="CN136" s="12"/>
+      <c r="CO136" s="12"/>
+      <c r="CP136" s="12"/>
+      <c r="CQ136" s="12"/>
+      <c r="CR136" s="12"/>
+      <c r="CS136" s="12"/>
     </row>
     <row r="137" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
@@ -39043,14 +39104,14 @@
       <c r="CI137" s="26"/>
       <c r="CJ137" s="26"/>
       <c r="CK137" s="26"/>
-      <c r="CL137" s="34"/>
-      <c r="CM137" s="34"/>
-      <c r="CN137" s="34"/>
-      <c r="CO137" s="34"/>
-      <c r="CP137" s="34"/>
-      <c r="CQ137" s="34"/>
-      <c r="CR137" s="34"/>
-      <c r="CS137" s="9"/>
+      <c r="CL137" s="26"/>
+      <c r="CM137" s="26"/>
+      <c r="CN137" s="26"/>
+      <c r="CO137" s="26"/>
+      <c r="CP137" s="26"/>
+      <c r="CQ137" s="26"/>
+      <c r="CR137" s="26"/>
+      <c r="CS137" s="26"/>
       <c r="CT137" s="9"/>
       <c r="CU137" s="9"/>
       <c r="CV137" s="9"/>
@@ -39173,14 +39234,14 @@
       <c r="CI138" s="26"/>
       <c r="CJ138" s="26"/>
       <c r="CK138" s="26"/>
-      <c r="CL138" s="34"/>
-      <c r="CM138" s="34"/>
-      <c r="CN138" s="34"/>
-      <c r="CO138" s="34"/>
-      <c r="CP138" s="34"/>
-      <c r="CQ138" s="34"/>
-      <c r="CR138" s="34"/>
-      <c r="CS138" s="9"/>
+      <c r="CL138" s="26"/>
+      <c r="CM138" s="26"/>
+      <c r="CN138" s="26"/>
+      <c r="CO138" s="26"/>
+      <c r="CP138" s="26"/>
+      <c r="CQ138" s="26"/>
+      <c r="CR138" s="26"/>
+      <c r="CS138" s="26"/>
       <c r="CT138" s="9"/>
       <c r="CU138" s="9"/>
       <c r="CV138" s="9"/>
@@ -39303,13 +39364,14 @@
       <c r="CI139" s="14"/>
       <c r="CJ139" s="14"/>
       <c r="CK139" s="14"/>
-      <c r="CL139" s="36"/>
-      <c r="CM139" s="36"/>
-      <c r="CN139" s="36"/>
-      <c r="CO139" s="36"/>
-      <c r="CP139" s="36"/>
-      <c r="CQ139" s="36"/>
-      <c r="CR139" s="36"/>
+      <c r="CL139" s="14"/>
+      <c r="CM139" s="14"/>
+      <c r="CN139" s="14"/>
+      <c r="CO139" s="14"/>
+      <c r="CP139" s="14"/>
+      <c r="CQ139" s="14"/>
+      <c r="CR139" s="14"/>
+      <c r="CS139" s="14"/>
     </row>
     <row r="140" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
@@ -39410,13 +39472,13 @@
       <c r="CI142" s="9"/>
       <c r="CJ142" s="9"/>
       <c r="CK142" s="9"/>
-      <c r="CL142" s="33"/>
-      <c r="CM142" s="33"/>
-      <c r="CN142" s="33"/>
-      <c r="CO142" s="33"/>
-      <c r="CP142" s="33"/>
-      <c r="CQ142" s="33"/>
-      <c r="CR142" s="33"/>
+      <c r="CL142" s="9"/>
+      <c r="CM142" s="9"/>
+      <c r="CN142" s="9"/>
+      <c r="CO142" s="9"/>
+      <c r="CP142" s="9"/>
+      <c r="CQ142" s="9"/>
+      <c r="CR142" s="9"/>
       <c r="CS142" s="9"/>
       <c r="CT142" s="9"/>
       <c r="CU142" s="9"/>
@@ -39539,13 +39601,13 @@
       <c r="CI143" s="9"/>
       <c r="CJ143" s="9"/>
       <c r="CK143" s="9"/>
-      <c r="CL143" s="33"/>
-      <c r="CM143" s="33"/>
-      <c r="CN143" s="33"/>
-      <c r="CO143" s="33"/>
-      <c r="CP143" s="33"/>
-      <c r="CQ143" s="33"/>
-      <c r="CR143" s="33"/>
+      <c r="CL143" s="9"/>
+      <c r="CM143" s="9"/>
+      <c r="CN143" s="9"/>
+      <c r="CO143" s="9"/>
+      <c r="CP143" s="9"/>
+      <c r="CQ143" s="9"/>
+      <c r="CR143" s="9"/>
       <c r="CS143" s="9"/>
       <c r="CT143" s="9"/>
       <c r="CU143" s="9"/>
@@ -39591,7 +39653,7 @@
     </row>
     <row r="146" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="148" spans="1:128" x14ac:dyDescent="0.2">
@@ -39601,7 +39663,7 @@
     </row>
     <row r="149" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="150" spans="1:128" x14ac:dyDescent="0.2">
@@ -39611,149 +39673,150 @@
     </row>
     <row r="152" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
-      <c r="B152" s="44">
+      <c r="B152" s="31">
         <v>2000</v>
       </c>
-      <c r="C152" s="45"/>
-      <c r="D152" s="45"/>
-      <c r="E152" s="45"/>
-      <c r="F152" s="44">
+      <c r="C152" s="32"/>
+      <c r="D152" s="32"/>
+      <c r="E152" s="32"/>
+      <c r="F152" s="31">
         <v>2001</v>
       </c>
-      <c r="G152" s="45"/>
-      <c r="H152" s="45"/>
-      <c r="I152" s="45"/>
-      <c r="J152" s="44">
+      <c r="G152" s="32"/>
+      <c r="H152" s="32"/>
+      <c r="I152" s="32"/>
+      <c r="J152" s="31">
         <v>2002</v>
       </c>
-      <c r="K152" s="45"/>
-      <c r="L152" s="45"/>
-      <c r="M152" s="45"/>
-      <c r="N152" s="44">
+      <c r="K152" s="32"/>
+      <c r="L152" s="32"/>
+      <c r="M152" s="32"/>
+      <c r="N152" s="31">
         <v>2003</v>
       </c>
-      <c r="O152" s="45"/>
-      <c r="P152" s="45"/>
-      <c r="Q152" s="45"/>
-      <c r="R152" s="44">
+      <c r="O152" s="32"/>
+      <c r="P152" s="32"/>
+      <c r="Q152" s="32"/>
+      <c r="R152" s="31">
         <v>2004</v>
       </c>
-      <c r="S152" s="45"/>
-      <c r="T152" s="45"/>
-      <c r="U152" s="45"/>
-      <c r="V152" s="44">
+      <c r="S152" s="32"/>
+      <c r="T152" s="32"/>
+      <c r="U152" s="32"/>
+      <c r="V152" s="31">
         <v>2005</v>
       </c>
-      <c r="W152" s="45"/>
-      <c r="X152" s="45"/>
-      <c r="Y152" s="45"/>
-      <c r="Z152" s="44">
+      <c r="W152" s="32"/>
+      <c r="X152" s="32"/>
+      <c r="Y152" s="32"/>
+      <c r="Z152" s="31">
         <v>2006</v>
       </c>
-      <c r="AA152" s="45"/>
-      <c r="AB152" s="45"/>
-      <c r="AC152" s="45"/>
-      <c r="AD152" s="44">
+      <c r="AA152" s="32"/>
+      <c r="AB152" s="32"/>
+      <c r="AC152" s="32"/>
+      <c r="AD152" s="31">
         <v>2007</v>
       </c>
-      <c r="AE152" s="45"/>
-      <c r="AF152" s="45"/>
-      <c r="AG152" s="45"/>
-      <c r="AH152" s="44">
+      <c r="AE152" s="32"/>
+      <c r="AF152" s="32"/>
+      <c r="AG152" s="32"/>
+      <c r="AH152" s="31">
         <v>2008</v>
       </c>
-      <c r="AI152" s="45"/>
-      <c r="AJ152" s="45"/>
-      <c r="AK152" s="45"/>
-      <c r="AL152" s="44">
+      <c r="AI152" s="32"/>
+      <c r="AJ152" s="32"/>
+      <c r="AK152" s="32"/>
+      <c r="AL152" s="31">
         <v>2009</v>
       </c>
-      <c r="AM152" s="45"/>
-      <c r="AN152" s="45"/>
-      <c r="AO152" s="45"/>
-      <c r="AP152" s="44">
+      <c r="AM152" s="32"/>
+      <c r="AN152" s="32"/>
+      <c r="AO152" s="32"/>
+      <c r="AP152" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ152" s="45"/>
-      <c r="AR152" s="45"/>
-      <c r="AS152" s="45"/>
-      <c r="AT152" s="44">
+      <c r="AQ152" s="32"/>
+      <c r="AR152" s="32"/>
+      <c r="AS152" s="32"/>
+      <c r="AT152" s="31">
         <v>2011</v>
       </c>
-      <c r="AU152" s="45"/>
-      <c r="AV152" s="45"/>
-      <c r="AW152" s="45"/>
-      <c r="AX152" s="44">
+      <c r="AU152" s="32"/>
+      <c r="AV152" s="32"/>
+      <c r="AW152" s="32"/>
+      <c r="AX152" s="31">
         <v>2012</v>
       </c>
-      <c r="AY152" s="45"/>
-      <c r="AZ152" s="45"/>
-      <c r="BA152" s="45"/>
-      <c r="BB152" s="44">
+      <c r="AY152" s="32"/>
+      <c r="AZ152" s="32"/>
+      <c r="BA152" s="32"/>
+      <c r="BB152" s="31">
         <v>2013</v>
       </c>
-      <c r="BC152" s="45"/>
-      <c r="BD152" s="45"/>
-      <c r="BE152" s="45"/>
-      <c r="BF152" s="44">
+      <c r="BC152" s="32"/>
+      <c r="BD152" s="32"/>
+      <c r="BE152" s="32"/>
+      <c r="BF152" s="31">
         <v>2014</v>
       </c>
-      <c r="BG152" s="45"/>
-      <c r="BH152" s="45"/>
-      <c r="BI152" s="45"/>
-      <c r="BJ152" s="44">
+      <c r="BG152" s="32"/>
+      <c r="BH152" s="32"/>
+      <c r="BI152" s="32"/>
+      <c r="BJ152" s="31">
         <v>2015</v>
       </c>
-      <c r="BK152" s="45"/>
-      <c r="BL152" s="45"/>
-      <c r="BM152" s="45"/>
-      <c r="BN152" s="44">
+      <c r="BK152" s="32"/>
+      <c r="BL152" s="32"/>
+      <c r="BM152" s="32"/>
+      <c r="BN152" s="31">
         <v>2016</v>
       </c>
-      <c r="BO152" s="45"/>
-      <c r="BP152" s="45"/>
-      <c r="BQ152" s="45"/>
-      <c r="BR152" s="44">
+      <c r="BO152" s="32"/>
+      <c r="BP152" s="32"/>
+      <c r="BQ152" s="32"/>
+      <c r="BR152" s="31">
         <v>2017</v>
       </c>
-      <c r="BS152" s="45"/>
-      <c r="BT152" s="45"/>
-      <c r="BU152" s="45"/>
-      <c r="BV152" s="44">
+      <c r="BS152" s="32"/>
+      <c r="BT152" s="32"/>
+      <c r="BU152" s="32"/>
+      <c r="BV152" s="31">
         <v>2018</v>
       </c>
-      <c r="BW152" s="44"/>
-      <c r="BX152" s="44"/>
-      <c r="BY152" s="44"/>
-      <c r="BZ152" s="44">
+      <c r="BW152" s="31"/>
+      <c r="BX152" s="31"/>
+      <c r="BY152" s="31"/>
+      <c r="BZ152" s="31">
         <v>2019</v>
       </c>
-      <c r="CA152" s="44"/>
-      <c r="CB152" s="44"/>
-      <c r="CC152" s="44"/>
-      <c r="CD152" s="44">
+      <c r="CA152" s="31"/>
+      <c r="CB152" s="31"/>
+      <c r="CC152" s="31"/>
+      <c r="CD152" s="31">
         <v>2020</v>
       </c>
-      <c r="CE152" s="44"/>
-      <c r="CF152" s="44"/>
-      <c r="CG152" s="44"/>
-      <c r="CH152" s="44">
+      <c r="CE152" s="31"/>
+      <c r="CF152" s="31"/>
+      <c r="CG152" s="31"/>
+      <c r="CH152" s="31">
         <v>2021</v>
       </c>
-      <c r="CI152" s="44"/>
-      <c r="CJ152" s="44"/>
-      <c r="CK152" s="44"/>
-      <c r="CL152" s="46">
+      <c r="CI152" s="31"/>
+      <c r="CJ152" s="31"/>
+      <c r="CK152" s="31"/>
+      <c r="CL152" s="30">
         <v>2022</v>
       </c>
-      <c r="CM152" s="46"/>
-      <c r="CN152" s="46"/>
-      <c r="CO152" s="46"/>
-      <c r="CP152" s="46">
+      <c r="CM152" s="30"/>
+      <c r="CN152" s="30"/>
+      <c r="CO152" s="30"/>
+      <c r="CP152" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ152" s="46"/>
-      <c r="CR152" s="46"/>
+      <c r="CQ152" s="30"/>
+      <c r="CR152" s="30"/>
+      <c r="CS152" s="30"/>
     </row>
     <row r="153" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
@@ -40023,26 +40086,29 @@
       <c r="CK153" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL153" s="31" t="s">
+      <c r="CL153" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CM153" s="31" t="s">
+      <c r="CM153" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CN153" s="31" t="s">
+      <c r="CN153" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CO153" s="31" t="s">
+      <c r="CO153" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP153" s="31" t="s">
+      <c r="CP153" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CQ153" s="31" t="s">
+      <c r="CQ153" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CR153" s="31" t="s">
+      <c r="CR153" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CS153" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40316,28 +40382,30 @@
       <c r="CK155" s="28">
         <v>35.836459546224845</v>
       </c>
-      <c r="CL155" s="43">
+      <c r="CL155" s="28">
         <v>25.923439178881825</v>
       </c>
-      <c r="CM155" s="43">
+      <c r="CM155" s="28">
         <v>52.803593907697078</v>
       </c>
-      <c r="CN155" s="43">
+      <c r="CN155" s="28">
         <v>33.350839092932823</v>
       </c>
-      <c r="CO155" s="43">
+      <c r="CO155" s="28">
         <v>36.099136307792435</v>
       </c>
-      <c r="CP155" s="43">
+      <c r="CP155" s="28">
         <v>23.773101042164058</v>
       </c>
-      <c r="CQ155" s="43">
+      <c r="CQ155" s="28">
         <v>51.941290872400593</v>
       </c>
-      <c r="CR155" s="43">
-        <v>37.66979047242355</v>
-      </c>
-      <c r="CS155" s="9"/>
+      <c r="CR155" s="28">
+        <v>37.664731130520799</v>
+      </c>
+      <c r="CS155" s="28">
+        <v>37.603572957364719</v>
+      </c>
       <c r="CT155" s="9"/>
       <c r="CU155" s="9"/>
       <c r="CV155" s="9"/>
@@ -40638,28 +40706,30 @@
       <c r="CK156" s="28">
         <v>30.449229789683656</v>
       </c>
-      <c r="CL156" s="43">
+      <c r="CL156" s="28">
         <v>43.66949494115476</v>
       </c>
-      <c r="CM156" s="43">
+      <c r="CM156" s="28">
         <v>25.310712934713266</v>
       </c>
-      <c r="CN156" s="43">
+      <c r="CN156" s="28">
         <v>36.654570456385606</v>
       </c>
-      <c r="CO156" s="43">
+      <c r="CO156" s="28">
         <v>30.357449980888042</v>
       </c>
-      <c r="CP156" s="43">
+      <c r="CP156" s="28">
         <v>46.054378238961228</v>
       </c>
-      <c r="CQ156" s="43">
+      <c r="CQ156" s="28">
         <v>27.370398632450453</v>
       </c>
-      <c r="CR156" s="43">
-        <v>33.548733926887166</v>
-      </c>
-      <c r="CS156" s="9"/>
+      <c r="CR156" s="28">
+        <v>33.589799749418667</v>
+      </c>
+      <c r="CS156" s="28">
+        <v>29.00073128639486</v>
+      </c>
       <c r="CT156" s="9"/>
       <c r="CU156" s="9"/>
       <c r="CV156" s="9"/>
@@ -40960,28 +41030,30 @@
       <c r="CK157" s="28">
         <v>33.714310664091506</v>
       </c>
-      <c r="CL157" s="43">
+      <c r="CL157" s="28">
         <v>30.407065879963426</v>
       </c>
-      <c r="CM157" s="43">
+      <c r="CM157" s="28">
         <v>21.885693157589664</v>
       </c>
-      <c r="CN157" s="43">
+      <c r="CN157" s="28">
         <v>29.994590450681574</v>
       </c>
-      <c r="CO157" s="43">
+      <c r="CO157" s="28">
         <v>33.543413711319538</v>
       </c>
-      <c r="CP157" s="43">
+      <c r="CP157" s="28">
         <v>30.172520718874711</v>
       </c>
-      <c r="CQ157" s="43">
+      <c r="CQ157" s="28">
         <v>20.688310495148968</v>
       </c>
-      <c r="CR157" s="43">
-        <v>28.781475600689284</v>
-      </c>
-      <c r="CS157" s="9"/>
+      <c r="CR157" s="28">
+        <v>28.745469120060545</v>
+      </c>
+      <c r="CS157" s="28">
+        <v>33.395695756240421</v>
+      </c>
       <c r="CT157" s="9"/>
       <c r="CU157" s="9"/>
       <c r="CV157" s="9"/>
@@ -41103,13 +41175,13 @@
       <c r="CI158" s="9"/>
       <c r="CJ158" s="9"/>
       <c r="CK158" s="9"/>
-      <c r="CL158" s="33"/>
-      <c r="CM158" s="33"/>
-      <c r="CN158" s="33"/>
-      <c r="CO158" s="33"/>
-      <c r="CP158" s="33"/>
-      <c r="CQ158" s="33"/>
-      <c r="CR158" s="33"/>
+      <c r="CL158" s="9"/>
+      <c r="CM158" s="9"/>
+      <c r="CN158" s="9"/>
+      <c r="CO158" s="9"/>
+      <c r="CP158" s="9"/>
+      <c r="CQ158" s="9"/>
+      <c r="CR158" s="9"/>
       <c r="CS158" s="9"/>
       <c r="CT158" s="9"/>
       <c r="CU158" s="9"/>
@@ -41411,28 +41483,30 @@
       <c r="CK159" s="28">
         <v>100</v>
       </c>
-      <c r="CL159" s="43">
+      <c r="CL159" s="28">
         <v>100</v>
       </c>
-      <c r="CM159" s="43">
+      <c r="CM159" s="28">
         <v>100</v>
       </c>
-      <c r="CN159" s="43">
+      <c r="CN159" s="28">
         <v>100</v>
       </c>
-      <c r="CO159" s="43">
+      <c r="CO159" s="28">
         <v>100</v>
       </c>
-      <c r="CP159" s="43">
+      <c r="CP159" s="28">
         <v>100</v>
       </c>
-      <c r="CQ159" s="43">
+      <c r="CQ159" s="28">
         <v>100</v>
       </c>
-      <c r="CR159" s="43">
+      <c r="CR159" s="28">
         <v>100</v>
       </c>
-      <c r="CS159" s="9"/>
+      <c r="CS159" s="28">
+        <v>100</v>
+      </c>
       <c r="CT159" s="9"/>
       <c r="CU159" s="9"/>
       <c r="CV159" s="9"/>
@@ -41555,13 +41629,14 @@
       <c r="CI160" s="12"/>
       <c r="CJ160" s="12"/>
       <c r="CK160" s="12"/>
-      <c r="CL160" s="35"/>
-      <c r="CM160" s="35"/>
-      <c r="CN160" s="35"/>
-      <c r="CO160" s="35"/>
-      <c r="CP160" s="35"/>
-      <c r="CQ160" s="35"/>
-      <c r="CR160" s="35"/>
+      <c r="CL160" s="12"/>
+      <c r="CM160" s="12"/>
+      <c r="CN160" s="12"/>
+      <c r="CO160" s="12"/>
+      <c r="CP160" s="12"/>
+      <c r="CQ160" s="12"/>
+      <c r="CR160" s="12"/>
+      <c r="CS160" s="12"/>
     </row>
     <row r="161" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
@@ -41653,14 +41728,14 @@
       <c r="CI161" s="26"/>
       <c r="CJ161" s="26"/>
       <c r="CK161" s="26"/>
-      <c r="CL161" s="34"/>
-      <c r="CM161" s="34"/>
-      <c r="CN161" s="34"/>
-      <c r="CO161" s="34"/>
-      <c r="CP161" s="34"/>
-      <c r="CQ161" s="34"/>
-      <c r="CR161" s="34"/>
-      <c r="CS161" s="9"/>
+      <c r="CL161" s="26"/>
+      <c r="CM161" s="26"/>
+      <c r="CN161" s="26"/>
+      <c r="CO161" s="26"/>
+      <c r="CP161" s="26"/>
+      <c r="CQ161" s="26"/>
+      <c r="CR161" s="26"/>
+      <c r="CS161" s="26"/>
       <c r="CT161" s="9"/>
       <c r="CU161" s="9"/>
       <c r="CV161" s="9"/>
@@ -41783,14 +41858,14 @@
       <c r="CI162" s="26"/>
       <c r="CJ162" s="26"/>
       <c r="CK162" s="26"/>
-      <c r="CL162" s="34"/>
-      <c r="CM162" s="34"/>
-      <c r="CN162" s="34"/>
-      <c r="CO162" s="34"/>
-      <c r="CP162" s="34"/>
-      <c r="CQ162" s="34"/>
-      <c r="CR162" s="34"/>
-      <c r="CS162" s="9"/>
+      <c r="CL162" s="26"/>
+      <c r="CM162" s="26"/>
+      <c r="CN162" s="26"/>
+      <c r="CO162" s="26"/>
+      <c r="CP162" s="26"/>
+      <c r="CQ162" s="26"/>
+      <c r="CR162" s="26"/>
+      <c r="CS162" s="26"/>
       <c r="CT162" s="9"/>
       <c r="CU162" s="9"/>
       <c r="CV162" s="9"/>
@@ -41913,13 +41988,14 @@
       <c r="CI163" s="14"/>
       <c r="CJ163" s="14"/>
       <c r="CK163" s="14"/>
-      <c r="CL163" s="36"/>
-      <c r="CM163" s="36"/>
-      <c r="CN163" s="36"/>
-      <c r="CO163" s="36"/>
-      <c r="CP163" s="36"/>
-      <c r="CQ163" s="36"/>
-      <c r="CR163" s="36"/>
+      <c r="CL163" s="14"/>
+      <c r="CM163" s="14"/>
+      <c r="CN163" s="14"/>
+      <c r="CO163" s="14"/>
+      <c r="CP163" s="14"/>
+      <c r="CQ163" s="14"/>
+      <c r="CR163" s="14"/>
+      <c r="CS163" s="14"/>
     </row>
     <row r="164" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
@@ -41932,16 +42008,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="166">
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL33:CO33"/>
-    <mergeCell ref="CP9:CR9"/>
-    <mergeCell ref="CP33:CR33"/>
-    <mergeCell ref="CL57:CN57"/>
-    <mergeCell ref="CL81:CN81"/>
-    <mergeCell ref="CP104:CR104"/>
-    <mergeCell ref="CP128:CR128"/>
-    <mergeCell ref="CP152:CR152"/>
+  <mergeCells count="154">
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH33:CK33"/>
     <mergeCell ref="CD57:CG57"/>
@@ -41958,9 +42025,6 @@
     <mergeCell ref="BJ81:BM81"/>
     <mergeCell ref="CH57:CK57"/>
     <mergeCell ref="CH81:CK81"/>
-    <mergeCell ref="CL104:CO104"/>
-    <mergeCell ref="CL128:CO128"/>
-    <mergeCell ref="CL152:CO152"/>
     <mergeCell ref="BR152:BU152"/>
     <mergeCell ref="BR128:BU128"/>
     <mergeCell ref="BR104:BU104"/>
@@ -42105,9 +42169,9 @@
   <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="48" max="95" man="1"/>
-    <brk id="96" max="95" man="1"/>
-    <brk id="119" max="95" man="1"/>
+    <brk id="48" max="96" man="1"/>
+    <brk id="96" max="96" man="1"/>
+    <brk id="119" max="96" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD98FC6E-EB94-432D-8669-C04DEC8567A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484ACFCB-060C-4BE2-8BCF-64491006B442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -326,7 +326,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$CS$167</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$CT$167</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -629,13 +629,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2023</t>
+    <t>Q1 2000 to Q1 2024</t>
   </si>
   <si>
-    <t>As of January 2024</t>
+    <t>Q1 2001 to Q1 2024</t>
+  </si>
+  <si>
+    <t>As of May 2024</t>
   </si>
 </sst>
 </file>
@@ -737,7 +740,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -778,11 +781,31 @@
     <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23638,19 +23661,19 @@
   <dimension ref="A1:DX165"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CG3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="CM3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
       <selection pane="topRight" activeCell="N19" sqref="N19"/>
       <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="DC11" sqref="DC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.21875" style="1" customWidth="1"/>
-    <col min="2" max="89" width="9.77734375" style="1" customWidth="1"/>
-    <col min="90" max="97" width="8.77734375" style="1" customWidth="1"/>
-    <col min="98" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="93" width="10.21875" style="1" customWidth="1"/>
+    <col min="94" max="98" width="10.21875" style="30" customWidth="1"/>
+    <col min="99" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.2">
@@ -23665,7 +23688,7 @@
     </row>
     <row r="3" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:128" x14ac:dyDescent="0.2">
@@ -23675,7 +23698,7 @@
     </row>
     <row r="6" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:128" x14ac:dyDescent="0.2">
@@ -23685,150 +23708,153 @@
     </row>
     <row r="9" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="31">
+      <c r="B9" s="45">
         <v>2000</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31">
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45">
         <v>2001</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31">
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45">
         <v>2002</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31">
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45">
         <v>2003</v>
       </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31">
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45">
         <v>2004</v>
       </c>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31">
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45">
         <v>2005</v>
       </c>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31">
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45">
         <v>2006</v>
       </c>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31">
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45">
         <v>2007</v>
       </c>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31">
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45">
         <v>2008</v>
       </c>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31">
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="45">
         <v>2009</v>
       </c>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="31">
+      <c r="AM9" s="45"/>
+      <c r="AN9" s="45"/>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="31"/>
-      <c r="AS9" s="31"/>
-      <c r="AT9" s="31">
+      <c r="AQ9" s="45"/>
+      <c r="AR9" s="45"/>
+      <c r="AS9" s="45"/>
+      <c r="AT9" s="45">
         <v>2011</v>
       </c>
-      <c r="AU9" s="31"/>
-      <c r="AV9" s="31"/>
-      <c r="AW9" s="31"/>
-      <c r="AX9" s="31">
+      <c r="AU9" s="45"/>
+      <c r="AV9" s="45"/>
+      <c r="AW9" s="45"/>
+      <c r="AX9" s="45">
         <v>2012</v>
       </c>
-      <c r="AY9" s="31"/>
-      <c r="AZ9" s="31"/>
-      <c r="BA9" s="31"/>
-      <c r="BB9" s="31">
+      <c r="AY9" s="45"/>
+      <c r="AZ9" s="45"/>
+      <c r="BA9" s="45"/>
+      <c r="BB9" s="45">
         <v>2013</v>
       </c>
-      <c r="BC9" s="31"/>
-      <c r="BD9" s="31"/>
-      <c r="BE9" s="31"/>
-      <c r="BF9" s="31">
+      <c r="BC9" s="45"/>
+      <c r="BD9" s="45"/>
+      <c r="BE9" s="45"/>
+      <c r="BF9" s="45">
         <v>2014</v>
       </c>
-      <c r="BG9" s="31"/>
-      <c r="BH9" s="31"/>
-      <c r="BI9" s="31"/>
-      <c r="BJ9" s="31">
+      <c r="BG9" s="45"/>
+      <c r="BH9" s="45"/>
+      <c r="BI9" s="45"/>
+      <c r="BJ9" s="45">
         <v>2015</v>
       </c>
-      <c r="BK9" s="31"/>
-      <c r="BL9" s="31"/>
-      <c r="BM9" s="31"/>
-      <c r="BN9" s="31">
+      <c r="BK9" s="45"/>
+      <c r="BL9" s="45"/>
+      <c r="BM9" s="45"/>
+      <c r="BN9" s="45">
         <v>2016</v>
       </c>
-      <c r="BO9" s="31"/>
-      <c r="BP9" s="31"/>
-      <c r="BQ9" s="31"/>
-      <c r="BR9" s="31">
+      <c r="BO9" s="45"/>
+      <c r="BP9" s="45"/>
+      <c r="BQ9" s="45"/>
+      <c r="BR9" s="45">
         <v>2017</v>
       </c>
-      <c r="BS9" s="31"/>
-      <c r="BT9" s="31"/>
-      <c r="BU9" s="31"/>
-      <c r="BV9" s="31">
+      <c r="BS9" s="45"/>
+      <c r="BT9" s="45"/>
+      <c r="BU9" s="45"/>
+      <c r="BV9" s="45">
         <v>2018</v>
       </c>
-      <c r="BW9" s="31"/>
-      <c r="BX9" s="31"/>
-      <c r="BY9" s="31"/>
-      <c r="BZ9" s="31">
+      <c r="BW9" s="45"/>
+      <c r="BX9" s="45"/>
+      <c r="BY9" s="45"/>
+      <c r="BZ9" s="45">
         <v>2019</v>
       </c>
-      <c r="CA9" s="31"/>
-      <c r="CB9" s="31"/>
-      <c r="CC9" s="31"/>
-      <c r="CD9" s="31">
+      <c r="CA9" s="45"/>
+      <c r="CB9" s="45"/>
+      <c r="CC9" s="45"/>
+      <c r="CD9" s="45">
         <v>2020</v>
       </c>
-      <c r="CE9" s="31"/>
-      <c r="CF9" s="31"/>
-      <c r="CG9" s="31"/>
-      <c r="CH9" s="31">
+      <c r="CE9" s="45"/>
+      <c r="CF9" s="45"/>
+      <c r="CG9" s="45"/>
+      <c r="CH9" s="29">
         <v>2021</v>
       </c>
-      <c r="CI9" s="31"/>
-      <c r="CJ9" s="31"/>
-      <c r="CK9" s="31"/>
-      <c r="CL9" s="30">
+      <c r="CI9" s="29"/>
+      <c r="CJ9" s="29"/>
+      <c r="CK9" s="29"/>
+      <c r="CL9" s="29">
         <v>2022</v>
       </c>
-      <c r="CM9" s="30"/>
-      <c r="CN9" s="30"/>
-      <c r="CO9" s="30"/>
-      <c r="CP9" s="30">
+      <c r="CM9" s="29"/>
+      <c r="CN9" s="29"/>
+      <c r="CO9" s="29"/>
+      <c r="CP9" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="30"/>
-      <c r="CR9" s="30"/>
-      <c r="CS9" s="30"/>
+      <c r="CQ9" s="31"/>
+      <c r="CR9" s="31"/>
+      <c r="CS9" s="31"/>
+      <c r="CT9" s="31">
+        <v>2024</v>
+      </c>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24110,17 +24136,20 @@
       <c r="CO10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CR10" s="6" t="s">
+      <c r="CR10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CS10" s="6" t="s">
+      <c r="CS10" s="32" t="s">
         <v>8</v>
+      </c>
+      <c r="CT10" s="32" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24395,30 +24424,32 @@
         <v>259490.65451354504</v>
       </c>
       <c r="CL12" s="25">
-        <v>164307.15015984167</v>
+        <v>165564.67137220426</v>
       </c>
       <c r="CM12" s="25">
-        <v>546170.86620424606</v>
+        <v>546602.82103515987</v>
       </c>
       <c r="CN12" s="25">
-        <v>249542.34708000725</v>
+        <v>249461.07785786226</v>
       </c>
       <c r="CO12" s="25">
-        <v>302775.061641315</v>
-      </c>
-      <c r="CP12" s="25">
-        <v>180848.80571287472</v>
-      </c>
-      <c r="CQ12" s="25">
-        <v>570572.97465318709</v>
-      </c>
-      <c r="CR12" s="25">
-        <v>328083.40635523229</v>
-      </c>
-      <c r="CS12" s="25">
-        <v>355193.73011114</v>
-      </c>
-      <c r="CT12" s="9"/>
+        <v>300814.73704605724</v>
+      </c>
+      <c r="CP12" s="33">
+        <v>179944.39226853289</v>
+      </c>
+      <c r="CQ12" s="33">
+        <v>570474.25909519638</v>
+      </c>
+      <c r="CR12" s="33">
+        <v>327894.96726864023</v>
+      </c>
+      <c r="CS12" s="33">
+        <v>353524.08954811259</v>
+      </c>
+      <c r="CT12" s="33">
+        <v>205664.3661901145</v>
+      </c>
       <c r="CU12" s="9"/>
       <c r="CV12" s="9"/>
       <c r="CW12" s="9"/>
@@ -24719,30 +24750,32 @@
         <v>229849.15911087734</v>
       </c>
       <c r="CL13" s="25">
-        <v>251697.28905062028</v>
+        <v>255149.4399606045</v>
       </c>
       <c r="CM13" s="25">
-        <v>253942.27823452008</v>
+        <v>250946.0540918714</v>
       </c>
       <c r="CN13" s="25">
-        <v>285215.15381217585</v>
+        <v>283771.61564464087</v>
       </c>
       <c r="CO13" s="25">
-        <v>265700.85671616852</v>
-      </c>
-      <c r="CP13" s="25">
-        <v>318678.11105415632</v>
-      </c>
-      <c r="CQ13" s="25">
-        <v>291298.81718188844</v>
-      </c>
-      <c r="CR13" s="25">
-        <v>303926.79697157384</v>
-      </c>
-      <c r="CS13" s="25">
-        <v>285674.70341689343</v>
-      </c>
-      <c r="CT13" s="9"/>
+        <v>268855.25874604005</v>
+      </c>
+      <c r="CP13" s="33">
+        <v>318866.50147869712</v>
+      </c>
+      <c r="CQ13" s="33">
+        <v>291749.48898637982</v>
+      </c>
+      <c r="CR13" s="33">
+        <v>304820.43348153739</v>
+      </c>
+      <c r="CS13" s="33">
+        <v>285390.52088677022</v>
+      </c>
+      <c r="CT13" s="33">
+        <v>346568.84512678382</v>
+      </c>
       <c r="CU13" s="9"/>
       <c r="CV13" s="9"/>
       <c r="CW13" s="9"/>
@@ -25043,30 +25076,32 @@
         <v>225042.65292351373</v>
       </c>
       <c r="CL14" s="25">
-        <v>196996.8030961217</v>
+        <v>192134.17846647394</v>
       </c>
       <c r="CM14" s="25">
-        <v>233014.08350677649</v>
+        <v>236905.68818962818</v>
       </c>
       <c r="CN14" s="25">
-        <v>224128.73720645937</v>
+        <v>226600.66972309447</v>
       </c>
       <c r="CO14" s="25">
-        <v>260155.91178712202</v>
-      </c>
-      <c r="CP14" s="25">
-        <v>235310.47459070696</v>
-      </c>
-      <c r="CQ14" s="25">
-        <v>233665.95785120793</v>
-      </c>
-      <c r="CR14" s="25">
-        <v>249397.8109571361</v>
-      </c>
-      <c r="CS14" s="25">
-        <v>291442.67021524668</v>
-      </c>
-      <c r="CT14" s="9"/>
+        <v>258606.89244976532</v>
+      </c>
+      <c r="CP14" s="33">
+        <v>236289.09378167888</v>
+      </c>
+      <c r="CQ14" s="33">
+        <v>233787.3192249446</v>
+      </c>
+      <c r="CR14" s="33">
+        <v>249987.64409342629</v>
+      </c>
+      <c r="CS14" s="33">
+        <v>292231.54355216632</v>
+      </c>
+      <c r="CT14" s="33">
+        <v>246331.57476511211</v>
+      </c>
       <c r="CU14" s="9"/>
       <c r="CV14" s="9"/>
       <c r="CW14" s="9"/>
@@ -25191,11 +25226,11 @@
       <c r="CM15" s="9"/>
       <c r="CN15" s="9"/>
       <c r="CO15" s="9"/>
-      <c r="CP15" s="9"/>
-      <c r="CQ15" s="9"/>
-      <c r="CR15" s="9"/>
-      <c r="CS15" s="9"/>
-      <c r="CT15" s="9"/>
+      <c r="CP15" s="34"/>
+      <c r="CQ15" s="34"/>
+      <c r="CR15" s="34"/>
+      <c r="CS15" s="34"/>
+      <c r="CT15" s="34"/>
       <c r="CU15" s="9"/>
       <c r="CV15" s="9"/>
       <c r="CW15" s="9"/>
@@ -25496,30 +25531,32 @@
         <v>714382.4665479362</v>
       </c>
       <c r="CL16" s="26">
-        <v>613001.24230658356</v>
+        <v>612848.28979928268</v>
       </c>
       <c r="CM16" s="26">
-        <v>1033127.2279455427</v>
+        <v>1034454.5633166594</v>
       </c>
       <c r="CN16" s="26">
-        <v>758886.23809864244</v>
+        <v>759833.36322559754</v>
       </c>
       <c r="CO16" s="26">
-        <v>828631.8301446056</v>
-      </c>
-      <c r="CP16" s="26">
-        <v>734837.39135773806</v>
-      </c>
-      <c r="CQ16" s="26">
-        <v>1095537.7496862835</v>
-      </c>
-      <c r="CR16" s="26">
-        <v>881408.01428394229</v>
-      </c>
-      <c r="CS16" s="26">
-        <v>932311.10374328005</v>
-      </c>
-      <c r="CT16" s="9"/>
+        <v>828276.88824186265</v>
+      </c>
+      <c r="CP16" s="35">
+        <v>735099.98752890888</v>
+      </c>
+      <c r="CQ16" s="35">
+        <v>1096011.0673065209</v>
+      </c>
+      <c r="CR16" s="35">
+        <v>882703.04484360397</v>
+      </c>
+      <c r="CS16" s="35">
+        <v>931146.15398704913</v>
+      </c>
+      <c r="CT16" s="35">
+        <v>798564.78608201048</v>
+      </c>
       <c r="CU16" s="9"/>
       <c r="CV16" s="9"/>
       <c r="CW16" s="9"/>
@@ -25645,10 +25682,11 @@
       <c r="CM17" s="12"/>
       <c r="CN17" s="12"/>
       <c r="CO17" s="12"/>
-      <c r="CP17" s="12"/>
-      <c r="CQ17" s="12"/>
-      <c r="CR17" s="12"/>
-      <c r="CS17" s="12"/>
+      <c r="CP17" s="36"/>
+      <c r="CQ17" s="36"/>
+      <c r="CR17" s="36"/>
+      <c r="CS17" s="36"/>
+      <c r="CT17" s="36"/>
     </row>
     <row r="18" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
@@ -25744,11 +25782,11 @@
       <c r="CM18" s="26"/>
       <c r="CN18" s="26"/>
       <c r="CO18" s="26"/>
-      <c r="CP18" s="26"/>
-      <c r="CQ18" s="26"/>
-      <c r="CR18" s="26"/>
-      <c r="CS18" s="26"/>
-      <c r="CT18" s="9"/>
+      <c r="CP18" s="35"/>
+      <c r="CQ18" s="35"/>
+      <c r="CR18" s="35"/>
+      <c r="CS18" s="35"/>
+      <c r="CT18" s="35"/>
       <c r="CU18" s="9"/>
       <c r="CV18" s="9"/>
       <c r="CW18" s="9"/>
@@ -26049,30 +26087,32 @@
         <v>399601.70931168634</v>
       </c>
       <c r="CL19" s="25">
-        <v>288028.2565183072</v>
+        <v>288926.38499902393</v>
       </c>
       <c r="CM19" s="25">
-        <v>517808.59790224989</v>
+        <v>518309.83854077873</v>
       </c>
       <c r="CN19" s="25">
-        <v>359076.63956197811</v>
+        <v>359406.85484567389</v>
       </c>
       <c r="CO19" s="25">
-        <v>448727.63471485535</v>
-      </c>
-      <c r="CP19" s="25">
-        <v>338809.94468946068</v>
-      </c>
-      <c r="CQ19" s="25">
-        <v>561297.42768259568</v>
-      </c>
-      <c r="CR19" s="25">
-        <v>426062.69519578002</v>
-      </c>
-      <c r="CS19" s="25">
-        <v>505658.23936907097</v>
-      </c>
-      <c r="CT19" s="9"/>
+        <v>448603.54944467149</v>
+      </c>
+      <c r="CP19" s="33">
+        <v>339077.55617626372</v>
+      </c>
+      <c r="CQ19" s="33">
+        <v>561476.16625263379</v>
+      </c>
+      <c r="CR19" s="33">
+        <v>426514.20774832729</v>
+      </c>
+      <c r="CS19" s="33">
+        <v>505656.68919888965</v>
+      </c>
+      <c r="CT19" s="33">
+        <v>368351.7898338426</v>
+      </c>
       <c r="CU19" s="9"/>
       <c r="CV19" s="9"/>
       <c r="CW19" s="9"/>
@@ -26198,10 +26238,11 @@
       <c r="CM20" s="14"/>
       <c r="CN20" s="14"/>
       <c r="CO20" s="14"/>
-      <c r="CP20" s="14"/>
-      <c r="CQ20" s="14"/>
-      <c r="CR20" s="14"/>
-      <c r="CS20" s="14"/>
+      <c r="CP20" s="37"/>
+      <c r="CQ20" s="37"/>
+      <c r="CR20" s="37"/>
+      <c r="CS20" s="37"/>
+      <c r="CT20" s="37"/>
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
@@ -26222,6 +26263,11 @@
       <c r="Y23" s="17"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="9"/>
+      <c r="CP23" s="38"/>
+      <c r="CQ23" s="38"/>
+      <c r="CR23" s="38"/>
+      <c r="CS23" s="38"/>
+      <c r="CT23" s="38"/>
     </row>
     <row r="24" spans="1:128" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G24" s="9"/>
@@ -26232,6 +26278,11 @@
       <c r="Y24" s="17"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="9"/>
+      <c r="CP24" s="38"/>
+      <c r="CQ24" s="38"/>
+      <c r="CR24" s="38"/>
+      <c r="CS24" s="38"/>
+      <c r="CT24" s="38"/>
     </row>
     <row r="25" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -26245,7 +26296,7 @@
     </row>
     <row r="27" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:128" x14ac:dyDescent="0.2">
@@ -26255,7 +26306,7 @@
     </row>
     <row r="30" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:128" x14ac:dyDescent="0.2">
@@ -26265,150 +26316,153 @@
     </row>
     <row r="33" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="31">
+      <c r="B33" s="45">
         <v>2000</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="31">
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="45">
         <v>2001</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="31">
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="45">
         <v>2002</v>
       </c>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="31">
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="45">
         <v>2003</v>
       </c>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="31">
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="45">
         <v>2004</v>
       </c>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="31">
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="45">
         <v>2005</v>
       </c>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="31">
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="45">
         <v>2006</v>
       </c>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="31">
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="45">
         <v>2007</v>
       </c>
-      <c r="AE33" s="32"/>
-      <c r="AF33" s="32"/>
-      <c r="AG33" s="32"/>
-      <c r="AH33" s="31">
+      <c r="AE33" s="46"/>
+      <c r="AF33" s="46"/>
+      <c r="AG33" s="46"/>
+      <c r="AH33" s="45">
         <v>2008</v>
       </c>
-      <c r="AI33" s="32"/>
-      <c r="AJ33" s="32"/>
-      <c r="AK33" s="32"/>
-      <c r="AL33" s="31">
+      <c r="AI33" s="46"/>
+      <c r="AJ33" s="46"/>
+      <c r="AK33" s="46"/>
+      <c r="AL33" s="45">
         <v>2009</v>
       </c>
-      <c r="AM33" s="32"/>
-      <c r="AN33" s="32"/>
-      <c r="AO33" s="32"/>
-      <c r="AP33" s="31">
+      <c r="AM33" s="46"/>
+      <c r="AN33" s="46"/>
+      <c r="AO33" s="46"/>
+      <c r="AP33" s="45">
         <v>2010</v>
       </c>
-      <c r="AQ33" s="32"/>
-      <c r="AR33" s="32"/>
-      <c r="AS33" s="32"/>
-      <c r="AT33" s="31">
+      <c r="AQ33" s="46"/>
+      <c r="AR33" s="46"/>
+      <c r="AS33" s="46"/>
+      <c r="AT33" s="45">
         <v>2011</v>
       </c>
-      <c r="AU33" s="32"/>
-      <c r="AV33" s="32"/>
-      <c r="AW33" s="32"/>
-      <c r="AX33" s="31">
+      <c r="AU33" s="46"/>
+      <c r="AV33" s="46"/>
+      <c r="AW33" s="46"/>
+      <c r="AX33" s="45">
         <v>2012</v>
       </c>
-      <c r="AY33" s="32"/>
-      <c r="AZ33" s="32"/>
-      <c r="BA33" s="32"/>
-      <c r="BB33" s="31">
+      <c r="AY33" s="46"/>
+      <c r="AZ33" s="46"/>
+      <c r="BA33" s="46"/>
+      <c r="BB33" s="45">
         <v>2013</v>
       </c>
-      <c r="BC33" s="32"/>
-      <c r="BD33" s="32"/>
-      <c r="BE33" s="32"/>
-      <c r="BF33" s="31">
+      <c r="BC33" s="46"/>
+      <c r="BD33" s="46"/>
+      <c r="BE33" s="46"/>
+      <c r="BF33" s="45">
         <v>2014</v>
       </c>
-      <c r="BG33" s="32"/>
-      <c r="BH33" s="32"/>
-      <c r="BI33" s="32"/>
-      <c r="BJ33" s="31">
+      <c r="BG33" s="46"/>
+      <c r="BH33" s="46"/>
+      <c r="BI33" s="46"/>
+      <c r="BJ33" s="45">
         <v>2015</v>
       </c>
-      <c r="BK33" s="32"/>
-      <c r="BL33" s="32"/>
-      <c r="BM33" s="32"/>
-      <c r="BN33" s="31">
+      <c r="BK33" s="46"/>
+      <c r="BL33" s="46"/>
+      <c r="BM33" s="46"/>
+      <c r="BN33" s="45">
         <v>2016</v>
       </c>
-      <c r="BO33" s="32"/>
-      <c r="BP33" s="32"/>
-      <c r="BQ33" s="32"/>
-      <c r="BR33" s="31">
+      <c r="BO33" s="46"/>
+      <c r="BP33" s="46"/>
+      <c r="BQ33" s="46"/>
+      <c r="BR33" s="45">
         <v>2017</v>
       </c>
-      <c r="BS33" s="32"/>
-      <c r="BT33" s="32"/>
-      <c r="BU33" s="32"/>
-      <c r="BV33" s="31">
+      <c r="BS33" s="46"/>
+      <c r="BT33" s="46"/>
+      <c r="BU33" s="46"/>
+      <c r="BV33" s="45">
         <v>2018</v>
       </c>
-      <c r="BW33" s="31"/>
-      <c r="BX33" s="31"/>
-      <c r="BY33" s="31"/>
-      <c r="BZ33" s="31">
+      <c r="BW33" s="45"/>
+      <c r="BX33" s="45"/>
+      <c r="BY33" s="45"/>
+      <c r="BZ33" s="45">
         <v>2019</v>
       </c>
-      <c r="CA33" s="31"/>
-      <c r="CB33" s="31"/>
-      <c r="CC33" s="31"/>
-      <c r="CD33" s="31">
+      <c r="CA33" s="45"/>
+      <c r="CB33" s="45"/>
+      <c r="CC33" s="45"/>
+      <c r="CD33" s="45">
         <v>2020</v>
       </c>
-      <c r="CE33" s="31"/>
-      <c r="CF33" s="31"/>
-      <c r="CG33" s="31"/>
-      <c r="CH33" s="31">
+      <c r="CE33" s="45"/>
+      <c r="CF33" s="45"/>
+      <c r="CG33" s="45"/>
+      <c r="CH33" s="29">
         <v>2021</v>
       </c>
-      <c r="CI33" s="31"/>
-      <c r="CJ33" s="31"/>
-      <c r="CK33" s="31"/>
-      <c r="CL33" s="30">
+      <c r="CI33" s="29"/>
+      <c r="CJ33" s="29"/>
+      <c r="CK33" s="29"/>
+      <c r="CL33" s="29">
         <v>2022</v>
       </c>
-      <c r="CM33" s="30"/>
-      <c r="CN33" s="30"/>
-      <c r="CO33" s="30"/>
-      <c r="CP33" s="30">
+      <c r="CM33" s="29"/>
+      <c r="CN33" s="29"/>
+      <c r="CO33" s="29"/>
+      <c r="CP33" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ33" s="30"/>
-      <c r="CR33" s="30"/>
-      <c r="CS33" s="30"/>
+      <c r="CQ33" s="31"/>
+      <c r="CR33" s="31"/>
+      <c r="CS33" s="31"/>
+      <c r="CT33" s="31">
+        <v>2024</v>
+      </c>
     </row>
     <row r="34" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
@@ -26690,17 +26744,20 @@
       <c r="CO34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP34" s="6" t="s">
+      <c r="CP34" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CQ34" s="6" t="s">
+      <c r="CQ34" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CR34" s="6" t="s">
+      <c r="CR34" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CS34" s="6" t="s">
+      <c r="CS34" s="32" t="s">
         <v>8</v>
+      </c>
+      <c r="CT34" s="32" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26975,30 +27032,32 @@
         <v>244301.11990967477</v>
       </c>
       <c r="CL36" s="25">
-        <v>138876.45936565803</v>
+        <v>140010.85447310773</v>
       </c>
       <c r="CM36" s="25">
-        <v>477872.31733643805</v>
+        <v>477079.97165004705</v>
       </c>
       <c r="CN36" s="25">
-        <v>203931.05585814783</v>
+        <v>203439.66433208974</v>
       </c>
       <c r="CO36" s="25">
-        <v>267321.23690688016</v>
-      </c>
-      <c r="CP36" s="25">
-        <v>145971.62645386989</v>
-      </c>
-      <c r="CQ36" s="25">
-        <v>481289.21615361073</v>
-      </c>
-      <c r="CR36" s="25">
-        <v>259418.83846355416</v>
-      </c>
-      <c r="CS36" s="25">
-        <v>306574.64432583906</v>
-      </c>
-      <c r="CT36" s="9"/>
+        <v>266052.41393969115</v>
+      </c>
+      <c r="CP36" s="33">
+        <v>145501.71895947334</v>
+      </c>
+      <c r="CQ36" s="33">
+        <v>481118.07315850136</v>
+      </c>
+      <c r="CR36" s="33">
+        <v>259052.0106511059</v>
+      </c>
+      <c r="CS36" s="33">
+        <v>305806.58509531239</v>
+      </c>
+      <c r="CT36" s="33">
+        <v>163481.96386122241</v>
+      </c>
       <c r="CU36" s="9"/>
       <c r="CV36" s="9"/>
       <c r="CW36" s="9"/>
@@ -27299,30 +27358,32 @@
         <v>207575.77707729724</v>
       </c>
       <c r="CL37" s="25">
-        <v>233945.22608923679</v>
+        <v>237252.49053194208</v>
       </c>
       <c r="CM37" s="25">
-        <v>229061.85258321365</v>
+        <v>225908.77913647139</v>
       </c>
       <c r="CN37" s="25">
-        <v>224132.44939260228</v>
+        <v>222619.94544013651</v>
       </c>
       <c r="CO37" s="25">
-        <v>224802.9152009926</v>
-      </c>
-      <c r="CP37" s="25">
-        <v>282783.15415980428</v>
-      </c>
-      <c r="CQ37" s="25">
-        <v>253614.75393411054</v>
-      </c>
-      <c r="CR37" s="25">
-        <v>231352.42370432083</v>
-      </c>
-      <c r="CS37" s="25">
-        <v>236437.34305238255</v>
-      </c>
-      <c r="CT37" s="9"/>
+        <v>227802.45739331158</v>
+      </c>
+      <c r="CP37" s="33">
+        <v>283362.34676138463</v>
+      </c>
+      <c r="CQ37" s="33">
+        <v>253969.37808522864</v>
+      </c>
+      <c r="CR37" s="33">
+        <v>231873.95870688991</v>
+      </c>
+      <c r="CS37" s="33">
+        <v>236625.62781318676</v>
+      </c>
+      <c r="CT37" s="33">
+        <v>302433.8630269008</v>
+      </c>
       <c r="CU37" s="9"/>
       <c r="CV37" s="9"/>
       <c r="CW37" s="9"/>
@@ -27623,30 +27684,32 @@
         <v>229834.19557939863</v>
       </c>
       <c r="CL38" s="25">
-        <v>162896.04245673135</v>
+        <v>158936.92070002007</v>
       </c>
       <c r="CM38" s="25">
-        <v>198065.43706122765</v>
+        <v>200999.37308415922</v>
       </c>
       <c r="CN38" s="25">
-        <v>183408.53384814513</v>
+        <v>185130.7608970314</v>
       </c>
       <c r="CO38" s="25">
-        <v>248395.60611464089</v>
-      </c>
-      <c r="CP38" s="25">
-        <v>185265.35161465433</v>
-      </c>
-      <c r="CQ38" s="25">
-        <v>191698.36895685486</v>
-      </c>
-      <c r="CR38" s="25">
-        <v>197986.71028274929</v>
-      </c>
-      <c r="CS38" s="25">
-        <v>272268.63681521942</v>
-      </c>
-      <c r="CT38" s="9"/>
+        <v>247240.70191401232</v>
+      </c>
+      <c r="CP38" s="33">
+        <v>186288.48265977591</v>
+      </c>
+      <c r="CQ38" s="33">
+        <v>191771.33576069906</v>
+      </c>
+      <c r="CR38" s="33">
+        <v>198324.98987957049</v>
+      </c>
+      <c r="CS38" s="33">
+        <v>273461.86986307218</v>
+      </c>
+      <c r="CT38" s="33">
+        <v>191057.80915789594</v>
+      </c>
       <c r="CU38" s="9"/>
       <c r="CV38" s="9"/>
       <c r="CW38" s="9"/>
@@ -27771,11 +27834,11 @@
       <c r="CM39" s="9"/>
       <c r="CN39" s="9"/>
       <c r="CO39" s="9"/>
-      <c r="CP39" s="9"/>
-      <c r="CQ39" s="9"/>
-      <c r="CR39" s="9"/>
-      <c r="CS39" s="9"/>
-      <c r="CT39" s="9"/>
+      <c r="CP39" s="34"/>
+      <c r="CQ39" s="34"/>
+      <c r="CR39" s="34"/>
+      <c r="CS39" s="34"/>
+      <c r="CT39" s="34"/>
       <c r="CU39" s="9"/>
       <c r="CV39" s="9"/>
       <c r="CW39" s="9"/>
@@ -28076,30 +28139,32 @@
         <v>681711.09256637061</v>
       </c>
       <c r="CL40" s="26">
-        <v>535717.72791162611</v>
+        <v>536200.26570506988</v>
       </c>
       <c r="CM40" s="26">
-        <v>904999.60698087933</v>
+        <v>903988.12387067766</v>
       </c>
       <c r="CN40" s="26">
-        <v>611472.03909889527</v>
+        <v>611190.37066925759</v>
       </c>
       <c r="CO40" s="26">
-        <v>740519.7582225136</v>
-      </c>
-      <c r="CP40" s="26">
-        <v>614020.1322283285</v>
-      </c>
-      <c r="CQ40" s="26">
-        <v>926602.33904457605</v>
-      </c>
-      <c r="CR40" s="26">
-        <v>688757.97245062422</v>
-      </c>
-      <c r="CS40" s="26">
-        <v>815280.62419344101</v>
-      </c>
-      <c r="CT40" s="9"/>
+        <v>741095.57324701501</v>
+      </c>
+      <c r="CP40" s="35">
+        <v>615152.54838063382</v>
+      </c>
+      <c r="CQ40" s="35">
+        <v>926858.78700442915</v>
+      </c>
+      <c r="CR40" s="35">
+        <v>689250.95923756622</v>
+      </c>
+      <c r="CS40" s="35">
+        <v>815894.08277157135</v>
+      </c>
+      <c r="CT40" s="35">
+        <v>656973.63604601915</v>
+      </c>
       <c r="CU40" s="9"/>
       <c r="CV40" s="9"/>
       <c r="CW40" s="9"/>
@@ -28225,10 +28290,11 @@
       <c r="CM41" s="12"/>
       <c r="CN41" s="12"/>
       <c r="CO41" s="12"/>
-      <c r="CP41" s="12"/>
-      <c r="CQ41" s="12"/>
-      <c r="CR41" s="12"/>
-      <c r="CS41" s="12"/>
+      <c r="CP41" s="36"/>
+      <c r="CQ41" s="36"/>
+      <c r="CR41" s="36"/>
+      <c r="CS41" s="36"/>
+      <c r="CT41" s="36"/>
     </row>
     <row r="42" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
@@ -28324,11 +28390,11 @@
       <c r="CM42" s="26"/>
       <c r="CN42" s="26"/>
       <c r="CO42" s="26"/>
-      <c r="CP42" s="26"/>
-      <c r="CQ42" s="26"/>
-      <c r="CR42" s="26"/>
-      <c r="CS42" s="26"/>
-      <c r="CT42" s="9"/>
+      <c r="CP42" s="35"/>
+      <c r="CQ42" s="35"/>
+      <c r="CR42" s="35"/>
+      <c r="CS42" s="35"/>
+      <c r="CT42" s="35"/>
       <c r="CU42" s="9"/>
       <c r="CV42" s="9"/>
       <c r="CW42" s="9"/>
@@ -28629,30 +28695,32 @@
         <v>386621.50166269159</v>
       </c>
       <c r="CL43" s="25">
-        <v>253019.28406263766</v>
+        <v>253765.42710121541</v>
       </c>
       <c r="CM43" s="25">
-        <v>412342.41444169602</v>
+        <v>411644.68470150291</v>
       </c>
       <c r="CN43" s="25">
-        <v>309043.48487735365</v>
+        <v>308206.72315183107</v>
       </c>
       <c r="CO43" s="25">
-        <v>410453.91399094043</v>
-      </c>
-      <c r="CP43" s="25">
-        <v>281127.5444927215</v>
-      </c>
-      <c r="CQ43" s="25">
-        <v>427226.71097891132</v>
-      </c>
-      <c r="CR43" s="25">
-        <v>352794.94123744679</v>
-      </c>
-      <c r="CS43" s="25">
-        <v>445138.0371732621</v>
-      </c>
-      <c r="CT43" s="9"/>
+        <v>411569.02246082551</v>
+      </c>
+      <c r="CP43" s="33">
+        <v>281780.28268736938</v>
+      </c>
+      <c r="CQ43" s="33">
+        <v>426094.14822213619</v>
+      </c>
+      <c r="CR43" s="33">
+        <v>352820.30528717284</v>
+      </c>
+      <c r="CS43" s="33">
+        <v>446089.39704466867</v>
+      </c>
+      <c r="CT43" s="33">
+        <v>301556.90513083135</v>
+      </c>
       <c r="CU43" s="9"/>
       <c r="CV43" s="9"/>
       <c r="CW43" s="9"/>
@@ -28778,10 +28846,11 @@
       <c r="CM44" s="14"/>
       <c r="CN44" s="14"/>
       <c r="CO44" s="14"/>
-      <c r="CP44" s="14"/>
-      <c r="CQ44" s="14"/>
-      <c r="CR44" s="14"/>
-      <c r="CS44" s="14"/>
+      <c r="CP44" s="37"/>
+      <c r="CQ44" s="37"/>
+      <c r="CR44" s="37"/>
+      <c r="CS44" s="37"/>
+      <c r="CT44" s="37"/>
     </row>
     <row r="45" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
@@ -28886,11 +28955,11 @@
       <c r="CM47" s="9"/>
       <c r="CN47" s="9"/>
       <c r="CO47" s="9"/>
-      <c r="CP47" s="9"/>
-      <c r="CQ47" s="9"/>
-      <c r="CR47" s="9"/>
-      <c r="CS47" s="9"/>
-      <c r="CT47" s="9"/>
+      <c r="CP47" s="34"/>
+      <c r="CQ47" s="34"/>
+      <c r="CR47" s="34"/>
+      <c r="CS47" s="34"/>
+      <c r="CT47" s="34"/>
       <c r="CU47" s="9"/>
       <c r="CV47" s="9"/>
       <c r="CW47" s="9"/>
@@ -29015,11 +29084,11 @@
       <c r="CM48" s="9"/>
       <c r="CN48" s="9"/>
       <c r="CO48" s="9"/>
-      <c r="CP48" s="9"/>
-      <c r="CQ48" s="9"/>
-      <c r="CR48" s="9"/>
-      <c r="CS48" s="9"/>
-      <c r="CT48" s="9"/>
+      <c r="CP48" s="34"/>
+      <c r="CQ48" s="34"/>
+      <c r="CR48" s="34"/>
+      <c r="CS48" s="34"/>
+      <c r="CT48" s="34"/>
       <c r="CU48" s="9"/>
       <c r="CV48" s="9"/>
       <c r="CW48" s="9"/>
@@ -29063,7 +29132,7 @@
     </row>
     <row r="51" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:120" x14ac:dyDescent="0.2">
@@ -29076,7 +29145,7 @@
     </row>
     <row r="54" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:120" x14ac:dyDescent="0.2">
@@ -29086,148 +29155,151 @@
     </row>
     <row r="57" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31" t="s">
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31" t="s">
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31" t="s">
+      <c r="K57" s="45"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="31" t="s">
+      <c r="O57" s="45"/>
+      <c r="P57" s="45"/>
+      <c r="Q57" s="45"/>
+      <c r="R57" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="S57" s="31"/>
-      <c r="T57" s="31"/>
-      <c r="U57" s="31"/>
-      <c r="V57" s="31" t="s">
+      <c r="S57" s="45"/>
+      <c r="T57" s="45"/>
+      <c r="U57" s="45"/>
+      <c r="V57" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="W57" s="31"/>
-      <c r="X57" s="31"/>
-      <c r="Y57" s="31"/>
-      <c r="Z57" s="31" t="s">
+      <c r="W57" s="45"/>
+      <c r="X57" s="45"/>
+      <c r="Y57" s="45"/>
+      <c r="Z57" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="AA57" s="31"/>
-      <c r="AB57" s="31"/>
-      <c r="AC57" s="31"/>
-      <c r="AD57" s="31" t="s">
+      <c r="AA57" s="45"/>
+      <c r="AB57" s="45"/>
+      <c r="AC57" s="45"/>
+      <c r="AD57" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="AE57" s="31"/>
-      <c r="AF57" s="31"/>
-      <c r="AG57" s="31"/>
-      <c r="AH57" s="31" t="s">
+      <c r="AE57" s="45"/>
+      <c r="AF57" s="45"/>
+      <c r="AG57" s="45"/>
+      <c r="AH57" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="AI57" s="31"/>
-      <c r="AJ57" s="31"/>
-      <c r="AK57" s="31"/>
-      <c r="AL57" s="31" t="s">
+      <c r="AI57" s="45"/>
+      <c r="AJ57" s="45"/>
+      <c r="AK57" s="45"/>
+      <c r="AL57" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AM57" s="31"/>
-      <c r="AN57" s="31"/>
-      <c r="AO57" s="31"/>
-      <c r="AP57" s="31" t="s">
+      <c r="AM57" s="45"/>
+      <c r="AN57" s="45"/>
+      <c r="AO57" s="45"/>
+      <c r="AP57" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="AQ57" s="31"/>
-      <c r="AR57" s="31"/>
-      <c r="AS57" s="31"/>
-      <c r="AT57" s="31" t="s">
+      <c r="AQ57" s="45"/>
+      <c r="AR57" s="45"/>
+      <c r="AS57" s="45"/>
+      <c r="AT57" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="AU57" s="31"/>
-      <c r="AV57" s="31"/>
-      <c r="AW57" s="31"/>
-      <c r="AX57" s="31" t="s">
+      <c r="AU57" s="45"/>
+      <c r="AV57" s="45"/>
+      <c r="AW57" s="45"/>
+      <c r="AX57" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="AY57" s="31"/>
-      <c r="AZ57" s="31"/>
-      <c r="BA57" s="31"/>
-      <c r="BB57" s="31" t="s">
+      <c r="AY57" s="45"/>
+      <c r="AZ57" s="45"/>
+      <c r="BA57" s="45"/>
+      <c r="BB57" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="BC57" s="31"/>
-      <c r="BD57" s="31"/>
-      <c r="BE57" s="31"/>
-      <c r="BF57" s="31" t="s">
+      <c r="BC57" s="45"/>
+      <c r="BD57" s="45"/>
+      <c r="BE57" s="45"/>
+      <c r="BF57" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="BG57" s="31"/>
-      <c r="BH57" s="31"/>
-      <c r="BI57" s="31"/>
-      <c r="BJ57" s="31" t="s">
+      <c r="BG57" s="45"/>
+      <c r="BH57" s="45"/>
+      <c r="BI57" s="45"/>
+      <c r="BJ57" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="BK57" s="31"/>
-      <c r="BL57" s="31"/>
-      <c r="BM57" s="31"/>
-      <c r="BN57" s="31" t="s">
+      <c r="BK57" s="45"/>
+      <c r="BL57" s="45"/>
+      <c r="BM57" s="45"/>
+      <c r="BN57" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="BO57" s="31"/>
-      <c r="BP57" s="31"/>
-      <c r="BQ57" s="31"/>
-      <c r="BR57" s="31" t="s">
+      <c r="BO57" s="45"/>
+      <c r="BP57" s="45"/>
+      <c r="BQ57" s="45"/>
+      <c r="BR57" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="BS57" s="31"/>
-      <c r="BT57" s="31"/>
-      <c r="BU57" s="31"/>
-      <c r="BV57" s="31" t="s">
+      <c r="BS57" s="45"/>
+      <c r="BT57" s="45"/>
+      <c r="BU57" s="45"/>
+      <c r="BV57" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="BW57" s="31"/>
-      <c r="BX57" s="31"/>
-      <c r="BY57" s="31"/>
-      <c r="BZ57" s="31" t="s">
+      <c r="BW57" s="45"/>
+      <c r="BX57" s="45"/>
+      <c r="BY57" s="45"/>
+      <c r="BZ57" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="CA57" s="31"/>
-      <c r="CB57" s="31"/>
-      <c r="CC57" s="31"/>
-      <c r="CD57" s="31" t="s">
+      <c r="CA57" s="45"/>
+      <c r="CB57" s="45"/>
+      <c r="CC57" s="45"/>
+      <c r="CD57" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="CE57" s="31"/>
-      <c r="CF57" s="31"/>
-      <c r="CG57" s="31"/>
-      <c r="CH57" s="31" t="s">
+      <c r="CE57" s="45"/>
+      <c r="CF57" s="45"/>
+      <c r="CG57" s="45"/>
+      <c r="CH57" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="CI57" s="31"/>
-      <c r="CJ57" s="31"/>
-      <c r="CK57" s="31"/>
-      <c r="CL57" s="30" t="s">
+      <c r="CI57" s="29"/>
+      <c r="CJ57" s="29"/>
+      <c r="CK57" s="29"/>
+      <c r="CL57" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="CM57" s="30"/>
-      <c r="CN57" s="30"/>
-      <c r="CO57" s="30"/>
-      <c r="CP57" s="29"/>
-      <c r="CQ57" s="29"/>
-      <c r="CR57" s="29"/>
-      <c r="CS57" s="29"/>
+      <c r="CM57" s="29"/>
+      <c r="CN57" s="29"/>
+      <c r="CO57" s="29"/>
+      <c r="CP57" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="CQ57" s="39"/>
+      <c r="CR57" s="39"/>
+      <c r="CS57" s="39"/>
+      <c r="CT57" s="39"/>
     </row>
     <row r="58" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
@@ -29509,10 +29581,13 @@
       <c r="CO58" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CP58" s="5"/>
-      <c r="CQ58" s="5"/>
-      <c r="CR58" s="5"/>
-      <c r="CS58" s="5"/>
+      <c r="CP58" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="CQ58" s="40"/>
+      <c r="CR58" s="40"/>
+      <c r="CS58" s="40"/>
+      <c r="CT58" s="40"/>
     </row>
     <row r="59" spans="1:120" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
@@ -29774,34 +29849,36 @@
         <v>23.38408642171423</v>
       </c>
       <c r="CH60" s="27">
-        <v>-2.0951861453557257</v>
+        <v>-1.3458737746228877</v>
       </c>
       <c r="CI60" s="27">
-        <v>34.458605911374207</v>
+        <v>34.564946340670616</v>
       </c>
       <c r="CJ60" s="27">
-        <v>19.870120316505393</v>
+        <v>19.831081846480018</v>
       </c>
       <c r="CK60" s="27">
-        <v>16.680526398499083</v>
+        <v>15.925075455985322</v>
       </c>
       <c r="CL60" s="27">
-        <v>10.067520212565896</v>
+        <v>8.6852592265905173</v>
       </c>
       <c r="CM60" s="27">
-        <v>4.4678524540369153</v>
+        <v>4.3672365273982052</v>
       </c>
       <c r="CN60" s="27">
-        <v>31.474040456164943</v>
+        <v>31.441333487490169</v>
       </c>
       <c r="CO60" s="27">
-        <v>17.312743059374952</v>
-      </c>
-      <c r="CP60" s="27"/>
-      <c r="CQ60" s="27"/>
-      <c r="CR60" s="27"/>
-      <c r="CS60" s="27"/>
-      <c r="CT60" s="9"/>
+        <v>17.52219755576175</v>
+      </c>
+      <c r="CP60" s="41">
+        <v>14.293290053295692</v>
+      </c>
+      <c r="CQ60" s="41"/>
+      <c r="CR60" s="41"/>
+      <c r="CS60" s="41"/>
+      <c r="CT60" s="41"/>
       <c r="CU60" s="9"/>
       <c r="CV60" s="9"/>
       <c r="CW60" s="9"/>
@@ -30082,34 +30159,36 @@
         <v>10.016340474934054</v>
       </c>
       <c r="CH61" s="27">
-        <v>35.863728350190087</v>
+        <v>37.727165557746304</v>
       </c>
       <c r="CI61" s="27">
-        <v>22.127303232421937</v>
+        <v>20.686342802494522</v>
       </c>
       <c r="CJ61" s="27">
-        <v>25.443670148049293</v>
+        <v>24.808771464322163</v>
       </c>
       <c r="CK61" s="27">
-        <v>15.59792419688452</v>
+        <v>16.970303387686741</v>
       </c>
       <c r="CL61" s="27">
-        <v>26.611658097781572</v>
+        <v>24.972448118220683</v>
       </c>
       <c r="CM61" s="27">
-        <v>14.710641806902643</v>
+        <v>16.259843193059439</v>
       </c>
       <c r="CN61" s="27">
-        <v>6.5605361108268028</v>
+        <v>7.4175205258215016</v>
       </c>
       <c r="CO61" s="27">
-        <v>7.5174190055629708</v>
-      </c>
-      <c r="CP61" s="27"/>
-      <c r="CQ61" s="27"/>
-      <c r="CR61" s="27"/>
-      <c r="CS61" s="27"/>
-      <c r="CT61" s="9"/>
+        <v>6.1502468718119161</v>
+      </c>
+      <c r="CP61" s="41">
+        <v>8.6877560106254776</v>
+      </c>
+      <c r="CQ61" s="41"/>
+      <c r="CR61" s="41"/>
+      <c r="CS61" s="41"/>
+      <c r="CT61" s="41"/>
       <c r="CU61" s="9"/>
       <c r="CV61" s="9"/>
       <c r="CW61" s="9"/>
@@ -30390,34 +30469,36 @@
         <v>29.398004917086723</v>
       </c>
       <c r="CH62" s="27">
-        <v>26.052252556370732</v>
+        <v>22.940807201574231</v>
       </c>
       <c r="CI62" s="27">
-        <v>8.6155248515896545</v>
+        <v>10.429529733962141</v>
       </c>
       <c r="CJ62" s="27">
-        <v>15.630293695979034</v>
+        <v>16.905588807430377</v>
       </c>
       <c r="CK62" s="27">
-        <v>15.602935002522571</v>
+        <v>14.914612448005229</v>
       </c>
       <c r="CL62" s="27">
-        <v>19.448879825674467</v>
+        <v>22.981291339015812</v>
       </c>
       <c r="CM62" s="27">
-        <v>0.27975748702438352</v>
+        <v>-1.3162913007760011</v>
       </c>
       <c r="CN62" s="27">
-        <v>11.274356901141047</v>
+        <v>10.320787841850006</v>
       </c>
       <c r="CO62" s="27">
-        <v>12.026157012232616</v>
-      </c>
-      <c r="CP62" s="27"/>
-      <c r="CQ62" s="27"/>
-      <c r="CR62" s="27"/>
-      <c r="CS62" s="27"/>
-      <c r="CT62" s="9"/>
+        <v>13.002225417844443</v>
+      </c>
+      <c r="CP62" s="41">
+        <v>4.2500823134528787</v>
+      </c>
+      <c r="CQ62" s="41"/>
+      <c r="CR62" s="41"/>
+      <c r="CS62" s="41"/>
+      <c r="CT62" s="41"/>
       <c r="CU62" s="9"/>
       <c r="CV62" s="9"/>
       <c r="CW62" s="9"/>
@@ -30534,11 +30615,11 @@
       <c r="CM63" s="20"/>
       <c r="CN63" s="20"/>
       <c r="CO63" s="20"/>
-      <c r="CP63" s="20"/>
-      <c r="CQ63" s="20"/>
-      <c r="CR63" s="20"/>
-      <c r="CS63" s="20"/>
-      <c r="CT63" s="9"/>
+      <c r="CP63" s="42"/>
+      <c r="CQ63" s="42"/>
+      <c r="CR63" s="42"/>
+      <c r="CS63" s="42"/>
+      <c r="CT63" s="42"/>
       <c r="CU63" s="9"/>
       <c r="CV63" s="9"/>
       <c r="CW63" s="9"/>
@@ -30819,34 +30900,36 @@
         <v>20.438933201143541</v>
       </c>
       <c r="CH64" s="27">
-        <v>20.346782907631834</v>
+        <v>20.316754677799764</v>
       </c>
       <c r="CI64" s="27">
-        <v>24.673907965512541</v>
+        <v>24.834085805590433</v>
       </c>
       <c r="CJ64" s="27">
-        <v>20.577832291915314</v>
+        <v>20.728319003867796</v>
       </c>
       <c r="CK64" s="27">
-        <v>15.992744635622032</v>
+        <v>15.943059499247099</v>
       </c>
       <c r="CL64" s="27">
-        <v>19.875351082929768</v>
+        <v>19.948117627882354</v>
       </c>
       <c r="CM64" s="27">
-        <v>6.0409328156851814</v>
+        <v>5.9506242393575519</v>
       </c>
       <c r="CN64" s="27">
-        <v>16.144946374607215</v>
+        <v>16.170608920935976</v>
       </c>
       <c r="CO64" s="27">
-        <v>12.512103666182028</v>
-      </c>
-      <c r="CP64" s="27"/>
-      <c r="CQ64" s="27"/>
-      <c r="CR64" s="27"/>
-      <c r="CS64" s="27"/>
-      <c r="CT64" s="9"/>
+        <v>12.419671151701621</v>
+      </c>
+      <c r="CP64" s="41">
+        <v>8.633491991537511</v>
+      </c>
+      <c r="CQ64" s="41"/>
+      <c r="CR64" s="41"/>
+      <c r="CS64" s="41"/>
+      <c r="CT64" s="41"/>
       <c r="CU64" s="9"/>
       <c r="CV64" s="9"/>
       <c r="CW64" s="9"/>
@@ -30964,10 +31047,11 @@
       <c r="CM65" s="23"/>
       <c r="CN65" s="23"/>
       <c r="CO65" s="23"/>
-      <c r="CP65" s="23"/>
-      <c r="CQ65" s="23"/>
-      <c r="CR65" s="23"/>
-      <c r="CS65" s="23"/>
+      <c r="CP65" s="43"/>
+      <c r="CQ65" s="43"/>
+      <c r="CR65" s="43"/>
+      <c r="CS65" s="43"/>
+      <c r="CT65" s="43"/>
     </row>
     <row r="66" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
@@ -31063,11 +31147,11 @@
       <c r="CM66" s="27"/>
       <c r="CN66" s="27"/>
       <c r="CO66" s="27"/>
-      <c r="CP66" s="27"/>
-      <c r="CQ66" s="27"/>
-      <c r="CR66" s="27"/>
-      <c r="CS66" s="27"/>
-      <c r="CT66" s="9"/>
+      <c r="CP66" s="41"/>
+      <c r="CQ66" s="41"/>
+      <c r="CR66" s="41"/>
+      <c r="CS66" s="41"/>
+      <c r="CT66" s="41"/>
       <c r="CU66" s="9"/>
       <c r="CV66" s="9"/>
       <c r="CW66" s="9"/>
@@ -31348,34 +31432,36 @@
         <v>23.706761186364659</v>
       </c>
       <c r="CH67" s="27">
-        <v>22.303786435272556</v>
+        <v>22.685153580374291</v>
       </c>
       <c r="CI67" s="27">
-        <v>26.886437006620369</v>
+        <v>27.009263547090171</v>
       </c>
       <c r="CJ67" s="27">
-        <v>18.071947726786746</v>
+        <v>18.180529453970877</v>
       </c>
       <c r="CK67" s="27">
-        <v>12.293722538822067</v>
+        <v>12.262670301733891</v>
       </c>
       <c r="CL67" s="27">
-        <v>17.630800805797236</v>
+        <v>17.357767854053634</v>
       </c>
       <c r="CM67" s="27">
-        <v>8.3986302963156731</v>
+        <v>8.3282863843339641</v>
       </c>
       <c r="CN67" s="27">
-        <v>18.65508592135518</v>
+        <v>18.671695321857086</v>
       </c>
       <c r="CO67" s="27">
-        <v>12.687118031050673</v>
-      </c>
-      <c r="CP67" s="27"/>
-      <c r="CQ67" s="27"/>
-      <c r="CR67" s="27"/>
-      <c r="CS67" s="27"/>
-      <c r="CT67" s="9"/>
+        <v>12.717942117231246</v>
+      </c>
+      <c r="CP67" s="41">
+        <v>8.6334919915375394</v>
+      </c>
+      <c r="CQ67" s="41"/>
+      <c r="CR67" s="41"/>
+      <c r="CS67" s="41"/>
+      <c r="CT67" s="41"/>
       <c r="CU67" s="9"/>
       <c r="CV67" s="9"/>
       <c r="CW67" s="9"/>
@@ -31493,10 +31579,11 @@
       <c r="CM68" s="14"/>
       <c r="CN68" s="14"/>
       <c r="CO68" s="14"/>
-      <c r="CP68" s="14"/>
-      <c r="CQ68" s="14"/>
-      <c r="CR68" s="14"/>
-      <c r="CS68" s="14"/>
+      <c r="CP68" s="37"/>
+      <c r="CQ68" s="37"/>
+      <c r="CR68" s="37"/>
+      <c r="CS68" s="37"/>
+      <c r="CT68" s="37"/>
     </row>
     <row r="69" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
@@ -31601,11 +31688,11 @@
       <c r="CM71" s="9"/>
       <c r="CN71" s="9"/>
       <c r="CO71" s="9"/>
-      <c r="CP71" s="9"/>
-      <c r="CQ71" s="9"/>
-      <c r="CR71" s="9"/>
-      <c r="CS71" s="9"/>
-      <c r="CT71" s="9"/>
+      <c r="CP71" s="34"/>
+      <c r="CQ71" s="34"/>
+      <c r="CR71" s="34"/>
+      <c r="CS71" s="34"/>
+      <c r="CT71" s="34"/>
       <c r="CU71" s="9"/>
       <c r="CV71" s="9"/>
       <c r="CW71" s="9"/>
@@ -31722,11 +31809,11 @@
       <c r="CM72" s="9"/>
       <c r="CN72" s="9"/>
       <c r="CO72" s="9"/>
-      <c r="CP72" s="9"/>
-      <c r="CQ72" s="9"/>
-      <c r="CR72" s="9"/>
-      <c r="CS72" s="9"/>
-      <c r="CT72" s="9"/>
+      <c r="CP72" s="34"/>
+      <c r="CQ72" s="34"/>
+      <c r="CR72" s="34"/>
+      <c r="CS72" s="34"/>
+      <c r="CT72" s="34"/>
       <c r="CU72" s="9"/>
       <c r="CV72" s="9"/>
       <c r="CW72" s="9"/>
@@ -31762,7 +31849,7 @@
     </row>
     <row r="75" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:120" x14ac:dyDescent="0.2">
@@ -31772,7 +31859,7 @@
     </row>
     <row r="78" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:120" x14ac:dyDescent="0.2">
@@ -31782,148 +31869,151 @@
     </row>
     <row r="81" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="31" t="s">
+      <c r="C81" s="46"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="G81" s="32"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="32"/>
-      <c r="J81" s="31" t="s">
+      <c r="G81" s="46"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="K81" s="32"/>
-      <c r="L81" s="32"/>
-      <c r="M81" s="32"/>
-      <c r="N81" s="31" t="s">
+      <c r="K81" s="46"/>
+      <c r="L81" s="46"/>
+      <c r="M81" s="46"/>
+      <c r="N81" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O81" s="32"/>
-      <c r="P81" s="32"/>
-      <c r="Q81" s="32"/>
-      <c r="R81" s="31" t="s">
+      <c r="O81" s="46"/>
+      <c r="P81" s="46"/>
+      <c r="Q81" s="46"/>
+      <c r="R81" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="S81" s="32"/>
-      <c r="T81" s="32"/>
-      <c r="U81" s="32"/>
-      <c r="V81" s="31" t="s">
+      <c r="S81" s="46"/>
+      <c r="T81" s="46"/>
+      <c r="U81" s="46"/>
+      <c r="V81" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="W81" s="32"/>
-      <c r="X81" s="32"/>
-      <c r="Y81" s="32"/>
-      <c r="Z81" s="31" t="s">
+      <c r="W81" s="46"/>
+      <c r="X81" s="46"/>
+      <c r="Y81" s="46"/>
+      <c r="Z81" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="AA81" s="32"/>
-      <c r="AB81" s="32"/>
-      <c r="AC81" s="32"/>
-      <c r="AD81" s="31" t="s">
+      <c r="AA81" s="46"/>
+      <c r="AB81" s="46"/>
+      <c r="AC81" s="46"/>
+      <c r="AD81" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="AE81" s="32"/>
-      <c r="AF81" s="32"/>
-      <c r="AG81" s="32"/>
-      <c r="AH81" s="31" t="s">
+      <c r="AE81" s="46"/>
+      <c r="AF81" s="46"/>
+      <c r="AG81" s="46"/>
+      <c r="AH81" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="AI81" s="32"/>
-      <c r="AJ81" s="32"/>
-      <c r="AK81" s="32"/>
-      <c r="AL81" s="31" t="s">
+      <c r="AI81" s="46"/>
+      <c r="AJ81" s="46"/>
+      <c r="AK81" s="46"/>
+      <c r="AL81" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AM81" s="32"/>
-      <c r="AN81" s="32"/>
-      <c r="AO81" s="32"/>
-      <c r="AP81" s="31" t="s">
+      <c r="AM81" s="46"/>
+      <c r="AN81" s="46"/>
+      <c r="AO81" s="46"/>
+      <c r="AP81" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="AQ81" s="32"/>
-      <c r="AR81" s="32"/>
-      <c r="AS81" s="32"/>
-      <c r="AT81" s="31" t="s">
+      <c r="AQ81" s="46"/>
+      <c r="AR81" s="46"/>
+      <c r="AS81" s="46"/>
+      <c r="AT81" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="AU81" s="32"/>
-      <c r="AV81" s="32"/>
-      <c r="AW81" s="32"/>
-      <c r="AX81" s="31" t="s">
+      <c r="AU81" s="46"/>
+      <c r="AV81" s="46"/>
+      <c r="AW81" s="46"/>
+      <c r="AX81" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="AY81" s="32"/>
-      <c r="AZ81" s="32"/>
-      <c r="BA81" s="32"/>
-      <c r="BB81" s="31" t="s">
+      <c r="AY81" s="46"/>
+      <c r="AZ81" s="46"/>
+      <c r="BA81" s="46"/>
+      <c r="BB81" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="BC81" s="32"/>
-      <c r="BD81" s="32"/>
-      <c r="BE81" s="32"/>
-      <c r="BF81" s="31" t="s">
+      <c r="BC81" s="46"/>
+      <c r="BD81" s="46"/>
+      <c r="BE81" s="46"/>
+      <c r="BF81" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="BG81" s="32"/>
-      <c r="BH81" s="32"/>
-      <c r="BI81" s="32"/>
-      <c r="BJ81" s="31" t="s">
+      <c r="BG81" s="46"/>
+      <c r="BH81" s="46"/>
+      <c r="BI81" s="46"/>
+      <c r="BJ81" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="BK81" s="32"/>
-      <c r="BL81" s="32"/>
-      <c r="BM81" s="32"/>
-      <c r="BN81" s="31" t="s">
+      <c r="BK81" s="46"/>
+      <c r="BL81" s="46"/>
+      <c r="BM81" s="46"/>
+      <c r="BN81" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="BO81" s="32"/>
-      <c r="BP81" s="32"/>
-      <c r="BQ81" s="32"/>
-      <c r="BR81" s="31" t="s">
+      <c r="BO81" s="46"/>
+      <c r="BP81" s="46"/>
+      <c r="BQ81" s="46"/>
+      <c r="BR81" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="BS81" s="32"/>
-      <c r="BT81" s="32"/>
-      <c r="BU81" s="32"/>
-      <c r="BV81" s="31" t="s">
+      <c r="BS81" s="46"/>
+      <c r="BT81" s="46"/>
+      <c r="BU81" s="46"/>
+      <c r="BV81" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="BW81" s="31"/>
-      <c r="BX81" s="31"/>
-      <c r="BY81" s="31"/>
-      <c r="BZ81" s="31" t="s">
+      <c r="BW81" s="45"/>
+      <c r="BX81" s="45"/>
+      <c r="BY81" s="45"/>
+      <c r="BZ81" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="CA81" s="31"/>
-      <c r="CB81" s="31"/>
-      <c r="CC81" s="31"/>
-      <c r="CD81" s="31" t="s">
+      <c r="CA81" s="45"/>
+      <c r="CB81" s="45"/>
+      <c r="CC81" s="45"/>
+      <c r="CD81" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="CE81" s="31"/>
-      <c r="CF81" s="31"/>
-      <c r="CG81" s="31"/>
-      <c r="CH81" s="31" t="s">
+      <c r="CE81" s="45"/>
+      <c r="CF81" s="45"/>
+      <c r="CG81" s="45"/>
+      <c r="CH81" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="CI81" s="31"/>
-      <c r="CJ81" s="31"/>
-      <c r="CK81" s="31"/>
-      <c r="CL81" s="30" t="s">
+      <c r="CI81" s="29"/>
+      <c r="CJ81" s="29"/>
+      <c r="CK81" s="29"/>
+      <c r="CL81" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="CM81" s="30"/>
-      <c r="CN81" s="30"/>
-      <c r="CO81" s="30"/>
-      <c r="CP81" s="29"/>
-      <c r="CQ81" s="29"/>
-      <c r="CR81" s="29"/>
-      <c r="CS81" s="29"/>
+      <c r="CM81" s="29"/>
+      <c r="CN81" s="29"/>
+      <c r="CO81" s="29"/>
+      <c r="CP81" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="CQ81" s="39"/>
+      <c r="CR81" s="39"/>
+      <c r="CS81" s="39"/>
+      <c r="CT81" s="39"/>
     </row>
     <row r="82" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
@@ -32205,10 +32295,13 @@
       <c r="CO82" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP82" s="6"/>
-      <c r="CQ82" s="6"/>
-      <c r="CR82" s="6"/>
-      <c r="CS82" s="6"/>
+      <c r="CP82" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="CQ82" s="32"/>
+      <c r="CR82" s="32"/>
+      <c r="CS82" s="32"/>
+      <c r="CT82" s="32"/>
     </row>
     <row r="83" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
@@ -32470,34 +32563,36 @@
         <v>18.136165622319737</v>
       </c>
       <c r="CH84" s="27">
-        <v>-8.001960548918845</v>
+        <v>-7.2504859914239148</v>
       </c>
       <c r="CI84" s="27">
-        <v>24.355994356850431</v>
+        <v>24.149803430674339</v>
       </c>
       <c r="CJ84" s="27">
-        <v>9.4998806282327877</v>
+        <v>9.2360301165063561</v>
       </c>
       <c r="CK84" s="27">
-        <v>9.4228454645302548</v>
+        <v>8.903477003322152</v>
       </c>
       <c r="CL84" s="27">
-        <v>5.1089775190268085</v>
+        <v>3.9217420013819293</v>
       </c>
       <c r="CM84" s="27">
-        <v>0.71502338453454684</v>
+        <v>0.84642025413224076</v>
       </c>
       <c r="CN84" s="27">
-        <v>27.209089058021178</v>
+        <v>27.33603916502534</v>
       </c>
       <c r="CO84" s="27">
-        <v>14.683983911324106</v>
-      </c>
-      <c r="CP84" s="27"/>
-      <c r="CQ84" s="27"/>
-      <c r="CR84" s="27"/>
-      <c r="CS84" s="27"/>
-      <c r="CT84" s="9"/>
+        <v>14.942232835606873</v>
+      </c>
+      <c r="CP84" s="41">
+        <v>12.357410641146529</v>
+      </c>
+      <c r="CQ84" s="41"/>
+      <c r="CR84" s="41"/>
+      <c r="CS84" s="41"/>
+      <c r="CT84" s="41"/>
       <c r="CU84" s="9"/>
       <c r="CV84" s="9"/>
       <c r="CW84" s="9"/>
@@ -32778,34 +32873,36 @@
         <v>5.4114467092071266</v>
       </c>
       <c r="CH85" s="27">
-        <v>27.613335413638012</v>
+        <v>29.417394652989884</v>
       </c>
       <c r="CI85" s="27">
-        <v>12.82224572132651</v>
+        <v>11.269229262348418</v>
       </c>
       <c r="CJ85" s="27">
-        <v>14.502107343828399</v>
+        <v>13.72941739914377</v>
       </c>
       <c r="CK85" s="27">
-        <v>8.2992044477715297</v>
+        <v>9.7442392367787249</v>
       </c>
       <c r="CL85" s="27">
-        <v>20.875795965991898</v>
+        <v>19.434930325097952</v>
       </c>
       <c r="CM85" s="27">
-        <v>10.718895823990309</v>
+        <v>12.421207823803002</v>
       </c>
       <c r="CN85" s="27">
-        <v>3.2212980901626054</v>
+        <v>4.1568662001320291</v>
       </c>
       <c r="CO85" s="27">
-        <v>5.1753901149314601</v>
-      </c>
-      <c r="CP85" s="27"/>
-      <c r="CQ85" s="27"/>
-      <c r="CR85" s="27"/>
-      <c r="CS85" s="27"/>
-      <c r="CT85" s="9"/>
+        <v>3.8731673577346584</v>
+      </c>
+      <c r="CP85" s="41">
+        <v>6.7304341891182986</v>
+      </c>
+      <c r="CQ85" s="41"/>
+      <c r="CR85" s="41"/>
+      <c r="CS85" s="41"/>
+      <c r="CT85" s="41"/>
       <c r="CU85" s="9"/>
       <c r="CV85" s="9"/>
       <c r="CW85" s="9"/>
@@ -33086,34 +33183,36 @@
         <v>23.513516779833026</v>
       </c>
       <c r="CH86" s="27">
-        <v>18.263073676480232</v>
+        <v>15.388737990071704</v>
       </c>
       <c r="CI86" s="27">
-        <v>0.28458169947023748</v>
+        <v>1.7700935139406653</v>
       </c>
       <c r="CJ86" s="27">
-        <v>7.9814618835793993</v>
+        <v>8.9954201249563113</v>
       </c>
       <c r="CK86" s="27">
-        <v>8.0760003916954304</v>
+        <v>7.57350588790014</v>
       </c>
       <c r="CL86" s="27">
-        <v>13.732260661805057</v>
+        <v>17.20906749626765</v>
       </c>
       <c r="CM86" s="27">
-        <v>-3.2146285585427705</v>
+        <v>-4.5910776645041267</v>
       </c>
       <c r="CN86" s="27">
-        <v>7.9484722595701669</v>
+        <v>7.1269782064351972</v>
       </c>
       <c r="CO86" s="27">
-        <v>9.6108908985936381</v>
-      </c>
-      <c r="CP86" s="27"/>
-      <c r="CQ86" s="27"/>
-      <c r="CR86" s="27"/>
-      <c r="CS86" s="27"/>
-      <c r="CT86" s="9"/>
+        <v>10.605522369928934</v>
+      </c>
+      <c r="CP86" s="41">
+        <v>2.5601832330291785</v>
+      </c>
+      <c r="CQ86" s="41"/>
+      <c r="CR86" s="41"/>
+      <c r="CS86" s="41"/>
+      <c r="CT86" s="41"/>
       <c r="CU86" s="9"/>
       <c r="CV86" s="9"/>
       <c r="CW86" s="9"/>
@@ -33230,11 +33329,11 @@
       <c r="CM87" s="20"/>
       <c r="CN87" s="20"/>
       <c r="CO87" s="20"/>
-      <c r="CP87" s="20"/>
-      <c r="CQ87" s="20"/>
-      <c r="CR87" s="20"/>
-      <c r="CS87" s="20"/>
-      <c r="CT87" s="9"/>
+      <c r="CP87" s="42"/>
+      <c r="CQ87" s="42"/>
+      <c r="CR87" s="42"/>
+      <c r="CS87" s="42"/>
+      <c r="CT87" s="42"/>
       <c r="CU87" s="9"/>
       <c r="CV87" s="9"/>
       <c r="CW87" s="9"/>
@@ -33515,34 +33614,36 @@
         <v>15.584219274517565</v>
       </c>
       <c r="CH88" s="27">
-        <v>13.49475889577559</v>
+        <v>13.5969871918943</v>
       </c>
       <c r="CI88" s="27">
-        <v>15.314480758402908</v>
+        <v>15.185598216632627</v>
       </c>
       <c r="CJ88" s="27">
-        <v>10.806892578498449</v>
+        <v>10.755850500643831</v>
       </c>
       <c r="CK88" s="27">
-        <v>8.6266258973066954</v>
+        <v>8.7110920341761755</v>
       </c>
       <c r="CL88" s="27">
-        <v>14.616354889345644</v>
+        <v>14.724402005237096</v>
       </c>
       <c r="CM88" s="27">
-        <v>2.3870432536169233</v>
+        <v>2.5299738491944197</v>
       </c>
       <c r="CN88" s="27">
-        <v>12.639324189806374</v>
+        <v>12.771894374388083</v>
       </c>
       <c r="CO88" s="27">
-        <v>10.095728728478164</v>
-      </c>
-      <c r="CP88" s="27"/>
-      <c r="CQ88" s="27"/>
-      <c r="CR88" s="27"/>
-      <c r="CS88" s="27"/>
-      <c r="CT88" s="9"/>
+        <v>10.092964014996909</v>
+      </c>
+      <c r="CP88" s="41">
+        <v>6.7984905167795944</v>
+      </c>
+      <c r="CQ88" s="41"/>
+      <c r="CR88" s="41"/>
+      <c r="CS88" s="41"/>
+      <c r="CT88" s="41"/>
       <c r="CU88" s="9"/>
       <c r="CV88" s="9"/>
       <c r="CW88" s="9"/>
@@ -33660,10 +33761,11 @@
       <c r="CM89" s="23"/>
       <c r="CN89" s="23"/>
       <c r="CO89" s="23"/>
-      <c r="CP89" s="23"/>
-      <c r="CQ89" s="23"/>
-      <c r="CR89" s="23"/>
-      <c r="CS89" s="23"/>
+      <c r="CP89" s="43"/>
+      <c r="CQ89" s="43"/>
+      <c r="CR89" s="43"/>
+      <c r="CS89" s="43"/>
+      <c r="CT89" s="43"/>
     </row>
     <row r="90" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
@@ -33759,11 +33861,11 @@
       <c r="CM90" s="27"/>
       <c r="CN90" s="27"/>
       <c r="CO90" s="27"/>
-      <c r="CP90" s="27"/>
-      <c r="CQ90" s="27"/>
-      <c r="CR90" s="27"/>
-      <c r="CS90" s="27"/>
-      <c r="CT90" s="9"/>
+      <c r="CP90" s="41"/>
+      <c r="CQ90" s="41"/>
+      <c r="CR90" s="41"/>
+      <c r="CS90" s="41"/>
+      <c r="CT90" s="41"/>
       <c r="CU90" s="9"/>
       <c r="CV90" s="9"/>
       <c r="CW90" s="9"/>
@@ -34044,34 +34146,36 @@
         <v>18.686404975595877</v>
       </c>
       <c r="CH91" s="27">
-        <v>13.143598601767835</v>
+        <v>13.477254231097049</v>
       </c>
       <c r="CI91" s="27">
-        <v>18.720724892382322</v>
+        <v>18.51983607368814</v>
       </c>
       <c r="CJ91" s="27">
-        <v>11.352348004764607</v>
+        <v>11.050851977775295</v>
       </c>
       <c r="CK91" s="27">
-        <v>6.1642749370523831</v>
+        <v>6.4526987482189924</v>
       </c>
       <c r="CL91" s="27">
-        <v>11.10913760356911</v>
+        <v>11.039666004218972</v>
       </c>
       <c r="CM91" s="27">
-        <v>3.609693307288893</v>
+        <v>3.5101785733274085</v>
       </c>
       <c r="CN91" s="27">
-        <v>14.157055075099294</v>
+        <v>14.475213804263419</v>
       </c>
       <c r="CO91" s="27">
-        <v>8.4501869759456554</v>
-      </c>
-      <c r="CP91" s="27"/>
-      <c r="CQ91" s="27"/>
-      <c r="CR91" s="27"/>
-      <c r="CS91" s="27"/>
-      <c r="CT91" s="9"/>
+        <v>8.3875055458356087</v>
+      </c>
+      <c r="CP91" s="41">
+        <v>7.0184550369706926</v>
+      </c>
+      <c r="CQ91" s="41"/>
+      <c r="CR91" s="41"/>
+      <c r="CS91" s="41"/>
+      <c r="CT91" s="41"/>
       <c r="CU91" s="9"/>
       <c r="CV91" s="9"/>
       <c r="CW91" s="9"/>
@@ -34189,10 +34293,11 @@
       <c r="CM92" s="14"/>
       <c r="CN92" s="14"/>
       <c r="CO92" s="14"/>
-      <c r="CP92" s="14"/>
-      <c r="CQ92" s="14"/>
-      <c r="CR92" s="14"/>
-      <c r="CS92" s="14"/>
+      <c r="CP92" s="37"/>
+      <c r="CQ92" s="37"/>
+      <c r="CR92" s="37"/>
+      <c r="CS92" s="37"/>
+      <c r="CT92" s="37"/>
     </row>
     <row r="93" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
@@ -34297,11 +34402,11 @@
       <c r="CM95" s="9"/>
       <c r="CN95" s="9"/>
       <c r="CO95" s="9"/>
-      <c r="CP95" s="9"/>
-      <c r="CQ95" s="9"/>
-      <c r="CR95" s="9"/>
-      <c r="CS95" s="9"/>
-      <c r="CT95" s="9"/>
+      <c r="CP95" s="34"/>
+      <c r="CQ95" s="34"/>
+      <c r="CR95" s="34"/>
+      <c r="CS95" s="34"/>
+      <c r="CT95" s="34"/>
       <c r="CU95" s="9"/>
       <c r="CV95" s="9"/>
       <c r="CW95" s="9"/>
@@ -34426,11 +34531,11 @@
       <c r="CM96" s="9"/>
       <c r="CN96" s="9"/>
       <c r="CO96" s="9"/>
-      <c r="CP96" s="9"/>
-      <c r="CQ96" s="9"/>
-      <c r="CR96" s="9"/>
-      <c r="CS96" s="9"/>
-      <c r="CT96" s="9"/>
+      <c r="CP96" s="34"/>
+      <c r="CQ96" s="34"/>
+      <c r="CR96" s="34"/>
+      <c r="CS96" s="34"/>
+      <c r="CT96" s="34"/>
       <c r="CU96" s="9"/>
       <c r="CV96" s="9"/>
       <c r="CW96" s="9"/>
@@ -34469,7 +34574,7 @@
     </row>
     <row r="98" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100" spans="1:128" x14ac:dyDescent="0.2">
@@ -34479,7 +34584,7 @@
     </row>
     <row r="101" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:128" x14ac:dyDescent="0.2">
@@ -34489,150 +34594,153 @@
     </row>
     <row r="104" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
-      <c r="B104" s="31">
+      <c r="B104" s="45">
         <v>2000</v>
       </c>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="31">
+      <c r="C104" s="46"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="46"/>
+      <c r="F104" s="45">
         <v>2001</v>
       </c>
-      <c r="G104" s="32"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="32"/>
-      <c r="J104" s="31">
+      <c r="G104" s="46"/>
+      <c r="H104" s="46"/>
+      <c r="I104" s="46"/>
+      <c r="J104" s="45">
         <v>2002</v>
       </c>
-      <c r="K104" s="32"/>
-      <c r="L104" s="32"/>
-      <c r="M104" s="32"/>
-      <c r="N104" s="31">
+      <c r="K104" s="46"/>
+      <c r="L104" s="46"/>
+      <c r="M104" s="46"/>
+      <c r="N104" s="45">
         <v>2003</v>
       </c>
-      <c r="O104" s="32"/>
-      <c r="P104" s="32"/>
-      <c r="Q104" s="32"/>
-      <c r="R104" s="31">
+      <c r="O104" s="46"/>
+      <c r="P104" s="46"/>
+      <c r="Q104" s="46"/>
+      <c r="R104" s="45">
         <v>2004</v>
       </c>
-      <c r="S104" s="32"/>
-      <c r="T104" s="32"/>
-      <c r="U104" s="32"/>
-      <c r="V104" s="31">
+      <c r="S104" s="46"/>
+      <c r="T104" s="46"/>
+      <c r="U104" s="46"/>
+      <c r="V104" s="45">
         <v>2005</v>
       </c>
-      <c r="W104" s="32"/>
-      <c r="X104" s="32"/>
-      <c r="Y104" s="32"/>
-      <c r="Z104" s="31">
+      <c r="W104" s="46"/>
+      <c r="X104" s="46"/>
+      <c r="Y104" s="46"/>
+      <c r="Z104" s="45">
         <v>2006</v>
       </c>
-      <c r="AA104" s="32"/>
-      <c r="AB104" s="32"/>
-      <c r="AC104" s="32"/>
-      <c r="AD104" s="31">
+      <c r="AA104" s="46"/>
+      <c r="AB104" s="46"/>
+      <c r="AC104" s="46"/>
+      <c r="AD104" s="45">
         <v>2007</v>
       </c>
-      <c r="AE104" s="32"/>
-      <c r="AF104" s="32"/>
-      <c r="AG104" s="32"/>
-      <c r="AH104" s="31">
+      <c r="AE104" s="46"/>
+      <c r="AF104" s="46"/>
+      <c r="AG104" s="46"/>
+      <c r="AH104" s="45">
         <v>2008</v>
       </c>
-      <c r="AI104" s="32"/>
-      <c r="AJ104" s="32"/>
-      <c r="AK104" s="32"/>
-      <c r="AL104" s="31">
+      <c r="AI104" s="46"/>
+      <c r="AJ104" s="46"/>
+      <c r="AK104" s="46"/>
+      <c r="AL104" s="45">
         <v>2009</v>
       </c>
-      <c r="AM104" s="32"/>
-      <c r="AN104" s="32"/>
-      <c r="AO104" s="32"/>
-      <c r="AP104" s="31">
+      <c r="AM104" s="46"/>
+      <c r="AN104" s="46"/>
+      <c r="AO104" s="46"/>
+      <c r="AP104" s="45">
         <v>2010</v>
       </c>
-      <c r="AQ104" s="32"/>
-      <c r="AR104" s="32"/>
-      <c r="AS104" s="32"/>
-      <c r="AT104" s="31">
+      <c r="AQ104" s="46"/>
+      <c r="AR104" s="46"/>
+      <c r="AS104" s="46"/>
+      <c r="AT104" s="45">
         <v>2011</v>
       </c>
-      <c r="AU104" s="32"/>
-      <c r="AV104" s="32"/>
-      <c r="AW104" s="32"/>
-      <c r="AX104" s="31">
+      <c r="AU104" s="46"/>
+      <c r="AV104" s="46"/>
+      <c r="AW104" s="46"/>
+      <c r="AX104" s="45">
         <v>2012</v>
       </c>
-      <c r="AY104" s="32"/>
-      <c r="AZ104" s="32"/>
-      <c r="BA104" s="32"/>
-      <c r="BB104" s="31">
+      <c r="AY104" s="46"/>
+      <c r="AZ104" s="46"/>
+      <c r="BA104" s="46"/>
+      <c r="BB104" s="45">
         <v>2013</v>
       </c>
-      <c r="BC104" s="32"/>
-      <c r="BD104" s="32"/>
-      <c r="BE104" s="32"/>
-      <c r="BF104" s="31">
+      <c r="BC104" s="46"/>
+      <c r="BD104" s="46"/>
+      <c r="BE104" s="46"/>
+      <c r="BF104" s="45">
         <v>2014</v>
       </c>
-      <c r="BG104" s="32"/>
-      <c r="BH104" s="32"/>
-      <c r="BI104" s="32"/>
-      <c r="BJ104" s="31">
+      <c r="BG104" s="46"/>
+      <c r="BH104" s="46"/>
+      <c r="BI104" s="46"/>
+      <c r="BJ104" s="45">
         <v>2015</v>
       </c>
-      <c r="BK104" s="32"/>
-      <c r="BL104" s="32"/>
-      <c r="BM104" s="32"/>
-      <c r="BN104" s="31">
+      <c r="BK104" s="46"/>
+      <c r="BL104" s="46"/>
+      <c r="BM104" s="46"/>
+      <c r="BN104" s="45">
         <v>2016</v>
       </c>
-      <c r="BO104" s="32"/>
-      <c r="BP104" s="32"/>
-      <c r="BQ104" s="32"/>
-      <c r="BR104" s="31">
+      <c r="BO104" s="46"/>
+      <c r="BP104" s="46"/>
+      <c r="BQ104" s="46"/>
+      <c r="BR104" s="45">
         <v>2017</v>
       </c>
-      <c r="BS104" s="32"/>
-      <c r="BT104" s="32"/>
-      <c r="BU104" s="32"/>
-      <c r="BV104" s="31">
+      <c r="BS104" s="46"/>
+      <c r="BT104" s="46"/>
+      <c r="BU104" s="46"/>
+      <c r="BV104" s="45">
         <v>2018</v>
       </c>
-      <c r="BW104" s="31"/>
-      <c r="BX104" s="31"/>
-      <c r="BY104" s="31"/>
-      <c r="BZ104" s="31">
+      <c r="BW104" s="45"/>
+      <c r="BX104" s="45"/>
+      <c r="BY104" s="45"/>
+      <c r="BZ104" s="45">
         <v>2019</v>
       </c>
-      <c r="CA104" s="31"/>
-      <c r="CB104" s="31"/>
-      <c r="CC104" s="31"/>
-      <c r="CD104" s="31">
+      <c r="CA104" s="45"/>
+      <c r="CB104" s="45"/>
+      <c r="CC104" s="45"/>
+      <c r="CD104" s="45">
         <v>2020</v>
       </c>
-      <c r="CE104" s="31"/>
-      <c r="CF104" s="31"/>
-      <c r="CG104" s="31"/>
-      <c r="CH104" s="31">
+      <c r="CE104" s="45"/>
+      <c r="CF104" s="45"/>
+      <c r="CG104" s="45"/>
+      <c r="CH104" s="29">
         <v>2021</v>
       </c>
-      <c r="CI104" s="31"/>
-      <c r="CJ104" s="31"/>
-      <c r="CK104" s="31"/>
-      <c r="CL104" s="30">
+      <c r="CI104" s="29"/>
+      <c r="CJ104" s="29"/>
+      <c r="CK104" s="29"/>
+      <c r="CL104" s="29">
         <v>2022</v>
       </c>
-      <c r="CM104" s="30"/>
-      <c r="CN104" s="30"/>
-      <c r="CO104" s="30"/>
-      <c r="CP104" s="30">
+      <c r="CM104" s="29"/>
+      <c r="CN104" s="29"/>
+      <c r="CO104" s="29"/>
+      <c r="CP104" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ104" s="30"/>
-      <c r="CR104" s="30"/>
-      <c r="CS104" s="30"/>
+      <c r="CQ104" s="31"/>
+      <c r="CR104" s="31"/>
+      <c r="CS104" s="31"/>
+      <c r="CT104" s="31">
+        <v>2024</v>
+      </c>
     </row>
     <row r="105" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
@@ -34914,17 +35022,20 @@
       <c r="CO105" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP105" s="6" t="s">
+      <c r="CP105" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CQ105" s="6" t="s">
+      <c r="CQ105" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CR105" s="6" t="s">
+      <c r="CR105" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CS105" s="6" t="s">
+      <c r="CS105" s="32" t="s">
         <v>8</v>
+      </c>
+      <c r="CT105" s="32" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35199,30 +35310,32 @@
         <v>106.21754603887462</v>
       </c>
       <c r="CL107" s="28">
-        <v>118.31173613609008</v>
+        <v>118.25131129672859</v>
       </c>
       <c r="CM107" s="28">
-        <v>114.2922170609275</v>
+        <v>114.57257766337547</v>
       </c>
       <c r="CN107" s="28">
-        <v>122.36603494741189</v>
+        <v>122.62165230996858</v>
       </c>
       <c r="CO107" s="28">
-        <v>113.26262931619794</v>
-      </c>
-      <c r="CP107" s="28">
-        <v>123.8931223185533</v>
-      </c>
-      <c r="CQ107" s="28">
-        <v>118.5509576161125</v>
-      </c>
-      <c r="CR107" s="28">
-        <v>126.46861280327752</v>
-      </c>
-      <c r="CS107" s="28">
-        <v>115.85880851047379</v>
-      </c>
-      <c r="CT107" s="9"/>
+        <v>113.06596793902651</v>
+      </c>
+      <c r="CP107" s="44">
+        <v>123.6716607579412</v>
+      </c>
+      <c r="CQ107" s="44">
+        <v>118.57261053405847</v>
+      </c>
+      <c r="CR107" s="44">
+        <v>126.5749555251485</v>
+      </c>
+      <c r="CS107" s="44">
+        <v>115.60381848478765</v>
+      </c>
+      <c r="CT107" s="44">
+        <v>125.80248079519043</v>
+      </c>
       <c r="CU107" s="9"/>
       <c r="CV107" s="9"/>
       <c r="CW107" s="9"/>
@@ -35523,30 +35636,32 @@
         <v>110.73024143143924</v>
       </c>
       <c r="CL108" s="28">
-        <v>107.5881278956349</v>
+        <v>107.54341899152915</v>
       </c>
       <c r="CM108" s="28">
-        <v>110.861880915884</v>
+        <v>111.08291366590714</v>
       </c>
       <c r="CN108" s="28">
-        <v>127.25295002357193</v>
+        <v>127.4690886675059</v>
       </c>
       <c r="CO108" s="28">
-        <v>118.19279855806573</v>
-      </c>
-      <c r="CP108" s="28">
-        <v>112.69345658195303</v>
-      </c>
-      <c r="CQ108" s="28">
-        <v>114.858781937256</v>
-      </c>
-      <c r="CR108" s="28">
-        <v>131.36961874235925</v>
-      </c>
-      <c r="CS108" s="28">
-        <v>120.82469703341336</v>
-      </c>
-      <c r="CT108" s="9"/>
+        <v>118.02122849001971</v>
+      </c>
+      <c r="CP108" s="44">
+        <v>112.52959510079509</v>
+      </c>
+      <c r="CQ108" s="44">
+        <v>114.87585282367101</v>
+      </c>
+      <c r="CR108" s="44">
+        <v>131.4595374062072</v>
+      </c>
+      <c r="CS108" s="44">
+        <v>120.60845797822152</v>
+      </c>
+      <c r="CT108" s="44">
+        <v>114.59326732071577</v>
+      </c>
       <c r="CU108" s="9"/>
       <c r="CV108" s="9"/>
       <c r="CW108" s="9"/>
@@ -35847,30 +35962,32 @@
         <v>97.915217688209665</v>
       </c>
       <c r="CL109" s="28">
-        <v>120.93406329895843</v>
+        <v>120.88706489356925</v>
       </c>
       <c r="CM109" s="28">
-        <v>117.64500003841923</v>
+        <v>117.86389407813469</v>
       </c>
       <c r="CN109" s="28">
-        <v>122.2019131301867</v>
+        <v>122.40033402613646</v>
       </c>
       <c r="CO109" s="28">
-        <v>104.73450632095862</v>
-      </c>
-      <c r="CP109" s="28">
-        <v>127.01267265567542</v>
-      </c>
-      <c r="CQ109" s="28">
-        <v>121.8925122434394</v>
-      </c>
-      <c r="CR109" s="28">
-        <v>125.96694525656062</v>
-      </c>
-      <c r="CS109" s="28">
-        <v>107.04232173940773</v>
-      </c>
-      <c r="CT109" s="9"/>
+        <v>104.59721657791849</v>
+      </c>
+      <c r="CP109" s="44">
+        <v>126.84041998088553</v>
+      </c>
+      <c r="CQ109" s="44">
+        <v>121.90941795215682</v>
+      </c>
+      <c r="CR109" s="44">
+        <v>126.04949292836322</v>
+      </c>
+      <c r="CS109" s="44">
+        <v>106.86372608308884</v>
+      </c>
+      <c r="CT109" s="44">
+        <v>128.93038805942564</v>
+      </c>
       <c r="CU109" s="9"/>
       <c r="CV109" s="9"/>
       <c r="CW109" s="9"/>
@@ -35995,11 +36112,11 @@
       <c r="CM110" s="9"/>
       <c r="CN110" s="9"/>
       <c r="CO110" s="9"/>
-      <c r="CP110" s="9"/>
-      <c r="CQ110" s="9"/>
-      <c r="CR110" s="9"/>
-      <c r="CS110" s="9"/>
-      <c r="CT110" s="9"/>
+      <c r="CP110" s="34"/>
+      <c r="CQ110" s="34"/>
+      <c r="CR110" s="34"/>
+      <c r="CS110" s="34"/>
+      <c r="CT110" s="34"/>
       <c r="CU110" s="9"/>
       <c r="CV110" s="9"/>
       <c r="CW110" s="9"/>
@@ -36300,30 +36417,32 @@
         <v>104.79255425616898</v>
       </c>
       <c r="CL111" s="28">
-        <v>114.42616332601681</v>
+        <v>114.2946635793672</v>
       </c>
       <c r="CM111" s="28">
-        <v>114.15775432125356</v>
+        <v>114.43231785914989</v>
       </c>
       <c r="CN111" s="28">
-        <v>124.10808501022979</v>
+        <v>124.32024450803681</v>
       </c>
       <c r="CO111" s="28">
-        <v>111.8986793996678</v>
-      </c>
-      <c r="CP111" s="28">
-        <v>119.67643287052397</v>
-      </c>
-      <c r="CQ111" s="28">
-        <v>118.23170561126553</v>
-      </c>
-      <c r="CR111" s="28">
-        <v>127.97064419419534</v>
-      </c>
-      <c r="CS111" s="28">
-        <v>114.354625398539</v>
-      </c>
-      <c r="CT111" s="9"/>
+        <v>111.76384236285124</v>
+      </c>
+      <c r="CP111" s="44">
+        <v>119.49881203679189</v>
+      </c>
+      <c r="CQ111" s="44">
+        <v>118.25005952080201</v>
+      </c>
+      <c r="CR111" s="44">
+        <v>128.06700273874557</v>
+      </c>
+      <c r="CS111" s="44">
+        <v>114.12586187951865</v>
+      </c>
+      <c r="CT111" s="44">
+        <v>121.55202922420973</v>
+      </c>
       <c r="CU111" s="9"/>
       <c r="CV111" s="9"/>
       <c r="CW111" s="9"/>
@@ -36449,10 +36568,11 @@
       <c r="CM112" s="12"/>
       <c r="CN112" s="12"/>
       <c r="CO112" s="12"/>
-      <c r="CP112" s="12"/>
-      <c r="CQ112" s="12"/>
-      <c r="CR112" s="12"/>
-      <c r="CS112" s="12"/>
+      <c r="CP112" s="36"/>
+      <c r="CQ112" s="36"/>
+      <c r="CR112" s="36"/>
+      <c r="CS112" s="36"/>
+      <c r="CT112" s="36"/>
     </row>
     <row r="113" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
@@ -36548,11 +36668,11 @@
       <c r="CM113" s="26"/>
       <c r="CN113" s="26"/>
       <c r="CO113" s="26"/>
-      <c r="CP113" s="26"/>
-      <c r="CQ113" s="26"/>
-      <c r="CR113" s="26"/>
-      <c r="CS113" s="26"/>
-      <c r="CT113" s="9"/>
+      <c r="CP113" s="35"/>
+      <c r="CQ113" s="35"/>
+      <c r="CR113" s="35"/>
+      <c r="CS113" s="35"/>
+      <c r="CT113" s="35"/>
       <c r="CU113" s="9"/>
       <c r="CV113" s="9"/>
       <c r="CW113" s="9"/>
@@ -36853,30 +36973,32 @@
         <v>103.35734241193842</v>
       </c>
       <c r="CL114" s="28">
-        <v>113.83648388120595</v>
+        <v>113.85569275509874</v>
       </c>
       <c r="CM114" s="28">
-        <v>125.57733082184939</v>
+        <v>125.91194731850412</v>
       </c>
       <c r="CN114" s="28">
-        <v>116.18968110733041</v>
+        <v>116.61226957356807</v>
       </c>
       <c r="CO114" s="28">
-        <v>109.32473035809807</v>
-      </c>
-      <c r="CP114" s="28">
-        <v>120.51823143151049</v>
-      </c>
-      <c r="CQ114" s="28">
-        <v>131.38163257547404</v>
-      </c>
-      <c r="CR114" s="28">
-        <v>120.76780174379562</v>
-      </c>
-      <c r="CS114" s="28">
-        <v>113.59582806720525</v>
-      </c>
-      <c r="CT114" s="9"/>
+        <v>108.99837571895273</v>
+      </c>
+      <c r="CP114" s="44">
+        <v>120.33402512853064</v>
+      </c>
+      <c r="CQ114" s="44">
+        <v>131.77279448576672</v>
+      </c>
+      <c r="CR114" s="44">
+        <v>120.88709219872489</v>
+      </c>
+      <c r="CS114" s="44">
+        <v>113.35321855862364</v>
+      </c>
+      <c r="CT114" s="44">
+        <v>122.15001002017583</v>
+      </c>
       <c r="CU114" s="9"/>
       <c r="CV114" s="9"/>
       <c r="CW114" s="9"/>
@@ -37002,10 +37124,11 @@
       <c r="CM115" s="14"/>
       <c r="CN115" s="14"/>
       <c r="CO115" s="14"/>
-      <c r="CP115" s="14"/>
-      <c r="CQ115" s="14"/>
-      <c r="CR115" s="14"/>
-      <c r="CS115" s="14"/>
+      <c r="CP115" s="37"/>
+      <c r="CQ115" s="37"/>
+      <c r="CR115" s="37"/>
+      <c r="CS115" s="37"/>
+      <c r="CT115" s="37"/>
     </row>
     <row r="116" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
@@ -37029,7 +37152,7 @@
     </row>
     <row r="122" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="1:128" x14ac:dyDescent="0.2">
@@ -37039,7 +37162,7 @@
     </row>
     <row r="125" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126" spans="1:128" x14ac:dyDescent="0.2">
@@ -37049,150 +37172,153 @@
     </row>
     <row r="128" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
-      <c r="B128" s="31">
+      <c r="B128" s="45">
         <v>2000</v>
       </c>
-      <c r="C128" s="32"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="31">
+      <c r="C128" s="46"/>
+      <c r="D128" s="46"/>
+      <c r="E128" s="46"/>
+      <c r="F128" s="45">
         <v>2001</v>
       </c>
-      <c r="G128" s="32"/>
-      <c r="H128" s="32"/>
-      <c r="I128" s="32"/>
-      <c r="J128" s="31">
+      <c r="G128" s="46"/>
+      <c r="H128" s="46"/>
+      <c r="I128" s="46"/>
+      <c r="J128" s="45">
         <v>2002</v>
       </c>
-      <c r="K128" s="32"/>
-      <c r="L128" s="32"/>
-      <c r="M128" s="32"/>
-      <c r="N128" s="31">
+      <c r="K128" s="46"/>
+      <c r="L128" s="46"/>
+      <c r="M128" s="46"/>
+      <c r="N128" s="45">
         <v>2003</v>
       </c>
-      <c r="O128" s="32"/>
-      <c r="P128" s="32"/>
-      <c r="Q128" s="32"/>
-      <c r="R128" s="31">
+      <c r="O128" s="46"/>
+      <c r="P128" s="46"/>
+      <c r="Q128" s="46"/>
+      <c r="R128" s="45">
         <v>2004</v>
       </c>
-      <c r="S128" s="32"/>
-      <c r="T128" s="32"/>
-      <c r="U128" s="32"/>
-      <c r="V128" s="31">
+      <c r="S128" s="46"/>
+      <c r="T128" s="46"/>
+      <c r="U128" s="46"/>
+      <c r="V128" s="45">
         <v>2005</v>
       </c>
-      <c r="W128" s="32"/>
-      <c r="X128" s="32"/>
-      <c r="Y128" s="32"/>
-      <c r="Z128" s="31">
+      <c r="W128" s="46"/>
+      <c r="X128" s="46"/>
+      <c r="Y128" s="46"/>
+      <c r="Z128" s="45">
         <v>2006</v>
       </c>
-      <c r="AA128" s="32"/>
-      <c r="AB128" s="32"/>
-      <c r="AC128" s="32"/>
-      <c r="AD128" s="31">
+      <c r="AA128" s="46"/>
+      <c r="AB128" s="46"/>
+      <c r="AC128" s="46"/>
+      <c r="AD128" s="45">
         <v>2007</v>
       </c>
-      <c r="AE128" s="32"/>
-      <c r="AF128" s="32"/>
-      <c r="AG128" s="32"/>
-      <c r="AH128" s="31">
+      <c r="AE128" s="46"/>
+      <c r="AF128" s="46"/>
+      <c r="AG128" s="46"/>
+      <c r="AH128" s="45">
         <v>2008</v>
       </c>
-      <c r="AI128" s="32"/>
-      <c r="AJ128" s="32"/>
-      <c r="AK128" s="32"/>
-      <c r="AL128" s="31">
+      <c r="AI128" s="46"/>
+      <c r="AJ128" s="46"/>
+      <c r="AK128" s="46"/>
+      <c r="AL128" s="45">
         <v>2009</v>
       </c>
-      <c r="AM128" s="32"/>
-      <c r="AN128" s="32"/>
-      <c r="AO128" s="32"/>
-      <c r="AP128" s="31">
+      <c r="AM128" s="46"/>
+      <c r="AN128" s="46"/>
+      <c r="AO128" s="46"/>
+      <c r="AP128" s="45">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="32"/>
-      <c r="AR128" s="32"/>
-      <c r="AS128" s="32"/>
-      <c r="AT128" s="31">
+      <c r="AQ128" s="46"/>
+      <c r="AR128" s="46"/>
+      <c r="AS128" s="46"/>
+      <c r="AT128" s="45">
         <v>2011</v>
       </c>
-      <c r="AU128" s="32"/>
-      <c r="AV128" s="32"/>
-      <c r="AW128" s="32"/>
-      <c r="AX128" s="31">
+      <c r="AU128" s="46"/>
+      <c r="AV128" s="46"/>
+      <c r="AW128" s="46"/>
+      <c r="AX128" s="45">
         <v>2012</v>
       </c>
-      <c r="AY128" s="32"/>
-      <c r="AZ128" s="32"/>
-      <c r="BA128" s="32"/>
-      <c r="BB128" s="31">
+      <c r="AY128" s="46"/>
+      <c r="AZ128" s="46"/>
+      <c r="BA128" s="46"/>
+      <c r="BB128" s="45">
         <v>2013</v>
       </c>
-      <c r="BC128" s="32"/>
-      <c r="BD128" s="32"/>
-      <c r="BE128" s="32"/>
-      <c r="BF128" s="31">
+      <c r="BC128" s="46"/>
+      <c r="BD128" s="46"/>
+      <c r="BE128" s="46"/>
+      <c r="BF128" s="45">
         <v>2014</v>
       </c>
-      <c r="BG128" s="32"/>
-      <c r="BH128" s="32"/>
-      <c r="BI128" s="32"/>
-      <c r="BJ128" s="31">
+      <c r="BG128" s="46"/>
+      <c r="BH128" s="46"/>
+      <c r="BI128" s="46"/>
+      <c r="BJ128" s="45">
         <v>2015</v>
       </c>
-      <c r="BK128" s="32"/>
-      <c r="BL128" s="32"/>
-      <c r="BM128" s="32"/>
-      <c r="BN128" s="31">
+      <c r="BK128" s="46"/>
+      <c r="BL128" s="46"/>
+      <c r="BM128" s="46"/>
+      <c r="BN128" s="45">
         <v>2016</v>
       </c>
-      <c r="BO128" s="32"/>
-      <c r="BP128" s="32"/>
-      <c r="BQ128" s="32"/>
-      <c r="BR128" s="31">
+      <c r="BO128" s="46"/>
+      <c r="BP128" s="46"/>
+      <c r="BQ128" s="46"/>
+      <c r="BR128" s="45">
         <v>2017</v>
       </c>
-      <c r="BS128" s="32"/>
-      <c r="BT128" s="32"/>
-      <c r="BU128" s="32"/>
-      <c r="BV128" s="31">
+      <c r="BS128" s="46"/>
+      <c r="BT128" s="46"/>
+      <c r="BU128" s="46"/>
+      <c r="BV128" s="45">
         <v>2018</v>
       </c>
-      <c r="BW128" s="31"/>
-      <c r="BX128" s="31"/>
-      <c r="BY128" s="31"/>
-      <c r="BZ128" s="31">
+      <c r="BW128" s="45"/>
+      <c r="BX128" s="45"/>
+      <c r="BY128" s="45"/>
+      <c r="BZ128" s="45">
         <v>2019</v>
       </c>
-      <c r="CA128" s="31"/>
-      <c r="CB128" s="31"/>
-      <c r="CC128" s="31"/>
-      <c r="CD128" s="31">
+      <c r="CA128" s="45"/>
+      <c r="CB128" s="45"/>
+      <c r="CC128" s="45"/>
+      <c r="CD128" s="45">
         <v>2020</v>
       </c>
-      <c r="CE128" s="31"/>
-      <c r="CF128" s="31"/>
-      <c r="CG128" s="31"/>
-      <c r="CH128" s="31">
+      <c r="CE128" s="45"/>
+      <c r="CF128" s="45"/>
+      <c r="CG128" s="45"/>
+      <c r="CH128" s="29">
         <v>2021</v>
       </c>
-      <c r="CI128" s="31"/>
-      <c r="CJ128" s="31"/>
-      <c r="CK128" s="31"/>
-      <c r="CL128" s="30">
+      <c r="CI128" s="29"/>
+      <c r="CJ128" s="29"/>
+      <c r="CK128" s="29"/>
+      <c r="CL128" s="29">
         <v>2022</v>
       </c>
-      <c r="CM128" s="30"/>
-      <c r="CN128" s="30"/>
-      <c r="CO128" s="30"/>
-      <c r="CP128" s="30">
+      <c r="CM128" s="29"/>
+      <c r="CN128" s="29"/>
+      <c r="CO128" s="29"/>
+      <c r="CP128" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ128" s="30"/>
-      <c r="CR128" s="30"/>
-      <c r="CS128" s="30"/>
+      <c r="CQ128" s="31"/>
+      <c r="CR128" s="31"/>
+      <c r="CS128" s="31"/>
+      <c r="CT128" s="31">
+        <v>2024</v>
+      </c>
     </row>
     <row r="129" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -37474,17 +37600,20 @@
       <c r="CO129" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP129" s="6" t="s">
+      <c r="CP129" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CQ129" s="6" t="s">
+      <c r="CQ129" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CR129" s="6" t="s">
+      <c r="CR129" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CS129" s="6" t="s">
+      <c r="CS129" s="32" t="s">
         <v>8</v>
+      </c>
+      <c r="CT129" s="32" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37759,30 +37888,32 @@
         <v>36.32377146201037</v>
       </c>
       <c r="CL131" s="28">
-        <v>26.803722214589875</v>
+        <v>27.015604698257256</v>
       </c>
       <c r="CM131" s="28">
-        <v>52.865789559176669</v>
+        <v>52.839712870775749</v>
       </c>
       <c r="CN131" s="28">
-        <v>32.882708178399064</v>
+        <v>32.831024528702649</v>
       </c>
       <c r="CO131" s="28">
-        <v>36.539154136581665</v>
-      </c>
-      <c r="CP131" s="28">
-        <v>24.610724473168894</v>
-      </c>
-      <c r="CQ131" s="28">
-        <v>52.081543955612254</v>
-      </c>
-      <c r="CR131" s="28">
-        <v>37.222648425969659</v>
-      </c>
-      <c r="CS131" s="28">
-        <v>38.09819798187727</v>
-      </c>
-      <c r="CT131" s="9"/>
+        <v>36.318137245695695</v>
+      </c>
+      <c r="CP131" s="44">
+        <v>24.478900193350405</v>
+      </c>
+      <c r="CQ131" s="44">
+        <v>52.050045488788129</v>
+      </c>
+      <c r="CR131" s="44">
+        <v>37.146690405575313</v>
+      </c>
+      <c r="CS131" s="44">
+        <v>37.966552085767361</v>
+      </c>
+      <c r="CT131" s="44">
+        <v>25.754249345148722</v>
+      </c>
       <c r="CU131" s="9"/>
       <c r="CV131" s="9"/>
       <c r="CW131" s="9"/>
@@ -38083,30 +38214,32 @@
         <v>32.17452413432855</v>
       </c>
       <c r="CL132" s="28">
-        <v>41.059833435824842</v>
+        <v>41.633377168135674</v>
       </c>
       <c r="CM132" s="28">
-        <v>24.579961825176643</v>
+        <v>24.25877974642891</v>
       </c>
       <c r="CN132" s="28">
-        <v>37.583387271163389</v>
+        <v>37.346559045524295</v>
       </c>
       <c r="CO132" s="28">
-        <v>32.065007286746486</v>
-      </c>
-      <c r="CP132" s="28">
-        <v>43.367160517695467</v>
-      </c>
-      <c r="CQ132" s="28">
-        <v>26.589573683362744</v>
-      </c>
-      <c r="CR132" s="28">
-        <v>34.481964316887293</v>
-      </c>
-      <c r="CS132" s="28">
-        <v>30.641563987588892</v>
-      </c>
-      <c r="CT132" s="9"/>
+        <v>32.459587193930304</v>
+      </c>
+      <c r="CP132" s="44">
+        <v>43.377296543098801</v>
+      </c>
+      <c r="CQ132" s="44">
+        <v>26.619210123795799</v>
+      </c>
+      <c r="CR132" s="44">
+        <v>34.532613800549996</v>
+      </c>
+      <c r="CS132" s="44">
+        <v>30.649379763291122</v>
+      </c>
+      <c r="CT132" s="44">
+        <v>43.398964137543636</v>
+      </c>
       <c r="CU132" s="9"/>
       <c r="CV132" s="9"/>
       <c r="CW132" s="9"/>
@@ -38407,30 +38540,32 @@
         <v>31.501704403661062</v>
       </c>
       <c r="CL133" s="28">
-        <v>32.13644434958529</v>
+        <v>31.351018133607074</v>
       </c>
       <c r="CM133" s="28">
-        <v>22.554248615646681</v>
+        <v>22.901507382795351</v>
       </c>
       <c r="CN133" s="28">
-        <v>29.533904550437555</v>
+        <v>29.822416425773056</v>
       </c>
       <c r="CO133" s="28">
-        <v>31.395838576671846</v>
-      </c>
-      <c r="CP133" s="28">
-        <v>32.022115009135625</v>
-      </c>
-      <c r="CQ133" s="28">
-        <v>21.328882361024998</v>
-      </c>
-      <c r="CR133" s="28">
-        <v>28.295387257143041</v>
-      </c>
-      <c r="CS133" s="28">
-        <v>31.260238030533845</v>
-      </c>
-      <c r="CT133" s="9"/>
+        <v>31.222275560373998</v>
+      </c>
+      <c r="CP133" s="44">
+        <v>32.143803263550794</v>
+      </c>
+      <c r="CQ133" s="44">
+        <v>21.330744387416065</v>
+      </c>
+      <c r="CR133" s="44">
+        <v>28.320695793874684</v>
+      </c>
+      <c r="CS133" s="44">
+        <v>31.384068150941513</v>
+      </c>
+      <c r="CT133" s="44">
+        <v>30.846786517307628</v>
+      </c>
       <c r="CU133" s="9"/>
       <c r="CV133" s="9"/>
       <c r="CW133" s="9"/>
@@ -38555,11 +38690,11 @@
       <c r="CM134" s="9"/>
       <c r="CN134" s="9"/>
       <c r="CO134" s="9"/>
-      <c r="CP134" s="9"/>
-      <c r="CQ134" s="9"/>
-      <c r="CR134" s="9"/>
-      <c r="CS134" s="9"/>
-      <c r="CT134" s="9"/>
+      <c r="CP134" s="34"/>
+      <c r="CQ134" s="34"/>
+      <c r="CR134" s="34"/>
+      <c r="CS134" s="34"/>
+      <c r="CT134" s="34"/>
       <c r="CU134" s="9"/>
       <c r="CV134" s="9"/>
       <c r="CW134" s="9"/>
@@ -38871,19 +39006,21 @@
       <c r="CO135" s="28">
         <v>100</v>
       </c>
-      <c r="CP135" s="28">
+      <c r="CP135" s="44">
         <v>100</v>
       </c>
-      <c r="CQ135" s="28">
+      <c r="CQ135" s="44">
         <v>100</v>
       </c>
-      <c r="CR135" s="28">
+      <c r="CR135" s="44">
         <v>100</v>
       </c>
-      <c r="CS135" s="28">
+      <c r="CS135" s="44">
         <v>100</v>
       </c>
-      <c r="CT135" s="9"/>
+      <c r="CT135" s="44">
+        <v>100</v>
+      </c>
       <c r="CU135" s="9"/>
       <c r="CV135" s="9"/>
       <c r="CW135" s="9"/>
@@ -39009,10 +39146,11 @@
       <c r="CM136" s="12"/>
       <c r="CN136" s="12"/>
       <c r="CO136" s="12"/>
-      <c r="CP136" s="12"/>
-      <c r="CQ136" s="12"/>
-      <c r="CR136" s="12"/>
-      <c r="CS136" s="12"/>
+      <c r="CP136" s="36"/>
+      <c r="CQ136" s="36"/>
+      <c r="CR136" s="36"/>
+      <c r="CS136" s="36"/>
+      <c r="CT136" s="36"/>
     </row>
     <row r="137" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
@@ -39108,11 +39246,11 @@
       <c r="CM137" s="26"/>
       <c r="CN137" s="26"/>
       <c r="CO137" s="26"/>
-      <c r="CP137" s="26"/>
-      <c r="CQ137" s="26"/>
-      <c r="CR137" s="26"/>
-      <c r="CS137" s="26"/>
-      <c r="CT137" s="9"/>
+      <c r="CP137" s="35"/>
+      <c r="CQ137" s="35"/>
+      <c r="CR137" s="35"/>
+      <c r="CS137" s="35"/>
+      <c r="CT137" s="35"/>
       <c r="CU137" s="9"/>
       <c r="CV137" s="9"/>
       <c r="CW137" s="9"/>
@@ -39238,11 +39376,11 @@
       <c r="CM138" s="26"/>
       <c r="CN138" s="26"/>
       <c r="CO138" s="26"/>
-      <c r="CP138" s="26"/>
-      <c r="CQ138" s="26"/>
-      <c r="CR138" s="26"/>
-      <c r="CS138" s="26"/>
-      <c r="CT138" s="9"/>
+      <c r="CP138" s="35"/>
+      <c r="CQ138" s="35"/>
+      <c r="CR138" s="35"/>
+      <c r="CS138" s="35"/>
+      <c r="CT138" s="35"/>
       <c r="CU138" s="9"/>
       <c r="CV138" s="9"/>
       <c r="CW138" s="9"/>
@@ -39368,10 +39506,11 @@
       <c r="CM139" s="14"/>
       <c r="CN139" s="14"/>
       <c r="CO139" s="14"/>
-      <c r="CP139" s="14"/>
-      <c r="CQ139" s="14"/>
-      <c r="CR139" s="14"/>
-      <c r="CS139" s="14"/>
+      <c r="CP139" s="37"/>
+      <c r="CQ139" s="37"/>
+      <c r="CR139" s="37"/>
+      <c r="CS139" s="37"/>
+      <c r="CT139" s="37"/>
     </row>
     <row r="140" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
@@ -39476,11 +39615,11 @@
       <c r="CM142" s="9"/>
       <c r="CN142" s="9"/>
       <c r="CO142" s="9"/>
-      <c r="CP142" s="9"/>
-      <c r="CQ142" s="9"/>
-      <c r="CR142" s="9"/>
-      <c r="CS142" s="9"/>
-      <c r="CT142" s="9"/>
+      <c r="CP142" s="34"/>
+      <c r="CQ142" s="34"/>
+      <c r="CR142" s="34"/>
+      <c r="CS142" s="34"/>
+      <c r="CT142" s="34"/>
       <c r="CU142" s="9"/>
       <c r="CV142" s="9"/>
       <c r="CW142" s="9"/>
@@ -39605,11 +39744,11 @@
       <c r="CM143" s="9"/>
       <c r="CN143" s="9"/>
       <c r="CO143" s="9"/>
-      <c r="CP143" s="9"/>
-      <c r="CQ143" s="9"/>
-      <c r="CR143" s="9"/>
-      <c r="CS143" s="9"/>
-      <c r="CT143" s="9"/>
+      <c r="CP143" s="34"/>
+      <c r="CQ143" s="34"/>
+      <c r="CR143" s="34"/>
+      <c r="CS143" s="34"/>
+      <c r="CT143" s="34"/>
       <c r="CU143" s="9"/>
       <c r="CV143" s="9"/>
       <c r="CW143" s="9"/>
@@ -39653,7 +39792,7 @@
     </row>
     <row r="146" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="148" spans="1:128" x14ac:dyDescent="0.2">
@@ -39663,7 +39802,7 @@
     </row>
     <row r="149" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="150" spans="1:128" x14ac:dyDescent="0.2">
@@ -39673,150 +39812,153 @@
     </row>
     <row r="152" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
-      <c r="B152" s="31">
+      <c r="B152" s="45">
         <v>2000</v>
       </c>
-      <c r="C152" s="32"/>
-      <c r="D152" s="32"/>
-      <c r="E152" s="32"/>
-      <c r="F152" s="31">
+      <c r="C152" s="46"/>
+      <c r="D152" s="46"/>
+      <c r="E152" s="46"/>
+      <c r="F152" s="45">
         <v>2001</v>
       </c>
-      <c r="G152" s="32"/>
-      <c r="H152" s="32"/>
-      <c r="I152" s="32"/>
-      <c r="J152" s="31">
+      <c r="G152" s="46"/>
+      <c r="H152" s="46"/>
+      <c r="I152" s="46"/>
+      <c r="J152" s="45">
         <v>2002</v>
       </c>
-      <c r="K152" s="32"/>
-      <c r="L152" s="32"/>
-      <c r="M152" s="32"/>
-      <c r="N152" s="31">
+      <c r="K152" s="46"/>
+      <c r="L152" s="46"/>
+      <c r="M152" s="46"/>
+      <c r="N152" s="45">
         <v>2003</v>
       </c>
-      <c r="O152" s="32"/>
-      <c r="P152" s="32"/>
-      <c r="Q152" s="32"/>
-      <c r="R152" s="31">
+      <c r="O152" s="46"/>
+      <c r="P152" s="46"/>
+      <c r="Q152" s="46"/>
+      <c r="R152" s="45">
         <v>2004</v>
       </c>
-      <c r="S152" s="32"/>
-      <c r="T152" s="32"/>
-      <c r="U152" s="32"/>
-      <c r="V152" s="31">
+      <c r="S152" s="46"/>
+      <c r="T152" s="46"/>
+      <c r="U152" s="46"/>
+      <c r="V152" s="45">
         <v>2005</v>
       </c>
-      <c r="W152" s="32"/>
-      <c r="X152" s="32"/>
-      <c r="Y152" s="32"/>
-      <c r="Z152" s="31">
+      <c r="W152" s="46"/>
+      <c r="X152" s="46"/>
+      <c r="Y152" s="46"/>
+      <c r="Z152" s="45">
         <v>2006</v>
       </c>
-      <c r="AA152" s="32"/>
-      <c r="AB152" s="32"/>
-      <c r="AC152" s="32"/>
-      <c r="AD152" s="31">
+      <c r="AA152" s="46"/>
+      <c r="AB152" s="46"/>
+      <c r="AC152" s="46"/>
+      <c r="AD152" s="45">
         <v>2007</v>
       </c>
-      <c r="AE152" s="32"/>
-      <c r="AF152" s="32"/>
-      <c r="AG152" s="32"/>
-      <c r="AH152" s="31">
+      <c r="AE152" s="46"/>
+      <c r="AF152" s="46"/>
+      <c r="AG152" s="46"/>
+      <c r="AH152" s="45">
         <v>2008</v>
       </c>
-      <c r="AI152" s="32"/>
-      <c r="AJ152" s="32"/>
-      <c r="AK152" s="32"/>
-      <c r="AL152" s="31">
+      <c r="AI152" s="46"/>
+      <c r="AJ152" s="46"/>
+      <c r="AK152" s="46"/>
+      <c r="AL152" s="45">
         <v>2009</v>
       </c>
-      <c r="AM152" s="32"/>
-      <c r="AN152" s="32"/>
-      <c r="AO152" s="32"/>
-      <c r="AP152" s="31">
+      <c r="AM152" s="46"/>
+      <c r="AN152" s="46"/>
+      <c r="AO152" s="46"/>
+      <c r="AP152" s="45">
         <v>2010</v>
       </c>
-      <c r="AQ152" s="32"/>
-      <c r="AR152" s="32"/>
-      <c r="AS152" s="32"/>
-      <c r="AT152" s="31">
+      <c r="AQ152" s="46"/>
+      <c r="AR152" s="46"/>
+      <c r="AS152" s="46"/>
+      <c r="AT152" s="45">
         <v>2011</v>
       </c>
-      <c r="AU152" s="32"/>
-      <c r="AV152" s="32"/>
-      <c r="AW152" s="32"/>
-      <c r="AX152" s="31">
+      <c r="AU152" s="46"/>
+      <c r="AV152" s="46"/>
+      <c r="AW152" s="46"/>
+      <c r="AX152" s="45">
         <v>2012</v>
       </c>
-      <c r="AY152" s="32"/>
-      <c r="AZ152" s="32"/>
-      <c r="BA152" s="32"/>
-      <c r="BB152" s="31">
+      <c r="AY152" s="46"/>
+      <c r="AZ152" s="46"/>
+      <c r="BA152" s="46"/>
+      <c r="BB152" s="45">
         <v>2013</v>
       </c>
-      <c r="BC152" s="32"/>
-      <c r="BD152" s="32"/>
-      <c r="BE152" s="32"/>
-      <c r="BF152" s="31">
+      <c r="BC152" s="46"/>
+      <c r="BD152" s="46"/>
+      <c r="BE152" s="46"/>
+      <c r="BF152" s="45">
         <v>2014</v>
       </c>
-      <c r="BG152" s="32"/>
-      <c r="BH152" s="32"/>
-      <c r="BI152" s="32"/>
-      <c r="BJ152" s="31">
+      <c r="BG152" s="46"/>
+      <c r="BH152" s="46"/>
+      <c r="BI152" s="46"/>
+      <c r="BJ152" s="45">
         <v>2015</v>
       </c>
-      <c r="BK152" s="32"/>
-      <c r="BL152" s="32"/>
-      <c r="BM152" s="32"/>
-      <c r="BN152" s="31">
+      <c r="BK152" s="46"/>
+      <c r="BL152" s="46"/>
+      <c r="BM152" s="46"/>
+      <c r="BN152" s="45">
         <v>2016</v>
       </c>
-      <c r="BO152" s="32"/>
-      <c r="BP152" s="32"/>
-      <c r="BQ152" s="32"/>
-      <c r="BR152" s="31">
+      <c r="BO152" s="46"/>
+      <c r="BP152" s="46"/>
+      <c r="BQ152" s="46"/>
+      <c r="BR152" s="45">
         <v>2017</v>
       </c>
-      <c r="BS152" s="32"/>
-      <c r="BT152" s="32"/>
-      <c r="BU152" s="32"/>
-      <c r="BV152" s="31">
+      <c r="BS152" s="46"/>
+      <c r="BT152" s="46"/>
+      <c r="BU152" s="46"/>
+      <c r="BV152" s="45">
         <v>2018</v>
       </c>
-      <c r="BW152" s="31"/>
-      <c r="BX152" s="31"/>
-      <c r="BY152" s="31"/>
-      <c r="BZ152" s="31">
+      <c r="BW152" s="45"/>
+      <c r="BX152" s="45"/>
+      <c r="BY152" s="45"/>
+      <c r="BZ152" s="45">
         <v>2019</v>
       </c>
-      <c r="CA152" s="31"/>
-      <c r="CB152" s="31"/>
-      <c r="CC152" s="31"/>
-      <c r="CD152" s="31">
+      <c r="CA152" s="45"/>
+      <c r="CB152" s="45"/>
+      <c r="CC152" s="45"/>
+      <c r="CD152" s="45">
         <v>2020</v>
       </c>
-      <c r="CE152" s="31"/>
-      <c r="CF152" s="31"/>
-      <c r="CG152" s="31"/>
-      <c r="CH152" s="31">
+      <c r="CE152" s="45"/>
+      <c r="CF152" s="45"/>
+      <c r="CG152" s="45"/>
+      <c r="CH152" s="29">
         <v>2021</v>
       </c>
-      <c r="CI152" s="31"/>
-      <c r="CJ152" s="31"/>
-      <c r="CK152" s="31"/>
-      <c r="CL152" s="30">
+      <c r="CI152" s="29"/>
+      <c r="CJ152" s="29"/>
+      <c r="CK152" s="29"/>
+      <c r="CL152" s="29">
         <v>2022</v>
       </c>
-      <c r="CM152" s="30"/>
-      <c r="CN152" s="30"/>
-      <c r="CO152" s="30"/>
-      <c r="CP152" s="30">
+      <c r="CM152" s="29"/>
+      <c r="CN152" s="29"/>
+      <c r="CO152" s="29"/>
+      <c r="CP152" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ152" s="30"/>
-      <c r="CR152" s="30"/>
-      <c r="CS152" s="30"/>
+      <c r="CQ152" s="31"/>
+      <c r="CR152" s="31"/>
+      <c r="CS152" s="31"/>
+      <c r="CT152" s="31">
+        <v>2024</v>
+      </c>
     </row>
     <row r="153" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
@@ -40098,17 +40240,20 @@
       <c r="CO153" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP153" s="6" t="s">
+      <c r="CP153" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CQ153" s="6" t="s">
+      <c r="CQ153" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CR153" s="6" t="s">
+      <c r="CR153" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CS153" s="6" t="s">
+      <c r="CS153" s="32" t="s">
         <v>8</v>
+      </c>
+      <c r="CT153" s="32" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40383,30 +40528,32 @@
         <v>35.836459546224845</v>
       </c>
       <c r="CL155" s="28">
-        <v>25.923439178881825</v>
+        <v>26.111671968122245</v>
       </c>
       <c r="CM155" s="28">
-        <v>52.803593907697078</v>
+        <v>52.775026469075272</v>
       </c>
       <c r="CN155" s="28">
-        <v>33.350839092932823</v>
+        <v>33.285809805760181</v>
       </c>
       <c r="CO155" s="28">
-        <v>36.099136307792435</v>
-      </c>
-      <c r="CP155" s="28">
-        <v>23.773101042164058</v>
-      </c>
-      <c r="CQ155" s="28">
-        <v>51.941290872400593</v>
-      </c>
-      <c r="CR155" s="28">
-        <v>37.664731130520799</v>
-      </c>
-      <c r="CS155" s="28">
-        <v>37.603572957364719</v>
-      </c>
-      <c r="CT155" s="9"/>
+        <v>35.899878982412034</v>
+      </c>
+      <c r="CP155" s="44">
+        <v>23.65294906808095</v>
+      </c>
+      <c r="CQ155" s="44">
+        <v>51.908454653966849</v>
+      </c>
+      <c r="CR155" s="44">
+        <v>37.584570203233866</v>
+      </c>
+      <c r="CS155" s="44">
+        <v>37.48116226759425</v>
+      </c>
+      <c r="CT155" s="44">
+        <v>24.884098065964242</v>
+      </c>
       <c r="CU155" s="9"/>
       <c r="CV155" s="9"/>
       <c r="CW155" s="9"/>
@@ -40707,30 +40854,32 @@
         <v>30.449229789683656</v>
       </c>
       <c r="CL156" s="28">
-        <v>43.66949494115476</v>
+        <v>44.246992347154077</v>
       </c>
       <c r="CM156" s="28">
-        <v>25.310712934713266</v>
+        <v>24.990237501039267</v>
       </c>
       <c r="CN156" s="28">
-        <v>36.654570456385606</v>
+        <v>36.423994245257198</v>
       </c>
       <c r="CO156" s="28">
-        <v>30.357449980888042</v>
-      </c>
-      <c r="CP156" s="28">
-        <v>46.054378238961228</v>
-      </c>
-      <c r="CQ156" s="28">
-        <v>27.370398632450453</v>
-      </c>
-      <c r="CR156" s="28">
-        <v>33.589799749418667</v>
-      </c>
-      <c r="CS156" s="28">
-        <v>29.00073128639486</v>
-      </c>
-      <c r="CT156" s="9"/>
+        <v>30.738607221093545</v>
+      </c>
+      <c r="CP156" s="44">
+        <v>46.063752398868452</v>
+      </c>
+      <c r="CQ156" s="44">
+        <v>27.401086513518159</v>
+      </c>
+      <c r="CR156" s="44">
+        <v>33.641441567725003</v>
+      </c>
+      <c r="CS156" s="44">
+        <v>29.002003177835974</v>
+      </c>
+      <c r="CT156" s="44">
+        <v>46.034398708461438</v>
+      </c>
       <c r="CU156" s="9"/>
       <c r="CV156" s="9"/>
       <c r="CW156" s="9"/>
@@ -41031,30 +41180,32 @@
         <v>33.714310664091506</v>
       </c>
       <c r="CL157" s="28">
-        <v>30.407065879963426</v>
+        <v>29.641335684723678</v>
       </c>
       <c r="CM157" s="28">
-        <v>21.885693157589664</v>
+        <v>22.234736029885465</v>
       </c>
       <c r="CN157" s="28">
-        <v>29.994590450681574</v>
+        <v>30.290195948982635</v>
       </c>
       <c r="CO157" s="28">
-        <v>33.543413711319538</v>
-      </c>
-      <c r="CP157" s="28">
-        <v>30.172520718874711</v>
-      </c>
-      <c r="CQ157" s="28">
-        <v>20.688310495148968</v>
-      </c>
-      <c r="CR157" s="28">
-        <v>28.745469120060545</v>
-      </c>
-      <c r="CS157" s="28">
-        <v>33.395695756240421</v>
-      </c>
-      <c r="CT157" s="9"/>
+        <v>33.361513796494421</v>
+      </c>
+      <c r="CP157" s="44">
+        <v>30.283298533050605</v>
+      </c>
+      <c r="CQ157" s="44">
+        <v>20.690458832514974</v>
+      </c>
+      <c r="CR157" s="44">
+        <v>28.773988229041148</v>
+      </c>
+      <c r="CS157" s="44">
+        <v>33.516834554569783</v>
+      </c>
+      <c r="CT157" s="44">
+        <v>29.081503225574316</v>
+      </c>
       <c r="CU157" s="9"/>
       <c r="CV157" s="9"/>
       <c r="CW157" s="9"/>
@@ -41179,11 +41330,11 @@
       <c r="CM158" s="9"/>
       <c r="CN158" s="9"/>
       <c r="CO158" s="9"/>
-      <c r="CP158" s="9"/>
-      <c r="CQ158" s="9"/>
-      <c r="CR158" s="9"/>
-      <c r="CS158" s="9"/>
-      <c r="CT158" s="9"/>
+      <c r="CP158" s="34"/>
+      <c r="CQ158" s="34"/>
+      <c r="CR158" s="34"/>
+      <c r="CS158" s="34"/>
+      <c r="CT158" s="34"/>
       <c r="CU158" s="9"/>
       <c r="CV158" s="9"/>
       <c r="CW158" s="9"/>
@@ -41495,19 +41646,21 @@
       <c r="CO159" s="28">
         <v>100</v>
       </c>
-      <c r="CP159" s="28">
+      <c r="CP159" s="44">
         <v>100</v>
       </c>
-      <c r="CQ159" s="28">
+      <c r="CQ159" s="44">
         <v>100</v>
       </c>
-      <c r="CR159" s="28">
+      <c r="CR159" s="44">
         <v>100</v>
       </c>
-      <c r="CS159" s="28">
+      <c r="CS159" s="44">
         <v>100</v>
       </c>
-      <c r="CT159" s="9"/>
+      <c r="CT159" s="44">
+        <v>100</v>
+      </c>
       <c r="CU159" s="9"/>
       <c r="CV159" s="9"/>
       <c r="CW159" s="9"/>
@@ -41633,10 +41786,11 @@
       <c r="CM160" s="12"/>
       <c r="CN160" s="12"/>
       <c r="CO160" s="12"/>
-      <c r="CP160" s="12"/>
-      <c r="CQ160" s="12"/>
-      <c r="CR160" s="12"/>
-      <c r="CS160" s="12"/>
+      <c r="CP160" s="36"/>
+      <c r="CQ160" s="36"/>
+      <c r="CR160" s="36"/>
+      <c r="CS160" s="36"/>
+      <c r="CT160" s="36"/>
     </row>
     <row r="161" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
@@ -41732,11 +41886,11 @@
       <c r="CM161" s="26"/>
       <c r="CN161" s="26"/>
       <c r="CO161" s="26"/>
-      <c r="CP161" s="26"/>
-      <c r="CQ161" s="26"/>
-      <c r="CR161" s="26"/>
-      <c r="CS161" s="26"/>
-      <c r="CT161" s="9"/>
+      <c r="CP161" s="35"/>
+      <c r="CQ161" s="35"/>
+      <c r="CR161" s="35"/>
+      <c r="CS161" s="35"/>
+      <c r="CT161" s="35"/>
       <c r="CU161" s="9"/>
       <c r="CV161" s="9"/>
       <c r="CW161" s="9"/>
@@ -41862,11 +42016,11 @@
       <c r="CM162" s="26"/>
       <c r="CN162" s="26"/>
       <c r="CO162" s="26"/>
-      <c r="CP162" s="26"/>
-      <c r="CQ162" s="26"/>
-      <c r="CR162" s="26"/>
-      <c r="CS162" s="26"/>
-      <c r="CT162" s="9"/>
+      <c r="CP162" s="35"/>
+      <c r="CQ162" s="35"/>
+      <c r="CR162" s="35"/>
+      <c r="CS162" s="35"/>
+      <c r="CT162" s="35"/>
       <c r="CU162" s="9"/>
       <c r="CV162" s="9"/>
       <c r="CW162" s="9"/>
@@ -41992,10 +42146,11 @@
       <c r="CM163" s="14"/>
       <c r="CN163" s="14"/>
       <c r="CO163" s="14"/>
-      <c r="CP163" s="14"/>
-      <c r="CQ163" s="14"/>
-      <c r="CR163" s="14"/>
-      <c r="CS163" s="14"/>
+      <c r="CP163" s="37"/>
+      <c r="CQ163" s="37"/>
+      <c r="CR163" s="37"/>
+      <c r="CS163" s="37"/>
+      <c r="CT163" s="37"/>
     </row>
     <row r="164" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
@@ -42008,14 +42163,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH33:CK33"/>
+  <mergeCells count="147">
     <mergeCell ref="CD57:CG57"/>
     <mergeCell ref="CD81:CG81"/>
-    <mergeCell ref="CH104:CK104"/>
-    <mergeCell ref="CH128:CK128"/>
-    <mergeCell ref="CH152:CK152"/>
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="CD152:CG152"/>
     <mergeCell ref="CD128:CG128"/>
@@ -42023,8 +42173,6 @@
     <mergeCell ref="CD33:CG33"/>
     <mergeCell ref="BV33:BY33"/>
     <mergeCell ref="BJ81:BM81"/>
-    <mergeCell ref="CH57:CK57"/>
-    <mergeCell ref="CH81:CK81"/>
     <mergeCell ref="BR152:BU152"/>
     <mergeCell ref="BR128:BU128"/>
     <mergeCell ref="BR104:BU104"/>
@@ -42169,9 +42317,9 @@
   <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="48" max="96" man="1"/>
-    <brk id="96" max="96" man="1"/>
-    <brk id="119" max="96" man="1"/>
+    <brk id="48" max="97" man="1"/>
+    <brk id="96" max="97" man="1"/>
+    <brk id="119" max="97" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484ACFCB-060C-4BE2-8BCF-64491006B442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F317FFCF-C035-4EAF-A870-687DAD19928A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNS" sheetId="6" r:id="rId1"/>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -632,13 +632,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2024</t>
+    <t>As of August 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2024</t>
+    <t>Q1 2000 to Q2 2024</t>
   </si>
   <si>
-    <t>As of May 2024</t>
+    <t>Q1 2001 to Q2 2024</t>
   </si>
 </sst>
 </file>
@@ -740,7 +740,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -783,29 +783,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23665,15 +23645,15 @@
       <selection activeCell="N19" sqref="N19"/>
       <selection pane="topRight" activeCell="N19" sqref="N19"/>
       <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
-      <selection pane="bottomRight" activeCell="DC11" sqref="DC11"/>
+      <selection pane="bottomRight" activeCell="CP1" sqref="CP1:CU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.21875" style="1" customWidth="1"/>
     <col min="2" max="93" width="10.21875" style="1" customWidth="1"/>
-    <col min="94" max="98" width="10.21875" style="30" customWidth="1"/>
-    <col min="99" max="16384" width="7.77734375" style="1"/>
+    <col min="94" max="99" width="9.6640625" style="1" customWidth="1"/>
+    <col min="100" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.2">
@@ -23688,7 +23668,7 @@
     </row>
     <row r="3" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:128" x14ac:dyDescent="0.2">
@@ -23698,7 +23678,7 @@
     </row>
     <row r="6" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:128" x14ac:dyDescent="0.2">
@@ -23708,132 +23688,132 @@
     </row>
     <row r="9" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="45">
+      <c r="B9" s="31">
         <v>2000</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31">
         <v>2001</v>
       </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45">
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31">
         <v>2002</v>
       </c>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45">
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31">
         <v>2003</v>
       </c>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45">
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31">
         <v>2004</v>
       </c>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45">
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31">
         <v>2005</v>
       </c>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45">
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31">
         <v>2006</v>
       </c>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45">
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="31">
         <v>2007</v>
       </c>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45">
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="31"/>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="31">
         <v>2008</v>
       </c>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45">
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="31">
         <v>2009</v>
       </c>
-      <c r="AM9" s="45"/>
-      <c r="AN9" s="45"/>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="45">
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="45"/>
-      <c r="AR9" s="45"/>
-      <c r="AS9" s="45"/>
-      <c r="AT9" s="45">
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="31"/>
+      <c r="AT9" s="31">
         <v>2011</v>
       </c>
-      <c r="AU9" s="45"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="45"/>
-      <c r="AX9" s="45">
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="31"/>
+      <c r="AW9" s="31"/>
+      <c r="AX9" s="31">
         <v>2012</v>
       </c>
-      <c r="AY9" s="45"/>
-      <c r="AZ9" s="45"/>
-      <c r="BA9" s="45"/>
-      <c r="BB9" s="45">
+      <c r="AY9" s="31"/>
+      <c r="AZ9" s="31"/>
+      <c r="BA9" s="31"/>
+      <c r="BB9" s="31">
         <v>2013</v>
       </c>
-      <c r="BC9" s="45"/>
-      <c r="BD9" s="45"/>
-      <c r="BE9" s="45"/>
-      <c r="BF9" s="45">
+      <c r="BC9" s="31"/>
+      <c r="BD9" s="31"/>
+      <c r="BE9" s="31"/>
+      <c r="BF9" s="31">
         <v>2014</v>
       </c>
-      <c r="BG9" s="45"/>
-      <c r="BH9" s="45"/>
-      <c r="BI9" s="45"/>
-      <c r="BJ9" s="45">
+      <c r="BG9" s="31"/>
+      <c r="BH9" s="31"/>
+      <c r="BI9" s="31"/>
+      <c r="BJ9" s="31">
         <v>2015</v>
       </c>
-      <c r="BK9" s="45"/>
-      <c r="BL9" s="45"/>
-      <c r="BM9" s="45"/>
-      <c r="BN9" s="45">
+      <c r="BK9" s="31"/>
+      <c r="BL9" s="31"/>
+      <c r="BM9" s="31"/>
+      <c r="BN9" s="31">
         <v>2016</v>
       </c>
-      <c r="BO9" s="45"/>
-      <c r="BP9" s="45"/>
-      <c r="BQ9" s="45"/>
-      <c r="BR9" s="45">
+      <c r="BO9" s="31"/>
+      <c r="BP9" s="31"/>
+      <c r="BQ9" s="31"/>
+      <c r="BR9" s="31">
         <v>2017</v>
       </c>
-      <c r="BS9" s="45"/>
-      <c r="BT9" s="45"/>
-      <c r="BU9" s="45"/>
-      <c r="BV9" s="45">
+      <c r="BS9" s="31"/>
+      <c r="BT9" s="31"/>
+      <c r="BU9" s="31"/>
+      <c r="BV9" s="31">
         <v>2018</v>
       </c>
-      <c r="BW9" s="45"/>
-      <c r="BX9" s="45"/>
-      <c r="BY9" s="45"/>
-      <c r="BZ9" s="45">
+      <c r="BW9" s="31"/>
+      <c r="BX9" s="31"/>
+      <c r="BY9" s="31"/>
+      <c r="BZ9" s="31">
         <v>2019</v>
       </c>
-      <c r="CA9" s="45"/>
-      <c r="CB9" s="45"/>
-      <c r="CC9" s="45"/>
-      <c r="CD9" s="45">
+      <c r="CA9" s="31"/>
+      <c r="CB9" s="31"/>
+      <c r="CC9" s="31"/>
+      <c r="CD9" s="31">
         <v>2020</v>
       </c>
-      <c r="CE9" s="45"/>
-      <c r="CF9" s="45"/>
-      <c r="CG9" s="45"/>
+      <c r="CE9" s="31"/>
+      <c r="CF9" s="31"/>
+      <c r="CG9" s="31"/>
       <c r="CH9" s="29">
         <v>2021</v>
       </c>
@@ -23846,15 +23826,16 @@
       <c r="CM9" s="29"/>
       <c r="CN9" s="29"/>
       <c r="CO9" s="29"/>
-      <c r="CP9" s="31">
+      <c r="CP9" s="29">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="31"/>
-      <c r="CR9" s="31"/>
-      <c r="CS9" s="31"/>
-      <c r="CT9" s="31">
+      <c r="CQ9" s="29"/>
+      <c r="CR9" s="29"/>
+      <c r="CS9" s="29"/>
+      <c r="CT9" s="29">
         <v>2024</v>
       </c>
+      <c r="CU9" s="29"/>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24136,20 +24117,23 @@
       <c r="CO10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP10" s="32" t="s">
+      <c r="CP10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CQ10" s="32" t="s">
+      <c r="CQ10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CR10" s="32" t="s">
+      <c r="CR10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CS10" s="32" t="s">
+      <c r="CS10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CT10" s="32" t="s">
+      <c r="CT10" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="CU10" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24435,22 +24419,24 @@
       <c r="CO12" s="25">
         <v>300814.73704605724</v>
       </c>
-      <c r="CP12" s="33">
+      <c r="CP12" s="25">
         <v>179944.39226853289</v>
       </c>
-      <c r="CQ12" s="33">
+      <c r="CQ12" s="25">
         <v>570474.25909519638</v>
       </c>
-      <c r="CR12" s="33">
+      <c r="CR12" s="25">
         <v>327894.96726864023</v>
       </c>
-      <c r="CS12" s="33">
+      <c r="CS12" s="25">
         <v>353524.08954811259</v>
       </c>
-      <c r="CT12" s="33">
-        <v>205664.3661901145</v>
-      </c>
-      <c r="CU12" s="9"/>
+      <c r="CT12" s="25">
+        <v>205189.20239989951</v>
+      </c>
+      <c r="CU12" s="25">
+        <v>706528.87986534415</v>
+      </c>
       <c r="CV12" s="9"/>
       <c r="CW12" s="9"/>
       <c r="CX12" s="9"/>
@@ -24761,22 +24747,24 @@
       <c r="CO13" s="25">
         <v>268855.25874604005</v>
       </c>
-      <c r="CP13" s="33">
+      <c r="CP13" s="25">
         <v>318866.50147869712</v>
       </c>
-      <c r="CQ13" s="33">
+      <c r="CQ13" s="25">
         <v>291749.48898637982</v>
       </c>
-      <c r="CR13" s="33">
+      <c r="CR13" s="25">
         <v>304820.43348153739</v>
       </c>
-      <c r="CS13" s="33">
+      <c r="CS13" s="25">
         <v>285390.52088677022</v>
       </c>
-      <c r="CT13" s="33">
-        <v>346568.84512678382</v>
-      </c>
-      <c r="CU13" s="9"/>
+      <c r="CT13" s="25">
+        <v>346956.21129899548</v>
+      </c>
+      <c r="CU13" s="25">
+        <v>339636.30936344154</v>
+      </c>
       <c r="CV13" s="9"/>
       <c r="CW13" s="9"/>
       <c r="CX13" s="9"/>
@@ -25087,22 +25075,24 @@
       <c r="CO14" s="25">
         <v>258606.89244976532</v>
       </c>
-      <c r="CP14" s="33">
+      <c r="CP14" s="25">
         <v>236289.09378167888</v>
       </c>
-      <c r="CQ14" s="33">
+      <c r="CQ14" s="25">
         <v>233787.3192249446</v>
       </c>
-      <c r="CR14" s="33">
+      <c r="CR14" s="25">
         <v>249987.64409342629</v>
       </c>
-      <c r="CS14" s="33">
+      <c r="CS14" s="25">
         <v>292231.54355216632</v>
       </c>
-      <c r="CT14" s="33">
-        <v>246331.57476511211</v>
-      </c>
-      <c r="CU14" s="9"/>
+      <c r="CT14" s="25">
+        <v>247686.68549270817</v>
+      </c>
+      <c r="CU14" s="25">
+        <v>250734.54578167858</v>
+      </c>
       <c r="CV14" s="9"/>
       <c r="CW14" s="9"/>
       <c r="CX14" s="9"/>
@@ -25226,11 +25216,11 @@
       <c r="CM15" s="9"/>
       <c r="CN15" s="9"/>
       <c r="CO15" s="9"/>
-      <c r="CP15" s="34"/>
-      <c r="CQ15" s="34"/>
-      <c r="CR15" s="34"/>
-      <c r="CS15" s="34"/>
-      <c r="CT15" s="34"/>
+      <c r="CP15" s="9"/>
+      <c r="CQ15" s="9"/>
+      <c r="CR15" s="9"/>
+      <c r="CS15" s="9"/>
+      <c r="CT15" s="9"/>
       <c r="CU15" s="9"/>
       <c r="CV15" s="9"/>
       <c r="CW15" s="9"/>
@@ -25542,22 +25532,24 @@
       <c r="CO16" s="26">
         <v>828276.88824186265</v>
       </c>
-      <c r="CP16" s="35">
+      <c r="CP16" s="26">
         <v>735099.98752890888</v>
       </c>
-      <c r="CQ16" s="35">
+      <c r="CQ16" s="26">
         <v>1096011.0673065209</v>
       </c>
-      <c r="CR16" s="35">
+      <c r="CR16" s="26">
         <v>882703.04484360397</v>
       </c>
-      <c r="CS16" s="35">
+      <c r="CS16" s="26">
         <v>931146.15398704913</v>
       </c>
-      <c r="CT16" s="35">
-        <v>798564.78608201048</v>
-      </c>
-      <c r="CU16" s="9"/>
+      <c r="CT16" s="26">
+        <v>799832.09919160325</v>
+      </c>
+      <c r="CU16" s="26">
+        <v>1296899.7350104642</v>
+      </c>
       <c r="CV16" s="9"/>
       <c r="CW16" s="9"/>
       <c r="CX16" s="9"/>
@@ -25682,11 +25674,12 @@
       <c r="CM17" s="12"/>
       <c r="CN17" s="12"/>
       <c r="CO17" s="12"/>
-      <c r="CP17" s="36"/>
-      <c r="CQ17" s="36"/>
-      <c r="CR17" s="36"/>
-      <c r="CS17" s="36"/>
-      <c r="CT17" s="36"/>
+      <c r="CP17" s="12"/>
+      <c r="CQ17" s="12"/>
+      <c r="CR17" s="12"/>
+      <c r="CS17" s="12"/>
+      <c r="CT17" s="12"/>
+      <c r="CU17" s="12"/>
     </row>
     <row r="18" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
@@ -25782,12 +25775,12 @@
       <c r="CM18" s="26"/>
       <c r="CN18" s="26"/>
       <c r="CO18" s="26"/>
-      <c r="CP18" s="35"/>
-      <c r="CQ18" s="35"/>
-      <c r="CR18" s="35"/>
-      <c r="CS18" s="35"/>
-      <c r="CT18" s="35"/>
-      <c r="CU18" s="9"/>
+      <c r="CP18" s="26"/>
+      <c r="CQ18" s="26"/>
+      <c r="CR18" s="26"/>
+      <c r="CS18" s="26"/>
+      <c r="CT18" s="26"/>
+      <c r="CU18" s="26"/>
       <c r="CV18" s="9"/>
       <c r="CW18" s="9"/>
       <c r="CX18" s="9"/>
@@ -26098,22 +26091,24 @@
       <c r="CO19" s="25">
         <v>448603.54944467149</v>
       </c>
-      <c r="CP19" s="33">
+      <c r="CP19" s="25">
         <v>339077.55617626372</v>
       </c>
-      <c r="CQ19" s="33">
+      <c r="CQ19" s="25">
         <v>561476.16625263379</v>
       </c>
-      <c r="CR19" s="33">
+      <c r="CR19" s="25">
         <v>426514.20774832729</v>
       </c>
-      <c r="CS19" s="33">
+      <c r="CS19" s="25">
         <v>505656.68919888965</v>
       </c>
-      <c r="CT19" s="33">
-        <v>368351.7898338426</v>
-      </c>
-      <c r="CU19" s="9"/>
+      <c r="CT19" s="25">
+        <v>368780.17555049696</v>
+      </c>
+      <c r="CU19" s="25">
+        <v>658710.08161944698</v>
+      </c>
       <c r="CV19" s="9"/>
       <c r="CW19" s="9"/>
       <c r="CX19" s="9"/>
@@ -26238,11 +26233,12 @@
       <c r="CM20" s="14"/>
       <c r="CN20" s="14"/>
       <c r="CO20" s="14"/>
-      <c r="CP20" s="37"/>
-      <c r="CQ20" s="37"/>
-      <c r="CR20" s="37"/>
-      <c r="CS20" s="37"/>
-      <c r="CT20" s="37"/>
+      <c r="CP20" s="14"/>
+      <c r="CQ20" s="14"/>
+      <c r="CR20" s="14"/>
+      <c r="CS20" s="14"/>
+      <c r="CT20" s="14"/>
+      <c r="CU20" s="14"/>
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
@@ -26263,11 +26259,6 @@
       <c r="Y23" s="17"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="9"/>
-      <c r="CP23" s="38"/>
-      <c r="CQ23" s="38"/>
-      <c r="CR23" s="38"/>
-      <c r="CS23" s="38"/>
-      <c r="CT23" s="38"/>
     </row>
     <row r="24" spans="1:128" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G24" s="9"/>
@@ -26278,11 +26269,6 @@
       <c r="Y24" s="17"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="9"/>
-      <c r="CP24" s="38"/>
-      <c r="CQ24" s="38"/>
-      <c r="CR24" s="38"/>
-      <c r="CS24" s="38"/>
-      <c r="CT24" s="38"/>
     </row>
     <row r="25" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -26296,7 +26282,7 @@
     </row>
     <row r="27" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:128" x14ac:dyDescent="0.2">
@@ -26306,7 +26292,7 @@
     </row>
     <row r="30" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:128" x14ac:dyDescent="0.2">
@@ -26316,132 +26302,132 @@
     </row>
     <row r="33" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="45">
+      <c r="B33" s="31">
         <v>2000</v>
       </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="45">
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="31">
         <v>2001</v>
       </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="45">
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="31">
         <v>2002</v>
       </c>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="45">
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="31">
         <v>2003</v>
       </c>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="45">
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="31">
         <v>2004</v>
       </c>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="45">
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="31">
         <v>2005</v>
       </c>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="45">
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="31">
         <v>2006</v>
       </c>
-      <c r="AA33" s="46"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="45">
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="32"/>
+      <c r="AC33" s="32"/>
+      <c r="AD33" s="31">
         <v>2007</v>
       </c>
-      <c r="AE33" s="46"/>
-      <c r="AF33" s="46"/>
-      <c r="AG33" s="46"/>
-      <c r="AH33" s="45">
+      <c r="AE33" s="32"/>
+      <c r="AF33" s="32"/>
+      <c r="AG33" s="32"/>
+      <c r="AH33" s="31">
         <v>2008</v>
       </c>
-      <c r="AI33" s="46"/>
-      <c r="AJ33" s="46"/>
-      <c r="AK33" s="46"/>
-      <c r="AL33" s="45">
+      <c r="AI33" s="32"/>
+      <c r="AJ33" s="32"/>
+      <c r="AK33" s="32"/>
+      <c r="AL33" s="31">
         <v>2009</v>
       </c>
-      <c r="AM33" s="46"/>
-      <c r="AN33" s="46"/>
-      <c r="AO33" s="46"/>
-      <c r="AP33" s="45">
+      <c r="AM33" s="32"/>
+      <c r="AN33" s="32"/>
+      <c r="AO33" s="32"/>
+      <c r="AP33" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ33" s="46"/>
-      <c r="AR33" s="46"/>
-      <c r="AS33" s="46"/>
-      <c r="AT33" s="45">
+      <c r="AQ33" s="32"/>
+      <c r="AR33" s="32"/>
+      <c r="AS33" s="32"/>
+      <c r="AT33" s="31">
         <v>2011</v>
       </c>
-      <c r="AU33" s="46"/>
-      <c r="AV33" s="46"/>
-      <c r="AW33" s="46"/>
-      <c r="AX33" s="45">
+      <c r="AU33" s="32"/>
+      <c r="AV33" s="32"/>
+      <c r="AW33" s="32"/>
+      <c r="AX33" s="31">
         <v>2012</v>
       </c>
-      <c r="AY33" s="46"/>
-      <c r="AZ33" s="46"/>
-      <c r="BA33" s="46"/>
-      <c r="BB33" s="45">
+      <c r="AY33" s="32"/>
+      <c r="AZ33" s="32"/>
+      <c r="BA33" s="32"/>
+      <c r="BB33" s="31">
         <v>2013</v>
       </c>
-      <c r="BC33" s="46"/>
-      <c r="BD33" s="46"/>
-      <c r="BE33" s="46"/>
-      <c r="BF33" s="45">
+      <c r="BC33" s="32"/>
+      <c r="BD33" s="32"/>
+      <c r="BE33" s="32"/>
+      <c r="BF33" s="31">
         <v>2014</v>
       </c>
-      <c r="BG33" s="46"/>
-      <c r="BH33" s="46"/>
-      <c r="BI33" s="46"/>
-      <c r="BJ33" s="45">
+      <c r="BG33" s="32"/>
+      <c r="BH33" s="32"/>
+      <c r="BI33" s="32"/>
+      <c r="BJ33" s="31">
         <v>2015</v>
       </c>
-      <c r="BK33" s="46"/>
-      <c r="BL33" s="46"/>
-      <c r="BM33" s="46"/>
-      <c r="BN33" s="45">
+      <c r="BK33" s="32"/>
+      <c r="BL33" s="32"/>
+      <c r="BM33" s="32"/>
+      <c r="BN33" s="31">
         <v>2016</v>
       </c>
-      <c r="BO33" s="46"/>
-      <c r="BP33" s="46"/>
-      <c r="BQ33" s="46"/>
-      <c r="BR33" s="45">
+      <c r="BO33" s="32"/>
+      <c r="BP33" s="32"/>
+      <c r="BQ33" s="32"/>
+      <c r="BR33" s="31">
         <v>2017</v>
       </c>
-      <c r="BS33" s="46"/>
-      <c r="BT33" s="46"/>
-      <c r="BU33" s="46"/>
-      <c r="BV33" s="45">
+      <c r="BS33" s="32"/>
+      <c r="BT33" s="32"/>
+      <c r="BU33" s="32"/>
+      <c r="BV33" s="31">
         <v>2018</v>
       </c>
-      <c r="BW33" s="45"/>
-      <c r="BX33" s="45"/>
-      <c r="BY33" s="45"/>
-      <c r="BZ33" s="45">
+      <c r="BW33" s="31"/>
+      <c r="BX33" s="31"/>
+      <c r="BY33" s="31"/>
+      <c r="BZ33" s="31">
         <v>2019</v>
       </c>
-      <c r="CA33" s="45"/>
-      <c r="CB33" s="45"/>
-      <c r="CC33" s="45"/>
-      <c r="CD33" s="45">
+      <c r="CA33" s="31"/>
+      <c r="CB33" s="31"/>
+      <c r="CC33" s="31"/>
+      <c r="CD33" s="31">
         <v>2020</v>
       </c>
-      <c r="CE33" s="45"/>
-      <c r="CF33" s="45"/>
-      <c r="CG33" s="45"/>
+      <c r="CE33" s="31"/>
+      <c r="CF33" s="31"/>
+      <c r="CG33" s="31"/>
       <c r="CH33" s="29">
         <v>2021</v>
       </c>
@@ -26454,15 +26440,16 @@
       <c r="CM33" s="29"/>
       <c r="CN33" s="29"/>
       <c r="CO33" s="29"/>
-      <c r="CP33" s="31">
+      <c r="CP33" s="29">
         <v>2023</v>
       </c>
-      <c r="CQ33" s="31"/>
-      <c r="CR33" s="31"/>
-      <c r="CS33" s="31"/>
-      <c r="CT33" s="31">
+      <c r="CQ33" s="29"/>
+      <c r="CR33" s="29"/>
+      <c r="CS33" s="29"/>
+      <c r="CT33" s="29">
         <v>2024</v>
       </c>
+      <c r="CU33" s="29"/>
     </row>
     <row r="34" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
@@ -26744,20 +26731,23 @@
       <c r="CO34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP34" s="32" t="s">
+      <c r="CP34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CQ34" s="32" t="s">
+      <c r="CQ34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CR34" s="32" t="s">
+      <c r="CR34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CS34" s="32" t="s">
+      <c r="CS34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CT34" s="32" t="s">
+      <c r="CT34" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="CU34" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27043,22 +27033,24 @@
       <c r="CO36" s="25">
         <v>266052.41393969115</v>
       </c>
-      <c r="CP36" s="33">
+      <c r="CP36" s="25">
         <v>145501.71895947334</v>
       </c>
-      <c r="CQ36" s="33">
+      <c r="CQ36" s="25">
         <v>481118.07315850136</v>
       </c>
-      <c r="CR36" s="33">
+      <c r="CR36" s="25">
         <v>259052.0106511059</v>
       </c>
-      <c r="CS36" s="33">
+      <c r="CS36" s="25">
         <v>305806.58509531239</v>
       </c>
-      <c r="CT36" s="33">
-        <v>163481.96386122241</v>
-      </c>
-      <c r="CU36" s="9"/>
+      <c r="CT36" s="25">
+        <v>163035.57229029998</v>
+      </c>
+      <c r="CU36" s="25">
+        <v>585944.27345003863</v>
+      </c>
       <c r="CV36" s="9"/>
       <c r="CW36" s="9"/>
       <c r="CX36" s="9"/>
@@ -27369,22 +27361,24 @@
       <c r="CO37" s="25">
         <v>227802.45739331158</v>
       </c>
-      <c r="CP37" s="33">
+      <c r="CP37" s="25">
         <v>283362.34676138463</v>
       </c>
-      <c r="CQ37" s="33">
+      <c r="CQ37" s="25">
         <v>253969.37808522864</v>
       </c>
-      <c r="CR37" s="33">
+      <c r="CR37" s="25">
         <v>231873.95870688991</v>
       </c>
-      <c r="CS37" s="33">
+      <c r="CS37" s="25">
         <v>236625.62781318676</v>
       </c>
-      <c r="CT37" s="33">
-        <v>302433.8630269008</v>
-      </c>
-      <c r="CU37" s="9"/>
+      <c r="CT37" s="25">
+        <v>302534.49537018157</v>
+      </c>
+      <c r="CU37" s="25">
+        <v>288611.72265195276</v>
+      </c>
       <c r="CV37" s="9"/>
       <c r="CW37" s="9"/>
       <c r="CX37" s="9"/>
@@ -27695,22 +27689,24 @@
       <c r="CO38" s="25">
         <v>247240.70191401232</v>
       </c>
-      <c r="CP38" s="33">
+      <c r="CP38" s="25">
         <v>186288.48265977591</v>
       </c>
-      <c r="CQ38" s="33">
+      <c r="CQ38" s="25">
         <v>191771.33576069906</v>
       </c>
-      <c r="CR38" s="33">
+      <c r="CR38" s="25">
         <v>198324.98987957049</v>
       </c>
-      <c r="CS38" s="33">
+      <c r="CS38" s="25">
         <v>273461.86986307218</v>
       </c>
-      <c r="CT38" s="33">
-        <v>191057.80915789594</v>
-      </c>
-      <c r="CU38" s="9"/>
+      <c r="CT38" s="25">
+        <v>191968.10443746313</v>
+      </c>
+      <c r="CU38" s="25">
+        <v>201078.70004750302</v>
+      </c>
       <c r="CV38" s="9"/>
       <c r="CW38" s="9"/>
       <c r="CX38" s="9"/>
@@ -27834,11 +27830,11 @@
       <c r="CM39" s="9"/>
       <c r="CN39" s="9"/>
       <c r="CO39" s="9"/>
-      <c r="CP39" s="34"/>
-      <c r="CQ39" s="34"/>
-      <c r="CR39" s="34"/>
-      <c r="CS39" s="34"/>
-      <c r="CT39" s="34"/>
+      <c r="CP39" s="9"/>
+      <c r="CQ39" s="9"/>
+      <c r="CR39" s="9"/>
+      <c r="CS39" s="9"/>
+      <c r="CT39" s="9"/>
       <c r="CU39" s="9"/>
       <c r="CV39" s="9"/>
       <c r="CW39" s="9"/>
@@ -28150,22 +28146,24 @@
       <c r="CO40" s="26">
         <v>741095.57324701501</v>
       </c>
-      <c r="CP40" s="35">
+      <c r="CP40" s="26">
         <v>615152.54838063382</v>
       </c>
-      <c r="CQ40" s="35">
+      <c r="CQ40" s="26">
         <v>926858.78700442915</v>
       </c>
-      <c r="CR40" s="35">
+      <c r="CR40" s="26">
         <v>689250.95923756622</v>
       </c>
-      <c r="CS40" s="35">
+      <c r="CS40" s="26">
         <v>815894.08277157135</v>
       </c>
-      <c r="CT40" s="35">
-        <v>656973.63604601915</v>
-      </c>
-      <c r="CU40" s="9"/>
+      <c r="CT40" s="26">
+        <v>657538.17209794465</v>
+      </c>
+      <c r="CU40" s="26">
+        <v>1075634.6961494945</v>
+      </c>
       <c r="CV40" s="9"/>
       <c r="CW40" s="9"/>
       <c r="CX40" s="9"/>
@@ -28290,11 +28288,12 @@
       <c r="CM41" s="12"/>
       <c r="CN41" s="12"/>
       <c r="CO41" s="12"/>
-      <c r="CP41" s="36"/>
-      <c r="CQ41" s="36"/>
-      <c r="CR41" s="36"/>
-      <c r="CS41" s="36"/>
-      <c r="CT41" s="36"/>
+      <c r="CP41" s="12"/>
+      <c r="CQ41" s="12"/>
+      <c r="CR41" s="12"/>
+      <c r="CS41" s="12"/>
+      <c r="CT41" s="12"/>
+      <c r="CU41" s="12"/>
     </row>
     <row r="42" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
@@ -28390,12 +28389,12 @@
       <c r="CM42" s="26"/>
       <c r="CN42" s="26"/>
       <c r="CO42" s="26"/>
-      <c r="CP42" s="35"/>
-      <c r="CQ42" s="35"/>
-      <c r="CR42" s="35"/>
-      <c r="CS42" s="35"/>
-      <c r="CT42" s="35"/>
-      <c r="CU42" s="9"/>
+      <c r="CP42" s="26"/>
+      <c r="CQ42" s="26"/>
+      <c r="CR42" s="26"/>
+      <c r="CS42" s="26"/>
+      <c r="CT42" s="26"/>
+      <c r="CU42" s="26"/>
       <c r="CV42" s="9"/>
       <c r="CW42" s="9"/>
       <c r="CX42" s="9"/>
@@ -28706,22 +28705,24 @@
       <c r="CO43" s="25">
         <v>411569.02246082551</v>
       </c>
-      <c r="CP43" s="33">
+      <c r="CP43" s="25">
         <v>281780.28268736938</v>
       </c>
-      <c r="CQ43" s="33">
+      <c r="CQ43" s="25">
         <v>426094.14822213619</v>
       </c>
-      <c r="CR43" s="33">
+      <c r="CR43" s="25">
         <v>352820.30528717284</v>
       </c>
-      <c r="CS43" s="33">
+      <c r="CS43" s="25">
         <v>446089.39704466867</v>
       </c>
-      <c r="CT43" s="33">
-        <v>301556.90513083135</v>
-      </c>
-      <c r="CU43" s="9"/>
+      <c r="CT43" s="25">
+        <v>301579.73378708912</v>
+      </c>
+      <c r="CU43" s="25">
+        <v>494210.5151653667</v>
+      </c>
       <c r="CV43" s="9"/>
       <c r="CW43" s="9"/>
       <c r="CX43" s="9"/>
@@ -28846,11 +28847,12 @@
       <c r="CM44" s="14"/>
       <c r="CN44" s="14"/>
       <c r="CO44" s="14"/>
-      <c r="CP44" s="37"/>
-      <c r="CQ44" s="37"/>
-      <c r="CR44" s="37"/>
-      <c r="CS44" s="37"/>
-      <c r="CT44" s="37"/>
+      <c r="CP44" s="14"/>
+      <c r="CQ44" s="14"/>
+      <c r="CR44" s="14"/>
+      <c r="CS44" s="14"/>
+      <c r="CT44" s="14"/>
+      <c r="CU44" s="14"/>
     </row>
     <row r="45" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
@@ -28955,11 +28957,11 @@
       <c r="CM47" s="9"/>
       <c r="CN47" s="9"/>
       <c r="CO47" s="9"/>
-      <c r="CP47" s="34"/>
-      <c r="CQ47" s="34"/>
-      <c r="CR47" s="34"/>
-      <c r="CS47" s="34"/>
-      <c r="CT47" s="34"/>
+      <c r="CP47" s="9"/>
+      <c r="CQ47" s="9"/>
+      <c r="CR47" s="9"/>
+      <c r="CS47" s="9"/>
+      <c r="CT47" s="9"/>
       <c r="CU47" s="9"/>
       <c r="CV47" s="9"/>
       <c r="CW47" s="9"/>
@@ -29084,11 +29086,11 @@
       <c r="CM48" s="9"/>
       <c r="CN48" s="9"/>
       <c r="CO48" s="9"/>
-      <c r="CP48" s="34"/>
-      <c r="CQ48" s="34"/>
-      <c r="CR48" s="34"/>
-      <c r="CS48" s="34"/>
-      <c r="CT48" s="34"/>
+      <c r="CP48" s="9"/>
+      <c r="CQ48" s="9"/>
+      <c r="CR48" s="9"/>
+      <c r="CS48" s="9"/>
+      <c r="CT48" s="9"/>
       <c r="CU48" s="9"/>
       <c r="CV48" s="9"/>
       <c r="CW48" s="9"/>
@@ -29132,7 +29134,7 @@
     </row>
     <row r="51" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:120" x14ac:dyDescent="0.2">
@@ -29145,7 +29147,7 @@
     </row>
     <row r="54" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:120" x14ac:dyDescent="0.2">
@@ -29155,132 +29157,132 @@
     </row>
     <row r="57" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="45" t="s">
+      <c r="B57" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45" t="s">
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="45" t="s">
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="K57" s="45"/>
-      <c r="L57" s="45"/>
-      <c r="M57" s="45"/>
-      <c r="N57" s="45" t="s">
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="O57" s="45"/>
-      <c r="P57" s="45"/>
-      <c r="Q57" s="45"/>
-      <c r="R57" s="45" t="s">
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="S57" s="45"/>
-      <c r="T57" s="45"/>
-      <c r="U57" s="45"/>
-      <c r="V57" s="45" t="s">
+      <c r="S57" s="31"/>
+      <c r="T57" s="31"/>
+      <c r="U57" s="31"/>
+      <c r="V57" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="W57" s="45"/>
-      <c r="X57" s="45"/>
-      <c r="Y57" s="45"/>
-      <c r="Z57" s="45" t="s">
+      <c r="W57" s="31"/>
+      <c r="X57" s="31"/>
+      <c r="Y57" s="31"/>
+      <c r="Z57" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AA57" s="45"/>
-      <c r="AB57" s="45"/>
-      <c r="AC57" s="45"/>
-      <c r="AD57" s="45" t="s">
+      <c r="AA57" s="31"/>
+      <c r="AB57" s="31"/>
+      <c r="AC57" s="31"/>
+      <c r="AD57" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="AE57" s="45"/>
-      <c r="AF57" s="45"/>
-      <c r="AG57" s="45"/>
-      <c r="AH57" s="45" t="s">
+      <c r="AE57" s="31"/>
+      <c r="AF57" s="31"/>
+      <c r="AG57" s="31"/>
+      <c r="AH57" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AI57" s="45"/>
-      <c r="AJ57" s="45"/>
-      <c r="AK57" s="45"/>
-      <c r="AL57" s="45" t="s">
+      <c r="AI57" s="31"/>
+      <c r="AJ57" s="31"/>
+      <c r="AK57" s="31"/>
+      <c r="AL57" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AM57" s="45"/>
-      <c r="AN57" s="45"/>
-      <c r="AO57" s="45"/>
-      <c r="AP57" s="45" t="s">
+      <c r="AM57" s="31"/>
+      <c r="AN57" s="31"/>
+      <c r="AO57" s="31"/>
+      <c r="AP57" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AQ57" s="45"/>
-      <c r="AR57" s="45"/>
-      <c r="AS57" s="45"/>
-      <c r="AT57" s="45" t="s">
+      <c r="AQ57" s="31"/>
+      <c r="AR57" s="31"/>
+      <c r="AS57" s="31"/>
+      <c r="AT57" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AU57" s="45"/>
-      <c r="AV57" s="45"/>
-      <c r="AW57" s="45"/>
-      <c r="AX57" s="45" t="s">
+      <c r="AU57" s="31"/>
+      <c r="AV57" s="31"/>
+      <c r="AW57" s="31"/>
+      <c r="AX57" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AY57" s="45"/>
-      <c r="AZ57" s="45"/>
-      <c r="BA57" s="45"/>
-      <c r="BB57" s="45" t="s">
+      <c r="AY57" s="31"/>
+      <c r="AZ57" s="31"/>
+      <c r="BA57" s="31"/>
+      <c r="BB57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="BC57" s="45"/>
-      <c r="BD57" s="45"/>
-      <c r="BE57" s="45"/>
-      <c r="BF57" s="45" t="s">
+      <c r="BC57" s="31"/>
+      <c r="BD57" s="31"/>
+      <c r="BE57" s="31"/>
+      <c r="BF57" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="BG57" s="45"/>
-      <c r="BH57" s="45"/>
-      <c r="BI57" s="45"/>
-      <c r="BJ57" s="45" t="s">
+      <c r="BG57" s="31"/>
+      <c r="BH57" s="31"/>
+      <c r="BI57" s="31"/>
+      <c r="BJ57" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="BK57" s="45"/>
-      <c r="BL57" s="45"/>
-      <c r="BM57" s="45"/>
-      <c r="BN57" s="45" t="s">
+      <c r="BK57" s="31"/>
+      <c r="BL57" s="31"/>
+      <c r="BM57" s="31"/>
+      <c r="BN57" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="BO57" s="45"/>
-      <c r="BP57" s="45"/>
-      <c r="BQ57" s="45"/>
-      <c r="BR57" s="45" t="s">
+      <c r="BO57" s="31"/>
+      <c r="BP57" s="31"/>
+      <c r="BQ57" s="31"/>
+      <c r="BR57" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="BS57" s="45"/>
-      <c r="BT57" s="45"/>
-      <c r="BU57" s="45"/>
-      <c r="BV57" s="45" t="s">
+      <c r="BS57" s="31"/>
+      <c r="BT57" s="31"/>
+      <c r="BU57" s="31"/>
+      <c r="BV57" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="BW57" s="45"/>
-      <c r="BX57" s="45"/>
-      <c r="BY57" s="45"/>
-      <c r="BZ57" s="45" t="s">
+      <c r="BW57" s="31"/>
+      <c r="BX57" s="31"/>
+      <c r="BY57" s="31"/>
+      <c r="BZ57" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="CA57" s="45"/>
-      <c r="CB57" s="45"/>
-      <c r="CC57" s="45"/>
-      <c r="CD57" s="45" t="s">
+      <c r="CA57" s="31"/>
+      <c r="CB57" s="31"/>
+      <c r="CC57" s="31"/>
+      <c r="CD57" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="CE57" s="45"/>
-      <c r="CF57" s="45"/>
-      <c r="CG57" s="45"/>
+      <c r="CE57" s="31"/>
+      <c r="CF57" s="31"/>
+      <c r="CG57" s="31"/>
       <c r="CH57" s="29" t="s">
         <v>50</v>
       </c>
@@ -29293,13 +29295,14 @@
       <c r="CM57" s="29"/>
       <c r="CN57" s="29"/>
       <c r="CO57" s="29"/>
-      <c r="CP57" s="31" t="s">
+      <c r="CP57" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="CQ57" s="39"/>
-      <c r="CR57" s="39"/>
-      <c r="CS57" s="39"/>
-      <c r="CT57" s="39"/>
+      <c r="CQ57" s="29"/>
+      <c r="CR57" s="30"/>
+      <c r="CS57" s="30"/>
+      <c r="CT57" s="29"/>
+      <c r="CU57" s="30"/>
     </row>
     <row r="58" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
@@ -29581,13 +29584,16 @@
       <c r="CO58" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CP58" s="40" t="s">
+      <c r="CP58" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="CQ58" s="40"/>
-      <c r="CR58" s="40"/>
-      <c r="CS58" s="40"/>
-      <c r="CT58" s="40"/>
+      <c r="CQ58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CR58" s="5"/>
+      <c r="CS58" s="5"/>
+      <c r="CT58" s="5"/>
+      <c r="CU58" s="5"/>
     </row>
     <row r="59" spans="1:120" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
@@ -29872,14 +29878,16 @@
       <c r="CO60" s="27">
         <v>17.52219755576175</v>
       </c>
-      <c r="CP60" s="41">
-        <v>14.293290053295692</v>
-      </c>
-      <c r="CQ60" s="41"/>
-      <c r="CR60" s="41"/>
-      <c r="CS60" s="41"/>
-      <c r="CT60" s="41"/>
-      <c r="CU60" s="9"/>
+      <c r="CP60" s="27">
+        <v>14.029228592849691</v>
+      </c>
+      <c r="CQ60" s="27">
+        <v>23.849388224095833</v>
+      </c>
+      <c r="CR60" s="27"/>
+      <c r="CS60" s="27"/>
+      <c r="CT60" s="27"/>
+      <c r="CU60" s="27"/>
       <c r="CV60" s="9"/>
       <c r="CW60" s="9"/>
       <c r="CX60" s="9"/>
@@ -30182,14 +30190,16 @@
       <c r="CO61" s="27">
         <v>6.1502468718119161</v>
       </c>
-      <c r="CP61" s="41">
-        <v>8.6877560106254776</v>
-      </c>
-      <c r="CQ61" s="41"/>
-      <c r="CR61" s="41"/>
-      <c r="CS61" s="41"/>
-      <c r="CT61" s="41"/>
-      <c r="CU61" s="9"/>
+      <c r="CP61" s="27">
+        <v>8.8092382517562839</v>
+      </c>
+      <c r="CQ61" s="27">
+        <v>16.413677550364895</v>
+      </c>
+      <c r="CR61" s="27"/>
+      <c r="CS61" s="27"/>
+      <c r="CT61" s="27"/>
+      <c r="CU61" s="27"/>
       <c r="CV61" s="9"/>
       <c r="CW61" s="9"/>
       <c r="CX61" s="9"/>
@@ -30492,14 +30502,16 @@
       <c r="CO62" s="27">
         <v>13.002225417844443</v>
       </c>
-      <c r="CP62" s="41">
-        <v>4.2500823134528787</v>
-      </c>
-      <c r="CQ62" s="41"/>
-      <c r="CR62" s="41"/>
-      <c r="CS62" s="41"/>
-      <c r="CT62" s="41"/>
-      <c r="CU62" s="9"/>
+      <c r="CP62" s="27">
+        <v>4.8235792556554458</v>
+      </c>
+      <c r="CQ62" s="27">
+        <v>7.248993064687042</v>
+      </c>
+      <c r="CR62" s="27"/>
+      <c r="CS62" s="27"/>
+      <c r="CT62" s="27"/>
+      <c r="CU62" s="27"/>
       <c r="CV62" s="9"/>
       <c r="CW62" s="9"/>
       <c r="CX62" s="9"/>
@@ -30615,12 +30627,12 @@
       <c r="CM63" s="20"/>
       <c r="CN63" s="20"/>
       <c r="CO63" s="20"/>
-      <c r="CP63" s="42"/>
-      <c r="CQ63" s="42"/>
-      <c r="CR63" s="42"/>
-      <c r="CS63" s="42"/>
-      <c r="CT63" s="42"/>
-      <c r="CU63" s="9"/>
+      <c r="CP63" s="20"/>
+      <c r="CQ63" s="20"/>
+      <c r="CR63" s="20"/>
+      <c r="CS63" s="20"/>
+      <c r="CT63" s="20"/>
+      <c r="CU63" s="20"/>
       <c r="CV63" s="9"/>
       <c r="CW63" s="9"/>
       <c r="CX63" s="9"/>
@@ -30923,14 +30935,16 @@
       <c r="CO64" s="27">
         <v>12.419671151701621</v>
       </c>
-      <c r="CP64" s="41">
-        <v>8.633491991537511</v>
-      </c>
-      <c r="CQ64" s="41"/>
-      <c r="CR64" s="41"/>
-      <c r="CS64" s="41"/>
-      <c r="CT64" s="41"/>
-      <c r="CU64" s="9"/>
+      <c r="CP64" s="27">
+        <v>8.8058920909924012</v>
+      </c>
+      <c r="CQ64" s="27">
+        <v>18.329072916903399</v>
+      </c>
+      <c r="CR64" s="27"/>
+      <c r="CS64" s="27"/>
+      <c r="CT64" s="27"/>
+      <c r="CU64" s="27"/>
       <c r="CV64" s="9"/>
       <c r="CW64" s="9"/>
       <c r="CX64" s="9"/>
@@ -31047,11 +31061,12 @@
       <c r="CM65" s="23"/>
       <c r="CN65" s="23"/>
       <c r="CO65" s="23"/>
-      <c r="CP65" s="43"/>
-      <c r="CQ65" s="43"/>
-      <c r="CR65" s="43"/>
-      <c r="CS65" s="43"/>
-      <c r="CT65" s="43"/>
+      <c r="CP65" s="23"/>
+      <c r="CQ65" s="23"/>
+      <c r="CR65" s="23"/>
+      <c r="CS65" s="23"/>
+      <c r="CT65" s="23"/>
+      <c r="CU65" s="23"/>
     </row>
     <row r="66" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
@@ -31147,12 +31162,12 @@
       <c r="CM66" s="27"/>
       <c r="CN66" s="27"/>
       <c r="CO66" s="27"/>
-      <c r="CP66" s="41"/>
-      <c r="CQ66" s="41"/>
-      <c r="CR66" s="41"/>
-      <c r="CS66" s="41"/>
-      <c r="CT66" s="41"/>
-      <c r="CU66" s="9"/>
+      <c r="CP66" s="27"/>
+      <c r="CQ66" s="27"/>
+      <c r="CR66" s="27"/>
+      <c r="CS66" s="27"/>
+      <c r="CT66" s="27"/>
+      <c r="CU66" s="27"/>
       <c r="CV66" s="9"/>
       <c r="CW66" s="9"/>
       <c r="CX66" s="9"/>
@@ -31455,14 +31470,16 @@
       <c r="CO67" s="27">
         <v>12.717942117231246</v>
       </c>
-      <c r="CP67" s="41">
-        <v>8.6334919915375394</v>
-      </c>
-      <c r="CQ67" s="41"/>
-      <c r="CR67" s="41"/>
-      <c r="CS67" s="41"/>
-      <c r="CT67" s="41"/>
-      <c r="CU67" s="9"/>
+      <c r="CP67" s="27">
+        <v>8.7598305559312308</v>
+      </c>
+      <c r="CQ67" s="27">
+        <v>17.317549917704468</v>
+      </c>
+      <c r="CR67" s="27"/>
+      <c r="CS67" s="27"/>
+      <c r="CT67" s="27"/>
+      <c r="CU67" s="27"/>
       <c r="CV67" s="9"/>
       <c r="CW67" s="9"/>
       <c r="CX67" s="9"/>
@@ -31579,11 +31596,12 @@
       <c r="CM68" s="14"/>
       <c r="CN68" s="14"/>
       <c r="CO68" s="14"/>
-      <c r="CP68" s="37"/>
-      <c r="CQ68" s="37"/>
-      <c r="CR68" s="37"/>
-      <c r="CS68" s="37"/>
-      <c r="CT68" s="37"/>
+      <c r="CP68" s="14"/>
+      <c r="CQ68" s="14"/>
+      <c r="CR68" s="14"/>
+      <c r="CS68" s="14"/>
+      <c r="CT68" s="14"/>
+      <c r="CU68" s="14"/>
     </row>
     <row r="69" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
@@ -31688,11 +31706,11 @@
       <c r="CM71" s="9"/>
       <c r="CN71" s="9"/>
       <c r="CO71" s="9"/>
-      <c r="CP71" s="34"/>
-      <c r="CQ71" s="34"/>
-      <c r="CR71" s="34"/>
-      <c r="CS71" s="34"/>
-      <c r="CT71" s="34"/>
+      <c r="CP71" s="9"/>
+      <c r="CQ71" s="9"/>
+      <c r="CR71" s="9"/>
+      <c r="CS71" s="9"/>
+      <c r="CT71" s="9"/>
       <c r="CU71" s="9"/>
       <c r="CV71" s="9"/>
       <c r="CW71" s="9"/>
@@ -31809,11 +31827,11 @@
       <c r="CM72" s="9"/>
       <c r="CN72" s="9"/>
       <c r="CO72" s="9"/>
-      <c r="CP72" s="34"/>
-      <c r="CQ72" s="34"/>
-      <c r="CR72" s="34"/>
-      <c r="CS72" s="34"/>
-      <c r="CT72" s="34"/>
+      <c r="CP72" s="9"/>
+      <c r="CQ72" s="9"/>
+      <c r="CR72" s="9"/>
+      <c r="CS72" s="9"/>
+      <c r="CT72" s="9"/>
       <c r="CU72" s="9"/>
       <c r="CV72" s="9"/>
       <c r="CW72" s="9"/>
@@ -31849,7 +31867,7 @@
     </row>
     <row r="75" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:120" x14ac:dyDescent="0.2">
@@ -31859,7 +31877,7 @@
     </row>
     <row r="78" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:120" x14ac:dyDescent="0.2">
@@ -31869,132 +31887,132 @@
     </row>
     <row r="81" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
-      <c r="B81" s="45" t="s">
+      <c r="B81" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="46"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="45" t="s">
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G81" s="46"/>
-      <c r="H81" s="46"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="45" t="s">
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="K81" s="46"/>
-      <c r="L81" s="46"/>
-      <c r="M81" s="46"/>
-      <c r="N81" s="45" t="s">
+      <c r="K81" s="32"/>
+      <c r="L81" s="32"/>
+      <c r="M81" s="32"/>
+      <c r="N81" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="O81" s="46"/>
-      <c r="P81" s="46"/>
-      <c r="Q81" s="46"/>
-      <c r="R81" s="45" t="s">
+      <c r="O81" s="32"/>
+      <c r="P81" s="32"/>
+      <c r="Q81" s="32"/>
+      <c r="R81" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="S81" s="46"/>
-      <c r="T81" s="46"/>
-      <c r="U81" s="46"/>
-      <c r="V81" s="45" t="s">
+      <c r="S81" s="32"/>
+      <c r="T81" s="32"/>
+      <c r="U81" s="32"/>
+      <c r="V81" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="W81" s="46"/>
-      <c r="X81" s="46"/>
-      <c r="Y81" s="46"/>
-      <c r="Z81" s="45" t="s">
+      <c r="W81" s="32"/>
+      <c r="X81" s="32"/>
+      <c r="Y81" s="32"/>
+      <c r="Z81" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AA81" s="46"/>
-      <c r="AB81" s="46"/>
-      <c r="AC81" s="46"/>
-      <c r="AD81" s="45" t="s">
+      <c r="AA81" s="32"/>
+      <c r="AB81" s="32"/>
+      <c r="AC81" s="32"/>
+      <c r="AD81" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="AE81" s="46"/>
-      <c r="AF81" s="46"/>
-      <c r="AG81" s="46"/>
-      <c r="AH81" s="45" t="s">
+      <c r="AE81" s="32"/>
+      <c r="AF81" s="32"/>
+      <c r="AG81" s="32"/>
+      <c r="AH81" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AI81" s="46"/>
-      <c r="AJ81" s="46"/>
-      <c r="AK81" s="46"/>
-      <c r="AL81" s="45" t="s">
+      <c r="AI81" s="32"/>
+      <c r="AJ81" s="32"/>
+      <c r="AK81" s="32"/>
+      <c r="AL81" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AM81" s="46"/>
-      <c r="AN81" s="46"/>
-      <c r="AO81" s="46"/>
-      <c r="AP81" s="45" t="s">
+      <c r="AM81" s="32"/>
+      <c r="AN81" s="32"/>
+      <c r="AO81" s="32"/>
+      <c r="AP81" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AQ81" s="46"/>
-      <c r="AR81" s="46"/>
-      <c r="AS81" s="46"/>
-      <c r="AT81" s="45" t="s">
+      <c r="AQ81" s="32"/>
+      <c r="AR81" s="32"/>
+      <c r="AS81" s="32"/>
+      <c r="AT81" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AU81" s="46"/>
-      <c r="AV81" s="46"/>
-      <c r="AW81" s="46"/>
-      <c r="AX81" s="45" t="s">
+      <c r="AU81" s="32"/>
+      <c r="AV81" s="32"/>
+      <c r="AW81" s="32"/>
+      <c r="AX81" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AY81" s="46"/>
-      <c r="AZ81" s="46"/>
-      <c r="BA81" s="46"/>
-      <c r="BB81" s="45" t="s">
+      <c r="AY81" s="32"/>
+      <c r="AZ81" s="32"/>
+      <c r="BA81" s="32"/>
+      <c r="BB81" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="BC81" s="46"/>
-      <c r="BD81" s="46"/>
-      <c r="BE81" s="46"/>
-      <c r="BF81" s="45" t="s">
+      <c r="BC81" s="32"/>
+      <c r="BD81" s="32"/>
+      <c r="BE81" s="32"/>
+      <c r="BF81" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="BG81" s="46"/>
-      <c r="BH81" s="46"/>
-      <c r="BI81" s="46"/>
-      <c r="BJ81" s="45" t="s">
+      <c r="BG81" s="32"/>
+      <c r="BH81" s="32"/>
+      <c r="BI81" s="32"/>
+      <c r="BJ81" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="BK81" s="46"/>
-      <c r="BL81" s="46"/>
-      <c r="BM81" s="46"/>
-      <c r="BN81" s="45" t="s">
+      <c r="BK81" s="32"/>
+      <c r="BL81" s="32"/>
+      <c r="BM81" s="32"/>
+      <c r="BN81" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="BO81" s="46"/>
-      <c r="BP81" s="46"/>
-      <c r="BQ81" s="46"/>
-      <c r="BR81" s="45" t="s">
+      <c r="BO81" s="32"/>
+      <c r="BP81" s="32"/>
+      <c r="BQ81" s="32"/>
+      <c r="BR81" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="BS81" s="46"/>
-      <c r="BT81" s="46"/>
-      <c r="BU81" s="46"/>
-      <c r="BV81" s="45" t="s">
+      <c r="BS81" s="32"/>
+      <c r="BT81" s="32"/>
+      <c r="BU81" s="32"/>
+      <c r="BV81" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="BW81" s="45"/>
-      <c r="BX81" s="45"/>
-      <c r="BY81" s="45"/>
-      <c r="BZ81" s="45" t="s">
+      <c r="BW81" s="31"/>
+      <c r="BX81" s="31"/>
+      <c r="BY81" s="31"/>
+      <c r="BZ81" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="CA81" s="45"/>
-      <c r="CB81" s="45"/>
-      <c r="CC81" s="45"/>
-      <c r="CD81" s="45" t="s">
+      <c r="CA81" s="31"/>
+      <c r="CB81" s="31"/>
+      <c r="CC81" s="31"/>
+      <c r="CD81" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="CE81" s="45"/>
-      <c r="CF81" s="45"/>
-      <c r="CG81" s="45"/>
+      <c r="CE81" s="31"/>
+      <c r="CF81" s="31"/>
+      <c r="CG81" s="31"/>
       <c r="CH81" s="29" t="s">
         <v>50</v>
       </c>
@@ -32007,13 +32025,14 @@
       <c r="CM81" s="29"/>
       <c r="CN81" s="29"/>
       <c r="CO81" s="29"/>
-      <c r="CP81" s="31" t="s">
+      <c r="CP81" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="CQ81" s="39"/>
-      <c r="CR81" s="39"/>
-      <c r="CS81" s="39"/>
-      <c r="CT81" s="39"/>
+      <c r="CQ81" s="29"/>
+      <c r="CR81" s="30"/>
+      <c r="CS81" s="30"/>
+      <c r="CT81" s="29"/>
+      <c r="CU81" s="30"/>
     </row>
     <row r="82" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
@@ -32295,13 +32314,16 @@
       <c r="CO82" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP82" s="32" t="s">
+      <c r="CP82" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CQ82" s="32"/>
-      <c r="CR82" s="32"/>
-      <c r="CS82" s="32"/>
-      <c r="CT82" s="32"/>
+      <c r="CQ82" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CR82" s="6"/>
+      <c r="CS82" s="6"/>
+      <c r="CT82" s="6"/>
+      <c r="CU82" s="6"/>
     </row>
     <row r="83" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
@@ -32586,14 +32608,16 @@
       <c r="CO84" s="27">
         <v>14.942232835606873</v>
       </c>
-      <c r="CP84" s="41">
-        <v>12.357410641146529</v>
-      </c>
-      <c r="CQ84" s="41"/>
-      <c r="CR84" s="41"/>
-      <c r="CS84" s="41"/>
-      <c r="CT84" s="41"/>
-      <c r="CU84" s="9"/>
+      <c r="CP84" s="27">
+        <v>12.050615935135696</v>
+      </c>
+      <c r="CQ84" s="27">
+        <v>21.788040429111661</v>
+      </c>
+      <c r="CR84" s="27"/>
+      <c r="CS84" s="27"/>
+      <c r="CT84" s="27"/>
+      <c r="CU84" s="27"/>
       <c r="CV84" s="9"/>
       <c r="CW84" s="9"/>
       <c r="CX84" s="9"/>
@@ -32896,14 +32920,16 @@
       <c r="CO85" s="27">
         <v>3.8731673577346584</v>
       </c>
-      <c r="CP85" s="41">
-        <v>6.7304341891182986</v>
-      </c>
-      <c r="CQ85" s="41"/>
-      <c r="CR85" s="41"/>
-      <c r="CS85" s="41"/>
-      <c r="CT85" s="41"/>
-      <c r="CU85" s="9"/>
+      <c r="CP85" s="27">
+        <v>6.7659478501360439</v>
+      </c>
+      <c r="CQ85" s="27">
+        <v>13.640362798029386</v>
+      </c>
+      <c r="CR85" s="27"/>
+      <c r="CS85" s="27"/>
+      <c r="CT85" s="27"/>
+      <c r="CU85" s="27"/>
       <c r="CV85" s="9"/>
       <c r="CW85" s="9"/>
       <c r="CX85" s="9"/>
@@ -33206,14 +33232,16 @@
       <c r="CO86" s="27">
         <v>10.605522369928934</v>
       </c>
-      <c r="CP86" s="41">
-        <v>2.5601832330291785</v>
-      </c>
-      <c r="CQ86" s="41"/>
-      <c r="CR86" s="41"/>
-      <c r="CS86" s="41"/>
-      <c r="CT86" s="41"/>
-      <c r="CU86" s="9"/>
+      <c r="CP86" s="27">
+        <v>3.0488314127610892</v>
+      </c>
+      <c r="CQ86" s="27">
+        <v>4.8533657284517915</v>
+      </c>
+      <c r="CR86" s="27"/>
+      <c r="CS86" s="27"/>
+      <c r="CT86" s="27"/>
+      <c r="CU86" s="27"/>
       <c r="CV86" s="9"/>
       <c r="CW86" s="9"/>
       <c r="CX86" s="9"/>
@@ -33329,12 +33357,12 @@
       <c r="CM87" s="20"/>
       <c r="CN87" s="20"/>
       <c r="CO87" s="20"/>
-      <c r="CP87" s="42"/>
-      <c r="CQ87" s="42"/>
-      <c r="CR87" s="42"/>
-      <c r="CS87" s="42"/>
-      <c r="CT87" s="42"/>
-      <c r="CU87" s="9"/>
+      <c r="CP87" s="20"/>
+      <c r="CQ87" s="20"/>
+      <c r="CR87" s="20"/>
+      <c r="CS87" s="20"/>
+      <c r="CT87" s="20"/>
+      <c r="CU87" s="20"/>
       <c r="CV87" s="9"/>
       <c r="CW87" s="9"/>
       <c r="CX87" s="9"/>
@@ -33637,14 +33665,16 @@
       <c r="CO88" s="27">
         <v>10.092964014996909</v>
       </c>
-      <c r="CP88" s="41">
-        <v>6.7984905167795944</v>
-      </c>
-      <c r="CQ88" s="41"/>
-      <c r="CR88" s="41"/>
-      <c r="CS88" s="41"/>
-      <c r="CT88" s="41"/>
-      <c r="CU88" s="9"/>
+      <c r="CP88" s="27">
+        <v>6.8902622331467995</v>
+      </c>
+      <c r="CQ88" s="27">
+        <v>16.051626335215857</v>
+      </c>
+      <c r="CR88" s="27"/>
+      <c r="CS88" s="27"/>
+      <c r="CT88" s="27"/>
+      <c r="CU88" s="27"/>
       <c r="CV88" s="9"/>
       <c r="CW88" s="9"/>
       <c r="CX88" s="9"/>
@@ -33761,11 +33791,12 @@
       <c r="CM89" s="23"/>
       <c r="CN89" s="23"/>
       <c r="CO89" s="23"/>
-      <c r="CP89" s="43"/>
-      <c r="CQ89" s="43"/>
-      <c r="CR89" s="43"/>
-      <c r="CS89" s="43"/>
-      <c r="CT89" s="43"/>
+      <c r="CP89" s="23"/>
+      <c r="CQ89" s="23"/>
+      <c r="CR89" s="23"/>
+      <c r="CS89" s="23"/>
+      <c r="CT89" s="23"/>
+      <c r="CU89" s="23"/>
     </row>
     <row r="90" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
@@ -33861,12 +33892,12 @@
       <c r="CM90" s="27"/>
       <c r="CN90" s="27"/>
       <c r="CO90" s="27"/>
-      <c r="CP90" s="41"/>
-      <c r="CQ90" s="41"/>
-      <c r="CR90" s="41"/>
-      <c r="CS90" s="41"/>
-      <c r="CT90" s="41"/>
-      <c r="CU90" s="9"/>
+      <c r="CP90" s="27"/>
+      <c r="CQ90" s="27"/>
+      <c r="CR90" s="27"/>
+      <c r="CS90" s="27"/>
+      <c r="CT90" s="27"/>
+      <c r="CU90" s="27"/>
       <c r="CV90" s="9"/>
       <c r="CW90" s="9"/>
       <c r="CX90" s="9"/>
@@ -34169,14 +34200,16 @@
       <c r="CO91" s="27">
         <v>8.3875055458356087</v>
       </c>
-      <c r="CP91" s="41">
-        <v>7.0184550369706926</v>
-      </c>
-      <c r="CQ91" s="41"/>
-      <c r="CR91" s="41"/>
-      <c r="CS91" s="41"/>
-      <c r="CT91" s="41"/>
-      <c r="CU91" s="9"/>
+      <c r="CP91" s="27">
+        <v>7.0265566174077918</v>
+      </c>
+      <c r="CQ91" s="27">
+        <v>15.986224459416732</v>
+      </c>
+      <c r="CR91" s="27"/>
+      <c r="CS91" s="27"/>
+      <c r="CT91" s="27"/>
+      <c r="CU91" s="27"/>
       <c r="CV91" s="9"/>
       <c r="CW91" s="9"/>
       <c r="CX91" s="9"/>
@@ -34293,11 +34326,12 @@
       <c r="CM92" s="14"/>
       <c r="CN92" s="14"/>
       <c r="CO92" s="14"/>
-      <c r="CP92" s="37"/>
-      <c r="CQ92" s="37"/>
-      <c r="CR92" s="37"/>
-      <c r="CS92" s="37"/>
-      <c r="CT92" s="37"/>
+      <c r="CP92" s="14"/>
+      <c r="CQ92" s="14"/>
+      <c r="CR92" s="14"/>
+      <c r="CS92" s="14"/>
+      <c r="CT92" s="14"/>
+      <c r="CU92" s="14"/>
     </row>
     <row r="93" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
@@ -34402,11 +34436,11 @@
       <c r="CM95" s="9"/>
       <c r="CN95" s="9"/>
       <c r="CO95" s="9"/>
-      <c r="CP95" s="34"/>
-      <c r="CQ95" s="34"/>
-      <c r="CR95" s="34"/>
-      <c r="CS95" s="34"/>
-      <c r="CT95" s="34"/>
+      <c r="CP95" s="9"/>
+      <c r="CQ95" s="9"/>
+      <c r="CR95" s="9"/>
+      <c r="CS95" s="9"/>
+      <c r="CT95" s="9"/>
       <c r="CU95" s="9"/>
       <c r="CV95" s="9"/>
       <c r="CW95" s="9"/>
@@ -34531,11 +34565,11 @@
       <c r="CM96" s="9"/>
       <c r="CN96" s="9"/>
       <c r="CO96" s="9"/>
-      <c r="CP96" s="34"/>
-      <c r="CQ96" s="34"/>
-      <c r="CR96" s="34"/>
-      <c r="CS96" s="34"/>
-      <c r="CT96" s="34"/>
+      <c r="CP96" s="9"/>
+      <c r="CQ96" s="9"/>
+      <c r="CR96" s="9"/>
+      <c r="CS96" s="9"/>
+      <c r="CT96" s="9"/>
       <c r="CU96" s="9"/>
       <c r="CV96" s="9"/>
       <c r="CW96" s="9"/>
@@ -34574,7 +34608,7 @@
     </row>
     <row r="98" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:128" x14ac:dyDescent="0.2">
@@ -34584,7 +34618,7 @@
     </row>
     <row r="101" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:128" x14ac:dyDescent="0.2">
@@ -34594,132 +34628,132 @@
     </row>
     <row r="104" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
-      <c r="B104" s="45">
+      <c r="B104" s="31">
         <v>2000</v>
       </c>
-      <c r="C104" s="46"/>
-      <c r="D104" s="46"/>
-      <c r="E104" s="46"/>
-      <c r="F104" s="45">
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="31">
         <v>2001</v>
       </c>
-      <c r="G104" s="46"/>
-      <c r="H104" s="46"/>
-      <c r="I104" s="46"/>
-      <c r="J104" s="45">
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="31">
         <v>2002</v>
       </c>
-      <c r="K104" s="46"/>
-      <c r="L104" s="46"/>
-      <c r="M104" s="46"/>
-      <c r="N104" s="45">
+      <c r="K104" s="32"/>
+      <c r="L104" s="32"/>
+      <c r="M104" s="32"/>
+      <c r="N104" s="31">
         <v>2003</v>
       </c>
-      <c r="O104" s="46"/>
-      <c r="P104" s="46"/>
-      <c r="Q104" s="46"/>
-      <c r="R104" s="45">
+      <c r="O104" s="32"/>
+      <c r="P104" s="32"/>
+      <c r="Q104" s="32"/>
+      <c r="R104" s="31">
         <v>2004</v>
       </c>
-      <c r="S104" s="46"/>
-      <c r="T104" s="46"/>
-      <c r="U104" s="46"/>
-      <c r="V104" s="45">
+      <c r="S104" s="32"/>
+      <c r="T104" s="32"/>
+      <c r="U104" s="32"/>
+      <c r="V104" s="31">
         <v>2005</v>
       </c>
-      <c r="W104" s="46"/>
-      <c r="X104" s="46"/>
-      <c r="Y104" s="46"/>
-      <c r="Z104" s="45">
+      <c r="W104" s="32"/>
+      <c r="X104" s="32"/>
+      <c r="Y104" s="32"/>
+      <c r="Z104" s="31">
         <v>2006</v>
       </c>
-      <c r="AA104" s="46"/>
-      <c r="AB104" s="46"/>
-      <c r="AC104" s="46"/>
-      <c r="AD104" s="45">
+      <c r="AA104" s="32"/>
+      <c r="AB104" s="32"/>
+      <c r="AC104" s="32"/>
+      <c r="AD104" s="31">
         <v>2007</v>
       </c>
-      <c r="AE104" s="46"/>
-      <c r="AF104" s="46"/>
-      <c r="AG104" s="46"/>
-      <c r="AH104" s="45">
+      <c r="AE104" s="32"/>
+      <c r="AF104" s="32"/>
+      <c r="AG104" s="32"/>
+      <c r="AH104" s="31">
         <v>2008</v>
       </c>
-      <c r="AI104" s="46"/>
-      <c r="AJ104" s="46"/>
-      <c r="AK104" s="46"/>
-      <c r="AL104" s="45">
+      <c r="AI104" s="32"/>
+      <c r="AJ104" s="32"/>
+      <c r="AK104" s="32"/>
+      <c r="AL104" s="31">
         <v>2009</v>
       </c>
-      <c r="AM104" s="46"/>
-      <c r="AN104" s="46"/>
-      <c r="AO104" s="46"/>
-      <c r="AP104" s="45">
+      <c r="AM104" s="32"/>
+      <c r="AN104" s="32"/>
+      <c r="AO104" s="32"/>
+      <c r="AP104" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ104" s="46"/>
-      <c r="AR104" s="46"/>
-      <c r="AS104" s="46"/>
-      <c r="AT104" s="45">
+      <c r="AQ104" s="32"/>
+      <c r="AR104" s="32"/>
+      <c r="AS104" s="32"/>
+      <c r="AT104" s="31">
         <v>2011</v>
       </c>
-      <c r="AU104" s="46"/>
-      <c r="AV104" s="46"/>
-      <c r="AW104" s="46"/>
-      <c r="AX104" s="45">
+      <c r="AU104" s="32"/>
+      <c r="AV104" s="32"/>
+      <c r="AW104" s="32"/>
+      <c r="AX104" s="31">
         <v>2012</v>
       </c>
-      <c r="AY104" s="46"/>
-      <c r="AZ104" s="46"/>
-      <c r="BA104" s="46"/>
-      <c r="BB104" s="45">
+      <c r="AY104" s="32"/>
+      <c r="AZ104" s="32"/>
+      <c r="BA104" s="32"/>
+      <c r="BB104" s="31">
         <v>2013</v>
       </c>
-      <c r="BC104" s="46"/>
-      <c r="BD104" s="46"/>
-      <c r="BE104" s="46"/>
-      <c r="BF104" s="45">
+      <c r="BC104" s="32"/>
+      <c r="BD104" s="32"/>
+      <c r="BE104" s="32"/>
+      <c r="BF104" s="31">
         <v>2014</v>
       </c>
-      <c r="BG104" s="46"/>
-      <c r="BH104" s="46"/>
-      <c r="BI104" s="46"/>
-      <c r="BJ104" s="45">
+      <c r="BG104" s="32"/>
+      <c r="BH104" s="32"/>
+      <c r="BI104" s="32"/>
+      <c r="BJ104" s="31">
         <v>2015</v>
       </c>
-      <c r="BK104" s="46"/>
-      <c r="BL104" s="46"/>
-      <c r="BM104" s="46"/>
-      <c r="BN104" s="45">
+      <c r="BK104" s="32"/>
+      <c r="BL104" s="32"/>
+      <c r="BM104" s="32"/>
+      <c r="BN104" s="31">
         <v>2016</v>
       </c>
-      <c r="BO104" s="46"/>
-      <c r="BP104" s="46"/>
-      <c r="BQ104" s="46"/>
-      <c r="BR104" s="45">
+      <c r="BO104" s="32"/>
+      <c r="BP104" s="32"/>
+      <c r="BQ104" s="32"/>
+      <c r="BR104" s="31">
         <v>2017</v>
       </c>
-      <c r="BS104" s="46"/>
-      <c r="BT104" s="46"/>
-      <c r="BU104" s="46"/>
-      <c r="BV104" s="45">
+      <c r="BS104" s="32"/>
+      <c r="BT104" s="32"/>
+      <c r="BU104" s="32"/>
+      <c r="BV104" s="31">
         <v>2018</v>
       </c>
-      <c r="BW104" s="45"/>
-      <c r="BX104" s="45"/>
-      <c r="BY104" s="45"/>
-      <c r="BZ104" s="45">
+      <c r="BW104" s="31"/>
+      <c r="BX104" s="31"/>
+      <c r="BY104" s="31"/>
+      <c r="BZ104" s="31">
         <v>2019</v>
       </c>
-      <c r="CA104" s="45"/>
-      <c r="CB104" s="45"/>
-      <c r="CC104" s="45"/>
-      <c r="CD104" s="45">
+      <c r="CA104" s="31"/>
+      <c r="CB104" s="31"/>
+      <c r="CC104" s="31"/>
+      <c r="CD104" s="31">
         <v>2020</v>
       </c>
-      <c r="CE104" s="45"/>
-      <c r="CF104" s="45"/>
-      <c r="CG104" s="45"/>
+      <c r="CE104" s="31"/>
+      <c r="CF104" s="31"/>
+      <c r="CG104" s="31"/>
       <c r="CH104" s="29">
         <v>2021</v>
       </c>
@@ -34732,15 +34766,16 @@
       <c r="CM104" s="29"/>
       <c r="CN104" s="29"/>
       <c r="CO104" s="29"/>
-      <c r="CP104" s="31">
+      <c r="CP104" s="29">
         <v>2023</v>
       </c>
-      <c r="CQ104" s="31"/>
-      <c r="CR104" s="31"/>
-      <c r="CS104" s="31"/>
-      <c r="CT104" s="31">
+      <c r="CQ104" s="29"/>
+      <c r="CR104" s="29"/>
+      <c r="CS104" s="29"/>
+      <c r="CT104" s="29">
         <v>2024</v>
       </c>
+      <c r="CU104" s="29"/>
     </row>
     <row r="105" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
@@ -35022,20 +35057,23 @@
       <c r="CO105" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP105" s="32" t="s">
+      <c r="CP105" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CQ105" s="32" t="s">
+      <c r="CQ105" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CR105" s="32" t="s">
+      <c r="CR105" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CS105" s="32" t="s">
+      <c r="CS105" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CT105" s="32" t="s">
+      <c r="CT105" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="CU105" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35321,22 +35359,24 @@
       <c r="CO107" s="28">
         <v>113.06596793902651</v>
       </c>
-      <c r="CP107" s="44">
+      <c r="CP107" s="28">
         <v>123.6716607579412</v>
       </c>
-      <c r="CQ107" s="44">
+      <c r="CQ107" s="28">
         <v>118.57261053405847</v>
       </c>
-      <c r="CR107" s="44">
+      <c r="CR107" s="28">
         <v>126.5749555251485</v>
       </c>
-      <c r="CS107" s="44">
+      <c r="CS107" s="28">
         <v>115.60381848478765</v>
       </c>
-      <c r="CT107" s="44">
-        <v>125.80248079519043</v>
-      </c>
-      <c r="CU107" s="9"/>
+      <c r="CT107" s="28">
+        <v>125.85548019823618</v>
+      </c>
+      <c r="CU107" s="28">
+        <v>120.57953492834798</v>
+      </c>
       <c r="CV107" s="9"/>
       <c r="CW107" s="9"/>
       <c r="CX107" s="9"/>
@@ -35647,22 +35687,24 @@
       <c r="CO108" s="28">
         <v>118.02122849001971</v>
       </c>
-      <c r="CP108" s="44">
+      <c r="CP108" s="28">
         <v>112.52959510079509</v>
       </c>
-      <c r="CQ108" s="44">
+      <c r="CQ108" s="28">
         <v>114.87585282367101</v>
       </c>
-      <c r="CR108" s="44">
+      <c r="CR108" s="28">
         <v>131.4595374062072</v>
       </c>
-      <c r="CS108" s="44">
+      <c r="CS108" s="28">
         <v>120.60845797822152</v>
       </c>
-      <c r="CT108" s="44">
-        <v>114.59326732071577</v>
-      </c>
-      <c r="CU108" s="9"/>
+      <c r="CT108" s="28">
+        <v>114.68319038278906</v>
+      </c>
+      <c r="CU108" s="28">
+        <v>117.67931885879118</v>
+      </c>
       <c r="CV108" s="9"/>
       <c r="CW108" s="9"/>
       <c r="CX108" s="9"/>
@@ -35973,22 +36015,24 @@
       <c r="CO109" s="28">
         <v>104.59721657791849</v>
       </c>
-      <c r="CP109" s="44">
+      <c r="CP109" s="28">
         <v>126.84041998088553</v>
       </c>
-      <c r="CQ109" s="44">
+      <c r="CQ109" s="28">
         <v>121.90941795215682</v>
       </c>
-      <c r="CR109" s="44">
+      <c r="CR109" s="28">
         <v>126.04949292836322</v>
       </c>
-      <c r="CS109" s="44">
+      <c r="CS109" s="28">
         <v>106.86372608308884</v>
       </c>
-      <c r="CT109" s="44">
-        <v>128.93038805942564</v>
-      </c>
-      <c r="CU109" s="9"/>
+      <c r="CT109" s="28">
+        <v>129.02491599764497</v>
+      </c>
+      <c r="CU109" s="28">
+        <v>124.69473182512361</v>
+      </c>
       <c r="CV109" s="9"/>
       <c r="CW109" s="9"/>
       <c r="CX109" s="9"/>
@@ -36112,11 +36156,11 @@
       <c r="CM110" s="9"/>
       <c r="CN110" s="9"/>
       <c r="CO110" s="9"/>
-      <c r="CP110" s="34"/>
-      <c r="CQ110" s="34"/>
-      <c r="CR110" s="34"/>
-      <c r="CS110" s="34"/>
-      <c r="CT110" s="34"/>
+      <c r="CP110" s="9"/>
+      <c r="CQ110" s="9"/>
+      <c r="CR110" s="9"/>
+      <c r="CS110" s="9"/>
+      <c r="CT110" s="9"/>
       <c r="CU110" s="9"/>
       <c r="CV110" s="9"/>
       <c r="CW110" s="9"/>
@@ -36428,22 +36472,24 @@
       <c r="CO111" s="28">
         <v>111.76384236285124</v>
       </c>
-      <c r="CP111" s="44">
+      <c r="CP111" s="28">
         <v>119.49881203679189</v>
       </c>
-      <c r="CQ111" s="44">
+      <c r="CQ111" s="28">
         <v>118.25005952080201</v>
       </c>
-      <c r="CR111" s="44">
+      <c r="CR111" s="28">
         <v>128.06700273874557</v>
       </c>
-      <c r="CS111" s="44">
+      <c r="CS111" s="28">
         <v>114.12586187951865</v>
       </c>
-      <c r="CT111" s="44">
-        <v>121.55202922420973</v>
-      </c>
-      <c r="CU111" s="9"/>
+      <c r="CT111" s="28">
+        <v>121.64040555085265</v>
+      </c>
+      <c r="CU111" s="28">
+        <v>120.57064909239574</v>
+      </c>
       <c r="CV111" s="9"/>
       <c r="CW111" s="9"/>
       <c r="CX111" s="9"/>
@@ -36568,11 +36614,12 @@
       <c r="CM112" s="12"/>
       <c r="CN112" s="12"/>
       <c r="CO112" s="12"/>
-      <c r="CP112" s="36"/>
-      <c r="CQ112" s="36"/>
-      <c r="CR112" s="36"/>
-      <c r="CS112" s="36"/>
-      <c r="CT112" s="36"/>
+      <c r="CP112" s="12"/>
+      <c r="CQ112" s="12"/>
+      <c r="CR112" s="12"/>
+      <c r="CS112" s="12"/>
+      <c r="CT112" s="12"/>
+      <c r="CU112" s="12"/>
     </row>
     <row r="113" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
@@ -36668,12 +36715,12 @@
       <c r="CM113" s="26"/>
       <c r="CN113" s="26"/>
       <c r="CO113" s="26"/>
-      <c r="CP113" s="35"/>
-      <c r="CQ113" s="35"/>
-      <c r="CR113" s="35"/>
-      <c r="CS113" s="35"/>
-      <c r="CT113" s="35"/>
-      <c r="CU113" s="9"/>
+      <c r="CP113" s="26"/>
+      <c r="CQ113" s="26"/>
+      <c r="CR113" s="26"/>
+      <c r="CS113" s="26"/>
+      <c r="CT113" s="26"/>
+      <c r="CU113" s="26"/>
       <c r="CV113" s="9"/>
       <c r="CW113" s="9"/>
       <c r="CX113" s="9"/>
@@ -36984,22 +37031,24 @@
       <c r="CO114" s="28">
         <v>108.99837571895273</v>
       </c>
-      <c r="CP114" s="44">
+      <c r="CP114" s="28">
         <v>120.33402512853064</v>
       </c>
-      <c r="CQ114" s="44">
+      <c r="CQ114" s="28">
         <v>131.77279448576672</v>
       </c>
-      <c r="CR114" s="44">
+      <c r="CR114" s="28">
         <v>120.88709219872489</v>
       </c>
-      <c r="CS114" s="44">
+      <c r="CS114" s="28">
         <v>113.35321855862364</v>
       </c>
-      <c r="CT114" s="44">
-        <v>122.15001002017583</v>
-      </c>
-      <c r="CU114" s="9"/>
+      <c r="CT114" s="28">
+        <v>122.28281089035325</v>
+      </c>
+      <c r="CU114" s="28">
+        <v>133.28532303668962</v>
+      </c>
       <c r="CV114" s="9"/>
       <c r="CW114" s="9"/>
       <c r="CX114" s="9"/>
@@ -37124,11 +37173,12 @@
       <c r="CM115" s="14"/>
       <c r="CN115" s="14"/>
       <c r="CO115" s="14"/>
-      <c r="CP115" s="37"/>
-      <c r="CQ115" s="37"/>
-      <c r="CR115" s="37"/>
-      <c r="CS115" s="37"/>
-      <c r="CT115" s="37"/>
+      <c r="CP115" s="14"/>
+      <c r="CQ115" s="14"/>
+      <c r="CR115" s="14"/>
+      <c r="CS115" s="14"/>
+      <c r="CT115" s="14"/>
+      <c r="CU115" s="14"/>
     </row>
     <row r="116" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
@@ -37152,7 +37202,7 @@
     </row>
     <row r="122" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:128" x14ac:dyDescent="0.2">
@@ -37162,7 +37212,7 @@
     </row>
     <row r="125" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="1:128" x14ac:dyDescent="0.2">
@@ -37172,132 +37222,132 @@
     </row>
     <row r="128" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
-      <c r="B128" s="45">
+      <c r="B128" s="31">
         <v>2000</v>
       </c>
-      <c r="C128" s="46"/>
-      <c r="D128" s="46"/>
-      <c r="E128" s="46"/>
-      <c r="F128" s="45">
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="31">
         <v>2001</v>
       </c>
-      <c r="G128" s="46"/>
-      <c r="H128" s="46"/>
-      <c r="I128" s="46"/>
-      <c r="J128" s="45">
+      <c r="G128" s="32"/>
+      <c r="H128" s="32"/>
+      <c r="I128" s="32"/>
+      <c r="J128" s="31">
         <v>2002</v>
       </c>
-      <c r="K128" s="46"/>
-      <c r="L128" s="46"/>
-      <c r="M128" s="46"/>
-      <c r="N128" s="45">
+      <c r="K128" s="32"/>
+      <c r="L128" s="32"/>
+      <c r="M128" s="32"/>
+      <c r="N128" s="31">
         <v>2003</v>
       </c>
-      <c r="O128" s="46"/>
-      <c r="P128" s="46"/>
-      <c r="Q128" s="46"/>
-      <c r="R128" s="45">
+      <c r="O128" s="32"/>
+      <c r="P128" s="32"/>
+      <c r="Q128" s="32"/>
+      <c r="R128" s="31">
         <v>2004</v>
       </c>
-      <c r="S128" s="46"/>
-      <c r="T128" s="46"/>
-      <c r="U128" s="46"/>
-      <c r="V128" s="45">
+      <c r="S128" s="32"/>
+      <c r="T128" s="32"/>
+      <c r="U128" s="32"/>
+      <c r="V128" s="31">
         <v>2005</v>
       </c>
-      <c r="W128" s="46"/>
-      <c r="X128" s="46"/>
-      <c r="Y128" s="46"/>
-      <c r="Z128" s="45">
+      <c r="W128" s="32"/>
+      <c r="X128" s="32"/>
+      <c r="Y128" s="32"/>
+      <c r="Z128" s="31">
         <v>2006</v>
       </c>
-      <c r="AA128" s="46"/>
-      <c r="AB128" s="46"/>
-      <c r="AC128" s="46"/>
-      <c r="AD128" s="45">
+      <c r="AA128" s="32"/>
+      <c r="AB128" s="32"/>
+      <c r="AC128" s="32"/>
+      <c r="AD128" s="31">
         <v>2007</v>
       </c>
-      <c r="AE128" s="46"/>
-      <c r="AF128" s="46"/>
-      <c r="AG128" s="46"/>
-      <c r="AH128" s="45">
+      <c r="AE128" s="32"/>
+      <c r="AF128" s="32"/>
+      <c r="AG128" s="32"/>
+      <c r="AH128" s="31">
         <v>2008</v>
       </c>
-      <c r="AI128" s="46"/>
-      <c r="AJ128" s="46"/>
-      <c r="AK128" s="46"/>
-      <c r="AL128" s="45">
+      <c r="AI128" s="32"/>
+      <c r="AJ128" s="32"/>
+      <c r="AK128" s="32"/>
+      <c r="AL128" s="31">
         <v>2009</v>
       </c>
-      <c r="AM128" s="46"/>
-      <c r="AN128" s="46"/>
-      <c r="AO128" s="46"/>
-      <c r="AP128" s="45">
+      <c r="AM128" s="32"/>
+      <c r="AN128" s="32"/>
+      <c r="AO128" s="32"/>
+      <c r="AP128" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="46"/>
-      <c r="AR128" s="46"/>
-      <c r="AS128" s="46"/>
-      <c r="AT128" s="45">
+      <c r="AQ128" s="32"/>
+      <c r="AR128" s="32"/>
+      <c r="AS128" s="32"/>
+      <c r="AT128" s="31">
         <v>2011</v>
       </c>
-      <c r="AU128" s="46"/>
-      <c r="AV128" s="46"/>
-      <c r="AW128" s="46"/>
-      <c r="AX128" s="45">
+      <c r="AU128" s="32"/>
+      <c r="AV128" s="32"/>
+      <c r="AW128" s="32"/>
+      <c r="AX128" s="31">
         <v>2012</v>
       </c>
-      <c r="AY128" s="46"/>
-      <c r="AZ128" s="46"/>
-      <c r="BA128" s="46"/>
-      <c r="BB128" s="45">
+      <c r="AY128" s="32"/>
+      <c r="AZ128" s="32"/>
+      <c r="BA128" s="32"/>
+      <c r="BB128" s="31">
         <v>2013</v>
       </c>
-      <c r="BC128" s="46"/>
-      <c r="BD128" s="46"/>
-      <c r="BE128" s="46"/>
-      <c r="BF128" s="45">
+      <c r="BC128" s="32"/>
+      <c r="BD128" s="32"/>
+      <c r="BE128" s="32"/>
+      <c r="BF128" s="31">
         <v>2014</v>
       </c>
-      <c r="BG128" s="46"/>
-      <c r="BH128" s="46"/>
-      <c r="BI128" s="46"/>
-      <c r="BJ128" s="45">
+      <c r="BG128" s="32"/>
+      <c r="BH128" s="32"/>
+      <c r="BI128" s="32"/>
+      <c r="BJ128" s="31">
         <v>2015</v>
       </c>
-      <c r="BK128" s="46"/>
-      <c r="BL128" s="46"/>
-      <c r="BM128" s="46"/>
-      <c r="BN128" s="45">
+      <c r="BK128" s="32"/>
+      <c r="BL128" s="32"/>
+      <c r="BM128" s="32"/>
+      <c r="BN128" s="31">
         <v>2016</v>
       </c>
-      <c r="BO128" s="46"/>
-      <c r="BP128" s="46"/>
-      <c r="BQ128" s="46"/>
-      <c r="BR128" s="45">
+      <c r="BO128" s="32"/>
+      <c r="BP128" s="32"/>
+      <c r="BQ128" s="32"/>
+      <c r="BR128" s="31">
         <v>2017</v>
       </c>
-      <c r="BS128" s="46"/>
-      <c r="BT128" s="46"/>
-      <c r="BU128" s="46"/>
-      <c r="BV128" s="45">
+      <c r="BS128" s="32"/>
+      <c r="BT128" s="32"/>
+      <c r="BU128" s="32"/>
+      <c r="BV128" s="31">
         <v>2018</v>
       </c>
-      <c r="BW128" s="45"/>
-      <c r="BX128" s="45"/>
-      <c r="BY128" s="45"/>
-      <c r="BZ128" s="45">
+      <c r="BW128" s="31"/>
+      <c r="BX128" s="31"/>
+      <c r="BY128" s="31"/>
+      <c r="BZ128" s="31">
         <v>2019</v>
       </c>
-      <c r="CA128" s="45"/>
-      <c r="CB128" s="45"/>
-      <c r="CC128" s="45"/>
-      <c r="CD128" s="45">
+      <c r="CA128" s="31"/>
+      <c r="CB128" s="31"/>
+      <c r="CC128" s="31"/>
+      <c r="CD128" s="31">
         <v>2020</v>
       </c>
-      <c r="CE128" s="45"/>
-      <c r="CF128" s="45"/>
-      <c r="CG128" s="45"/>
+      <c r="CE128" s="31"/>
+      <c r="CF128" s="31"/>
+      <c r="CG128" s="31"/>
       <c r="CH128" s="29">
         <v>2021</v>
       </c>
@@ -37310,15 +37360,16 @@
       <c r="CM128" s="29"/>
       <c r="CN128" s="29"/>
       <c r="CO128" s="29"/>
-      <c r="CP128" s="31">
+      <c r="CP128" s="29">
         <v>2023</v>
       </c>
-      <c r="CQ128" s="31"/>
-      <c r="CR128" s="31"/>
-      <c r="CS128" s="31"/>
-      <c r="CT128" s="31">
+      <c r="CQ128" s="29"/>
+      <c r="CR128" s="29"/>
+      <c r="CS128" s="29"/>
+      <c r="CT128" s="29">
         <v>2024</v>
       </c>
+      <c r="CU128" s="29"/>
     </row>
     <row r="129" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -37600,20 +37651,23 @@
       <c r="CO129" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP129" s="32" t="s">
+      <c r="CP129" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CQ129" s="32" t="s">
+      <c r="CQ129" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CR129" s="32" t="s">
+      <c r="CR129" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CS129" s="32" t="s">
+      <c r="CS129" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CT129" s="32" t="s">
+      <c r="CT129" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="CU129" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37899,22 +37953,24 @@
       <c r="CO131" s="28">
         <v>36.318137245695695</v>
       </c>
-      <c r="CP131" s="44">
+      <c r="CP131" s="28">
         <v>24.478900193350405</v>
       </c>
-      <c r="CQ131" s="44">
+      <c r="CQ131" s="28">
         <v>52.050045488788129</v>
       </c>
-      <c r="CR131" s="44">
+      <c r="CR131" s="28">
         <v>37.146690405575313</v>
       </c>
-      <c r="CS131" s="44">
+      <c r="CS131" s="28">
         <v>37.966552085767361</v>
       </c>
-      <c r="CT131" s="44">
-        <v>25.754249345148722</v>
-      </c>
-      <c r="CU131" s="9"/>
+      <c r="CT131" s="28">
+        <v>25.654034466394371</v>
+      </c>
+      <c r="CU131" s="28">
+        <v>54.478296262404847</v>
+      </c>
       <c r="CV131" s="9"/>
       <c r="CW131" s="9"/>
       <c r="CX131" s="9"/>
@@ -38225,22 +38281,24 @@
       <c r="CO132" s="28">
         <v>32.459587193930304</v>
       </c>
-      <c r="CP132" s="44">
+      <c r="CP132" s="28">
         <v>43.377296543098801</v>
       </c>
-      <c r="CQ132" s="44">
+      <c r="CQ132" s="28">
         <v>26.619210123795799</v>
       </c>
-      <c r="CR132" s="44">
+      <c r="CR132" s="28">
         <v>34.532613800549996</v>
       </c>
-      <c r="CS132" s="44">
+      <c r="CS132" s="28">
         <v>30.649379763291122</v>
       </c>
-      <c r="CT132" s="44">
-        <v>43.398964137543636</v>
-      </c>
-      <c r="CU132" s="9"/>
+      <c r="CT132" s="28">
+        <v>43.378630546294268</v>
+      </c>
+      <c r="CU132" s="28">
+        <v>26.188324370403326</v>
+      </c>
       <c r="CV132" s="9"/>
       <c r="CW132" s="9"/>
       <c r="CX132" s="9"/>
@@ -38551,22 +38609,24 @@
       <c r="CO133" s="28">
         <v>31.222275560373998</v>
       </c>
-      <c r="CP133" s="44">
+      <c r="CP133" s="28">
         <v>32.143803263550794</v>
       </c>
-      <c r="CQ133" s="44">
+      <c r="CQ133" s="28">
         <v>21.330744387416065</v>
       </c>
-      <c r="CR133" s="44">
+      <c r="CR133" s="28">
         <v>28.320695793874684</v>
       </c>
-      <c r="CS133" s="44">
+      <c r="CS133" s="28">
         <v>31.384068150941513</v>
       </c>
-      <c r="CT133" s="44">
-        <v>30.846786517307628</v>
-      </c>
-      <c r="CU133" s="9"/>
+      <c r="CT133" s="28">
+        <v>30.96733498731135</v>
+      </c>
+      <c r="CU133" s="28">
+        <v>19.333379367191828</v>
+      </c>
       <c r="CV133" s="9"/>
       <c r="CW133" s="9"/>
       <c r="CX133" s="9"/>
@@ -38690,11 +38750,11 @@
       <c r="CM134" s="9"/>
       <c r="CN134" s="9"/>
       <c r="CO134" s="9"/>
-      <c r="CP134" s="34"/>
-      <c r="CQ134" s="34"/>
-      <c r="CR134" s="34"/>
-      <c r="CS134" s="34"/>
-      <c r="CT134" s="34"/>
+      <c r="CP134" s="9"/>
+      <c r="CQ134" s="9"/>
+      <c r="CR134" s="9"/>
+      <c r="CS134" s="9"/>
+      <c r="CT134" s="9"/>
       <c r="CU134" s="9"/>
       <c r="CV134" s="9"/>
       <c r="CW134" s="9"/>
@@ -39006,22 +39066,24 @@
       <c r="CO135" s="28">
         <v>100</v>
       </c>
-      <c r="CP135" s="44">
+      <c r="CP135" s="28">
         <v>100</v>
       </c>
-      <c r="CQ135" s="44">
+      <c r="CQ135" s="28">
         <v>100</v>
       </c>
-      <c r="CR135" s="44">
+      <c r="CR135" s="28">
         <v>100</v>
       </c>
-      <c r="CS135" s="44">
+      <c r="CS135" s="28">
         <v>100</v>
       </c>
-      <c r="CT135" s="44">
+      <c r="CT135" s="28">
         <v>100</v>
       </c>
-      <c r="CU135" s="9"/>
+      <c r="CU135" s="28">
+        <v>100</v>
+      </c>
       <c r="CV135" s="9"/>
       <c r="CW135" s="9"/>
       <c r="CX135" s="9"/>
@@ -39146,11 +39208,12 @@
       <c r="CM136" s="12"/>
       <c r="CN136" s="12"/>
       <c r="CO136" s="12"/>
-      <c r="CP136" s="36"/>
-      <c r="CQ136" s="36"/>
-      <c r="CR136" s="36"/>
-      <c r="CS136" s="36"/>
-      <c r="CT136" s="36"/>
+      <c r="CP136" s="12"/>
+      <c r="CQ136" s="12"/>
+      <c r="CR136" s="12"/>
+      <c r="CS136" s="12"/>
+      <c r="CT136" s="12"/>
+      <c r="CU136" s="12"/>
     </row>
     <row r="137" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
@@ -39246,12 +39309,12 @@
       <c r="CM137" s="26"/>
       <c r="CN137" s="26"/>
       <c r="CO137" s="26"/>
-      <c r="CP137" s="35"/>
-      <c r="CQ137" s="35"/>
-      <c r="CR137" s="35"/>
-      <c r="CS137" s="35"/>
-      <c r="CT137" s="35"/>
-      <c r="CU137" s="9"/>
+      <c r="CP137" s="26"/>
+      <c r="CQ137" s="26"/>
+      <c r="CR137" s="26"/>
+      <c r="CS137" s="26"/>
+      <c r="CT137" s="26"/>
+      <c r="CU137" s="26"/>
       <c r="CV137" s="9"/>
       <c r="CW137" s="9"/>
       <c r="CX137" s="9"/>
@@ -39376,12 +39439,12 @@
       <c r="CM138" s="26"/>
       <c r="CN138" s="26"/>
       <c r="CO138" s="26"/>
-      <c r="CP138" s="35"/>
-      <c r="CQ138" s="35"/>
-      <c r="CR138" s="35"/>
-      <c r="CS138" s="35"/>
-      <c r="CT138" s="35"/>
-      <c r="CU138" s="9"/>
+      <c r="CP138" s="26"/>
+      <c r="CQ138" s="26"/>
+      <c r="CR138" s="26"/>
+      <c r="CS138" s="26"/>
+      <c r="CT138" s="26"/>
+      <c r="CU138" s="26"/>
       <c r="CV138" s="9"/>
       <c r="CW138" s="9"/>
       <c r="CX138" s="9"/>
@@ -39506,11 +39569,12 @@
       <c r="CM139" s="14"/>
       <c r="CN139" s="14"/>
       <c r="CO139" s="14"/>
-      <c r="CP139" s="37"/>
-      <c r="CQ139" s="37"/>
-      <c r="CR139" s="37"/>
-      <c r="CS139" s="37"/>
-      <c r="CT139" s="37"/>
+      <c r="CP139" s="14"/>
+      <c r="CQ139" s="14"/>
+      <c r="CR139" s="14"/>
+      <c r="CS139" s="14"/>
+      <c r="CT139" s="14"/>
+      <c r="CU139" s="14"/>
     </row>
     <row r="140" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
@@ -39615,11 +39679,11 @@
       <c r="CM142" s="9"/>
       <c r="CN142" s="9"/>
       <c r="CO142" s="9"/>
-      <c r="CP142" s="34"/>
-      <c r="CQ142" s="34"/>
-      <c r="CR142" s="34"/>
-      <c r="CS142" s="34"/>
-      <c r="CT142" s="34"/>
+      <c r="CP142" s="9"/>
+      <c r="CQ142" s="9"/>
+      <c r="CR142" s="9"/>
+      <c r="CS142" s="9"/>
+      <c r="CT142" s="9"/>
       <c r="CU142" s="9"/>
       <c r="CV142" s="9"/>
       <c r="CW142" s="9"/>
@@ -39744,11 +39808,11 @@
       <c r="CM143" s="9"/>
       <c r="CN143" s="9"/>
       <c r="CO143" s="9"/>
-      <c r="CP143" s="34"/>
-      <c r="CQ143" s="34"/>
-      <c r="CR143" s="34"/>
-      <c r="CS143" s="34"/>
-      <c r="CT143" s="34"/>
+      <c r="CP143" s="9"/>
+      <c r="CQ143" s="9"/>
+      <c r="CR143" s="9"/>
+      <c r="CS143" s="9"/>
+      <c r="CT143" s="9"/>
       <c r="CU143" s="9"/>
       <c r="CV143" s="9"/>
       <c r="CW143" s="9"/>
@@ -39792,7 +39856,7 @@
     </row>
     <row r="146" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148" spans="1:128" x14ac:dyDescent="0.2">
@@ -39802,7 +39866,7 @@
     </row>
     <row r="149" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="150" spans="1:128" x14ac:dyDescent="0.2">
@@ -39812,132 +39876,132 @@
     </row>
     <row r="152" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
-      <c r="B152" s="45">
+      <c r="B152" s="31">
         <v>2000</v>
       </c>
-      <c r="C152" s="46"/>
-      <c r="D152" s="46"/>
-      <c r="E152" s="46"/>
-      <c r="F152" s="45">
+      <c r="C152" s="32"/>
+      <c r="D152" s="32"/>
+      <c r="E152" s="32"/>
+      <c r="F152" s="31">
         <v>2001</v>
       </c>
-      <c r="G152" s="46"/>
-      <c r="H152" s="46"/>
-      <c r="I152" s="46"/>
-      <c r="J152" s="45">
+      <c r="G152" s="32"/>
+      <c r="H152" s="32"/>
+      <c r="I152" s="32"/>
+      <c r="J152" s="31">
         <v>2002</v>
       </c>
-      <c r="K152" s="46"/>
-      <c r="L152" s="46"/>
-      <c r="M152" s="46"/>
-      <c r="N152" s="45">
+      <c r="K152" s="32"/>
+      <c r="L152" s="32"/>
+      <c r="M152" s="32"/>
+      <c r="N152" s="31">
         <v>2003</v>
       </c>
-      <c r="O152" s="46"/>
-      <c r="P152" s="46"/>
-      <c r="Q152" s="46"/>
-      <c r="R152" s="45">
+      <c r="O152" s="32"/>
+      <c r="P152" s="32"/>
+      <c r="Q152" s="32"/>
+      <c r="R152" s="31">
         <v>2004</v>
       </c>
-      <c r="S152" s="46"/>
-      <c r="T152" s="46"/>
-      <c r="U152" s="46"/>
-      <c r="V152" s="45">
+      <c r="S152" s="32"/>
+      <c r="T152" s="32"/>
+      <c r="U152" s="32"/>
+      <c r="V152" s="31">
         <v>2005</v>
       </c>
-      <c r="W152" s="46"/>
-      <c r="X152" s="46"/>
-      <c r="Y152" s="46"/>
-      <c r="Z152" s="45">
+      <c r="W152" s="32"/>
+      <c r="X152" s="32"/>
+      <c r="Y152" s="32"/>
+      <c r="Z152" s="31">
         <v>2006</v>
       </c>
-      <c r="AA152" s="46"/>
-      <c r="AB152" s="46"/>
-      <c r="AC152" s="46"/>
-      <c r="AD152" s="45">
+      <c r="AA152" s="32"/>
+      <c r="AB152" s="32"/>
+      <c r="AC152" s="32"/>
+      <c r="AD152" s="31">
         <v>2007</v>
       </c>
-      <c r="AE152" s="46"/>
-      <c r="AF152" s="46"/>
-      <c r="AG152" s="46"/>
-      <c r="AH152" s="45">
+      <c r="AE152" s="32"/>
+      <c r="AF152" s="32"/>
+      <c r="AG152" s="32"/>
+      <c r="AH152" s="31">
         <v>2008</v>
       </c>
-      <c r="AI152" s="46"/>
-      <c r="AJ152" s="46"/>
-      <c r="AK152" s="46"/>
-      <c r="AL152" s="45">
+      <c r="AI152" s="32"/>
+      <c r="AJ152" s="32"/>
+      <c r="AK152" s="32"/>
+      <c r="AL152" s="31">
         <v>2009</v>
       </c>
-      <c r="AM152" s="46"/>
-      <c r="AN152" s="46"/>
-      <c r="AO152" s="46"/>
-      <c r="AP152" s="45">
+      <c r="AM152" s="32"/>
+      <c r="AN152" s="32"/>
+      <c r="AO152" s="32"/>
+      <c r="AP152" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ152" s="46"/>
-      <c r="AR152" s="46"/>
-      <c r="AS152" s="46"/>
-      <c r="AT152" s="45">
+      <c r="AQ152" s="32"/>
+      <c r="AR152" s="32"/>
+      <c r="AS152" s="32"/>
+      <c r="AT152" s="31">
         <v>2011</v>
       </c>
-      <c r="AU152" s="46"/>
-      <c r="AV152" s="46"/>
-      <c r="AW152" s="46"/>
-      <c r="AX152" s="45">
+      <c r="AU152" s="32"/>
+      <c r="AV152" s="32"/>
+      <c r="AW152" s="32"/>
+      <c r="AX152" s="31">
         <v>2012</v>
       </c>
-      <c r="AY152" s="46"/>
-      <c r="AZ152" s="46"/>
-      <c r="BA152" s="46"/>
-      <c r="BB152" s="45">
+      <c r="AY152" s="32"/>
+      <c r="AZ152" s="32"/>
+      <c r="BA152" s="32"/>
+      <c r="BB152" s="31">
         <v>2013</v>
       </c>
-      <c r="BC152" s="46"/>
-      <c r="BD152" s="46"/>
-      <c r="BE152" s="46"/>
-      <c r="BF152" s="45">
+      <c r="BC152" s="32"/>
+      <c r="BD152" s="32"/>
+      <c r="BE152" s="32"/>
+      <c r="BF152" s="31">
         <v>2014</v>
       </c>
-      <c r="BG152" s="46"/>
-      <c r="BH152" s="46"/>
-      <c r="BI152" s="46"/>
-      <c r="BJ152" s="45">
+      <c r="BG152" s="32"/>
+      <c r="BH152" s="32"/>
+      <c r="BI152" s="32"/>
+      <c r="BJ152" s="31">
         <v>2015</v>
       </c>
-      <c r="BK152" s="46"/>
-      <c r="BL152" s="46"/>
-      <c r="BM152" s="46"/>
-      <c r="BN152" s="45">
+      <c r="BK152" s="32"/>
+      <c r="BL152" s="32"/>
+      <c r="BM152" s="32"/>
+      <c r="BN152" s="31">
         <v>2016</v>
       </c>
-      <c r="BO152" s="46"/>
-      <c r="BP152" s="46"/>
-      <c r="BQ152" s="46"/>
-      <c r="BR152" s="45">
+      <c r="BO152" s="32"/>
+      <c r="BP152" s="32"/>
+      <c r="BQ152" s="32"/>
+      <c r="BR152" s="31">
         <v>2017</v>
       </c>
-      <c r="BS152" s="46"/>
-      <c r="BT152" s="46"/>
-      <c r="BU152" s="46"/>
-      <c r="BV152" s="45">
+      <c r="BS152" s="32"/>
+      <c r="BT152" s="32"/>
+      <c r="BU152" s="32"/>
+      <c r="BV152" s="31">
         <v>2018</v>
       </c>
-      <c r="BW152" s="45"/>
-      <c r="BX152" s="45"/>
-      <c r="BY152" s="45"/>
-      <c r="BZ152" s="45">
+      <c r="BW152" s="31"/>
+      <c r="BX152" s="31"/>
+      <c r="BY152" s="31"/>
+      <c r="BZ152" s="31">
         <v>2019</v>
       </c>
-      <c r="CA152" s="45"/>
-      <c r="CB152" s="45"/>
-      <c r="CC152" s="45"/>
-      <c r="CD152" s="45">
+      <c r="CA152" s="31"/>
+      <c r="CB152" s="31"/>
+      <c r="CC152" s="31"/>
+      <c r="CD152" s="31">
         <v>2020</v>
       </c>
-      <c r="CE152" s="45"/>
-      <c r="CF152" s="45"/>
-      <c r="CG152" s="45"/>
+      <c r="CE152" s="31"/>
+      <c r="CF152" s="31"/>
+      <c r="CG152" s="31"/>
       <c r="CH152" s="29">
         <v>2021</v>
       </c>
@@ -39950,15 +40014,16 @@
       <c r="CM152" s="29"/>
       <c r="CN152" s="29"/>
       <c r="CO152" s="29"/>
-      <c r="CP152" s="31">
+      <c r="CP152" s="29">
         <v>2023</v>
       </c>
-      <c r="CQ152" s="31"/>
-      <c r="CR152" s="31"/>
-      <c r="CS152" s="31"/>
-      <c r="CT152" s="31">
+      <c r="CQ152" s="29"/>
+      <c r="CR152" s="29"/>
+      <c r="CS152" s="29"/>
+      <c r="CT152" s="29">
         <v>2024</v>
       </c>
+      <c r="CU152" s="29"/>
     </row>
     <row r="153" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
@@ -40240,20 +40305,23 @@
       <c r="CO153" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP153" s="32" t="s">
+      <c r="CP153" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CQ153" s="32" t="s">
+      <c r="CQ153" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CR153" s="32" t="s">
+      <c r="CR153" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CS153" s="32" t="s">
+      <c r="CS153" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CT153" s="32" t="s">
+      <c r="CT153" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="CU153" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40539,22 +40607,24 @@
       <c r="CO155" s="28">
         <v>35.899878982412034</v>
       </c>
-      <c r="CP155" s="44">
+      <c r="CP155" s="28">
         <v>23.65294906808095</v>
       </c>
-      <c r="CQ155" s="44">
+      <c r="CQ155" s="28">
         <v>51.908454653966849</v>
       </c>
-      <c r="CR155" s="44">
+      <c r="CR155" s="28">
         <v>37.584570203233866</v>
       </c>
-      <c r="CS155" s="44">
+      <c r="CS155" s="28">
         <v>37.48116226759425</v>
       </c>
-      <c r="CT155" s="44">
-        <v>24.884098065964242</v>
-      </c>
-      <c r="CU155" s="9"/>
+      <c r="CT155" s="28">
+        <v>24.794845258963118</v>
+      </c>
+      <c r="CU155" s="28">
+        <v>54.474281607647448</v>
+      </c>
       <c r="CV155" s="9"/>
       <c r="CW155" s="9"/>
       <c r="CX155" s="9"/>
@@ -40865,22 +40935,24 @@
       <c r="CO156" s="28">
         <v>30.738607221093545</v>
       </c>
-      <c r="CP156" s="44">
+      <c r="CP156" s="28">
         <v>46.063752398868452</v>
       </c>
-      <c r="CQ156" s="44">
+      <c r="CQ156" s="28">
         <v>27.401086513518159</v>
       </c>
-      <c r="CR156" s="44">
+      <c r="CR156" s="28">
         <v>33.641441567725003</v>
       </c>
-      <c r="CS156" s="44">
+      <c r="CS156" s="28">
         <v>29.002003177835974</v>
       </c>
-      <c r="CT156" s="44">
-        <v>46.034398708461438</v>
-      </c>
-      <c r="CU156" s="9"/>
+      <c r="CT156" s="28">
+        <v>46.010179820422202</v>
+      </c>
+      <c r="CU156" s="28">
+        <v>26.831760232829154</v>
+      </c>
       <c r="CV156" s="9"/>
       <c r="CW156" s="9"/>
       <c r="CX156" s="9"/>
@@ -41191,22 +41263,24 @@
       <c r="CO157" s="28">
         <v>33.361513796494421</v>
       </c>
-      <c r="CP157" s="44">
+      <c r="CP157" s="28">
         <v>30.283298533050605</v>
       </c>
-      <c r="CQ157" s="44">
+      <c r="CQ157" s="28">
         <v>20.690458832514974</v>
       </c>
-      <c r="CR157" s="44">
+      <c r="CR157" s="28">
         <v>28.773988229041148</v>
       </c>
-      <c r="CS157" s="44">
+      <c r="CS157" s="28">
         <v>33.516834554569783</v>
       </c>
-      <c r="CT157" s="44">
-        <v>29.081503225574316</v>
-      </c>
-      <c r="CU157" s="9"/>
+      <c r="CT157" s="28">
+        <v>29.19497492061468</v>
+      </c>
+      <c r="CU157" s="28">
+        <v>18.693958159523387</v>
+      </c>
       <c r="CV157" s="9"/>
       <c r="CW157" s="9"/>
       <c r="CX157" s="9"/>
@@ -41330,11 +41404,11 @@
       <c r="CM158" s="9"/>
       <c r="CN158" s="9"/>
       <c r="CO158" s="9"/>
-      <c r="CP158" s="34"/>
-      <c r="CQ158" s="34"/>
-      <c r="CR158" s="34"/>
-      <c r="CS158" s="34"/>
-      <c r="CT158" s="34"/>
+      <c r="CP158" s="9"/>
+      <c r="CQ158" s="9"/>
+      <c r="CR158" s="9"/>
+      <c r="CS158" s="9"/>
+      <c r="CT158" s="9"/>
       <c r="CU158" s="9"/>
       <c r="CV158" s="9"/>
       <c r="CW158" s="9"/>
@@ -41646,22 +41720,24 @@
       <c r="CO159" s="28">
         <v>100</v>
       </c>
-      <c r="CP159" s="44">
+      <c r="CP159" s="28">
         <v>100</v>
       </c>
-      <c r="CQ159" s="44">
+      <c r="CQ159" s="28">
         <v>100</v>
       </c>
-      <c r="CR159" s="44">
+      <c r="CR159" s="28">
         <v>100</v>
       </c>
-      <c r="CS159" s="44">
+      <c r="CS159" s="28">
         <v>100</v>
       </c>
-      <c r="CT159" s="44">
+      <c r="CT159" s="28">
         <v>100</v>
       </c>
-      <c r="CU159" s="9"/>
+      <c r="CU159" s="28">
+        <v>100</v>
+      </c>
       <c r="CV159" s="9"/>
       <c r="CW159" s="9"/>
       <c r="CX159" s="9"/>
@@ -41786,11 +41862,12 @@
       <c r="CM160" s="12"/>
       <c r="CN160" s="12"/>
       <c r="CO160" s="12"/>
-      <c r="CP160" s="36"/>
-      <c r="CQ160" s="36"/>
-      <c r="CR160" s="36"/>
-      <c r="CS160" s="36"/>
-      <c r="CT160" s="36"/>
+      <c r="CP160" s="12"/>
+      <c r="CQ160" s="12"/>
+      <c r="CR160" s="12"/>
+      <c r="CS160" s="12"/>
+      <c r="CT160" s="12"/>
+      <c r="CU160" s="12"/>
     </row>
     <row r="161" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
@@ -41886,12 +41963,12 @@
       <c r="CM161" s="26"/>
       <c r="CN161" s="26"/>
       <c r="CO161" s="26"/>
-      <c r="CP161" s="35"/>
-      <c r="CQ161" s="35"/>
-      <c r="CR161" s="35"/>
-      <c r="CS161" s="35"/>
-      <c r="CT161" s="35"/>
-      <c r="CU161" s="9"/>
+      <c r="CP161" s="26"/>
+      <c r="CQ161" s="26"/>
+      <c r="CR161" s="26"/>
+      <c r="CS161" s="26"/>
+      <c r="CT161" s="26"/>
+      <c r="CU161" s="26"/>
       <c r="CV161" s="9"/>
       <c r="CW161" s="9"/>
       <c r="CX161" s="9"/>
@@ -42016,12 +42093,12 @@
       <c r="CM162" s="26"/>
       <c r="CN162" s="26"/>
       <c r="CO162" s="26"/>
-      <c r="CP162" s="35"/>
-      <c r="CQ162" s="35"/>
-      <c r="CR162" s="35"/>
-      <c r="CS162" s="35"/>
-      <c r="CT162" s="35"/>
-      <c r="CU162" s="9"/>
+      <c r="CP162" s="26"/>
+      <c r="CQ162" s="26"/>
+      <c r="CR162" s="26"/>
+      <c r="CS162" s="26"/>
+      <c r="CT162" s="26"/>
+      <c r="CU162" s="26"/>
       <c r="CV162" s="9"/>
       <c r="CW162" s="9"/>
       <c r="CX162" s="9"/>
@@ -42146,11 +42223,12 @@
       <c r="CM163" s="14"/>
       <c r="CN163" s="14"/>
       <c r="CO163" s="14"/>
-      <c r="CP163" s="37"/>
-      <c r="CQ163" s="37"/>
-      <c r="CR163" s="37"/>
-      <c r="CS163" s="37"/>
-      <c r="CT163" s="37"/>
+      <c r="CP163" s="14"/>
+      <c r="CQ163" s="14"/>
+      <c r="CR163" s="14"/>
+      <c r="CS163" s="14"/>
+      <c r="CT163" s="14"/>
+      <c r="CU163" s="14"/>
     </row>
     <row r="164" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
@@ -42164,22 +42242,113 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="CD57:CG57"/>
-    <mergeCell ref="CD81:CG81"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD152:CG152"/>
-    <mergeCell ref="CD128:CG128"/>
-    <mergeCell ref="CD104:CG104"/>
-    <mergeCell ref="CD33:CG33"/>
-    <mergeCell ref="BV33:BY33"/>
-    <mergeCell ref="BJ81:BM81"/>
-    <mergeCell ref="BR152:BU152"/>
-    <mergeCell ref="BR128:BU128"/>
-    <mergeCell ref="BR104:BU104"/>
-    <mergeCell ref="BZ128:CC128"/>
-    <mergeCell ref="BZ104:CC104"/>
-    <mergeCell ref="BV152:BY152"/>
-    <mergeCell ref="BZ152:CC152"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BR81:BU81"/>
+    <mergeCell ref="BV81:BY81"/>
+    <mergeCell ref="BR57:BU57"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="R33:U33"/>
+    <mergeCell ref="V33:Y33"/>
+    <mergeCell ref="Z33:AC33"/>
+    <mergeCell ref="AD33:AG33"/>
+    <mergeCell ref="AH33:AK33"/>
+    <mergeCell ref="AL33:AO33"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF33:BI33"/>
+    <mergeCell ref="BJ33:BM33"/>
+    <mergeCell ref="BN33:BQ33"/>
+    <mergeCell ref="AL57:AO57"/>
+    <mergeCell ref="AP57:AS57"/>
+    <mergeCell ref="AT57:AW57"/>
+    <mergeCell ref="AX57:BA57"/>
+    <mergeCell ref="AP33:AS33"/>
+    <mergeCell ref="AT33:AW33"/>
+    <mergeCell ref="AX33:BA33"/>
+    <mergeCell ref="BB33:BE33"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="V57:Y57"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="R57:U57"/>
+    <mergeCell ref="AH57:AK57"/>
+    <mergeCell ref="Z57:AC57"/>
+    <mergeCell ref="BR33:BU33"/>
+    <mergeCell ref="AD57:AG57"/>
+    <mergeCell ref="BB57:BE57"/>
+    <mergeCell ref="BF57:BI57"/>
+    <mergeCell ref="BJ57:BM57"/>
+    <mergeCell ref="BF81:BI81"/>
+    <mergeCell ref="V104:Y104"/>
+    <mergeCell ref="Z104:AC104"/>
+    <mergeCell ref="AD104:AG104"/>
+    <mergeCell ref="AH104:AK104"/>
+    <mergeCell ref="AL104:AO104"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="R81:U81"/>
+    <mergeCell ref="V81:Y81"/>
+    <mergeCell ref="Z81:AC81"/>
+    <mergeCell ref="AD81:AG81"/>
+    <mergeCell ref="AH81:AK81"/>
+    <mergeCell ref="AL81:AO81"/>
+    <mergeCell ref="BB128:BE128"/>
+    <mergeCell ref="AP104:AS104"/>
+    <mergeCell ref="AT104:AW104"/>
+    <mergeCell ref="AX104:BA104"/>
+    <mergeCell ref="BB104:BE104"/>
+    <mergeCell ref="AT81:AW81"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="F104:I104"/>
+    <mergeCell ref="J104:M104"/>
+    <mergeCell ref="N104:Q104"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="AX81:BA81"/>
+    <mergeCell ref="BB81:BE81"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="N128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:Y128"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AG128"/>
+    <mergeCell ref="AH128:AK128"/>
+    <mergeCell ref="AL128:AO128"/>
+    <mergeCell ref="AP128:AS128"/>
+    <mergeCell ref="BB152:BE152"/>
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="F152:I152"/>
+    <mergeCell ref="J152:M152"/>
+    <mergeCell ref="N152:Q152"/>
+    <mergeCell ref="R152:U152"/>
+    <mergeCell ref="V152:Y152"/>
+    <mergeCell ref="Z152:AC152"/>
+    <mergeCell ref="AD152:AG152"/>
+    <mergeCell ref="AH152:AK152"/>
+    <mergeCell ref="AL152:AO152"/>
     <mergeCell ref="AT128:AW128"/>
     <mergeCell ref="AX128:BA128"/>
     <mergeCell ref="BV128:BY128"/>
@@ -42204,113 +42373,22 @@
     <mergeCell ref="BZ81:CC81"/>
     <mergeCell ref="BV104:BY104"/>
     <mergeCell ref="AP81:AS81"/>
-    <mergeCell ref="BB152:BE152"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="F152:I152"/>
-    <mergeCell ref="J152:M152"/>
-    <mergeCell ref="N152:Q152"/>
-    <mergeCell ref="R152:U152"/>
-    <mergeCell ref="V152:Y152"/>
-    <mergeCell ref="Z152:AC152"/>
-    <mergeCell ref="AD152:AG152"/>
-    <mergeCell ref="AH152:AK152"/>
-    <mergeCell ref="AL152:AO152"/>
-    <mergeCell ref="BB128:BE128"/>
-    <mergeCell ref="AP104:AS104"/>
-    <mergeCell ref="AT104:AW104"/>
-    <mergeCell ref="AX104:BA104"/>
-    <mergeCell ref="BB104:BE104"/>
-    <mergeCell ref="AT81:AW81"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="F104:I104"/>
-    <mergeCell ref="J104:M104"/>
-    <mergeCell ref="N104:Q104"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="AX81:BA81"/>
-    <mergeCell ref="BB81:BE81"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="J128:M128"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:Y128"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AG128"/>
-    <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="AL128:AO128"/>
-    <mergeCell ref="AP128:AS128"/>
-    <mergeCell ref="BF81:BI81"/>
-    <mergeCell ref="V104:Y104"/>
-    <mergeCell ref="Z104:AC104"/>
-    <mergeCell ref="AD104:AG104"/>
-    <mergeCell ref="AH104:AK104"/>
-    <mergeCell ref="AL104:AO104"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="N81:Q81"/>
-    <mergeCell ref="R81:U81"/>
-    <mergeCell ref="V81:Y81"/>
-    <mergeCell ref="Z81:AC81"/>
-    <mergeCell ref="AD81:AG81"/>
-    <mergeCell ref="AH81:AK81"/>
-    <mergeCell ref="AL81:AO81"/>
-    <mergeCell ref="V57:Y57"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="R57:U57"/>
-    <mergeCell ref="AH57:AK57"/>
-    <mergeCell ref="Z57:AC57"/>
-    <mergeCell ref="BR33:BU33"/>
-    <mergeCell ref="AD57:AG57"/>
-    <mergeCell ref="BB57:BE57"/>
-    <mergeCell ref="BF57:BI57"/>
-    <mergeCell ref="BJ57:BM57"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF33:BI33"/>
-    <mergeCell ref="BJ33:BM33"/>
-    <mergeCell ref="BN33:BQ33"/>
-    <mergeCell ref="AL57:AO57"/>
-    <mergeCell ref="AP57:AS57"/>
-    <mergeCell ref="AT57:AW57"/>
-    <mergeCell ref="AX57:BA57"/>
-    <mergeCell ref="AP33:AS33"/>
-    <mergeCell ref="AT33:AW33"/>
-    <mergeCell ref="AX33:BA33"/>
-    <mergeCell ref="BB33:BE33"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BR81:BU81"/>
-    <mergeCell ref="BV81:BY81"/>
-    <mergeCell ref="BR57:BU57"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="R33:U33"/>
-    <mergeCell ref="V33:Y33"/>
-    <mergeCell ref="Z33:AC33"/>
-    <mergeCell ref="AD33:AG33"/>
-    <mergeCell ref="AH33:AK33"/>
-    <mergeCell ref="AL33:AO33"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="CD57:CG57"/>
+    <mergeCell ref="CD81:CG81"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD152:CG152"/>
+    <mergeCell ref="CD128:CG128"/>
+    <mergeCell ref="CD104:CG104"/>
+    <mergeCell ref="CD33:CG33"/>
+    <mergeCell ref="BV33:BY33"/>
+    <mergeCell ref="BJ81:BM81"/>
+    <mergeCell ref="BR152:BU152"/>
+    <mergeCell ref="BR128:BU128"/>
+    <mergeCell ref="BR104:BU104"/>
+    <mergeCell ref="BZ128:CC128"/>
+    <mergeCell ref="BZ104:CC104"/>
+    <mergeCell ref="BV152:BY152"/>
+    <mergeCell ref="BZ152:CC152"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.11811023622047245" top="0.51181102362204722" bottom="0.15748031496062992" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F317FFCF-C035-4EAF-A870-687DAD19928A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302020D8-F85E-4F7B-9C95-DF963C98AFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="975" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNS" sheetId="6" r:id="rId1"/>
@@ -326,7 +326,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$CT$167</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$CV$167</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -632,13 +632,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of August 2024</t>
+    <t>As of November 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2024</t>
+    <t>Q1 2000 to Q3 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2024</t>
+    <t>Q1 2001 to Q3 2024</t>
   </si>
 </sst>
 </file>
@@ -740,7 +740,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -783,9 +783,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23645,15 +23665,15 @@
       <selection activeCell="N19" sqref="N19"/>
       <selection pane="topRight" activeCell="N19" sqref="N19"/>
       <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
-      <selection pane="bottomRight" activeCell="CP1" sqref="CP1:CU1048576"/>
+      <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.21875" style="1" customWidth="1"/>
     <col min="2" max="93" width="10.21875" style="1" customWidth="1"/>
-    <col min="94" max="99" width="9.6640625" style="1" customWidth="1"/>
-    <col min="100" max="16384" width="7.77734375" style="1"/>
+    <col min="94" max="100" width="10.109375" style="30" customWidth="1"/>
+    <col min="101" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.2">
@@ -23688,132 +23708,132 @@
     </row>
     <row r="9" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="31">
+      <c r="B9" s="45">
         <v>2000</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31">
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45">
         <v>2001</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31">
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45">
         <v>2002</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31">
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45">
         <v>2003</v>
       </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31">
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45">
         <v>2004</v>
       </c>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31">
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45">
         <v>2005</v>
       </c>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31">
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45">
         <v>2006</v>
       </c>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31">
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45">
         <v>2007</v>
       </c>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31">
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45">
         <v>2008</v>
       </c>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31">
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="45">
         <v>2009</v>
       </c>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="31">
+      <c r="AM9" s="45"/>
+      <c r="AN9" s="45"/>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="31"/>
-      <c r="AS9" s="31"/>
-      <c r="AT9" s="31">
+      <c r="AQ9" s="45"/>
+      <c r="AR9" s="45"/>
+      <c r="AS9" s="45"/>
+      <c r="AT9" s="45">
         <v>2011</v>
       </c>
-      <c r="AU9" s="31"/>
-      <c r="AV9" s="31"/>
-      <c r="AW9" s="31"/>
-      <c r="AX9" s="31">
+      <c r="AU9" s="45"/>
+      <c r="AV9" s="45"/>
+      <c r="AW9" s="45"/>
+      <c r="AX9" s="45">
         <v>2012</v>
       </c>
-      <c r="AY9" s="31"/>
-      <c r="AZ9" s="31"/>
-      <c r="BA9" s="31"/>
-      <c r="BB9" s="31">
+      <c r="AY9" s="45"/>
+      <c r="AZ9" s="45"/>
+      <c r="BA9" s="45"/>
+      <c r="BB9" s="45">
         <v>2013</v>
       </c>
-      <c r="BC9" s="31"/>
-      <c r="BD9" s="31"/>
-      <c r="BE9" s="31"/>
-      <c r="BF9" s="31">
+      <c r="BC9" s="45"/>
+      <c r="BD9" s="45"/>
+      <c r="BE9" s="45"/>
+      <c r="BF9" s="45">
         <v>2014</v>
       </c>
-      <c r="BG9" s="31"/>
-      <c r="BH9" s="31"/>
-      <c r="BI9" s="31"/>
-      <c r="BJ9" s="31">
+      <c r="BG9" s="45"/>
+      <c r="BH9" s="45"/>
+      <c r="BI9" s="45"/>
+      <c r="BJ9" s="45">
         <v>2015</v>
       </c>
-      <c r="BK9" s="31"/>
-      <c r="BL9" s="31"/>
-      <c r="BM9" s="31"/>
-      <c r="BN9" s="31">
+      <c r="BK9" s="45"/>
+      <c r="BL9" s="45"/>
+      <c r="BM9" s="45"/>
+      <c r="BN9" s="45">
         <v>2016</v>
       </c>
-      <c r="BO9" s="31"/>
-      <c r="BP9" s="31"/>
-      <c r="BQ9" s="31"/>
-      <c r="BR9" s="31">
+      <c r="BO9" s="45"/>
+      <c r="BP9" s="45"/>
+      <c r="BQ9" s="45"/>
+      <c r="BR9" s="45">
         <v>2017</v>
       </c>
-      <c r="BS9" s="31"/>
-      <c r="BT9" s="31"/>
-      <c r="BU9" s="31"/>
-      <c r="BV9" s="31">
+      <c r="BS9" s="45"/>
+      <c r="BT9" s="45"/>
+      <c r="BU9" s="45"/>
+      <c r="BV9" s="45">
         <v>2018</v>
       </c>
-      <c r="BW9" s="31"/>
-      <c r="BX9" s="31"/>
-      <c r="BY9" s="31"/>
-      <c r="BZ9" s="31">
+      <c r="BW9" s="45"/>
+      <c r="BX9" s="45"/>
+      <c r="BY9" s="45"/>
+      <c r="BZ9" s="45">
         <v>2019</v>
       </c>
-      <c r="CA9" s="31"/>
-      <c r="CB9" s="31"/>
-      <c r="CC9" s="31"/>
-      <c r="CD9" s="31">
+      <c r="CA9" s="45"/>
+      <c r="CB9" s="45"/>
+      <c r="CC9" s="45"/>
+      <c r="CD9" s="45">
         <v>2020</v>
       </c>
-      <c r="CE9" s="31"/>
-      <c r="CF9" s="31"/>
-      <c r="CG9" s="31"/>
+      <c r="CE9" s="45"/>
+      <c r="CF9" s="45"/>
+      <c r="CG9" s="45"/>
       <c r="CH9" s="29">
         <v>2021</v>
       </c>
@@ -23826,16 +23846,17 @@
       <c r="CM9" s="29"/>
       <c r="CN9" s="29"/>
       <c r="CO9" s="29"/>
-      <c r="CP9" s="29">
+      <c r="CP9" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="29"/>
-      <c r="CR9" s="29"/>
-      <c r="CS9" s="29"/>
-      <c r="CT9" s="29">
+      <c r="CQ9" s="31"/>
+      <c r="CR9" s="31"/>
+      <c r="CS9" s="31"/>
+      <c r="CT9" s="31">
         <v>2024</v>
       </c>
-      <c r="CU9" s="29"/>
+      <c r="CU9" s="31"/>
+      <c r="CV9" s="31"/>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24117,23 +24138,26 @@
       <c r="CO10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CR10" s="6" t="s">
+      <c r="CR10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CS10" s="6" t="s">
+      <c r="CS10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CT10" s="6" t="s">
+      <c r="CT10" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CU10" s="6" t="s">
+      <c r="CU10" s="32" t="s">
         <v>7</v>
+      </c>
+      <c r="CV10" s="32" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24419,25 +24443,27 @@
       <c r="CO12" s="25">
         <v>300814.73704605724</v>
       </c>
-      <c r="CP12" s="25">
+      <c r="CP12" s="33">
         <v>179944.39226853289</v>
       </c>
-      <c r="CQ12" s="25">
+      <c r="CQ12" s="33">
         <v>570474.25909519638</v>
       </c>
-      <c r="CR12" s="25">
+      <c r="CR12" s="33">
         <v>327894.96726864023</v>
       </c>
-      <c r="CS12" s="25">
+      <c r="CS12" s="33">
         <v>353524.08954811259</v>
       </c>
-      <c r="CT12" s="25">
+      <c r="CT12" s="33">
         <v>205189.20239989951</v>
       </c>
-      <c r="CU12" s="25">
-        <v>706528.87986534415</v>
-      </c>
-      <c r="CV12" s="9"/>
+      <c r="CU12" s="33">
+        <v>706493.66278316185</v>
+      </c>
+      <c r="CV12" s="33">
+        <v>341382.15109978046</v>
+      </c>
       <c r="CW12" s="9"/>
       <c r="CX12" s="9"/>
       <c r="CY12" s="9"/>
@@ -24747,25 +24773,27 @@
       <c r="CO13" s="25">
         <v>268855.25874604005</v>
       </c>
-      <c r="CP13" s="25">
+      <c r="CP13" s="33">
         <v>318866.50147869712</v>
       </c>
-      <c r="CQ13" s="25">
+      <c r="CQ13" s="33">
         <v>291749.48898637982</v>
       </c>
-      <c r="CR13" s="25">
+      <c r="CR13" s="33">
         <v>304820.43348153739</v>
       </c>
-      <c r="CS13" s="25">
+      <c r="CS13" s="33">
         <v>285390.52088677022</v>
       </c>
-      <c r="CT13" s="25">
+      <c r="CT13" s="33">
         <v>346956.21129899548</v>
       </c>
-      <c r="CU13" s="25">
-        <v>339636.30936344154</v>
-      </c>
-      <c r="CV13" s="9"/>
+      <c r="CU13" s="33">
+        <v>341358.49072345434</v>
+      </c>
+      <c r="CV13" s="33">
+        <v>349592.45150605298</v>
+      </c>
       <c r="CW13" s="9"/>
       <c r="CX13" s="9"/>
       <c r="CY13" s="9"/>
@@ -25075,25 +25103,27 @@
       <c r="CO14" s="25">
         <v>258606.89244976532</v>
       </c>
-      <c r="CP14" s="25">
+      <c r="CP14" s="33">
         <v>236289.09378167888</v>
       </c>
-      <c r="CQ14" s="25">
+      <c r="CQ14" s="33">
         <v>233787.3192249446</v>
       </c>
-      <c r="CR14" s="25">
+      <c r="CR14" s="33">
         <v>249987.64409342629</v>
       </c>
-      <c r="CS14" s="25">
+      <c r="CS14" s="33">
         <v>292231.54355216632</v>
       </c>
-      <c r="CT14" s="25">
+      <c r="CT14" s="33">
         <v>247686.68549270817</v>
       </c>
-      <c r="CU14" s="25">
-        <v>250734.54578167858</v>
-      </c>
-      <c r="CV14" s="9"/>
+      <c r="CU14" s="33">
+        <v>252118.51070211869</v>
+      </c>
+      <c r="CV14" s="33">
+        <v>275767.34684556938</v>
+      </c>
       <c r="CW14" s="9"/>
       <c r="CX14" s="9"/>
       <c r="CY14" s="9"/>
@@ -25216,13 +25246,13 @@
       <c r="CM15" s="9"/>
       <c r="CN15" s="9"/>
       <c r="CO15" s="9"/>
-      <c r="CP15" s="9"/>
-      <c r="CQ15" s="9"/>
-      <c r="CR15" s="9"/>
-      <c r="CS15" s="9"/>
-      <c r="CT15" s="9"/>
-      <c r="CU15" s="9"/>
-      <c r="CV15" s="9"/>
+      <c r="CP15" s="34"/>
+      <c r="CQ15" s="34"/>
+      <c r="CR15" s="34"/>
+      <c r="CS15" s="34"/>
+      <c r="CT15" s="34"/>
+      <c r="CU15" s="34"/>
+      <c r="CV15" s="34"/>
       <c r="CW15" s="9"/>
       <c r="CX15" s="9"/>
       <c r="CY15" s="9"/>
@@ -25532,25 +25562,27 @@
       <c r="CO16" s="26">
         <v>828276.88824186265</v>
       </c>
-      <c r="CP16" s="26">
+      <c r="CP16" s="35">
         <v>735099.98752890888</v>
       </c>
-      <c r="CQ16" s="26">
+      <c r="CQ16" s="35">
         <v>1096011.0673065209</v>
       </c>
-      <c r="CR16" s="26">
+      <c r="CR16" s="35">
         <v>882703.04484360397</v>
       </c>
-      <c r="CS16" s="26">
+      <c r="CS16" s="35">
         <v>931146.15398704913</v>
       </c>
-      <c r="CT16" s="26">
+      <c r="CT16" s="35">
         <v>799832.09919160325</v>
       </c>
-      <c r="CU16" s="26">
-        <v>1296899.7350104642</v>
-      </c>
-      <c r="CV16" s="9"/>
+      <c r="CU16" s="35">
+        <v>1299970.6642087349</v>
+      </c>
+      <c r="CV16" s="35">
+        <v>966741.94945140276</v>
+      </c>
       <c r="CW16" s="9"/>
       <c r="CX16" s="9"/>
       <c r="CY16" s="9"/>
@@ -25674,12 +25706,13 @@
       <c r="CM17" s="12"/>
       <c r="CN17" s="12"/>
       <c r="CO17" s="12"/>
-      <c r="CP17" s="12"/>
-      <c r="CQ17" s="12"/>
-      <c r="CR17" s="12"/>
-      <c r="CS17" s="12"/>
-      <c r="CT17" s="12"/>
-      <c r="CU17" s="12"/>
+      <c r="CP17" s="36"/>
+      <c r="CQ17" s="36"/>
+      <c r="CR17" s="36"/>
+      <c r="CS17" s="36"/>
+      <c r="CT17" s="36"/>
+      <c r="CU17" s="36"/>
+      <c r="CV17" s="36"/>
     </row>
     <row r="18" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
@@ -25775,13 +25808,13 @@
       <c r="CM18" s="26"/>
       <c r="CN18" s="26"/>
       <c r="CO18" s="26"/>
-      <c r="CP18" s="26"/>
-      <c r="CQ18" s="26"/>
-      <c r="CR18" s="26"/>
-      <c r="CS18" s="26"/>
-      <c r="CT18" s="26"/>
-      <c r="CU18" s="26"/>
-      <c r="CV18" s="9"/>
+      <c r="CP18" s="35"/>
+      <c r="CQ18" s="35"/>
+      <c r="CR18" s="35"/>
+      <c r="CS18" s="35"/>
+      <c r="CT18" s="35"/>
+      <c r="CU18" s="35"/>
+      <c r="CV18" s="35"/>
       <c r="CW18" s="9"/>
       <c r="CX18" s="9"/>
       <c r="CY18" s="9"/>
@@ -26091,25 +26124,27 @@
       <c r="CO19" s="25">
         <v>448603.54944467149</v>
       </c>
-      <c r="CP19" s="25">
+      <c r="CP19" s="33">
         <v>339077.55617626372</v>
       </c>
-      <c r="CQ19" s="25">
+      <c r="CQ19" s="33">
         <v>561476.16625263379</v>
       </c>
-      <c r="CR19" s="25">
+      <c r="CR19" s="33">
         <v>426514.20774832729</v>
       </c>
-      <c r="CS19" s="25">
+      <c r="CS19" s="33">
         <v>505656.68919888965</v>
       </c>
-      <c r="CT19" s="25">
+      <c r="CT19" s="33">
         <v>368780.17555049696</v>
       </c>
-      <c r="CU19" s="25">
-        <v>658710.08161944698</v>
-      </c>
-      <c r="CV19" s="9"/>
+      <c r="CU19" s="33">
+        <v>659869.75425811287</v>
+      </c>
+      <c r="CV19" s="33">
+        <v>467764.09608254826</v>
+      </c>
       <c r="CW19" s="9"/>
       <c r="CX19" s="9"/>
       <c r="CY19" s="9"/>
@@ -26233,12 +26268,13 @@
       <c r="CM20" s="14"/>
       <c r="CN20" s="14"/>
       <c r="CO20" s="14"/>
-      <c r="CP20" s="14"/>
-      <c r="CQ20" s="14"/>
-      <c r="CR20" s="14"/>
-      <c r="CS20" s="14"/>
-      <c r="CT20" s="14"/>
-      <c r="CU20" s="14"/>
+      <c r="CP20" s="37"/>
+      <c r="CQ20" s="37"/>
+      <c r="CR20" s="37"/>
+      <c r="CS20" s="37"/>
+      <c r="CT20" s="37"/>
+      <c r="CU20" s="37"/>
+      <c r="CV20" s="37"/>
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
@@ -26259,6 +26295,13 @@
       <c r="Y23" s="17"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="9"/>
+      <c r="CP23" s="38"/>
+      <c r="CQ23" s="38"/>
+      <c r="CR23" s="38"/>
+      <c r="CS23" s="38"/>
+      <c r="CT23" s="38"/>
+      <c r="CU23" s="38"/>
+      <c r="CV23" s="38"/>
     </row>
     <row r="24" spans="1:128" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G24" s="9"/>
@@ -26269,6 +26312,13 @@
       <c r="Y24" s="17"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="9"/>
+      <c r="CP24" s="38"/>
+      <c r="CQ24" s="38"/>
+      <c r="CR24" s="38"/>
+      <c r="CS24" s="38"/>
+      <c r="CT24" s="38"/>
+      <c r="CU24" s="38"/>
+      <c r="CV24" s="38"/>
     </row>
     <row r="25" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -26302,132 +26352,132 @@
     </row>
     <row r="33" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="31">
+      <c r="B33" s="45">
         <v>2000</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="31">
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="45">
         <v>2001</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="31">
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="45">
         <v>2002</v>
       </c>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="31">
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="45">
         <v>2003</v>
       </c>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="31">
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="45">
         <v>2004</v>
       </c>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="31">
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="45">
         <v>2005</v>
       </c>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="31">
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="45">
         <v>2006</v>
       </c>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="31">
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="45">
         <v>2007</v>
       </c>
-      <c r="AE33" s="32"/>
-      <c r="AF33" s="32"/>
-      <c r="AG33" s="32"/>
-      <c r="AH33" s="31">
+      <c r="AE33" s="46"/>
+      <c r="AF33" s="46"/>
+      <c r="AG33" s="46"/>
+      <c r="AH33" s="45">
         <v>2008</v>
       </c>
-      <c r="AI33" s="32"/>
-      <c r="AJ33" s="32"/>
-      <c r="AK33" s="32"/>
-      <c r="AL33" s="31">
+      <c r="AI33" s="46"/>
+      <c r="AJ33" s="46"/>
+      <c r="AK33" s="46"/>
+      <c r="AL33" s="45">
         <v>2009</v>
       </c>
-      <c r="AM33" s="32"/>
-      <c r="AN33" s="32"/>
-      <c r="AO33" s="32"/>
-      <c r="AP33" s="31">
+      <c r="AM33" s="46"/>
+      <c r="AN33" s="46"/>
+      <c r="AO33" s="46"/>
+      <c r="AP33" s="45">
         <v>2010</v>
       </c>
-      <c r="AQ33" s="32"/>
-      <c r="AR33" s="32"/>
-      <c r="AS33" s="32"/>
-      <c r="AT33" s="31">
+      <c r="AQ33" s="46"/>
+      <c r="AR33" s="46"/>
+      <c r="AS33" s="46"/>
+      <c r="AT33" s="45">
         <v>2011</v>
       </c>
-      <c r="AU33" s="32"/>
-      <c r="AV33" s="32"/>
-      <c r="AW33" s="32"/>
-      <c r="AX33" s="31">
+      <c r="AU33" s="46"/>
+      <c r="AV33" s="46"/>
+      <c r="AW33" s="46"/>
+      <c r="AX33" s="45">
         <v>2012</v>
       </c>
-      <c r="AY33" s="32"/>
-      <c r="AZ33" s="32"/>
-      <c r="BA33" s="32"/>
-      <c r="BB33" s="31">
+      <c r="AY33" s="46"/>
+      <c r="AZ33" s="46"/>
+      <c r="BA33" s="46"/>
+      <c r="BB33" s="45">
         <v>2013</v>
       </c>
-      <c r="BC33" s="32"/>
-      <c r="BD33" s="32"/>
-      <c r="BE33" s="32"/>
-      <c r="BF33" s="31">
+      <c r="BC33" s="46"/>
+      <c r="BD33" s="46"/>
+      <c r="BE33" s="46"/>
+      <c r="BF33" s="45">
         <v>2014</v>
       </c>
-      <c r="BG33" s="32"/>
-      <c r="BH33" s="32"/>
-      <c r="BI33" s="32"/>
-      <c r="BJ33" s="31">
+      <c r="BG33" s="46"/>
+      <c r="BH33" s="46"/>
+      <c r="BI33" s="46"/>
+      <c r="BJ33" s="45">
         <v>2015</v>
       </c>
-      <c r="BK33" s="32"/>
-      <c r="BL33" s="32"/>
-      <c r="BM33" s="32"/>
-      <c r="BN33" s="31">
+      <c r="BK33" s="46"/>
+      <c r="BL33" s="46"/>
+      <c r="BM33" s="46"/>
+      <c r="BN33" s="45">
         <v>2016</v>
       </c>
-      <c r="BO33" s="32"/>
-      <c r="BP33" s="32"/>
-      <c r="BQ33" s="32"/>
-      <c r="BR33" s="31">
+      <c r="BO33" s="46"/>
+      <c r="BP33" s="46"/>
+      <c r="BQ33" s="46"/>
+      <c r="BR33" s="45">
         <v>2017</v>
       </c>
-      <c r="BS33" s="32"/>
-      <c r="BT33" s="32"/>
-      <c r="BU33" s="32"/>
-      <c r="BV33" s="31">
+      <c r="BS33" s="46"/>
+      <c r="BT33" s="46"/>
+      <c r="BU33" s="46"/>
+      <c r="BV33" s="45">
         <v>2018</v>
       </c>
-      <c r="BW33" s="31"/>
-      <c r="BX33" s="31"/>
-      <c r="BY33" s="31"/>
-      <c r="BZ33" s="31">
+      <c r="BW33" s="45"/>
+      <c r="BX33" s="45"/>
+      <c r="BY33" s="45"/>
+      <c r="BZ33" s="45">
         <v>2019</v>
       </c>
-      <c r="CA33" s="31"/>
-      <c r="CB33" s="31"/>
-      <c r="CC33" s="31"/>
-      <c r="CD33" s="31">
+      <c r="CA33" s="45"/>
+      <c r="CB33" s="45"/>
+      <c r="CC33" s="45"/>
+      <c r="CD33" s="45">
         <v>2020</v>
       </c>
-      <c r="CE33" s="31"/>
-      <c r="CF33" s="31"/>
-      <c r="CG33" s="31"/>
+      <c r="CE33" s="45"/>
+      <c r="CF33" s="45"/>
+      <c r="CG33" s="45"/>
       <c r="CH33" s="29">
         <v>2021</v>
       </c>
@@ -26440,16 +26490,17 @@
       <c r="CM33" s="29"/>
       <c r="CN33" s="29"/>
       <c r="CO33" s="29"/>
-      <c r="CP33" s="29">
+      <c r="CP33" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ33" s="29"/>
-      <c r="CR33" s="29"/>
-      <c r="CS33" s="29"/>
-      <c r="CT33" s="29">
+      <c r="CQ33" s="31"/>
+      <c r="CR33" s="31"/>
+      <c r="CS33" s="31"/>
+      <c r="CT33" s="31">
         <v>2024</v>
       </c>
-      <c r="CU33" s="29"/>
+      <c r="CU33" s="31"/>
+      <c r="CV33" s="31"/>
     </row>
     <row r="34" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
@@ -26731,23 +26782,26 @@
       <c r="CO34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP34" s="6" t="s">
+      <c r="CP34" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CQ34" s="6" t="s">
+      <c r="CQ34" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CR34" s="6" t="s">
+      <c r="CR34" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CS34" s="6" t="s">
+      <c r="CS34" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CT34" s="6" t="s">
+      <c r="CT34" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CU34" s="6" t="s">
+      <c r="CU34" s="32" t="s">
         <v>7</v>
+      </c>
+      <c r="CV34" s="32" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27033,25 +27087,27 @@
       <c r="CO36" s="25">
         <v>266052.41393969115</v>
       </c>
-      <c r="CP36" s="25">
+      <c r="CP36" s="33">
         <v>145501.71895947334</v>
       </c>
-      <c r="CQ36" s="25">
+      <c r="CQ36" s="33">
         <v>481118.07315850136</v>
       </c>
-      <c r="CR36" s="25">
+      <c r="CR36" s="33">
         <v>259052.0106511059</v>
       </c>
-      <c r="CS36" s="25">
+      <c r="CS36" s="33">
         <v>305806.58509531239</v>
       </c>
-      <c r="CT36" s="25">
+      <c r="CT36" s="33">
         <v>163035.57229029998</v>
       </c>
-      <c r="CU36" s="25">
-        <v>585944.27345003863</v>
-      </c>
-      <c r="CV36" s="9"/>
+      <c r="CU36" s="33">
+        <v>585596.20331473229</v>
+      </c>
+      <c r="CV36" s="33">
+        <v>268703.82177645317</v>
+      </c>
       <c r="CW36" s="9"/>
       <c r="CX36" s="9"/>
       <c r="CY36" s="9"/>
@@ -27361,25 +27417,27 @@
       <c r="CO37" s="25">
         <v>227802.45739331158</v>
       </c>
-      <c r="CP37" s="25">
+      <c r="CP37" s="33">
         <v>283362.34676138463</v>
       </c>
-      <c r="CQ37" s="25">
+      <c r="CQ37" s="33">
         <v>253969.37808522864</v>
       </c>
-      <c r="CR37" s="25">
+      <c r="CR37" s="33">
         <v>231873.95870688991</v>
       </c>
-      <c r="CS37" s="25">
+      <c r="CS37" s="33">
         <v>236625.62781318676</v>
       </c>
-      <c r="CT37" s="25">
+      <c r="CT37" s="33">
         <v>302534.49537018157</v>
       </c>
-      <c r="CU37" s="25">
-        <v>288611.72265195276</v>
-      </c>
-      <c r="CV37" s="9"/>
+      <c r="CU37" s="33">
+        <v>289545.83673256158</v>
+      </c>
+      <c r="CV37" s="33">
+        <v>264155.99775810342</v>
+      </c>
       <c r="CW37" s="9"/>
       <c r="CX37" s="9"/>
       <c r="CY37" s="9"/>
@@ -27689,25 +27747,27 @@
       <c r="CO38" s="25">
         <v>247240.70191401232</v>
       </c>
-      <c r="CP38" s="25">
+      <c r="CP38" s="33">
         <v>186288.48265977591</v>
       </c>
-      <c r="CQ38" s="25">
+      <c r="CQ38" s="33">
         <v>191771.33576069906</v>
       </c>
-      <c r="CR38" s="25">
+      <c r="CR38" s="33">
         <v>198324.98987957049</v>
       </c>
-      <c r="CS38" s="25">
+      <c r="CS38" s="33">
         <v>273461.86986307218</v>
       </c>
-      <c r="CT38" s="25">
+      <c r="CT38" s="33">
         <v>191968.10443746313</v>
       </c>
-      <c r="CU38" s="25">
-        <v>201078.70004750302</v>
-      </c>
-      <c r="CV38" s="9"/>
+      <c r="CU38" s="33">
+        <v>201888.62649137786</v>
+      </c>
+      <c r="CV38" s="33">
+        <v>217404.8216517299</v>
+      </c>
       <c r="CW38" s="9"/>
       <c r="CX38" s="9"/>
       <c r="CY38" s="9"/>
@@ -27830,13 +27890,13 @@
       <c r="CM39" s="9"/>
       <c r="CN39" s="9"/>
       <c r="CO39" s="9"/>
-      <c r="CP39" s="9"/>
-      <c r="CQ39" s="9"/>
-      <c r="CR39" s="9"/>
-      <c r="CS39" s="9"/>
-      <c r="CT39" s="9"/>
-      <c r="CU39" s="9"/>
-      <c r="CV39" s="9"/>
+      <c r="CP39" s="34"/>
+      <c r="CQ39" s="34"/>
+      <c r="CR39" s="34"/>
+      <c r="CS39" s="34"/>
+      <c r="CT39" s="34"/>
+      <c r="CU39" s="34"/>
+      <c r="CV39" s="34"/>
       <c r="CW39" s="9"/>
       <c r="CX39" s="9"/>
       <c r="CY39" s="9"/>
@@ -28146,25 +28206,27 @@
       <c r="CO40" s="26">
         <v>741095.57324701501</v>
       </c>
-      <c r="CP40" s="26">
+      <c r="CP40" s="35">
         <v>615152.54838063382</v>
       </c>
-      <c r="CQ40" s="26">
+      <c r="CQ40" s="35">
         <v>926858.78700442915</v>
       </c>
-      <c r="CR40" s="26">
+      <c r="CR40" s="35">
         <v>689250.95923756622</v>
       </c>
-      <c r="CS40" s="26">
+      <c r="CS40" s="35">
         <v>815894.08277157135</v>
       </c>
-      <c r="CT40" s="26">
+      <c r="CT40" s="35">
         <v>657538.17209794465</v>
       </c>
-      <c r="CU40" s="26">
-        <v>1075634.6961494945</v>
-      </c>
-      <c r="CV40" s="9"/>
+      <c r="CU40" s="35">
+        <v>1077030.6665386718</v>
+      </c>
+      <c r="CV40" s="35">
+        <v>750264.64118628646</v>
+      </c>
       <c r="CW40" s="9"/>
       <c r="CX40" s="9"/>
       <c r="CY40" s="9"/>
@@ -28288,12 +28350,13 @@
       <c r="CM41" s="12"/>
       <c r="CN41" s="12"/>
       <c r="CO41" s="12"/>
-      <c r="CP41" s="12"/>
-      <c r="CQ41" s="12"/>
-      <c r="CR41" s="12"/>
-      <c r="CS41" s="12"/>
-      <c r="CT41" s="12"/>
-      <c r="CU41" s="12"/>
+      <c r="CP41" s="36"/>
+      <c r="CQ41" s="36"/>
+      <c r="CR41" s="36"/>
+      <c r="CS41" s="36"/>
+      <c r="CT41" s="36"/>
+      <c r="CU41" s="36"/>
+      <c r="CV41" s="36"/>
     </row>
     <row r="42" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
@@ -28389,13 +28452,13 @@
       <c r="CM42" s="26"/>
       <c r="CN42" s="26"/>
       <c r="CO42" s="26"/>
-      <c r="CP42" s="26"/>
-      <c r="CQ42" s="26"/>
-      <c r="CR42" s="26"/>
-      <c r="CS42" s="26"/>
-      <c r="CT42" s="26"/>
-      <c r="CU42" s="26"/>
-      <c r="CV42" s="9"/>
+      <c r="CP42" s="35"/>
+      <c r="CQ42" s="35"/>
+      <c r="CR42" s="35"/>
+      <c r="CS42" s="35"/>
+      <c r="CT42" s="35"/>
+      <c r="CU42" s="35"/>
+      <c r="CV42" s="35"/>
       <c r="CW42" s="9"/>
       <c r="CX42" s="9"/>
       <c r="CY42" s="9"/>
@@ -28705,25 +28768,27 @@
       <c r="CO43" s="25">
         <v>411569.02246082551</v>
       </c>
-      <c r="CP43" s="25">
+      <c r="CP43" s="33">
         <v>281780.28268736938</v>
       </c>
-      <c r="CQ43" s="25">
+      <c r="CQ43" s="33">
         <v>426094.14822213619</v>
       </c>
-      <c r="CR43" s="25">
+      <c r="CR43" s="33">
         <v>352820.30528717284</v>
       </c>
-      <c r="CS43" s="25">
+      <c r="CS43" s="33">
         <v>446089.39704466867</v>
       </c>
-      <c r="CT43" s="25">
+      <c r="CT43" s="33">
         <v>301579.73378708912</v>
       </c>
-      <c r="CU43" s="25">
-        <v>494210.5151653667</v>
-      </c>
-      <c r="CV43" s="9"/>
+      <c r="CU43" s="33">
+        <v>494619.69202222337</v>
+      </c>
+      <c r="CV43" s="33">
+        <v>384733.32918223209</v>
+      </c>
       <c r="CW43" s="9"/>
       <c r="CX43" s="9"/>
       <c r="CY43" s="9"/>
@@ -28847,12 +28912,13 @@
       <c r="CM44" s="14"/>
       <c r="CN44" s="14"/>
       <c r="CO44" s="14"/>
-      <c r="CP44" s="14"/>
-      <c r="CQ44" s="14"/>
-      <c r="CR44" s="14"/>
-      <c r="CS44" s="14"/>
-      <c r="CT44" s="14"/>
-      <c r="CU44" s="14"/>
+      <c r="CP44" s="37"/>
+      <c r="CQ44" s="37"/>
+      <c r="CR44" s="37"/>
+      <c r="CS44" s="37"/>
+      <c r="CT44" s="37"/>
+      <c r="CU44" s="37"/>
+      <c r="CV44" s="37"/>
     </row>
     <row r="45" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
@@ -28957,13 +29023,13 @@
       <c r="CM47" s="9"/>
       <c r="CN47" s="9"/>
       <c r="CO47" s="9"/>
-      <c r="CP47" s="9"/>
-      <c r="CQ47" s="9"/>
-      <c r="CR47" s="9"/>
-      <c r="CS47" s="9"/>
-      <c r="CT47" s="9"/>
-      <c r="CU47" s="9"/>
-      <c r="CV47" s="9"/>
+      <c r="CP47" s="34"/>
+      <c r="CQ47" s="34"/>
+      <c r="CR47" s="34"/>
+      <c r="CS47" s="34"/>
+      <c r="CT47" s="34"/>
+      <c r="CU47" s="34"/>
+      <c r="CV47" s="34"/>
       <c r="CW47" s="9"/>
       <c r="CX47" s="9"/>
       <c r="CY47" s="9"/>
@@ -29086,13 +29152,13 @@
       <c r="CM48" s="9"/>
       <c r="CN48" s="9"/>
       <c r="CO48" s="9"/>
-      <c r="CP48" s="9"/>
-      <c r="CQ48" s="9"/>
-      <c r="CR48" s="9"/>
-      <c r="CS48" s="9"/>
-      <c r="CT48" s="9"/>
-      <c r="CU48" s="9"/>
-      <c r="CV48" s="9"/>
+      <c r="CP48" s="34"/>
+      <c r="CQ48" s="34"/>
+      <c r="CR48" s="34"/>
+      <c r="CS48" s="34"/>
+      <c r="CT48" s="34"/>
+      <c r="CU48" s="34"/>
+      <c r="CV48" s="34"/>
       <c r="CW48" s="9"/>
       <c r="CX48" s="9"/>
       <c r="CY48" s="9"/>
@@ -29157,132 +29223,132 @@
     </row>
     <row r="57" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31" t="s">
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31" t="s">
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31" t="s">
+      <c r="K57" s="45"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="31" t="s">
+      <c r="O57" s="45"/>
+      <c r="P57" s="45"/>
+      <c r="Q57" s="45"/>
+      <c r="R57" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="S57" s="31"/>
-      <c r="T57" s="31"/>
-      <c r="U57" s="31"/>
-      <c r="V57" s="31" t="s">
+      <c r="S57" s="45"/>
+      <c r="T57" s="45"/>
+      <c r="U57" s="45"/>
+      <c r="V57" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="W57" s="31"/>
-      <c r="X57" s="31"/>
-      <c r="Y57" s="31"/>
-      <c r="Z57" s="31" t="s">
+      <c r="W57" s="45"/>
+      <c r="X57" s="45"/>
+      <c r="Y57" s="45"/>
+      <c r="Z57" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="AA57" s="31"/>
-      <c r="AB57" s="31"/>
-      <c r="AC57" s="31"/>
-      <c r="AD57" s="31" t="s">
+      <c r="AA57" s="45"/>
+      <c r="AB57" s="45"/>
+      <c r="AC57" s="45"/>
+      <c r="AD57" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="AE57" s="31"/>
-      <c r="AF57" s="31"/>
-      <c r="AG57" s="31"/>
-      <c r="AH57" s="31" t="s">
+      <c r="AE57" s="45"/>
+      <c r="AF57" s="45"/>
+      <c r="AG57" s="45"/>
+      <c r="AH57" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="AI57" s="31"/>
-      <c r="AJ57" s="31"/>
-      <c r="AK57" s="31"/>
-      <c r="AL57" s="31" t="s">
+      <c r="AI57" s="45"/>
+      <c r="AJ57" s="45"/>
+      <c r="AK57" s="45"/>
+      <c r="AL57" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AM57" s="31"/>
-      <c r="AN57" s="31"/>
-      <c r="AO57" s="31"/>
-      <c r="AP57" s="31" t="s">
+      <c r="AM57" s="45"/>
+      <c r="AN57" s="45"/>
+      <c r="AO57" s="45"/>
+      <c r="AP57" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="AQ57" s="31"/>
-      <c r="AR57" s="31"/>
-      <c r="AS57" s="31"/>
-      <c r="AT57" s="31" t="s">
+      <c r="AQ57" s="45"/>
+      <c r="AR57" s="45"/>
+      <c r="AS57" s="45"/>
+      <c r="AT57" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="AU57" s="31"/>
-      <c r="AV57" s="31"/>
-      <c r="AW57" s="31"/>
-      <c r="AX57" s="31" t="s">
+      <c r="AU57" s="45"/>
+      <c r="AV57" s="45"/>
+      <c r="AW57" s="45"/>
+      <c r="AX57" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="AY57" s="31"/>
-      <c r="AZ57" s="31"/>
-      <c r="BA57" s="31"/>
-      <c r="BB57" s="31" t="s">
+      <c r="AY57" s="45"/>
+      <c r="AZ57" s="45"/>
+      <c r="BA57" s="45"/>
+      <c r="BB57" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="BC57" s="31"/>
-      <c r="BD57" s="31"/>
-      <c r="BE57" s="31"/>
-      <c r="BF57" s="31" t="s">
+      <c r="BC57" s="45"/>
+      <c r="BD57" s="45"/>
+      <c r="BE57" s="45"/>
+      <c r="BF57" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="BG57" s="31"/>
-      <c r="BH57" s="31"/>
-      <c r="BI57" s="31"/>
-      <c r="BJ57" s="31" t="s">
+      <c r="BG57" s="45"/>
+      <c r="BH57" s="45"/>
+      <c r="BI57" s="45"/>
+      <c r="BJ57" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="BK57" s="31"/>
-      <c r="BL57" s="31"/>
-      <c r="BM57" s="31"/>
-      <c r="BN57" s="31" t="s">
+      <c r="BK57" s="45"/>
+      <c r="BL57" s="45"/>
+      <c r="BM57" s="45"/>
+      <c r="BN57" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="BO57" s="31"/>
-      <c r="BP57" s="31"/>
-      <c r="BQ57" s="31"/>
-      <c r="BR57" s="31" t="s">
+      <c r="BO57" s="45"/>
+      <c r="BP57" s="45"/>
+      <c r="BQ57" s="45"/>
+      <c r="BR57" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="BS57" s="31"/>
-      <c r="BT57" s="31"/>
-      <c r="BU57" s="31"/>
-      <c r="BV57" s="31" t="s">
+      <c r="BS57" s="45"/>
+      <c r="BT57" s="45"/>
+      <c r="BU57" s="45"/>
+      <c r="BV57" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="BW57" s="31"/>
-      <c r="BX57" s="31"/>
-      <c r="BY57" s="31"/>
-      <c r="BZ57" s="31" t="s">
+      <c r="BW57" s="45"/>
+      <c r="BX57" s="45"/>
+      <c r="BY57" s="45"/>
+      <c r="BZ57" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="CA57" s="31"/>
-      <c r="CB57" s="31"/>
-      <c r="CC57" s="31"/>
-      <c r="CD57" s="31" t="s">
+      <c r="CA57" s="45"/>
+      <c r="CB57" s="45"/>
+      <c r="CC57" s="45"/>
+      <c r="CD57" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="CE57" s="31"/>
-      <c r="CF57" s="31"/>
-      <c r="CG57" s="31"/>
+      <c r="CE57" s="45"/>
+      <c r="CF57" s="45"/>
+      <c r="CG57" s="45"/>
       <c r="CH57" s="29" t="s">
         <v>50</v>
       </c>
@@ -29295,14 +29361,15 @@
       <c r="CM57" s="29"/>
       <c r="CN57" s="29"/>
       <c r="CO57" s="29"/>
-      <c r="CP57" s="29" t="s">
+      <c r="CP57" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="CQ57" s="29"/>
-      <c r="CR57" s="30"/>
-      <c r="CS57" s="30"/>
-      <c r="CT57" s="29"/>
-      <c r="CU57" s="30"/>
+      <c r="CQ57" s="31"/>
+      <c r="CR57" s="31"/>
+      <c r="CS57" s="39"/>
+      <c r="CT57" s="31"/>
+      <c r="CU57" s="31"/>
+      <c r="CV57" s="39"/>
     </row>
     <row r="58" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
@@ -29584,16 +29651,19 @@
       <c r="CO58" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CP58" s="5" t="s">
+      <c r="CP58" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="CQ58" s="5" t="s">
+      <c r="CQ58" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="CR58" s="5"/>
-      <c r="CS58" s="5"/>
-      <c r="CT58" s="5"/>
-      <c r="CU58" s="5"/>
+      <c r="CR58" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS58" s="40"/>
+      <c r="CT58" s="40"/>
+      <c r="CU58" s="40"/>
+      <c r="CV58" s="40"/>
     </row>
     <row r="59" spans="1:120" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
@@ -29878,17 +29948,19 @@
       <c r="CO60" s="27">
         <v>17.52219755576175</v>
       </c>
-      <c r="CP60" s="27">
+      <c r="CP60" s="41">
         <v>14.029228592849691</v>
       </c>
-      <c r="CQ60" s="27">
-        <v>23.849388224095833</v>
-      </c>
-      <c r="CR60" s="27"/>
-      <c r="CS60" s="27"/>
-      <c r="CT60" s="27"/>
-      <c r="CU60" s="27"/>
-      <c r="CV60" s="9"/>
+      <c r="CQ60" s="41">
+        <v>23.843214925016909</v>
+      </c>
+      <c r="CR60" s="41">
+        <v>4.1132634463676681</v>
+      </c>
+      <c r="CS60" s="41"/>
+      <c r="CT60" s="41"/>
+      <c r="CU60" s="41"/>
+      <c r="CV60" s="41"/>
       <c r="CW60" s="9"/>
       <c r="CX60" s="9"/>
       <c r="CY60" s="9"/>
@@ -30190,17 +30262,19 @@
       <c r="CO61" s="27">
         <v>6.1502468718119161</v>
       </c>
-      <c r="CP61" s="27">
+      <c r="CP61" s="41">
         <v>8.8092382517562839</v>
       </c>
-      <c r="CQ61" s="27">
-        <v>16.413677550364895</v>
-      </c>
-      <c r="CR61" s="27"/>
-      <c r="CS61" s="27"/>
-      <c r="CT61" s="27"/>
-      <c r="CU61" s="27"/>
-      <c r="CV61" s="9"/>
+      <c r="CQ61" s="41">
+        <v>17.003972109576011</v>
+      </c>
+      <c r="CR61" s="41">
+        <v>14.687997623107947</v>
+      </c>
+      <c r="CS61" s="41"/>
+      <c r="CT61" s="41"/>
+      <c r="CU61" s="41"/>
+      <c r="CV61" s="41"/>
       <c r="CW61" s="9"/>
       <c r="CX61" s="9"/>
       <c r="CY61" s="9"/>
@@ -30502,17 +30576,19 @@
       <c r="CO62" s="27">
         <v>13.002225417844443</v>
       </c>
-      <c r="CP62" s="27">
+      <c r="CP62" s="41">
         <v>4.8235792556554458</v>
       </c>
-      <c r="CQ62" s="27">
-        <v>7.248993064687042</v>
-      </c>
-      <c r="CR62" s="27"/>
-      <c r="CS62" s="27"/>
-      <c r="CT62" s="27"/>
-      <c r="CU62" s="27"/>
-      <c r="CV62" s="9"/>
+      <c r="CQ62" s="41">
+        <v>7.8409691072834704</v>
+      </c>
+      <c r="CR62" s="41">
+        <v>10.31239077660517</v>
+      </c>
+      <c r="CS62" s="41"/>
+      <c r="CT62" s="41"/>
+      <c r="CU62" s="41"/>
+      <c r="CV62" s="41"/>
       <c r="CW62" s="9"/>
       <c r="CX62" s="9"/>
       <c r="CY62" s="9"/>
@@ -30627,13 +30703,13 @@
       <c r="CM63" s="20"/>
       <c r="CN63" s="20"/>
       <c r="CO63" s="20"/>
-      <c r="CP63" s="20"/>
-      <c r="CQ63" s="20"/>
-      <c r="CR63" s="20"/>
-      <c r="CS63" s="20"/>
-      <c r="CT63" s="20"/>
-      <c r="CU63" s="20"/>
-      <c r="CV63" s="9"/>
+      <c r="CP63" s="42"/>
+      <c r="CQ63" s="42"/>
+      <c r="CR63" s="42"/>
+      <c r="CS63" s="42"/>
+      <c r="CT63" s="42"/>
+      <c r="CU63" s="42"/>
+      <c r="CV63" s="42"/>
       <c r="CW63" s="9"/>
       <c r="CX63" s="9"/>
       <c r="CY63" s="9"/>
@@ -30935,17 +31011,19 @@
       <c r="CO64" s="27">
         <v>12.419671151701621</v>
       </c>
-      <c r="CP64" s="27">
+      <c r="CP64" s="41">
         <v>8.8058920909924012</v>
       </c>
-      <c r="CQ64" s="27">
-        <v>18.329072916903399</v>
-      </c>
-      <c r="CR64" s="27"/>
-      <c r="CS64" s="27"/>
-      <c r="CT64" s="27"/>
-      <c r="CU64" s="27"/>
-      <c r="CV64" s="9"/>
+      <c r="CQ64" s="41">
+        <v>18.609264357471361</v>
+      </c>
+      <c r="CR64" s="41">
+        <v>9.5206315531276573</v>
+      </c>
+      <c r="CS64" s="41"/>
+      <c r="CT64" s="41"/>
+      <c r="CU64" s="41"/>
+      <c r="CV64" s="41"/>
       <c r="CW64" s="9"/>
       <c r="CX64" s="9"/>
       <c r="CY64" s="9"/>
@@ -31061,12 +31139,13 @@
       <c r="CM65" s="23"/>
       <c r="CN65" s="23"/>
       <c r="CO65" s="23"/>
-      <c r="CP65" s="23"/>
-      <c r="CQ65" s="23"/>
-      <c r="CR65" s="23"/>
-      <c r="CS65" s="23"/>
-      <c r="CT65" s="23"/>
-      <c r="CU65" s="23"/>
+      <c r="CP65" s="43"/>
+      <c r="CQ65" s="43"/>
+      <c r="CR65" s="43"/>
+      <c r="CS65" s="43"/>
+      <c r="CT65" s="43"/>
+      <c r="CU65" s="43"/>
+      <c r="CV65" s="43"/>
     </row>
     <row r="66" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
@@ -31162,13 +31241,13 @@
       <c r="CM66" s="27"/>
       <c r="CN66" s="27"/>
       <c r="CO66" s="27"/>
-      <c r="CP66" s="27"/>
-      <c r="CQ66" s="27"/>
-      <c r="CR66" s="27"/>
-      <c r="CS66" s="27"/>
-      <c r="CT66" s="27"/>
-      <c r="CU66" s="27"/>
-      <c r="CV66" s="9"/>
+      <c r="CP66" s="41"/>
+      <c r="CQ66" s="41"/>
+      <c r="CR66" s="41"/>
+      <c r="CS66" s="41"/>
+      <c r="CT66" s="41"/>
+      <c r="CU66" s="41"/>
+      <c r="CV66" s="41"/>
       <c r="CW66" s="9"/>
       <c r="CX66" s="9"/>
       <c r="CY66" s="9"/>
@@ -31470,17 +31549,19 @@
       <c r="CO67" s="27">
         <v>12.717942117231246</v>
       </c>
-      <c r="CP67" s="27">
+      <c r="CP67" s="41">
         <v>8.7598305559312308</v>
       </c>
-      <c r="CQ67" s="27">
-        <v>17.317549917704468</v>
-      </c>
-      <c r="CR67" s="27"/>
-      <c r="CS67" s="27"/>
-      <c r="CT67" s="27"/>
-      <c r="CU67" s="27"/>
-      <c r="CV67" s="9"/>
+      <c r="CQ67" s="41">
+        <v>17.524089875830512</v>
+      </c>
+      <c r="CR67" s="41">
+        <v>9.6713984164769471</v>
+      </c>
+      <c r="CS67" s="41"/>
+      <c r="CT67" s="41"/>
+      <c r="CU67" s="41"/>
+      <c r="CV67" s="41"/>
       <c r="CW67" s="9"/>
       <c r="CX67" s="9"/>
       <c r="CY67" s="9"/>
@@ -31596,12 +31677,13 @@
       <c r="CM68" s="14"/>
       <c r="CN68" s="14"/>
       <c r="CO68" s="14"/>
-      <c r="CP68" s="14"/>
-      <c r="CQ68" s="14"/>
-      <c r="CR68" s="14"/>
-      <c r="CS68" s="14"/>
-      <c r="CT68" s="14"/>
-      <c r="CU68" s="14"/>
+      <c r="CP68" s="37"/>
+      <c r="CQ68" s="37"/>
+      <c r="CR68" s="37"/>
+      <c r="CS68" s="37"/>
+      <c r="CT68" s="37"/>
+      <c r="CU68" s="37"/>
+      <c r="CV68" s="37"/>
     </row>
     <row r="69" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
@@ -31706,13 +31788,13 @@
       <c r="CM71" s="9"/>
       <c r="CN71" s="9"/>
       <c r="CO71" s="9"/>
-      <c r="CP71" s="9"/>
-      <c r="CQ71" s="9"/>
-      <c r="CR71" s="9"/>
-      <c r="CS71" s="9"/>
-      <c r="CT71" s="9"/>
-      <c r="CU71" s="9"/>
-      <c r="CV71" s="9"/>
+      <c r="CP71" s="34"/>
+      <c r="CQ71" s="34"/>
+      <c r="CR71" s="34"/>
+      <c r="CS71" s="34"/>
+      <c r="CT71" s="34"/>
+      <c r="CU71" s="34"/>
+      <c r="CV71" s="34"/>
       <c r="CW71" s="9"/>
       <c r="CX71" s="9"/>
       <c r="CY71" s="9"/>
@@ -31827,13 +31909,13 @@
       <c r="CM72" s="9"/>
       <c r="CN72" s="9"/>
       <c r="CO72" s="9"/>
-      <c r="CP72" s="9"/>
-      <c r="CQ72" s="9"/>
-      <c r="CR72" s="9"/>
-      <c r="CS72" s="9"/>
-      <c r="CT72" s="9"/>
-      <c r="CU72" s="9"/>
-      <c r="CV72" s="9"/>
+      <c r="CP72" s="34"/>
+      <c r="CQ72" s="34"/>
+      <c r="CR72" s="34"/>
+      <c r="CS72" s="34"/>
+      <c r="CT72" s="34"/>
+      <c r="CU72" s="34"/>
+      <c r="CV72" s="34"/>
       <c r="CW72" s="9"/>
       <c r="CX72" s="9"/>
       <c r="CY72" s="9"/>
@@ -31887,132 +31969,132 @@
     </row>
     <row r="81" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="31" t="s">
+      <c r="C81" s="46"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="G81" s="32"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="32"/>
-      <c r="J81" s="31" t="s">
+      <c r="G81" s="46"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="K81" s="32"/>
-      <c r="L81" s="32"/>
-      <c r="M81" s="32"/>
-      <c r="N81" s="31" t="s">
+      <c r="K81" s="46"/>
+      <c r="L81" s="46"/>
+      <c r="M81" s="46"/>
+      <c r="N81" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O81" s="32"/>
-      <c r="P81" s="32"/>
-      <c r="Q81" s="32"/>
-      <c r="R81" s="31" t="s">
+      <c r="O81" s="46"/>
+      <c r="P81" s="46"/>
+      <c r="Q81" s="46"/>
+      <c r="R81" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="S81" s="32"/>
-      <c r="T81" s="32"/>
-      <c r="U81" s="32"/>
-      <c r="V81" s="31" t="s">
+      <c r="S81" s="46"/>
+      <c r="T81" s="46"/>
+      <c r="U81" s="46"/>
+      <c r="V81" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="W81" s="32"/>
-      <c r="X81" s="32"/>
-      <c r="Y81" s="32"/>
-      <c r="Z81" s="31" t="s">
+      <c r="W81" s="46"/>
+      <c r="X81" s="46"/>
+      <c r="Y81" s="46"/>
+      <c r="Z81" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="AA81" s="32"/>
-      <c r="AB81" s="32"/>
-      <c r="AC81" s="32"/>
-      <c r="AD81" s="31" t="s">
+      <c r="AA81" s="46"/>
+      <c r="AB81" s="46"/>
+      <c r="AC81" s="46"/>
+      <c r="AD81" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="AE81" s="32"/>
-      <c r="AF81" s="32"/>
-      <c r="AG81" s="32"/>
-      <c r="AH81" s="31" t="s">
+      <c r="AE81" s="46"/>
+      <c r="AF81" s="46"/>
+      <c r="AG81" s="46"/>
+      <c r="AH81" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="AI81" s="32"/>
-      <c r="AJ81" s="32"/>
-      <c r="AK81" s="32"/>
-      <c r="AL81" s="31" t="s">
+      <c r="AI81" s="46"/>
+      <c r="AJ81" s="46"/>
+      <c r="AK81" s="46"/>
+      <c r="AL81" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AM81" s="32"/>
-      <c r="AN81" s="32"/>
-      <c r="AO81" s="32"/>
-      <c r="AP81" s="31" t="s">
+      <c r="AM81" s="46"/>
+      <c r="AN81" s="46"/>
+      <c r="AO81" s="46"/>
+      <c r="AP81" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="AQ81" s="32"/>
-      <c r="AR81" s="32"/>
-      <c r="AS81" s="32"/>
-      <c r="AT81" s="31" t="s">
+      <c r="AQ81" s="46"/>
+      <c r="AR81" s="46"/>
+      <c r="AS81" s="46"/>
+      <c r="AT81" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="AU81" s="32"/>
-      <c r="AV81" s="32"/>
-      <c r="AW81" s="32"/>
-      <c r="AX81" s="31" t="s">
+      <c r="AU81" s="46"/>
+      <c r="AV81" s="46"/>
+      <c r="AW81" s="46"/>
+      <c r="AX81" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="AY81" s="32"/>
-      <c r="AZ81" s="32"/>
-      <c r="BA81" s="32"/>
-      <c r="BB81" s="31" t="s">
+      <c r="AY81" s="46"/>
+      <c r="AZ81" s="46"/>
+      <c r="BA81" s="46"/>
+      <c r="BB81" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="BC81" s="32"/>
-      <c r="BD81" s="32"/>
-      <c r="BE81" s="32"/>
-      <c r="BF81" s="31" t="s">
+      <c r="BC81" s="46"/>
+      <c r="BD81" s="46"/>
+      <c r="BE81" s="46"/>
+      <c r="BF81" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="BG81" s="32"/>
-      <c r="BH81" s="32"/>
-      <c r="BI81" s="32"/>
-      <c r="BJ81" s="31" t="s">
+      <c r="BG81" s="46"/>
+      <c r="BH81" s="46"/>
+      <c r="BI81" s="46"/>
+      <c r="BJ81" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="BK81" s="32"/>
-      <c r="BL81" s="32"/>
-      <c r="BM81" s="32"/>
-      <c r="BN81" s="31" t="s">
+      <c r="BK81" s="46"/>
+      <c r="BL81" s="46"/>
+      <c r="BM81" s="46"/>
+      <c r="BN81" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="BO81" s="32"/>
-      <c r="BP81" s="32"/>
-      <c r="BQ81" s="32"/>
-      <c r="BR81" s="31" t="s">
+      <c r="BO81" s="46"/>
+      <c r="BP81" s="46"/>
+      <c r="BQ81" s="46"/>
+      <c r="BR81" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="BS81" s="32"/>
-      <c r="BT81" s="32"/>
-      <c r="BU81" s="32"/>
-      <c r="BV81" s="31" t="s">
+      <c r="BS81" s="46"/>
+      <c r="BT81" s="46"/>
+      <c r="BU81" s="46"/>
+      <c r="BV81" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="BW81" s="31"/>
-      <c r="BX81" s="31"/>
-      <c r="BY81" s="31"/>
-      <c r="BZ81" s="31" t="s">
+      <c r="BW81" s="45"/>
+      <c r="BX81" s="45"/>
+      <c r="BY81" s="45"/>
+      <c r="BZ81" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="CA81" s="31"/>
-      <c r="CB81" s="31"/>
-      <c r="CC81" s="31"/>
-      <c r="CD81" s="31" t="s">
+      <c r="CA81" s="45"/>
+      <c r="CB81" s="45"/>
+      <c r="CC81" s="45"/>
+      <c r="CD81" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="CE81" s="31"/>
-      <c r="CF81" s="31"/>
-      <c r="CG81" s="31"/>
+      <c r="CE81" s="45"/>
+      <c r="CF81" s="45"/>
+      <c r="CG81" s="45"/>
       <c r="CH81" s="29" t="s">
         <v>50</v>
       </c>
@@ -32025,14 +32107,15 @@
       <c r="CM81" s="29"/>
       <c r="CN81" s="29"/>
       <c r="CO81" s="29"/>
-      <c r="CP81" s="29" t="s">
+      <c r="CP81" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="CQ81" s="29"/>
-      <c r="CR81" s="30"/>
-      <c r="CS81" s="30"/>
-      <c r="CT81" s="29"/>
-      <c r="CU81" s="30"/>
+      <c r="CQ81" s="31"/>
+      <c r="CR81" s="31"/>
+      <c r="CS81" s="39"/>
+      <c r="CT81" s="31"/>
+      <c r="CU81" s="31"/>
+      <c r="CV81" s="39"/>
     </row>
     <row r="82" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
@@ -32314,16 +32397,19 @@
       <c r="CO82" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP82" s="6" t="s">
+      <c r="CP82" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CQ82" s="6" t="s">
+      <c r="CQ82" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CR82" s="6"/>
-      <c r="CS82" s="6"/>
-      <c r="CT82" s="6"/>
-      <c r="CU82" s="6"/>
+      <c r="CR82" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS82" s="32"/>
+      <c r="CT82" s="32"/>
+      <c r="CU82" s="32"/>
+      <c r="CV82" s="32"/>
     </row>
     <row r="83" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
@@ -32608,17 +32694,19 @@
       <c r="CO84" s="27">
         <v>14.942232835606873</v>
       </c>
-      <c r="CP84" s="27">
+      <c r="CP84" s="41">
         <v>12.050615935135696</v>
       </c>
-      <c r="CQ84" s="27">
-        <v>21.788040429111661</v>
-      </c>
-      <c r="CR84" s="27"/>
-      <c r="CS84" s="27"/>
-      <c r="CT84" s="27"/>
-      <c r="CU84" s="27"/>
-      <c r="CV84" s="9"/>
+      <c r="CQ84" s="41">
+        <v>21.71569433472753</v>
+      </c>
+      <c r="CR84" s="41">
+        <v>3.7258198078016278</v>
+      </c>
+      <c r="CS84" s="41"/>
+      <c r="CT84" s="41"/>
+      <c r="CU84" s="41"/>
+      <c r="CV84" s="41"/>
       <c r="CW84" s="9"/>
       <c r="CX84" s="9"/>
       <c r="CY84" s="9"/>
@@ -32920,17 +33008,19 @@
       <c r="CO85" s="27">
         <v>3.8731673577346584</v>
       </c>
-      <c r="CP85" s="27">
+      <c r="CP85" s="41">
         <v>6.7659478501360439</v>
       </c>
-      <c r="CQ85" s="27">
-        <v>13.640362798029386</v>
-      </c>
-      <c r="CR85" s="27"/>
-      <c r="CS85" s="27"/>
-      <c r="CT85" s="27"/>
-      <c r="CU85" s="27"/>
-      <c r="CV85" s="9"/>
+      <c r="CQ85" s="41">
+        <v>14.008168589283216</v>
+      </c>
+      <c r="CR85" s="41">
+        <v>13.922235697032704</v>
+      </c>
+      <c r="CS85" s="41"/>
+      <c r="CT85" s="41"/>
+      <c r="CU85" s="41"/>
+      <c r="CV85" s="41"/>
       <c r="CW85" s="9"/>
       <c r="CX85" s="9"/>
       <c r="CY85" s="9"/>
@@ -33232,17 +33322,19 @@
       <c r="CO86" s="27">
         <v>10.605522369928934</v>
       </c>
-      <c r="CP86" s="27">
+      <c r="CP86" s="41">
         <v>3.0488314127610892</v>
       </c>
-      <c r="CQ86" s="27">
-        <v>4.8533657284517915</v>
-      </c>
-      <c r="CR86" s="27"/>
-      <c r="CS86" s="27"/>
-      <c r="CT86" s="27"/>
-      <c r="CU86" s="27"/>
-      <c r="CV86" s="9"/>
+      <c r="CQ86" s="41">
+        <v>5.2757054074565275</v>
+      </c>
+      <c r="CR86" s="41">
+        <v>9.6204879595583606</v>
+      </c>
+      <c r="CS86" s="41"/>
+      <c r="CT86" s="41"/>
+      <c r="CU86" s="41"/>
+      <c r="CV86" s="41"/>
       <c r="CW86" s="9"/>
       <c r="CX86" s="9"/>
       <c r="CY86" s="9"/>
@@ -33357,13 +33449,13 @@
       <c r="CM87" s="20"/>
       <c r="CN87" s="20"/>
       <c r="CO87" s="20"/>
-      <c r="CP87" s="20"/>
-      <c r="CQ87" s="20"/>
-      <c r="CR87" s="20"/>
-      <c r="CS87" s="20"/>
-      <c r="CT87" s="20"/>
-      <c r="CU87" s="20"/>
-      <c r="CV87" s="9"/>
+      <c r="CP87" s="42"/>
+      <c r="CQ87" s="42"/>
+      <c r="CR87" s="42"/>
+      <c r="CS87" s="42"/>
+      <c r="CT87" s="42"/>
+      <c r="CU87" s="42"/>
+      <c r="CV87" s="42"/>
       <c r="CW87" s="9"/>
       <c r="CX87" s="9"/>
       <c r="CY87" s="9"/>
@@ -33665,17 +33757,19 @@
       <c r="CO88" s="27">
         <v>10.092964014996909</v>
       </c>
-      <c r="CP88" s="27">
+      <c r="CP88" s="41">
         <v>6.8902622331467995</v>
       </c>
-      <c r="CQ88" s="27">
-        <v>16.051626335215857</v>
-      </c>
-      <c r="CR88" s="27"/>
-      <c r="CS88" s="27"/>
-      <c r="CT88" s="27"/>
-      <c r="CU88" s="27"/>
-      <c r="CV88" s="9"/>
+      <c r="CQ88" s="41">
+        <v>16.202239396099614</v>
+      </c>
+      <c r="CR88" s="41">
+        <v>8.8521722213070575</v>
+      </c>
+      <c r="CS88" s="41"/>
+      <c r="CT88" s="41"/>
+      <c r="CU88" s="41"/>
+      <c r="CV88" s="41"/>
       <c r="CW88" s="9"/>
       <c r="CX88" s="9"/>
       <c r="CY88" s="9"/>
@@ -33791,12 +33885,13 @@
       <c r="CM89" s="23"/>
       <c r="CN89" s="23"/>
       <c r="CO89" s="23"/>
-      <c r="CP89" s="23"/>
-      <c r="CQ89" s="23"/>
-      <c r="CR89" s="23"/>
-      <c r="CS89" s="23"/>
-      <c r="CT89" s="23"/>
-      <c r="CU89" s="23"/>
+      <c r="CP89" s="43"/>
+      <c r="CQ89" s="43"/>
+      <c r="CR89" s="43"/>
+      <c r="CS89" s="43"/>
+      <c r="CT89" s="43"/>
+      <c r="CU89" s="43"/>
+      <c r="CV89" s="43"/>
     </row>
     <row r="90" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
@@ -33892,13 +33987,13 @@
       <c r="CM90" s="27"/>
       <c r="CN90" s="27"/>
       <c r="CO90" s="27"/>
-      <c r="CP90" s="27"/>
-      <c r="CQ90" s="27"/>
-      <c r="CR90" s="27"/>
-      <c r="CS90" s="27"/>
-      <c r="CT90" s="27"/>
-      <c r="CU90" s="27"/>
-      <c r="CV90" s="9"/>
+      <c r="CP90" s="41"/>
+      <c r="CQ90" s="41"/>
+      <c r="CR90" s="41"/>
+      <c r="CS90" s="41"/>
+      <c r="CT90" s="41"/>
+      <c r="CU90" s="41"/>
+      <c r="CV90" s="41"/>
       <c r="CW90" s="9"/>
       <c r="CX90" s="9"/>
       <c r="CY90" s="9"/>
@@ -34200,17 +34295,19 @@
       <c r="CO91" s="27">
         <v>8.3875055458356087</v>
       </c>
-      <c r="CP91" s="27">
+      <c r="CP91" s="41">
         <v>7.0265566174077918</v>
       </c>
-      <c r="CQ91" s="27">
-        <v>15.986224459416732</v>
-      </c>
-      <c r="CR91" s="27"/>
-      <c r="CS91" s="27"/>
-      <c r="CT91" s="27"/>
-      <c r="CU91" s="27"/>
-      <c r="CV91" s="9"/>
+      <c r="CQ91" s="41">
+        <v>16.082254141721435</v>
+      </c>
+      <c r="CR91" s="41">
+        <v>9.0451211046609359</v>
+      </c>
+      <c r="CS91" s="41"/>
+      <c r="CT91" s="41"/>
+      <c r="CU91" s="41"/>
+      <c r="CV91" s="41"/>
       <c r="CW91" s="9"/>
       <c r="CX91" s="9"/>
       <c r="CY91" s="9"/>
@@ -34326,12 +34423,13 @@
       <c r="CM92" s="14"/>
       <c r="CN92" s="14"/>
       <c r="CO92" s="14"/>
-      <c r="CP92" s="14"/>
-      <c r="CQ92" s="14"/>
-      <c r="CR92" s="14"/>
-      <c r="CS92" s="14"/>
-      <c r="CT92" s="14"/>
-      <c r="CU92" s="14"/>
+      <c r="CP92" s="37"/>
+      <c r="CQ92" s="37"/>
+      <c r="CR92" s="37"/>
+      <c r="CS92" s="37"/>
+      <c r="CT92" s="37"/>
+      <c r="CU92" s="37"/>
+      <c r="CV92" s="37"/>
     </row>
     <row r="93" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
@@ -34436,13 +34534,13 @@
       <c r="CM95" s="9"/>
       <c r="CN95" s="9"/>
       <c r="CO95" s="9"/>
-      <c r="CP95" s="9"/>
-      <c r="CQ95" s="9"/>
-      <c r="CR95" s="9"/>
-      <c r="CS95" s="9"/>
-      <c r="CT95" s="9"/>
-      <c r="CU95" s="9"/>
-      <c r="CV95" s="9"/>
+      <c r="CP95" s="34"/>
+      <c r="CQ95" s="34"/>
+      <c r="CR95" s="34"/>
+      <c r="CS95" s="34"/>
+      <c r="CT95" s="34"/>
+      <c r="CU95" s="34"/>
+      <c r="CV95" s="34"/>
       <c r="CW95" s="9"/>
       <c r="CX95" s="9"/>
       <c r="CY95" s="9"/>
@@ -34565,13 +34663,13 @@
       <c r="CM96" s="9"/>
       <c r="CN96" s="9"/>
       <c r="CO96" s="9"/>
-      <c r="CP96" s="9"/>
-      <c r="CQ96" s="9"/>
-      <c r="CR96" s="9"/>
-      <c r="CS96" s="9"/>
-      <c r="CT96" s="9"/>
-      <c r="CU96" s="9"/>
-      <c r="CV96" s="9"/>
+      <c r="CP96" s="34"/>
+      <c r="CQ96" s="34"/>
+      <c r="CR96" s="34"/>
+      <c r="CS96" s="34"/>
+      <c r="CT96" s="34"/>
+      <c r="CU96" s="34"/>
+      <c r="CV96" s="34"/>
       <c r="CW96" s="9"/>
       <c r="CX96" s="9"/>
       <c r="CY96" s="9"/>
@@ -34628,132 +34726,132 @@
     </row>
     <row r="104" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
-      <c r="B104" s="31">
+      <c r="B104" s="45">
         <v>2000</v>
       </c>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="31">
+      <c r="C104" s="46"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="46"/>
+      <c r="F104" s="45">
         <v>2001</v>
       </c>
-      <c r="G104" s="32"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="32"/>
-      <c r="J104" s="31">
+      <c r="G104" s="46"/>
+      <c r="H104" s="46"/>
+      <c r="I104" s="46"/>
+      <c r="J104" s="45">
         <v>2002</v>
       </c>
-      <c r="K104" s="32"/>
-      <c r="L104" s="32"/>
-      <c r="M104" s="32"/>
-      <c r="N104" s="31">
+      <c r="K104" s="46"/>
+      <c r="L104" s="46"/>
+      <c r="M104" s="46"/>
+      <c r="N104" s="45">
         <v>2003</v>
       </c>
-      <c r="O104" s="32"/>
-      <c r="P104" s="32"/>
-      <c r="Q104" s="32"/>
-      <c r="R104" s="31">
+      <c r="O104" s="46"/>
+      <c r="P104" s="46"/>
+      <c r="Q104" s="46"/>
+      <c r="R104" s="45">
         <v>2004</v>
       </c>
-      <c r="S104" s="32"/>
-      <c r="T104" s="32"/>
-      <c r="U104" s="32"/>
-      <c r="V104" s="31">
+      <c r="S104" s="46"/>
+      <c r="T104" s="46"/>
+      <c r="U104" s="46"/>
+      <c r="V104" s="45">
         <v>2005</v>
       </c>
-      <c r="W104" s="32"/>
-      <c r="X104" s="32"/>
-      <c r="Y104" s="32"/>
-      <c r="Z104" s="31">
+      <c r="W104" s="46"/>
+      <c r="X104" s="46"/>
+      <c r="Y104" s="46"/>
+      <c r="Z104" s="45">
         <v>2006</v>
       </c>
-      <c r="AA104" s="32"/>
-      <c r="AB104" s="32"/>
-      <c r="AC104" s="32"/>
-      <c r="AD104" s="31">
+      <c r="AA104" s="46"/>
+      <c r="AB104" s="46"/>
+      <c r="AC104" s="46"/>
+      <c r="AD104" s="45">
         <v>2007</v>
       </c>
-      <c r="AE104" s="32"/>
-      <c r="AF104" s="32"/>
-      <c r="AG104" s="32"/>
-      <c r="AH104" s="31">
+      <c r="AE104" s="46"/>
+      <c r="AF104" s="46"/>
+      <c r="AG104" s="46"/>
+      <c r="AH104" s="45">
         <v>2008</v>
       </c>
-      <c r="AI104" s="32"/>
-      <c r="AJ104" s="32"/>
-      <c r="AK104" s="32"/>
-      <c r="AL104" s="31">
+      <c r="AI104" s="46"/>
+      <c r="AJ104" s="46"/>
+      <c r="AK104" s="46"/>
+      <c r="AL104" s="45">
         <v>2009</v>
       </c>
-      <c r="AM104" s="32"/>
-      <c r="AN104" s="32"/>
-      <c r="AO104" s="32"/>
-      <c r="AP104" s="31">
+      <c r="AM104" s="46"/>
+      <c r="AN104" s="46"/>
+      <c r="AO104" s="46"/>
+      <c r="AP104" s="45">
         <v>2010</v>
       </c>
-      <c r="AQ104" s="32"/>
-      <c r="AR104" s="32"/>
-      <c r="AS104" s="32"/>
-      <c r="AT104" s="31">
+      <c r="AQ104" s="46"/>
+      <c r="AR104" s="46"/>
+      <c r="AS104" s="46"/>
+      <c r="AT104" s="45">
         <v>2011</v>
       </c>
-      <c r="AU104" s="32"/>
-      <c r="AV104" s="32"/>
-      <c r="AW104" s="32"/>
-      <c r="AX104" s="31">
+      <c r="AU104" s="46"/>
+      <c r="AV104" s="46"/>
+      <c r="AW104" s="46"/>
+      <c r="AX104" s="45">
         <v>2012</v>
       </c>
-      <c r="AY104" s="32"/>
-      <c r="AZ104" s="32"/>
-      <c r="BA104" s="32"/>
-      <c r="BB104" s="31">
+      <c r="AY104" s="46"/>
+      <c r="AZ104" s="46"/>
+      <c r="BA104" s="46"/>
+      <c r="BB104" s="45">
         <v>2013</v>
       </c>
-      <c r="BC104" s="32"/>
-      <c r="BD104" s="32"/>
-      <c r="BE104" s="32"/>
-      <c r="BF104" s="31">
+      <c r="BC104" s="46"/>
+      <c r="BD104" s="46"/>
+      <c r="BE104" s="46"/>
+      <c r="BF104" s="45">
         <v>2014</v>
       </c>
-      <c r="BG104" s="32"/>
-      <c r="BH104" s="32"/>
-      <c r="BI104" s="32"/>
-      <c r="BJ104" s="31">
+      <c r="BG104" s="46"/>
+      <c r="BH104" s="46"/>
+      <c r="BI104" s="46"/>
+      <c r="BJ104" s="45">
         <v>2015</v>
       </c>
-      <c r="BK104" s="32"/>
-      <c r="BL104" s="32"/>
-      <c r="BM104" s="32"/>
-      <c r="BN104" s="31">
+      <c r="BK104" s="46"/>
+      <c r="BL104" s="46"/>
+      <c r="BM104" s="46"/>
+      <c r="BN104" s="45">
         <v>2016</v>
       </c>
-      <c r="BO104" s="32"/>
-      <c r="BP104" s="32"/>
-      <c r="BQ104" s="32"/>
-      <c r="BR104" s="31">
+      <c r="BO104" s="46"/>
+      <c r="BP104" s="46"/>
+      <c r="BQ104" s="46"/>
+      <c r="BR104" s="45">
         <v>2017</v>
       </c>
-      <c r="BS104" s="32"/>
-      <c r="BT104" s="32"/>
-      <c r="BU104" s="32"/>
-      <c r="BV104" s="31">
+      <c r="BS104" s="46"/>
+      <c r="BT104" s="46"/>
+      <c r="BU104" s="46"/>
+      <c r="BV104" s="45">
         <v>2018</v>
       </c>
-      <c r="BW104" s="31"/>
-      <c r="BX104" s="31"/>
-      <c r="BY104" s="31"/>
-      <c r="BZ104" s="31">
+      <c r="BW104" s="45"/>
+      <c r="BX104" s="45"/>
+      <c r="BY104" s="45"/>
+      <c r="BZ104" s="45">
         <v>2019</v>
       </c>
-      <c r="CA104" s="31"/>
-      <c r="CB104" s="31"/>
-      <c r="CC104" s="31"/>
-      <c r="CD104" s="31">
+      <c r="CA104" s="45"/>
+      <c r="CB104" s="45"/>
+      <c r="CC104" s="45"/>
+      <c r="CD104" s="45">
         <v>2020</v>
       </c>
-      <c r="CE104" s="31"/>
-      <c r="CF104" s="31"/>
-      <c r="CG104" s="31"/>
+      <c r="CE104" s="45"/>
+      <c r="CF104" s="45"/>
+      <c r="CG104" s="45"/>
       <c r="CH104" s="29">
         <v>2021</v>
       </c>
@@ -34766,16 +34864,17 @@
       <c r="CM104" s="29"/>
       <c r="CN104" s="29"/>
       <c r="CO104" s="29"/>
-      <c r="CP104" s="29">
+      <c r="CP104" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ104" s="29"/>
-      <c r="CR104" s="29"/>
-      <c r="CS104" s="29"/>
-      <c r="CT104" s="29">
+      <c r="CQ104" s="31"/>
+      <c r="CR104" s="31"/>
+      <c r="CS104" s="31"/>
+      <c r="CT104" s="31">
         <v>2024</v>
       </c>
-      <c r="CU104" s="29"/>
+      <c r="CU104" s="31"/>
+      <c r="CV104" s="31"/>
     </row>
     <row r="105" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
@@ -35057,23 +35156,26 @@
       <c r="CO105" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP105" s="6" t="s">
+      <c r="CP105" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CQ105" s="6" t="s">
+      <c r="CQ105" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CR105" s="6" t="s">
+      <c r="CR105" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CS105" s="6" t="s">
+      <c r="CS105" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CT105" s="6" t="s">
+      <c r="CT105" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CU105" s="6" t="s">
+      <c r="CU105" s="32" t="s">
         <v>7</v>
+      </c>
+      <c r="CV105" s="32" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35359,25 +35461,27 @@
       <c r="CO107" s="28">
         <v>113.06596793902651</v>
       </c>
-      <c r="CP107" s="28">
+      <c r="CP107" s="44">
         <v>123.6716607579412</v>
       </c>
-      <c r="CQ107" s="28">
+      <c r="CQ107" s="44">
         <v>118.57261053405847</v>
       </c>
-      <c r="CR107" s="28">
+      <c r="CR107" s="44">
         <v>126.5749555251485</v>
       </c>
-      <c r="CS107" s="28">
+      <c r="CS107" s="44">
         <v>115.60381848478765</v>
       </c>
-      <c r="CT107" s="28">
+      <c r="CT107" s="44">
         <v>125.85548019823618</v>
       </c>
-      <c r="CU107" s="28">
-        <v>120.57953492834798</v>
-      </c>
-      <c r="CV107" s="9"/>
+      <c r="CU107" s="44">
+        <v>120.64519182059186</v>
+      </c>
+      <c r="CV107" s="44">
+        <v>127.04774678783382</v>
+      </c>
       <c r="CW107" s="9"/>
       <c r="CX107" s="9"/>
       <c r="CY107" s="9"/>
@@ -35687,25 +35791,27 @@
       <c r="CO108" s="28">
         <v>118.02122849001971</v>
       </c>
-      <c r="CP108" s="28">
+      <c r="CP108" s="44">
         <v>112.52959510079509</v>
       </c>
-      <c r="CQ108" s="28">
+      <c r="CQ108" s="44">
         <v>114.87585282367101</v>
       </c>
-      <c r="CR108" s="28">
+      <c r="CR108" s="44">
         <v>131.4595374062072</v>
       </c>
-      <c r="CS108" s="28">
+      <c r="CS108" s="44">
         <v>120.60845797822152</v>
       </c>
-      <c r="CT108" s="28">
+      <c r="CT108" s="44">
         <v>114.68319038278906</v>
       </c>
-      <c r="CU108" s="28">
-        <v>117.67931885879118</v>
-      </c>
-      <c r="CV108" s="9"/>
+      <c r="CU108" s="44">
+        <v>117.89445656535182</v>
+      </c>
+      <c r="CV108" s="44">
+        <v>132.34318148103782</v>
+      </c>
       <c r="CW108" s="9"/>
       <c r="CX108" s="9"/>
       <c r="CY108" s="9"/>
@@ -36015,25 +36121,27 @@
       <c r="CO109" s="28">
         <v>104.59721657791849</v>
       </c>
-      <c r="CP109" s="28">
+      <c r="CP109" s="44">
         <v>126.84041998088553</v>
       </c>
-      <c r="CQ109" s="28">
+      <c r="CQ109" s="44">
         <v>121.90941795215682</v>
       </c>
-      <c r="CR109" s="28">
+      <c r="CR109" s="44">
         <v>126.04949292836322</v>
       </c>
-      <c r="CS109" s="28">
+      <c r="CS109" s="44">
         <v>106.86372608308884</v>
       </c>
-      <c r="CT109" s="28">
+      <c r="CT109" s="44">
         <v>129.02491599764497</v>
       </c>
-      <c r="CU109" s="28">
-        <v>124.69473182512361</v>
-      </c>
-      <c r="CV109" s="9"/>
+      <c r="CU109" s="44">
+        <v>124.8799969981895</v>
+      </c>
+      <c r="CV109" s="44">
+        <v>126.84509237211532</v>
+      </c>
       <c r="CW109" s="9"/>
       <c r="CX109" s="9"/>
       <c r="CY109" s="9"/>
@@ -36156,13 +36264,13 @@
       <c r="CM110" s="9"/>
       <c r="CN110" s="9"/>
       <c r="CO110" s="9"/>
-      <c r="CP110" s="9"/>
-      <c r="CQ110" s="9"/>
-      <c r="CR110" s="9"/>
-      <c r="CS110" s="9"/>
-      <c r="CT110" s="9"/>
-      <c r="CU110" s="9"/>
-      <c r="CV110" s="9"/>
+      <c r="CP110" s="34"/>
+      <c r="CQ110" s="34"/>
+      <c r="CR110" s="34"/>
+      <c r="CS110" s="34"/>
+      <c r="CT110" s="34"/>
+      <c r="CU110" s="34"/>
+      <c r="CV110" s="34"/>
       <c r="CW110" s="9"/>
       <c r="CX110" s="9"/>
       <c r="CY110" s="9"/>
@@ -36472,25 +36580,27 @@
       <c r="CO111" s="28">
         <v>111.76384236285124</v>
       </c>
-      <c r="CP111" s="28">
+      <c r="CP111" s="44">
         <v>119.49881203679189</v>
       </c>
-      <c r="CQ111" s="28">
+      <c r="CQ111" s="44">
         <v>118.25005952080201</v>
       </c>
-      <c r="CR111" s="28">
+      <c r="CR111" s="44">
         <v>128.06700273874557</v>
       </c>
-      <c r="CS111" s="28">
+      <c r="CS111" s="44">
         <v>114.12586187951865</v>
       </c>
-      <c r="CT111" s="28">
+      <c r="CT111" s="44">
         <v>121.64040555085265</v>
       </c>
-      <c r="CU111" s="28">
-        <v>120.57064909239574</v>
-      </c>
-      <c r="CV111" s="9"/>
+      <c r="CU111" s="44">
+        <v>120.69950323573802</v>
+      </c>
+      <c r="CV111" s="44">
+        <v>128.8534600168324</v>
+      </c>
       <c r="CW111" s="9"/>
       <c r="CX111" s="9"/>
       <c r="CY111" s="9"/>
@@ -36614,12 +36724,13 @@
       <c r="CM112" s="12"/>
       <c r="CN112" s="12"/>
       <c r="CO112" s="12"/>
-      <c r="CP112" s="12"/>
-      <c r="CQ112" s="12"/>
-      <c r="CR112" s="12"/>
-      <c r="CS112" s="12"/>
-      <c r="CT112" s="12"/>
-      <c r="CU112" s="12"/>
+      <c r="CP112" s="36"/>
+      <c r="CQ112" s="36"/>
+      <c r="CR112" s="36"/>
+      <c r="CS112" s="36"/>
+      <c r="CT112" s="36"/>
+      <c r="CU112" s="36"/>
+      <c r="CV112" s="36"/>
     </row>
     <row r="113" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
@@ -36715,13 +36826,13 @@
       <c r="CM113" s="26"/>
       <c r="CN113" s="26"/>
       <c r="CO113" s="26"/>
-      <c r="CP113" s="26"/>
-      <c r="CQ113" s="26"/>
-      <c r="CR113" s="26"/>
-      <c r="CS113" s="26"/>
-      <c r="CT113" s="26"/>
-      <c r="CU113" s="26"/>
-      <c r="CV113" s="9"/>
+      <c r="CP113" s="35"/>
+      <c r="CQ113" s="35"/>
+      <c r="CR113" s="35"/>
+      <c r="CS113" s="35"/>
+      <c r="CT113" s="35"/>
+      <c r="CU113" s="35"/>
+      <c r="CV113" s="35"/>
       <c r="CW113" s="9"/>
       <c r="CX113" s="9"/>
       <c r="CY113" s="9"/>
@@ -37031,25 +37142,27 @@
       <c r="CO114" s="28">
         <v>108.99837571895273</v>
       </c>
-      <c r="CP114" s="28">
+      <c r="CP114" s="44">
         <v>120.33402512853064</v>
       </c>
-      <c r="CQ114" s="28">
+      <c r="CQ114" s="44">
         <v>131.77279448576672</v>
       </c>
-      <c r="CR114" s="28">
+      <c r="CR114" s="44">
         <v>120.88709219872489</v>
       </c>
-      <c r="CS114" s="28">
+      <c r="CS114" s="44">
         <v>113.35321855862364</v>
       </c>
-      <c r="CT114" s="28">
+      <c r="CT114" s="44">
         <v>122.28281089035325</v>
       </c>
-      <c r="CU114" s="28">
-        <v>133.28532303668962</v>
-      </c>
-      <c r="CV114" s="9"/>
+      <c r="CU114" s="44">
+        <v>133.40951945529594</v>
+      </c>
+      <c r="CV114" s="44">
+        <v>121.58138133673052</v>
+      </c>
       <c r="CW114" s="9"/>
       <c r="CX114" s="9"/>
       <c r="CY114" s="9"/>
@@ -37173,12 +37286,13 @@
       <c r="CM115" s="14"/>
       <c r="CN115" s="14"/>
       <c r="CO115" s="14"/>
-      <c r="CP115" s="14"/>
-      <c r="CQ115" s="14"/>
-      <c r="CR115" s="14"/>
-      <c r="CS115" s="14"/>
-      <c r="CT115" s="14"/>
-      <c r="CU115" s="14"/>
+      <c r="CP115" s="37"/>
+      <c r="CQ115" s="37"/>
+      <c r="CR115" s="37"/>
+      <c r="CS115" s="37"/>
+      <c r="CT115" s="37"/>
+      <c r="CU115" s="37"/>
+      <c r="CV115" s="37"/>
     </row>
     <row r="116" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
@@ -37222,132 +37336,132 @@
     </row>
     <row r="128" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
-      <c r="B128" s="31">
+      <c r="B128" s="45">
         <v>2000</v>
       </c>
-      <c r="C128" s="32"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="31">
+      <c r="C128" s="46"/>
+      <c r="D128" s="46"/>
+      <c r="E128" s="46"/>
+      <c r="F128" s="45">
         <v>2001</v>
       </c>
-      <c r="G128" s="32"/>
-      <c r="H128" s="32"/>
-      <c r="I128" s="32"/>
-      <c r="J128" s="31">
+      <c r="G128" s="46"/>
+      <c r="H128" s="46"/>
+      <c r="I128" s="46"/>
+      <c r="J128" s="45">
         <v>2002</v>
       </c>
-      <c r="K128" s="32"/>
-      <c r="L128" s="32"/>
-      <c r="M128" s="32"/>
-      <c r="N128" s="31">
+      <c r="K128" s="46"/>
+      <c r="L128" s="46"/>
+      <c r="M128" s="46"/>
+      <c r="N128" s="45">
         <v>2003</v>
       </c>
-      <c r="O128" s="32"/>
-      <c r="P128" s="32"/>
-      <c r="Q128" s="32"/>
-      <c r="R128" s="31">
+      <c r="O128" s="46"/>
+      <c r="P128" s="46"/>
+      <c r="Q128" s="46"/>
+      <c r="R128" s="45">
         <v>2004</v>
       </c>
-      <c r="S128" s="32"/>
-      <c r="T128" s="32"/>
-      <c r="U128" s="32"/>
-      <c r="V128" s="31">
+      <c r="S128" s="46"/>
+      <c r="T128" s="46"/>
+      <c r="U128" s="46"/>
+      <c r="V128" s="45">
         <v>2005</v>
       </c>
-      <c r="W128" s="32"/>
-      <c r="X128" s="32"/>
-      <c r="Y128" s="32"/>
-      <c r="Z128" s="31">
+      <c r="W128" s="46"/>
+      <c r="X128" s="46"/>
+      <c r="Y128" s="46"/>
+      <c r="Z128" s="45">
         <v>2006</v>
       </c>
-      <c r="AA128" s="32"/>
-      <c r="AB128" s="32"/>
-      <c r="AC128" s="32"/>
-      <c r="AD128" s="31">
+      <c r="AA128" s="46"/>
+      <c r="AB128" s="46"/>
+      <c r="AC128" s="46"/>
+      <c r="AD128" s="45">
         <v>2007</v>
       </c>
-      <c r="AE128" s="32"/>
-      <c r="AF128" s="32"/>
-      <c r="AG128" s="32"/>
-      <c r="AH128" s="31">
+      <c r="AE128" s="46"/>
+      <c r="AF128" s="46"/>
+      <c r="AG128" s="46"/>
+      <c r="AH128" s="45">
         <v>2008</v>
       </c>
-      <c r="AI128" s="32"/>
-      <c r="AJ128" s="32"/>
-      <c r="AK128" s="32"/>
-      <c r="AL128" s="31">
+      <c r="AI128" s="46"/>
+      <c r="AJ128" s="46"/>
+      <c r="AK128" s="46"/>
+      <c r="AL128" s="45">
         <v>2009</v>
       </c>
-      <c r="AM128" s="32"/>
-      <c r="AN128" s="32"/>
-      <c r="AO128" s="32"/>
-      <c r="AP128" s="31">
+      <c r="AM128" s="46"/>
+      <c r="AN128" s="46"/>
+      <c r="AO128" s="46"/>
+      <c r="AP128" s="45">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="32"/>
-      <c r="AR128" s="32"/>
-      <c r="AS128" s="32"/>
-      <c r="AT128" s="31">
+      <c r="AQ128" s="46"/>
+      <c r="AR128" s="46"/>
+      <c r="AS128" s="46"/>
+      <c r="AT128" s="45">
         <v>2011</v>
       </c>
-      <c r="AU128" s="32"/>
-      <c r="AV128" s="32"/>
-      <c r="AW128" s="32"/>
-      <c r="AX128" s="31">
+      <c r="AU128" s="46"/>
+      <c r="AV128" s="46"/>
+      <c r="AW128" s="46"/>
+      <c r="AX128" s="45">
         <v>2012</v>
       </c>
-      <c r="AY128" s="32"/>
-      <c r="AZ128" s="32"/>
-      <c r="BA128" s="32"/>
-      <c r="BB128" s="31">
+      <c r="AY128" s="46"/>
+      <c r="AZ128" s="46"/>
+      <c r="BA128" s="46"/>
+      <c r="BB128" s="45">
         <v>2013</v>
       </c>
-      <c r="BC128" s="32"/>
-      <c r="BD128" s="32"/>
-      <c r="BE128" s="32"/>
-      <c r="BF128" s="31">
+      <c r="BC128" s="46"/>
+      <c r="BD128" s="46"/>
+      <c r="BE128" s="46"/>
+      <c r="BF128" s="45">
         <v>2014</v>
       </c>
-      <c r="BG128" s="32"/>
-      <c r="BH128" s="32"/>
-      <c r="BI128" s="32"/>
-      <c r="BJ128" s="31">
+      <c r="BG128" s="46"/>
+      <c r="BH128" s="46"/>
+      <c r="BI128" s="46"/>
+      <c r="BJ128" s="45">
         <v>2015</v>
       </c>
-      <c r="BK128" s="32"/>
-      <c r="BL128" s="32"/>
-      <c r="BM128" s="32"/>
-      <c r="BN128" s="31">
+      <c r="BK128" s="46"/>
+      <c r="BL128" s="46"/>
+      <c r="BM128" s="46"/>
+      <c r="BN128" s="45">
         <v>2016</v>
       </c>
-      <c r="BO128" s="32"/>
-      <c r="BP128" s="32"/>
-      <c r="BQ128" s="32"/>
-      <c r="BR128" s="31">
+      <c r="BO128" s="46"/>
+      <c r="BP128" s="46"/>
+      <c r="BQ128" s="46"/>
+      <c r="BR128" s="45">
         <v>2017</v>
       </c>
-      <c r="BS128" s="32"/>
-      <c r="BT128" s="32"/>
-      <c r="BU128" s="32"/>
-      <c r="BV128" s="31">
+      <c r="BS128" s="46"/>
+      <c r="BT128" s="46"/>
+      <c r="BU128" s="46"/>
+      <c r="BV128" s="45">
         <v>2018</v>
       </c>
-      <c r="BW128" s="31"/>
-      <c r="BX128" s="31"/>
-      <c r="BY128" s="31"/>
-      <c r="BZ128" s="31">
+      <c r="BW128" s="45"/>
+      <c r="BX128" s="45"/>
+      <c r="BY128" s="45"/>
+      <c r="BZ128" s="45">
         <v>2019</v>
       </c>
-      <c r="CA128" s="31"/>
-      <c r="CB128" s="31"/>
-      <c r="CC128" s="31"/>
-      <c r="CD128" s="31">
+      <c r="CA128" s="45"/>
+      <c r="CB128" s="45"/>
+      <c r="CC128" s="45"/>
+      <c r="CD128" s="45">
         <v>2020</v>
       </c>
-      <c r="CE128" s="31"/>
-      <c r="CF128" s="31"/>
-      <c r="CG128" s="31"/>
+      <c r="CE128" s="45"/>
+      <c r="CF128" s="45"/>
+      <c r="CG128" s="45"/>
       <c r="CH128" s="29">
         <v>2021</v>
       </c>
@@ -37360,16 +37474,17 @@
       <c r="CM128" s="29"/>
       <c r="CN128" s="29"/>
       <c r="CO128" s="29"/>
-      <c r="CP128" s="29">
+      <c r="CP128" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ128" s="29"/>
-      <c r="CR128" s="29"/>
-      <c r="CS128" s="29"/>
-      <c r="CT128" s="29">
+      <c r="CQ128" s="31"/>
+      <c r="CR128" s="31"/>
+      <c r="CS128" s="31"/>
+      <c r="CT128" s="31">
         <v>2024</v>
       </c>
-      <c r="CU128" s="29"/>
+      <c r="CU128" s="31"/>
+      <c r="CV128" s="31"/>
     </row>
     <row r="129" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -37651,23 +37766,26 @@
       <c r="CO129" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP129" s="6" t="s">
+      <c r="CP129" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CQ129" s="6" t="s">
+      <c r="CQ129" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CR129" s="6" t="s">
+      <c r="CR129" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CS129" s="6" t="s">
+      <c r="CS129" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CT129" s="6" t="s">
+      <c r="CT129" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CU129" s="6" t="s">
+      <c r="CU129" s="32" t="s">
         <v>7</v>
+      </c>
+      <c r="CV129" s="32" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37953,25 +38071,27 @@
       <c r="CO131" s="28">
         <v>36.318137245695695</v>
       </c>
-      <c r="CP131" s="28">
+      <c r="CP131" s="44">
         <v>24.478900193350405</v>
       </c>
-      <c r="CQ131" s="28">
+      <c r="CQ131" s="44">
         <v>52.050045488788129</v>
       </c>
-      <c r="CR131" s="28">
+      <c r="CR131" s="44">
         <v>37.146690405575313</v>
       </c>
-      <c r="CS131" s="28">
+      <c r="CS131" s="44">
         <v>37.966552085767361</v>
       </c>
-      <c r="CT131" s="28">
+      <c r="CT131" s="44">
         <v>25.654034466394371</v>
       </c>
-      <c r="CU131" s="28">
-        <v>54.478296262404847</v>
-      </c>
-      <c r="CV131" s="9"/>
+      <c r="CU131" s="44">
+        <v>54.346892759552375</v>
+      </c>
+      <c r="CV131" s="44">
+        <v>35.312644836970684</v>
+      </c>
       <c r="CW131" s="9"/>
       <c r="CX131" s="9"/>
       <c r="CY131" s="9"/>
@@ -38281,25 +38401,27 @@
       <c r="CO132" s="28">
         <v>32.459587193930304</v>
       </c>
-      <c r="CP132" s="28">
+      <c r="CP132" s="44">
         <v>43.377296543098801</v>
       </c>
-      <c r="CQ132" s="28">
+      <c r="CQ132" s="44">
         <v>26.619210123795799</v>
       </c>
-      <c r="CR132" s="28">
+      <c r="CR132" s="44">
         <v>34.532613800549996</v>
       </c>
-      <c r="CS132" s="28">
+      <c r="CS132" s="44">
         <v>30.649379763291122</v>
       </c>
-      <c r="CT132" s="28">
+      <c r="CT132" s="44">
         <v>43.378630546294268</v>
       </c>
-      <c r="CU132" s="28">
-        <v>26.188324370403326</v>
-      </c>
-      <c r="CV132" s="9"/>
+      <c r="CU132" s="44">
+        <v>26.258937999284171</v>
+      </c>
+      <c r="CV132" s="44">
+        <v>36.161920117818028</v>
+      </c>
       <c r="CW132" s="9"/>
       <c r="CX132" s="9"/>
       <c r="CY132" s="9"/>
@@ -38609,25 +38731,27 @@
       <c r="CO133" s="28">
         <v>31.222275560373998</v>
       </c>
-      <c r="CP133" s="28">
+      <c r="CP133" s="44">
         <v>32.143803263550794</v>
       </c>
-      <c r="CQ133" s="28">
+      <c r="CQ133" s="44">
         <v>21.330744387416065</v>
       </c>
-      <c r="CR133" s="28">
+      <c r="CR133" s="44">
         <v>28.320695793874684</v>
       </c>
-      <c r="CS133" s="28">
+      <c r="CS133" s="44">
         <v>31.384068150941513</v>
       </c>
-      <c r="CT133" s="28">
+      <c r="CT133" s="44">
         <v>30.96733498731135</v>
       </c>
-      <c r="CU133" s="28">
-        <v>19.333379367191828</v>
-      </c>
-      <c r="CV133" s="9"/>
+      <c r="CU133" s="44">
+        <v>19.394169241163453</v>
+      </c>
+      <c r="CV133" s="44">
+        <v>28.525435045211299</v>
+      </c>
       <c r="CW133" s="9"/>
       <c r="CX133" s="9"/>
       <c r="CY133" s="9"/>
@@ -38750,13 +38874,13 @@
       <c r="CM134" s="9"/>
       <c r="CN134" s="9"/>
       <c r="CO134" s="9"/>
-      <c r="CP134" s="9"/>
-      <c r="CQ134" s="9"/>
-      <c r="CR134" s="9"/>
-      <c r="CS134" s="9"/>
-      <c r="CT134" s="9"/>
-      <c r="CU134" s="9"/>
-      <c r="CV134" s="9"/>
+      <c r="CP134" s="34"/>
+      <c r="CQ134" s="34"/>
+      <c r="CR134" s="34"/>
+      <c r="CS134" s="34"/>
+      <c r="CT134" s="34"/>
+      <c r="CU134" s="34"/>
+      <c r="CV134" s="34"/>
       <c r="CW134" s="9"/>
       <c r="CX134" s="9"/>
       <c r="CY134" s="9"/>
@@ -39066,25 +39190,27 @@
       <c r="CO135" s="28">
         <v>100</v>
       </c>
-      <c r="CP135" s="28">
+      <c r="CP135" s="44">
         <v>100</v>
       </c>
-      <c r="CQ135" s="28">
+      <c r="CQ135" s="44">
         <v>100</v>
       </c>
-      <c r="CR135" s="28">
+      <c r="CR135" s="44">
         <v>100</v>
       </c>
-      <c r="CS135" s="28">
+      <c r="CS135" s="44">
         <v>100</v>
       </c>
-      <c r="CT135" s="28">
+      <c r="CT135" s="44">
         <v>100</v>
       </c>
-      <c r="CU135" s="28">
+      <c r="CU135" s="44">
         <v>100</v>
       </c>
-      <c r="CV135" s="9"/>
+      <c r="CV135" s="44">
+        <v>100</v>
+      </c>
       <c r="CW135" s="9"/>
       <c r="CX135" s="9"/>
       <c r="CY135" s="9"/>
@@ -39208,12 +39334,13 @@
       <c r="CM136" s="12"/>
       <c r="CN136" s="12"/>
       <c r="CO136" s="12"/>
-      <c r="CP136" s="12"/>
-      <c r="CQ136" s="12"/>
-      <c r="CR136" s="12"/>
-      <c r="CS136" s="12"/>
-      <c r="CT136" s="12"/>
-      <c r="CU136" s="12"/>
+      <c r="CP136" s="36"/>
+      <c r="CQ136" s="36"/>
+      <c r="CR136" s="36"/>
+      <c r="CS136" s="36"/>
+      <c r="CT136" s="36"/>
+      <c r="CU136" s="36"/>
+      <c r="CV136" s="36"/>
     </row>
     <row r="137" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
@@ -39309,13 +39436,13 @@
       <c r="CM137" s="26"/>
       <c r="CN137" s="26"/>
       <c r="CO137" s="26"/>
-      <c r="CP137" s="26"/>
-      <c r="CQ137" s="26"/>
-      <c r="CR137" s="26"/>
-      <c r="CS137" s="26"/>
-      <c r="CT137" s="26"/>
-      <c r="CU137" s="26"/>
-      <c r="CV137" s="9"/>
+      <c r="CP137" s="35"/>
+      <c r="CQ137" s="35"/>
+      <c r="CR137" s="35"/>
+      <c r="CS137" s="35"/>
+      <c r="CT137" s="35"/>
+      <c r="CU137" s="35"/>
+      <c r="CV137" s="35"/>
       <c r="CW137" s="9"/>
       <c r="CX137" s="9"/>
       <c r="CY137" s="9"/>
@@ -39439,13 +39566,13 @@
       <c r="CM138" s="26"/>
       <c r="CN138" s="26"/>
       <c r="CO138" s="26"/>
-      <c r="CP138" s="26"/>
-      <c r="CQ138" s="26"/>
-      <c r="CR138" s="26"/>
-      <c r="CS138" s="26"/>
-      <c r="CT138" s="26"/>
-      <c r="CU138" s="26"/>
-      <c r="CV138" s="9"/>
+      <c r="CP138" s="35"/>
+      <c r="CQ138" s="35"/>
+      <c r="CR138" s="35"/>
+      <c r="CS138" s="35"/>
+      <c r="CT138" s="35"/>
+      <c r="CU138" s="35"/>
+      <c r="CV138" s="35"/>
       <c r="CW138" s="9"/>
       <c r="CX138" s="9"/>
       <c r="CY138" s="9"/>
@@ -39569,12 +39696,13 @@
       <c r="CM139" s="14"/>
       <c r="CN139" s="14"/>
       <c r="CO139" s="14"/>
-      <c r="CP139" s="14"/>
-      <c r="CQ139" s="14"/>
-      <c r="CR139" s="14"/>
-      <c r="CS139" s="14"/>
-      <c r="CT139" s="14"/>
-      <c r="CU139" s="14"/>
+      <c r="CP139" s="37"/>
+      <c r="CQ139" s="37"/>
+      <c r="CR139" s="37"/>
+      <c r="CS139" s="37"/>
+      <c r="CT139" s="37"/>
+      <c r="CU139" s="37"/>
+      <c r="CV139" s="37"/>
     </row>
     <row r="140" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
@@ -39679,13 +39807,13 @@
       <c r="CM142" s="9"/>
       <c r="CN142" s="9"/>
       <c r="CO142" s="9"/>
-      <c r="CP142" s="9"/>
-      <c r="CQ142" s="9"/>
-      <c r="CR142" s="9"/>
-      <c r="CS142" s="9"/>
-      <c r="CT142" s="9"/>
-      <c r="CU142" s="9"/>
-      <c r="CV142" s="9"/>
+      <c r="CP142" s="34"/>
+      <c r="CQ142" s="34"/>
+      <c r="CR142" s="34"/>
+      <c r="CS142" s="34"/>
+      <c r="CT142" s="34"/>
+      <c r="CU142" s="34"/>
+      <c r="CV142" s="34"/>
       <c r="CW142" s="9"/>
       <c r="CX142" s="9"/>
       <c r="CY142" s="9"/>
@@ -39808,13 +39936,13 @@
       <c r="CM143" s="9"/>
       <c r="CN143" s="9"/>
       <c r="CO143" s="9"/>
-      <c r="CP143" s="9"/>
-      <c r="CQ143" s="9"/>
-      <c r="CR143" s="9"/>
-      <c r="CS143" s="9"/>
-      <c r="CT143" s="9"/>
-      <c r="CU143" s="9"/>
-      <c r="CV143" s="9"/>
+      <c r="CP143" s="34"/>
+      <c r="CQ143" s="34"/>
+      <c r="CR143" s="34"/>
+      <c r="CS143" s="34"/>
+      <c r="CT143" s="34"/>
+      <c r="CU143" s="34"/>
+      <c r="CV143" s="34"/>
       <c r="CW143" s="9"/>
       <c r="CX143" s="9"/>
       <c r="CY143" s="9"/>
@@ -39876,132 +40004,132 @@
     </row>
     <row r="152" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
-      <c r="B152" s="31">
+      <c r="B152" s="45">
         <v>2000</v>
       </c>
-      <c r="C152" s="32"/>
-      <c r="D152" s="32"/>
-      <c r="E152" s="32"/>
-      <c r="F152" s="31">
+      <c r="C152" s="46"/>
+      <c r="D152" s="46"/>
+      <c r="E152" s="46"/>
+      <c r="F152" s="45">
         <v>2001</v>
       </c>
-      <c r="G152" s="32"/>
-      <c r="H152" s="32"/>
-      <c r="I152" s="32"/>
-      <c r="J152" s="31">
+      <c r="G152" s="46"/>
+      <c r="H152" s="46"/>
+      <c r="I152" s="46"/>
+      <c r="J152" s="45">
         <v>2002</v>
       </c>
-      <c r="K152" s="32"/>
-      <c r="L152" s="32"/>
-      <c r="M152" s="32"/>
-      <c r="N152" s="31">
+      <c r="K152" s="46"/>
+      <c r="L152" s="46"/>
+      <c r="M152" s="46"/>
+      <c r="N152" s="45">
         <v>2003</v>
       </c>
-      <c r="O152" s="32"/>
-      <c r="P152" s="32"/>
-      <c r="Q152" s="32"/>
-      <c r="R152" s="31">
+      <c r="O152" s="46"/>
+      <c r="P152" s="46"/>
+      <c r="Q152" s="46"/>
+      <c r="R152" s="45">
         <v>2004</v>
       </c>
-      <c r="S152" s="32"/>
-      <c r="T152" s="32"/>
-      <c r="U152" s="32"/>
-      <c r="V152" s="31">
+      <c r="S152" s="46"/>
+      <c r="T152" s="46"/>
+      <c r="U152" s="46"/>
+      <c r="V152" s="45">
         <v>2005</v>
       </c>
-      <c r="W152" s="32"/>
-      <c r="X152" s="32"/>
-      <c r="Y152" s="32"/>
-      <c r="Z152" s="31">
+      <c r="W152" s="46"/>
+      <c r="X152" s="46"/>
+      <c r="Y152" s="46"/>
+      <c r="Z152" s="45">
         <v>2006</v>
       </c>
-      <c r="AA152" s="32"/>
-      <c r="AB152" s="32"/>
-      <c r="AC152" s="32"/>
-      <c r="AD152" s="31">
+      <c r="AA152" s="46"/>
+      <c r="AB152" s="46"/>
+      <c r="AC152" s="46"/>
+      <c r="AD152" s="45">
         <v>2007</v>
       </c>
-      <c r="AE152" s="32"/>
-      <c r="AF152" s="32"/>
-      <c r="AG152" s="32"/>
-      <c r="AH152" s="31">
+      <c r="AE152" s="46"/>
+      <c r="AF152" s="46"/>
+      <c r="AG152" s="46"/>
+      <c r="AH152" s="45">
         <v>2008</v>
       </c>
-      <c r="AI152" s="32"/>
-      <c r="AJ152" s="32"/>
-      <c r="AK152" s="32"/>
-      <c r="AL152" s="31">
+      <c r="AI152" s="46"/>
+      <c r="AJ152" s="46"/>
+      <c r="AK152" s="46"/>
+      <c r="AL152" s="45">
         <v>2009</v>
       </c>
-      <c r="AM152" s="32"/>
-      <c r="AN152" s="32"/>
-      <c r="AO152" s="32"/>
-      <c r="AP152" s="31">
+      <c r="AM152" s="46"/>
+      <c r="AN152" s="46"/>
+      <c r="AO152" s="46"/>
+      <c r="AP152" s="45">
         <v>2010</v>
       </c>
-      <c r="AQ152" s="32"/>
-      <c r="AR152" s="32"/>
-      <c r="AS152" s="32"/>
-      <c r="AT152" s="31">
+      <c r="AQ152" s="46"/>
+      <c r="AR152" s="46"/>
+      <c r="AS152" s="46"/>
+      <c r="AT152" s="45">
         <v>2011</v>
       </c>
-      <c r="AU152" s="32"/>
-      <c r="AV152" s="32"/>
-      <c r="AW152" s="32"/>
-      <c r="AX152" s="31">
+      <c r="AU152" s="46"/>
+      <c r="AV152" s="46"/>
+      <c r="AW152" s="46"/>
+      <c r="AX152" s="45">
         <v>2012</v>
       </c>
-      <c r="AY152" s="32"/>
-      <c r="AZ152" s="32"/>
-      <c r="BA152" s="32"/>
-      <c r="BB152" s="31">
+      <c r="AY152" s="46"/>
+      <c r="AZ152" s="46"/>
+      <c r="BA152" s="46"/>
+      <c r="BB152" s="45">
         <v>2013</v>
       </c>
-      <c r="BC152" s="32"/>
-      <c r="BD152" s="32"/>
-      <c r="BE152" s="32"/>
-      <c r="BF152" s="31">
+      <c r="BC152" s="46"/>
+      <c r="BD152" s="46"/>
+      <c r="BE152" s="46"/>
+      <c r="BF152" s="45">
         <v>2014</v>
       </c>
-      <c r="BG152" s="32"/>
-      <c r="BH152" s="32"/>
-      <c r="BI152" s="32"/>
-      <c r="BJ152" s="31">
+      <c r="BG152" s="46"/>
+      <c r="BH152" s="46"/>
+      <c r="BI152" s="46"/>
+      <c r="BJ152" s="45">
         <v>2015</v>
       </c>
-      <c r="BK152" s="32"/>
-      <c r="BL152" s="32"/>
-      <c r="BM152" s="32"/>
-      <c r="BN152" s="31">
+      <c r="BK152" s="46"/>
+      <c r="BL152" s="46"/>
+      <c r="BM152" s="46"/>
+      <c r="BN152" s="45">
         <v>2016</v>
       </c>
-      <c r="BO152" s="32"/>
-      <c r="BP152" s="32"/>
-      <c r="BQ152" s="32"/>
-      <c r="BR152" s="31">
+      <c r="BO152" s="46"/>
+      <c r="BP152" s="46"/>
+      <c r="BQ152" s="46"/>
+      <c r="BR152" s="45">
         <v>2017</v>
       </c>
-      <c r="BS152" s="32"/>
-      <c r="BT152" s="32"/>
-      <c r="BU152" s="32"/>
-      <c r="BV152" s="31">
+      <c r="BS152" s="46"/>
+      <c r="BT152" s="46"/>
+      <c r="BU152" s="46"/>
+      <c r="BV152" s="45">
         <v>2018</v>
       </c>
-      <c r="BW152" s="31"/>
-      <c r="BX152" s="31"/>
-      <c r="BY152" s="31"/>
-      <c r="BZ152" s="31">
+      <c r="BW152" s="45"/>
+      <c r="BX152" s="45"/>
+      <c r="BY152" s="45"/>
+      <c r="BZ152" s="45">
         <v>2019</v>
       </c>
-      <c r="CA152" s="31"/>
-      <c r="CB152" s="31"/>
-      <c r="CC152" s="31"/>
-      <c r="CD152" s="31">
+      <c r="CA152" s="45"/>
+      <c r="CB152" s="45"/>
+      <c r="CC152" s="45"/>
+      <c r="CD152" s="45">
         <v>2020</v>
       </c>
-      <c r="CE152" s="31"/>
-      <c r="CF152" s="31"/>
-      <c r="CG152" s="31"/>
+      <c r="CE152" s="45"/>
+      <c r="CF152" s="45"/>
+      <c r="CG152" s="45"/>
       <c r="CH152" s="29">
         <v>2021</v>
       </c>
@@ -40014,16 +40142,17 @@
       <c r="CM152" s="29"/>
       <c r="CN152" s="29"/>
       <c r="CO152" s="29"/>
-      <c r="CP152" s="29">
+      <c r="CP152" s="31">
         <v>2023</v>
       </c>
-      <c r="CQ152" s="29"/>
-      <c r="CR152" s="29"/>
-      <c r="CS152" s="29"/>
-      <c r="CT152" s="29">
+      <c r="CQ152" s="31"/>
+      <c r="CR152" s="31"/>
+      <c r="CS152" s="31"/>
+      <c r="CT152" s="31">
         <v>2024</v>
       </c>
-      <c r="CU152" s="29"/>
+      <c r="CU152" s="31"/>
+      <c r="CV152" s="31"/>
     </row>
     <row r="153" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
@@ -40305,23 +40434,26 @@
       <c r="CO153" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CP153" s="6" t="s">
+      <c r="CP153" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CQ153" s="6" t="s">
+      <c r="CQ153" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CR153" s="6" t="s">
+      <c r="CR153" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CS153" s="6" t="s">
+      <c r="CS153" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CT153" s="6" t="s">
+      <c r="CT153" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CU153" s="6" t="s">
+      <c r="CU153" s="32" t="s">
         <v>7</v>
+      </c>
+      <c r="CV153" s="32" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40607,25 +40739,27 @@
       <c r="CO155" s="28">
         <v>35.899878982412034</v>
       </c>
-      <c r="CP155" s="28">
+      <c r="CP155" s="44">
         <v>23.65294906808095</v>
       </c>
-      <c r="CQ155" s="28">
+      <c r="CQ155" s="44">
         <v>51.908454653966849</v>
       </c>
-      <c r="CR155" s="28">
+      <c r="CR155" s="44">
         <v>37.584570203233866</v>
       </c>
-      <c r="CS155" s="28">
+      <c r="CS155" s="44">
         <v>37.48116226759425</v>
       </c>
-      <c r="CT155" s="28">
+      <c r="CT155" s="44">
         <v>24.794845258963118</v>
       </c>
-      <c r="CU155" s="28">
-        <v>54.474281607647448</v>
-      </c>
-      <c r="CV155" s="9"/>
+      <c r="CU155" s="44">
+        <v>54.371358356647669</v>
+      </c>
+      <c r="CV155" s="44">
+        <v>35.814538900779084</v>
+      </c>
       <c r="CW155" s="9"/>
       <c r="CX155" s="9"/>
       <c r="CY155" s="9"/>
@@ -40935,25 +41069,27 @@
       <c r="CO156" s="28">
         <v>30.738607221093545</v>
       </c>
-      <c r="CP156" s="28">
+      <c r="CP156" s="44">
         <v>46.063752398868452</v>
       </c>
-      <c r="CQ156" s="28">
+      <c r="CQ156" s="44">
         <v>27.401086513518159</v>
       </c>
-      <c r="CR156" s="28">
+      <c r="CR156" s="44">
         <v>33.641441567725003</v>
       </c>
-      <c r="CS156" s="28">
+      <c r="CS156" s="44">
         <v>29.002003177835974</v>
       </c>
-      <c r="CT156" s="28">
+      <c r="CT156" s="44">
         <v>46.010179820422202</v>
       </c>
-      <c r="CU156" s="28">
-        <v>26.831760232829154</v>
-      </c>
-      <c r="CV156" s="9"/>
+      <c r="CU156" s="44">
+        <v>26.883713317383535</v>
+      </c>
+      <c r="CV156" s="44">
+        <v>35.208376252468895</v>
+      </c>
       <c r="CW156" s="9"/>
       <c r="CX156" s="9"/>
       <c r="CY156" s="9"/>
@@ -41263,25 +41399,27 @@
       <c r="CO157" s="28">
         <v>33.361513796494421</v>
       </c>
-      <c r="CP157" s="28">
+      <c r="CP157" s="44">
         <v>30.283298533050605</v>
       </c>
-      <c r="CQ157" s="28">
+      <c r="CQ157" s="44">
         <v>20.690458832514974</v>
       </c>
-      <c r="CR157" s="28">
+      <c r="CR157" s="44">
         <v>28.773988229041148</v>
       </c>
-      <c r="CS157" s="28">
+      <c r="CS157" s="44">
         <v>33.516834554569783</v>
       </c>
-      <c r="CT157" s="28">
+      <c r="CT157" s="44">
         <v>29.19497492061468</v>
       </c>
-      <c r="CU157" s="28">
-        <v>18.693958159523387</v>
-      </c>
-      <c r="CV157" s="9"/>
+      <c r="CU157" s="44">
+        <v>18.744928325968782</v>
+      </c>
+      <c r="CV157" s="44">
+        <v>28.977084846752028</v>
+      </c>
       <c r="CW157" s="9"/>
       <c r="CX157" s="9"/>
       <c r="CY157" s="9"/>
@@ -41404,13 +41542,13 @@
       <c r="CM158" s="9"/>
       <c r="CN158" s="9"/>
       <c r="CO158" s="9"/>
-      <c r="CP158" s="9"/>
-      <c r="CQ158" s="9"/>
-      <c r="CR158" s="9"/>
-      <c r="CS158" s="9"/>
-      <c r="CT158" s="9"/>
-      <c r="CU158" s="9"/>
-      <c r="CV158" s="9"/>
+      <c r="CP158" s="34"/>
+      <c r="CQ158" s="34"/>
+      <c r="CR158" s="34"/>
+      <c r="CS158" s="34"/>
+      <c r="CT158" s="34"/>
+      <c r="CU158" s="34"/>
+      <c r="CV158" s="34"/>
       <c r="CW158" s="9"/>
       <c r="CX158" s="9"/>
       <c r="CY158" s="9"/>
@@ -41720,25 +41858,27 @@
       <c r="CO159" s="28">
         <v>100</v>
       </c>
-      <c r="CP159" s="28">
+      <c r="CP159" s="44">
         <v>100</v>
       </c>
-      <c r="CQ159" s="28">
+      <c r="CQ159" s="44">
         <v>100</v>
       </c>
-      <c r="CR159" s="28">
+      <c r="CR159" s="44">
         <v>100</v>
       </c>
-      <c r="CS159" s="28">
+      <c r="CS159" s="44">
         <v>100</v>
       </c>
-      <c r="CT159" s="28">
+      <c r="CT159" s="44">
         <v>100</v>
       </c>
-      <c r="CU159" s="28">
+      <c r="CU159" s="44">
         <v>100</v>
       </c>
-      <c r="CV159" s="9"/>
+      <c r="CV159" s="44">
+        <v>100</v>
+      </c>
       <c r="CW159" s="9"/>
       <c r="CX159" s="9"/>
       <c r="CY159" s="9"/>
@@ -41862,12 +42002,13 @@
       <c r="CM160" s="12"/>
       <c r="CN160" s="12"/>
       <c r="CO160" s="12"/>
-      <c r="CP160" s="12"/>
-      <c r="CQ160" s="12"/>
-      <c r="CR160" s="12"/>
-      <c r="CS160" s="12"/>
-      <c r="CT160" s="12"/>
-      <c r="CU160" s="12"/>
+      <c r="CP160" s="36"/>
+      <c r="CQ160" s="36"/>
+      <c r="CR160" s="36"/>
+      <c r="CS160" s="36"/>
+      <c r="CT160" s="36"/>
+      <c r="CU160" s="36"/>
+      <c r="CV160" s="36"/>
     </row>
     <row r="161" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
@@ -41963,13 +42104,13 @@
       <c r="CM161" s="26"/>
       <c r="CN161" s="26"/>
       <c r="CO161" s="26"/>
-      <c r="CP161" s="26"/>
-      <c r="CQ161" s="26"/>
-      <c r="CR161" s="26"/>
-      <c r="CS161" s="26"/>
-      <c r="CT161" s="26"/>
-      <c r="CU161" s="26"/>
-      <c r="CV161" s="9"/>
+      <c r="CP161" s="35"/>
+      <c r="CQ161" s="35"/>
+      <c r="CR161" s="35"/>
+      <c r="CS161" s="35"/>
+      <c r="CT161" s="35"/>
+      <c r="CU161" s="35"/>
+      <c r="CV161" s="35"/>
       <c r="CW161" s="9"/>
       <c r="CX161" s="9"/>
       <c r="CY161" s="9"/>
@@ -42093,13 +42234,13 @@
       <c r="CM162" s="26"/>
       <c r="CN162" s="26"/>
       <c r="CO162" s="26"/>
-      <c r="CP162" s="26"/>
-      <c r="CQ162" s="26"/>
-      <c r="CR162" s="26"/>
-      <c r="CS162" s="26"/>
-      <c r="CT162" s="26"/>
-      <c r="CU162" s="26"/>
-      <c r="CV162" s="9"/>
+      <c r="CP162" s="35"/>
+      <c r="CQ162" s="35"/>
+      <c r="CR162" s="35"/>
+      <c r="CS162" s="35"/>
+      <c r="CT162" s="35"/>
+      <c r="CU162" s="35"/>
+      <c r="CV162" s="35"/>
       <c r="CW162" s="9"/>
       <c r="CX162" s="9"/>
       <c r="CY162" s="9"/>
@@ -42223,12 +42364,13 @@
       <c r="CM163" s="14"/>
       <c r="CN163" s="14"/>
       <c r="CO163" s="14"/>
-      <c r="CP163" s="14"/>
-      <c r="CQ163" s="14"/>
-      <c r="CR163" s="14"/>
-      <c r="CS163" s="14"/>
-      <c r="CT163" s="14"/>
-      <c r="CU163" s="14"/>
+      <c r="CP163" s="37"/>
+      <c r="CQ163" s="37"/>
+      <c r="CR163" s="37"/>
+      <c r="CS163" s="37"/>
+      <c r="CT163" s="37"/>
+      <c r="CU163" s="37"/>
+      <c r="CV163" s="37"/>
     </row>
     <row r="164" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
@@ -42395,9 +42537,9 @@
   <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="48" max="97" man="1"/>
-    <brk id="96" max="97" man="1"/>
-    <brk id="119" max="97" man="1"/>
+    <brk id="48" max="99" man="1"/>
+    <brk id="96" max="99" man="1"/>
+    <brk id="119" max="99" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302020D8-F85E-4F7B-9C95-DF963C98AFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DEA9A0-D04D-4C87-94B5-E9445546B4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="975" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNS" sheetId="6" r:id="rId1"/>
@@ -326,7 +326,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$CV$167</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$CW$167</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -632,13 +632,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of November 2024</t>
+    <t>Q1 2000 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2024</t>
+    <t>Q1 2001 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2024</t>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -740,7 +740,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -806,6 +806,21 @@
     <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23665,15 +23680,15 @@
       <selection activeCell="N19" sqref="N19"/>
       <selection pane="topRight" activeCell="N19" sqref="N19"/>
       <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.21875" style="1" customWidth="1"/>
     <col min="2" max="93" width="10.21875" style="1" customWidth="1"/>
-    <col min="94" max="100" width="10.109375" style="30" customWidth="1"/>
-    <col min="101" max="16384" width="7.77734375" style="1"/>
+    <col min="94" max="101" width="10.109375" style="30" customWidth="1"/>
+    <col min="102" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.2">
@@ -23688,7 +23703,7 @@
     </row>
     <row r="3" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:128" x14ac:dyDescent="0.2">
@@ -23698,7 +23713,7 @@
     </row>
     <row r="6" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:128" x14ac:dyDescent="0.2">
@@ -23708,132 +23723,132 @@
     </row>
     <row r="9" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="45">
+      <c r="B9" s="50">
         <v>2000</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45">
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50">
         <v>2001</v>
       </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45">
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50">
         <v>2002</v>
       </c>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45">
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50">
         <v>2003</v>
       </c>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45">
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50">
         <v>2004</v>
       </c>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45">
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50">
         <v>2005</v>
       </c>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45">
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50">
         <v>2006</v>
       </c>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45">
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50">
         <v>2007</v>
       </c>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45">
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="50">
         <v>2008</v>
       </c>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45">
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="50"/>
+      <c r="AL9" s="50">
         <v>2009</v>
       </c>
-      <c r="AM9" s="45"/>
-      <c r="AN9" s="45"/>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="45">
+      <c r="AM9" s="50"/>
+      <c r="AN9" s="50"/>
+      <c r="AO9" s="50"/>
+      <c r="AP9" s="50">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="45"/>
-      <c r="AR9" s="45"/>
-      <c r="AS9" s="45"/>
-      <c r="AT9" s="45">
+      <c r="AQ9" s="50"/>
+      <c r="AR9" s="50"/>
+      <c r="AS9" s="50"/>
+      <c r="AT9" s="50">
         <v>2011</v>
       </c>
-      <c r="AU9" s="45"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="45"/>
-      <c r="AX9" s="45">
+      <c r="AU9" s="50"/>
+      <c r="AV9" s="50"/>
+      <c r="AW9" s="50"/>
+      <c r="AX9" s="50">
         <v>2012</v>
       </c>
-      <c r="AY9" s="45"/>
-      <c r="AZ9" s="45"/>
-      <c r="BA9" s="45"/>
-      <c r="BB9" s="45">
+      <c r="AY9" s="50"/>
+      <c r="AZ9" s="50"/>
+      <c r="BA9" s="50"/>
+      <c r="BB9" s="50">
         <v>2013</v>
       </c>
-      <c r="BC9" s="45"/>
-      <c r="BD9" s="45"/>
-      <c r="BE9" s="45"/>
-      <c r="BF9" s="45">
+      <c r="BC9" s="50"/>
+      <c r="BD9" s="50"/>
+      <c r="BE9" s="50"/>
+      <c r="BF9" s="50">
         <v>2014</v>
       </c>
-      <c r="BG9" s="45"/>
-      <c r="BH9" s="45"/>
-      <c r="BI9" s="45"/>
-      <c r="BJ9" s="45">
+      <c r="BG9" s="50"/>
+      <c r="BH9" s="50"/>
+      <c r="BI9" s="50"/>
+      <c r="BJ9" s="50">
         <v>2015</v>
       </c>
-      <c r="BK9" s="45"/>
-      <c r="BL9" s="45"/>
-      <c r="BM9" s="45"/>
-      <c r="BN9" s="45">
+      <c r="BK9" s="50"/>
+      <c r="BL9" s="50"/>
+      <c r="BM9" s="50"/>
+      <c r="BN9" s="50">
         <v>2016</v>
       </c>
-      <c r="BO9" s="45"/>
-      <c r="BP9" s="45"/>
-      <c r="BQ9" s="45"/>
-      <c r="BR9" s="45">
+      <c r="BO9" s="50"/>
+      <c r="BP9" s="50"/>
+      <c r="BQ9" s="50"/>
+      <c r="BR9" s="50">
         <v>2017</v>
       </c>
-      <c r="BS9" s="45"/>
-      <c r="BT9" s="45"/>
-      <c r="BU9" s="45"/>
-      <c r="BV9" s="45">
+      <c r="BS9" s="50"/>
+      <c r="BT9" s="50"/>
+      <c r="BU9" s="50"/>
+      <c r="BV9" s="50">
         <v>2018</v>
       </c>
-      <c r="BW9" s="45"/>
-      <c r="BX9" s="45"/>
-      <c r="BY9" s="45"/>
-      <c r="BZ9" s="45">
+      <c r="BW9" s="50"/>
+      <c r="BX9" s="50"/>
+      <c r="BY9" s="50"/>
+      <c r="BZ9" s="50">
         <v>2019</v>
       </c>
-      <c r="CA9" s="45"/>
-      <c r="CB9" s="45"/>
-      <c r="CC9" s="45"/>
-      <c r="CD9" s="45">
+      <c r="CA9" s="50"/>
+      <c r="CB9" s="50"/>
+      <c r="CC9" s="50"/>
+      <c r="CD9" s="50">
         <v>2020</v>
       </c>
-      <c r="CE9" s="45"/>
-      <c r="CF9" s="45"/>
-      <c r="CG9" s="45"/>
+      <c r="CE9" s="50"/>
+      <c r="CF9" s="50"/>
+      <c r="CG9" s="50"/>
       <c r="CH9" s="29">
         <v>2021</v>
       </c>
@@ -23857,6 +23872,7 @@
       </c>
       <c r="CU9" s="31"/>
       <c r="CV9" s="31"/>
+      <c r="CW9" s="31"/>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24158,6 +24174,9 @@
       </c>
       <c r="CV10" s="32" t="s">
         <v>9</v>
+      </c>
+      <c r="CW10" s="32" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24462,9 +24481,11 @@
         <v>706493.66278316185</v>
       </c>
       <c r="CV12" s="33">
-        <v>341382.15109978046</v>
-      </c>
-      <c r="CW12" s="9"/>
+        <v>341381.45836695982</v>
+      </c>
+      <c r="CW12" s="33">
+        <v>371880.54711199808</v>
+      </c>
       <c r="CX12" s="9"/>
       <c r="CY12" s="9"/>
       <c r="CZ12" s="9"/>
@@ -24792,9 +24813,11 @@
         <v>341358.49072345434</v>
       </c>
       <c r="CV13" s="33">
-        <v>349592.45150605298</v>
-      </c>
-      <c r="CW13" s="9"/>
+        <v>350298.5941825856</v>
+      </c>
+      <c r="CW13" s="33">
+        <v>302869.21117626509</v>
+      </c>
       <c r="CX13" s="9"/>
       <c r="CY13" s="9"/>
       <c r="CZ13" s="9"/>
@@ -25122,9 +25145,11 @@
         <v>252118.51070211869</v>
       </c>
       <c r="CV14" s="33">
-        <v>275767.34684556938</v>
-      </c>
-      <c r="CW14" s="9"/>
+        <v>274289.0788185313</v>
+      </c>
+      <c r="CW14" s="33">
+        <v>330022.08518429316</v>
+      </c>
       <c r="CX14" s="9"/>
       <c r="CY14" s="9"/>
       <c r="CZ14" s="9"/>
@@ -25253,7 +25278,7 @@
       <c r="CT15" s="34"/>
       <c r="CU15" s="34"/>
       <c r="CV15" s="34"/>
-      <c r="CW15" s="9"/>
+      <c r="CW15" s="34"/>
       <c r="CX15" s="9"/>
       <c r="CY15" s="9"/>
       <c r="CZ15" s="9"/>
@@ -25581,9 +25606,11 @@
         <v>1299970.6642087349</v>
       </c>
       <c r="CV16" s="35">
-        <v>966741.94945140276</v>
-      </c>
-      <c r="CW16" s="9"/>
+        <v>965969.13136807666</v>
+      </c>
+      <c r="CW16" s="35">
+        <v>1004771.8434725562</v>
+      </c>
       <c r="CX16" s="9"/>
       <c r="CY16" s="9"/>
       <c r="CZ16" s="9"/>
@@ -25713,6 +25740,7 @@
       <c r="CT17" s="36"/>
       <c r="CU17" s="36"/>
       <c r="CV17" s="36"/>
+      <c r="CW17" s="36"/>
     </row>
     <row r="18" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
@@ -25815,7 +25843,7 @@
       <c r="CT18" s="35"/>
       <c r="CU18" s="35"/>
       <c r="CV18" s="35"/>
-      <c r="CW18" s="9"/>
+      <c r="CW18" s="35"/>
       <c r="CX18" s="9"/>
       <c r="CY18" s="9"/>
       <c r="CZ18" s="9"/>
@@ -26143,9 +26171,11 @@
         <v>659869.75425811287</v>
       </c>
       <c r="CV19" s="33">
-        <v>467764.09608254826</v>
-      </c>
-      <c r="CW19" s="9"/>
+        <v>467494.65296952345</v>
+      </c>
+      <c r="CW19" s="33">
+        <v>550447.93467021873</v>
+      </c>
       <c r="CX19" s="9"/>
       <c r="CY19" s="9"/>
       <c r="CZ19" s="9"/>
@@ -26275,6 +26305,7 @@
       <c r="CT20" s="37"/>
       <c r="CU20" s="37"/>
       <c r="CV20" s="37"/>
+      <c r="CW20" s="37"/>
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
@@ -26302,6 +26333,7 @@
       <c r="CT23" s="38"/>
       <c r="CU23" s="38"/>
       <c r="CV23" s="38"/>
+      <c r="CW23" s="38"/>
     </row>
     <row r="24" spans="1:128" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G24" s="9"/>
@@ -26319,6 +26351,7 @@
       <c r="CT24" s="38"/>
       <c r="CU24" s="38"/>
       <c r="CV24" s="38"/>
+      <c r="CW24" s="38"/>
     </row>
     <row r="25" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -26332,7 +26365,7 @@
     </row>
     <row r="27" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:128" x14ac:dyDescent="0.2">
@@ -26342,7 +26375,7 @@
     </row>
     <row r="30" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:128" x14ac:dyDescent="0.2">
@@ -26352,132 +26385,132 @@
     </row>
     <row r="33" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="45">
+      <c r="B33" s="50">
         <v>2000</v>
       </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="45">
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="50">
         <v>2001</v>
       </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="45">
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="50">
         <v>2002</v>
       </c>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="45">
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="50">
         <v>2003</v>
       </c>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="45">
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="50">
         <v>2004</v>
       </c>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="45">
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="50">
         <v>2005</v>
       </c>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="45">
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="50">
         <v>2006</v>
       </c>
-      <c r="AA33" s="46"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="45">
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="50">
         <v>2007</v>
       </c>
-      <c r="AE33" s="46"/>
-      <c r="AF33" s="46"/>
-      <c r="AG33" s="46"/>
-      <c r="AH33" s="45">
+      <c r="AE33" s="51"/>
+      <c r="AF33" s="51"/>
+      <c r="AG33" s="51"/>
+      <c r="AH33" s="50">
         <v>2008</v>
       </c>
-      <c r="AI33" s="46"/>
-      <c r="AJ33" s="46"/>
-      <c r="AK33" s="46"/>
-      <c r="AL33" s="45">
+      <c r="AI33" s="51"/>
+      <c r="AJ33" s="51"/>
+      <c r="AK33" s="51"/>
+      <c r="AL33" s="50">
         <v>2009</v>
       </c>
-      <c r="AM33" s="46"/>
-      <c r="AN33" s="46"/>
-      <c r="AO33" s="46"/>
-      <c r="AP33" s="45">
+      <c r="AM33" s="51"/>
+      <c r="AN33" s="51"/>
+      <c r="AO33" s="51"/>
+      <c r="AP33" s="50">
         <v>2010</v>
       </c>
-      <c r="AQ33" s="46"/>
-      <c r="AR33" s="46"/>
-      <c r="AS33" s="46"/>
-      <c r="AT33" s="45">
+      <c r="AQ33" s="51"/>
+      <c r="AR33" s="51"/>
+      <c r="AS33" s="51"/>
+      <c r="AT33" s="50">
         <v>2011</v>
       </c>
-      <c r="AU33" s="46"/>
-      <c r="AV33" s="46"/>
-      <c r="AW33" s="46"/>
-      <c r="AX33" s="45">
+      <c r="AU33" s="51"/>
+      <c r="AV33" s="51"/>
+      <c r="AW33" s="51"/>
+      <c r="AX33" s="50">
         <v>2012</v>
       </c>
-      <c r="AY33" s="46"/>
-      <c r="AZ33" s="46"/>
-      <c r="BA33" s="46"/>
-      <c r="BB33" s="45">
+      <c r="AY33" s="51"/>
+      <c r="AZ33" s="51"/>
+      <c r="BA33" s="51"/>
+      <c r="BB33" s="50">
         <v>2013</v>
       </c>
-      <c r="BC33" s="46"/>
-      <c r="BD33" s="46"/>
-      <c r="BE33" s="46"/>
-      <c r="BF33" s="45">
+      <c r="BC33" s="51"/>
+      <c r="BD33" s="51"/>
+      <c r="BE33" s="51"/>
+      <c r="BF33" s="50">
         <v>2014</v>
       </c>
-      <c r="BG33" s="46"/>
-      <c r="BH33" s="46"/>
-      <c r="BI33" s="46"/>
-      <c r="BJ33" s="45">
+      <c r="BG33" s="51"/>
+      <c r="BH33" s="51"/>
+      <c r="BI33" s="51"/>
+      <c r="BJ33" s="50">
         <v>2015</v>
       </c>
-      <c r="BK33" s="46"/>
-      <c r="BL33" s="46"/>
-      <c r="BM33" s="46"/>
-      <c r="BN33" s="45">
+      <c r="BK33" s="51"/>
+      <c r="BL33" s="51"/>
+      <c r="BM33" s="51"/>
+      <c r="BN33" s="50">
         <v>2016</v>
       </c>
-      <c r="BO33" s="46"/>
-      <c r="BP33" s="46"/>
-      <c r="BQ33" s="46"/>
-      <c r="BR33" s="45">
+      <c r="BO33" s="51"/>
+      <c r="BP33" s="51"/>
+      <c r="BQ33" s="51"/>
+      <c r="BR33" s="50">
         <v>2017</v>
       </c>
-      <c r="BS33" s="46"/>
-      <c r="BT33" s="46"/>
-      <c r="BU33" s="46"/>
-      <c r="BV33" s="45">
+      <c r="BS33" s="51"/>
+      <c r="BT33" s="51"/>
+      <c r="BU33" s="51"/>
+      <c r="BV33" s="50">
         <v>2018</v>
       </c>
-      <c r="BW33" s="45"/>
-      <c r="BX33" s="45"/>
-      <c r="BY33" s="45"/>
-      <c r="BZ33" s="45">
+      <c r="BW33" s="50"/>
+      <c r="BX33" s="50"/>
+      <c r="BY33" s="50"/>
+      <c r="BZ33" s="50">
         <v>2019</v>
       </c>
-      <c r="CA33" s="45"/>
-      <c r="CB33" s="45"/>
-      <c r="CC33" s="45"/>
-      <c r="CD33" s="45">
+      <c r="CA33" s="50"/>
+      <c r="CB33" s="50"/>
+      <c r="CC33" s="50"/>
+      <c r="CD33" s="50">
         <v>2020</v>
       </c>
-      <c r="CE33" s="45"/>
-      <c r="CF33" s="45"/>
-      <c r="CG33" s="45"/>
+      <c r="CE33" s="50"/>
+      <c r="CF33" s="50"/>
+      <c r="CG33" s="50"/>
       <c r="CH33" s="29">
         <v>2021</v>
       </c>
@@ -26501,6 +26534,7 @@
       </c>
       <c r="CU33" s="31"/>
       <c r="CV33" s="31"/>
+      <c r="CW33" s="31"/>
     </row>
     <row r="34" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
@@ -26802,6 +26836,9 @@
       </c>
       <c r="CV34" s="32" t="s">
         <v>9</v>
+      </c>
+      <c r="CW34" s="32" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27106,9 +27143,11 @@
         <v>585596.20331473229</v>
       </c>
       <c r="CV36" s="33">
-        <v>268703.82177645317</v>
-      </c>
-      <c r="CW36" s="9"/>
+        <v>268724.14142240922</v>
+      </c>
+      <c r="CW36" s="33">
+        <v>320695.8243106514</v>
+      </c>
       <c r="CX36" s="9"/>
       <c r="CY36" s="9"/>
       <c r="CZ36" s="9"/>
@@ -27436,9 +27475,11 @@
         <v>289545.83673256158</v>
       </c>
       <c r="CV37" s="33">
-        <v>264155.99775810342</v>
-      </c>
-      <c r="CW37" s="9"/>
+        <v>264706.25039989071</v>
+      </c>
+      <c r="CW37" s="33">
+        <v>250167.85355216806</v>
+      </c>
       <c r="CX37" s="9"/>
       <c r="CY37" s="9"/>
       <c r="CZ37" s="9"/>
@@ -27766,9 +27807,11 @@
         <v>201888.62649137786</v>
       </c>
       <c r="CV38" s="33">
-        <v>217404.8216517299</v>
-      </c>
-      <c r="CW38" s="9"/>
+        <v>216252.46409757674</v>
+      </c>
+      <c r="CW38" s="33">
+        <v>308445.61955774302</v>
+      </c>
       <c r="CX38" s="9"/>
       <c r="CY38" s="9"/>
       <c r="CZ38" s="9"/>
@@ -27897,7 +27940,7 @@
       <c r="CT39" s="34"/>
       <c r="CU39" s="34"/>
       <c r="CV39" s="34"/>
-      <c r="CW39" s="9"/>
+      <c r="CW39" s="34"/>
       <c r="CX39" s="9"/>
       <c r="CY39" s="9"/>
       <c r="CZ39" s="9"/>
@@ -28225,9 +28268,11 @@
         <v>1077030.6665386718</v>
       </c>
       <c r="CV40" s="35">
-        <v>750264.64118628646</v>
-      </c>
-      <c r="CW40" s="9"/>
+        <v>749682.8559198766</v>
+      </c>
+      <c r="CW40" s="35">
+        <v>879309.29742056248</v>
+      </c>
       <c r="CX40" s="9"/>
       <c r="CY40" s="9"/>
       <c r="CZ40" s="9"/>
@@ -28357,6 +28402,7 @@
       <c r="CT41" s="36"/>
       <c r="CU41" s="36"/>
       <c r="CV41" s="36"/>
+      <c r="CW41" s="36"/>
     </row>
     <row r="42" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
@@ -28459,7 +28505,7 @@
       <c r="CT42" s="35"/>
       <c r="CU42" s="35"/>
       <c r="CV42" s="35"/>
-      <c r="CW42" s="9"/>
+      <c r="CW42" s="35"/>
       <c r="CX42" s="9"/>
       <c r="CY42" s="9"/>
       <c r="CZ42" s="9"/>
@@ -28787,9 +28833,11 @@
         <v>494619.69202222337</v>
       </c>
       <c r="CV43" s="33">
-        <v>384733.32918223209</v>
-      </c>
-      <c r="CW43" s="9"/>
+        <v>384591.99964349734</v>
+      </c>
+      <c r="CW43" s="33">
+        <v>480996.21277525008</v>
+      </c>
       <c r="CX43" s="9"/>
       <c r="CY43" s="9"/>
       <c r="CZ43" s="9"/>
@@ -28919,6 +28967,7 @@
       <c r="CT44" s="37"/>
       <c r="CU44" s="37"/>
       <c r="CV44" s="37"/>
+      <c r="CW44" s="37"/>
     </row>
     <row r="45" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
@@ -29030,7 +29079,7 @@
       <c r="CT47" s="34"/>
       <c r="CU47" s="34"/>
       <c r="CV47" s="34"/>
-      <c r="CW47" s="9"/>
+      <c r="CW47" s="34"/>
       <c r="CX47" s="9"/>
       <c r="CY47" s="9"/>
       <c r="CZ47" s="9"/>
@@ -29159,7 +29208,7 @@
       <c r="CT48" s="34"/>
       <c r="CU48" s="34"/>
       <c r="CV48" s="34"/>
-      <c r="CW48" s="9"/>
+      <c r="CW48" s="34"/>
       <c r="CX48" s="9"/>
       <c r="CY48" s="9"/>
       <c r="CZ48" s="9"/>
@@ -29200,7 +29249,7 @@
     </row>
     <row r="51" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:120" x14ac:dyDescent="0.2">
@@ -29210,145 +29259,159 @@
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="CT53" s="45"/>
+      <c r="CU53" s="45"/>
+      <c r="CV53" s="45"/>
     </row>
     <row r="54" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="CT54" s="45"/>
+      <c r="CU54" s="45"/>
+      <c r="CV54" s="45"/>
     </row>
     <row r="55" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="CT55" s="45"/>
+      <c r="CU55" s="45"/>
+      <c r="CV55" s="45"/>
+    </row>
+    <row r="56" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="CT56" s="45"/>
+      <c r="CU56" s="45"/>
+      <c r="CV56" s="45"/>
     </row>
     <row r="57" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="45" t="s">
+      <c r="B57" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45" t="s">
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="45" t="s">
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="K57" s="45"/>
-      <c r="L57" s="45"/>
-      <c r="M57" s="45"/>
-      <c r="N57" s="45" t="s">
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="O57" s="45"/>
-      <c r="P57" s="45"/>
-      <c r="Q57" s="45"/>
-      <c r="R57" s="45" t="s">
+      <c r="O57" s="50"/>
+      <c r="P57" s="50"/>
+      <c r="Q57" s="50"/>
+      <c r="R57" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="S57" s="45"/>
-      <c r="T57" s="45"/>
-      <c r="U57" s="45"/>
-      <c r="V57" s="45" t="s">
+      <c r="S57" s="50"/>
+      <c r="T57" s="50"/>
+      <c r="U57" s="50"/>
+      <c r="V57" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="W57" s="45"/>
-      <c r="X57" s="45"/>
-      <c r="Y57" s="45"/>
-      <c r="Z57" s="45" t="s">
+      <c r="W57" s="50"/>
+      <c r="X57" s="50"/>
+      <c r="Y57" s="50"/>
+      <c r="Z57" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AA57" s="45"/>
-      <c r="AB57" s="45"/>
-      <c r="AC57" s="45"/>
-      <c r="AD57" s="45" t="s">
+      <c r="AA57" s="50"/>
+      <c r="AB57" s="50"/>
+      <c r="AC57" s="50"/>
+      <c r="AD57" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="AE57" s="45"/>
-      <c r="AF57" s="45"/>
-      <c r="AG57" s="45"/>
-      <c r="AH57" s="45" t="s">
+      <c r="AE57" s="50"/>
+      <c r="AF57" s="50"/>
+      <c r="AG57" s="50"/>
+      <c r="AH57" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="AI57" s="45"/>
-      <c r="AJ57" s="45"/>
-      <c r="AK57" s="45"/>
-      <c r="AL57" s="45" t="s">
+      <c r="AI57" s="50"/>
+      <c r="AJ57" s="50"/>
+      <c r="AK57" s="50"/>
+      <c r="AL57" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="AM57" s="45"/>
-      <c r="AN57" s="45"/>
-      <c r="AO57" s="45"/>
-      <c r="AP57" s="45" t="s">
+      <c r="AM57" s="50"/>
+      <c r="AN57" s="50"/>
+      <c r="AO57" s="50"/>
+      <c r="AP57" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="AQ57" s="45"/>
-      <c r="AR57" s="45"/>
-      <c r="AS57" s="45"/>
-      <c r="AT57" s="45" t="s">
+      <c r="AQ57" s="50"/>
+      <c r="AR57" s="50"/>
+      <c r="AS57" s="50"/>
+      <c r="AT57" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="AU57" s="45"/>
-      <c r="AV57" s="45"/>
-      <c r="AW57" s="45"/>
-      <c r="AX57" s="45" t="s">
+      <c r="AU57" s="50"/>
+      <c r="AV57" s="50"/>
+      <c r="AW57" s="50"/>
+      <c r="AX57" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="AY57" s="45"/>
-      <c r="AZ57" s="45"/>
-      <c r="BA57" s="45"/>
-      <c r="BB57" s="45" t="s">
+      <c r="AY57" s="50"/>
+      <c r="AZ57" s="50"/>
+      <c r="BA57" s="50"/>
+      <c r="BB57" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="BC57" s="45"/>
-      <c r="BD57" s="45"/>
-      <c r="BE57" s="45"/>
-      <c r="BF57" s="45" t="s">
+      <c r="BC57" s="50"/>
+      <c r="BD57" s="50"/>
+      <c r="BE57" s="50"/>
+      <c r="BF57" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="BG57" s="45"/>
-      <c r="BH57" s="45"/>
-      <c r="BI57" s="45"/>
-      <c r="BJ57" s="45" t="s">
+      <c r="BG57" s="50"/>
+      <c r="BH57" s="50"/>
+      <c r="BI57" s="50"/>
+      <c r="BJ57" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="BK57" s="45"/>
-      <c r="BL57" s="45"/>
-      <c r="BM57" s="45"/>
-      <c r="BN57" s="45" t="s">
+      <c r="BK57" s="50"/>
+      <c r="BL57" s="50"/>
+      <c r="BM57" s="50"/>
+      <c r="BN57" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="BO57" s="45"/>
-      <c r="BP57" s="45"/>
-      <c r="BQ57" s="45"/>
-      <c r="BR57" s="45" t="s">
+      <c r="BO57" s="50"/>
+      <c r="BP57" s="50"/>
+      <c r="BQ57" s="50"/>
+      <c r="BR57" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="BS57" s="45"/>
-      <c r="BT57" s="45"/>
-      <c r="BU57" s="45"/>
-      <c r="BV57" s="45" t="s">
+      <c r="BS57" s="50"/>
+      <c r="BT57" s="50"/>
+      <c r="BU57" s="50"/>
+      <c r="BV57" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="BW57" s="45"/>
-      <c r="BX57" s="45"/>
-      <c r="BY57" s="45"/>
-      <c r="BZ57" s="45" t="s">
+      <c r="BW57" s="50"/>
+      <c r="BX57" s="50"/>
+      <c r="BY57" s="50"/>
+      <c r="BZ57" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="CA57" s="45"/>
-      <c r="CB57" s="45"/>
-      <c r="CC57" s="45"/>
-      <c r="CD57" s="45" t="s">
+      <c r="CA57" s="50"/>
+      <c r="CB57" s="50"/>
+      <c r="CC57" s="50"/>
+      <c r="CD57" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="CE57" s="45"/>
-      <c r="CF57" s="45"/>
-      <c r="CG57" s="45"/>
+      <c r="CE57" s="50"/>
+      <c r="CF57" s="50"/>
+      <c r="CG57" s="50"/>
       <c r="CH57" s="29" t="s">
         <v>50</v>
       </c>
@@ -29366,10 +29429,11 @@
       </c>
       <c r="CQ57" s="31"/>
       <c r="CR57" s="31"/>
-      <c r="CS57" s="39"/>
-      <c r="CT57" s="31"/>
-      <c r="CU57" s="31"/>
+      <c r="CS57" s="31"/>
+      <c r="CT57" s="39"/>
+      <c r="CU57" s="39"/>
       <c r="CV57" s="39"/>
+      <c r="CW57" s="39"/>
     </row>
     <row r="58" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
@@ -29660,13 +29724,19 @@
       <c r="CR58" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="CS58" s="40"/>
+      <c r="CS58" s="40" t="s">
+        <v>8</v>
+      </c>
       <c r="CT58" s="40"/>
       <c r="CU58" s="40"/>
       <c r="CV58" s="40"/>
+      <c r="CW58" s="40"/>
     </row>
     <row r="59" spans="1:120" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
+      <c r="CT59" s="45"/>
+      <c r="CU59" s="45"/>
+      <c r="CV59" s="45"/>
     </row>
     <row r="60" spans="1:120" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
@@ -29955,13 +30025,15 @@
         <v>23.843214925016909</v>
       </c>
       <c r="CR60" s="41">
-        <v>4.1132634463676681</v>
-      </c>
-      <c r="CS60" s="41"/>
-      <c r="CT60" s="41"/>
-      <c r="CU60" s="41"/>
-      <c r="CV60" s="41"/>
-      <c r="CW60" s="9"/>
+        <v>4.1130521796848001</v>
+      </c>
+      <c r="CS60" s="41">
+        <v>5.1924205751719512</v>
+      </c>
+      <c r="CT60" s="46"/>
+      <c r="CU60" s="46"/>
+      <c r="CV60" s="46"/>
+      <c r="CW60" s="41"/>
       <c r="CX60" s="9"/>
       <c r="CY60" s="9"/>
       <c r="CZ60" s="9"/>
@@ -30269,13 +30341,15 @@
         <v>17.003972109576011</v>
       </c>
       <c r="CR61" s="41">
-        <v>14.687997623107947</v>
-      </c>
-      <c r="CS61" s="41"/>
-      <c r="CT61" s="41"/>
-      <c r="CU61" s="41"/>
-      <c r="CV61" s="41"/>
-      <c r="CW61" s="9"/>
+        <v>14.919656199426925</v>
+      </c>
+      <c r="CS61" s="41">
+        <v>6.1244817225129822</v>
+      </c>
+      <c r="CT61" s="46"/>
+      <c r="CU61" s="46"/>
+      <c r="CV61" s="46"/>
+      <c r="CW61" s="41"/>
       <c r="CX61" s="9"/>
       <c r="CY61" s="9"/>
       <c r="CZ61" s="9"/>
@@ -30583,13 +30657,15 @@
         <v>7.8409691072834704</v>
       </c>
       <c r="CR62" s="41">
-        <v>10.31239077660517</v>
-      </c>
-      <c r="CS62" s="41"/>
-      <c r="CT62" s="41"/>
-      <c r="CU62" s="41"/>
-      <c r="CV62" s="41"/>
-      <c r="CW62" s="9"/>
+        <v>9.7210543397988829</v>
+      </c>
+      <c r="CS62" s="41">
+        <v>12.931712016016789</v>
+      </c>
+      <c r="CT62" s="46"/>
+      <c r="CU62" s="46"/>
+      <c r="CV62" s="46"/>
+      <c r="CW62" s="41"/>
       <c r="CX62" s="9"/>
       <c r="CY62" s="9"/>
       <c r="CZ62" s="9"/>
@@ -30707,10 +30783,10 @@
       <c r="CQ63" s="42"/>
       <c r="CR63" s="42"/>
       <c r="CS63" s="42"/>
-      <c r="CT63" s="42"/>
-      <c r="CU63" s="42"/>
-      <c r="CV63" s="42"/>
-      <c r="CW63" s="9"/>
+      <c r="CT63" s="47"/>
+      <c r="CU63" s="47"/>
+      <c r="CV63" s="47"/>
+      <c r="CW63" s="42"/>
       <c r="CX63" s="9"/>
       <c r="CY63" s="9"/>
       <c r="CZ63" s="9"/>
@@ -31018,13 +31094,15 @@
         <v>18.609264357471361</v>
       </c>
       <c r="CR64" s="41">
-        <v>9.5206315531276573</v>
-      </c>
-      <c r="CS64" s="41"/>
-      <c r="CT64" s="41"/>
-      <c r="CU64" s="41"/>
-      <c r="CV64" s="41"/>
-      <c r="CW64" s="9"/>
+        <v>9.433080242656871</v>
+      </c>
+      <c r="CS64" s="41">
+        <v>7.9069960360413063</v>
+      </c>
+      <c r="CT64" s="46"/>
+      <c r="CU64" s="46"/>
+      <c r="CV64" s="46"/>
+      <c r="CW64" s="41"/>
       <c r="CX64" s="9"/>
       <c r="CY64" s="9"/>
       <c r="CZ64" s="9"/>
@@ -31143,9 +31221,10 @@
       <c r="CQ65" s="43"/>
       <c r="CR65" s="43"/>
       <c r="CS65" s="43"/>
-      <c r="CT65" s="43"/>
-      <c r="CU65" s="43"/>
-      <c r="CV65" s="43"/>
+      <c r="CT65" s="48"/>
+      <c r="CU65" s="48"/>
+      <c r="CV65" s="48"/>
+      <c r="CW65" s="43"/>
     </row>
     <row r="66" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
@@ -31245,10 +31324,10 @@
       <c r="CQ66" s="41"/>
       <c r="CR66" s="41"/>
       <c r="CS66" s="41"/>
-      <c r="CT66" s="41"/>
-      <c r="CU66" s="41"/>
-      <c r="CV66" s="41"/>
-      <c r="CW66" s="9"/>
+      <c r="CT66" s="46"/>
+      <c r="CU66" s="46"/>
+      <c r="CV66" s="46"/>
+      <c r="CW66" s="41"/>
       <c r="CX66" s="9"/>
       <c r="CY66" s="9"/>
       <c r="CZ66" s="9"/>
@@ -31556,13 +31635,15 @@
         <v>17.524089875830512</v>
       </c>
       <c r="CR67" s="41">
-        <v>9.6713984164769471</v>
-      </c>
-      <c r="CS67" s="41"/>
-      <c r="CT67" s="41"/>
-      <c r="CU67" s="41"/>
-      <c r="CV67" s="41"/>
-      <c r="CW67" s="9"/>
+        <v>9.608225113423984</v>
+      </c>
+      <c r="CS67" s="41">
+        <v>8.8580347947718678</v>
+      </c>
+      <c r="CT67" s="46"/>
+      <c r="CU67" s="46"/>
+      <c r="CV67" s="46"/>
+      <c r="CW67" s="41"/>
       <c r="CX67" s="9"/>
       <c r="CY67" s="9"/>
       <c r="CZ67" s="9"/>
@@ -31681,19 +31762,26 @@
       <c r="CQ68" s="37"/>
       <c r="CR68" s="37"/>
       <c r="CS68" s="37"/>
-      <c r="CT68" s="37"/>
-      <c r="CU68" s="37"/>
-      <c r="CV68" s="37"/>
+      <c r="CT68" s="32"/>
+      <c r="CU68" s="32"/>
+      <c r="CV68" s="32"/>
+      <c r="CW68" s="37"/>
     </row>
     <row r="69" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
         <v>28</v>
       </c>
+      <c r="CT69" s="45"/>
+      <c r="CU69" s="45"/>
+      <c r="CV69" s="45"/>
     </row>
     <row r="70" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="CT70" s="45"/>
+      <c r="CU70" s="45"/>
+      <c r="CV70" s="45"/>
     </row>
     <row r="71" spans="1:120" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="9"/>
@@ -31792,10 +31880,10 @@
       <c r="CQ71" s="34"/>
       <c r="CR71" s="34"/>
       <c r="CS71" s="34"/>
-      <c r="CT71" s="34"/>
-      <c r="CU71" s="34"/>
-      <c r="CV71" s="34"/>
-      <c r="CW71" s="9"/>
+      <c r="CT71" s="49"/>
+      <c r="CU71" s="49"/>
+      <c r="CV71" s="49"/>
+      <c r="CW71" s="34"/>
       <c r="CX71" s="9"/>
       <c r="CY71" s="9"/>
       <c r="CZ71" s="9"/>
@@ -31913,10 +32001,10 @@
       <c r="CQ72" s="34"/>
       <c r="CR72" s="34"/>
       <c r="CS72" s="34"/>
-      <c r="CT72" s="34"/>
-      <c r="CU72" s="34"/>
-      <c r="CV72" s="34"/>
-      <c r="CW72" s="9"/>
+      <c r="CT72" s="49"/>
+      <c r="CU72" s="49"/>
+      <c r="CV72" s="49"/>
+      <c r="CW72" s="34"/>
       <c r="CX72" s="9"/>
       <c r="CY72" s="9"/>
       <c r="CZ72" s="9"/>
@@ -31941,160 +32029,188 @@
       <c r="A73" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CT73" s="45"/>
+      <c r="CU73" s="45"/>
+      <c r="CV73" s="45"/>
     </row>
     <row r="74" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CT74" s="45"/>
+      <c r="CU74" s="45"/>
+      <c r="CV74" s="45"/>
     </row>
     <row r="75" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="CT75" s="45"/>
+      <c r="CU75" s="45"/>
+      <c r="CV75" s="45"/>
+    </row>
+    <row r="76" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="CT76" s="45"/>
+      <c r="CU76" s="45"/>
+      <c r="CV76" s="45"/>
     </row>
     <row r="77" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="CT77" s="45"/>
+      <c r="CU77" s="45"/>
+      <c r="CV77" s="45"/>
     </row>
     <row r="78" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="CT78" s="45"/>
+      <c r="CU78" s="45"/>
+      <c r="CV78" s="45"/>
     </row>
     <row r="79" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="CT79" s="45"/>
+      <c r="CU79" s="45"/>
+      <c r="CV79" s="45"/>
+    </row>
+    <row r="80" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="CT80" s="45"/>
+      <c r="CU80" s="45"/>
+      <c r="CV80" s="45"/>
     </row>
     <row r="81" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
-      <c r="B81" s="45" t="s">
+      <c r="B81" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="46"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="45" t="s">
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="G81" s="46"/>
-      <c r="H81" s="46"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="45" t="s">
+      <c r="G81" s="51"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="K81" s="46"/>
-      <c r="L81" s="46"/>
-      <c r="M81" s="46"/>
-      <c r="N81" s="45" t="s">
+      <c r="K81" s="51"/>
+      <c r="L81" s="51"/>
+      <c r="M81" s="51"/>
+      <c r="N81" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="O81" s="46"/>
-      <c r="P81" s="46"/>
-      <c r="Q81" s="46"/>
-      <c r="R81" s="45" t="s">
+      <c r="O81" s="51"/>
+      <c r="P81" s="51"/>
+      <c r="Q81" s="51"/>
+      <c r="R81" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="S81" s="46"/>
-      <c r="T81" s="46"/>
-      <c r="U81" s="46"/>
-      <c r="V81" s="45" t="s">
+      <c r="S81" s="51"/>
+      <c r="T81" s="51"/>
+      <c r="U81" s="51"/>
+      <c r="V81" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="W81" s="46"/>
-      <c r="X81" s="46"/>
-      <c r="Y81" s="46"/>
-      <c r="Z81" s="45" t="s">
+      <c r="W81" s="51"/>
+      <c r="X81" s="51"/>
+      <c r="Y81" s="51"/>
+      <c r="Z81" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AA81" s="46"/>
-      <c r="AB81" s="46"/>
-      <c r="AC81" s="46"/>
-      <c r="AD81" s="45" t="s">
+      <c r="AA81" s="51"/>
+      <c r="AB81" s="51"/>
+      <c r="AC81" s="51"/>
+      <c r="AD81" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="AE81" s="46"/>
-      <c r="AF81" s="46"/>
-      <c r="AG81" s="46"/>
-      <c r="AH81" s="45" t="s">
+      <c r="AE81" s="51"/>
+      <c r="AF81" s="51"/>
+      <c r="AG81" s="51"/>
+      <c r="AH81" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="AI81" s="46"/>
-      <c r="AJ81" s="46"/>
-      <c r="AK81" s="46"/>
-      <c r="AL81" s="45" t="s">
+      <c r="AI81" s="51"/>
+      <c r="AJ81" s="51"/>
+      <c r="AK81" s="51"/>
+      <c r="AL81" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="AM81" s="46"/>
-      <c r="AN81" s="46"/>
-      <c r="AO81" s="46"/>
-      <c r="AP81" s="45" t="s">
+      <c r="AM81" s="51"/>
+      <c r="AN81" s="51"/>
+      <c r="AO81" s="51"/>
+      <c r="AP81" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="AQ81" s="46"/>
-      <c r="AR81" s="46"/>
-      <c r="AS81" s="46"/>
-      <c r="AT81" s="45" t="s">
+      <c r="AQ81" s="51"/>
+      <c r="AR81" s="51"/>
+      <c r="AS81" s="51"/>
+      <c r="AT81" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="AU81" s="46"/>
-      <c r="AV81" s="46"/>
-      <c r="AW81" s="46"/>
-      <c r="AX81" s="45" t="s">
+      <c r="AU81" s="51"/>
+      <c r="AV81" s="51"/>
+      <c r="AW81" s="51"/>
+      <c r="AX81" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="AY81" s="46"/>
-      <c r="AZ81" s="46"/>
-      <c r="BA81" s="46"/>
-      <c r="BB81" s="45" t="s">
+      <c r="AY81" s="51"/>
+      <c r="AZ81" s="51"/>
+      <c r="BA81" s="51"/>
+      <c r="BB81" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="BC81" s="46"/>
-      <c r="BD81" s="46"/>
-      <c r="BE81" s="46"/>
-      <c r="BF81" s="45" t="s">
+      <c r="BC81" s="51"/>
+      <c r="BD81" s="51"/>
+      <c r="BE81" s="51"/>
+      <c r="BF81" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="BG81" s="46"/>
-      <c r="BH81" s="46"/>
-      <c r="BI81" s="46"/>
-      <c r="BJ81" s="45" t="s">
+      <c r="BG81" s="51"/>
+      <c r="BH81" s="51"/>
+      <c r="BI81" s="51"/>
+      <c r="BJ81" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="BK81" s="46"/>
-      <c r="BL81" s="46"/>
-      <c r="BM81" s="46"/>
-      <c r="BN81" s="45" t="s">
+      <c r="BK81" s="51"/>
+      <c r="BL81" s="51"/>
+      <c r="BM81" s="51"/>
+      <c r="BN81" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="BO81" s="46"/>
-      <c r="BP81" s="46"/>
-      <c r="BQ81" s="46"/>
-      <c r="BR81" s="45" t="s">
+      <c r="BO81" s="51"/>
+      <c r="BP81" s="51"/>
+      <c r="BQ81" s="51"/>
+      <c r="BR81" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="BS81" s="46"/>
-      <c r="BT81" s="46"/>
-      <c r="BU81" s="46"/>
-      <c r="BV81" s="45" t="s">
+      <c r="BS81" s="51"/>
+      <c r="BT81" s="51"/>
+      <c r="BU81" s="51"/>
+      <c r="BV81" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="BW81" s="45"/>
-      <c r="BX81" s="45"/>
-      <c r="BY81" s="45"/>
-      <c r="BZ81" s="45" t="s">
+      <c r="BW81" s="50"/>
+      <c r="BX81" s="50"/>
+      <c r="BY81" s="50"/>
+      <c r="BZ81" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="CA81" s="45"/>
-      <c r="CB81" s="45"/>
-      <c r="CC81" s="45"/>
-      <c r="CD81" s="45" t="s">
+      <c r="CA81" s="50"/>
+      <c r="CB81" s="50"/>
+      <c r="CC81" s="50"/>
+      <c r="CD81" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="CE81" s="45"/>
-      <c r="CF81" s="45"/>
-      <c r="CG81" s="45"/>
+      <c r="CE81" s="50"/>
+      <c r="CF81" s="50"/>
+      <c r="CG81" s="50"/>
       <c r="CH81" s="29" t="s">
         <v>50</v>
       </c>
@@ -32112,10 +32228,11 @@
       </c>
       <c r="CQ81" s="31"/>
       <c r="CR81" s="31"/>
-      <c r="CS81" s="39"/>
-      <c r="CT81" s="31"/>
-      <c r="CU81" s="31"/>
+      <c r="CS81" s="31"/>
+      <c r="CT81" s="39"/>
+      <c r="CU81" s="39"/>
       <c r="CV81" s="39"/>
+      <c r="CW81" s="39"/>
     </row>
     <row r="82" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
@@ -32406,13 +32523,19 @@
       <c r="CR82" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CS82" s="32"/>
+      <c r="CS82" s="32" t="s">
+        <v>8</v>
+      </c>
       <c r="CT82" s="32"/>
       <c r="CU82" s="32"/>
       <c r="CV82" s="32"/>
+      <c r="CW82" s="32"/>
     </row>
     <row r="83" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
+      <c r="CT83" s="45"/>
+      <c r="CU83" s="45"/>
+      <c r="CV83" s="45"/>
     </row>
     <row r="84" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
@@ -32701,13 +32824,15 @@
         <v>21.71569433472753</v>
       </c>
       <c r="CR84" s="41">
-        <v>3.7258198078016278</v>
-      </c>
-      <c r="CS84" s="41"/>
-      <c r="CT84" s="41"/>
-      <c r="CU84" s="41"/>
-      <c r="CV84" s="41"/>
-      <c r="CW84" s="9"/>
+        <v>3.7336636558014789</v>
+      </c>
+      <c r="CS84" s="41">
+        <v>4.8688419219940613</v>
+      </c>
+      <c r="CT84" s="46"/>
+      <c r="CU84" s="46"/>
+      <c r="CV84" s="46"/>
+      <c r="CW84" s="41"/>
       <c r="CX84" s="9"/>
       <c r="CY84" s="9"/>
       <c r="CZ84" s="9"/>
@@ -33015,13 +33140,15 @@
         <v>14.008168589283216</v>
       </c>
       <c r="CR85" s="41">
-        <v>13.922235697032704</v>
-      </c>
-      <c r="CS85" s="41"/>
-      <c r="CT85" s="41"/>
-      <c r="CU85" s="41"/>
-      <c r="CV85" s="41"/>
-      <c r="CW85" s="9"/>
+        <v>14.159542484244142</v>
+      </c>
+      <c r="CS85" s="41">
+        <v>5.7230596128297293</v>
+      </c>
+      <c r="CT85" s="46"/>
+      <c r="CU85" s="46"/>
+      <c r="CV85" s="46"/>
+      <c r="CW85" s="41"/>
       <c r="CX85" s="9"/>
       <c r="CY85" s="9"/>
       <c r="CZ85" s="9"/>
@@ -33329,13 +33456,15 @@
         <v>5.2757054074565275</v>
       </c>
       <c r="CR86" s="41">
-        <v>9.6204879595583606</v>
-      </c>
-      <c r="CS86" s="41"/>
-      <c r="CT86" s="41"/>
-      <c r="CU86" s="41"/>
-      <c r="CV86" s="41"/>
-      <c r="CW86" s="9"/>
+        <v>9.0394429007118191</v>
+      </c>
+      <c r="CS86" s="41">
+        <v>12.792916874366384</v>
+      </c>
+      <c r="CT86" s="46"/>
+      <c r="CU86" s="46"/>
+      <c r="CV86" s="46"/>
+      <c r="CW86" s="41"/>
       <c r="CX86" s="9"/>
       <c r="CY86" s="9"/>
       <c r="CZ86" s="9"/>
@@ -33453,10 +33582,10 @@
       <c r="CQ87" s="42"/>
       <c r="CR87" s="42"/>
       <c r="CS87" s="42"/>
-      <c r="CT87" s="42"/>
-      <c r="CU87" s="42"/>
-      <c r="CV87" s="42"/>
-      <c r="CW87" s="9"/>
+      <c r="CT87" s="47"/>
+      <c r="CU87" s="47"/>
+      <c r="CV87" s="47"/>
+      <c r="CW87" s="42"/>
       <c r="CX87" s="9"/>
       <c r="CY87" s="9"/>
       <c r="CZ87" s="9"/>
@@ -33764,13 +33893,15 @@
         <v>16.202239396099614</v>
       </c>
       <c r="CR88" s="41">
-        <v>8.8521722213070575</v>
-      </c>
-      <c r="CS88" s="41"/>
-      <c r="CT88" s="41"/>
-      <c r="CU88" s="41"/>
-      <c r="CV88" s="41"/>
-      <c r="CW88" s="9"/>
+        <v>8.7677638851832285</v>
+      </c>
+      <c r="CS88" s="41">
+        <v>7.7724812556025995</v>
+      </c>
+      <c r="CT88" s="46"/>
+      <c r="CU88" s="46"/>
+      <c r="CV88" s="46"/>
+      <c r="CW88" s="41"/>
       <c r="CX88" s="9"/>
       <c r="CY88" s="9"/>
       <c r="CZ88" s="9"/>
@@ -33889,9 +34020,10 @@
       <c r="CQ89" s="43"/>
       <c r="CR89" s="43"/>
       <c r="CS89" s="43"/>
-      <c r="CT89" s="43"/>
-      <c r="CU89" s="43"/>
-      <c r="CV89" s="43"/>
+      <c r="CT89" s="48"/>
+      <c r="CU89" s="48"/>
+      <c r="CV89" s="48"/>
+      <c r="CW89" s="43"/>
     </row>
     <row r="90" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
@@ -33991,10 +34123,10 @@
       <c r="CQ90" s="41"/>
       <c r="CR90" s="41"/>
       <c r="CS90" s="41"/>
-      <c r="CT90" s="41"/>
-      <c r="CU90" s="41"/>
-      <c r="CV90" s="41"/>
-      <c r="CW90" s="9"/>
+      <c r="CT90" s="46"/>
+      <c r="CU90" s="46"/>
+      <c r="CV90" s="46"/>
+      <c r="CW90" s="41"/>
       <c r="CX90" s="9"/>
       <c r="CY90" s="9"/>
       <c r="CZ90" s="9"/>
@@ -34302,13 +34434,15 @@
         <v>16.082254141721435</v>
       </c>
       <c r="CR91" s="41">
-        <v>9.0451211046609359</v>
-      </c>
-      <c r="CS91" s="41"/>
-      <c r="CT91" s="41"/>
-      <c r="CU91" s="41"/>
-      <c r="CV91" s="41"/>
-      <c r="CW91" s="9"/>
+        <v>9.0050640170679515</v>
+      </c>
+      <c r="CS91" s="41">
+        <v>7.8250718268217554</v>
+      </c>
+      <c r="CT91" s="46"/>
+      <c r="CU91" s="46"/>
+      <c r="CV91" s="46"/>
+      <c r="CW91" s="41"/>
       <c r="CX91" s="9"/>
       <c r="CY91" s="9"/>
       <c r="CZ91" s="9"/>
@@ -34427,19 +34561,26 @@
       <c r="CQ92" s="37"/>
       <c r="CR92" s="37"/>
       <c r="CS92" s="37"/>
-      <c r="CT92" s="37"/>
-      <c r="CU92" s="37"/>
-      <c r="CV92" s="37"/>
+      <c r="CT92" s="32"/>
+      <c r="CU92" s="32"/>
+      <c r="CV92" s="32"/>
+      <c r="CW92" s="37"/>
     </row>
     <row r="93" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
         <v>28</v>
       </c>
+      <c r="CT93" s="45"/>
+      <c r="CU93" s="45"/>
+      <c r="CV93" s="45"/>
     </row>
     <row r="94" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="CT94" s="45"/>
+      <c r="CU94" s="45"/>
+      <c r="CV94" s="45"/>
     </row>
     <row r="95" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="9"/>
@@ -34538,10 +34679,10 @@
       <c r="CQ95" s="34"/>
       <c r="CR95" s="34"/>
       <c r="CS95" s="34"/>
-      <c r="CT95" s="34"/>
-      <c r="CU95" s="34"/>
-      <c r="CV95" s="34"/>
-      <c r="CW95" s="9"/>
+      <c r="CT95" s="49"/>
+      <c r="CU95" s="49"/>
+      <c r="CV95" s="49"/>
+      <c r="CW95" s="34"/>
       <c r="CX95" s="9"/>
       <c r="CY95" s="9"/>
       <c r="CZ95" s="9"/>
@@ -34667,10 +34808,10 @@
       <c r="CQ96" s="34"/>
       <c r="CR96" s="34"/>
       <c r="CS96" s="34"/>
-      <c r="CT96" s="34"/>
-      <c r="CU96" s="34"/>
-      <c r="CV96" s="34"/>
-      <c r="CW96" s="9"/>
+      <c r="CT96" s="49"/>
+      <c r="CU96" s="49"/>
+      <c r="CV96" s="49"/>
+      <c r="CW96" s="34"/>
       <c r="CX96" s="9"/>
       <c r="CY96" s="9"/>
       <c r="CZ96" s="9"/>
@@ -34703,11 +34844,17 @@
       <c r="A97" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CT97" s="45"/>
+      <c r="CU97" s="45"/>
+      <c r="CV97" s="45"/>
     </row>
     <row r="98" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="CT98" s="45"/>
+      <c r="CU98" s="45"/>
+      <c r="CV98" s="45"/>
     </row>
     <row r="100" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
@@ -34716,7 +34863,7 @@
     </row>
     <row r="101" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:128" x14ac:dyDescent="0.2">
@@ -34726,132 +34873,132 @@
     </row>
     <row r="104" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
-      <c r="B104" s="45">
+      <c r="B104" s="50">
         <v>2000</v>
       </c>
-      <c r="C104" s="46"/>
-      <c r="D104" s="46"/>
-      <c r="E104" s="46"/>
-      <c r="F104" s="45">
+      <c r="C104" s="51"/>
+      <c r="D104" s="51"/>
+      <c r="E104" s="51"/>
+      <c r="F104" s="50">
         <v>2001</v>
       </c>
-      <c r="G104" s="46"/>
-      <c r="H104" s="46"/>
-      <c r="I104" s="46"/>
-      <c r="J104" s="45">
+      <c r="G104" s="51"/>
+      <c r="H104" s="51"/>
+      <c r="I104" s="51"/>
+      <c r="J104" s="50">
         <v>2002</v>
       </c>
-      <c r="K104" s="46"/>
-      <c r="L104" s="46"/>
-      <c r="M104" s="46"/>
-      <c r="N104" s="45">
+      <c r="K104" s="51"/>
+      <c r="L104" s="51"/>
+      <c r="M104" s="51"/>
+      <c r="N104" s="50">
         <v>2003</v>
       </c>
-      <c r="O104" s="46"/>
-      <c r="P104" s="46"/>
-      <c r="Q104" s="46"/>
-      <c r="R104" s="45">
+      <c r="O104" s="51"/>
+      <c r="P104" s="51"/>
+      <c r="Q104" s="51"/>
+      <c r="R104" s="50">
         <v>2004</v>
       </c>
-      <c r="S104" s="46"/>
-      <c r="T104" s="46"/>
-      <c r="U104" s="46"/>
-      <c r="V104" s="45">
+      <c r="S104" s="51"/>
+      <c r="T104" s="51"/>
+      <c r="U104" s="51"/>
+      <c r="V104" s="50">
         <v>2005</v>
       </c>
-      <c r="W104" s="46"/>
-      <c r="X104" s="46"/>
-      <c r="Y104" s="46"/>
-      <c r="Z104" s="45">
+      <c r="W104" s="51"/>
+      <c r="X104" s="51"/>
+      <c r="Y104" s="51"/>
+      <c r="Z104" s="50">
         <v>2006</v>
       </c>
-      <c r="AA104" s="46"/>
-      <c r="AB104" s="46"/>
-      <c r="AC104" s="46"/>
-      <c r="AD104" s="45">
+      <c r="AA104" s="51"/>
+      <c r="AB104" s="51"/>
+      <c r="AC104" s="51"/>
+      <c r="AD104" s="50">
         <v>2007</v>
       </c>
-      <c r="AE104" s="46"/>
-      <c r="AF104" s="46"/>
-      <c r="AG104" s="46"/>
-      <c r="AH104" s="45">
+      <c r="AE104" s="51"/>
+      <c r="AF104" s="51"/>
+      <c r="AG104" s="51"/>
+      <c r="AH104" s="50">
         <v>2008</v>
       </c>
-      <c r="AI104" s="46"/>
-      <c r="AJ104" s="46"/>
-      <c r="AK104" s="46"/>
-      <c r="AL104" s="45">
+      <c r="AI104" s="51"/>
+      <c r="AJ104" s="51"/>
+      <c r="AK104" s="51"/>
+      <c r="AL104" s="50">
         <v>2009</v>
       </c>
-      <c r="AM104" s="46"/>
-      <c r="AN104" s="46"/>
-      <c r="AO104" s="46"/>
-      <c r="AP104" s="45">
+      <c r="AM104" s="51"/>
+      <c r="AN104" s="51"/>
+      <c r="AO104" s="51"/>
+      <c r="AP104" s="50">
         <v>2010</v>
       </c>
-      <c r="AQ104" s="46"/>
-      <c r="AR104" s="46"/>
-      <c r="AS104" s="46"/>
-      <c r="AT104" s="45">
+      <c r="AQ104" s="51"/>
+      <c r="AR104" s="51"/>
+      <c r="AS104" s="51"/>
+      <c r="AT104" s="50">
         <v>2011</v>
       </c>
-      <c r="AU104" s="46"/>
-      <c r="AV104" s="46"/>
-      <c r="AW104" s="46"/>
-      <c r="AX104" s="45">
+      <c r="AU104" s="51"/>
+      <c r="AV104" s="51"/>
+      <c r="AW104" s="51"/>
+      <c r="AX104" s="50">
         <v>2012</v>
       </c>
-      <c r="AY104" s="46"/>
-      <c r="AZ104" s="46"/>
-      <c r="BA104" s="46"/>
-      <c r="BB104" s="45">
+      <c r="AY104" s="51"/>
+      <c r="AZ104" s="51"/>
+      <c r="BA104" s="51"/>
+      <c r="BB104" s="50">
         <v>2013</v>
       </c>
-      <c r="BC104" s="46"/>
-      <c r="BD104" s="46"/>
-      <c r="BE104" s="46"/>
-      <c r="BF104" s="45">
+      <c r="BC104" s="51"/>
+      <c r="BD104" s="51"/>
+      <c r="BE104" s="51"/>
+      <c r="BF104" s="50">
         <v>2014</v>
       </c>
-      <c r="BG104" s="46"/>
-      <c r="BH104" s="46"/>
-      <c r="BI104" s="46"/>
-      <c r="BJ104" s="45">
+      <c r="BG104" s="51"/>
+      <c r="BH104" s="51"/>
+      <c r="BI104" s="51"/>
+      <c r="BJ104" s="50">
         <v>2015</v>
       </c>
-      <c r="BK104" s="46"/>
-      <c r="BL104" s="46"/>
-      <c r="BM104" s="46"/>
-      <c r="BN104" s="45">
+      <c r="BK104" s="51"/>
+      <c r="BL104" s="51"/>
+      <c r="BM104" s="51"/>
+      <c r="BN104" s="50">
         <v>2016</v>
       </c>
-      <c r="BO104" s="46"/>
-      <c r="BP104" s="46"/>
-      <c r="BQ104" s="46"/>
-      <c r="BR104" s="45">
+      <c r="BO104" s="51"/>
+      <c r="BP104" s="51"/>
+      <c r="BQ104" s="51"/>
+      <c r="BR104" s="50">
         <v>2017</v>
       </c>
-      <c r="BS104" s="46"/>
-      <c r="BT104" s="46"/>
-      <c r="BU104" s="46"/>
-      <c r="BV104" s="45">
+      <c r="BS104" s="51"/>
+      <c r="BT104" s="51"/>
+      <c r="BU104" s="51"/>
+      <c r="BV104" s="50">
         <v>2018</v>
       </c>
-      <c r="BW104" s="45"/>
-      <c r="BX104" s="45"/>
-      <c r="BY104" s="45"/>
-      <c r="BZ104" s="45">
+      <c r="BW104" s="50"/>
+      <c r="BX104" s="50"/>
+      <c r="BY104" s="50"/>
+      <c r="BZ104" s="50">
         <v>2019</v>
       </c>
-      <c r="CA104" s="45"/>
-      <c r="CB104" s="45"/>
-      <c r="CC104" s="45"/>
-      <c r="CD104" s="45">
+      <c r="CA104" s="50"/>
+      <c r="CB104" s="50"/>
+      <c r="CC104" s="50"/>
+      <c r="CD104" s="50">
         <v>2020</v>
       </c>
-      <c r="CE104" s="45"/>
-      <c r="CF104" s="45"/>
-      <c r="CG104" s="45"/>
+      <c r="CE104" s="50"/>
+      <c r="CF104" s="50"/>
+      <c r="CG104" s="50"/>
       <c r="CH104" s="29">
         <v>2021</v>
       </c>
@@ -34875,6 +35022,7 @@
       </c>
       <c r="CU104" s="31"/>
       <c r="CV104" s="31"/>
+      <c r="CW104" s="31"/>
     </row>
     <row r="105" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
@@ -35176,6 +35324,9 @@
       </c>
       <c r="CV105" s="32" t="s">
         <v>9</v>
+      </c>
+      <c r="CW105" s="32" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35480,9 +35631,11 @@
         <v>120.64519182059186</v>
       </c>
       <c r="CV107" s="44">
-        <v>127.04774678783382</v>
-      </c>
-      <c r="CW107" s="9"/>
+        <v>127.03788225351144</v>
+      </c>
+      <c r="CW107" s="44">
+        <v>115.96052050611208</v>
+      </c>
       <c r="CX107" s="9"/>
       <c r="CY107" s="9"/>
       <c r="CZ107" s="9"/>
@@ -35810,9 +35963,11 @@
         <v>117.89445656535182</v>
       </c>
       <c r="CV108" s="44">
-        <v>132.34318148103782</v>
-      </c>
-      <c r="CW108" s="9"/>
+        <v>132.33484047066923</v>
+      </c>
+      <c r="CW108" s="44">
+        <v>121.06639877017895</v>
+      </c>
       <c r="CX108" s="9"/>
       <c r="CY108" s="9"/>
       <c r="CZ108" s="9"/>
@@ -36140,9 +36295,11 @@
         <v>124.8799969981895</v>
       </c>
       <c r="CV109" s="44">
-        <v>126.84509237211532</v>
-      </c>
-      <c r="CW109" s="9"/>
+        <v>126.83743510768389</v>
+      </c>
+      <c r="CW109" s="44">
+        <v>106.99522517372333</v>
+      </c>
       <c r="CX109" s="9"/>
       <c r="CY109" s="9"/>
       <c r="CZ109" s="9"/>
@@ -36271,7 +36428,7 @@
       <c r="CT110" s="34"/>
       <c r="CU110" s="34"/>
       <c r="CV110" s="34"/>
-      <c r="CW110" s="9"/>
+      <c r="CW110" s="34"/>
       <c r="CX110" s="9"/>
       <c r="CY110" s="9"/>
       <c r="CZ110" s="9"/>
@@ -36599,9 +36756,11 @@
         <v>120.69950323573802</v>
       </c>
       <c r="CV111" s="44">
-        <v>128.8534600168324</v>
-      </c>
-      <c r="CW111" s="9"/>
+        <v>128.85036969170281</v>
+      </c>
+      <c r="CW111" s="44">
+        <v>114.26830654697224</v>
+      </c>
       <c r="CX111" s="9"/>
       <c r="CY111" s="9"/>
       <c r="CZ111" s="9"/>
@@ -36731,6 +36890,7 @@
       <c r="CT112" s="36"/>
       <c r="CU112" s="36"/>
       <c r="CV112" s="36"/>
+      <c r="CW112" s="36"/>
     </row>
     <row r="113" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
@@ -36833,7 +36993,7 @@
       <c r="CT113" s="35"/>
       <c r="CU113" s="35"/>
       <c r="CV113" s="35"/>
-      <c r="CW113" s="9"/>
+      <c r="CW113" s="35"/>
       <c r="CX113" s="9"/>
       <c r="CY113" s="9"/>
       <c r="CZ113" s="9"/>
@@ -37161,9 +37321,11 @@
         <v>133.40951945529594</v>
       </c>
       <c r="CV114" s="44">
-        <v>121.58138133673052</v>
-      </c>
-      <c r="CW114" s="9"/>
+        <v>121.55600048957696</v>
+      </c>
+      <c r="CW114" s="44">
+        <v>114.43914110970779</v>
+      </c>
       <c r="CX114" s="9"/>
       <c r="CY114" s="9"/>
       <c r="CZ114" s="9"/>
@@ -37293,6 +37455,7 @@
       <c r="CT115" s="37"/>
       <c r="CU115" s="37"/>
       <c r="CV115" s="37"/>
+      <c r="CW115" s="37"/>
     </row>
     <row r="116" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
@@ -37316,7 +37479,7 @@
     </row>
     <row r="122" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="1:128" x14ac:dyDescent="0.2">
@@ -37326,7 +37489,7 @@
     </row>
     <row r="125" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126" spans="1:128" x14ac:dyDescent="0.2">
@@ -37336,132 +37499,132 @@
     </row>
     <row r="128" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
-      <c r="B128" s="45">
+      <c r="B128" s="50">
         <v>2000</v>
       </c>
-      <c r="C128" s="46"/>
-      <c r="D128" s="46"/>
-      <c r="E128" s="46"/>
-      <c r="F128" s="45">
+      <c r="C128" s="51"/>
+      <c r="D128" s="51"/>
+      <c r="E128" s="51"/>
+      <c r="F128" s="50">
         <v>2001</v>
       </c>
-      <c r="G128" s="46"/>
-      <c r="H128" s="46"/>
-      <c r="I128" s="46"/>
-      <c r="J128" s="45">
+      <c r="G128" s="51"/>
+      <c r="H128" s="51"/>
+      <c r="I128" s="51"/>
+      <c r="J128" s="50">
         <v>2002</v>
       </c>
-      <c r="K128" s="46"/>
-      <c r="L128" s="46"/>
-      <c r="M128" s="46"/>
-      <c r="N128" s="45">
+      <c r="K128" s="51"/>
+      <c r="L128" s="51"/>
+      <c r="M128" s="51"/>
+      <c r="N128" s="50">
         <v>2003</v>
       </c>
-      <c r="O128" s="46"/>
-      <c r="P128" s="46"/>
-      <c r="Q128" s="46"/>
-      <c r="R128" s="45">
+      <c r="O128" s="51"/>
+      <c r="P128" s="51"/>
+      <c r="Q128" s="51"/>
+      <c r="R128" s="50">
         <v>2004</v>
       </c>
-      <c r="S128" s="46"/>
-      <c r="T128" s="46"/>
-      <c r="U128" s="46"/>
-      <c r="V128" s="45">
+      <c r="S128" s="51"/>
+      <c r="T128" s="51"/>
+      <c r="U128" s="51"/>
+      <c r="V128" s="50">
         <v>2005</v>
       </c>
-      <c r="W128" s="46"/>
-      <c r="X128" s="46"/>
-      <c r="Y128" s="46"/>
-      <c r="Z128" s="45">
+      <c r="W128" s="51"/>
+      <c r="X128" s="51"/>
+      <c r="Y128" s="51"/>
+      <c r="Z128" s="50">
         <v>2006</v>
       </c>
-      <c r="AA128" s="46"/>
-      <c r="AB128" s="46"/>
-      <c r="AC128" s="46"/>
-      <c r="AD128" s="45">
+      <c r="AA128" s="51"/>
+      <c r="AB128" s="51"/>
+      <c r="AC128" s="51"/>
+      <c r="AD128" s="50">
         <v>2007</v>
       </c>
-      <c r="AE128" s="46"/>
-      <c r="AF128" s="46"/>
-      <c r="AG128" s="46"/>
-      <c r="AH128" s="45">
+      <c r="AE128" s="51"/>
+      <c r="AF128" s="51"/>
+      <c r="AG128" s="51"/>
+      <c r="AH128" s="50">
         <v>2008</v>
       </c>
-      <c r="AI128" s="46"/>
-      <c r="AJ128" s="46"/>
-      <c r="AK128" s="46"/>
-      <c r="AL128" s="45">
+      <c r="AI128" s="51"/>
+      <c r="AJ128" s="51"/>
+      <c r="AK128" s="51"/>
+      <c r="AL128" s="50">
         <v>2009</v>
       </c>
-      <c r="AM128" s="46"/>
-      <c r="AN128" s="46"/>
-      <c r="AO128" s="46"/>
-      <c r="AP128" s="45">
+      <c r="AM128" s="51"/>
+      <c r="AN128" s="51"/>
+      <c r="AO128" s="51"/>
+      <c r="AP128" s="50">
         <v>2010</v>
       </c>
-      <c r="AQ128" s="46"/>
-      <c r="AR128" s="46"/>
-      <c r="AS128" s="46"/>
-      <c r="AT128" s="45">
+      <c r="AQ128" s="51"/>
+      <c r="AR128" s="51"/>
+      <c r="AS128" s="51"/>
+      <c r="AT128" s="50">
         <v>2011</v>
       </c>
-      <c r="AU128" s="46"/>
-      <c r="AV128" s="46"/>
-      <c r="AW128" s="46"/>
-      <c r="AX128" s="45">
+      <c r="AU128" s="51"/>
+      <c r="AV128" s="51"/>
+      <c r="AW128" s="51"/>
+      <c r="AX128" s="50">
         <v>2012</v>
       </c>
-      <c r="AY128" s="46"/>
-      <c r="AZ128" s="46"/>
-      <c r="BA128" s="46"/>
-      <c r="BB128" s="45">
+      <c r="AY128" s="51"/>
+      <c r="AZ128" s="51"/>
+      <c r="BA128" s="51"/>
+      <c r="BB128" s="50">
         <v>2013</v>
       </c>
-      <c r="BC128" s="46"/>
-      <c r="BD128" s="46"/>
-      <c r="BE128" s="46"/>
-      <c r="BF128" s="45">
+      <c r="BC128" s="51"/>
+      <c r="BD128" s="51"/>
+      <c r="BE128" s="51"/>
+      <c r="BF128" s="50">
         <v>2014</v>
       </c>
-      <c r="BG128" s="46"/>
-      <c r="BH128" s="46"/>
-      <c r="BI128" s="46"/>
-      <c r="BJ128" s="45">
+      <c r="BG128" s="51"/>
+      <c r="BH128" s="51"/>
+      <c r="BI128" s="51"/>
+      <c r="BJ128" s="50">
         <v>2015</v>
       </c>
-      <c r="BK128" s="46"/>
-      <c r="BL128" s="46"/>
-      <c r="BM128" s="46"/>
-      <c r="BN128" s="45">
+      <c r="BK128" s="51"/>
+      <c r="BL128" s="51"/>
+      <c r="BM128" s="51"/>
+      <c r="BN128" s="50">
         <v>2016</v>
       </c>
-      <c r="BO128" s="46"/>
-      <c r="BP128" s="46"/>
-      <c r="BQ128" s="46"/>
-      <c r="BR128" s="45">
+      <c r="BO128" s="51"/>
+      <c r="BP128" s="51"/>
+      <c r="BQ128" s="51"/>
+      <c r="BR128" s="50">
         <v>2017</v>
       </c>
-      <c r="BS128" s="46"/>
-      <c r="BT128" s="46"/>
-      <c r="BU128" s="46"/>
-      <c r="BV128" s="45">
+      <c r="BS128" s="51"/>
+      <c r="BT128" s="51"/>
+      <c r="BU128" s="51"/>
+      <c r="BV128" s="50">
         <v>2018</v>
       </c>
-      <c r="BW128" s="45"/>
-      <c r="BX128" s="45"/>
-      <c r="BY128" s="45"/>
-      <c r="BZ128" s="45">
+      <c r="BW128" s="50"/>
+      <c r="BX128" s="50"/>
+      <c r="BY128" s="50"/>
+      <c r="BZ128" s="50">
         <v>2019</v>
       </c>
-      <c r="CA128" s="45"/>
-      <c r="CB128" s="45"/>
-      <c r="CC128" s="45"/>
-      <c r="CD128" s="45">
+      <c r="CA128" s="50"/>
+      <c r="CB128" s="50"/>
+      <c r="CC128" s="50"/>
+      <c r="CD128" s="50">
         <v>2020</v>
       </c>
-      <c r="CE128" s="45"/>
-      <c r="CF128" s="45"/>
-      <c r="CG128" s="45"/>
+      <c r="CE128" s="50"/>
+      <c r="CF128" s="50"/>
+      <c r="CG128" s="50"/>
       <c r="CH128" s="29">
         <v>2021</v>
       </c>
@@ -37485,6 +37648,7 @@
       </c>
       <c r="CU128" s="31"/>
       <c r="CV128" s="31"/>
+      <c r="CW128" s="31"/>
     </row>
     <row r="129" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -37786,6 +37950,9 @@
       </c>
       <c r="CV129" s="32" t="s">
         <v>9</v>
+      </c>
+      <c r="CW129" s="32" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38090,9 +38257,11 @@
         <v>54.346892759552375</v>
       </c>
       <c r="CV131" s="44">
-        <v>35.312644836970684</v>
-      </c>
-      <c r="CW131" s="9"/>
+        <v>35.340824802907548</v>
+      </c>
+      <c r="CW131" s="44">
+        <v>37.011441903741542</v>
+      </c>
       <c r="CX131" s="9"/>
       <c r="CY131" s="9"/>
       <c r="CZ131" s="9"/>
@@ -38420,9 +38589,11 @@
         <v>26.258937999284171</v>
       </c>
       <c r="CV132" s="44">
-        <v>36.161920117818028</v>
-      </c>
-      <c r="CW132" s="9"/>
+        <v>36.26395324729134</v>
+      </c>
+      <c r="CW132" s="44">
+        <v>30.14308304356237</v>
+      </c>
       <c r="CX132" s="9"/>
       <c r="CY132" s="9"/>
       <c r="CZ132" s="9"/>
@@ -38750,9 +38921,11 @@
         <v>19.394169241163453</v>
       </c>
       <c r="CV133" s="44">
-        <v>28.525435045211299</v>
-      </c>
-      <c r="CW133" s="9"/>
+        <v>28.395221949801119</v>
+      </c>
+      <c r="CW133" s="44">
+        <v>32.845475052696102</v>
+      </c>
       <c r="CX133" s="9"/>
       <c r="CY133" s="9"/>
       <c r="CZ133" s="9"/>
@@ -38881,7 +39054,7 @@
       <c r="CT134" s="34"/>
       <c r="CU134" s="34"/>
       <c r="CV134" s="34"/>
-      <c r="CW134" s="9"/>
+      <c r="CW134" s="34"/>
       <c r="CX134" s="9"/>
       <c r="CY134" s="9"/>
       <c r="CZ134" s="9"/>
@@ -39211,7 +39384,9 @@
       <c r="CV135" s="44">
         <v>100</v>
       </c>
-      <c r="CW135" s="9"/>
+      <c r="CW135" s="44">
+        <v>100</v>
+      </c>
       <c r="CX135" s="9"/>
       <c r="CY135" s="9"/>
       <c r="CZ135" s="9"/>
@@ -39341,6 +39516,7 @@
       <c r="CT136" s="36"/>
       <c r="CU136" s="36"/>
       <c r="CV136" s="36"/>
+      <c r="CW136" s="36"/>
     </row>
     <row r="137" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
@@ -39443,7 +39619,7 @@
       <c r="CT137" s="35"/>
       <c r="CU137" s="35"/>
       <c r="CV137" s="35"/>
-      <c r="CW137" s="9"/>
+      <c r="CW137" s="35"/>
       <c r="CX137" s="9"/>
       <c r="CY137" s="9"/>
       <c r="CZ137" s="9"/>
@@ -39573,7 +39749,7 @@
       <c r="CT138" s="35"/>
       <c r="CU138" s="35"/>
       <c r="CV138" s="35"/>
-      <c r="CW138" s="9"/>
+      <c r="CW138" s="35"/>
       <c r="CX138" s="9"/>
       <c r="CY138" s="9"/>
       <c r="CZ138" s="9"/>
@@ -39703,6 +39879,7 @@
       <c r="CT139" s="37"/>
       <c r="CU139" s="37"/>
       <c r="CV139" s="37"/>
+      <c r="CW139" s="37"/>
     </row>
     <row r="140" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
@@ -39814,7 +39991,7 @@
       <c r="CT142" s="34"/>
       <c r="CU142" s="34"/>
       <c r="CV142" s="34"/>
-      <c r="CW142" s="9"/>
+      <c r="CW142" s="34"/>
       <c r="CX142" s="9"/>
       <c r="CY142" s="9"/>
       <c r="CZ142" s="9"/>
@@ -39943,7 +40120,7 @@
       <c r="CT143" s="34"/>
       <c r="CU143" s="34"/>
       <c r="CV143" s="34"/>
-      <c r="CW143" s="9"/>
+      <c r="CW143" s="34"/>
       <c r="CX143" s="9"/>
       <c r="CY143" s="9"/>
       <c r="CZ143" s="9"/>
@@ -39984,7 +40161,7 @@
     </row>
     <row r="146" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="148" spans="1:128" x14ac:dyDescent="0.2">
@@ -39994,7 +40171,7 @@
     </row>
     <row r="149" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="150" spans="1:128" x14ac:dyDescent="0.2">
@@ -40004,132 +40181,132 @@
     </row>
     <row r="152" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
-      <c r="B152" s="45">
+      <c r="B152" s="50">
         <v>2000</v>
       </c>
-      <c r="C152" s="46"/>
-      <c r="D152" s="46"/>
-      <c r="E152" s="46"/>
-      <c r="F152" s="45">
+      <c r="C152" s="51"/>
+      <c r="D152" s="51"/>
+      <c r="E152" s="51"/>
+      <c r="F152" s="50">
         <v>2001</v>
       </c>
-      <c r="G152" s="46"/>
-      <c r="H152" s="46"/>
-      <c r="I152" s="46"/>
-      <c r="J152" s="45">
+      <c r="G152" s="51"/>
+      <c r="H152" s="51"/>
+      <c r="I152" s="51"/>
+      <c r="J152" s="50">
         <v>2002</v>
       </c>
-      <c r="K152" s="46"/>
-      <c r="L152" s="46"/>
-      <c r="M152" s="46"/>
-      <c r="N152" s="45">
+      <c r="K152" s="51"/>
+      <c r="L152" s="51"/>
+      <c r="M152" s="51"/>
+      <c r="N152" s="50">
         <v>2003</v>
       </c>
-      <c r="O152" s="46"/>
-      <c r="P152" s="46"/>
-      <c r="Q152" s="46"/>
-      <c r="R152" s="45">
+      <c r="O152" s="51"/>
+      <c r="P152" s="51"/>
+      <c r="Q152" s="51"/>
+      <c r="R152" s="50">
         <v>2004</v>
       </c>
-      <c r="S152" s="46"/>
-      <c r="T152" s="46"/>
-      <c r="U152" s="46"/>
-      <c r="V152" s="45">
+      <c r="S152" s="51"/>
+      <c r="T152" s="51"/>
+      <c r="U152" s="51"/>
+      <c r="V152" s="50">
         <v>2005</v>
       </c>
-      <c r="W152" s="46"/>
-      <c r="X152" s="46"/>
-      <c r="Y152" s="46"/>
-      <c r="Z152" s="45">
+      <c r="W152" s="51"/>
+      <c r="X152" s="51"/>
+      <c r="Y152" s="51"/>
+      <c r="Z152" s="50">
         <v>2006</v>
       </c>
-      <c r="AA152" s="46"/>
-      <c r="AB152" s="46"/>
-      <c r="AC152" s="46"/>
-      <c r="AD152" s="45">
+      <c r="AA152" s="51"/>
+      <c r="AB152" s="51"/>
+      <c r="AC152" s="51"/>
+      <c r="AD152" s="50">
         <v>2007</v>
       </c>
-      <c r="AE152" s="46"/>
-      <c r="AF152" s="46"/>
-      <c r="AG152" s="46"/>
-      <c r="AH152" s="45">
+      <c r="AE152" s="51"/>
+      <c r="AF152" s="51"/>
+      <c r="AG152" s="51"/>
+      <c r="AH152" s="50">
         <v>2008</v>
       </c>
-      <c r="AI152" s="46"/>
-      <c r="AJ152" s="46"/>
-      <c r="AK152" s="46"/>
-      <c r="AL152" s="45">
+      <c r="AI152" s="51"/>
+      <c r="AJ152" s="51"/>
+      <c r="AK152" s="51"/>
+      <c r="AL152" s="50">
         <v>2009</v>
       </c>
-      <c r="AM152" s="46"/>
-      <c r="AN152" s="46"/>
-      <c r="AO152" s="46"/>
-      <c r="AP152" s="45">
+      <c r="AM152" s="51"/>
+      <c r="AN152" s="51"/>
+      <c r="AO152" s="51"/>
+      <c r="AP152" s="50">
         <v>2010</v>
       </c>
-      <c r="AQ152" s="46"/>
-      <c r="AR152" s="46"/>
-      <c r="AS152" s="46"/>
-      <c r="AT152" s="45">
+      <c r="AQ152" s="51"/>
+      <c r="AR152" s="51"/>
+      <c r="AS152" s="51"/>
+      <c r="AT152" s="50">
         <v>2011</v>
       </c>
-      <c r="AU152" s="46"/>
-      <c r="AV152" s="46"/>
-      <c r="AW152" s="46"/>
-      <c r="AX152" s="45">
+      <c r="AU152" s="51"/>
+      <c r="AV152" s="51"/>
+      <c r="AW152" s="51"/>
+      <c r="AX152" s="50">
         <v>2012</v>
       </c>
-      <c r="AY152" s="46"/>
-      <c r="AZ152" s="46"/>
-      <c r="BA152" s="46"/>
-      <c r="BB152" s="45">
+      <c r="AY152" s="51"/>
+      <c r="AZ152" s="51"/>
+      <c r="BA152" s="51"/>
+      <c r="BB152" s="50">
         <v>2013</v>
       </c>
-      <c r="BC152" s="46"/>
-      <c r="BD152" s="46"/>
-      <c r="BE152" s="46"/>
-      <c r="BF152" s="45">
+      <c r="BC152" s="51"/>
+      <c r="BD152" s="51"/>
+      <c r="BE152" s="51"/>
+      <c r="BF152" s="50">
         <v>2014</v>
       </c>
-      <c r="BG152" s="46"/>
-      <c r="BH152" s="46"/>
-      <c r="BI152" s="46"/>
-      <c r="BJ152" s="45">
+      <c r="BG152" s="51"/>
+      <c r="BH152" s="51"/>
+      <c r="BI152" s="51"/>
+      <c r="BJ152" s="50">
         <v>2015</v>
       </c>
-      <c r="BK152" s="46"/>
-      <c r="BL152" s="46"/>
-      <c r="BM152" s="46"/>
-      <c r="BN152" s="45">
+      <c r="BK152" s="51"/>
+      <c r="BL152" s="51"/>
+      <c r="BM152" s="51"/>
+      <c r="BN152" s="50">
         <v>2016</v>
       </c>
-      <c r="BO152" s="46"/>
-      <c r="BP152" s="46"/>
-      <c r="BQ152" s="46"/>
-      <c r="BR152" s="45">
+      <c r="BO152" s="51"/>
+      <c r="BP152" s="51"/>
+      <c r="BQ152" s="51"/>
+      <c r="BR152" s="50">
         <v>2017</v>
       </c>
-      <c r="BS152" s="46"/>
-      <c r="BT152" s="46"/>
-      <c r="BU152" s="46"/>
-      <c r="BV152" s="45">
+      <c r="BS152" s="51"/>
+      <c r="BT152" s="51"/>
+      <c r="BU152" s="51"/>
+      <c r="BV152" s="50">
         <v>2018</v>
       </c>
-      <c r="BW152" s="45"/>
-      <c r="BX152" s="45"/>
-      <c r="BY152" s="45"/>
-      <c r="BZ152" s="45">
+      <c r="BW152" s="50"/>
+      <c r="BX152" s="50"/>
+      <c r="BY152" s="50"/>
+      <c r="BZ152" s="50">
         <v>2019</v>
       </c>
-      <c r="CA152" s="45"/>
-      <c r="CB152" s="45"/>
-      <c r="CC152" s="45"/>
-      <c r="CD152" s="45">
+      <c r="CA152" s="50"/>
+      <c r="CB152" s="50"/>
+      <c r="CC152" s="50"/>
+      <c r="CD152" s="50">
         <v>2020</v>
       </c>
-      <c r="CE152" s="45"/>
-      <c r="CF152" s="45"/>
-      <c r="CG152" s="45"/>
+      <c r="CE152" s="50"/>
+      <c r="CF152" s="50"/>
+      <c r="CG152" s="50"/>
       <c r="CH152" s="29">
         <v>2021</v>
       </c>
@@ -40153,6 +40330,7 @@
       </c>
       <c r="CU152" s="31"/>
       <c r="CV152" s="31"/>
+      <c r="CW152" s="31"/>
     </row>
     <row r="153" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
@@ -40454,6 +40632,9 @@
       </c>
       <c r="CV153" s="32" t="s">
         <v>9</v>
+      </c>
+      <c r="CW153" s="32" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40758,9 +40939,11 @@
         <v>54.371358356647669</v>
       </c>
       <c r="CV155" s="44">
-        <v>35.814538900779084</v>
-      </c>
-      <c r="CW155" s="9"/>
+        <v>35.845042913870437</v>
+      </c>
+      <c r="CW155" s="44">
+        <v>36.47133326707754</v>
+      </c>
       <c r="CX155" s="9"/>
       <c r="CY155" s="9"/>
       <c r="CZ155" s="9"/>
@@ -41088,9 +41271,11 @@
         <v>26.883713317383535</v>
       </c>
       <c r="CV156" s="44">
-        <v>35.208376252468895</v>
-      </c>
-      <c r="CW156" s="9"/>
+        <v>35.309097481639832</v>
+      </c>
+      <c r="CW156" s="44">
+        <v>28.450495665863063</v>
+      </c>
       <c r="CX156" s="9"/>
       <c r="CY156" s="9"/>
       <c r="CZ156" s="9"/>
@@ -41418,9 +41603,11 @@
         <v>18.744928325968782</v>
       </c>
       <c r="CV157" s="44">
-        <v>28.977084846752028</v>
-      </c>
-      <c r="CW157" s="9"/>
+        <v>28.845859604489743</v>
+      </c>
+      <c r="CW157" s="44">
+        <v>35.078171067059401</v>
+      </c>
       <c r="CX157" s="9"/>
       <c r="CY157" s="9"/>
       <c r="CZ157" s="9"/>
@@ -41549,7 +41736,7 @@
       <c r="CT158" s="34"/>
       <c r="CU158" s="34"/>
       <c r="CV158" s="34"/>
-      <c r="CW158" s="9"/>
+      <c r="CW158" s="34"/>
       <c r="CX158" s="9"/>
       <c r="CY158" s="9"/>
       <c r="CZ158" s="9"/>
@@ -41879,7 +42066,9 @@
       <c r="CV159" s="44">
         <v>100</v>
       </c>
-      <c r="CW159" s="9"/>
+      <c r="CW159" s="44">
+        <v>100</v>
+      </c>
       <c r="CX159" s="9"/>
       <c r="CY159" s="9"/>
       <c r="CZ159" s="9"/>
@@ -42009,6 +42198,7 @@
       <c r="CT160" s="36"/>
       <c r="CU160" s="36"/>
       <c r="CV160" s="36"/>
+      <c r="CW160" s="36"/>
     </row>
     <row r="161" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
@@ -42111,7 +42301,7 @@
       <c r="CT161" s="35"/>
       <c r="CU161" s="35"/>
       <c r="CV161" s="35"/>
-      <c r="CW161" s="9"/>
+      <c r="CW161" s="35"/>
       <c r="CX161" s="9"/>
       <c r="CY161" s="9"/>
       <c r="CZ161" s="9"/>
@@ -42241,7 +42431,7 @@
       <c r="CT162" s="35"/>
       <c r="CU162" s="35"/>
       <c r="CV162" s="35"/>
-      <c r="CW162" s="9"/>
+      <c r="CW162" s="35"/>
       <c r="CX162" s="9"/>
       <c r="CY162" s="9"/>
       <c r="CZ162" s="9"/>
@@ -42371,6 +42561,7 @@
       <c r="CT163" s="37"/>
       <c r="CU163" s="37"/>
       <c r="CV163" s="37"/>
+      <c r="CW163" s="37"/>
     </row>
     <row r="164" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
@@ -42384,6 +42575,129 @@
     </row>
   </sheetData>
   <mergeCells count="147">
+    <mergeCell ref="CD57:CG57"/>
+    <mergeCell ref="CD81:CG81"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD152:CG152"/>
+    <mergeCell ref="CD128:CG128"/>
+    <mergeCell ref="CD104:CG104"/>
+    <mergeCell ref="CD33:CG33"/>
+    <mergeCell ref="BV33:BY33"/>
+    <mergeCell ref="BJ81:BM81"/>
+    <mergeCell ref="BR152:BU152"/>
+    <mergeCell ref="BR128:BU128"/>
+    <mergeCell ref="BR104:BU104"/>
+    <mergeCell ref="BZ128:CC128"/>
+    <mergeCell ref="BZ104:CC104"/>
+    <mergeCell ref="BV152:BY152"/>
+    <mergeCell ref="BZ152:CC152"/>
+    <mergeCell ref="AT128:AW128"/>
+    <mergeCell ref="AX128:BA128"/>
+    <mergeCell ref="BV128:BY128"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ33:CC33"/>
+    <mergeCell ref="BV57:BY57"/>
+    <mergeCell ref="BZ57:CC57"/>
+    <mergeCell ref="AP152:AS152"/>
+    <mergeCell ref="AT152:AW152"/>
+    <mergeCell ref="AX152:BA152"/>
+    <mergeCell ref="BJ104:BM104"/>
+    <mergeCell ref="BN104:BQ104"/>
+    <mergeCell ref="BF152:BI152"/>
+    <mergeCell ref="BJ152:BM152"/>
+    <mergeCell ref="BN152:BQ152"/>
+    <mergeCell ref="BF128:BI128"/>
+    <mergeCell ref="BJ128:BM128"/>
+    <mergeCell ref="BN128:BQ128"/>
+    <mergeCell ref="BF104:BI104"/>
+    <mergeCell ref="BN81:BQ81"/>
+    <mergeCell ref="BN57:BQ57"/>
+    <mergeCell ref="BZ81:CC81"/>
+    <mergeCell ref="BV104:BY104"/>
+    <mergeCell ref="AP81:AS81"/>
+    <mergeCell ref="BB152:BE152"/>
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="F152:I152"/>
+    <mergeCell ref="J152:M152"/>
+    <mergeCell ref="N152:Q152"/>
+    <mergeCell ref="R152:U152"/>
+    <mergeCell ref="V152:Y152"/>
+    <mergeCell ref="Z152:AC152"/>
+    <mergeCell ref="AD152:AG152"/>
+    <mergeCell ref="AH152:AK152"/>
+    <mergeCell ref="AL152:AO152"/>
+    <mergeCell ref="BB128:BE128"/>
+    <mergeCell ref="AP104:AS104"/>
+    <mergeCell ref="AT104:AW104"/>
+    <mergeCell ref="AX104:BA104"/>
+    <mergeCell ref="BB104:BE104"/>
+    <mergeCell ref="AT81:AW81"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="F104:I104"/>
+    <mergeCell ref="J104:M104"/>
+    <mergeCell ref="N104:Q104"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="AX81:BA81"/>
+    <mergeCell ref="BB81:BE81"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="N128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:Y128"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AG128"/>
+    <mergeCell ref="AH128:AK128"/>
+    <mergeCell ref="AL128:AO128"/>
+    <mergeCell ref="AP128:AS128"/>
+    <mergeCell ref="BF81:BI81"/>
+    <mergeCell ref="V104:Y104"/>
+    <mergeCell ref="Z104:AC104"/>
+    <mergeCell ref="AD104:AG104"/>
+    <mergeCell ref="AH104:AK104"/>
+    <mergeCell ref="AL104:AO104"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="R81:U81"/>
+    <mergeCell ref="V81:Y81"/>
+    <mergeCell ref="Z81:AC81"/>
+    <mergeCell ref="AD81:AG81"/>
+    <mergeCell ref="AH81:AK81"/>
+    <mergeCell ref="AL81:AO81"/>
+    <mergeCell ref="V57:Y57"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="R57:U57"/>
+    <mergeCell ref="AH57:AK57"/>
+    <mergeCell ref="Z57:AC57"/>
+    <mergeCell ref="BR33:BU33"/>
+    <mergeCell ref="AD57:AG57"/>
+    <mergeCell ref="BB57:BE57"/>
+    <mergeCell ref="BF57:BI57"/>
+    <mergeCell ref="BJ57:BM57"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF33:BI33"/>
+    <mergeCell ref="BJ33:BM33"/>
+    <mergeCell ref="BN33:BQ33"/>
+    <mergeCell ref="AL57:AO57"/>
+    <mergeCell ref="AP57:AS57"/>
+    <mergeCell ref="AT57:AW57"/>
+    <mergeCell ref="AX57:BA57"/>
+    <mergeCell ref="AP33:AS33"/>
+    <mergeCell ref="AT33:AW33"/>
+    <mergeCell ref="AX33:BA33"/>
+    <mergeCell ref="BB33:BE33"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -42408,138 +42722,15 @@
     <mergeCell ref="AL33:AO33"/>
     <mergeCell ref="V9:Y9"/>
     <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF33:BI33"/>
-    <mergeCell ref="BJ33:BM33"/>
-    <mergeCell ref="BN33:BQ33"/>
-    <mergeCell ref="AL57:AO57"/>
-    <mergeCell ref="AP57:AS57"/>
-    <mergeCell ref="AT57:AW57"/>
-    <mergeCell ref="AX57:BA57"/>
-    <mergeCell ref="AP33:AS33"/>
-    <mergeCell ref="AT33:AW33"/>
-    <mergeCell ref="AX33:BA33"/>
-    <mergeCell ref="BB33:BE33"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="V57:Y57"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="R57:U57"/>
-    <mergeCell ref="AH57:AK57"/>
-    <mergeCell ref="Z57:AC57"/>
-    <mergeCell ref="BR33:BU33"/>
-    <mergeCell ref="AD57:AG57"/>
-    <mergeCell ref="BB57:BE57"/>
-    <mergeCell ref="BF57:BI57"/>
-    <mergeCell ref="BJ57:BM57"/>
-    <mergeCell ref="BF81:BI81"/>
-    <mergeCell ref="V104:Y104"/>
-    <mergeCell ref="Z104:AC104"/>
-    <mergeCell ref="AD104:AG104"/>
-    <mergeCell ref="AH104:AK104"/>
-    <mergeCell ref="AL104:AO104"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="N81:Q81"/>
-    <mergeCell ref="R81:U81"/>
-    <mergeCell ref="V81:Y81"/>
-    <mergeCell ref="Z81:AC81"/>
-    <mergeCell ref="AD81:AG81"/>
-    <mergeCell ref="AH81:AK81"/>
-    <mergeCell ref="AL81:AO81"/>
-    <mergeCell ref="BB128:BE128"/>
-    <mergeCell ref="AP104:AS104"/>
-    <mergeCell ref="AT104:AW104"/>
-    <mergeCell ref="AX104:BA104"/>
-    <mergeCell ref="BB104:BE104"/>
-    <mergeCell ref="AT81:AW81"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="F104:I104"/>
-    <mergeCell ref="J104:M104"/>
-    <mergeCell ref="N104:Q104"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="AX81:BA81"/>
-    <mergeCell ref="BB81:BE81"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="J128:M128"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:Y128"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AG128"/>
-    <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="AL128:AO128"/>
-    <mergeCell ref="AP128:AS128"/>
-    <mergeCell ref="BB152:BE152"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="F152:I152"/>
-    <mergeCell ref="J152:M152"/>
-    <mergeCell ref="N152:Q152"/>
-    <mergeCell ref="R152:U152"/>
-    <mergeCell ref="V152:Y152"/>
-    <mergeCell ref="Z152:AC152"/>
-    <mergeCell ref="AD152:AG152"/>
-    <mergeCell ref="AH152:AK152"/>
-    <mergeCell ref="AL152:AO152"/>
-    <mergeCell ref="AT128:AW128"/>
-    <mergeCell ref="AX128:BA128"/>
-    <mergeCell ref="BV128:BY128"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ33:CC33"/>
-    <mergeCell ref="BV57:BY57"/>
-    <mergeCell ref="BZ57:CC57"/>
-    <mergeCell ref="AP152:AS152"/>
-    <mergeCell ref="AT152:AW152"/>
-    <mergeCell ref="AX152:BA152"/>
-    <mergeCell ref="BJ104:BM104"/>
-    <mergeCell ref="BN104:BQ104"/>
-    <mergeCell ref="BF152:BI152"/>
-    <mergeCell ref="BJ152:BM152"/>
-    <mergeCell ref="BN152:BQ152"/>
-    <mergeCell ref="BF128:BI128"/>
-    <mergeCell ref="BJ128:BM128"/>
-    <mergeCell ref="BN128:BQ128"/>
-    <mergeCell ref="BF104:BI104"/>
-    <mergeCell ref="BN81:BQ81"/>
-    <mergeCell ref="BN57:BQ57"/>
-    <mergeCell ref="BZ81:CC81"/>
-    <mergeCell ref="BV104:BY104"/>
-    <mergeCell ref="AP81:AS81"/>
-    <mergeCell ref="CD57:CG57"/>
-    <mergeCell ref="CD81:CG81"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD152:CG152"/>
-    <mergeCell ref="CD128:CG128"/>
-    <mergeCell ref="CD104:CG104"/>
-    <mergeCell ref="CD33:CG33"/>
-    <mergeCell ref="BV33:BY33"/>
-    <mergeCell ref="BJ81:BM81"/>
-    <mergeCell ref="BR152:BU152"/>
-    <mergeCell ref="BR128:BU128"/>
-    <mergeCell ref="BR104:BU104"/>
-    <mergeCell ref="BZ128:CC128"/>
-    <mergeCell ref="BZ104:CC104"/>
-    <mergeCell ref="BV152:BY152"/>
-    <mergeCell ref="BZ152:CC152"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.11811023622047245" top="0.51181102362204722" bottom="0.15748031496062992" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="48" max="99" man="1"/>
-    <brk id="96" max="99" man="1"/>
-    <brk id="119" max="99" man="1"/>
+    <brk id="48" max="100" man="1"/>
+    <brk id="96" max="100" man="1"/>
+    <brk id="119" max="100" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DEA9A0-D04D-4C87-94B5-E9445546B4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0A8A3F-5709-4AFC-A380-EAAA10F1B1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -326,7 +326,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$CW$167</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$CX$167</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="57">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -632,13 +632,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2024</t>
+    <t>2024 - 2025</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2024</t>
+    <t>Q1 2000 to Q1 2025</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>Q1 2001 to Q1 2025</t>
+  </si>
+  <si>
+    <t>As of May 2025</t>
   </si>
 </sst>
 </file>
@@ -23676,19 +23679,19 @@
   <dimension ref="A1:DX165"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CM3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="CK3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
       <selection pane="topRight" activeCell="N19" sqref="N19"/>
       <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="CX1" sqref="CX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.21875" style="1" customWidth="1"/>
-    <col min="2" max="93" width="10.21875" style="1" customWidth="1"/>
-    <col min="94" max="101" width="10.109375" style="30" customWidth="1"/>
-    <col min="102" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="89" width="10.21875" style="1" customWidth="1"/>
+    <col min="90" max="102" width="10.109375" style="30" customWidth="1"/>
+    <col min="103" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.2">
@@ -23703,7 +23706,7 @@
     </row>
     <row r="3" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:128" x14ac:dyDescent="0.2">
@@ -23713,7 +23716,7 @@
     </row>
     <row r="6" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:128" x14ac:dyDescent="0.2">
@@ -23855,12 +23858,12 @@
       <c r="CI9" s="29"/>
       <c r="CJ9" s="29"/>
       <c r="CK9" s="29"/>
-      <c r="CL9" s="29">
+      <c r="CL9" s="31">
         <v>2022</v>
       </c>
-      <c r="CM9" s="29"/>
-      <c r="CN9" s="29"/>
-      <c r="CO9" s="29"/>
+      <c r="CM9" s="31"/>
+      <c r="CN9" s="31"/>
+      <c r="CO9" s="31"/>
       <c r="CP9" s="31">
         <v>2023</v>
       </c>
@@ -23873,6 +23876,9 @@
       <c r="CU9" s="31"/>
       <c r="CV9" s="31"/>
       <c r="CW9" s="31"/>
+      <c r="CX9" s="31">
+        <v>2025</v>
+      </c>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24142,16 +24148,16 @@
       <c r="CK10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL10" s="6" t="s">
+      <c r="CL10" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CM10" s="6" t="s">
+      <c r="CM10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CN10" s="6" t="s">
+      <c r="CN10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CO10" s="6" t="s">
+      <c r="CO10" s="32" t="s">
         <v>8</v>
       </c>
       <c r="CP10" s="32" t="s">
@@ -24177,6 +24183,9 @@
       </c>
       <c r="CW10" s="32" t="s">
         <v>8</v>
+      </c>
+      <c r="CX10" s="32" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24450,43 +24459,45 @@
       <c r="CK12" s="25">
         <v>259490.65451354504</v>
       </c>
-      <c r="CL12" s="25">
+      <c r="CL12" s="33">
         <v>165564.67137220426</v>
       </c>
-      <c r="CM12" s="25">
+      <c r="CM12" s="33">
         <v>546602.82103515987</v>
       </c>
-      <c r="CN12" s="25">
+      <c r="CN12" s="33">
         <v>249461.07785786226</v>
       </c>
-      <c r="CO12" s="25">
+      <c r="CO12" s="33">
         <v>300814.73704605724</v>
       </c>
       <c r="CP12" s="33">
-        <v>179944.39226853289</v>
+        <v>181787.87054423289</v>
       </c>
       <c r="CQ12" s="33">
-        <v>570474.25909519638</v>
+        <v>569651.86615532357</v>
       </c>
       <c r="CR12" s="33">
-        <v>327894.96726864023</v>
+        <v>327086.48572596861</v>
       </c>
       <c r="CS12" s="33">
-        <v>353524.08954811259</v>
+        <v>355277.59300039051</v>
       </c>
       <c r="CT12" s="33">
-        <v>205189.20239989951</v>
+        <v>208286.15817075479</v>
       </c>
       <c r="CU12" s="33">
-        <v>706493.66278316185</v>
+        <v>703553.88809073321</v>
       </c>
       <c r="CV12" s="33">
-        <v>341381.45836695982</v>
+        <v>343009.89157967363</v>
       </c>
       <c r="CW12" s="33">
-        <v>371880.54711199808</v>
-      </c>
-      <c r="CX12" s="9"/>
+        <v>371641.88731891487</v>
+      </c>
+      <c r="CX12" s="33">
+        <v>227147.03567532424</v>
+      </c>
       <c r="CY12" s="9"/>
       <c r="CZ12" s="9"/>
       <c r="DA12" s="9"/>
@@ -24782,43 +24793,45 @@
       <c r="CK13" s="25">
         <v>229849.15911087734</v>
       </c>
-      <c r="CL13" s="25">
+      <c r="CL13" s="33">
         <v>255149.4399606045</v>
       </c>
-      <c r="CM13" s="25">
+      <c r="CM13" s="33">
         <v>250946.0540918714</v>
       </c>
-      <c r="CN13" s="25">
+      <c r="CN13" s="33">
         <v>283771.61564464087</v>
       </c>
-      <c r="CO13" s="25">
+      <c r="CO13" s="33">
         <v>268855.25874604005</v>
       </c>
       <c r="CP13" s="33">
-        <v>318866.50147869712</v>
+        <v>318546.36986563168</v>
       </c>
       <c r="CQ13" s="33">
-        <v>291749.48898637982</v>
+        <v>292177.39639543329</v>
       </c>
       <c r="CR13" s="33">
-        <v>304820.43348153739</v>
+        <v>308055.84469262534</v>
       </c>
       <c r="CS13" s="33">
-        <v>285390.52088677022</v>
+        <v>287405.8710176709</v>
       </c>
       <c r="CT13" s="33">
-        <v>346956.21129899548</v>
+        <v>347603.67789935565</v>
       </c>
       <c r="CU13" s="33">
-        <v>341358.49072345434</v>
+        <v>339649.39580373664</v>
       </c>
       <c r="CV13" s="33">
-        <v>350298.5941825856</v>
+        <v>354546.23294789804</v>
       </c>
       <c r="CW13" s="33">
-        <v>302869.21117626509</v>
-      </c>
-      <c r="CX13" s="9"/>
+        <v>304419.92587018432</v>
+      </c>
+      <c r="CX13" s="33">
+        <v>355169.25954509323</v>
+      </c>
       <c r="CY13" s="9"/>
       <c r="CZ13" s="9"/>
       <c r="DA13" s="9"/>
@@ -25114,43 +25127,45 @@
       <c r="CK14" s="25">
         <v>225042.65292351373</v>
       </c>
-      <c r="CL14" s="25">
+      <c r="CL14" s="33">
         <v>192134.17846647394</v>
       </c>
-      <c r="CM14" s="25">
+      <c r="CM14" s="33">
         <v>236905.68818962818</v>
       </c>
-      <c r="CN14" s="25">
+      <c r="CN14" s="33">
         <v>226600.66972309447</v>
       </c>
-      <c r="CO14" s="25">
+      <c r="CO14" s="33">
         <v>258606.89244976532</v>
       </c>
       <c r="CP14" s="33">
-        <v>236289.09378167888</v>
+        <v>235674.94220473815</v>
       </c>
       <c r="CQ14" s="33">
-        <v>233787.3192249446</v>
+        <v>232086.63527833924</v>
       </c>
       <c r="CR14" s="33">
-        <v>249987.64409342629</v>
+        <v>248482.90003897788</v>
       </c>
       <c r="CS14" s="33">
-        <v>292231.54355216632</v>
+        <v>290560.22787699121</v>
       </c>
       <c r="CT14" s="33">
-        <v>247686.68549270817</v>
+        <v>247248.79219075292</v>
       </c>
       <c r="CU14" s="33">
-        <v>252118.51070211869</v>
+        <v>251984.55163534189</v>
       </c>
       <c r="CV14" s="33">
-        <v>274289.0788185313</v>
+        <v>272126.27633196855</v>
       </c>
       <c r="CW14" s="33">
-        <v>330022.08518429316</v>
-      </c>
-      <c r="CX14" s="9"/>
+        <v>330218.25333787821</v>
+      </c>
+      <c r="CX14" s="33">
+        <v>283202.85348992085</v>
+      </c>
       <c r="CY14" s="9"/>
       <c r="CZ14" s="9"/>
       <c r="DA14" s="9"/>
@@ -25267,10 +25282,10 @@
       <c r="CI15" s="9"/>
       <c r="CJ15" s="9"/>
       <c r="CK15" s="9"/>
-      <c r="CL15" s="9"/>
-      <c r="CM15" s="9"/>
-      <c r="CN15" s="9"/>
-      <c r="CO15" s="9"/>
+      <c r="CL15" s="34"/>
+      <c r="CM15" s="34"/>
+      <c r="CN15" s="34"/>
+      <c r="CO15" s="34"/>
       <c r="CP15" s="34"/>
       <c r="CQ15" s="34"/>
       <c r="CR15" s="34"/>
@@ -25279,7 +25294,7 @@
       <c r="CU15" s="34"/>
       <c r="CV15" s="34"/>
       <c r="CW15" s="34"/>
-      <c r="CX15" s="9"/>
+      <c r="CX15" s="34"/>
       <c r="CY15" s="9"/>
       <c r="CZ15" s="9"/>
       <c r="DA15" s="9"/>
@@ -25575,43 +25590,45 @@
       <c r="CK16" s="26">
         <v>714382.4665479362</v>
       </c>
-      <c r="CL16" s="26">
+      <c r="CL16" s="35">
         <v>612848.28979928268</v>
       </c>
-      <c r="CM16" s="26">
+      <c r="CM16" s="35">
         <v>1034454.5633166594</v>
       </c>
-      <c r="CN16" s="26">
+      <c r="CN16" s="35">
         <v>759833.36322559754</v>
       </c>
-      <c r="CO16" s="26">
+      <c r="CO16" s="35">
         <v>828276.88824186265</v>
       </c>
       <c r="CP16" s="35">
-        <v>735099.98752890888</v>
+        <v>736009.18261460273</v>
       </c>
       <c r="CQ16" s="35">
-        <v>1096011.0673065209</v>
+        <v>1093915.8978290961</v>
       </c>
       <c r="CR16" s="35">
-        <v>882703.04484360397</v>
+        <v>883625.2304575718</v>
       </c>
       <c r="CS16" s="35">
-        <v>931146.15398704913</v>
+        <v>933243.69189505256</v>
       </c>
       <c r="CT16" s="35">
-        <v>799832.09919160325</v>
+        <v>803138.62826086336</v>
       </c>
       <c r="CU16" s="35">
-        <v>1299970.6642087349</v>
+        <v>1295187.8355298117</v>
       </c>
       <c r="CV16" s="35">
-        <v>965969.13136807666</v>
+        <v>969682.40085954033</v>
       </c>
       <c r="CW16" s="35">
-        <v>1004771.8434725562</v>
-      </c>
-      <c r="CX16" s="9"/>
+        <v>1006280.0665269773</v>
+      </c>
+      <c r="CX16" s="35">
+        <v>865519.14871033828</v>
+      </c>
       <c r="CY16" s="9"/>
       <c r="CZ16" s="9"/>
       <c r="DA16" s="9"/>
@@ -25729,10 +25746,10 @@
       <c r="CI17" s="12"/>
       <c r="CJ17" s="12"/>
       <c r="CK17" s="12"/>
-      <c r="CL17" s="12"/>
-      <c r="CM17" s="12"/>
-      <c r="CN17" s="12"/>
-      <c r="CO17" s="12"/>
+      <c r="CL17" s="36"/>
+      <c r="CM17" s="36"/>
+      <c r="CN17" s="36"/>
+      <c r="CO17" s="36"/>
       <c r="CP17" s="36"/>
       <c r="CQ17" s="36"/>
       <c r="CR17" s="36"/>
@@ -25741,6 +25758,7 @@
       <c r="CU17" s="36"/>
       <c r="CV17" s="36"/>
       <c r="CW17" s="36"/>
+      <c r="CX17" s="36"/>
     </row>
     <row r="18" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
@@ -25832,10 +25850,10 @@
       <c r="CI18" s="26"/>
       <c r="CJ18" s="26"/>
       <c r="CK18" s="26"/>
-      <c r="CL18" s="26"/>
-      <c r="CM18" s="26"/>
-      <c r="CN18" s="26"/>
-      <c r="CO18" s="26"/>
+      <c r="CL18" s="35"/>
+      <c r="CM18" s="35"/>
+      <c r="CN18" s="35"/>
+      <c r="CO18" s="35"/>
       <c r="CP18" s="35"/>
       <c r="CQ18" s="35"/>
       <c r="CR18" s="35"/>
@@ -25844,7 +25862,7 @@
       <c r="CU18" s="35"/>
       <c r="CV18" s="35"/>
       <c r="CW18" s="35"/>
-      <c r="CX18" s="9"/>
+      <c r="CX18" s="35"/>
       <c r="CY18" s="9"/>
       <c r="CZ18" s="9"/>
       <c r="DA18" s="9"/>
@@ -26140,43 +26158,45 @@
       <c r="CK19" s="25">
         <v>399601.70931168634</v>
       </c>
-      <c r="CL19" s="25">
+      <c r="CL19" s="33">
         <v>288926.38499902393</v>
       </c>
-      <c r="CM19" s="25">
+      <c r="CM19" s="33">
         <v>518309.83854077873</v>
       </c>
-      <c r="CN19" s="25">
+      <c r="CN19" s="33">
         <v>359406.85484567389</v>
       </c>
-      <c r="CO19" s="25">
+      <c r="CO19" s="33">
         <v>448603.54944467149</v>
       </c>
       <c r="CP19" s="33">
-        <v>339077.55617626372</v>
+        <v>339384.88842542574</v>
       </c>
       <c r="CQ19" s="33">
-        <v>561476.16625263379</v>
+        <v>560684.96900923713</v>
       </c>
       <c r="CR19" s="33">
-        <v>426514.20774832729</v>
+        <v>426835.72786797147</v>
       </c>
       <c r="CS19" s="33">
-        <v>505656.68919888965</v>
+        <v>506403.31752860779</v>
       </c>
       <c r="CT19" s="33">
-        <v>368780.17555049696</v>
+        <v>369897.87078638759</v>
       </c>
       <c r="CU19" s="33">
-        <v>659869.75425811287</v>
+        <v>658063.61833107879</v>
       </c>
       <c r="CV19" s="33">
-        <v>467494.65296952345</v>
+        <v>468146.24270909955</v>
       </c>
       <c r="CW19" s="33">
-        <v>550447.93467021873</v>
-      </c>
-      <c r="CX19" s="9"/>
+        <v>550984.79364934284</v>
+      </c>
+      <c r="CX19" s="33">
+        <v>397743.95914504031</v>
+      </c>
       <c r="CY19" s="9"/>
       <c r="CZ19" s="9"/>
       <c r="DA19" s="9"/>
@@ -26294,10 +26314,10 @@
       <c r="CI20" s="14"/>
       <c r="CJ20" s="14"/>
       <c r="CK20" s="14"/>
-      <c r="CL20" s="14"/>
-      <c r="CM20" s="14"/>
-      <c r="CN20" s="14"/>
-      <c r="CO20" s="14"/>
+      <c r="CL20" s="37"/>
+      <c r="CM20" s="37"/>
+      <c r="CN20" s="37"/>
+      <c r="CO20" s="37"/>
       <c r="CP20" s="37"/>
       <c r="CQ20" s="37"/>
       <c r="CR20" s="37"/>
@@ -26306,6 +26326,7 @@
       <c r="CU20" s="37"/>
       <c r="CV20" s="37"/>
       <c r="CW20" s="37"/>
+      <c r="CX20" s="37"/>
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
@@ -26326,6 +26347,10 @@
       <c r="Y23" s="17"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="9"/>
+      <c r="CL23" s="38"/>
+      <c r="CM23" s="38"/>
+      <c r="CN23" s="38"/>
+      <c r="CO23" s="38"/>
       <c r="CP23" s="38"/>
       <c r="CQ23" s="38"/>
       <c r="CR23" s="38"/>
@@ -26334,6 +26359,7 @@
       <c r="CU23" s="38"/>
       <c r="CV23" s="38"/>
       <c r="CW23" s="38"/>
+      <c r="CX23" s="38"/>
     </row>
     <row r="24" spans="1:128" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G24" s="9"/>
@@ -26344,6 +26370,10 @@
       <c r="Y24" s="17"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="9"/>
+      <c r="CL24" s="38"/>
+      <c r="CM24" s="38"/>
+      <c r="CN24" s="38"/>
+      <c r="CO24" s="38"/>
       <c r="CP24" s="38"/>
       <c r="CQ24" s="38"/>
       <c r="CR24" s="38"/>
@@ -26352,6 +26382,7 @@
       <c r="CU24" s="38"/>
       <c r="CV24" s="38"/>
       <c r="CW24" s="38"/>
+      <c r="CX24" s="38"/>
     </row>
     <row r="25" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -26365,7 +26396,7 @@
     </row>
     <row r="27" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:128" x14ac:dyDescent="0.2">
@@ -26375,7 +26406,7 @@
     </row>
     <row r="30" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:128" x14ac:dyDescent="0.2">
@@ -26517,12 +26548,12 @@
       <c r="CI33" s="29"/>
       <c r="CJ33" s="29"/>
       <c r="CK33" s="29"/>
-      <c r="CL33" s="29">
+      <c r="CL33" s="31">
         <v>2022</v>
       </c>
-      <c r="CM33" s="29"/>
-      <c r="CN33" s="29"/>
-      <c r="CO33" s="29"/>
+      <c r="CM33" s="31"/>
+      <c r="CN33" s="31"/>
+      <c r="CO33" s="31"/>
       <c r="CP33" s="31">
         <v>2023</v>
       </c>
@@ -26535,6 +26566,9 @@
       <c r="CU33" s="31"/>
       <c r="CV33" s="31"/>
       <c r="CW33" s="31"/>
+      <c r="CX33" s="31">
+        <v>2025</v>
+      </c>
     </row>
     <row r="34" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
@@ -26804,16 +26838,16 @@
       <c r="CK34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL34" s="6" t="s">
+      <c r="CL34" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CM34" s="6" t="s">
+      <c r="CM34" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CN34" s="6" t="s">
+      <c r="CN34" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CO34" s="6" t="s">
+      <c r="CO34" s="32" t="s">
         <v>8</v>
       </c>
       <c r="CP34" s="32" t="s">
@@ -26839,6 +26873,9 @@
       </c>
       <c r="CW34" s="32" t="s">
         <v>8</v>
+      </c>
+      <c r="CX34" s="32" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27112,43 +27149,45 @@
       <c r="CK36" s="25">
         <v>244301.11990967477</v>
       </c>
-      <c r="CL36" s="25">
+      <c r="CL36" s="33">
         <v>140010.85447310773</v>
       </c>
-      <c r="CM36" s="25">
+      <c r="CM36" s="33">
         <v>477079.97165004705</v>
       </c>
-      <c r="CN36" s="25">
+      <c r="CN36" s="33">
         <v>203439.66433208974</v>
       </c>
-      <c r="CO36" s="25">
+      <c r="CO36" s="33">
         <v>266052.41393969115</v>
       </c>
       <c r="CP36" s="33">
-        <v>145501.71895947334</v>
+        <v>146992.3420047223</v>
       </c>
       <c r="CQ36" s="33">
-        <v>481118.07315850136</v>
+        <v>480424.49566520948</v>
       </c>
       <c r="CR36" s="33">
-        <v>259052.0106511059</v>
+        <v>258413.27328057529</v>
       </c>
       <c r="CS36" s="33">
-        <v>305806.58509531239</v>
+        <v>307323.40649036749</v>
       </c>
       <c r="CT36" s="33">
-        <v>163035.57229029998</v>
+        <v>165446.17506798048</v>
       </c>
       <c r="CU36" s="33">
-        <v>585596.20331473229</v>
+        <v>583159.49228790554</v>
       </c>
       <c r="CV36" s="33">
-        <v>268724.14142240922</v>
+        <v>269941.8558591592</v>
       </c>
       <c r="CW36" s="33">
-        <v>320695.8243106514</v>
-      </c>
-      <c r="CX36" s="9"/>
+        <v>320355.16484052083</v>
+      </c>
+      <c r="CX36" s="33">
+        <v>179078.27124608678</v>
+      </c>
       <c r="CY36" s="9"/>
       <c r="CZ36" s="9"/>
       <c r="DA36" s="9"/>
@@ -27444,43 +27483,45 @@
       <c r="CK37" s="25">
         <v>207575.77707729724</v>
       </c>
-      <c r="CL37" s="25">
+      <c r="CL37" s="33">
         <v>237252.49053194208</v>
       </c>
-      <c r="CM37" s="25">
+      <c r="CM37" s="33">
         <v>225908.77913647139</v>
       </c>
-      <c r="CN37" s="25">
+      <c r="CN37" s="33">
         <v>222619.94544013651</v>
       </c>
-      <c r="CO37" s="25">
+      <c r="CO37" s="33">
         <v>227802.45739331158</v>
       </c>
       <c r="CP37" s="33">
-        <v>283362.34676138463</v>
+        <v>283077.86016674375</v>
       </c>
       <c r="CQ37" s="33">
-        <v>253969.37808522864</v>
+        <v>254341.87360846999</v>
       </c>
       <c r="CR37" s="33">
-        <v>231873.95870688991</v>
+        <v>234335.1047560279</v>
       </c>
       <c r="CS37" s="33">
-        <v>236625.62781318676</v>
+        <v>238296.6135505756</v>
       </c>
       <c r="CT37" s="33">
-        <v>302534.49537018157</v>
+        <v>303023.3957097127</v>
       </c>
       <c r="CU37" s="33">
-        <v>289545.83673256158</v>
+        <v>288096.15455961711</v>
       </c>
       <c r="CV37" s="33">
-        <v>264706.25039989071</v>
+        <v>267864.35877988592</v>
       </c>
       <c r="CW37" s="33">
-        <v>250167.85355216806</v>
-      </c>
-      <c r="CX37" s="9"/>
+        <v>251362.78977379182</v>
+      </c>
+      <c r="CX37" s="33">
+        <v>307805.99298854783</v>
+      </c>
       <c r="CY37" s="9"/>
       <c r="CZ37" s="9"/>
       <c r="DA37" s="9"/>
@@ -27776,43 +27817,45 @@
       <c r="CK38" s="25">
         <v>229834.19557939863</v>
       </c>
-      <c r="CL38" s="25">
+      <c r="CL38" s="33">
         <v>158936.92070002007</v>
       </c>
-      <c r="CM38" s="25">
+      <c r="CM38" s="33">
         <v>200999.37308415922</v>
       </c>
-      <c r="CN38" s="25">
+      <c r="CN38" s="33">
         <v>185130.7608970314</v>
       </c>
-      <c r="CO38" s="25">
+      <c r="CO38" s="33">
         <v>247240.70191401232</v>
       </c>
       <c r="CP38" s="33">
-        <v>186288.48265977591</v>
+        <v>185804.29033604087</v>
       </c>
       <c r="CQ38" s="33">
-        <v>191771.33576069906</v>
+        <v>190376.2967430632</v>
       </c>
       <c r="CR38" s="33">
-        <v>198324.98987957049</v>
+        <v>197131.21748153033</v>
       </c>
       <c r="CS38" s="33">
-        <v>273461.86986307218</v>
+        <v>271897.900744238</v>
       </c>
       <c r="CT38" s="33">
-        <v>191968.10443746313</v>
+        <v>191585.03530042552</v>
       </c>
       <c r="CU38" s="33">
-        <v>201888.62649137786</v>
+        <v>201863.97437463116</v>
       </c>
       <c r="CV38" s="33">
-        <v>216252.46409757674</v>
+        <v>214507.6645982617</v>
       </c>
       <c r="CW38" s="33">
-        <v>308445.61955774302</v>
-      </c>
-      <c r="CX38" s="9"/>
+        <v>308530.37881327432</v>
+      </c>
+      <c r="CX38" s="33">
+        <v>218287.37839289647</v>
+      </c>
       <c r="CY38" s="9"/>
       <c r="CZ38" s="9"/>
       <c r="DA38" s="9"/>
@@ -27929,10 +27972,10 @@
       <c r="CI39" s="9"/>
       <c r="CJ39" s="9"/>
       <c r="CK39" s="9"/>
-      <c r="CL39" s="9"/>
-      <c r="CM39" s="9"/>
-      <c r="CN39" s="9"/>
-      <c r="CO39" s="9"/>
+      <c r="CL39" s="34"/>
+      <c r="CM39" s="34"/>
+      <c r="CN39" s="34"/>
+      <c r="CO39" s="34"/>
       <c r="CP39" s="34"/>
       <c r="CQ39" s="34"/>
       <c r="CR39" s="34"/>
@@ -27941,7 +27984,7 @@
       <c r="CU39" s="34"/>
       <c r="CV39" s="34"/>
       <c r="CW39" s="34"/>
-      <c r="CX39" s="9"/>
+      <c r="CX39" s="34"/>
       <c r="CY39" s="9"/>
       <c r="CZ39" s="9"/>
       <c r="DA39" s="9"/>
@@ -28237,43 +28280,45 @@
       <c r="CK40" s="26">
         <v>681711.09256637061</v>
       </c>
-      <c r="CL40" s="26">
+      <c r="CL40" s="35">
         <v>536200.26570506988</v>
       </c>
-      <c r="CM40" s="26">
+      <c r="CM40" s="35">
         <v>903988.12387067766</v>
       </c>
-      <c r="CN40" s="26">
+      <c r="CN40" s="35">
         <v>611190.37066925759</v>
       </c>
-      <c r="CO40" s="26">
+      <c r="CO40" s="35">
         <v>741095.57324701501</v>
       </c>
       <c r="CP40" s="35">
-        <v>615152.54838063382</v>
+        <v>615874.49250750698</v>
       </c>
       <c r="CQ40" s="35">
-        <v>926858.78700442915</v>
+        <v>925142.66601674259</v>
       </c>
       <c r="CR40" s="35">
-        <v>689250.95923756622</v>
+        <v>689879.5955181336</v>
       </c>
       <c r="CS40" s="35">
-        <v>815894.08277157135</v>
+        <v>817517.92078518099</v>
       </c>
       <c r="CT40" s="35">
-        <v>657538.17209794465</v>
+        <v>660054.60607811867</v>
       </c>
       <c r="CU40" s="35">
-        <v>1077030.6665386718</v>
+        <v>1073119.6212221538</v>
       </c>
       <c r="CV40" s="35">
-        <v>749682.8559198766</v>
+        <v>752313.87923730677</v>
       </c>
       <c r="CW40" s="35">
-        <v>879309.29742056248</v>
-      </c>
-      <c r="CX40" s="9"/>
+        <v>880248.33342758694</v>
+      </c>
+      <c r="CX40" s="35">
+        <v>705171.64262753108</v>
+      </c>
       <c r="CY40" s="9"/>
       <c r="CZ40" s="9"/>
       <c r="DA40" s="9"/>
@@ -28391,10 +28436,10 @@
       <c r="CI41" s="12"/>
       <c r="CJ41" s="12"/>
       <c r="CK41" s="12"/>
-      <c r="CL41" s="12"/>
-      <c r="CM41" s="12"/>
-      <c r="CN41" s="12"/>
-      <c r="CO41" s="12"/>
+      <c r="CL41" s="36"/>
+      <c r="CM41" s="36"/>
+      <c r="CN41" s="36"/>
+      <c r="CO41" s="36"/>
       <c r="CP41" s="36"/>
       <c r="CQ41" s="36"/>
       <c r="CR41" s="36"/>
@@ -28403,6 +28448,7 @@
       <c r="CU41" s="36"/>
       <c r="CV41" s="36"/>
       <c r="CW41" s="36"/>
+      <c r="CX41" s="36"/>
     </row>
     <row r="42" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
@@ -28494,10 +28540,10 @@
       <c r="CI42" s="26"/>
       <c r="CJ42" s="26"/>
       <c r="CK42" s="26"/>
-      <c r="CL42" s="26"/>
-      <c r="CM42" s="26"/>
-      <c r="CN42" s="26"/>
-      <c r="CO42" s="26"/>
+      <c r="CL42" s="35"/>
+      <c r="CM42" s="35"/>
+      <c r="CN42" s="35"/>
+      <c r="CO42" s="35"/>
       <c r="CP42" s="35"/>
       <c r="CQ42" s="35"/>
       <c r="CR42" s="35"/>
@@ -28506,7 +28552,7 @@
       <c r="CU42" s="35"/>
       <c r="CV42" s="35"/>
       <c r="CW42" s="35"/>
-      <c r="CX42" s="9"/>
+      <c r="CX42" s="35"/>
       <c r="CY42" s="9"/>
       <c r="CZ42" s="9"/>
       <c r="DA42" s="9"/>
@@ -28802,43 +28848,45 @@
       <c r="CK43" s="25">
         <v>386621.50166269159</v>
       </c>
-      <c r="CL43" s="25">
+      <c r="CL43" s="33">
         <v>253765.42710121541</v>
       </c>
-      <c r="CM43" s="25">
+      <c r="CM43" s="33">
         <v>411644.68470150291</v>
       </c>
-      <c r="CN43" s="25">
+      <c r="CN43" s="33">
         <v>308206.72315183107</v>
       </c>
-      <c r="CO43" s="25">
+      <c r="CO43" s="33">
         <v>411569.02246082551</v>
       </c>
       <c r="CP43" s="33">
-        <v>281780.28268736938</v>
+        <v>282035.68198015768</v>
       </c>
       <c r="CQ43" s="33">
-        <v>426094.14822213619</v>
+        <v>425493.72288663033</v>
       </c>
       <c r="CR43" s="33">
-        <v>352820.30528717284</v>
+        <v>353086.27257433004</v>
       </c>
       <c r="CS43" s="33">
-        <v>446089.39704466867</v>
+        <v>446748.07117780054</v>
       </c>
       <c r="CT43" s="33">
-        <v>301579.73378708912</v>
+        <v>302042.29846480757</v>
       </c>
       <c r="CU43" s="33">
-        <v>494619.69202222337</v>
+        <v>493268.29284938739</v>
       </c>
       <c r="CV43" s="33">
-        <v>384591.99964349734</v>
+        <v>384936.16519899847</v>
       </c>
       <c r="CW43" s="33">
-        <v>480996.21277525008</v>
-      </c>
-      <c r="CX43" s="9"/>
+        <v>481217.36059493828</v>
+      </c>
+      <c r="CX43" s="33">
+        <v>322468.12164427125</v>
+      </c>
       <c r="CY43" s="9"/>
       <c r="CZ43" s="9"/>
       <c r="DA43" s="9"/>
@@ -28956,10 +29004,10 @@
       <c r="CI44" s="14"/>
       <c r="CJ44" s="14"/>
       <c r="CK44" s="14"/>
-      <c r="CL44" s="14"/>
-      <c r="CM44" s="14"/>
-      <c r="CN44" s="14"/>
-      <c r="CO44" s="14"/>
+      <c r="CL44" s="37"/>
+      <c r="CM44" s="37"/>
+      <c r="CN44" s="37"/>
+      <c r="CO44" s="37"/>
       <c r="CP44" s="37"/>
       <c r="CQ44" s="37"/>
       <c r="CR44" s="37"/>
@@ -28968,6 +29016,7 @@
       <c r="CU44" s="37"/>
       <c r="CV44" s="37"/>
       <c r="CW44" s="37"/>
+      <c r="CX44" s="37"/>
     </row>
     <row r="45" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
@@ -29068,10 +29117,10 @@
       <c r="CI47" s="9"/>
       <c r="CJ47" s="9"/>
       <c r="CK47" s="9"/>
-      <c r="CL47" s="9"/>
-      <c r="CM47" s="9"/>
-      <c r="CN47" s="9"/>
-      <c r="CO47" s="9"/>
+      <c r="CL47" s="34"/>
+      <c r="CM47" s="34"/>
+      <c r="CN47" s="34"/>
+      <c r="CO47" s="34"/>
       <c r="CP47" s="34"/>
       <c r="CQ47" s="34"/>
       <c r="CR47" s="34"/>
@@ -29080,7 +29129,7 @@
       <c r="CU47" s="34"/>
       <c r="CV47" s="34"/>
       <c r="CW47" s="34"/>
-      <c r="CX47" s="9"/>
+      <c r="CX47" s="34"/>
       <c r="CY47" s="9"/>
       <c r="CZ47" s="9"/>
       <c r="DA47" s="9"/>
@@ -29197,10 +29246,10 @@
       <c r="CI48" s="9"/>
       <c r="CJ48" s="9"/>
       <c r="CK48" s="9"/>
-      <c r="CL48" s="9"/>
-      <c r="CM48" s="9"/>
-      <c r="CN48" s="9"/>
-      <c r="CO48" s="9"/>
+      <c r="CL48" s="34"/>
+      <c r="CM48" s="34"/>
+      <c r="CN48" s="34"/>
+      <c r="CO48" s="34"/>
       <c r="CP48" s="34"/>
       <c r="CQ48" s="34"/>
       <c r="CR48" s="34"/>
@@ -29209,7 +29258,7 @@
       <c r="CU48" s="34"/>
       <c r="CV48" s="34"/>
       <c r="CW48" s="34"/>
-      <c r="CX48" s="9"/>
+      <c r="CX48" s="34"/>
       <c r="CY48" s="9"/>
       <c r="CZ48" s="9"/>
       <c r="DA48" s="9"/>
@@ -29249,7 +29298,7 @@
     </row>
     <row r="51" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:120" x14ac:dyDescent="0.2">
@@ -29262,14 +29311,16 @@
       <c r="CT53" s="45"/>
       <c r="CU53" s="45"/>
       <c r="CV53" s="45"/>
+      <c r="CX53" s="45"/>
     </row>
     <row r="54" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CT54" s="45"/>
       <c r="CU54" s="45"/>
       <c r="CV54" s="45"/>
+      <c r="CX54" s="45"/>
     </row>
     <row r="55" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
@@ -29278,11 +29329,12 @@
       <c r="CT55" s="45"/>
       <c r="CU55" s="45"/>
       <c r="CV55" s="45"/>
+      <c r="CX55" s="45"/>
     </row>
     <row r="56" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="CT56" s="45"/>
       <c r="CU56" s="45"/>
       <c r="CV56" s="45"/>
+      <c r="CX56" s="45"/>
     </row>
     <row r="57" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
@@ -29418,22 +29470,25 @@
       <c r="CI57" s="29"/>
       <c r="CJ57" s="29"/>
       <c r="CK57" s="29"/>
-      <c r="CL57" s="29" t="s">
+      <c r="CL57" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="CM57" s="29"/>
-      <c r="CN57" s="29"/>
-      <c r="CO57" s="29"/>
+      <c r="CM57" s="31"/>
+      <c r="CN57" s="31"/>
+      <c r="CO57" s="31"/>
       <c r="CP57" s="31" t="s">
         <v>52</v>
       </c>
       <c r="CQ57" s="31"/>
       <c r="CR57" s="31"/>
       <c r="CS57" s="31"/>
-      <c r="CT57" s="39"/>
+      <c r="CT57" s="31" t="s">
+        <v>53</v>
+      </c>
       <c r="CU57" s="39"/>
       <c r="CV57" s="39"/>
       <c r="CW57" s="39"/>
+      <c r="CX57" s="39"/>
     </row>
     <row r="58" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
@@ -29703,16 +29758,16 @@
       <c r="CK58" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CL58" s="5" t="s">
+      <c r="CL58" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="CM58" s="5" t="s">
+      <c r="CM58" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="CN58" s="5" t="s">
+      <c r="CN58" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="CO58" s="5" t="s">
+      <c r="CO58" s="40" t="s">
         <v>8</v>
       </c>
       <c r="CP58" s="40" t="s">
@@ -29727,16 +29782,19 @@
       <c r="CS58" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="CT58" s="40"/>
+      <c r="CT58" s="40" t="s">
+        <v>6</v>
+      </c>
       <c r="CU58" s="40"/>
       <c r="CV58" s="40"/>
       <c r="CW58" s="40"/>
+      <c r="CX58" s="40"/>
     </row>
     <row r="59" spans="1:120" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
-      <c r="CT59" s="45"/>
       <c r="CU59" s="45"/>
       <c r="CV59" s="45"/>
+      <c r="CX59" s="45"/>
     </row>
     <row r="60" spans="1:120" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
@@ -30006,35 +30064,37 @@
       <c r="CK60" s="27">
         <v>15.925075455985322</v>
       </c>
-      <c r="CL60" s="27">
-        <v>8.6852592265905173</v>
-      </c>
-      <c r="CM60" s="27">
-        <v>4.3672365273982052</v>
-      </c>
-      <c r="CN60" s="27">
-        <v>31.441333487490169</v>
-      </c>
-      <c r="CO60" s="27">
-        <v>17.52219755576175</v>
+      <c r="CL60" s="41">
+        <v>9.7987082857534489</v>
+      </c>
+      <c r="CM60" s="41">
+        <v>4.2167812227008312</v>
+      </c>
+      <c r="CN60" s="41">
+        <v>31.117242230603892</v>
+      </c>
+      <c r="CO60" s="41">
+        <v>18.105115623372711</v>
       </c>
       <c r="CP60" s="41">
-        <v>14.029228592849691</v>
+        <v>14.576488270197487</v>
       </c>
       <c r="CQ60" s="41">
-        <v>23.843214925016909</v>
+        <v>23.505939309764216</v>
       </c>
       <c r="CR60" s="41">
-        <v>4.1130521796848001</v>
+        <v>4.8682555069075875</v>
       </c>
       <c r="CS60" s="41">
-        <v>5.1924205751719512</v>
-      </c>
-      <c r="CT60" s="46"/>
+        <v>4.6060586541145483</v>
+      </c>
+      <c r="CT60" s="41">
+        <v>9.0552716849802124</v>
+      </c>
       <c r="CU60" s="46"/>
       <c r="CV60" s="46"/>
       <c r="CW60" s="41"/>
-      <c r="CX60" s="9"/>
+      <c r="CX60" s="46"/>
       <c r="CY60" s="9"/>
       <c r="CZ60" s="9"/>
       <c r="DA60" s="9"/>
@@ -30322,35 +30382,37 @@
       <c r="CK61" s="27">
         <v>16.970303387686741</v>
       </c>
-      <c r="CL61" s="27">
-        <v>24.972448118220683</v>
-      </c>
-      <c r="CM61" s="27">
-        <v>16.259843193059439</v>
-      </c>
-      <c r="CN61" s="27">
-        <v>7.4175205258215016</v>
-      </c>
-      <c r="CO61" s="27">
-        <v>6.1502468718119161</v>
+      <c r="CL61" s="41">
+        <v>24.846979838488295</v>
+      </c>
+      <c r="CM61" s="41">
+        <v>16.430360880855716</v>
+      </c>
+      <c r="CN61" s="41">
+        <v>8.5576666971494859</v>
+      </c>
+      <c r="CO61" s="41">
+        <v>6.8998510046454697</v>
       </c>
       <c r="CP61" s="41">
-        <v>8.8092382517562839</v>
+        <v>9.1218456031945578</v>
       </c>
       <c r="CQ61" s="41">
-        <v>17.003972109576011</v>
+        <v>16.247663232666596</v>
       </c>
       <c r="CR61" s="41">
-        <v>14.919656199426925</v>
+        <v>15.091545593514155</v>
       </c>
       <c r="CS61" s="41">
-        <v>6.1244817225129822</v>
-      </c>
-      <c r="CT61" s="46"/>
+        <v>5.9198703186781074</v>
+      </c>
+      <c r="CT61" s="41">
+        <v>2.1764964316425051</v>
+      </c>
       <c r="CU61" s="46"/>
       <c r="CV61" s="46"/>
       <c r="CW61" s="41"/>
-      <c r="CX61" s="9"/>
+      <c r="CX61" s="46"/>
       <c r="CY61" s="9"/>
       <c r="CZ61" s="9"/>
       <c r="DA61" s="9"/>
@@ -30638,35 +30700,37 @@
       <c r="CK62" s="27">
         <v>14.914612448005229</v>
       </c>
-      <c r="CL62" s="27">
-        <v>22.981291339015812</v>
-      </c>
-      <c r="CM62" s="27">
-        <v>-1.3162913007760011</v>
-      </c>
-      <c r="CN62" s="27">
-        <v>10.320787841850006</v>
-      </c>
-      <c r="CO62" s="27">
-        <v>13.002225417844443</v>
+      <c r="CL62" s="41">
+        <v>22.661644110270458</v>
+      </c>
+      <c r="CM62" s="41">
+        <v>-2.0341651347060861</v>
+      </c>
+      <c r="CN62" s="41">
+        <v>9.6567368236922846</v>
+      </c>
+      <c r="CO62" s="41">
+        <v>12.355948878444096</v>
       </c>
       <c r="CP62" s="41">
-        <v>4.8235792556554458</v>
+        <v>4.9109378696527699</v>
       </c>
       <c r="CQ62" s="41">
-        <v>7.8409691072834704</v>
+        <v>8.5734865056487592</v>
       </c>
       <c r="CR62" s="41">
-        <v>9.7210543397988829</v>
+        <v>9.5150918993950313</v>
       </c>
       <c r="CS62" s="41">
-        <v>12.931712016016789</v>
-      </c>
-      <c r="CT62" s="46"/>
+        <v>13.64881413765832</v>
+      </c>
+      <c r="CT62" s="41">
+        <v>14.541652956358746</v>
+      </c>
       <c r="CU62" s="46"/>
       <c r="CV62" s="46"/>
       <c r="CW62" s="41"/>
-      <c r="CX62" s="9"/>
+      <c r="CX62" s="46"/>
       <c r="CY62" s="9"/>
       <c r="CZ62" s="9"/>
       <c r="DA62" s="9"/>
@@ -30775,19 +30839,19 @@
       <c r="CI63" s="20"/>
       <c r="CJ63" s="20"/>
       <c r="CK63" s="20"/>
-      <c r="CL63" s="20"/>
-      <c r="CM63" s="20"/>
-      <c r="CN63" s="20"/>
-      <c r="CO63" s="20"/>
+      <c r="CL63" s="42"/>
+      <c r="CM63" s="42"/>
+      <c r="CN63" s="42"/>
+      <c r="CO63" s="42"/>
       <c r="CP63" s="42"/>
       <c r="CQ63" s="42"/>
       <c r="CR63" s="42"/>
       <c r="CS63" s="42"/>
-      <c r="CT63" s="47"/>
+      <c r="CT63" s="42"/>
       <c r="CU63" s="47"/>
       <c r="CV63" s="47"/>
       <c r="CW63" s="42"/>
-      <c r="CX63" s="9"/>
+      <c r="CX63" s="47"/>
       <c r="CY63" s="9"/>
       <c r="CZ63" s="9"/>
       <c r="DA63" s="9"/>
@@ -31075,35 +31139,37 @@
       <c r="CK64" s="27">
         <v>15.943059499247099</v>
       </c>
-      <c r="CL64" s="27">
-        <v>19.948117627882354</v>
-      </c>
-      <c r="CM64" s="27">
-        <v>5.9506242393575519</v>
-      </c>
-      <c r="CN64" s="27">
-        <v>16.170608920935976</v>
-      </c>
-      <c r="CO64" s="27">
-        <v>12.419671151701621</v>
+      <c r="CL64" s="41">
+        <v>20.096473281447388</v>
+      </c>
+      <c r="CM64" s="41">
+        <v>5.7480856695911484</v>
+      </c>
+      <c r="CN64" s="41">
+        <v>16.291975744057964</v>
+      </c>
+      <c r="CO64" s="41">
+        <v>12.672912300619316</v>
       </c>
       <c r="CP64" s="41">
-        <v>8.8058920909924012</v>
+        <v>9.1207347995020456</v>
       </c>
       <c r="CQ64" s="41">
-        <v>18.609264357471361</v>
+        <v>18.399214976228521</v>
       </c>
       <c r="CR64" s="41">
-        <v>9.433080242656871</v>
+        <v>9.7391028951725502</v>
       </c>
       <c r="CS64" s="41">
-        <v>7.9069960360413063</v>
-      </c>
-      <c r="CT64" s="46"/>
+        <v>7.8260775043243598</v>
+      </c>
+      <c r="CT64" s="41">
+        <v>7.7670925360115319</v>
+      </c>
       <c r="CU64" s="46"/>
       <c r="CV64" s="46"/>
       <c r="CW64" s="41"/>
-      <c r="CX64" s="9"/>
+      <c r="CX64" s="46"/>
       <c r="CY64" s="9"/>
       <c r="CZ64" s="9"/>
       <c r="DA64" s="9"/>
@@ -31213,18 +31279,19 @@
       <c r="CI65" s="23"/>
       <c r="CJ65" s="23"/>
       <c r="CK65" s="23"/>
-      <c r="CL65" s="23"/>
-      <c r="CM65" s="23"/>
-      <c r="CN65" s="23"/>
-      <c r="CO65" s="23"/>
+      <c r="CL65" s="43"/>
+      <c r="CM65" s="43"/>
+      <c r="CN65" s="43"/>
+      <c r="CO65" s="43"/>
       <c r="CP65" s="43"/>
       <c r="CQ65" s="43"/>
       <c r="CR65" s="43"/>
       <c r="CS65" s="43"/>
-      <c r="CT65" s="48"/>
+      <c r="CT65" s="43"/>
       <c r="CU65" s="48"/>
       <c r="CV65" s="48"/>
       <c r="CW65" s="43"/>
+      <c r="CX65" s="48"/>
     </row>
     <row r="66" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
@@ -31316,19 +31383,19 @@
       <c r="CI66" s="27"/>
       <c r="CJ66" s="27"/>
       <c r="CK66" s="27"/>
-      <c r="CL66" s="27"/>
-      <c r="CM66" s="27"/>
-      <c r="CN66" s="27"/>
-      <c r="CO66" s="27"/>
+      <c r="CL66" s="41"/>
+      <c r="CM66" s="41"/>
+      <c r="CN66" s="41"/>
+      <c r="CO66" s="41"/>
       <c r="CP66" s="41"/>
       <c r="CQ66" s="41"/>
       <c r="CR66" s="41"/>
       <c r="CS66" s="41"/>
-      <c r="CT66" s="46"/>
+      <c r="CT66" s="41"/>
       <c r="CU66" s="46"/>
       <c r="CV66" s="46"/>
       <c r="CW66" s="41"/>
-      <c r="CX66" s="9"/>
+      <c r="CX66" s="46"/>
       <c r="CY66" s="9"/>
       <c r="CZ66" s="9"/>
       <c r="DA66" s="9"/>
@@ -31616,35 +31683,37 @@
       <c r="CK67" s="27">
         <v>12.262670301733891</v>
       </c>
-      <c r="CL67" s="27">
-        <v>17.357767854053634</v>
-      </c>
-      <c r="CM67" s="27">
-        <v>8.3282863843339641</v>
-      </c>
-      <c r="CN67" s="27">
-        <v>18.671695321857086</v>
-      </c>
-      <c r="CO67" s="27">
-        <v>12.717942117231246</v>
+      <c r="CL67" s="41">
+        <v>17.464138287879891</v>
+      </c>
+      <c r="CM67" s="41">
+        <v>8.1756369101074711</v>
+      </c>
+      <c r="CN67" s="41">
+        <v>18.761153860365567</v>
+      </c>
+      <c r="CO67" s="41">
+        <v>12.884376005380901</v>
       </c>
       <c r="CP67" s="41">
-        <v>8.7598305559312308</v>
+        <v>8.9906720663158097</v>
       </c>
       <c r="CQ67" s="41">
-        <v>17.524089875830512</v>
+        <v>17.367800940680709</v>
       </c>
       <c r="CR67" s="41">
-        <v>9.608225113423984</v>
+        <v>9.6783170067493103</v>
       </c>
       <c r="CS67" s="41">
-        <v>8.8580347947718678</v>
-      </c>
-      <c r="CT67" s="46"/>
+        <v>8.8035513547393975</v>
+      </c>
+      <c r="CT67" s="41">
+        <v>7.5280477553042005</v>
+      </c>
       <c r="CU67" s="46"/>
       <c r="CV67" s="46"/>
       <c r="CW67" s="41"/>
-      <c r="CX67" s="9"/>
+      <c r="CX67" s="46"/>
       <c r="CY67" s="9"/>
       <c r="CZ67" s="9"/>
       <c r="DA67" s="9"/>
@@ -31754,34 +31823,35 @@
       <c r="CI68" s="14"/>
       <c r="CJ68" s="14"/>
       <c r="CK68" s="14"/>
-      <c r="CL68" s="14"/>
-      <c r="CM68" s="14"/>
-      <c r="CN68" s="14"/>
-      <c r="CO68" s="14"/>
+      <c r="CL68" s="37"/>
+      <c r="CM68" s="37"/>
+      <c r="CN68" s="37"/>
+      <c r="CO68" s="37"/>
       <c r="CP68" s="37"/>
       <c r="CQ68" s="37"/>
       <c r="CR68" s="37"/>
       <c r="CS68" s="37"/>
-      <c r="CT68" s="32"/>
+      <c r="CT68" s="37"/>
       <c r="CU68" s="32"/>
       <c r="CV68" s="32"/>
       <c r="CW68" s="37"/>
+      <c r="CX68" s="32"/>
     </row>
     <row r="69" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="CT69" s="45"/>
       <c r="CU69" s="45"/>
       <c r="CV69" s="45"/>
+      <c r="CX69" s="45"/>
     </row>
     <row r="70" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CT70" s="45"/>
       <c r="CU70" s="45"/>
       <c r="CV70" s="45"/>
+      <c r="CX70" s="45"/>
     </row>
     <row r="71" spans="1:120" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="9"/>
@@ -31872,19 +31942,19 @@
       <c r="CI71" s="9"/>
       <c r="CJ71" s="9"/>
       <c r="CK71" s="9"/>
-      <c r="CL71" s="9"/>
-      <c r="CM71" s="9"/>
-      <c r="CN71" s="9"/>
-      <c r="CO71" s="9"/>
+      <c r="CL71" s="34"/>
+      <c r="CM71" s="34"/>
+      <c r="CN71" s="34"/>
+      <c r="CO71" s="34"/>
       <c r="CP71" s="34"/>
       <c r="CQ71" s="34"/>
       <c r="CR71" s="34"/>
       <c r="CS71" s="34"/>
-      <c r="CT71" s="49"/>
+      <c r="CT71" s="34"/>
       <c r="CU71" s="49"/>
       <c r="CV71" s="49"/>
       <c r="CW71" s="34"/>
-      <c r="CX71" s="9"/>
+      <c r="CX71" s="49"/>
       <c r="CY71" s="9"/>
       <c r="CZ71" s="9"/>
       <c r="DA71" s="9"/>
@@ -31993,19 +32063,19 @@
       <c r="CI72" s="9"/>
       <c r="CJ72" s="9"/>
       <c r="CK72" s="9"/>
-      <c r="CL72" s="9"/>
-      <c r="CM72" s="9"/>
-      <c r="CN72" s="9"/>
-      <c r="CO72" s="9"/>
+      <c r="CL72" s="34"/>
+      <c r="CM72" s="34"/>
+      <c r="CN72" s="34"/>
+      <c r="CO72" s="34"/>
       <c r="CP72" s="34"/>
       <c r="CQ72" s="34"/>
       <c r="CR72" s="34"/>
       <c r="CS72" s="34"/>
-      <c r="CT72" s="49"/>
+      <c r="CT72" s="34"/>
       <c r="CU72" s="49"/>
       <c r="CV72" s="49"/>
       <c r="CW72" s="34"/>
-      <c r="CX72" s="9"/>
+      <c r="CX72" s="49"/>
       <c r="CY72" s="9"/>
       <c r="CZ72" s="9"/>
       <c r="DA72" s="9"/>
@@ -32029,59 +32099,59 @@
       <c r="A73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CT73" s="45"/>
       <c r="CU73" s="45"/>
       <c r="CV73" s="45"/>
+      <c r="CX73" s="45"/>
     </row>
     <row r="74" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CT74" s="45"/>
       <c r="CU74" s="45"/>
       <c r="CV74" s="45"/>
+      <c r="CX74" s="45"/>
     </row>
     <row r="75" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CT75" s="45"/>
+        <v>56</v>
+      </c>
       <c r="CU75" s="45"/>
       <c r="CV75" s="45"/>
+      <c r="CX75" s="45"/>
     </row>
     <row r="76" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="CT76" s="45"/>
       <c r="CU76" s="45"/>
       <c r="CV76" s="45"/>
+      <c r="CX76" s="45"/>
     </row>
     <row r="77" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="CT77" s="45"/>
       <c r="CU77" s="45"/>
       <c r="CV77" s="45"/>
+      <c r="CX77" s="45"/>
     </row>
     <row r="78" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="CT78" s="45"/>
+        <v>55</v>
+      </c>
       <c r="CU78" s="45"/>
       <c r="CV78" s="45"/>
+      <c r="CX78" s="45"/>
     </row>
     <row r="79" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="CT79" s="45"/>
       <c r="CU79" s="45"/>
       <c r="CV79" s="45"/>
+      <c r="CX79" s="45"/>
     </row>
     <row r="80" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="CT80" s="45"/>
       <c r="CU80" s="45"/>
       <c r="CV80" s="45"/>
+      <c r="CX80" s="45"/>
     </row>
     <row r="81" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
@@ -32217,22 +32287,25 @@
       <c r="CI81" s="29"/>
       <c r="CJ81" s="29"/>
       <c r="CK81" s="29"/>
-      <c r="CL81" s="29" t="s">
+      <c r="CL81" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="CM81" s="29"/>
-      <c r="CN81" s="29"/>
-      <c r="CO81" s="29"/>
+      <c r="CM81" s="31"/>
+      <c r="CN81" s="31"/>
+      <c r="CO81" s="31"/>
       <c r="CP81" s="31" t="s">
         <v>52</v>
       </c>
       <c r="CQ81" s="31"/>
       <c r="CR81" s="31"/>
       <c r="CS81" s="31"/>
-      <c r="CT81" s="39"/>
+      <c r="CT81" s="31" t="s">
+        <v>53</v>
+      </c>
       <c r="CU81" s="39"/>
       <c r="CV81" s="39"/>
       <c r="CW81" s="39"/>
+      <c r="CX81" s="39"/>
     </row>
     <row r="82" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
@@ -32502,16 +32575,16 @@
       <c r="CK82" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL82" s="6" t="s">
+      <c r="CL82" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CM82" s="6" t="s">
+      <c r="CM82" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CN82" s="6" t="s">
+      <c r="CN82" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CO82" s="6" t="s">
+      <c r="CO82" s="32" t="s">
         <v>8</v>
       </c>
       <c r="CP82" s="32" t="s">
@@ -32526,16 +32599,19 @@
       <c r="CS82" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CT82" s="32"/>
+      <c r="CT82" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="CU82" s="32"/>
       <c r="CV82" s="32"/>
       <c r="CW82" s="32"/>
+      <c r="CX82" s="32"/>
     </row>
     <row r="83" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
-      <c r="CT83" s="45"/>
       <c r="CU83" s="45"/>
       <c r="CV83" s="45"/>
+      <c r="CX83" s="45"/>
     </row>
     <row r="84" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
@@ -32805,35 +32881,37 @@
       <c r="CK84" s="27">
         <v>8.903477003322152</v>
       </c>
-      <c r="CL84" s="27">
-        <v>3.9217420013819293</v>
-      </c>
-      <c r="CM84" s="27">
-        <v>0.84642025413224076</v>
-      </c>
-      <c r="CN84" s="27">
-        <v>27.33603916502534</v>
-      </c>
-      <c r="CO84" s="27">
-        <v>14.942232835606873</v>
+      <c r="CL84" s="41">
+        <v>4.9863902037363204</v>
+      </c>
+      <c r="CM84" s="41">
+        <v>0.70104054118955617</v>
+      </c>
+      <c r="CN84" s="41">
+        <v>27.022070218690502</v>
+      </c>
+      <c r="CO84" s="41">
+        <v>15.512354103290221</v>
       </c>
       <c r="CP84" s="41">
-        <v>12.050615935135696</v>
+        <v>12.554281952093334</v>
       </c>
       <c r="CQ84" s="41">
-        <v>21.71569433472753</v>
+        <v>21.384212826293592</v>
       </c>
       <c r="CR84" s="41">
-        <v>3.7336636558014789</v>
+        <v>4.4612966014584856</v>
       </c>
       <c r="CS84" s="41">
-        <v>4.8688419219940613</v>
-      </c>
-      <c r="CT84" s="46"/>
+        <v>4.2404054084184395</v>
+      </c>
+      <c r="CT84" s="41">
+        <v>8.2395958519470014</v>
+      </c>
       <c r="CU84" s="46"/>
       <c r="CV84" s="46"/>
       <c r="CW84" s="41"/>
-      <c r="CX84" s="9"/>
+      <c r="CX84" s="46"/>
       <c r="CY84" s="9"/>
       <c r="CZ84" s="9"/>
       <c r="DA84" s="9"/>
@@ -33121,35 +33199,37 @@
       <c r="CK85" s="27">
         <v>9.7442392367787249</v>
       </c>
-      <c r="CL85" s="27">
-        <v>19.434930325097952</v>
-      </c>
-      <c r="CM85" s="27">
-        <v>12.421207823803002</v>
-      </c>
-      <c r="CN85" s="27">
-        <v>4.1568662001320291</v>
-      </c>
-      <c r="CO85" s="27">
-        <v>3.8731673577346584</v>
+      <c r="CL85" s="41">
+        <v>19.315021533412335</v>
+      </c>
+      <c r="CM85" s="41">
+        <v>12.58609540571338</v>
+      </c>
+      <c r="CN85" s="41">
+        <v>5.2624032822978393</v>
+      </c>
+      <c r="CO85" s="41">
+        <v>4.6066913752143392</v>
       </c>
       <c r="CP85" s="41">
-        <v>6.7659478501360439</v>
+        <v>7.0459539051271207</v>
       </c>
       <c r="CQ85" s="41">
-        <v>14.008168589283216</v>
+        <v>13.271224463458935</v>
       </c>
       <c r="CR85" s="41">
-        <v>14.159542484244142</v>
+        <v>14.308250596412407</v>
       </c>
       <c r="CS85" s="41">
-        <v>5.7230596128297293</v>
-      </c>
-      <c r="CT85" s="46"/>
+        <v>5.4831564865872764</v>
+      </c>
+      <c r="CT85" s="41">
+        <v>1.5782930778772908</v>
+      </c>
       <c r="CU85" s="46"/>
       <c r="CV85" s="46"/>
       <c r="CW85" s="41"/>
-      <c r="CX85" s="9"/>
+      <c r="CX85" s="46"/>
       <c r="CY85" s="9"/>
       <c r="CZ85" s="9"/>
       <c r="DA85" s="9"/>
@@ -33437,35 +33517,37 @@
       <c r="CK86" s="27">
         <v>7.57350588790014</v>
       </c>
-      <c r="CL86" s="27">
-        <v>17.20906749626765</v>
-      </c>
-      <c r="CM86" s="27">
-        <v>-4.5910776645041267</v>
-      </c>
-      <c r="CN86" s="27">
-        <v>7.1269782064351972</v>
-      </c>
-      <c r="CO86" s="27">
-        <v>10.605522369928934</v>
+      <c r="CL86" s="41">
+        <v>16.904423162149129</v>
+      </c>
+      <c r="CM86" s="41">
+        <v>-5.28512909174502</v>
+      </c>
+      <c r="CN86" s="41">
+        <v>6.4821516026574812</v>
+      </c>
+      <c r="CO86" s="41">
+        <v>9.9729529318361045</v>
       </c>
       <c r="CP86" s="41">
-        <v>3.0488314127610892</v>
+        <v>3.1112010136739627</v>
       </c>
       <c r="CQ86" s="41">
-        <v>5.2757054074565275</v>
+        <v>6.0341953426439545</v>
       </c>
       <c r="CR86" s="41">
-        <v>9.0394429007118191</v>
+        <v>8.8146602748797989</v>
       </c>
       <c r="CS86" s="41">
-        <v>12.792916874366384</v>
-      </c>
-      <c r="CT86" s="46"/>
+        <v>13.472880065924016</v>
+      </c>
+      <c r="CT86" s="41">
+        <v>13.937593325386217</v>
+      </c>
       <c r="CU86" s="46"/>
       <c r="CV86" s="46"/>
       <c r="CW86" s="41"/>
-      <c r="CX86" s="9"/>
+      <c r="CX86" s="46"/>
       <c r="CY86" s="9"/>
       <c r="CZ86" s="9"/>
       <c r="DA86" s="9"/>
@@ -33574,19 +33656,19 @@
       <c r="CI87" s="20"/>
       <c r="CJ87" s="20"/>
       <c r="CK87" s="20"/>
-      <c r="CL87" s="20"/>
-      <c r="CM87" s="20"/>
-      <c r="CN87" s="20"/>
-      <c r="CO87" s="20"/>
+      <c r="CL87" s="42"/>
+      <c r="CM87" s="42"/>
+      <c r="CN87" s="42"/>
+      <c r="CO87" s="42"/>
       <c r="CP87" s="42"/>
       <c r="CQ87" s="42"/>
       <c r="CR87" s="42"/>
       <c r="CS87" s="42"/>
-      <c r="CT87" s="47"/>
+      <c r="CT87" s="42"/>
       <c r="CU87" s="47"/>
       <c r="CV87" s="47"/>
       <c r="CW87" s="42"/>
-      <c r="CX87" s="9"/>
+      <c r="CX87" s="47"/>
       <c r="CY87" s="9"/>
       <c r="CZ87" s="9"/>
       <c r="DA87" s="9"/>
@@ -33874,35 +33956,37 @@
       <c r="CK88" s="27">
         <v>8.7110920341761755</v>
       </c>
-      <c r="CL88" s="27">
-        <v>14.724402005237096</v>
-      </c>
-      <c r="CM88" s="27">
-        <v>2.5299738491944197</v>
-      </c>
-      <c r="CN88" s="27">
-        <v>12.771894374388083</v>
-      </c>
-      <c r="CO88" s="27">
-        <v>10.092964014996909</v>
+      <c r="CL88" s="41">
+        <v>14.859042767849147</v>
+      </c>
+      <c r="CM88" s="41">
+        <v>2.3401349627786914</v>
+      </c>
+      <c r="CN88" s="41">
+        <v>12.874748789433781</v>
+      </c>
+      <c r="CO88" s="41">
+        <v>10.312077186391932</v>
       </c>
       <c r="CP88" s="41">
-        <v>6.8902622331467995</v>
+        <v>7.173557942095357</v>
       </c>
       <c r="CQ88" s="41">
-        <v>16.202239396099614</v>
+        <v>15.995041699085704</v>
       </c>
       <c r="CR88" s="41">
-        <v>8.7677638851832285</v>
+        <v>9.0500261385875405</v>
       </c>
       <c r="CS88" s="41">
-        <v>7.7724812556025995</v>
-      </c>
-      <c r="CT88" s="46"/>
+        <v>7.6732767621970623</v>
+      </c>
+      <c r="CT88" s="41">
+        <v>6.8353490959614192</v>
+      </c>
       <c r="CU88" s="46"/>
       <c r="CV88" s="46"/>
       <c r="CW88" s="41"/>
-      <c r="CX88" s="9"/>
+      <c r="CX88" s="46"/>
       <c r="CY88" s="9"/>
       <c r="CZ88" s="9"/>
       <c r="DA88" s="9"/>
@@ -34012,18 +34096,19 @@
       <c r="CI89" s="23"/>
       <c r="CJ89" s="23"/>
       <c r="CK89" s="23"/>
-      <c r="CL89" s="23"/>
-      <c r="CM89" s="23"/>
-      <c r="CN89" s="23"/>
-      <c r="CO89" s="23"/>
+      <c r="CL89" s="43"/>
+      <c r="CM89" s="43"/>
+      <c r="CN89" s="43"/>
+      <c r="CO89" s="43"/>
       <c r="CP89" s="43"/>
       <c r="CQ89" s="43"/>
       <c r="CR89" s="43"/>
       <c r="CS89" s="43"/>
-      <c r="CT89" s="48"/>
+      <c r="CT89" s="43"/>
       <c r="CU89" s="48"/>
       <c r="CV89" s="48"/>
       <c r="CW89" s="43"/>
+      <c r="CX89" s="48"/>
     </row>
     <row r="90" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
@@ -34115,19 +34200,19 @@
       <c r="CI90" s="27"/>
       <c r="CJ90" s="27"/>
       <c r="CK90" s="27"/>
-      <c r="CL90" s="27"/>
-      <c r="CM90" s="27"/>
-      <c r="CN90" s="27"/>
-      <c r="CO90" s="27"/>
+      <c r="CL90" s="41"/>
+      <c r="CM90" s="41"/>
+      <c r="CN90" s="41"/>
+      <c r="CO90" s="41"/>
       <c r="CP90" s="41"/>
       <c r="CQ90" s="41"/>
       <c r="CR90" s="41"/>
       <c r="CS90" s="41"/>
-      <c r="CT90" s="46"/>
+      <c r="CT90" s="41"/>
       <c r="CU90" s="46"/>
       <c r="CV90" s="46"/>
       <c r="CW90" s="41"/>
-      <c r="CX90" s="9"/>
+      <c r="CX90" s="46"/>
       <c r="CY90" s="9"/>
       <c r="CZ90" s="9"/>
       <c r="DA90" s="9"/>
@@ -34415,35 +34500,37 @@
       <c r="CK91" s="27">
         <v>6.4526987482189924</v>
       </c>
-      <c r="CL91" s="27">
-        <v>11.039666004218972</v>
-      </c>
-      <c r="CM91" s="27">
-        <v>3.5101785733274085</v>
-      </c>
-      <c r="CN91" s="27">
-        <v>14.475213804263419</v>
-      </c>
-      <c r="CO91" s="27">
-        <v>8.3875055458356087</v>
+      <c r="CL91" s="41">
+        <v>11.140309853030757</v>
+      </c>
+      <c r="CM91" s="41">
+        <v>3.3643184765448382</v>
+      </c>
+      <c r="CN91" s="41">
+        <v>14.5615089001125</v>
+      </c>
+      <c r="CO91" s="41">
+        <v>8.5475453197703786</v>
       </c>
       <c r="CP91" s="41">
-        <v>7.0265566174077918</v>
+        <v>7.0936472804378923</v>
       </c>
       <c r="CQ91" s="41">
-        <v>16.082254141721435</v>
+        <v>15.928453539328729</v>
       </c>
       <c r="CR91" s="41">
-        <v>9.0050640170679515</v>
+        <v>9.0204278949880461</v>
       </c>
       <c r="CS91" s="41">
-        <v>7.8250718268217554</v>
-      </c>
-      <c r="CT91" s="46"/>
+        <v>7.715598933927879</v>
+      </c>
+      <c r="CT91" s="41">
+        <v>6.7625704357575671</v>
+      </c>
       <c r="CU91" s="46"/>
       <c r="CV91" s="46"/>
       <c r="CW91" s="41"/>
-      <c r="CX91" s="9"/>
+      <c r="CX91" s="46"/>
       <c r="CY91" s="9"/>
       <c r="CZ91" s="9"/>
       <c r="DA91" s="9"/>
@@ -34553,34 +34640,35 @@
       <c r="CI92" s="14"/>
       <c r="CJ92" s="14"/>
       <c r="CK92" s="14"/>
-      <c r="CL92" s="14"/>
-      <c r="CM92" s="14"/>
-      <c r="CN92" s="14"/>
-      <c r="CO92" s="14"/>
+      <c r="CL92" s="37"/>
+      <c r="CM92" s="37"/>
+      <c r="CN92" s="37"/>
+      <c r="CO92" s="37"/>
       <c r="CP92" s="37"/>
       <c r="CQ92" s="37"/>
       <c r="CR92" s="37"/>
       <c r="CS92" s="37"/>
-      <c r="CT92" s="32"/>
+      <c r="CT92" s="37"/>
       <c r="CU92" s="32"/>
       <c r="CV92" s="32"/>
       <c r="CW92" s="37"/>
+      <c r="CX92" s="32"/>
     </row>
     <row r="93" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="CT93" s="45"/>
       <c r="CU93" s="45"/>
       <c r="CV93" s="45"/>
+      <c r="CX93" s="45"/>
     </row>
     <row r="94" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CT94" s="45"/>
       <c r="CU94" s="45"/>
       <c r="CV94" s="45"/>
+      <c r="CX94" s="45"/>
     </row>
     <row r="95" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="9"/>
@@ -34671,19 +34759,19 @@
       <c r="CI95" s="9"/>
       <c r="CJ95" s="9"/>
       <c r="CK95" s="9"/>
-      <c r="CL95" s="9"/>
-      <c r="CM95" s="9"/>
-      <c r="CN95" s="9"/>
-      <c r="CO95" s="9"/>
+      <c r="CL95" s="34"/>
+      <c r="CM95" s="34"/>
+      <c r="CN95" s="34"/>
+      <c r="CO95" s="34"/>
       <c r="CP95" s="34"/>
       <c r="CQ95" s="34"/>
       <c r="CR95" s="34"/>
       <c r="CS95" s="34"/>
-      <c r="CT95" s="49"/>
+      <c r="CT95" s="34"/>
       <c r="CU95" s="49"/>
       <c r="CV95" s="49"/>
       <c r="CW95" s="34"/>
-      <c r="CX95" s="9"/>
+      <c r="CX95" s="49"/>
       <c r="CY95" s="9"/>
       <c r="CZ95" s="9"/>
       <c r="DA95" s="9"/>
@@ -34800,19 +34888,19 @@
       <c r="CI96" s="9"/>
       <c r="CJ96" s="9"/>
       <c r="CK96" s="9"/>
-      <c r="CL96" s="9"/>
-      <c r="CM96" s="9"/>
-      <c r="CN96" s="9"/>
-      <c r="CO96" s="9"/>
+      <c r="CL96" s="34"/>
+      <c r="CM96" s="34"/>
+      <c r="CN96" s="34"/>
+      <c r="CO96" s="34"/>
       <c r="CP96" s="34"/>
       <c r="CQ96" s="34"/>
       <c r="CR96" s="34"/>
       <c r="CS96" s="34"/>
-      <c r="CT96" s="49"/>
+      <c r="CT96" s="34"/>
       <c r="CU96" s="49"/>
       <c r="CV96" s="49"/>
       <c r="CW96" s="34"/>
-      <c r="CX96" s="9"/>
+      <c r="CX96" s="49"/>
       <c r="CY96" s="9"/>
       <c r="CZ96" s="9"/>
       <c r="DA96" s="9"/>
@@ -34844,17 +34932,17 @@
       <c r="A97" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CT97" s="45"/>
       <c r="CU97" s="45"/>
       <c r="CV97" s="45"/>
+      <c r="CX97" s="45"/>
     </row>
     <row r="98" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CT98" s="45"/>
+        <v>56</v>
+      </c>
       <c r="CU98" s="45"/>
       <c r="CV98" s="45"/>
+      <c r="CX98" s="45"/>
     </row>
     <row r="100" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
@@ -34863,7 +34951,7 @@
     </row>
     <row r="101" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:128" x14ac:dyDescent="0.2">
@@ -35005,12 +35093,12 @@
       <c r="CI104" s="29"/>
       <c r="CJ104" s="29"/>
       <c r="CK104" s="29"/>
-      <c r="CL104" s="29">
+      <c r="CL104" s="31">
         <v>2022</v>
       </c>
-      <c r="CM104" s="29"/>
-      <c r="CN104" s="29"/>
-      <c r="CO104" s="29"/>
+      <c r="CM104" s="31"/>
+      <c r="CN104" s="31"/>
+      <c r="CO104" s="31"/>
       <c r="CP104" s="31">
         <v>2023</v>
       </c>
@@ -35023,6 +35111,9 @@
       <c r="CU104" s="31"/>
       <c r="CV104" s="31"/>
       <c r="CW104" s="31"/>
+      <c r="CX104" s="31">
+        <v>2025</v>
+      </c>
     </row>
     <row r="105" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
@@ -35292,16 +35383,16 @@
       <c r="CK105" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL105" s="6" t="s">
+      <c r="CL105" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CM105" s="6" t="s">
+      <c r="CM105" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CN105" s="6" t="s">
+      <c r="CN105" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CO105" s="6" t="s">
+      <c r="CO105" s="32" t="s">
         <v>8</v>
       </c>
       <c r="CP105" s="32" t="s">
@@ -35327,6 +35418,9 @@
       </c>
       <c r="CW105" s="32" t="s">
         <v>8</v>
+      </c>
+      <c r="CX105" s="32" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35600,23 +35694,23 @@
       <c r="CK107" s="28">
         <v>106.21754603887462</v>
       </c>
-      <c r="CL107" s="28">
+      <c r="CL107" s="44">
         <v>118.25131129672859</v>
       </c>
-      <c r="CM107" s="28">
+      <c r="CM107" s="44">
         <v>114.57257766337547</v>
       </c>
-      <c r="CN107" s="28">
+      <c r="CN107" s="44">
         <v>122.62165230996858</v>
       </c>
-      <c r="CO107" s="28">
+      <c r="CO107" s="44">
         <v>113.06596793902651</v>
       </c>
       <c r="CP107" s="44">
         <v>123.6716607579412</v>
       </c>
       <c r="CQ107" s="44">
-        <v>118.57261053405847</v>
+        <v>118.5726105340585</v>
       </c>
       <c r="CR107" s="44">
         <v>126.5749555251485</v>
@@ -35625,18 +35719,20 @@
         <v>115.60381848478765</v>
       </c>
       <c r="CT107" s="44">
-        <v>125.85548019823618</v>
+        <v>125.8936074437331</v>
       </c>
       <c r="CU107" s="44">
         <v>120.64519182059186</v>
       </c>
       <c r="CV107" s="44">
-        <v>127.03788225351144</v>
+        <v>127.0680645237311</v>
       </c>
       <c r="CW107" s="44">
-        <v>115.96052050611208</v>
-      </c>
-      <c r="CX107" s="9"/>
+        <v>116.00933217478344</v>
+      </c>
+      <c r="CX107" s="44">
+        <v>126.84232101123092</v>
+      </c>
       <c r="CY107" s="9"/>
       <c r="CZ107" s="9"/>
       <c r="DA107" s="9"/>
@@ -35932,23 +36028,23 @@
       <c r="CK108" s="28">
         <v>110.73024143143924</v>
       </c>
-      <c r="CL108" s="28">
+      <c r="CL108" s="44">
         <v>107.54341899152915</v>
       </c>
-      <c r="CM108" s="28">
+      <c r="CM108" s="44">
         <v>111.08291366590714</v>
       </c>
-      <c r="CN108" s="28">
+      <c r="CN108" s="44">
         <v>127.4690886675059</v>
       </c>
-      <c r="CO108" s="28">
+      <c r="CO108" s="44">
         <v>118.02122849001971</v>
       </c>
       <c r="CP108" s="44">
         <v>112.52959510079509</v>
       </c>
       <c r="CQ108" s="44">
-        <v>114.87585282367101</v>
+        <v>114.87585282367098</v>
       </c>
       <c r="CR108" s="44">
         <v>131.4595374062072</v>
@@ -35957,18 +36053,20 @@
         <v>120.60845797822152</v>
       </c>
       <c r="CT108" s="44">
-        <v>114.68319038278906</v>
+        <v>114.71182846632395</v>
       </c>
       <c r="CU108" s="44">
         <v>117.89445656535182</v>
       </c>
       <c r="CV108" s="44">
-        <v>132.33484047066923</v>
+        <v>132.36036125255538</v>
       </c>
       <c r="CW108" s="44">
-        <v>121.06639877017895</v>
-      </c>
-      <c r="CX108" s="9"/>
+        <v>121.10779250347279</v>
+      </c>
+      <c r="CX108" s="44">
+        <v>115.38737634595296</v>
+      </c>
       <c r="CY108" s="9"/>
       <c r="CZ108" s="9"/>
       <c r="DA108" s="9"/>
@@ -36264,16 +36362,16 @@
       <c r="CK109" s="28">
         <v>97.915217688209665</v>
       </c>
-      <c r="CL109" s="28">
+      <c r="CL109" s="44">
         <v>120.88706489356925</v>
       </c>
-      <c r="CM109" s="28">
+      <c r="CM109" s="44">
         <v>117.86389407813469</v>
       </c>
-      <c r="CN109" s="28">
+      <c r="CN109" s="44">
         <v>122.40033402613646</v>
       </c>
-      <c r="CO109" s="28">
+      <c r="CO109" s="44">
         <v>104.59721657791849</v>
       </c>
       <c r="CP109" s="44">
@@ -36283,24 +36381,26 @@
         <v>121.90941795215682</v>
       </c>
       <c r="CR109" s="44">
-        <v>126.04949292836322</v>
+        <v>126.04949292836321</v>
       </c>
       <c r="CS109" s="44">
         <v>106.86372608308884</v>
       </c>
       <c r="CT109" s="44">
-        <v>129.02491599764497</v>
+        <v>129.05433443851226</v>
       </c>
       <c r="CU109" s="44">
-        <v>124.8799969981895</v>
+        <v>124.82888658859652</v>
       </c>
       <c r="CV109" s="44">
-        <v>126.83743510768389</v>
+        <v>126.86086384913902</v>
       </c>
       <c r="CW109" s="44">
-        <v>106.99522517372333</v>
-      </c>
-      <c r="CX109" s="9"/>
+        <v>107.02941298941897</v>
+      </c>
+      <c r="CX109" s="44">
+        <v>129.73853805701157</v>
+      </c>
       <c r="CY109" s="9"/>
       <c r="CZ109" s="9"/>
       <c r="DA109" s="9"/>
@@ -36417,10 +36517,10 @@
       <c r="CI110" s="9"/>
       <c r="CJ110" s="9"/>
       <c r="CK110" s="9"/>
-      <c r="CL110" s="9"/>
-      <c r="CM110" s="9"/>
-      <c r="CN110" s="9"/>
-      <c r="CO110" s="9"/>
+      <c r="CL110" s="34"/>
+      <c r="CM110" s="34"/>
+      <c r="CN110" s="34"/>
+      <c r="CO110" s="34"/>
       <c r="CP110" s="34"/>
       <c r="CQ110" s="34"/>
       <c r="CR110" s="34"/>
@@ -36429,7 +36529,7 @@
       <c r="CU110" s="34"/>
       <c r="CV110" s="34"/>
       <c r="CW110" s="34"/>
-      <c r="CX110" s="9"/>
+      <c r="CX110" s="34"/>
       <c r="CY110" s="9"/>
       <c r="CZ110" s="9"/>
       <c r="DA110" s="9"/>
@@ -36725,43 +36825,45 @@
       <c r="CK111" s="28">
         <v>104.79255425616898</v>
       </c>
-      <c r="CL111" s="28">
+      <c r="CL111" s="44">
         <v>114.2946635793672</v>
       </c>
-      <c r="CM111" s="28">
+      <c r="CM111" s="44">
         <v>114.43231785914989</v>
       </c>
-      <c r="CN111" s="28">
+      <c r="CN111" s="44">
         <v>124.32024450803681</v>
       </c>
-      <c r="CO111" s="28">
+      <c r="CO111" s="44">
         <v>111.76384236285124</v>
       </c>
       <c r="CP111" s="44">
-        <v>119.49881203679189</v>
+        <v>119.50635909890867</v>
       </c>
       <c r="CQ111" s="44">
-        <v>118.25005952080201</v>
+        <v>118.24294111728916</v>
       </c>
       <c r="CR111" s="44">
-        <v>128.06700273874557</v>
+        <v>128.08397816055506</v>
       </c>
       <c r="CS111" s="44">
-        <v>114.12586187951865</v>
+        <v>114.15574731361527</v>
       </c>
       <c r="CT111" s="44">
-        <v>121.64040555085265</v>
+        <v>121.67760377174164</v>
       </c>
       <c r="CU111" s="44">
-        <v>120.69950323573802</v>
+        <v>120.69370552136107</v>
       </c>
       <c r="CV111" s="44">
-        <v>128.85036969170281</v>
+        <v>128.89332865194524</v>
       </c>
       <c r="CW111" s="44">
-        <v>114.26830654697224</v>
-      </c>
-      <c r="CX111" s="9"/>
+        <v>114.3177474257335</v>
+      </c>
+      <c r="CX111" s="44">
+        <v>122.73879101055998</v>
+      </c>
       <c r="CY111" s="9"/>
       <c r="CZ111" s="9"/>
       <c r="DA111" s="9"/>
@@ -36879,10 +36981,10 @@
       <c r="CI112" s="12"/>
       <c r="CJ112" s="12"/>
       <c r="CK112" s="12"/>
-      <c r="CL112" s="12"/>
-      <c r="CM112" s="12"/>
-      <c r="CN112" s="12"/>
-      <c r="CO112" s="12"/>
+      <c r="CL112" s="36"/>
+      <c r="CM112" s="36"/>
+      <c r="CN112" s="36"/>
+      <c r="CO112" s="36"/>
       <c r="CP112" s="36"/>
       <c r="CQ112" s="36"/>
       <c r="CR112" s="36"/>
@@ -36891,6 +36993,7 @@
       <c r="CU112" s="36"/>
       <c r="CV112" s="36"/>
       <c r="CW112" s="36"/>
+      <c r="CX112" s="36"/>
     </row>
     <row r="113" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
@@ -36982,10 +37085,10 @@
       <c r="CI113" s="26"/>
       <c r="CJ113" s="26"/>
       <c r="CK113" s="26"/>
-      <c r="CL113" s="26"/>
-      <c r="CM113" s="26"/>
-      <c r="CN113" s="26"/>
-      <c r="CO113" s="26"/>
+      <c r="CL113" s="35"/>
+      <c r="CM113" s="35"/>
+      <c r="CN113" s="35"/>
+      <c r="CO113" s="35"/>
       <c r="CP113" s="35"/>
       <c r="CQ113" s="35"/>
       <c r="CR113" s="35"/>
@@ -36994,7 +37097,7 @@
       <c r="CU113" s="35"/>
       <c r="CV113" s="35"/>
       <c r="CW113" s="35"/>
-      <c r="CX113" s="9"/>
+      <c r="CX113" s="35"/>
       <c r="CY113" s="9"/>
       <c r="CZ113" s="9"/>
       <c r="DA113" s="9"/>
@@ -37290,43 +37393,45 @@
       <c r="CK114" s="28">
         <v>103.35734241193842</v>
       </c>
-      <c r="CL114" s="28">
+      <c r="CL114" s="44">
         <v>113.85569275509874</v>
       </c>
-      <c r="CM114" s="28">
+      <c r="CM114" s="44">
         <v>125.91194731850412</v>
       </c>
-      <c r="CN114" s="28">
+      <c r="CN114" s="44">
         <v>116.61226957356807</v>
       </c>
-      <c r="CO114" s="28">
+      <c r="CO114" s="44">
         <v>108.99837571895273</v>
       </c>
       <c r="CP114" s="44">
-        <v>120.33402512853064</v>
+        <v>120.33402512853067</v>
       </c>
       <c r="CQ114" s="44">
-        <v>131.77279448576672</v>
+        <v>131.7727944857667</v>
       </c>
       <c r="CR114" s="44">
-        <v>120.88709219872489</v>
+        <v>120.88709219872491</v>
       </c>
       <c r="CS114" s="44">
-        <v>113.35321855862364</v>
+        <v>113.35321855862365</v>
       </c>
       <c r="CT114" s="44">
-        <v>122.28281089035325</v>
+        <v>122.46558600118924</v>
       </c>
       <c r="CU114" s="44">
-        <v>133.40951945529594</v>
+        <v>133.40886245287399</v>
       </c>
       <c r="CV114" s="44">
-        <v>121.55600048957696</v>
+        <v>121.6165912774354</v>
       </c>
       <c r="CW114" s="44">
-        <v>114.43914110970779</v>
-      </c>
-      <c r="CX114" s="9"/>
+        <v>114.49811223937346</v>
+      </c>
+      <c r="CX114" s="44">
+        <v>123.3436524258386</v>
+      </c>
       <c r="CY114" s="9"/>
       <c r="CZ114" s="9"/>
       <c r="DA114" s="9"/>
@@ -37444,10 +37549,10 @@
       <c r="CI115" s="14"/>
       <c r="CJ115" s="14"/>
       <c r="CK115" s="14"/>
-      <c r="CL115" s="14"/>
-      <c r="CM115" s="14"/>
-      <c r="CN115" s="14"/>
-      <c r="CO115" s="14"/>
+      <c r="CL115" s="37"/>
+      <c r="CM115" s="37"/>
+      <c r="CN115" s="37"/>
+      <c r="CO115" s="37"/>
       <c r="CP115" s="37"/>
       <c r="CQ115" s="37"/>
       <c r="CR115" s="37"/>
@@ -37456,6 +37561,7 @@
       <c r="CU115" s="37"/>
       <c r="CV115" s="37"/>
       <c r="CW115" s="37"/>
+      <c r="CX115" s="37"/>
     </row>
     <row r="116" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
@@ -37479,7 +37585,7 @@
     </row>
     <row r="122" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="124" spans="1:128" x14ac:dyDescent="0.2">
@@ -37489,7 +37595,7 @@
     </row>
     <row r="125" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="1:128" x14ac:dyDescent="0.2">
@@ -37631,12 +37737,12 @@
       <c r="CI128" s="29"/>
       <c r="CJ128" s="29"/>
       <c r="CK128" s="29"/>
-      <c r="CL128" s="29">
+      <c r="CL128" s="31">
         <v>2022</v>
       </c>
-      <c r="CM128" s="29"/>
-      <c r="CN128" s="29"/>
-      <c r="CO128" s="29"/>
+      <c r="CM128" s="31"/>
+      <c r="CN128" s="31"/>
+      <c r="CO128" s="31"/>
       <c r="CP128" s="31">
         <v>2023</v>
       </c>
@@ -37649,6 +37755,9 @@
       <c r="CU128" s="31"/>
       <c r="CV128" s="31"/>
       <c r="CW128" s="31"/>
+      <c r="CX128" s="31">
+        <v>2025</v>
+      </c>
     </row>
     <row r="129" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -37918,16 +38027,16 @@
       <c r="CK129" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL129" s="6" t="s">
+      <c r="CL129" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CM129" s="6" t="s">
+      <c r="CM129" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CN129" s="6" t="s">
+      <c r="CN129" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CO129" s="6" t="s">
+      <c r="CO129" s="32" t="s">
         <v>8</v>
       </c>
       <c r="CP129" s="32" t="s">
@@ -37953,6 +38062,9 @@
       </c>
       <c r="CW129" s="32" t="s">
         <v>8</v>
+      </c>
+      <c r="CX129" s="32" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38226,43 +38338,45 @@
       <c r="CK131" s="28">
         <v>36.32377146201037</v>
       </c>
-      <c r="CL131" s="28">
+      <c r="CL131" s="44">
         <v>27.015604698257256</v>
       </c>
-      <c r="CM131" s="28">
+      <c r="CM131" s="44">
         <v>52.839712870775749</v>
       </c>
-      <c r="CN131" s="28">
+      <c r="CN131" s="44">
         <v>32.831024528702649</v>
       </c>
-      <c r="CO131" s="28">
+      <c r="CO131" s="44">
         <v>36.318137245695695</v>
       </c>
       <c r="CP131" s="44">
-        <v>24.478900193350405</v>
+        <v>24.699130776935245</v>
       </c>
       <c r="CQ131" s="44">
-        <v>52.050045488788129</v>
+        <v>52.074557768637632</v>
       </c>
       <c r="CR131" s="44">
-        <v>37.146690405575313</v>
+        <v>37.016426698974165</v>
       </c>
       <c r="CS131" s="44">
-        <v>37.966552085767361</v>
+        <v>38.069112717918387</v>
       </c>
       <c r="CT131" s="44">
-        <v>25.654034466394371</v>
+        <v>25.934023198682759</v>
       </c>
       <c r="CU131" s="44">
-        <v>54.346892759552375</v>
+        <v>54.320606539895145</v>
       </c>
       <c r="CV131" s="44">
-        <v>35.340824802907548</v>
+        <v>35.373426523532316</v>
       </c>
       <c r="CW131" s="44">
-        <v>37.011441903741542</v>
-      </c>
-      <c r="CX131" s="9"/>
+        <v>36.932251734010826</v>
+      </c>
+      <c r="CX131" s="44">
+        <v>26.244021985392624</v>
+      </c>
       <c r="CY131" s="9"/>
       <c r="CZ131" s="9"/>
       <c r="DA131" s="9"/>
@@ -38558,43 +38672,45 @@
       <c r="CK132" s="28">
         <v>32.17452413432855</v>
       </c>
-      <c r="CL132" s="28">
+      <c r="CL132" s="44">
         <v>41.633377168135674</v>
       </c>
-      <c r="CM132" s="28">
+      <c r="CM132" s="44">
         <v>24.25877974642891</v>
       </c>
-      <c r="CN132" s="28">
+      <c r="CN132" s="44">
         <v>37.346559045524295</v>
       </c>
-      <c r="CO132" s="28">
+      <c r="CO132" s="44">
         <v>32.459587193930304</v>
       </c>
       <c r="CP132" s="44">
-        <v>43.377296543098801</v>
+        <v>43.280216794853828</v>
       </c>
       <c r="CQ132" s="44">
-        <v>26.619210123795799</v>
+        <v>26.709310740914066</v>
       </c>
       <c r="CR132" s="44">
-        <v>34.532613800549996</v>
+        <v>34.862726195935281</v>
       </c>
       <c r="CS132" s="44">
-        <v>30.649379763291122</v>
+        <v>30.79644400639474</v>
       </c>
       <c r="CT132" s="44">
-        <v>43.378630546294268</v>
+        <v>43.280657369458794</v>
       </c>
       <c r="CU132" s="44">
-        <v>26.258937999284171</v>
+        <v>26.223948873392487</v>
       </c>
       <c r="CV132" s="44">
-        <v>36.26395324729134</v>
+        <v>36.563129601364651</v>
       </c>
       <c r="CW132" s="44">
-        <v>30.14308304356237</v>
-      </c>
-      <c r="CX132" s="9"/>
+        <v>30.252007964427179</v>
+      </c>
+      <c r="CX132" s="44">
+        <v>41.035401709403089</v>
+      </c>
       <c r="CY132" s="9"/>
       <c r="CZ132" s="9"/>
       <c r="DA132" s="9"/>
@@ -38890,43 +39006,45 @@
       <c r="CK133" s="28">
         <v>31.501704403661062</v>
       </c>
-      <c r="CL133" s="28">
+      <c r="CL133" s="44">
         <v>31.351018133607074</v>
       </c>
-      <c r="CM133" s="28">
+      <c r="CM133" s="44">
         <v>22.901507382795351</v>
       </c>
-      <c r="CN133" s="28">
+      <c r="CN133" s="44">
         <v>29.822416425773056</v>
       </c>
-      <c r="CO133" s="28">
+      <c r="CO133" s="44">
         <v>31.222275560373998</v>
       </c>
       <c r="CP133" s="44">
-        <v>32.143803263550794</v>
+        <v>32.020652428210923</v>
       </c>
       <c r="CQ133" s="44">
-        <v>21.330744387416065</v>
+        <v>21.216131490448312</v>
       </c>
       <c r="CR133" s="44">
-        <v>28.320695793874684</v>
+        <v>28.120847105090562</v>
       </c>
       <c r="CS133" s="44">
-        <v>31.384068150941513</v>
+        <v>31.134443275686884</v>
       </c>
       <c r="CT133" s="44">
-        <v>30.96733498731135</v>
+        <v>30.785319431858444</v>
       </c>
       <c r="CU133" s="44">
-        <v>19.394169241163453</v>
+        <v>19.455444586712371</v>
       </c>
       <c r="CV133" s="44">
-        <v>28.395221949801119</v>
+        <v>28.063443875103015</v>
       </c>
       <c r="CW133" s="44">
-        <v>32.845475052696102</v>
-      </c>
-      <c r="CX133" s="9"/>
+        <v>32.815740301562002</v>
+      </c>
+      <c r="CX133" s="44">
+        <v>32.72057630520429</v>
+      </c>
       <c r="CY133" s="9"/>
       <c r="CZ133" s="9"/>
       <c r="DA133" s="9"/>
@@ -39043,10 +39161,10 @@
       <c r="CI134" s="9"/>
       <c r="CJ134" s="9"/>
       <c r="CK134" s="9"/>
-      <c r="CL134" s="9"/>
-      <c r="CM134" s="9"/>
-      <c r="CN134" s="9"/>
-      <c r="CO134" s="9"/>
+      <c r="CL134" s="34"/>
+      <c r="CM134" s="34"/>
+      <c r="CN134" s="34"/>
+      <c r="CO134" s="34"/>
       <c r="CP134" s="34"/>
       <c r="CQ134" s="34"/>
       <c r="CR134" s="34"/>
@@ -39055,7 +39173,7 @@
       <c r="CU134" s="34"/>
       <c r="CV134" s="34"/>
       <c r="CW134" s="34"/>
-      <c r="CX134" s="9"/>
+      <c r="CX134" s="34"/>
       <c r="CY134" s="9"/>
       <c r="CZ134" s="9"/>
       <c r="DA134" s="9"/>
@@ -39351,16 +39469,16 @@
       <c r="CK135" s="28">
         <v>100</v>
       </c>
-      <c r="CL135" s="28">
+      <c r="CL135" s="44">
         <v>100</v>
       </c>
-      <c r="CM135" s="28">
+      <c r="CM135" s="44">
         <v>100</v>
       </c>
-      <c r="CN135" s="28">
+      <c r="CN135" s="44">
         <v>100</v>
       </c>
-      <c r="CO135" s="28">
+      <c r="CO135" s="44">
         <v>100</v>
       </c>
       <c r="CP135" s="44">
@@ -39387,7 +39505,9 @@
       <c r="CW135" s="44">
         <v>100</v>
       </c>
-      <c r="CX135" s="9"/>
+      <c r="CX135" s="44">
+        <v>100</v>
+      </c>
       <c r="CY135" s="9"/>
       <c r="CZ135" s="9"/>
       <c r="DA135" s="9"/>
@@ -39505,10 +39625,10 @@
       <c r="CI136" s="12"/>
       <c r="CJ136" s="12"/>
       <c r="CK136" s="12"/>
-      <c r="CL136" s="12"/>
-      <c r="CM136" s="12"/>
-      <c r="CN136" s="12"/>
-      <c r="CO136" s="12"/>
+      <c r="CL136" s="36"/>
+      <c r="CM136" s="36"/>
+      <c r="CN136" s="36"/>
+      <c r="CO136" s="36"/>
       <c r="CP136" s="36"/>
       <c r="CQ136" s="36"/>
       <c r="CR136" s="36"/>
@@ -39517,6 +39637,7 @@
       <c r="CU136" s="36"/>
       <c r="CV136" s="36"/>
       <c r="CW136" s="36"/>
+      <c r="CX136" s="36"/>
     </row>
     <row r="137" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
@@ -39608,10 +39729,10 @@
       <c r="CI137" s="26"/>
       <c r="CJ137" s="26"/>
       <c r="CK137" s="26"/>
-      <c r="CL137" s="26"/>
-      <c r="CM137" s="26"/>
-      <c r="CN137" s="26"/>
-      <c r="CO137" s="26"/>
+      <c r="CL137" s="35"/>
+      <c r="CM137" s="35"/>
+      <c r="CN137" s="35"/>
+      <c r="CO137" s="35"/>
       <c r="CP137" s="35"/>
       <c r="CQ137" s="35"/>
       <c r="CR137" s="35"/>
@@ -39620,7 +39741,7 @@
       <c r="CU137" s="35"/>
       <c r="CV137" s="35"/>
       <c r="CW137" s="35"/>
-      <c r="CX137" s="9"/>
+      <c r="CX137" s="35"/>
       <c r="CY137" s="9"/>
       <c r="CZ137" s="9"/>
       <c r="DA137" s="9"/>
@@ -39738,10 +39859,10 @@
       <c r="CI138" s="26"/>
       <c r="CJ138" s="26"/>
       <c r="CK138" s="26"/>
-      <c r="CL138" s="26"/>
-      <c r="CM138" s="26"/>
-      <c r="CN138" s="26"/>
-      <c r="CO138" s="26"/>
+      <c r="CL138" s="35"/>
+      <c r="CM138" s="35"/>
+      <c r="CN138" s="35"/>
+      <c r="CO138" s="35"/>
       <c r="CP138" s="35"/>
       <c r="CQ138" s="35"/>
       <c r="CR138" s="35"/>
@@ -39750,7 +39871,7 @@
       <c r="CU138" s="35"/>
       <c r="CV138" s="35"/>
       <c r="CW138" s="35"/>
-      <c r="CX138" s="9"/>
+      <c r="CX138" s="35"/>
       <c r="CY138" s="9"/>
       <c r="CZ138" s="9"/>
       <c r="DA138" s="9"/>
@@ -39868,10 +39989,10 @@
       <c r="CI139" s="14"/>
       <c r="CJ139" s="14"/>
       <c r="CK139" s="14"/>
-      <c r="CL139" s="14"/>
-      <c r="CM139" s="14"/>
-      <c r="CN139" s="14"/>
-      <c r="CO139" s="14"/>
+      <c r="CL139" s="37"/>
+      <c r="CM139" s="37"/>
+      <c r="CN139" s="37"/>
+      <c r="CO139" s="37"/>
       <c r="CP139" s="37"/>
       <c r="CQ139" s="37"/>
       <c r="CR139" s="37"/>
@@ -39880,6 +40001,7 @@
       <c r="CU139" s="37"/>
       <c r="CV139" s="37"/>
       <c r="CW139" s="37"/>
+      <c r="CX139" s="37"/>
     </row>
     <row r="140" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
@@ -39980,10 +40102,10 @@
       <c r="CI142" s="9"/>
       <c r="CJ142" s="9"/>
       <c r="CK142" s="9"/>
-      <c r="CL142" s="9"/>
-      <c r="CM142" s="9"/>
-      <c r="CN142" s="9"/>
-      <c r="CO142" s="9"/>
+      <c r="CL142" s="34"/>
+      <c r="CM142" s="34"/>
+      <c r="CN142" s="34"/>
+      <c r="CO142" s="34"/>
       <c r="CP142" s="34"/>
       <c r="CQ142" s="34"/>
       <c r="CR142" s="34"/>
@@ -39992,7 +40114,7 @@
       <c r="CU142" s="34"/>
       <c r="CV142" s="34"/>
       <c r="CW142" s="34"/>
-      <c r="CX142" s="9"/>
+      <c r="CX142" s="34"/>
       <c r="CY142" s="9"/>
       <c r="CZ142" s="9"/>
       <c r="DA142" s="9"/>
@@ -40109,10 +40231,10 @@
       <c r="CI143" s="9"/>
       <c r="CJ143" s="9"/>
       <c r="CK143" s="9"/>
-      <c r="CL143" s="9"/>
-      <c r="CM143" s="9"/>
-      <c r="CN143" s="9"/>
-      <c r="CO143" s="9"/>
+      <c r="CL143" s="34"/>
+      <c r="CM143" s="34"/>
+      <c r="CN143" s="34"/>
+      <c r="CO143" s="34"/>
       <c r="CP143" s="34"/>
       <c r="CQ143" s="34"/>
       <c r="CR143" s="34"/>
@@ -40121,7 +40243,7 @@
       <c r="CU143" s="34"/>
       <c r="CV143" s="34"/>
       <c r="CW143" s="34"/>
-      <c r="CX143" s="9"/>
+      <c r="CX143" s="34"/>
       <c r="CY143" s="9"/>
       <c r="CZ143" s="9"/>
       <c r="DA143" s="9"/>
@@ -40161,7 +40283,7 @@
     </row>
     <row r="146" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="148" spans="1:128" x14ac:dyDescent="0.2">
@@ -40171,7 +40293,7 @@
     </row>
     <row r="149" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="150" spans="1:128" x14ac:dyDescent="0.2">
@@ -40313,12 +40435,12 @@
       <c r="CI152" s="29"/>
       <c r="CJ152" s="29"/>
       <c r="CK152" s="29"/>
-      <c r="CL152" s="29">
+      <c r="CL152" s="31">
         <v>2022</v>
       </c>
-      <c r="CM152" s="29"/>
-      <c r="CN152" s="29"/>
-      <c r="CO152" s="29"/>
+      <c r="CM152" s="31"/>
+      <c r="CN152" s="31"/>
+      <c r="CO152" s="31"/>
       <c r="CP152" s="31">
         <v>2023</v>
       </c>
@@ -40331,6 +40453,9 @@
       <c r="CU152" s="31"/>
       <c r="CV152" s="31"/>
       <c r="CW152" s="31"/>
+      <c r="CX152" s="31">
+        <v>2025</v>
+      </c>
     </row>
     <row r="153" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
@@ -40600,16 +40725,16 @@
       <c r="CK153" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CL153" s="6" t="s">
+      <c r="CL153" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CM153" s="6" t="s">
+      <c r="CM153" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CN153" s="6" t="s">
+      <c r="CN153" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CO153" s="6" t="s">
+      <c r="CO153" s="32" t="s">
         <v>8</v>
       </c>
       <c r="CP153" s="32" t="s">
@@ -40635,6 +40760,9 @@
       </c>
       <c r="CW153" s="32" t="s">
         <v>8</v>
+      </c>
+      <c r="CX153" s="32" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40908,43 +41036,45 @@
       <c r="CK155" s="28">
         <v>35.836459546224845</v>
       </c>
-      <c r="CL155" s="28">
+      <c r="CL155" s="44">
         <v>26.111671968122245</v>
       </c>
-      <c r="CM155" s="28">
+      <c r="CM155" s="44">
         <v>52.775026469075272</v>
       </c>
-      <c r="CN155" s="28">
+      <c r="CN155" s="44">
         <v>33.285809805760181</v>
       </c>
-      <c r="CO155" s="28">
+      <c r="CO155" s="44">
         <v>35.899878982412034</v>
       </c>
       <c r="CP155" s="44">
-        <v>23.65294906808095</v>
+        <v>23.867256038847977</v>
       </c>
       <c r="CQ155" s="44">
-        <v>51.908454653966849</v>
+        <v>51.929774002717444</v>
       </c>
       <c r="CR155" s="44">
-        <v>37.584570203233866</v>
+        <v>37.457735372865194</v>
       </c>
       <c r="CS155" s="44">
-        <v>37.48116226759425</v>
+        <v>37.592253169838798</v>
       </c>
       <c r="CT155" s="44">
-        <v>24.794845258963118</v>
+        <v>25.065528449384022</v>
       </c>
       <c r="CU155" s="44">
-        <v>54.371358356647669</v>
+        <v>54.342449877466336</v>
       </c>
       <c r="CV155" s="44">
-        <v>35.845042913870437</v>
+        <v>35.881546693359603</v>
       </c>
       <c r="CW155" s="44">
-        <v>36.47133326707754</v>
-      </c>
-      <c r="CX155" s="9"/>
+        <v>36.393725801569452</v>
+      </c>
+      <c r="CX155" s="44">
+        <v>25.394990442160363</v>
+      </c>
       <c r="CY155" s="9"/>
       <c r="CZ155" s="9"/>
       <c r="DA155" s="9"/>
@@ -41240,43 +41370,45 @@
       <c r="CK156" s="28">
         <v>30.449229789683656</v>
       </c>
-      <c r="CL156" s="28">
+      <c r="CL156" s="44">
         <v>44.246992347154077</v>
       </c>
-      <c r="CM156" s="28">
+      <c r="CM156" s="44">
         <v>24.990237501039267</v>
       </c>
-      <c r="CN156" s="28">
+      <c r="CN156" s="44">
         <v>36.423994245257198</v>
       </c>
-      <c r="CO156" s="28">
+      <c r="CO156" s="44">
         <v>30.738607221093545</v>
       </c>
       <c r="CP156" s="44">
-        <v>46.063752398868452</v>
+        <v>45.963562967870971</v>
       </c>
       <c r="CQ156" s="44">
-        <v>27.401086513518159</v>
+        <v>27.492178552693307</v>
       </c>
       <c r="CR156" s="44">
-        <v>33.641441567725003</v>
+        <v>33.967536694577937</v>
       </c>
       <c r="CS156" s="44">
-        <v>29.002003177835974</v>
+        <v>29.148793866402929</v>
       </c>
       <c r="CT156" s="44">
-        <v>46.010179820422202</v>
+        <v>45.908837377895566</v>
       </c>
       <c r="CU156" s="44">
-        <v>26.883713317383535</v>
+        <v>26.846602080717748</v>
       </c>
       <c r="CV156" s="44">
-        <v>35.309097481639832</v>
+        <v>35.605399045867117</v>
       </c>
       <c r="CW156" s="44">
-        <v>28.450495665863063</v>
-      </c>
-      <c r="CX156" s="9"/>
+        <v>28.555894993292824</v>
+      </c>
+      <c r="CX156" s="44">
+        <v>43.649797351696648</v>
+      </c>
       <c r="CY156" s="9"/>
       <c r="CZ156" s="9"/>
       <c r="DA156" s="9"/>
@@ -41572,43 +41704,45 @@
       <c r="CK157" s="28">
         <v>33.714310664091506</v>
       </c>
-      <c r="CL157" s="28">
+      <c r="CL157" s="44">
         <v>29.641335684723678</v>
       </c>
-      <c r="CM157" s="28">
+      <c r="CM157" s="44">
         <v>22.234736029885465</v>
       </c>
-      <c r="CN157" s="28">
+      <c r="CN157" s="44">
         <v>30.290195948982635</v>
       </c>
-      <c r="CO157" s="28">
+      <c r="CO157" s="44">
         <v>33.361513796494421</v>
       </c>
       <c r="CP157" s="44">
-        <v>30.283298533050605</v>
+        <v>30.169180993281042</v>
       </c>
       <c r="CQ157" s="44">
-        <v>20.690458832514974</v>
+        <v>20.578047444589252</v>
       </c>
       <c r="CR157" s="44">
-        <v>28.773988229041148</v>
+        <v>28.574727932556847</v>
       </c>
       <c r="CS157" s="44">
-        <v>33.516834554569783</v>
+        <v>33.258952963758276</v>
       </c>
       <c r="CT157" s="44">
-        <v>29.19497492061468</v>
+        <v>29.025634172720409</v>
       </c>
       <c r="CU157" s="44">
-        <v>18.744928325968782</v>
+        <v>18.810948041815919</v>
       </c>
       <c r="CV157" s="44">
-        <v>28.845859604489743</v>
+        <v>28.513054260773284</v>
       </c>
       <c r="CW157" s="44">
-        <v>35.078171067059401</v>
-      </c>
-      <c r="CX157" s="9"/>
+        <v>35.05037920513773</v>
+      </c>
+      <c r="CX157" s="44">
+        <v>30.955212206142985</v>
+      </c>
       <c r="CY157" s="9"/>
       <c r="CZ157" s="9"/>
       <c r="DA157" s="9"/>
@@ -41725,10 +41859,10 @@
       <c r="CI158" s="9"/>
       <c r="CJ158" s="9"/>
       <c r="CK158" s="9"/>
-      <c r="CL158" s="9"/>
-      <c r="CM158" s="9"/>
-      <c r="CN158" s="9"/>
-      <c r="CO158" s="9"/>
+      <c r="CL158" s="34"/>
+      <c r="CM158" s="34"/>
+      <c r="CN158" s="34"/>
+      <c r="CO158" s="34"/>
       <c r="CP158" s="34"/>
       <c r="CQ158" s="34"/>
       <c r="CR158" s="34"/>
@@ -41737,7 +41871,7 @@
       <c r="CU158" s="34"/>
       <c r="CV158" s="34"/>
       <c r="CW158" s="34"/>
-      <c r="CX158" s="9"/>
+      <c r="CX158" s="34"/>
       <c r="CY158" s="9"/>
       <c r="CZ158" s="9"/>
       <c r="DA158" s="9"/>
@@ -42033,16 +42167,16 @@
       <c r="CK159" s="28">
         <v>100</v>
       </c>
-      <c r="CL159" s="28">
+      <c r="CL159" s="44">
         <v>100</v>
       </c>
-      <c r="CM159" s="28">
+      <c r="CM159" s="44">
         <v>100</v>
       </c>
-      <c r="CN159" s="28">
+      <c r="CN159" s="44">
         <v>100</v>
       </c>
-      <c r="CO159" s="28">
+      <c r="CO159" s="44">
         <v>100</v>
       </c>
       <c r="CP159" s="44">
@@ -42069,7 +42203,9 @@
       <c r="CW159" s="44">
         <v>100</v>
       </c>
-      <c r="CX159" s="9"/>
+      <c r="CX159" s="44">
+        <v>100</v>
+      </c>
       <c r="CY159" s="9"/>
       <c r="CZ159" s="9"/>
       <c r="DA159" s="9"/>
@@ -42187,10 +42323,10 @@
       <c r="CI160" s="12"/>
       <c r="CJ160" s="12"/>
       <c r="CK160" s="12"/>
-      <c r="CL160" s="12"/>
-      <c r="CM160" s="12"/>
-      <c r="CN160" s="12"/>
-      <c r="CO160" s="12"/>
+      <c r="CL160" s="36"/>
+      <c r="CM160" s="36"/>
+      <c r="CN160" s="36"/>
+      <c r="CO160" s="36"/>
       <c r="CP160" s="36"/>
       <c r="CQ160" s="36"/>
       <c r="CR160" s="36"/>
@@ -42199,6 +42335,7 @@
       <c r="CU160" s="36"/>
       <c r="CV160" s="36"/>
       <c r="CW160" s="36"/>
+      <c r="CX160" s="36"/>
     </row>
     <row r="161" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
@@ -42290,10 +42427,10 @@
       <c r="CI161" s="26"/>
       <c r="CJ161" s="26"/>
       <c r="CK161" s="26"/>
-      <c r="CL161" s="26"/>
-      <c r="CM161" s="26"/>
-      <c r="CN161" s="26"/>
-      <c r="CO161" s="26"/>
+      <c r="CL161" s="35"/>
+      <c r="CM161" s="35"/>
+      <c r="CN161" s="35"/>
+      <c r="CO161" s="35"/>
       <c r="CP161" s="35"/>
       <c r="CQ161" s="35"/>
       <c r="CR161" s="35"/>
@@ -42302,7 +42439,7 @@
       <c r="CU161" s="35"/>
       <c r="CV161" s="35"/>
       <c r="CW161" s="35"/>
-      <c r="CX161" s="9"/>
+      <c r="CX161" s="35"/>
       <c r="CY161" s="9"/>
       <c r="CZ161" s="9"/>
       <c r="DA161" s="9"/>
@@ -42420,10 +42557,10 @@
       <c r="CI162" s="26"/>
       <c r="CJ162" s="26"/>
       <c r="CK162" s="26"/>
-      <c r="CL162" s="26"/>
-      <c r="CM162" s="26"/>
-      <c r="CN162" s="26"/>
-      <c r="CO162" s="26"/>
+      <c r="CL162" s="35"/>
+      <c r="CM162" s="35"/>
+      <c r="CN162" s="35"/>
+      <c r="CO162" s="35"/>
       <c r="CP162" s="35"/>
       <c r="CQ162" s="35"/>
       <c r="CR162" s="35"/>
@@ -42432,7 +42569,7 @@
       <c r="CU162" s="35"/>
       <c r="CV162" s="35"/>
       <c r="CW162" s="35"/>
-      <c r="CX162" s="9"/>
+      <c r="CX162" s="35"/>
       <c r="CY162" s="9"/>
       <c r="CZ162" s="9"/>
       <c r="DA162" s="9"/>
@@ -42550,10 +42687,10 @@
       <c r="CI163" s="14"/>
       <c r="CJ163" s="14"/>
       <c r="CK163" s="14"/>
-      <c r="CL163" s="14"/>
-      <c r="CM163" s="14"/>
-      <c r="CN163" s="14"/>
-      <c r="CO163" s="14"/>
+      <c r="CL163" s="37"/>
+      <c r="CM163" s="37"/>
+      <c r="CN163" s="37"/>
+      <c r="CO163" s="37"/>
       <c r="CP163" s="37"/>
       <c r="CQ163" s="37"/>
       <c r="CR163" s="37"/>
@@ -42562,6 +42699,7 @@
       <c r="CU163" s="37"/>
       <c r="CV163" s="37"/>
       <c r="CW163" s="37"/>
+      <c r="CX163" s="37"/>
     </row>
     <row r="164" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
@@ -42575,22 +42713,113 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="CD57:CG57"/>
-    <mergeCell ref="CD81:CG81"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD152:CG152"/>
-    <mergeCell ref="CD128:CG128"/>
-    <mergeCell ref="CD104:CG104"/>
-    <mergeCell ref="CD33:CG33"/>
-    <mergeCell ref="BV33:BY33"/>
-    <mergeCell ref="BJ81:BM81"/>
-    <mergeCell ref="BR152:BU152"/>
-    <mergeCell ref="BR128:BU128"/>
-    <mergeCell ref="BR104:BU104"/>
-    <mergeCell ref="BZ128:CC128"/>
-    <mergeCell ref="BZ104:CC104"/>
-    <mergeCell ref="BV152:BY152"/>
-    <mergeCell ref="BZ152:CC152"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BR81:BU81"/>
+    <mergeCell ref="BV81:BY81"/>
+    <mergeCell ref="BR57:BU57"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="R33:U33"/>
+    <mergeCell ref="V33:Y33"/>
+    <mergeCell ref="Z33:AC33"/>
+    <mergeCell ref="AD33:AG33"/>
+    <mergeCell ref="AH33:AK33"/>
+    <mergeCell ref="AL33:AO33"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF33:BI33"/>
+    <mergeCell ref="BJ33:BM33"/>
+    <mergeCell ref="BN33:BQ33"/>
+    <mergeCell ref="AL57:AO57"/>
+    <mergeCell ref="AP57:AS57"/>
+    <mergeCell ref="AT57:AW57"/>
+    <mergeCell ref="AX57:BA57"/>
+    <mergeCell ref="AP33:AS33"/>
+    <mergeCell ref="AT33:AW33"/>
+    <mergeCell ref="AX33:BA33"/>
+    <mergeCell ref="BB33:BE33"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="V57:Y57"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="R57:U57"/>
+    <mergeCell ref="AH57:AK57"/>
+    <mergeCell ref="Z57:AC57"/>
+    <mergeCell ref="BR33:BU33"/>
+    <mergeCell ref="AD57:AG57"/>
+    <mergeCell ref="BB57:BE57"/>
+    <mergeCell ref="BF57:BI57"/>
+    <mergeCell ref="BJ57:BM57"/>
+    <mergeCell ref="BF81:BI81"/>
+    <mergeCell ref="V104:Y104"/>
+    <mergeCell ref="Z104:AC104"/>
+    <mergeCell ref="AD104:AG104"/>
+    <mergeCell ref="AH104:AK104"/>
+    <mergeCell ref="AL104:AO104"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="R81:U81"/>
+    <mergeCell ref="V81:Y81"/>
+    <mergeCell ref="Z81:AC81"/>
+    <mergeCell ref="AD81:AG81"/>
+    <mergeCell ref="AH81:AK81"/>
+    <mergeCell ref="AL81:AO81"/>
+    <mergeCell ref="BB128:BE128"/>
+    <mergeCell ref="AP104:AS104"/>
+    <mergeCell ref="AT104:AW104"/>
+    <mergeCell ref="AX104:BA104"/>
+    <mergeCell ref="BB104:BE104"/>
+    <mergeCell ref="AT81:AW81"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="F104:I104"/>
+    <mergeCell ref="J104:M104"/>
+    <mergeCell ref="N104:Q104"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="AX81:BA81"/>
+    <mergeCell ref="BB81:BE81"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="N128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:Y128"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AG128"/>
+    <mergeCell ref="AH128:AK128"/>
+    <mergeCell ref="AL128:AO128"/>
+    <mergeCell ref="AP128:AS128"/>
+    <mergeCell ref="BB152:BE152"/>
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="F152:I152"/>
+    <mergeCell ref="J152:M152"/>
+    <mergeCell ref="N152:Q152"/>
+    <mergeCell ref="R152:U152"/>
+    <mergeCell ref="V152:Y152"/>
+    <mergeCell ref="Z152:AC152"/>
+    <mergeCell ref="AD152:AG152"/>
+    <mergeCell ref="AH152:AK152"/>
+    <mergeCell ref="AL152:AO152"/>
     <mergeCell ref="AT128:AW128"/>
     <mergeCell ref="AX128:BA128"/>
     <mergeCell ref="BV128:BY128"/>
@@ -42615,122 +42844,31 @@
     <mergeCell ref="BZ81:CC81"/>
     <mergeCell ref="BV104:BY104"/>
     <mergeCell ref="AP81:AS81"/>
-    <mergeCell ref="BB152:BE152"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="F152:I152"/>
-    <mergeCell ref="J152:M152"/>
-    <mergeCell ref="N152:Q152"/>
-    <mergeCell ref="R152:U152"/>
-    <mergeCell ref="V152:Y152"/>
-    <mergeCell ref="Z152:AC152"/>
-    <mergeCell ref="AD152:AG152"/>
-    <mergeCell ref="AH152:AK152"/>
-    <mergeCell ref="AL152:AO152"/>
-    <mergeCell ref="BB128:BE128"/>
-    <mergeCell ref="AP104:AS104"/>
-    <mergeCell ref="AT104:AW104"/>
-    <mergeCell ref="AX104:BA104"/>
-    <mergeCell ref="BB104:BE104"/>
-    <mergeCell ref="AT81:AW81"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="F104:I104"/>
-    <mergeCell ref="J104:M104"/>
-    <mergeCell ref="N104:Q104"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="AX81:BA81"/>
-    <mergeCell ref="BB81:BE81"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="J128:M128"/>
-    <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:Y128"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AG128"/>
-    <mergeCell ref="AH128:AK128"/>
-    <mergeCell ref="AL128:AO128"/>
-    <mergeCell ref="AP128:AS128"/>
-    <mergeCell ref="BF81:BI81"/>
-    <mergeCell ref="V104:Y104"/>
-    <mergeCell ref="Z104:AC104"/>
-    <mergeCell ref="AD104:AG104"/>
-    <mergeCell ref="AH104:AK104"/>
-    <mergeCell ref="AL104:AO104"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="N81:Q81"/>
-    <mergeCell ref="R81:U81"/>
-    <mergeCell ref="V81:Y81"/>
-    <mergeCell ref="Z81:AC81"/>
-    <mergeCell ref="AD81:AG81"/>
-    <mergeCell ref="AH81:AK81"/>
-    <mergeCell ref="AL81:AO81"/>
-    <mergeCell ref="V57:Y57"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="R57:U57"/>
-    <mergeCell ref="AH57:AK57"/>
-    <mergeCell ref="Z57:AC57"/>
-    <mergeCell ref="BR33:BU33"/>
-    <mergeCell ref="AD57:AG57"/>
-    <mergeCell ref="BB57:BE57"/>
-    <mergeCell ref="BF57:BI57"/>
-    <mergeCell ref="BJ57:BM57"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF33:BI33"/>
-    <mergeCell ref="BJ33:BM33"/>
-    <mergeCell ref="BN33:BQ33"/>
-    <mergeCell ref="AL57:AO57"/>
-    <mergeCell ref="AP57:AS57"/>
-    <mergeCell ref="AT57:AW57"/>
-    <mergeCell ref="AX57:BA57"/>
-    <mergeCell ref="AP33:AS33"/>
-    <mergeCell ref="AT33:AW33"/>
-    <mergeCell ref="AX33:BA33"/>
-    <mergeCell ref="BB33:BE33"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BR81:BU81"/>
-    <mergeCell ref="BV81:BY81"/>
-    <mergeCell ref="BR57:BU57"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="R33:U33"/>
-    <mergeCell ref="V33:Y33"/>
-    <mergeCell ref="Z33:AC33"/>
-    <mergeCell ref="AD33:AG33"/>
-    <mergeCell ref="AH33:AK33"/>
-    <mergeCell ref="AL33:AO33"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="CD57:CG57"/>
+    <mergeCell ref="CD81:CG81"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD152:CG152"/>
+    <mergeCell ref="CD128:CG128"/>
+    <mergeCell ref="CD104:CG104"/>
+    <mergeCell ref="CD33:CG33"/>
+    <mergeCell ref="BV33:BY33"/>
+    <mergeCell ref="BJ81:BM81"/>
+    <mergeCell ref="BR152:BU152"/>
+    <mergeCell ref="BR128:BU128"/>
+    <mergeCell ref="BR104:BU104"/>
+    <mergeCell ref="BZ128:CC128"/>
+    <mergeCell ref="BZ104:CC104"/>
+    <mergeCell ref="BV152:BY152"/>
+    <mergeCell ref="BZ152:CC152"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.11811023622047245" top="0.51181102362204722" bottom="0.15748031496062992" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="48" max="100" man="1"/>
-    <brk id="96" max="100" man="1"/>
-    <brk id="119" max="100" man="1"/>
+    <brk id="48" max="101" man="1"/>
+    <brk id="96" max="101" man="1"/>
+    <brk id="119" max="101" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2025\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0A8A3F-5709-4AFC-A380-EAAA10F1B1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F03DE2-8887-4D88-88B3-0DF31F43854D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -326,7 +326,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$CX$167</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$CY$167</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="57">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -635,13 +635,13 @@
     <t>2024 - 2025</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2025</t>
+    <t>As of August 2025</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2025</t>
+    <t>Q1 2000 to Q2 2025</t>
   </si>
   <si>
-    <t>As of May 2025</t>
+    <t>Q1 2001 to Q2 2025</t>
   </si>
 </sst>
 </file>
@@ -649,8 +649,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
@@ -737,11 +737,11 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -23676,22 +23676,22 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:DX165"/>
+  <dimension ref="A1:DX169"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CK3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="CQ3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
       <selection pane="topRight" activeCell="N19" sqref="N19"/>
       <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
-      <selection pane="bottomRight" activeCell="CX1" sqref="CX1"/>
+      <selection pane="bottomRight" activeCell="CY1" sqref="CY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.21875" style="1" customWidth="1"/>
     <col min="2" max="89" width="10.21875" style="1" customWidth="1"/>
-    <col min="90" max="102" width="10.109375" style="30" customWidth="1"/>
-    <col min="103" max="16384" width="7.77734375" style="1"/>
+    <col min="90" max="103" width="10.109375" style="30" customWidth="1"/>
+    <col min="104" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.2">
@@ -23706,7 +23706,7 @@
     </row>
     <row r="3" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:128" x14ac:dyDescent="0.2">
@@ -23716,7 +23716,7 @@
     </row>
     <row r="6" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:128" x14ac:dyDescent="0.2">
@@ -23879,6 +23879,7 @@
       <c r="CX9" s="31">
         <v>2025</v>
       </c>
+      <c r="CY9" s="31"/>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24186,6 +24187,9 @@
       </c>
       <c r="CX10" s="32" t="s">
         <v>6</v>
+      </c>
+      <c r="CY10" s="32" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24498,7 +24502,9 @@
       <c r="CX12" s="33">
         <v>227147.03567532424</v>
       </c>
-      <c r="CY12" s="9"/>
+      <c r="CY12" s="33">
+        <v>649488.79792762152</v>
+      </c>
       <c r="CZ12" s="9"/>
       <c r="DA12" s="9"/>
       <c r="DB12" s="9"/>
@@ -24830,9 +24836,11 @@
         <v>304419.92587018432</v>
       </c>
       <c r="CX13" s="33">
-        <v>355169.25954509323</v>
-      </c>
-      <c r="CY13" s="9"/>
+        <v>356493.25796198816</v>
+      </c>
+      <c r="CY13" s="33">
+        <v>365678.4104674671</v>
+      </c>
       <c r="CZ13" s="9"/>
       <c r="DA13" s="9"/>
       <c r="DB13" s="9"/>
@@ -25164,9 +25172,11 @@
         <v>330218.25333787821</v>
       </c>
       <c r="CX14" s="33">
-        <v>283202.85348992085</v>
-      </c>
-      <c r="CY14" s="9"/>
+        <v>283456.04302651162</v>
+      </c>
+      <c r="CY14" s="33">
+        <v>294128.46387731144</v>
+      </c>
       <c r="CZ14" s="9"/>
       <c r="DA14" s="9"/>
       <c r="DB14" s="9"/>
@@ -25295,7 +25305,7 @@
       <c r="CV15" s="34"/>
       <c r="CW15" s="34"/>
       <c r="CX15" s="34"/>
-      <c r="CY15" s="9"/>
+      <c r="CY15" s="34"/>
       <c r="CZ15" s="9"/>
       <c r="DA15" s="9"/>
       <c r="DB15" s="9"/>
@@ -25627,9 +25637,11 @@
         <v>1006280.0665269773</v>
       </c>
       <c r="CX16" s="35">
-        <v>865519.14871033828</v>
-      </c>
-      <c r="CY16" s="9"/>
+        <v>867096.33666382404</v>
+      </c>
+      <c r="CY16" s="35">
+        <v>1309295.6722724</v>
+      </c>
       <c r="CZ16" s="9"/>
       <c r="DA16" s="9"/>
       <c r="DB16" s="9"/>
@@ -25759,6 +25771,7 @@
       <c r="CV17" s="36"/>
       <c r="CW17" s="36"/>
       <c r="CX17" s="36"/>
+      <c r="CY17" s="36"/>
     </row>
     <row r="18" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
@@ -25863,7 +25876,7 @@
       <c r="CV18" s="35"/>
       <c r="CW18" s="35"/>
       <c r="CX18" s="35"/>
-      <c r="CY18" s="9"/>
+      <c r="CY18" s="35"/>
       <c r="CZ18" s="9"/>
       <c r="DA18" s="9"/>
       <c r="DB18" s="9"/>
@@ -26195,9 +26208,11 @@
         <v>550984.79364934284</v>
       </c>
       <c r="CX19" s="33">
-        <v>397743.95914504031</v>
-      </c>
-      <c r="CY19" s="9"/>
+        <v>398468.74609154515</v>
+      </c>
+      <c r="CY19" s="33">
+        <v>681176.09771199315</v>
+      </c>
       <c r="CZ19" s="9"/>
       <c r="DA19" s="9"/>
       <c r="DB19" s="9"/>
@@ -26327,6 +26342,7 @@
       <c r="CV20" s="37"/>
       <c r="CW20" s="37"/>
       <c r="CX20" s="37"/>
+      <c r="CY20" s="37"/>
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
@@ -26360,6 +26376,7 @@
       <c r="CV23" s="38"/>
       <c r="CW23" s="38"/>
       <c r="CX23" s="38"/>
+      <c r="CY23" s="38"/>
     </row>
     <row r="24" spans="1:128" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G24" s="9"/>
@@ -26383,6 +26400,7 @@
       <c r="CV24" s="38"/>
       <c r="CW24" s="38"/>
       <c r="CX24" s="38"/>
+      <c r="CY24" s="38"/>
     </row>
     <row r="25" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -26396,7 +26414,7 @@
     </row>
     <row r="27" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:128" x14ac:dyDescent="0.2">
@@ -26406,7 +26424,7 @@
     </row>
     <row r="30" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:128" x14ac:dyDescent="0.2">
@@ -26569,6 +26587,7 @@
       <c r="CX33" s="31">
         <v>2025</v>
       </c>
+      <c r="CY33" s="31"/>
     </row>
     <row r="34" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
@@ -26876,6 +26895,9 @@
       </c>
       <c r="CX34" s="32" t="s">
         <v>6</v>
+      </c>
+      <c r="CY34" s="32" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27188,7 +27210,9 @@
       <c r="CX36" s="33">
         <v>179078.27124608678</v>
       </c>
-      <c r="CY36" s="9"/>
+      <c r="CY36" s="33">
+        <v>535219.2836709714</v>
+      </c>
       <c r="CZ36" s="9"/>
       <c r="DA36" s="9"/>
       <c r="DB36" s="9"/>
@@ -27520,9 +27544,11 @@
         <v>251362.78977379182</v>
       </c>
       <c r="CX37" s="33">
-        <v>307805.99298854783</v>
-      </c>
-      <c r="CY37" s="9"/>
+        <v>308953.430826917</v>
+      </c>
+      <c r="CY37" s="33">
+        <v>309780.585269098</v>
+      </c>
       <c r="CZ37" s="9"/>
       <c r="DA37" s="9"/>
       <c r="DB37" s="9"/>
@@ -27854,9 +27880,11 @@
         <v>308530.37881327432</v>
       </c>
       <c r="CX38" s="33">
-        <v>218287.37839289647</v>
-      </c>
-      <c r="CY38" s="9"/>
+        <v>218482.53207690018</v>
+      </c>
+      <c r="CY38" s="33">
+        <v>234815.56752488678</v>
+      </c>
       <c r="CZ38" s="9"/>
       <c r="DA38" s="9"/>
       <c r="DB38" s="9"/>
@@ -27985,7 +28013,7 @@
       <c r="CV39" s="34"/>
       <c r="CW39" s="34"/>
       <c r="CX39" s="34"/>
-      <c r="CY39" s="9"/>
+      <c r="CY39" s="34"/>
       <c r="CZ39" s="9"/>
       <c r="DA39" s="9"/>
       <c r="DB39" s="9"/>
@@ -28317,9 +28345,11 @@
         <v>880248.33342758694</v>
       </c>
       <c r="CX40" s="35">
-        <v>705171.64262753108</v>
-      </c>
-      <c r="CY40" s="9"/>
+        <v>706514.23414990399</v>
+      </c>
+      <c r="CY40" s="35">
+        <v>1079815.436464956</v>
+      </c>
       <c r="CZ40" s="9"/>
       <c r="DA40" s="9"/>
       <c r="DB40" s="9"/>
@@ -28449,6 +28479,7 @@
       <c r="CV41" s="36"/>
       <c r="CW41" s="36"/>
       <c r="CX41" s="36"/>
+      <c r="CY41" s="36"/>
     </row>
     <row r="42" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
@@ -28553,7 +28584,7 @@
       <c r="CV42" s="35"/>
       <c r="CW42" s="35"/>
       <c r="CX42" s="35"/>
-      <c r="CY42" s="9"/>
+      <c r="CY42" s="35"/>
       <c r="CZ42" s="9"/>
       <c r="DA42" s="9"/>
       <c r="DB42" s="9"/>
@@ -28885,9 +28916,11 @@
         <v>481217.36059493828</v>
       </c>
       <c r="CX43" s="33">
-        <v>322468.12164427125</v>
-      </c>
-      <c r="CY43" s="9"/>
+        <v>323130.88091002707</v>
+      </c>
+      <c r="CY43" s="33">
+        <v>503113.20486701257</v>
+      </c>
       <c r="CZ43" s="9"/>
       <c r="DA43" s="9"/>
       <c r="DB43" s="9"/>
@@ -29017,6 +29050,7 @@
       <c r="CV44" s="37"/>
       <c r="CW44" s="37"/>
       <c r="CX44" s="37"/>
+      <c r="CY44" s="37"/>
     </row>
     <row r="45" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
@@ -29130,7 +29164,7 @@
       <c r="CV47" s="34"/>
       <c r="CW47" s="34"/>
       <c r="CX47" s="34"/>
-      <c r="CY47" s="9"/>
+      <c r="CY47" s="34"/>
       <c r="CZ47" s="9"/>
       <c r="DA47" s="9"/>
       <c r="DB47" s="9"/>
@@ -29259,7 +29293,7 @@
       <c r="CV48" s="34"/>
       <c r="CW48" s="34"/>
       <c r="CX48" s="34"/>
-      <c r="CY48" s="9"/>
+      <c r="CY48" s="34"/>
       <c r="CZ48" s="9"/>
       <c r="DA48" s="9"/>
       <c r="DB48" s="9"/>
@@ -29298,7 +29332,7 @@
     </row>
     <row r="51" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:120" x14ac:dyDescent="0.2">
@@ -29312,29 +29346,31 @@
       <c r="CU53" s="45"/>
       <c r="CV53" s="45"/>
       <c r="CX53" s="45"/>
+      <c r="CY53" s="45"/>
     </row>
     <row r="54" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CT54" s="45"/>
       <c r="CU54" s="45"/>
       <c r="CV54" s="45"/>
       <c r="CX54" s="45"/>
+      <c r="CY54" s="45"/>
     </row>
     <row r="55" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>23</v>
       </c>
       <c r="CT55" s="45"/>
-      <c r="CU55" s="45"/>
       <c r="CV55" s="45"/>
       <c r="CX55" s="45"/>
+      <c r="CY55" s="45"/>
     </row>
     <row r="56" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="CU56" s="45"/>
       <c r="CV56" s="45"/>
       <c r="CX56" s="45"/>
+      <c r="CY56" s="45"/>
     </row>
     <row r="57" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
@@ -29485,10 +29521,11 @@
       <c r="CT57" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="CU57" s="39"/>
+      <c r="CU57" s="31"/>
       <c r="CV57" s="39"/>
       <c r="CW57" s="39"/>
       <c r="CX57" s="39"/>
+      <c r="CY57" s="39"/>
     </row>
     <row r="58" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
@@ -29785,16 +29822,19 @@
       <c r="CT58" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="CU58" s="40"/>
+      <c r="CU58" s="40" t="s">
+        <v>7</v>
+      </c>
       <c r="CV58" s="40"/>
       <c r="CW58" s="40"/>
       <c r="CX58" s="40"/>
+      <c r="CY58" s="40"/>
     </row>
     <row r="59" spans="1:120" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
-      <c r="CU59" s="45"/>
       <c r="CV59" s="45"/>
       <c r="CX59" s="45"/>
+      <c r="CY59" s="45"/>
     </row>
     <row r="60" spans="1:120" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
@@ -30091,11 +30131,13 @@
       <c r="CT60" s="41">
         <v>9.0552716849802124</v>
       </c>
-      <c r="CU60" s="46"/>
+      <c r="CU60" s="41">
+        <v>-7.6845698784823213</v>
+      </c>
       <c r="CV60" s="46"/>
       <c r="CW60" s="41"/>
       <c r="CX60" s="46"/>
-      <c r="CY60" s="9"/>
+      <c r="CY60" s="46"/>
       <c r="CZ60" s="9"/>
       <c r="DA60" s="9"/>
       <c r="DB60" s="9"/>
@@ -30407,13 +30449,15 @@
         <v>5.9198703186781074</v>
       </c>
       <c r="CT61" s="41">
-        <v>2.1764964316425051</v>
-      </c>
-      <c r="CU61" s="46"/>
+        <v>2.5573895294647571</v>
+      </c>
+      <c r="CU61" s="41">
+        <v>7.6634950585253279</v>
+      </c>
       <c r="CV61" s="46"/>
       <c r="CW61" s="41"/>
       <c r="CX61" s="46"/>
-      <c r="CY61" s="9"/>
+      <c r="CY61" s="46"/>
       <c r="CZ61" s="9"/>
       <c r="DA61" s="9"/>
       <c r="DB61" s="9"/>
@@ -30725,13 +30769,15 @@
         <v>13.64881413765832</v>
       </c>
       <c r="CT62" s="41">
-        <v>14.541652956358746</v>
-      </c>
-      <c r="CU62" s="46"/>
+        <v>14.644055695861496</v>
+      </c>
+      <c r="CU62" s="41">
+        <v>16.724799980182084</v>
+      </c>
       <c r="CV62" s="46"/>
       <c r="CW62" s="41"/>
       <c r="CX62" s="46"/>
-      <c r="CY62" s="9"/>
+      <c r="CY62" s="46"/>
       <c r="CZ62" s="9"/>
       <c r="DA62" s="9"/>
       <c r="DB62" s="9"/>
@@ -30848,11 +30894,11 @@
       <c r="CR63" s="42"/>
       <c r="CS63" s="42"/>
       <c r="CT63" s="42"/>
-      <c r="CU63" s="47"/>
+      <c r="CU63" s="42"/>
       <c r="CV63" s="47"/>
       <c r="CW63" s="42"/>
       <c r="CX63" s="47"/>
-      <c r="CY63" s="9"/>
+      <c r="CY63" s="47"/>
       <c r="CZ63" s="9"/>
       <c r="DA63" s="9"/>
       <c r="DB63" s="9"/>
@@ -31164,13 +31210,15 @@
         <v>7.8260775043243598</v>
       </c>
       <c r="CT64" s="41">
-        <v>7.7670925360115319</v>
-      </c>
-      <c r="CU64" s="46"/>
+        <v>7.9634705830868029</v>
+      </c>
+      <c r="CU64" s="41">
+        <v>1.0892502504717783</v>
+      </c>
       <c r="CV64" s="46"/>
       <c r="CW64" s="41"/>
       <c r="CX64" s="46"/>
-      <c r="CY64" s="9"/>
+      <c r="CY64" s="46"/>
       <c r="CZ64" s="9"/>
       <c r="DA64" s="9"/>
       <c r="DB64" s="9"/>
@@ -31288,10 +31336,11 @@
       <c r="CR65" s="43"/>
       <c r="CS65" s="43"/>
       <c r="CT65" s="43"/>
-      <c r="CU65" s="48"/>
+      <c r="CU65" s="43"/>
       <c r="CV65" s="48"/>
       <c r="CW65" s="43"/>
       <c r="CX65" s="48"/>
+      <c r="CY65" s="48"/>
     </row>
     <row r="66" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
@@ -31392,11 +31441,11 @@
       <c r="CR66" s="41"/>
       <c r="CS66" s="41"/>
       <c r="CT66" s="41"/>
-      <c r="CU66" s="46"/>
+      <c r="CU66" s="41"/>
       <c r="CV66" s="46"/>
       <c r="CW66" s="41"/>
       <c r="CX66" s="46"/>
-      <c r="CY66" s="9"/>
+      <c r="CY66" s="46"/>
       <c r="CZ66" s="9"/>
       <c r="DA66" s="9"/>
       <c r="DB66" s="9"/>
@@ -31708,13 +31757,15 @@
         <v>8.8035513547393975</v>
       </c>
       <c r="CT67" s="41">
-        <v>7.5280477553042005</v>
-      </c>
-      <c r="CU67" s="46"/>
+        <v>7.723990204219632</v>
+      </c>
+      <c r="CU67" s="41">
+        <v>3.5121952858494296</v>
+      </c>
       <c r="CV67" s="46"/>
       <c r="CW67" s="41"/>
       <c r="CX67" s="46"/>
-      <c r="CY67" s="9"/>
+      <c r="CY67" s="46"/>
       <c r="CZ67" s="9"/>
       <c r="DA67" s="9"/>
       <c r="DB67" s="9"/>
@@ -31832,26 +31883,27 @@
       <c r="CR68" s="37"/>
       <c r="CS68" s="37"/>
       <c r="CT68" s="37"/>
-      <c r="CU68" s="32"/>
+      <c r="CU68" s="37"/>
       <c r="CV68" s="32"/>
       <c r="CW68" s="37"/>
       <c r="CX68" s="32"/>
+      <c r="CY68" s="32"/>
     </row>
     <row r="69" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="CU69" s="45"/>
       <c r="CV69" s="45"/>
       <c r="CX69" s="45"/>
+      <c r="CY69" s="45"/>
     </row>
     <row r="70" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CU70" s="45"/>
       <c r="CV70" s="45"/>
       <c r="CX70" s="45"/>
+      <c r="CY70" s="45"/>
     </row>
     <row r="71" spans="1:120" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="9"/>
@@ -31951,11 +32003,11 @@
       <c r="CR71" s="34"/>
       <c r="CS71" s="34"/>
       <c r="CT71" s="34"/>
-      <c r="CU71" s="49"/>
+      <c r="CU71" s="34"/>
       <c r="CV71" s="49"/>
       <c r="CW71" s="34"/>
       <c r="CX71" s="49"/>
-      <c r="CY71" s="9"/>
+      <c r="CY71" s="49"/>
       <c r="CZ71" s="9"/>
       <c r="DA71" s="9"/>
       <c r="DB71" s="9"/>
@@ -32072,11 +32124,11 @@
       <c r="CR72" s="34"/>
       <c r="CS72" s="34"/>
       <c r="CT72" s="34"/>
-      <c r="CU72" s="49"/>
+      <c r="CU72" s="34"/>
       <c r="CV72" s="49"/>
       <c r="CW72" s="34"/>
       <c r="CX72" s="49"/>
-      <c r="CY72" s="9"/>
+      <c r="CY72" s="49"/>
       <c r="CZ72" s="9"/>
       <c r="DA72" s="9"/>
       <c r="DB72" s="9"/>
@@ -32099,59 +32151,59 @@
       <c r="A73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CU73" s="45"/>
       <c r="CV73" s="45"/>
       <c r="CX73" s="45"/>
+      <c r="CY73" s="45"/>
     </row>
     <row r="74" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CU74" s="45"/>
       <c r="CV74" s="45"/>
       <c r="CX74" s="45"/>
+      <c r="CY74" s="45"/>
     </row>
     <row r="75" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CU75" s="45"/>
+        <v>54</v>
+      </c>
       <c r="CV75" s="45"/>
       <c r="CX75" s="45"/>
+      <c r="CY75" s="45"/>
     </row>
     <row r="76" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="CU76" s="45"/>
       <c r="CV76" s="45"/>
       <c r="CX76" s="45"/>
+      <c r="CY76" s="45"/>
     </row>
     <row r="77" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="CU77" s="45"/>
       <c r="CV77" s="45"/>
       <c r="CX77" s="45"/>
+      <c r="CY77" s="45"/>
     </row>
     <row r="78" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CU78" s="45"/>
+        <v>56</v>
+      </c>
       <c r="CV78" s="45"/>
       <c r="CX78" s="45"/>
+      <c r="CY78" s="45"/>
     </row>
     <row r="79" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="CU79" s="45"/>
       <c r="CV79" s="45"/>
       <c r="CX79" s="45"/>
+      <c r="CY79" s="45"/>
     </row>
     <row r="80" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="CU80" s="45"/>
       <c r="CV80" s="45"/>
       <c r="CX80" s="45"/>
+      <c r="CY80" s="45"/>
     </row>
     <row r="81" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
@@ -32302,10 +32354,11 @@
       <c r="CT81" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="CU81" s="39"/>
+      <c r="CU81" s="31"/>
       <c r="CV81" s="39"/>
       <c r="CW81" s="39"/>
       <c r="CX81" s="39"/>
+      <c r="CY81" s="39"/>
     </row>
     <row r="82" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
@@ -32602,16 +32655,19 @@
       <c r="CT82" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CU82" s="32"/>
+      <c r="CU82" s="32" t="s">
+        <v>7</v>
+      </c>
       <c r="CV82" s="32"/>
       <c r="CW82" s="32"/>
       <c r="CX82" s="32"/>
+      <c r="CY82" s="32"/>
     </row>
     <row r="83" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
-      <c r="CU83" s="45"/>
       <c r="CV83" s="45"/>
       <c r="CX83" s="45"/>
+      <c r="CY83" s="45"/>
     </row>
     <row r="84" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
@@ -32908,11 +32964,13 @@
       <c r="CT84" s="41">
         <v>8.2395958519470014</v>
       </c>
-      <c r="CU84" s="46"/>
+      <c r="CU84" s="41">
+        <v>-8.2207713757433112</v>
+      </c>
       <c r="CV84" s="46"/>
       <c r="CW84" s="41"/>
       <c r="CX84" s="46"/>
-      <c r="CY84" s="9"/>
+      <c r="CY84" s="46"/>
       <c r="CZ84" s="9"/>
       <c r="DA84" s="9"/>
       <c r="DB84" s="9"/>
@@ -33224,13 +33282,15 @@
         <v>5.4831564865872764</v>
       </c>
       <c r="CT85" s="41">
-        <v>1.5782930778772908</v>
-      </c>
-      <c r="CU85" s="46"/>
+        <v>1.9569561958460326</v>
+      </c>
+      <c r="CU85" s="41">
+        <v>7.5268032447804387</v>
+      </c>
       <c r="CV85" s="46"/>
       <c r="CW85" s="41"/>
       <c r="CX85" s="46"/>
-      <c r="CY85" s="9"/>
+      <c r="CY85" s="46"/>
       <c r="CZ85" s="9"/>
       <c r="DA85" s="9"/>
       <c r="DB85" s="9"/>
@@ -33542,13 +33602,15 @@
         <v>13.472880065924016</v>
       </c>
       <c r="CT86" s="41">
-        <v>13.937593325386217</v>
-      </c>
-      <c r="CU86" s="46"/>
+        <v>14.039456022385338</v>
+      </c>
+      <c r="CU86" s="41">
+        <v>16.323662135524032</v>
+      </c>
       <c r="CV86" s="46"/>
       <c r="CW86" s="41"/>
       <c r="CX86" s="46"/>
-      <c r="CY86" s="9"/>
+      <c r="CY86" s="46"/>
       <c r="CZ86" s="9"/>
       <c r="DA86" s="9"/>
       <c r="DB86" s="9"/>
@@ -33665,11 +33727,11 @@
       <c r="CR87" s="42"/>
       <c r="CS87" s="42"/>
       <c r="CT87" s="42"/>
-      <c r="CU87" s="47"/>
+      <c r="CU87" s="42"/>
       <c r="CV87" s="47"/>
       <c r="CW87" s="42"/>
       <c r="CX87" s="47"/>
-      <c r="CY87" s="9"/>
+      <c r="CY87" s="47"/>
       <c r="CZ87" s="9"/>
       <c r="DA87" s="9"/>
       <c r="DB87" s="9"/>
@@ -33981,13 +34043,15 @@
         <v>7.6732767621970623</v>
       </c>
       <c r="CT88" s="41">
-        <v>6.8353490959614192</v>
-      </c>
-      <c r="CU88" s="46"/>
+        <v>7.0387552247892131</v>
+      </c>
+      <c r="CU88" s="41">
+        <v>0.6239579549553298</v>
+      </c>
       <c r="CV88" s="46"/>
       <c r="CW88" s="41"/>
       <c r="CX88" s="46"/>
-      <c r="CY88" s="9"/>
+      <c r="CY88" s="46"/>
       <c r="CZ88" s="9"/>
       <c r="DA88" s="9"/>
       <c r="DB88" s="9"/>
@@ -34105,10 +34169,11 @@
       <c r="CR89" s="43"/>
       <c r="CS89" s="43"/>
       <c r="CT89" s="43"/>
-      <c r="CU89" s="48"/>
+      <c r="CU89" s="43"/>
       <c r="CV89" s="48"/>
       <c r="CW89" s="43"/>
       <c r="CX89" s="48"/>
+      <c r="CY89" s="48"/>
     </row>
     <row r="90" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
@@ -34209,11 +34274,11 @@
       <c r="CR90" s="41"/>
       <c r="CS90" s="41"/>
       <c r="CT90" s="41"/>
-      <c r="CU90" s="46"/>
+      <c r="CU90" s="41"/>
       <c r="CV90" s="46"/>
       <c r="CW90" s="41"/>
       <c r="CX90" s="46"/>
-      <c r="CY90" s="9"/>
+      <c r="CY90" s="46"/>
       <c r="CZ90" s="9"/>
       <c r="DA90" s="9"/>
       <c r="DB90" s="9"/>
@@ -34525,13 +34590,15 @@
         <v>7.715598933927879</v>
       </c>
       <c r="CT91" s="41">
-        <v>6.7625704357575671</v>
-      </c>
-      <c r="CU91" s="46"/>
+        <v>6.9819964132197896</v>
+      </c>
+      <c r="CU91" s="41">
+        <v>1.9958534047983534</v>
+      </c>
       <c r="CV91" s="46"/>
       <c r="CW91" s="41"/>
       <c r="CX91" s="46"/>
-      <c r="CY91" s="9"/>
+      <c r="CY91" s="46"/>
       <c r="CZ91" s="9"/>
       <c r="DA91" s="9"/>
       <c r="DB91" s="9"/>
@@ -34649,26 +34716,27 @@
       <c r="CR92" s="37"/>
       <c r="CS92" s="37"/>
       <c r="CT92" s="37"/>
-      <c r="CU92" s="32"/>
+      <c r="CU92" s="37"/>
       <c r="CV92" s="32"/>
       <c r="CW92" s="37"/>
       <c r="CX92" s="32"/>
+      <c r="CY92" s="32"/>
     </row>
     <row r="93" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="CU93" s="45"/>
       <c r="CV93" s="45"/>
       <c r="CX93" s="45"/>
+      <c r="CY93" s="45"/>
     </row>
     <row r="94" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CU94" s="45"/>
       <c r="CV94" s="45"/>
       <c r="CX94" s="45"/>
+      <c r="CY94" s="45"/>
     </row>
     <row r="95" spans="1:128" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="9"/>
@@ -34768,11 +34836,11 @@
       <c r="CR95" s="34"/>
       <c r="CS95" s="34"/>
       <c r="CT95" s="34"/>
-      <c r="CU95" s="49"/>
+      <c r="CU95" s="34"/>
       <c r="CV95" s="49"/>
       <c r="CW95" s="34"/>
       <c r="CX95" s="49"/>
-      <c r="CY95" s="9"/>
+      <c r="CY95" s="49"/>
       <c r="CZ95" s="9"/>
       <c r="DA95" s="9"/>
       <c r="DB95" s="9"/>
@@ -34897,11 +34965,11 @@
       <c r="CR96" s="34"/>
       <c r="CS96" s="34"/>
       <c r="CT96" s="34"/>
-      <c r="CU96" s="49"/>
+      <c r="CU96" s="34"/>
       <c r="CV96" s="49"/>
       <c r="CW96" s="34"/>
       <c r="CX96" s="49"/>
-      <c r="CY96" s="9"/>
+      <c r="CY96" s="49"/>
       <c r="CZ96" s="9"/>
       <c r="DA96" s="9"/>
       <c r="DB96" s="9"/>
@@ -34932,17 +35000,17 @@
       <c r="A97" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CU97" s="45"/>
       <c r="CV97" s="45"/>
       <c r="CX97" s="45"/>
+      <c r="CY97" s="45"/>
     </row>
     <row r="98" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CU98" s="45"/>
+        <v>54</v>
+      </c>
       <c r="CV98" s="45"/>
       <c r="CX98" s="45"/>
+      <c r="CY98" s="45"/>
     </row>
     <row r="100" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
@@ -34951,7 +35019,7 @@
     </row>
     <row r="101" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:128" x14ac:dyDescent="0.2">
@@ -35114,6 +35182,7 @@
       <c r="CX104" s="31">
         <v>2025</v>
       </c>
+      <c r="CY104" s="31"/>
     </row>
     <row r="105" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
@@ -35421,6 +35490,9 @@
       </c>
       <c r="CX105" s="32" t="s">
         <v>6</v>
+      </c>
+      <c r="CY105" s="32" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35733,7 +35805,9 @@
       <c r="CX107" s="44">
         <v>126.84232101123092</v>
       </c>
-      <c r="CY107" s="9"/>
+      <c r="CY107" s="44">
+        <v>121.35003684338434</v>
+      </c>
       <c r="CZ107" s="9"/>
       <c r="DA107" s="9"/>
       <c r="DB107" s="9"/>
@@ -36067,7 +36141,9 @@
       <c r="CX108" s="44">
         <v>115.38737634595296</v>
       </c>
-      <c r="CY108" s="9"/>
+      <c r="CY108" s="44">
+        <v>118.04432810074658</v>
+      </c>
       <c r="CZ108" s="9"/>
       <c r="DA108" s="9"/>
       <c r="DB108" s="9"/>
@@ -36399,9 +36475,11 @@
         <v>107.02941298941897</v>
       </c>
       <c r="CX109" s="44">
-        <v>129.73853805701157</v>
-      </c>
-      <c r="CY109" s="9"/>
+        <v>129.73853805701154</v>
+      </c>
+      <c r="CY109" s="44">
+        <v>125.25935438507008</v>
+      </c>
       <c r="CZ109" s="9"/>
       <c r="DA109" s="9"/>
       <c r="DB109" s="9"/>
@@ -36530,7 +36608,7 @@
       <c r="CV110" s="34"/>
       <c r="CW110" s="34"/>
       <c r="CX110" s="34"/>
-      <c r="CY110" s="9"/>
+      <c r="CY110" s="34"/>
       <c r="CZ110" s="9"/>
       <c r="DA110" s="9"/>
       <c r="DB110" s="9"/>
@@ -36862,9 +36940,11 @@
         <v>114.3177474257335</v>
       </c>
       <c r="CX111" s="44">
-        <v>122.73879101055998</v>
-      </c>
-      <c r="CY111" s="9"/>
+        <v>122.72878517545178</v>
+      </c>
+      <c r="CY111" s="44">
+        <v>121.2518017485196</v>
+      </c>
       <c r="CZ111" s="9"/>
       <c r="DA111" s="9"/>
       <c r="DB111" s="9"/>
@@ -36994,6 +37074,7 @@
       <c r="CV112" s="36"/>
       <c r="CW112" s="36"/>
       <c r="CX112" s="36"/>
+      <c r="CY112" s="36"/>
     </row>
     <row r="113" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
@@ -37098,7 +37179,7 @@
       <c r="CV113" s="35"/>
       <c r="CW113" s="35"/>
       <c r="CX113" s="35"/>
-      <c r="CY113" s="9"/>
+      <c r="CY113" s="35"/>
       <c r="CZ113" s="9"/>
       <c r="DA113" s="9"/>
       <c r="DB113" s="9"/>
@@ -37430,9 +37511,11 @@
         <v>114.49811223937346</v>
       </c>
       <c r="CX114" s="44">
-        <v>123.3436524258386</v>
-      </c>
-      <c r="CY114" s="9"/>
+        <v>123.31496914480769</v>
+      </c>
+      <c r="CY114" s="44">
+        <v>135.39221215472722</v>
+      </c>
       <c r="CZ114" s="9"/>
       <c r="DA114" s="9"/>
       <c r="DB114" s="9"/>
@@ -37562,6 +37645,7 @@
       <c r="CV115" s="37"/>
       <c r="CW115" s="37"/>
       <c r="CX115" s="37"/>
+      <c r="CY115" s="37"/>
     </row>
     <row r="116" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
@@ -37585,7 +37669,7 @@
     </row>
     <row r="122" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="124" spans="1:128" x14ac:dyDescent="0.2">
@@ -37595,7 +37679,7 @@
     </row>
     <row r="125" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:128" x14ac:dyDescent="0.2">
@@ -37758,6 +37842,7 @@
       <c r="CX128" s="31">
         <v>2025</v>
       </c>
+      <c r="CY128" s="31"/>
     </row>
     <row r="129" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
@@ -38065,6 +38150,9 @@
       </c>
       <c r="CX129" s="32" t="s">
         <v>6</v>
+      </c>
+      <c r="CY129" s="32" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38375,9 +38463,11 @@
         <v>36.932251734010826</v>
       </c>
       <c r="CX131" s="44">
-        <v>26.244021985392624</v>
-      </c>
-      <c r="CY131" s="9"/>
+        <v>26.196285933957284</v>
+      </c>
+      <c r="CY131" s="44">
+        <v>49.605968436478179</v>
+      </c>
       <c r="CZ131" s="9"/>
       <c r="DA131" s="9"/>
       <c r="DB131" s="9"/>
@@ -38709,9 +38799,11 @@
         <v>30.252007964427179</v>
       </c>
       <c r="CX132" s="44">
-        <v>41.035401709403089</v>
-      </c>
-      <c r="CY132" s="9"/>
+        <v>41.113454513440267</v>
+      </c>
+      <c r="CY132" s="44">
+        <v>27.929398852499027</v>
+      </c>
       <c r="CZ132" s="9"/>
       <c r="DA132" s="9"/>
       <c r="DB132" s="9"/>
@@ -39043,9 +39135,11 @@
         <v>32.815740301562002</v>
       </c>
       <c r="CX133" s="44">
-        <v>32.72057630520429</v>
-      </c>
-      <c r="CY133" s="9"/>
+        <v>32.690259552602448</v>
+      </c>
+      <c r="CY133" s="44">
+        <v>22.464632711022801</v>
+      </c>
       <c r="CZ133" s="9"/>
       <c r="DA133" s="9"/>
       <c r="DB133" s="9"/>
@@ -39174,7 +39268,7 @@
       <c r="CV134" s="34"/>
       <c r="CW134" s="34"/>
       <c r="CX134" s="34"/>
-      <c r="CY134" s="9"/>
+      <c r="CY134" s="34"/>
       <c r="CZ134" s="9"/>
       <c r="DA134" s="9"/>
       <c r="DB134" s="9"/>
@@ -39508,7 +39602,9 @@
       <c r="CX135" s="44">
         <v>100</v>
       </c>
-      <c r="CY135" s="9"/>
+      <c r="CY135" s="44">
+        <v>100</v>
+      </c>
       <c r="CZ135" s="9"/>
       <c r="DA135" s="9"/>
       <c r="DB135" s="9"/>
@@ -39638,6 +39734,7 @@
       <c r="CV136" s="36"/>
       <c r="CW136" s="36"/>
       <c r="CX136" s="36"/>
+      <c r="CY136" s="36"/>
     </row>
     <row r="137" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
@@ -39742,7 +39839,7 @@
       <c r="CV137" s="35"/>
       <c r="CW137" s="35"/>
       <c r="CX137" s="35"/>
-      <c r="CY137" s="9"/>
+      <c r="CY137" s="35"/>
       <c r="CZ137" s="9"/>
       <c r="DA137" s="9"/>
       <c r="DB137" s="9"/>
@@ -39872,7 +39969,7 @@
       <c r="CV138" s="35"/>
       <c r="CW138" s="35"/>
       <c r="CX138" s="35"/>
-      <c r="CY138" s="9"/>
+      <c r="CY138" s="35"/>
       <c r="CZ138" s="9"/>
       <c r="DA138" s="9"/>
       <c r="DB138" s="9"/>
@@ -40002,6 +40099,7 @@
       <c r="CV139" s="37"/>
       <c r="CW139" s="37"/>
       <c r="CX139" s="37"/>
+      <c r="CY139" s="37"/>
     </row>
     <row r="140" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
@@ -40115,7 +40213,7 @@
       <c r="CV142" s="34"/>
       <c r="CW142" s="34"/>
       <c r="CX142" s="34"/>
-      <c r="CY142" s="9"/>
+      <c r="CY142" s="34"/>
       <c r="CZ142" s="9"/>
       <c r="DA142" s="9"/>
       <c r="DB142" s="9"/>
@@ -40244,7 +40342,7 @@
       <c r="CV143" s="34"/>
       <c r="CW143" s="34"/>
       <c r="CX143" s="34"/>
-      <c r="CY143" s="9"/>
+      <c r="CY143" s="34"/>
       <c r="CZ143" s="9"/>
       <c r="DA143" s="9"/>
       <c r="DB143" s="9"/>
@@ -40283,7 +40381,7 @@
     </row>
     <row r="146" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="148" spans="1:128" x14ac:dyDescent="0.2">
@@ -40293,7 +40391,7 @@
     </row>
     <row r="149" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="150" spans="1:128" x14ac:dyDescent="0.2">
@@ -40456,6 +40554,7 @@
       <c r="CX152" s="31">
         <v>2025</v>
       </c>
+      <c r="CY152" s="31"/>
     </row>
     <row r="153" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
@@ -40763,6 +40862,9 @@
       </c>
       <c r="CX153" s="32" t="s">
         <v>6</v>
+      </c>
+      <c r="CY153" s="32" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:128" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -41073,9 +41175,11 @@
         <v>36.393725801569452</v>
       </c>
       <c r="CX155" s="44">
-        <v>25.394990442160363</v>
-      </c>
-      <c r="CY155" s="9"/>
+        <v>25.346732251128433</v>
+      </c>
+      <c r="CY155" s="44">
+        <v>49.565811489336056</v>
+      </c>
       <c r="CZ155" s="9"/>
       <c r="DA155" s="9"/>
       <c r="DB155" s="9"/>
@@ -41407,9 +41511,11 @@
         <v>28.555894993292824</v>
       </c>
       <c r="CX156" s="44">
-        <v>43.649797351696648</v>
-      </c>
-      <c r="CY156" s="9"/>
+        <v>43.729257797425362</v>
+      </c>
+      <c r="CY156" s="44">
+        <v>28.688290128842915</v>
+      </c>
       <c r="CZ156" s="9"/>
       <c r="DA156" s="9"/>
       <c r="DB156" s="9"/>
@@ -41741,9 +41847,11 @@
         <v>35.05037920513773</v>
       </c>
       <c r="CX157" s="44">
-        <v>30.955212206142985</v>
-      </c>
-      <c r="CY157" s="9"/>
+        <v>30.924009951446195</v>
+      </c>
+      <c r="CY157" s="44">
+        <v>21.74589838182105</v>
+      </c>
       <c r="CZ157" s="9"/>
       <c r="DA157" s="9"/>
       <c r="DB157" s="9"/>
@@ -41872,7 +41980,7 @@
       <c r="CV158" s="34"/>
       <c r="CW158" s="34"/>
       <c r="CX158" s="34"/>
-      <c r="CY158" s="9"/>
+      <c r="CY158" s="34"/>
       <c r="CZ158" s="9"/>
       <c r="DA158" s="9"/>
       <c r="DB158" s="9"/>
@@ -42206,7 +42314,9 @@
       <c r="CX159" s="44">
         <v>100</v>
       </c>
-      <c r="CY159" s="9"/>
+      <c r="CY159" s="44">
+        <v>100</v>
+      </c>
       <c r="CZ159" s="9"/>
       <c r="DA159" s="9"/>
       <c r="DB159" s="9"/>
@@ -42336,6 +42446,7 @@
       <c r="CV160" s="36"/>
       <c r="CW160" s="36"/>
       <c r="CX160" s="36"/>
+      <c r="CY160" s="36"/>
     </row>
     <row r="161" spans="1:128" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
@@ -42440,7 +42551,7 @@
       <c r="CV161" s="35"/>
       <c r="CW161" s="35"/>
       <c r="CX161" s="35"/>
-      <c r="CY161" s="9"/>
+      <c r="CY161" s="35"/>
       <c r="CZ161" s="9"/>
       <c r="DA161" s="9"/>
       <c r="DB161" s="9"/>
@@ -42570,7 +42681,7 @@
       <c r="CV162" s="35"/>
       <c r="CW162" s="35"/>
       <c r="CX162" s="35"/>
-      <c r="CY162" s="9"/>
+      <c r="CY162" s="35"/>
       <c r="CZ162" s="9"/>
       <c r="DA162" s="9"/>
       <c r="DB162" s="9"/>
@@ -42700,6 +42811,7 @@
       <c r="CV163" s="37"/>
       <c r="CW163" s="37"/>
       <c r="CX163" s="37"/>
+      <c r="CY163" s="37"/>
     </row>
     <row r="164" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
@@ -42710,6 +42822,34 @@
       <c r="A165" s="13" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="166" spans="1:128" x14ac:dyDescent="0.2">
+      <c r="CT166" s="45"/>
+      <c r="CU166" s="45"/>
+      <c r="CV166" s="45"/>
+      <c r="CX166" s="45"/>
+      <c r="CY166" s="45"/>
+    </row>
+    <row r="167" spans="1:128" x14ac:dyDescent="0.2">
+      <c r="CT167" s="45"/>
+      <c r="CU167" s="45"/>
+      <c r="CV167" s="45"/>
+      <c r="CX167" s="45"/>
+      <c r="CY167" s="45"/>
+    </row>
+    <row r="168" spans="1:128" x14ac:dyDescent="0.2">
+      <c r="CT168" s="45"/>
+      <c r="CU168" s="45"/>
+      <c r="CV168" s="45"/>
+      <c r="CX168" s="45"/>
+      <c r="CY168" s="45"/>
+    </row>
+    <row r="169" spans="1:128" x14ac:dyDescent="0.2">
+      <c r="CT169" s="45"/>
+      <c r="CU169" s="45"/>
+      <c r="CV169" s="45"/>
+      <c r="CX169" s="45"/>
+      <c r="CY169" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="147">
@@ -42866,9 +43006,9 @@
   <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="48" max="101" man="1"/>
-    <brk id="96" max="101" man="1"/>
-    <brk id="119" max="101" man="1"/>
+    <brk id="48" max="102" man="1"/>
+    <brk id="96" max="102" man="1"/>
+    <brk id="119" max="102" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>